--- a/abstract_em.xlsx
+++ b/abstract_em.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,38 +480,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>양근혁</t>
+          <t xml:space="preserve">정성민 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>대구</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Studies on the processing performance of rice flour and soy protein
-concentrate composites for high protein extruded noodles</t>
+          <t>Utilization of artificial intelligence combined with hyperspectral imaging for sweetener classification and predicting cookie quality</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A gluten-free diet can meet the needs of celiac patients as well as health-conscious consumers. With this trend, the demand for gluten-free food products has been rapidly increasing, but there are limited efforts to enhance the nutritional functionalities of gluten-free products by protein fortification. Soy protein concentrate (SPC) has been widely applied as a protein source to a variety of food products. However, there are insufficient investigations into the processing performance of SPC in gluten-free food products. RF-SPC composites were prepared by blending rice flour with SPC at different blending ratios. The composites were incorporated into the formulation of gluten-free extruded noodles, and their processing performances were investigated in terms of rheology, microstructure, and water mobility. The co thermo-mechanical properties of six different wheat cultivars and their blends to predictmposites with high levels of SPC showed lower enthalpy values and higher temperatures derived from starch gelatinization. In addition, they had lower values of the pasting viscosity and dynamic viscoelastic parameters. When the RF-SPC composites were incorporated into the formulation of extruded noodles, the noodles had higher Rmax and lower extensibility that were related to the water hydration properties of the RF-SPC composite flours. Furthermore, the increased values of spinspin relaxation time were observed in the extruded noodles prepared with more levels of SPC in the composites. As the high protein trend and the demand for a gluten-free diet have been rapidly growing in the global food market, the results obtained from this study may provide fundamental insights into the processing performance of protein-rich ingredients in gluten-free extruded noodles, probably promoting the development of a wider variety of protein-fortified, gluten-free products.</t>
+          <t>Artificial intelligence (AI) combined with hyperspectral imaging was utilized to classify the sweeteners (sucrose, fructose, allulose, and kestose) and predict their effects on cookie qualities. The hyperspectral spectra of the sweeteners in various forms (powder, solution, dough, and cookie) were captured, and they were subjected to different AI classifiers (decision tree, support vector machine, K[1]nearest neighbor, and stochastic gradient descent) to classify the sweeteners. Classification performance was lower with sweeteners in solution and dough forms across all models, but Bayesian optimization significantly improved the performance of the support vector machine and stochastic gradient descent models (accuracy&gt;0.9). For the prediction of cookie qualities, hyperspectral data of sweeteners in solution form were analyzed using a multilayer perceptron model. The cookie quality was precisely predicted by a systematic screening of nine individual hyperparameters and an investigation of their combined effects through a grid search. This optimization process was critical for accurately predicting the cookie spread factor, whereas predicting firmness was more straightforward.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.0103698, 0.025401104, 0.010060774, 0.015413976, 0.12662981, -0.004854036, -0.053938236, -0.01549105, 0.06069867, 0.056722432, -0.014023316, -0.101270206, -0.039084584, 0.09542818, 0.046148874, 0.047679678, -0.049310736, 0.04139261, 0.026698614, 0.045164455, 0.014436976, 0.0035139576, -0.05603858, 0.011497952, -0.024206443, 0.007194604, -0.004087638, -0.047889348, 0.07482288, -0.020976743, 0.04361127, -0.090012245, -0.034286838, -0.010566756, -0.0018521436, -0.03979583, 0.062310815, 0.057336375, 0.013908815, 0.0008987172, -0.0073933196, 0.05484166, 0.018368088, -0.038074687, -0.027937712, -0.03152048, -0.08755483, -0.07597911, -0.03529573, -0.0068822093, -0.012716247, 0.02495997, 0.026772125, 0.056568168, 0.028857352, 0.0005624296, -0.05387662, -0.039117176, -0.027566165, -0.006355652, 0.039842304, -0.04041759, -0.0322057, 0.012516089, -0.015704965, -0.0003927487, 0.026648905, 0.010350504, -0.027409216, 0.004477511, -0.02865366, -0.007837619, 0.060327973, -0.008506112, -0.064467415, -0.047987297, 0.015006749, -0.004497781, -0.062040586, 0.05363368, -0.025987018, -0.031098122, 0.041438363, -0.033570904, -0.021991357, 0.055197574, -0.03609006, 0.051655516, 0.028425429, 0.008911328, 0.0359501, 0.008608643, 0.087404594, 0.06782187, 0.04523201, 0.035506204, 0.018783882, 0.06828198, 0.045309298, 0.05200565, -0.016901027, -0.026707618, -0.042395495, 0.009139474, -0.0023607388, 0.013720468, 0.10123388, -0.028289508, 0.022663122, 0.0009596118, -0.10214578, -0.057429433, -0.009221882, -0.02356196, -0.043206703, 0.09573213, -0.050534543, 0.041364558, -0.001650072, 0.054553796, 0.010995066, 0.027445735, -0.0003018605, 0.03698718, 0.014850782, -0.00022906391, 0.074399166, -0.009073778, -0.02687569, -0.054473404, 0.023576727, 0.0514668, 0.0071492367, 0.12187621, -0.01727222, -0.044248726, -0.032100353, 0.0024448612, 0.041927412, 0.03081302, 0.016804283, 0.014466775, 0.05025611, -0.061539404, -0.03598232, 0.074620195, -0.009577038, 0.014760195, -0.04379762, 0.05800271, -0.0021004328, -0.0134815285, 0.018948497, 0.028391773, -0.07750632, -0.027495235, -0.025228264, 0.02414322, 0.048408944, -0.0110723665, -0.03712126, 0.009969057, -0.010009342, 0.030301813, -0.05220754, 0.035743024, 0.032067552, -0.020218113, -0.04565456, -0.08019547, -0.010120213, -0.005923621, 0.042004783, -0.026361443, -0.020462649, -0.0039032435, 0.014416074, -0.016471677, 0.034831885, -0.018313272, 0.042298213, -0.006493997, 0.002178942, -0.03909719, -0.026078802, -0.08492779, 0.06967221, -0.003943975, 0.055418823, 0.03396077, -0.08540775, 0.072792396, 0.022249775, -0.0427993, -0.015116156, 0.03323586, 0.025458148, -0.03403169, 0.0078171035, 0.006497538, 0.0020353007, 0.017319437, -0.00018591306, -0.05985583, 0.10519961, 0.0031278117, 0.03809191, 0.025329573, 0.008543939, 0.111804865, -0.093391575, -0.0055315276, -0.02977742, 0.05475561, 0.03926836, 0.009191586, -0.026273845, 0.04116952, -0.021954777, -0.036795802, 0.061347097, 0.029958056, -0.07306545, 0.049320918, -0.043146353, 0.01517027, 0.012032548, -0.034428015, -0.04093438, -0.043630034, 0.0042340932, -0.022993399, -0.0033041986, 0.004680286, 0.052292667, 0.026394766, 0.010625324, 0.024913017, 0.06307623, 0.07500343, -0.00026545866, -0.02345044, -0.010948492, 0.018371137, -0.025819426, -0.02578536, -0.02176365, -0.042184696, -0.06623601, -0.042399343, -0.08640048, 0.04479677, 0.06000022, 0.028735736, 0.011924236, -0.034471024, -0.0038923412, -0.006612398, -0.039567746, 0.027989496, 0.0071636043, 0.0024013948, -0.02725954, -0.034720354, -0.032946125, 0.030620689, -0.008010876, 0.06777305, -0.016939862, -0.070688754, -0.033681795, 0.06512726, 0.0564704, 0.026067736, -0.0019254163, -0.033338837, -0.030810973, -0.05532632, -0.025457026, -0.029511547, -0.06438798, -0.042511106, 0.03249717, -0.023664923, -0.047201723, -0.012139618, -0.048598293, 0.012852968, -0.03091079, -0.14349203, -0.011526815, -0.016653202, 0.030909339, 0.029673303, -0.06916377, 0.052021954, -0.03406248, 0.06090094, -0.050964948, -0.012205977, -0.028317602, -0.011253995, -0.031139525, 0.05757369, -0.01606306, 0.035053927, -0.02382895, -0.040125534, -0.02208163, -0.009833796, 0.005934548, -0.0002354444, -0.0011704332, 0.051567797, -0.035397273, 0.00321729, -0.05978607, 0.015360171, -0.052800726, -0.042385533, -0.019780401, 0.028954674, -0.002459277, 0.020041358, -0.07151728, 0.055100273, -0.022437263, 0.0021672272, -0.01874931, -0.008421344, 0.063649036, 0.013586181, -0.085740335, -0.025343375, -0.020510092, -0.07078169, -0.04161327, 0.0033452911, 0.032297667, 0.05558034, 0.013559515, -0.066300526, 0.06308316, 0.008422409, -0.047736038, 0.010752821, -0.0023576408, 0.093852155, -0.042080816, -0.021483066, -0.0008143497, -0.0055897776, 0.0027243977, -0.02219615, 0.055931278, 0.024696903, 0.0029807286, -0.085490406, -0.039317437, 0.007984826, 0.10210746, -0.005114661, 0.03079643, -0.026163442, 0.0133262165, -0.06795168, -0.08491778, -0.011741918, 0.064478725, 0.037020527, 0.03389473, 0.06822787, 0.014820321, 0.04488447, -0.03601038, 0.016750606, -0.011385153, 0.010167193, 0.013845498, -0.0015733785, 0.0045798803, -0.058081232, 0.013518264, -0.077484846, -0.046296563, -0.007789424, -0.06960296, 0.037962504, -0.07631503, -0.0070936508, 0.09793621, 0.029668769, 0.03689834, 0.0072762165, -0.038507286, 0.039002, -0.042682372, -0.00667642, 0.0082304515, -0.01396849, -0.016715469, -0.031754892, 0.004891703, -0.006727486, 0.004714742, 0.005082012, -0.095717885, -0.023203706, 0.03997747, -0.075490996, 0.01924915, -0.006941267, -0.03140713, 0.011852158, 0.06225185, -0.026236441, 0.0035512866, -0.0030305982, 0.024984358, -0.04451273, -0.027986504, 0.0042605554, -0.0030192381, 0.032035533, -0.00569618, -0.052763272, -0.011659103, -0.069076605, -0.02866168, -0.033585105, -0.03854567, 0.0064553637, -0.035339836, -0.0840197, 0.054708958, -0.01009171, 0.038658243, -0.006691942, -0.009350919, -0.02496468, -0.018104743, -0.043366693, -0.014273181, 0.076308444, -0.038148854, -0.045589194, 0.019045586, 0.048164226, -0.029607741, -0.033025727, -0.04372641, -0.019720852, 0.011619142, 0.054425932, -0.021705244, -0.07241135, 0.0022118832, 0.07089838, 0.026719669, -0.06547377, -0.035659105, 0.04719067, 0.04529621, -0.018019669, 0.049686763, -0.0085355295, -0.091061726, 0.026975982, 0.049013443, -0.06895061, 0.015653355, 0.08057353, 0.032746434, -0.0054101334, -0.03470971, 0.01176853, 0.027436368, -0.003433054, -0.03294477, -0.04180329, 0.018721765, -0.04858719, 0.022036055, -0.008014284, 0.009103355, -0.040310714, -0.0052990015, 0.0053809406, -0.024429161, -0.068282776, -0.021300968, 0.020692198, -0.0015735613, -0.06137232, 0.04954908, 0.05064203, 0.058119506, -0.003926647, 0.070112675, 0.006060015, 0.040783223, -0.012553165, -0.019624557, -0.0297766, 0.04219409, -0.015640622, -0.031942375, -0.009044276, -0.083158806, 0.015816832, -0.00578303, 0.015551075]</t>
+          <t>[-0.014169268, -0.027800627, 0.049457267, -0.035959046, 0.06126119, -0.02815013, 0.0122731365, -0.029236276, -0.036845226, 0.0127609, -0.043636456, 0.018928293, 0.046670437, 0.012176802, 0.0052596005, 0.02700345, 0.032075875, 0.050903488, -0.02729114, 0.01998947, -0.07094025, 0.057303645, -0.044227447, 0.049787924, 0.050062723, 0.054929905, -0.0011631919, -0.02276266, -0.07066304, 0.006172267, 0.02058375, -0.03428312, 0.022069646, 0.019242594, -0.009081659, 0.029692885, -0.06897442, 0.030123465, 0.01562584, -0.0042781658, 0.001812562, 0.018841282, -0.050936937, -0.022495665, -0.030827617, 0.031374034, 0.044104908, -0.004100324, 0.047938235, 0.016190823, 0.026030816, 0.0015741765, 0.022398133, 0.0028712745, 0.018856082, -0.012350827, -0.017095901, -0.055450223, 0.0069507333, 0.030178547, -0.053945404, 0.0072040893, 0.015685836, 0.008893931, 0.031022005, 0.023133256, 0.019859403, 0.055101734, 0.11116857, -0.054859616, -0.017557858, 0.009215152, -0.026835779, -0.013647489, -0.070114926, -0.092545085, -0.068225436, 0.0014308256, 0.0052354787, -0.022123689, -0.06177866, -0.028831914, 0.037891872, -0.003612688, -0.023339566, 0.04892415, -0.04990767, 0.043810107, 0.015052011, 0.16552411, 0.050088093, -0.015306767, 0.120590776, -0.010314436, 0.008825354, 0.057183623, 0.076475516, -0.065827414, 0.041284904, 0.05560538, 0.0028281547, 0.06390954, -0.110573635, 0.009632114, 0.02698353, 0.095925115, 0.099585295, 0.059390016, 0.0006951544, -0.022506393, 0.009345145, -0.062143426, 0.03885257, 0.05614877, -0.022220373, -0.023850825, 0.038149565, 0.06285415, 0.0012236381, 0.019423358, 0.063003674, -0.033842135, 0.0021064882, 0.06480602, -0.051636387, -0.012497983, -0.00042617126, -0.0060594175, 0.002586028, -0.06267216, 0.073292755, 0.05950806, -0.094853975, 0.013188754, -0.023391265, -0.03848506, -0.04509526, 0.052179992, 0.03984278, 0.07374945, -0.006425489, -0.033952545, 0.062819764, -0.037965104, 0.06646773, 0.0005508691, -0.059718985, -0.103482224, -9.577582e-05, 0.0008206722, 0.05095791, 0.07271934, 0.04335728, -0.04888248, -0.031206211, -0.03197443, 0.020250706, -0.007586113, -0.0037334543, -0.036868054, 0.08970875, -0.07317885, -0.01194014, -0.008368318, -0.006581837, 0.040028494, 0.00664196, 0.035057914, 0.020021655, 0.021395167, -0.007864453, -0.02147262, 0.03055893, 0.048902858, 0.053082686, -0.060944095, -0.056576226, -0.01768242, -0.022568103, 0.0063696676, 0.035850912, -0.04932139, 0.013258039, 0.0131928995, 0.021940375, 0.024286283, -0.06637558, -0.050837655, -0.010054329, 0.01638061, -0.12913519, 0.09038452, -0.017141422, -0.050648164, -0.03279939, 0.0023208067, 0.12484377, 0.0065223477, 0.111214235, 0.023688303, -0.050911818, -0.008254471, 0.05616717, -0.023043739, 0.06409313, 0.023622876, -0.03704142, 0.031226777, -0.031092595, -0.021242606, -0.023793101, -0.0432212, -0.03874815, 0.014860544, 0.017850881, -0.053464167, -0.01206536, -0.031305447, -0.007733881, 0.0005009523, -0.056587815, 0.019011723, -0.001292152, 0.054796185, -0.011630164, 0.02904821, 0.017441252, 0.01790921, -0.025303198, 0.0012342389, 0.011515357, -0.014326132, 0.006525573, 0.007368964, 0.017432606, -0.052907564, -0.06366129, 0.1253478, 0.02453204, 0.06846546, -0.009369422, 0.03628277, -0.10706985, 0.039706066, 0.107481636, -0.025418218, -0.003113347, 0.05801024, 0.021404412, -0.036288954, -0.08971901, -0.03427999, 0.005193514, -0.010525379, 0.012585897, 0.027024806, 0.021002833, -0.0005564717, 0.030250112, -0.050135784, 0.017248964, -0.015861103, 0.00091561174, 0.010920797, -0.043270897, -0.03218641, -0.010017667, 0.03740489, 0.008731668, 0.0107822735, -0.017976407, -0.032024663, 0.040401466, 0.0009492549, 0.033875242, 0.046123743, 0.008253345, -0.021406708, 0.049130812, -0.0681587, 0.07638492, -0.05776246, 0.022500534, 0.042998515, -0.010268121, -0.042507585, 0.008630655, -0.04830756, -0.039483868, 0.009701237, 0.0006343291, -0.06682839, 0.0073027373, 0.02215608, -0.019765405, 0.04755188, 0.0069439234, 0.022559801, 0.008862467, 0.0018600186, -0.03300017, 0.014383864, -0.00079534977, 0.015136083, -0.0046031345, 0.045984834, 0.02620789, -0.029798755, -0.0039502657, 0.03566368, -0.03886085, -0.06699543, 0.028604526, 0.055150017, -0.053093847, 0.08585974, -0.009804915, -0.020779958, 0.06679717, 0.04869586, -0.036415685, 0.046351295, 0.021619895, -0.09043339, -0.00019288436, 0.010009329, -0.11628528, -0.0015940724, -0.043288015, 0.061458383, -0.05559198, 0.0047171297, -0.058075078, -0.009113267, -0.0008989058, -0.037948713, -0.12590984, -0.012616723, -0.024248859, -0.06931183, -0.05778145, 0.038365584, 0.028944623, -0.010217053, 0.0358139, -0.025489349, 0.006706856, -0.016843934, -0.050082326, 0.037270214, -0.030350678, -0.017264651, -0.009241934, -0.029319935, -0.02282453, -0.10953992, 0.042148966, -0.02838014, 0.06672659, -0.09620347, 0.02689893, -0.07133733, 0.0061476766, 0.08601286, 0.05000784, -0.048101988, -0.035957385, -0.09784261, 0.0071689757, -0.010877363, 0.012627234, -0.031689055, 0.011323371, -0.07838954, 0.019753072, 0.015525238, 0.020738509, -0.018380282, 0.045096774, 0.048289888, 0.053880356, 0.0223296, 0.08674638, -0.0376289, -0.036238153, 0.0124199055, -0.102204025, -0.0021976745, -0.10188779, -0.030198196, -0.022495326, 0.058322437, 0.012854053, 0.031122139, 0.06726848, 0.083557785, -0.069398336, -0.027857378, -0.0048092464, 0.032790646, 0.035711944, -0.03618906, 0.07662301, -0.04195619, 0.010920133, -0.0015278754, 0.0795795, 0.020741604, -0.02183799, -0.026908707, -0.008980437, -0.0074118567, 0.027739506, -0.014939677, 0.061776917, 0.04142778, -0.010105105, -0.011359073, 0.013454262, -0.07466488, 0.008169564, 0.02982177, -0.0115592405, 0.028339311, -0.06905732, -0.027225016, 0.004043324, 0.000951388, 0.040833414, -0.10007191, 0.091527306, -0.0372373, 0.001942145, -0.025262428, -0.025014706, 0.027658096, 0.03358476, -0.06395239, 0.0072345147, 0.015462047, 0.007790602, -0.03217629, -0.009480582, -0.022430642, -0.04290562, 0.022330035, 0.018786421, -0.031783666, -0.016098185, -0.017616464, 0.0281419, 0.0076333834, 0.0027502924, 0.059696045, -0.04278026, -0.036222972, 0.030595638, -0.053324778, -0.034650266, -0.049608663, -0.044324048, 0.0014689285, -0.00029250048, 0.0345313, -0.055896077, -0.08413963, 0.0024281144, -0.02689434, 0.0047545973, 0.0041895355, 0.004271593, -0.005512945, 0.009253844, 0.027818417, -0.027172612, 0.008753041, 0.0048713204, -0.01468861, 0.013190598, -0.07431263, 0.0018511831, -0.0031175313, 0.05927062, -0.016948631, -0.02919752, 0.03611051, -0.043421865, 0.04792827, 0.013702831, 0.028419258, -0.04532648, 0.045772195, 0.03480169, 0.025271991, -0.010691593, 0.005218363, -0.05997948, -0.03281459, -0.023467286, -0.016089987, -0.033077028, -0.065783545, -0.0063625956, -0.010794106, 0.051290404, -0.05462263, -0.06452302, -0.05790826, -0.16246898, 0.037137978, -0.057625704, 0.0054444065]</t>
         </is>
       </c>
     </row>
@@ -520,38 +519,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>이다연</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>대구</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rheological performance of methylcellulose in a soy protein-based
-food system for meat analogue products</t>
+          <t>Machine learning-based hyperspectral analysis for the non-destructive classification of wheat flours with varying gluten contents</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hydrocolloids are extensively used as gelling, thickening, and stabilizing agents in the field of food science. Among numerous hydrocolloids, methylcellulose(MC) has received highlights due to its unique gel-forming property upon heating and cooling. So,it has been widely incorporated as a primary binding agent in the segment of meat analogues. There is, however, alack off undamental information on the processing performance of MC in a soy protein-based food system. In this study, MC was blended with soy protein concentrate(SPC) at different mass ratios. Their thermo-rheological properties were characterized using a control-stress rheometer and then correlated with their proton mobility measured by TD-NMR. MC showed an increase inviscosity during heating that was reduced upon cooling. When the MC were blended with SPC, synergistic effects were observed by showing different rheological patterns. Their flow behaviors were well-characterized by the power law model, showing n values between 0and1 (shear-thinningbehaviors). Also, all the samples exhibited the frequency-dependent viscoelastic properties and the MC-incorporated SPC had the highest values of storage modulus(G’) and loss modulus(G’’) among the samples. In addition, theTD-NMR analysis demonstrated that there were three components that seemed to be come longer with increasing levels of MC. The viscosity of MC distinctly increased with increasing temperatures, resulting in the formation of a thermo-reversible gel. The synergistic effects were also observed between MC and SPC by increasing viscosity in the ranges of shear rate and temperature tested. Also, the proton mobility of samples with MC was affected by the levels of MC added. Thus, this study may contribute to improving the quality attributes of soy protein-based meat analogues by providing their rheological information.</t>
+          <t>The quality attributes of wheat flour-based end products are well-recognized to be correlated with their contents of gluten. This study used hyperspectral imaging with machine learning to classify wheat flours with varying gluten strengths (strong, medium, and weak flours), contrasting with Mixolab and FTIR. Strong flour exhibited the highest values for Mixolab mixing properties, followed by medium and weak flour. FTIR analysis showed strong flour with high peaks in the protein domain, while weak wheat displayed dominant starch peaks. In the hyperspectral images, the weak flour exhibited lower hyperspectral signal intensity, while the strong flour showed slightly higher intensity beyond 1395 nm. Linear discriminant analysis effectively captured a substantial portion of the dataset using two discriminants (³99%). Mixolab analysis with three machine learning models (decision tree, random forest, and k-nearest neighbor) effectively classified wheat flours, while utilizing LDA hyperspectral data improved the classification performance of all the methods. As a result, this study offers the potential of employing hyperspectral analysis for wheat flour classification.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.023973288, 0.017635297, -0.03082556, 0.014869715, 0.102173045, 0.010008105, -0.01578268, -0.025184393, -0.0056741233, 0.035392426, -0.08861814, -0.035159558, -0.011820615, 0.051913247, -0.023405042, 0.04292096, -0.03080497, 0.056716785, -0.04268139, 0.02975175, -0.012382626, 0.011564128, -0.06189191, 0.022259407, 0.030931395, -0.025824858, 0.03767649, -0.016515149, -0.072911195, -0.059291523, 0.017329874, -0.011281539, 0.0070704254, 0.0062320246, -0.050394926, -0.05138535, 0.001142072, 0.08503425, 0.010578341, -0.01797693, 0.0013965054, 0.0041175643, -0.025165336, 0.01514083, -0.040699247, -0.012637951, 0.07196638, -0.038763203, -0.0018964149, -0.021203386, 0.05338927, -0.011592143, 0.025409015, 0.0044104992, 0.029240094, 0.0016344344, -0.089279726, -0.049171302, -0.010167994, -0.022784991, -0.055333912, 0.023366878, -0.046080086, -0.032967027, -0.041857507, -0.017379472, 0.006735193, 0.055268336, 0.0077296826, -0.01293709, -0.03210843, 0.035846855, -0.0248164, 0.07939202, -0.061919734, -0.025825351, 0.020446695, -0.08295068, -0.09709751, -0.025345402, -0.041189894, -0.03535164, 0.051523674, -0.058560774, -0.00658013, 0.05484624, 0.03670524, 0.0065183323, 0.010631572, -0.04683969, 0.019407302, 0.011302006, 0.10292924, 0.032408413, 0.0015389256, 0.0005149189, 0.034890283, 0.0946829, 0.013803686, 0.080796264, -0.0047761686, 0.08022296, -0.04729905, -0.0023445897, 0.011324467, 0.019884238, 0.044203226, -0.0070081423, 0.05802502, 0.030819498, -0.025633283, -0.07243511, 0.015955176, 0.019177219, -0.007407143, 0.054930758, -0.05570779, 0.007680249, 0.014119979, 0.0317066, 0.036531065, -0.050253585, 0.011851796, -0.022528905, 0.018533304, -0.0026317756, 0.06782233, 0.00940065, -0.027043305, -0.031773064, -0.01775188, 0.029961802, -0.036373097, 0.02408074, 0.012855527, -0.029334283, -0.05881293, -0.0026781778, 0.036976, -0.046432722, 0.0020295058, -0.02919468, 0.0090583535, -0.0730138, 0.0047838287, 0.10424967, -0.0465358, -0.016647242, -0.030305116, -0.004190815, -0.001996216, 0.024149155, -0.035805278, 0.08843518, -0.029287728, -0.054442167, -0.03746589, -0.020915067, -0.000529071, -0.010974817, 0.019967113, 0.028918406, -0.045556515, 0.031035932, 0.005056607, -0.029425021, 0.015750144, 0.008382243, -0.031062303, -0.017428387, -0.028711699, -0.03387896, 0.05427625, -0.021655181, -0.07451105, -0.030665928, -0.047738682, 0.009948044, -0.030811235, 0.020072663, 0.03145352, -0.018455194, 0.021212362, -0.06376561, -0.0014252793, -0.035367195, 0.0037905746, -0.004888369, -0.0015981374, 0.00013688626, -0.03328978, -0.024984898, -0.0037239436, -0.022350715, 0.0010461888, 0.062358785, -0.0124953, -0.062498245, 0.023872985, -0.006681724, -0.008998417, 0.009629127, 0.0818446, -0.01783437, 0.0072122184, -0.03772817, 0.024698645, 0.005939628, 0.015849277, 0.06556356, -0.051198307, 0.06793978, -0.020999389, 0.009786254, 0.073680125, 0.015659625, 0.033840265, -0.060680676, 0.01446684, 0.018807165, -0.08818995, 0.022665193, 0.0029644992, 0.0435051, 0.0051276493, 0.033812735, -0.012547187, -0.08287627, -0.0942255, 0.011557589, 0.014869071, -0.02805223, -0.0048064194, 0.03146145, 0.0029176492, 0.045656953, -0.008837136, -0.021192495, 0.05316129, 0.08775867, -0.0070567206, 0.018273793, 0.02413846, 0.00947332, 0.058584232, -0.01598345, 0.0047198012, -0.03238273, -0.0038121655, -0.030048253, -0.08817739, 0.015248726, -0.029181885, 0.02603, 0.033307232, 0.0011571978, -0.0032496576, 0.049470212, -0.09032017, -0.004196458, -0.016860966, 0.051913, 0.0050966316, -0.036702987, -0.035620224, 0.038281545, -0.0038074919, 0.100821175, 0.033530697, -0.009026796, -0.02564687, 0.010646405, 0.089274846, 0.019331193, -0.059556216, -0.08453249, 0.028841916, -0.013058966, 0.011802151, 0.02296593, -0.050558392, -0.07747845, -0.0101751285, -0.025481608, -0.0363616, -0.04292957, -0.0075494004, -0.0012254321, -0.064707905, -0.054480795, -0.045147374, -0.0702155, 0.006940261, -0.022909215, -0.031989776, 0.058981303, 0.033397768, 0.034543615, -0.0010804934, -0.05011543, -0.029298676, 0.00926015, 0.053549405, 0.042498734, -0.0108364895, 0.0141233215, 0.011076137, -0.034069717, -0.055173486, 0.08265353, -0.030917343, 0.0011413023, 0.027282305, 0.046492413, 0.014014485, -0.035912827, 0.019186664, 0.027577665, -0.023143487, 0.025222048, -0.0090712905, 0.073509604, -0.021363048, -0.009307919, -0.002473502, 0.0072983257, -0.07642521, -0.010607502, -0.008995482, 0.04362701, 0.004023431, -0.0017490595, 0.019050503, -0.046138808, -0.053756945, 0.016820291, -0.009631297, 0.01294618, -0.016835984, 0.014719488, -0.038391054, -0.032986227, 0.08649306, -0.01891234, -0.061835848, 0.0765367, 0.010973893, 0.14481062, 0.0024712975, 0.06647261, 0.007273292, 0.0069648167, 0.021790085, -0.047358774, -0.015095702, -0.026559995, 0.043160543, -0.03272797, 0.009014981, 0.00094945164, 0.08974962, -0.026447747, 0.0052391775, -0.0602377, -0.026033694, -0.08185814, -0.045924123, 0.01621444, -0.018143335, 0.0121851815, 0.06147123, 0.0076976186, 0.008475485, -0.0128295645, -0.068643175, -0.023861736, 0.012567749, 0.023584932, 0.024834005, -0.014098848, -0.01094485, -0.015891202, -0.0006814188, -0.030560853, -0.010602366, 0.020237496, -0.053997286, 0.064173535, -0.020764908, -0.039248444, 0.028943041, 0.027604736, 0.064575255, 0.011741027, -0.012843372, -0.019954365, 0.021343669, -0.0032969166, 0.05136147, 0.0029216758, 0.011948611, -0.010164853, -0.007981579, 0.01065709, -0.013377648, 0.04130828, -0.03640048, -0.04640176, -0.0041300454, 0.0015025842, 0.030619841, 0.016318448, -0.005684228, 0.08157343, 0.00023662671, 0.011243171, -0.013665776, -0.03405758, 0.03259105, -0.05258645, -0.03979571, 0.03657903, -0.02041921, -0.020377388, 0.037087355, 0.02291697, -0.004654773, -0.051957496, -0.03927715, -0.04896757, -0.00021647941, -0.0037476525, -0.0014852899, -0.024869187, -0.01939797, -0.0041411216, 0.017446266, -0.02619013, 0.024986366, -0.014998263, -6.155064e-05, -0.018197147, 0.057992686, 0.053104237, -0.01633602, 0.010622378, 0.012016571, 0.031016177, -0.010989246, 0.007750135, -0.05652444, -0.03889431, 0.0066263136, -0.0075377724, 0.043461174, -0.05028212, -0.042620946, 0.08829149, 0.03765136, -0.004194755, -0.012437911, -0.020379433, 0.04520689, 0.0058184047, 0.034728076, -0.020813905, 0.0001658483, 0.00015675242, 0.0027983666, -0.03590586, -0.057733666, 0.002069487, 0.0093620205, -0.0699986, -0.0062021986, -0.029030832, 0.023664374, 0.0032745588, -0.041622024, -0.0634633, 0.02593105, -0.049886595, 0.0704181, -0.04630422, -0.032792058, -0.023020564, 0.048315857, 0.011248671, 0.060689382, -0.034549873, -0.04097262, -0.0050884197, 0.0023269728, -0.073386624, -0.005695524, 0.025665438, -0.02952181, -0.020927155, 0.022540227, -0.012730611, 0.008289104, -0.03359156, -0.018063454, 0.045728814, 0.021091742, -0.02423945, 0.031497836, 0.018404603, -0.084512845, 0.028889187, -0.0070955446, -0.009826309]</t>
+          <t>[-0.008288232, -0.056337997, 0.06642273, 0.0036317895, 0.08323542, 0.027486494, -0.018149242, 0.017569272, 0.008308756, 0.068604015, -0.06848954, -0.038870327, 0.048723463, 0.04321241, -0.013206327, 0.018297473, 0.055017833, 0.10155905, 0.0052527953, 0.014059161, -0.0335371, 0.035109255, -0.06230147, -0.0024320309, 0.066115245, 0.004302832, 0.015791893, 0.0028115606, 0.017313221, -0.0011218833, 0.016277447, -0.030744003, 0.0003749864, 0.040165234, 0.043142676, 0.034442827, -0.0025091548, 0.0024724007, 0.02163443, 0.0024275924, 0.00765355, -0.053736437, -0.045716185, 0.06998466, -0.03115132, 0.02174649, -0.01139929, -0.04170736, -0.009958022, 0.044556685, 0.0002981003, 0.011018301, 0.031492308, 0.030984482, 0.04187352, -0.052256454, -0.043387346, -0.026649702, 0.001445673, 0.01218219, -0.07180295, 0.044268902, 0.017556505, -0.02971106, -0.032205757, -0.06406276, 0.043010652, -0.008222636, 0.005188791, 0.02788543, 0.016335117, -0.06277592, -0.010928816, -0.034925237, -0.05364035, -0.1017076, -0.0018795918, 0.067547, -0.05971527, -0.062856995, -0.049063228, -0.031963695, 0.05314859, -0.03171666, -0.0592851, 0.01390813, -0.034112703, 0.06806996, 0.01466076, 0.01569791, 0.030841386, -0.016162563, 0.101444416, 0.05995872, -0.015990155, 0.0733992, 0.11623908, 0.05462141, 0.026209477, 0.038626645, -0.03524574, 0.054850858, -0.01946756, 0.004300303, 0.0014501227, 0.013865097, 0.06619668, 0.012652751, 0.055005245, 0.024862777, 0.03191559, -0.06828297, 0.011909693, -0.035676714, 0.0052359733, 0.096763946, 0.007625835, 0.045539323, 0.0022280477, 0.07008087, 0.0131946355, -0.0005351062, -9.482051e-05, 0.086004905, 0.0041715973, 0.03872744, 0.031831797, -0.012671938, -0.015616872, -0.014053926, 0.033375967, 0.07092006, -0.01858549, -0.01265346, 0.039521217, -0.0013372963, -0.0052617453, -0.00094896177, 0.0032073404, 0.019264553, 0.017328829, -0.026320681, 0.016298445, -0.06629485, 0.010823103, 0.014732614, -0.072704524, -0.041620545, -0.028300038, -0.054664988, -0.019544229, 0.027720902, 0.037461743, 0.0073853694, -0.0016714156, -0.03850587, 0.009160993, -0.03159461, -0.00571279, -0.0837307, 0.021005409, 0.014997479, 0.028989524, 0.036057558, 0.01502846, -0.0045616585, 0.029077312, 0.008932832, -0.04151915, 0.03211834, -0.007009122, 0.0022790113, -0.0039215917, 0.002574812, 0.02091831, -0.002597464, -0.006428816, -0.12293835, 0.05874153, -0.056058656, 0.044552132, -0.10908182, -0.021314438, -0.037223198, 0.019456323, -0.04347724, 0.014163792, -0.045520924, 0.02929997, 0.07610639, -0.12152862, 0.10560341, 0.04388314, -0.01188066, 0.016182318, 0.022791713, 0.043559264, -0.024047773, 0.07011095, 0.07821121, 0.014383896, 0.055511203, 0.052300032, -0.026916793, 0.0716513, -0.012023544, -0.011611289, 0.06765152, 0.047159642, 0.025666108, -0.024651328, -0.011332222, -0.0034128558, 0.014700467, -0.011761829, -0.024170341, 0.015369384, -0.029305847, -0.043510314, -0.0061777392, -0.026435561, 0.01892486, -0.0016512785, 0.050219573, 0.009975816, 0.036433186, 0.046159253, -0.0035293635, -0.0015360194, -0.005184507, 0.03879355, -0.026589243, 0.0003708042, 0.02484856, -0.0172, 0.05300588, -0.011695657, 0.019874912, 0.029436154, 0.054399192, -0.036053948, 0.02790384, 0.050267883, 0.068368986, 0.06727705, -0.00041450476, 0.023667006, -0.025537986, -0.052038815, -0.012809193, -0.047346324, 0.029497292, 0.023562366, -0.07636768, 0.02304189, 0.036356043, 0.008590999, -0.05789042, -0.08566766, -0.055486456, 0.03870847, -0.031073103, -0.008472552, -0.049454883, 0.0109868245, 0.032840353, 0.0059650643, -0.0055228057, 0.018251233, 0.0069489023, 0.01637331, 0.03678275, -0.027954593, 0.020036537, -0.02807961, 0.04357324, 0.02649899, -0.09804996, 0.028516185, -0.113318905, 0.013351477, -0.047766548, 0.030887205, -0.03988097, 0.037298582, -0.03717277, -0.14318633, -0.020629663, -0.0019075952, -0.015439175, -0.05242672, -0.010265615, -0.02084324, 0.0015223469, -0.038500525, 0.057989053, -0.001122666, 0.099284805, -0.045174435, -0.017972192, -0.035603296, -0.0027226794, 0.03886722, 0.014388721, -0.026716065, -0.048467588, 0.028420167, 0.04271012, 0.034873527, 0.0024247093, -0.0020467285, -0.035717703, 0.043089733, 0.02943078, -0.012243442, 0.055208955, 0.06211293, -0.06266953, 0.01512928, -0.04310223, -0.01928678, 0.05955932, -0.008841699, -0.011549486, 0.0154127, 0.03865283, -0.021279316, 0.0027803397, -0.0630799, 0.041451633, -0.012126032, -0.009316907, 0.061267182, -0.0156016145, 0.0027099764, -0.024102213, -0.004676377, -0.0027189662, -0.018089417, -0.022804078, -0.055918355, 0.03236898, 0.064944305, 0.04947395, -0.03337182, 0.015585661, -0.007034171, -0.00935554, -0.029989542, -0.035484407, -0.0016276408, 0.027162911, -0.003850073, -0.030986324, -0.029418712, -0.074616574, -0.009788744, -0.061015025, 0.014909342, -0.019374978, 0.019363772, -0.04173852, 0.04680016, 0.010092907, 0.08378291, -0.025068363, -0.033310346, -0.052185886, -0.0112187, 0.0014008589, 0.039086703, 0.009261332, -0.035509795, 0.026448414, -0.015404982, 0.04105281, 0.00045225464, 0.048049934, 0.070942655, -0.0028103462, -0.03411308, -0.005947568, 0.026357848, -0.09648617, 0.034248214, 0.049459834, -0.026760329, 0.0001419459, -0.03226896, -0.06345926, 0.044757944, 0.06415618, 0.03227903, 0.037804082, -0.018074276, 0.08148812, -0.06629565, -0.019126885, -0.046232276, 0.013874294, 0.013709363, -0.026316462, -0.008305947, 0.013649336, 0.013931366, -0.015422747, 0.01685701, -0.03432498, -0.00091960595, -0.077019334, 0.038395923, 0.029516743, 0.052668348, 0.04041205, 0.0036045315, 0.00021829293, -0.035820883, 0.072797805, 0.043802097, -0.04990651, -0.021160537, 0.057384457, -0.0137175815, 0.06850627, -0.07675265, -0.036080133, 0.03020122, -0.0044266805, -0.013989966, -0.07113516, -0.014746323, -0.057179768, -0.044710062, -0.03994726, -0.012939013, 0.024066988, -0.01820797, -0.013593626, 0.046552543, -0.0148678245, -0.02560967, -0.058552597, -0.032419853, -0.0035462333, -0.06771678, 0.029055739, -0.01946905, 0.04890391, -0.04857126, -0.021482192, -0.008118743, -0.007498777, 0.015743088, 0.03382312, 0.027359724, -0.054793328, 0.013271425, -0.00505344, -0.0015002962, -0.017935116, -0.057546496, -0.011589077, 0.09839799, 0.0020048756, -0.027790489, -0.013927885, -0.008508412, -0.023563687, -0.030206298, 0.009269276, 0.003967628, -0.0045616967, 0.04598416, -0.03787846, -0.0011199005, -0.011395989, 0.03715234, 0.017091492, 0.087418064, -0.04922527, -0.022621628, -0.07371533, 0.07108061, 0.033706788, -0.009177007, 0.046111852, -0.012380785, 0.059934516, 0.003488505, -0.026393509, -0.030082962, -0.021485124, -0.0104027055, 0.005981209, 0.025576541, 0.05035606, -0.005121043, -0.018618679, -0.002666158, -0.031269096, -0.01325916, -0.017352192, 0.0017069655, 0.02236138, 0.08204726, -0.010718328, -0.024040759, 0.016884623, -0.12347305, -0.000628313, -0.050107628, -0.022563184]</t>
         </is>
       </c>
     </row>
@@ -560,38 +558,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>권혁진</t>
+          <t>윤수인</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>대구</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Machine-learning prediction models for rheological characteristics
-of fresh noodles from thermo-mechanical features of wheat flour</t>
+          <t>Combination of machine learning and rheological analysis for predicting the melt-stretching properties of cheese analogues</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Several attempts have been made to correlate the physicochemical characteristics of wheat flours and the rheological properties of their corresponding noodles. However, most of the precedent studies focused on a single parameter or relied on simple statistical modeling for their correlations. Thus, in this study, an artificial intelligence approach incorporating multiple thermo-mechanical properties of wheat flours was applied to forecast the rheological properties of noodles. Fresh noodles were prepared with six different wheat cultivars and their blends. Their extensional features (maximum resistance to extension and extensibility) were correlated with the Mixolab properties of the corresponding flour blends. An exhaustive searching method was applied to select appropriate sets of thermo-mechanical parameters for constructing multilayer perceptron prediction models. The performances of built models were evaluated and ameliorated under four different hyperparameter settings (optimizer, dropout rate, activation function, and the number of hidden layers). The thermo-mechanical property of wheat flours did not solely manifest the extensional properties of the corresponding fresh noodles (R2&lt;0.6). The most influential sets of Mixolab features explaining noodle extensional behaviors turned out to be C2, C3, dough stability, and development time for Rmax, and C2, C3, C5, water absorption, dough stability, and development time for extensibility. Machine learning models constructed with the optimized parameter sets displayed superb performances (R2=0.9313-0.9049 and 0.9515-0.8872 for Rmax and extensibility, respectively) compared to two statistical regression models (linear and quadratic polynomial regressions) after hyperparametertuning. Thus, it seemed that the machine learning technique could be used as a useful means to forecast the rheological properties of wheat flour-based food products, possibly encouraging the food industry to efficiently control the quality attributes of products. Machine learning prediction models were constructed on the basis of thermo-mechanical properties of six different wheat cultivars and their blends to predict the extensional features of the corresponding noodles. Appropriate hyperparameter-tuning successfully improved machine learning models to outperform two traditional statistical models.</t>
+          <t>Plant-based alternative foods have become a global trend due to increasing concerns about environmental sustainability and healthy diets and cheese analogues are no exceptions. Although melt-stretching properties are important characteristics of plant-based cheese analogues, they are not addressed in most preceding studies. Thus, the rheological properties of nine different starches were experimentally measured and were applied as machine learning datasets for predicting the melt-stretching properties of cheese analogues. Linear discriminant analysis showed that starches with desirable melt-stretching properties were well clustered. Additionally, when a binary classification model was applied to predict their stretchability, a high accuracy was obtained. The cheese analogue samples made with these clustered starches had good melt-stretching properties. This study demonstrated the possibility of using AI-combined rheological methods to search for proper starches that can create plant-based cheese analogues with excellent melt-stretching properties</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.008206202, -0.016185155, 0.033442665, -0.01637953, 0.06744373, 0.037520662, -0.053830117, 0.074201494, 0.038244843, 0.019313741, -0.020762831, 0.007477164, -0.021717932, 0.041548453, -0.015004092, 0.007611067, 0.024468498, 0.036382783, 0.023447346, -0.01832426, -0.09734429, -0.010741417, -0.05961232, 0.0077638393, 0.101687, 0.02966208, 0.04675649, -0.007395181, -0.018674606, -0.0031555658, 0.03709458, -0.013258649, 0.04641298, -0.041248735, -0.0037072604, -0.03157573, 0.015810804, -0.012333331, 0.058941502, -0.04300848, -0.07072331, -0.00194751, -0.09591319, 0.01916829, -0.0007011456, -0.024761936, 0.022209132, 0.017559858, -0.06971724, 0.0095512485, -0.025727566, -0.01482028, 0.027527485, 0.037049152, 0.016447663, -0.0012280642, -0.085397825, 0.028702281, 0.017709829, 0.0447102, -0.08300797, 0.0011948311, -0.033245895, -0.030234817, -0.016359253, 0.0336483, 0.07067856, -0.017623218, -0.013370344, 0.007176634, 0.030467173, -0.029308729, -0.02029053, 0.054114364, -0.039346278, -0.02857385, -0.014865074, 0.020798512, -0.018916575, -0.02668554, -0.035704806, -0.045892723, 0.03839859, -0.00918806, -0.060836267, 0.055496894, -0.023556735, 0.062468212, -0.014699889, -0.062542684, 0.016422635, -0.017966298, 0.12366575, 0.02171587, 0.009327161, -0.0015887046, 0.11964734, 0.06400293, 0.025022946, 0.025688728, -0.037596524, 0.093872175, 0.02856063, -0.027898032, 0.05741765, -0.021340176, 0.058541436, 0.009796797, -0.0061936053, 0.016857577, -0.0198983, -0.066944055, -0.010948894, -0.051192634, 0.02417662, 0.02578814, 0.021459743, 0.04046697, 0.0056296214, 0.095018536, 0.028113814, -0.033841252, 0.020773219, 0.08849295, -0.0028276164, -0.025324149, 0.030679183, 0.033911668, -0.026157793, -0.008337435, 0.019746361, 0.03194019, 0.026552957, -0.008139387, 0.011793413, -0.020968655, 0.008503821, 0.0052239653, 0.032548532, -0.028104372, 0.022802081, 0.010511797, 0.045058336, -0.05567508, 0.07914048, 0.0045884433, -0.03093404, -0.06920916, -0.0076302323, 0.0015412493, 0.03304822, 0.024829267, 0.014702786, -0.026859181, -0.031390168, -0.048137758, -0.015701493, -0.0132158715, -0.040667284, 0.01131353, -0.0013978174, -0.066085786, -0.02590652, 0.053925104, 0.015720988, -0.032637373, 0.07025302, 0.047017753, 0.011037332, 0.09634523, -0.015045755, -0.028043427, 0.025094707, -0.0051253545, 0.01622286, -0.013509337, -0.016452156, -0.066291966, 0.0961703, -0.026888978, 0.019472687, -0.10491533, -0.009644293, -0.013408192, 0.018756678, -0.060616415, -0.0118968645, -0.011272464, -0.015419461, 0.050002307, -0.083633386, -0.0073818546, 0.033944298, -0.036030483, 0.018146597, 0.036619525, 0.07296312, -0.0026497438, 0.10292103, 0.10497447, 0.11046326, 0.016557489, 0.047925413, -0.009613013, 0.028786015, 0.03917008, 0.012772463, -0.0030304387, 0.013936221, 0.0070618736, -0.02241769, 0.016760254, 0.005295732, -0.016693389, 0.06980172, 0.00041994962, 0.032435894, -0.064063706, 0.016937211, 0.020508632, 0.025456185, 0.02618557, 0.07151558, 0.037823267, -0.053060424, 0.022757644, 0.013890877, 0.00040807013, -0.016951893, 0.004500994, -0.008922273, -0.042867783, 0.025778145, -0.04130128, 0.02591907, 0.049875118, -0.042757675, 0.010101051, 0.013766663, 0.047707234, -0.042137306, 0.06619408, 0.046860736, 0.07310791, -0.0036615238, -0.07809798, -0.047654964, -0.036392163, -0.04951461, -0.0047024474, -0.025615651, 0.032851726, -0.05352116, -0.06208457, 0.007804636, 0.041973844, -0.013656318, -0.039394952, -0.083945945, -0.00680519, 0.024526438, -0.068532586, -0.021325197, 0.015354259, -0.0005756951, -0.0040728194, 0.0023027447, -0.010925194, 0.013732907, 0.028691363, -0.023864174, -0.025486331, 0.021999475, 0.050064813, -0.013978112, 0.05534393, -0.018363137, -0.06946134, 0.012472811, 0.024535008, -0.053572264, -0.011421563, 0.027366072, -0.09249359, 0.025997953, -0.061312493, -0.081785016, -0.0050443998, -0.040817045, -0.023268672, -0.0063056597, 0.0022695283, 0.0611501, 0.05219125, -0.0387802, 0.041833468, -0.043795932, 0.035203297, 0.006763303, -0.021503005, 0.05398024, 0.0033786264, 0.0004938007, 0.04565771, -0.0041931607, -0.030757101, -0.036145296, -0.004659352, 0.02254478, 0.04599447, -0.0306302, -0.008839873, -0.012927808, 0.04051027, -0.04787203, 0.053793766, 0.0047337124, -0.028106177, 0.0014021201, -0.10193781, 0.01493082, 0.06373433, -0.009816734, 0.021856043, -0.014458183, 0.09945547, -0.029236617, 0.02079698, -0.03643101, 0.07457129, -0.05323323, -0.008090137, -0.008213494, 0.01871085, -0.044318825, -0.046378005, -0.04006555, -0.040782847, -0.0031831022, 0.017694535, -0.053224918, -0.018142074, -0.0038895959, 0.0441372, -0.039897878, 0.048356246, 0.06533479, -0.030143404, -0.065146714, -0.01783704, -0.07418443, -0.02307299, 0.005731949, -0.00891479, 0.0041375444, 0.0057039205, 0.00039665445, -0.034590263, 0.0008589863, -0.013041988, -0.01490219, -0.07278004, 0.010972111, -0.049414065, -0.017513447, -0.028721645, -0.034330048, 0.027245136, -0.045417648, -0.00065124413, 0.027576182, 0.02824644, 0.020925064, 0.018765252, -0.031147556, -0.009154261, 0.019694563, 0.070549265, 0.03248975, 0.016462589, -0.0033998438, -0.0069076316, -0.037101764, -0.049941033, 0.002638484, -0.002019662, -0.08607517, 0.05244563, -0.035593577, -0.031989977, -0.0018026073, 0.14303888, -0.0037556503, 0.0362132, -0.007957883, 0.005456381, -0.05747184, 0.04402753, 0.047486037, 0.04674275, 0.028029243, -0.06224342, -0.058462493, -0.016827434, -0.008561752, -0.008603296, -0.042707786, 0.025724486, -0.097408846, -0.066614546, -0.0021551852, 0.090250134, 0.02806579, 0.04959761, -0.0071885744, 0.059036806, 0.01143313, 0.009270333, 0.044045083, -0.06548414, -0.015486046, 0.07224379, -0.005101132, 0.012184403, -0.069301754, -0.038763683, -0.052518636, -0.052661598, -0.015218165, -0.030807134, -0.0069308365, -0.09672568, -0.0015551966, -0.082644746, -0.06532349, -0.009436031, 0.01337298, 0.006077454, 0.03728043, 0.06315285, 0.020376455, -0.07143829, -0.027832473, 0.008861943, -0.0017805505, 0.021012815, 0.002736125, 0.07186921, -0.05107385, -0.008160139, -0.035447214, -0.016222097, -0.02044916, 0.092529684, -0.036673572, -0.010713235, 0.032413352, -0.0034877376, -0.019453147, 0.0014599751, -0.018177237, -0.028515838, 0.11251583, -0.021958474, -0.029457908, -0.060950436, 0.004011211, 0.0021888816, -0.044382688, 0.027422674, 0.088536404, 0.017098056, 0.012303134, -0.054729197, 0.00884652, -0.058896575, 0.0122746155, -0.01958276, 0.0015466439, -0.05604501, -0.030515574, -0.014140247, 0.07146306, 0.03605157, 0.001283318, 0.06386511, 0.028579548, 0.013160976, 0.020984674, -0.0032032726, -0.08938994, 0.009125142, -0.086281754, -0.0005774633, -0.0034370208, 0.040152434, -0.052698035, -0.062038884, -0.019343378, -0.026308335, 0.0011749173, -0.00571032, -0.010553671, 0.0020222443, -0.02178843, 0.014893124, -0.0071658064, -0.066125534, -0.15797369, 0.053589564, 0.018750055, -0.0019123186]</t>
+          <t>[0.028675476, 0.039142672, -0.032162443, 0.0048816316, 0.101826675, 0.0060908576, 0.0062347245, -0.013780184, 0.01649353, 0.055501275, -0.030659003, -0.076303296, -0.060231693, 0.067141086, -0.058073245, 0.0506769, 0.06595501, 0.078638315, -0.008566509, 0.005961663, -0.05546681, -0.106412396, -0.044314284, 0.05105828, 0.108923815, 0.09225414, 0.0049858238, 0.037522096, -0.0802134, 0.006020018, 0.04215872, -0.07245708, -0.011054399, 0.016438635, 0.105127946, 0.016078329, 0.0064276517, 0.04576918, 0.080141924, -0.04924774, 0.0036700927, 0.034226242, -0.04192474, 0.03275439, 0.017803356, -0.04213737, 0.059253424, 0.010296575, -0.025735032, -0.016621754, 0.070355445, -0.015094028, -0.008966386, 0.050820258, 0.052262157, -0.025529305, -0.056882653, -0.040222842, 0.0021938742, -0.006437674, -0.082980916, -0.08579039, -0.06950363, 0.008264072, -0.050229266, -0.037247032, -0.011662359, 0.07004131, -0.05776944, -0.01347321, -0.028643819, -0.030048877, -0.020773133, 0.021137787, -0.042239513, -0.025249023, 0.0074180327, -0.010333475, -0.048553966, 0.032308087, -0.028816424, -0.02120598, 0.055941876, 0.026985148, -0.0028596676, 0.049402602, 0.06305039, 0.03271579, -0.019447261, -0.07907293, -0.0024239384, -0.018288795, 0.09101814, 0.030804265, 0.011213462, 0.030890174, 0.04220459, 0.09523773, 0.0038544785, -0.02233236, 0.008768379, 0.11823562, 0.004537451, 0.037545968, 0.006730934, -0.02181678, 0.012213627, 0.011233702, 0.0030282433, -0.020384924, -0.013608712, -0.10664363, -0.08507874, -0.019341903, -0.013844276, 0.028073968, 0.04610974, 0.09471404, -0.0041390616, 0.034902625, 0.04011793, -0.05198215, 0.025354085, 0.02414651, 0.049658947, -0.05632406, -0.0068236776, 0.01174877, 0.001140794, 0.06288966, -0.043194126, 0.012292452, 0.01871247, 0.009916879, 0.0036283764, 0.0027828906, -0.009972416, 0.041155286, -0.026208019, -0.009482631, 0.027054077, 0.04070706, 0.0359671, -0.066235036, 0.041975126, -0.0013318913, -0.046914436, -0.0057241977, -0.038383085, 0.02104647, -0.004874971, 0.0074632326, -0.008920598, -0.020324504, 0.00064435217, -0.10265081, -0.08097797, -0.008957517, 0.004093927, 0.030293614, -0.042008583, -0.034149088, 0.039193608, 0.02624975, -0.0015406962, -0.038934205, 0.061778873, 0.037373755, 0.023670731, 0.045782976, 0.0044752704, -0.03517171, 0.020678628, -0.007836733, -0.0075010443, -0.04716265, -0.018124742, -0.044265285, 0.026389757, -0.011994349, -0.01501411, -0.033548407, 0.0554006, 0.030944886, -0.012380372, -0.06302758, -0.05536802, -0.06643305, 0.01987007, 0.041139808, -0.06525661, -0.007248472, 0.040244203, 0.001325807, 0.028706871, 0.026599942, 0.049533203, -0.00025892816, 0.05231062, -0.050278287, -0.023772903, 0.031023383, 0.05306705, -0.001139361, 0.1180346, -0.039548375, -0.044915788, 0.008037495, 0.0011376467, 0.043041546, -0.012523855, -0.037497103, 0.0025743765, -0.043864027, 0.054986153, 5.195802e-05, 0.04028268, -0.031529468, -0.028969277, -0.002252276, -0.022086166, -0.08458814, 0.054360256, 0.0523236, -0.014724881, 0.029781774, -0.0065221214, 0.0021597506, -0.009546892, -0.041221306, 0.024439001, -0.030891148, 0.021134336, -0.03805234, 0.07494581, 0.045454834, 0.0828154, 0.012058685, 0.015575098, 0.06110857, 0.007435727, 0.038551703, -0.00836397, 0.037788965, -0.024770606, 0.011566836, -0.015325897, 0.027427958, -0.037112724, -0.0168623, -0.0132227205, 0.057306677, 0.027197082, -0.014342456, 0.04193028, 0.035214886, -0.027730467, 0.003702142, 0.006940558, 0.013194038, 0.04855401, -0.053838804, -0.029756656, -0.008089907, -0.049233835, -0.06737935, 0.022243097, 0.06705638, 0.022226196, 0.069767766, -0.03931162, -0.011378313, 0.03725371, -0.01763386, -0.04217963, 0.014633416, -0.037128653, -0.02872156, -0.037856825, 0.021872852, -0.01596931, 0.03810956, 0.030273004, 0.006716125, 0.020219697, -0.048674624, -0.026230464, -0.023894861, -0.0147473505, -0.018534426, -0.027085958, -0.037320957, 0.059854984, -0.04351981, -0.018730398, 0.0087561915, -0.03570119, 0.034188714, 0.005827914, 0.0028668037, 0.081945196, 0.038134914, 0.005819649, 0.060543094, -0.007417377, -0.006623612, 0.015656376, -0.051215943, -0.016618596, 0.052884243, -0.0007165945, -0.008989422, 0.048561767, 0.076223165, -0.0667177, -0.005922429, 0.05978065, 0.013616156, 0.0004605986, -0.01953223, -0.015383033, 0.024678584, -0.018809274, -0.022082403, -0.07912318, 0.06890851, -0.050098553, -0.008109321, -0.013012326, 0.030743036, -0.009072237, -0.0037065737, 0.05632253, 0.043624375, 0.007338366, 0.015708743, -0.021789007, 0.03389155, -0.030951971, -0.02737166, -0.043904502, -0.0020879204, -0.0072779814, 0.0030676045, -0.0024166864, 0.02096402, 0.052725527, 0.072622366, -0.094241165, -0.0028544336, -0.02675483, -0.0155683225, 0.036943898, -0.0055996226, -0.041602533, 0.012571652, -0.0028355236, 0.04514475, -0.03524157, 0.0040521603, -0.031323798, -0.0053721443, 0.08557644, -0.0009334555, -0.009942407, -0.006234567, -0.022724533, -0.0023529476, -0.039588906, -0.0018331695, -0.033531692, 0.041373983, -0.005322738, 0.048466098, -0.017593982, -0.029442076, -0.016617773, 0.053467836, 0.05233109, 0.052296378, -0.025544431, -0.050974995, -0.018645082, 0.020129189, -0.07317121, -0.004625467, -0.116762094, 0.0517454, -0.010656145, -0.047851205, -0.014387591, 0.06807453, 0.011053958, 0.029447954, 0.059562117, 0.013052018, -0.048012163, -0.029859463, -0.005435394, -0.0043753395, 0.022875857, -0.016522396, 0.024162391, -0.09911825, -0.03115513, -0.039810695, 0.0130773, 0.014576047, 0.013183787, -0.060462758, 0.0044726254, 0.008377792, 0.03785408, 0.06706218, -0.017550856, -0.025350899, 0.05766745, 0.0056670774, 0.05624996, -0.047013313, -0.0128246965, 0.07831267, -0.046931677, 0.06598748, 0.037481505, -0.0887801, -0.0141397845, -0.05879283, -0.017657032, -0.039223675, 0.014523423, -0.096437916, 0.05347927, -0.011971711, -0.038773313, 0.02031664, 0.016784968, -0.032679748, -0.036642313, 0.044060465, 0.03150239, -0.04687448, 0.058070254, -0.0013872103, 0.037759453, 0.011801602, 0.030676419, 0.08517542, -0.024278268, -0.0026404369, -0.014477346, -0.030972566, 0.025753628, 0.034051787, -0.00014103795, -0.034201615, -0.06278217, -0.004553616, 0.002866976, -6.0310587e-05, -0.06521862, -0.0039370605, 0.050291058, 0.018966457, 0.014206997, -0.04780319, -0.010045209, -0.00037538758, 0.0025074275, -0.00024185947, -0.019860921, 0.020402124, 0.0055275564, 0.02311693, -0.0079010585, -0.073535115, 0.009295882, -0.07306839, -0.010680126, -0.06234654, 0.009736699, -0.013566291, 0.046098255, -0.0038913277, 0.038050022, 0.012557934, 0.05328026, 0.020257667, -0.05539708, -0.026600072, -0.06842704, 0.028989552, -0.066333376, -0.02560581, 0.033811852, -0.03286331, -0.041715175, 0.014980736, -0.005478037, -0.020147545, -0.03979134, 0.01512388, -0.024612192, 0.027336823, 0.012489282, -0.019277036, -0.003462935, -0.003464202, -0.14494558, 0.046579633, -0.058681443, 0.04970453]</t>
         </is>
       </c>
     </row>
@@ -600,41 +597,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>이다연</t>
+          <t>조승아</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>hydrocolloid; machine learning</t>
-        </is>
-      </c>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Utilization of artificial intelligence (AI) models in predicting the rheological properties of hydrocolloids for meat analogues</t>
+          <t>Assessing the impact of allulose and kestose as sugar substitutes on the quality attributes of low-calorie baked products</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viscosity is an important property of hydrocolloids to characterize their rheological behaviors in various areas. Therefore, it is critical to control and accurately predict their viscosity for practical applications. Constitutive models have been traditionally used to describe the rheological behaviors of hydrocolloid solutions. However, there exist no universal constitutive models for a wider variety of hydrocolloids with different rheological features. Thus, as a novel alternative to constitutive models, there is a need to apply artificial intelligence (AI) models to describe and predict the rheological features of hydrocolloid solutions. In this study, the steady-shear viscosities of six food hydrocolloids (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) were experimentally measured at different concentrations (0.2, 0.4, and 0.6%, w/w) and temperatures (25, 35, 45, and 55℃) using a rheometer, and then fitted into constitutive (power law and cross models) and AI (random forest and multilayer perceptron (MLP)) models. Furthermore, the viscosity results predicted by the established AI models, were compared with the quality attributes of the corresponding meat analogue samples. All the hydrocolloid solutions showed shear-thinning behaviors by showing decreased viscosities as a function of shear rate. When the steady shear viscosities were subjected to rheological constitutive and AI models, the AI algorithms showed a better fitting performance (R2 = 0.94-1.00) than the constitutive equations (R2 = 0.75-0.99)). Also, when the MLP　model was applied to meat analogue samples after cooking, their textural properties seemed to be fairly correlated to the AI-predicted viscosities. Thus, this study may contribute to improving the quality attributes of meat analogues by providing possible ways to predict their rheological features. </t>
+          <t>The excessive consumption of sugar is linked to the increasing prevalence of obesity and various adult diseases. Recent research has focused on finding alternative sweeteners to sucrose, leading to growing interest in natural sweeteners like allulose and kestose. This study evaluates the feasibility of using allulose and kestose as sugar substitutes in chemically-leavened baked products. In particular, sugar in muffins was replaced with allulose and kestose at 50 and 100% (w/w), and their effects were evaluated in terms of physical, rheological, and tomographical characteristics. All the samples showed a shear[1]thinning behavior, however, those containing allulose exhibited lower viscosity and less shear-thinning. Also, the muffin batters with allulose exhibited increased dynamic viscoelastic properties at temperatures above 70°C. The use of allulose led to reduced muffin expansion and also resulted in a firmer texture, compared to kestose. Tomographical analysis revealed that muffins with allulose had lower total porosity and a smaller pore size distribution. The results may help the food industry replace sugar with natural sweeteners without compromising quality attributes.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0.0323949, 0.054200653, -0.06101495, -0.0093338145, 0.09211446, -0.014015357, -0.022959871, -0.046756398, -0.015167879, 0.029897518, -0.05229187, 0.026816301, 0.075033695, -8.080923e-05, -0.019250944, 0.035398595, -0.0046814047, -0.0009274678, -0.044807415, -0.032166436, 0.04165316, -0.034167245, 0.018985828, 0.03292748, 0.02906539, 0.03015222, 0.10331814, 0.07719199, -0.13800815, -0.018172221, -0.016149722, -0.020692382, 0.0034910103, -0.028233971, -0.067894235, -0.026982902, -0.010014121, 0.03945202, -0.023310678, -0.031199262, -0.011953826, 0.012278522, -0.030570392, 0.092657655, 0.040248662, -0.026173925, 0.03198294, -0.023829048, -0.0061035445, 0.032411214, 0.015049014, -0.028404435, 0.015982883, 0.06402969, 0.028699806, -0.0028875442, -0.09850172, -0.064738765, 0.002289818, 0.02400561, -0.09728394, -0.089742124, -0.0800937, 0.01340394, -0.013637348, 0.031432603, 0.0032734892, 0.0040287464, 0.06624228, 0.00779097, -0.06465645, -0.020448564, -0.06255499, 0.03873518, -0.049069304, -0.003968882, -0.040346283, -0.052061263, 0.017645119, 0.020190226, -0.020302348, -0.034903117, 0.10170594, 0.039585326, -0.018108578, 0.041959763, -0.052147307, -0.046672996, -0.016969604, 0.041448914, -0.0063533075, -0.023050196, 0.09455066, 0.025173657, 0.019218894, 0.002055075, -0.037013277, 0.0055671255, 0.033793963, 0.059034675, -0.03597606, 0.08086328, -0.015807353, 0.043204207, 0.014903215, 0.0010776512, 0.00738205, -0.0069756596, 0.04854291, -0.033353943, -0.0017848605, -0.07531981, -0.08081433, -0.02247598, 0.023589, 0.04625668, 0.0099937245, 0.013172056, -0.003219327, 0.037758283, 0.014876112, -0.010549675, -0.0103286095, -0.003746623, -0.02952857, -0.030740933, -0.07680098, 0.058792453, -0.04395254, 0.019852871, -0.012695562, 0.038599096, 0.03755844, -0.021639146, -0.008291973, -0.06589159, -0.07051531, -0.0013738062, 0.03940388, 0.011896731, -0.019970171, -0.073022865, 0.06143198, -0.096363805, 0.103464074, 0.015593043, -0.025271857, -0.06075702, 0.034288075, 0.028348206, -0.018856501, 0.033493124, 0.017154418, -0.010952216, -0.0046205134, -0.043961946, -0.06446421, -0.013701011, 0.011666443, 0.007000432, 0.0017334382, -0.054207154, -0.01485841, 0.01514789, 0.014633543, -0.023022857, 0.051897928, 0.0076737083, 0.012709196, -0.00257943, 0.04571996, -0.018040087, 0.037795138, 0.0036651427, 0.0033639031, 0.0350246, -0.05205173, 0.015871653, 0.01758242, 0.01704009, -0.020875325, -0.034171287, 0.060243312, -0.054436605, 0.017941084, 0.0052228435, -0.009292254, 0.007873273, -0.0653969, -0.007013514, -0.017731307, -0.06492217, 0.007965381, -0.010216686, 0.014097635, 0.032667845, 0.044835784, -0.021596676, 0.022678899, -0.00757853, -0.03077217, 0.0222458, 0.08563003, 0.034052454, 0.014737677, 0.033287384, 0.015428836, 0.013055208, -0.0077991984, 0.03152323, 0.0038737718, 0.11868386, -0.017011259, -0.02307143, 0.046200298, -0.026495889, 0.06229001, -0.0010157005, -0.019666636, 0.06228821, -0.051996745, 0.06887958, 0.05340676, 0.025448892, -0.0067092376, 0.020095166, -0.0462883, -0.011489727, -0.030617993, -0.03739574, -0.0026139426, -0.030417256, 0.014732217, 0.01693463, 0.041286122, 0.050581444, 0.0011040254, 0.05106404, 0.013875559, 0.09869923, -0.059408154, 0.0126855355, -0.025902301, -0.059368983, 0.026628241, 0.0214514, -0.021311363, 0.0069735623, 0.013555112, -0.04560215, 0.006187605, -0.02357684, 0.05217296, -0.021949321, 0.02149164, -0.04350158, -0.0062457942, 0.0009561369, 0.0343042, -0.004596391, 0.0063902293, 0.018007254, 0.015898768, -0.07872808, -0.02621982, -0.018896699, 0.014081, 0.032304537, -0.03555357, -0.03939175, 0.021242063, -0.007765812, 0.057020925, 0.002833966, -0.024222901, -0.010650161, 0.008347769, 0.03176036, -0.0018902494, 0.04483249, -0.024363551, 0.002429842, 0.06967105, 0.021265699, 0.033121627, -0.0490506, -0.008700412, -0.03150344, -0.045742493, -0.05211412, -0.012886491, -0.065608636, 0.041093778, -0.037189852, -0.01537326, 0.04999998, 0.016827852, -0.011317547, 0.03552497, -0.026067508, -0.017249968, -0.052424632, 0.024390714, 0.05218866, 0.0042067184, -0.015108128, 0.0061201113, -0.058661506, 0.022705898, 0.023488173, -0.04491859, -0.02439933, 0.05975052, 0.058728334, -0.012835006, 0.029226732, 0.03661411, 0.023324728, 0.0018287122, -0.03121845, 0.056983344, 0.030018283, -0.0068838, -0.033817448, -0.033512212, -0.013196931, -0.026745724, 0.013283039, 0.00075958885, 0.0553628, 0.02223953, -0.024733655, -0.004651473, -0.011469725, -0.04726282, 0.00026571192, -0.066128016, 0.0207637, 0.02228617, 0.01479482, -0.03306941, -0.109379254, 0.033586517, 0.019953655, 0.026521754, 0.010635093, 0.018945774, 0.048135888, -0.029232329, -0.009308909, -0.040818628, 0.0022094816, 0.007942251, -0.025878806, -0.06440322, 0.012140815, -0.0007212715, 0.07408765, 0.06888135, -0.045290444, 0.06248211, 0.021417083, -0.03719556, 0.10360648, -0.07721933, -0.0687835, -0.051447943, 0.01317429, -0.025295625, 0.008715433, 0.023207793, -0.0005081894, -0.009380579, -0.024358315, -0.07226507, -0.014690199, 0.043183114, 0.08298772, 0.029171234, 0.031302262, 0.0037692005, 0.00027758128, -0.04467992, 0.007824989, 0.009227672, 0.08030632, -0.067837544, 0.062928304, -0.052162413, -0.057970293, -0.021489581, 0.06438501, 0.04856023, 0.04504504, 0.06524138, -0.02854713, -0.079635, -0.012230185, 0.06080641, 0.050107062, 0.017568788, 0.02701678, -0.0146485325, -0.054185264, -0.04518835, 0.023981327, 0.019812029, -0.0055458634, -0.08484615, 0.074950516, 0.049608663, 0.026096625, -0.0075158635, 0.039259516, 0.0016220151, 0.022516739, -0.0005207733, -0.07730591, 0.02804287, -0.091899216, -0.02851952, 0.014663403, -0.0590941, -0.0028535842, -0.04921507, 0.02999804, -0.014676971, -0.047438085, 0.014422787, -0.028233524, 0.029086577, -0.001206356, 0.05314313, -0.034904007, -0.04153834, 0.044620175, 0.06787131, -0.013263146, 0.0034903933, 0.023907218, 0.015780505, -0.06198369, 0.030930633, 0.027962683, 0.04967968, -0.019556358, 0.028129002, -0.025302883, 0.0050613964, 0.023344385, -0.038144693, -0.031381354, 0.047086593, -0.018961973, -0.01171851, 0.024937373, -0.060752444, 0.021953393, 0.0112148505, 0.03062203, -0.0014811858, 0.014669726, 0.037423503, 0.02357732, 0.0054309345, -0.021020336, 0.055930797, 0.06545414, -0.008589371, -0.055428077, -0.014921595, 0.025593286, -0.015331739, -0.010285887, -0.03489603, -0.07846156, -0.04904226, 0.0048380527, 0.0060922755, -0.04512458, 0.013020425, 0.01539602, 0.04736533, 0.016122077, 0.0017696861, -0.013491874, 0.001803294, -0.060364924, -0.0062298286, -0.028197022, -0.047059298, 0.050877012, -0.043102987, 0.021569818, -0.02916606, -0.010001605, 0.033557087, 0.05268687, 0.03418202, -0.036408234, 0.047579605, -0.0068996036, -0.020421103, 0.019574754, 0.0058900197, 0.037500557, -0.077943176, 0.013031745, -0.0036255475, 0.059470817, -0.026653575, -0.04467929]</t>
+          <t>[-0.03967459, -0.008784497, 0.062376365, -0.001996111, 0.06956928, 0.015854277, 0.04066772, -0.11084388, 0.044269666, 0.02928855, -0.040710054, -0.09677716, -0.04907529, 0.0012534764, 0.006668371, 0.030206336, 0.012436614, 0.035290394, 0.09317854, 0.03802653, -0.007811867, 0.0070640966, -0.0790188, 0.029694127, 0.0035699783, 0.01767581, -0.01819052, -0.02532161, -0.027076792, 0.0030922196, 0.01424535, -0.02615021, 0.0132984035, -0.010137836, 0.017341442, 0.055996668, 0.040503845, 0.009684241, 0.012007962, -0.03149936, -0.06375439, 0.039755575, 0.023898132, -0.04485872, 0.050108727, -0.06275057, 0.10940947, 0.010951978, 0.0006886119, -0.009137643, -0.039901633, -0.013870872, 0.010234475, -0.050094217, 0.054452747, -0.022145284, -0.019913774, -0.028027846, -0.0017960229, 0.059486095, 0.054011658, -0.026718229, -0.08222716, -0.00015446637, 0.0142375985, 0.026311882, -0.03260779, 0.031719394, 0.08882051, -0.038978096, 0.029470311, 0.003505293, 0.020066563, -0.042558443, -0.097279035, -0.033150584, -0.0061176163, -0.03688817, -0.016239252, -0.0048237275, -0.0572812, -0.049982607, 0.030025845, -0.06306359, -0.0077055944, 0.07626669, -0.04134726, 0.046723396, 0.01308748, 0.12984194, 0.081506245, 0.0004902868, 0.1169169, 0.0007899141, 0.03909032, 0.043347083, 0.08419187, 0.07075217, 0.04489785, 0.0714471, -0.035194248, 0.0038041049, -0.082276605, 0.028319158, 0.045806415, 0.020764727, 0.06995473, -0.00504845, 0.025610613, 0.067345455, -0.027338866, -0.055306632, -0.029663324, 0.07499665, -0.005034161, 0.08916202, 0.038978484, 0.06559007, -0.00053717004, -0.0106367245, 0.016331844, -0.07911137, -0.009540857, 0.04688486, -0.061503097, 0.00048528795, 0.025610775, 0.00413387, 0.0061413753, -0.031439215, 0.04855838, 0.046722475, -0.005172121, 0.0050584315, -0.021429121, 0.0021095248, 0.032805752, 0.087729216, 0.002121895, 0.06094117, 0.012033916, -0.03688852, 0.021877524, -0.018804625, -0.0018588826, 0.03394767, -0.0663212, -0.03049753, -0.078944445, 0.019011656, 0.02387843, 0.05023693, 0.012079359, -0.064602286, -0.07346971, -0.057500232, -0.02966558, 0.011755095, -0.049175162, 0.004101219, 0.047067374, -0.05167484, 0.005487575, -0.0055828462, -0.017480109, 0.04820152, 0.044016793, 0.0018692758, -0.053301953, 0.05233776, -0.022729348, -0.008883984, 0.016282316, 0.06080073, 0.021767017, -0.029763045, -0.02823388, -0.029635707, 0.060456727, 0.011730365, 0.039517425, 0.0056823413, 0.0032456515, -0.069270335, 0.024627412, 0.007553086, -0.00012951432, -0.032288164, -0.007414961, 0.029478421, -0.026883457, 0.084806, 0.0687644, -0.0310262, -0.03143133, 0.010052322, 0.060926985, 0.00013395771, 0.057143074, -0.031826757, -0.009116099, 0.029803682, 0.06566799, -0.014382773, 0.07818651, 0.020397522, -0.021551846, -0.0054610013, 0.020098763, -0.01679104, -0.041768797, -0.07686978, -0.0020581859, 0.0037512102, 0.010460291, -0.014038561, -0.03274505, -0.028214835, 0.016878128, 0.008877829, 0.037563473, 0.07420078, -0.06960796, 0.016478198, -0.058837775, -0.010200909, 0.034553673, 0.027593317, -0.030100992, 0.051291432, 0.01680046, -0.011854696, -0.040390022, -0.012279482, 0.07240303, -0.059509926, -0.021411052, 0.06822917, 0.024524674, 0.043079827, -0.017777447, -0.017262792, 0.002181514, 0.054285973, -0.0033407654, -0.03731186, -0.016963052, -0.03834172, -0.0044806385, 0.006961446, -0.044726264, 0.035350908, 0.0045892852, 0.03591247, 0.0868194, -0.011522083, 0.03629372, 0.0015913919, 0.041572496, -0.041551042, 0.013768929, -0.02191151, 0.019141365, 0.03954412, -0.011381872, -0.022285538, -0.009804086, 0.063945375, 0.026576648, -0.011567456, -0.029361524, 0.037538808, 0.05923513, 0.05657526, 0.08454681, 0.06609032, 0.045365203, -0.08120171, 0.00957161, -0.09586945, -0.018129015, -0.049029212, 0.06658854, 0.029735034, -0.034012906, -0.0072360374, 0.024975486, -0.021366425, -0.003516203, -0.09560552, 0.02801082, -0.08057855, -0.004184537, 0.037140064, -0.06123507, 0.06171463, -0.006877437, 0.060431935, 0.036832515, 0.005807096, -0.06324682, 0.02397183, -0.012308668, 0.009184503, 0.031271413, 0.059633553, -0.020703405, -0.017921505, 0.004250013, 0.029223403, -0.028986854, 0.013592758, 0.029407542, 0.07403548, -0.022771625, 0.114389084, -0.019249976, -0.025325919, -0.028259205, 0.0058258525, 0.013851795, 0.010923184, 0.017050337, -0.048089977, -0.006599477, 0.008000917, -0.0606531, 0.0066134883, -0.045244977, 0.07419838, 0.01478591, -0.029869625, -0.026025884, 0.003628431, -0.0020232832, -0.05086339, -0.032624643, 0.019753616, 0.043896776, -0.01624723, -0.008973502, 0.017995747, 0.06298279, -0.017193602, -0.045388993, 0.044190418, 0.08491777, 0.08904506, -0.023592295, -0.036316074, -0.03156146, -0.033630617, 0.035428423, 0.027514847, -0.008974324, 0.0007507786, 0.015053843, -0.032261536, 0.03431452, -0.018470556, -0.007753838, 0.0057120803, -0.050305493, 0.05537535, -0.053473685, 0.004209165, -0.028581997, -0.04564351, 0.022606265, -0.021770991, 0.028191298, 0.010585413, 0.021126576, -0.0029458597, 0.09295795, -0.003658994, -0.030293686, 0.044274572, 0.04250075, 0.019789666, 0.0026506463, 0.04787934, 0.0022961388, -0.023113986, -0.08131576, -0.0351344, -0.1779438, 0.022224136, -0.03198037, -0.09156177, 0.037293322, 0.061408058, 0.03262223, -0.047881, -0.01803641, 0.14501089, -0.07832311, -0.0020082046, 0.019291598, 0.008764246, 0.023505347, -0.06125254, 0.02187212, 0.032927208, -0.024486257, 0.029430196, 0.03490614, 0.010516229, -0.011366044, -0.012888893, -0.0035861079, -0.050105195, 0.017786263, 0.03350539, 0.02394675, 0.029841056, -0.015813667, -0.05283435, -0.014141833, -0.013136641, -0.041037098, 0.015202934, 0.056598738, 0.060524426, 0.0085014375, -0.00020059268, 0.026006307, -0.08176245, 0.04094748, -0.052249845, 0.0148710525, -0.006173797, 0.00019999035, -0.10434604, -0.016575325, -0.04287689, 0.02195094, -0.009036813, 0.051396135, 0.018761422, 0.0026494334, -0.019848809, -0.004756349, 0.0397995, 0.017557858, 0.017312894, 0.004011091, 0.01674848, -0.0025611508, 0.035721853, -0.020109016, -0.014911885, 0.030965135, 0.036720946, -0.027948476, -0.042700924, 0.00044377332, -0.097571366, -0.033160567, -0.06102755, -0.044663243, 0.01351539, 0.058344036, 0.0050882874, 0.09300204, -0.034210403, -0.06225437, -0.024507543, 0.0853569, -0.024734685, -0.075971365, 0.016497055, 0.07322242, 0.028795607, -0.021869384, -0.03421302, -0.041728575, -0.01872391, 0.056593165, -0.026525822, -0.016370663, -0.0054494822, 0.04651053, -0.009554617, -0.04589418, 0.08324777, 0.0021443502, 0.03450602, -0.007058179, -0.0489566, -0.013000446, 0.022480527, -0.053307947, 0.00727697, 0.050599787, 0.026951274, -0.036998484, -0.0027499967, 0.0073688217, 0.023794465, 0.048616227, 0.018362679, -0.007511209, -0.09648293, 0.00269564, -0.00047358588, 0.03138525, -0.022697229, -0.041448727, 0.014639119, -0.028347759, -0.041972995]</t>
         </is>
       </c>
     </row>
@@ -643,42 +636,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>김예은</t>
+          <t>박영서</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>senior-friendly food</t>
-        </is>
-      </c>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preparation and characterization of high-protein mousse diets with fava bean powder for the elderly
-</t>
+          <t>Development and characterization of alternative meats with oleogels as a fat replacer</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>There is a need for the development of senior-friendly foods as the elderly population continuously increases. In particular, older people with dysphagia have swallowing problems, which may increase the risk of dehydration and aspiration as well as insufficient calorie intake. This study thus aimed at investigating the textural and rheological properties of high-protein foods supplemented with fava bean powder for the elderly with dysphagia. In this study, fava bean powder was incorporated into the formulation of mousses diets for the elderly at varying mass ratios, and their quality attributes were characterized mainly in terms of texture and rheology. The viscoelastic measurements showed that both G’ and G’’ decreased as the level of fava bean powder increased. When the high-protein mousse samples were subjected to a freezing and thawing cycle, the degree of syneresis (%) decreased with increasing levels of fava bean powder. When the mousse samples were compressed, all the samples exhibited similar textural profiles by showing fracturability. In addition, the textural differences were not observed as the amounts of fava bean powder varied. urthermore, these hardness values measured were as converted into stress in order to determine UDF steps depending on the level of fava bean powder. High-protein mousse diets for the elderly were successfully prepared with fava bean powder without significant textural changes. As a result, this study may encourage the food industry to develop high-protein mousse diets for the elderly with objective rheological guidelines along with the UDF steps.</t>
+          <t>Solid fats high in saturated fats have negative effects on human health, such as cardiovascular diseases, prompting the food industry to seek their replacements. Recently, oleogelation has received considerable interest in the food industry due to its ability to convert liquid oils into solid fats without chemical alteration. This study examined the rheological and thermal properties of oleogels prepared with three natural waxes (candelilla, carnauba, beeswax). When these oleogels were used in alternative meats instead of coconut oil, their appearance, cooking characteristics, and texture were analyzed. In terms of hardness, the oleogels exhibited different patterns depending on the types of wax. Additionally, the oleogel made with carnauba wax showed the highest melting point, while the one made with beeswax had the lowest melting point. Although there were no significant differences in the visual appearance of the patties, the use of oleogels for coconut oil affected the texture and cooking characteristics of the patties. These findings are expected to provide valuable insights for the development of low-saturated fat alternative meats in the food industry.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.013153501, -0.012316174, -0.0026001772, 0.010339355, 0.095212646, 0.13645719, -0.014596975, -0.020946434, 0.033129632, 0.042862467, -0.07902767, -0.07364885, -0.040876262, 0.044667937, -0.010195494, 0.004775675, 0.037447244, 0.0180497, 0.06523855, 0.03766383, -0.0007435743, -0.0070720636, -0.106984034, -0.0096629225, -0.024183223, 0.013198239, 0.023830852, -0.018946849, 0.006452722, 0.0022934435, 0.011482623, -0.00947765, 0.019566327, 0.00351818, 0.021734681, -0.0038298361, 0.0104248, -0.033745967, -0.028088108, -0.02413149, -0.039437287, 0.035782948, 0.020818003, -0.04069778, 0.0504058, -0.033231027, 0.031222507, -0.0008440151, -0.06935909, -0.005443651, -0.01133981, -0.031408038, 0.012385888, 0.06939453, 0.06640177, -0.035367098, 0.007188713, -0.04820022, 0.061663624, 0.043616362, 0.008167195, -0.023008225, -0.038476527, -0.05815004, -0.01981516, 0.014844094, -0.04032311, -0.002887003, -0.020975834, 0.04500322, -0.032750726, -0.04678782, 0.016007623, -0.0065524625, -0.050577134, -0.021843564, 0.00614075, 0.03341574, 0.013241606, 0.03151096, 0.040788807, -0.059713725, 0.04461079, -0.02712205, -0.0623876, 0.064552344, -0.024153814, 0.06532642, -0.0237636, 0.07560963, 0.045249514, -0.027726447, 0.12632814, -0.0050263074, 0.027002875, 0.014781121, 0.10403103, 0.10121824, 0.05015209, 0.060543496, -0.028302774, 0.08362335, -0.04573622, -0.0019977244, 0.0013501901, 0.030105557, 0.036436006, -0.007758399, -0.025307825, 0.0026186719, 0.030325128, -0.0755962, -0.035445444, -0.039628796, -0.020593878, 0.11307869, -0.018151257, 0.02855768, -0.004751598, 0.0061355378, -0.007139484, 0.0013892794, 0.021699738, 0.109187216, 0.015374648, 0.0020928087, 0.008219013, -0.036817055, 0.043312375, 0.08193496, 0.11030051, 0.117956765, -0.008566853, 0.025807003, 0.003387914, 0.0059553706, 0.021951081, 0.018708017, -0.02644592, -0.020660913, -0.007748257, -0.03514982, 0.028613785, -0.102944516, -0.044366486, -0.013876186, -0.008848542, -0.030287413, -0.05659181, 0.06954782, 0.0012294425, 0.039344553, 0.025837256, 0.007305914, -0.052261256, 0.0073363003, 0.028069716, 0.039949927, -0.0043073106, -0.006734872, 0.019815957, -0.032652814, -0.077143975, 0.02305339, -0.056115236, -0.019425215, 0.025057593, 0.02790897, -0.01697483, -0.036338978, -0.009921672, 0.005949754, 0.025461284, -0.013502694, 0.02761174, -0.015857363, -0.008056925, -0.055348247, 0.0638127, -0.011908866, -0.005287569, -0.04889545, -0.02498211, 0.015541445, 0.01886374, -0.011223385, 0.07231875, -0.00790517, 0.06792061, 0.027302831, 0.0058766934, 0.04411107, 0.023229161, -0.010871314, -0.044818975, 0.046505056, 0.020745294, 0.026491199, 0.009618219, 0.057142593, -0.035322227, 0.038846742, -0.008478853, -0.031465784, 0.006902045, -0.010310141, -0.03379566, -0.023733864, 0.020802177, -0.024818582, 0.003273159, 0.06262589, -0.009251624, 0.03543806, -0.0058407523, -0.024158288, -0.016649516, -0.0668457, -0.053426992, 0.008767209, 0.043486, 0.030377276, -0.06988598, 0.006418043, -0.048297927, -0.05870485, -0.0264552, -0.05207686, 0.0068563144, 0.046193775, 0.03559494, -0.035939373, -0.013463522, -0.036855634, 0.020670714, -0.0122594, -0.006595396, 0.059702143, -0.0009087536, 0.054837193, -0.048561275, -0.03363839, 0.029069468, 0.041483663, 0.031224674, -0.031199565, -0.02490629, -0.06109617, -0.027961906, -0.015041631, -0.016511641, 0.001472843, -0.018688735, -0.06347123, -0.016117986, -0.065041706, 0.005104936, -0.035019115, -0.0013245764, -0.03275663, 0.045911353, -0.025033852, -0.01946067, -0.03743031, -0.056050368, -0.005739657, -0.021007966, 0.008027083, 0.006920287, -0.023420097, 0.0041586696, 0.05214689, 0.04827472, 0.031955898, -0.02716429, -0.0018592274, -0.022918636, -0.09570146, -0.007094872, -0.043665867, -0.06375762, -0.0066826516, -0.0068290206, -0.047631234, -0.030076174, -0.03118672, -0.022068195, -0.001998748, -0.017235216, -0.0873404, 0.012238084, 0.014448879, 0.06335678, 0.0068625035, -0.06564907, 0.03286, 0.033905968, 0.024592003, -0.01894737, -0.0017567156, -0.0023870433, -0.034608923, -0.017800968, 0.011395069, 0.036521498, 0.011287088, 0.042906206, -0.0072752647, 0.03141821, 0.0052531753, -0.017227342, -0.031524766, 0.0064835087, 0.039243378, -0.050789274, 0.039483555, -0.020063449, 0.01049434, -0.018270819, 0.006395176, 0.034575067, -0.001308425, 0.024587402, -0.038131066, 0.0084335515, 0.083772495, 0.0191957, 0.060284644, -0.019332297, 0.055019002, -0.015833255, -0.030361604, -0.011855847, -0.019233245, -0.06663999, -0.03798037, 0.04677209, 0.03063256, 0.012075026, -0.020943979, -0.051633503, -0.029874504, 0.11632486, 0.03744474, -0.07792341, 0.023120599, 0.033761743, 0.080192, -0.07565245, -0.039335012, 0.028811628, -0.018067192, 0.025289502, -0.026277121, -0.02468964, 0.04104977, -0.005167041, 0.0089373095, -0.048057072, -0.0061063706, -0.013863166, 0.02432562, -0.0013481796, 0.03276019, 0.02718205, -0.014500081, 0.04360586, -0.0069604083, 0.0020948814, -0.07039641, 0.055941444, 0.00322692, -0.029612606, 0.048088983, -0.013916873, 0.013449511, 0.014742017, 0.06441483, 0.006153336, 0.030162534, 0.019333322, -0.008515984, 0.0024959506, -0.06542315, -0.06392322, -0.0032703842, -0.06714134, 0.008492259, 0.010235394, -0.04378725, -0.0021757863, 0.092304744, -0.028396755, -0.019373696, 0.002916212, 0.06307861, -0.06019233, 0.017452935, 0.08361568, 0.005046575, -0.0020562084, -0.0042086714, -0.043960027, 0.012102136, 0.0038936741, 0.05700383, 0.035500746, -0.0026348522, -0.0468768, -0.0892527, -0.036551673, -0.031483706, 0.021788541, -0.02154894, 0.012471329, -0.036254514, 0.00021256495, 0.05176098, 0.010765082, -0.006574459, -0.015208322, 0.05644928, 0.05394963, 0.024871042, -0.04055231, 0.008366815, 0.039361957, -0.06884084, -0.059672732, -0.06003952, -0.022851268, -0.036986407, 0.027231636, -0.053140264, -0.040999673, 0.017170552, -0.006899234, 0.06660422, -0.012676187, 0.03509205, -0.06710211, -0.058902808, -0.0055358503, 0.03421549, 0.095505156, -0.006278893, 0.00844834, 0.023390634, -0.019107535, -0.012307228, -0.020425104, 0.005499721, 0.015132871, 0.031241357, 0.012531075, -0.03171417, -0.0021303506, -0.00508554, 0.023021163, -0.030101502, 0.018224357, 0.009879001, 0.053665973, 0.06881844, -0.0007380229, 0.001907371, -0.0075572114, -0.060700852, 0.04368283, -0.041013975, 0.0051872004, -0.05731808, 0.07721403, -0.047559865, -0.053950053, -0.044469345, 0.021292962, -0.016171811, 0.055264495, 0.014902515, 0.006479708, -0.020677833, 0.0562051, -0.016158324, 0.010325224, 0.06444606, 0.0703174, -0.013067377, 0.007995504, -0.010788882, -0.026044639, 0.036871057, -0.07049182, 0.016116146, 0.06618765, 0.038314726, -0.0059781335, -0.039086465, -0.040385813, 0.01722989, 0.06677664, -0.06698324, -0.015687367, -0.018440276, -0.08466162, -0.020727962, 0.029673247, 0.018284244, -0.0660763, -0.0037875904, 0.073655106, 0.041037276]</t>
+          <t>[-0.051424965, 0.027336672, 0.00213235, -0.00013557123, 0.06314094, -0.020391122, 0.0045359195, -0.07601811, -0.0034491818, 0.043709535, -0.050981555, -0.079611406, 0.042366777, 0.012249945, -0.04171779, 0.027511913, -0.021936122, 0.054370366, 0.017272841, 0.019901665, 0.0013457787, 0.0018161075, -0.064192116, 0.027744103, 0.00054044224, -0.027112793, -0.007372512, 0.015717687, 0.00788376, -0.026693812, 0.01074074, -0.04781245, -0.05609378, -0.028860848, -0.037015676, -0.024783334, 0.022143023, -0.024765631, -0.021342948, 0.023968881, -0.016880497, 0.026319427, 0.058809705, -0.018844947, 0.020957224, -0.06448269, 0.04100733, 0.030271694, -0.03158084, -0.0030532016, -0.020411702, -0.06063683, 0.030326266, -0.040909614, 0.05735361, -0.05532915, -0.07120178, -0.053036887, -0.015242207, 0.025518356, -0.02201499, -0.046679012, -0.033191003, 0.012765878, -0.011715072, -0.017782554, 0.038639806, 0.028715689, 0.08156255, -0.03276036, -0.0025063904, 0.04288602, 0.0012928944, -0.00395593, -0.06676885, -0.014837263, -0.013929316, -0.071582146, 0.009031954, -0.023159195, 0.0032627727, -0.03319516, 0.08578198, -0.03646006, 0.0068209623, 0.06310475, -0.026984064, 0.028757837, 0.0015271644, 0.0361427, 0.06975554, 0.017030044, 0.077410184, 0.04201219, 0.018820534, 0.030317917, 0.027575873, 0.050265722, 0.027394019, 0.013900574, 0.022005143, 0.043096278, -0.029725332, -3.8487953e-05, 0.012946312, -0.039604906, 0.028943885, 0.0058758114, 0.024528025, 0.050736252, 0.010041741, -0.04934022, -0.011562216, 0.06222885, -0.02058588, 0.07924784, -0.0064835637, -0.005550766, -0.009208176, -0.047413714, 0.029857084, -0.052047126, 0.014401502, -0.013634201, -0.03281011, -0.0010372038, 0.054605484, 0.019074736, 0.0030803692, -0.013285815, 0.0048141363, 0.054895442, -0.04513215, 0.011453931, 0.024029985, 0.01350056, 0.021413151, 0.017198289, 0.07366778, 0.022631781, -0.044957396, 0.016229881, 0.036340103, -0.027163928, 0.02241524, 0.025184285, -0.017809557, 0.03051653, -0.023868486, 0.03345661, 0.00931372, -0.0006021914, -0.084643796, 0.00475016, -0.047256052, -0.10654256, 0.036273338, -0.005911954, 0.016342161, -0.03635582, -0.014305686, -0.002734226, -0.05342155, 0.024002386, -0.04346368, 0.04427661, 0.066493414, 0.013647642, -0.029724453, 0.058098122, -0.028835481, 0.0018311923, 0.023931613, 0.006172344, -0.09121557, -0.041202076, -0.019299453, -0.020306505, 0.03499947, -0.0026265432, -0.03780474, -0.020406533, -0.016641239, 0.053822435, -0.011455623, -0.030121926, 0.06415515, -0.027148968, -0.026458437, -0.004360989, -0.054568402, -0.012616399, 0.032669336, -0.024687964, -0.017857092, -0.009747606, 0.09035799, 0.0129667055, -0.0371968, 0.0077750473, -0.044580627, 0.0064905826, 0.07687227, -0.01443605, 0.081099175, -0.09032217, 0.019524654, -0.042406924, 0.04689777, 0.010553507, 0.013698096, -0.0021337967, 0.054592457, 0.038657766, -0.01809914, -0.012522225, 0.014993894, 0.019400427, 0.03728068, 0.03204521, -0.016213315, 0.028235927, -0.06289055, -0.014463447, -0.04207477, -0.010292494, 0.013355043, -0.01355712, -0.04304305, -0.0094555495, 0.018136432, -0.03141292, 0.020716105, 0.01814531, 0.03744516, 0.016851773, 0.017900907, 0.054960717, 0.043321352, 0.072755076, -0.024922812, 0.00016186107, -0.016558476, 0.021941992, -0.0021598039, -0.007707173, -0.008015221, -0.012726104, 0.023335038, -0.046894427, -0.038455013, 0.070833854, 0.021416618, 0.02610004, 0.029552924, -0.035111602, 0.040962256, 0.012384474, -0.026250593, -0.009151954, -0.019528478, 0.04804574, 0.019202987, 0.031141099, -0.0287911, -0.06382782, 0.009140283, 0.021050718, 0.09161041, 0.008791661, -0.018316068, -0.030210095, 0.10140105, 0.0065311766, -0.01026034, 0.004320327, -0.026479717, -0.10854421, 0.017819095, -0.08172925, -0.0478924, -0.010457047, 0.0143259, -0.00035615344, 0.0067226603, -0.008664887, -0.07449119, 0.019176058, 0.0137188425, -0.105211645, 0.01709681, -0.052921105, 0.0156177245, 0.026354937, -0.07203159, 0.049527045, 0.015789064, 0.006373582, 0.05688551, 0.014909692, -0.03311519, -0.035360754, 0.059634842, 0.050520904, -0.023653543, 0.010474986, 0.010411624, -0.0659586, 0.051131915, -0.001992277, -0.033843722, -0.012536489, 0.03243529, 0.056109015, 0.062709734, 0.031574804, 0.010398344, 0.016147718, -0.013473702, -0.026568424, 0.0043587023, -0.014928966, -0.004770358, -0.049029216, -0.026760705, 0.06893608, -0.055610232, 0.051623557, -0.05134841, 0.0424879, -0.0016875779, -0.0034973389, 0.026002739, 0.05396563, 0.008429158, -0.018602816, -0.028544907, 0.02591204, -0.0013140517, -0.011988576, -0.020224249, 0.021630691, 0.11583397, -0.014829956, -0.0042247036, -0.020818882, 0.10399371, 0.16508752, -0.036569588, -0.026667105, -0.03706297, -0.023238247, -0.0011630746, 0.02797135, 0.036388747, -0.027832001, 0.0047865966, 0.010548397, -0.024859123, -0.059692416, 0.008712391, 0.074014775, -0.037846636, 0.01753804, 0.0070060613, 0.036263313, -0.03381816, 0.0145597225, -0.018725088, -0.024295079, 0.007912756, -0.05584165, 0.018863358, 0.0034472186, -0.013508687, -0.0057754912, -0.014480371, 0.036122065, 0.06548123, 0.049083352, -0.034512088, 0.015623016, 0.030387916, -0.07861976, -0.08393005, -0.028105216, -0.12832926, -0.023819977, 0.060728524, -0.022871366, -0.027966922, 0.0007486079, 0.0681368, -0.0047075315, -0.023506608, 0.05159816, -0.0066301315, 0.012892582, -0.041413143, -0.014714574, 0.02183379, 0.0053525255, 0.05284823, 0.08345557, -0.024037313, 0.031172633, -0.007954023, -0.036224797, 0.015772898, 0.007528174, 0.025512567, -0.007827101, -0.012689423, 0.036709297, 0.0038734593, -0.009616317, -0.027236776, -0.08558174, -0.01147605, -0.009610252, -0.09132274, 0.011910242, -0.0214517, 0.061372202, 0.08056393, -0.009475627, 0.011795996, -0.083720945, 0.0065547116, -0.011449774, 0.0345277, -0.05281632, 0.032145146, -0.04697554, -0.038726892, -0.004778226, 0.0026551986, -0.0014356317, 0.0054775425, -0.031437576, 0.04234418, -0.042108454, 0.02145046, 0.06313895, 0.011676261, -0.002242764, 0.008871271, 0.04465973, -0.042975646, 0.019460091, -0.023512827, 0.022510111, 0.027815523, -0.021302877, 0.015313872, -0.07378002, -0.083738886, 0.03444604, 0.018092977, -0.030831931, -0.016526343, -0.005903634, 0.043905266, 0.031533033, 0.070222855, -0.034334444, 0.011472874, 0.013220499, 0.008970995, -0.050077908, -0.056501847, -0.03429731, -0.014397716, 0.01049337, -0.023325285, -0.0058809062, -0.06015189, -0.042885777, 0.013028162, -0.051964935, -0.013563242, -0.015107532, 0.06633363, 0.0059411675, -0.0206936, 0.030687861, 0.049651414, 0.028187448, -0.1087655, -0.050571434, -0.053379912, 0.043894745, -0.010383988, -0.023324033, 0.0019747636, 0.0026199834, -0.013800551, -0.006670673, 0.016188174, -0.008320713, -0.009297224, 0.0063388906, -0.017716719, -0.007684672, -0.028760161, -0.037862185, 0.03860768, 0.03285923, -0.04154298, -0.015766624, -0.03341659, 0.02004936]</t>
         </is>
       </c>
     </row>
@@ -687,41 +675,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>정성민</t>
+          <t>이승훈</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>pre-cooked noodle</t>
-        </is>
-      </c>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A study on starch recrystallization-induced changes of pre-cooked rice noodles under different storage conditions</t>
+          <t>Artificial intelligence-based prediction of hydrocolloid viscosity during heating and cooing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Researches on pre-cooked rice noodles are urgently needed for the following two reasons: (1) The commercial demands for pre-cooked noodles with a long shelf-life and cooking convenience are increasing, but the noodle qualities severely deteriorate during the manufacturing process and storage. (2) It is necessary to foster the domestic rice flour industry due to the international food crisis derived from the rise of wheat flour price. In this study, various physicochemical changes of pre-cooked rice noodles were systematically evaluated under different storage conditions. In particular, the primary research focus was placed on the structural changes of the noodles derived from progressive starch recrystallization during storage. The water mobility of the noodles was largely changed under the refrigerated condition followed by room temperature, whereas that of the frozen noodles was not. These trends were highly comparable to the texture changes during storage (increased hardness and decreased extensibility) and lowered water hydration properties. Furthermore, tomographic and microstructural analysis clearly revealed the noodle structure with higher frame density and large pores, especially when they were stored under the refrigerated condition. These results were attributed to the faster recrystallization of starch in the refrigerated noodle. Hence, this study presented the various physicochemical changes of the pre-cooked rice noodles related to starch recrystallization under different storage conditions. In addition, the results clearly confirmed that the refrigerated storage significantly affected the noodle structure, followed by room temperature. Therefore, this study will contribute to developing pre-cooked rice noodles with improved quality, and hopefully to activating the domestic rice industry.</t>
+          <t>Hydrocolloids have been widely used as thickening agents. However, they exhibit properties that change with temperature variations. The measurement of viscosity frequently relies on practical experimentation as it is influenced by various factors such as concentrations, temperatures. Therefore, there is a pressing need to establish a predictive framework for hydrocolloid viscosity assessment. In this study, shear viscosity of hydrocolloids over temperature were experimentally measured using a controlled stress rheometer, and the obtained data were subjected to build 9 machine learning models (random forest, decision tree, SVM, Adaboost, Catboost, GBM, LightGBM, XGB, KNN). These models were trained to predict the viscosity of hydrocolloids according to temperature changes. While the SVM and Adaboost models showed slightly lower performance among the nine machine learning models, the remaining seven models demonstrated excellent predictive performance (R2 = 0.972–0.996, RMSE = 0.0127–0.0359). This study showed the usefulness of machine learning in predicting the properties of hydrocolloids as they vary with temperature.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.022390276, 0.00033441116, -0.013402339, 0.013687797, 0.07209027, -0.008970462, -0.006617692, 0.017724937, 0.07409957, 0.013295787, -0.07506279, 0.02762262, -0.052384105, 0.046383206, -0.04142323, 0.03563255, -0.01733998, 0.01981183, 0.065377906, -0.008073466, -0.026978722, -0.002716768, -0.07542532, 0.0045013535, 0.09909135, 0.034327947, 0.033789206, -0.043652628, -0.0014882518, -0.00049399113, 0.06858088, 0.04349889, -0.007948189, -0.0056805536, -0.020071503, -0.07014275, 0.012292777, 0.00013809139, 0.049966615, 0.018579384, -0.044608045, 0.031072468, -0.043749515, 0.008813158, -0.038249668, -0.0017645876, -0.0030156318, -0.00194215, -0.10454093, 0.015201236, 0.059387464, 0.0014252816, 0.017368536, 0.028499078, 0.04893902, -0.0020231549, -0.06005814, 0.025577018, 0.040652655, 0.028606698, -0.036084626, -0.037368424, -0.014485742, 0.0013765724, -0.016547423, 0.054672703, 0.06100368, 0.0060058883, 0.029157689, 0.05100927, 0.06019946, 0.024781885, 0.03764404, -0.039960176, -0.10153842, -0.049528543, 0.009054079, 0.027267681, -0.026282383, 0.037048426, 0.0088824285, -0.054770023, 0.03457987, -0.056709077, -0.054031067, 0.039783843, 0.009892594, -0.013935605, -0.046153147, -0.009754547, 0.012392222, -0.0461278, 0.09396757, 0.015927495, 0.0532826, 0.018702306, 0.036558274, 0.06792903, 0.065307386, 0.024222724, 0.05373494, 0.02467861, 0.0049175047, 0.019098265, -0.02231339, -0.047605865, 0.048913375, -0.0097512845, 0.015122901, 0.05829982, 0.039574713, -0.039773595, -0.09870499, 0.02188895, 0.018233785, 0.051451836, 0.023906885, 0.0075754216, -0.022820784, 0.071027905, 0.016858941, 0.009911356, -0.019321494, 0.06201647, -0.015685568, 0.0909071, 0.016517377, -0.047729574, -0.016312243, -0.062066786, -0.0066056023, 0.015349768, -0.03971466, 0.04995626, 0.0055722673, 0.054296333, 0.03698783, -0.017870488, 0.04530107, -0.024735855, 0.0015698309, 0.031622678, -0.015587904, -0.019335546, -0.01385579, 0.03702978, -0.051691893, -0.038470685, 0.017047118, 0.030385947, -0.030800827, 0.025285343, 0.059218083, -0.07965911, -0.064043455, 0.0035481015, 0.047461275, -0.011892106, 0.0060576624, -0.014759639, -0.005015848, 0.0009059578, -0.06306835, 0.016102934, 0.013664711, -0.075194255, 0.07161955, 0.014229075, -0.01935686, 0.048488904, -0.002734577, -0.034265347, 0.039024938, -0.005212848, -0.024732584, -0.07361022, -0.032615658, 0.014500634, 0.07765565, 0.0074340925, 0.025350971, -0.06477435, -0.018534614, 0.0027687782, 0.0010474295, -0.023307776, -0.070064716, -0.04698622, -0.000741518, -0.0010492258, -0.077206716, -0.040739443, 0.04324314, 0.04093475, 0.006838294, 0.0048605837, 0.05817683, 0.06602919, 0.064711176, 0.048193086, 0.09497141, 0.03334862, 0.0694135, -0.033821255, 0.02858979, 0.062213756, -0.049713057, -0.03533116, 0.009211334, 0.03301025, -0.06944666, -0.008291563, -0.004680591, 0.0198883, 0.016354598, -0.036221974, -0.051689826, -0.06912741, 0.02998562, 0.0145125, 0.0176155, -0.023904135, -0.012506787, 0.01138806, -0.059803322, -0.011345731, 0.05676621, 0.0037003, 0.011394092, 0.013517786, 0.014195525, -0.06355567, 0.01648141, -0.0789661, 0.07423707, 0.035389654, -0.07214221, -0.015785273, 0.0285153, 0.070571765, -0.07284051, -0.0021656046, 0.03214371, 0.040883854, -0.042597126, -0.1034695, 0.01413898, -0.039553642, -0.07895087, 0.0029394482, -0.0012702681, 0.07165357, -0.06924703, -0.077111565, 0.0019459036, 0.07670079, -0.02789795, -0.047012046, -0.06408503, -0.023057055, 0.0031953305, -0.05153092, 0.017325941, 0.027405197, -0.007926314, 0.008080862, 0.019430961, -0.03090339, -0.0019277326, -0.03807733, 0.025684657, -0.024576522, 0.02930708, 0.044518925, 0.027255412, 0.03624956, -0.0151903955, -0.07448443, 0.013755801, 0.006790858, -0.007323638, 0.018734116, -0.017020054, -0.08508061, -0.009123091, -0.0062587657, -0.051935606, 0.010598685, -0.0064088292, -0.014328111, 0.006773036, -0.011962842, 0.04737435, 0.020689942, -0.055720337, 0.023673378, -0.06415232, 0.05468072, -0.02723019, 0.027312968, 0.013023856, -0.039818984, -0.01185776, 0.037776757, 0.063685164, -0.0051737507, -0.054477375, -0.006875902, 0.039350867, -0.02192721, -0.012034394, -0.0028948484, -0.060511008, 0.056683213, -0.03217618, 0.0051584644, -0.029718695, -0.03479153, -0.053613413, -0.07153629, -0.03621007, 0.03529614, 0.035200946, 0.013758079, -0.047440134, 0.100381784, 0.008946791, 0.015921136, -0.039624024, 0.0340171, -0.0017337735, -0.019347629, 0.010123379, 0.023200227, -0.035763808, -0.023350619, -0.012741232, -0.008374175, -0.00609781, 0.019534703, -0.052414797, -0.034269, -0.010725846, 0.046962347, -0.07813591, 0.05883081, 0.07109231, -0.013675859, -0.0061084484, 0.0003423863, 0.021734467, -0.0437037, -0.039715864, -0.051977992, -0.010915225, -0.026681157, -0.054782715, -0.06611421, 0.020063587, 0.0038211483, -0.021465674, -0.040323153, 0.0016266719, -0.05029298, 0.052445404, 0.022246933, 0.011855377, -0.028053494, -0.04148445, -0.030094972, -0.053324196, -0.020108627, -0.013303078, -0.0010322672, -0.033118673, -0.0018395849, -0.014268387, 0.066276, 0.06597537, -0.055983745, 0.032931097, 0.012249392, -0.003193924, -0.056368146, -0.06482814, -0.019798543, -0.13015829, 0.08748884, -0.025234854, -0.08051804, 0.06137593, 0.11815974, -0.02828455, -0.003521167, 0.03425244, 0.03785833, -0.008573533, 0.032415822, -0.066153236, 0.033013914, 0.05415864, -0.026934102, -0.062096592, 0.00014523801, -0.07912538, 0.03367084, -0.057087533, -0.02456851, -0.060651742, -0.05725256, 0.047815192, 0.016394103, 0.07258398, 0.020693213, -0.030127892, -0.0143392375, -0.013703978, -0.0006337766, 0.053818937, 0.028599085, -0.03819059, -0.00051653705, -0.024985675, 0.018463265, -0.07753885, -0.021955172, -0.027471067, -0.028264191, -0.011986222, -0.009317056, -0.03861647, -0.009420547, -0.010572093, -0.050338313, -0.05670085, 0.035616778, 0.038771488, -0.01330654, 0.060789533, 0.04137986, 0.032664664, -0.08698447, -0.045726866, 0.06677683, -0.03591592, 0.07217243, 0.024295878, 0.09473634, 0.015775202, 0.0047173197, 0.015875624, 0.010751371, -0.005561206, 0.07456856, 0.017281825, -0.06633342, 0.043172333, 0.076845005, -0.021288706, -0.0338814, -0.03630961, -0.018178774, 0.06915486, -0.0465958, -0.030485973, 0.03888051, -0.066821344, -0.042487383, -0.01629416, -0.008380129, 0.03196032, 0.07433269, -0.012057134, 0.025292993, -0.007587703, -0.03985123, 0.016934967, -0.010877076, -0.031053975, -0.015207053, 0.012913784, 0.048755318, 0.074245855, 0.09996663, 0.024609443, 0.05525883, 0.073124655, 0.07333815, 0.0005322701, 0.008644328, -0.035618965, 0.02468507, -0.06155682, -0.015263567, 0.04089064, 0.023944046, 0.00849617, -0.020301132, -0.05193267, -5.360972e-05, 0.026296973, -0.0134845115, 0.010242189, -0.04343315, 0.0002721385, -0.040275823, 0.023350723, 0.006672275, -0.14492735, 0.013495503, -0.0033643155, 0.054794554]</t>
+          <t>[0.0884177, 0.011372455, -0.058961987, 0.0098753, 0.07312041, 0.007885368, 0.033106346, -0.016555466, -0.03003943, 0.03574257, -0.042522926, -0.03484603, -0.005137432, -0.03114011, -0.0681134, 0.028952848, -0.04740701, 0.045507193, -0.025512302, -0.004371555, 0.055350803, -0.0041445685, -1.0699965e-05, 0.0084892, 0.050104327, 0.028362392, 0.057787057, 0.032152258, -0.08513633, 0.018696684, -0.011577583, -0.0053208903, -0.039855853, -0.011203389, -0.05481041, 0.015316833, 0.012415524, 0.05703029, 0.043914083, -0.05831647, -0.04375892, -0.016863562, -0.030162321, -0.0064969854, -0.031522617, -0.053044934, 0.06255316, 0.03879311, -0.014229019, -0.018325014, 0.03632298, -0.02406178, 0.0014732223, 0.073147066, 0.034295272, 0.010018868, -0.09179015, -0.028880995, -0.0160579, 0.012575306, -0.08853968, -0.04428412, -0.047434196, -0.06352375, -0.0027220799, -0.055835802, 0.016459297, 0.013155592, 0.034594517, -0.02272728, -0.04672085, 0.041773047, -0.00804433, 0.060722988, -0.051277142, -0.029474972, -0.037210647, -0.04445907, 0.0042646946, 0.0022844684, -0.07449115, -0.02563005, 0.057425264, -0.06973472, -0.018570166, 0.051750373, 0.025645196, 0.008214044, -0.00049712736, -0.027998399, -0.00019253395, 0.012538524, 0.110338755, 0.05406098, -0.017327573, 0.00951498, -0.026657999, 0.033618756, 0.027076544, 0.043572042, -0.063908026, 0.063763134, -0.023182904, -0.014646576, -0.003159407, -0.046887226, 0.0631519, 0.0091947, 0.05022009, -0.015868085, -0.005728461, -0.07237938, -0.056873225, 0.063155286, 0.0046278755, 0.015532073, -0.010645206, -0.0186995, -0.016367055, 0.07952151, 0.11180092, -0.0133119365, -0.008899676, 0.0058517386, -0.03243644, -0.036572967, -0.01440177, 0.022905864, -0.01695826, -0.027103167, -0.014556114, 0.016600518, -0.010959803, -0.07797754, -0.014813676, -0.023398345, 0.007690005, -0.004555991, -0.046617366, -0.026778534, 0.031261608, -0.05654819, 0.025366645, -0.08823524, -0.024441551, 0.015319649, -0.019331556, 0.008168652, -0.041837767, -0.02541543, 0.01843859, 0.017799186, 0.020060305, 0.021582194, -0.04580453, -0.07467263, -0.03907954, -0.0072808065, -0.05060386, -0.0013344573, 0.012388305, -0.046002097, -0.036461983, 0.036295433, 0.039923936, 0.011606745, 0.05042951, 0.022097217, 0.03291308, 0.03262753, 0.006786526, -0.005535172, 0.038323287, -0.037409864, 0.034223486, -0.054385502, -0.054240573, 0.023125915, -0.03091277, 0.034793336, 0.029172271, -0.06846682, -0.01939902, -0.06121898, 0.0013212595, -0.018716047, -0.06253316, -0.022511497, -0.08120697, -0.032645963, 0.004241337, -0.027498228, 0.011372491, -0.0092562605, 0.015274943, 0.030927703, 0.0580388, -0.0407784, 0.010488761, -0.035574812, -0.021480268, 0.025356574, 0.06889929, -0.03092773, 0.018026872, 0.00034788647, 0.0036217407, 0.01623275, -0.02456099, 0.041831255, -0.039328102, 0.09360554, -0.031146772, -0.034411356, 0.09115267, -0.045058813, 0.069355816, -0.0348207, 0.0020804943, 0.00772012, -0.094995275, 0.059717342, 0.02720286, 0.08203839, -0.0018302193, 0.046461366, -0.010974322, -0.056797687, -0.042893372, 0.00987011, -0.012833579, -0.04508442, 0.010275903, 0.033877205, 0.0402882, -0.025999062, 0.023324985, -0.036064923, 0.013220415, 0.080825314, 0.010653426, 0.04197581, -0.010012076, -0.031878892, 0.06923597, -0.08676372, -0.011969904, -0.02067552, 0.042746652, -0.015821854, -0.046718493, 0.024429582, -0.008328711, -0.0010980119, 0.020329371, -0.04075761, 0.07948575, 0.06364754, 0.0025056829, 0.05233736, 0.026850102, 0.017226383, -0.0012294264, -0.052056104, -0.042701885, -0.048026025, -0.011957403, 0.02129787, 0.010960152, -0.04274306, -0.031462625, -0.058480177, 0.08037224, 0.01408822, 0.0018122228, -0.04161782, 0.014172548, -0.055055954, -0.03773862, -0.010947629, -0.023259824, -0.03934299, -0.0028266627, 0.035416856, 0.013100137, -0.032058097, -0.03198831, -0.007826414, 0.047626078, -0.014919556, -0.016995663, -0.057995383, 0.055188797, 0.0061048605, -0.0189367, 0.045650575, 0.044703644, 0.04049668, 0.037011977, -0.041849714, -0.024294818, 0.006306228, 0.058896426, 0.0922654, 0.01729977, -0.002154271, -0.038953427, -0.005510154, 0.04072009, 0.062229346, -0.042092238, -0.038268816, 0.026614504, 0.069008596, 0.023409186, 0.0006341247, 0.02219607, 0.012023905, 0.0013679868, -0.009648513, 0.045603313, 0.06844085, 0.042877637, 0.012285897, -0.01914838, -0.006856642, -0.07475503, 0.04029461, -0.018105444, 0.033089045, 0.028535351, 0.0061321515, -0.049630627, 0.048560794, -0.10877049, 0.0017405964, -0.052798018, 0.006732951, -0.013891634, -0.048763547, -0.052041993, 0.0063166404, 0.06183195, -0.056867722, 0.012208899, 0.053716537, 0.05411766, 0.07787188, -0.051094692, 0.019201623, -0.015475293, -0.014764713, -0.025693383, 0.024957804, 0.039946225, -0.053651005, 0.065372825, 0.049345087, 0.052693695, -0.012616939, -0.014349151, 0.0048949546, 0.036404967, 0.044082433, -0.09869347, 0.0077275676, -0.06973889, 0.05959702, -0.005782961, 0.0066077043, 0.03682505, 0.0051305164, 0.024187777, 0.049374647, -0.051967014, -0.04167657, 0.028196394, 0.021736108, 0.0068031363, -0.018606743, 0.006372879, -0.061126657, 0.0007496512, 0.058117207, -0.042851303, 0.07368112, -0.044393525, -0.009930503, -0.061611332, -0.07391391, -0.017747374, 0.024621094, 0.041481737, -0.004582373, 0.010762299, 0.058835994, -0.06651609, 0.03214982, 0.016755173, 0.044019196, 0.005645167, 0.08745212, -0.017259164, 0.01803745, -0.041899335, 0.030009078, -0.01276803, 0.022799134, -0.083116174, 0.016500378, 0.01083692, 0.06870563, 0.017955348, 0.111982465, -0.017524237, 0.037930634, -0.0032256236, -0.04448221, 0.03679363, -0.002199665, -0.026791103, 0.058658957, -0.046541214, 0.04230878, 0.014738916, 0.018888367, -0.020183431, -0.015227773, -0.0068304394, -0.056180667, 0.041685216, -0.008827498, 0.014762726, -0.07553942, -0.09551279, -0.028621985, 0.048170466, -0.026780773, 0.03351078, 0.04311846, 0.0145113, -0.037054308, 0.046309054, -0.0025162194, 0.016831094, 0.008886425, -0.003455395, 0.012972654, 0.016284194, 0.0070098573, -0.045208618, 0.03434056, 0.017832158, -0.025635708, 0.0057724067, -0.05712628, -0.10175552, 0.06622606, 0.037139703, -0.045209013, -0.029452015, -0.0076338756, 0.02095703, 0.058105297, 0.045065463, -0.05623676, -0.0086112805, 0.05668341, -0.038010485, -0.040310547, -0.044010974, 0.0024511397, 0.0067934347, -0.02199663, -0.014912491, -0.021752084, 0.037754215, 0.003099563, -0.0481386, -0.05917678, 0.045370914, -0.009761448, 0.070143215, 0.006574251, 0.021046394, 0.004118627, 0.018195502, 0.009486498, -0.011805044, -0.0057319608, -0.0762778, -0.021750348, -0.020623676, -0.05561681, -0.08675263, -0.008288404, -0.060596503, 0.0002197345, 0.0025893317, -0.007482823, 0.015272898, 0.024637163, -0.022897167, -0.007636612, 0.00091728126, -0.021141948, 0.0051393197, -0.010388236, -0.019291379, 0.030061299, 0.00075899524, -0.036082674]</t>
         </is>
       </c>
     </row>
@@ -730,42 +714,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>양근혁</t>
+          <t>한승현</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>oleogel; protein; emulsion</t>
-        </is>
-      </c>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Physicochmeical characterization of protein-stabilized emulsions and their utilization as a fat replacer</t>
+          <t>Physicochemical analysis of protein-stabilization O/W emulsion with natural waxes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Protein-stabilized emulsions have been recently receiving much attention due to increasing interests of current consumers in natural and nutritional products. However, there is a lack of studies on the preparation and characterization of emulsions structured with different types of proteins for practical food applications. Thus, in this study, emulsions were prepared with 4 different proteins (pea protein isolate, whey protein isolate, soy protein concentrate, and soy protein isolate) and their physicochemical properties were characterized in terms of particle size, rheological property, and freeze-thaw stability. In addition, the feasibility of the protein-stabilized emulsions as a fat replacer was evaluated in baked goods. Confocal laser scanning microscopic analysis showed that O/W emulsions were successfully prepared with all the proteins, however, the smallest particle size and excellent syneresis were observed in the whey protein isolate emulsions. The use of whey protein isolate emulsions as an alternative to shortening up to 50% level, did not lead to distinct differences in the specific gravity and viscoelastic properties of muffin batters. After baking, the substitution of shortening with the whey protein isolate emulsions at up to 50% by weight did not significantly affect the specific volume and texture characteristics of the muffins.
-According to the results of this study, the emulsions stabilized with proteins may be used as a fat replacer in a wider variety of baked foods with reduced saturated fat contents while minimizing quality degradation.</t>
+          <t>Emulsions have been extensively used in the food industry for controlling the physicochemical and sensory properties of food products. As a demand for sustainability and natural foods grows, research on emulsions utilizing proteins as emulsifiers is increasing. However, emulsions face technical challenges derived from the presence of liquid oil such as oxidation and flocculation. Thus, this study applied three natural waxes to protein-stabilized O/W emulsions to solidify oils for improving their stability. Confocal laser scanning microscopic analysis revealed the formation of stable O/W emulsions when all waxes were used. They showed consistent patterns of viscosity and viscoelasticity, with the candelilla wax sample having the highest values, followed by the carnauba wax and beeswax. Especially, they exhibited shear-thinning behaviors and frequency-dependent viscoelasticity. All the samples remained stable even after undergoing freeze-thaw cycles, and the particle size was largest in the beeswax, followed by the carnauba wax and candelilla wax. Therefore, this study demonstrates the potential food applications of emulsions enhanced in stability through natural waxes.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.0030004792, -0.004224797, -0.008222828, 0.0048407456, 0.06521879, 0.03226404, 0.012159288, 0.00070273376, 0.0036114103, 0.019886276, -0.029261092, -0.02805287, -0.028396882, 0.018407978, 0.015722211, 0.037459873, 0.03671545, 0.07843575, -0.009133193, 0.02424798, -0.019992942, -0.0410966, 0.013420768, 0.054531336, 0.02882306, 0.045152124, 0.041563123, 0.0014192101, 0.0047724573, -0.028896969, 0.034656066, -0.09247913, -0.00804357, 0.014159569, 0.04898473, -0.06590978, 0.024565186, 0.0016905802, 0.023547864, -0.003320532, -0.060412817, 0.0074298405, 0.024172407, 0.073419474, -0.05987362, -0.03931252, 0.056671128, -0.06246715, 0.019392438, 0.006256602, 0.02799247, -0.053801868, -0.0064570783, -0.0157023, 0.019623047, 0.0022982445, -0.09083715, -0.078093864, -0.032344516, -0.008396013, -0.065351516, 0.010935929, -0.06539137, 0.0027459527, -0.026168022, 0.00942109, -0.04767379, 0.024010912, -0.014039533, 0.024930166, -0.035766814, 0.026577232, -0.03833997, 0.030028446, -0.11997095, -0.010207817, -0.03951406, -0.07460154, -0.05287314, -0.016181309, -0.06370394, -0.020670386, 0.02873168, -0.002326304, -0.012208629, 0.06272444, 0.0011265477, -6.970763e-05, -0.012645755, -0.02351352, 0.015308125, 0.008277269, 0.111828454, 0.07945077, 0.023607563, 0.03118628, 0.07357427, 0.123816796, -0.010741638, 0.0871371, -0.035251345, 0.12548082, -0.040539157, 0.01897514, 0.023905242, -0.01594427, -0.012092206, -0.009995778, 0.03140741, 0.03225316, -0.009353274, -0.053198338, -0.04683788, 0.012809971, -0.026052471, 0.075441435, 0.036567625, 0.061898243, -0.0023120525, 0.08960736, 0.0746754, -0.017180812, -0.020509573, 0.0023773036, 0.024088278, 0.007756985, 0.06624259, 0.016562117, -0.021881793, -0.0057199844, 0.033385348, 0.108352244, 0.020241546, 0.07951331, -0.008524882, -0.026850073, -0.0025404713, 0.005941012, 0.069471195, -0.051458083, 0.0069356384, -0.027697407, 0.027737109, -0.07210185, 0.030710582, 0.039084505, -0.046142388, 0.0134254135, -0.0555007, 0.038691964, -0.020873493, 0.029693654, -0.043843854, 0.06263142, -0.052682586, -0.07838375, 0.013899213, -0.002542744, 0.032155808, 0.047402523, -0.05289623, 0.024505539, 0.016205546, 0.03820233, -0.01522855, 0.030710496, 0.05698185, 0.0068065543, -0.016986044, 0.06077057, -0.018895693, -0.005206199, 0.0055726785, -0.004129767, -0.029861087, -0.06256855, 0.023168053, -0.027134296, 0.09544299, 0.08204126, 0.050539322, -0.01155815, -0.035857935, 0.012271575, -0.0057714954, -0.057683602, 0.019227836, 0.0041219136, 0.02137887, 0.037859615, -0.07253857, 0.028287536, 0.0034110514, -0.02488178, -0.0077632754, 0.06992213, 0.043862894, -0.03942434, 0.02645458, -0.019863404, 0.05951744, 0.031210657, 0.0024891114, -0.007846392, 0.00028771395, -0.025241196, -0.033732783, 0.049595404, 0.003443162, 0.12305961, -0.027211733, 0.044131514, 0.02849464, -0.005133374, 0.0487507, -0.017522456, -0.015796773, 0.01971683, -0.016349247, -0.011846318, -0.009406435, -0.019255865, -0.002299194, 0.018649617, 0.02501711, 0.033476327, -0.021248326, -0.047704954, -0.08728264, -0.079549834, 0.028049523, -0.01805125, -0.0030890878, -0.03662291, 0.011450715, 0.05866733, -0.010430259, -0.031947557, 0.086048484, 0.054176107, -0.025528353, 0.05157626, 0.047064252, 0.057339888, -0.0219383, 0.005646777, -0.035882927, -0.008461896, -0.011480462, -0.008142789, -0.07854775, 0.0002335764, 0.0010142393, -0.018760033, -0.0065967315, 0.0028892958, -0.039596166, 0.034661226, -0.060909647, 0.00096718426, 0.066670895, 0.03360777, -0.044693306, -0.027340079, -0.031472664, 0.009725407, -0.04071701, 0.0607284, 0.058797233, 0.0030981554, -0.013976276, 0.004365795, 0.11869695, 0.015460356, -0.07626338, -0.07470792, 0.03841065, 0.0018564104, -0.030240152, 0.03230485, -0.06496116, 0.047176052, 0.06876359, -0.013681541, -0.008111312, -0.041697092, -0.07889171, 0.009768768, 0.011225724, -0.011833487, -0.049471986, -0.013300163, 0.06959592, -0.027750226, -0.061621502, 0.00034598075, -0.0135190245, 0.02655043, 0.03414477, 0.004716758, 0.020850161, -0.053322356, -0.01686767, 0.014336996, -0.0018108209, 0.023475105, 0.0238925, -0.004096262, -0.037852004, 0.02787621, -0.014016214, -0.051397864, 0.016270902, 0.102693565, -0.030942407, -0.043946918, 0.032000177, -0.028684651, -0.023160327, 0.025452692, -0.0074459133, -0.00868616, -0.009186038, -0.02289788, -0.050560545, 0.010426682, -0.09027516, 0.021736663, -0.01240218, 0.0019833145, -0.028267696, 0.0151200555, 0.05024119, -0.017858552, -0.026246024, 0.00037930717, -0.056621842, 0.061082795, -0.026818406, 0.024020998, -0.023365175, -0.05873504, 0.06448024, 0.05409144, -0.049479797, 0.073886596, 0.08593101, 0.04004046, -0.016436446, -0.020703865, -0.017089495, 0.009434453, 0.028482584, -0.08086939, 0.01451309, -0.014862827, -0.01679924, -0.06855081, -0.027033875, 0.023307456, 0.081104055, -0.03289974, 0.081368335, -0.050589018, 0.0567883, -0.09651034, -0.037466515, 0.0022609718, 0.008600823, 0.026344605, 0.021109646, 0.044005617, -0.017936988, 0.0558631, -0.10244985, 0.010923201, 0.0067381975, 0.022512004, 0.048754416, 0.0072440156, 0.03230218, -0.030547809, 0.027988806, -0.07550348, 0.011588888, -0.014910667, -0.06481149, 0.11623167, 0.024186125, -0.04663642, 0.04892498, 0.06590396, 0.07232911, 0.040723335, -0.012572427, 0.060422026, -0.000621278, 0.009335748, 0.05107144, 0.030624626, -0.013369677, -0.06762556, -0.058456372, 0.0410803, 0.010385199, -0.0049321763, -0.03059294, -0.02684467, -0.012671966, -0.08187739, -0.02479909, 0.034841172, 0.08740567, 0.046521183, 0.07197268, -0.0057249665, 0.0041327556, -0.010649389, 0.048116643, -0.06769119, 0.011572581, 0.08011812, -0.042291295, -0.008991615, 0.035263542, -0.08378397, 0.030975105, -0.045654077, -0.038650177, -0.057995096, 0.042217474, -0.043305185, 0.0043216757, -0.05677317, 0.02134157, -0.030801518, -0.0009860425, -0.01713684, -0.045039594, -0.008642885, -0.016107341, 0.020129185, 0.03379402, 0.021192037, 0.04499588, 0.0030942773, 0.027498793, 0.026491953, 0.0038345617, -0.010615606, -0.0035176051, -0.012222461, -0.035604265, 0.05428818, -0.0026705437, -0.0057404786, -0.027824117, 0.032620706, 0.079388514, 0.044550214, -0.11272594, -0.009625057, 0.012769293, -0.0145704355, 0.084453136, -0.011447573, -0.010697123, 0.013877211, 0.00085577776, -0.026755344, -0.06323182, 0.05784184, 0.04102278, -0.07481563, 0.034805816, 0.045029584, 0.03917414, -0.021201303, -0.09161689, -0.044763517, 0.08405158, 0.010190039, 0.05523564, 0.03392144, 0.0064836736, 0.017792635, 0.018259753, -0.053505328, 0.007496098, -0.054881863, -0.03165176, 0.016459396, -0.024419123, -0.05457618, 0.028323302, 0.008923156, 0.008975706, -0.074188955, -0.004129863, -0.0021467223, 0.022382481, -0.028831344, 0.0044683106, 0.02251829, 0.008837633, -0.017787658, 0.01651755, -0.020128835, -0.029100953, 0.015636025, 0.003070438, 0.020899946]</t>
+          <t>[0.046051946, 0.038815703, 0.023435242, -0.016014822, 0.06624999, 0.037382837, -0.015868658, -0.07739494, 0.057161722, 0.016609054, -0.0406722, -0.044613075, 0.034760904, 0.047136612, -0.033182573, 0.041569084, 0.028022777, 0.057362795, -0.021597086, 0.0041901134, -0.055273894, 0.0023117384, -0.036615968, 0.036485735, 0.061010785, -0.03034023, 0.05606644, 0.01697922, -0.021875761, 0.04818734, 0.0018888888, -0.05296664, 0.01319352, 0.03624637, -0.041832414, -0.035284355, -0.017822038, 0.0063722515, -0.078122914, -0.008447156, -0.040960625, 0.029162617, -0.007652853, -0.0016022236, 0.018262697, -0.06401452, 0.03167935, 0.0586091, -0.023999352, -0.020784296, 0.0167387, -0.07459179, 0.047658227, -0.019209772, 0.039443564, -0.034470864, -0.083141424, -0.07504828, 0.039767142, -0.050289303, -0.05181315, -0.03034502, -0.011066718, 0.04602467, 0.00077693554, -0.033976357, -0.057812437, 0.004496616, 0.036684047, 0.06724492, -0.05128675, 0.020551646, 0.013162462, 0.031029105, -0.0632022, -0.021752933, -0.022004776, -0.055854805, -0.0461709, 0.013174933, -0.07204144, -0.0074521247, 0.06103809, -0.009634253, -0.05920464, 0.042032007, 0.06438123, 0.038298115, 0.00052391674, 0.02741396, 0.033993304, -0.006502703, 0.09123758, 0.086248, 0.043116175, 0.002813278, 0.012590097, 0.1133418, -0.001098102, 0.08228438, 0.026875831, 0.11474933, -0.0010165063, 0.0014871386, -0.0009850875, -0.041310206, 0.04640007, 0.031421624, 0.0045235795, 0.06503568, 0.026570689, -0.062329244, -0.035255123, 0.051557384, -0.023043443, 0.007669298, 0.03405663, 0.045246966, -0.020010453, 0.043370385, 0.124674216, -0.010996124, 0.0006962492, -0.074092984, 0.052200597, -0.03854402, 0.02246404, 0.03305951, -0.01041849, -0.027820654, -0.0045946585, 0.056254193, -0.003644334, 0.059360784, 0.015168178, -0.056002755, 0.0052058958, 0.049450517, -0.0033814765, -0.04157028, -0.0018991244, -0.008677243, 0.051804017, -0.09952392, -0.0015885936, 0.037584186, 0.038551454, -0.089477584, -0.001406549, 0.069465175, -0.010630758, 0.008570573, -0.04747098, 0.10930333, -0.03022196, -0.06362515, 0.016680418, -0.025269946, 0.01711417, 0.033587836, -0.0062981355, -0.00681835, -0.025873428, 0.012034887, -0.03279522, 0.03519509, 0.009607573, 0.0015518904, -0.057390057, 0.03569055, 0.010887503, -0.017432114, 0.07800238, -0.02730199, -0.041171156, -0.034448948, -0.014960882, 0.009100026, 0.05968292, 0.040711273, 0.01396794, -0.064166054, -0.006973837, 0.03701652, -0.027134296, -0.011369672, 0.008366505, -0.019270165, -0.04891351, 0.048583884, -0.105924435, 0.025703207, 0.009531516, 0.04463728, -0.002387441, 0.059099212, 0.051276326, -0.045952294, -0.010406771, 0.015824921, 0.03534623, -0.006060355, 0.021230219, -0.020112298, 0.026348509, -0.005579317, -0.09168589, -0.011318963, -0.019478804, 0.026601482, -0.017165082, 0.053966343, -0.040827934, 0.018902287, 0.059854813, -0.016218454, 0.014164087, 0.01842602, -0.058885105, 0.00307805, -0.044957373, 0.048424687, 0.009074705, 0.011031446, -0.004929132, 0.0103277555, -0.05288693, 0.00369802, -0.010007852, -0.002934617, -0.0067259995, -0.020643411, 0.062058475, -0.019883411, 0.02038031, 0.068521716, 0.00856332, 0.02977538, 0.049142614, 0.059656575, -0.0023587046, 0.04030577, 0.037823707, -0.003319153, -0.041740295, 0.006534124, 0.030840764, 0.009269816, -0.00882699, -0.03674999, -0.07612141, -0.03818096, 0.017385075, -0.033515498, 0.059324082, -0.045470428, 0.007499965, -0.008173954, -0.08226244, 0.0012838736, 0.0521328, 0.002879342, 0.028619006, 0.043291017, 0.013844602, -0.026035469, -0.030891042, 0.038351838, 0.04626232, -0.0073491214, -0.04775332, 0.053086888, 0.063436516, 0.0086374665, -0.080377266, -0.0030104883, 0.074321344, -0.018557867, 0.02220977, -0.03354252, -0.037267413, 0.0055683586, 0.019287435, -0.007922477, 0.025700068, -0.025011582, -0.05219972, 0.011436272, -0.04469668, -0.060277104, -0.026856592, -0.023638677, 0.06827768, -0.001888184, -0.033812575, 0.02871771, 0.014123505, 0.055901017, 0.038648468, -0.0053428314, 0.035031863, -0.031048534, 0.07443954, -0.0006879774, -0.019262334, 0.020276641, 0.019989965, -0.021608623, -0.13190544, 0.0034167564, -0.05470722, -0.016810194, 0.09492172, 0.065277115, 0.016991165, -0.02191646, -0.00080910005, -0.03111362, -0.006502719, -0.039292417, -0.02557724, -0.006595193, 0.0128660565, -0.009929101, -0.0021906889, 0.06595801, -0.020360665, 0.046324424, -0.014336231, 0.017423451, -0.07066192, 0.0015618642, 0.06096037, 0.0030499047, -0.0023427166, 0.022793258, -0.076670416, 0.034368705, -0.023848597, -0.027643817, 0.007039712, -0.021776373, 0.03845666, -0.010979809, -0.058682792, 0.07939221, 0.0987735, 0.072306454, -0.039711062, -0.060531475, -0.019044526, 0.0140333185, -0.0014664436, -0.06376086, -0.00773354, -0.0521994, 0.024263699, -0.011993312, -0.053477112, 0.02720141, 0.113555364, 0.025305547, 0.06436529, 0.03299255, 0.033881076, -0.07154301, -0.02807687, -0.002454776, -0.00506811, -0.012153133, 0.009777075, -0.010748721, -0.042060483, 0.05701108, -0.019386493, -0.011356285, 0.05854039, -0.02830682, 0.03328209, 0.0116207, -0.0019952522, 0.0019192378, 0.02555813, -0.09480707, 0.015460038, -0.020751199, -0.090249695, 0.028906284, 0.019596355, -0.09110393, 0.022261115, 0.07003792, 0.0715042, 0.007380614, -0.008176542, 0.008964164, 0.00037613368, -0.0195214, 0.029505424, 0.025369264, 0.028207842, -9.308569e-06, -0.008814915, -0.0061725904, -0.03755798, 0.021880675, 0.021439819, -0.018892013, 0.015052284, -0.015761876, 0.032651637, 0.029056245, 0.048977975, 0.07222654, 0.0759947, -0.045252856, 0.03361681, -0.0879046, -0.029211488, -0.0105740735, -0.057340804, 0.058795545, -0.040346585, 0.047171645, 0.023990192, 0.0021894823, 0.0033766895, -0.042912856, 0.015401915, -0.04052159, 0.02401698, -0.007868289, 0.015672158, 0.019544572, -0.08463967, 0.047727942, 0.007997965, 0.012502838, -0.07334318, -0.0066482285, 0.07440656, -0.009822849, 0.025788179, 0.074785985, 0.022784805, -0.0061942455, -0.0009610296, 0.051906865, 0.032735232, 0.0581149, -0.015816651, 0.0017196878, 0.004248866, 0.015378861, -0.044527374, -0.058580488, -0.085332036, 0.062162817, 0.004614177, 0.005258773, -0.07538277, -0.023499725, 0.052045416, 0.040118553, 0.03448027, 0.0051541836, -0.011518772, -0.059695274, 0.0053685894, -0.050312825, -0.03106313, 0.057621956, -0.0024927687, -0.029700255, 0.0014983607, 0.026063014, 0.0042961324, 0.030933402, -0.045508143, -0.03300183, 0.07365603, 0.0143766375, 0.070279755, 0.0068297964, 0.013185604, -0.02260168, 0.023784399, -0.04370369, -0.04289439, -0.060499895, -0.040601976, 0.018901523, -0.030383788, -0.012969322, -0.0042267866, 0.0422238, 0.0509836, -0.036782097, 0.02517823, -0.04181944, -0.014452238, -0.06457515, -0.027146006, 0.019775966, -0.022997376, -0.014098202, 0.026577068, 0.023950526, -0.07154583, 0.014129838, 0.03041648, 0.059110623]</t>
         </is>
       </c>
     </row>
@@ -774,41 +753,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>김혜린2</t>
+          <t>이자민</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>rice; bread</t>
-        </is>
-      </c>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Effect of different varieties of rice flour on the physical properties of frozen dough breads</t>
+          <t>Synergistic rheological interactions of rice flour with various hydrocolloids during heating and cooling</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Freezing is a widely adopted technique in the food industry in order to maintain the quality attributes of food products, and the baking industry is no exception. However, most preceding researches have dealt with the quality degradation of breads by the freezing process. Also, there is a lack of information on the physical changes of the frozen dough breads made from other cereal flours although there are increasing demands for non-wheat breads. Therefore, in this study, eight different varieties of rice flour (Milyang, Miho, Hanareum, Aromi, Geumgang, Saeilmi, Saemimyeon, and Dodam) were incorporated into the formulation of frozen dough breads, and their quality attributes were characterized before and after freezing storage. Pasting measurements showed that Saemimyeon had the highest final viscosity, while Dodam had the lowest peak viscosity. According to the  thermo-mechanical results by Mixolab, the use of rice flour seemed to reduce the water absorption of wheat flour but to increase the  dough development time. Overall, the frozen storage reduced the tensile parameters (Rmax and extnsibility) of doughs and specific volume of the corresponding breads. When frozen dough breads were prepared by replacing a portion of wheat flour with rice flour, the bread samples with rice flours exhibited lower baking performances. It was however interesting to note that the physical changes of the frozen dough breads varied depending on the cultivars of rice flour. In particular, the rice flour varieties with high amylose contents like Geumgang seemed to minimize the deterioration of frozen dough breads after frozen storage. Thus, the baking performance of frozen doughs appeared to be dependent on the cultivars of rice flour. This study may provide useful information for the food industry to develop frozen dough breads with rice flours by minimizing quality loss.</t>
+          <t>The increasing consumption of wheat flour has led to a rise in gluten sensitivity and digestive disorders. Consequently, the demand for gluten-free foods has risen significantly and rice flour has received much attention as a primary gluten-free ingredient. However, since rice flour is unable to form a three-dimensional network, additional ingredients such as hydrocolloids are necessary in order to enhance the structural properties of gluten-free products, this study aimed to explore and analyze the use of hydrocolloids in combination with rice flour in terms of rheology. In this study, a controlled-stress rheometer was employed to measure the changes in the pasting and dynamic viscoelastic properties of rice flour by eight different hydrocolloids at varying temperatures. Overall, all the rice flour samples showed similar pasting profiles, which were composed of a rise to peak viscosity during heating, a decline to trough at temperature hold, and a rise to final viscosity upon cooling. However, the use of hydrocolloids except for arabic gum, generally increased the pasting parameters, compared to rice flour itself. In addition, the rheological pattern seemed to be varied depending on the type of hydrocolloids. This study offers fundamental insights into the rheological interactions of rice flour and hydrocolloids, probably establishing a framework for their application in the development of gluten-free products.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.021001615, -0.023844257, 0.15732409, -0.009504127, 0.11196981, 0.02382385, 0.0316842, -0.027763788, 0.05724048, 0.040628012, -0.0108048655, -0.015374921, -0.07707567, 0.05811026, -0.021598795, 0.012237475, -0.0019724173, 0.020530911, 0.07990553, 0.009048402, -0.055883233, -0.030228468, -0.085628286, 0.021549085, 0.11065657, 0.01995014, 0.010180668, -0.032943122, -0.00811592, -0.012167183, 0.0524423, -0.04287153, -0.020729888, -0.029329492, 0.039849807, 0.004225689, 0.023339875, 0.016893806, 0.041089147, -0.009127424, -0.027877506, 0.035072956, -0.0054719253, 0.020485958, -0.068980254, -0.013622086, 0.0363498, 0.039983872, -0.02444139, 0.044466376, 0.038383503, 0.024185363, 0.0066451696, 0.022156104, 0.053302202, -0.04610317, -0.067337, -0.02990901, -0.010333946, -0.004907285, -0.014991016, 0.02871066, -0.068742365, 0.012748344, -0.031565458, 0.0025410303, 0.012711668, 0.025103556, -0.01159518, 0.02360373, -0.012397117, -0.011511044, -0.025355842, 0.03542484, -0.035807677, -0.07041944, 0.029971082, 0.0059644775, -0.057810374, -0.026972864, -0.018918656, -0.06373107, 0.0979411, -0.03427343, 0.019395761, 0.021939732, -0.034893926, 0.04174307, -0.0057607163, 0.0032976063, 0.02325745, 0.013797516, 0.086257435, -0.018116593, 0.016362775, 0.042027224, 0.07518278, 0.12720759, 0.044885486, 0.095543794, -0.026560245, 0.05139518, -0.020812524, 0.039322, 0.033304114, -0.007387779, 0.042452294, -0.011255224, 0.030321676, 0.02883804, 0.013864302, -0.067097805, -0.052287832, 0.038790815, 0.020860268, 0.035191823, 0.00078961195, 0.057348166, -0.004099389, 0.08245343, 0.07324613, -0.017292973, 0.035792798, 0.055783823, 0.0037980094, 0.019288365, 0.03826955, -0.015059414, -0.014255743, -0.08144405, 0.026195971, 0.061606105, -0.063932545, 0.015403809, 0.02950564, 0.028047822, 0.008883953, 0.010705203, 0.06285789, -0.01731305, -0.0012735792, -0.052999213, 0.0043120026, -0.040150914, -0.029743638, 0.051323228, -0.07218743, -0.050533783, 0.036772568, -0.011494288, -0.055528577, -0.008998336, 0.033804383, -0.062861964, 0.0059349006, -0.06233285, 0.010070871, 0.017846474, -0.033940237, -0.008469286, 0.03437286, -0.06422093, -0.036408726, 0.08314369, 0.028351348, -0.052077275, 0.06410255, 0.007920574, 0.0169149, 0.050687965, -0.031679366, -0.0075061456, 0.034814794, -0.03372569, -0.037643325, -0.030511362, -0.005293431, 0.00045158935, 0.073105924, -0.10162518, 0.027213607, -0.00849514, 0.051373474, -0.044924546, 0.04429322, -0.050462954, 0.019249195, -0.030397834, 0.06168638, -0.008469774, -0.12653282, 0.056693677, -0.0023097214, 0.013418535, -0.009954887, 0.029960454, 0.007290255, -0.01450072, -0.010191995, 0.04944112, 0.07628918, 0.06722763, 0.06950445, -0.012628934, 0.10075021, -0.0061735627, 0.010663446, 0.024790877, 0.040714554, 0.017074393, -0.019330563, 0.00035594773, -0.037244055, 0.0119735915, 0.010710154, -0.037720144, -0.031350262, -0.050315127, 0.033268962, -0.025189398, 0.043612417, -0.041691456, 0.055249926, 0.033579182, -0.04971944, 0.026893886, 0.06693636, 0.02020509, 0.049083512, -0.06795906, 0.044421703, -0.0803909, -0.052192323, -0.022782257, 0.046411913, 0.052932005, -0.05059429, -0.015511287, 0.0032308474, 0.086508386, -0.019976005, -0.0165702, -0.0047924253, 0.06652733, -0.05246451, -0.028788874, -0.030312687, 0.01284922, -0.059021644, 0.007326062, -0.033332508, 0.05529517, -0.016166907, -0.019830726, -0.050253328, 0.017317303, 0.029234042, 0.0055815713, -0.05472439, -0.051923048, -0.015908292, -0.024910117, -0.004963279, -0.029998705, 0.0042662052, -0.00893649, 0.007943931, 0.042149737, -0.04434649, 0.027674, 0.013602136, -0.060096577, 0.049135435, 0.06940009, -0.042173278, 0.062757485, -0.0020161397, -0.038435627, -0.009171231, -0.040975615, 0.03262589, -0.011263335, -0.03443108, -0.016174441, 0.041446093, -0.065309264, -0.084066786, -0.026161047, -0.00071727985, -0.049953915, -0.01912604, 0.013669433, 0.02405533, -0.017106837, -0.050575066, 0.029579347, -0.028208535, 0.04946828, 0.0018002539, -0.014127266, -0.026753003, 0.019448856, 0.05739494, 0.018861635, -0.00021470524, -0.083925754, -0.041588906, 0.0029297417, 0.021030376, 0.019643877, -0.041267388, 0.010809666, 0.04634691, 0.047581404, -0.06754424, -0.010929756, 0.017789466, -0.048921153, -0.035406608, -0.010714438, 0.024978753, 0.07970562, 0.009558537, 0.025472857, -0.07056219, -0.010718176, -0.003422668, -0.07276458, -0.01485167, 0.041408528, -0.0122661935, -0.016297901, 0.0213781, -0.007927587, -0.07708884, -0.02994384, -0.023978768, -0.042102017, -0.0117130065, 0.015143727, -0.06408383, 0.003132617, 0.011323912, 0.010429457, -0.08218497, 0.03180232, 0.08509398, -0.040648874, -0.0527581, -0.019006034, 0.021827755, 0.006772712, 0.009813537, -0.008360608, -0.022037968, -0.047854368, -0.053441525, -0.09399654, 0.04426574, 0.019968577, 0.042336833, -0.025397632, -0.06083775, -0.03033019, 0.03409638, -0.07842789, -0.0173737, -0.019111726, -0.06359922, -0.03517296, -0.0045511625, 0.004820748, -0.02371023, -0.026404636, -0.023173502, -0.04435176, 0.012567541, 0.028518884, 0.03394933, 0.0022827294, 0.05232161, 0.03737151, 0.03782609, -0.122691125, -0.010942299, 0.014851163, -0.08714785, 0.038905125, -0.003062242, -0.091196716, 0.0120770605, 0.11236599, 0.025887523, 0.023730572, 0.013661946, 0.014342252, -0.036974814, 0.0062122946, -0.04511979, 0.011021928, 0.068834156, -0.05736087, 0.01400357, -0.0008587035, 0.009269888, 0.022936206, -0.026276229, -0.009682099, -0.003221103, -0.06572032, -0.011132129, 0.07052239, 0.051070653, 0.07807732, 0.0019122264, 0.025045104, -0.031308137, 0.019483142, 0.033401962, -0.013598435, -0.022590186, -0.04645501, -0.09475799, 0.025045646, -0.05005688, -0.06384324, -0.012952352, -0.051137086, -0.03261696, -0.055468384, -0.028348258, 0.007866662, -0.014826074, -0.06776747, -0.014935763, 0.026366651, -0.030039705, 0.0043481993, 0.0033251096, 0.051142365, 0.03565983, -0.100681126, -0.033193093, 0.028121442, 0.027870955, 0.08772188, -0.012724734, 0.09726364, 0.028214814, -0.0015946669, 0.013846746, 0.05156741, 0.009309269, 0.05483413, -0.010951028, -0.044314943, -0.029552037, 0.016886124, -0.01107689, 0.017031167, 0.046304487, 0.018359583, 0.07841908, 0.012357131, -0.022183364, -0.040249687, -0.08043235, -0.0015565986, -0.045317877, -0.008683053, -0.03955929, 0.08194386, 0.024866158, -0.040180556, -0.012578549, -0.034929473, 0.00919933, 0.002186067, -0.05198906, 0.015004997, -0.009135217, -0.037133798, 0.021450134, 0.016581506, -0.0054083467, 0.015017291, 0.014002199, 0.115467206, 0.0022261231, -0.056224506, -0.011800375, 0.023146687, -0.07282607, -0.00045236855, 0.04647708, -0.054856308, -0.023897255, 0.024131428, 0.0075082704, -0.030623922, -0.0063397754, 0.01364234, -0.012951807, 0.01839656, 0.040399842, -0.045168247, 0.040601145, -0.030745953, -0.15253331, -0.011911102, -9.403797e-05, 0.017538164]</t>
+          <t>[-0.021315329, 0.018006757, 0.027101133, 0.03059394, 0.10896091, 0.041479472, 0.0057351408, -0.030849429, 0.023149218, 0.011634837, -0.111295044, -0.09549152, 0.012185306, 0.07236554, -0.024362108, 0.068834394, -0.048364986, 0.057095468, 0.021712683, 0.016629064, 0.033118207, -0.009369282, -0.02566826, 0.03798632, 0.0991118, 0.012389435, 0.027363248, -0.022892032, 0.010498843, -0.017572587, 0.014699243, -0.07919518, 0.020371923, -0.036039706, -0.05347781, -0.02773479, 0.050177727, 0.016383275, 0.0191791, -0.005576729, -0.041670766, 0.049133252, -0.038763907, -0.0036482331, 0.024730312, -0.030307801, -0.027410788, -0.040415846, -0.03536853, 0.0150930835, -0.004200189, -0.0379511, 0.04987181, 0.066886865, 0.022816937, -0.07223376, -0.053165786, -0.012471065, 0.0006212146, -0.011013757, -0.025733856, -0.0548969, -0.07394965, -0.008165611, -0.017081846, -0.03530814, 0.0706574, -0.048391547, 0.024004275, 0.015225255, 0.0030266494, -0.036400985, 0.02686859, 0.025373539, -0.04228761, -0.16912797, -0.008491698, -0.013167432, -0.027788334, 0.0079541635, 0.002325837, -0.00026078336, 0.03991662, -0.060251806, -0.042110953, 0.05563214, -0.054272298, -0.036821272, 0.002509529, 0.044501312, -0.013806053, -0.039002363, 0.113712445, 0.059437647, 0.032309733, 0.026303219, 0.059061356, 0.0770523, 0.053960636, 0.05642665, -0.011846966, 0.015819937, -0.027085425, -0.017851306, 0.051430862, -0.03134586, 0.035603862, -0.003638932, 0.043312415, 0.02879604, -0.009971702, -0.05349034, -0.031638887, -0.018647265, 0.014911454, 0.08697086, -0.002350236, 0.015308685, 0.017305918, 0.045486487, 0.06024856, 0.012507851, -0.05014544, 0.046573352, 0.0016295972, 0.010888699, 0.024910636, -0.018504065, 0.010791134, -0.07103996, 0.024219457, 0.06303161, -0.059569314, 0.035756685, 0.010951723, 0.05253205, -0.005927989, 0.027517173, 0.029288277, -0.030745275, 0.015179106, 0.0138948085, 0.043670274, -0.10262107, -0.023545014, -0.0042879703, 0.007280092, -0.012027954, -0.026363045, 0.03180715, 0.013746831, 0.030636374, 0.008836545, 0.0013566186, -0.027881157, -0.046834722, 0.018765422, -0.0121714, -0.036214635, 0.03511057, 0.054838885, -0.04608298, -0.042823218, 0.037746485, -0.02592216, 0.048304204, 0.052850593, -0.012871411, -0.069140315, -0.0013698974, -0.011421616, -0.019157697, 0.014830895, 0.0075577316, -0.04022385, -0.0650035, 0.014202139, -0.020535132, 0.06271672, -0.049683757, 0.06164619, -0.09235726, 0.018067114, -0.09622793, 0.064959005, -0.034079958, -0.008213929, -0.024278648, 0.010413749, 0.03159194, -0.117325366, 0.09390858, 0.043883014, 0.0048096804, 0.011602266, 0.018858934, -0.0050678733, -0.064785086, 0.052846767, 0.103073485, 0.06622954, 0.02586653, 0.029759582, -0.059343383, 0.06791219, 0.077772476, -0.0062802746, 0.066141844, 0.009395487, 0.03371793, -0.028604168, 0.06468081, 0.014011137, -0.0031912131, 0.02554248, 0.00049603445, 0.04112348, -0.034320086, -0.008087073, 0.016006688, 0.064085625, 0.064203925, -0.01312905, 0.031615816, -0.028431622, 0.00018379488, 0.04324979, 0.026880769, 0.007361705, -0.024507757, 0.0045482847, -0.013306908, -0.05112912, 0.000100176316, -0.005133886, -0.05359166, 0.003936044, 0.021386355, -0.0013266756, 0.049768493, -0.0688562, -0.016589057, -0.012676581, -0.02153593, -0.010488017, -0.020387754, 0.0004022922, -0.050688375, -0.058462672, -0.03085248, -0.04007508, -0.0067202747, 0.0032907103, -0.06545527, 0.055561725, 0.018360076, 0.0007214373, -0.12586479, -0.046430685, -0.05681846, 0.05180718, -0.042748224, -0.035855476, -0.01219751, 0.039776538, 0.049775332, 0.04069286, 0.0053048586, -0.05385378, -0.079137444, 0.05065772, 0.04479921, 0.025436474, 0.05428601, -0.031823646, 0.0113717755, -0.00012938236, -0.06033415, -0.011615315, 0.007131066, -0.02148997, -0.02504078, 0.08428868, -0.08401024, 0.032311253, -0.030761063, -0.056621153, 0.0388572, -0.0058320053, -0.05850454, -0.035026163, -0.013561332, -0.005421177, -0.00080267136, -0.05667503, 0.055682678, -0.017884066, 0.0777164, -0.03461837, 0.021001047, 0.0029149812, -0.034852877, 0.05681123, 0.02081935, -0.050733045, -0.06184662, -0.028333455, 0.00035686485, -0.010852488, 0.01513763, -0.02867757, 0.011874151, -0.023377746, 0.054434408, -0.025611015, 0.021184947, -0.006222911, -0.018211124, -0.040365484, -0.07061281, 0.038250394, 0.040205717, -0.035593953, 0.0051758876, -0.07431805, 0.11615184, 0.016778722, 0.0015685583, -0.019204715, 0.039940316, 0.011331249, -0.0068282494, 0.028135559, -0.01660397, -0.052660856, -0.02911695, 0.02465652, -0.011996886, 0.015011062, 0.01691898, -0.017288638, -0.044132825, 0.061370462, 0.04279731, -0.056979366, -0.013058824, -0.0058764066, 0.038365018, -0.12074839, -0.046484917, 0.025890633, 0.014361823, -0.028104836, -0.0146833835, -0.01061908, -0.053642213, -0.022095406, -0.06182403, 0.018075276, 0.012561805, 0.063421585, -0.038162656, -0.0063746963, 0.02480774, 0.029505178, -0.038736448, -0.08705332, -0.028332584, 0.03361504, 0.013846964, 0.051486276, 0.027398426, -0.050884463, 0.0035820138, -0.038310003, -0.001904056, -0.044752568, 0.06584918, 0.064010195, -0.025882332, 0.011330354, -0.018620621, -0.016606841, -0.06847013, -0.07213358, -0.00051698316, -0.08253049, 0.060089204, -0.06671822, -0.040709488, 0.038926676, 0.05507749, -0.017657746, -0.012926554, -0.042255215, 0.043091062, -0.028770298, -0.014283667, -0.04807429, 0.036932793, 0.050954863, -0.03020986, -0.015811846, -0.01474286, -0.060802504, 0.0014144052, -0.02882152, 0.025910182, -0.021989264, -0.041005187, 0.038045663, 0.039686102, 0.030346125, 0.0832891, 0.044581577, -0.011137798, -0.029703368, 0.02893736, 0.006489933, -0.026985465, -0.052233547, 0.013306218, -0.026558941, 0.042423386, -0.044510208, -0.07522875, -0.026026519, -0.05202987, -0.0044799526, 0.049322836, -0.0130774705, 0.01074195, -0.017707575, -0.092277385, -0.029283663, -0.03487876, 0.022853244, 0.008837635, 0.08773098, 0.049602915, 0.017556852, -0.048566844, -0.07525001, 0.0816001, 0.036785893, 0.02835748, -0.0009819983, 0.02203028, 0.015666798, -0.048497543, 0.023308745, -0.04653167, 0.008364279, 0.046617825, 0.043243736, -0.017484847, -0.019140484, 0.022467565, -0.06392551, -0.05726839, 0.018490046, 0.008747725, 0.08703769, -0.009267208, 0.039382923, -0.059179295, -0.08799816, 0.0068008276, 0.049710263, -0.081325084, 0.062687635, 0.052670747, 0.05383104, -0.008195004, 0.07441633, -0.023998346, 0.093393974, -0.005469641, 0.022520911, -0.082434416, 0.0655495, -0.033449568, 0.06739657, 0.08984783, 0.020438787, 0.043897532, 0.0006672479, 0.021261642, 0.0018663482, -0.005810525, -0.08149739, 0.013734157, -0.050258916, 0.009615563, 0.044317584, 0.025201606, -0.0032306062, 0.04015583, 0.020347418, -0.0005595879, 0.006392928, -0.027059278, -0.0017089865, -0.06281526, 0.030004533, -0.0036835219, 0.015995905, 0.009750649, -0.13026313, -0.007551524, 0.0026391866, 0.037264578]</t>
         </is>
       </c>
     </row>
@@ -817,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -826,32 +801,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>권혁진</t>
+          <t xml:space="preserve">정성민 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>vegetable oil; machine learning</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Machine learning-based classification of vegetable oils: A comparative study using GC-MS, TD-NMR, and FT-IR</t>
+          <t>Retrogradation-induced physicochemical changes of different starches during refrigerated storage</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Vegetable oils are essential parts of diets widely used in various food products. As the nature of the oils used may induce differences in the quality of the end products, the identification of oil types has been an important task in the field of food science. However,  the current food industries  mainly rely on chromatographic techniques for oil classification, which are laborious and environmentally unsustainable. There is an urgent need for more rapid, eco-friendly, and non-destructive alternatives. Thus, in this study, one traditional analytical method (GC-MS) and two alternatives (TD-NMR and FT-IR) were used to characterize eight vegetable oils (Canola, Grapeseed, Olive, Corn, Flaxseed, Sunflower,Palm, and Soybean oils). The physicochemical features of the oils obtained by each technique were then applied to four popular machine learning classifiers: Support vector machine, Random forest, K-nearest neighbor, and Decision tree. Finally, the classification abilities of the three analytical methods were evaluated based on the accuracy of the machine learning models. GC-MS results revealed the different fatty acid compositions depending on the type of vegetable oils. TD-NMR measurements demonstrated the existence of two components with different mobilities in the oils. Based on the 1st derivative of their FT-IR spectrum, the oils displayed clear spectral differences, especially at 3000-2800, 1800-1600, and 1400-1200 cm-1 regions. When the datasets of the oil features from three analytical methods were subjected to machine learning models,  the classification performances for GC-MS, TD-NMR, and FT-IR varied by the classifier algorithms applied. While the highest classification accuracy was observed with the GC-MS dataset, fairly high accuracies were achieved with the FT-IR and TD-NMR features. Although the classification via TD-NMR and FT-IR did not surpass the accuracy of the GC-MS, this result suggests that the two non-destructive methods can be used to classify vegetable oils with accuracy comparable to the traditional method.</t>
+          <t xml:space="preserve">Retrogradation is a primary change that occurs during the storage of starch-based foods, leading to a degradation of quality and a reduction in shelf life. However, the studies on the retrogradation of starches derived from their intrinsic properties are still limited. In this study, the physicochemical properties of eight different starches were therefore analyzed in terms of retrogradation during refrigerated storage. The different native starches showed varying amylose/amylopectin contents, water hydration, morphology, pasting/thermal properties, and crystalline structure depending on the types of starch. In the XRD diffractograms, most starches lost their crystallinity post-gelatinization, exhibiting a typical V-type pattern, with new crystalline peaks observed after storage, confirming retrogradation. In addition, starch gels showed decreased tendencies of water mobility, whereas the firmness increased upon storage period. More specifically, the level of the physicochemical changes varied significantly depending on the type of starch during refrigerated storage. In hyperspectral imaging analysis, all the starch gels exhibited distinct absorption peaks at wavelengths of 984 and 1070 nm during storage. Hence this study presented the comprehensive physicochemical information of eight different starches and their corresponding retrogradation-indued changes including non-destructively measured hyperspectral imaging results. Thus, this study underscores the importance of using non-destructive methods, such as hyperspectral imaging, for monitoring retrogradation[1]induced changes in starches during distribution, potentially benefiting the industry. </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.00286876, 0.035614446, 0.042107508, -0.0033676738, 0.10370246, 0.0031733296, 0.024888787, -0.096517384, 0.019818282, 0.03501184, -0.029095316, -0.028889831, 0.01006812, 0.042334873, -0.01973057, -0.002798712, -0.0077688964, 0.022701357, -0.03446386, -0.02547763, -0.042869113, -0.03185215, -0.020574411, 0.0073703215, 0.045722082, -0.01370639, 0.03326142, -0.014113572, -0.055683255, -0.011098734, 0.010019345, -0.012065168, -0.024501435, -0.045834992, -0.067418285, -0.042692903, 0.067102335, 0.033362616, -0.022346511, 0.028269691, 0.031805467, 0.026724104, 0.006922785, 0.060092587, 0.007577477, 0.021575619, -0.022268003, -0.021977196, -0.09236766, 0.017609525, 0.062097825, -0.03751053, 0.0093766535, -0.0068724793, 0.0677814, -0.041724633, -0.075078644, -0.0068992684, -0.040435396, -0.0036762354, -0.04404623, -0.046741318, -0.017450312, 0.04009734, -0.062473584, -0.036174886, 0.029808141, 0.074896894, 0.06891009, 0.0017908579, -0.025276659, 0.0075025447, 0.013371266, -0.03167748, -0.057501666, -0.033484116, 0.004783358, -0.0127760265, -0.04338202, 0.0059688087, -0.008075809, -0.05869385, 0.10390658, 0.04637605, -0.045406967, 0.032903973, -0.022296613, -0.0073721386, 0.01377229, -0.013203905, -0.01767477, -0.024511203, 0.07352789, 0.0066825273, 0.03938089, 0.021220414, 0.062149774, 0.04969043, 0.030079354, 0.0043511824, -0.015714038, -0.0052752704, 0.026755521, 0.040607274, -0.013196993, -0.027801834, -0.027454238, 0.037066307, 0.021260416, 0.04751756, 0.01074753, -0.08590841, -0.060505297, 0.03666662, -0.018448927, 0.019893132, 0.011115645, 0.004671609, -0.0011264202, -0.05637955, -0.0129495645, -0.031665813, 0.008002021, 0.026062233, -0.010188927, -0.008266147, 0.0826701, 0.0030041689, -0.03202276, -0.0401539, -0.031321846, 0.05496818, -0.015267556, 0.05584592, 0.0071256924, -0.040006086, -0.021209706, -0.017798068, 0.050413076, 0.0067347144, -0.0237072, -0.003683844, 0.017248612, -0.016387153, 0.008909631, 0.01964639, 0.05157295, 0.015948014, 0.0147897955, -0.022114463, -0.06729665, 0.002212598, -0.120046854, -0.014637132, -0.07222212, -0.05238941, -0.014508791, 0.01177449, 0.0058596684, 0.023400314, -0.0309561, -0.0018901821, 0.010217147, 0.039064106, -0.0111600375, 0.023736117, 0.043490734, -0.011721868, -0.015455003, 0.04017234, -0.0112179695, -0.018975839, 0.043664753, 0.028296102, -0.046130847, -0.032360382, 0.015591173, -0.018397028, 0.038518347, -0.0056245807, -0.076689765, 0.00784326, 0.05876292, 0.07479802, -0.00033812085, -0.06255135, 0.035240352, -0.024003588, -0.032327957, -0.023793295, -0.07920925, -0.067390755, 0.044364173, 0.008189773, 0.0037715917, 0.0035431858, 0.016772488, -0.05327277, -0.033923868, -0.0047936672, -0.09050341, 0.019954376, 0.07585742, 0.017241728, 0.10457647, -0.051308237, 0.0005416269, -0.030855408, -0.024948716, 0.06681775, -0.0048617907, 0.04921597, 0.010027489, -0.01759337, 0.0353731, -0.0049477336, 0.022935735, -0.064694084, 0.020893581, -0.0032667867, -0.007266333, 0.02776376, -0.027526945, -0.0035207544, 0.012448839, 0.039451092, 0.007636525, 0.020387629, -0.060761258, -0.014037743, 0.04055208, -0.056284137, 0.018700618, -0.015168435, 0.011867436, 0.031390805, -0.0037607383, 0.054699864, 0.06494868, 0.10963923, -0.004851366, 0.0068329102, -0.042496916, -0.027054803, 0.0012177917, 0.0014778348, -0.016618665, 0.0010806388, -0.051459644, -0.05603822, -0.048079707, 0.021695849, 0.047350883, 0.022585988, 0.00716874, -0.029805267, 0.009435351, -0.03158009, -0.04643084, 0.013695981, 0.07099562, 0.053161327, 0.014186646, -0.01046609, -0.03240248, -0.0566884, 0.0036650687, 0.022263167, 0.035003625, 0.08571801, 0.01848864, 0.04177493, 0.05070446, 0.010249256, 0.015622551, 0.0053029023, -0.04060405, -0.021942487, 0.010847687, -0.040070035, -0.043057054, -0.021500446, 0.029921483, 0.0252144, -0.0003996182, -0.029798556, -0.047221594, 0.03489316, -0.010461911, -0.02430439, -0.015619431, -0.020943793, 0.07167696, -0.018843245, -0.064136006, 0.04025419, -0.043379817, 0.026512513, -0.031062284, -0.010735743, -0.02923568, -0.014830464, 0.015115501, 0.05870792, 0.02606351, -0.053050514, 0.04261864, -0.06507506, -0.024185231, -0.002446485, -0.019250952, -0.02904588, 0.07003922, 0.08660773, -0.02969763, 0.044423655, 0.035565574, 0.006263299, -0.023187678, -0.040212117, -0.0073623196, -0.030033695, 0.0044262074, -0.02615208, -0.071413964, -0.005183213, -0.07818392, -0.027056897, 0.024125025, 0.057273194, 0.008486662, 0.030517217, -0.0012867486, -0.005940336, 0.024091905, -0.021768376, -0.061072424, 0.01301327, -0.036856115, 0.031352274, -0.0766494, 0.010654239, 0.075260736, -0.017382557, 0.021850146, 0.018158676, 0.0520747, 0.13874693, 0.02171106, -0.020226156, -0.03436938, -0.022412512, 0.030689336, 0.041326545, -0.02222676, -0.07118456, 0.0041790395, -0.010199369, 0.025731865, -0.01668023, 0.055791494, 0.055990327, 0.02468205, 0.08203715, -0.012368667, -0.03144094, 0.023410875, -0.017508822, -0.028824218, -0.047333866, -0.026568621, 0.032239318, -0.008432607, 0.02480575, -0.031224351, 0.02157665, 0.02190936, 0.00398682, 0.041143447, 0.03594719, 0.061147507, -0.025182512, 0.0324709, -0.015142705, 0.06116874, -0.022218263, -0.08924337, 0.07961823, 0.017997585, -0.07095228, 0.039310236, -0.028665224, 0.103744484, 0.03378422, 0.055363283, -0.025452206, -0.026413579, -0.008902845, -0.041412536, -0.05441544, 0.060648944, 0.040567663, 0.064348675, 0.022091841, -0.061772227, -0.05760653, 0.028828835, -0.060695656, 0.03015192, -0.020732615, 0.04959304, 0.07247751, -0.020980788, 0.07233989, -0.007861668, -0.00034180353, 0.01639144, -0.062027056, 0.0038354073, 0.008351763, -0.045576304, -0.018880121, -0.06538142, 0.029594582, 0.03631248, 0.01383566, -0.031974103, -0.046687853, 0.004923696, -0.021541746, 0.022245878, -0.09590523, 0.012301988, 0.0019629197, -0.036942676, 0.068293996, -0.009425789, -0.013769409, -0.021247111, 0.0086080395, 0.039004464, -0.04165631, 0.0007684681, 0.093407676, -0.051245045, 0.009213802, -0.009025371, 0.07545953, -0.037082158, 0.02357734, -0.04999097, -0.034481235, 0.040549763, 0.0039831963, -0.029086586, -0.06565545, -0.11691348, 0.03380388, -0.0039735553, -0.010729084, -0.034900885, 0.0358975, 0.030638006, 0.049165644, -0.02154916, 0.0017284785, 0.004728149, 0.03729619, -0.0091469595, -0.10121384, -0.03351338, 0.057471327, -0.01842224, 0.025536217, -0.036937647, -0.025835847, -0.09490703, 0.003469181, -0.007232053, -0.03248002, -0.002906567, 0.017554872, 0.03442489, 0.006784524, 0.00017216802, 0.004637725, 0.04222104, 0.035273567, -0.041396532, -0.030363383, -0.041861445, 0.07196869, -0.03215263, -0.054577038, 0.036787447, -0.035791457, 0.05955971, 0.007997033, 0.009836364, -0.01898407, 0.021521505, -0.02528234, -0.010461938, -0.00040780866, 0.0015934929, -0.0532527, -0.0052038645, 0.0074344557, -0.054944277, -0.05910669, 0.014502727, 0.07981564]</t>
+          <t>[-0.0008081107, 0.034174528, -0.018583288, -0.015418712, 0.09341498, 0.028438672, -0.020313744, -0.08704841, 0.003619247, 0.019963583, -0.06803038, -0.030240674, -0.10649548, 0.042874925, -0.021014804, 0.006234876, 0.048426513, 0.012719675, 0.031163225, 0.0012010451, 0.014978925, -0.010384094, 0.009604699, 0.024500359, 0.062172566, 0.005497769, 0.020123633, -0.02736449, -0.06942284, 0.022315515, 0.024104089, 0.0046313633, 0.016054096, 0.0059136422, 0.015801359, -0.03757659, 0.06866553, -0.03348697, -0.004334322, 0.08067778, -0.0087345885, 0.009948656, 0.010148817, 0.017068543, -0.050446257, -0.026066938, 0.034645412, 0.0133328885, -0.04555803, 0.034351807, 0.0486668, 0.028275164, 0.03483818, 0.10262133, 0.043104716, -0.05399748, -0.06982794, -0.07864489, -0.007683054, 0.0037735028, -0.054696236, -0.011504313, -0.081353955, -0.014772769, -0.04826166, -0.010806745, 0.015798658, 0.045264214, 0.015677087, -0.032379784, -0.010608937, 0.001347103, -0.03450857, 0.024830854, -0.051386885, -0.0041375193, 0.012541179, -0.057143297, 0.0033703074, -0.0055730166, -0.0046230997, -0.0454957, 0.08900229, 0.026709724, 0.0072900658, 0.11108735, -0.019605977, -0.056572437, -0.0009413353, -0.033465035, -0.021180073, 0.02970197, 0.12495603, 0.05400459, 0.005673935, 0.007589849, -0.021180728, 0.08520463, 0.0514954, 0.06196714, 0.0003922656, 0.103492275, -0.07075726, 0.008418458, 0.012348425, -0.03396574, 0.025170926, 0.026003433, 0.02834866, -0.010638227, -0.0060759084, -0.083374664, -0.031901676, -0.02965362, -0.061485343, 0.08944267, 0.028392248, 0.035209615, -0.006029313, 0.061618958, 0.00014285417, -0.024888895, 0.054478463, 0.04452118, -0.028987922, -0.007797765, -0.008886528, -0.03747749, -0.008912708, -0.022955244, -0.006338363, 0.057347324, -0.04460943, 0.0015197408, 0.057041496, 0.0199286, -0.008298532, 0.043177776, 0.042303216, -0.02107495, 0.002283116, -0.08570723, 0.006805831, -0.040931743, -0.003611409, 0.023186538, -0.063477345, -0.00073834823, 0.019573208, -0.010460088, -0.0246265, 0.021995874, 0.016675113, 0.009423166, 0.014443996, -0.052447304, 0.054103192, 0.004941156, 0.028786326, -0.02632826, -0.012237684, -0.028037002, -0.0994854, -0.007248195, 0.04691829, -0.10652226, 0.08069389, 0.005517547, 0.005554442, 0.077739224, 0.0028938346, -0.0250908, 0.043265503, -0.054946646, 0.0346775, 0.01687583, -0.055762623, -0.001478655, 0.047946457, -0.033457465, 0.047680028, -0.0091251265, 0.050207417, -0.03908476, 0.029196633, -0.08259582, -0.031187944, -0.028649192, -0.0650293, -0.034386747, -0.05331372, -0.0061982805, -0.024388414, 0.027500752, 0.010884316, 0.06342687, 0.009948529, -0.046074428, -0.010262177, -0.03674227, 0.008447846, 0.03930826, 0.055046543, 0.0023132511, 0.008147571, 0.005660729, 0.04456609, 0.006732108, 0.0027698416, 0.052101456, -0.02581795, 0.04318899, 0.005723615, -0.045834754, -0.002913179, 0.0012937244, 0.02296656, -0.04285476, 0.075528935, 0.049255442, -0.12299591, -0.011590257, 0.059966747, -0.009670584, -0.09036268, -0.015814466, -0.022649111, -0.097424164, 0.020916924, 0.044581205, 0.028556183, -0.018199444, -0.0072401976, -0.083343044, 0.07724958, -0.0025568195, 0.04233925, 0.008651013, -0.012687359, 0.06859978, -0.05688529, -0.024671638, 0.025181117, -0.011402712, 0.0048746835, -0.011757723, -0.025317848, 0.03890691, -0.011562237, -0.009512078, 0.0423861, 0.05034026, 0.00071299064, -0.020850597, 0.0026575255, -0.012511284, -0.039786614, 0.01470863, 0.01125646, -0.044248234, 0.006011143, 0.0057314546, -0.025863681, -0.011019321, 0.0024265738, -0.0013873854, -0.010759622, 0.112587586, -0.026712768, -0.018250057, -0.058444086, 0.021875564, 0.03487418, 0.019530041, -0.031314876, 0.010676615, 0.019217085, -0.103490405, -0.014285177, 0.026398491, -0.010474818, 0.104389206, 0.025608629, 0.024802852, 0.04427694, -0.0073066335, 0.003510408, -0.04431408, -0.0050106854, -0.060903925, 0.049361892, -0.028446116, 0.078771465, -0.06512012, -0.05457778, 0.038968988, 0.017947871, 0.060179632, 0.0327446, -0.06538675, -0.05963539, 0.09411206, 0.038193498, 0.042527713, 0.04139533, -0.020317314, -0.011397662, 0.007708962, 0.021047084, 0.030478954, -0.04259998, 0.027159255, 0.023746222, 0.06140827, 0.006553164, 0.0057736123, 0.018093597, 0.05122827, -0.026446838, 0.033629425, 0.08857671, 0.017053533, -0.0055873934, 0.005781856, -0.04183823, 0.01955888, -0.018210178, 0.0038351626, -0.029211119, 0.033564497, -0.01998409, -0.010402763, 0.072500445, -0.008555673, -0.004940587, 0.038958147, -0.017047225, 0.0072563165, -0.033249523, -0.041964833, -0.040228155, -0.06385045, 0.10733957, 0.07920301, 0.0048377183, 0.114351295, 0.11083534, 0.034088213, 0.002864081, -0.015841406, -0.018397752, 0.008543021, -0.030683564, -0.011030473, -0.028087089, -0.029804764, -0.017582221, -0.014187341, 0.043418188, -0.02489886, 0.019717548, -0.004262078, -0.022664186, -0.028164746, 0.0070968354, -0.063494034, -0.019375343, 0.032261647, -0.058091946, 0.0120609, -0.060957685, -0.020346344, -0.028896788, -0.0029626952, 0.016634915, -0.0061514424, -0.011907061, 0.07708239, 0.05178807, 0.0003367369, 0.06917271, 0.0023645496, 0.0008805718, -0.05388642, -0.017067252, 0.040848795, -0.082691625, 0.08186364, -0.01632361, 0.007713662, 0.018372493, 0.08471091, -0.026240358, -0.020797776, 0.075330846, 0.009071001, -0.04050102, -0.043215137, 0.047257602, 0.036414422, 0.025091102, -0.008876281, -0.029016908, -0.055132244, -0.025466949, 0.052422613, -0.034444556, 0.048025053, -0.032502674, -0.013108314, -0.0099463295, -0.015128743, 0.03168387, 0.06948495, -0.014934489, -0.012361364, -0.016362822, 0.020584563, 0.039858542, -0.04167708, -0.018682342, 0.02170894, 0.029578667, -0.024023961, -0.03670396, -0.037657924, 0.028385486, -0.0626288, 0.033115145, -0.009801937, -0.030442044, -0.057870883, 0.016129838, 0.0006183399, -0.06027299, 0.055037364, 0.006319255, 0.044866752, -0.037386034, 0.03453923, 0.026993131, -0.030897459, 0.054596364, 0.016704861, 0.069023885, -0.022304073, 0.016500684, 0.027143281, 0.041294355, -0.00089771603, 0.07484331, -0.024037922, 0.019341856, 0.021704338, 0.016226726, -0.014377573, -0.04179106, 0.018247895, 0.01856174, 0.0110540865, 0.06007455, -0.041835736, -0.009415718, 0.007197564, 0.00041481762, -0.017168878, -0.0147180185, 0.04111266, -0.014802021, 0.021593042, -0.051654942, 0.013304699, -0.005036216, -0.033623148, -0.05242657, -0.0058514015, -0.0025745858, -0.032036852, -0.035621006, 0.018176222, 0.02473281, 0.004467291, 0.077839926, 0.081211574, -0.07842994, 0.052865203, 0.028528584, 0.027990734, -0.010325241, -0.042346228, -0.051375214, 0.025852773, -0.022402065, -0.018990463, 0.054550815, -0.0023891418, -0.050329644, 0.03170013, 0.026508909, -0.009359394, 0.04575118, -0.03035331, -0.048394956, -0.008477012, -0.008326977, -0.04971256, 0.021273842, -0.0077200755, -0.057238914, 0.12104649, 0.048552, -0.08286416]</t>
         </is>
       </c>
     </row>
@@ -860,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -869,32 +840,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>이수용</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>제주도</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>rice; processing</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Elucidation of structural hurdles of rice noodles by protein-fortification and storage conditions</t>
+          <t>Combination of artificial intelligence and hyperspectral imaging analysis for non-destructive identification of edible vegetable oils</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rice has been becoming a more important crop cultivated in Korea as the global food crisis escalates. However, the declining domestic rice consumption has resulted in excess stocks of rice that have been becoming critical issues for agriculture. An alternative way to boost the consumption of rice is to utilize rice as a primary ingredient in a variety of processed foods such as baked goods and noodles that take great global market shares. However, the application of rice flour to processed foods is still challenging due to its undesirable processability, compared to wheat flour. Furthermore, although the global interests in high protein or ready-to-cook food products have been on the rise, a great deal of effort has not been made yet to produce protein-fortified or HMR rice products on an industrial scale. This may be because there is a lack of understanding of the structural features of rice flour in a food system that play essential roles in the quality attributes of end products. Thus, this presentation presents the applications of rice flours to noodles which occupies the major segment of the food market. In particular, their structural changes by protein fortification and storage after precooking, are intensively elucidated, hopefully providing fundamental insights for the food industry to enhance the qualities of rice noodles.</t>
+          <t>Edible vegetable oils with their unique physicochemical characteristics have been widely utilized in an array of food products. Therefore, identifying vegetable oils in the food industry is essential for determining their suitable uses and preventing adulteration. Since conventional chemical methods involving GC-MS have time-consuming and labor-intensive nature, there is a need for new and more efficient methods to analyze vegetable oils in the food industry. A total of eight vegetable oils were analyzed using hyperspectral imaging, which was coupled with machine learning algorithms in order to non-destructively identify the vegetable oils. The classification performance of three machine learning models (decision tree, random forest, and k-nearest neighbor) was compared to that of the fatty acid composition-based method in terms of accuracy and f1-score. The random forest model demonstrated superior performance in classifying vegetable oils, achieving the highest accuracy and f1-score values among the tested classification methods. Moreover, the accuracy of the random forest model was found to be comparable to that of GC-MS. These findings highlight the potential of utilizing hyperspectral imaging in conjunction with machine learning as a viable alternative to traditional chemical methods for classifying oils.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.027331594, -0.010937568, 0.03754459, 0.011375361, 0.093259774, 0.0016904983, -0.015223928, -0.026568234, 0.016137196, 0.05804187, -0.024927652, -0.04003964, -0.010387489, 0.08431239, -0.066827185, 0.022175761, -0.018886091, 0.005523522, 0.015660731, -0.013719098, 0.024766186, -0.043248005, -0.045474418, 0.06068321, 0.102273226, 0.015087427, 0.06793908, -0.018206714, 0.021774685, -0.013370591, 0.026849339, -0.022234399, 0.031172572, -0.046927467, -0.0028468962, -0.032553, -0.011398407, 0.021484146, 0.09827474, -0.020734446, -0.020651124, -0.0023700178, -0.022343839, -0.003506362, 0.02942758, 0.021750597, 0.0019683826, -0.03023379, -0.06302021, -0.012480926, 0.041117176, -0.024005815, 0.00861015, -0.022926725, 0.053006947, -0.048361067, -0.059064236, 0.043647073, -0.019388143, 0.004326168, 0.0022282016, -0.09836426, -0.03626197, 0.020613099, -0.00035720502, -0.010727735, 0.08484755, -0.0669565, -0.01933368, 0.047882996, 0.005422908, 0.03517896, 0.021118032, -0.032373957, -0.09101857, -0.092263006, -7.055141e-05, 0.03077855, -0.06331567, -0.055418517, 0.0055774935, -0.07740256, 0.041191634, -0.028111372, -0.032118544, 0.049931105, -0.07074028, -0.035014827, -0.014992074, 0.013714229, -0.029908098, 0.0019160574, 0.06837532, 0.017113907, 0.029955646, 0.044444706, 0.048992664, 0.07383446, 0.052852996, -0.009277888, 0.018241318, -0.0033910212, -0.045632184, 0.035810508, -0.038162205, -0.021719858, -0.025630733, -0.010073662, 0.06914516, 0.04027934, 0.020269463, -0.03992782, -0.052362792, -0.01949979, 0.030366529, 0.019030062, 0.0053845607, 0.016219247, 0.008209484, 0.050378773, -0.0017813765, 0.013899117, 0.012462542, 0.11878258, 0.0071999617, 0.033954263, 0.031113587, -0.019277543, -0.009789701, -0.028164426, 0.04229666, 0.003683284, -0.004164315, 0.033201516, 0.026970316, 0.0009976415, 0.0037911695, -0.017242257, 0.0162195, -0.038721394, 0.004573045, -0.047009975, 0.0027201741, -0.015171868, -0.0511062, 0.0042682057, -0.064280346, 0.0153911775, 0.06415482, 0.03715159, 0.0037648294, -0.024292415, 0.012790545, -0.109927684, -0.0023190808, -0.026225999, -0.017536836, -0.048454825, -0.08565351, -0.04186628, -0.009099963, -0.063651204, -0.006570428, 0.016680282, 0.0013643056, -0.038758177, 0.057099618, 0.026498495, -0.004340057, 0.056691907, -0.0037005495, -0.028745279, 0.06472981, -0.077277586, -0.08645637, -0.020090593, -0.0010762642, -0.03773667, 0.08406428, -0.034298897, 0.0020689645, -0.07285763, 0.019881371, 0.016476136, -0.027661745, -0.07097711, 0.003028007, -0.010602726, 0.055519424, 0.03407861, -0.10115056, 0.0181723, 0.026159324, 0.033255357, 0.008583351, -0.05587477, -0.03373443, -0.03176665, 0.062826045, 0.08773993, 0.13999082, 0.06515375, 0.06924318, -0.025489232, 0.0064975224, 0.034814037, -0.043493822, -0.004687708, 0.00968285, -0.0070619453, -0.04262697, -0.012282235, 0.0008516032, -0.052945178, 0.06839913, 0.0010713958, -0.05285937, -0.0016228305, 0.012274278, 0.015359336, 0.07461172, -0.020341424, -0.057007927, -0.032811854, -0.024887005, 0.012707798, 0.052616157, 0.08458715, -0.008087271, 0.019628234, 0.02187176, -0.026783522, -0.027677989, -0.07165875, 0.018984005, 0.04310239, -0.06932809, -0.014044676, 0.011148499, 0.06177054, -0.010904257, -0.010827463, -0.005206428, 0.00204477, -0.06603635, -0.07910078, 0.043600287, -0.013878311, -0.030939717, -0.02416949, -0.007085533, 0.059246022, 0.001444891, -0.051826406, -0.06916555, 0.019068412, -0.031691164, -0.06709293, -0.022730792, -0.036421154, 0.0776796, -0.10105178, -0.0474895, 0.05129871, 0.0064331745, 0.039365176, 0.06145629, 0.01824006, 0.015697043, 0.006520127, 0.019563176, 0.04648691, 0.015460125, 0.018272497, -0.008145846, 0.04839992, -0.009947498, -0.17012203, -0.0040161135, 0.023450889, -0.055231087, 0.011886334, 0.038468376, -0.07933136, 0.03691138, -0.008145901, -0.04999697, -0.012665454, -0.07839468, -0.04981825, -0.014021996, -0.00018424843, 0.0040275664, 0.03292683, -0.061648145, 0.058407106, -0.02352015, 0.070647046, -0.020680923, 0.029140316, 0.018882925, -0.0059264065, 0.0014628725, 0.047878876, -0.009892744, -0.049837306, -0.0783014, -0.010946322, 0.039015017, 0.028729022, -0.008490032, -0.06661174, -0.00472919, 0.07109732, -0.026059045, 0.012309504, -0.050070748, -0.008801218, -0.05357978, -0.07032448, -0.0018636679, 0.079076216, -0.017510869, 0.011951648, -0.06671151, 0.088790074, -0.01936178, -0.007934802, -0.006350072, 0.07603696, 0.01428907, 0.028443703, -0.03163913, 0.031764384, -0.061216276, -0.074319914, -0.004119008, 0.023949955, -0.008207619, -0.009106807, -0.0019258503, 0.028936649, 0.04620976, 0.013747855, -0.05646931, 0.028639406, 0.08145363, 0.020257762, -0.046269856, 0.017843524, -0.0069813645, -0.0013388029, 0.05077782, -0.062359225, -0.0006326036, -0.013769827, -0.06686795, -0.05712149, 0.039798208, 0.02413964, 0.01983747, -0.0027908, -0.005146303, -0.056613103, -0.00020485945, -0.013206035, -0.026406027, -0.03521442, -0.024861056, -0.012654452, -0.052968897, 0.01221491, -0.05896659, 0.038058612, -0.012685081, 0.012609671, -0.066384144, 0.08348675, 0.09534794, -0.02628593, 0.0022406108, -0.00119756, 0.022375224, -0.053503003, -0.03222826, -0.026767962, -0.059963074, 0.039126623, 0.00633829, -0.05634058, 0.095489725, 0.06953365, -0.05634306, -0.013853984, -0.039791875, 0.026681578, -0.0012805643, -0.021839384, -0.08848395, -0.0122331055, 0.03317419, -0.06625945, -0.06639405, -0.011349288, -0.0682447, 0.0037038755, -0.0072910655, -0.072805814, -0.046802603, -0.0638388, -0.038681325, 0.011294611, 0.043157116, 0.03525197, -0.0057099364, -0.020464124, -0.012117443, 0.02894935, 0.033726603, 0.0803969, -0.091308035, -0.026050152, 0.011506773, 0.014674629, -0.09701351, -0.03281625, -0.033249766, -0.044844177, -0.03844377, 0.048850324, -0.0466851, -0.043680415, 0.0058507295, -0.031211328, 0.0037229802, 0.03036072, 0.0024789246, -0.016995735, 0.11137022, -0.022995489, 0.044231873, -0.06900944, -0.13159585, 0.032044325, 0.024477715, 0.07383328, 0.030819505, 0.06706757, -0.0147561375, -0.007890578, 0.012811638, -0.041101903, 0.031319097, 0.021214837, 0.00911366, -0.059944727, 0.015649807, 0.009985021, -0.01626639, -0.086598985, -0.022864124, 0.03732486, 0.08478242, -0.073381625, 0.024818234, -0.012035713, -0.07386559, 0.0015556787, 0.05668341, -0.053018954, -0.008319872, 0.07077512, 0.006538596, 0.009273443, 0.0066592656, -0.018898526, 0.011021244, 0.020071661, 0.010779681, -0.005319449, 0.00017508445, 0.0016809446, 0.030882264, 0.013240967, 0.015164846, 0.057128087, 0.07311061, 0.0779327, -0.026794206, -0.0010198747, -0.051274583, 0.011097723, -0.04898721, -0.006492604, 0.025012864, -0.030633418, -0.0009852749, -0.0034999063, -0.012467694, -0.0012463976, 0.045680527, -0.013417109, -0.02768977, 0.014856879, 0.022549668, -0.011213723, 0.016189722, 0.025885524, -0.165506, -0.05084517, -0.014874943, 0.038100038]</t>
+          <t>[0.03962909, 0.036842972, 0.018467957, -0.0075846203, 0.06826049, 0.02426941, 0.015817765, -0.05972592, -0.0070002135, 0.01628999, -0.048544995, -0.022514215, 0.06866781, 0.021200554, -0.037072618, -0.004674193, 0.01205694, 0.054483812, -0.05642301, 0.024743494, -0.04326276, 0.0046274397, -0.0045330185, 0.03492749, 0.045714602, -0.030412821, 0.03242442, -0.0028578418, -0.06597908, -0.0330788, 0.00755679, 0.007670288, 0.0032210713, -0.025494387, -0.08117758, 0.0003057581, 0.019046143, 0.057553828, 0.0105084125, 0.0113491425, 0.052793335, 0.03863221, -0.007404357, 0.01352985, 0.021350626, -0.047675453, 0.036720507, 0.01835193, -0.020471394, 0.043814983, 0.04144989, -0.010042495, -0.012707055, 0.014452197, 0.0288743, -0.033507377, -0.054194205, -0.023867194, -0.017228443, 0.00740599, -0.08108185, -0.0130607635, -0.034717117, 0.044740304, -0.026077153, -0.034662746, 0.029859608, 0.056818668, 0.07857877, 0.034107413, -0.07103551, -0.038249828, 0.012663416, -0.0006047831, -0.0768341, -0.034382716, 0.015989905, 0.014290933, -0.012376383, 0.01631257, -0.036022972, -0.006371315, 0.05885714, 0.0019839865, -0.05140902, 0.03772586, 0.016488412, 0.06491184, 0.015005753, -0.030742928, 0.021602767, -0.020438015, 0.09754585, 0.08502105, 0.021400325, 0.031949844, 0.034588967, 0.039377823, -0.009519233, 0.033432942, -0.021996355, 0.017082386, 0.012839986, 0.016472172, -0.025757119, -0.03681053, 0.024027754, 0.01869953, 0.036397956, 0.032247502, 0.013628817, -0.095764585, -0.07416913, 0.034597628, -0.019648284, 0.032873433, 0.024156226, 0.033531684, 0.0065183556, -0.050065864, 0.023564981, -0.04241359, -0.0037767882, 0.016969545, -0.019903844, -0.04046327, 0.07062616, -0.0049311235, -0.017655097, -0.036289122, 0.022974443, 0.06487936, -0.014150892, 0.066947095, 0.04180538, -0.04978951, -0.044295367, 0.050731126, -0.008161819, -0.038660858, -0.0062073306, -0.0016626437, 0.058106136, -0.042808197, 0.030763345, -0.010705524, 0.01613404, -0.028115464, 0.03302392, 0.0046272804, -0.02821307, 0.02296077, -0.0636951, 0.0128610395, -0.06908838, -0.018199502, 0.018359821, -0.016013188, 0.043532893, -0.006208841, 0.06970737, -0.01789206, -0.012575893, 0.05702579, -0.0033128487, 0.023871727, 0.03522181, -0.0026983544, -0.050839115, 0.055577416, 0.009042522, -0.052513994, 0.02485066, 0.03114704, -0.022362214, -0.063862614, 0.038203463, -0.015461898, 0.05371613, 0.004506794, -0.059051774, -0.052829135, 0.00048168466, 0.09040824, -0.022433579, -0.013896587, 0.0063926377, -0.040144574, -0.037445635, -0.010897339, -0.08201119, -0.04588071, 0.056386884, 0.0018795301, 0.053255077, 0.03771233, 0.061004292, -0.06638102, 0.0050737336, 0.03162375, -0.045369778, -0.037626904, 0.090877034, 0.00238863, 0.07951584, -0.045448065, -0.051406678, 0.013918822, -0.03744553, 0.08591523, -0.026252875, 0.050033312, 0.0025061467, 0.018666485, 0.08383039, 0.023550214, 0.02286159, -0.012398215, -0.0098860515, 0.0019700956, -0.03332175, 0.009425041, 0.020215122, 0.06113352, 0.03484639, 0.01673998, -0.016470795, 0.0132231545, -0.023100877, -0.029515615, 0.031859454, -0.07211797, 0.016757289, 0.022804132, 0.059779357, 0.030941896, 0.05640334, 0.04017954, 0.05448148, 0.08351934, -0.055024516, 0.04989752, 0.004460758, -0.015348492, 0.035329156, 0.0076930905, -0.026532752, 0.0063313013, -0.05992202, -0.036891952, -0.05050966, -0.015693288, 0.037358224, -0.038240273, 0.044979896, -0.041952386, 0.058432344, -0.049826033, -0.026298143, -0.027733563, 0.035330705, 0.03901072, -0.010103334, 0.025245884, 0.011552922, -0.092682555, -0.043511055, 0.030378908, 0.03378054, 0.02127263, -0.057874173, 0.069687, 0.0872851, 0.040013175, -0.02858836, -0.0061607813, -0.06848939, 0.003993313, 0.001178459, -0.06784316, -0.061315812, -0.040953055, 0.054093666, -0.010098067, 0.0029032265, -0.041443013, -0.02811197, 6.407371e-05, 0.008880821, -0.061886456, -0.012246976, -0.02889256, 0.12206194, -0.0073727304, -0.05173824, 0.058237176, 0.020324236, 0.020156004, -0.013360761, 0.0043055187, -0.026313866, -0.0033008421, 0.0043207984, 0.09476681, 0.0029308128, -0.053937998, -0.005386901, -0.0602064, 0.022100575, 0.06802523, -0.012307171, -0.010679669, 0.067387536, 0.06270973, -0.04133985, 0.019824142, 0.0048413114, -0.011965168, 0.033052005, -0.020308444, -0.0054449947, 0.02956665, -0.01898676, -0.022615952, -0.039863825, 0.019490529, -0.07205573, -0.010792766, 0.0056782532, 0.052615765, -0.033389937, -0.011612187, 0.007427278, 0.0065738694, -0.0022678033, -0.012680079, -0.06873399, -0.029230375, -0.06569309, -0.0034996278, -0.054696828, 0.00047058924, 0.096524276, -0.014819859, 0.0010357497, 0.06745664, 0.031200228, 0.074572414, -0.007541193, -0.036282543, -0.043685555, 0.0068376283, -0.055979464, 0.059982333, 0.014484143, -0.03212789, -0.018314146, -0.037196293, 0.061677422, -0.019100413, 0.027239207, -0.00750951, 0.011723492, 0.07549074, 0.0029464418, -0.02464308, 0.014538685, -0.0028000532, -0.012292143, -0.04103759, 0.0033512514, 0.0152895665, -0.008846834, 0.0037066203, -0.0053613433, 0.011065418, 0.008071267, -0.02890923, 0.062593445, 0.0049466044, 0.026318867, -0.044430908, 0.033192165, -0.016395293, -2.7038506e-05, -0.006826385, -0.09285454, 0.05371583, -0.018684717, -0.044356238, 0.0026333055, -0.025028432, 0.13958076, 0.0407352, 0.034489766, -0.0357985, -0.042731978, 0.0022481428, -0.03001531, -0.014046185, 0.056225106, 0.035789933, 0.05809098, 0.003943206, -0.06438002, -0.015144851, 0.038432274, -0.041045465, 0.023754032, 0.0042750016, 0.045698598, 0.050779197, 0.012216259, 0.03467223, 0.030884905, 0.034899097, 0.06114015, -0.011594627, 0.016433947, 0.005033717, -0.0959958, 0.0076225363, -0.061398666, -0.03102662, -0.0025949108, -0.063127965, 0.01756193, -0.03732868, 0.034983072, 0.008411945, 0.018460575, -0.07067895, -0.00041890886, 0.030117646, -0.034167457, 0.025773898, 0.022396745, -0.00272541, -0.0009836368, 0.0018942413, 0.059687544, -0.024975492, 0.02156095, 0.06572623, -0.001145856, 0.016351681, 0.031884424, 0.012617695, -0.019929966, 0.04984987, -0.040193632, -0.0046422137, 0.042463765, 0.041952427, -0.030173134, -0.042648144, -0.098310575, 0.004189793, -0.03801392, 0.027368871, -0.07048732, 0.02668766, -0.008415801, 0.038015697, -0.03455952, -0.07094505, 0.033473656, -0.0112636, -0.016396211, -0.101100296, 0.025573049, 0.018208418, -0.008901369, 0.0142038325, 0.02892188, -0.050366268, -0.017892208, 0.0072718305, -0.03693269, -0.036441077, -0.008480659, 0.037993502, 0.05214435, -0.0015394307, -0.053226385, -0.018913263, 0.051537886, 0.029237537, -0.003626854, 0.022247393, -0.060316898, 0.029811224, 0.038066376, -0.035441644, -0.00095041894, 0.025654947, 0.03692034, 0.023458233, -0.002618174, -0.046802785, -0.00946867, -0.035038915, -0.026342021, 0.025260452, 0.018015765, -0.04905199, 0.010356609, -0.036397595, -0.06294654, -0.028112276, -0.023917882, 0.058420926]</t>
         </is>
       </c>
     </row>
@@ -903,41 +870,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>김혜린1</t>
+          <t>윤수인</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>부산</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>rice; pasting</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Artificial intelligence classification of rice flour varieties based on their physicochemical features</t>
+          <t>Machine learning-combined rheological approaches for developing plant-based cheeses with melt-stretching features</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rice flour has been widely used in a variety of food products but its suitability for a specific food is dependent on its variety. However, there are no efficient ways to distinguish the cultivars of rice flour based on their physicochemical properties. Thus, in this study, several physicochemical properties of eight different cultivars of rice flours were investigated and then subjected to four artificial intelligence (AI) algorithms for classifying rice flour varieties. Specifically, the pasting, thermal, and Mixolab thermo-mechanical properties of the rice flours were measured and then used as datasets to evaluate the classification performance of the AI models mainly in terms of coefficient of determination (R2). A single parameter of rice flour was not ufficiently correlated with its amylose content. When the suitable combinations of the physicochemical parameters were subjected to AI algorithms (random forest, decision tree, k-nearest neighbor (KNN), and support vector machine (SVM)), SVM and KNN had the highest R2 values, followed by random forest and decision tree. The suitable models showed great performance to predict the classification of rice flour varieties.</t>
+          <t>The demand for plant-based foods is continuously increasing mainly due to environmental issues and global warming. However, most plant-based cheeses commercially available lack stretching characteristics when heated. Thus, In this study, a plant-based cheese with good melt-stretchability was developed in terms of rheological and machine learning analysis. The pasting, viscoelastic, and FTIR spectral profiles of nine different starches were experimentally measured and used as machine learning dataset to identify starch samples with desirable melt-stretching properties. Linear discriminant analysis (LDA) showed that waxy potato, tapioca and hydroxypropyl tapioca starch samples with melt-stretching properties were well clustered. When plant-based cheeses were produced with starches, the cheese samples with waxy potato and hydroxypropyl tapioca starches showed good melting features after heating. These results were correlated with their viscoelastic changes over temperature. This study suggests the potential of AI-combined rheological methods to identify starches suitable for plant-based cheeses with excellent stretchability characteristics.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.016330447, -0.04252036, 0.090643935, -0.022373835, 0.08783173, 0.015767729, 0.003502953, -0.035714906, -0.0012057683, 0.027861694, -0.057247642, -0.013339138, 0.0033988627, 0.02883852, -0.01414467, 0.009882601, 0.021010516, 0.032775633, 0.018821275, 0.0021389578, -0.04194665, -0.006183581, -0.058847893, 0.0020003275, 0.12790637, 0.0096842805, 0.0490631, -0.060286194, -0.00666459, -0.0058093104, 0.039054133, -0.06817193, 0.006499136, -0.02026224, 0.004281814, -0.00049724773, 0.012232847, 0.024601474, 0.05929086, -0.08918984, -0.020127885, 0.01841198, -0.07561664, 0.030755965, 0.01939396, 0.0117062135, 0.030414935, -0.025129074, -0.079477124, 0.036070712, -0.001951239, -0.031219628, -0.001531719, 0.006480804, 0.05369328, -0.03225598, -0.09545724, -0.028637443, -0.013859144, 0.008616834, -0.09340395, -0.019604558, -0.049443405, -0.016893825, -0.040133968, 0.021387462, 0.019661855, -0.057740044, -0.013461332, 0.043928947, -0.045406554, -0.07801439, 0.0028004672, 0.013594667, -0.07916663, -0.13338162, 0.009939979, 0.018632432, -0.02385072, -0.03537855, -0.017711667, -0.063188806, 0.04493247, 0.011655459, -0.09816109, 0.060752954, -0.07220016, 0.010704966, -0.021053568, 0.0592365, 0.003216075, 0.021438668, 0.08153878, 0.048464417, 0.0050619054, 0.036818363, 0.09897231, 0.04535048, 0.0090170065, -0.013532135, -0.057744604, 0.014423621, -0.056891073, 0.02305552, 0.017757354, -0.008873379, 0.052546717, 0.0056354525, 0.061277624, 0.021755103, 0.044044834, -0.04967121, -0.021971248, -0.004468015, 0.0029255375, 0.0049345656, 0.03403404, 0.07415341, -0.009747662, 0.089633785, 0.047497485, 0.015144662, 0.0045598494, 0.091783, 0.0222478, 0.0076081553, 0.026530972, -0.013068606, -0.036215466, -0.060482018, 0.05405162, 0.033676688, -0.06037998, 0.05640933, 0.018121019, 0.027348904, -0.027629059, 0.01856184, 0.033536892, -0.026328174, 0.016643623, -0.016988672, 0.03375594, -0.07169849, 0.030537875, -0.009000631, -0.12242666, -0.023488294, 0.04330555, 0.0034051172, -0.021459727, -0.010184091, 0.032560352, -0.043609213, -0.029463341, -0.032545164, 0.030201357, -0.001821454, -0.1066338, -0.049947478, 0.03975997, -0.06806661, -0.022458384, 0.00603353, 0.01863635, -0.018512815, 0.07732312, 0.0068391752, 0.046898194, 0.08350885, -0.0049312357, 0.0048056836, 0.048822753, -0.046337593, -0.018693732, -0.007936504, 0.00046986307, -0.06704435, 0.07715646, -0.04775076, 0.03418201, -0.0700122, -0.020453606, 0.023009045, 0.011392237, -0.030093001, -0.005408454, -0.040237978, 0.031941455, 0.0024709217, -0.15942064, 0.006982724, 0.004123009, 0.028966393, 0.00689112, 0.028726397, 0.035933733, -0.0483058, 0.08020552, 0.086541876, 0.11556207, 0.079697326, 0.070806965, -0.017455304, 0.075976245, 0.05908016, 0.015241607, 0.01308937, 0.004081211, 0.05233062, -0.024295589, 0.017070856, 0.017482415, 0.010430106, 0.05151315, 0.022358986, -0.011354784, -0.010827965, 0.008679111, -0.004140924, 0.038728993, -0.01702638, 0.04006326, 0.027848132, -0.0021645292, 0.030983225, 0.0053935, 0.04500769, -0.034129404, -0.0681522, 0.03585289, -0.04267985, -0.021836422, 0.021238737, -0.018735906, 0.05509622, -0.059739646, 0.03126262, 0.045734942, 0.07586371, -0.03704146, 0.016070114, 0.01643842, 0.032231826, 0.006700723, -0.035796907, -0.024944296, 0.0021343306, -0.04137624, 0.017170083, -0.0077400464, 0.033836816, 0.033735566, -0.07315564, -0.024468597, 0.028201627, -0.011780656, -0.062090814, -0.060721684, -0.054346956, 0.050662022, -0.010471339, -0.05635206, 0.021250244, 0.0021928302, 0.045399968, 0.020365579, -0.017183214, 0.010345093, 0.03986452, -0.020793213, -0.044925775, 0.020910684, 0.04318124, -0.028586438, 0.048959833, 0.017849479, -0.11205445, 0.018119227, -0.01456746, -0.013319094, -0.0047402037, 0.064726986, -0.089415915, 0.013492448, -0.04758445, -0.07681978, 0.0293392, -0.025289726, -0.026852839, -0.04672815, 0.037515905, 0.009843088, 0.050963655, -0.05001671, 0.04027939, -0.044823408, 0.07442126, -0.0036308551, 0.011545809, -8.185068e-05, 0.0067594503, 0.03617146, 0.01976507, -0.035019275, -0.07616562, -0.047082487, -0.0068285987, -0.0041727396, 0.026899865, -0.008840435, -0.04136787, 0.0033641125, 0.08188677, -0.076922536, 0.0057247207, -0.010033436, -0.033405695, -0.009830502, -0.038200404, -0.0063659623, 0.07154038, -0.057691373, -0.002389363, -0.05033175, 0.079824746, -0.006216907, -0.03290765, -0.017322265, 0.06362707, -0.031024171, -0.010630621, 0.011476391, -0.025661074, -0.0054547507, -0.08434138, -0.039551478, -0.018041888, 0.0012283799, -0.021522926, -0.074192464, 0.028147772, 0.01836024, 0.009639229, -0.051839024, 0.034333825, 0.07685557, -0.003066822, -0.07443212, 0.026551688, 0.00679017, -0.0062870295, 0.024535045, -0.0315748, -0.05952396, -0.006230096, -0.02946751, -0.076319814, 0.0362887, -0.013778042, 0.010840796, -0.0814561, -0.0016630592, -0.0060209013, 0.052045006, -0.014474742, -0.02186669, -0.019889437, -0.0441842, 0.013575364, 0.038579434, 0.019898474, -0.0774322, 0.026796069, -0.026541198, -0.073207475, -0.008921734, 0.070213385, 0.051413864, -0.009344362, 0.038643092, -0.0065187444, 0.033831164, -0.06828865, -0.014830948, 0.02933959, -0.0699142, 0.045712564, -0.03842091, -0.071416505, 0.07519294, 0.11799629, -0.0008431834, 0.03729087, -0.022937603, 0.00928353, -0.083927535, 0.0043137856, -0.07430864, 0.04424339, 0.060073152, -0.07082716, -0.030394923, -0.01005747, -0.045928426, -0.05286883, 0.020626511, -0.019791452, -0.058153544, -0.046985146, -0.057902034, 0.05268546, 0.015463993, 0.020810803, 0.010477802, 0.028896565, -0.05705907, 0.03668058, 0.06904748, -0.026513863, -0.07959743, -0.013578584, -0.033421304, 0.00031224522, -0.062189415, -0.04585316, 0.06585911, -0.05858058, -0.00437951, -0.036502544, -0.017800003, -0.09363143, -0.024913128, -0.047491938, -0.08671259, -0.031038482, 0.06205228, -0.014409562, 0.09462312, 0.046892982, -0.012545784, -0.0652825, -0.090783514, -0.0337279, -0.00020139385, 0.073428184, -0.021148479, 0.053945698, -0.004448386, -0.05047321, -0.025815682, -0.03204888, -0.011142282, 0.09713868, 0.010715946, -0.008885195, 0.0021557831, -0.011378241, -0.012108409, -0.053254258, -0.01723881, -0.039773088, 0.06837741, -0.027353738, -0.06652279, -0.062022194, -0.01669593, 0.02089604, 0.01292094, -0.00871421, 0.039663557, 0.11270002, 0.0370418, 0.0048837992, 0.008394908, -0.033515386, 8.493173e-05, -0.0057389443, 0.06880903, -0.059432235, 0.022788364, -0.029154625, 0.02278829, 0.0684918, -0.022394652, 0.033868216, 0.013549607, 0.018997975, -0.001185963, 0.023178555, -0.03686357, -0.011316096, -0.06064217, -0.012921154, -0.0028493667, 0.044733226, -0.031118182, -0.047143184, -0.010382692, -0.0061415667, -0.0044391924, -0.0077286954, -0.021621438, -0.032502163, -0.004072106, -0.023566296, -0.00052280136, -0.051863212, -0.121608004, 0.0067782872, 0.013791505, 0.0023090611]</t>
+          <t>[0.04895317, 0.01944153, -0.014716534, 0.038009476, 0.0840348, 0.03495516, -0.00040761495, -0.029993959, 0.022301283, 0.02039361, -0.024818014, -0.07512138, -0.02694227, 0.036598474, -0.051417347, 0.0421167, 0.0738317, 0.06493047, -0.013208369, 0.007725373, -0.05093198, -0.022694375, -0.06480807, 0.04615121, 0.15410438, 0.08149604, -0.014458521, 0.011396837, -0.038772095, 0.037679598, 0.030456355, -0.03981859, -0.03750034, 0.015903663, 0.049235106, -0.006561242, 0.013245191, 0.023037666, 0.08184635, -0.051580925, 0.039694674, 0.03082922, -0.011695596, 0.006948974, -0.00089524523, -0.056985375, 0.050929666, 0.0010473971, -0.027353821, -0.043883745, 0.052642252, 0.010979295, -0.01435804, 0.06986229, 0.03885994, -0.02538929, -0.07267927, -0.035282064, 0.033722218, -0.010901611, -0.10503692, -0.099719815, -0.0347935, -0.016652837, -0.05216379, -0.06681653, 0.0313991, 0.041169725, -0.0058675953, 0.00591605, -0.024355903, -0.009451485, 0.030706486, 0.021585071, -0.031139903, -0.07858005, -0.022164712, 0.0018496658, -0.043324534, 0.04775846, -0.027450964, -0.0041067423, 0.041067123, 0.033671044, -0.0149798915, 0.041464362, 0.1008773, 0.026398072, -0.006782919, -0.021089999, -0.018942742, 0.014113933, 0.10745636, 0.00028585317, -0.012706656, 0.018015854, 0.04819409, 0.098611385, 0.013307009, -0.07115914, 0.013452494, 0.086614996, 0.018946629, -0.008418211, -0.021720216, -0.028092083, 0.025749639, -0.019400906, -0.009941649, -0.00018514416, -0.0027367717, -0.0844339, -0.051188186, -0.023214554, -0.0055672773, -0.0042567845, 0.037951358, 0.09021998, -0.007716105, 0.025984725, 0.057209168, -0.049406208, 0.028369611, 0.05399724, 0.020517929, -0.0414936, 0.0077777663, 0.01594724, 0.011498428, 0.057427794, -0.013469343, 0.008324871, -0.0030515024, 0.03357533, -0.0034473806, 0.015152512, 0.008048086, 0.050714128, -0.03685135, -0.012916744, 0.0364663, 0.044257324, 0.027611803, -0.07736321, 0.014993827, -0.017492535, 0.009549666, -0.026393194, -0.069326036, 0.031925865, -0.028462417, 0.020867113, 0.00537547, -0.017819958, 0.0053015524, -0.09753654, -0.0812605, 0.005734109, 0.0033355318, 0.01660507, -0.009385155, -0.07106342, 0.015034913, 0.052966755, 0.0008850078, -0.065828, 0.04290708, 0.0074854945, -0.017131872, 0.00047811397, 0.011971929, -0.02454161, 0.03779248, 0.0127433175, 0.03880597, -0.08769124, 0.00468332, -0.021326486, 0.049128644, -0.014236653, 0.037422255, -0.021575227, 0.022213556, 0.06266495, -0.032944445, -0.0320845, -0.048899356, -0.035804257, 0.004097377, 0.03032024, -0.0745413, 0.008507276, 0.028007653, 0.03889627, 0.030180506, 0.056713954, 0.018981338, 0.050319243, 0.04097696, -0.06285687, 0.024365483, 0.016622577, 0.05990689, -0.024023075, 0.111461475, -0.028538523, -0.06247196, 0.041632432, -0.0016882711, 0.042826336, -0.017145807, -0.019650754, -0.006487344, 0.012292898, 0.04357157, 0.011239, 0.0341727, -0.006059053, -0.003377382, -0.037839886, -0.031919397, -0.040088885, 0.03318951, 0.068331815, -0.023482542, 0.002370831, -0.019325903, 0.008324171, -0.029712705, -0.003830852, 0.007002495, -0.036606587, 0.03944681, -0.011810095, 0.056295548, 0.047053773, 0.11295552, 0.02375033, 0.021560488, 0.047819663, -0.009805649, 0.03231393, 0.011641421, 0.046545886, -0.03522808, -0.02064576, -0.007554376, 0.013206494, -0.060579885, -0.0032582302, -0.030586246, 0.0069290153, 0.03723516, -0.03891557, 0.022849927, -0.028873578, -0.0063444423, 0.012586689, 0.018350989, -0.0009598487, 0.059936993, -0.025375446, -0.0043254625, -0.026027767, -0.017810725, -0.055222105, -0.0067188344, -0.0056642406, -0.003622495, 0.0015720545, -0.042726025, 0.0151376, 0.052599985, -0.011305602, -0.009097945, 0.010435154, -0.052488193, 0.017413866, -0.020819226, -0.031290784, -0.022163782, 0.021813001, 0.027414251, -0.01465051, 0.01674785, -0.040867373, -0.08492486, -0.015158815, 0.0033220288, -0.016194528, -0.025793776, -0.010684641, 0.08067553, -0.019905526, -0.011576172, 0.019139487, -0.02061372, 0.050071217, -0.037167523, -0.015155544, 0.08168703, 0.007600884, -0.028723693, 0.042046398, 0.0091633005, 0.009162121, 0.019466013, -0.04150811, -0.033953685, 0.047746394, -0.011188367, -0.013879197, 0.014230052, 0.07281134, -0.08802952, 0.0037382757, 0.05750135, 0.0067211385, -0.013925425, -0.033503912, -0.010326769, 0.04170855, -0.016575212, -0.029023802, -0.06952232, 0.04822351, -0.010316358, -0.031878885, -0.009898477, 0.044915862, 7.593213e-05, 0.0019972702, 0.02198018, 0.00078169507, -0.003165556, -0.0056776037, -0.035680205, -0.0067145037, -0.006668138, -0.023228237, -0.027761403, 0.015507584, 0.0010647073, 0.013597216, -0.0320693, 0.008478692, 0.052849885, 0.041577708, -0.09510158, -0.044510953, -0.007530549, -0.0065192007, -0.010107694, -0.03202636, -0.04676255, -0.032223925, 0.026277924, 0.05339482, -0.010813561, -0.031922914, -0.021421459, -0.0041195704, 0.10995789, 0.015383587, 0.01621592, 0.023659093, -0.031017313, 0.023927242, -0.055508237, -0.017192136, -0.03556746, 0.041677415, -0.009762746, 0.054268837, 0.019743891, -0.03203277, 0.022266174, 0.052696172, 0.066680476, 0.038342133, 0.016774077, -0.029197097, 0.008094127, 0.0068204235, -0.048822768, 0.0027521197, -0.10852938, 0.032422576, -0.02555998, -0.040820546, -0.03819524, 0.062509775, 0.028318506, 0.024615766, 0.061343443, 0.032386925, -0.09431512, -0.047495373, -0.0139254425, 0.0008280832, 0.020769082, 0.017738633, 0.007996222, -0.12607588, -0.028353225, 0.007133578, 0.03264495, -0.0011109877, 0.01181734, -0.057452846, -0.009597253, 0.031508353, 0.038310904, 0.06155284, 0.0002861973, -0.020476347, 0.03629721, 0.031638425, 0.042458847, -0.015462159, -0.026893707, 0.08318547, -0.07195146, 0.07247534, 0.0031865607, -0.08145458, 0.013845289, -0.051439624, -0.013259493, -0.011228641, 0.005902565, -0.08204164, 0.0136705255, -0.053316902, -0.033365067, -0.016800968, 0.027268767, -0.01888965, -0.020716162, 0.036846705, 0.037834994, -0.04626285, 0.027812859, -0.0027352811, 0.0032249396, -0.0011765368, -0.008256892, 0.07726459, 0.0045901863, 0.006690067, 0.0018685049, -0.011974794, 0.030538065, 0.014955146, -0.013193612, -0.069719546, -0.059657637, 0.01593264, -0.005373539, 0.037844434, -0.032639347, 0.016999613, 0.026687982, 0.06043945, 0.023798762, -0.022174444, -0.019444782, -0.006562728, -0.04552834, -0.0346996, 0.013152773, 0.031343777, 0.033281043, 0.051449418, -0.03399663, -0.05503546, 0.00379356, -0.055341374, -0.051595986, -0.04442562, 0.022860615, -0.024128344, 0.04849061, 0.0046512233, 0.039413434, 0.0102423895, 0.050327368, 0.021623028, -0.02683038, 0.0029381043, -0.05701929, 0.04882169, -0.049302775, -0.0326555, 0.025935361, 0.0038271463, -0.031600308, 0.02436944, -0.003566587, -0.024390727, -0.0030777552, 0.013519633, -0.0033319301, -0.0030560934, 0.017775591, -0.011939858, 0.005248551, -0.018790072, -0.17644313, 0.008998202, -0.03896786, 0.054123834]</t>
         </is>
       </c>
     </row>
@@ -946,41 +909,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>황정인</t>
+          <t>조승아</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>부산</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>vegetable oil; machine learning</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Machine learning-based classification of vegetable oils using time-domain nuclear magnetic resonance</t>
+          <t>Utilization of allulose and kestose as a sugar alternative in chemically-leavened baked goods</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Vegetable oils have been widely used in various food products such as frying medium and salad dressing. Since the features of foods are affected by the type of vegetable oils, it is important to identify the types of vegetable oils. However, their identification procedure is time-consuming and laborious since it is dependent on chemical methods including fatty acid analysis. Thus, the main purpose of this study was to establish machine learning models to conveniently classify vegetable oils based on time-domain nuclear magnetic resonance (TD - NMR). Eight vegetable oils were subjected to TD - NMR analysis, demonstrating there were two components with different mobilities in the vegetable oils. Principal component analysis showed that first component accounted for 50.9% and second component for 24.0% of the total variation. When the data sets consisting of TD - NMR parameters were subjected to four machine learning models, thek-nearest neighbors howed the highest accuracy and F1-score, followed by random forest, decision tree and support vector machine. As are sult, this study elicits the possibility of machine learning analysis algorithm for classifying oils from their TD - NMR parameters.</t>
+          <t>The overconsumption of sugar has been reported to be involved in obesity and adult diseases. In recent years, great efforts have been made to find new sugar alternatives, and accordingly, interest in natural sweeteners such as allulose and kestose is increasing as well. Therefore, in this study, allulose and kestose were applied to chemically-leavening bakery products to evaluate their feasibility as sugar substitutes. In particular, sucrose in muffins was replaced with allulose and kestose at two different levels (50 and 100%, w/w) and their impact on muffin quality, both pre- and post-baking, was assessed in terms of physical, rheological, and tomographical features. Regardless of sweeteners, shear-thinning behaviors were clearly observed in the muffin batters, however, the batter samples with alluose showed relatively lower viscosity and less shear-thinning. The use of allulose raised the dynamic viscoelastic properties of the batters at the temperatures higher than 70°C, while the kestose batter showed a similar viscoelastic pattern to the sucrose sample. Substituting allulose for sucrose negatively affected muffin expansion, resulting in a firmer texture compared to kestose. Furthermore, tomographical analysis revealed that the replacement of sucrose with allulose produced muffins with lower total porosity and smaller pore size distribution. The results of this study may help the bakery industries develop sugar-free products without compromising quality properties</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.006163721, 0.09751265, 0.012187709, -0.0031745397, 0.0864383, -0.015979478, 0.015377554, -0.041307222, 0.040081944, 0.026355686, -0.05417088, 0.013327071, 0.05575217, 0.035290863, -0.040860258, 0.034759473, 0.029829133, 0.047981404, -0.0015987682, -0.0029649977, -0.012003072, 0.022665674, 0.0066561177, 0.026824238, 0.026486104, 0.053117484, 0.05258009, -0.0058860695, -0.047395445, -0.038218115, 0.0085269185, 0.013079581, -0.011964695, 0.014960475, -0.034423634, 0.02985262, 0.051718827, 0.051353745, 0.023844033, -0.022978157, 0.06014332, 0.022530988, -0.05022496, 0.03124116, 0.018825857, -0.015789894, -0.0094319675, 0.020665262, -0.034271896, 0.0046272473, 0.04706572, -0.0020117378, 0.006354611, 0.060382117, 0.038793556, 0.032968294, -0.09372903, -0.051426485, -0.019224022, -0.0043405443, -0.07831423, 0.0004904989, -0.014375579, 0.0037429146, -0.026391456, -0.023703244, 0.057802107, 0.020487726, 0.042636897, 0.016887745, -0.017507548, -0.043805305, -0.0075026583, -0.07959098, -0.09141952, -0.030990275, 0.0026828595, 0.046778187, -0.04055702, -0.0038702544, -0.059253026, -0.04853652, 0.085560486, -0.015268135, -0.05387821, -0.010608488, -0.04139614, 0.047360368, -0.00951052, -0.058473535, 0.006257703, 0.014690849, 0.08730331, -0.008776869, 0.0030922326, 0.034481775, 0.07690704, 0.057996575, 0.036867924, -0.01653951, -0.021381604, 0.032016095, 0.00075764034, 0.01942872, -0.010644285, -0.023451319, -0.015229062, 0.046020843, 0.07609763, 0.010195031, 0.03844197, -0.072550386, -0.034529466, 0.07878707, 0.002030692, 0.03154255, 0.060122643, -0.013682553, -0.0015653713, -0.052223936, 0.0091623, 0.001997567, 0.0011709636, 0.031998236, -0.058395095, -0.042517293, 0.09184005, -0.0368758, -0.032914247, -0.050676633, -0.0011509261, 0.066662915, -0.015172361, 0.06203762, -0.006973994, 0.0037394096, -0.045640193, 0.05539096, -0.019243842, -0.001009002, -0.0010682171, 0.017927771, 0.019933676, -0.054426536, 0.00781956, -0.041628458, 0.008382763, -0.04641143, -0.0023686893, 0.013502424, -0.019898439, 0.0021367855, -0.010500192, 0.0062490017, -0.037445042, -0.037598006, 0.0033735535, -0.01806759, -0.0027702444, -0.01936836, -0.011784782, -0.0005844277, 0.0053165685, 0.02432145, 0.012952803, 0.016770707, 0.04518026, -0.011343584, 0.034931447, 0.103602245, 0.01853608, -0.028632302, 0.051303174, 0.041359667, -0.016603988, -0.077754304, -0.02549775, 0.02363155, 0.027290197, 0.021990597, -0.043227073, 0.0070251185, 0.03249686, 0.055921305, -0.009118398, 0.009461361, -0.012189635, -0.029702552, -0.058273446, -0.03758118, -0.05164332, -0.09476134, 0.07090638, 0.027427755, 0.009151378, 0.050594036, 0.05330858, 0.015485308, -0.004393738, -0.0020138347, -0.017745342, 0.011585954, 0.03581624, 0.0158291, 0.042460557, -0.027549258, -0.03162333, 0.01249298, -0.016301455, 0.03022508, 0.015127458, 0.012083912, -0.0061876923, 0.05167219, 0.059106577, 0.085227355, 0.034448635, -0.027370151, -0.033256534, 0.0628343, -0.023599496, 0.06587544, 0.012869764, 0.021601167, 0.02658162, 0.00016037724, 0.027457388, 0.004302427, -0.028706878, -0.013769719, 0.03950901, -0.087926894, 0.017748157, -0.0036873417, 0.052331142, -0.037430782, 0.010369274, 0.009603242, 0.02942941, 0.09127178, -0.009974369, -0.023296716, 0.011996016, -0.018463738, -0.007393804, -0.103678115, 0.02246276, 0.017090349, -0.04006077, -0.031149609, 0.00020319456, 0.00065513595, 0.02194434, -0.012144083, -0.017442064, -0.06003821, 0.06837549, 0.052113008, -0.021340711, -0.012996636, 0.05572828, 0.05846056, -0.0067805145, -0.02654097, -0.02065055, -0.06323671, 0.025808327, -0.048591863, 0.06627046, 0.02473226, 0.027899075, -0.00529194, 0.07926515, 0.029764894, 0.0021011843, 0.013150049, -0.03140462, 0.031663354, 0.019180229, -0.056466565, -0.048649624, -0.0743773, 0.05358342, -0.0419718, -0.030130653, -0.054314367, -0.063456155, -0.010043893, 0.051365785, -0.04398341, -0.012293174, 0.018990343, 0.10550606, -0.04519945, -0.055690825, 0.043694783, 0.01330648, 0.024161922, -0.010005773, -0.015347361, 0.022116702, 0.029780453, -0.036882885, 0.06824671, 0.026989844, -0.016801223, 0.011355089, -0.04492982, 0.02215003, 0.054790303, -0.018850544, -0.057456035, 0.082591824, 0.06063129, -0.038326908, 0.050770342, 0.05607253, -0.00040225973, 0.015299632, -0.028698143, -0.023665253, 0.030249108, -0.00068995997, 0.016491624, 0.0020807039, -0.030231755, -0.07505474, 0.018223306, -0.014205102, 0.0813767, 0.0012980953, 0.018094402, 0.035671327, -0.034039002, 0.0022342978, -0.013949622, 0.0031194824, 0.059638314, -0.015196119, -0.00037439723, -0.07243435, 0.042805064, 0.047293473, -0.05786454, 0.02026789, 0.0019316626, 0.05365452, 0.14572856, -0.026868582, -0.013386247, -0.024857102, -0.011713953, 0.0233093, 0.08177672, -0.059077453, -0.014738852, -0.015621173, -0.061078094, 0.007444234, -0.004800293, 0.033287596, 0.03338537, 0.008723307, 0.048151895, -0.011596527, -0.015362348, -0.020821374, -0.024921125, -0.0013467289, -0.02885891, 0.060240276, 0.0171613, -0.011293522, -0.002066977, 0.022688339, -0.018804766, -0.033680182, 0.025736196, 0.040277485, 0.018642453, 0.014300208, -0.044892777, 0.065514624, -0.008299507, -0.011358792, -0.02630669, -0.095286, 0.09750259, -0.0100637935, -0.02536996, -0.03052118, 0.011442551, 0.13353062, 0.037363734, 0.065445594, -0.06313628, -0.033693932, -0.056125343, -0.015644783, -0.05892128, 0.016548136, 0.016685287, 0.052702848, -0.024593484, -0.05269893, -0.015392699, 0.064669915, -0.042810336, 0.013097771, -0.008287036, 0.025871757, 0.07253259, 0.012874797, 0.048337027, 0.04527977, -0.013929232, 0.025085049, -0.03644896, 0.011340439, 0.0026272894, -0.06335339, -0.052197687, -0.024204968, -0.008504937, 0.03030001, -0.047261946, -0.035263274, -0.064733215, 0.028798629, -0.00837754, 0.033323843, -0.096585125, 0.023934448, -0.008087473, -0.06167789, 0.028717171, 0.0028581808, -0.008478634, -0.019363657, -0.00597056, 0.038833573, -0.042623702, -0.019004827, 0.016067257, -0.025343195, 0.019400464, -0.0022651858, 0.0980571, -0.013943272, 0.01093106, -0.031616762, -0.02406809, 0.042893127, 0.024055894, -0.024050772, -0.053440686, -0.06508004, 0.02069138, 0.015141789, 0.039018225, -1.8798746e-05, 0.005905784, -0.007949431, 0.040745817, -0.025212789, -0.030258214, 0.007869388, 0.041346963, -0.010282642, -0.040068664, 0.028675718, 0.033819426, -0.038462237, 0.0328684, 0.0010886837, -0.03681811, -0.046432894, 0.02634105, -0.018612849, 0.009548344, -0.028382927, -0.0009368811, 0.04725782, 0.011397153, 0.005439391, -0.04907251, 0.03129609, 0.04023339, -0.021566613, 0.0054228697, -0.07095932, 0.10571413, -0.0024779835, -0.03618623, 0.011195689, 0.04686231, 0.042148277, 0.0064782347, -0.013651027, -0.0042623593, 0.012144352, -0.05409009, -0.016402826, -0.022989009, 0.0062730797, -0.048539918, 0.013841591, -0.03263631, -0.039245673, -0.0023215145, 0.0052596587, -0.015339278]</t>
+          <t>[-0.033921674, -0.014855822, 0.08628906, -0.013211925, 0.07673961, 0.007782746, 0.030808862, -0.09233619, 0.050211012, 0.015618084, -0.022516016, -0.11044353, -0.050910167, 0.007709426, 0.0054471614, 0.01610328, -0.0033686843, 0.026967255, 0.10179403, 0.04238526, -0.014964688, 0.0072505665, -0.081863984, 0.03593715, 0.041837897, 0.025159921, -0.009938781, -0.010994376, -0.018648734, -0.02730632, 0.033630185, -0.027569827, 0.017918482, -0.020643527, 0.012711699, 0.05752112, 0.05005449, 0.025407117, 0.0033593187, -0.03494014, -0.086667426, 0.043783125, 0.0546899, -0.050155066, 0.051276453, -0.064935915, 0.08462118, 0.024518197, -0.00065524026, -0.016341265, -0.04043148, 0.0010000089, 0.034036215, -0.042244747, 0.04544681, -0.018642802, -0.02231625, -0.024184126, 0.019862348, 0.056846242, 0.059050612, -0.021421965, -0.07210545, -0.013716515, -0.004725442, -0.0014574061, -0.050015662, 0.04170926, 0.08358045, -0.042492606, -0.014263477, -0.02262556, 0.04337362, -0.0006736043, -0.08265455, -0.016814651, -0.017402187, -0.032260004, -0.019613119, -0.030807119, -0.08019544, -0.04386463, 0.026823418, -0.056553468, -0.016746307, 0.0412316, -0.010412576, 0.06033418, -0.007361254, 0.14809757, 0.06453172, -0.0056177285, 0.129606, -0.0012082028, 0.046663404, 0.041507576, 0.09516382, 0.08695087, 0.06608924, 0.065610774, -0.020588685, -0.0018577205, -0.07383996, 0.0025023674, 0.04680243, 0.02432406, 0.0735526, -0.015536369, 0.022086527, 0.054120667, -0.035192106, -0.060040917, -0.05751466, 0.07653545, -0.01727516, 0.094085604, 0.05268944, 0.068895526, 0.0051738997, 0.0010825008, 0.0281804, -0.09013754, -0.007382185, 0.05369686, -0.05606846, 0.016788768, 0.021527551, 0.011156642, 0.01253399, -0.024157096, 0.045317374, 0.063882016, -0.004223331, 0.008164352, -0.020517373, -0.0072735767, 0.029175507, 0.056634277, -0.009765126, 0.05134128, 0.016580673, -0.022460876, 0.028458975, -0.04951238, 0.004624332, 0.051165815, -0.068189554, -0.0072508277, -0.07163081, 0.030068375, 0.020583035, 0.057654355, 0.0035109161, -0.06627034, -0.058324788, -0.038750622, -0.031466298, 0.0144762155, -0.046273645, -0.029678328, 0.046606522, -0.038826607, 0.004959243, -0.007024716, -0.004271845, 0.05663854, 0.0378266, 0.012166665, -0.064925715, 0.042727936, -0.02159201, -0.0038106574, 0.0035634225, 0.06331135, 0.013840225, -0.038215406, -0.020000668, -0.026140256, 0.04827427, -0.0009771347, 0.04393161, -0.009472419, 0.004765246, -0.04022447, 0.020358844, 0.014951802, -0.012368579, -0.031715844, 0.0022846481, 0.022960382, -0.037170563, 0.07831445, 0.051585108, -0.017559232, -0.029104892, -0.009927099, 0.0719445, 0.002703143, 0.057449143, -0.007814455, -0.0238399, 0.03649137, 0.080961496, -0.004603685, 0.060341362, 0.017695947, -0.026088938, -0.005948828, 0.013978633, -0.014012974, -0.044125855, -0.0502772, -0.0012480593, 0.012552514, 0.0205098, -0.040897954, -0.027080523, -0.02689602, 0.020931998, 0.015703278, 0.02217467, 0.06474436, -0.08395873, 0.009131949, -0.045042664, -0.005341247, 0.031266984, 0.05166239, -0.043595213, 0.04893258, 0.021713749, -0.011202987, -0.03572006, -0.03919857, 0.04986853, -0.06799399, -0.021527674, 0.050587595, 0.04244906, 0.049294785, -0.008239694, -0.0038146807, -0.003340107, 0.06853373, 0.015748104, -0.011901748, -0.025404349, -0.031535212, 0.0025060961, -0.004924626, -0.062473666, 0.03063216, 0.020801138, 0.021089036, 0.09615081, 0.026281765, 0.05547615, 0.009327764, 0.022309622, -0.03443602, 0.011343827, -0.031593423, 0.024553243, 0.03334799, -0.007016037, -0.026473798, 0.0037742292, 0.061476734, 0.018573811, -0.0007423571, -0.030527547, 0.008217893, 0.05736515, 0.052543715, 0.04651701, 0.061803542, 0.040111464, -0.09710129, 0.017813193, -0.1170991, -0.023099318, -0.04147897, 0.044742674, 0.03194489, -0.012313877, -0.019325873, 0.0047672386, -0.032738663, 0.0050542764, -0.084358245, 0.013845977, -0.061946113, 0.023427134, 0.04344577, -0.05688552, 0.08158552, -0.005724621, 0.057618648, 0.03706271, 0.007330724, -0.05191867, 0.038567718, -0.010746829, 0.011893705, 0.028330674, 0.047313653, -0.013662885, -0.011463366, 0.008728326, 0.010181153, -0.0065095187, -0.005906477, 0.032346413, 0.0858905, 0.004241524, 0.120062836, 0.0046640034, -0.010778263, -0.030758923, 0.006778123, -0.0016759188, 0.029453626, 0.01985183, -0.057971194, 0.014926128, -0.009226067, -0.06512601, 0.014974262, -0.034079365, 0.07828648, -0.0035609587, -0.013112983, -0.019651257, -0.0022270512, -0.010502213, -0.044427745, -0.038653463, 0.024869923, 0.04284938, -0.017934395, -0.0028707013, 0.016129194, 0.048683736, -0.02087591, -0.0429871, 0.048038363, 0.075978406, 0.07510824, -0.009428883, -0.056713633, -0.041923855, -0.03376762, 0.019604368, 0.033190753, -0.012396695, -0.009940867, 0.014553542, -0.05252615, 0.033403866, -0.03450815, -0.013392443, 0.027028885, -0.03955266, 0.05455605, -0.02075043, 0.00033070787, -0.0436678, -0.04803243, 0.020634035, -0.024588782, 0.02553886, 0.034710694, 0.018058194, 0.0068976087, 0.09893883, -0.0038663752, -0.009171793, 0.04822481, 0.04049505, 0.041380722, 0.014734906, 0.029453825, -0.01511083, -0.010656584, -0.07076136, -0.034679685, -0.18120001, 0.033955477, -0.04745727, -0.08303366, 0.032158043, 0.05999557, 0.050261132, -0.050838985, -0.0048140828, 0.13138734, -0.0807143, -0.02291816, 0.011187572, -0.025007656, 0.030002242, -0.0386107, 0.023722203, 0.037865892, -0.03095147, 0.018696927, 0.013861539, -0.00039712104, 0.0022668422, -0.027881553, -0.004928143, -0.043457236, 0.0155561315, 0.019556267, -0.00034949742, 0.0047697127, -0.0021100508, -0.050687835, 0.0011889961, -0.004978055, -0.03239968, 0.0036735518, 0.05288043, 0.069600426, 0.008144261, -0.005413343, 0.033550303, -0.07824039, 0.053113002, -0.05535503, -0.002451014, -0.00336751, -0.004242582, -0.084357426, -0.0011401824, -0.02165048, 0.013643128, -0.018277958, 0.056467034, 0.022385398, -0.010650063, -0.032245204, -0.0068686795, 0.03191308, 0.048982218, 0.018347364, 0.015994415, 0.022781571, -0.008692276, 0.03100287, -0.0026272687, -0.0058595655, 0.031961437, 0.04124272, -0.03926648, -0.034631025, -0.001410821, -0.098959446, -0.0417008, -0.05681568, -0.05123215, 0.02265737, 0.057190236, -0.010382354, 0.0788049, -0.06480356, -0.05901852, -0.010870455, 0.08496622, -0.016921086, -0.07531975, -0.002041459, 0.07953341, 0.032756574, -0.015599684, -0.022085294, -0.034276564, -0.0070589054, 0.0653687, -0.01813755, -0.025956785, -0.013804036, 0.043624047, -0.0021826024, -0.06484452, 0.06815211, 0.022541162, 0.019829512, 0.002494112, -0.04878712, -0.033608396, 0.031269144, -0.046476085, 0.012170595, 0.046307277, -0.007815088, -0.042666588, 0.0033548279, 0.018905688, 0.02944497, 0.032025456, 0.017286185, -0.009768913, -0.09581301, 0.0067888293, 0.0056329058, 0.024109038, -0.037011757, -0.04117025, 0.040431008, 0.006242934, -0.054571155]</t>
         </is>
       </c>
     </row>
@@ -989,41 +948,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>박서우</t>
+          <t>박영서</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>부산</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>hydrocolloid; viscosity</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Constructing artificial intelligence (AI) models for viscosity prediction of hydrocolloid solutions</t>
+          <t>Rheological and thermal characterization of oleogels based on the combination of natural waxes and vegetable oils</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hydrocolloids are extensively used to control the rheological properties of many food products including viscosity. Currently, the viscosity measurement is dependent on actual experiments in many cases since it is affected by various factors such as concentrations, temperatures, and shear rates. Thus, it is necessary to establish a platform to predict the viscosity of hydrocolloids. In this study, the viscosities of various hydrocolloids were obtained under four different temperatures in the shear rate range of 1–1,000s-1. The experimental viscosity data sets were subjected to two AIalgorithms (random forest and multi layer perceptron (MLP)) that were compared with rheological constitutive equations (power-law and cross models). MLP had the highest R2 and lowest RMSE values, followed by random forest, cross, and power-law. By tuning hyperparameters by Bayesian optimization, the MLP model showed superior performance to predict the viscosity of hydrocolloids(R2&gt;0.9 for training and testing datasets).</t>
+          <t>Global efforts have been actively underway to reduce the saturated fat content in processed foods. Recently, oleogelationtechnology, which transforms liquid vegetable oils into solid fats without altering their chemical composition, has garnered attention to replace solid fat high in saturated fatty acids. In this study, three wax-based gelators(candelilla wax, carnauba wax, and beeswax) were combined with seven types of vegetable oils to produce oleogels, and their rheological and thermal properties were analyzed. The oleogels made with flaxseed oil typically exhibited the highest hardness values. Also, the sample prepared with beeswax exhibited the lowest melting point, while those with carnauba wax had the highest melting point. These results suggest that oleogels share similarities with animal fats in maintaining solidity at room temperature. The results can be expected to help the food industry develop processed meat products with better texture and health benefits.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.08004914, 0.044529725, -0.031723417, -0.0008937523, 0.05981133, 0.03731254, -0.0022239676, -0.06419269, -0.016895326, 0.025880005, -0.046596702, -0.016838038, 0.026946815, 0.016121652, -0.011409061, 0.02142275, -0.02968816, 0.056776557, -0.026435213, -0.03317942, 0.03403889, 0.010113396, -0.015341528, 0.019025788, 0.067247085, -0.01576314, 0.100083604, 0.048525553, -0.04983107, 0.0019192952, 0.011920753, 0.0014617214, -0.03768948, 0.0044618947, -0.056809902, -0.028279874, 0.0033823939, 0.06317105, -0.033150703, -0.061373763, -0.035426576, 0.012917435, -0.03075684, 0.012640767, -0.016886862, -0.0128659215, 0.02231585, 0.0040523415, 0.023607578, -0.017239451, -0.017907271, -0.04095327, 0.005655787, 0.026322365, -0.013333328, -0.00562238, -0.09537812, -0.09317092, -0.021955082, 0.011279209, -0.065850645, -0.036743216, -0.1053402, -0.029341394, -0.040371355, -0.043965574, 0.054403394, 0.021450233, 0.004074476, -0.019888436, -0.03311721, -0.00370414, 0.007006593, 0.07421834, -0.06005594, -0.030416204, -0.033741575, -0.087178536, 0.0011137824, 0.07848318, -0.06728619, -0.040020443, 0.07813953, -0.024669074, -0.03762492, 0.06574878, 0.009501101, -0.027733823, 0.017618528, 0.011842869, -0.0072200815, -0.027583683, 0.07933484, 0.0688365, 0.02473048, 0.011614951, 0.022756398, 0.09169515, 0.025699878, 0.05760168, -0.053767174, 0.028606769, -0.030956673, -0.011730579, 0.0048743403, -0.03668008, 0.044628646, -0.017596593, 0.03203556, -0.004907587, -0.027181834, -0.0631196, -0.04881615, 0.0235662, 0.0066411095, 0.07529292, -0.021302398, 0.039733827, -0.0011826375, 0.0630201, 0.064217426, -0.04336944, -0.009100148, 0.013920268, -0.048852216, -0.017569467, -0.01534208, 0.015034965, 0.0061467877, -0.029940186, -0.038752772, -0.0138276, -0.029763596, 0.03533196, -0.006139706, 0.0040710038, -0.015879715, -0.040911958, 0.003310585, -0.04050375, 0.0029403977, -0.043829173, 0.018566318, -0.082536474, -0.029452669, 0.015549222, -0.02798452, 0.04280675, -0.05414498, -0.012710319, -0.04808577, -0.004754071, -0.019531768, 0.030349478, -0.074224286, -0.06191039, -0.039751887, 0.03929839, -0.012904733, 0.01121373, 0.0028844844, -0.0023589798, -0.019173086, 0.0458372, 0.020528369, 0.0058879727, 0.04640261, 0.028597483, 0.010636031, -0.0199042, 0.004434582, -0.021876046, -0.0048749982, -0.03394524, 0.036239047, -0.07017292, -0.021344552, 0.002248228, 0.017403923, 0.036113285, -0.005485886, -0.006687182, -0.033846732, -0.06286736, -0.018411089, -0.022320721, 0.009575829, -0.05221223, -0.049481675, -0.010213472, 0.0034594478, 0.0019767853, 0.028181672, -0.08275036, 0.018804267, 0.085101254, 0.043075826, -0.05300944, 0.0040659523, -0.06888245, -0.023301344, 0.050907824, 0.048457626, -0.0044852844, 0.0114189545, 0.018339766, 0.008133636, 0.008560521, -0.037726875, 0.0049028313, -0.07913619, 0.13677981, -0.056184135, -0.030623814, 0.07524638, -0.014789574, 0.008327668, -0.03975421, 0.051806275, -0.00044253116, -0.07418034, 0.090276755, -0.0030445633, 0.033986215, 0.0065505947, 0.025620919, 0.000293948, -0.0142943375, -0.025539996, -0.0026157997, -2.8399285e-05, -0.013365256, 0.004251364, -0.006337326, 0.018259961, 0.035316058, 0.029851886, -0.00913952, 0.0105074225, 0.08357284, -0.034377616, 0.034927696, 0.0092776865, -0.022162111, 0.048005223, -0.04955775, -0.05421752, -0.0025582062, 0.012481197, -0.033218075, -0.016816583, 0.0068845027, 0.023185669, 0.028185848, -0.012278065, -0.039786737, -0.000902666, 0.045877017, -0.009633072, 0.034279995, 0.03805438, 0.035462257, -0.007521462, -0.039072417, -0.032472517, -0.012710458, -0.02619051, -0.0006961514, 0.01330629, -0.020559387, -0.030020427, -0.054328192, 0.082748085, 0.022836892, -0.007335365, -0.05951507, 0.03272719, -0.032939676, -0.021345856, 0.018330911, -0.0469593, -0.038960166, 0.050541215, 0.035323355, 0.045070995, -0.020825246, -0.013673428, 0.019836131, 0.040794708, -0.011059136, -0.021996511, -0.051562127, 0.05635498, -0.025557978, -0.029656678, 0.02530254, 0.017614394, 0.04625066, 0.039605904, -0.04573186, -0.062406816, 0.0059535597, 0.032462332, 0.082344905, 0.032923084, -0.0009529143, -0.0041042366, 0.029388456, -0.015986135, 0.08265099, -0.07366734, -0.0056115347, 0.027354032, 0.110928915, -0.005385927, -0.021153878, 0.028435327, 0.025756147, -0.0051952084, -0.046657447, 0.035868272, 0.014100275, 0.027779337, -0.02868483, 0.024192084, 0.0041813157, -0.035378948, -0.0043152063, -0.014260976, -0.010690931, 0.007612937, 0.0031514373, -0.021202598, 0.011318166, -0.06495988, -0.015084677, -0.051792756, 0.039194606, 0.013929137, -0.031713013, -0.057833117, -0.064223155, 0.07143053, 0.025382878, -0.004354589, 0.0909905, 0.075326495, 0.098889545, -0.06466303, -0.0103916135, -0.0077686617, -0.028873049, 0.019430656, -0.017815081, 0.008272905, -0.019744428, 0.024364477, 0.054143712, 0.059898853, 0.011491318, 0.007005344, 0.0017702064, 0.018775191, 0.07648707, -0.05284292, 0.011537697, -0.08028236, 0.056690156, -0.03899668, -0.0054740985, 0.01070223, -0.008431669, 0.039059494, 0.0071348096, -0.025455503, -0.03705958, 0.030735044, 0.027700208, 0.0013927519, 0.0145904105, 0.050911378, 0.027186997, 0.0033789838, 0.015650727, -0.017457535, 0.07561858, -0.088310026, 0.051595826, -0.009989302, -0.050238073, -0.014122948, 0.033068035, -0.0018743925, 0.016046777, 0.014344071, 0.049225274, -0.052258465, 0.041208304, 0.012834595, 0.022358645, -0.0014307285, 0.019764038, 0.012334537, 0.0001753167, -0.02866146, 0.014101139, 0.00828341, 0.015137158, -0.057212364, 0.02442288, -0.010413475, 0.07637366, 0.0059690615, 0.07683004, 0.0024164459, -0.026088996, -0.013092287, -0.02945237, 0.024434255, -0.023543037, -0.061173026, 0.047859147, -0.05574788, 0.04517101, 0.022211367, 0.0077160657, -0.08390109, 0.0017001218, -0.023229536, -0.05333632, 0.016328927, -0.0009372604, -0.018422833, -0.034059424, -0.03753664, -0.06598278, 0.032071628, -0.012677974, 0.025332592, 0.036639716, -0.015644006, -0.035407387, 0.04569541, -0.016365375, 0.00050036743, -0.0059615048, -0.0022627932, 0.02332826, -0.0012570459, -0.0078008273, -0.03558824, -0.027016416, -0.0054675317, 0.01147115, 0.026608791, -0.012776756, -0.061761, 0.09906896, 0.045119885, -0.0055034542, -0.0018037312, -0.01253191, 0.062009573, 0.04065676, 0.06037933, -0.020148596, 0.020951213, 0.07662811, -0.004201116, -0.06695828, -0.06984701, -0.019166058, 0.021845121, -0.005615944, -0.00038848136, -0.048938986, 0.022281196, 0.018597232, -0.019709881, -0.023692088, 0.03828964, 0.04296323, 0.07438744, 0.025520878, -0.011727806, 0.029536746, 0.0051338472, -0.004321513, -0.018536078, 0.0062037753, -0.05663694, -0.025071615, -0.05142178, -0.062065873, -0.061842464, 0.014684332, -0.02844815, 0.0012432948, -0.011091508, -0.0018886734, 0.038428057, 0.02194063, -0.003006141, 0.00014567003, -0.017463543, -0.0068558026, 0.011867603, -0.00054360175, -0.07825448, 0.027305204, 0.005278719, -0.06665875]</t>
+          <t>[-0.045272227, 0.04083855, -0.014441188, 0.007900997, 0.02441517, -0.06662675, 0.007006581, -0.06734033, 0.048937984, 0.03664363, -0.049485445, -0.08310708, 0.051621776, 0.060767483, -0.039096836, 0.024434976, -0.038592402, 0.059663817, 0.066221885, 0.009218049, -0.031509057, 0.005523208, 0.0031715683, 0.0783629, 0.03837461, 0.0066090417, 0.023341464, 0.032758784, -0.004099754, -0.0154503025, 0.0028879044, -0.044646155, 0.007720332, -0.02365058, -0.0051804064, -0.018745987, 0.046786517, 0.0015713781, -0.018036628, -0.020508487, -0.020608969, 0.02998867, 0.077537306, -0.01834866, -0.0027442966, -0.0699718, 0.021749835, 0.052324533, 0.023768581, 0.01871007, 0.0058150236, -0.03337161, 0.03453013, -0.0161031, 0.04330836, -0.053703073, -0.06493917, -0.07804763, -0.004491167, 0.0067941127, -0.04058404, -0.06309946, -0.0036713846, 0.031643555, 0.00845138, -0.09014119, 0.013897086, 0.009581084, 0.10357322, -0.020381201, -0.036799412, 0.03237346, 0.024948044, 0.029265145, -0.09600099, -0.016971031, -0.034268167, -0.03577625, -0.036318384, -0.01784503, -0.029081821, -0.037071176, 0.07664049, -0.01140816, -0.027312495, 0.08357254, 0.017582176, 0.06940322, -0.010896733, 0.029501036, 0.016629795, 0.015328557, 0.11202747, 0.04344031, 0.02507347, 0.020113392, 0.010293787, 0.051667724, 0.037319172, 0.055079408, 0.00042231285, 0.10169353, -0.011988494, -0.039032195, 0.026291264, -0.06906814, -0.045133077, 0.009232968, 0.017294923, 0.065538995, -0.0071373046, -0.04956118, 0.0015425048, 0.06526637, -0.015539211, 0.055275794, 0.029488938, 0.06188256, 0.026197968, -0.035493005, 0.052219678, -0.08470049, 0.063764274, 0.011057902, -0.032233194, 0.0038887737, 0.021735437, 0.030240659, -0.01778022, -0.0319319, -0.0456903, 0.022114478, 0.0055672238, -0.021235565, 0.004477581, -0.012050341, 0.02472769, 0.053262588, 0.03419678, -0.011828689, -0.016359111, -0.014493596, 0.049464457, -0.028481489, 0.016380785, 0.016931824, -0.021315156, -0.027241746, 0.034283776, 0.036255326, 0.013438169, 0.022774527, -0.0691456, 0.023658946, -0.0066668424, -0.07969957, 0.04483943, -0.027799739, -0.023044374, -0.01472994, -0.031161964, 0.025577532, -0.07541316, -0.006717158, -0.017159998, 0.058393177, 0.057477064, -0.0021209265, -0.05615265, 0.04054627, -0.02082879, -0.024087025, 0.06808446, -0.017965356, -0.053852737, -0.057182148, -0.021804642, -0.016857598, 0.028772427, -0.005037454, -0.020207679, -0.0106135635, -0.0028901275, 0.046223935, -0.023728771, 0.027820736, 0.054811515, -0.029057609, 0.0012789557, 0.038936548, -0.038289294, 0.006858028, 0.027012121, -0.0017630523, 0.0064622075, 0.05150858, 0.08793457, -0.03386176, -0.018526264, 0.006544895, -0.028047135, 4.81382e-05, 0.047607165, -0.02828686, 0.08851628, -0.04813459, -0.006065986, 0.028491147, -0.01687024, -0.0010625938, -0.0006903071, -0.004248105, 0.077122085, 0.009651906, 0.014566265, 0.006186702, -0.0051305657, -0.0064745764, 0.0046916343, 0.021232817, -0.04449571, 0.023168413, -0.075516984, -0.0055661127, -0.012291058, 0.010847586, 0.024366938, 0.0372463, -0.07216773, -0.01945572, 0.0199546, -0.021744372, -0.017549701, -0.033030298, 0.054103624, -0.024285767, -0.02080325, 0.059663165, 0.023588272, 0.0659399, -0.014983643, 0.027947491, -0.031019881, 0.016710844, 0.040470455, -0.015969459, 0.013928995, -0.0017711421, -0.0045200773, -0.024148576, -0.03533938, 0.054982837, 0.0145952245, 0.01317564, 0.058762692, -0.02338925, 0.044674482, 0.003880981, -0.052237414, 0.012849283, -0.010937546, 0.027875995, -0.01880933, 0.018854873, 0.0040579066, -0.08775805, 0.010309447, 0.03445021, 0.014679243, 0.051159795, 0.021390274, 0.034216233, 0.08476624, -0.024046244, -0.00631723, 0.0033322284, -0.03694919, -0.10852886, 0.015491867, -0.06832058, -0.046666387, -0.009513711, 0.0285303, 0.015005483, -0.026037188, -0.012386033, -0.059512053, -0.016469916, -0.047995783, -0.084323175, 0.011761995, -0.031834118, 0.052824363, -0.024193605, -0.067823045, 0.039179765, 0.046685625, 0.031425703, 0.012084859, -0.0028555363, -0.06533852, 0.036380053, 0.017417807, 0.02790526, -0.00780099, -0.030504465, 0.056208637, -0.07049075, -0.016104834, 0.0023117033, -0.025014207, -0.04135428, 0.052931536, 0.07939106, -0.021179445, 0.00935097, 0.03519143, -0.025403269, -0.009492528, -0.03549653, 0.007608845, -0.008728354, -0.005369792, -0.025773982, -0.017138692, 0.042288672, -0.09217295, 0.011132055, -0.0530894, 0.074159816, -0.02902346, -0.027023993, 0.0068087224, 0.031695846, 0.02684877, -0.016128877, -0.021247968, 0.013141276, -0.038308624, -0.046000175, 0.0009782376, 0.05464088, 0.080649525, -0.026391938, -0.004715837, -0.008038943, 0.06301943, 0.11687707, -0.04502734, -0.07849793, -0.056519777, 0.0001468258, -0.023240097, 0.072996, -0.027420063, -0.00030439533, 0.0077038496, 0.026665732, 0.0024777092, -0.030129515, 0.03299548, 0.078305066, -0.002544702, 0.028931053, 0.019908912, 0.047226846, -0.02594138, -0.037879705, -0.03606335, -0.02743429, -0.0014536014, 0.014601635, 0.0074994713, 0.021828357, -0.015679453, 0.007716643, -0.042061444, 0.03678614, 0.052134342, 0.019619845, -0.039147936, -0.031802338, 0.061824597, -0.10301959, -0.03293448, -0.0025160427, -0.111831464, 0.040404588, 0.038494762, -0.018546443, 0.0026181738, 0.024726966, 0.04495138, -0.005179308, 0.006420083, 0.02434472, -0.0049384236, 0.01156511, 0.011423079, -0.030007876, 0.04198357, -0.01683948, 0.0073169684, 0.050253943, -0.0013489487, 0.06452862, 0.021857958, -0.001793546, -0.005955012, -0.019246629, 0.040905964, 0.033588633, 0.0043797693, 0.06456995, 0.032175757, 0.012463168, -0.01678243, -0.03749264, -0.026575021, 0.025870621, -0.08135656, 0.041520555, 0.007046206, 0.03575692, 0.061833143, -0.017049614, -0.0032351117, -0.090949476, 0.02811394, -0.0053862445, -0.006023244, -0.051208477, -0.0028878008, -0.017764566, -0.047018647, -0.0044081244, -0.008028447, 0.0069401185, -0.012186224, 0.017996183, 0.038064115, -0.006224958, 0.0091610635, 0.04742048, 0.027658086, -0.017691465, 0.041324284, -0.0132618975, 0.0026221955, 0.011495469, -0.01346893, 0.017285086, 0.016269483, 0.045853283, 0.014210727, -0.028367748, -0.08382235, 0.015557898, 0.005981134, 0.024038287, -0.0337008, 0.0070390897, 0.007445925, 0.012464871, 0.06245955, -0.03191563, -0.03848838, 0.0018945143, 0.0037764504, -0.07530389, -0.01850368, -0.0029705926, 0.0036759137, 0.034736883, -0.016795151, -0.038363885, -0.0025586223, -0.011904926, -0.036766116, -0.01845195, -0.036338437, 0.01115314, 0.07892636, -0.022979124, -0.05870086, 0.021850958, 0.03397827, 0.05044627, -0.06303403, -0.014041449, -0.05096923, 0.05300291, -0.018128771, -0.03695084, -0.007966601, -0.0022653418, -0.02783033, -0.01848778, 0.0550804, 0.0023467464, 0.023203313, 0.028236724, 0.0044273874, -0.044576608, 0.0046639186, -0.021177558, 0.037483297, 0.002406368, -0.07974076, 0.022322468, -0.036320094, -0.03016288]</t>
         </is>
       </c>
     </row>
@@ -1032,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1041,32 +996,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>이다연</t>
+          <t>이승훈</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>전주</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>hydrocolloid; machine learning</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Applications of artificial intelligence models for predicting the rheological properties of hydrocolloid solutions</t>
+          <t>Development of thermo stable thickening agents for the elderly foods</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Viscosity is an important property of hydrocolloids to characterize their rheological behaviors in various areas. Therefore, it is critical to control and accurately predict their viscosity for practical applications. Constitutive models have been traditionally used to describe the rheological behaviors of hydrocolloid solutions. However, there exist no universal constitutive models for a wider variety of hydrocolloids with different rheological features. Thus, as a novel alternative to constitutive models, there is a need to apply artificial intelligence (AI) models to describe and predict the rheological features of hydrocolloid solutions. In this study, the steady-shear viscosities of six food hydrocolloids (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) were experimentally measured at different concentrations (0.2, 0.4, and 0.6%, w/w) and temperatures (25, 35, 45, and 55℃) using a rheometer, and then fitted into constitutive (power law and cross models) and AI (random forest and multilayer perceptron (MLP)) models. Furthermore, the viscosity results predicted by the established AI models, were compared with the quality attributes of the corresponding meat analogue samples. All the hydrocolloid solutions showed shear-thinning behaviors by showing decreased viscosities as a function of shear rate. When the steady shear viscosities were subjected to rheological constitutive and AI models, the AI algorithms showed a better fitting performance (R2 = 0.94-1.00) than the constitutive equations (R2 = 0.75-0.99)). Also, when the MLP　model was applied to meat analogue samples after cooking, their textural properties seemed to be fairly correlated to the AI-predicted viscosities. Thus, this study may contribute to improving the quality attributes of meat analogues by providing possible ways to predict their rheological features.</t>
+          <t>As Korea approaches the threshold of becoming a super-aged society with over 20% of the population being elderly, there is a rapidly growing industrial and social demand for the elderly foods. In particular, thickening agents to increase the viscosity of foods have been used for elderly individuals with dysphagia. However, since most of food products undergo heating and cooling processes during preparation, their vulnerability to temperature variations may lead to significant changes in the quality attributes of the foods. Therefore, in this study, the temperature-dependent properties of 13 hydrocolloids (konjac, guar gum, sodium alginate, methylcellulose, hydroxypropyl-methylcellulose, xanthan gum, gellan gum, locust bean gum, carboxymethyl cellulose, κ-carrageenan, ι-carrageenan, arabic gum, and agar) were analyzed by monitoring their viscosity changes over temperature. The viscosity of most hydrocolloids had an overall tendency to decrease and then to increase during the heating and cooling cycle. Among the hydrocolloids tested, the six hydrocolloids (xanthan gum, carboxymethyl cellulose, sodium alginate, ι-carrageenan, arabic gum, and gellan gum) exhibited stable viscosity patterns regardless of temperature. Furthermore, blending experiments showed that the hydrocolloid blends revealed not only greater viscosity stability across temperatures but also higher viscosity at the same concentration. This suggests their potential not only as thickening agents for developing the elderly foods without significant rheological changes, but also for controlling the rheological properties of various foods.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.0323949, 0.054200653, -0.06101495, -0.0093338145, 0.09211446, -0.014015357, -0.022959871, -0.046756398, -0.015167879, 0.029897518, -0.05229187, 0.026816301, 0.075033695, -8.080923e-05, -0.019250944, 0.035398595, -0.0046814047, -0.0009274678, -0.044807415, -0.032166436, 0.04165316, -0.034167245, 0.018985828, 0.03292748, 0.02906539, 0.03015222, 0.10331814, 0.07719199, -0.13800815, -0.018172221, -0.016149722, -0.020692382, 0.0034910103, -0.028233971, -0.067894235, -0.026982902, -0.010014121, 0.03945202, -0.023310678, -0.031199262, -0.011953826, 0.012278522, -0.030570392, 0.092657655, 0.040248662, -0.026173925, 0.03198294, -0.023829048, -0.0061035445, 0.032411214, 0.015049014, -0.028404435, 0.015982883, 0.06402969, 0.028699806, -0.0028875442, -0.09850172, -0.064738765, 0.002289818, 0.02400561, -0.09728394, -0.089742124, -0.0800937, 0.01340394, -0.013637348, 0.031432603, 0.0032734892, 0.0040287464, 0.06624228, 0.00779097, -0.06465645, -0.020448564, -0.06255499, 0.03873518, -0.049069304, -0.003968882, -0.040346283, -0.052061263, 0.017645119, 0.020190226, -0.020302348, -0.034903117, 0.10170594, 0.039585326, -0.018108578, 0.041959763, -0.052147307, -0.046672996, -0.016969604, 0.041448914, -0.0063533075, -0.023050196, 0.09455066, 0.025173657, 0.019218894, 0.002055075, -0.037013277, 0.0055671255, 0.033793963, 0.059034675, -0.03597606, 0.08086328, -0.015807353, 0.043204207, 0.014903215, 0.0010776512, 0.00738205, -0.0069756596, 0.04854291, -0.033353943, -0.0017848605, -0.07531981, -0.08081433, -0.02247598, 0.023589, 0.04625668, 0.0099937245, 0.013172056, -0.003219327, 0.037758283, 0.014876112, -0.010549675, -0.0103286095, -0.003746623, -0.02952857, -0.030740933, -0.07680098, 0.058792453, -0.04395254, 0.019852871, -0.012695562, 0.038599096, 0.03755844, -0.021639146, -0.008291973, -0.06589159, -0.07051531, -0.0013738062, 0.03940388, 0.011896731, -0.019970171, -0.073022865, 0.06143198, -0.096363805, 0.103464074, 0.015593043, -0.025271857, -0.06075702, 0.034288075, 0.028348206, -0.018856501, 0.033493124, 0.017154418, -0.010952216, -0.0046205134, -0.043961946, -0.06446421, -0.013701011, 0.011666443, 0.007000432, 0.0017334382, -0.054207154, -0.01485841, 0.01514789, 0.014633543, -0.023022857, 0.051897928, 0.0076737083, 0.012709196, -0.00257943, 0.04571996, -0.018040087, 0.037795138, 0.0036651427, 0.0033639031, 0.0350246, -0.05205173, 0.015871653, 0.01758242, 0.01704009, -0.020875325, -0.034171287, 0.060243312, -0.054436605, 0.017941084, 0.0052228435, -0.009292254, 0.007873273, -0.0653969, -0.007013514, -0.017731307, -0.06492217, 0.007965381, -0.010216686, 0.014097635, 0.032667845, 0.044835784, -0.021596676, 0.022678899, -0.00757853, -0.03077217, 0.0222458, 0.08563003, 0.034052454, 0.014737677, 0.033287384, 0.015428836, 0.013055208, -0.0077991984, 0.03152323, 0.0038737718, 0.11868386, -0.017011259, -0.02307143, 0.046200298, -0.026495889, 0.06229001, -0.0010157005, -0.019666636, 0.06228821, -0.051996745, 0.06887958, 0.05340676, 0.025448892, -0.0067092376, 0.020095166, -0.0462883, -0.011489727, -0.030617993, -0.03739574, -0.0026139426, -0.030417256, 0.014732217, 0.01693463, 0.041286122, 0.050581444, 0.0011040254, 0.05106404, 0.013875559, 0.09869923, -0.059408154, 0.0126855355, -0.025902301, -0.059368983, 0.026628241, 0.0214514, -0.021311363, 0.0069735623, 0.013555112, -0.04560215, 0.006187605, -0.02357684, 0.05217296, -0.021949321, 0.02149164, -0.04350158, -0.0062457942, 0.0009561369, 0.0343042, -0.004596391, 0.0063902293, 0.018007254, 0.015898768, -0.07872808, -0.02621982, -0.018896699, 0.014081, 0.032304537, -0.03555357, -0.03939175, 0.021242063, -0.007765812, 0.057020925, 0.002833966, -0.024222901, -0.010650161, 0.008347769, 0.03176036, -0.0018902494, 0.04483249, -0.024363551, 0.002429842, 0.06967105, 0.021265699, 0.033121627, -0.0490506, -0.008700412, -0.03150344, -0.045742493, -0.05211412, -0.012886491, -0.065608636, 0.041093778, -0.037189852, -0.01537326, 0.04999998, 0.016827852, -0.011317547, 0.03552497, -0.026067508, -0.017249968, -0.052424632, 0.024390714, 0.05218866, 0.0042067184, -0.015108128, 0.0061201113, -0.058661506, 0.022705898, 0.023488173, -0.04491859, -0.02439933, 0.05975052, 0.058728334, -0.012835006, 0.029226732, 0.03661411, 0.023324728, 0.0018287122, -0.03121845, 0.056983344, 0.030018283, -0.0068838, -0.033817448, -0.033512212, -0.013196931, -0.026745724, 0.013283039, 0.00075958885, 0.0553628, 0.02223953, -0.024733655, -0.004651473, -0.011469725, -0.04726282, 0.00026571192, -0.066128016, 0.0207637, 0.02228617, 0.01479482, -0.03306941, -0.109379254, 0.033586517, 0.019953655, 0.026521754, 0.010635093, 0.018945774, 0.048135888, -0.029232329, -0.009308909, -0.040818628, 0.0022094816, 0.007942251, -0.025878806, -0.06440322, 0.012140815, -0.0007212715, 0.07408765, 0.06888135, -0.045290444, 0.06248211, 0.021417083, -0.03719556, 0.10360648, -0.07721933, -0.0687835, -0.051447943, 0.01317429, -0.025295625, 0.008715433, 0.023207793, -0.0005081894, -0.009380579, -0.024358315, -0.07226507, -0.014690199, 0.043183114, 0.08298772, 0.029171234, 0.031302262, 0.0037692005, 0.00027758128, -0.04467992, 0.007824989, 0.009227672, 0.08030632, -0.067837544, 0.062928304, -0.052162413, -0.057970293, -0.021489581, 0.06438501, 0.04856023, 0.04504504, 0.06524138, -0.02854713, -0.079635, -0.012230185, 0.06080641, 0.050107062, 0.017568788, 0.02701678, -0.0146485325, -0.054185264, -0.04518835, 0.023981327, 0.019812029, -0.0055458634, -0.08484615, 0.074950516, 0.049608663, 0.026096625, -0.0075158635, 0.039259516, 0.0016220151, 0.022516739, -0.0005207733, -0.07730591, 0.02804287, -0.091899216, -0.02851952, 0.014663403, -0.0590941, -0.0028535842, -0.04921507, 0.02999804, -0.014676971, -0.047438085, 0.014422787, -0.028233524, 0.029086577, -0.001206356, 0.05314313, -0.034904007, -0.04153834, 0.044620175, 0.06787131, -0.013263146, 0.0034903933, 0.023907218, 0.015780505, -0.06198369, 0.030930633, 0.027962683, 0.04967968, -0.019556358, 0.028129002, -0.025302883, 0.0050613964, 0.023344385, -0.038144693, -0.031381354, 0.047086593, -0.018961973, -0.01171851, 0.024937373, -0.060752444, 0.021953393, 0.0112148505, 0.03062203, -0.0014811858, 0.014669726, 0.037423503, 0.02357732, 0.0054309345, -0.021020336, 0.055930797, 0.06545414, -0.008589371, -0.055428077, -0.014921595, 0.025593286, -0.015331739, -0.010285887, -0.03489603, -0.07846156, -0.04904226, 0.0048380527, 0.0060922755, -0.04512458, 0.013020425, 0.01539602, 0.04736533, 0.016122077, 0.0017696861, -0.013491874, 0.001803294, -0.060364924, -0.0062298286, -0.028197022, -0.047059298, 0.050877012, -0.043102987, 0.021569818, -0.02916606, -0.010001605, 0.033557087, 0.05268687, 0.03418202, -0.036408234, 0.047579605, -0.0068996036, -0.020421103, 0.019574754, 0.0058900197, 0.037500557, -0.077943176, 0.013031745, -0.0036255475, 0.059470817, -0.026653575, -0.04467929]</t>
+          <t>[0.05457023, 0.022943728, -0.015245173, 0.009172959, 0.078522936, 0.08077157, -0.014146871, -0.010542562, 0.033001326, 0.017904693, -0.010774745, -0.01680673, -0.052297886, 0.011356363, -0.02983307, 0.023313314, -0.012587831, 0.034037396, 0.040424008, -0.008414612, 0.02289479, -0.024095869, -0.10350563, -0.008666361, 0.011612241, 0.003055276, 0.0342158, -0.07001347, 0.003630501, 0.017927898, 0.033486802, -0.042015262, -0.024291417, -0.0014875898, -0.013208351, -0.0049622445, -0.007349389, 0.0049211546, -0.024792086, -0.058940977, 0.004057943, 0.015729064, 0.03361041, -0.055553634, -0.031632144, -0.049039792, 0.037975065, 0.035428207, -0.06526263, 0.002210159, 0.06483919, -0.088771515, -0.034345224, 0.022939473, 0.037528396, -0.080006555, -0.042944215, -0.02550532, 0.028007263, 0.010090744, -0.0009190466, -0.064321436, -0.10518753, -0.0254503, -0.008145343, 0.025518063, 0.0610303, 0.01646143, 0.04426203, -0.009411469, -0.032874204, 0.0507992, -0.038423024, 0.06659392, -0.08943836, 0.011467556, 0.025820423, -0.0048792497, 0.0040160576, 0.06672972, 0.020897083, -0.043335885, 0.07061706, -0.057196315, -0.018196654, 0.046488963, -0.060842097, 0.002952373, 0.0033304517, 0.049145885, 0.012432635, 0.0086638145, 0.13749877, -0.034451514, -0.015154984, 0.0045944, 0.023483958, 0.09553377, 0.06244306, 0.04065134, -0.007665512, 0.0778435, -0.07537693, 0.0062180213, -0.015549473, -0.0021661131, 0.05033573, -0.029487217, 0.039369382, 0.02877591, -0.019500341, -0.05676934, -0.018848168, -0.009202967, -0.05782489, 0.043288592, -0.016616989, -0.056623373, -0.035454225, 0.039275207, 0.026017202, 0.036918655, 0.011114333, 0.05067132, -0.025783833, 0.0017850737, 0.061425917, -0.033565767, 0.015786335, 0.06442978, 0.09056231, 0.061938085, -0.023438608, 0.006836843, 0.009651593, -0.012202857, 0.013619015, -0.020560337, 0.010801428, -0.046248443, 0.012687366, -0.030969208, -0.00947673, -0.042492043, -0.027104627, 0.012390692, -0.015831493, 0.06616433, -0.0397958, 0.02476736, -0.056347486, -0.0059154374, 0.0158553, -0.04923794, -0.053059585, -0.030850291, -0.029195398, 0.026359616, 0.019135818, -0.009716905, 0.04243441, -0.042593054, -0.072042115, 0.03889482, -0.019273859, -0.04607819, 0.05622847, 0.00375944, 0.045888215, -0.013127944, -0.0012251235, -0.02711492, 0.029413467, -0.052199084, -0.003732737, -0.050632436, -0.0035837658, 0.00050989684, 0.038738023, -0.01014881, -0.016803887, -0.043762226, 0.021972517, 0.0076898164, -0.026868308, -0.047770105, 0.04303741, -0.040206242, -0.010233751, -0.01469122, -0.051008914, -0.0045857434, 0.0049878885, -0.017845036, -0.030931307, 0.015284057, 0.039924406, -0.002247075, -0.041668855, -0.030615836, -0.020588506, 0.023261646, 0.02595859, 0.012842171, -0.020009184, -0.0725231, -0.05739531, -0.015068809, 0.028316643, -0.011280559, -0.049673878, 0.050695397, 0.008478687, 0.008684593, 0.018569427, -0.0075572557, -0.0444596, -0.0073693027, -0.011207243, -0.011833298, -0.014363176, 0.066235505, -0.043403503, -0.04987809, -0.048426013, -0.018390862, -0.010752222, -0.046091843, 0.021993646, 0.101207204, 0.02245813, -0.037298303, -0.04802714, -0.07177038, 0.101522654, 0.00056994794, 0.024180533, 0.022505628, -0.009073881, 0.0721254, -0.04710301, -0.010997657, -0.006524713, -0.025329825, -0.023890046, -0.055618122, -0.01945439, -0.03064585, 0.023271088, -0.024768645, -0.014691562, 0.05593012, 0.008665083, -0.00714221, -0.07262345, -0.01720645, 0.04134754, 0.09509588, 0.03550581, 0.0023888699, 0.011959561, -0.008890095, 0.0038080327, -0.026124813, -0.080567196, 0.032755826, -0.0039415453, 0.034607884, -0.009397396, -0.003446339, -0.021987097, -0.001968676, 0.12883942, 0.022978373, -0.04231052, -0.06023254, -0.042547226, -0.17390205, -0.03591342, -0.042134825, -0.089548856, 0.012073775, -0.047432106, 0.029317401, 0.00063789636, -0.022640446, -0.07079055, -0.036862902, -0.03223268, -0.05807368, 0.010211242, -0.06335878, 0.0742082, 0.0025261717, -0.06986756, 0.037115384, -0.001452363, 0.02554336, 0.054936014, -0.016181022, -0.059490193, -0.0067284014, 0.028140705, 0.062007796, 0.04761275, -0.004698904, 0.007524587, -0.016127769, 0.059999354, 0.083053574, -0.036708303, 0.010001315, 0.025299681, 0.0818133, 0.06366611, 0.0024234054, 0.018421715, 0.07677547, -0.039646216, -0.055062916, 0.030696267, 0.015128164, 0.04743978, -0.016230933, -0.016887143, 0.04536403, -0.035281923, 0.011296765, -0.019851636, 0.020563908, 0.013682577, 0.0030713696, -0.077823356, 0.0060068727, -0.05941252, -0.039934963, -0.028875584, 0.049878214, -0.03488287, -0.018881626, -0.042288832, -0.039024536, 0.10445876, -0.013205429, -0.026206136, 0.08099674, 0.036511764, 0.10316922, -0.06053271, -0.018810416, 0.0042889058, -0.012010921, 0.022871872, -0.08373606, 0.030100333, -0.044222374, -0.030841256, -0.00054037047, 0.011848235, -0.023519445, -0.0055057253, 0.039900575, -0.0169883, 0.0018693364, -0.027253864, -0.0443591, 0.04553334, 0.009121568, -0.04693926, -0.12902106, -0.011405856, -0.050831445, -0.014455705, -0.006264416, -0.007359417, 0.03611421, 0.006647476, 0.03209157, 0.048225716, 0.037625235, 0.06759031, 0.033674926, 0.009176703, -0.04957236, -0.0489877, -0.015844088, -0.03852572, 0.0065757027, 0.028520921, -0.09711623, -0.055217173, 0.07718084, 0.027660636, -0.03592934, -0.0016613369, 0.0957262, -0.000736463, -0.002234085, 0.03140535, -0.013431466, 0.02253538, 0.022798985, 0.020797707, -0.047446985, -0.017609002, 0.07980742, -0.057136897, 0.0027442132, -0.036930107, -0.05033145, 0.0020568604, -0.022169134, 0.04094218, 0.014978925, -0.031709526, -0.016575597, 0.02568324, 0.008908839, 0.078075275, 0.060258847, -0.06355928, 0.020671267, -0.048224717, 0.020248467, -0.011229132, -0.044353068, -0.03885788, -0.044917125, -0.053977363, 0.010348393, 0.0020250906, -0.09157768, 0.027268875, -0.090915956, -0.037330054, 0.011233917, 0.018174384, 0.01704278, 0.063639954, 0.021496106, 0.008827427, -0.013894129, -0.018143268, -0.001765941, 0.08066064, 0.015886758, 0.04660082, 0.05822875, -0.010208005, 0.029590577, -0.021470476, -0.0058246385, 0.021080336, 0.020145856, 0.01076194, -0.025850827, -0.025901886, 0.06791817, 0.045843378, -0.023034133, -0.011273072, 0.013496375, 0.02254092, 0.048393656, 0.006812836, -0.020215083, -0.016111964, -0.0048544584, 0.031785212, -0.0633359, -0.0035374574, -0.010461043, 0.01076465, -0.04376566, -0.03450228, -0.021060523, 0.019856224, 0.018651104, -0.029536217, -0.039465263, 0.0024648604, 0.00921265, 0.061915908, 0.006843272, 0.04923123, 0.059476998, 0.064396776, 0.030734928, -0.040689703, -0.08316321, -0.050849233, 0.008197369, -0.0111646345, -0.044108298, 0.026178446, -0.012337385, -0.0013247879, -0.022865675, -0.02424453, -0.009748206, 0.0024062074, -0.056745198, -0.02209099, 0.04318962, -0.07587838, -0.030037321, 0.038926657, 0.020925933, -0.09572161, 0.013666768, -0.019905567, 0.010731623]</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1084,32 +1035,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>권혁진</t>
+          <t>한승현</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>전주</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>wheat flour; machine learning</t>
-        </is>
-      </c>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Machine-learning prediction models for rheological characteristics of fresh noodles from thermo-mechanical features of wheat flours</t>
+          <t>Effect of natural waxes on the physicochemical properties of protein-stabilized O/W emulsions</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Several scientific attempts have been made to correlate the physicochemical characteristics of wheat flours and the rheological properties of their corresponding end products However, most of the precedent studies focused on a single parameter or relied on simple statistical modeling for their correlations Furthermore applications of machine learning in the food processing field have been scarce compared to other industries Thus, in this study, a machine learning based approach incorporating multiple thermo mechanical properties of wheat flours was applied to forecast the rheological properties of noodles Fresh noodles were prepared with six different wheat cultivars and their blends Their extensional features (maximum resistance to extension and extensibility) were predicted based on the Mixolab thermo mechanical properties of the corresponding flour blends by constructing multilayer perceptron prediction models The performances of built models were evaluated and ameliorated under four different hyperparameter settings ( dropout rate, activation function, and the number of hidden layers) The thermo mechanical property of wheat flours did not solely manifest the extensional properties of the corresponding fresh noodles (R 2 0 6 The most influential sets of Mixolab features explaining noodle extensional behaviors turned out to be C 2 C 3 dough stability, and development time for R max and C 2 C 3 C 5 water absorption, dough stability, and development time for extensibility Machine learning models constructed with the optimized parameter sets displayed superb performances, compared to two statistical regression models (linear and quadratic polynomial regressions) after hyperparameter tuning Thus, it seemed that the machine learning incorporation coupled with appropriate hyperparameter settings could be used as a useful means to forecast the rheological properties of wheat flour based food products, possibly encouraging the food industry to efficiently control the quality attributes of products</t>
+          <t>As consumer demand for natural ingredients increases in the food industry, interest in natural emulsifiers is also on the rise. Furthermore, in O/W emulsions, oil exists in a liquid state, thereby containing inherent issues such as oxidative instability and flocculation. However, there is still limited research on improving the stability of emulsions by transforming oil from a liquid to a solid state. In this study, O/W emulsions stabilized with whey protein isolate and gelatin were prepared with three different natural waxes (candelilla wax, carnauba wax, beeswax) and their physicochemical properties were characterized. Confocal laser scanning microscopic analysis showed that O/W emulsions were successfully generated with all the three waxes, but the oil droplet size increased in the order of beeswax, carnauba wax, and candelilla wax. The viscosity of the emulsions decreased as the shear rate increased, showing a shear-thinning behavior and the viscosity increased in the order of candelilla wax, carnauba wax, and beeswax. Also, the viscoelasticity of the emulsions increased in the order of candelilla wax, carnauba wax, and beeswax. All the samples had greater freeze-thaw stability without oil separation. Thus, this study showed the possibility of utilizing protein-stabilized O/W emulsions combined with natural waxes for application in food products.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.037412357, -0.046578776, 0.029013561, -0.029435327, 0.06268718, 0.013447089, -0.025860963, 0.07400381, 0.010686799, 0.011860079, -0.05108565, -0.005859858, -0.015013535, -0.023589581, -0.01916656, 0.018199224, 0.031862203, 0.07926126, 0.030116318, -0.012077381, -0.06835951, -0.048831187, -0.037446346, 0.008709923, 0.13847725, 0.028285898, 0.010962966, -0.013376632, -0.0012810569, 0.00093062286, 0.045395233, -0.028186772, 0.040136926, -0.048459977, 0.014672005, -0.026008356, 0.012908777, 0.013944573, 0.0789494, -0.051713403, -0.067504644, -0.004196258, -0.10742148, 0.0070284833, -0.032069735, -0.062054373, 0.05547446, 0.013279348, -0.04914828, -0.030103195, 0.004867474, -0.01972329, -0.020881368, 0.055004764, 0.024844138, 0.018511485, -0.1005639, 0.0315417, -0.025176734, 0.035512928, -0.09726354, -0.003953159, -0.053148016, -0.051958356, -0.009221421, 0.0298839, 0.041757658, -0.01492821, -0.04543103, 0.0012535295, 0.009544728, -0.044460874, -0.02157333, 0.011736878, -0.05035138, -0.03985231, -0.03129026, 0.033065457, -0.039161183, -0.014371729, -0.055831697, 0.010398334, 0.05452965, 0.003690751, -0.05786439, 0.044446968, 0.03495429, 0.057194047, -0.013161914, -0.05512785, 0.038593233, -0.029662043, 0.107874036, 0.027201304, 0.0033744874, 0.022713514, 0.07653164, 0.10008988, 0.0051508406, 0.0001760805, -0.04938934, 0.068974756, 0.029914705, -0.0481055, 0.060739964, -0.009355189, 0.021418441, 0.03412759, 0.06323643, 0.047523525, 0.011934749, -0.0659252, -0.040872976, -0.026720705, 0.021600705, 0.0070786723, 0.039860394, 0.063212186, 0.01683348, 0.09106477, 0.04119976, -0.025639022, 0.0033108226, 0.11100871, 8.707575e-05, -0.066282615, 0.032097183, 0.046357006, -0.03972444, -0.062793836, 0.03946791, 0.03545042, 0.012070661, 0.006859401, -0.002123367, -0.0018425414, 0.010738017, -0.017589549, 0.00403609, -0.026376432, 0.031120922, -0.03260521, 0.023473708, -0.084538944, 0.06379351, -0.024167031, -0.059807237, -0.037605677, -0.019705452, -0.022680989, 0.010872264, -0.04614493, -0.004472799, -0.028457701, -0.04329672, -0.05872184, -0.061433244, 0.02518842, -0.058253158, 0.036203276, -0.006361465, -0.047622267, -0.009271365, 0.06022122, 0.009291919, -0.033024345, 0.09438067, 0.031262264, 0.039060395, 0.0979153, 0.0012235626, -0.02362184, 0.04344496, 0.0077776634, 0.028659685, -0.036365476, 0.039218657, -0.08581175, 0.107326, -0.027926136, 0.023148049, -0.09807216, 0.020681674, 0.008172958, -0.004346154, -0.0662601, -0.0513806, -0.031022195, -0.03308224, 0.06010739, -0.07928908, -0.007920766, 0.04493206, -0.012227923, 0.025799958, 0.029396186, 0.06388987, -0.010932582, 0.067232676, 0.071466416, 0.09216386, -0.0017064495, 0.03278823, -0.01889912, 0.0459187, 0.019958762, 0.0102610225, 0.024106326, 0.051355936, 0.064333975, -0.01996662, -0.010240471, 0.010176275, -0.032931868, 0.06002517, -0.008501457, 0.060007684, -0.040009808, 0.043584723, 0.0062506087, -0.0024135534, 0.0303722, 0.065343134, 0.05602023, -0.019904567, 0.0035744696, 0.043004047, 0.025499664, -0.010863536, -0.010270752, -0.016418051, -0.09378635, -0.004299862, -0.018070025, 0.006332563, -0.007258281, -0.022586977, 0.0132698435, 0.026279507, 0.08163842, -0.019588148, 0.07506152, 0.029583275, 0.07233113, 0.04225091, -0.062193956, -0.04536539, -0.05617037, -0.041315198, -0.011617917, -0.0597046, 0.030653657, -0.020367252, -0.071883224, 0.012178987, 0.073527634, 0.009121481, -0.038145244, -0.03515996, -0.0016878077, 0.0059700105, -0.05170905, -0.0016406728, -0.0055633844, 0.011020726, -0.01381448, -0.028329058, 0.010558521, 0.059785336, 0.035856575, 0.006743161, -0.00094761857, 0.030996092, 0.043079443, -0.024862139, 0.05768538, -0.009496863, -0.033495326, -0.012075822, 0.046597436, -0.084782094, -0.04625899, 0.046801794, -0.10454981, 0.0070514334, -0.06669821, -0.08133206, -0.008874846, -0.038734686, -0.010106413, 0.015629014, -0.03551608, 0.074751586, 0.025853753, -0.028572224, 0.020871727, -0.10668919, 0.032772735, -0.01815611, -0.028478527, 0.058534924, 0.005830393, 0.008684989, 0.060810424, 0.011603949, -0.025908234, -0.028936585, 0.00018564961, 0.021427283, 0.028935885, -0.011065225, -0.01773426, -0.0020057347, 0.08445894, -0.04623645, 0.059015892, 0.012098415, -0.04705684, -0.0060455464, -0.091696, -0.0014551176, 0.06441253, -0.017374884, -0.0029649395, -0.03628673, 0.07991826, -0.05698467, 0.012284078, -0.016668055, 0.06010161, -0.021889802, 0.0024470412, -0.013301453, 0.011524051, -0.025401572, 0.01656371, -0.022535773, -0.027975015, -0.02018742, 0.03621248, -0.055578068, 0.026785498, 0.02590847, 0.032167874, -0.0043058195, 0.063038744, 0.053327337, -0.047241308, -0.0266057, -0.018815186, -0.06124209, -0.025752753, 0.0003417004, 0.03105616, -0.022284543, 0.0012895574, -0.030167077, -0.06065138, 0.020448018, -0.0019049726, -0.03445889, -0.059439536, 0.0034950802, -0.0515881, -0.030957183, -0.025528725, -0.035659723, 0.05690228, -0.036111157, 0.0058024004, 0.04557601, 0.016224511, 0.0045637274, 0.041381184, -0.019984145, -0.015440527, 0.029253777, 0.064507715, 0.01655179, 0.025916215, -0.010412065, 0.011605799, -0.032249514, -0.087580085, 0.022799714, -0.023670228, -0.054175775, 0.049981486, -0.06291774, -0.06542264, -0.05096805, 0.115813494, -0.004558584, 0.036637813, -0.03328533, -0.0025689113, -0.077300705, 0.045443594, 0.032416902, 0.050992947, 0.0014549008, -0.046402022, -0.029975649, -0.010128462, -0.012423131, -0.04084403, -0.032212254, 0.01644881, -0.09098935, -0.0503935, -0.01747818, 0.080709934, 0.047069658, 0.08794778, -0.0123400325, 0.03187795, 0.020711465, 0.0062663183, 0.04991301, -0.057080537, -0.0075762463, 0.05411591, -0.01961688, 0.0046613156, -0.045203738, -0.08397265, 0.0021959322, -0.06420145, 0.017932305, -0.044893067, -0.03218529, -0.1290337, -0.003450435, -0.09843954, -0.07397224, -0.0065974044, -0.017708514, 0.012652987, 0.04111078, 0.034893133, 0.018399872, -0.024350181, -0.06261356, -0.016798297, -0.024228947, -0.004493539, -0.003674403, 0.06777608, -0.038236387, -0.008346362, -0.08088352, -0.028282095, -0.0032668696, 0.06926212, -0.0037577064, 0.0044924044, 0.009520769, -0.017525814, -0.0011250111, 0.016202379, -0.013598235, -0.043064922, 0.079860054, -0.051341604, -0.0026281308, -0.07727852, 0.0035107299, 0.04055916, -0.060721397, 0.03943722, 0.08635132, 0.02072141, 0.009316236, -0.05287379, -0.0058218753, -0.07525691, -0.030717224, -0.047903474, -0.010134053, -0.02162709, -0.03381847, -0.035605486, 0.08235057, 0.06332726, 0.033010166, 0.036594085, 0.032369874, -0.007715389, 0.0127979, 0.018044027, -0.12986231, 0.01202844, -0.054437794, -0.0017578979, 0.0026398774, 0.049998607, -0.03888679, -0.014699085, -0.04125187, -0.050410155, 0.03306565, -0.008272107, 0.0021632672, 0.019940814, -0.0017353926, 0.006134753, 0.019670993, -0.05892306, -0.14977232, 0.07405549, -0.040578317, -0.009881869]</t>
+          <t>[0.04427678, 0.044988208, -0.016507315, -0.021363016, 0.089989185, 0.036133986, 0.034957714, -0.079274155, 0.04625757, 0.057440683, -0.0652367, -0.006680689, -0.010983441, 0.05535624, -0.0170222, 0.041357357, -0.024464441, 0.06704288, 0.02503115, 0.0015924323, -0.04183049, -0.018589554, -0.03454081, 0.05264648, 0.07034988, -0.0004943958, 0.023121757, -0.022530288, 0.014368617, 0.036699787, -0.015876919, -0.052588116, 0.035728395, -0.003760206, -0.026111426, -0.03677843, 0.0179155, 0.0070196697, -0.052610554, -0.0052577215, -0.0037254845, 0.025641419, 0.07434645, 0.026421338, -0.008701434, -0.050419144, 0.024301285, 0.04942778, -0.048256937, -0.03960196, 0.006309881, -0.020099299, 0.05029016, -0.025135588, 0.012427535, -0.01242851, -0.055660855, -0.03640586, 0.021633692, 0.0043824636, -0.005909495, -0.02223979, -0.04460783, 0.05854232, 0.009628458, -0.05985479, -0.054519095, 0.04109772, 0.088639855, 0.02202009, -0.018768007, 0.023224099, 0.051823184, 0.03203412, -0.069073714, -0.07293585, -0.012174663, -0.080894955, -0.045227636, 0.028505106, -0.030766917, -0.044739448, 0.048565667, -0.015939822, -0.046624478, 0.036041398, 0.030353257, 0.04101049, -0.021799028, 0.06732278, 0.05512135, 0.008373307, 0.12028928, 0.07872621, 0.03775326, 0.012344592, 0.05061577, 0.14170413, 0.039098054, 0.08231809, 0.023798862, 0.100740775, -0.046646222, 0.012392148, -0.002039557, -0.03489062, -0.020193115, 0.0072117797, 0.002178807, 0.08084938, 0.0061398637, -0.06415695, -0.05645589, 0.030915223, 0.006213817, 0.0126992, 0.01999376, 0.044790275, -0.0029165326, 0.012383896, 0.117770195, -0.020121949, -0.0071250605, -0.041641694, 0.017140178, -0.035675287, 0.004523035, 0.012057294, -0.010464747, -0.04425816, -0.006649682, 0.061199382, 0.009034119, 0.034915395, -0.015559951, 0.00023991289, 0.0333309, 0.006681021, 0.06237557, -0.004566061, -0.006971693, -0.013747206, 0.027891766, -0.071341224, -0.005963365, 0.047045052, 0.041062698, -0.008356164, -0.024413167, 0.0783947, -0.018615598, 0.0208661, -0.077851065, 0.04990598, -0.05957175, -0.11405158, -0.00081592175, 0.017189585, -0.009361175, 0.04452314, -0.056647725, -0.025281254, -0.03801114, 0.035825934, -0.029361246, 0.033369865, 0.038814697, 0.006451317, -0.055523816, 0.008700824, -0.020037085, -0.021045528, 0.04626157, -0.05265555, -0.063443355, -0.04453232, 0.0057874927, -0.011881374, 0.08547933, 0.046128668, 0.03581198, -0.010219872, 0.009589819, 0.011703374, -0.030217968, -0.02096016, 0.023454433, -0.015249098, -0.050947838, 0.020703146, -0.054460723, 0.06980229, 0.007250928, 0.04164064, -0.010732952, 0.043786444, 0.010251316, 0.010274789, 0.0017737952, -0.034894753, 0.009508098, 0.03048237, 0.051221613, -0.018593796, 0.020964922, 0.0008984144, -0.07990996, 0.0060795615, -0.039347272, 0.016543776, 0.005626656, 0.0550126, -0.02087815, -0.01772077, 0.040580824, -0.014367355, 0.0143232085, 0.029862482, -0.01671169, -0.030178007, -0.0013460665, 0.03578776, -0.024024094, -0.0027543802, -0.044312075, -0.029516047, -0.014421571, 0.014936064, 0.016365502, 0.009290378, 0.006207812, -0.03788543, 0.027589735, -0.025254508, 0.032909084, 0.057830743, -0.00054807303, 0.03307999, 0.043605175, 0.051106326, 0.029405564, 0.01617597, 0.014973855, 0.025020894, -0.050482325, 0.006711265, 0.011730152, -0.00063946965, 0.005099251, -0.019653263, -0.061342184, -0.0011635645, 0.03558721, -0.002895732, 0.08583746, 0.013618149, 0.019917794, 0.019372083, -0.069951355, 0.013182297, 0.03475874, -0.035788205, 0.06682609, 0.052811008, 0.012443418, 0.010495559, 0.0054432373, 0.08668832, 0.016618507, 0.009973597, 0.024136731, 0.030512117, 0.060566805, 0.030726682, -0.048551336, -0.013268489, 0.03431385, -0.050066084, 0.005646923, -0.04027923, -0.013020163, 0.03669323, 0.02652288, 0.0057958914, 0.022248073, -0.046324052, -0.049737833, -0.0027652741, -0.06256078, -0.019407408, -0.013959912, -0.024930209, 0.019044286, -0.03383932, -0.06333523, 0.017801702, 0.0068706637, 0.06599621, 0.059827603, 0.0134102795, 0.0035279037, -0.030841665, 0.057216562, 0.009501671, 0.0020346337, 0.043147236, 0.028757758, -0.026314568, -0.07239097, -0.038368944, -0.026965344, -0.047333024, 0.07927903, 0.095229715, 0.021367753, -0.05170522, 0.00515694, 0.0015260192, -0.04995466, -0.042959295, -0.026925785, -0.023372015, 0.013579884, 0.023502346, -0.029689988, 0.012304851, -0.012199493, 0.03497939, -0.008120272, 0.02072417, -0.06391334, 0.039126035, 0.048746724, 0.040149275, -0.02556823, -0.01564883, -0.021010447, 0.03215614, 0.022052987, 0.03835567, 0.0072230166, -0.050620317, 0.04220487, 0.01683365, -0.08084504, 0.02151386, 0.08953073, 0.08396344, -0.06658772, -0.05873996, -0.02516439, -0.0050832187, 0.021035712, -0.079026274, 0.02458067, -0.03963202, 0.006255348, 0.007958768, -0.06040792, 0.04680919, 0.11476125, 0.021610457, 0.038133673, 0.0051515615, 0.030672789, -0.044999678, -0.03874274, 0.0033693796, -0.0041887, -0.00957729, -0.008434753, -0.012828045, 0.008606093, 0.065411605, -0.034890976, -0.0038089242, 0.009649607, -0.017999338, 0.0147087565, 0.029531946, 0.019161267, 0.015846828, 0.03030555, -0.09065936, -0.023315389, -0.012882413, -0.10478718, 0.044044126, 0.033573367, -0.111188345, 0.051888872, 0.06298771, 0.049070574, -0.018228369, -0.0516425, 0.015351274, 0.036758065, -0.013584, 0.04890215, 0.020883065, 0.012584797, -0.014318814, -0.012323834, -0.013915158, -0.043293554, 0.03565001, 0.007938891, -0.012742103, -0.005088603, 0.015643682, 0.014601641, 0.016086694, 0.024032505, 0.08759965, 0.062514916, 0.027087308, -0.0065708514, -0.07897723, 0.0019158823, 0.017167214, -0.031393558, 0.08402996, -0.004891148, 0.08332682, 0.012634428, -0.035360742, -0.0074482085, -0.038242396, 0.009197149, -0.03986904, 0.028075, 0.010525375, 0.026584258, -0.020436829, -0.067029096, 0.031164093, 0.031438477, 0.048654225, -0.03651032, -0.024192065, 0.03494472, -0.014643402, 0.0038334297, 0.039278645, 0.058083415, 0.029566422, 0.017024575, 0.015925772, 0.041343555, 0.030246686, 0.008182092, -0.020207223, 0.0031680907, 0.049659315, -0.025210587, -0.031005776, -0.12635349, 0.0058655087, 0.057032604, 0.0057083904, -0.050049853, 0.020735264, 0.05088775, -0.009918381, 0.029238334, 0.023491228, -0.0864481, -0.049346745, -0.010760408, -0.083066836, -0.052351177, 0.050161112, 0.050632752, -0.025584057, 0.01080488, -0.015897231, -0.043178085, 0.008364183, -0.06754043, 0.0038764006, 0.022285445, -0.02067736, 0.060506806, 0.0031341587, 0.042308543, 0.023836488, 0.016189385, 0.0125991665, -0.08389829, -0.08019095, -0.039968535, 0.026321467, -0.04600282, -0.011097574, 0.03133209, -0.0041012038, 0.0013811006, -0.025575215, 0.037950043, -0.015542842, -0.018655792, -0.007321937, -0.011719348, -0.0017140503, 0.0035052085, -0.042271905, 0.041626897, 0.041455455, -0.013992793, -0.008793213, -0.022955185, 0.016472084]</t>
         </is>
       </c>
     </row>
@@ -1118,41 +1065,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>EFFOST</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>양근혁</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>전주</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>gluten-free; noodle; protein; 넻</t>
-        </is>
-      </c>
+          <t>Spain(valencia)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Studies on the processing performance of rice flour and soy protein concentrate composites for high protein extruded noodles</t>
+          <t>Hyperspectral imaging combined with artificial intelligence for identifying edible vegetable oils</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A gluten-free diet can meet the needs of celiac patients as well as health-conscious consumers. With this trend, the demands of gluten-free food products have been rapidly increasing but there are limited efforts to enhance the nutritional functionalities of gluten-free products by protein fortification. Thus, in this study, rice flour and soy protein concentrate (RF-SPC) composites were prepared by blending rice flour with SPC at different blending ratios. The composites were incorporated into the formulation of glutenfree extruded noodles for protein fortification, and their processing performances were investigated from a rheological and structural point of view. The composites with high levels of SPC showed lower values of pasting and dynamic viscoelastic parameters. These results could be probably due to the reduced fraction of starch granules that were confirmed by the lower values of gelatinization enthalpy in the DSC measurement. When the RF-SPC composites were incorporated into the formulation of extruded noodles, a harder texture was observed with increasing levels of SPC and seemed to be related to the lowered cooking loss values. In the case of water dynamics, two components with different mobility were identified in the cooked noodles. While T2a and T2b relaxation times were increased by the use of SPC, the noodles with high levels of SPC had an elevated proportion of T2a. Furthermore, the FTIR spectra demonstrated that more starch components in the RFSPC noodles seemed to be leached into the cooking water than proteins. As the demands of high protein and gluten-free foods have been rapidly growing in the global food market, the results obtained from this study may provide fundamental insights into the processing performance of protein-rich ingredients in gluten-free extruded noodles, probably promoting the development of a wider variety of protein-fortified gluten-free products.</t>
+          <t xml:space="preserve">A variety of vegetable oils were subjected to hyperspectral imaging analysis, which was coupled to machine learning algorithms for identifying the edible vegetable oils. The classification performance of the machine learning models was compared with that of the fatty acid composition-based chemical methods. The hyperspectral images of the oil samples were acquired, providing 224 spectral bands over a wavelength range of 900 – 1700 nm, and the fatty acid compositions of the vegetable oils were analyzed using a gas chromatograph coupled with a mass selective detector. Machine learning models for oil classification were constructed in a python programming environment with a Jupyter Notebook. The linear discriminant analysis showed that two linear discriminants were appropriate to explain 96.0% and 98.9% of the total variation in the fatty acid composition and hyperspectral imaging datasets, respectively. When the hyperspectral results were used as datasets for three machine learning models, several instances to incorrectly classify grapeseed and sunflower oils were detected in the decision tree and random forest models, while olive, palm, and flaxseed oils were successfully identified. The machine learning models showed a great classification performance that exceeded 98.9% from the hyperspectral images of the vegetable oils, which was comparable to the fatty acid composition-based chemical method in identifying edible vegetable oils. This study showed promising results of utilizing hyperspectral imaging combined with machine learning as an alternative to the conventional chemical method for oil classification. A new research framework for identifying edible vegetable oils was proposed by combining non-destructive hyperspectral experiments with machine learning analysis
+A variety of vegetable oils were subjected to hyperspectral imaging analysis, which was coupled to machine learning algorithms for identifying the edible vegetable oils. The classification performance of the machine learning models was compared with that of the fatty acid composition-based chemical methods. The hyperspectral images of the oil samples were acquired, providing 224 spectral bands over a wavelength range of 900 – 1700 nm, and the fatty acid compositions of the vegetable oils were analyzed using a gas chromatograph coupled with a mass selective detector. Machine learning models for oil classification were constructed in a python programming environment with a Jupyter Notebook. The linear discriminant analysis showed that two linear discriminants were appropriate to explain 96.0% and 98.9% of the total variation in the fatty acid composition and hyperspectral imaging datasets, respectively. When the hyperspectral results were used as datasets for three machine learning models, several instances to incorrectly classify grapeseed and sunflower oils were detected in the decision tree and random forest models, while olive, palm, and flaxseed oils were successfully identified. The machine learning models showed a great classification performance that exceeded 98.9% from the hyperspectral images of the vegetable oils, which was comparable to the fatty acid composition-based chemical method in identifying edible vegetable oils. This study showed promising results of utilizing hyperspectral imaging combined with machine learning as an alternative to the conventional chemical method for oil classification. A new research framework for identifying edible vegetable oils was proposed by combining non-destructive hyperspectral experiments with machine learning analysis
+</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.030000133, 0.021204254, 0.03873789, 0.039532974, 0.09948386, -0.028346905, -0.06055385, -0.011026856, 0.04822603, 0.05607678, -0.04783253, -0.103272095, -0.054633774, 0.070146546, 0.02464719, 0.032259464, -0.073561125, 0.04741731, 0.061713297, 0.020621877, 0.0046507977, 0.010026871, -0.05592641, 0.011604011, -0.010589399, 0.016061623, 0.004984915, -0.078071326, 0.07165667, -0.011455513, 0.035478637, -0.059051543, -0.022756832, -0.013733864, 0.006900883, -0.0007118654, 0.045551676, 0.06342254, 0.03854604, -0.0133376, -0.027388055, 0.030305263, -0.0030395964, -0.054460626, -0.013347915, -0.012241243, -0.07299845, -0.05145755, -0.04671959, 0.012940412, -0.019846959, -0.0044999286, 0.016558403, 0.03572672, 0.020547891, 0.0015621638, -0.031411495, -0.011470534, -0.007278984, -0.02206452, 0.020831421, -0.010064248, -0.02070423, 0.0021659064, 0.0031266958, 0.030181447, 0.03820749, 0.0035168342, -0.03211073, 0.010663975, -0.026876338, -0.01087607, 0.08755806, -0.02202742, -0.07194723, -0.10964445, 0.007831326, -0.012271646, -0.049012218, 0.03608501, 0.0004720436, -0.00813857, 0.024808418, -0.019732354, -0.05803279, 0.06931949, -0.063344985, 0.06633389, 0.037560124, -0.009613285, 0.029610863, 0.006037524, 0.12483941, 0.074044205, 0.036291346, 0.04134033, 0.049384844, 0.07859568, 0.04290977, 0.022598207, -0.027835224, -0.02408081, -0.035061512, -0.012177041, 0.016095968, -0.004427712, 0.066873126, -0.052454095, 0.015732631, 0.013595029, -0.059447933, -0.040869538, 0.036658984, -0.04376439, -0.0035941056, 0.09658956, -0.052278545, 0.04209095, 0.0011190898, 0.06922393, 0.017656794, 0.026699465, -0.012302272, 0.06417167, 0.026762797, 0.0110297855, 0.06565776, 0.007213044, -0.037105758, -0.06447006, 0.04406139, 0.047264524, 0.013587295, 0.06403396, -0.037514307, -0.027193531, -0.041052207, -0.01260688, 0.025324121, -0.0013553553, 0.027388712, -0.015162499, 0.054911952, -0.062244963, -0.020297999, 0.05636315, -0.03238561, 0.0027603023, -0.06498973, 0.061933666, -0.0015405342, 0.0026636685, 0.02890469, -0.0037292857, -0.056836195, -0.02984122, -0.013156924, -0.019296492, 0.0035341582, -0.019200673, -0.05734441, 0.024276424, -0.005018416, 0.03581495, -0.036521483, -0.0030425424, 0.05609803, -0.038222734, -0.027958656, -0.06199377, -0.009836358, -0.011218314, 0.02632843, -0.022448165, -0.03954016, -0.024521379, 0.020059137, -0.03578154, 0.06821969, -0.02977767, 0.05404321, -0.04329723, -0.04170557, -0.031318504, 0.008814442, -0.049579754, 0.06673682, -0.0075373068, 0.050213095, 0.06518804, -0.14102267, 0.083110735, 0.038613696, -0.035756715, 0.0060004103, 0.0016847537, 0.015394757, -0.052582264, 0.03804679, 0.033070836, 0.04439371, 0.023577854, 0.008400326, -0.059956044, 0.096688055, 0.032765005, 0.019705264, 0.036184616, 0.002477551, 0.04764895, -0.084897265, -0.021932924, 0.0009707864, 0.047911454, 0.01779137, 0.019524142, -0.032865867, 0.023600046, -0.02417888, -0.037140727, 0.07044605, 0.057067394, -0.06630398, 0.040090736, -0.062359907, 0.03405626, 0.010233783, -0.0044955644, -0.02707881, -0.01954581, 0.0015306019, -0.0218888, -0.038359806, 0.006344492, 0.030764202, 0.033042125, -0.05112713, 0.024124306, 0.051290806, 0.06729657, -0.027008176, -0.02783964, 0.029063387, 0.060627148, -0.019661231, -0.052308563, -0.028692996, -0.068310626, -0.076630704, -0.025497615, -0.0725629, 0.03626794, 0.034991257, -0.016080072, 0.011409409, 0.033113196, -0.01098819, -0.08361942, -0.037114933, -0.005495816, 0.023646584, -0.0085521415, -0.041610386, -0.02178681, -0.02674664, 0.06517309, 0.017841423, 0.0308215, -0.014387874, -0.046022713, 0.011454497, 0.032507613, 0.022537684, 0.020819664, -0.016289886, 0.011477704, 0.018606083, -0.08896762, -0.029145995, -0.045448896, -0.039812654, -0.0015287849, 0.032293294, -0.014688273, -0.0038453916, -0.029957313, -0.06170428, 0.01830518, -0.01289021, -0.09588038, -0.012912762, -0.011819474, 0.0068987957, 0.0044090967, -0.05186663, 0.05843156, -0.025746454, 0.061545234, -0.04294217, -0.0102676675, -0.012048593, -0.039677687, -0.03340748, 0.03834104, -0.020932961, 0.008247468, -0.027983913, -0.06855671, 0.0043764347, 0.0012105833, 0.013064763, -0.030791309, -0.005503611, 0.048672672, -0.051123127, 0.018886082, -0.028127523, -0.014275647, -0.038728144, -0.106340885, -0.0316063, 0.033453498, -0.022439886, 0.0046202806, -0.042763863, 0.056940317, 0.010396682, -0.017315073, -0.045500606, 0.0018075025, 0.043921262, -0.0028835754, -0.04530964, -0.029510614, -0.025531843, -0.051694326, 0.005923532, -0.012314705, 0.024015665, 0.054916363, -0.028837258, -0.075432174, 0.06494323, 0.013220293, -0.05742553, 0.029671848, 0.01827473, 0.03348819, -0.06853084, -0.037908114, 0.008281474, 0.005200409, -0.016472986, -0.06305888, 0.04441315, 0.022346785, -0.0075631286, -0.07872292, -0.04236005, -0.0174941, 0.07897268, -0.03671795, 0.053787477, -0.041165255, 0.0367323, -0.07030739, -0.09824745, -0.04837776, 0.059405625, 0.050050996, 0.07831011, 0.057932243, -0.038357552, 0.012120974, -0.052674443, 0.020499442, -0.02093091, 0.01990911, 0.018075341, -0.02360106, 0.014145671, -0.065206304, 0.024274608, -0.06842936, -0.06400686, 0.0002584774, -0.07336556, 0.07791346, -0.08369532, -0.037280362, 0.10126399, 0.05487956, -0.006148592, -0.017991802, -0.048748627, 0.022436501, -0.050703753, -0.017945394, -0.03117628, -0.0011454286, 0.008314918, -0.08244832, -0.014832547, 0.009056644, -0.029170612, -0.0016427472, -0.088029064, -0.014405591, 0.01590102, -0.09376685, 0.02449497, 0.009353023, -0.0022411728, 0.027864443, 0.06690732, 0.012154995, -0.04836721, 0.0035943997, 0.015856745, -0.05621836, -0.04558671, 0.034817282, 0.006367871, 0.034801465, -0.034037087, -0.049902502, -0.016406758, -0.060001202, -0.002389044, -0.0439516, -0.035759415, -0.019907923, -0.043882553, -0.062101822, -0.0007954245, 0.012195147, 0.04971314, 0.0025484934, 0.034564108, -0.0068373415, -0.044547904, -0.0415266, -0.059828863, 0.033732194, -0.047843687, -0.030270824, 0.030164989, 0.060557783, -0.012925579, -0.055685177, -0.040726755, -0.03208983, 0.008183204, 0.071735024, -0.0128913885, -0.06342261, 0.04115947, 0.032856576, 0.041492693, -0.09363813, -0.013125381, 0.015900476, 0.057731222, -0.017437275, 0.025568577, -0.015929338, -0.09434776, 0.06480413, 0.05327971, -0.044792403, 0.03872101, 0.04922472, 0.028569775, -0.008972857, 0.008763269, 0.0076325145, 0.028395088, -0.027822008, -0.016048651, -0.0454077, 0.01374165, -0.09640915, 0.061378457, 0.031928968, 0.0077703632, -0.032563526, -0.0011710132, 0.010753106, -0.033980135, -0.041798625, -0.040413585, 0.016121138, -3.5762787e-05, -0.04010044, 0.07089324, 0.063973814, 0.02901503, -0.03459515, 0.053074513, -0.00079686457, 0.033107955, -0.039429914, -0.013399586, -0.033460088, 0.032059282, -0.0102975825, -0.018532766, -0.017092135, -0.086420186, -0.00080398895, -0.010782643, 0.005427749]</t>
+          <t>[-0.0036049627, 0.06504116, -0.020615421, 0.0071619535, 0.032166056, 0.0076103522, 0.0041771606, -0.053896934, 0.0274149, 0.0497238, -0.031046804, -0.055469424, 0.035877068, 0.007172984, -0.030448414, 0.030388368, -0.0055185915, 0.09040286, -0.0011692924, 0.007913639, -0.014957962, 0.034502205, -0.047246348, 0.017351517, 0.04846153, 0.009006116, 0.024365801, 0.037593037, -0.09729898, -0.00028220657, -0.0050894935, -0.0014548221, -0.020939343, -0.0033359982, -0.020792646, 0.026346091, 0.008517475, 0.09108354, -0.022383159, -0.054806408, 0.056802753, 0.05895737, -0.08303631, -0.012678771, 0.038908217, 0.001568922, 0.008798662, 0.05549976, 0.029811459, -0.013470014, 0.010346023, -0.009465085, -0.012278563, 0.029263703, 0.017652674, -0.009264346, -0.0395104, -0.04490034, -0.016935678, 0.041311044, -0.07894178, -0.021958746, -0.0102398945, -0.018034006, 0.009005035, -0.08810511, 0.073705345, 0.027469888, 0.050999336, 0.010278202, -0.03296095, -0.012492416, 0.007464692, -0.04625641, -0.03623509, -0.02606868, -0.029140718, 0.03718041, -0.033598874, -0.029116137, -0.081462815, -0.0024883621, 0.06404099, 0.0736055, -0.050098907, 0.05570253, 0.048897848, 0.013516866, -0.006933254, -0.017737169, 0.0254741, -0.01790253, 0.09106849, 0.045107644, 0.014299008, 0.03509495, 0.026757251, 0.016707756, 0.0047531775, -0.0059296023, -0.03642342, 0.0443307, 0.050390456, -0.051667146, 0.011344635, -0.0133447815, 0.048365824, 0.006705962, 0.0019008145, -0.0009850728, -0.0015972577, -0.069326885, 0.011274817, 0.061287846, -0.027814222, 0.012791682, 0.036118884, 0.019230494, 0.000578016, -0.015879534, 0.06560058, -0.08484337, -0.0038750735, 0.04251053, -0.058990177, -0.06666042, 0.1133206, 0.049532425, -0.009408027, -0.026508663, -0.0087263975, 0.08969042, -0.0033998257, -0.0004751548, -0.015419272, 0.0027664357, -0.04693885, 0.03908523, -0.044177115, -0.02157064, 0.009819782, 0.021365952, -0.0030756225, -0.06310763, 0.0725186, -0.055464055, 0.030409086, -0.0053043105, -0.02867494, -0.07057143, -0.044914026, -0.03923937, -0.048457354, 0.01689458, -0.025837248, -0.032946013, 0.026711602, -0.02646238, -0.014004946, 0.037846327, 0.011776422, 0.019886445, 0.042358804, 0.02679416, 0.035003744, 0.032507125, 0.025787078, -0.026301129, -0.0044127544, 0.016632989, 0.03048441, -0.027383314, 0.015693348, 0.08583549, 0.0268686, -0.10058624, -0.025429046, -0.041379258, 0.07150889, 0.047648974, -0.0808505, -0.052003797, 0.026265986, 0.06971022, -0.03638144, 0.023090726, 0.023077779, -0.049442798, -0.013069821, 0.022867944, -0.08284899, -0.0518799, 0.06727345, -0.064666964, 0.021763427, 0.007438404, 0.06671709, 0.019457774, 0.029769877, 0.0020659056, -0.060217425, -0.03917132, 0.080687955, -0.025786791, 0.09644162, -0.04649219, -0.06606878, 0.076109804, -0.010576087, 0.004781831, 0.03262989, 0.053504203, 0.018001419, 0.023221135, 0.058536813, 0.025936937, 0.055051245, -0.012477136, 0.0035710302, 0.056395516, -0.060257223, 0.072526254, -0.040832486, 0.048411995, 0.0421209, -0.013175543, 0.0026189864, 0.015679572, -0.0047485037, -0.049859587, -0.01480155, -0.043562457, 0.019290239, 0.049031, 0.052134298, -0.029647455, 0.02280611, 0.044190217, -0.010370406, 0.08142215, 0.031007377, 0.032294318, -0.02428572, 0.020740166, 0.10933529, -0.04215383, 0.018572614, 0.060768954, -0.03277229, -0.058305655, -0.053493917, -0.014994149, 0.0007883858, -0.0166744, 0.0019133848, 0.017925227, 0.0062195947, -0.004728223, 0.0061850944, -0.021278372, 0.09400261, 0.018629597, -0.036529902, 0.041539457, -0.0029902675, -0.06882813, -0.03654487, -0.010162086, 0.038289696, 0.012798633, -0.015498448, 0.04635694, 0.056125414, -0.015683876, -0.022249622, -0.012471004, -0.038182154, 0.01744289, 0.041290153, -0.073575586, -0.0017229408, -0.043435004, -0.01985689, 0.018100167, -0.0053751613, -0.023623474, -0.040831354, -0.0066950317, 0.025801668, 0.01569568, -0.03935547, -0.016548246, 0.05389059, -0.0077796467, -0.012132868, 0.01968166, 0.02905278, 0.061213456, -0.011975852, -0.0054043033, 0.025916979, 0.05632035, 0.018580457, 0.06967037, 0.02425805, -0.052892428, 0.038510002, -0.08745904, 0.019617913, 0.093992166, 0.0073420913, -0.09954698, 0.0642388, 0.06735469, -0.039976023, 0.09630899, 0.041509714, 0.0005773531, 0.04394662, -0.078178436, -0.021407427, -0.016167607, -0.03400945, -0.05401211, 0.005433137, -0.028906308, -0.09331265, 0.0061577405, -0.059710503, 0.04997221, -0.06287411, -0.020284465, -0.038463604, 0.0070520625, -0.015711615, 0.030925356, 0.013744102, -0.0027701766, -0.059450824, -0.025758602, -0.06134963, 0.064788915, 0.07227206, -0.015122598, 0.034584995, 0.03328311, 0.018423319, 0.07386769, -0.022986429, -0.002934679, -0.045628577, -0.0052484684, -0.0677669, 0.025730517, -0.0074267224, -0.04609183, 0.06496461, -0.081101745, 0.0708187, 0.0030930839, 0.0075309537, 0.016483374, 0.04358448, 0.075920135, -0.006405557, 0.026785018, -0.054416064, 0.009310369, -0.009048578, -0.045828614, -0.030374538, -0.00042387188, 0.047944095, 0.035055816, -0.052327186, 0.01944034, 0.010512081, -0.010596623, 0.036436997, 0.015296609, 0.0009154796, -0.010316964, 0.08784828, -0.022279741, -0.0068279086, 0.016429631, -0.06653056, 0.018988047, -0.004181238, -0.019254208, -0.044882465, -0.0001409254, 0.034142252, 0.041847214, 0.06143703, 0.023243332, -0.023813348, -0.023753805, -0.03543904, 0.0010402283, 0.052220497, 0.029806761, 0.06968519, -0.014979322, -0.08004795, -0.026243404, 0.07373448, -0.021038216, 0.051024307, -0.019887695, 0.013491187, 0.06922659, 0.014657166, 0.10480394, 0.048656054, 0.008023635, 0.022761313, -0.012628663, -0.024302028, 0.004240497, -0.0368431, 0.018470397, -0.036857605, 0.026025327, 0.0036556362, -0.03103618, 0.00050244894, -0.034497686, -0.011374742, -0.065261476, 0.020081095, -0.021513237, -0.027400533, 0.02781171, -0.031487476, -0.0100956755, 0.0035984954, -0.008222329, -0.051989377, 0.0016871823, 0.01908375, 0.00051362155, 0.025603076, 0.045846555, -0.030112455, -0.039189883, 0.012743853, -0.0035125003, -0.021040358, 0.02582039, -0.045677606, -0.039355766, 0.014857076, 0.026683696, 0.01719181, -0.05823313, -0.08838653, 0.00823204, 0.034171, 0.021771627, -0.028308773, -0.035842065, -0.049358767, -0.0035589305, 0.007818131, -0.041301277, 0.009712097, -0.0012088541, -0.014461267, -0.016495049, 0.0366997, -0.024606017, -0.0467191, 0.010098917, 0.049191434, -0.0059197745, -0.003121444, -0.004738965, -0.021228747, -0.056178905, -0.030331109, -0.006390342, 0.10317276, -0.08278768, -0.07598314, -0.101889394, 0.037967976, -0.013659444, -0.02702182, -0.06468302, -0.12192625, 0.052859634, 0.021191401, -0.055476062, -0.027546097, 0.0147287715, -0.042932075, -0.04825028, -0.0047093797, -0.035198394, -0.01767211, -0.100640565, 0.026690794, -0.054474667, 0.027298711, 0.01052855, -0.022370327, -0.0805341, -0.084453404, 0.021724673, -0.03712609, 0.011838891]</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1175,24 +1120,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>강릉</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Effect of rice blending on the processing and quality attributes of
-gluten-free noodles slit from sheeted dough</t>
+          <t>Establishment of an artificial intelligence model for predicting the quality of breads with various baking improvers</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Recently, the global market of HMR (Home Meal Replacement) foods is rapidly growing due to the increasing demands for convenient foods in the COVID-19 pandemic situation. In particular, as the demands for gluten-free food products increases, the processed foods made from rice have been receiving a lot of attention. However, the application of blending technique in rice processing is still in its infancy compared to wheat. In this study, 3 rice varieties (Mirchal, Geumgang1, and Saemimyeon) with different amylose contents were selected from 8 different rice varieties based on the physicochemical properties of the noodles slit from sheeted doughs. Then, their blending effects on noodle quality attributes were investigated in terms of texture, cooking, and sensory features. In the texture measurement, the blends with Mirchal provided an extensible and soft texture to the noodles, whereas the blends with Geumgang1 or Saemimyeon gave a harder texture. In the case of cooking properties, Saemimyeon in the rice blends contributed to reducing the cooking loss and turbidity of the noodles. In addition, the Mirchal and Saemimyeon showed higher and lower water absorption, respectively, which might be derived from the difference in amylose content. Finally, the noodle with Mirchal and Geumgang1 blend was the most acceptable in sensory evaluation. Hence, this study presented the noodle-making information of 8 different rice varieties from which the 3 rice varieties were selected as the candidates suitable for manufacturing the noodles slit from sheeted dough. These results can provide a promising opportunity for the food industry to apply rice blending technology for manufacturing gluten-free sheeted noodle.</t>
+          <t>Artificial intelligence (AI) has gained significant prominence in diverse fields. Nonetheless, its utilization in food research, more specifically for baked goods has not been as widespread or prominent compared to other domains. The objective of this study was thus to establish an AI model for predicting one of the quality attributes of breads (specifically, bread texture), based on the Mixolab parameters of the corresponding wheat flours containing various baking improvers.
+Firstly, the thirty one Mixolab parameters of wheat flours with different baking improvers were obtained and used as input variables (X input) to construct an AI model. Furthermore, the bread hardness was utilized as the output variable (Y output). As a pre-processing step for dataset, the dataset was normalized and subjected to a multilayer neural network model. Its hyperparameters (activation function, learning rate, and epoch) were optimized using manual and Bayesian optimization process (activation function: Leaky relu, learning rate: 0.0001, and epoch: 800). In order to avoid overfitting, the regularization (L1=0.0001) and dropout (0.1) techniques were applied for more effectively improving the model performance. Finally, the optimized model structure to predict the bread quality was presented (R2 &gt; 0.81).
+Hence, this study presented the feasibility of AI technology to predict bread texture without laborious bread-making process. Furthermore, the various AI techniques were very effective in enhancing the model performance. Therefore, this study will positively contribute to encouraging the bakery industry to utilize resources while reducing trial and error in developing various bakery products.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.0006189798, 0.04823941, 0.020984776, -0.022102132, 0.08712188, -0.016688246, 0.00079820683, -0.056629837, 0.054258175, 0.028647725, -0.06878075, -0.034843244, -0.009533496, 0.052859414, 0.0035717096, 0.04670508, -0.05687294, 0.027887104, 0.056863114, 0.020814387, -0.032121915, -0.0064324834, -0.0722219, 0.05135797, 0.081588, 0.007380719, 0.0072931442, -0.04553737, 0.009798437, -0.036137603, 0.055803027, -0.025437983, 0.011312106, -0.057120707, 0.029137073, -0.024584733, -0.006992383, 0.059492826, 0.07608034, -0.0046883337, 0.015655067, 0.06294799, -0.041711595, -0.04160287, 0.009343231, 0.016826479, -0.04055205, -0.018377058, -0.0711567, 0.001730112, 0.011090385, -0.00990095, 0.01638254, -0.009766332, 0.07133364, -0.056044336, -0.0335667, -0.008219356, -0.005299119, -0.055941332, -0.0010296147, -0.088532805, -0.09044523, -0.033669177, -0.045594927, -0.02311441, 0.059195235, -0.04244588, 0.0015965784, 0.020481002, -0.006328121, 0.00567105, 0.06879292, -0.0046002157, -0.070518546, -0.08060712, -0.00836777, 0.000302891, -0.09230068, -0.022047633, 0.006304364, -0.03067687, 0.023717225, -0.023194252, -0.037824254, 0.032040082, -0.033415817, 0.05160161, -0.0054887496, 0.041121252, -0.034852758, -0.010395996, 0.096244454, 0.04623218, 0.04142953, 0.021815926, 0.08869182, 0.038852334, 0.038638614, -0.0071237474, 0.0034792582, -0.0023430774, -0.05191626, 0.00842284, 0.0031425562, 0.01770215, -0.012297227, -0.017514892, 0.043085378, 0.054683052, 0.032196697, -0.039713956, -0.022940239, -0.02590222, 0.032486122, 0.055409923, 0.009085898, 0.008065739, -0.009125645, 0.063292414, 0.029812295, -0.029499508, -0.023057897, 0.04110317, 0.011371874, 0.04273227, 0.04243064, -0.036667027, -0.024554573, -0.056517035, 0.038853657, 0.023770373, 0.019091867, 0.08956859, -0.021742227, 0.009586411, 0.009457336, -0.00040446126, 0.04052189, 0.0062634842, 0.023075832, -0.028240558, -0.020500116, -0.044968657, -0.0092576295, -0.0009033936, -0.084408924, -0.024557551, 0.057775572, 0.0099964235, 0.017797546, -0.022094477, 0.0009229574, -0.047422312, -0.012660772, -0.052274253, -0.021387434, -0.018628443, -0.055709112, -0.0041882596, -0.06623482, -0.024277698, 0.0063366797, 0.071513966, 0.016452713, -0.034184337, 0.0564773, 0.0040915557, 0.0017329397, 0.06268747, 0.007941224, -0.0187033, 0.05429125, -0.030183867, -0.053384334, -0.03447046, 0.03221017, -0.027266255, 0.093603134, -0.051931567, 0.0003685681, -0.064192325, 0.02917135, -0.01028169, -0.010177205, -0.043679517, 0.036370438, -0.020326177, 0.05921661, 0.04699421, -0.12554052, -0.016835427, 0.019082174, 0.042968348, -0.00891974, -0.014551548, 0.002229525, -0.031279434, 0.06927217, 0.016590063, 0.061228245, 0.0705664, 0.07309527, -0.049454637, 0.071894765, 0.048493374, 0.004944492, 0.016245062, 0.0043180967, 0.017780725, -0.048515238, -0.023914717, -0.00058246375, 0.004397867, 0.067944705, -0.013614175, -0.02090123, 0.00087850983, -0.0031145562, 0.00601524, 0.10678517, -0.013320066, -0.036208007, 0.019176722, -0.006346904, 0.025890322, 0.06084663, 0.037263513, 0.06260759, -0.026620993, 0.015473348, -0.0068217847, -0.039462384, -0.07589326, -0.02029422, 0.023394343, -0.017483333, 0.035660572, 0.062233873, 0.064920366, -0.042927887, -0.0014824922, -0.040454194, 0.047832105, -0.04063812, -0.093861535, -0.0035308227, 0.000993029, -0.04957992, -0.00095084, -0.008338792, 0.043851987, 0.053436045, -0.055695876, -0.02933492, 0.044883735, -0.014705395, -0.10469787, -0.023582952, 0.016441563, 0.039053034, -0.039327677, -0.0064207143, 0.031647846, 0.022958897, 0.03745158, 0.020829521, 0.08912532, -0.06356393, -0.0055155903, 0.06538753, 0.022937955, 0.02216392, 0.005060661, -0.022402482, 0.0037747326, -0.04130886, -0.122115955, 0.011335027, 0.0082788635, 0.029749813, 0.03122519, 0.03164813, -0.035813306, 0.038258243, -0.013760544, -0.034016922, 0.01406106, -0.041767575, -0.054773577, -0.01606909, -0.03211722, 0.05657559, -0.047225457, -0.060888644, 0.04422989, -0.0386761, 0.075230286, -0.05718346, -0.014387182, -0.02335284, -0.0051479023, 0.019210948, 0.04040259, -0.037390053, -0.07557884, -0.07505068, -0.04706835, 0.0058633303, 0.025746075, -0.01827121, -0.02524812, 0.00895318, 0.061857168, -0.04728956, 0.019250268, -0.020851292, -0.021553567, -0.043295823, -0.062031742, -0.02387202, 0.042930838, -0.029838577, -0.016845765, -0.038356993, 0.08441312, 0.01792994, -0.03162746, -0.038058285, 0.004489224, 0.012686501, 0.0030060266, 0.01744508, 0.0029337695, -0.03588089, -0.055015124, 0.039180238, -0.029411716, 0.005559834, 0.00070557965, -0.035552412, -0.067328736, 0.04183231, -0.005547496, -0.074831754, 0.019347645, 0.061599266, 0.059271026, -0.075683236, -0.020321898, 0.073099606, -0.008886528, 0.044570997, -0.07182722, 0.041818112, -0.019738873, -0.062389765, -0.06553829, 0.047526382, -0.009344119, 0.07635436, 0.021151708, 0.0093401205, -0.039826483, 0.003456196, -0.020733168, -0.058268905, -0.03826231, 0.028273182, -0.034008227, 0.006297139, 0.028562114, -0.08233315, 0.028994465, 0.01790411, -0.011345311, -0.023688871, 0.06731387, 0.06348665, 0.007215895, 0.020775786, -0.044343565, 0.029036494, -0.09703012, -0.086082466, 0.0071519436, -0.09113305, 0.079717115, -0.025468325, -0.0370494, 0.09298749, 0.056576543, 0.00090177706, -0.02155364, -0.030980183, -0.0070759864, -0.009190637, -0.051109955, -0.046908397, -0.005293504, -0.005910312, -0.033775035, -0.0407719, -0.027191484, -0.030494431, -0.01605946, 0.003787023, -0.05709977, -0.012540946, -0.035351686, 0.018205881, 0.028243892, 0.050695654, 0.031260654, -0.0006689391, -0.015774634, 0.0082617765, -0.016572258, 0.0073579745, 0.017741866, -0.070680074, 0.009442738, -0.054544393, 0.06287056, -0.019317318, -0.034907933, 0.0010899864, -0.016523052, 0.0013170844, 0.017749202, -0.03644316, -0.044754256, -0.017888492, -0.029251836, -0.017682148, 0.045410275, -0.017188685, -0.025151638, 0.07248194, 0.020149652, -0.024240343, -0.051195417, -0.083953544, 0.0010752752, -0.009492701, 0.043038115, 0.026105652, 0.08300369, 0.008357861, -0.04002397, 0.028738085, -0.06370909, -0.010599329, 0.064776786, 0.032189105, -0.008488683, 0.005734937, 0.019900694, -0.0146174105, -0.06730614, -0.0250336, 0.008994284, 0.11301928, -0.07332705, 0.045837708, 0.0040037413, -0.1292666, 0.013942153, 0.065383784, 0.0024947454, -0.03818697, 0.03958584, 0.077737145, 0.015169505, -0.012625785, -0.020555517, 0.043232057, -0.016142529, -0.018550517, -0.001660075, 0.0030514176, -0.011209358, 0.07186779, 0.04929067, 0.0006749735, -0.005950586, 0.022093313, 0.063574016, 0.034153745, 0.010017281, -0.07651295, 0.007762319, -0.01730553, -0.053953134, 0.07146578, 0.00563557, 0.016526882, -0.060639825, 0.025568092, -0.0015233799, 0.051919863, -0.033571143, -0.007592443, 0.0013324384, -0.010413682, -0.03796768, 0.036720097, 0.014292904, -0.15451138, -0.023867441, -0.039231755, 0.06880678]</t>
+          <t>[0.0603053, -0.022024557, 0.028958447, -0.03624058, 0.1381739, 0.035090946, -0.010056117, 0.021075089, 0.02498229, 0.036392793, -0.032046255, 0.030197144, 0.004678464, 0.027493322, -0.017813059, 0.043237463, 0.009177636, 0.07089683, 0.004475346, -0.03618266, -0.10554779, -0.019211378, -0.08785291, 0.027944757, 0.0923666, 0.019184627, 0.010999566, -0.057344586, -0.076194234, 0.0072236536, 0.035777405, -0.044824976, 0.028009089, -0.014933937, 0.018579578, -0.001961527, 0.018093232, 0.02345852, 0.030428916, -0.06582222, -0.037156165, -0.0007615181, -0.08859194, 0.040165152, 0.004927099, -0.019715576, 0.04124326, -0.02453746, -0.10269, 0.012860195, 0.008848121, -0.044304788, 0.0087177, 0.04497037, 0.054926243, -0.021197433, -0.06673487, -0.027157579, 0.010862114, 0.022441296, -0.07156743, -0.005585419, -0.03953355, 0.02470007, -0.038070325, 0.023919975, -0.023016267, 0.01864057, 0.027366495, -0.019973231, -0.004307282, -0.039624885, 0.0026414136, 0.032187656, -0.043195676, -0.09062547, -0.056273263, 0.052740194, -0.04299348, -0.036971834, -0.00815359, -0.018659996, 0.056540046, -0.04648812, -0.033042155, 0.003925216, -0.05719706, 0.053356215, -0.024772726, 0.062405348, 0.00097422645, -0.008304157, 0.095129244, 0.031529084, -0.00419468, 0.024701778, 0.12028977, 0.025783293, 0.058994904, 0.04027395, -0.010380504, 0.120546974, -0.02644253, -0.0036019182, 0.06948249, 0.056657117, 0.040334467, 0.033932507, 0.05007578, -0.004009944, 0.012098779, -0.053462815, 0.025692625, 0.004899614, 0.022258695, -0.00092921447, 0.03722943, 0.028409762, 0.0071526123, 0.07146999, 0.06256656, -0.039564352, -0.0024701182, 0.01777032, -0.027772892, -0.021341627, -0.010059024, 0.0749301, -0.016632117, -0.06678102, 0.060678706, 0.07789931, -0.077610806, -0.008284308, 0.003715202, -0.02272092, -0.040488962, 0.09231197, 0.07120639, 0.017711554, -0.016626608, 0.00893753, 0.019497622, -0.09098325, 0.08856982, -0.007033776, -0.04766019, -0.082356244, 0.04208749, 0.03890152, 0.037355367, -0.026774447, 0.036155347, -0.031011168, 0.0031983268, -0.042794317, 0.027825749, 0.050776776, -0.09170476, -0.028178848, -0.014060739, -0.032118585, -0.018691182, 0.034373444, 0.02776739, 0.0039213356, 0.027192034, 0.022801, 0.03401349, 0.004510579, 0.017346155, -0.014310856, 0.05247588, -0.0056232773, 0.02503188, -0.008434078, -0.025602283, -0.02029328, 0.07869042, -0.09898274, -0.02071901, -0.097072594, 0.054227244, 0.03563322, 0.029351257, 0.0401832, -0.0057522436, -0.023190068, 0.011214624, 0.013910343, -0.10678527, 0.034085855, 0.009623827, -0.0016040239, 0.0065429197, -0.019585207, 0.008952447, 0.0135644255, 0.08348988, 0.069115296, 0.016855936, 0.024830425, 0.09923854, 0.0024405818, 0.003476381, 0.042666465, -0.014888699, -0.008327462, 0.02715934, 0.031858366, -0.033781286, -0.026355973, -0.012004679, -0.019824734, 0.021757448, -0.03444244, 0.01914714, -0.025671376, -0.0056967475, 0.022926958, 0.032979194, 0.013167602, 0.02304706, 0.06470419, -0.031704754, 0.034495194, 0.014973966, 0.060586244, -0.015587075, -0.024558993, 0.011753616, -0.026398426, -0.02556141, -0.03373025, -0.02727725, 0.057174757, -0.09684278, 0.05014778, -0.005829824, 0.082559735, -0.026345853, 0.05784218, -0.02159458, 0.059719104, 0.007866154, -0.006144186, -0.007986698, 0.030265428, -0.014451507, -0.010572226, -0.08148498, 0.009916074, -0.018716993, -0.05366439, 0.0096011525, 0.058424838, 0.055621967, -0.09174223, -0.05807048, -0.044540197, 0.027355012, 0.003562607, 0.023070332, -0.006038335, -0.032230638, 0.016809385, 0.033399526, 0.00961493, -0.013701765, -0.0016741675, 0.034180354, 0.028661454, 0.028698748, 0.0058836173, -0.021591546, 0.021544287, -0.0025638146, -0.056940366, 0.0067772507, -0.0140295215, 0.01720162, -0.04483243, 0.037242815, -0.030426297, 0.04506991, -0.06905971, -0.07979594, -0.05065213, -0.025910545, -0.032624345, -0.019954154, -0.040573522, 0.0066675115, 0.021740839, -0.022497175, 0.05440822, -0.024845066, 0.051002458, -0.0011681583, -0.0043269712, 0.021697095, 0.021568887, 0.051694628, 0.014974931, -0.027382787, -0.016523724, -0.0031869418, 0.019017499, -0.008126142, 0.05035015, -0.007443002, -0.028562278, 0.01046725, 0.087312505, -0.09213254, 0.04093857, 0.005796303, -0.026416408, 0.022153161, 0.01056105, 0.007319499, 0.051479936, 0.0236649, 0.01487727, -0.039198942, 0.006477758, -0.06676512, -0.02809133, -0.050311934, 0.05531532, -0.06576934, 0.009623826, -0.007550693, -0.032011013, -0.010218602, -0.032786567, -0.028980343, -0.056529053, 0.015905324, -0.034250274, -0.0689979, -0.005116358, -0.036543187, 0.014027988, -0.060187362, -0.039917536, 0.040300824, 0.009921937, -0.0099846525, -0.02546729, -0.016001454, -0.0048207934, 0.021092117, -0.039658897, -0.0664199, -0.07351299, -0.00698557, -0.032610927, 0.07400725, -0.072758235, -0.009747558, -0.017730448, -0.05432197, 0.06456107, 0.05861761, -0.089870855, -0.035023, -0.017133243, 0.01246717, 0.021792356, 0.033312105, 0.011957832, -0.06620196, -0.020224746, -0.018470746, -0.036990244, -0.0022061823, 0.0508839, 0.031456113, 0.06461638, 0.0069730533, 0.033109102, -0.05533105, -0.055254575, -0.0047556036, 0.010860273, -0.07649423, 0.03399504, -0.052874323, -0.025330694, -0.03205083, 0.09457969, 0.037888516, 0.106351525, -0.014634034, 0.021438697, -0.058827028, 0.0066825827, -0.023317724, 0.004138861, 0.06397081, -0.05845294, -0.065145425, -0.049023855, 0.03841908, -0.047554817, 0.030317498, -0.0048261764, -0.06283457, -0.05453489, 0.034074955, 0.06908332, 0.046700895, 0.013981915, -0.026042148, 0.05690303, -0.042488344, 0.012989931, -0.0005596666, -0.07676198, -0.014430187, -0.020938717, -0.044348672, 0.06830313, -0.024102086, -0.035841774, 0.0016689681, -0.05553821, 0.0024012765, -0.053492196, 0.07973648, -0.101416096, 0.013080096, -0.0653353, -0.05948039, 0.016464554, 0.036931433, -0.010285028, 0.057865098, 0.046593633, 0.008879759, -0.07297496, -0.053564843, -0.010974341, -0.0014911437, 0.022099014, 0.010770652, 0.051686905, -0.0037215333, -0.007076627, 0.003624448, -0.00860825, 0.022943407, 0.08437018, -0.056399554, -0.022063298, 0.06338917, 0.014379859, -0.004352826, -0.074623086, -0.008720466, -0.029675944, 0.09509485, 0.057744287, -0.08878245, -0.08465173, -0.01117698, -0.02756457, -0.016055286, 0.030782094, 0.023121333, 0.037495013, 0.031684097, -0.011925128, -0.012499514, -0.042433772, 0.012470632, 0.020261245, 0.085376695, -0.046346646, -0.07816488, -0.013472577, 0.0584242, 0.0412502, -0.016501041, 0.050068192, -0.015994446, 0.013871357, 0.015613752, -0.0026507897, -0.10445497, 0.019647475, -0.013304265, 0.010461501, -0.0098849675, 0.022835167, -0.064696684, -0.020257838, 0.01563895, -0.028744228, -0.010070726, 0.0071261493, -0.003067694, 0.015427968, 0.035575494, 0.0072127143, -0.017508695, -0.048245482, -0.18897462, 0.026649306, -0.010551506, -0.040767614]</t>
         </is>
       </c>
     </row>
@@ -1201,39 +1147,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>이다연</t>
+          <t>윤수인</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>강릉</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rheological investigation of methylcellulose
-in
-a soy protein based system</t>
+          <t>Utilization of artificial intelligence (AI) models in predicting the rheological properties of hydrocolloid solutions for meat analogue</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Methylcellulose, one of the hydrocolloids popularly used in the food industry, has a unique property of forming a gel upon heating and returning to a solution state upon cooling So, it has been widely used as a primary binder in the segment of alternative meats However, there is a lack of fundamental information on the processing performance of methylcellulose in a soy protein based food system In this study, the rheological interactions between methylcellulose and soy protein concentrate were characterized in terms of shear rate viscosity and viscoelasticity During the heating and cooling cycle, the viscosity of methylcellulose showed an increasing viscosity during heating Also, when the methycellulose was blended with soy protein concentrate, the synergistic effects were observed by affecting their rheological patterns Their flow behaviors were well characterized by the power law model, showing n values between 0 and 1 (shear thinning behaviors) Also, both storage modulus ( and loss modulus ( showed a tendency to increase with increasing level of frequency Thus, this study may contribute to improving the quality attributes of alternative meats by providing their rheological characteristics</t>
+          <t>Hydrocolloids are widely used in various food products for the variety of texture and rheology properties such as meat analogue, sauces and beverages. Especially in meat analogue market, the demands for appropriate hydrocolloids have been dramatically increasing across the globe. However, hydrocolloid research is currently insufficient and there is no appropriate model to analyze and predict the rheology properties. Therefore, this study creates and evaluates a model that can analyze and predict the rheological properties of hydrocolloids by applying AI.In this study, six hydrocolloid solutions (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) are measured at different concentration and temperature using rheometer. And then choose the proper fitting model by comparing constitutive and AI models. And establish the AI models then predict the viscosity results. Then make meat analogue and measured their texture properties using texture analyzer. And compare the results with AI predictive models.In all hydrocolloid aqueous solutions, viscosity tends to decrease as the shear rate increases. When the steady shear viscosities were subjected to rheological constitutive and AI models, the AI algorithms showed a better fitting performance (R2= 0.94-1.00) than the constitutive equations (R2= 0.75-0.99). Also, when the MLP model was applied to meat analogue samples after cooking, their textural properties seemed to be fairly correlated to the AI predicted viscosities.This study suggests the possibility of AI application in the food industry. The model using AI shows a higher correlation than the cross model and the power law model, which generally analyze and predict the rheological properties. And it also shows that this prediction is applicable to real products. There is a correlation between the result predicted by AI at 80℃ and the cooked meat analogue texture result value.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.0046675997, -0.008133027, -0.017418552, 0.024191577, 0.0939132, 0.030036703, -0.02317253, -0.06397652, 0.013115229, 0.029598292, -0.105058834, -0.06439762, -0.04319267, 0.0072738654, -0.04817321, 0.046039853, 0.012981628, 0.08000265, 0.0024029082, 0.016047379, -0.01047981, 0.008282124, -0.03783936, 0.027368063, 0.102024615, -0.006757313, 0.040202346, 0.008854668, -0.063761026, -0.046694938, 0.042866547, -0.03410271, -0.03443325, 0.04972066, -0.08867886, -0.033929944, 0.042859584, 0.05680473, 0.007858493, 0.013176101, -0.024313854, -0.013659565, 0.026217982, 0.04963816, -0.058798395, -0.019907434, 0.064577855, -0.004288228, -0.0033810127, -0.010055885, 0.03814722, -0.040896863, 0.0143477125, 0.011866245, 0.019423902, -0.0034124425, -0.047145054, -0.055536836, -0.053305525, -0.025868692, -0.023946004, 0.043064672, -0.079050966, 0.0019695794, -0.0469325, -0.008654794, -0.054208834, -7.0605893e-06, -0.021226166, -0.04098851, -0.04563981, 0.010220099, -0.029073006, 0.0075035957, -0.08927997, -0.0007737333, -0.033561237, -0.048980836, -0.070866644, 0.008688449, 0.0035071666, -0.007383965, 0.071606755, -0.039329533, -0.018608091, 0.032471124, 0.045316283, -0.011426573, 0.01529795, -0.04720273, 0.048161574, 0.017803341, 0.1013769, -0.0099985525, -0.013116801, 0.01825557, 0.05182312, 0.12575907, 0.025880538, 0.028193481, -0.02168584, 0.065987006, -0.08383841, -0.017404113, 0.048520762, 0.016146736, 0.040742416, 0.018325523, 0.06019146, 0.032532718, -0.030279523, -0.065037295, 0.011719944, 0.010992647, -0.041439682, 0.022046639, -0.0260634, 0.026039891, 0.02979801, 0.05174311, 0.020703228, -0.0359726, 0.017554084, -0.021550119, 0.026521316, 0.026280139, 0.049832813, 0.0061244513, -0.03673392, -0.055184346, 0.010715108, 0.015719535, -0.05351522, 0.01540412, -0.037022397, -0.021481099, 0.008562427, 0.008388876, 0.09886825, -0.07534626, 0.001352216, -0.023684308, -0.0026800875, -0.053612866, 0.01543017, 0.039991133, -0.02915853, -0.02623537, -0.016246906, 0.021643227, -0.002293634, 0.023431068, -0.014255983, 0.042174816, -0.01976632, -0.10849154, -0.07799437, 0.026720895, 0.053876713, -0.017955553, -0.014631795, 0.026567332, -0.028954944, 0.037447885, 0.030964581, -0.0418842, 0.04057823, -0.022219617, -0.012388826, 0.0026767778, -0.038361013, -0.03998582, 0.04134163, -0.033790708, -0.05965269, 0.017040469, -0.010363289, 0.007282532, -0.043428473, -0.022193177, 0.08314517, 0.025106067, 0.019963976, -0.019011782, 0.010104165, 0.05244285, -0.00375179, -0.048430692, 0.008785207, -0.039459966, -0.05581026, -0.064941965, 0.0065325685, -0.046859246, -0.015563044, 0.047208413, -0.04298875, -0.0517263, 0.020106856, -0.0072864527, -0.0457567, -0.017766045, 0.05687928, -0.016677322, 0.0572866, -0.07331875, 0.030367848, -0.0102965105, 0.052722365, 0.028739486, -0.017652433, 0.013462455, -0.037754383, -0.03744829, 0.08152394, -0.0060461303, -0.01233476, -0.050911386, 0.02441586, -0.0126519175, -0.0866197, 0.023763806, 0.011016409, 0.03274563, -0.019155778, 0.012592143, 0.008549811, -0.099196956, -0.076803006, -0.024310028, 0.024940293, -0.04553789, -0.017502151, 0.011486194, 0.019108484, 0.03767929, -0.040836986, 0.0026543785, 0.04980628, 0.07139273, 0.016587814, 0.009396465, 0.015332352, 0.018803341, 0.04202752, 0.04214917, -0.023207027, -0.039370734, -0.0354775, -0.02862761, -0.08220202, -0.02343577, -0.031409085, -0.0136527065, 0.009396636, 0.016327769, 0.009886978, 0.061589543, -0.050173935, 0.013568319, -0.011890209, 0.050673634, -0.0050006243, -0.0494525, 0.011187873, 0.0044120606, -0.030498942, 0.12166248, 0.022673812, -0.03590484, -0.03851616, 0.015512349, 0.10518593, 0.042349882, -0.087246835, -0.0873437, 0.02596316, -0.03324717, -0.018983833, 0.0023494523, -0.041122176, -0.062710166, -0.001252908, -0.015754707, -0.07756899, -0.049560912, -0.015650073, -0.008532489, -0.072325855, -0.059905827, 0.009486273, -0.0888737, 0.034622543, 0.016388979, -0.0491428, 0.050505, -0.021696223, -0.0027443964, -0.015238423, -0.054038458, -0.055875927, -0.04087948, 0.049646135, 0.039712373, -0.003509386, 0.03306202, -0.006442532, -0.034900375, -0.0706965, 0.11288909, -0.061880276, 0.015278188, 0.037315086, 0.044784166, 0.016559592, 0.03323279, 0.046751004, -0.025745332, -0.049818557, 0.018230125, 0.012220921, 0.064242974, -0.075000696, -0.019406613, -0.05677468, -0.02367166, -0.025710648, 0.0045917607, -0.0005669188, 0.026493546, 0.0023603009, -0.026275566, 0.0026268244, -0.042102575, -0.03583969, 0.038036894, 0.004445315, -0.033130698, -0.026087925, 0.02419437, -0.09689334, -0.0178412, -0.0009804302, 0.059437435, -0.082287, 0.12417856, 0.08287256, 0.110366486, 0.0020102793, 0.02625889, 0.0071113035, -0.023578903, -0.010711035, 0.0053997114, -0.05301359, -0.036864165, 0.014464814, -0.074243434, 0.00944971, 0.013368398, 0.052503813, -0.014249392, 0.08573755, -0.04300549, -0.017540777, -0.09322574, -0.07253106, 0.0076391078, -0.009701193, -0.028787103, 0.03313841, 0.0012514505, -0.023108391, -0.003420171, -0.019906055, -0.0017852206, 0.03875277, 0.020337014, 0.025063243, -0.04323786, -0.009152433, 0.02225983, -0.01863283, -0.052081235, 0.012824278, -0.0024219027, -0.09715497, 0.07789087, -0.03085206, -0.011549805, 0.027845405, 0.050749414, 0.066845104, 0.022084003, 0.008257221, -0.02299412, 0.008995061, -0.025137698, 0.046466846, -0.00431877, 0.015087308, -0.018365609, -0.008154062, -0.035118163, -0.03164966, 0.067787796, -0.018282505, -0.05425325, 0.014582495, 0.048457135, 0.014330813, -0.007672638, 0.0012930024, 0.054824244, 0.0091726445, -0.006890719, 0.011237852, -0.028588224, 0.026177851, -0.04316379, -0.046662435, 0.04346638, -0.071361855, 0.023017721, -0.028596137, 0.026249805, 0.008450858, -0.044514455, -0.020477595, -0.008741429, -0.07047838, 0.010714739, -0.017564163, -0.031038998, 0.0423592, 0.04004347, 0.002120898, -0.08369979, 0.0042321, 0.009560118, 0.038130853, -0.010186531, -0.021022042, 0.024632016, -0.028437883, 0.012359099, 0.005853835, -0.0018400769, 0.062458728, 0.0112968255, -0.053590976, -0.021312898, 0.0055005513, 0.009900911, 0.059904408, -0.037790414, -0.0016372869, 0.044905074, 0.048112016, -0.021210866, 0.0021100605, -0.015113962, 0.036706112, 0.008736845, 0.056541227, -0.06665425, -0.038304277, 0.017636916, -0.025769683, -0.02234478, -0.08761027, 0.008260279, -0.0058008824, -0.017982922, -0.0037742057, -0.022303313, 0.0044100336, -0.036117587, -0.0467534, -0.08000453, 0.031904034, -0.0028505693, 0.1070983, -0.007862797, -0.013118676, -0.019703671, 0.036124103, -0.013312875, 0.08716575, -0.061258264, -0.06255982, 0.019960377, 0.044217747, -0.036277715, 0.029479409, 0.06740779, -0.0029580493, 0.035779335, -0.019409802, -0.050474655, 0.058316793, -0.039308164, -0.033353403, -0.018682642, 0.012910489, 0.0009028695, 0.05460236, -0.008502375, -0.063362025, -0.011988665, 0.024208428, 0.00561942]</t>
+          <t>[0.03783557, 0.07343247, -0.04816072, -0.0007632927, 0.093928516, 0.017923364, 0.023378862, -0.062989265, -0.026453286, 0.04218285, -0.049382012, -0.00047577426, 0.008975993, 0.045564868, -0.012352566, 0.04081166, -0.018785423, 0.05895785, -0.069845065, -0.05228234, 0.042964775, -0.008595016, -0.017913835, -0.027294317, 0.066543244, -0.028636461, 0.07820865, 0.06338317, -0.12622193, -0.023026034, 0.013329486, -0.049532987, -0.023315262, -0.064503595, -0.05294021, -0.040886194, 0.0888205, 0.058240823, -0.00800197, -0.04907582, -0.0048432746, -0.00038851655, -0.0674001, 0.06183423, 0.06435568, -0.05877754, 0.0038475492, -0.009416745, -0.016690778, 0.01725962, 0.032950558, -0.03425399, -0.0059339884, 0.02690763, 0.01591375, 0.0070685153, -0.10072121, -0.08879695, -0.005822125, 0.03605104, -0.078405835, -0.11598225, -0.084260635, -0.022429073, -0.008157212, -0.06029602, 0.043174673, 0.024827218, 0.029301355, -0.013295597, -0.027968567, -0.0071224947, -0.01700441, 0.07329686, -0.085785724, -0.056039996, 0.0028119893, -0.09998585, 0.008231456, 0.030993696, 0.015175187, -0.039785266, 0.056539346, -0.014643693, 7.9139136e-05, 0.06944527, 0.0417915, -0.051654536, -0.027321005, -0.05315576, -0.03033502, -0.06344283, 0.08317835, 0.031497467, 0.01243563, -0.021819813, -0.012001375, 0.11630971, 0.01562596, 0.04621962, 0.0085391505, 0.10926778, 0.050327525, -0.024281673, 0.022926612, -0.024542846, 0.03561515, -0.0032752086, 0.0763993, -0.008072326, -0.033148196, -0.083361015, -0.06806795, -0.013463352, -0.017581925, 0.07137026, -0.013267636, 0.051860634, 0.0113968905, 0.008893917, 0.014807913, -0.05173253, -0.013884125, 0.00034446514, -0.0049564876, -0.02466817, -0.040161002, 0.02361217, 0.016807849, -0.054819457, 0.0011734724, 0.02726769, -0.026340023, 0.05873849, -0.010732782, -0.02068664, 0.0042944336, -0.03937665, -0.009327797, -0.020913599, 0.03340774, -0.023794275, 0.015933918, -0.06415472, 0.06055768, 0.030540133, -0.017250376, 0.025774537, 0.011089684, 0.015564736, -0.083633654, 0.05639872, -0.029986843, 0.069801085, -0.04381519, -0.054406248, -0.033298988, 0.020174356, -0.0021994398, 0.0036391928, 0.004318653, 0.028203212, -0.025794191, 0.05518093, 0.024217488, 0.012226723, 0.03943683, 0.008542527, -0.07946606, -0.0028837943, 0.020094186, -0.022758478, 0.007437426, 0.0023566603, 0.017501896, -0.048384704, -0.013250444, 0.041952856, 0.05308263, 0.035050157, -0.0037562598, -0.026951341, 0.031873725, -0.021887058, -0.0023133894, -0.04668174, -0.032612927, -0.005236599, -0.02647575, 0.004306988, 0.039331656, -0.02708758, 0.013764505, -0.02570435, 0.013568894, 0.083007045, 0.0192371, -0.038438123, 0.04513038, -0.032586776, -0.028856805, 0.021697486, 0.050846152, -0.012041106, 0.018583003, 0.024907108, 0.031427547, -0.005826626, 0.02143333, 0.05644198, -0.017127428, 0.10284401, -0.004420572, 0.03778767, 0.07331166, -0.026380366, 0.04645019, -0.05833593, -0.0037143005, 0.025141506, -0.11558301, 0.023569701, 0.0072763283, 0.011793728, 0.009788548, 0.012780068, 0.0078069936, -0.01850196, -0.035119224, -0.018405607, -0.018850934, -0.018079186, -0.0065095616, 0.0045096013, 0.036610954, -0.01253285, 0.06086529, 0.01594214, -0.033112593, 0.057284728, -0.033084575, -0.0029569573, 0.015326374, -0.0144944545, 0.03150193, -0.024124665, -0.02509767, -0.005157566, -0.0054447334, -0.049698237, 0.039957434, 0.020634854, -0.038146675, 0.03948597, 0.060942084, -0.032527998, -0.028927216, -0.027627114, 0.009964292, 0.004598186, -0.007381444, 0.015941583, -0.00051441794, -0.08255431, -0.023073735, -0.012910011, 0.040574506, 0.042667933, 0.037004158, -0.03588637, -0.017079502, 0.0067719053, 0.05375767, 0.0036649066, -0.03608408, -0.034287706, -0.047684282, -0.048744723, -0.041254394, -0.01932976, -0.062327556, -0.06235703, 0.07553122, 0.034101434, -0.0037379472, -0.026905863, -0.026967285, 0.016671637, -0.04748116, -0.05676926, -0.028769396, -0.04983251, 0.024892272, -0.04422869, -0.036963344, 0.045086604, -0.02445785, 0.07924099, 0.052235894, 0.0080590425, -0.025454633, -0.030025607, 0.0297949, 0.049333896, 0.0031531656, -0.0023629689, -0.004620851, -0.030160146, 0.042606592, 0.06084204, -0.031000165, 0.014370032, 0.01853089, 0.07781, 0.0390767, -0.033624683, 0.038441345, 0.038826413, 0.003443004, -0.060541824, 0.01931572, 0.037760753, -0.0034301411, -0.0145171825, -0.06735562, -0.007997091, -0.06208188, 0.047146503, -0.016685061, 0.028942201, -0.031628855, -0.0019528606, 0.009206446, -0.0050937957, -0.071695775, 0.037644397, -0.058071617, 0.020962907, 0.007129757, 0.008913159, -0.039108466, -0.069043405, 0.10161304, -0.025476713, -0.038262576, 0.034402236, 0.012491363, 0.11009374, -0.022586007, 0.022962838, -0.013505876, -0.02865716, -0.015089855, -0.04699073, -0.05829836, -0.033017114, 0.017106356, 0.04608406, 0.09538164, -0.0040404913, 0.0572845, -0.019007213, -0.06063647, 0.047748446, -0.06384367, -0.059779696, -0.048717067, 0.047517363, -0.031892292, 0.016274735, 0.012353764, -0.025152707, -0.012978233, 0.0018263874, -0.042661868, -0.01649191, 0.0021553703, 0.07276188, 0.03859445, -0.006246208, 0.00060789, -0.023305368, -0.035097577, -0.018118449, 0.01558601, 0.055854663, -0.11722914, 0.05835588, -0.040000193, -0.0058912397, 0.008353386, 0.045477435, 0.0075599384, 0.008495586, 0.04388815, -0.008262973, -0.069304354, 0.02965896, 0.044617414, 0.032622572, 0.011429913, 0.07658496, 0.03614908, -0.055588968, -0.032364193, -0.013404061, -0.020126719, -0.026326586, -0.024118442, 0.07119427, 0.059449896, 0.030853722, -0.018701104, 0.076558776, -0.023338398, -4.5095338e-05, 0.016206086, -0.043910105, 0.04897654, -0.014306324, -0.05627346, 0.032206547, 0.0028704023, 0.026702225, -0.00039735532, -0.01042613, -0.06676577, -0.08259589, -0.062456492, -0.028430788, 0.04841316, -0.01700812, 0.030036729, -0.028094273, -0.09256509, 0.048278242, 0.045197688, -0.038578995, 0.028250076, 0.011640155, 0.004380978, -0.042573802, -0.0052156006, 0.0611026, 0.029103916, -0.00093639275, 0.066188976, 0.10422572, -0.05182201, -0.02786835, -0.038781293, -0.05331451, 0.036750935, 0.027183961, 0.025579529, -0.0082421675, -0.006299514, 0.094109155, -0.028051542, 0.03163327, -0.019984527, -0.019318104, 0.079322025, 0.017253634, 0.020788783, -0.016148444, 0.0125413565, 0.020343766, 0.06427139, -0.07137218, -0.007586748, -0.0034423834, -0.033194195, -0.059889227, 0.006834279, -0.05281944, 0.031788923, 0.0072314315, -0.01070861, -0.019514875, -0.05727319, 0.00036611382, 0.071808755, -0.014149291, -0.030978853, -0.036882423, 0.06730107, -0.026315698, -0.009182084, 0.0024214492, -0.085892014, 0.023252584, -0.0730144, -0.009877465, 0.01527983, 0.018983183, 0.0049565635, 0.060337573, 0.022095008, -0.0070188083, 0.062049966, 0.011953321, -0.006107163, 0.024915703, 0.00067858526, 0.020050233, 0.01424731, 0.0057534324, -0.0939722, 0.034646757, -0.024452806, 0.028385885]</t>
         </is>
       </c>
     </row>
@@ -1242,38 +1186,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>윤성</t>
+          <t>김해린</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>강릉</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Studies on the processing performance of soy protein concentrate
-for high protein long-life noodles</t>
+          <t>Artificial intelligence classification of rice flour varieties based on their physicochemical features</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>The global interest in protein-fortified foods has been on the rise with increasing demands of health-conscious consumers, and the noodle industry is no exception. However, there is not enough research to enhance the level of protein in noodles without losing their quality attributes. Furthermore, although long-life (LL) noodle has been receiving great attentions due to convenient cooking methods and affordable costs, any attempts have not yet been made to develop protein-fortified LL noodles. In this study, soy protein concentrate (SPC) was applied as a rich source of protein to develop high protein LL noodle samples, and its effects on the rheology, water dynamics, and cooking properties of the LL noodles were characterized. The use of SPC distinctly influenced the pasting properties of wheat flour that were correlated with the dynamic viscoelastic properties of the corresponding wheat flour pastes. The texture measurements with a Kieffer dough &amp; gluten extensibility rig showed that the LL noodle samples had higher values of maximum resistance to extension, while the values of extensibility became lower, compared to the control made from wheat flour. In the case of the cooking properties, it appeared that the use of SPC did not affect the cooking loss of the LL noodles. Furthermore, water dynamics in a noodle system were analyzed using time-domain NMR measurements, demonstrating that T2 relaxation times were varied depending on the level of SPC. This study may provide useful information on the physicochemical properties of SPC in LL noodle systems high in protein, probably encouraging the food industry to develop a variety of protein-fortified cereal products without significant quality loss.</t>
+          <t>Rice flour has been widely used in a variety of food products but the suitability for a specific food is dependent on its variety. However, there are no efficient ways to identify the cultivars of rice flour. More recently, there are growing interests and challenges to exploit artificial intelligence (AI) across all industries, but its utilization to food research is still very limited. Therefore, it will be worthwhile to apply AI technology for establishing classification models of rice flour cultivars. The pasting properties of eight different cultivars of rice flours with a wider range of amylose content were investigated and then subjected to four artificial intelligence (AI) algorithms for classifying rice flour varieties. The classification performance was then evaluated in terms of confusion matrix, accuracy, and f1-score. Different pasting profiles were observed depending on the varieties of rice flour, demonstrating that high correlations were distinctly observed between the amylose contents of the rice flours and their trough/setback/final viscosities (R2 = 0.8931/0.8658/0.8762, respectively). Principal component analysis showed that the first and second principal component explained 87% of the total variation in the dataset. When the pasting dataset was subjected to the four different AI algorithms (stochastic gradient decent (SGD), decision tree, k-nearest neighbor (KNN), and support vector machine (SVM)), the SVM and KNN had the highest values of accuracy and f1-score, followed by decision tree and SGD. The pasting measurements were successfully combined with AI technology to predict the rice flour varieties. Thus, it seemed that the AI technique could be used as an innovative means to classify flour-based food products based on their physicochemical properties, possibly encouraging the food industry to efficiently control their quality attributes. The pasting properties of eight cultivars of rice flour were experimentally analyzed and subjected to AI analysis. The KNN and SVM models showed an accurate classification performance of over 95%, consequently providing innovative ways to identify rice flour varieties.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.020918272, 0.01946282, -0.05472718, 0.0146231605, 0.11605531, 0.023811772, -0.04672856, 0.012625913, 0.058503546, 0.035662636, -0.07820665, -0.015267036, 0.0060956087, 0.07971174, 0.0012729974, 0.016734598, -0.037485156, 0.012173267, 0.0050641918, 0.04055063, -0.038115676, -0.015384246, -0.06465214, 0.024329556, 0.046080768, 0.01620378, 0.04099363, -0.005770528, 0.093182854, -0.016103057, 0.086800806, -0.098593615, 0.008714836, -0.0111966655, -0.018194119, -0.053790774, 0.050723825, 0.009122748, 0.024537064, -0.023237009, -0.057182465, 0.022320148, -0.02002788, 0.025297143, -0.006799792, -0.009778728, 0.01579429, -0.038394224, -0.06941971, -0.007386544, 0.020802388, -0.010682385, 0.03361344, 0.027287826, 0.021490594, -0.055248976, -0.06821571, -0.023348033, -0.013581589, 0.042279758, -0.04399613, -0.027821587, -0.015194575, 0.037883226, -0.014739612, 0.041859042, 0.0022000857, 0.048871126, 0.011069109, 0.07033516, 0.021945579, 0.061568547, 0.051313218, 0.019348975, -0.07597604, -0.00897538, 0.0027621468, 0.012057927, -0.09181643, -0.023906715, 0.031443976, -0.050700903, 0.015947428, -0.026934184, -0.0355401, 0.0386751, 0.0042290804, 0.023207672, -0.02070849, -0.09615878, 0.007500463, -0.009999586, 0.07993959, -0.0053942227, 0.023329863, 0.038854044, 0.072756834, 0.08159748, 0.053552117, 0.057885267, 0.04758883, 0.090294376, -0.017163279, 0.0024941266, -0.0048531652, -0.023039993, 0.062711366, -0.003856645, 0.03833284, -0.012602937, -0.017943323, -0.053856716, -0.06448818, 0.022876348, -0.017083984, 0.036009207, -0.013282418, 0.04538764, -0.0022457223, 0.106733836, -0.03767986, 0.015912956, 0.020837585, -0.0187349, 0.006907899, 0.027902555, 0.058442503, -0.010658988, -0.0077467537, -0.0006982399, -0.03954373, 0.058940347, -0.0012921712, 0.12567578, 0.001374368, 0.0076095616, 0.02580102, 0.026590321, 0.031720858, -0.026362136, -0.042126935, 0.022878638, 0.01491867, -0.02226107, -0.04600408, 0.053566784, -0.06605642, -0.019432679, -0.07114979, 0.05598879, 0.023671597, 0.016550131, 0.029910268, 0.010985288, -0.028875057, -0.075574756, -0.030923171, 0.020811485, 0.030834537, -0.0132469395, -0.07280145, -0.03285575, -0.011077509, 0.019884028, -0.020697141, 0.027812362, 0.04159981, 0.029046945, -0.032465287, -0.013579168, -0.028327476, -0.023428751, 0.07543566, 0.016824381, -0.026503058, -0.0118433945, 0.01377016, 0.016246539, 0.09387883, 0.010447728, 0.013464782, -0.039822467, -0.016513117, 0.021156732, -0.03576257, -0.015860783, 0.017957257, -0.02997634, 0.037117235, 0.04383226, -0.08242568, -0.04863546, 0.034344383, 0.020545939, -0.024821244, 0.016694382, -0.005753282, 0.05478627, 0.0872959, 0.07155105, 0.066051625, 0.02818033, -0.0034519376, -0.02231829, 0.049898203, 0.017814307, -0.0044357004, -0.02466224, 0.0006326095, 0.09319189, -0.05783626, -0.0022392808, -0.013310638, 0.054477584, 0.025254948, -0.020235099, -0.04854592, -0.050551582, 0.009786634, 0.031146815, 0.028947834, -0.016625576, 0.0010567, 0.028291527, -0.027427906, 0.0036792932, 0.0139843, -0.07769088, -0.08562582, -0.033332713, 0.0072689294, -0.014367401, 0.019409262, -0.060270514, 0.059776183, 0.040101495, -0.058816772, -0.008218539, 0.04214353, 0.051240012, -0.01145585, -0.008227441, 0.023815496, 0.09738983, -0.06126046, -0.018853704, -0.004754231, -0.008572174, -0.08177058, -0.0025598065, -0.03475382, 0.06093298, -0.044467296, -0.012501426, -1.7344486e-05, -0.029520845, -0.047417052, -0.010555945, -0.089190856, 0.026911885, 0.010737082, -0.06775873, 0.02411371, 0.040657293, -0.02157577, 0.025247732, 0.031454645, -0.000975107, 0.02362269, -0.028224891, 0.00024388556, 0.052702453, 0.0648457, 0.043805327, 0.009154613, -0.024879916, -0.06200775, -0.06207193, -0.00025807717, -0.014418325, -0.0529851, -0.02437219, 0.04449547, -0.07877631, -0.038282674, -0.027155882, -0.056612827, -0.004045773, -0.08587391, -0.07749332, -0.053354144, 0.018452326, 0.021961307, -0.010769551, -0.068664625, 0.06406326, -0.031894628, 0.034903646, 0.008438272, 0.011685404, -0.0032598954, -0.015116913, 0.00049691316, 0.02052606, -0.0099593615, 0.020119736, -0.032333802, -0.0106338505, -0.011479011, 0.00050814584, -0.012947318, 0.0032876919, -0.035147823, 0.045811538, 0.009436439, 0.020099731, 0.020449497, -0.049195457, -0.057193838, -0.051218513, -0.025320763, 0.062426545, 0.002659713, 0.02566656, -0.083778106, 0.09557961, -0.043065205, 0.06640818, -0.005524068, 0.014615111, 0.019672034, 0.014859139, 0.026625525, 0.016426483, 0.06223349, -0.020507129, -0.022672912, -0.02218951, -0.0031002855, 0.0050687618, 0.019694049, -0.054778658, 0.027348388, 0.010879168, -0.1111133, 0.068529345, 0.038977005, 0.098870136, 0.02446588, -0.0261353, -0.009498482, -0.029232124, 0.00062446104, -0.067696184, 0.043889154, 0.007816489, -0.052472334, -0.05333708, -0.07821052, 0.011404275, 0.07114764, -0.066235945, 0.049202204, -0.0630928, 0.05689386, -0.029352369, 0.016962498, -0.021214684, -0.0008308412, -0.015604115, -0.036958765, 0.018809302, 0.03796804, 0.024536975, -0.073849, -0.00093519985, 0.03425829, 0.030232472, 0.06509854, -0.014632476, -0.019933984, -0.034922466, 0.037279252, -0.024562487, -0.035348628, -0.042806316, -0.10541071, 0.015809866, -0.039631322, -0.022667887, 0.04511995, 0.06212757, 0.018309496, 0.029283652, -0.014061897, 0.05379579, -0.009740387, -0.028267352, 0.039181624, -0.015945401, 0.02090818, -0.0763489, -0.029185398, 0.013098636, 0.010451914, 0.027385918, -0.07557914, -0.037546027, -0.012253869, -0.032301664, 0.06405659, 0.035022218, 0.06036985, 0.008188947, 0.022125816, -0.009742151, -0.0010687569, -0.01435886, 0.013968306, -0.0052836956, -0.022504706, 0.014378944, -0.02073748, 0.032332588, -0.068804346, -0.033167202, -0.014211925, -0.045101307, -0.07172788, -0.049983177, -0.008655188, -0.028566955, 0.015899697, -0.090332404, -0.007733503, 0.02470728, -0.0071728253, -0.03030129, -0.02588357, 0.009437193, -0.02860217, -0.07735764, -0.015242288, 0.043842927, 0.026844695, 0.040918704, 0.037706427, 0.11746991, -0.028401198, -0.022735553, 0.0041151475, -0.011388195, 0.0002458603, 0.0552079, -0.026025364, -0.047894172, 0.030398376, 0.062904105, 0.019593231, -0.043077145, -0.08769851, 0.032098074, 0.088988975, -0.047087286, 0.025683362, -0.018107388, -0.032915417, -0.05898953, 0.048560392, -0.012125401, 0.01676789, 0.082165994, 0.0016568465, -0.0005786042, -0.007129708, 0.017390015, 0.071120575, 0.009864923, -0.015037303, 0.0054897578, 0.014872816, -0.011564383, 0.017769985, -0.008190413, 0.022161629, 0.016484993, 0.040759306, -0.009133733, -0.024808604, -0.08243767, -0.010263138, 0.0061883675, -0.026488772, -0.06857271, 0.0099247685, 0.027346933, 0.04070583, 0.012483254, 0.012767685, -0.006752031, -0.008078043, -0.03355558, -0.016363505, 0.051695988, -0.0031141757, 0.008311445, 0.001817, 0.00024235621, -0.13384575, -0.0033426099, 0.044748537, 0.060888283]</t>
+          <t>[0.03926778, -0.0527371, 0.08900995, -0.01883762, 0.121671006, 0.03446166, 0.0070156357, -0.06847303, -0.0013595797, 0.03655333, -0.05218484, 0.015829537, 0.03572969, 0.057997335, -0.023019882, 0.009992337, 0.005843816, 0.022991907, -0.014128781, 0.024937484, -0.062004093, -0.0035151986, -0.07667586, 0.015849976, 0.111129485, 0.038324002, 0.06026398, -0.06669751, -0.031169642, -0.0048641423, 0.029781098, -0.053568713, 0.05021365, -0.052494936, -0.016988613, 0.013674052, -0.0012260241, 0.04329894, 0.060396276, -0.057347532, -0.014175688, 0.025045892, -0.0597672, 0.03847903, 0.061696503, 0.010466464, 0.015692756, -0.030053623, -0.09454749, 0.0049275975, -0.006528141, -0.007980296, 0.020161409, 0.02541568, 0.059883345, -0.044250727, -0.0820676, -0.032088764, -0.00402413, 0.009345233, -0.07410378, -0.039942764, -0.05281962, 0.014682682, -0.029880336, 0.021790257, -0.031758856, -0.024519658, -0.006579986, 0.03148312, -0.018504271, -0.02132204, 0.012325143, 0.032613166, -0.08257913, -0.13275237, 0.031265862, 0.053684916, -0.012351372, -0.016716566, 0.015693406, -0.06897692, 0.042889223, -0.0115689, -0.0918067, 0.031594187, -0.11165363, 0.006148434, -0.03111312, 0.12244771, -0.014103326, -3.2527372e-05, 0.0673071, 0.0069079455, 0.015227764, 0.05052132, 0.10051943, -0.0052041765, 0.04457839, 0.017027255, -0.023192907, 0.034768872, -0.08819459, 0.03885192, 0.0195339, 0.031458523, 0.047476046, -0.0005232165, 0.074958354, 0.009782285, 0.04501243, -0.059129838, -0.027085887, 0.015469805, 0.02137692, -0.016629519, 0.015334155, 0.059036713, 0.0047495584, 0.07772964, 0.05423815, 0.0069437427, -0.014877639, 0.082020804, -0.018660447, 0.012813824, -0.012688089, -0.011320868, -0.036343303, -0.04457332, 0.03248409, 0.044490296, -0.07491336, 0.040190782, 0.0037873755, 0.0027675217, -0.038368575, 0.053906668, 0.038202405, -0.007282305, -0.010393993, -0.029992245, 0.017177844, -0.075759135, 0.0148688285, -0.009537883, -0.07264838, -0.028735794, 0.08389494, 0.021915235, 0.0067319423, -0.01641048, 0.05810034, -0.084508754, 0.006896107, -0.021209426, 0.026872918, -0.0070217033, -0.08576475, -0.043463554, 0.026572777, -0.08859986, -0.036122814, 0.012025752, 0.024196194, -0.009057524, 0.028947994, 0.005295613, 0.03445876, 0.03766082, 0.0113471765, 0.012166638, 0.062050488, -0.0373288, 0.016749678, 0.003481129, -0.0002773519, -0.032350812, 0.103112236, -0.06736158, 0.01861163, -0.10328022, 0.010036214, 0.041482907, 0.0082860775, -0.009827219, 0.014347956, -0.01247172, -0.009385044, 0.0025984694, -0.16435114, 0.01171855, 0.007501904, 0.06926107, 0.0038850354, 0.0056194575, 0.0165647, -0.010820588, 0.11426107, 0.08631624, 0.061247833, 0.07605811, 0.07710957, -0.013264806, 0.067295335, 0.05647853, 0.0018221744, -0.013875819, 0.011670959, 0.051435467, -0.018386735, 0.0028041056, 0.01658865, -0.021704372, 0.046943713, 0.016142257, -0.0025343967, 0.018979102, -0.012805518, 0.023794701, 0.08040113, -0.0136782285, 0.025018593, 0.036374226, -0.021267219, 0.011676393, -0.005521192, 0.07422398, -0.012437227, -0.029101495, 0.026981689, -0.032423317, 0.0015184055, -0.019168058, 0.0033846698, 0.055351205, -0.05923354, 0.05321371, 0.035788175, 0.07770488, -0.023277327, -0.019846877, -0.010288568, 0.044130426, -0.0035207183, -0.011856895, -0.033584, 0.022591323, -0.04665715, -0.005547558, -0.029593786, 0.010392187, 0.034933705, -0.08207205, -0.048114948, 0.0114670135, -0.0048177266, -0.09947231, -0.050355405, -0.0750267, 0.06729027, -0.02739248, -0.02994355, 0.031687614, -0.023528527, 0.055662427, 0.05079802, 0.002392033, -0.012139863, 0.021639638, -0.00025337655, 0.024494195, -0.000117418414, 0.030967126, -0.02318607, 0.058943924, 0.005241074, -0.08560049, 0.03521634, -0.015796272, -0.0045874924, -0.030615695, 0.08699845, -0.07782727, 0.005657404, -0.05386177, -0.053618647, -0.0066700988, -0.06132198, -0.053500503, -0.028097441, -0.0013435812, 0.010212952, 0.05129476, -0.058353476, 0.065512344, -0.040697146, 0.026447933, -0.03499044, 0.021553233, -0.0053663575, -0.020609716, 0.036370408, 0.020881487, -0.0443131, -0.039756544, -0.054552846, -0.0025432934, -0.0006644813, 0.02253704, -0.02807572, -0.054316305, -0.0002937666, 0.07438048, -0.07903437, 0.019013882, -0.01422382, -0.019640334, -0.013273028, -0.009864133, -0.0062889364, 0.07725841, -0.048530165, 0.0011270675, -0.07119147, 0.062238842, -0.014571795, -0.020736504, -0.00051233586, 0.067669526, -0.015102306, 0.005251794, -0.019695256, -0.038869664, -0.008854756, -0.06999205, -0.0469341, -0.0321224, 0.026568133, -0.03290496, -0.060736883, 0.011703006, 0.004373007, -0.015674012, -0.060560685, -0.017860956, 0.06977032, 0.014551071, -0.040901452, 0.031028429, -0.004072329, 0.008572541, 0.04685287, -0.051343877, -0.07810957, -0.007884429, -0.037859723, -0.06101322, 0.014292055, -0.045067355, 0.03380007, -0.059754204, -0.05018504, 0.025819097, 0.056394905, -0.0622608, -0.023187714, -0.05539415, -0.01822882, 0.017187774, 0.0031421632, 0.0123891635, -0.051719483, 0.0053062877, -0.042482506, -0.065701015, -0.03211586, 0.05612946, 0.053133998, -0.026605155, 0.032922663, -0.005283121, 0.017604725, -0.053510047, -0.019262576, 0.018865867, -0.08502895, 0.044405736, -0.03835448, -0.066888444, 0.105803035, 0.09604644, 0.002469969, 0.047641132, -0.023086112, 0.0069839577, -0.09620091, 0.00010507065, -0.052474745, 0.028782777, 0.08010468, -0.045579012, -0.043302987, -0.02554264, -0.027726417, -0.07983912, 0.054242175, -0.05030919, -0.06826112, -0.07079372, -0.03471452, 0.074349515, 0.005833215, -0.012059177, 0.024314368, 0.020723514, -0.06457886, -0.00022598519, 0.03874312, -0.032606684, -0.067411356, -0.03694137, -0.035518058, 0.018224882, -0.090921916, -0.030296976, 0.050674595, -0.055162653, -0.025571711, -0.037146613, -0.015560289, -0.07058401, 0.009886414, -0.04248511, -0.053909108, 0.011743318, 0.075489536, -0.03314383, 0.063129164, 0.049240366, -0.019528152, -0.09491613, -0.094551414, -0.038030732, 0.0019477449, 0.05956757, -0.0029341215, 0.062178016, 0.024584154, -0.038949214, 0.0032724813, -0.0330818, 0.025273379, 0.10916946, -0.03628855, -0.026791992, 0.030314628, -0.011232897, -0.04004355, -0.04732981, 0.0005655344, -0.00037181049, 0.06724092, -0.021614384, -0.086364284, -0.041550666, -0.07069086, -0.026380152, 0.010222116, -0.026915478, 0.040873464, 0.10805834, 0.01997816, 0.034639105, 0.0006184263, -0.048688497, -0.023109252, -0.0026042603, 0.07704263, -0.05439458, -0.0025234558, -0.04690211, -0.007875093, 0.012654569, 0.021353157, 0.047226876, 0.02301754, 0.023598658, -0.010424954, 0.0071557295, -0.0366539, 0.03347535, -0.038540743, -0.0058973497, 0.011767387, 0.027335035, -0.00056109315, -0.012712785, 0.005075845, -0.004930868, -0.004208476, -0.025294205, -0.015950685, -0.017362991, 0.015204623, -0.023620073, -0.026173817, -0.03434097, -0.16034284, -0.025720352, 0.0077382545, 0.004983255]</t>
         </is>
       </c>
     </row>
@@ -1282,39 +1225,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>이다연</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rheological investigations of hydrocolloids and their blends
-in a soy protein
-based system</t>
+          <t xml:space="preserve"> Machine learning-based identification of vegetable oils by non-destructive methods</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hydrocolloids are widely used to control the rheological properties of a variety of food products and the segment of alternative meats is no exception However, there is a lack of fundamental information on the interactions between soy protein and hydrocolloids in terms of rheology and water dynamics In this study, the thermo rheological properties of several hydrocolloid solutions and blends with soy protein were characterized at the same concentration using a control stress rheometer During the heating and cooling cycle, the viscosity of most hydrocolloids decreased and then increased On the other hand, cellulose derivative hydrocolloids showed an increasing viscosity during heating Also, when soy protein interacted with hydrocolloids, the synergistic effects were observed by affecting their rheological properties Thus this study may contribute to improving the quality attributes of alternative meats by providing their rheological characteristics</t>
+          <t xml:space="preserve"> Non-destructive measurements by hyperspectral imaging, TD-NMR, and FT-IR were combined with machine learning technology to identify various vegetable oils. The hyperspectral imaging technology had a great classification accuracy, almost equivalent to that of GC-MS. Vegetable oils, as essential parts of diets, are extensively used in various food products such as frying medium and salad dressing. Chemical methods with GC-MS are generally used to identify vegetable oils, but they are laborious and time-consuming. Therefore, there is an urgent need to develop new methods to classify vegetable oils in rapid and non-destructive ways. The physicochemical features of eight different oils (canola, corn, grapeseed, olive, flaxseed, palm, sunflowerseed, and soybean oils) were measured using three non-destructive methods (TD-NMR, FT-IR, and hyperspectral imaging) with machine learning analysis, and their classification performances were compared with that of GC-MS. Four popular machine-learning classifiers (support vector machine, random forest, K-nearest neighbor, and decision tree) were then applied, and their classification accuracies were verified using a confusion matrix algorithm. GC-MS results represented the different compositions of fatty acids depending on the type of vegetable oils. TD-NMR measurements revealed the presence of two components with distinct mobility in the oils. In addition, they displayed clear FTIR and hyperspectral differences among the samples. When the physicochemical features were subjected to the machine learning models with the bayesian optimization algorithm, the hyperspectral analysis was effective in classifying the vegetable oils among the non-destructive methods, and its accuracy was almost comparable to that of GC-MS. Non-destructive measurements were made with machine learning analysis to classify vegetable oils, and the hyperspectral analysis showed great classification performance with comparable accuracy to GC-MS. As a result, this study might elicit the possibility of non-destructive methods with machine learning analysis for identifying oil-based products from their physicochemical features.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.02596182, 0.07311433, -0.025925104, 0.032158412, 0.103619054, -0.0051015485, -0.025951844, -0.0009155739, -0.025559817, 0.0625581, -0.03112527, -0.078722306, 0.025451224, 0.038172286, -0.04054913, 0.028977567, 0.0076631494, 0.087047845, -0.09471882, 0.014321267, 0.05746846, -0.025186097, 0.019459726, 0.016786324, 0.07082587, -0.044966206, 0.06545339, 0.0005799145, -0.054413036, -0.019401107, 0.033335045, -0.06996659, -0.05492586, -0.027331224, -0.055324424, -0.027432945, 0.0274904, 0.09414706, 0.00093278947, 0.008631125, -0.044305846, -0.029991105, -0.049586967, 0.014358321, -0.0925123, -0.03466773, 0.039011702, -0.05798853, 0.0061063417, -0.020597061, 0.016773466, -0.068858184, -0.0021409937, 0.017234448, 0.016758855, -0.021261996, -0.05828313, -0.07243161, -0.0153046, -0.05894202, -0.051587287, -0.06682393, -0.07854905, -0.049442023, -0.01290714, -0.02395791, 0.022063948, -0.009355404, 0.030101845, -0.027495388, -0.06314893, 0.004929785, -0.042815927, 0.056965135, -0.07492085, -0.003787993, -0.03119375, -0.057516366, -0.07830967, -0.01959873, 0.023235334, -0.013169677, 0.08909343, -0.008365314, 0.0036185347, 0.077869184, -0.039761, -0.03727446, 0.018170916, -0.08066091, 0.028353533, 0.0042653535, 0.10553999, 0.0015048955, -0.0022708194, 0.024095489, 0.011279646, 0.09521738, 0.008416533, 0.080537856, -0.030683028, 0.07016015, -0.084232554, -0.014175195, 0.020679256, -0.01525284, -0.013647457, 0.016864078, 0.03496083, 0.0073200227, -0.036611885, -0.08926417, -0.05131662, 0.007784322, -0.018066159, 0.08167251, -0.015087815, -0.012919795, 0.0012978476, 0.14259608, 0.016535249, -0.016444387, 0.0059603527, -0.021528302, 0.0141899455, -0.04114941, -0.015197256, 0.024326446, -0.0066707283, -0.02236459, -0.017271223, 0.01752427, -0.07193985, 0.02010011, 0.020458363, -0.033062, 0.0056624915, -0.019687314, -0.008130236, -0.06268262, -0.0012985107, -0.060152926, 0.031974178, -0.051924553, 0.015831023, 0.050358444, -0.07289849, 0.012057302, -0.012210386, -0.032519717, -0.0067072203, 0.04639896, -0.0396039, 0.088783324, -0.025746204, -0.10758414, -0.049978606, 0.013955859, -0.004892396, 0.0009666348, -0.008338644, 0.0023754563, -0.023149135, 0.042742837, 0.05084979, -0.040464256, 0.045464676, -0.0018106018, -0.029958349, 0.005651008, -0.025288833, 0.0019594554, 0.024267523, -0.028720658, -0.008189652, -0.0040539093, -0.0007821295, -0.015257453, -0.026753964, -0.009663381, 0.021348674, 0.019921111, 0.032996442, -0.06802225, -0.027676553, -0.024629947, -0.021800702, -0.02534561, 0.01381666, -0.03149873, 0.033814277, -0.046772294, -0.009084196, -0.07554821, -0.007993516, 0.06275164, 0.029793665, -0.07306735, 0.008465116, 0.01494578, 0.006187819, 0.038048416, 0.061334647, -0.025980815, 0.015771836, -0.07048667, 0.020206012, -0.0042363126, 0.021298792, 0.05254277, -0.059227664, 0.067995384, -0.024103692, 0.015987825, 0.06725612, -0.009348755, 0.022388626, -0.017755441, 0.0025467456, 0.029846037, -0.10298887, 0.060986407, -0.021323869, 0.045151066, -0.041278914, 0.043804705, 0.012442458, -0.10682411, -0.11361075, -0.014606363, 0.011632573, -0.06438528, -0.03761022, 0.04442241, 0.039575275, 0.031153329, -0.013249168, -0.02460308, 0.006213798, 0.035020933, 0.015260397, -0.0038871365, 0.05577665, -0.04230574, 0.024128376, -0.009117841, -0.05804657, -0.036182083, -0.021764517, -0.049354933, -0.041641574, -0.0108816, -0.0027204312, -0.023827704, 0.031020071, 0.004207566, 0.0041314256, 0.06302197, -0.00045255476, -0.008282632, 0.013739589, 0.027881436, -0.010950962, -0.04078363, -0.006850674, 0.043317053, -0.043396126, 0.036615882, 0.027208732, 0.0027324816, -0.01513611, 0.017179128, 0.088680536, 0.08125086, -0.041982383, -0.09513732, 0.011575244, -0.06413169, -0.01578321, 0.001970113, -0.08309113, -0.041063603, 0.011491927, -0.01456811, -0.003346839, -0.015030104, -0.033653952, -0.011177506, -0.06516361, -0.09416851, 0.012037379, -0.05787743, 0.015708989, -0.08778746, -0.04434378, 0.029743286, -0.056957833, 0.08838249, -0.0006944806, -0.051898435, -0.086619824, -0.025938418, 0.03737697, 0.04507039, -0.007211011, -0.025377516, -0.021441124, 0.01128646, -0.03912646, 0.027319364, -0.051211, 0.0049194125, 0.029220756, 0.06952909, 0.059803627, -0.010816798, 0.030796772, -0.04635857, -0.03390044, 0.0013747008, 0.030026507, 0.009321756, -0.06945882, -0.0054394216, -0.06583869, 0.035646003, -0.055358283, 0.025068179, 0.016073793, 0.028407604, 0.038707647, -0.007764108, 0.035673615, -0.037156776, -0.0054479325, 0.013839788, -0.036835115, 0.04981971, -0.042013604, 0.000513914, -0.06894917, -0.07663753, 0.07149329, 0.081853025, -0.038818374, 0.03454159, 0.057260565, 0.084357254, -0.005628178, -0.009842526, -0.0066721556, -0.017901978, 0.02891091, -0.018746423, -0.009417341, -0.036868475, 0.015019857, -0.035878856, 0.0362736, -0.016572896, 0.06808905, -0.05120649, 0.02560313, -0.008078347, -0.042271726, -0.043888114, -0.053741485, 0.03222918, -0.032389086, -0.011069898, 0.057390127, -0.036944468, -0.025385508, 0.006439035, -0.057150427, -0.043580268, -0.00061095686, 0.05923486, 0.020849526, 0.007546807, -0.035925105, 0.011482709, 0.02383867, 0.001350196, -0.001960489, 0.043214906, -0.053206477, 0.0592705, -0.05413179, -0.031497788, -0.0006771657, 0.020525547, 0.009188663, -0.021401241, 0.017003233, 0.024848888, -0.034473572, 0.003832497, 0.019897839, 0.026527362, 0.025683556, 0.030845962, -0.0028382381, 0.025758013, 0.01758123, 0.025429267, -0.05569767, -0.017825022, -0.026516033, 0.09578768, -0.0025868479, 0.043128885, -0.0033256256, 0.085894115, 0.07099868, -0.0025230548, -0.012611964, -0.052938174, 0.015878458, -0.04854485, -0.030713545, 0.013428344, -0.012721751, 0.018412689, -0.05087737, 0.021083439, -0.047056973, -0.043362614, -0.06607687, -0.054652993, -0.008378303, -0.02567376, -0.0152630545, -0.009614073, -0.043797012, -0.014566964, 0.00092484726, -0.042510767, 0.04161279, 0.0138284145, 0.0052881246, 0.0039988346, -0.01908101, 0.027422342, 0.0459075, 0.0073982193, 0.03545012, 0.038365155, -0.0004495028, -0.057095442, -0.036545713, 0.0009848424, 0.014209238, 0.0064596646, 0.03938221, -0.018347431, -0.032510146, 0.07680541, 0.07498062, -0.015196083, -0.047928985, 0.005109164, 0.041939918, -0.027905539, 0.0421578, -0.03945132, 0.021583317, -0.000773485, 0.0027081128, -0.03400509, -0.047583297, 0.0083558345, 0.013055762, -0.05911816, -0.02629815, -0.006114276, 0.035375684, -0.008954901, -0.05763929, -0.0651299, 0.09786222, -0.059731606, 0.09452845, 0.028532933, 0.008012203, -0.012216338, 0.0040698075, -0.09711187, 0.033395585, -0.029881496, -0.056516834, -0.004662257, -0.020271687, -0.037780073, 0.021269994, 0.051509578, -0.01409251, 0.022628672, 0.013328694, -0.022508686, 0.06774742, -0.022915335, -0.014542987, 0.036896504, -0.011668119, -0.012606739, 0.054665063, -0.0023434428, -0.06724556, 0.0643762, 0.044808112, 0.03371603]</t>
+          <t>[0.028080996, 0.05595655, 0.035357293, -0.017684193, 0.08420715, -0.010895497, 0.014989928, -0.07360939, -0.023101237, 0.041141853, -0.047463186, -0.010584007, 0.052551236, 0.020948704, -0.01768295, 0.012339584, 0.019374836, 0.04533499, -0.022580968, 0.019740656, -0.028215924, 0.015898438, -0.031688333, 0.005899079, -0.0013816785, 0.04536996, 0.0272081, 0.047752336, -0.017262934, -0.03862539, 0.030492168, -0.038404144, -0.004674791, 0.00071072846, -0.039401937, 0.011270587, -0.00695653, 0.04783265, 0.0038831988, -0.003429369, 0.08377416, -0.0053831255, -0.04338684, -0.0064166584, 0.017633846, -0.020927362, -0.011050409, 0.008037234, -0.03640996, 0.034936536, 0.023452463, -0.0100861415, 0.035822965, 0.04961663, 0.034430873, -0.02826506, -0.07381636, -0.055388626, -0.0029345716, -0.038752154, -0.068247125, -0.046237912, 0.004595232, 0.023996994, -0.020571101, -0.06636655, 0.062086657, 0.022866989, 0.1040591, 0.042285666, -0.06876088, -0.040636264, -0.0013632813, -0.026249178, -0.052298628, -0.053591922, -0.025703648, 0.009941115, -0.048230294, -0.019411864, -0.044497073, -0.03305822, 0.046114124, 0.004393023, -0.011500648, 0.05848911, -0.0006626338, 0.06235317, 0.011207327, -0.06930348, 0.033287328, -0.014787112, 0.09186471, 0.048681717, 0.056765195, 0.040493514, 0.061762452, 0.02084089, 0.017673418, 0.028745832, -0.017995818, 0.0023453261, -0.0013824783, 0.017439729, -0.021794215, 0.024373086, 0.023747087, 0.030279446, 0.02258688, 0.019558586, -0.021131204, -0.08065849, -0.008252096, 0.06848689, 0.009462146, 0.0014882581, 0.0037065116, 0.008079418, 0.010221064, -0.044817917, 0.011923061, -0.03809873, -0.009439389, 0.012242055, -0.047209106, -0.0028697038, 0.0479916, -0.053893436, -0.017998936, 0.013597228, -0.028046954, 0.059560705, -0.012946539, 0.09648817, 0.040957067, -0.028949047, -0.09166261, 0.009102795, -0.06137373, 0.01958394, 0.012769297, -0.004149958, 0.019477954, -0.06106462, 0.011553001, -0.020133927, -0.016683577, -0.03679213, 0.042589393, -0.058951635, -0.029409762, 0.018447109, 0.0024507928, 0.010171892, -0.033431135, -0.01699235, 0.024852581, -0.054037176, -0.020110842, -0.015642783, 0.037856016, -0.006773508, 0.005925951, 0.026924992, -0.015011377, -0.024444005, -0.0016702883, 0.003025392, -0.014663954, 0.0892553, 0.013030703, -0.027557421, 0.05579224, 0.002587383, -0.018410066, -0.039146934, 0.029282918, -0.03886549, 0.07407776, -0.019593596, -0.06732943, -0.0663871, 0.00863364, 0.061685834, 0.013363913, -0.037686713, 0.009840919, -0.022055374, -0.025995938, -0.0068289842, -0.089813024, -0.0728502, 0.027573455, -0.011102585, -0.0084571, 0.029383475, 0.08178812, -0.01963524, 0.04081827, -0.00097381085, -0.020429365, -0.006821955, 0.08173667, 0.0010840339, 0.0839942, -0.038236067, -0.02974103, 0.024848267, -0.054061353, 0.0054916693, -0.013719677, 0.023661096, -0.040791318, 0.047640346, 0.091696426, 0.02803423, 0.01280271, -0.007487474, -0.020102996, 0.026047649, -0.06618619, 0.033015326, 0.017564878, 0.014834623, 0.047907982, 0.063829675, -0.019092483, 0.04871851, -0.0027487245, -0.041649856, 0.022063095, -0.057794135, 0.02898084, 0.019945337, 0.04360944, 0.008627336, 0.010824461, 0.007987844, 0.040917043, 0.09327778, -0.03640269, 0.046413533, -0.0039718505, -0.0135323955, 0.03587194, -0.052800354, 0.0039371024, 0.03622164, -0.043980565, -0.08168021, -0.02240079, -0.00064771285, -0.021941332, -0.010911462, -0.034602206, -0.055127464, 0.07887404, -0.0083447425, -0.035444126, -0.026942587, 0.067015335, 0.098809056, 0.030806692, -0.0477745, 0.0024054486, -0.033702124, -0.006284487, -0.0017228847, 0.0379397, 0.04696011, -0.022367252, 0.04691154, 0.033063795, 0.022700533, -0.013841197, -0.0059026727, 0.0015220025, 0.032970373, 0.05548247, -0.084664546, -0.005205688, -0.08000762, 0.036327224, -0.015634935, 0.006324899, -0.026906436, -0.027707055, -0.0017833681, 0.045998707, -0.011589177, -0.014507018, 0.020688906, 0.04095057, -0.006179316, -0.03709293, 0.03865191, 0.020264653, 0.015726365, -0.052133843, -0.023746891, -0.006366377, 0.048203293, 0.030320982, 0.0389045, 0.029597865, -0.059251945, -0.003986645, -0.021324761, 0.0046049375, 0.061357915, -0.014329811, -0.058573365, 0.042948667, 0.038694005, -0.044446852, 0.04426426, 0.05773763, -0.0052420846, 0.05061359, -0.053153634, -0.069046274, 0.06830113, -0.0064461464, 0.0012483222, -0.07864035, -0.007242712, 0.0013791383, 0.0075175865, -0.0013963585, 0.052102756, 0.0023498482, 0.028229536, 0.010544702, -0.011748398, -0.028484864, -0.015418678, -0.019823503, -0.009145802, -0.042029336, -0.051039778, -0.060831953, 0.01046919, 0.074051596, -0.0063032736, 0.030835176, 0.039216164, 0.011478718, 0.13182186, -0.085154474, 1.3242476e-05, 9.9964906e-05, -0.0019724618, 0.0018921747, 0.023454167, 0.0034819604, -0.047951967, 0.0015358685, -0.017705465, 0.0652482, -0.0792405, 0.0053966274, -0.003559009, 0.02709422, 0.03139063, 0.020024208, 0.0009903854, -0.013425181, -0.03314318, 0.0026090604, -0.029468127, -0.03519944, 0.04332944, -0.035736706, 0.006778771, -0.0074676615, 0.039317973, -0.033966973, 0.009529025, 0.06626601, 0.04780406, 0.023020651, -0.022779852, 0.08143244, 0.027382666, 0.031909656, -0.024689242, -0.0614569, 0.028483737, -0.06620484, -0.06859167, 0.026320186, 0.0015532469, 0.13080378, 0.029867413, 0.06463204, -0.004203777, 0.012985771, -0.029813457, -0.046256904, -0.030973243, 0.0069772233, 0.02810936, 0.047844853, -0.005196156, -0.062926434, 0.006220229, 0.054215536, -0.03530809, -0.0039009529, -0.041671738, -0.032705784, 0.05193449, 0.025599623, 0.058249027, 0.011834583, 0.050620597, 0.009082658, 0.06111697, 0.055589586, 0.005969494, -0.11108923, -0.012714652, -0.054086547, 0.028290382, -0.028330224, -0.0585354, -0.025868338, -0.009098124, 0.0061548357, 0.0018211269, 0.06771477, -0.04843763, 0.026006913, 0.015967188, -0.0397164, -0.0132865105, -0.010849117, -0.036918093, -0.010908622, -0.042714614, 0.026113868, -0.040748388, -0.03049455, 0.037143588, -0.06464312, -0.020953769, -0.012741667, 0.03301893, -0.038053162, 0.0048582642, -0.042280838, -0.007717787, 0.03588498, 0.028216656, -0.011477659, -0.032609645, -0.053329755, 0.022242293, -0.008986145, -0.032859612, -0.033268973, -0.010047686, -0.035847414, 0.021663437, -0.025241112, -0.035567723, 0.013907043, 0.07174722, 0.018807288, -0.036130425, -0.030819464, -0.0040973374, 0.008366662, -0.008703074, -0.010390883, 0.04282757, -0.026899023, 0.035730604, -0.028967503, 0.0005433425, 0.006229079, -0.014742329, 0.031308584, -0.020854294, 0.0022187354, -0.0030860845, 0.0406798, 0.04447186, -0.00595237, 0.03421904, -0.055322766, 0.03343378, 0.03273392, -0.059874058, -0.028711872, 0.0032823423, 0.03351832, 0.03915118, 0.039516702, -0.03544874, 0.045817804, -0.08324096, -0.011561767, 0.035385597, 0.06053062, -0.039223585, 0.02811952, -0.062221892, -0.057594232, -0.033918876, 0.011489233, 0.024511201]</t>
         </is>
       </c>
     </row>
@@ -1323,38 +1264,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>윤성</t>
+          <t>조승아</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Effects of soy protein concentrate on the quality attributes
-of protein fortified long-life noodles</t>
+          <t>Utilization of allulose and kestose as a sugar alternative for low calorie baked goods</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>The global interest in high-protein foods has been increasing with increasing number of health-conscious consumers. However, no attempts have been made to fortify long-life (LL) noodles with protein, which are expected to occupy a large portion of the HMR market. In this study, soy protein concentrate (SPC) was utilized to produce protein-fortified LL noodles whose physicochemical properties were characterized in terms of rheology, cooking properties, and water dynamics. The presence of SPC influenced the pasting behaviors and dynamic viscoelastic properties of wheat flour. Also, the extensibility of LL noodles with SPC tended to decrease, while the maximum resistance to extension increased, compared to the LL noodle without SPC. However, the use of SPC did not significantly affect the cooking loss of the LL noodles. In the case of water mobility, T2 relaxation times were reduced with increasing levels of SPC. In this study, SPC was successfully incorporated into the formulation of LL noodles for protein fortification and its processing performance was elucidated.</t>
+          <t>An excessive intake of sugar is recognized to increase the risk of lifestyle-related diseases in modern societies. Therefore, a great deal of effort has been made to search for new sugar alternatives. Especially, allulose and kestose low in calories have recently received increasing attention. However, Therefore, there is a lack of information on their processing performances as sugar alternatives in baked food products.Allulose and kestose were incorporated as an alternative to sugar in chemically-leavened baked goods, and their physicochemical effects were evaluated mainly in terms of thermal, rheological, and water mobility features.The use of kestose delayed the gelatinization of wheat flour, while the sample with allulose had a lower gelatinization temperature than that with sugar. These differences among the samples became more dominant as the concentration increased. The competition of water available for starch gelatinization between sweeteners and starches were confirmed by time-domain NMR. The pasting measurement demonstrated that the highest pasting viscosities were observed in the kestose, followed by sucrose, fructose, and allulose. These trends were also correlated with the dynamic viscoelastic properties. When sugar alternatives were incorporated in the formulation of cookies, the use of kestose produced cookie samples with good spreadability and a firmer texture, compared to allulose. The physicochemical features of wheat flour were highly dependent on the molecular mass of sweeteners by showing higher (kestose) and lower (allulose) gelatinization temperatures. Low calorie cookies were successfully prepared by replacing sugar with allulose and kestose, probably helping the bakery industries make a transition toward the development of healthier baked goods without compromising their quality attributes.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.015995672, 0.04674269, -0.07590939, 0.004432065, 0.076378316, 0.045781057, -0.05898026, -0.017521964, 0.0148530295, 0.02907757, -0.07519339, -0.055089984, 0.031008473, 0.069641024, -0.0069264853, 0.024401141, 0.0038314953, 0.032282237, -0.021328984, 0.057068747, -0.019957319, 0.017639859, -0.032996412, 0.019730985, 0.050969858, -0.010005531, 0.03738395, -0.007177397, 0.06389758, -0.043852706, 0.053788472, -0.049118422, 0.032819465, 0.0015382266, -0.020558981, -0.060110625, 0.04551514, 0.04983547, 0.020658547, -0.032166317, -0.020415742, -0.005706838, -0.049477886, -0.018510858, -0.03915333, -0.014557766, 0.0020092796, -0.049977373, -0.04645445, -0.007983843, 0.018621704, -0.046510413, 0.0156753, 0.0034752102, 0.023554074, -0.022879025, -0.06809552, -0.07793755, -0.026727442, 0.048310556, -0.07777782, -0.08856472, -0.010359132, 0.042403582, -0.048224047, 0.023321547, 0.007933531, 0.004525789, 0.021073401, 0.058833882, 0.0041859304, 0.043507382, 0.01376774, 0.038585465, -0.12826633, 0.00873387, -0.020660339, -0.01652794, -0.061768927, 0.0111224195, 0.0018285986, -0.03224723, 0.008290999, -0.0027084874, -0.021968413, 0.04698296, -0.031526458, 0.037349604, -0.008631244, -0.07278334, 0.0038953729, 0.001072343, 0.094699815, 0.019749375, 0.037332915, 0.02093793, 0.05155306, 0.08447643, 0.020270653, 0.08496006, -0.01326203, 0.09310069, -0.02006381, 0.007939439, -0.008633237, -0.026129995, 0.062403273, 0.015976848, 0.03101286, 0.0016709963, -0.030037135, -0.051861905, -0.043685738, -0.0039273966, -0.03216969, 0.06337569, 0.0013873549, 0.034474317, -0.013293344, 0.100001395, -0.030678635, -0.010222498, 0.021786306, -0.032126334, -0.005826289, -0.0024190713, 0.036734678, -0.006279747, -0.00027006026, -0.0022362988, 0.0018776149, 0.035479486, -0.00013597636, 0.11084059, 0.027973242, -0.02519053, 0.0039514927, 0.024388507, 0.019879118, -0.020951752, -0.022890674, -0.007544191, 0.055080887, -0.015542023, -0.018706819, 0.03617926, -0.07702495, -0.058598604, -0.05828923, 0.05983255, 0.0015906147, 0.037676286, 0.027421365, 0.04720314, -0.005618481, -0.0712635, -0.044619743, 0.025655339, 0.016468085, -0.019760149, -0.08107989, 0.003121113, 0.021933787, 0.0057520648, -0.02378752, -0.00051155494, 0.07122442, 0.012492643, -0.044664297, 0.021643965, -0.00440626, -0.03601689, 0.052963868, 0.007357232, -0.038833532, 0.0034295362, 0.0077507, -0.008919001, 0.043342583, 0.03485487, 0.013998776, -0.031891257, -0.02580013, -0.03892189, -0.034219667, -0.03681798, -0.0021698002, -0.060107343, 0.027217004, 0.070162155, -0.044103477, -0.048958126, 0.019816183, -0.0013224132, -0.009824599, 0.057331763, 0.011666171, -0.0057851044, 0.07954102, 0.05082944, 0.063641004, 0.0061760317, -0.0029023972, -0.00983619, 0.04982435, 0.04319084, 0.008075903, -0.011459218, 0.006530978, 0.07780138, -0.04283, 0.058035433, 0.017572569, 0.050070085, 0.061447304, -0.018850027, 0.013512596, -0.04387935, -0.011873324, 0.050657436, -0.020966103, -0.004142947, 0.0046304087, 0.025352115, -0.032339334, 0.021434752, -0.008008523, -0.09016668, -0.076646574, -0.034603238, 0.0018584116, -0.017822918, 0.0144885685, -0.043522317, 0.03893296, 0.05792778, -0.037487507, 0.0010830951, 0.04737648, 0.06267708, -0.05336546, 0.027138604, 0.058209263, 0.042990953, 0.01195328, -0.055314507, -0.0043691723, 0.0057447217, -0.06142008, -0.00035476775, -0.044782598, 0.06519914, -0.024216346, -0.002149544, 0.019958645, -0.055954587, -0.060101293, -0.011313982, -0.10507266, 0.034875292, 0.02592364, -0.046024926, 0.019679382, 0.0007057459, -0.016318427, 0.024836859, 0.017633101, 0.008766453, 0.018781878, -0.038863864, -0.02474503, 0.039827164, 0.10151308, 0.048937153, 0.03548282, -0.05097361, -0.025878714, -0.067097284, 0.010117773, -0.014879828, -0.06782202, -0.004495438, 0.02036774, -0.08298341, -0.021095494, -0.028509522, -0.07163112, 0.00017153949, -0.107734405, -0.100922756, -0.07765867, -0.014814862, 0.035584055, -0.032841563, -0.053711113, 0.052305352, -0.00457661, 0.058990397, 0.03708099, -0.0037064997, -0.020897822, -0.008169338, -0.0013842718, 0.025417553, 0.0023909868, -0.0068985852, -0.028685397, -0.03802313, -0.047032993, 0.03525346, -0.004989513, -0.026963808, -0.005340221, 0.05640029, -0.028796658, 0.015919533, -0.00012986409, -0.041484218, -0.037073433, -0.057768937, 0.02225631, 0.055039823, -0.02209463, -0.025669958, -0.04810761, 0.08950007, -0.04174711, 0.06578177, -0.008977261, 0.018762961, 0.016378343, -0.032554697, 0.009354553, 0.01378406, 0.023573069, -0.03710443, -0.029483786, -0.014509679, 0.008565191, -0.016269233, 0.016024858, -0.043882307, 0.0439612, 0.045188136, -0.06984841, 0.08783122, 0.06013078, 0.07230231, -0.019141486, 0.0037846095, 0.01822613, -0.027684228, 0.019026149, -0.062912166, 0.036588307, 0.00412767, -0.0019871376, -0.021083295, -0.0102808755, -0.0020750277, 0.06259714, -0.05570733, 0.07780444, -0.0516, 0.0031504307, -0.032859247, 0.0068492033, 0.016401589, 1.8541585e-05, -0.0017763563, 0.027395776, 0.01548338, 0.020234603, 0.0458525, -0.08236827, 0.0055790525, 0.040763758, 0.055010237, 0.050006926, 0.0114282295, -0.049231887, -0.022527365, 0.017540999, -0.019459894, -0.04298917, -0.010220317, -0.0967201, 0.00905239, -0.038253076, -0.060235698, 0.064147875, 0.08873991, 0.035115976, 0.01203822, -0.01635555, 0.04235862, -0.010795695, -0.06663814, 0.058213457, 0.034925375, -0.0065421574, -0.03502511, -0.047451284, -0.013049842, 0.028492078, 0.07051094, -0.08012102, -0.050861914, -0.008299917, -0.0036649252, 0.069295906, 0.003112389, 0.051280603, 0.0052980212, 0.042261712, -0.008632764, 0.04446882, -0.0070221694, -0.0030757883, -0.049687494, -0.025660155, 0.04575855, -0.0074034208, 0.030227382, -0.040326554, -0.01817463, -0.029593928, -0.05595981, -0.055256635, -0.036377516, -0.011051188, -0.062002804, 0.0054159747, -0.10991784, -0.040235918, -0.0033766953, -0.0012432903, -0.04462709, 0.00053415244, -0.021638999, -0.022103963, -0.018053453, 0.006858904, 0.011816156, 0.00060247345, 0.011251464, 0.031974312, 0.085140355, -0.06483528, 0.0036247694, -0.013888086, -0.032975037, -0.0143169565, 0.047366578, 0.015083432, -0.028489146, -0.029605642, 0.026645228, -0.004032429, -0.021937503, -0.059098583, -0.0041361493, 0.07028461, -0.058666263, 0.04084619, -0.0040791887, -0.029978678, -0.031781264, 0.07032931, -0.02702044, 0.01774167, 0.0567411, 0.010081908, -0.02053151, 0.008539157, 0.032250945, 0.05853482, 0.053460017, 0.0078921225, -0.03572794, 0.039622292, -0.028661571, 0.05503666, -0.001864459, -0.030094802, 0.013296356, 0.011941556, -0.07859602, 0.018493487, -0.090382695, -0.034404445, 0.025869373, -0.019816412, -0.059951726, 0.03373411, 0.058694694, 0.03439173, 0.007256281, 0.057002485, -0.02040359, -0.010984865, -0.029486522, -0.021963557, 0.03830056, -0.009388534, 0.01877557, 0.0106176855, 0.0047786953, -0.108550705, 0.021355048, 0.024225717, 0.037368376]</t>
+          <t>[-0.013484138, -0.005443854, 0.04546954, -0.005192212, 0.0872503, 0.013541437, 0.026414337, -0.07994182, 0.033391133, 0.029358845, -0.050583277, -0.092473485, -0.052041415, 0.003705955, 0.0016785341, 0.02113836, 0.029242193, 0.0023241083, 0.06768873, 0.0018894371, -0.014055221, -0.022636553, -0.07748397, 0.06644619, 0.03492395, -0.018515155, -0.005740339, -0.008038757, -0.034416668, -0.024000095, 0.005705871, -0.04731348, -0.017613284, -0.012866206, -0.02597696, 0.046705548, 0.015396208, 0.027747998, 0.019757405, -0.0025853806, -0.06083363, 0.066666454, 0.020636113, -0.023691894, -0.017935794, -0.020175334, 0.089992575, -0.006642296, -0.00045463067, -0.018265182, -0.017522957, 0.011616176, 0.037623595, -0.018319443, 0.06214756, -0.027946878, -0.0041493704, -0.018550731, -0.044095792, 0.0064499513, 0.04076597, -0.042656347, -0.06935612, 0.0027186307, -0.017098427, 0.042303387, -0.037739325, 0.02811073, 0.059676673, -0.058877334, 0.0048919185, 0.009894203, -0.008609225, 0.023469556, -0.07070647, -0.020522287, -0.019007348, -0.049863037, -0.02386824, -0.040586237, -0.09017299, -0.04625015, 0.05236734, -0.03226649, -0.007884283, 0.09050888, -0.039791793, 0.050987788, -0.013179749, 0.11390235, 0.0537664, 0.017126163, 0.101447254, -0.009646629, 0.050797973, 0.04539098, 0.08327226, 0.046524048, 0.057583608, 0.07005811, -0.014285825, -0.03211203, -0.09596365, 0.01485562, 0.043941896, 0.0010619941, 0.07829662, 0.0056393463, 0.02005877, 0.028428566, -0.063281186, -0.061306633, -0.027232287, 0.04399192, -0.013734309, 0.07961933, 0.042000882, 0.039957568, -0.0078018364, 0.03663034, 0.0037604966, -0.07833473, 0.01006772, 0.012501059, -0.056255493, 0.00066621986, -0.017092422, 0.02624467, -0.0068810782, -0.07517337, 0.013112453, 0.06309039, -0.013828224, 0.0007515519, -0.011276357, 0.007388827, -0.0012741399, 0.07396084, 0.0013982924, 0.059300054, -0.014914356, -0.024848271, 0.050812688, -0.038268913, -0.034046024, 0.03584291, -0.08362986, -0.045023106, -0.03845566, 0.056459755, 0.03146817, 0.02811148, 0.005292948, -0.058753394, -0.048294824, -0.07106973, -0.04812612, 0.05053252, -0.058189042, 0.0016854367, 0.029303815, -0.05160496, -0.007424263, 0.011536953, -0.029024981, 0.0472477, 0.045786694, 0.0012596634, -0.027391793, 0.038410515, -0.00892693, -0.014923107, 0.007308844, 0.071401335, 0.0089577, -0.031077802, -0.022799684, 0.00691118, 0.025925927, -0.0016267544, 0.051244095, -0.0132094445, 0.01519029, -0.035301752, -0.014495015, 0.033620093, -0.02007246, -0.055787615, -0.018714007, 0.00014267396, -0.047717176, 0.09966665, 0.060014732, -0.022322847, -0.030538987, -0.022943767, 0.05292608, 0.030226773, 0.06745765, -0.00042157105, -0.02180475, 0.03989104, 0.116152525, -0.019323643, 0.0767789, 0.0297115, -0.0021163966, 0.015887825, 0.036763627, 0.012994103, -0.08238531, -0.047710177, -0.013142202, 0.025621545, 0.047261477, 0.007848119, -0.025089536, -0.03136106, 0.050139427, 0.032514427, 0.015652072, 0.06898118, -0.061031055, 0.032713085, -0.04479029, -0.007981864, 0.023837939, 0.030303998, 0.006547359, 0.007959663, 0.025185531, -0.00426683, -0.051136546, -0.012375358, 0.061922837, -0.0245591, -0.015149621, 0.0627848, 0.054401748, 0.07640393, -0.030830594, -0.01982805, -0.045130495, -0.0031380937, 0.04214191, -0.08560832, 0.0016748948, -0.01636605, 0.00066148373, 0.013810442, -0.03709897, 0.042592824, 0.021234978, 0.05128552, 0.094650365, -0.0037482406, 0.028459782, 0.019848308, 0.025371041, -0.048924252, 0.006667818, 0.002289499, 0.025592187, 0.02883361, -0.003619135, 0.0106886085, -0.024894066, 0.06557688, -0.0030492519, -0.01902626, -0.024328168, -0.010052575, 0.069765076, 0.057052214, 0.06721445, 0.043404225, -0.0020830326, -0.092617534, 0.032725252, -0.05937171, -0.043784738, -0.060399074, 0.05805922, -0.0063976226, -0.0149041945, -0.010508564, 0.018106185, -0.012649531, -0.038369156, -0.12370808, 0.0512657, -0.07930888, 0.0301591, 0.057990007, -0.08656488, 0.06928515, -0.02170914, 0.06502038, 0.03785878, 0.02257837, -0.01771928, 0.009782679, -0.009099627, 0.03844184, 0.041304108, 0.065097705, -0.035334308, -0.061445925, 0.026981382, 0.04777026, -0.034872353, 0.047803394, -0.00054077356, 0.06982586, -0.022735016, 0.094354145, -0.037306417, 0.008535745, -0.031648688, 0.022690345, -0.012239378, 0.043804843, 0.012117932, -0.04036552, -0.029166525, 0.010604318, -0.08597135, -0.020546054, -0.021801328, 0.040967535, 0.04129858, -0.009724669, -0.050742242, 0.0015518579, 0.010180631, -0.073320866, -0.07958169, 0.008850109, 0.03072711, -0.022317246, -0.013280012, -0.022990037, 0.053063262, -0.02574724, -0.010675407, 0.028624116, 0.06293035, 0.10793071, -0.021310324, -0.03344379, -0.05129762, -0.028715035, 0.01913956, 0.023738509, -0.054071825, -0.005615653, 0.0050421786, -0.048325125, 0.056646176, -0.033767946, -0.0344944, 0.029219337, -0.026207367, 0.06785076, -0.05653964, 0.0010512378, -0.030735513, -0.03139662, -0.00027312443, 0.0016372151, 0.009793874, 0.03220757, 0.046953242, -0.006059087, 0.0613682, 0.0056022927, -0.026539883, 0.036603443, 0.05091263, 0.02653211, -0.004211585, 0.059663348, 0.002841574, -0.012031317, -0.06386076, -0.027566237, -0.16020355, 0.03704112, -0.076110065, -0.06837358, 0.009109756, 0.052663695, 0.03494674, -0.053191695, 0.009993982, 0.09882117, -0.034508567, -0.002463805, -5.7164987e-05, -0.021296082, 0.04004289, -0.08123067, 0.00019623246, 0.044907577, -0.06162268, 0.022903947, 0.013810308, -0.014131792, 0.011784294, -0.009941811, 0.003321915, -0.0018116354, 0.0032976463, 0.025724817, -0.008953518, 0.01170535, 0.010227332, -0.04369585, 0.0326109, -0.0018421819, -0.050841097, 0.012374573, 0.051280838, 0.028290706, -0.03018479, -0.006583497, -0.0198931, -0.07379537, 0.014555931, -0.03611473, 0.006429695, -0.009362847, -0.010258059, -0.08455233, -0.012728678, -0.017265044, 0.021202965, 0.005065084, 0.07293714, 0.032548126, 0.001836472, -0.045454957, 0.03022993, 0.077204466, 0.0335189, 0.01551889, 0.03954338, -0.036421236, -0.030403309, 0.017285796, -0.02881621, -0.009908985, 0.030541802, 0.06416488, -0.018532565, -0.052935146, -0.010702778, -0.09072309, 0.0036389825, -0.039976504, -0.017311785, 0.036956538, 0.054357447, -0.0041376255, 0.07233428, -0.056281567, -0.0640354, -0.015082385, 0.07650421, -0.0510418, -0.016749756, 0.05264076, 0.053774145, 0.04901812, -0.057667464, -0.04565445, -0.058121517, -0.034006298, 0.020130536, -0.037788738, -0.010705139, -0.00913082, 0.03194688, -0.006116379, -0.04932026, 0.041315407, -0.003312965, 0.015029945, -0.0131146815, -0.022095516, -0.051129293, 0.02702639, -0.07936099, -0.026101539, 0.020907871, 0.048317198, -0.008676441, 0.020564932, 0.010860858, 0.014809163, 0.030319562, 0.01848706, -0.03153556, -0.10305368, -0.0004667821, 0.019481631, 0.02067309, -0.06545919, -0.06338661, 0.033366725, -0.035009865, -0.034543272]</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1372,29 +1312,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>양근혁</t>
+          <t>정성민</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Multilayer perceptron neural network for predicting
-the extensional properties of fresh wheat noodles</t>
+          <t>Machine learning workflow for prediction and classification of food quality and materials in food processing</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Six different wheat cultivars were blended into 35 different combinations and their thermo dynamic/tensile properties were experimentally measured No individual thermo mechanical parameter exhibited a significant correlation with the tensile characteristics R max and extensibility) Subsets of statistically significant thermo mechanical parameters were selected and related with the tensile properties using multilayer perceptron neural network models While the GradientDescent algorithm resulted in poor accuracies, the Adam optimizer showed seemingly over fitted results In order to mitigate the overfitting and to enhance accuracy, different dropout rates and activation functions were tested This work showed the possibility of machine learning techniques for predicting the tensile properties of wheat noodles using the thermo mechanical variables of wheat flour</t>
+          <t>As a part of artificial intelligence, machine learning has been utilized to develop descriptive and generative models in various fields, including weather forecasting, disease prediction, and traffic analysis. However, its application in food science is still in its early stages. Therefore, this study presents two representative cases of machine learning application by developing models to predict oil uptake and classify sweeteners during food processing. In the first case, a multilayer perceptron neural network model was used to predict the oil uptake of rice flour in batter-coated fried foods based on its physicochemical features before frying. While the Pearson correlation coefficient between the oil uptake of rice frying batters and other physicochemical parameters was relatively low (R &lt; 0.62), four complex features (amylose content, peak time, peak temperature, and final viscosity) were identified as the most influential features. When the trained two machine learning models (multivariable linear regression and multilayer perceptron) were validated, the multilayer perceptron model outperformed the multivariable linear regression model by showing a higher R2 and lower RMSE. In the second case, several classification algorithms were utilized to classify sweeteners in four different sample types (powder, solution, dough, and cookie). The spectral graph revealed that the solution, dough, and cookie types of samples showed similar patterns, except for the powder sample, which showed higher performance even with default hyperparameters. However, other sample types showed relatively lower performance, with the solution sample showing the lowest classification performance (accuracy=0.46-0.79). After Bayesian hyperparameter tuning, the performance of the SGD classifier was greatly improved for the solution sample (accuracy 0.79 → 0.96), and improved performance was observed for the dough and cookie types of samples as well. This study provides useful information for industries or academia that apply machine learning to food processing. Furthermore, in the future, this technology could potentially be used for rapid and non-destructive quantification of specific components in food materials.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.005736748, -0.00881555, -0.028105093, -0.017298989, 0.05457938, 0.032181595, -0.08198805, 0.048607014, -0.05812079, 0.043026034, 0.015775803, -0.02844041, -0.00689837, -0.028407414, -0.07598411, 0.052681264, 0.022608662, 0.07934148, -0.04049564, -0.051616296, -0.049951185, 0.019012095, -0.02992504, 0.015558001, 0.10938922, 0.01433036, -0.013467253, 0.0009661291, -0.06281833, 0.0057809325, 0.049251817, -0.11949998, 0.025242988, -0.039761465, -0.042386204, 0.0020416656, 0.037395798, 0.019344803, 0.061031632, -0.10127125, -0.042697668, 0.0403944, -0.12993324, -0.06585538, -0.0500542, -0.008505387, 0.02860566, 0.043722857, -0.058218148, 0.028545804, -0.026161086, -0.054000225, -0.016464656, 0.080911174, 0.055818558, -0.05427395, -0.05085121, 0.03408568, -0.061794456, -0.03148219, -0.08910687, -0.019982649, -0.04073439, -0.0009981625, -0.06759235, -0.0040145414, -0.002500798, 0.004832107, 0.042321555, -0.05158548, -0.019414935, 0.0035501898, -0.065136306, 0.0041674427, -0.05846711, -0.020308675, -0.11412217, 0.06968826, -0.009984483, -0.08006915, -0.08127962, 0.021343822, 0.04837763, 0.016884806, -0.04561768, 0.07059444, -0.04131687, 0.053953707, 0.011414898, -0.05538688, -0.0012963072, -0.034019925, 0.115374446, 0.069744766, 0.015911032, 0.046721146, 0.03999686, 0.041765522, 0.0057719587, 0.016299365, -0.032232888, 0.019258555, -0.017845063, -0.006483405, 0.081444316, -0.07512799, 0.055965424, 0.0232272, 0.02144992, 0.012627483, -0.018417152, -0.031775113, 0.0015356727, -0.07090003, 0.030632654, -0.004565827, 0.02483819, 0.0386017, -0.010478843, 0.07816649, 0.048568495, -0.007161667, 0.039285015, 0.108122505, -0.055127684, -0.005025432, -0.013717131, 0.025275169, -0.045683555, 0.017466623, 0.04641083, 0.01409416, 0.05557799, -0.04356507, -0.0102637485, -0.020598833, -0.0526653, 0.05733464, -0.00591051, 0.01849341, 0.030572377, -0.017707083, 0.022185456, -0.05635615, 0.06099054, -0.08958973, -0.0617918, -0.031165488, -0.028261987, 0.02831929, 0.023310538, 0.021850267, -0.017990075, -0.027493376, 0.01042618, -0.07701482, -0.007945695, -0.049552117, -0.053059258, -0.040591177, -0.007551059, -0.042502064, -0.016655514, 0.021454776, 0.03081628, -0.054718923, 0.058376726, 0.041791324, 0.070506334, 0.043175243, 0.035741568, 0.00033533387, 0.0052528996, -0.03509432, 0.025072388, -0.018323265, 0.0032377793, -0.04760474, 0.051171336, -0.0083781285, 0.027993046, -0.101406604, 0.026524192, 0.023662442, -0.0006988511, 0.03661117, -0.040454805, -0.03908957, -0.016536161, 0.06447763, -0.036597975, 0.0033440606, 0.05551862, -0.017765984, 0.049504176, -0.01656936, 0.044792548, -0.002036159, 0.06857495, 0.12002475, 0.037788, -0.024890075, 0.054530345, -0.028401531, 0.03504258, 0.0018911236, -0.0020601032, 0.04904698, -0.049338754, 0.033074822, -0.0005998143, -0.020001283, -0.03582016, -0.02245613, 0.039461553, 0.00741834, 0.03202266, -0.03630451, -0.017479328, 0.02092274, 0.018764246, 0.020945318, 0.099133134, 0.061062247, -0.032777406, 0.047413826, 0.012556138, -0.010229107, -0.026212981, -0.011050752, 0.0028947184, -0.048587922, -0.058554057, 0.020931935, -0.021573419, -0.008257032, -0.032379773, 0.0027243744, 0.051708866, 0.010235983, 0.0018960165, 0.0750374, -0.00615934, 0.015259787, 0.010515246, -0.016303226, -0.029464478, -0.02974717, 0.026642824, -0.030868951, -0.043001015, 0.08694038, -0.0024923147, 0.0060093966, 0.05394073, 0.06620473, 0.043419972, -0.058779065, -0.06278271, -0.0011341458, 0.06753036, -0.030451305, -0.042951148, 0.022988213, -0.0015653888, 0.012033085, -0.008848576, 0.01424309, 0.026161533, 0.037094254, -0.021310717, 0.00393837, 0.024209702, -0.010682064, -0.030114677, -0.0040907837, -0.05357692, -0.11003068, 0.012431099, 0.0006492466, -0.041940473, -0.0030210896, -0.021004003, -0.068873785, 0.017578263, -0.06826407, -0.03914418, 0.024045233, -0.038431536, -0.02249606, 0.00010331394, -0.0113259135, 0.023193667, -0.0040016607, -0.02393976, 0.034472875, -0.006658439, 0.0391194, 0.0094770435, -0.04265326, 0.075215325, 0.011265424, 0.03181771, 0.06717165, -0.023612374, -0.057236094, -0.013771531, 0.016693795, -0.020870404, 0.0048873136, -0.033667516, -0.031202344, 0.038152352, 0.065675095, -0.040587913, 0.04416272, 0.025600202, -0.030080251, 0.051621117, -0.069017984, 0.0125677325, 0.055111375, -0.01954106, 0.0417402, -0.050799705, 0.03752265, -0.0028476657, -0.011177513, -0.044640385, 0.06681952, -0.054144606, -0.00886264, -0.014550158, 0.025779856, -0.029525116, -0.042678844, 0.03981598, 0.004244916, -0.011170349, 0.0034181315, -0.06669769, 0.032905567, 0.0296599, 0.037680488, 0.012740778, -0.021534406, 0.012594391, -0.05590652, -0.022783691, -0.008535166, -0.0016219472, 0.004863328, -0.02826586, -0.016892007, 0.013580368, -0.05458983, -0.006354447, -0.029880133, 0.013248405, -0.0071066464, -0.019307677, -0.03298528, 0.021408187, 0.024111364, -0.03906548, -0.06053476, -0.049301103, 0.043744415, -0.03719191, -0.01518999, 0.041675385, 0.04977916, -0.016024722, 0.021282803, 0.041882202, -0.0027367787, 0.01344742, -0.008726055, 0.038848683, 0.009917931, -0.0031963268, -0.027935749, -0.04259056, 0.0002887549, 0.023463795, 0.009485824, 0.0162876, 0.027837269, 0.005453111, -0.01665772, -0.004430421, 0.08236642, -0.03792653, 0.0022848828, 0.03567458, 0.073991045, -0.08157087, 0.011313511, 0.043497894, 0.042092327, 0.021103354, -0.051424026, -0.029924162, -0.029729642, 0.0005471743, -0.005090312, -0.03513149, 0.038041644, -0.06567719, -0.04453552, -0.032060545, 0.083671905, 0.05754786, 0.02696858, -0.019710831, 0.070841216, -0.0083406465, 0.048885044, 0.09319789, -0.07870174, -0.021659818, 0.057410862, -0.08167671, 0.03523893, -0.09542744, -0.02362774, -0.057044595, -0.051069386, 0.01392823, -0.0142180165, 0.06501021, -0.04824829, -0.030347688, -0.0707389, -0.0039487686, -0.007609409, -0.006671683, -0.0032197312, 0.055037357, 0.019284857, -0.006708775, -0.027395844, 0.011230917, -0.054059464, -0.026502466, -0.020009492, -0.007813204, -0.002270227, -0.006110188, -0.033414163, -0.011539699, -0.030476317, 0.0126824835, 0.038034588, -0.0061995955, 0.008534117, 0.02645741, -0.032893464, 0.005407008, 0.009913369, -0.009344505, -0.0039009734, 0.032206215, -0.037197065, -0.00066215784, -0.046834614, 0.04015105, 0.037735526, -0.050459318, 0.015500301, 0.08672936, -0.0012031678, 0.0039859884, 0.0022889432, 0.024819817, -0.025950423, 0.050384976, -0.020637779, 0.0047987406, -0.033751585, 0.011496528, -0.050556008, 0.11177893, 0.09247651, 0.01583051, 0.01591381, -0.002583016, -0.052587084, 0.008191227, -0.02671527, -0.120348506, -0.019940456, -0.014327152, -0.04833128, 0.00233666, 0.0728432, -0.06905329, -0.0009051099, -0.0226405, -0.052995574, 0.043204207, -0.042145345, -0.0010640357, 0.040978346, -0.018477116, 0.016307293, 0.0056643896, -0.03279955, -0.12477299, 0.0024738263, 0.028495964, -0.033069883]</t>
+          <t>[0.015908014, -0.06060579, 0.0025169544, -0.028093645, 0.0660006, 0.009863128, 0.024766624, 0.0058034314, 0.026539456, -0.0013886392, -0.056552198, -0.001627293, 0.028977208, -0.022146417, -0.068442576, 0.050137956, 0.038856696, 0.050758846, -0.02805242, -0.0062230825, -0.029566959, 0.049887244, -0.07033083, 0.014380482, 0.05824186, 0.09852452, 0.08455656, -0.02515114, -0.0291843, 0.020657547, 0.006785759, -0.009052123, 0.010575745, -0.026260648, -0.018773362, -0.011722243, 0.04649849, 0.018108578, 0.04764943, -0.0198019, -0.077347696, 0.05331707, -0.047794893, 0.0071891984, -0.0182804, -0.05239431, -0.0032228096, 0.042766865, -0.034213644, -0.03688749, 0.004900299, -0.039230593, 0.00037309385, 0.03556891, 0.021322029, -0.0024076407, -0.07960599, -0.012035321, 0.041284766, 0.04760648, -0.0853049, -0.059597082, -0.021133056, 0.008965306, 0.020577597, -0.0027578075, 0.037899427, 0.021475982, 0.017536793, 0.005035446, -0.0093747815, 0.007978408, 0.018232485, -0.014648003, -0.026581425, -0.04430473, 0.0033613294, 0.034147955, 0.04198671, 0.012829481, -0.06934088, -0.014788539, 0.05375814, -0.019886112, -0.048136868, 0.037825804, -0.020373236, -0.00090901996, -0.012705364, 0.01279822, 0.01834818, -0.00058255665, 0.1233553, 0.043397047, 0.07586638, 0.030437516, 0.034279525, 0.05063992, 0.050969593, 0.03316649, -0.0014333087, 0.06707121, 0.012465983, -0.018774975, 0.06590915, 0.021131562, 0.079963855, 0.013536802, 0.040230684, 0.03336317, -0.015330442, -0.07971617, -0.025811337, 0.029769132, 0.014168776, -0.003404766, 0.055130914, -0.009006036, -0.0012039574, -0.0032163635, 0.051261682, 0.031478204, -0.02228431, 0.05157946, 0.016428668, -0.06659764, -0.041031886, 0.027134443, -0.018796973, -0.03828096, 0.04785789, 0.08252249, -0.03849037, -0.026440559, -0.029462773, 0.0154894525, -0.087405615, 0.03495086, 0.05003075, 0.055728517, 0.025644466, -0.041661553, 0.03431968, -0.04105578, 0.0015198593, -0.053768076, -0.0005171962, -0.042842273, -0.00014439272, -0.004173832, -0.0016137349, 0.028547287, 0.024390083, -0.036512155, -0.0723152, -0.06516659, -0.05053424, 0.029199675, -0.08692571, -0.00535063, 0.06626669, -0.019560374, -0.040185604, 0.02159806, 0.025487294, -0.0017395582, 0.047246214, 0.023391195, 0.012273644, 0.03918294, 0.041281056, -0.000120833516, 0.037544463, 0.065758005, 0.011832963, -0.04852022, -0.03192973, -0.072082356, 0.058314282, 0.04705958, -0.019200953, -0.05392582, 0.0239782, 0.03729961, -0.007512394, -0.038228467, -0.03454838, 0.0045082197, -0.02153403, 0.014737079, -0.101077974, -0.01298108, 0.010723005, 0.030462857, 0.003501156, 0.012941106, 0.061207008, 0.0090190545, 0.039088134, 0.047399014, 0.033868987, -0.035519302, 0.048327476, -0.033067554, 0.075792775, 0.039704256, -0.061634928, -0.00081390823, -0.036428675, 0.024156742, 0.017821841, -0.004160338, 0.03341597, -0.0012371595, 0.023314662, -0.02062844, 0.09385428, 0.0031645356, 0.04915269, 0.03420717, -0.0049767597, 0.013615636, 0.037845504, 0.09054498, -0.02904054, -0.0035109099, 0.04960132, 0.050686672, 0.0067297746, -0.030719895, -0.0482117, -0.08058544, 0.04803766, -0.049572352, 0.0431954, 0.03662849, -0.04869823, 0.018284779, 0.002550806, 0.08034971, 0.008888678, 0.0148458, -0.011580486, 0.07850258, 0.004341492, -0.0024821688, 0.009245718, -0.057024285, -0.0055461214, -0.022672765, -0.09442397, -0.016502053, -0.0007105841, -0.054597836, -0.0010450521, -0.01779727, 0.061376397, 0.007887781, 0.0137181105, -0.039184026, 0.047113862, 0.0024893782, 0.05143845, -0.019107627, -0.024688296, 0.0036683667, 0.02895605, -0.003844673, 0.0009862949, -0.012330362, 0.017659003, -0.02068458, 0.053358674, -0.01631307, -0.065333545, 0.05888993, 0.009956082, 0.014229182, 0.06880804, 0.007622923, -0.0120602315, -0.045873277, 0.03004625, -0.052902494, -0.021946248, -0.039112743, -0.032388143, -0.015695482, 0.00093284616, -0.031765938, 0.007930237, -0.0620016, 0.10095372, 0.020985793, -0.013631575, 0.05384688, -0.013410383, -0.016188942, 0.027467653, -0.0118564665, 0.03787404, -0.0013468644, -0.034268416, 0.04333903, 0.0013165303, 0.005205804, -0.021942103, -0.023878247, 0.0026987502, -0.0022968932, -0.021212397, -0.060233258, -0.008786568, 0.06884368, -0.053342216, 0.074038915, 0.06669929, -0.0066763707, 0.015431404, -0.061129496, -0.019423096, 0.021845719, 0.010956729, -0.007700952, -0.028793044, 0.010884643, -0.05061065, -0.011048131, -0.04323921, 0.04930732, -0.051815048, 0.013205162, -0.057138715, -0.02857077, -0.03706462, 0.021013284, -0.011196753, -0.016117655, 0.008724842, -0.015278567, -0.07174596, 0.042972345, 0.05749642, -0.018097898, 0.004352337, 0.047583446, 0.027380459, 0.0025567622, -0.029764123, 0.042864997, -0.011118583, 0.017334128, -0.014403932, -0.022967082, -0.025447592, -0.029538644, 0.008028724, -0.04056794, 0.032427, -0.041786417, 0.025948195, -0.0037062697, -0.03810561, 0.021256642, -0.008560726, -0.09126458, -0.054987818, -0.07127593, 0.044858456, -0.018766647, 0.061718665, -0.004231571, -0.028728725, 0.009656971, -0.03801133, -0.047487788, -0.0136475945, 0.07308967, 0.04591835, 0.023298362, 0.046309434, 0.0225725, -0.002057633, -0.024958761, 0.020291477, -0.016580012, -0.08297468, 0.054268803, -0.060344864, -0.06745409, -0.004721563, 0.07930369, 0.03329637, 0.05750394, 0.0058881044, -0.048856433, -0.07653629, 0.0152709065, 0.022545874, 0.010078035, 0.025961662, -0.032221187, 0.0031572122, -0.04030999, -0.081347674, -0.0024609526, 0.08078309, -0.009467633, -0.082316495, -0.06128398, -0.028774504, 0.057669923, 0.047497258, 0.10822503, 0.010827998, 0.004445232, -0.01686872, -0.06688902, 0.013880524, -0.026906267, -0.05804146, -0.034154244, -0.0011341483, 0.022880657, -0.0065608295, -0.035472717, 0.015645754, -0.068186305, 0.024286345, -0.062116876, 0.058007747, -0.05260207, 0.02684897, -0.029647656, -0.10116614, 0.0426143, 0.06055719, 0.023497483, 0.0116442945, 0.036664076, 0.05146104, -0.06203422, -0.07277852, 0.03308889, -0.0067590615, -0.014331081, 0.040152833, 0.02904785, 0.010559608, -0.017284606, -0.07885726, -0.03237332, 0.0355937, 0.04759386, -0.0651317, -0.0015603831, -0.025281178, -0.0005185017, -0.041511096, -0.024112314, 0.012295078, -0.043229476, 0.090965405, 0.023393271, -0.10118512, -0.07856197, -0.0021748727, 0.01015664, -0.0039009152, -0.024730835, 0.018051505, 0.07315438, -0.058878258, 0.01640043, 0.00710997, -0.018425547, -0.062404472, -0.012933683, 0.04605134, 0.0027094695, -0.027923495, 0.0062404107, 0.045548983, 0.023308199, 0.019751905, -0.005480533, 0.05059044, 0.04320164, -0.03528362, 0.0154687455, -0.1112004, 0.07194852, -0.027571164, 0.016962778, -6.965513e-05, 0.03491833, -0.03845675, 0.003654738, 0.0026045046, -0.04448882, -0.013148137, -0.0471729, -0.0049914843, 0.012498152, 0.021711366, 0.0077805053, -0.01046185, -0.059635755, -0.15288258, 0.047954448, -0.006610151, 0.008992001]</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1412,30 +1351,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>김민효</t>
+          <t>이승훈</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Solid fat replacement with binary
-gelator blended oleogels
-for filling creams low in saturated fat</t>
+          <t>Textural and rheological characterization of protein-enriched mousse meals for the elderly</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Canola oil oleogels structured with the binary blends of glycerol monostearate ( and candelilla wax ( at various mass ratio were utilized as a shortening replacer to prepare filling creams The canola oil oleogels at the blending ratio of 60 ( and 40 ( showed the lowest melting temperature and highest hardness, indicating a eutectic behavior The use of CDW 60 GMS 40 oleogels as a shortening replacer produced filling creams with comparable textural properties to the shortening filling creams These textural properties could contribute to lowering the oil separation of the corresponding filling creams Furthermore, the shortening replacement with oleogels distinctly reduced the level of saturated fatty acid from 36 2 to 10 3 The Micro CT tomographical analysis exhibited that the filling creams had a better air cell structure as the ratio of GMS in oleogel increased, and the morphological properties showed a linear correlation with fatty acid composition and specific gravity of the oleogels This study elucidated that the binary blended oleogelators could be used to produce nutritionally superior filling creams by replacing shortening rather than single gelator</t>
+          <t xml:space="preserve">As the number of persons aged 60 and older is rapidly increasing, older people with difficulties in chewing and swallowing likely prefer meals with a modified texture. The purposes of this study were thus to prepare protein-enriched foods with fava bean protein concentrate for the elderly with dysphagia, and also to characterize their textural and rheological features. When mousse meals were prepared with three levels of fava bean protein concentrate up to 15% (w/w) for protein fortification, their textural and viscoelastic properties were not significantly affected by fava bean protein concentrate. In terms of universal design food (UDF) steps, high protein mousse meals with different UDF steps could be successfully prepared by controlling the level of gelling agents, while the products made with a commercial gelling agent belonged to the UDF step 2. The results obtained from this study could provide possible opportunities for the food industry to develop high protein mouses meals with modified textural properties for the elderly </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.012082993, 0.036260348, 0.0031889877, 0.0005663358, 0.046598706, 0.0025601904, -0.053145863, -0.0798253, -0.06494632, 0.06843269, -0.023026075, -0.009715861, -0.0010535145, 0.0058052293, -0.013991962, 0.05801549, -0.007602954, 0.092943475, 0.059345443, 0.030386291, -0.03404504, 0.02338481, -0.07694116, 0.050166428, 0.024396447, -0.060432687, 0.030253038, -0.028136192, -0.021616, -3.835652e-05, 0.037424024, -0.0009882544, -0.008997906, -0.010102411, 0.013346977, -0.03720636, 0.03718908, 0.0049313195, -0.053734843, 0.012560028, -0.05629554, 0.053288, 0.088384725, 0.0015433157, -0.121982165, -0.074598454, 0.04218765, 0.065788515, -0.025555247, 0.03389751, -0.029194726, -0.07309938, 0.018745216, 0.01640311, 0.04338536, -0.013021903, -0.051862348, -0.109219134, 0.028220564, -0.022072153, -0.0450472, 0.01993684, -0.024086319, 0.0607567, 0.04898729, 0.034249894, -0.014500274, 0.061738435, 0.07540626, -0.045303315, -0.064237505, 0.030873338, -0.009403365, 0.0029501964, -0.08072066, -0.04762755, 0.000732381, 0.011718268, 0.08216236, -0.059014883, -0.038776055, -0.040860094, 0.02658059, -0.010240772, -0.013492925, 0.06546921, 0.06263993, 0.05693567, 0.025175812, 0.038309023, -0.010778559, 0.0066475873, 0.114773184, 0.057878666, 0.02175249, 0.003650494, 0.038825605, 0.052731026, -0.0047786324, 0.047489025, -0.007031231, 0.022371618, -0.004922707, 0.003983357, 0.06098468, -0.10114667, 0.022199916, 0.041539237, 0.059170295, 0.03884341, 0.028186677, -0.040403288, 0.039323963, -0.011288664, 0.0012159379, 0.055477764, -0.04404723, -0.0043326006, 0.024753267, 0.0057785567, 0.061862826, -0.034059566, 0.05108415, -0.02232001, 0.044339392, -0.005275685, 0.0276281, 0.040979177, 0.010736612, -0.054793335, 0.0011080722, 0.042128686, -0.015618593, -0.09223138, -0.011303411, -0.070612155, 0.015080793, 0.035063818, 0.06530705, 0.06781174, 0.006747094, 0.033560567, -0.022590067, -0.020306973, 0.02715103, 0.017415112, -0.000702839, 0.002007808, -0.040566918, 0.010420925, -0.08021008, 0.013308865, -0.112699434, 0.018338662, 0.01856729, -0.04801495, 0.024343114, -0.046170335, -0.017956387, -0.047699712, 0.005187352, 0.0679206, 0.016882306, -0.02675159, 0.013137467, 0.010061578, 0.019938197, -0.005941592, -0.03819765, 0.03951763, -0.03600893, -0.026438758, 0.015601755, -0.001017728, -0.03403549, -0.013558595, -0.033656158, -0.060862653, 0.0034496132, -0.00049306423, 0.0047883997, -0.00068000855, 0.013839133, 0.01814392, -0.0005088199, 0.019259466, 0.06098906, -0.026449295, 0.009976896, -0.048210878, -0.0023372665, -0.014825433, 0.041931685, -0.0035846983, 0.03589863, 0.015613421, 0.048280474, -0.0787655, -0.038881287, -0.011513874, 0.005932921, 0.032148637, 0.009321074, -0.026575126, 0.017466435, -0.023074705, -0.0042158463, -0.020109577, -0.0056723366, 0.055063453, -0.039513465, 0.07428502, -0.05938566, -0.04140581, 0.024772873, 0.041129697, 0.0046869596, -0.0461564, -0.012316191, 0.015665531, -0.08714534, -0.02340122, -0.066674896, 0.0050184415, -0.0011498595, -0.020612285, -0.015390337, 0.04309315, -0.09546142, 0.032055672, 0.02306715, -0.05861594, -0.04505261, 0.034801785, -0.0054190396, 0.025688501, -0.015978396, -0.0069804946, 0.02048737, 0.08020214, -0.050217677, 0.072866574, -0.01868684, -0.007656698, 0.007184692, 0.008807917, 0.025133325, -0.000528856, -0.026232518, -0.065274335, -0.06506245, 0.05860891, 0.0008935963, 0.051892504, 0.0129363835, 0.048485346, -0.035881836, 0.054311424, -0.042852204, -0.0042511444, -0.078350514, 0.0014350957, 0.025918791, -0.016395273, -0.024248071, -0.08946458, 0.0058569163, 0.03720726, 0.031449202, 0.039683517, -0.03506778, 0.008194125, 0.06652389, 0.00094426115, -0.07681561, -0.04192323, 0.00286998, -0.011993629, -0.008959807, 0.015382193, -0.06700026, 0.011971688, -0.018600393, 0.043375354, 0.04653099, -0.0011959843, -0.14133766, -0.00665563, 0.04779603, 0.02453077, -0.0490819, -0.02028149, 0.020832352, -0.06916349, -0.06564892, 0.020492356, 0.024832146, -0.017400598, 0.02754842, -0.017726352, -0.035412595, -0.023764687, 0.070506975, 0.0025801747, 0.008395587, -0.0056605954, 0.019785538, -0.0021741672, -0.028718224, -0.0035047955, -0.027395686, -0.021728968, 0.07130271, 0.05962744, -0.007400926, 0.036120266, 0.043406196, 0.005339947, 0.031454727, -0.015335486, -0.0216323, -0.017304745, -0.030446835, -0.013456472, 0.012541946, -0.023869686, -0.054021895, -0.008367678, -0.056625754, 0.027975913, 0.007584718, -0.008862869, 0.046528254, 0.00040718328, -0.029897517, -0.021044273, 0.057252895, 0.047660597, 0.0047391243, -0.0404718, -0.058494408, 0.0031441932, 0.063438594, 0.0074391305, -0.040355433, 0.030495215, 0.0073676165, 0.022180978, -0.0146800075, -0.017890543, -0.0023402525, -0.004995499, -0.055463463, 0.052110437, 0.03019536, -0.0769023, 0.013498719, 0.08866428, 0.0012370335, -0.026877614, 0.039628223, 0.083090805, 0.0004028723, -0.037868757, 0.043133456, 0.036604084, -0.0065482594, -0.04047261, 0.026032433, -0.06591608, 0.029924016, 0.047906302, 0.03411965, -0.014251954, -0.009368062, -0.018310944, -0.07738677, 0.044217583, 0.02598833, -0.011873391, 0.0017131872, -0.0024013435, 0.023168422, -0.09577137, 0.014727389, -0.014231351, -0.035330366, 0.07031723, 0.07048495, -0.032648273, -0.0065806676, 0.038211145, 0.09546545, 0.022532094, 0.034955017, 0.10076206, -0.033993665, 0.08622445, -0.05372357, -0.039048348, 0.0037212376, -0.05409954, -0.011006833, -0.036120433, 0.0040424676, -0.057955887, 0.046399735, 0.037377317, 0.0024078744, -0.02898031, 0.057024013, -0.030494548, -0.0036381742, 0.05245904, 0.041749243, 0.016460394, -0.040030047, -0.019762691, 0.01632793, -0.0350629, -0.07444276, 0.0028172717, -0.020616189, 0.026349168, 0.053991284, 0.038682487, -0.06579916, -0.06191357, -0.0039881095, -0.026137134, 0.02582022, -0.013269773, -0.018291613, 0.042373743, 0.015695307, -0.04733561, -0.030356096, 0.018812241, -0.015461623, -0.037018824, 0.010781338, -0.018539252, 0.010310048, -0.049600925, -0.001146235, -0.022707146, -0.02648657, 0.024625061, -0.08274601, 0.0051776487, 0.0736898, 0.047110204, 0.028481022, 0.013611909, 0.035679676, -0.025527548, -0.06042233, 0.048147812, -0.025891349, -0.038462, 0.023103798, -0.030287283, 0.005669635, 0.03761112, 0.0028466256, -0.02293366, 0.017608518, 0.02786517, 0.027044756, -0.0046502617, -0.0514384, -0.02116536, 0.0044230362, -0.02618704, 0.0059223766, -0.01806752, -0.06407185, -0.069891155, -0.094748236, -0.026680887, -0.020424627, -0.050386187, 0.086098075, -0.0052613197, -0.06711559, 0.005512179, 0.008263721, 0.02611787, -0.04562233, -0.03305837, -0.003604055, -0.046536166, 0.015985725, -0.016384458, 0.037591748, 0.04087922, -0.04613913, -0.014705877, -0.047722068, -0.016713813, 0.061519176, 0.02022995, -0.016757254, 0.03800138, -0.0025372354, -0.014502246, -0.009691947, -0.0035080747, -0.05998785, 0.03384329, -0.06527853, 0.00594166]</t>
+          <t>[-0.0071752667, 0.032668512, -0.017633406, 0.020784752, 0.09879436, 0.09226019, -0.07870778, -0.032063365, -0.0026984937, -0.007831167, -0.027898164, -0.09555947, -0.061554275, 0.042817615, -0.015313875, 0.011798721, 0.024559839, 0.028882138, 0.023886625, 0.017254366, 0.0072961627, 0.010178487, -0.0750204, 0.012157651, -0.021521032, 0.035737228, 0.008843211, -0.048964806, 0.020623956, -0.008872794, 0.032200124, -0.04855958, 0.027842816, 0.023919038, 0.031646132, -0.031140853, 0.03688703, -0.008018171, -0.02677605, -0.056025725, -0.04703105, 0.0006889239, 0.031207912, -0.010413577, 0.026545817, -0.076585636, 0.021751706, -0.0028829637, -0.046578184, 0.0052255196, -0.005313529, -0.01422243, 0.0005418751, 0.04254119, 0.017146748, -0.03062748, -0.03614073, -0.07335337, 0.025735414, 0.00088806567, -0.046069674, -0.027248234, -0.021079978, 0.017344061, 0.017897382, 0.017256534, -0.10889501, -0.009621998, -0.047373846, 0.014990088, -0.014267616, -0.023159273, 0.019548144, -0.060828794, -0.098385304, -0.03455908, 0.00542006, -0.013505609, 0.013820836, -0.00038944415, 0.041863963, -0.043560043, 0.014996336, -0.006108092, -0.022122592, 0.024520848, -0.026153915, 0.054780774, -0.036509532, 0.010187646, 0.020791324, 0.004021482, 0.14984833, 0.009370008, -0.0036661553, 0.015226319, 0.10180831, 0.08953072, 0.079766236, 0.017339071, -0.04140698, 0.10811539, -0.03152572, -0.014038624, 0.05846763, 0.049783785, 0.0613568, -0.015231953, -0.021413442, 0.048406553, -0.014690328, -0.05058167, 0.026646014, -0.07006216, -0.053379722, 0.1300063, 0.0068682088, 0.0069643403, -0.016779894, 0.06145346, 0.020363864, 0.041268956, 0.010944405, 0.0603498, -0.028048836, 0.03484593, 0.030809578, 0.020328468, 0.060282066, 0.028379211, 0.039435156, 0.08392905, -0.0073411013, 0.048977114, 0.0051815906, -0.035329767, 0.011310295, -0.013419165, 0.029549632, -0.04098593, -0.0073076994, -0.05135836, -0.014961445, -0.0867053, 0.003976544, -0.0009272573, -0.023055939, -0.00949897, -0.07471637, 0.019347478, 0.01941259, 0.057566814, 0.014277099, 0.016785907, -0.061106075, -0.024780417, -0.0050698817, 0.03902902, -0.022009818, -0.002157724, -0.009912657, -0.007811149, -0.07288667, 0.049854107, -0.0006575041, -0.012062968, 0.018659735, 0.0348864, -0.027749129, -0.0317351, -0.006358917, 0.012919553, -0.0018630765, -0.008103967, 0.012424906, -0.03711627, -0.0009042817, -0.0065455665, 0.09830718, -0.04290274, 0.009567952, -0.058047317, 0.010638742, 0.033334747, 0.00034726225, -0.031164346, 0.09899722, 0.03493875, 0.08274082, 0.021819316, -0.0049244007, 0.017666271, 0.03452637, -0.03827249, -0.0758081, 0.06647761, 0.049837034, 0.02240644, -0.0060473476, 0.051499117, -0.02002956, 0.050069846, -0.009835912, -0.016849408, -0.01274956, -0.024957286, -0.05851027, -0.012149804, 0.05099733, 0.012577284, 0.017500449, 0.036879174, 0.030064221, 0.025038442, 0.002234501, -0.034769822, -0.021313554, -0.05800815, -0.08251961, -0.012772603, 0.027949952, 0.032410704, -0.09477115, 0.03092192, -0.03347656, -0.0046878597, 0.0052517112, -0.0733195, -0.020058155, 0.069555946, 0.04925655, -0.036027666, -0.00021643005, -0.049958322, 0.0035386363, 0.022208283, 0.032806214, 0.027067678, -0.026170878, 0.04356611, -0.052117206, -0.02171617, 0.056109484, 0.041904762, 0.019530745, 0.054757707, -0.026282098, -0.070745625, -0.030308157, -0.028150126, -0.07184137, 0.012789709, -0.061272968, -0.024292184, -0.009215272, -0.033055436, -0.03581249, -0.012052757, -0.008985476, -0.005634457, -0.003469462, 0.046307925, -0.006884193, -0.050986025, -0.043360926, -0.021009795, -0.0061389045, 0.0124199195, 0.03244203, -0.03895228, -0.012311288, 0.10201095, 0.058704853, 0.053246133, -0.08422798, -0.041490875, -0.065652184, -0.08185211, -0.028834026, -0.04159965, -0.049117807, 0.020284744, 0.037615776, -0.028827844, -0.06967531, 0.006186746, -0.064085, -0.008633205, -0.02936312, -0.1074976, -0.018031007, 0.02427535, 0.0708668, -0.0172214, -0.07972519, 0.049293134, 0.035687033, -0.01732463, 0.011954168, -0.0178952, -0.018434484, -0.0588161, -0.028797403, 0.044411108, 0.010861584, -0.009540033, 0.057809528, 0.0053443615, -0.026120063, 0.026843565, 0.0005573058, -0.042027045, 0.020754993, 0.052428402, -0.0502309, 0.027558913, 0.047182206, -0.03389887, -0.011332785, 0.01296799, 0.0013730448, -0.014041645, 0.036019184, -0.048043083, 0.04573688, 0.077834785, -0.031878605, 0.067027785, -0.015723625, 0.0233562, -0.019137075, -0.021507429, 0.027328439, -0.006811148, -0.07421583, 0.033970326, 0.049658112, 0.053970285, 0.012223907, -0.02913896, -0.03584056, -0.08299705, 0.06773752, 0.054861963, -0.106361665, 0.042288855, 0.061817784, 0.09325844, -0.025014773, -0.04043662, 0.021848489, 0.0033060862, 0.009152266, -0.032194518, 0.047417503, 0.013116596, -0.036632612, -0.00047384438, -0.06511414, 0.0079791155, 0.023825582, 0.041598976, 0.024384154, -0.038608722, 0.026108712, -0.059761196, 7.507764e-05, -0.038307924, -0.0062642344, -0.09102799, 0.04004639, 0.026847467, -0.034738105, 0.059847847, -0.017137658, 0.012381481, 0.04642243, 0.033840686, 0.031750552, 0.054089773, 0.0076834694, -0.02138835, 0.003576501, -0.054612167, -0.04838606, -0.03419905, -0.08208251, 0.029935429, 0.031513453, -0.024487311, 0.026730968, 0.05952334, 0.06224451, -0.035380058, -0.0141867325, 0.062231727, -0.048587274, 0.011933364, 0.05138877, -0.015681751, -0.012532239, 0.05271233, -0.069808714, -0.02181729, 0.08234924, 0.047461122, -0.038061522, -0.008816711, -0.01941077, -0.038205683, 0.021322643, -0.021195494, 0.032505568, 0.01864999, 0.012728, -0.029638832, -0.010397039, 0.04049379, 0.024877844, -0.05596537, -0.050395135, 0.0562032, -0.014719139, 0.06347392, -0.013001206, -0.022931304, 0.053455934, -0.06089696, -0.02528329, -0.05559733, 0.027581248, -0.011535016, 0.040267143, -0.09292396, 0.018816236, 0.03210749, -0.04015992, -0.010652705, -0.014014269, -0.00053339166, -0.01859085, -0.017225439, -0.0014660325, -0.035801344, 0.0614779, -0.035022695, -0.0070373868, -0.022199636, -0.04926667, -0.011552844, 0.018472873, 0.016571846, 0.020825358, 0.03201219, 0.0053007165, -0.04281127, 0.011764163, -0.04852981, 0.062474936, -0.042345755, -0.019720456, 0.0013279743, 0.038757455, 0.059572045, 0.020433169, -0.01767391, -0.029292546, -0.008562534, 0.06956762, 0.02275633, 0.0019579069, -0.01576327, 0.07088033, -0.04527944, -0.02042598, -0.008659948, 0.041051812, 0.020214392, 0.009864842, -0.027249603, -0.008773564, 0.008798595, 0.08939704, 0.0061869416, -0.0012675119, 0.05764586, 0.03274818, -0.06183478, 0.008014082, -0.054686006, -0.054324783, 0.056115028, 0.028328564, 0.014978241, 0.076585315, 0.029040543, -0.033546187, -0.066573344, -0.020027295, 0.026064048, 0.05213382, -0.122263044, -0.03989756, 0.01506322, -0.055353206, -0.003916137, -0.0063032745, 0.008686549, -0.11222709, 0.027766401, 0.035358414, 0.022038555]</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1381,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1453,29 +1390,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>문경원</t>
+          <t>윤수인</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Structuring liquid oil into oleogelfor dairy-free imitation
-cheese low in saturated fat</t>
+          <t>Utilization of artificial intelligence for predicting the rheological effects of hydrocolloids in meat analogues</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Imitation cheeses made from vegetable ingredient shave received increasing attention for vegetarian sand the people with lactose in tolerance. However, palmoil has been commonly used as alipid component to make imitation cheeses, probably generating health concerns derived from high saturated fat content. In this study, carnaubawax was applied to canola oil with various concentrations to prepare oleogels that were utilized as an alternative to palmoil in imitation cheeses. The processing performance of oleogels in imitation cheeses was characterized in terms of physico chemical properties. Compared to the control with palmoil, harder and more chewy textures were observed in the oleogel cheeses, and the viscoelasticity tended toin crease with increasing levels of oleogelator. Also,time-domain NMR analysis demonstrated that two groups with different proton mobility were clearly observed in cheeses. The saturated fatty acid content in the cheese was significantly reduced from 45.70% to 5.20%. The results of this study confirmed that the application of oleogels for palmoil could improve the health functional properties of imitation cheeses without significant quality loss.</t>
+          <t>Methylcellulose has been extensively used as a binding agent in meat analogues. Although a great deal of effort has been made to compensate for the binding role of methylcellulose, there are no suitable approaches to efficiently search for alternatives to methylcellulose. Therefore, in this study, the steady-shear viscosities of six hydrocolloid solutions (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) were experimentally measured using a rheometer, and subjected to artificial intelligence (AI) analysis. Furthermore, using the established AI model, the rheological results were predicted and compared with the texture properties of meat analogue samples prepared with six hydrocolloids. The textural parameters showed similar patterns with the AI-predicted viscosity. Thus this study suggests the possibility of AI application as a useful tool to predict the processing performance of alternative food products.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.028385142, 0.081712745, 0.03372001, 0.009977267, 0.10367216, -0.05400937, -0.03930872, -0.028093688, 0.021879658, 0.048348848, -0.0576529, -0.02344055, -0.010491537, 0.03374268, -0.020052643, 0.069113664, -0.035178088, 0.06466627, 0.022252752, 0.059214517, 0.0133169275, -0.030590912, -0.064998195, 0.054762427, -0.02412503, 0.0099677555, -0.033929214, 0.093098156, -0.055676363, 0.045404945, 0.054150797, 0.002721599, -0.021623721, 0.05154566, 0.092282884, -0.02537256, -0.05059398, 0.014311362, 0.040223114, -0.0009023214, 0.0026820742, 0.015912933, 0.0509469, 0.032291833, 0.06630266, -0.0641869, 0.024316795, -0.006521313, -0.009558714, -0.0054340176, -0.020268505, -0.008042614, -0.0059538335, 0.051050883, 0.040524047, -0.007589606, -0.01863315, -0.05479972, 0.01068472, -0.02930277, -0.080713466, -0.093627185, -0.048976857, 0.015754912, -0.030274585, -0.01274336, -0.012584101, 0.048970785, 0.013454022, -0.07317705, -0.017614132, 0.06170416, 0.032706965, 0.009682794, -0.10722321, -0.0098146405, 0.0009652634, 0.012958361, -0.048658557, 0.004312101, -0.0221311, -0.0518197, 0.066633865, -0.03257851, 0.0467745, 0.008657412, -0.033605978, -0.028949916, 0.04133578, 0.022927048, 0.035492193, 0.023685344, 0.083842486, 0.010522031, 0.021239078, 0.030875428, 0.080760375, 0.018884001, 0.04843894, -0.037523244, -0.026393805, 0.080207415, -0.033936445, 0.048693094, 0.017126216, -0.034381066, 0.012020528, -0.029657928, 0.037362885, 0.019614479, -0.009586773, -0.05624357, 0.030638013, 0.037157472, -0.009133791, 0.028081989, 0.037262946, 0.08199524, 0.021769604, -0.025742121, -0.014975302, -0.06120907, -0.0123315705, 0.0066737975, 0.032267507, -0.024389721, 0.019993505, 0.028280228, 0.01155322, -0.005624218, 0.0007908068, 0.08591948, -0.026734324, -0.031804115, -0.00015010865, -0.037087467, -0.019859929, 0.030510515, -0.002381497, 0.012376398, -0.006235241, 0.014833313, 0.03300373, -0.024191428, 0.0013135485, 0.0369032, 0.03554448, -0.008185593, -0.02082386, 0.057036646, 0.032074936, -0.037747964, -0.05028546, -0.010073795, -0.00719303, -0.100846395, -0.07554248, -0.029233435, -0.024801305, -0.0142901875, -0.021233812, -0.03349041, 0.023163248, -0.001661035, 0.009766597, 0.0040697125, 0.057108022, 0.010684087, 0.024255967, 0.0029342142, -0.0101511525, 0.0015552981, 0.017044684, -0.0031432533, -0.0043673143, -0.045491707, -0.042293876, 0.00026463126, 0.012650482, -0.03564895, -0.03375808, -0.016994145, -0.005342932, 0.10432764, -0.014016494, 0.02285422, -0.009362682, -0.004091511, 0.024400974, -0.018583259, -0.05609143, -0.008191141, 0.02460145, 0.0317283, -0.004585198, -0.05009153, 0.008232642, 0.026059113, 0.0027784498, -0.059738874, -0.060796317, 0.03612245, 0.05841492, 0.006020311, 0.044064123, -0.024880942, -0.0043521295, 0.002430261, 0.02971877, 0.033467695, -0.026373513, -0.045270152, 0.04029144, 0.071488015, 0.08522053, -0.052283756, 0.00958854, -0.030276528, -0.03630796, -0.029446114, -0.014261605, -0.02016619, -0.030815054, -0.04208843, -0.029899266, -0.002972171, 0.019900259, -0.088543676, -0.070683114, 0.021535998, 0.014292697, -0.06562239, 0.023394076, 0.02307537, -0.0046424563, -0.048410106, 0.010211105, 0.057436198, -0.0085976245, 0.12490359, 0.026853306, 0.010214399, 0.00032583007, -0.017136864, -0.0068585738, -0.030195326, 0.00490744, 0.017258113, -0.012863948, -0.038993273, -0.059434105, -0.021929447, 0.082854554, -0.033201236, 0.010380235, -0.008142268, 0.029486991, 0.014486587, -0.033748668, 0.023400787, 0.008460555, 0.020075923, 0.03590648, -0.060801215, 0.015554518, -0.102225475, 0.020441651, -0.0005525867, 0.026440674, 0.056204457, -0.06334621, 0.015702846, 0.048753902, 0.01594854, -0.01255505, -0.037680317, -0.0035193455, 0.041621637, -0.0003249047, -0.031382613, -0.073592685, -0.042559657, 0.08301663, -0.059253372, 0.046405245, -0.021653565, -0.09645818, -0.01918291, 0.032916658, -0.026170572, -0.026773127, 0.020891383, 0.0028679795, -0.01704499, -0.044776134, 0.057834167, 0.03379362, 0.034105405, 0.00040007287, -0.0039436975, 0.04010288, 0.043360434, -0.027711872, 0.070291884, -0.0076744305, 0.062948614, 0.055838756, -0.06617709, -0.018040625, -0.023714976, -0.023811808, -0.040074147, 0.06533345, 0.049367595, -0.08243249, -0.02239334, 0.06266948, 0.044010773, -0.017585972, 0.05402339, -0.04390425, 0.031433076, -0.03652167, -0.03339628, -0.0047680866, 0.02792637, -0.057725333, -0.016371544, -0.031938817, 0.05791205, 0.014534337, -0.016082877, 0.0013277618, -0.004419422, -0.017068665, 0.008981955, -0.028461516, 0.020737186, -0.000111721456, -0.06367148, 0.01888166, 0.024596924, 0.038045518, -0.028973758, -0.028459871, -0.03107073, 0.046677522, 0.10017463, -0.0071787266, -0.022905326, -0.008838573, -0.034817807, 0.020153299, 0.009192916, 0.0060089366, 0.005191835, 0.005709292, 0.073545314, -0.03435724, -0.046317667, -0.00017405371, 0.03996435, 0.00201305, 0.028232496, 0.13226017, 0.008356529, -0.06659535, -0.010444623, 0.04521249, -0.038017664, 0.040485725, 0.01809049, 0.012224893, 0.0140324095, -0.02190638, -0.023632547, 0.0074948096, -0.002995472, 0.06458879, 0.02705315, 0.012632176, -0.022452923, 0.009147763, 0.008000096, -0.0659042, -0.05873564, -0.11162716, 0.030346297, 0.063897654, -0.08064018, -0.054537617, -0.0036274693, 0.047256812, 0.027073115, 0.026039166, 0.013383782, -0.05370962, -0.009188463, -0.033528626, -0.0060553425, -0.0153805055, -0.045870647, 0.018420128, -0.021162394, 0.017123377, -0.0458715, 0.011999664, -0.06574136, -0.0013993658, -0.04284535, 0.04886553, 0.09885663, 0.01901693, 0.046767183, 0.000106552616, 0.022556419, 0.00029432424, 0.001098431, -0.021204874, 0.01024736, 0.0025324128, 0.045909584, 0.057683177, 0.071394354, 0.12790467, -0.018054958, -0.020773726, -0.066023044, 0.017994018, -0.00027768617, 0.050895937, -0.0797198, 0.015545441, -0.015982665, 0.013178582, 0.08089377, -0.06497605, 0.008344451, -0.0675068, -0.004683984, 0.027136682, -0.05776405, 0.10736279, 0.014740339, 0.016665876, -0.006814133, -0.03565896, 0.030489685, 0.029534275, 0.016570238, 0.02010906, 0.012236038, 0.03333581, -0.050457798, 0.017139114, -0.104112945, -0.028392915, 0.0040114494, 0.0062264283, 0.0076020234, 0.01213317, -0.017279001, 0.039965473, 0.070650406, 0.037378855, -0.049369726, -0.029899476, 0.0154126575, -0.017564088, -0.009573273, 0.008984806, 0.00348698, 0.014138955, 0.032840803, -0.0047039636, -0.039681554, -0.024593065, -0.124253996, -0.022139013, -0.06467928, 0.035125606, -0.03780814, 0.050304975, 0.0039802003, 0.0049589686, -0.017105311, 0.07028214, -0.015963497, -0.08377501, -0.026349198, -0.026387578, 0.03388918, -0.019262454, -0.005894945, 0.07587377, -0.00936581, -0.026619805, -0.014303422, -0.06789622, -0.0017259662, -0.023757264, 0.09498581, -0.02747749, -0.014701554, -0.034756485, 0.0050779665, -0.00037199675, -0.021017019, -0.10489569, -0.03447407, -0.031735733, 0.09029091]</t>
+          <t>[0.0036765616, 0.013496879, 0.002505584, 0.02522724, 0.097588174, 0.021823635, 0.0077663693, -0.05239121, 0.047072347, 0.038774792, -0.11957131, -0.074679166, 0.0005241525, 0.00659189, -0.027535567, 0.024901632, -0.07614718, 0.08619204, 0.05211695, -0.012823741, -0.019165548, -0.006326537, -0.012662508, -0.0060854065, 0.050953094, 0.008260356, 0.032953598, 0.056968406, -0.06634155, -0.07351767, 0.002245153, -0.06976568, -0.00841271, -0.029459447, -0.06616278, -0.003959934, 0.054510478, 0.04024636, -0.057100445, -0.05642973, -0.06633947, 0.020704996, -0.059982195, 0.006510741, 0.094554655, -0.01462722, 0.071915425, 0.019316535, -0.0035162373, 0.017343918, 0.014146087, -0.06372219, 0.0054127076, 0.04701608, 0.06088368, -0.0027971186, -0.059205543, -0.0063772034, -0.025380157, 0.025629634, 0.004189136, 0.049955986, -0.04145759, -0.041107245, -0.00827082, -0.063484, -0.025756387, 0.0139404945, -0.030692883, -0.026161436, -0.095978945, -0.019806124, 0.012432272, 0.026052877, -0.009029436, -0.037149895, -0.06055174, -0.011855694, -0.024035059, -0.03201293, 0.0032466191, -0.008536083, 0.030117538, -0.08489654, -0.01133186, 0.03621465, 0.049595628, 0.009734171, 0.019687392, -0.0067108064, -0.0045570238, -0.069293134, 0.12569481, -0.009511347, -0.019398179, 0.040720776, 0.011586829, 0.12811588, -0.014557315, 0.019435465, 0.0017090582, 0.018300762, 0.000808243, 0.013325379, 0.039662562, 0.014456586, 0.010634122, -0.0020375475, 0.03679937, 0.026548807, -0.05190543, -0.04867565, 0.0044181487, 0.061445918, 0.007513945, 0.020424478, -0.020676922, 0.07201864, 0.018658606, 0.004701066, 0.08198727, -0.10653858, -0.03657911, -0.034828283, -0.019677725, 0.042194735, 0.02419562, -0.005233039, 0.0027550394, -0.011118935, -0.06761566, -0.015773688, -0.0015057998, 0.0110265585, -0.022697782, -0.05774264, -0.032839295, 0.028559966, 0.018319884, -0.056332152, 0.0028355552, 0.02092319, 0.0100159235, -0.026705414, 0.013345328, 0.021795286, -0.02003433, -0.04364046, -0.02791977, 0.024130028, 0.039899267, -0.010526348, -0.005018647, 0.031769525, -0.005207118, -0.081519626, -0.053142168, -0.03819349, 0.057429187, -0.0072712754, 0.0011782971, 0.055071503, -0.024874017, 0.022544907, 0.04448372, -0.018025186, 0.011428276, -0.031060189, -0.0102346465, 0.018850481, -0.043914773, -0.024043197, 0.030407922, -0.006067773, -0.023177957, -0.051300358, 0.0069880555, 0.00032180446, -0.014097226, -0.0012311648, 0.059908397, -0.06160617, 9.0207905e-06, -0.016903622, 0.050608307, 0.04642875, 0.015143145, -0.03754794, -0.0074660643, -0.02584771, 0.004014274, -0.044712868, -0.003659781, -0.07156453, -0.019648835, 0.06583335, 0.021466516, -0.09291328, 0.027360251, -0.057124667, -0.08373435, -0.0027278855, 0.026183039, -0.032989666, 0.09416114, -0.057130955, 0.07872905, 0.04826135, 0.024137113, -0.0062870733, -0.021415627, 0.0052896463, -0.04780702, -0.07757392, 0.11698301, -0.024534998, -0.02471206, -0.055612236, -0.054183204, -0.0021153959, -0.073158875, -0.04271599, 0.045184657, 0.07465765, -0.03424541, 0.04135927, 0.008002703, 0.02009247, -0.033129573, -0.04234606, -0.00569872, -0.030823728, 0.035026457, 0.025833173, 0.0050389366, -0.03314568, 0.004688897, -0.014490352, 0.03913212, 0.099759676, 0.04895264, -0.0063332245, -0.02169689, -0.0065310234, 0.060767204, -0.0259678, -0.0003389381, -0.05687006, -0.05935314, -0.036940753, -0.002708497, 0.020027693, -0.1314794, -0.014351194, 0.028202223, 0.02225355, 0.036950152, -0.026954688, -0.09878627, 0.042641766, 0.013424012, -0.0017225906, -0.008975319, 0.020479163, -0.011065273, -0.055868786, 0.0103503065, 0.052875455, 0.012945574, -0.021329675, -0.091957524, 0.0048182923, 0.037910122, 0.037717633, -0.029531743, -0.07443206, -0.0010146104, -0.009256546, 0.010884613, 0.016109796, 0.039449852, -0.08476934, 0.006965689, 0.018131508, -0.07970095, -0.06756823, 0.070331894, 0.002697029, -0.03368594, -0.009424639, -0.00066966156, -0.01774361, 0.04959131, 0.077572994, -0.037924595, 0.046585258, -0.008798093, 0.012892282, -0.02044251, -0.028229952, -0.0057002082, 0.002874876, 0.0018780642, 0.038424384, -0.010876795, 0.05561861, -0.007199179, -0.04605673, -0.08035019, 0.06453923, -0.054228824, 0.018574893, 0.02549201, 0.020720579, -0.017316917, -0.025033789, 0.0053524394, 0.060374264, 0.004678557, 0.029024376, -0.05205549, 0.09645176, -0.019637909, -0.02138331, -0.06706617, 0.00087956106, 0.03711953, 0.0077219713, -0.006175218, 0.043873902, -0.0035665676, -0.0050788685, 0.043461878, 0.017099664, -0.080374196, 0.012082971, 0.010852559, -0.025105735, 0.00377796, -0.02643252, -0.04437145, 0.007996413, -0.021307452, 0.000493183, -0.07391925, 0.09474978, 0.031315953, 0.12539874, 0.0050872844, 0.0023671251, 0.022739433, -0.013117425, -0.008920301, 0.047472995, 0.035821047, -0.016169151, 0.01131002, -0.047811978, 0.01781217, 0.046431843, 0.042376623, -0.041443545, 0.045441266, -0.026098723, -0.042925194, -0.0031079764, -0.054010224, -0.017579693, -0.03886545, -0.024400793, -0.03631731, 0.051502775, 0.0023008676, 0.024946317, -0.035813875, -0.018444676, 0.02333966, -0.034770347, 0.010368799, -0.021803742, -0.05281656, -0.039315972, 0.03575532, -0.042364076, 0.035531625, 0.002963023, -0.06334057, 0.041638646, -0.031552542, -0.007043949, 0.02153292, 0.07672766, 0.10092888, 0.016851516, 0.040105116, 0.031996336, -0.038334016, 0.020613732, 0.016168045, 0.039449815, 0.004703533, 0.008502392, 0.029028874, -0.015085991, -0.069100395, 0.028690033, 0.037297335, -0.007412935, 0.021885317, 0.052787922, -0.0133830495, 0.03403253, 0.0026173673, 0.018346498, -0.06765535, 0.07307468, -0.051020164, 0.021966554, 0.026310045, -0.02714971, -0.015082562, 0.04767586, -0.027780686, 0.043832637, -0.016661286, 0.020744866, 0.0042689904, -0.028470313, -0.023536699, -0.000957668, -0.018347694, 0.055528592, -0.0011517112, -0.049854197, -0.010314676, -0.01937288, 0.034459826, -0.06571753, 0.0055308486, 0.062069103, 0.01105882, -0.02745954, 0.0013074812, 0.022263037, 0.02679495, 0.023834234, 0.012579382, 0.015607602, 0.058261152, -0.02025895, 0.027229024, -0.0036856607, -0.014142383, -0.014745041, 0.021078423, -0.08618005, 0.039301492, 0.003957359, 0.012329231, -0.018001903, -0.03212787, -0.023073455, 0.011729249, 0.056286804, 0.08869511, -0.078371644, -0.025170749, -0.0030707924, -0.019348321, -0.041714087, -0.061946116, 0.038673032, 0.014660415, -0.019146428, 0.04390455, -0.00767605, 0.039915647, 0.0042388183, -0.02039125, -0.038228072, -0.005669629, -0.019227844, 0.0811841, 0.0067966464, -0.020092081, 0.012333937, 0.012284974, 0.06238182, 0.11046517, -0.03602233, -0.073232375, -0.006183523, -0.028219076, -0.060233753, -0.04915995, 0.030196074, -0.033718485, 0.058080178, 0.0064653135, -0.012435043, 0.025621852, -0.060732197, -0.024090117, -0.057815474, -0.014432184, -0.008532664, 0.02256277, -0.029668706, 0.011272373, -0.013073197, 0.03699973, -0.037923988]</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1493,29 +1429,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>정성민</t>
+          <t>김해린</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A machine learning workflow for predicting the oil uptake
-of rice flour blends in a frying batter system</t>
+          <t>Artificial intelligence classification and amylose content prediction of rice flour varieties from their pasting features</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Machine learning technique was utilized to predict the oil uptake of frying batter with blended rice flours based on several physicochemical features before frying The physicochemical features showed low correlations with oil uptake (Pearson correlation coefficienets 0 29 0 61 Through an exhaustive search method by regsubsets function, the amylose content, peak time, peak temperature, and final viscosity were selected as the major variable combination to affect the oil uptake of rice frying batter The four experimental features were applied to train two different machine learning models (multivariable linear regression and multilayer perceptron neural network) and their performances were compared in terms of coefficient of determination (R 2 and root mean squared error ( The model training was carried out by applying K fold cross validation, which generates different combinations of datasets consisting of each 20 testing and 80 training dataset In conclusion, the multilayer perceptron neural network model made a better performance than the multivariable linear regression one in predicting the oil uptake of rice frying batter, showing higher R 2 and lower RMSE</t>
+          <t>Rice flour has been widely applied as a gluten-free ingredient in a variety of food products but its suitability for a specific food is dependent on its variety. However, there are no efficient ways to distinguish the cultivars of rice flour based on their physicochemical properties. Thus, in this study, the pasting features of eight varieties of rice flour with different amylose contents were experimentally measured and then subjected to machine learning analysis for classifying rice varieties and predicting their amylose contents. When the combinations of the pasting parameters were subjected to three machine learning algorithms (stochastic gradient descent (SGD), decision tree (DT), and support vector machine (SVM)), the SVM showed outstanding performance of rice variety classification in terms of accuracy and f1-score. Also, the SGD and DT were the most effective in predicting the amylose content of rice flours by showing higher R2 values.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.04170465, 0.0030784428, 0.04156335, -0.027735284, 0.01805545, -0.011307741, -0.017312082, 0.03692141, -0.009248671, 0.022817548, -0.075708404, 0.030764392, 0.016549652, -0.07806951, -0.026225248, 0.017693294, 0.030373087, 0.062041022, 0.0022245226, -0.009056214, -0.050973378, 0.036511324, -0.031828143, 0.043651257, 0.105810285, 0.0020226645, 0.010765905, -0.06824451, -0.0510332, 0.0014669959, 0.044050224, -0.04466469, 0.0066838823, -0.012122662, -0.04873313, -0.017083304, 0.043805312, -0.0009557509, -0.03476614, -0.0030128488, -0.01604882, 0.012802628, -0.06753922, -0.031495407, -0.045356534, -0.024235286, 0.0505547, 0.04870189, -0.08116867, 0.024264822, -0.0034275348, -0.06561384, -0.0028237868, 0.046855856, 0.06016212, -0.047169287, -0.055492446, 0.027769761, -0.036612168, 0.030878616, -0.083987564, -0.0002573966, -0.013522262, -0.014039026, -0.028335813, -0.028497422, 0.019040445, -0.022711316, -0.0012921921, 0.01223418, -0.05053954, -0.01907852, -0.013336708, 0.003563369, -0.08877268, -0.08773745, -0.04153566, 0.030144874, 0.011362014, -0.030016728, -0.08920348, -0.025037225, 0.06032099, -0.0069253417, -0.0743251, 0.08631471, 0.0016298952, 0.07594412, 0.020763204, 0.010383446, 0.04313684, 0.007964225, 0.115997985, 0.0717054, 0.0142830685, 0.039960545, 0.0820545, 0.06428861, -0.017185513, 0.018336453, -0.0874762, 0.028122948, 0.0039717774, 0.0021684433, 0.037117068, -0.03940733, 0.027402902, 0.0056636715, 0.020846, 0.044971216, 0.069074124, -0.04553533, -0.020109497, -0.026988436, 0.015734358, 0.044892777, 0.027746702, 0.010512291, -0.0036539924, 0.0655477, 0.060942646, -0.027599255, -0.032080673, 0.026795086, 0.020757835, -0.048413947, 0.0013242004, 0.0074413167, -0.028014958, -0.0930908, -0.007292098, 0.024532942, -0.008105126, -0.029693048, 0.009455419, -0.031793322, -0.018180687, 0.025908943, 0.045161042, -0.040829033, 0.0017104133, -0.02990534, 0.012045709, -0.05339119, 0.03558181, -0.046182126, -0.08836709, -0.0430646, -0.056427553, 0.015012254, -0.03857279, -0.021147098, -0.017394528, -0.027140018, -0.016275283, -0.08902721, -0.04109892, -0.031787653, -0.054533385, -0.017259076, -0.033948578, 0.003146312, 0.016974617, 0.07499307, 0.055649556, -0.015436799, 0.047659043, 0.012159186, 0.079282835, 0.06440458, 0.018075706, 0.0074160267, -0.0013857789, 0.024467118, -0.017986812, -0.043853212, -0.0041022976, -0.10955954, 0.017061183, 0.013777839, 0.026017454, -0.090940505, 0.009701988, 0.05791247, -0.0039277184, 0.012381312, -0.023569318, -0.05227894, -0.0018766649, 0.024865977, -0.054771595, -0.03160149, 0.06719721, -0.05995731, 0.04444387, 0.04971001, 0.052509833, -0.019930096, 0.037044846, -0.0093220975, 0.060509138, -0.011732349, 0.05538782, -0.024486858, 0.057766344, -0.010350487, -0.0043438273, 0.032637212, -0.0009585776, -0.00680561, -0.06665104, 0.019562328, 0.022128232, -0.025926936, 0.03158552, -0.030580163, 0.03004771, -0.0065962262, 0.06390367, 0.011198335, 0.01673696, 0.028995216, -0.0333262, 0.08332747, -0.0069447793, 0.026666356, 0.05585232, -0.010601068, -0.05840665, -0.056939866, 0.009182601, -0.06394752, -0.05571745, -0.030253852, 0.0326657, 0.017746087, -0.0784297, -0.020324314, 0.033827808, 0.067180306, -0.019556893, 0.032189123, -0.0047170348, 0.041544445, 0.03535447, -0.08944722, 0.0055072503, 0.010240288, 0.0016500265, -0.005351687, -0.05296969, 0.085171826, 0.02083046, -0.08861493, -0.0013667921, 0.09619972, 0.0009985658, -0.0034149634, -0.027821831, -0.0015536203, 0.062367916, -0.03464445, -0.025707861, -0.0444193, -0.025288776, -0.04851298, -0.024685951, 0.022788428, 0.01572173, 0.016309803, -0.04821665, -0.036018334, 0.03147452, 0.041837923, -0.0028213412, 0.03106023, 0.0068206447, -0.0064808237, 0.018757263, 0.016200008, -0.034293048, -0.0005363788, -0.003941401, -0.036535315, 0.017726695, -0.02666633, -0.04749708, -0.011314024, 0.05981453, 0.026278159, 0.012678686, -0.017299587, 0.046641555, 0.012133935, -0.043865386, 0.017357595, -0.009830568, 0.031775527, -0.008571451, -0.038328096, -0.017451148, -0.04032094, 0.039332423, 0.019914865, 0.0028432524, -0.031630278, -0.00082116347, -7.119193e-05, 0.018213442, 0.02560673, -0.026658421, -0.023950335, 0.02769294, 0.09698098, -0.08651521, -0.0035628518, 0.044395458, -0.027779154, 0.0355444, -0.062238846, -0.0039018185, 0.020908367, -0.01850919, -0.028101906, 0.01802935, 0.07216488, 0.0032592746, -0.07256936, -0.041235447, 0.022776902, -0.074877754, -0.054094426, -0.022697236, 0.048022237, -0.04046361, -0.013847266, 0.029350456, 0.0057080197, -0.01970767, -0.049910784, -0.09713753, 0.101097904, 0.05756996, -0.011729957, 0.046893448, 0.06352055, 0.040608644, 0.00823808, -0.045642868, 0.0064975796, 0.0146734705, 0.003276425, -0.08393544, -0.009290503, 0.013990553, -0.031361435, -0.009542557, -0.02865825, 0.044656597, 0.008216655, -0.00302135, -0.0476247, 0.02941902, -0.010710541, -0.013135744, 0.009262415, -0.010678884, -0.012142433, -0.02083376, 0.0062528322, 0.03934474, -0.021660248, -0.017894683, -0.0013781603, -0.022257548, -0.057462677, -0.007605934, 0.0527257, 0.055344097, -0.023724705, 0.001666502, -0.038049307, 0.0066910954, -0.0390559, 0.010793062, 0.0002916488, -0.0006357636, 0.07922624, 0.011815073, -0.06625769, 0.019828344, 0.08676672, 0.008873645, 0.033254664, 0.02390714, -0.01633971, -0.030031737, 0.040237226, -0.03409934, 0.029219666, 0.014875976, -0.06314339, 0.009068499, 0.017601738, -0.045803588, -0.0424623, 0.04805843, 0.012937936, -0.043036822, -0.04388334, -0.0017645536, 0.07433025, 0.06613234, 0.055895105, 0.016958265, 0.03142512, -0.025248636, 0.031004975, 0.022111252, -0.026266145, -0.06863071, -0.0040293895, 0.05269129, 0.010664784, -0.035200857, -0.053257365, -0.013096765, -0.023513407, 0.005485787, -0.090968, -0.0040254393, -0.073642336, -0.029335499, -0.01746138, -0.072685614, 0.0020540901, 0.016386686, 0.050413392, 0.019526228, 0.032560837, 0.011757733, -0.047306657, 0.0207191, -0.040921398, -0.045285515, -0.022278946, -0.0014644562, 0.014912625, 0.0067252093, -0.041928604, -0.07376363, 0.016655697, 0.019892672, 0.037938677, -0.005104363, -0.021150395, -0.050267186, -0.0022619886, -0.020176759, 0.00815947, 0.014563716, -0.033458974, 0.031648234, 0.043723397, -0.035614092, -0.09018982, 0.019067934, 0.05188991, -0.0084919995, -0.0402416, 0.021641688, 0.07009313, -0.03726898, 0.0048025763, 0.027298655, -0.010854328, 0.00920366, -0.028595896, -0.0016711312, -0.03596511, 0.052125916, -0.0022320133, 0.08287366, 0.08301436, 0.00331748, 0.042662624, 0.018816285, -7.1685296e-05, -0.044783067, -0.05264095, -0.085672155, -0.027000451, 0.0014110957, -0.04157013, -0.021543533, 0.07066347, -0.043353274, -0.034976695, -0.0333117, -0.053123146, -0.0007489653, -0.033554807, -0.0027882473, -0.0090593295, -0.010319616, -0.013417917, 0.009725259, -0.016336285, -0.043850586, 0.029325528, 0.017620284, -0.021844884]</t>
+          <t>[0.013996713, -0.022972299, 0.08542833, -0.020280974, 0.10758126, 0.016539002, -0.0019555672, -0.03966879, 0.037942275, 0.029635932, -0.06006419, -0.048667394, -0.026056929, 0.018417556, -0.020793004, 0.026718603, -0.041663427, 0.053401154, 0.026701108, -0.011516997, -0.029917141, 0.000905568, -0.051463954, -0.000897391, 0.08972176, 0.00069052156, 0.013816918, -0.040504366, -0.004350232, 0.01913351, 0.055186864, -0.072447576, 0.029570853, -0.01782988, -0.02744562, 0.007134483, 0.05070368, 0.025490338, 0.059982084, -0.052420788, -0.023756834, 0.040905885, -0.1084551, -0.025501775, 0.05691453, 0.00589135, -0.011379279, -0.019720105, -0.047316074, 0.05462559, -0.03129739, -0.0050134305, 0.00373652, 0.003688776, 0.033626728, -0.010667106, -0.08665119, -0.0257294, -0.052108746, 0.017743977, -0.107288934, -0.032890517, -0.04979531, -0.0130529925, -0.034209557, 0.0052661165, 0.016283657, -0.028463103, -0.037577607, 0.050553944, -0.010768404, -0.081013925, 0.0136244055, -0.010027652, -0.070159905, -0.11617347, 0.016967604, 0.04366959, -0.005698785, -0.02569856, -0.029599203, -0.053618174, 0.037397213, 0.01002753, -0.09106208, 0.026620869, -0.064349435, 0.014537489, -0.01910625, 0.048506025, 0.0046789204, 0.030531358, 0.10674462, 0.06586106, -0.0058089644, 0.06055938, 0.09997734, 0.072456256, 0.007157979, 0.01335265, -0.07546261, 0.02455991, -0.017482717, 0.040260933, 0.023796061, -0.013716559, 0.04987063, -0.0046589654, 0.08407612, 0.024539333, 0.013396453, -0.06472654, -0.035748295, -0.009256661, 0.009266725, 0.019769171, 0.032815017, 0.061714306, 0.001504625, 0.08325657, 0.070342265, -0.030347602, 0.019226184, 0.1012713, -0.0053376136, -0.009067105, 0.037514593, -0.031288303, -0.042772457, -0.0741466, 0.05823272, 0.06377266, -0.048384283, 0.057123177, 0.009737719, 0.019583033, -0.019875648, 0.0121590765, -0.020676536, -0.039618216, 0.052179243, 0.027851235, 0.031968813, -0.061036825, 0.0073362445, -0.027912633, -0.10221999, -6.455416e-05, 0.009683029, -0.027299874, -0.03271386, -0.010634494, 0.033022266, -0.026867284, -0.049554143, -0.024626095, 0.011908487, -0.02610079, -0.09049179, -0.028691666, 0.04765431, -0.067033395, 0.009264695, 0.025809268, 0.01746532, 0.04163859, 0.06381204, 0.014985165, 0.034446277, 0.104469284, -0.00065765146, 0.013108762, 0.031508554, -0.0034351628, -0.0025167502, -0.013728367, -0.0020564173, -0.071170755, 0.107904896, -0.047570962, 0.04988929, -0.099937215, -0.011625981, -0.0040108496, 0.039000392, -0.03675222, -0.011698547, -0.051236518, 0.020542797, 0.026980232, -0.14402604, 0.019906476, 0.04734616, 0.003505965, 0.004951542, 0.017187513, -0.001433637, -0.06055972, 0.07325931, 0.047555108, 0.06125553, 0.064500615, 0.066419765, -0.044542454, 0.08411982, 0.069851875, 0.044719066, 0.02793703, 0.014312253, 0.042449914, -0.025432635, 0.0047425325, 0.03531112, -0.027596127, 0.09660463, 0.0032722955, -0.011288823, -0.02188268, 0.026951982, 0.0021292167, 0.047332097, -0.017190544, 0.032639083, 0.054869585, -0.041537352, 0.034372196, 0.012045519, 0.057777043, 0.0057463, -0.046692345, 0.022541026, -0.046696927, -0.03217834, 0.032118622, 0.0015204294, 0.013878724, -0.030939007, -0.0007829371, 0.02065355, 0.064030856, -0.033139545, 0.002137063, 0.011123038, 0.058426384, 0.010305406, -0.043908823, -0.023887191, -0.010650153, -0.046540853, 0.0015336566, -0.038297612, 0.02614558, 0.0019097417, -0.04752848, 0.027992547, 0.052336104, -0.005450767, -0.1023587, -0.05579602, -0.051471565, 0.06663528, -0.054640144, -0.04958178, -0.009974174, 0.0015146788, 0.025123281, 0.012589125, 0.01962552, 0.028349817, 0.02524959, -0.042303137, -0.03570907, -0.016843017, 0.02718201, -0.016307598, 0.04436374, -0.004473494, -0.10181514, -0.0069305934, -0.011044655, -0.015595866, -0.014322654, 0.10026721, -0.04032341, 0.0059161247, -0.04933469, -0.06483559, 0.05198797, -0.0037296263, -0.021237545, -0.04082167, 0.034266, 0.035616096, 0.013511731, -0.04022834, 0.043168455, -0.04548785, 0.08147382, -0.028225373, 0.008079506, 0.004091084, 0.018970411, 0.021425202, 0.045516644, -0.039942633, -0.085884444, -0.049513694, 0.03699756, 0.06693012, 0.027742578, -0.0019808896, -0.0681917, 0.0022442138, 0.05552988, -0.053068, 0.0028146121, -0.039606746, -0.040907294, -0.007843, -0.06773465, -0.003636664, 0.05858378, -0.028550874, 0.0071635135, -0.06813178, 0.06181007, -0.015056204, -0.039074022, -0.023146462, 0.046048477, -0.003558539, -0.025340095, 0.0030873793, -0.017757965, -0.030654296, -0.041327897, -0.0067229546, -0.0099235345, -0.0025523135, -0.009740897, -0.057376057, 0.017253937, 0.02486219, 0.0072043855, -0.045499954, 0.03647891, 0.072123475, 0.0048948852, -0.059557803, 0.030847844, -0.0069383592, 0.0059413733, 0.03806344, 0.020755738, -0.0104637835, -0.029393723, -0.035246197, -0.09922181, 0.008311019, 0.03127599, 0.030241024, -0.07913204, 0.0009944367, -0.012322484, 0.0280309, -0.019542316, -0.06978277, -0.018177086, -0.034291897, 0.054951206, 0.0373732, 0.030527987, -0.06365057, 0.03369706, -0.004089696, -0.057378404, -0.014376332, 0.04624955, 0.040713854, 0.0046957573, 0.044350903, -0.038618404, 0.0087592825, -0.090565704, -0.023244869, 0.020170476, -0.085261606, 0.05895156, -0.07023734, -0.077282295, 0.0803086, 0.10120988, 0.01427847, 0.0069150217, -0.035515826, -0.005316362, -0.09040396, 0.02174227, -0.078581505, 0.05348965, 0.048602656, -0.05191828, -0.038971126, -0.0063177967, -0.04616417, -0.058995426, -0.0149537865, -0.010094512, -0.07323739, -0.0870365, -0.060255792, 0.06548605, 0.009729785, 0.05072332, 0.02050546, 0.026929436, -0.04921623, 0.03161388, 0.054522388, -0.041591834, -0.06640348, 0.00854508, -0.022010913, 0.02709182, -0.058429155, -0.07197225, 0.05319561, -0.04864254, -0.018163376, -0.030019006, -0.0023934743, -0.029525477, -0.008145884, -0.061115623, -0.08399847, -0.027321065, 0.04450034, -0.038492225, 0.06501357, 0.0333319, -0.014251083, -0.07497041, -0.067240566, -0.027187712, -0.015612112, 0.052324835, -0.028253987, 0.039108586, 0.014143617, -0.056784596, 0.024958877, -0.04412264, -0.0050982744, 0.10368914, 0.028870182, -0.037931588, 0.005871824, -0.006460331, 0.0019505548, -0.04419279, -0.0033787913, -0.042093918, 0.065470174, -0.04100575, -0.029972514, -0.05651836, -0.07856038, 0.032626383, 0.013812281, -0.006466802, 0.047836132, 0.09336868, 0.044346415, 0.010076808, 0.03143329, -0.052715514, 0.013828317, -0.016221503, 0.03912329, -0.086179204, 0.011841628, -0.033803638, 0.024823578, 0.081379294, -0.011039994, 0.043876775, 0.011918611, 0.03640884, 0.013502077, -0.0055155526, -0.04877778, 0.005214638, -0.01557759, -0.00534623, 0.012742361, 0.04288539, -0.05275379, -0.0033391195, -0.0094416095, -0.0030504826, -0.014469794, -0.027454263, -0.025969883, -0.039364282, 0.010804466, -0.034561634, 0.006997975, -0.023497969, -0.090072565, 0.00095759094, 0.021237448, -0.02340778]</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1533,28 +1468,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>윤성</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A quantitative comparison of HMR food crispness under different oven conditions</t>
+          <t>Machine learning identification of edible vegetable oils from fatty acid compositions and hyperspectral images</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>The segment of HMR has been gaining rapid popularity in the current field of food industry with the increasing ratios of double-income families and single/old households. With this trend, it is necessary to enhance the quality attributes of HMR foods that are highly affected by different cooking methods. In this study, HMR foods (dumplings, hot dogs, and burritos) were cooked under three different oven conditions (inverter lightwave, inverter microwave, non-inverter microwave) and their textural properties (specifically, crispness) were quantitatively compared. When the HMR samples were subjected to a puncture test, the peak force value was not suitable as a representative textural parameter. however, the crispy texture seemed to be quantitatively measured in terms of force variation rate. Thereby, the HMR samples cooked in the lightwave oven had higher values of force variation rate than the microwaved-samples, showing increased crispness by 3.00/1.89 times in dumplings, 1.52/1.36 times in hot dogs, and 2.08/2.22 times in burritos. Thus, this study may provide valuable information for better understand of the textural properties of HMR foods depending on different oven conditions.</t>
+          <t>Edible vegetable oils have been extensively used in a variety of food products, depending on their unique physicochemical features. Therefore, it is crucial to identify vegetable oils in the food industry for determining their appropriate applications in addition to preventing adulteration. Since common chemical methods with GC-MS may be time-consuming and labor-intensive, a new method is needed to analyze vegetable oils in a more efficient way. Eight vegetable oils were subjected to hyperspectral imaging analysis, which was coupled to machine learning algorithms for identifying vegetable oils. The classification performance of the three machine learning models (decision tree, random forest, and k-nearest neighbor) was compared with that of the fatty acid composition, based on accuracy and f1-score value. The random forest offered performance advantages in classification tasks of vegetable oils with the best accuracy and f1-score values. Furthermore, its accuracy was comparable to that of GC-MS. Thus, this study showed the promising results of utilizing hyperspectral imaging combined with machine learning as an alternative to the conventional chemical method for oil classification.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.0006101234, 0.0029439917, 0.029529441, -0.017319197, 0.07963402, 0.042154316, -0.031204227, -0.052616253, 0.050632022, 0.039226227, -0.010803468, 0.042397503, 0.03107463, 0.0043905047, -0.04615434, 0.01219244, 0.026692092, 0.010991252, 0.035948467, 0.016963808, -0.051907036, 0.03626195, -0.06973176, 0.03054893, 0.07691808, -0.04183355, -0.0075763515, -0.04855782, 0.015964622, -0.0054000146, 0.0696374, -0.05325952, -0.03979561, -0.017901953, -0.030088156, 0.031215472, 0.060879335, 0.04422005, 0.06348783, -0.025152886, 0.04524747, 0.044658665, -0.028373849, -0.039020266, -0.014194185, 0.044444203, -0.027441073, 0.018027214, -0.08520521, 0.026053024, 0.019582925, -0.028242169, 0.012749106, -0.03620945, 0.033088095, -0.07894384, -0.02832129, -0.021463389, -0.006072874, -0.05687699, -0.046894465, -0.022752859, -0.02640655, 0.0030583108, -0.046496294, 0.04899423, 0.027971534, -0.0408013, -0.02151617, -0.04821995, -0.066872835, 0.02224438, -0.02681312, 0.023646833, -0.102911755, -0.09675522, 0.0052222647, -0.038413964, -0.039443873, -0.06644968, 0.030982053, -0.018290048, 0.020983458, -0.01756656, -0.0650605, 0.02960509, 0.0053996686, -0.046982743, 0.025054667, -0.071259335, 0.010622962, -0.00490926, 0.11722667, -0.052549046, 0.030213136, 0.030702602, 0.047591712, 0.09293246, 0.043996256, 0.009950448, 0.012664807, -0.0023474675, -0.06671884, -0.022923775, 0.006954898, -0.012625839, 0.07462843, -0.00073927396, 0.015208148, -0.015642596, -0.01830288, -0.037104424, -0.037669223, 0.014553393, 0.033354096, 0.06512195, 0.04244472, -0.027689777, -0.007093996, 0.0030922075, -0.057719294, 0.04497236, 0.0064097014, -0.013927555, 0.0062285336, -0.0036795775, 0.023883026, -0.057812024, -0.013528891, 0.065896556, 0.044852328, -0.01094703, -0.028070126, 0.063509226, -0.0047561177, 0.013871597, 0.0062196683, -0.018859638, -0.024638357, 0.010426675, 0.008358534, -0.016482135, 0.016010983, -0.03501856, -0.0056332685, -0.030407446, -0.10397759, 0.027027758, -0.034411874, 0.041577965, -0.021993605, 0.05516673, 0.015827682, -0.004567679, 0.044406723, -0.051028162, 0.02670264, 0.087053865, -0.06269585, -0.04004395, -0.013502378, 0.034313396, -0.016510015, 0.030422721, -0.019397127, -0.045932915, 0.07316763, 0.029721888, -0.020051789, 0.117161565, 0.021393633, -0.0522435, 0.005689226, -0.020898845, 0.0032042908, -0.021535072, 0.0038288704, 0.04269734, 0.049659505, -0.011010969, -0.024250349, -0.009008184, 0.010346638, 0.032330517, -0.041727822, -0.027244, 0.002922811, -0.07310286, 0.016048994, 0.065373935, -0.06695743, -0.061469156, 0.0314556, -0.01669837, 0.0121378405, -0.016996548, 0.02749373, 0.024812909, 0.053286355, 0.053329602, 0.003827038, 0.023922285, 0.04141458, 0.0015362378, 0.08339098, -0.047498554, -0.017940044, 0.0276994, 0.027293513, 0.006230027, -0.017536536, -0.027974198, -0.063523054, 0.045559652, 0.0036130315, 0.0053391424, -0.020876624, -0.04357608, 0.04945228, 0.0056502805, 0.057145588, -0.033810895, 0.02466453, 0.0031742023, 0.02012618, 0.064222954, 0.030174498, -0.030630972, -0.00910531, 0.0186192, 0.035601083, -0.06238778, -0.0823247, -0.036014657, 0.010014194, -0.007967575, 0.061186224, 0.026328579, 0.047232114, 0.09409717, -0.03395669, 0.045380935, 0.03175866, 0.040407296, -0.0016110521, -0.077229775, -0.051117186, 0.047283854, -0.032870512, -0.011327565, -0.023435123, 0.04246966, -0.023286741, -0.052895356, 0.02113105, 0.057951815, 0.03615233, -0.007536571, 0.03596337, 0.048186354, -0.010925871, 0.07191594, 0.04108789, -0.03857305, -0.037353743, -0.023147084, 0.025340041, -0.0026234651, -0.023706444, 0.02693629, 0.010136118, -0.028628191, 0.05466192, 0.05494671, -0.005023522, -0.003819833, -0.04907465, -0.06850274, 0.057278726, -0.047656525, -0.020313129, 0.07094959, -0.0538799, -0.062967174, 0.030758359, -0.009349394, -0.036726616, -0.02219036, 0.038972486, -0.025593264, -0.036257688, 0.018533034, 0.040801488, -0.045127172, -0.046608858, 0.03822042, 0.004198763, 0.032152865, -0.008807561, -0.0076413485, -0.012942275, -0.005319248, 0.097338885, 0.022372294, 0.008856707, 0.0012321115, -0.014722709, -0.03715537, 0.012451574, 0.07865346, -0.017757049, 0.055859853, -0.015937105, 0.06140314, 0.012004002, 0.09090407, 0.021133171, -0.033735383, 0.0015020093, -0.033626374, -0.044777635, 0.03836197, -0.00922799, -0.023935042, 0.0057687997, -0.009180909, -0.055744004, 0.02137112, -0.026500942, -0.0007966072, -0.053573582, -0.028986752, 0.01965025, 0.003824213, 0.023572303, 0.009923724, 0.027257636, 0.0070436033, -0.03823777, -0.034383144, -0.048882592, -0.081154875, -0.014677956, -0.0076914923, -0.04989291, 0.06389955, 0.10650356, 0.10703206, -0.07927904, -0.009181178, 0.07122453, 0.010951364, -0.015361715, -0.030584782, -0.022757092, -0.0066896966, -0.02966398, -0.0011759676, 0.06462845, -0.057428714, 0.032804187, 0.019267168, -0.008973642, -0.009359331, 0.058700133, 0.020244306, 0.036836848, 0.018557977, 0.03878758, -0.017622804, 0.034078017, 0.0262886, -0.05320128, -0.016535385, 0.011735954, -0.0044983425, 0.048056107, 0.040754806, 0.09095753, 0.010849505, 0.030283606, 0.046844747, 0.01169737, -0.025814261, -0.03757853, 0.047436714, -0.06781889, 0.0515761, -0.056516565, -0.030333346, 0.054559566, 0.026273994, -0.013610602, 0.023001637, 0.011620836, 0.06602911, -0.011485989, -0.026150431, -0.034356635, -0.017174307, 0.018912131, 0.0158302, -0.026179178, 0.0010716714, -0.008899023, 0.039532997, -0.03427592, -0.014392504, 0.008457531, 0.024865331, 0.02603203, -0.0011326148, 0.034895405, -0.005128047, -0.036176115, 0.020079436, -0.025446504, 0.029918617, 0.009035455, -0.01342152, -0.069434546, 0.021697696, -0.0013774418, 0.084858574, -0.0204207, -0.03279391, -0.026855167, -0.0062967218, -0.043331683, -0.033150934, -0.0013678769, -0.08294656, -0.015888367, -0.074179426, -0.050987493, 0.030619193, -0.027517417, -0.016172005, 0.07665916, 0.032557085, -0.042018827, -0.04054968, -0.0527991, 0.019409453, 0.034534264, 0.045728605, 0.039098147, 0.09769658, 0.023412725, -0.028785655, -0.023107305, -0.013327015, 0.0033265057, 0.09113241, -0.021405522, 0.03101566, -0.029515028, -0.017374182, 0.005475453, -0.04323327, 0.00028992374, -0.02757654, 0.084708974, 0.019328406, -0.10690512, 0.0021780299, -0.09226459, -0.0024414083, 0.017277537, -0.036994003, 0.026742015, 0.037607167, 0.0314719, -0.0056543024, 0.01684837, 0.059373423, 0.030434743, 0.019723628, -0.010855356, 0.045256123, -0.009151312, 0.0021240732, 0.08201566, 0.051136613, -0.09168345, 0.054652743, 0.089669466, -0.00091439043, 0.0192565, 0.037115004, -0.10834545, 0.001992659, 0.016117098, -0.023477325, 0.070101514, 0.07943893, -0.03899437, -0.015694557, 0.0065675443, -0.023117244, 0.0176116, -0.013837857, -0.012256102, 0.0068024625, 0.029226417, -0.03946887, 0.12250776, -0.0071749752, -0.14643013, -0.05329807, -0.03949635, 0.038394835]</t>
+          <t>[0.03851879, 0.057403315, 0.022888202, -0.0033515915, 0.088261165, 0.01668602, 0.021527214, -0.062291034, 0.0048023476, 0.0108286375, -0.056407407, -0.032321323, 0.07662471, 0.013632697, -0.022751844, 0.0022020119, 0.0049368916, 0.06501553, -0.042572, 0.0038805502, -0.030850686, -0.0022305043, -0.010283211, 0.021715788, 0.041088957, -0.012320501, 0.024645114, -0.0074790004, -0.09752647, -0.040231694, 0.0012601311, 0.011356356, -0.0040047867, -0.017287577, -0.0841433, 0.00061687146, 0.025004018, 0.04166166, 0.0023392332, 0.0071381335, 0.05827096, 0.041295055, -0.028044058, 0.022437561, 0.026408076, -0.041797407, 0.022434102, 0.006212049, -0.031013604, 0.027761566, 0.04095205, -0.011876695, -0.02161244, 0.042063225, 0.039659206, -0.036846712, -0.06839464, -0.016549062, -0.022579715, -0.010729013, -0.07543766, -0.020317208, -0.05181047, 0.020522688, -0.04812599, -0.04886712, 0.045082834, 0.072698295, 0.058408845, 0.02925293, -0.07755689, -0.033417735, -0.0016002725, -0.022316396, -0.06933379, -0.043564238, 0.025915029, 0.035482578, 0.008996688, 0.02323611, -0.041966897, -0.011575044, 0.068541154, 0.016053982, -0.060788836, 0.030692318, 0.00082927634, 0.039093047, 0.019308591, -0.02420143, 0.015380072, -0.027375653, 0.11893672, 0.057061445, 0.019059613, 0.031486195, 0.050240178, 0.025653502, -0.0060582543, 0.017712625, -0.038612276, 0.010286224, 0.014412405, 0.027275339, -0.034869835, 0.0007628316, 0.0075940797, 0.0126271, 0.033742417, 0.027371997, 0.0092941895, -0.102949016, -0.06300496, 0.02756322, -0.014655164, 0.030384678, 0.015849642, 0.010756152, 0.0063628554, -0.0517802, 0.024461761, -0.039380945, 0.0005723554, 0.007423774, -0.014940828, -0.03889707, 0.085113734, 0.0020929773, -0.020985607, -0.029190425, 0.0076601347, 0.060849115, -0.02569637, 0.05145199, 0.037013203, -0.040581983, -0.05707023, 0.031382293, -0.012756584, -0.060469, 0.0077058966, -0.00027065643, 0.041548386, -0.05875131, 0.00410908, 0.0015441928, 0.020972395, -0.025833592, 0.0066605574, -0.011596732, -0.003569065, -0.008981994, -0.07163078, 0.0021164187, -0.06586401, -0.022351053, -0.016880067, -0.017574856, 0.02141103, -0.00095978164, 0.058251534, -0.032731272, 0.0052330173, 0.07097309, 0.023121888, 0.0136139775, 0.053943284, -0.003151301, -0.03923531, 0.044384096, 0.015240001, -0.0456552, 0.0021019198, 0.03220227, -0.023959946, -0.082969, 0.037239157, -0.03498956, 0.049578626, 0.008519571, -0.06472838, -0.055627633, 0.0216638, 0.0936432, -0.006317005, -0.002332895, 0.015714329, -0.022782559, -0.035657115, -0.024158856, -0.082121536, -0.0416237, 0.06299578, 0.0042578927, 0.06391455, 0.014444903, 0.03975903, -0.058491528, 0.0046259817, 0.019918645, -0.02506374, -0.017079934, 0.08355008, 0.012622177, 0.08698606, -0.03942638, -0.06457094, 0.009886192, -0.025852995, 0.0648482, -0.034217916, 0.044924576, 0.016320933, 0.014353517, 0.08605963, 0.020547545, 0.008916417, -0.02309805, -0.0058509554, 0.0013001491, -0.027391162, 0.015684858, 0.010592342, 0.069844, 0.027135378, 0.009318287, -0.017595967, 0.014702779, -0.028838564, -0.020497683, 0.023160944, -0.07164595, 0.025778865, 0.028692273, 0.055216454, 0.022592828, 0.049885917, 0.033274923, 0.045639608, 0.1097997, -0.026171492, 0.037395455, 0.010704518, -0.00477077, 0.020214124, -0.0013998394, -0.02535683, 0.0070988922, -0.07325782, -0.04133894, -0.052649073, -0.007112023, 0.0570836, -0.03486724, 0.046115454, -0.014299421, 0.06306709, -0.04193296, -0.029120391, -0.022966169, 0.060492314, 0.025794633, -0.01321422, 0.002805158, 0.004383805, -0.100168265, -0.035812285, 0.018971287, 0.022672847, 0.03773718, -0.048328802, 0.080132246, 0.063621596, 0.06026648, -0.01700378, 0.009234841, -0.08315995, 0.01382389, 0.0022170625, -0.05022955, -0.058023047, -0.062430013, 0.07761447, -0.022882527, 0.010834831, -0.04990111, -0.022653349, 0.007454112, 0.015947651, -0.062301192, -0.019114222, -0.04039595, 0.12241998, 0.012820389, -0.057918433, 0.069745116, 0.00462878, 0.019565795, -0.025974369, 0.001776875, -0.0376333, -0.009486024, -0.01689346, 0.097707875, 0.0024036688, -0.0454148, -0.0046629733, -0.046185467, 0.023792164, 0.053518414, -0.021915352, -0.015431575, 0.033812065, 0.05818279, -0.043987308, 0.034392662, 0.0067980834, -0.017157791, 0.020610807, -0.012394531, -0.013901417, 0.024735842, -0.031703897, -0.021377642, -0.036369164, 0.0054938663, -0.07110956, -0.032352712, 0.011557594, 0.06461318, -0.013949899, -0.0047175186, 0.00040385916, 7.83524e-05, -0.0036869869, -0.019875802, -0.057419594, -0.02523233, -0.06564762, -0.021535859, -0.06359561, -0.017011303, 0.08105647, -0.006114127, 0.018022465, 0.05757319, 0.03657182, 0.095289, -0.006234281, -0.033532847, -0.044415247, 0.0009868239, -0.032983195, 0.0651329, 0.009123761, -0.021108273, -0.026410326, -0.03770196, 0.05736588, -0.016339852, 0.046062585, 0.014079497, 0.010510765, 0.066116646, -0.0087543875, -0.024457993, 0.0024511376, 0.0044838837, -0.022398027, -0.04935871, 0.0007598721, 0.020564722, 0.026147682, -0.01178321, -0.018726174, -0.014870665, -0.0018162266, -0.021222748, 0.055920307, 0.014093062, 0.031983025, -0.04224265, 0.043080382, -0.011942393, -0.0027036695, 0.014020697, -0.08114651, 0.06451035, -0.019994408, -0.042495623, -0.018959302, -0.024291843, 0.15205897, 0.04909953, 0.045954905, -0.03664421, -0.05409268, -0.00281624, -0.02720025, -0.03355685, 0.047963236, 0.035251923, 0.061311807, 0.005818772, -0.06346407, -0.027555514, 0.038721453, -0.03275446, 0.019174919, 0.009230999, 0.027520202, 0.07715918, -0.010523712, 0.035975374, 0.048170775, 0.028094847, 0.04963771, -0.020123543, 0.013161512, 0.012416597, -0.0863596, -0.0082908925, -0.056413878, -0.016775016, 0.012022547, -0.044916607, 0.005679399, -0.031002918, 0.02833227, 0.008824035, 0.019132273, -0.06409408, 0.007819007, 0.023580328, -0.035351347, 0.019313795, 0.020281019, -0.00582085, 0.018518468, -0.0034890026, 0.061673954, -0.036106225, 0.027608505, 0.056038097, 0.0005311686, -0.0014021795, 0.011252259, 0.009759854, -0.01671345, 0.034700293, -0.07204406, 0.0007845493, 0.052744407, 0.014173056, -0.039963435, -0.038176622, -0.10018753, 0.02231038, -0.027071428, 0.026498696, -0.06434974, 0.035365745, -0.019331222, 0.059164986, -0.018951068, -0.078490324, 0.034229122, -0.0073978347, -0.026943853, -0.09601544, 0.029251246, 0.011728218, -0.008040583, 0.016735977, 0.0500386, -0.05965832, -0.032663815, -0.003398388, -0.025775589, -0.046308875, -0.002379982, 0.02653804, 0.040814016, -0.0057651955, -0.03901127, -0.011923685, 0.04395031, 0.03609564, -0.015815688, 0.0112401415, -0.06365285, 0.04075683, 0.048709426, -0.0387957, -0.0006336163, 0.03661632, 0.043578837, 0.022369718, -0.005516241, -0.036543034, -0.019920738, -0.036689475, -0.030274445, 0.00789495, 0.018528389, -0.055933066, -0.0020683603, -0.051463984, -0.08029458, -0.052520327, -0.037296403, 0.058872897]</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1572,29 +1507,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>김희수</t>
+          <t>조승아</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Correlation of normal stress-based measurements for investigating
-the rheological properties of the elderly diets</t>
+          <t>Evaluation of allulose and kestose as sugar substitutes in baking</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>The aging populations have recently become the global focus of substantial research interest in a variety of industrial fields and the food industry is also no exception. Thus, a great deal of effort has been made to develop foods for older adults by controlling their texture. However, there exist practical difficulties in applying existing methods to measure the rheological properties of the elderly diets. Thus, in this study, three normal stress-based methods were compared in order to develop an instrumental methodology that can be universally applied to a wider variety of foods. When three rheological methods with 3, 5, 20 mm rod probes were carried out to generate normal stress, good linear correlations could be observed between the methods tested. Specifically, high coefficients of determination (R2 = 0.876 and 0.935) were detected between 3 and 5 mm probe tests, 5 and 20 mm probe tests, respectively. The rheological method with a 5 mm probe furthermore showed wider applicability and better convenience of use. This study therefore provides valuable fundamental information on objective rheological guidelines for the food industry to develop the elderly foods.</t>
+          <t>Overconsumption of sugar has been reported to be involved in obesity and adult diseases. As a great effort has been made to search for new sugar alternatives, interests in allulose and kestose has been increasing in recent years. However, preceding studies on allulose and kestose as sugar alternatives in baking are lacking. In this study, allulose and kestose were evaluated as sugar alternatives in baking, and their physicochemical effects were characterized in terms of pasting profiles, dynamic viscoelasticity, thermal analysis, and water dynamics. The use of kestose delayed the gelatinization of wheat flour, while that with allulose had a lower gelatinization temperature, compared to sugar. The pasting measurement demonstrated that the highest pasting viscosities were observed in the kestose, followed by sucrose, fructose, and allulose. Compared to allulose, the use of kestose seemed to produce low calorie cookies with comparable spreadability and texture to sugar. The use of allulose and kestose will help the bakery industries develop healthier products without compromising quality properties.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.1031053, 0.0035884136, -0.027809715, -0.02730563, 0.11859653, 0.08253155, -0.039223645, -0.046990093, 0.05324837, 0.029176459, -0.025299417, -0.03850907, -0.05557347, 0.007816777, -0.0007670201, 0.0037296466, -0.017164225, 0.019478576, 0.021575507, 0.0104565015, 0.011558665, -0.061448947, -0.036075152, 0.0310511, 0.03236361, 0.007796989, 0.033622105, -0.0135960635, 0.046762116, 0.008658758, 0.059198532, -0.07499328, -0.05044615, -0.0402511, -0.011549749, 0.007841572, 0.011024855, 0.06312706, -0.040689625, -0.1011982, -0.049407825, -0.012719584, -0.0116233565, -0.039863586, 0.088219956, -0.07732651, 0.044261403, 0.052064642, -0.08419924, 0.019110048, 0.020613434, -0.06620541, -0.022024281, 0.01867888, 0.034722205, -0.09898056, -0.034385964, -0.027011776, 0.03122458, -0.0016827926, -0.019698884, -0.06100982, -0.06736016, -0.0242031, 0.024161557, 0.012250239, -0.016277468, 0.038588345, -0.00088875974, 0.039040722, -0.082142435, -0.03932122, -0.014277592, 0.06237948, -0.06797684, 0.017356658, 0.015489416, -0.0047253426, -0.021636777, 0.0213833, 0.07371448, -0.056444123, 0.05081009, -0.0025434426, -0.05103217, 0.051958732, -0.03853132, 0.0076985634, -0.033193946, -0.027099444, 0.006520098, -0.0045631374, 0.083957545, 0.049506035, 0.024069484, -0.0017376189, 0.048768405, 0.07647987, 0.044052146, 0.041414812, -0.019358851, 0.082663946, -0.039276168, -0.008133345, 0.053229228, -0.004650641, -0.03160277, -0.009677038, 0.015526496, 0.028455634, -0.020178601, -0.07770865, -0.06720434, 0.044331253, -0.04021817, 0.024482163, -0.013754447, -0.013303246, -0.005744992, 0.0019243899, 0.027017305, 0.0043446855, 0.05439481, 0.028967049, -0.04763671, -0.00013663946, 0.027662486, -0.035075966, -0.014873525, 0.1092366, 0.014334744, 0.08111653, 0.013531093, 0.05208305, 0.0049618706, -0.03948421, -0.002301419, -0.0067671975, -0.043620445, -0.0012130326, -0.016828591, -0.06660752, 0.029176684, -0.07064284, -0.024143742, -0.017017178, -0.0807517, -0.014049103, -0.030710855, 0.009553768, -0.030027317, -0.009612525, 0.055310342, -0.023760084, -0.026921418, -0.053683665, -8.0107246e-05, 0.07313989, -0.039481495, 0.037221454, -0.03231134, -0.031007601, -0.08805999, 0.06307309, 0.0035285386, -0.019093765, 0.033574123, 0.01700384, -0.022661528, 0.046178907, 0.033299427, -0.027144376, 0.05490438, -0.033452593, 0.03995788, -0.006488735, 0.016182559, -0.02284124, 0.11480717, -0.07387138, -0.06757508, -0.030612675, 0.02503579, 0.028509796, 0.026298672, -0.038744893, 0.043369893, -0.018886402, 0.07244429, -0.033609044, -0.038279574, -0.03287127, 0.02216364, 0.04059621, -0.026545951, 0.03309898, 0.07345145, 0.010254828, 0.030139362, 0.022954011, -0.08808846, 0.030480236, 0.023778096, 0.01595043, 0.059017945, -0.0018397399, -0.038681965, -0.019260872, 0.04127664, 0.02273513, 0.029490443, -0.0016749998, -0.004379877, -0.039300635, 0.041934583, -0.024735065, 0.0105116945, -0.06586788, -0.035117254, -0.0141273355, 0.063832864, -0.0014655582, -0.0048797, 0.015344574, 0.004966052, 0.021811448, 0.0056313276, -0.038776763, 0.019400058, 0.046057835, 0.040651508, -0.019710198, 0.00074628147, -0.098106064, 0.011884649, 0.006529464, 0.0104839, 0.03924678, -0.03224542, 0.091987945, -0.041533623, 0.012546751, 0.016513675, -0.009143693, 0.011557804, -0.0075795967, -0.026047744, -0.014024305, -0.031052705, -0.006715306, -0.02354589, 0.00662096, 0.002723811, -0.039761156, -0.020890338, -0.0476691, 0.02336704, -0.08237183, 0.0047127684, 0.012510826, 0.053137165, -0.036315028, 0.017338762, -0.0024798387, -0.06915002, -0.068922274, -0.040859368, 0.010627117, 0.058941945, 0.014585173, -0.027203627, 0.14445902, 0.091406845, 0.062142972, -0.0020486806, 0.0037954194, -0.07480893, -0.057958085, -0.029839056, -0.03247363, -0.11202741, 0.0044952226, 0.06154257, -0.034347497, -0.046716787, -0.023722287, -0.012869703, -0.04141298, -0.04790364, -0.09437172, 0.0389805, 0.029183602, 0.12648298, -0.012707358, -0.08006543, 0.04217237, -0.0042071617, 0.05444872, -0.020098792, -0.013527566, -0.050816715, 0.041207403, 0.0021770147, 0.057583973, 0.037111618, -0.0058020707, 0.017034072, -0.04408941, -0.019876968, 0.058475718, -0.0126222465, 0.019633772, 0.0050955513, 0.09085988, 0.01848147, 0.034655843, 0.041440256, 0.017813116, -0.022147449, -0.056987733, 0.064890735, 0.001702628, 0.07147012, -0.012178279, -0.03385083, 0.038528122, 0.019365618, 0.077598125, 0.01596754, 0.033841994, -0.010799445, -0.04806032, 0.00049193756, 0.017339615, -0.018623302, -0.016494779, -0.032900874, 0.01115089, -0.03914865, -0.007836932, -0.048003808, -0.02650116, 0.044864822, -0.038995735, -0.035524536, 0.11391453, 0.07663, 0.11043484, -0.08939286, -0.05020496, -0.009073863, -0.03292311, 0.026327705, 0.020310229, -0.0067863003, 0.006054879, -0.032101367, -0.052646387, -0.027456127, -0.036457837, 0.011528259, 0.015039182, -0.025759287, 0.0040639513, 0.012653371, -0.02473027, 0.05134628, 0.018570274, 0.019139258, -0.06892194, 0.0024966819, -0.010372565, -0.08534818, 0.0394977, 0.017611349, -0.05680605, -0.004694412, 0.045223057, 0.030201422, 0.07017144, 0.026848007, -0.05659422, 0.0017231201, -0.04513614, -0.01471821, -0.01498622, -0.050279163, 0.0029620975, 0.00050666224, -0.047258846, 0.016254587, 0.041247264, 0.05610841, 0.026700208, 0.08291448, -0.010186495, -0.048550878, 0.005720007, 0.04402578, -0.025358068, 0.0025351734, 0.048823874, 0.009308531, -0.03848796, 0.033531494, 0.013718987, -0.022558572, 0.0018393334, -0.083353, -0.03861628, -0.0057220072, 0.011352055, 0.009993454, 0.003967095, 0.036255352, -0.007433323, -0.009963592, -0.01627975, 0.007091852, 0.03158009, -0.029426573, 0.009131162, -0.0082615, 0.059720635, -0.0324979, -0.031592514, 0.013150923, -0.0439494, -0.06333631, 0.002897656, 0.017495764, -0.08217481, 0.056913357, -0.07897493, -0.051071618, -0.000585315, 0.010942556, -0.019455872, 0.015501679, 0.0063039535, -0.052803285, -0.053503767, 0.014757979, 0.03265861, 0.12656124, -0.001701533, 0.009172915, 0.059019838, -0.0057200748, -0.029676666, 0.0041439673, 0.04121075, 0.011996237, 0.09554006, -0.0032087055, 0.030923096, -0.009417849, -0.044822685, -0.008478392, -0.053046867, -0.027831195, -0.00017024518, 0.07727747, 0.013931061, 0.019155618, -0.029452916, -0.016069846, -0.002916641, 0.07850221, -0.0008176051, -0.019563455, 0.04523731, 0.08248506, -0.009879327, -0.026946105, -0.009573083, 0.004556556, -0.016425846, 0.021439515, 0.026613478, -0.00572245, 0.005937836, 0.06438961, 0.041909464, 0.03136864, 0.030076591, 0.08502375, 0.010685198, -0.01010161, -0.010768496, -0.066785574, 0.04251464, -0.07751907, -0.036533363, 0.029085329, -0.0021879158, 0.039042603, 0.007866339, -0.031759016, -0.0045865676, 0.0565396, -0.09333905, -0.015504969, 0.035002306, -0.10110433, 0.020612521, 0.08500478, 0.015515474, -0.14842807, -0.009789756, 0.019877128, 0.11319651]</t>
+          <t>[-0.05287603, 0.0014596639, 0.0686129, -0.0047253584, 0.07184358, 0.050073583, 0.039510798, -0.11388081, 0.022883153, 0.034499217, -0.051097173, -0.11102162, -0.030727873, -0.007835156, -0.012632061, 0.021458423, -0.0008944755, 0.009598872, 0.06863855, 0.020547383, 0.018667458, -0.004491987, -0.07497403, 0.053727522, 0.0516214, 0.0014404746, -0.010858367, -0.010864042, -0.037712306, -0.026836772, 0.010903066, -0.03432064, -0.0027112837, -0.032727182, -0.0060238717, 0.046887286, 0.03138933, 0.008970395, -0.0074473554, -0.022066092, -0.06188953, 0.031634912, 0.014694295, -0.0360654, 0.016490838, -0.06517506, 0.099027164, 0.016773859, 0.012789904, -0.011231818, -0.03012423, -0.0127703715, 0.019325824, -0.015629942, 0.046814546, -0.014107981, 6.931927e-05, -0.035721984, -4.1088482e-05, 0.046614055, 0.042483028, -0.044927124, -0.062809065, 0.0104079265, -0.024052482, 0.039333735, -0.0028608467, 0.03394512, 0.07061507, -0.06538625, -0.0015402329, -0.019208666, -0.0065289657, -0.011914038, -0.07930538, -0.012629336, -0.035144936, -0.055807248, -0.021415798, -0.04697024, -0.067640625, -0.04007585, 0.04134744, -0.047626246, -0.010550884, 0.06933574, -0.026096394, 0.06690208, -0.0014244088, 0.14362602, 0.08269033, 0.003615925, 0.10310066, 0.016703889, 0.018894298, 0.025771786, 0.050441407, 0.06781076, 0.016381921, 0.09196747, -0.03723149, 0.01443847, -0.0729656, 0.008573841, 0.06041107, 0.014622648, 0.06201036, -0.00545862, 0.025180388, 0.03695329, -0.040510792, -0.06030966, -0.0304817, 0.069810696, -0.029804096, 0.07590471, 0.047928922, 0.059205335, -0.010611927, 0.008469699, 0.032983273, -0.087296486, 0.0011064196, 0.024944173, -0.07307137, -0.01907072, -0.0014985872, -0.007938551, -0.0005403752, -0.028491642, 0.079875775, 0.043653034, -0.016183505, 0.03258234, -0.024067055, -0.0048133535, 0.01735663, 0.091784686, -0.0012715703, 0.06502525, -0.014216217, -0.01750471, 0.018589964, -0.0403219, -0.0036082254, 0.0420253, -0.06329595, -0.02898132, -0.06755103, 0.031342, 0.017854787, 0.06686191, 0.015446248, -0.07480198, -0.057660267, -0.03916415, -0.048374083, 0.017356813, -0.029670976, -0.004893014, 0.03461351, -0.04994824, 0.0100847185, 0.0027152144, -0.033450276, 0.06570712, 0.022243379, 0.00039177292, -0.06355081, 0.032162294, -0.016094422, 0.00087150163, 0.023397222, 0.061554074, 0.024688954, -0.013341323, -0.03852862, -0.034308467, 0.024927776, 0.009047866, 0.055511773, -0.011632027, 0.0016565196, -0.07119788, 0.0046553924, 0.024969175, -0.0136072105, -0.03998923, -0.01831468, 0.009494755, -0.00773722, 0.060714312, 0.06359349, -0.036065366, -0.019258264, -0.00967541, 0.06196486, -0.004400482, 0.058344133, -0.013979595, -0.04606798, 0.027660446, 0.0820419, -0.025797814, 0.072413154, 0.025416393, 0.009651825, -0.003378225, 0.050264556, -0.00016716987, -0.04115764, -0.03284704, 0.018275777, 0.0049951314, 0.029071467, -0.027268033, -0.021734929, -0.055309054, 0.039305594, 0.031201534, -0.004085057, 0.0648013, -0.04141131, 0.023669472, -0.0430672, -0.01792141, 0.018137455, 0.013127555, -0.03435638, 0.034969766, 0.008342315, -0.001439226, -0.015152879, -0.028233126, 0.070019335, -0.06765286, -0.0071113636, 0.052882854, 0.033368237, 0.060165297, -0.018584162, -0.0046657394, -0.04348283, 0.040871147, 0.048055764, -0.053569466, -0.012482537, -0.03499473, 0.013685331, 0.008032564, -0.06815335, 0.015098894, 0.0146622425, 0.044473153, 0.102307655, -0.007770547, 0.029958198, 0.024128566, 0.008559183, -0.04026751, 0.016100114, -0.017129133, 0.017699583, 0.033143487, -0.019707002, -0.01191227, -0.015553199, 0.028373968, 0.01262515, -0.024135236, -0.060590114, 9.0342946e-05, 0.08380362, 0.036358416, 0.093271144, 0.046540502, 0.0036187465, -0.08957722, 0.021097416, -0.0767984, -0.05915944, -0.057327848, 0.04589102, 0.025705865, -0.034661338, -0.016626354, 0.028611368, -0.032448445, -0.028649295, -0.12065308, 0.023196798, -0.0676689, 0.04612869, 0.03145045, -0.059404228, 0.06337656, -0.016947255, 0.07894968, 0.048227344, 0.006709951, -0.053872503, 0.039263133, -0.020939715, 0.026083482, 0.03459258, 0.044381708, -0.022553517, -0.031319674, 0.035032537, 0.053181633, -0.022825409, 0.03333437, 0.022504203, 0.04721372, -0.022480825, 0.105099976, -0.03366823, 0.008761041, -0.022528866, 0.00030809315, 0.012705716, 0.025650306, 0.0087008905, -0.064707525, -0.019070435, 0.0036357867, -0.06842234, 0.00222268, -0.025320478, 0.07619771, 0.023593606, -0.0165126, -0.040789634, 0.008281821, -0.00043428034, -0.05148883, -0.06298481, -0.012259194, 0.046375334, -0.006979641, -0.028648267, 0.016123004, 0.07872301, -0.00025056675, -0.004974814, 0.040893488, 0.091594815, 0.08372866, -0.031957075, -0.00546502, -0.050598387, -0.03131291, 0.01013192, 0.032612752, -0.04600247, -0.028801652, 0.032138072, -0.06578671, 0.041086737, -0.030878374, -0.0010431189, 0.020169763, -0.0035370316, 0.054562315, -0.065826334, 0.007133642, -0.04222507, -0.022922128, 0.015459413, -0.015215274, 0.050985746, -0.0030674615, 0.017207589, -0.017284693, 0.06899325, -0.0065115453, -0.03642872, 0.055175953, 0.04157505, 0.01722915, 0.0034542591, 0.034197003, -0.00034684618, -0.00648298, -0.05861375, -0.011803143, -0.18620734, 0.032842115, -0.05759862, -0.05902473, 0.012854902, 0.06995368, 0.040351562, -0.06996663, -0.009882336, 0.10860135, -0.08497661, -0.017718619, 0.008339461, 0.013698369, 0.029997084, -0.036846414, 0.042207252, 0.033897758, -0.047588408, 0.042308725, 0.035279837, -0.005341933, 0.0057340823, -0.014674719, 0.010703216, -0.022733869, 0.019123852, 0.030329144, 0.021071171, 0.013881069, -0.0136655355, -0.054666653, -0.02760695, -0.02135926, -0.02406895, 0.0460396, 0.04954499, 0.050043974, 0.014065777, -0.004590087, 0.015581995, -0.08011419, 0.026632015, -0.041436214, 0.018624587, -0.03157956, -8.111168e-05, -0.09842845, -0.030046819, -0.028703365, 0.02666788, -0.031421293, 0.07954624, 0.020141587, -0.01133203, -0.040912353, 0.015996775, 0.0756424, 0.027778728, 0.02203838, 0.023806112, -0.004176707, -0.0009607223, 0.06849056, -0.0066956733, -0.012248391, 0.029242398, 0.04336501, -0.02771842, -0.06441623, -0.03266557, -0.0741872, -0.025324082, -0.06979589, -0.020841299, 0.021134736, 0.045549203, 0.00916665, 0.08323166, -0.055863217, -0.04078329, -0.0073099732, 0.082858056, -0.041940846, -0.03973034, 0.025260122, 0.08543326, 0.036127355, -0.03227681, -0.04136258, -0.02467904, 0.010847496, 0.0390787, -0.027773054, -0.028993007, -0.006574963, 0.041337978, -0.009820859, -0.044936843, 0.04121788, -0.0066422606, 0.01394779, 0.013805956, -0.019480532, -0.03673276, 0.047776744, -0.057981763, -0.010992014, 0.041436803, 0.029963125, -0.033146515, 0.0014321018, -0.008199501, 0.01760254, 0.019795751, -0.004964038, -0.005286443, -0.12149211, 0.00011084275, 0.03592326, 0.025442041, -0.03457017, -0.06533637, 0.04207713, 0.007786913, -0.033860236]</t>
         </is>
       </c>
     </row>
@@ -1603,38 +1537,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>ISFRS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>남선경</t>
+          <t>이다연</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Water dynamics in pre-cooked IQF pasta depending on frozen storage
-and thawing methods</t>
+          <t>Utilization of artificial intelligence to predict the rheological properties of hydrocolloids under different processing conditions</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Freezing has been extensively used as a convenient and affordable method for long-term food preservation in the food industry. However, the information on the quality changes during frozen storage and by thawing methods is very limited. In this study, the quality changes of the pasta samples pre-cooked and then individually quick frozen (IQF), were elucidated depending frozen storage and thawing methods NMR measurements showed that two water populations were observed in the pre-cooked IQF pasta. Distinct changes in the T2 relaxation times and signal amplitudes were not observed for 10 days. Most of the textural parameters seemed to be constant during the frozen storage and this tendency was confirmed by the tomographic analysis. When the pre-cooked IQF pasts samples were subjected to three different thawing methods (boiling, microwaving, and steaming), the steamed sample had a firmer noodle structure. In addition, the highest values of hardness and chewiness were significantly observed in the steam-thawed samples. The results of this study demonstrated that the thawing with steaming appeared to positively affect the qualities of pre-cooked IQF pastas.</t>
+          <t xml:space="preserve">A number of hydrocolloids have been extensively used in order to control the rheological properties of food products due to their unique features such as gelling, thickening, and stabilizing features. However, there are no mathematical models that can be universally applied to a wide variety of hydrocolloids with different rheological patterns. Therefore, if there is an efficient way to predict the rheology of hydrocolloids, it may be a breakthrough innovation in the food processing industries.
+A machine learning framework was thus proposed in order to describe the flow behaviors of six hydrocolloid solutions. Furthermore, the hyperparameters of the machine learning model were tuned for accurately predicting their steady shear viscosities. Different shear-thinning and Newtonian behaviors were clearly observed depending on the type of hydrocolloids and shear rates. Methylcellulose exhibited a distinct viscosity pattern, which increased with increasing temperatures, compared to the other hydrocolloid samples. When the steady shear viscosities were subjected to rheological constitutive and machine learning models, the machine learning algorithms (random forest and multilayer perceptron models) showed a better fitting performance than the constitutive equations (Power-law and Cross models). In addition, three hyperparameters of the multilayer perceptron model (optimizer, learning rate, and the number of hidden layers) were optimized using a Bayesian algorithm, leading to the superior performance of the viscosity prediction by showing high R2 and low RMSE values.
+</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.015332621, 0.019486036, 0.05783771, -0.009083704, 0.11101759, 0.0295044, 0.016036283, -0.057411112, 0.043337803, 0.007913008, -0.011697452, 0.02270769, -0.0046715913, -0.00023826072, -0.024851317, 0.04089838, -0.03820053, 0.028496003, 0.012708677, 0.023934504, -0.028750794, -0.0079214135, -0.07536362, 0.024376683, 0.07746099, 0.08256272, 0.08181022, -0.072311305, 0.020507738, -0.038068607, 0.09887865, -0.036328208, -0.02369737, -0.032109264, 0.002791209, -0.018536085, 0.024213016, 0.033086527, 0.009285461, -0.024051664, -0.012670493, 0.037341256, 0.031376176, -0.010777574, -0.06768708, -0.07524555, -0.0087980535, 0.06944288, -0.040025625, 0.049225356, 0.023056827, 0.027724182, -0.01279483, 0.036350425, 0.037534, -0.023573607, -0.066497006, 0.03318523, 0.057594676, 0.04430232, -0.09080184, -0.008719668, -0.05935471, 0.022656415, -0.006102754, -0.03687094, 0.009987768, 0.028385762, -0.044509348, -0.021001251, -0.038193166, -0.04348245, 0.042172585, 0.02496903, -0.08106539, -0.010063432, 0.009645025, -0.0016896608, -0.018313231, -0.05574161, -0.013853398, -0.04996099, 0.08326013, -0.011880355, 0.018018471, 0.0022606167, -0.04927379, 0.03334809, 0.010656231, -0.033646557, -0.022256944, -0.00064562575, 0.10806513, -0.050176326, 0.03224234, 0.032015294, 0.026258206, 0.117981516, 0.039344896, 0.08848722, -0.023550354, -0.029388312, -0.0020403767, -0.010460915, 0.0058069867, -0.0064334045, 0.10521168, -0.032302223, 0.0125085125, -0.0024095036, 0.009999414, -0.052643172, -0.055886373, 0.038368683, 0.018520081, 0.032172054, 0.0022008012, -0.013732684, -0.010160141, 0.053884428, 0.09241902, -0.02688437, -0.0025843256, -0.017848827, -0.045851238, -0.007783849, 0.023735205, -0.04967592, -0.008739224, -0.0044185785, -0.0645229, 0.049386576, -0.04962861, 0.05309599, 0.05064357, -0.039194826, -0.036226977, 0.0391587, 0.008111217, -0.03812105, 0.041265134, -0.0032434673, -0.00648139, -0.033335943, -0.04983006, 0.061835613, -0.03918433, -0.03015123, -0.0097114965, -0.024189902, -0.09108922, 0.060729384, 0.07970522, -0.03409037, 0.0053256135, -0.051003847, -0.05016168, -0.011805081, 0.023600388, 0.0012455336, -0.008291358, -0.002426899, -0.060918644, 0.020163145, 0.06736745, -0.066270396, 0.059398133, -0.0018261288, -0.021780467, -0.009698741, 0.0035335508, -0.028297707, 0.04549313, -0.01654754, 0.020568563, -0.02382145, -0.020576859, 0.009577928, -0.0066606887, -0.03295041, -0.018250244, -0.039027132, -0.0033627907, -0.045554228, -0.0005653854, 0.019652717, -0.04267541, -0.06405367, 0.04429871, -0.07080064, -0.07494838, -0.08390061, -0.007580187, 0.021577489, 0.0067093065, 0.00913388, 0.027221598, 0.053504687, -0.00073479314, -0.034789257, 0.022998044, 0.03461711, 0.06477214, -0.026660135, 0.007928713, -0.060433723, 0.03965519, 0.006223642, -0.00039660014, -0.0006749637, -0.024346227, 0.049058467, -0.024197252, -0.013957648, 0.036815368, -0.031718545, -0.02461534, -0.08787521, 0.009582154, 0.043861326, -0.031450663, -0.019179145, 0.05687873, 0.010875119, -0.04931794, -0.005329895, 0.1153638, -0.03814427, 0.017435053, -0.030772725, 0.025680691, -0.09826443, -0.04820267, -0.050864786, 0.053414103, 0.019785177, -0.0378348, -0.054982554, -0.019916343, 0.062835194, -0.008461517, 0.0035216971, 0.0002776879, 0.037688997, -0.03226679, -0.058906727, -0.043260194, 0.03738018, -0.04999476, -0.016908575, -0.02989161, 0.091388516, -0.056285482, -0.027447104, -0.028208584, 0.032000538, 0.0033352685, 0.044486213, -0.026011772, -0.015542258, 0.008183398, -0.044846386, -0.028232487, -0.053536903, -0.09096925, -0.04681758, 0.031669978, 0.032032702, 0.016131025, 0.004000047, -0.02426716, -0.09931785, 0.042144407, 0.06340042, 0.0062303757, 0.041388456, 0.029057415, -0.029105112, 0.0021131427, -0.031156193, 0.015899006, -0.010801017, -0.016186045, -0.0024931594, 0.017589439, -0.021519832, -0.0366075, -0.043007877, 0.016699754, -0.017553944, -0.051471464, -0.01679312, 0.068897486, -0.015278517, -0.06059103, 0.052737992, 0.016621228, 0.005767212, 0.03335357, -0.03836123, -0.08074145, 0.06910812, 0.07105478, 0.04543604, -0.024346467, -0.0029295564, -0.036100965, -0.0009278368, -0.034512676, 0.04728075, -0.053907964, -0.031042181, -0.00056284055, 0.0509906, -0.043510392, 0.0034396553, 0.06809868, -0.06681602, -0.028716475, -0.034346715, -0.045350157, 0.064878255, 0.025324108, 0.04153584, -0.048600487, 0.00225358, 0.0046011345, 0.00988989, -0.00649034, 0.06498156, 0.026045697, -0.029471122, -0.02512597, 0.01349335, -0.048038956, -0.059109405, -0.027966283, -0.015509741, -0.044569723, 0.010748835, -0.068263985, -0.06528191, -0.0021740505, 0.043336205, -0.011350979, 0.08077659, 0.09106768, 0.030184634, 0.031991147, 0.029277798, 0.007433818, 0.0053439187, -0.008982631, -0.061001547, 0.0020103059, -0.07629744, -0.045958832, -0.021957818, 0.011470364, -0.021459924, -0.008363109, 0.038305398, 0.0031480736, -0.068651505, 0.031939358, -0.08020435, -0.039341472, 0.008209627, -0.016110959, -0.034776635, -0.012160489, 0.03401884, 0.0027723748, -0.007580833, -0.03390661, -0.04566681, -0.0065135993, 0.0028392018, 0.06654926, -0.002203184, 0.05369744, 0.0179288, 0.010430638, 0.0074911616, -0.023508528, 0.03385906, -0.09805665, 0.047065552, -0.08261141, -0.08981211, -0.04377961, 0.06472004, 0.06287751, 0.0142674, 0.08718891, 0.06550339, 0.023977075, 0.021109372, -0.011588025, 0.010499464, 0.05368758, 0.008043975, 0.00061359716, -0.023833523, 0.0047484185, 0.070206426, -0.08300527, -0.032239053, -0.049535487, -0.030450827, -0.014030526, 0.036025368, 0.038677458, 0.045668367, -0.074938744, 0.03170829, -0.047243036, 0.042496357, 0.07303254, 0.009508691, -0.012386184, -0.0496652, -0.10288934, 0.046142563, -0.012425706, -0.07692932, -0.037919037, -0.03150377, 0.0063332776, -0.0266533, 0.00014944887, -0.0017053846, 0.01115342, -0.073924795, -0.03195016, 0.016334867, -0.00855007, -0.060297493, -0.013130735, 0.04485937, -0.0017570904, -0.049868222, 0.07455831, -0.031819303, -0.035384905, 0.0347757, 0.0138025, 0.11158668, 0.030965688, 0.0318146, 0.005915977, 0.048122603, -0.015264912, 0.053794704, 0.003493659, 0.0011470788, 0.011437457, 0.052123595, -0.05223822, 0.040612187, 0.008915498, -0.008512053, 0.013731094, 0.008400592, -0.064660765, -0.04776154, -0.023281338, 0.0020023312, -0.020744689, -0.019771343, -0.0029934158, 0.06967158, 0.019996392, -0.010343091, -0.078134745, -0.042586, -0.009496165, 0.00216244, -0.08574818, 0.02995051, 0.018183876, 0.00792773, 0.05043292, 0.06841955, -0.06924997, -0.00016864482, 0.034310497, 0.031706348, 0.06561652, -0.082821734, -0.057601035, 0.027647631, -0.022189364, -0.04204357, 0.051413707, -0.059093203, -0.05874189, 0.012189186, -0.04017309, -0.026626583, -0.041498587, -0.022274986, -0.019750198, 0.0078581385, 0.04000238, -0.002705105, 0.031352337, -0.057582658, -0.11088873, 0.07573404, 0.047687817, 0.011881642]</t>
+          <t>[0.025000818, 0.012930782, -0.040538747, -0.037909903, 0.08732869, 0.018833715, -0.010772343, -0.012517372, -0.022875015, 0.025509583, -0.016223524, 0.023245139, 0.041416608, 0.0331095, -0.01739395, 0.0108603705, -0.011510283, 0.008984338, -0.05064086, 0.013067438, 0.03267876, -0.013480542, 0.047286887, -0.0022175093, 0.04113861, -0.015762767, 0.10134817, 0.06735719, -0.06989347, -0.04558417, 0.019065406, -0.060630653, -0.024100948, -0.07404444, -0.07155662, -0.03235976, 0.07000597, 0.096265934, 0.0007097805, -0.049048286, -0.09786694, 0.0107102785, -0.019467166, 0.0075179283, 0.014053812, -0.03700664, 0.055817395, 0.0010390896, -0.007640579, 0.0039002704, -0.036950458, -0.02105508, 0.0132191675, 0.022083083, 0.07334098, 0.00782616, -0.11777967, -0.053165358, 0.009867783, -0.009966094, -0.057323854, -0.09792094, -0.09635048, -0.010014179, -0.021382647, 0.010319292, 0.030219635, 0.040457346, 0.053999156, -0.025555097, -0.06670482, 0.011096768, -0.04103109, 0.0807052, -0.070775494, -0.050646245, -0.0039774864, -0.050609913, 0.030935425, 0.033797074, -0.02383194, -0.037646975, 0.06447731, -0.001400999, -0.04053542, 0.036933813, 0.0007674784, -0.03821896, -0.008356776, -0.03264078, 0.045695625, -0.03156345, 0.0949644, 0.041496348, 0.035473812, 0.022379998, -0.030258149, 0.09861595, -0.0038812417, 0.0927558, -0.03185429, 0.069341145, -0.0275025, 0.017903188, -0.0053671775, -0.040450092, 0.0066132597, 0.013119521, 0.04412764, -0.020763732, -0.022437414, -0.061337244, -0.07480521, 0.018001597, -0.00261301, 0.013098014, -0.0036848765, 0.032157768, -0.0023968332, 0.009137965, 0.049853876, -0.014611819, 0.013535204, 0.028422398, -0.0066309036, -0.055663694, -0.0024209972, 0.010893163, -0.032537684, 0.00020622462, -0.016193276, 0.014789765, -0.012704683, 0.05249163, 0.05174026, -0.041472927, -0.045636687, -0.06404528, 0.027053434, 0.006234242, -0.023924418, -0.08992886, 0.085341066, -0.08595557, 0.05200005, 0.020574087, -0.03865339, -0.027531177, 0.039950892, 0.02199086, -0.056080654, 0.012231626, 0.017883388, 0.08179962, -0.016909106, -0.032280713, -0.07172077, 0.01980839, -0.020280594, 0.040540595, -0.0043644505, -0.011793549, -0.0660105, 0.04061806, -0.009839377, -0.05352025, 0.08942016, 0.03889482, -0.03424065, -0.01529656, 0.044155546, -0.042502206, 0.021242047, -0.024811132, 0.0054326705, -0.02576036, 0.00502083, -0.007589979, 0.01811746, -0.027381562, -0.0026736031, -0.023221085, 0.041809198, -0.06773845, -0.002151437, -0.051715523, -0.022765607, 0.00365888, -0.048678216, 0.03312739, 0.001815594, -0.036216825, 0.030231211, 0.017343335, 0.037802607, 0.08198781, 0.033835705, -0.09589656, 0.06391774, 0.049596954, 0.009410025, 0.0043022777, 0.039487667, 0.0043225223, 0.067999765, -0.020767437, 0.024614701, 0.027090423, 0.018476179, 0.04433908, -0.04253844, 0.13012882, -0.036991496, 0.036530815, 0.08625971, -0.016637478, 0.033984665, -0.036569618, -0.012813383, 0.06947957, -0.067132935, 0.036858104, 0.08035786, 0.048388544, -0.0028740733, 0.058982525, -0.034553204, -0.0028065396, -0.047973406, -0.050283004, 0.014089293, -0.049096208, 0.05752901, 0.017845564, 0.048543047, -0.0073592975, 0.03519203, -0.007613571, 0.026684158, 0.10586079, -0.01470909, 0.033170514, -0.009282531, -0.0034350846, 0.057457123, -0.029784616, -0.043168906, -0.008173493, 0.008099279, -0.03598922, -0.033831917, 0.0060237544, 0.011431902, 0.03106804, 0.07539944, -0.06854359, 0.009775879, -0.002839774, 0.04035761, 0.026763571, -0.02363043, 0.01914212, 0.0057925307, -0.04509441, 0.0021382647, 0.00267886, 0.00033976603, 0.041923143, 0.027372565, -0.014533506, -0.020274714, -0.015939089, 0.05976968, -0.0017190474, -0.022982545, -0.03174026, 0.008361364, -0.02078628, 0.0031677969, 0.019928573, -0.052156802, -0.0070540686, 0.0142579125, 0.009739661, -0.013052335, -0.044009004, 0.0079225935, -0.007538494, -0.035865482, -0.09902535, -0.013871345, -0.06807678, 0.07442126, -0.036253825, -0.044698913, 0.028721903, -0.021644082, 0.030359382, 0.040506616, -0.02565602, -0.017182421, 0.0011080154, 0.04388626, 0.08436824, -0.0024995902, -0.013055822, -0.029190993, -0.03001758, -0.014035461, -0.00778022, -0.0615491, 0.010015503, 0.0573189, 0.05713506, 0.013884388, -0.0028642293, 0.06092637, 0.04848635, 0.027627217, -0.050230894, 0.036198128, 0.0366169, -0.057691127, -0.0008512291, -0.038243596, -0.0055479147, -0.03286653, -0.0011396648, 0.0064404723, 0.046341263, -0.030484742, -0.0321404, 0.016417531, -0.0063672033, -0.044212185, 0.0033897692, -0.04649545, 0.038943138, 0.001255587, -0.007515531, -0.04606713, -0.054008413, 0.07075765, 0.020773904, 0.01096754, 0.043389257, 0.06688168, 0.10751654, -0.050641015, -0.008639178, -0.023230383, -0.010733266, 0.0015108681, -0.010958188, -0.037245672, 0.011311211, -0.017103244, -0.00031033944, 0.10135113, 0.014690071, 0.03379923, 0.028023321, -0.042870846, 0.03125984, -0.07693854, -0.08340765, -0.047053475, 0.04887479, -0.0021884537, 0.010370368, 0.056190692, -0.03811543, 0.024013115, 0.037852935, -0.08682016, -0.037763458, -0.026288416, 0.041971166, 0.022873674, -0.017420348, 0.027653344, 0.0062995167, 0.00055553246, -0.039894603, 0.01405147, 0.055198178, -0.07606804, 0.054619826, -0.05989381, -0.07079576, -0.04038762, 0.072186686, 0.037179586, 0.038288157, 0.05953636, -0.026952982, -0.06849938, 0.034635387, 0.08525348, 0.046010025, 0.017528882, 0.086163536, 0.003120875, -0.046661794, -0.081668496, 0.012342461, 0.0063573713, -0.014147697, -0.058088925, 0.049266815, 0.0051709204, 0.0057719764, -0.05800028, 0.068778485, -0.008513627, 0.020515, 0.05171336, -0.056172416, 0.021614099, -0.04501982, -0.039023608, 0.015473058, -0.017666876, -0.044437397, -0.0034261926, -0.0032779502, -0.023091363, -0.06408637, -0.04727063, -0.008347122, 0.00839516, -0.034480553, 0.017224232, -0.011110248, -0.112068854, 0.014010406, 0.041750345, 0.010882012, 0.080795884, 0.014802669, 0.024214037, -0.0488502, 0.00624715, 0.032068536, 0.025015604, -0.02157473, 0.06427131, 0.051958323, 0.019966828, -0.02618355, -0.047685925, -0.0015864901, 0.02312699, 0.02948776, 0.018898679, 0.017025042, -0.011237851, -0.011991202, -0.033375163, 0.015935894, 0.048845697, -0.010158132, 0.07009405, -0.03091552, 0.015562048, -0.030750126, -0.03148986, 0.011357399, -0.026706956, -0.026755432, -0.01498066, 0.01603502, 0.013583336, -0.05301285, 0.0048898854, -0.06318137, -0.0042682225, 0.038963594, 0.00731774, -0.011324495, -0.006487007, -0.005361749, 0.040977444, 0.052861635, -0.051278636, -0.014310981, 0.07784378, -0.04084398, -0.013983277, -0.008191216, -0.08817562, -0.015219805, -0.100547224, -0.02266257, -0.011485101, -0.0075755753, 0.005190649, 0.02548924, 0.010762021, -0.03052851, 0.04810551, 0.023302365, -0.021435184, 0.018952187, -0.044850256, 0.010772441, 0.0067953155, -0.015945489, -0.0884248, 0.07132847, -0.010154092, -0.025949221]</t>
         </is>
       </c>
     </row>
@@ -1643,11 +1578,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>ISFRS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1657,25 +1592,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Blending effects of different varieties of rice flour
-in a frying batter system</t>
+          <t>Elucidation of starch recrystallization-induced quality changes in pre-cooked rice noodles under different storage conditions</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Blending is a technique commonly used in the wheat flour industry for overcoming many processing difficulties derived from cultivation conditions However, there is a lack of fundamental information on the use of this blending technique in rice flour based products Even, it has not yet been applied to frying batter premix which is one of the large segments in the food industry In this study, 7 different cultivars of rice flours were blended each other and the blends were utilized to prepare frying batters whose physicochemical properties were characterized mainly in terms of rheology and oil uptake Based on the principal component analysis, amylose content of rice flour, oil uptake, and
-viscosity were anticipated to be a primary component When rice flours were blended at a 5 5 ratio, no synergistic effect was not observed in the pasting results When the oil uptake of frying batters made from rice flour blends was correlated with their viscosity, the blending samples with high amylose content showed lower oil absorption In addition, the fried samples with lower oil uptake seemed to possess a more crispy texture</t>
+          <t xml:space="preserve">Pre-cooked noodles with long shelf-life and cooking convenience have been recently receiving a lot of attention in the global food market. However, thermal treatments during preparation and their high moisture contents bring about critical quality losses during storage, that have not been systematically evaluated yet. 
+In this study, the quality changes of the pre-cooked noodles made from rice flour were investigated in terms of thermal, tomographical, and water mobile characteristics. In particular, their physicochemical changes were monitored under different storage conditions (room temperature, refrigerated, and frozen) for 4 weeks. The T2 relaxation time and signal amplitude of the pre-cooked noodles were prominently changed during the refrigerated storage, showing water syneresis from starch recrystallization. In addition, the texture properties were highly correlated with the results of water mobility, presenting higher hardness and lower extensibility. Furthermore, non-destructive tomographical analysis demonstrated higher structural density and thickness of refrigerated noodles, which were correlated with the microstructural images by SEM. Furthermore, the higher degree of starch recrystallization was thermally observed in the refrigerated noodles during storage, followed by room temperature. This result might provide more fundamental information on the quality changes of pre-cooked noodles during storage, probably contributing to the quality improvement of pre-cooked starchy food products.
+</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.018011197, -0.028414851, 0.076393455, 0.0032128158, 0.10883486, 0.008561666, 0.0018343902, 0.025581358, 0.028999995, 0.054994985, -0.0773184, -0.022123123, -0.0073232823, 0.023073437, -0.06629721, 0.025168743, -0.0005158262, 0.059048124, 0.041459788, 0.05049883, -0.038490877, -0.004260275, -0.039663587, 0.041687068, 0.13058825, -0.020067386, 0.014269852, -0.04621299, -0.025368126, -0.012632002, 0.06537029, -0.062995866, 0.007774378, -0.024142636, -0.01982525, -0.019351061, 0.035947245, 0.0028221367, 0.030661449, -0.021927493, -0.055417396, 0.0011417479, -0.017417127, 0.0066465884, 0.0013997827, -0.027604707, 0.03738607, -0.0015952985, -0.050186962, 0.0268049, 0.044769518, -0.007106302, 0.008641078, 0.040162586, 0.06098815, -0.01222297, -0.08230645, -0.01792683, 0.005159904, 0.0068110735, -0.018584065, -0.038509753, -0.006338386, 0.036316026, -0.02624139, 0.025603244, 0.033990283, -0.039329007, -0.0044670734, 0.017152134, -0.05602123, -0.040384226, -0.033190854, 0.010802402, -0.05306142, -0.0825586, -0.00834642, -0.0050356663, -0.07425774, -0.06810066, -0.016073333, -0.026600597, 0.05845037, -0.013719131, -0.06357758, 0.022451209, -0.0063543324, 0.042225752, 0.004685838, -0.017547633, 0.012637808, 0.004479496, 0.11985202, 0.048849866, 0.001547095, 0.058503866, 0.07488614, 0.07367837, 0.03878177, 0.020585066, -0.008523051, 0.037283454, -0.055500623, -0.012886687, 0.044463366, -0.027533459, 0.009335496, 0.023446742, 0.03965335, 0.04139421, 0.0013740216, -0.0636118, -0.03807318, 0.012840123, 0.03672069, 0.04082913, 0.029609535, 0.053042874, 0.00854728, 0.01598187, 0.08314273, -0.054687377, 0.039365675, 0.049001493, 0.04606843, 0.021782046, 0.048300005, 0.0057477416, -0.0407643, -0.09319288, 0.013314207, 0.07433288, 0.004038213, -0.014679166, -0.007888345, 0.008021511, -0.044128846, 0.026100093, 0.029628046, -0.067857504, 0.0013563161, -0.015697908, 0.053615365, -0.098112956, 0.004183992, 0.005083265, -0.046384614, -0.00871452, 0.020551575, 0.008453457, -0.02573423, -0.014414505, -0.018763438, 0.03187997, -0.02102084, -0.09495823, 0.013592884, -0.048274003, -0.0971035, 0.003097862, 0.0042370013, 0.0067913327, -0.008545954, 0.03693781, 0.040608954, -0.0070469338, 0.13006467, 0.00839999, 0.008141216, 0.04566651, -0.0077129067, -0.006803326, 0.04068029, -0.013614905, -0.051867656, -0.003516748, 0.014058213, -0.086919695, 0.059166964, -0.04343492, 0.044256072, -0.068160996, 0.03348807, 0.020776106, 0.036323026, 0.029935807, 0.029548712, -0.015983393, 0.008031829, 0.012279573, -0.07152294, 0.006218316, 0.010938683, 0.049670942, 0.027020685, -0.009136578, 0.0021291429, -0.04197211, 0.031616706, 0.0713588, 0.039470237, 0.05439615, 0.100298114, -0.01224014, 0.07623023, 0.022236807, -0.008246978, 0.00036905866, 0.008957988, 0.04759612, 0.0052869013, -0.0045104316, -0.0036411937, 0.004212348, 0.07179084, 0.009490709, 0.019476915, -0.017280083, 0.02469126, -0.009877131, 0.024738604, 0.020779775, -0.03412467, 0.048632406, -0.06021281, 0.044055853, 0.05497079, 0.067464225, -0.026931332, -0.06772088, 0.047741577, -0.06508855, -0.06545709, 0.00983059, 0.01842584, 0.07160609, -0.06515774, 0.009657865, -0.0056902943, 0.08280676, -0.06913767, 0.0058839815, 0.03679773, 0.0367736, 0.025667494, -0.004655836, -0.019974193, -0.02310967, -0.061832726, -0.005076279, -0.034020323, 0.0043662647, -0.02170884, -0.08131745, -0.040770505, 0.022316618, 0.051212367, -0.0981868, -0.08689358, -0.035151873, 0.04455599, 0.0012300148, -0.005323747, 0.0047160177, 0.02613928, 0.0055196946, -0.0181675, -0.06887116, 0.042878702, 0.053692587, 0.010843959, 0.040618774, 0.019754551, 0.020558644, -0.047467258, 0.011063447, -0.01651747, -0.06332757, -0.008623142, -0.023411166, -0.06022303, -0.07226934, 0.04973437, -0.05362045, 0.02783637, -0.04435429, -0.089991204, 0.013848288, -0.065908335, -0.009731449, -0.02485332, 0.0075431815, 0.02977105, 0.0034449801, -0.057498205, 0.047200277, -0.058831424, 0.02839512, -0.024242103, -0.016682511, -0.016185675, -0.0032902623, 0.024267506, 0.0035589903, -0.020618359, -0.033278786, -0.014204165, 0.010411148, 0.048112925, 0.020121654, -0.026378062, -0.02305401, 0.039240167, 0.03264677, -0.082571685, -0.0047885324, 0.008183906, 0.0011420015, 0.0065206243, -0.03332859, -0.009305481, 0.04327739, -0.044299796, -0.026554527, -0.07509007, 0.050616447, 0.00944812, -0.04229359, -0.016224736, 0.06728685, -0.04650875, -0.010549008, 0.033958875, -0.050729785, 0.020635255, -1.8950086e-05, 0.010778251, -0.0063214484, -0.05288647, 0.00712965, -0.10006964, 0.04598359, 0.03872981, 0.037780896, -0.024983272, 0.07706556, 0.012127443, 0.0032521011, -0.011405322, -0.03781153, 0.0028711697, -0.014505574, -2.9151328e-05, -0.0036166732, -0.029713845, -0.03534405, -0.051087715, -0.050826248, 0.024453433, 0.0020486584, 0.011103043, -0.04162576, 0.014650011, -0.042116564, 0.06268098, -0.0038203807, -0.050889708, 0.015357527, -0.03366181, 0.010046215, 0.013112195, -0.0075075584, -0.0980244, -0.019527974, -0.062336363, -0.047921885, -0.012352279, 0.088859856, 0.04491465, -0.008805677, 0.006527302, -0.004852317, 0.023064753, -0.094081275, 0.03597486, 0.040370457, -0.105019, 0.076846465, -0.03803986, -0.11921214, 0.02865056, 0.06687833, -0.02197193, 0.069371685, 0.0031178754, -0.05935037, -0.07673172, 0.05558849, -0.078407705, -0.017323196, 0.07250922, -0.07931018, -0.048910376, 0.018662026, -0.044269897, -0.046365503, 0.021856938, -0.054862313, -0.026444154, -0.051092867, -0.020791551, 0.0024010492, 0.0063128974, 0.042066384, 0.06235981, -0.004378438, 0.007518382, 0.015590811, 0.0064454586, -0.012625951, -0.07180338, 0.019113733, 0.017490368, 0.044415105, -0.017539214, -0.020505313, 0.026876526, -0.061390013, 0.01224, -0.034000903, -0.066210955, -0.14674973, -0.0041548363, -0.01370951, -0.105855204, 0.04951454, -0.0019528567, 0.016936967, 0.049457725, 0.033817317, 0.030801596, -0.05219522, -0.07196718, -0.036213208, 0.0031296855, 0.037947655, -0.015287656, 0.02315207, -0.011006418, -0.020315701, -0.024886142, 7.8695826e-05, 0.03151301, 0.05659859, 0.016954944, -0.04844335, -0.025675312, -0.046111517, 0.03781063, -0.06692506, -0.0043808017, 0.021877367, 0.10292402, -0.024461115, -0.04886016, -0.088753186, -0.016754465, 0.017849745, 0.0049661603, -0.031818576, 0.011417182, 0.06416316, 0.011074764, -0.0005969596, -0.0057160696, -0.016483422, -0.024301613, -0.013712988, 0.037880935, -0.049139693, 0.0062628193, -0.0052005113, 0.054353386, 0.06406026, -0.00823521, 0.02579204, 0.013587663, 0.02526741, -0.014913022, 0.03394349, -0.016530877, -0.009544621, -0.05351911, -0.012753565, 0.009043687, 0.040775668, -0.015972136, 0.012221721, -0.0015403733, -0.049101043, 0.03565512, 0.007460567, -0.017613126, -0.010416275, 0.016464435, -0.029784981, 0.025126018, -0.00069817796, -0.08142997, -0.015458373, 0.0002990543, 0.05716211]</t>
+          <t>[0.010261329, 0.012152368, -0.022186177, -0.0034529953, 0.091546685, 0.024125556, 0.0045048757, -0.013757888, 0.034429956, 0.03308303, -0.094049476, 0.024166543, -0.016637303, 0.026758604, -0.01812986, 0.03460175, -0.048587114, 0.04032353, 0.027525965, 0.0001626194, -0.030475741, -0.0036745938, -0.068922035, 0.017628716, 0.10476438, 0.020119155, 0.08106771, -0.053005844, 0.024423398, 0.021697331, 0.078234166, -0.027141515, 0.010513192, -0.0150693245, -0.011593373, -0.06515061, 0.041914083, -0.030760063, 0.0051135924, -0.012572295, -0.04982471, 0.006982514, -0.025460081, 0.014323414, -0.078860715, 0.007518333, -0.03294157, 0.026093988, -0.07120223, 0.04431916, 0.07204846, -0.03358341, 0.015470668, 0.007550431, 0.02796682, -0.033330012, -0.053896014, 0.014544173, -0.05545307, 0.028592084, -0.072839946, -0.0555361, -0.03970856, 0.011712263, -0.03610212, 0.0365758, 0.045782153, 0.03236269, -0.0027623686, 0.037707478, 0.008116955, 0.0020535192, 0.0047373893, 0.057155218, -0.056405183, -0.017855877, -0.011795328, 0.0077657676, -0.056920547, -0.04809442, 0.0007255756, -0.056086145, 0.058634594, -0.019189814, -0.007035351, 0.052405648, -0.03842484, 0.0019509265, -0.030004287, -0.050321236, -0.012590145, -0.008399211, 0.119260095, -0.0030546947, 0.049301215, 0.03200535, 0.0390625, 0.079660006, 0.040106773, 0.074058466, 0.0065757893, 0.0328222, -0.02998274, -0.018181004, 0.032149617, -0.027322758, 0.06021518, -0.00880731, 0.010639402, 0.030230686, 0.038081795, -0.047494333, -0.06971248, -0.0107836975, -0.00022265688, 0.04304344, 0.028620733, 0.019110989, -0.015292618, 0.12399204, 0.04252794, 0.029299064, 0.015364119, 0.037599392, -0.025673224, 0.012553117, 0.036531076, -0.023003811, 0.007905196, -0.053146753, -0.028790278, 0.031834763, -0.01824201, 0.097018085, 0.0155778425, 0.0021496697, 0.053979598, -0.013102206, 0.03919095, -0.028600095, 0.0129397735, -0.013709978, -0.016392685, 0.00069597724, 0.0010984472, 0.033432897, -0.13433127, -0.03288534, 0.026117757, -0.031284884, -0.02429984, 0.03799735, 0.04100916, -0.06731721, -0.029960088, -0.041784693, -0.038256537, -0.011530033, 0.010781138, -0.0035710174, -0.0038751785, -0.05428058, -0.043738037, -0.013327728, -0.023330744, -0.051929194, 0.04724747, 0.019025004, -0.02278687, 0.056948036, -0.009061142, -0.014922065, 0.01826089, -0.05045859, -0.042216398, -0.029803136, -0.010043145, -0.004525654, 0.06573096, -0.021174155, -0.00090587186, -0.06144617, -0.006168967, 0.0062931147, 0.010721327, -0.006710299, -0.036604613, -0.047853902, 0.024478842, 0.039075192, -0.11353894, -0.08299925, 0.01763585, 0.008058783, 0.008354949, 0.013280971, 0.045116078, 0.03586903, 0.0711246, 0.055676125, 0.06552086, 0.04044278, 0.07853127, -0.052982565, 0.017854754, 0.027833905, 0.0071408907, -0.03740251, -0.021263035, 0.04063732, -0.052144114, 0.05810821, -0.01616648, -0.026090462, 0.05711325, -0.033940785, -0.043531068, -0.07769455, 0.028594019, 0.06121386, -0.056458987, -0.05299106, 0.016108818, -0.0066284942, -0.028476495, -0.0075897886, 0.05706174, -0.040853817, -0.04092558, -0.007082901, 0.03602916, -0.068568185, 0.005071214, -0.090644434, 0.039395645, -0.0043524993, -0.047619313, -0.014985171, 0.011677206, 0.073427506, -0.047454108, 0.008544901, 0.022813903, 0.06229196, -0.057755806, -0.07738338, -0.0130710285, -0.0035286413, -0.077706076, 0.028592383, 0.032546584, 0.078120515, -0.06726048, -0.06519236, -0.0010713388, -0.012965208, -0.011870819, 0.02143719, -0.050699335, -0.0027640485, -0.022762168, -0.05861714, -0.0031125196, -0.027541671, 0.015998462, 0.014780492, 0.012094759, 0.010301171, 0.008253876, -0.004014534, -0.005547572, -0.10706522, 0.02493888, 0.036911406, 0.04443864, 0.03105837, -0.00028876495, -0.06531113, 0.003585108, 0.007268155, -0.007899445, 0.008746828, -0.010494508, -0.092850305, -0.029538086, -0.017264107, -0.024079483, 0.0153912855, -0.060892496, -0.023047581, -0.028566103, -0.029187374, 0.08679156, 0.020939857, -0.060501836, 0.048518687, -0.019653272, 0.05126342, 0.014215096, -0.0046417518, 0.021263184, 0.03739661, 0.008317714, 0.037688907, -0.004764773, -0.013336094, -0.00877413, 0.020724306, 0.07376218, 0.050000362, -0.02691565, -0.025013559, -0.052332334, 0.03758235, 0.010158207, 0.03536931, 0.015195815, -0.068429455, -0.03255496, -0.04855123, 0.003813626, 0.07344293, -0.011240156, -0.0032306253, -0.05276934, 0.08531041, -0.04596427, 0.006310609, -0.034502804, 0.034654073, 0.019684581, 0.0025238032, 0.0006050327, 0.028093945, -0.025209805, -0.0056479466, -0.03417608, -0.02313715, -0.019905008, -0.017941484, -0.06767989, -0.04213661, -0.012243789, 0.050232597, -0.032648716, 0.07951134, 0.099388495, 0.06538108, -0.03266803, 0.033694968, 0.0051352168, -0.009524227, -0.0115914615, -0.055207677, -0.049996577, -0.043484244, -0.06290766, -0.039931603, -0.000619549, 0.009305866, 0.028483452, 0.009481814, 0.006675699, -0.07530961, 0.039020054, 0.007413534, -0.013260062, -0.010334745, -0.07161953, -0.053736046, -0.006496057, -0.02247496, -0.016754746, 0.017191425, 0.0028824988, 0.018111559, -0.011942436, 0.058613066, 0.052958347, 0.0052942857, 0.049267005, 0.03348226, 0.030221488, -0.040031675, -0.046836115, 0.022650726, -0.10059594, 0.075071394, -0.017300058, -0.050957404, -0.0038195818, 0.09226121, -0.017363109, -0.0053041545, 0.03959384, 0.020782532, 0.028899843, 0.018800166, -0.006636293, 0.05577591, 0.027736442, -0.04940718, -0.033337127, 0.0075588995, -0.06655373, 0.075407125, -0.084622115, -0.012225399, -0.07042771, -0.048718795, 0.017115528, -0.00016468728, 0.060157202, 0.011476546, -0.059824176, 0.014763616, -0.03280952, 0.052730724, 0.075054504, 0.003201036, -0.051370166, -0.002462596, -0.061062004, 0.006581395, -0.036521465, -0.043149628, -0.034067262, -0.013646149, -0.007551726, -0.0077473694, -0.029134102, -0.03932664, 0.00931433, -0.08138831, -0.05335886, 0.019240463, 0.036254413, -0.0067210803, 0.045664143, 0.00078463723, 0.043667156, -0.067250475, -0.025867116, 0.040542375, -0.00698634, 0.07244088, 0.031202864, 0.07446697, -0.022755848, -0.009212201, -0.011166935, -0.0041112616, -0.0067865625, 0.07231657, 0.047288418, -0.044489134, 0.003056404, 0.05292636, 0.031853497, -0.046050116, -0.03745164, -0.05174308, 0.07655204, -0.051810097, -0.033370864, -0.02900928, 0.005711922, 0.011949663, 0.014292839, -0.007951256, -0.0018637622, 0.051722765, 0.013876357, 0.0047561266, -0.027900793, -0.033360153, 0.01950925, -0.02311545, -0.014992394, -0.00045150297, 0.014644344, 0.0022890666, 0.065242924, -0.0066455845, -0.060755808, 0.049242865, 0.060089763, 0.03399031, 0.0052306307, -0.037395496, -0.047405273, 0.01264171, -0.068871215, -0.052328482, 0.01531084, 0.019019831, -0.031984087, -0.035613783, -0.0201467, -0.021221446, 0.0038579886, -0.005375991, -0.020736303, -0.007975436, 0.0127228005, -0.017207442, 0.019787751, -0.006585677, -0.1468779, 0.06124294, 0.036410294, 0.032503452]</t>
         </is>
       </c>
     </row>
@@ -1684,41 +1619,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IUFOST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이가원</t>
+          <t>정성민</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>광주</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>Sigapore</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Machine learning; AI; wheat flour; classification</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Establishment of preparation conditions of rutin
-enriched materials from
-Tartary buckwheat by
-products and utilization as novel functional ingredients for noodle making</t>
+          <t>Machine learning classification of wheat flour varieties based on their physicochemical features over the past two decades</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Buckwheat has been considered as a highly nutritious ingredient due to a variety of functional phenolic compounds, especially rutin After milling process, only buckwheat flour is utilized for limited food applications such as noodles while by products like bran and hull are discarded as waste despite of their functional properties derived from a high level of rutin Therefore, there is a need to explore new applications of buckwheat by products, especially bran fractions, as a valuable functional ingredient source of rutin This study aimed at developing experimental procedures to prepare rutin enriched materials ( under diversified extracting conditions and also applying REMs as new functional ingredients to frozen dough breads Tartary buckwheat grains were first treated with steaming in order to deactivate rutin degrading enzymes They were then ground and divided into three different milling fractions with sieving 40 40 100 and 100 mesh) The bran fractions 40 100 mesh) was then subjected to ultrasonic assisted solvent extraction with ethanol which is regarded as GRAS for extracting rutin Specifically, various extraction conditions such as ethanol concentration and ultrasonication time/temperature were optimized Consequently, the use of 70 ethanol with 30 min ultrasonic agitation at 40 C led to a marked increase in rutin content Then, when the REMs were incorporated into the
-formulation of wheat noodles up to 1 its rutin contents had much higher value than existing buckwheat noodles In addition, their physical properties didn’t have significant differences compared to wheat noodles in terms of thermo mechanical, pasting, Thus, the effective preparation conditions for rutin enhanced materials ( from tatary buckwheat byproducts were optimally established and the resultant REMs were positively utilized as a good source of functional material in frozen noodles, consequently encouraging the food industry to extend the use of buckwheat</t>
+          <t>Machine learning has been extensively utilized as state-of-the-art powerful technology in order to make predictions and the food industry is no exception. The physicochemical features of US wheat flours harvested from 1999 to 2020 were subjected to machine learning analysis for classifying wheat flour varieties, and classification performance was evaluated depending on four different machine learning algorithms. Principal component analysis demonstrated that 79.9% of the total variability were explained by two principal components that seemed to be related to protein content and water absorption. The multilayer perceptron neural network was the most effective in correctly classifying the wheat flour varieties, followed by the support vector machine with radial basis kernel, k-nearest neighbor, and decision tree algorithms. The same trends were clearly observed in terms of F1-score. Bayesian optimization algorithm demonstrated the superb performance of the multilayer perceptron neural network with tuned hyperparameters by showing a classification accuracy of 98.91%. The results of this study may provide the potential to be introduced as a novel technology to control the qualities of wheat flours and related products in the food industries.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.019657677, 0.032445807, 0.06585506, 0.025386676, 0.094218604, 0.036055524, 0.009722563, -0.000102072256, 0.08068334, 0.034329463, -0.054807097, 0.015408626, 0.003574659, 0.07748176, -0.003018044, 0.004658329, -0.041253414, 0.043523856, 0.053492017, 0.054406915, -0.032643605, -0.02307637, -0.031683106, 0.011845601, 0.09248562, 0.0046999673, 0.009237603, 0.00054038595, -0.021314707, 0.011590836, 0.04897472, -0.046768308, -0.018808223, -0.044024978, 0.012898187, -0.068575725, 0.044493143, -0.011134629, 0.048268333, -0.008398518, -0.08197503, 0.022017537, -0.0040630265, 0.0423536, 0.031419992, -0.015119779, -0.004578224, -0.04165508, -0.038815837, 0.035911795, -0.04810443, 0.031526264, -0.0006876354, 0.042804256, 0.041761655, -0.033079315, -0.06524417, 0.02322309, 0.0147308735, 0.08436783, -0.017530285, -0.04467212, -0.05726178, -0.085236005, -0.08852288, -0.035636734, 0.06489554, 0.04361322, 0.0015111987, 0.040366568, -0.014283775, -0.020670308, 0.003580446, 0.04437895, -0.04963954, -0.029461777, 0.053541407, 0.010352365, -0.057324793, -0.0054401695, -0.06312769, -0.05098591, 0.040632594, -0.0729385, -0.06117363, 0.0232857, -0.008192262, 0.04221741, -0.027378477, -0.025866434, 0.028690765, -0.044957202, 0.11329609, 0.021345517, 0.027478268, 0.0456231, 0.16615874, 0.06697355, 0.03343879, -0.031545702, -0.03251319, 0.07866579, -0.0033921788, -0.010449048, -0.001516825, 0.038273685, 0.04426063, -0.02368898, 0.011232656, -0.01556833, -0.025033765, -0.050048828, -0.050457917, -0.015839633, -0.015684484, 0.09974412, 0.01954427, 0.090647995, 0.024853999, 0.09948011, 0.04675204, -0.0010111511, -0.06765251, 0.049164943, 0.00969926, 0.029118594, -0.036431782, 0.01870747, -0.0662628, -0.046021402, -0.038603242, 0.087603204, -0.020545095, 0.0024550136, 0.013132267, 0.025261454, -0.010020289, 0.005748287, -0.00029669964, -0.031717848, 0.003918614, -0.0033630352, 0.04349039, -0.091295436, 0.0032830979, -0.0029884416, -0.019372806, -0.040983014, -0.02151488, 0.035189286, 0.041520588, -0.045203194, 0.014372554, 0.029690867, 0.024904618, -0.0669144, 0.025318708, -0.03424764, -0.016652672, -0.04785936, -0.0004266016, -0.021786533, -0.018708605, 0.020319067, -0.001092444, -0.015601301, 0.041189026, 0.013132752, 0.022610357, 0.0023934501, -0.045011107, -0.018970666, 0.012487805, -0.011672861, -0.008986855, -0.043483216, -0.030044395, -0.08015112, 0.04796433, -0.053485554, 0.054197054, -0.01733653, -0.0028908106, 0.040999122, 0.03691241, -0.04428852, 0.0060951198, -0.0047582933, 0.05515566, 0.0002905405, -0.13170983, 0.011095605, 0.050533276, 0.014545417, 0.045303833, 0.05969908, -0.010100562, -0.08361241, 0.060340356, 0.046624836, 0.012883733, 0.039270323, 0.04388909, -0.0060384767, 0.047331598, -0.026390443, 0.031190358, -0.032121826, 0.008682907, 0.024171323, -0.06387305, 0.008312104, -0.004057997, 0.018428033, 0.06579598, -0.0075062388, -0.0058225505, 0.019681318, 0.012533816, 0.02356936, 0.0748657, -0.060024116, -0.080487564, 0.052553862, -0.07269111, -0.003705227, 0.036253497, 0.011463859, -0.055116728, -0.023542086, 0.018884975, -0.0665643, -0.09216299, 0.008992429, -0.019456044, 0.06695063, -1.3934914e-05, 8.030934e-05, 0.013962379, 0.09474989, -0.050212458, -0.012920227, 0.053338498, 0.026591107, -0.02784223, 0.0089238975, -0.0632599, -0.004212496, -0.08591915, -0.010728463, -0.013609335, 0.02342225, 0.06564871, -0.10277534, -0.011268232, -0.028589716, 0.054824404, -0.045545124, -0.038366415, -0.05142357, 0.055294562, -0.052126992, -0.053751852, -0.054904442, 0.038988292, 0.022966124, 0.010188946, -0.0029893513, 0.028730068, -0.031137737, 0.005864167, 0.055630192, 0.023551384, 0.038218383, -0.03152112, 0.02033645, 0.012564541, -0.09353443, 0.007028856, -0.007022428, -0.059718855, -0.051468343, 0.034237184, -0.07599476, -0.036274318, -0.019830093, -0.052051563, 0.005117724, 0.017817592, -0.06788464, 0.009759046, -0.03246075, 0.052897945, 0.04670531, -0.05497262, 0.08669727, -0.045767147, 0.09352122, -0.03465004, -0.008284516, 0.026924547, -0.043690942, -0.0192433, 0.033161696, 0.024131678, 0.019149551, 0.03958404, 0.040300425, 0.0072607268, -0.007404188, -0.02856716, 0.002660204, 0.0054062046, 0.07273653, -0.012601359, 0.03024744, -0.00422115, 0.017611826, -0.015813187, -0.048419405, 0.058697917, 0.12201553, -0.027335873, -0.020220185, -0.049778316, 0.08153184, 0.0076216785, 0.023314912, -0.043095782, 0.03364051, -0.019079613, 0.0012599127, 1.622364e-05, -0.022019872, -0.0489395, -0.03637413, 0.02610379, 0.059293564, -0.062917195, 0.009482824, -0.04011138, -0.011745459, 0.01098595, 0.017942913, -0.019677654, 0.086899996, 0.0206432, 0.039779287, -0.042097792, -0.055971496, 0.035136424, 0.0022406457, -0.039900806, -0.002287835, -0.0048194593, -0.018359227, -0.073422186, -0.029320551, 0.008540385, -0.011015445, -0.0039093127, -0.11174965, 0.001969144, -0.03784382, 0.037516188, -0.016380697, -0.013894858, -0.02181569, 0.005664925, 0.013203666, -0.0014323215, 0.012152113, -0.025593286, -0.009524079, -0.03938741, -0.0012734814, -0.022828097, 0.029761735, 0.07585285, -0.039506983, 0.01804571, 0.015534217, 0.023316855, -0.105422325, -0.03592617, -0.015577125, -0.06812165, 0.112770244, -0.033103727, -0.060298085, -0.035944313, 0.0959066, -0.032016512, 0.055326506, 0.014570517, 0.035222117, -0.076512225, 0.04936919, -0.053299077, -0.025147693, 0.02344685, -0.022707364, -0.001814911, 0.014441552, 0.01323705, -0.03732547, -0.0052947057, 0.020960357, 0.0005729489, -0.021223519, 0.094822735, 0.014125875, 0.050765432, 0.029723514, 0.033392996, -0.01367002, -0.007772908, 0.060719185, 0.009370044, 0.024385056, -0.03313304, 0.0043763733, 0.004679385, -0.019343767, 0.0066425903, -0.086419344, 0.012431806, -0.0805882, 0.04497653, -0.022101553, -0.09389442, -0.06801337, -0.008626054, -0.004074208, -0.055382077, 0.04666094, -0.006234004, 0.0642643, 0.049116626, 0.032782413, 0.012759704, -0.051833075, -0.012595835, -0.0017259765, -0.010131765, 0.02397144, 0.012362847, 0.087352246, 0.016309993, -0.038127333, -0.032496225, 0.014772287, 0.046054807, 0.057054732, 0.039578002, -0.059425652, -0.011328035, -0.03330304, -0.016488867, -0.0003590467, 0.034568235, -0.01334479, 0.10833135, -0.03731618, -0.0026674126, -0.09491252, -0.025969725, 0.019097976, 0.042655908, 0.0021310467, 0.03107403, 0.027114093, 0.027673014, -0.05470921, -0.012023287, 0.00986789, 0.0060736965, -0.0230528, 0.033499755, -0.02148321, 0.059953187, -0.034581237, 0.07558406, 0.072069116, -0.024040515, 0.07662634, -0.008732604, -0.0026865895, -0.021482995, 0.033256628, -0.08498372, -0.0072672577, -0.0809236, -0.050246757, 0.05124688, 0.040936336, -0.014752709, -0.039600566, 0.028828142, -0.010148639, 0.0053151282, 0.0013902066, -0.022609334, 0.002142308, 0.0077024996, -0.044319313, 0.0016754855, -0.019122485, -0.101696126, 0.010631499, 0.042145938, 0.03760446]</t>
+          <t>[0.011581752, -0.03041012, 0.0019294716, -0.027647598, 0.04023637, 0.029829517, 0.040772505, 0.031140761, -0.022233518, 0.009358632, -0.10259891, 0.02462095, 0.0075790454, 0.017608266, -0.02116144, 0.04361254, 0.0549233, 0.044459715, -0.039034005, -0.008567707, 0.03317084, 0.029613238, -0.04532135, 0.012002506, 0.106783755, 0.07074202, 0.030563291, -0.047354795, -0.03998154, 0.005486669, 0.02257677, -0.0698426, 0.08555182, -0.025995063, -0.0075406064, -0.025632234, 0.007898478, 0.048842307, 0.0041251555, -0.026956499, -0.043974843, -0.022520741, -0.05028618, 0.0010113608, -0.00038324666, -0.019042054, 0.00033827405, -0.004270694, -0.03746557, -0.016993191, -0.015655356, -0.020066425, 0.0056817783, 0.05896913, 0.07768437, -0.020976942, -0.065923505, -0.039852537, -0.009027405, 0.0468104, -0.08205157, -0.062419467, -0.023777232, -0.0027277682, -0.019805668, -0.03441629, -0.011254418, -0.014983734, -0.027142009, 0.025343498, -0.017131412, -0.04317185, 0.016375177, -0.039877523, -0.06615341, -0.060290985, -0.016597113, 0.0045219166, -0.023196824, -0.026018007, -0.013315473, -0.007651651, 0.04162288, -0.012936507, -0.025978899, 0.0826056, 0.045725543, 0.040069778, 0.026869608, 0.03160988, 0.016153771, 0.0014072075, 0.12032655, 0.049089562, 0.054227177, 0.03610851, 0.027955398, 0.0775838, 0.024214616, 0.06139573, -0.042845156, 0.06455341, -0.029843993, -0.03938361, 0.034767345, 0.007101216, 0.064682014, 0.009960733, 0.032916524, 0.020702478, -0.005147464, -0.055043023, -0.023425315, 0.005789532, -0.004126149, 0.013097617, 0.028048618, 0.058775898, -0.012019291, 0.12093691, 0.018073054, 0.041210875, 0.0008372169, 0.06628427, 0.0045263167, -0.005476704, 0.023611821, 0.009200689, -0.02280272, -0.068482034, 0.07940705, 0.08655389, -0.022994284, 0.024603408, 0.009497849, 0.058859296, -0.059908967, 0.0014529693, 0.034367803, 0.02503328, -0.0030469545, -0.062110975, 0.040731557, -0.06544512, -0.0015873249, -0.048318464, -0.02276393, -0.03135548, -0.002537696, -0.037687022, -0.019915776, 0.031012166, 0.02894783, -0.006994761, -0.03277342, -0.024233114, -0.06048061, 0.0028864094, -0.046640176, 0.03527075, 0.014219258, -0.033328522, 0.010713162, 0.03057535, 0.033395007, -0.013997631, 0.030416578, 0.00859053, 0.035641897, 0.028973775, 0.049478155, -0.004981957, 0.0042426777, 0.0562027, 0.027307417, -0.04786221, 0.01183873, -0.07790571, 0.07455946, 0.026108315, 0.057840183, -0.07475474, 0.0022061795, 0.013050059, 0.016126413, -0.011373685, -0.02528348, -0.013550272, -0.0128350565, 0.018835144, -0.07208911, -0.027129415, 0.041371312, -0.004168974, -0.003469014, 0.00060245994, 0.031207452, -0.04554358, 0.08301489, 0.08422142, 0.023029692, -0.02106564, 0.061615758, -0.007262147, 0.09220913, 0.04503694, -0.057202738, 0.027918836, 0.021874724, 0.043259103, 0.03377688, 0.008240737, 0.060952075, -0.017262004, -0.0067655095, -0.061704993, 0.060287572, -0.020208808, 0.08129281, 0.01636734, 0.012583888, 0.05042879, 0.017898105, 0.11247083, 0.007088578, 0.013790101, 0.089175746, -0.01780032, -0.07323265, -0.05742754, -0.007235984, -0.038382158, -0.00047176654, -0.02241605, 0.02802283, -0.012974817, -0.033172503, -0.014703568, 0.029258905, 0.062345956, -0.035634656, 0.035434965, 0.012342093, 0.073272265, 0.07246292, -0.009726745, -0.023532614, -0.0057585714, 0.002211516, 0.0038730188, -0.14966518, 0.0069693467, -0.020079019, -0.08429938, 0.009873492, 0.07536473, -0.012051956, 0.0006808712, -0.056222104, -0.014541949, 0.05585238, -0.04183649, 0.003456187, 0.033029515, 0.021545269, 0.028596384, -0.008528734, 0.013529294, -0.012674619, 0.0009716653, 0.03787457, 0.046146706, 0.081773154, 0.0056577334, -0.013331574, 0.01745915, -0.012810902, -0.019724466, 0.015935645, -0.04274991, -0.010588838, -0.043343715, 0.09805919, -0.06578574, -0.022118974, -0.017538678, -0.051004592, -0.03550371, -0.028012207, -0.013613185, -0.005773312, -0.046725124, 0.037606005, 0.048538823, -0.042798422, 0.043691836, 0.021939393, 0.042438544, 0.005333505, -0.020083744, 0.029418446, 0.032476787, 0.020998718, 0.072673835, -0.015472104, -0.06457283, -0.02449021, 0.015350467, -0.024400635, 0.027334776, -0.0067124222, -0.038846314, -0.0041701244, 0.09125254, -0.017926874, 0.09342058, -0.013755944, -0.022255683, -0.00028490322, -0.035075378, -0.002530237, 0.011485951, 0.035863828, -0.018033545, -0.026173787, 0.061701905, -0.037825245, -0.03926212, -0.0584787, 0.020326173, -0.07278429, -0.02353954, -0.000272281, -0.016641086, -0.02511377, -0.0022457826, -0.018791564, -0.029024415, -0.014908303, 0.0016245502, -0.09046798, 0.017970346, 0.046178203, 0.04131621, 0.0065328255, 0.05479138, -0.008994531, -0.023092143, 0.025354821, 0.027394691, 0.019226015, 0.027689867, -0.016054088, -0.014382304, -0.026776887, -0.013304674, -0.00321993, -0.038121395, 0.054269142, 0.005112643, 0.023035705, -0.026030127, -0.008719788, 0.019500028, 0.019071635, -0.072018884, -0.06370396, -0.02315125, -0.00074970996, -0.052864984, 0.02495278, 0.014897042, -0.00048679064, 0.012846898, -0.016630072, -0.028584793, 0.009119228, 0.07234764, 0.060177825, 0.024078298, 0.022165162, -0.02241158, -0.0038841525, -0.04376865, -0.003236456, -0.01146312, -0.026228614, 0.06044865, -0.032694273, -0.098597944, -0.02341973, 0.007900132, 0.0023866787, 0.052532926, -0.02484555, -0.0067374595, -0.040909868, -0.029374838, -0.059752893, 0.056920566, 0.01763346, -0.024808668, -0.058761813, -0.057392195, -0.025749948, -0.017230868, 0.0490472, -0.026566945, -0.0744105, -0.036531188, 0.00051267183, 0.05828765, 0.042636413, 0.09169807, 0.024671346, -0.0052990294, -0.015391408, 0.04041166, 0.039464347, 0.008612786, -0.054925684, -0.00033211615, -0.047025174, 0.074999064, -0.046847716, -0.07610276, 0.00964745, -0.003977307, 0.008274204, -0.08165263, 0.016173393, -0.06481486, 0.026522197, -0.07152672, -0.039704952, -0.017858714, 0.07676985, 0.018588329, -0.0046853563, 0.010228596, -0.010851569, -0.050354935, -0.028049063, -0.043440353, 0.007290372, -0.007273605, -0.002150781, 0.011408522, 0.0101535795, -0.032633886, -0.09443807, -0.0449498, 0.0133592, 0.047784183, -0.047718864, 0.011558593, -0.0467297, 0.016006835, -0.012781749, -0.017949175, -0.03807249, -0.028313998, 0.028725896, -0.060744207, -0.029859751, -0.09776389, 0.020024037, -0.046805337, -0.025148492, 0.0033114222, -0.022184784, 0.023777552, 0.013975725, 0.0022610559, 0.024750415, -0.04723784, 0.014476868, 0.031178275, 0.080870986, -0.07968138, -0.008209622, 0.009534852, 0.032328103, 0.028535943, -0.008000161, 0.034048546, 0.022979889, -0.0050544688, -0.015267057, 0.00088410196, -0.091223836, 0.012043194, -0.01756944, 0.022708295, -0.018774346, 0.022224652, -0.038178906, -0.0096197855, -0.04956017, -0.039887615, -0.07133594, -0.033812277, 0.026598196, 0.018578658, 0.027939077, 0.029092744, 0.012148787, -0.037177805, -0.06632065, 0.07562008, 0.03777939, -0.0025431635]</t>
         </is>
       </c>
     </row>
@@ -1727,38 +1662,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>문경원</t>
+          <t>양근혁</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Effects of oleogels on the quality attributes of plant-based
-imitation cheese</t>
+          <t>Studies on the processing performance of rice flour and soy protein concentrate composites for high protein extruded noodles</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Imitation cheeses made from plant sources have received constant attention as an alternative to cheeses made from animal sources for people with lactose intolerance or vegetarians. In making imitation cheese, palm oil has been widely used, however, there exist several difficulties in providing health benefits by lowering saturated fat content as well as suitable texture. In this study, palm oil in plant-based imitation cheeses was replaced with oleogels high in unsaturated fat. Their physicochemical effects were then characterized in terms of texture, rheology, and proton mobility. Canola oil was successfully structured into solid-like oleogel (3, 6, and 9%, w/w) with carnauba wax. The replacement of palm oil with oleogels produced imitation cheese with a harder texture. Also, the dynamic viscoelastic properties of the cheese samples increased with increasing levels of oleogel and the similar tendency was confirmed by stress relaxation test. In addition, the TD-NMR showed that three populations of T2 relaxation times were clearly observed in the imitation cheeses. This study showed that oleogel can be utilized in making imitation cheese low in saturated fat without quality loss.</t>
+          <t>A gluten-free diet can meet the needs of celiac patients as well as health-conscious consumers. With this trend, the demand for gluten-free food products has been rapidly increasing, but there are limited efforts to enhance the nutritional functionalities of gluten-free products by protein fortification. Soy protein concentrate (SPC) has been widely applied as a protein source to a variety of food products. However, there are insufficient investigations into the processing performance of SPC in gluten-free food products. RF-SPC composites were prepared by blending rice flour with SPC at different blending ratios. The composites were incorporated into the formulation of gluten-free extruded noodles, and their processing performances were investigated in terms of rheology, microstructure, and water mobility. The co thermo-mechanical properties of six different wheat cultivars and their blends to predictmposites with high levels of SPC showed lower enthalpy values and higher temperatures derived from starch gelatinization. In addition, they had lower values of the pasting viscosity and dynamic viscoelastic parameters. When the RF-SPC composites were incorporated into the formulation of extruded noodles, the noodles had higher Rmax and lower extensibility that were related to the water hydration properties of the RF-SPC composite flours. Furthermore, the increased values of spinspin relaxation time were observed in the extruded noodles prepared with more levels of SPC in the composites. As the high protein trend and the demand for a gluten-free diet have been rapidly growing in the global food market, the results obtained from this study may provide fundamental insights into the processing performance of protein-rich ingredients in gluten-free extruded noodles, probably promoting the development of a wider variety of protein-fortified, gluten-free products.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.0066169896, 0.039945424, 0.02851423, 0.010912451, 0.08368253, -0.07616109, -0.033957005, -0.05815501, -0.012168313, 0.057692096, -0.0693956, -0.044858217, -0.018385835, 0.05773284, -0.02989791, 0.054551017, 0.030034808, 0.043061063, 0.00046067216, 0.06984621, 0.014590455, -0.03818936, -0.079506084, 0.05426281, 0.026867665, 0.04169475, -0.041297432, 0.09017278, -0.08027556, -0.014838052, 0.02059585, -0.035771996, -0.040001243, 0.036703464, 0.08302847, -0.03953274, -0.03705743, -0.032464698, 0.081370294, 0.004690384, -0.035863664, -6.162329e-05, 0.063645795, 0.05093898, 0.098471075, -0.029360026, 0.029251335, -0.015757326, -0.017138764, -0.0057093436, -0.00822322, 0.016490564, -0.0059720785, -0.0039088866, 0.030904388, -0.023011569, -0.05119603, -0.07382348, -0.0045735748, -0.017471889, -0.07910997, -0.09887375, -0.077582106, 0.014078307, -0.049601004, 0.013930755, -0.02344108, 0.057706058, 0.01751695, -0.060502626, -0.04445662, 0.021530153, 0.037651554, -0.010060094, -0.087389946, 0.0006713773, 0.017039083, 0.017517772, -0.035297155, -0.005642478, 0.018387694, -0.056907453, 0.08825754, 0.059290957, 0.06839222, 0.026468482, 0.019587027, -0.006677843, 0.014722434, 0.0032796154, 0.038137905, 0.033491444, 0.07105959, -0.0146682, 0.048173178, 0.021653928, 0.043660525, 0.024978107, 0.014035454, -0.034206256, -0.017744705, 0.09453543, -0.028405238, 0.04601702, -0.011308998, -0.031823147, 0.019434998, -0.03135688, 0.019313827, -0.024498316, 0.02315325, -0.072314315, -0.012759538, -0.022782099, -0.03449261, -0.001851935, -0.0010886774, 0.042262767, 0.017642094, -0.03457569, -0.0071108243, -0.06456629, 0.007684694, 0.005733617, 0.039942257, 0.010872299, 0.013364761, 0.051517747, 0.020182379, 0.035797644, -0.053681634, 0.048897743, -0.04225517, 0.023712065, 0.011150064, 0.031772733, 0.0037334606, 0.046614476, 0.01971776, -0.017756537, 0.0054494133, 0.010173221, -0.0034687752, -0.05783403, 0.0042646984, 0.059753004, 0.043883123, 0.01834235, -0.036059838, 0.06317416, 0.020569189, -0.0006282556, -0.04743003, -0.049380124, 0.01417314, -0.08367927, -0.10470165, -0.009229773, 0.024826514, -0.026597617, -0.018788138, -0.05281621, 0.019857882, -0.0022670564, -0.015117802, -0.047274668, 0.043293092, 0.033738095, -0.008445691, 0.05223851, -0.00058195455, -0.013537841, 0.019334605, 0.03951846, 0.02976944, -0.035635017, -0.042377714, -0.026357139, 0.027433123, -0.032247648, -0.02459047, -0.001953579, 0.014710328, 0.10796306, -0.025432436, -0.030141208, -0.0056156595, 0.023660792, 0.02470678, 0.02009638, -0.09595919, -0.014222908, 0.040182825, 0.07650993, -0.023346607, 0.0048395465, -0.0016447636, 0.028677031, 0.015236366, -0.019761566, -0.06047949, 0.031495698, 0.048907567, 0.005457362, 0.04421048, -0.05661854, -0.04253046, 0.01268659, 0.06145259, 0.02022799, -0.015972786, -0.09129469, 0.03257977, 0.005151271, 0.038627494, -0.01940242, -0.002585558, 0.01623921, -0.03497953, -0.0417714, -0.050794166, -0.028956395, -0.03564966, -0.021701038, 0.00017891871, -0.026238218, 0.048426513, -0.07387631, -0.03008588, 0.0021318411, 0.025052672, -0.028966129, 0.0687833, 0.020083591, 0.057163335, 0.01040754, 0.048670806, 0.026120454, 0.019393682, 0.100631766, 0.021062149, 0.005157321, 0.029271051, -0.036765773, -0.04244816, 0.06270313, 0.008071026, 0.027899774, 0.0032757223, -0.05614115, -0.028929064, 0.011144205, 0.083605975, -0.013981954, 0.03058606, 0.00081266457, -0.0427236, 0.022935838, -0.0361596, 0.04452303, 0.032541007, 0.03042145, 0.033871323, -0.030103343, -0.036561266, -0.1292179, 0.027114121, 0.016127108, 0.012663227, 0.04380786, -0.050343398, 0.060030144, 0.033088222, -0.0024195053, -0.011784827, -0.02614226, -0.0137057835, -0.0037028743, -0.010000448, 0.01156888, -0.06650252, -0.023116732, 0.075629726, -0.08024496, 0.064435154, -0.001558967, -0.08876132, -0.03674304, 0.008575158, -0.04727804, -0.008437141, -0.014091532, 0.00040624707, 0.057906803, -0.044077553, 0.048089188, 0.037798233, 0.028694144, -0.012896734, 0.0034393421, 0.05857233, 0.034706704, -0.049127534, 0.08748554, -0.0021677467, 0.06521089, 0.056991305, -0.06647375, -0.0028794352, -0.014645344, -0.0012229837, -0.059678745, 0.07481916, 0.059664484, -0.077402726, -0.040757224, 0.03369315, 0.05284585, -0.042437036, 0.046850156, -0.035451993, 0.017202483, -0.011717755, -0.037690613, -0.028469695, 0.0337336, -0.107064754, -0.025727453, -0.025182532, 0.076785654, 0.007627395, -0.015699128, -0.0040616635, -0.0062680054, -0.008323955, 0.0123071475, -0.015551697, -0.017186875, 0.022948753, -0.049996324, 0.012586277, -0.011954947, -0.01887751, -0.011109929, -0.033561293, -0.04867965, 0.08794574, 0.12436535, -0.062310606, -0.012304286, -0.023403376, -0.010893402, 0.050143957, -0.003912293, 0.03231135, 0.02398751, 0.0005051023, 0.0487612, -0.07286523, -0.045863613, 0.013456961, 0.031933844, 0.031287953, 0.026290204, 0.081771925, 0.024397405, -0.07456277, 0.0091168, 0.03907613, -0.009400514, 0.004129166, 0.02856999, 0.005415665, 0.034188114, -0.04349044, -0.029540464, -0.028372455, 0.042624567, 0.060617205, 0.047399048, -0.013439155, -0.01160237, 0.0146079855, -0.011004604, -0.0355086, -0.02727693, -0.11093811, 0.020533526, 0.07437745, -0.03151822, -0.033865057, 0.025400007, 0.03180852, 0.0127993785, 0.051875517, 0.010837436, -0.07582538, -0.046457935, -0.040780805, 0.01681737, 0.0132466145, -0.013442839, 0.042443708, -0.054929204, 0.031424955, -0.015294455, 0.01940786, -0.020397805, 0.047216937, -0.022365991, 0.024649626, 0.044406023, -0.0367451, 0.042702917, -0.032096762, 0.028690392, 0.0054950737, 0.016038476, 0.02597723, -0.024466882, -0.0046825972, 0.020170167, 0.0021240409, 0.0443418, 0.09494415, -0.08581338, -0.017309302, -0.082359195, 0.0093702115, -0.018849844, 0.037926894, -0.07635167, 0.037019514, -0.0073175943, 0.01567869, 0.05356679, -0.033018623, -0.019469641, -0.0344697, 0.017005164, 0.05483131, -0.06041963, 0.073859155, 0.015779654, 0.0292471, -0.010321468, -0.020822048, -0.00028565526, 0.05541536, 0.031051666, 0.023469055, 0.02649358, 0.02348983, -0.087739184, 0.00020249924, -0.11519914, -0.060004044, -0.009907519, -0.029173033, 0.0040756506, -0.02208491, -0.01609318, 0.05643853, 0.06958982, 0.050074358, -0.04439531, -0.037523046, 0.026230019, -0.031796347, -0.00011267478, -0.029964613, 0.019075396, 0.0154234655, 0.009828663, -0.016271679, -0.05794286, -0.04171279, -0.12323681, -0.043102007, -0.09148294, 0.068742976, -0.034767505, 0.0033013914, -0.02905538, -0.029334385, -0.030106846, 0.083746895, -0.029235557, -0.030738566, -0.015641242, -0.029652858, 0.053528786, -0.04807228, 0.002317043, 0.04508722, -0.021753164, -0.0035668958, 0.021456394, -0.056949604, -0.0046378546, -0.042305943, 0.07632977, -0.032065757, -0.01954175, -0.061322846, -0.026790533, -0.029339807, -0.020388216, -0.07860515, -0.030955816, -0.049892157, 0.0648823]</t>
+          <t>[-0.010369819, 0.025401104, 0.010060789, 0.015413969, 0.12662984, -0.0048540533, -0.053938255, -0.01549105, 0.06069867, 0.05672244, -0.014023294, -0.1012702, -0.039084572, 0.09542818, 0.046148874, 0.04767968, -0.049310725, 0.0413926, 0.026698587, 0.045164447, 0.014436999, 0.003513967, -0.05603861, 0.01149795, -0.024206432, 0.0071946224, -0.004087616, -0.04788935, 0.074822865, -0.020976761, 0.043611266, -0.09001222, -0.03428684, -0.010566744, -0.0018521473, -0.039795823, 0.062310815, 0.057336356, 0.0139088165, 0.00089873583, -0.0073933094, 0.054841667, 0.018368099, -0.038074683, -0.027937712, -0.03152047, -0.08755486, -0.075979084, -0.03529574, -0.006882189, -0.012716224, 0.024959989, 0.026772143, 0.056568127, 0.028857352, 0.0005624394, -0.053876624, -0.039117157, -0.027566161, -0.006355651, 0.039842296, -0.040417567, -0.032205716, 0.012516081, -0.015704958, -0.00039272007, 0.026648916, 0.0103504835, -0.027409226, 0.0044774828, -0.028653648, -0.007837624, 0.06032796, -0.008506119, -0.0644674, -0.047987312, 0.015006756, -0.0044977837, -0.062040567, 0.05363367, -0.025987037, -0.03109813, 0.041438386, -0.033570915, -0.021991331, 0.055197544, -0.036090035, 0.051655475, 0.028425422, 0.00891133, 0.035950083, 0.00860864, 0.087404594, 0.06782185, 0.045232017, 0.035506204, 0.01878389, 0.06828196, 0.04530932, 0.052005667, -0.016901013, -0.026707625, -0.0423955, 0.00913948, -0.0023607567, 0.01372044, 0.10123384, -0.028289516, 0.022663113, 0.0009595955, -0.102145754, -0.057429433, -0.009221875, -0.023561943, -0.043206688, 0.09573214, -0.050534543, 0.041364536, -0.0016500879, 0.054553773, 0.010995075, 0.02744575, -0.00030184607, 0.036987193, 0.0148507785, -0.00022905786, 0.074399136, -0.009073804, -0.026875682, -0.05447339, 0.023576729, 0.051466815, 0.007149248, 0.1218762, -0.017272236, -0.044248726, -0.03210036, 0.0024448659, 0.041927427, 0.030813027, 0.016804274, 0.0144667765, 0.0502561, -0.061539385, -0.03598232, 0.07462018, -0.009577017, 0.014760182, -0.043797616, 0.05800267, -0.0021004518, -0.013481503, 0.018948505, 0.02839173, -0.07750635, -0.027495235, -0.025228268, 0.024143226, 0.048408944, -0.011072379, -0.03712123, 0.009969053, -0.010009356, 0.0303018, -0.052207537, 0.035743017, 0.032067545, -0.020218106, -0.045654558, -0.080195464, -0.010120217, -0.0059236228, 0.042004805, -0.026361465, -0.020462645, -0.0039032537, 0.014416088, -0.016471682, 0.034831874, -0.01831326, 0.042298224, -0.0064939987, 0.002178937, -0.03909717, -0.026078789, -0.08492778, 0.069672205, -0.0039439816, 0.055418838, 0.03396076, -0.08540774, 0.07279239, 0.022249777, -0.04279929, -0.015116165, 0.03323585, 0.025458155, -0.034031667, 0.007817118, 0.0064975144, 0.0020353266, 0.017319448, -0.00018592214, -0.059855845, 0.105199605, 0.003127845, 0.03809192, 0.02532958, 0.008543941, 0.11180484, -0.09339157, -0.0055315136, -0.029777447, 0.05475561, 0.03926837, 0.0091915745, -0.026273826, 0.041169528, -0.021954754, -0.036795795, 0.061347105, 0.029958047, -0.07306541, 0.049320895, -0.04314637, 0.0151702715, 0.012032555, -0.03442801, -0.040934347, -0.04363004, 0.0042340932, -0.022993382, -0.0033041716, 0.0046802894, 0.052292682, 0.026394773, 0.010625353, 0.024913002, 0.063076206, 0.07500344, -0.0002654533, -0.023450432, -0.010948498, 0.018371128, -0.025819419, -0.025785372, -0.021763628, -0.042184707, -0.066236, -0.042399354, -0.08640046, 0.04479676, 0.06000021, 0.028735736, 0.011924241, -0.03447103, -0.0038923235, -0.006612408, -0.03956772, 0.027989503, 0.0071635894, 0.0024013794, -0.02725954, -0.034720343, -0.032946117, 0.030620648, -0.00801089, 0.06777306, -0.01693987, -0.07068874, -0.033681784, 0.065127224, 0.05647038, 0.026067736, -0.0019254219, -0.033338837, -0.030810984, -0.05532631, -0.025457025, -0.029511532, -0.06438795, -0.042511098, 0.03249717, -0.02366493, -0.047201727, -0.012139623, -0.048598267, 0.012852971, -0.0309108, -0.14349201, -0.011526814, -0.01665319, 0.030909356, 0.0296733, -0.06916376, 0.05202194, -0.03406248, 0.06090094, -0.050964937, -0.012205938, -0.028317608, -0.011253991, -0.031139499, 0.057573687, -0.016063053, 0.035053905, -0.02382895, -0.040125523, -0.022081627, -0.009833793, 0.0059345444, -0.00023544254, -0.0011704379, 0.05156782, -0.035397265, 0.0032172909, -0.059786085, 0.015360145, -0.052800722, -0.042385522, -0.019780392, 0.028954666, -0.0024592704, 0.020041337, -0.0715173, 0.05510027, -0.02243726, 0.002167232, -0.01874931, -0.008421353, 0.06364902, 0.013586209, -0.085740335, -0.025343379, -0.020510094, -0.07078166, -0.041613292, 0.003345307, 0.032297682, 0.055580363, 0.013559509, -0.06630049, 0.063083164, 0.008422427, -0.04773602, 0.010752805, -0.0023576184, 0.093852155, -0.0420808, -0.021483077, -0.0008143497, -0.0055897683, 0.002724402, -0.022196135, 0.0559313, 0.024696903, 0.0029807324, -0.08549039, -0.039317448, 0.0079848, 0.10210745, -0.0051146555, 0.03079641, -0.026163438, 0.013326229, -0.06795168, -0.08491778, -0.01174191, 0.06447873, 0.03702052, 0.03389473, 0.0682279, 0.014820297, 0.04488447, -0.036010362, 0.016750598, -0.011385149, 0.010167176, 0.013845519, -0.0015733944, 0.004579894, -0.058081217, 0.0135182785, -0.07748483, -0.046296533, -0.007789416, -0.06960296, 0.03796249, -0.07631503, -0.00709366, 0.0979362, 0.029668756, 0.036898356, 0.0072762026, -0.038507298, 0.039002024, -0.042682376, -0.006676403, 0.008230457, -0.013968458, -0.016715482, -0.031754892, 0.0048916955, -0.0067275073, 0.004714715, 0.005082016, -0.09571791, -0.02320373, 0.039977457, -0.07549101, 0.019249136, -0.006941266, -0.031407148, 0.011852156, 0.062251817, -0.026236443, 0.0035513118, -0.0030306077, 0.024984373, -0.044512738, -0.027986513, 0.0042605577, -0.0030192458, 0.03203552, -0.00569619, -0.052763265, -0.011659111, -0.06907658, -0.028661681, -0.03358511, -0.03854568, 0.0064553837, -0.035339843, -0.08401968, 0.054708928, -0.010091691, 0.038658228, -0.006691943, -0.00935092, -0.0249647, -0.018104788, -0.043366708, -0.014273181, 0.076308474, -0.038148876, -0.045589183, 0.01904558, 0.04816421, -0.029607715, -0.033025693, -0.043726392, -0.019720843, 0.011619148, 0.054425918, -0.021705246, -0.07241131, 0.0022119002, 0.07089837, 0.026719643, -0.06547375, -0.03565909, 0.04719069, 0.045296192, -0.018019658, 0.049686752, -0.008535518, -0.09106172, 0.026975978, 0.04901343, -0.06895058, 0.015653366, 0.08057352, 0.032746445, -0.005410126, -0.034709714, 0.011768543, 0.027436353, -0.0034330592, -0.032944776, -0.041803285, 0.018721761, -0.048587173, 0.022036051, -0.008014298, 0.009103332, -0.040310696, -0.005298993, 0.0053809546, -0.024429172, -0.06828277, -0.021300947, 0.020692209, -0.0015735516, -0.061372288, 0.04954909, 0.05064203, 0.058119506, -0.003926629, 0.07011266, 0.006060015, 0.040783215, -0.012553154, -0.019624582, -0.029776582, 0.04219404, -0.015640628, -0.031942345, -0.00904427, -0.08315878, 0.015816843, -0.005783033, 0.0155510735]</t>
         </is>
       </c>
     </row>
@@ -1767,35 +1701,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ISFRS</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>오임경</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>이다연</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Development and characterization of foam structured
-hydroxypropyl methylcellulose oleogel as an animal fat replacer
-for saturated fat-reduced meat products</t>
+          <t>Rheological performance of methylcellulose in a soy protein-based food system for meat analogue products</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solid fats provide desirable structural, functional and sensory attributes to a variety of food products. However, the health-related concerns associated with the presence of saturated and trans-fat have led to the development of oil structuring technology. Oleogelation can be considered as an emerging technique to transform liquid vegetable oil into a solid-like gel with three dimensional network without changing its unsaturated fat-rich composition. More recently, hydrocolloid-based oleogels have received much attention because most of hydrocolloids are naturally abundant, approved for use in foods, and well-characterized. Thus, the purpose of this study was to investigate the physicochemical properties of foam-structured oleogel with HPMC, and to evaluate the feasibility of HPMC oleogels as a replacement for animal fat (beef tallow) to reduce the level of saturated fat in meat patties. The foam-structured HPMC was prepared by homogenization and freeze-drying of HPMC solution and successfully used to convert canola oil into solid form. The textural properties (firmness and work of shear) of HPMC oleogels were higher than those of beef tallow and the HPMC oleogels exhibited frequency-independent visoelastic properties as a weak elastic gels. The HPMC oleogels also exhibited temperature-independent solid fat contents and they had greater resistance against oxidation than the canola oil. When beef tallow was substituted with HPMC oleogels in meat patties, the cooking loss and firmness were lowered. In addition, the replacement of beef tallow with HPMC oleogels was significantly reduced from 42% to 15% in the levels of saturated fatty acids in the meat patties. Thus, this study can encourage the food industry to extend the application of HPMC oleogels to various food products.</t>
+          <t>Hydrocolloids are extensively used as gelling, thickening, and stabilizing agents in the field of food science. Among numerous hydrocolloids, methylcellulose(MC) has received highlights due to its unique gel-forming property upon heating and cooling. So,it has been widely incorporated as a primary binding agent in the segment of meat analogues. There is, however, alack off undamental information on the processing performance of MC in a soy protein-based food system. In this study, MC was blended with soy protein concentrate(SPC) at different mass ratios. Their thermo-rheological properties were characterized using a control-stress rheometer and then correlated with their proton mobility measured by TD-NMR. MC showed an increase inviscosity during heating that was reduced upon cooling. When the MC were blended with SPC, synergistic effects were observed by showing different rheological patterns. Their flow behaviors were well-characterized by the power law model, showing n values between 0and1 (shear-thinningbehaviors). Also, all the samples exhibited the frequency-dependent viscoelastic properties and the MC-incorporated SPC had the highest values of storage modulus(G’) and loss modulus(G’’) among the samples. In addition, theTD-NMR analysis demonstrated that there were three components that seemed to be come longer with increasing levels of MC. The viscosity of MC distinctly increased with increasing temperatures, resulting in the formation of a thermo-reversible gel. The synergistic effects were also observed between MC and SPC by increasing viscosity in the ranges of shear rate and temperature tested. Also, the proton mobility of samples with MC was affected by the levels of MC added. Thus, this study may contribute to improving the quality attributes of soy protein-based meat analogues by providing their rheological information.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.0038960406, 0.027406165, -0.019675715, 0.01697113, 0.07200241, -0.029107912, -0.0047074063, -0.07945864, -0.0029940587, 0.048398465, -0.058195103, -0.05974639, 0.027255343, 0.047716532, -0.03961705, 0.04579569, -0.011866893, 0.05380874, 0.022047244, 0.02176457, 0.008251156, -0.015309753, 0.016630867, 0.04347453, -0.0120336525, -0.014417679, 0.05639966, 0.04038185, -0.027644027, 0.01410348, -0.005955679, -0.07998896, -0.008119174, -0.01811175, -0.06948701, -0.07556006, 0.024960063, 0.041063488, -0.06325028, -0.0062826145, -0.06379614, 0.036236484, 0.06769561, 0.017050011, 0.023146806, -0.007530555, 0.0387831, 0.038096383, -0.049119238, -0.020961009, -0.037840933, -0.0954553, 0.0129789645, 0.012293323, 0.066705436, -0.05442223, -0.113345854, -0.07036876, -0.02769576, 0.01130502, -0.03160611, -0.08650956, -0.052701104, 0.04643397, 0.025028078, -0.048948523, 0.027344735, 0.027598692, 0.14154235, 0.006745388, -0.039379716, 0.09833522, 0.044469506, 0.07702021, -0.043805692, -0.06608416, 0.03294233, -0.07451144, 0.019310888, 0.011988255, -0.06662325, -0.018629672, 0.09344026, -0.020118175, -0.046337333, 0.079849765, -0.0057492102, 0.024492264, -0.017557504, 0.011145122, 0.04468932, 0.028123107, 0.102583684, 0.041893605, 0.06530387, -0.0061289067, 0.037279863, 0.02561075, 0.012251712, 0.030803377, -0.030763978, 0.07688497, -0.05453622, -0.0114480145, 0.025243392, -0.04217535, 0.034441516, 0.033709563, -0.0035165644, 0.07499313, 0.031937335, -0.06132415, -0.009075878, 0.030361205, -0.03314631, 0.04562305, 0.024034861, 0.02117834, 0.0021650607, -0.044991318, 0.060676992, -0.01690754, -0.0034027419, -0.04684549, 0.0041844817, 0.02946657, 0.028541023, 0.020917343, -0.012578487, -0.028256573, -0.081362784, 0.032310918, -0.0480467, 0.013711461, 0.01851309, 0.023574673, -0.022711197, 0.006509721, 0.07009695, 0.0073576686, -0.007164486, -0.037699595, 0.018876439, -0.047302395, 0.057035286, -0.013736705, 0.026694534, 0.021724178, -0.016856195, 0.046051536, 0.011911844, 0.027237391, -0.07641332, 0.051952805, 0.007097576, -0.06619851, 0.00036554757, -0.028505111, 0.031785145, -0.029391196, 0.00313706, -0.027425308, -0.0791418, 0.0051955204, -0.042448692, 0.07115387, 0.084476225, -0.024986, -0.06509035, 0.023424128, -0.006820823, -0.009074242, 0.04582934, 0.037927598, -0.073565245, -0.03699857, 0.006406997, -0.018230038, 0.00817907, 0.026332408, -0.08252676, 0.02510845, 0.028800638, 0.014938678, 0.048834063, -0.052420825, 0.08007919, 0.011402248, -0.062938035, 0.0022873639, -0.11639511, 0.022269249, 0.0069847275, -0.0019977668, 0.0002435837, 0.023909021, 0.07049454, -0.029464737, -0.070903175, 0.022193369, -0.058887374, -0.008112648, 0.0696362, -0.006260165, 0.090221226, -0.008282856, 0.0034845176, 0.015105345, -0.04249938, 0.04910747, 0.037644897, 0.096626654, 0.045756288, 0.014880117, 0.0105102975, 0.02659346, 0.025320107, -0.0075563686, 0.0070849634, 0.012051887, -0.030602949, 0.057173744, -0.045249604, -0.003846134, 0.00011061621, 0.031788148, 0.0056855744, 0.031671032, -0.08708146, -0.019558132, 0.045492418, -0.028016299, -0.0067342236, 0.020474987, 0.035947654, -0.021268077, 0.027444685, 0.04262596, 0.04435282, 0.07541177, -0.024046844, 0.0010110146, -0.04297797, -0.07450751, 0.024888651, 0.046515938, -0.015024686, -0.01400506, -0.007406356, -0.046204276, -0.067598075, -0.0021436359, 0.043901842, -0.002042353, 0.0547055, -0.037821688, 0.011079985, -0.0002924581, -0.0057300157, 0.0006967032, 0.003774492, 0.023879785, 0.011345706, -0.050647516, -0.018098827, -0.047606494, 0.0014832335, 0.0506768, -0.005402543, -0.032343533, -0.017500957, 0.039479483, 0.07729867, 0.023386955, -0.058882065, -0.055481136, 0.015807709, -0.050194435, 0.013732648, -0.04971237, -0.039284647, -0.049046323, 0.04445125, -0.02095527, 0.034352727, -0.03379438, -0.055208284, 0.04710435, 0.0051387497, -0.09295063, -0.004502391, -0.050122917, 0.0064651747, 0.017692717, -0.07643388, 0.026509909, -0.0042641424, -0.017479612, 0.0131490985, -0.008728295, 0.0039098295, -0.01603384, 0.04433657, 0.019621765, -0.01777928, -0.028837278, 0.027488997, -0.045484107, -0.034028206, -0.04246496, -0.013859037, 0.014281818, 0.042794842, 0.08342499, 0.015583297, 0.018625215, 0.037605207, 0.034404796, -1.6680453e-05, -0.06552577, 0.040663205, -0.019997004, -0.011596197, -0.019749286, -0.02469209, 0.007329801, -0.08015732, 0.0052278657, 0.00525622, 0.04315951, 0.0033424112, 0.0073974663, 0.021953437, 0.0030484048, -0.023086097, -0.010132133, 0.047604907, 0.023002772, -0.010935808, -0.010496166, -0.020937465, -0.026741195, 0.09432444, 0.0031197264, 0.022604952, 0.0022263369, 0.014035689, 0.15286751, -0.072983086, -0.026662322, -0.02447402, -0.0034239658, -0.022607451, 0.035169818, -0.044223245, 0.021144254, 0.016488854, 0.01900597, -0.050483312, -0.027326535, 0.032117188, 0.052138425, -0.022989292, 0.09694074, -0.007802843, -0.034202095, -0.076726414, 0.009550227, 0.037619017, -0.024560388, 0.06071564, -0.058404267, 0.00906934, 0.037074365, -0.10628232, -0.02019434, -0.053113498, 0.056715734, 0.04864754, 0.02907343, -0.015272875, -0.008080536, -0.0060386695, -0.09042848, -0.051550213, 0.013307802, -0.079664856, 0.07848531, 0.012447316, -0.009717224, -0.0087027075, 0.03680145, 0.0647085, 0.025718141, 0.022821842, 0.020322619, 0.01025052, -0.0011372773, 0.016863644, -0.027934557, 0.037377164, 0.0016503957, 0.016282134, 0.019645743, -0.006217468, 0.03818674, 0.0005132203, 0.043471184, -0.016396418, 0.017093023, 0.08785276, 0.0028115604, -0.026505224, 0.05878528, 0.021651072, -0.0042594713, 0.00026491878, -0.02527714, 0.0027087969, -0.043510575, -0.096781485, -0.009433788, -0.084573045, 0.029293869, 0.059572592, -0.045064744, 0.040725764, -0.076196514, 0.021811044, 0.019335339, 0.05398824, -0.019189581, 0.05012605, -0.047333494, -0.05505272, -0.030469397, 0.036028914, -0.022919195, 0.02151195, 0.010405402, 0.07795905, 0.004212846, 0.020197906, 0.060895994, 0.016737603, -0.09463162, 0.01937995, 0.058566127, -0.040647898, 0.026336959, -0.05745417, -0.008238299, 0.045293856, 0.02244637, -0.007857135, -0.034490176, -0.1316515, 0.050377022, -0.0027190847, -0.038117625, 0.010160354, -0.010528043, 0.03438002, 0.044123746, 0.048121646, -0.037213743, -0.027280426, 0.045636125, 0.003994206, -0.07103331, -0.062136497, -0.05511711, -0.008065367, -0.026793346, 0.048714384, -0.022426175, -0.09392002, 0.022196146, -0.008379626, -0.056957737, 0.033278286, -0.016246654, 0.06970791, 0.021146081, -0.010807044, -0.022233536, 0.0044422676, -0.02519972, -0.056252897, -0.0749507, -0.09462255, 0.05634895, -0.04162077, -0.034460325, 0.014263322, 0.014287403, 0.005261452, 0.0047106436, 0.03708936, -0.015802728, -0.0028937443, -0.027691795, -0.022016395, -0.0037680743, -0.014569041, -0.025616765, -0.038520966, -0.014059626, -0.03289364, 0.03555042, -0.016051598, 0.029277863]</t>
+          <t>[-0.02397332, 0.017635297, -0.030825568, 0.014869713, 0.102173045, 0.010008122, -0.015782686, -0.025184382, -0.0056741224, 0.03539244, -0.088618144, -0.03515958, -0.011820612, 0.05191323, -0.023405021, 0.04292095, -0.030804947, 0.056716777, -0.04268137, 0.029751746, -0.01238261, 0.011564132, -0.061891895, 0.022259416, 0.03093138, -0.025824873, 0.037676457, -0.016515154, -0.072911195, -0.059291527, 0.017329864, -0.011281539, 0.0070703994, 0.006232033, -0.050394908, -0.051385377, 0.0011420995, 0.08503425, 0.010578335, -0.01797694, 0.0013965007, 0.004117568, -0.025165338, 0.015140826, -0.04069925, -0.012637939, 0.071966395, -0.038763195, -0.0018964168, -0.021203386, 0.05338925, -0.01159214, 0.025409011, 0.004410512, 0.029240087, 0.0016344233, -0.08927973, -0.049171314, -0.010168002, -0.022784984, -0.055333912, 0.023366878, -0.046080086, -0.032967016, -0.041857515, -0.017379494, 0.006735182, 0.055268362, 0.0077296603, -0.012937096, -0.03210843, 0.035846837, -0.02481639, 0.07939201, -0.06191972, -0.025825351, 0.02044667, -0.08295067, -0.09709749, -0.025345389, -0.0411899, -0.035351653, 0.051523663, -0.058560785, -0.00658013, 0.05484624, 0.03670528, 0.0065183667, 0.010631585, -0.04683969, 0.019407302, 0.0113019915, 0.10292926, 0.032408416, 0.0015389349, 0.00051490864, 0.0348903, 0.09468292, 0.013803693, 0.08079628, -0.004776174, 0.08022298, -0.04729904, -0.0023445874, 0.011324469, 0.019884259, 0.044203233, -0.007008153, 0.05802503, 0.0308195, -0.025633268, -0.072435126, 0.015955204, 0.019177234, -0.00740714, 0.054930754, -0.05570782, 0.0076802443, 0.014119981, 0.0317066, 0.03653105, -0.05025359, 0.011851823, -0.022528894, 0.018533312, -0.0026317677, 0.067822345, 0.009400665, -0.027043317, -0.031773083, -0.017751897, 0.02996178, -0.0363731, 0.02408073, 0.012855531, -0.029334277, -0.05881292, -0.0026781522, 0.03697602, -0.046432737, 0.0020295102, -0.029194703, 0.0090583535, -0.07301381, 0.004783822, 0.104249656, -0.046535797, -0.016647259, -0.030305123, -0.004190809, -0.0019962005, 0.024149148, -0.035805296, 0.0884352, -0.029287754, -0.05444216, -0.037465915, -0.02091507, -0.00052907196, -0.010974823, 0.019967092, 0.028918406, -0.045556515, 0.031035941, 0.0050565973, -0.029425032, 0.015750138, 0.008382254, -0.031062288, -0.017428387, -0.02871171, -0.03387896, 0.054276228, -0.021655167, -0.07451105, -0.030665943, -0.0477387, 0.009948037, -0.030811243, 0.020072654, 0.031453516, -0.018455176, 0.021212367, -0.06376562, -0.0014252851, -0.035367183, 0.003790582, -0.004888381, -0.0015981216, 0.00013686251, -0.033289764, -0.024984885, -0.0037239362, -0.022350708, 0.0010461804, 0.062358793, -0.0124952635, -0.06249826, 0.023872992, -0.0066817445, -0.0089984005, 0.009629138, 0.08184459, -0.017834382, 0.0072122347, -0.03772815, 0.024698652, 0.0059396345, 0.0158493, 0.065563574, -0.051198322, 0.06793977, -0.020999392, 0.009786247, 0.07368012, 0.01565963, 0.033840265, -0.06068066, 0.014466836, 0.018807165, -0.08818995, 0.022665186, 0.002964488, 0.043505132, 0.005127647, 0.03381273, -0.0125472, -0.08287629, -0.09422553, 0.011557561, 0.014869059, -0.028052233, -0.0048064156, 0.031461455, 0.0029176483, 0.045656946, -0.008837135, -0.021192478, 0.05316132, 0.08775867, -0.007056718, 0.018273793, 0.024138456, 0.009473322, 0.058584217, -0.015983438, 0.004719788, -0.03238275, -0.003812197, -0.030048268, -0.08817741, 0.0152487075, -0.029181892, 0.026029998, 0.033307265, 0.0011572135, -0.0032496548, 0.049470227, -0.090320155, -0.0041964683, -0.016860958, 0.05191299, 0.005096653, -0.03670299, -0.03562023, 0.03828157, -0.0038074956, 0.100821175, 0.033530686, -0.009026792, -0.025646854, 0.010646421, 0.08927483, 0.019331207, -0.059556223, -0.08453248, 0.028841913, -0.013058964, 0.0118021555, 0.02296591, -0.050558377, -0.07747845, -0.010175123, -0.025481611, -0.0363616, -0.04292955, -0.0075494032, -0.001225444, -0.06470788, -0.054480806, -0.045147363, -0.070215516, 0.006940248, -0.022909218, -0.031989783, 0.058981296, 0.033397783, 0.03454362, -0.0010805083, -0.05011543, -0.029298669, 0.0092601525, 0.053549405, 0.042498745, -0.010836511, 0.014123312, 0.011076152, -0.034069713, -0.055173486, 0.082653545, -0.030917356, 0.0011413167, 0.027282296, 0.046492424, 0.014014486, -0.035912815, 0.019186672, 0.027577655, -0.023143498, 0.025222065, -0.009071318, 0.0735096, -0.021363052, -0.009307893, -0.0024735113, 0.0072983233, -0.07642522, -0.01060751, -0.00899551, 0.043627005, 0.0040234444, -0.0017490624, 0.01905051, -0.04613881, -0.053756945, 0.016820282, -0.00963128, 0.0129461875, -0.016835993, 0.014719456, -0.038391065, -0.03298622, 0.08649305, -0.018912321, -0.061835848, 0.07653671, 0.0109739, 0.14481063, 0.0024713227, 0.0664726, 0.0072732856, 0.0069648204, 0.02179008, -0.047358777, -0.01509571, -0.026559986, 0.043160547, -0.03272798, 0.009015004, 0.00094946, 0.08974966, -0.026447764, 0.005239184, -0.0602377, -0.026033698, -0.081858166, -0.045924116, 0.016214432, -0.018143335, 0.012185188, 0.06147124, 0.0076976335, 0.0084754955, -0.012829553, -0.068643175, -0.023861742, 0.012567737, 0.023584912, 0.024833992, -0.01409885, -0.010944857, -0.015891207, -0.00068143813, -0.030560814, -0.01060237, 0.020237494, -0.053997308, 0.064173535, -0.020764915, -0.039248433, 0.02894304, 0.02760473, 0.06457526, 0.011741017, -0.012843353, -0.019954352, 0.021343656, -0.0032969199, 0.051361457, 0.0029216674, 0.011948585, -0.010164833, -0.007981592, 0.010657096, -0.013377664, 0.0413083, -0.036400467, -0.046401758, -0.004130051, 0.0015025735, 0.030619856, 0.016318431, -0.005684232, 0.081573404, 0.00023665838, 0.01124318, -0.013665762, -0.034057576, 0.032591064, -0.05258646, -0.0397957, 0.036579046, -0.020419199, -0.02037737, 0.037087377, 0.022916984, -0.0046547595, -0.051957484, -0.03927715, -0.048967578, -0.0002164673, -0.0037476814, -0.0014853001, -0.024869183, -0.019397978, -0.0041411216, 0.01744627, -0.026190141, 0.024986383, -0.014998263, -6.1554834e-05, -0.018197132, 0.057992663, 0.05310424, -0.016336024, 0.010622377, 0.012016556, 0.031016162, -0.010989257, 0.0077501275, -0.05652445, -0.038894318, 0.0066263145, -0.007537804, 0.04346115, -0.050282117, -0.042620953, 0.08829148, 0.03765137, -0.004194784, -0.012437946, -0.020379443, 0.045206886, 0.0058183926, 0.034728076, -0.02081389, 0.00016583747, 0.00015677686, 0.0027983568, -0.035905883, -0.05773366, 0.0020694528, 0.009362028, -0.06999858, -0.006202199, -0.029030817, 0.023664396, 0.0032745523, -0.041622005, -0.06346332, 0.025931068, -0.049886614, 0.07041812, -0.04630422, -0.032792065, -0.023020584, 0.048315857, 0.011248666, 0.06068939, -0.0345499, -0.040972635, -0.005088427, 0.002326997, -0.07338665, -0.0056955405, 0.025665449, -0.029521814, -0.020927152, 0.022540238, -0.012730609, 0.008289089, -0.03359159, -0.018063461, 0.04572879, 0.021091739, -0.024239441, 0.03149782, 0.018404592, -0.084512815, 0.028889202, -0.0070955483, -0.009826306]</t>
         </is>
       </c>
     </row>
@@ -1804,34 +1740,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ISFRS</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정성민</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>권혁진</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Development and application of micro-computed tomography and proton NMR
-to determine the structural changes of cooked noodles</t>
+          <t>Machine-learning prediction models for rheological characteristics of fresh noodles from thermo-mechanical features of wheat flour</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Several conventional methods have been applied to investigate the physicochemical change of noodles during cooking. However, the conventional methods that are generally dependent on visual and sensory properties are not suitable for quantitatively estimating the structural properties of cooked noodles. Therefore, there is an urgent need to develop more reliable and objective methods for the noodle industry. In this study, the structural changes of cooked noodles were quantitatively characterized by using microcomputed tomography (micro-CT) and proton NMR depending on cooking times and then correlated with several conventional methods. The noodles gradually absorbed water with increasing cooking times, and their white core became thinner and finally disappeared when they were completely cooked. When the noodles with different cooking times were subjected to micro-CT analysis, the 3-dimensional images of the cooked noodles clearly showed density differences over cooking time in accordance with visual appearance, and their degree of cooking could be successfully calculated based on their volumes collected from the stacked cross-sectional images. Regarding water mobility in cooked noodles, the proton NMR analysis demonstrated that the cooked noodles exhibited three obvious water distributions. The proportions of weakly bound water increased along with cooking time, while tightly bound water decreased. Furthermore, the increasing tendency of T2 relaxation time was observed with increasing cooking times. The noodles cooked for longer times typically exhibited a softer texture and also higher cold initial/lower final viscosities. Pearson correlation and principal component analysis demonstrated that the parameters obtained by micro-CT and proton NMR were well-correlated with those by the conventional methods in a highly linear way.</t>
+          <t>Several attempts have been made to correlate the physicochemical characteristics of wheat flours and the rheological properties of their corresponding noodles. However, most of the precedent studies focused on a single parameter or relied on simple statistical modeling for their correlations. Thus, in this study, an artificial intelligence approach incorporating multiple thermo-mechanical properties of wheat flours was applied to forecast the rheological properties of noodles. Fresh noodles were prepared with six different wheat cultivars and their blends. Their extensional features (maximum resistance to extension and extensibility) were correlated with the Mixolab properties of the corresponding flour blends. An exhaustive searching method was applied to select appropriate sets of thermo-mechanical parameters for constructing multilayer perceptron prediction models. The performances of built models were evaluated and ameliorated under four different hyperparameter settings (optimizer, dropout rate, activation function, and the number of hidden layers). The thermo-mechanical property of wheat flours did not solely manifest the extensional properties of the corresponding fresh noodles (R2&lt;0.6). The most influential sets of Mixolab features explaining noodle extensional behaviors turned out to be C2, C3, dough stability, and development time for Rmax, and C2, C3, C5, water absorption, dough stability, and development time for extensibility. Machine learning models constructed with the optimized parameter sets displayed superb performances (R2=0.9313-0.9049 and 0.9515-0.8872 for Rmax and extensibility, respectively) compared to two statistical regression models (linear and quadratic polynomial regressions) after hyperparametertuning. Thus, it seemed that the machine learning technique could be used as a useful means to forecast the rheological properties of wheat flour-based food products, possibly encouraging the food industry to efficiently control the quality attributes of products. Machine learning prediction models were constructed on the basis of thermo-mechanical properties of six different wheat cultivars and their blends to predict the extensional features of the corresponding noodles. Appropriate hyperparameter-tuning successfully improved machine learning models to outperform two traditional statistical models.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[0.02129391, 0.037840765, 0.041718535, -0.036065575, 0.11554179, 0.040152457, -0.019110484, -0.01446049, 0.03942319, -0.0008105187, -0.05467073, 0.03240707, 0.06780063, 0.017701285, -0.028126229, 0.039379876, -0.012853437, 0.050777994, 0.012870738, -0.005138915, -0.06443713, -0.0067503294, -0.04651091, 0.0020405701, 0.04768979, -0.0039688726, 0.052310325, -0.011890927, 0.011058478, 0.0060155056, 0.027939009, -0.0636471, -0.0056547546, -0.016969329, -0.0006931921, -0.01708753, 0.045316722, -0.020504022, -0.007916736, -0.011571196, -0.07385169, 0.0072936187, -0.060179107, -0.012731735, 0.07326398, -0.05420567, -0.06055725, 0.022558667, -0.10127285, 0.03434026, 0.016518427, -0.044777278, 0.05248748, 0.015052055, 0.04434271, -0.022994978, -0.07413471, 0.0007769245, -0.022504838, 0.06370794, -0.09448144, -0.007454003, -0.016562903, 0.040270437, -0.008231865, 0.08670395, 0.05548084, -0.020973718, 0.033509415, 0.041133236, -0.045359373, 0.005458814, 0.023761451, -0.006778407, -0.08544296, -0.056466755, 0.008670346, -0.007927546, -0.013762629, -0.06589381, -0.0011979699, -0.032347895, 0.03817057, -0.018313285, -0.08267446, 0.047219783, 0.002773076, -0.017852038, 0.0070446217, -0.11730335, -0.006827346, -0.001335052, 0.10787419, 0.0034940268, 0.019719923, 0.006975067, 0.0666035, 0.047733594, 0.009610318, 0.061796136, -0.06999588, -0.011203687, -0.014856616, 0.0020646448, 0.0095917545, -0.047963694, 0.0489686, 0.013036598, 0.011745899, 0.024566276, 0.010547547, -0.06738777, -0.02705448, 0.008811164, 0.006791154, -0.012229595, 0.069371685, -0.0030216894, -0.003123871, 0.06708557, 0.024423461, 0.034130875, -0.022032348, 0.03283734, 0.017372774, 0.056467786, 0.09398592, -0.07099702, 0.034378763, -0.041768093, 0.002899673, 0.06873354, -0.037022557, 0.06954697, 0.027185997, 0.0002917638, 0.01427475, 0.03954586, -0.03640473, -0.010504785, 0.031131301, 0.06665694, 0.0065007983, 0.018376665, 0.0134933265, -0.007585901, -0.122823566, -0.03376849, -0.002055637, -0.022737494, 0.029090954, 0.047370967, 0.05810054, -0.0031530857, 0.00075160887, -0.026518043, 0.0024783104, -0.01720171, -0.00721256, 0.029998563, 0.010477627, -0.08670289, -0.0024413317, 0.029688172, 0.007981503, 0.009011481, 0.062343635, 0.02621651, -0.02032596, 0.099894285, 0.014064803, -0.012940822, 0.028375756, 0.0030085223, 0.022620263, -0.041738085, 0.01558051, 0.019281628, 0.0973742, 0.01784467, -0.04295122, -0.0967136, 0.036300592, 0.005003027, -0.0053918427, -0.040661674, 0.00081584055, -0.02518128, 0.0043142, -0.008905497, -0.12608336, -0.06790087, 0.043909572, -0.0016275884, -0.012076676, 0.040229887, 0.043407075, -0.00014589517, 0.05306098, 0.12533295, 0.061320554, 0.035029247, 0.058653027, -2.8330833e-05, 0.0429138, 0.054108433, 0.0082901735, -0.017893726, 0.014322013, 0.04255811, 0.0064098733, -0.015259618, -0.053765565, 0.002481823, 0.06700039, -0.0093064485, -0.0135024665, -0.06933755, 0.029681802, 0.073248275, -0.0041511045, 0.019307947, 0.09904068, 0.01134136, 0.0076835114, -0.0011379158, 0.0002461744, -0.01579422, -0.06151056, -0.028261397, 0.0030529548, -0.057209674, 0.02647404, -0.010507886, 0.047444146, 0.044126384, -0.0022983362, -0.022240426, 0.04620905, 0.0795672, -0.047526043, 0.01548771, 0.025534846, 0.034694564, 0.00742376, -0.08657356, -0.026802156, 0.021577695, -0.058383618, 0.013082767, -0.025692029, 0.033641748, -0.060827717, -0.07661367, -0.022621091, 0.014085075, 0.029861314, 0.0046802126, -0.059261665, 0.020840164, 0.053389274, -0.02176051, 0.019179389, -0.030165138, -0.03626555, 0.0005329982, -0.0033432536, -0.024398867, -0.0028679334, -0.011511938, -0.045496114, 0.01990713, 0.06095317, 0.11221212, 0.012375518, 0.0035535968, -0.053785644, -0.019511735, -0.013893706, 0.022183761, -0.040181745, -0.057040766, 0.014644127, -0.028756002, 0.00805817, -0.04414636, -0.021114053, 0.010880155, -0.008075187, 0.036176242, -0.04366261, 0.005723859, 0.08841573, 0.041205905, -0.060955953, 0.028008938, -0.045810256, 0.030120883, -0.023193235, -0.011350429, -0.015350531, 0.029577462, 0.02633926, 0.040390495, -0.0024396728, -0.04175438, 0.016557187, -0.00024987152, -0.013529435, 0.014206544, -0.046789005, 0.061359696, -0.010739039, 0.06167361, -0.030630482, 0.118707255, 0.00059607945, 0.00052905997, 0.01693865, -0.049318578, -0.021921648, 0.06982177, -0.018992867, 0.016271165, -0.043392982, 0.08108769, 0.0040015145, 0.04418969, 0.008244899, 0.008583826, 0.047674455, -0.0079304045, 0.014494441, 0.04035792, 0.008169566, -0.06307065, -0.019910147, -0.036067523, -0.09098651, -0.020621233, -0.0696384, -0.047500525, -0.033790138, 0.01382432, 0.0024587996, 0.08498704, 0.04961793, 0.040424045, -0.021467717, 0.030404737, 0.017684845, -0.014327071, 0.0031024881, -0.019763589, -0.007170842, -0.016550448, -0.030325923, -0.024579419, -0.009872373, -0.014828629, -0.03149372, -0.1171076, 0.003953921, -0.07611109, -0.02049843, 0.044946272, -0.021351665, 0.03250859, -0.005608004, 0.0012440316, -0.02764436, 0.001696029, -0.063651994, -0.011370375, -0.006083454, 0.032307934, 0.05081815, 0.037635826, 0.021502752, 0.023198465, 0.035762455, 0.0033964575, 0.0054357643, -0.037356656, -0.03587145, -0.050200902, -0.07676478, 0.0321789, -0.05834495, -0.051256027, -0.0013193212, 0.07517774, 0.037077222, 0.015615247, 0.0033290503, 0.02397003, -0.040532243, 0.024055218, -0.05749125, 0.046930045, 0.030278992, -0.035405513, 0.004704593, -0.03918862, -0.03441761, 0.042295747, -0.042799413, 0.0058378335, -0.06509287, 0.029000442, 0.046685595, 0.031752042, 0.040212743, -0.007925025, -0.02106026, 0.0618948, 0.041615978, 0.015246918, 0.048996285, -0.054120775, -0.02182522, -0.020854546, -0.058911003, 0.051645383, -0.03694599, -0.09692359, -0.03945023, -0.025928913, 0.0048806886, -0.04379155, 0.061400406, -0.055274773, 0.036288887, -0.059004586, -0.07210653, 0.022306692, 0.03860092, -0.0074465, 0.014030517, 0.03898295, 0.058829363, -0.058659367, 0.022692185, -0.020922245, 0.014312166, -0.020403577, -0.002313797, 0.08608006, 0.0040659322, 0.0027217183, -0.014041525, -0.009746221, -0.017967027, 0.081014395, -0.016479895, -0.02214808, -0.019585853, 0.016739642, 0.02328439, -0.083465606, -0.0179748, 0.001525177, 0.08525206, -0.00907123, -0.067866035, -0.050745465, 0.041083783, -0.018256497, 0.006753078, -0.013958101, 0.058117703, 0.021315852, 0.015084358, -0.05181329, -0.0070468658, 0.019969696, 0.0043504857, 0.042172626, -0.0007968193, -0.032538917, 0.031718325, 0.0454788, 0.04929438, 0.0017730051, -0.032651063, 0.04509573, 0.053074136, 0.0041817864, -0.033761103, -0.024839714, -0.021713609, -0.010047923, -0.061066017, -0.005215332, 0.014518707, 0.048798837, -0.010283264, 0.0021577454, -0.072762914, -0.044273842, -0.00074379693, -0.020905595, -0.023868393, -0.020428352, 0.034818355, -0.03207383, 0.047442053, -0.07210721, -0.14484452, 0.05125785, 0.065442875, 0.031594045]</t>
+          <t>[0.008206198, -0.016185157, 0.033442657, -0.016379531, 0.067443706, 0.03752067, -0.05383013, 0.074201494, 0.03824485, 0.019313743, -0.020762816, 0.0074771554, -0.021717913, 0.04154845, -0.0150041105, 0.0076110563, 0.024468498, 0.03638277, 0.023447357, -0.018324275, -0.09734429, -0.010741408, -0.05961235, 0.00776384, 0.101687, 0.02966206, 0.046756495, -0.007395166, -0.018674584, -0.003155585, 0.037094582, -0.01325866, 0.046412945, -0.041248746, -0.003707231, -0.031575736, 0.015810799, -0.012333315, 0.058941495, -0.043008484, -0.0707233, -0.0019475084, -0.095913164, 0.019168282, -0.0007011461, -0.024761945, 0.022209136, 0.017559884, -0.06971723, 0.009551253, -0.025727578, -0.014820269, 0.02752748, 0.03704915, 0.016447674, -0.0012280535, -0.08539782, 0.02870229, 0.01770982, 0.044710197, -0.083008006, 0.0011948611, -0.033245903, -0.030234817, -0.016359283, 0.03364826, 0.07067856, -0.017623214, -0.013370343, 0.007176634, 0.030467203, -0.029308736, -0.020290527, 0.054114386, -0.039346285, -0.028573846, -0.014865093, 0.020798504, -0.018916601, -0.026685541, -0.03570479, -0.04589273, 0.03839858, -0.0091880355, -0.060836274, 0.0554969, -0.0235567, 0.062468197, -0.01469988, -0.06254271, 0.016422614, -0.017966293, 0.12366573, 0.021715866, 0.009327157, -0.0015887084, 0.11964736, 0.06400293, 0.025022944, 0.02568875, -0.03759652, 0.09387216, 0.028560627, -0.027898027, 0.057417613, -0.021340176, 0.058541436, 0.009796808, -0.006193619, 0.016857577, -0.019898314, -0.06694403, -0.0109489, -0.051192615, 0.024176631, 0.025788154, 0.021459745, 0.040466975, 0.0056296345, 0.095018536, 0.028113784, -0.033841267, 0.020773238, 0.08849295, -0.0028276118, -0.025324153, 0.03067921, 0.033911675, -0.026157783, -0.008337432, 0.019746369, 0.03194015, 0.02655296, -0.008139373, 0.011793412, -0.020968648, 0.008503826, 0.0052239476, 0.032548495, -0.028104376, 0.022802087, 0.01051181, 0.045058344, -0.05567508, 0.079140455, 0.004588423, -0.030934008, -0.06920917, -0.0076302546, 0.0015412369, 0.033048235, 0.024829276, 0.01470278, -0.026859203, -0.031390164, -0.04813775, -0.015701523, -0.013215875, -0.040667273, 0.011313543, -0.0013977922, -0.066085786, -0.025906494, 0.0539251, 0.015720962, -0.03263738, 0.07025301, 0.047017768, 0.011037312, 0.09634522, -0.015045763, -0.028043434, 0.025094695, -0.005125348, 0.016222864, -0.013509357, -0.016452167, -0.066291966, 0.09617028, -0.026888965, 0.019472698, -0.104915306, -0.009644303, -0.013408204, 0.018756673, -0.060616415, -0.011896884, -0.01127247, -0.015419455, 0.05000232, -0.083633356, -0.0073818583, 0.033944294, -0.03603047, 0.018146586, 0.036619533, 0.07296315, -0.002649749, 0.10292104, 0.104974456, 0.11046327, 0.016557503, 0.0479254, -0.00961302, 0.028785994, 0.039170045, 0.012772473, -0.0030304363, 0.013936211, 0.0070618745, -0.02241771, 0.016760252, 0.0052957237, -0.016693385, 0.06980171, 0.0004199445, 0.032435887, -0.0640637, 0.016937219, 0.020508634, 0.025456175, 0.02618555, 0.07151557, 0.03782329, -0.05306041, 0.022757633, 0.013890881, 0.0004080748, -0.016951907, 0.004500998, -0.008922266, -0.04286779, 0.025778152, -0.041301277, 0.025919069, 0.049875125, -0.042757638, 0.010101038, 0.0137666855, 0.047707234, -0.0421373, 0.06619408, 0.046860725, 0.073107935, -0.0036615233, -0.07809797, -0.04765498, -0.036392152, -0.049514607, -0.0047024395, -0.025615623, 0.03285172, -0.053521138, -0.062084585, 0.007804637, 0.041973837, -0.013656322, -0.03939495, -0.08394594, -0.0068051824, 0.024526436, -0.06853259, -0.0213252, 0.015354256, -0.00057568325, -0.0040728385, 0.0023027377, -0.010925216, 0.013732929, 0.028691374, -0.023864174, -0.025486335, 0.021999482, 0.05006481, -0.0139781125, 0.05534391, -0.018363167, -0.06946135, 0.012472815, 0.024534995, -0.05357226, -0.011421547, 0.027366044, -0.09249358, 0.025997953, -0.061312478, -0.081785, -0.0050444053, -0.04081705, -0.023268675, -0.0063056564, 0.002269533, 0.061150126, 0.052191243, -0.038780216, 0.041833464, -0.043795925, 0.035203304, 0.006763306, -0.021502998, 0.05398024, 0.0033786348, 0.00049381045, 0.045657706, -0.0041931453, -0.030757112, -0.036145307, -0.0046593416, 0.022544784, 0.045994464, -0.0306302, -0.008839868, -0.01292781, 0.04051028, -0.047872, 0.053793773, 0.0047337133, -0.028106188, 0.001402128, -0.10193781, 0.014930819, 0.0637343, -0.009816745, 0.02185605, -0.014458183, 0.09945546, -0.029236617, 0.020796992, -0.036431022, 0.0745713, -0.053233217, -0.008090137, -0.008213479, 0.018710857, -0.044318825, -0.046377994, -0.040065553, -0.040782847, -0.0031830906, 0.017694516, -0.05322491, -0.018142061, -0.0038895884, 0.044137195, -0.039897878, 0.048356246, 0.0653348, -0.030143393, -0.06514673, -0.017837051, -0.07418444, -0.023072975, 0.0057319407, -0.008914795, 0.004137537, 0.005703899, 0.00039665584, -0.03459028, 0.0008589972, -0.013041994, -0.014902207, -0.07278006, 0.010972131, -0.04941406, -0.017513469, -0.028721645, -0.03433002, 0.027245121, -0.045417663, -0.0006512681, 0.027576199, 0.028246438, 0.020925071, 0.01876529, -0.031147523, -0.009154267, 0.01969457, 0.07054925, 0.03248976, 0.016462576, -0.003399843, -0.0069076507, -0.037101757, -0.04994102, 0.0026384792, -0.0020196582, -0.08607519, 0.0524456, -0.035593588, -0.031989988, -0.0018026059, 0.1430389, -0.0037556465, 0.0362132, -0.00795787, 0.0054564015, -0.057471808, 0.044027533, 0.04748602, 0.046742726, 0.028029243, -0.0622434, -0.0584625, -0.016827416, -0.008561757, -0.008603264, -0.042707782, 0.025724497, -0.097408846, -0.06661456, -0.002155161, 0.09025013, 0.028065786, 0.049597584, -0.0071885884, 0.059036832, 0.011433135, 0.009270353, 0.044045094, -0.06548412, -0.015486044, 0.0722438, -0.005101149, 0.01218441, -0.06930175, -0.03876368, -0.052518625, -0.052661594, -0.015218185, -0.030807132, -0.006930856, -0.09672568, -0.0015552003, -0.082644746, -0.06532349, -0.009436032, 0.013372969, 0.006077444, 0.037280425, 0.06315285, 0.020376444, -0.07143829, -0.027832465, 0.00886193, -0.0017805588, 0.021012848, 0.0027361333, 0.07186921, -0.051073845, -0.008160159, -0.03544723, -0.016222103, -0.020449145, 0.09252968, -0.036673564, -0.0107132485, 0.032413337, -0.0034877358, -0.01945316, 0.0014599803, -0.018177222, -0.028515832, 0.112515815, -0.021958482, -0.029457893, -0.060950432, 0.0040112133, 0.0021888705, -0.044382688, 0.027422678, 0.088536374, 0.017098045, 0.0123031605, -0.05472921, 0.008846525, -0.05889656, 0.012274624, -0.019582767, 0.0015466337, -0.05604499, -0.030515578, -0.014140254, 0.07146307, 0.036051556, 0.0012832845, 0.0638651, 0.028579544, 0.013160962, 0.020984681, -0.0032032707, -0.089389965, 0.009125116, -0.08628175, -0.00057744945, -0.0034370078, 0.040152427, -0.052698053, -0.062038902, -0.019343374, -0.026308317, 0.001174908, -0.005710328, -0.010553679, 0.0020222373, -0.021788452, 0.01489312, -0.0071657784, -0.06612553, -0.15797372, 0.05358953, 0.01875008, -0.0019123219]</t>
         </is>
       </c>
     </row>
@@ -1840,34 +1779,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ISFRS</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>이가원</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+          <t>이다연</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>hydrocolloid; machine learning</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rheological and physical evaluation of rare sugars
-as alternatives to sucrose in baked goods</t>
+          <t>Utilization of artificial intelligence (AI) models in predicting the rheological properties of hydrocolloids for meat analogues</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Various alternative sweeteners have been receiving much attention with increasing concerns about health More recently, scientific and industrial attention has been paid to so called rare sugars that occurs in very small quantities in nature, due to their health functional and low caloric properties However, there are few studies on the processing performance of rare sugars in processed food products Thus, this study aimed to investigate the effects of sucrose replacement with rare sugars ( tagatose, arabinose, and turanose) on the rheological and physical properties of baked goods, specifically, cookies The use of rare sugars for sucrose affected the pasting profiles of wheat flour In addition, the retrogradation patterns of the paste samples with sucrose and rare sugars were studied by oscillatory viscoelastic measurements, demonstrating that their viscoelastic properties were dependent on the types of rare sugars by showing different changes in storage and loss moduli over time When the rare sugars were incorporated into the formulation of cookies instead of sucrose, the cookies prepared with turanose exhibited the textural and geometrical properties comparable to the sucrose cookies However, the cookie samples with allulose, tagatose, and arabinose had distinctly low hardness value and spread factor Also, more bright and dark colors were observed at the arabinose and allulose cookies, respectively Thus, this study might provide fundamental information on the processing performance of various rare sugars in foods, probably contributing to the extension of rare sugars to a wider variety of food products</t>
+          <t xml:space="preserve">Viscosity is an important property of hydrocolloids to characterize their rheological behaviors in various areas. Therefore, it is critical to control and accurately predict their viscosity for practical applications. Constitutive models have been traditionally used to describe the rheological behaviors of hydrocolloid solutions. However, there exist no universal constitutive models for a wider variety of hydrocolloids with different rheological features. Thus, as a novel alternative to constitutive models, there is a need to apply artificial intelligence (AI) models to describe and predict the rheological features of hydrocolloid solutions. In this study, the steady-shear viscosities of six food hydrocolloids (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) were experimentally measured at different concentrations (0.2, 0.4, and 0.6%, w/w) and temperatures (25, 35, 45, and 55℃) using a rheometer, and then fitted into constitutive (power law and cross models) and AI (random forest and multilayer perceptron (MLP)) models. Furthermore, the viscosity results predicted by the established AI models, were compared with the quality attributes of the corresponding meat analogue samples. All the hydrocolloid solutions showed shear-thinning behaviors by showing decreased viscosities as a function of shear rate. When the steady shear viscosities were subjected to rheological constitutive and AI models, the AI algorithms showed a better fitting performance (R2 = 0.94-1.00) than the constitutive equations (R2 = 0.75-0.99)). Also, when the MLP　model was applied to meat analogue samples after cooking, their textural properties seemed to be fairly correlated to the AI-predicted viscosities. Thus, this study may contribute to improving the quality attributes of meat analogues by providing possible ways to predict their rheological features. </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[0.013624285, -0.01716978, 0.023424564, -0.011025534, 0.08070077, -0.005342894, 0.026152303, -0.060983703, 0.06077497, 0.030555747, -0.05209203, -0.06065739, -0.03377788, 0.02695876, 0.012573935, 0.03224506, 0.043682303, 0.051792953, 0.06516439, 0.0380441, -0.047762282, -0.00969849, -0.04340219, 0.06244717, 0.026504103, -0.044050395, -0.037237857, 0.029035727, -0.01857474, 0.02888147, 0.03578664, -0.043122396, -0.03953322, -0.01615492, 0.028045267, 0.03372814, 0.05893186, 0.013018827, 0.06408597, -0.03301005, -0.042980503, 0.028319692, -0.0039714975, 0.0018578928, -0.034088578, -0.07096093, 0.11603123, 0.010492789, 0.0017978753, -0.0013715114, 0.013393706, -0.010907008, 0.008992117, -0.065394565, 0.051244486, -0.03415484, -0.029732514, -0.013334386, -0.04769807, 0.02227436, 0.012188235, -0.03292514, -0.06761142, -0.016226532, -0.01647646, 0.036076058, -0.030852998, 0.029968943, 0.09713012, -0.06435635, 0.02126993, -0.011019589, -0.012359528, 0.008987924, -0.14123236, -0.03983688, -0.0027459152, -0.07289278, -0.01848968, -0.031063592, -0.0730304, -0.020936875, 0.07409829, -0.031508796, -0.050209843, 0.059654318, -0.08120978, 0.033314615, 0.005006245, 0.057439364, 0.06545875, 0.0043222527, 0.07860388, -0.006309067, 0.0649784, 0.038928036, 0.111428946, 0.07815888, 0.041328076, 0.042094756, -0.012599784, 0.018723963, -0.055862315, 0.026447287, 0.055945273, 0.009893021, 0.02246166, 0.015848916, 0.03424723, 0.04895785, -0.08660791, -0.05876538, -0.066080436, 0.059769154, -0.025808603, 0.06120837, 0.092875235, 0.05153663, 0.00840982, 0.03435416, 0.024324426, -0.041667573, 0.0052720127, 0.043984186, -0.027481774, -0.01963171, 0.025558319, 0.010645878, -0.027473431, -0.081288084, 0.0218681, 0.08043221, -0.014898594, 0.015855202, -0.03623111, 0.051105805, 0.012627108, 0.08734793, 0.009952174, 0.07568924, 0.0038237006, -0.05019291, 0.05125887, -0.010625788, 0.05834599, 0.020183478, -0.1538128, -0.037674256, -0.02850062, 0.04339587, 0.020955829, -2.5618705e-05, -0.013899314, -0.04348632, -0.030817617, -0.10928921, -0.0075599975, 0.061059747, -0.06217797, -0.0077924696, 0.014313396, -0.03357847, 0.039782777, -0.003654648, 0.0008997205, 0.08261241, 0.04964264, -0.0073113507, 0.002188863, 0.0885622, -0.006622022, -0.019578088, -0.0027577262, 0.057492148, 0.017084004, -0.020007148, -0.0033512402, -0.06218157, 0.06538625, 0.015501313, -0.00024709315, -0.0017612891, 0.052756216, -0.00880293, 0.044293594, -0.0030154022, 0.0051539773, -0.061602555, -0.025641857, 0.030597912, -0.041438077, 0.086136535, 0.056018155, -0.025021764, 0.0037035195, 0.0356721, 0.08571669, -0.00594508, 0.048514556, -0.029869445, 0.00048577084, 0.033819858, 0.06363893, -0.0025535384, 0.111433566, 0.028324442, -0.03186562, 0.0540293, 0.027954556, 0.06186735, -0.07951064, -0.056762416, -0.036261622, 0.025141396, 0.012166501, -0.011328399, -0.02764846, -0.047542706, 0.036614656, 0.054058813, 0.01979172, 0.05761814, -0.042676847, 0.022310318, -0.020297475, -0.015546075, 0.017849986, 0.01728436, -0.025336802, 0.0053908103, 0.026683373, -0.059479043, -0.0741468, -0.0019065344, 0.025323048, -0.0031952232, -0.03596217, 0.06831178, 0.04807048, 0.0694442, -0.020475926, -0.0077549107, -0.02678551, 0.029009199, -0.014911071, -0.07501531, -0.02311198, -0.0010403439, -0.027058987, 0.027332678, -0.024608178, 0.08257538, 0.01771386, 0.014058846, 0.075029865, -0.01708359, 0.032622747, 0.032322124, 0.041530617, -0.066631004, -0.004468972, 0.009378326, -0.012245554, -0.020024886, 0.0016691365, -0.032525, -0.00999523, 0.05265692, 0.047153592, -0.02014867, -0.024436094, 0.034403034, 0.1078135, 0.07056562, 0.061214603, 0.05290532, 0.025061466, -0.083051205, -0.0031992476, -0.033843324, -0.05831328, -0.07500564, 0.04817244, -0.025315905, -0.050034463, -0.0458281, -0.022489816, -0.021334313, -0.042602383, -0.09683574, 0.05549406, -0.088677995, 0.022284528, 0.025430266, -0.06368279, 0.043405533, -0.054138757, 0.08766534, 0.040305097, -0.0029359292, -0.05130071, 0.0064634676, 0.03079125, 0.010845041, 0.08151866, 0.0032613066, -0.03705488, -0.02159933, 0.015732812, 0.038106088, -0.018864408, 0.081601076, 0.045189235, 0.07522591, -0.015596595, 0.03600937, -0.034821235, -0.042985808, -0.0023746837, 0.039059736, 0.04608163, 0.04254245, 0.01373294, -0.0364563, -0.021013435, 0.029413518, -0.13059397, 0.00029874564, -0.008727552, 0.04566591, 0.03524892, 0.010452199, -0.019051867, 0.05160209, 0.06410834, -0.039092537, -0.06084414, 0.0074447705, -0.0057854843, -0.032601055, -0.013332578, 0.013116955, 0.057082772, -0.030311821, -0.003940637, 0.038094442, 0.026710026, 0.06588179, 0.0045187203, -0.030391674, 0.022867916, -0.049511157, 0.011740296, 0.04900538, -0.022425966, -0.016043507, 0.019899208, -0.06572966, 0.022135217, -0.03714661, -0.008972893, -0.028862273, -0.05511375, 0.07061677, -0.031655915, -0.033573765, -0.03777986, -0.0019588561, -0.007529782, 0.014528781, 0.010539495, 0.009395047, 0.007905755, 0.010752584, 0.06734162, 0.037862096, -0.0021270325, 0.06299452, 0.04859136, 0.045523096, -0.0278883, 0.043791097, -0.0009225721, -0.06905732, -0.05628784, -0.027981393, -0.14645767, 0.030051226, -0.05258823, -0.095550515, -0.010549998, 0.060185708, 0.0650406, -0.0072533763, 0.0051717297, 0.09574417, -0.065576196, -0.0028009869, -0.014273782, -0.020834848, 0.042333424, -0.08379528, 0.028720371, 0.04399439, -0.010748352, 0.0025307618, 0.0031405776, -0.0010523164, 0.008095564, 0.0046322434, 0.043068185, 0.0020069988, 0.016595941, 0.05817839, 0.029897017, -0.010824185, 0.04144578, -0.05821843, 0.0072901165, 0.0074879783, -0.0071766577, 0.023585381, 0.026209624, 0.007988114, 0.011529304, -0.055967703, 0.03935486, -0.086928315, 0.047304604, -0.031060299, 0.041102808, -0.070300885, 0.00324311, -0.07253243, -0.041758314, -0.05256663, 0.024522329, 0.002548343, 0.037214726, 0.028137127, 0.0065177614, -0.010413571, 0.030138033, 0.06889079, 0.007464546, 0.0013128606, 0.058670234, 0.04376012, -0.058997076, -0.0127244545, -0.044254318, 0.011449731, 0.019941911, 0.06964776, -0.03156033, -0.016886476, -0.009458454, -0.103813596, 0.02197336, 0.010793861, -0.030455984, 0.020934753, 0.097843155, -0.010418632, 0.07699019, -0.07952923, -0.036489565, -0.017167289, 0.055839624, 0.005833997, -0.02672893, 0.09295393, 0.057659604, 0.011154691, -0.097033516, -0.020712867, -0.03536197, -0.060279973, -0.0068592103, -0.029282061, 0.01900006, 0.0028848296, 0.055122357, 0.030186541, -0.053858813, 0.0464456, -0.049778733, 0.010367951, -0.06594024, 0.007880771, -0.05288408, 0.011413215, -0.079538815, -0.01790879, 0.060102966, 0.05702141, -0.009567101, -0.02450288, -0.012699398, -0.010173417, 0.04342474, 0.031249965, -0.007993487, -0.0745197, -0.019284314, -0.017662613, 0.026375068, -0.05251057, -0.0910963, 0.020759089, -0.028729334, -0.0031066663]</t>
+          <t>[0.03239492, 0.054200627, -0.06101495, -0.009333816, 0.09211449, -0.014015368, -0.022959875, -0.046756368, -0.015167884, 0.029897517, -0.052291866, 0.02681631, 0.075033665, -8.081412e-05, -0.019250933, 0.03539859, -0.0046814075, -0.00092746405, -0.044807415, -0.032166414, 0.04165317, -0.034167256, 0.018985858, 0.03292749, 0.029065402, 0.03015222, 0.10331812, 0.07719199, -0.13800815, -0.018172208, -0.016149724, -0.020692423, 0.0034909968, -0.028233983, -0.06789424, -0.02698291, -0.01001411, 0.039452024, -0.023310656, -0.03119925, -0.011953858, 0.012278487, -0.030570371, 0.09265771, 0.04024868, -0.02617393, 0.03198297, -0.023829045, -0.0061035044, 0.032411214, 0.015049029, -0.028404437, 0.01598291, 0.06402969, 0.02869982, -0.002887539, -0.09850174, -0.0647388, 0.0022898144, 0.024005612, -0.09728393, -0.08974211, -0.080093704, 0.013403906, -0.013637356, 0.031432617, 0.0032734948, 0.0040287715, 0.06624228, 0.00779095, -0.06465646, -0.02044859, -0.06255498, 0.038735177, -0.049069315, -0.003968895, -0.040346306, -0.052061267, 0.017645117, 0.020190246, -0.020302359, -0.034903117, 0.10170593, 0.03958534, -0.018108549, 0.041959763, -0.052147266, -0.046673004, -0.01696962, 0.041448932, -0.006353327, -0.023050208, 0.09455066, 0.02517366, 0.019218888, 0.0020550638, -0.037013274, 0.0055671255, 0.03379396, 0.059034683, -0.035976082, 0.0808633, -0.015807351, 0.04320421, 0.014903217, 0.0010776537, 0.0073820166, -0.0069756717, 0.048542913, -0.03335392, -0.0017848754, -0.07531983, -0.08081433, -0.022475973, 0.023589008, 0.046256687, 0.009993752, 0.013172073, -0.003219314, 0.03775832, 0.014876131, -0.010549684, -0.010328634, -0.003746629, -0.029528568, -0.030740941, -0.07680099, 0.05879244, -0.043952532, 0.019852873, -0.012695588, 0.038599093, 0.037558436, -0.021639148, -0.008291938, -0.0658916, -0.07051532, -0.0013738411, 0.03940386, 0.011896728, -0.01997017, -0.073022865, 0.061431985, -0.09636378, 0.10346413, 0.015593049, -0.025271859, -0.060757026, 0.034288075, 0.028348226, -0.018856468, 0.03349312, 0.017154416, -0.010952204, -0.0046205022, -0.043961924, -0.06446424, -0.013701011, 0.0116664395, 0.0070004445, 0.0017334452, -0.054207176, -0.014858408, 0.015147901, 0.014633552, -0.023022875, 0.051897936, 0.007673712, 0.012709214, -0.0025794317, 0.04571995, -0.018040087, 0.037795153, 0.0036651408, 0.0033639348, 0.035024606, -0.052051716, 0.01587167, 0.017582396, 0.0170401, -0.020875301, -0.034171302, 0.06024331, -0.05443662, 0.017941047, 0.0052228556, -0.00929226, 0.007873264, -0.06539691, -0.0070135198, -0.017731272, -0.06492213, 0.007965367, -0.010216699, 0.014097629, 0.032667853, 0.044835784, -0.021596728, 0.022678882, -0.0075785504, -0.030772204, 0.0222458, 0.08563002, 0.034052446, 0.014737666, 0.033287376, 0.015428846, 0.013055203, -0.007799207, 0.03152325, 0.0038737657, 0.11868389, -0.017011229, -0.023071429, 0.0462003, -0.026495896, 0.062290024, -0.0010157201, -0.019666666, 0.06228821, -0.05199676, 0.06887958, 0.05340674, 0.025448926, -0.006709221, 0.020095164, -0.04628831, -0.0114897415, -0.030618, -0.037395734, -0.002613952, -0.030417271, 0.014732224, 0.016934631, 0.04128612, 0.05058143, 0.0011040396, 0.051064055, 0.013875578, 0.09869922, -0.059408143, 0.01268554, -0.02590229, -0.059368994, 0.026628248, 0.02145142, -0.021311376, 0.0069735665, 0.0135551095, -0.045602135, 0.0061876085, -0.023576858, 0.05217296, -0.021949314, 0.021491637, -0.043501556, -0.006245785, 0.000956149, 0.034304205, -0.004596386, 0.0063902107, 0.018007249, 0.01589878, -0.07872808, -0.02621981, -0.018896718, 0.01408098, 0.03230453, -0.03555354, -0.039391752, 0.02124206, -0.00776584, 0.057020947, 0.0028339464, -0.024222855, -0.010650177, 0.008347788, 0.031760372, -0.0018902788, 0.044832487, -0.024363538, 0.0024298364, 0.06967103, 0.02126571, 0.03312161, -0.04905061, -0.008700414, -0.03150343, -0.045742493, -0.052114096, -0.012886498, -0.06560866, 0.0410938, -0.037189856, -0.015373252, 0.049999975, 0.01682783, -0.011317544, 0.035524976, -0.026067505, -0.017249951, -0.052424625, 0.024390716, 0.05218864, 0.004206721, -0.015108113, 0.006120127, -0.05866149, 0.022705913, 0.023488205, -0.044918574, -0.024399336, 0.05975052, 0.058728334, -0.012834988, 0.029226746, 0.03661409, 0.023324749, 0.0018287029, -0.031218454, 0.056983344, 0.03001829, -0.0068838326, -0.033817437, -0.033512227, -0.013196911, -0.026745735, 0.013283026, 0.00075959583, 0.055362806, 0.022239508, -0.024733666, -0.0046514627, -0.011469695, -0.0472628, 0.0002657259, -0.06612802, 0.020763723, 0.022286154, 0.014794822, -0.033069402, -0.10937927, 0.033586517, 0.01995367, 0.02652177, 0.0106350975, 0.01894577, 0.048135895, -0.029232314, -0.009308909, -0.040818624, 0.00220948, 0.007942263, -0.02587881, -0.06440321, 0.012140808, -0.0007212808, 0.074087664, 0.06888136, -0.04529044, 0.06248211, 0.02141709, -0.03719554, 0.10360647, -0.077219345, -0.06878351, -0.05144793, 0.01317426, -0.025295625, 0.008715408, 0.02320778, -0.00050818635, -0.009380591, -0.024358323, -0.07226505, -0.014690213, 0.043183148, 0.08298771, 0.029171236, 0.03130228, 0.0037691945, 0.00027757848, -0.044679925, 0.00782498, 0.009227672, 0.080306344, -0.06783754, 0.06292829, -0.052162405, -0.057970297, -0.021489596, 0.064385004, 0.04856023, 0.045045033, 0.06524138, -0.02854714, -0.07963502, -0.012230172, 0.06080641, 0.050107073, 0.017568788, 0.027016805, -0.01464852, -0.05418527, -0.04518835, 0.02398132, 0.019812016, -0.005545857, -0.08484616, 0.07495051, 0.049608648, 0.026096594, -0.0075158654, 0.039259527, 0.0016220198, 0.022516731, -0.000520777, -0.077305906, 0.028042888, -0.09189921, -0.028519506, 0.014663427, -0.059094112, -0.0028535638, -0.049215063, 0.029998047, -0.014676962, -0.047438078, 0.0144227985, -0.028233515, 0.029086573, -0.0012063709, 0.05314312, -0.034903996, -0.04153833, 0.044620197, 0.06787129, -0.01326315, 0.0034904026, 0.02390722, 0.015780523, -0.061983682, 0.03093065, 0.02796269, 0.04967969, -0.019556353, 0.02812902, -0.025302913, 0.0050613936, 0.023344377, -0.03814469, -0.031381365, 0.047086578, -0.018961947, -0.011718498, 0.024937376, -0.060752444, 0.021953389, 0.011214853, 0.030622026, -0.0014812049, 0.014669733, 0.0374235, 0.023577314, 0.0054309373, -0.021020344, 0.05593079, 0.065454155, -0.008589368, -0.055428077, -0.01492162, 0.02559328, -0.015331739, -0.010285883, -0.034896005, -0.07846158, -0.04904227, 0.004838051, 0.006092266, -0.045124587, 0.013020433, 0.015396035, 0.04736535, 0.016122058, 0.001769695, -0.01349187, 0.0018032889, -0.06036493, -0.006229797, -0.028197015, -0.047059305, 0.050876975, -0.04310297, 0.021569798, -0.02916608, -0.010001622, 0.033557076, 0.052686863, 0.03418201, -0.03640823, 0.047579605, -0.006899601, -0.020421099, 0.019574746, 0.0058900225, 0.037500553, -0.07794318, 0.013031755, -0.0036255359, 0.059470817, -0.026653567, -0.044679277]</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1822,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1885,33 +1831,33 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>오민수</t>
+          <t>김예은</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>senior-friendly food</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>REFERENCES
-SUMMARY
-Enrichment of
-rutin in Tartary buckwheat flour by hydrothermal treatments:
-rheological, thermal, and microstructural characterization</t>
+          <t xml:space="preserve">Preparation and characterization of high-protein mousse diets with fava bean powder for the elderly
+</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tartary buckwheat (Fagopyrum tataricum is a health functionally superior crop to other cereal grains due to a variety of functional ingredients, specifically, rutin However, during processing, rutin in Tartary buckwheat is converted to quercetin by rutin degrading enzymes, which generate a bitter taste Therefore, several hydrothermal treatments have been applied to buckwheat for deactivating the enzymes Nonetheless, the effects of the hydrothermal treatments on the rutin content of buckwheat flour have not been elucidated yet This study was thus carried out to investigate the effects of various hydrothermal treatments (boiling, autoclaving) on the rutin enrichment in the Tartary buckwheat flour in terms of optical, rheological, thermal, and microstructural properties The hydrothermal treatments increased the level of rutin in the flour fraction In particular, the highest rutin content was observed in the autoclaved buckwheat flour
-After the hydrothermal treatments, rutin was not converted into quercetin by mixing with water while the granules of buckwheat starch round in shape and grouped in lumps were disrupted Furthermore, greater coefficients of determination were obtained between the rutin content and the physicochemical changes induced by the hydrothermal treatments This study can aid in giving the food industry more potential opportunities to produce new functional food products by increasing the rutin content of buckwheat flour</t>
+          <t>There is a need for the development of senior-friendly foods as the elderly population continuously increases. In particular, older people with dysphagia have swallowing problems, which may increase the risk of dehydration and aspiration as well as insufficient calorie intake. This study thus aimed at investigating the textural and rheological properties of high-protein foods supplemented with fava bean powder for the elderly with dysphagia. In this study, fava bean powder was incorporated into the formulation of mousses diets for the elderly at varying mass ratios, and their quality attributes were characterized mainly in terms of texture and rheology. The viscoelastic measurements showed that both G’ and G’’ decreased as the level of fava bean powder increased. When the high-protein mousse samples were subjected to a freezing and thawing cycle, the degree of syneresis (%) decreased with increasing levels of fava bean powder. When the mousse samples were compressed, all the samples exhibited similar textural profiles by showing fracturability. In addition, the textural differences were not observed as the amounts of fava bean powder varied. urthermore, these hardness values measured were as converted into stress in order to determine UDF steps depending on the level of fava bean powder. High-protein mousse diets for the elderly were successfully prepared with fava bean powder without significant textural changes. As a result, this study may encourage the food industry to develop high-protein mousse diets for the elderly with objective rheological guidelines along with the UDF steps.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[0.03612881, -0.020494405, 0.017131586, 0.0026774618, 0.11032323, -0.048448544, -0.049638655, -0.0047279135, 0.008587107, 0.042733163, -0.039284077, 0.004446893, 0.0035662304, 0.0752862, -0.0016971724, 0.052046977, -0.012164, 0.032385707, 0.0531848, 0.026445711, -0.008652597, -0.043397397, -0.020467455, 0.028665442, -0.008744069, -0.036293477, 0.03967166, 0.022923943, -0.0072404025, 0.018584626, 0.045658033, -0.02278552, -0.008602453, -0.021085877, -0.010103007, -0.03289384, 0.013749406, -0.026990257, 0.06506177, 0.0005694762, -0.051913407, -0.039257076, 0.01857217, 0.07966267, -0.025509106, -0.002952868, 0.041154258, -0.08312804, -0.040716957, -0.044647545, -0.008690328, -0.008321293, -0.01577218, 0.029802222, 0.08489677, 0.024582388, -0.07659057, -0.014605572, -0.028610773, -0.023303742, 0.0037496332, -0.03851079, -0.0063186022, -0.09918291, 0.0060789175, -0.07703622, 0.014233871, 0.05348065, 0.041119006, -0.035768304, -0.035225853, 0.0038829965, 0.015766684, -0.01821084, -0.10379219, -0.08725185, 0.044900257, -0.04946908, -0.066029556, -0.05301866, -0.048008293, -0.03596328, 0.063846745, -0.06812994, -0.06604589, 0.08004348, -0.055300172, 0.04000892, -0.029557891, 0.004474666, 0.025409823, 0.023235051, 0.07431533, 0.0098974155, 0.0534581, 0.03899124, 0.100745946, 0.067951575, 0.044042885, -0.058425903, -0.023084255, 0.048646588, -0.041280396, 0.019966792, -0.0038611596, 0.050237205, 0.0012648983, 0.050420854, -0.024348162, -0.026471226, -0.097888134, -0.030878631, 0.002071717, -0.0031278818, -0.0028650179, 0.0034887989, 0.047467858, 0.0989013, 0.01948648, 0.08925782, 0.029291783, 0.010065771, -0.034397997, 0.062827736, -0.030241309, 0.0020019547, -0.024593372, -0.008291717, -0.023202619, -0.06194217, 0.013077228, 0.026696231, -0.036799856, 0.02276889, 0.03362692, 0.06512907, -0.01122815, 0.0005460395, 0.008887667, -0.029197505, -0.03972162, -0.027033385, -0.0021361443, -0.06974088, 0.010746629, 0.0027993915, -0.107602544, 0.0050415862, 0.023149945, 0.021085247, -0.015306299, -0.05622588, 0.035708647, 0.046386074, 0.019898888, -0.07325603, -0.021699915, -0.05167427, -0.067211084, -0.097601116, -0.021571832, -0.0246872, 0.03062748, 0.012193902, -0.017163917, -0.061777946, 0.056405015, -0.015804695, 0.06577984, -0.026506051, -0.011267053, 0.015885178, 0.0114673795, -0.075122945, 0.020855883, -0.030629747, -0.01742772, -0.036215745, 0.008255129, -0.037645184, -0.008981231, 0.04402091, 0.058439925, -0.026921568, 0.05958965, -0.0040694103, 0.06796114, -0.021967623, 0.042007253, -0.029983934, -0.005927779, 0.017847808, -0.0025414273, 0.013356493, 0.041258827, 0.014463382, -0.0014005245, -0.07989277, 0.065349564, -0.06664383, -0.035290167, 0.052746147, 0.06348221, -0.022940861, 0.03813372, 0.036029756, 0.033823933, 0.02159563, 0.012471545, -0.011217627, -0.086356804, 0.022499537, -0.03868496, -0.012972582, 0.019795414, -0.0050782915, -0.022435367, -0.02191038, -0.023019822, 0.04893302, 0.004369445, 0.012732202, -0.042072203, 0.016118107, -0.052059047, -0.022568919, 0.043647688, -0.009463279, -0.030190608, 0.021359151, 0.038666345, -0.0737979, -0.037101816, 0.079099424, -0.005694104, -0.034416456, -0.02574711, 0.07490549, -0.00475569, 0.117771894, -0.037354767, -0.04357832, 0.026950844, -0.06549546, 0.04071674, -0.016528266, -0.020622067, -0.0050663147, -0.008822194, -0.007505434, -0.043605916, 0.02155331, 0.02620119, -0.038383935, 0.0035668795, -0.011166238, 0.033122323, -0.0016690963, 0.020564498, -0.06959134, 0.007121706, 0.067402706, -0.03858934, -0.028237691, 0.029437799, 0.06681016, 0.012324188, 0.03767844, 0.032255575, 0.025778126, 0.008850529, 0.007146017, 0.010462055, 0.05605154, -0.025766954, -0.030947661, -0.0006393829, -0.09028305, 0.014289958, -0.023123764, -0.061383903, -0.011684677, 0.0346291, -0.07323395, -0.060384355, -0.03712766, -0.020647971, 0.011228883, -0.06306812, -0.118963555, 0.0050319596, -0.055870473, 0.022471, 0.02017357, -0.06481746, 0.049374506, -0.015702209, 0.041560553, -0.013226735, -0.032768816, -0.007864624, 0.017814547, -0.005093459, 0.036756743, 0.057529792, -0.02541755, 0.052848797, 0.043565232, -0.016023893, 0.0699165, -0.010297242, -0.010003397, 0.011160899, 0.057826173, -0.034104265, 0.051839806, -0.002540726, 0.033779513, -0.020237073, -0.03592487, 0.0017460467, 0.046199176, -0.08231942, -0.015130734, -0.021440463, 0.06925052, -0.050455526, -0.0116028655, -0.043327507, 0.036294945, 0.04907511, 0.0010702142, -0.012534733, -0.026523229, -0.039221033, -0.09331686, 0.03900317, 0.007179641, 0.011456203, -0.024272542, 0.006773616, 0.10542832, 0.004889633, 0.0365257, -0.00048821486, -0.04698655, -0.0035328276, 0.02681437, -0.029001102, 0.035383586, 0.065841086, -0.011525791, 0.009404901, -0.0009946098, 0.012012467, 0.02371488, -0.055466715, -0.020039394, 0.021876145, -0.0143014705, -0.018932836, -0.04287305, 0.033447973, 0.030212786, 0.044387847, 0.014971292, -0.056274384, -0.007170504, 0.014212714, -0.09057231, -0.011503848, -0.013082528, -0.01503214, 0.0130262105, -0.046692796, 0.0034249243, -0.08093254, 0.041119896, 0.06157164, 0.03326665, -0.0043641636, 0.042567417, 0.009523642, -0.0915097, -0.048351068, -0.0039797183, -0.08441342, 0.059924945, -0.05936799, -0.054054253, -0.018952932, 0.10206595, 0.029240957, 0.061464634, -0.0020172156, 0.0027233812, -0.014576513, -0.048161007, -0.054420643, -0.055537596, 0.018383514, 0.01755451, 0.0022792823, -0.03994981, -0.023635298, 0.021979095, 0.05156669, 0.010587798, 0.040930387, -0.023978045, -0.0007918494, -0.017586574, 0.031208908, 0.010676327, 0.038114022, 0.02450444, 0.0014655209, 0.03879836, 0.053530037, 0.016267471, -0.004720976, 0.009410989, -0.008560044, 0.0061790007, -0.010359327, -0.014618672, 0.0787844, -0.06105772, -0.002146223, 0.04980354, -0.06856746, -0.10900038, 0.0063868486, -0.042036775, -0.0051787505, 0.038227897, 0.013601153, 0.026722815, 0.08415149, 0.012795217, -0.0017954101, -0.040686805, 0.005997075, 0.0281734, 0.0003447854, 0.0015242664, 0.013106759, -0.017085217, -0.037690036, 0.006883807, -0.08352081, 0.07847796, 0.03679404, -0.014005501, 0.06414794, -0.053414322, -0.07108763, -0.0013795411, 0.06865492, -0.018161431, 0.07753335, -0.009809096, 0.07158051, -0.031926036, 0.004739551, -0.0710504, -0.060342796, 0.003095041, 0.015146237, -0.0007807947, -0.010818139, 0.044112574, 0.04858019, -0.00022826315, -0.030204453, -0.056230333, 0.027780404, 0.0034519113, 0.01707361, -0.012520968, -0.01059737, -0.024224183, 0.049094576, 0.0509662, -0.042369988, 0.0037709682, -0.0592334, -0.036093026, -0.005284355, 0.035649657, -0.081833534, 0.016685018, -0.032692853, -0.049843665, 0.04142098, 0.09639949, -0.017434029, -0.040249646, 0.04943285, 0.0031529882, -0.018457681, 0.04121052, -0.025535835, -0.04981963, -0.010132732, -0.04757838, 0.031944644, 0.0017294075, -0.09528883, 0.028108122, 0.037942063, -0.023152972]</t>
+          <t>[0.013153513, -0.012316176, -0.0026001956, 0.010339355, 0.09521265, 0.13645716, -0.014596978, -0.020946441, 0.03312964, 0.042862467, -0.07902764, -0.07364885, -0.04087628, 0.044667933, -0.010195481, 0.004775707, 0.037447236, 0.018049717, 0.06523855, 0.037663832, -0.0007435596, -0.0070720636, -0.106984034, -0.00966294, -0.02418324, 0.013198222, 0.023830852, -0.01894685, 0.006452717, 0.0022934398, 0.011482632, -0.00947765, 0.019566312, 0.0035181893, 0.021734681, -0.003829841, 0.010424823, -0.033745978, -0.028088141, -0.024131482, -0.039437253, 0.035782944, 0.020818004, -0.040697776, 0.050405793, -0.033231016, 0.031222507, -0.00084401533, -0.06935909, -0.00544367, -0.011339806, -0.03140802, 0.012385879, 0.069394514, 0.06640176, -0.035367098, 0.007188702, -0.04820023, 0.06166362, 0.04361635, 0.008167217, -0.023008233, -0.038476527, -0.058150038, -0.019815156, 0.014844117, -0.040323123, -0.0028869908, -0.0209758, 0.045003235, -0.03275071, -0.046787817, 0.016007625, -0.006552463, -0.050577156, -0.021843545, 0.006140763, 0.03341575, 0.013241595, 0.03151098, 0.040788777, -0.059713732, 0.044610802, -0.027122056, -0.0623876, 0.064552344, -0.024153793, 0.06532641, -0.023763593, 0.07560963, 0.045249518, -0.027726436, 0.12632814, -0.0050263405, 0.02700287, 0.014781126, 0.10403102, 0.10121826, 0.0501521, 0.06054349, -0.028302789, 0.08362335, -0.045736212, -0.0019977211, 0.0013501776, 0.030105567, 0.036436014, -0.0077584228, -0.025307838, 0.0026186476, 0.030325135, -0.07559618, -0.035445433, -0.039628778, -0.020593865, 0.11307866, -0.018151265, 0.028557688, -0.0047516, 0.006135539, -0.007139508, 0.0013892808, 0.021699738, 0.10918719, 0.015374637, 0.0020928138, 0.008219009, -0.03681706, 0.043312375, 0.081934944, 0.11030054, 0.11795677, -0.008566862, 0.02580699, 0.0033879173, 0.0059553566, 0.021951089, 0.018708035, -0.02644594, -0.02066092, -0.0077482467, -0.03514981, 0.028613776, -0.10294452, -0.04436647, -0.013876176, -0.00884855, -0.030287387, -0.056591824, 0.06954779, 0.0012294195, 0.039344557, 0.02583726, 0.0073059336, -0.052261245, 0.007336316, 0.028069708, 0.039949927, -0.0043072966, -0.0067348727, 0.019815939, -0.032652806, -0.077143975, 0.023053389, -0.056115232, -0.01942522, 0.025057567, 0.027908966, -0.01697483, -0.036338974, -0.00992167, 0.0059497305, 0.025461288, -0.013502694, 0.027611777, -0.015857384, -0.008056928, -0.05534824, 0.06381272, -0.011908875, -0.00528757, -0.048895456, -0.024982102, 0.015541445, 0.018863732, -0.011223409, 0.07231876, -0.007905185, 0.06792055, 0.02730285, 0.0058767046, 0.044111032, 0.02322916, -0.01087132, -0.04481898, 0.046505067, 0.02074528, 0.02649121, 0.009618234, 0.05714258, -0.035322223, 0.038846765, -0.008478883, -0.03146578, 0.0069020563, -0.010310157, -0.033795655, -0.023733864, 0.020802185, -0.024818566, 0.0032731623, 0.0626259, -0.009251626, 0.03543806, -0.005840742, -0.024158303, -0.016649526, -0.0668457, -0.053426992, 0.008767205, 0.043485988, 0.03037729, -0.06988598, 0.006418035, -0.048297912, -0.058704853, -0.026455218, -0.052076843, 0.006856316, 0.046193782, 0.035594918, -0.035939366, -0.013463515, -0.036855653, 0.02067071, -0.012259397, -0.0065953755, 0.059702132, -0.00090876524, 0.054837205, -0.04856124, -0.0336384, 0.029069472, 0.041483678, 0.031224666, -0.031199569, -0.024906304, -0.061096195, -0.027961915, -0.015041649, -0.016511653, 0.0014728404, -0.018688727, -0.063471235, -0.016117997, -0.06504169, 0.005104935, -0.0350191, -0.001324589, -0.032756623, 0.045911357, -0.025033846, -0.019460652, -0.03743032, -0.05605039, -0.0057396595, -0.021007966, 0.008027101, 0.006920301, -0.023420108, 0.0041586785, 0.05214687, 0.048274685, 0.031955887, -0.027164288, -0.0018592195, -0.022918662, -0.09570147, -0.0070948843, -0.043665882, -0.06375764, -0.0066826404, -0.0068290085, -0.04763123, -0.030076176, -0.031186728, -0.022068184, -0.0019987172, -0.017235203, -0.08734044, 0.012238081, 0.014448862, 0.06335677, 0.0068624895, -0.06564908, 0.032860007, 0.033905968, 0.024591984, -0.018947372, -0.0017567147, -0.0023870294, -0.03460889, -0.017800985, 0.01139507, 0.036521506, 0.011287074, 0.042906217, -0.007275264, 0.031418227, 0.005253182, -0.017227348, -0.03152477, 0.0064835004, 0.039243393, -0.050789274, 0.039483547, -0.020063443, 0.010494354, -0.01827082, 0.006395159, 0.03457508, -0.001308432, 0.024587395, -0.038131073, 0.008433565, 0.0837725, 0.019195696, 0.06028464, -0.019332299, 0.05501899, -0.015833233, -0.030361611, -0.011855849, -0.019233234, -0.06663998, -0.03798039, 0.04677211, 0.030632557, 0.012075011, -0.020943983, -0.05163351, -0.029874507, 0.11632487, 0.037444733, -0.0779234, 0.023120612, 0.03376176, 0.080192015, -0.07565245, -0.039335005, 0.028811632, -0.018067187, 0.025289511, -0.026277127, -0.024689635, 0.041049786, -0.005167042, 0.008937335, -0.048057064, -0.0061063613, -0.013863169, 0.024325617, -0.001348193, 0.032760203, 0.027182052, -0.014500071, 0.043605845, -0.0069604176, 0.002094861, -0.07039643, 0.055941444, 0.0032269168, -0.029612612, 0.048088994, -0.013916867, 0.013449499, 0.014742024, 0.064414814, 0.0061533344, 0.030162552, 0.019333329, -0.008515961, 0.0024959524, -0.06542314, -0.063923225, -0.0032703746, -0.06714133, 0.008492251, 0.010235405, -0.043787245, -0.00217577, 0.092304744, -0.028396767, -0.01937371, 0.0029162203, 0.063078634, -0.060192317, 0.017452942, 0.08361567, 0.005046581, -0.0020562317, -0.0042086863, -0.04396, 0.012102135, 0.0038936844, 0.057003856, 0.03550075, -0.0026348652, -0.046876773, -0.089252695, -0.036551684, -0.031483687, 0.021788526, -0.021548944, 0.012471328, -0.036254525, 0.00021254772, 0.05176098, 0.01076509, -0.0065744626, -0.015208317, 0.05644924, 0.05394962, 0.02487107, -0.040552307, 0.0083668325, 0.039361935, -0.06884082, -0.059672743, -0.06003953, -0.022851273, -0.0369864, 0.027231624, -0.053140275, -0.040999677, 0.01717056, -0.0068992125, 0.06660419, -0.012676188, 0.035092056, -0.06710212, -0.0589028, -0.0055358484, 0.034215488, 0.095505156, -0.0062788967, 0.008448348, 0.023390641, -0.019107552, -0.012307248, -0.020425107, 0.005499713, 0.015132876, 0.031241346, 0.012531095, -0.031714164, -0.0021303515, -0.005085525, 0.02302115, -0.030101495, 0.01822435, 0.009878996, 0.053665943, 0.06881846, -0.00073802803, 0.001907384, -0.0075572133, -0.06070084, 0.043682817, -0.04101399, 0.0051871845, -0.057318054, 0.07721402, -0.047559857, -0.053950053, -0.044469338, 0.021292958, -0.016171793, 0.05526451, 0.0149025135, 0.0064797155, -0.020677855, 0.0562051, -0.016158326, 0.010325206, 0.06444603, 0.07031741, -0.013067366, 0.0079955105, -0.010788893, -0.026044654, 0.036871057, -0.07049186, 0.016116137, 0.06618765, 0.038314752, -0.005978154, -0.039086483, -0.040385786, 0.017229896, 0.066776626, -0.06698321, -0.015687376, -0.018440265, -0.08466162, -0.020727968, 0.029673235, 0.018284226, -0.06607632, -0.0037875606, 0.0736551, 0.04103726]</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1929,30 +1875,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>양선경</t>
+          <t>정성민</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>pre-cooked noodle</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Effects of thawing methods on the rheological and
-baking properties of frozen bread dough</t>
+          <t>A study on starch recrystallization-induced changes of pre-cooked rice noodles under different storage conditions</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Frozen dough technology is becoming very popular in the global baking industry because of its time and labor saving advantages Although thawing methods play a critical role in the qualities of the final products, their effects are not fully examined or understood In this study, bread doughs were prepared and stored at 18 The frozen bread doughs were then thawed at two different temperatures (refrigerator and room temp) and also subjected to two different thawing conditions (proofing and microwaving) The temperature profiles during the thawing process showed that the microwave thawing was much faster than the other methods, but it produced non uniform heating The elevated microwave power level raised both storage (G and loss (G moduli of the bread doughs Mixolab measurements demonstrated that the thermo mechanical properties of the doughs were dependent on the thawing methods When the frozen bread doughs were baked after thawing, the lower loaf volume and firmer texture were observed in the microwaved samples, as compared with the long thawed bread Thus, this study may aid in understanding the quality
-changes of frozen doughs by thawing, probably contributing to further improvement frozen bakery products</t>
+          <t>Researches on pre-cooked rice noodles are urgently needed for the following two reasons: (1) The commercial demands for pre-cooked noodles with a long shelf-life and cooking convenience are increasing, but the noodle qualities severely deteriorate during the manufacturing process and storage. (2) It is necessary to foster the domestic rice flour industry due to the international food crisis derived from the rise of wheat flour price. In this study, various physicochemical changes of pre-cooked rice noodles were systematically evaluated under different storage conditions. In particular, the primary research focus was placed on the structural changes of the noodles derived from progressive starch recrystallization during storage. The water mobility of the noodles was largely changed under the refrigerated condition followed by room temperature, whereas that of the frozen noodles was not. These trends were highly comparable to the texture changes during storage (increased hardness and decreased extensibility) and lowered water hydration properties. Furthermore, tomographic and microstructural analysis clearly revealed the noodle structure with higher frame density and large pores, especially when they were stored under the refrigerated condition. These results were attributed to the faster recrystallization of starch in the refrigerated noodle. Hence, this study presented the various physicochemical changes of the pre-cooked rice noodles related to starch recrystallization under different storage conditions. In addition, the results clearly confirmed that the refrigerated storage significantly affected the noodle structure, followed by room temperature. Therefore, this study will contribute to developing pre-cooked rice noodles with improved quality, and hopefully to activating the domestic rice industry.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.043060336, -0.03452714, 0.061232552, -0.018355489, 0.09937879, -0.013374429, 0.020286765, -0.043390192, 0.015949795, 0.0122891795, -0.011958862, 0.051242013, -0.03562043, 0.0007129904, -0.02353084, 0.03006009, -0.0011001164, 0.030023713, 0.076961674, -0.012548975, -0.01022056, -0.041458134, -0.05840838, 0.0894574, 0.09004458, 0.0063021383, 0.060543083, -0.039386243, 0.014380685, -0.013870009, 0.08548074, -0.015737586, -0.11978398, -0.00460908, 0.018561801, 0.02585105, 0.06066159, 0.0038648748, 0.015368073, -0.023762064, -0.050154198, 0.025332425, 0.073119916, 0.024080202, -0.11527961, -0.014641343, 0.03870279, 0.10923271, -0.032240413, 0.03119021, 0.019008247, -0.030185571, 0.0019115221, 0.04395316, 0.02473447, -0.09644014, -0.09358845, 0.0021011007, 0.04637683, -0.027870698, -0.025334494, 0.03040474, -0.03603991, 0.026556266, -0.0029483289, -0.01079671, 0.004940626, 0.016532604, -0.011062818, -0.013023091, -0.008755748, 0.023069665, 0.009235306, 0.018096432, -0.09463476, -0.031637542, -0.006182113, -0.032104306, -0.052486368, -0.04498385, -0.040412758, -0.044409495, 0.05281889, -0.057953507, -7.271301e-05, 0.02341779, 0.0034923714, 0.06089932, -0.022956718, 0.030842619, -0.011965422, -0.009812038, 0.07620475, -0.033290643, -0.0017056244, 0.04019822, 0.05704805, 0.08553887, 0.048205294, 0.056268137, -0.015283712, 0.054175906, -0.009774776, 0.05666963, 0.010368328, 0.021032453, 0.020667953, -0.013106037, -0.003145494, -0.013428834, 0.05730813, -0.054167308, -0.04975836, 0.025650077, 0.05004956, 0.02803475, 0.014766942, 0.028427886, 0.0067773205, 0.0673285, 0.02832468, 0.032410134, 0.0337567, 0.025382953, -0.015686978, -0.02477075, 0.07417031, 0.02000732, 0.004742318, -0.08738194, 0.0033304547, -0.017043298, -0.048641145, 0.02011031, 0.014568314, -0.014630325, 0.009634871, 0.01463901, 0.04929059, -0.016354566, -0.00793552, -0.06663232, 0.0070818122, 0.0029344633, 0.053832762, 0.017540941, -0.07825116, -0.039919745, -0.006479268, 0.026494337, -0.035056803, 0.033017404, 0.05986853, -0.084406056, 0.010056455, -0.06974416, 0.0151688205, 0.031889487, 0.05472337, -0.031594742, 0.019126529, 0.0070933145, 0.0034335654, 0.028390978, 0.02561677, -0.0048419386, 0.024811842, -0.011493128, 0.0056159035, 0.008102937, -0.013872594, -0.007974692, 0.019264316, -0.0063669477, -0.0066587874, -0.060483046, -0.026736403, -0.006758592, 0.014324534, -0.067134924, 0.009288598, -0.010646537, 0.016087305, 0.052708246, 0.026166081, 0.014265091, -0.009947778, -0.04517959, 0.11153407, 0.028885553, -0.06286501, -0.0021366745, 0.027579015, 0.027529428, 0.0147496145, -0.019227432, 0.024947055, 0.031873412, 0.046208832, -0.0481754, 0.054321047, 0.030780725, 0.035458334, 0.013487548, 0.04687301, -0.023307404, -0.045034263, 0.08407045, 0.036280252, 0.04643896, 0.0075059156, 0.012121369, -0.040334526, 0.015641615, 0.026201544, -0.06496892, -0.04295758, -0.035005003, 0.01789954, 0.016342364, 0.05637947, -0.06520683, 0.0467833, 0.066293776, -0.055881243, 0.035059433, 0.07478175, 0.017588608, -0.034882344, -0.023421222, 0.07644973, -0.07533634, -0.046970304, -0.037355933, 0.05513349, 0.030424858, -0.028221413, -0.0132468585, -0.020234397, 0.04941466, -0.051669016, -0.010177576, -0.006484993, 0.031269, -0.0057397285, -0.06092158, -0.007297038, -0.0004133072, -0.0027082344, 0.0052814037, -0.06936683, 0.08202275, -0.039473787, -0.05324442, 0.028987775, 0.075654484, 0.07708196, 0.07177442, 0.018170271, -0.0032684123, -0.052227646, 0.008950797, 0.026576467, -0.06355989, -0.031449836, -0.022357365, 0.008402879, -0.00089191156, -0.0013082379, 0.057684977, 0.02565847, -0.0764311, 0.009268627, 0.036566082, 0.040345654, 0.04889007, -0.026110651, -0.010529778, 0.021271503, -0.04808174, 0.039134238, 0.0074844835, -0.05216392, 0.0009636117, 0.057182655, -0.03287695, -0.048338346, -0.06821377, 0.029787447, 0.002707944, -0.052239288, -0.025033029, 0.07502781, -0.05067841, -0.08872576, 0.06326269, -0.08592154, 0.0014134815, 0.011037132, -0.023505474, -0.0020776235, 0.06551849, 0.11500159, 0.03672821, -0.019674143, -0.07593741, -0.031227823, 0.010809877, -0.0047069397, 0.06568383, -0.027277691, 0.0020825735, -0.053284243, 0.07797118, -0.09091836, -0.018122537, 0.032483228, -0.029668426, -0.0107427845, 0.0067139096, 0.0075366083, 0.06995906, 0.0054769143, -0.027299587, -0.046800144, 0.020151924, -0.043598253, -0.03934564, -0.03535291, 0.0535505, -0.003964371, 0.04901934, -0.0232421, 0.022198789, -0.05479641, -0.09485554, -0.076012634, -0.037822757, -0.027366633, -0.019009633, -0.074042335, -0.0041740136, -0.03050383, 0.0025510052, -0.043400574, 0.04267115, 0.09173955, -0.055677235, -0.0034562678, -0.016839264, 0.015090868, 0.000525881, -0.023904463, -0.006055488, -0.094863884, -0.084598824, -0.053407557, -0.070396826, 0.025190331, 0.013992241, 0.00019877846, 0.005781486, -0.043453828, 0.025443185, 0.08739743, -0.033197895, -0.007058079, -0.05297379, -0.05903727, -0.0650228, -0.012910483, 0.034277868, -0.02067411, -0.025473397, 0.059395168, -0.019121077, 0.048931014, 0.025974195, 0.08746434, -0.010807043, 0.030281844, 0.02366472, -0.01952728, -0.11004818, 0.005813777, 0.00013206946, -0.07271004, 0.08348758, -0.048621133, -0.066464104, 0.023569943, 0.05228402, 0.044081453, 0.116225064, 0.03789567, 0.0068092677, -0.021307098, 0.02516974, -0.08271174, 0.030518841, 0.031431608, -0.018834008, 0.01925161, -0.034617893, 0.041178867, -0.017137026, -0.019744398, 0.03153994, 0.0005737914, -0.027815875, 0.038117494, 0.006612347, 0.045561567, 0.083307646, -0.0130323395, 0.015697435, 0.04088738, 0.056996223, 0.010121229, -0.04084617, -0.04006247, -0.057254937, -0.06151044, 0.031604514, 0.0064258804, -0.07900561, -0.022975491, -0.006073182, -0.02208248, -0.06644454, 0.063004225, -0.013554151, -0.0068715503, -0.022151217, -0.015259607, 0.030889664, -0.0077778036, 0.0046268455, 0.04949965, 0.07781118, 0.075611025, -0.05689464, -0.015593377, 0.009122152, 0.0061478503, 0.04337812, 0.011870722, 0.028494332, -0.009902462, -0.011675499, -0.012639388, 0.08104903, 0.032058142, 0.04215028, -0.031715292, -0.03547926, -0.053265456, 0.017383397, -0.055353757, -0.0096343905, -0.0067170574, 0.037690315, 0.037755467, 0.07789872, -0.03919757, -0.077130504, -0.12086292, 0.0075953244, -0.019955466, -0.019496815, -0.044949234, 0.070497744, 0.07683584, 0.008404799, -0.00068493735, 0.010303924, 0.06524847, 0.033615142, -0.10542738, 0.0009746338, -0.033220768, 0.036645167, 0.033568554, 0.051290624, -0.021165492, 0.03923838, 0.056947142, 0.06825084, -0.009247891, -0.019733341, -0.011999204, 0.02451905, -0.028292274, -0.06305438, 0.06533378, -0.008927484, -0.0036923147, -0.026637563, 0.065949745, -0.04384879, 0.0036071336, -0.01774901, -0.028468447, -0.022807913, 0.063695975, -0.030536868, 0.0410924, -0.0066221803, -0.14042269, -0.024182672, -0.029648595, -0.033828393]</t>
+          <t>[0.02239027, 0.0003344086, -0.013402333, 0.0136878025, 0.07209026, -0.008970447, -0.0066177123, 0.017724952, 0.07409956, 0.013295768, -0.0750628, 0.027622623, -0.0523841, 0.046383236, -0.041423224, 0.035632554, -0.017339975, 0.019811846, 0.065377906, -0.008073455, -0.026978714, -0.002716769, -0.075425304, 0.0045013395, 0.09909136, 0.034327954, 0.03378921, -0.04365263, -0.0014882425, -0.00049397716, 0.06858087, 0.043498877, -0.007948184, -0.0056805606, -0.020071507, -0.07014278, 0.012292779, 0.00013809511, 0.049966607, 0.018579405, -0.044608064, 0.031072449, -0.04374952, 0.00881317, -0.038249657, -0.0017645806, -0.0030156674, -0.0019421583, -0.10454093, 0.015201234, 0.059387486, 0.0014252819, 0.017368535, 0.028499084, 0.048939023, -0.0020231484, -0.060058147, 0.025577016, 0.04065267, 0.028606705, -0.03608463, -0.037368417, -0.014485755, 0.0013765743, -0.016547421, 0.054672703, 0.061003696, 0.0060059275, 0.029157711, 0.05100929, 0.060199462, 0.024781888, 0.037644047, -0.039960172, -0.1015384, -0.049528547, 0.009054059, 0.027267674, -0.026282411, 0.03704844, 0.008882429, -0.05477003, 0.03457986, -0.056709092, -0.05403106, 0.039783858, 0.0098925885, -0.013935596, -0.046153154, -0.009754582, 0.012392229, -0.04612782, 0.09396761, 0.015927458, 0.053282607, 0.018702323, 0.036558274, 0.06792903, 0.06530738, 0.024222728, 0.053734954, 0.024678627, 0.004917533, 0.019098263, -0.02231339, -0.047605872, 0.04891336, -0.009751286, 0.015122888, 0.058299813, 0.03957472, -0.039773602, -0.098704964, 0.021888943, 0.01823377, 0.051451843, 0.02390687, 0.007575422, -0.022820773, 0.07102789, 0.016858943, 0.009911381, -0.019321509, 0.06201647, -0.01568556, 0.09090711, 0.016517377, -0.04772956, -0.016312225, -0.06206678, -0.006605608, 0.015349736, -0.039714653, 0.04995627, 0.0055722496, 0.054296326, 0.036987845, -0.017870493, 0.045301076, -0.024735844, 0.0015698475, 0.031622678, -0.015587918, -0.019335518, -0.013855817, 0.037029784, -0.0516919, -0.038470678, 0.01704713, 0.030385934, -0.03080081, 0.025285361, 0.05921809, -0.07965911, -0.064043455, 0.0035480887, 0.047461268, -0.011892106, 0.00605767, -0.014759662, -0.005015865, 0.00090596057, -0.06306837, 0.016102925, 0.013664711, -0.07519426, 0.07161955, 0.014229085, -0.01935686, 0.048488904, -0.0027345715, -0.03426534, 0.039024938, -0.0052128397, -0.024732606, -0.07361024, -0.03261564, 0.014500614, 0.077655666, 0.0074340915, 0.025350936, -0.06477434, -0.0185346, 0.0027687578, 0.0010474195, -0.02330778, -0.070064716, -0.046986196, -0.00074148306, -0.001049217, -0.07720671, -0.040739447, 0.04324314, 0.040934734, 0.0068382868, 0.0048605697, 0.05817682, 0.06602919, 0.064711206, 0.048193082, 0.09497142, 0.033348612, 0.069413505, -0.03382124, 0.028589774, 0.062213745, -0.049713068, -0.03533118, 0.009211321, 0.03301026, -0.06944663, -0.008291557, -0.0046805716, 0.019888312, 0.016354617, -0.036221955, -0.05168984, -0.06912743, 0.029985612, 0.0145125, 0.017615506, -0.02390413, -0.012506757, 0.011388065, -0.059803344, -0.011345736, 0.05676621, 0.0037003246, 0.011394088, 0.0135177905, 0.01419552, -0.06355568, 0.016481435, -0.07896609, 0.07423708, 0.035389647, -0.07214223, -0.015785279, 0.028515311, 0.07057178, -0.07284052, -0.0021656228, 0.032143716, 0.04088386, -0.042597108, -0.10346949, 0.014138964, -0.03955367, -0.078950875, 0.0029394361, -0.0012702621, 0.071653545, -0.06924703, -0.0771116, 0.0019459042, 0.07670078, -0.02789798, -0.04701205, -0.06408505, -0.023057042, 0.0031953426, -0.051530953, 0.01732595, 0.027405208, -0.007926311, 0.00808085, 0.01943098, -0.030903379, -0.001927727, -0.03807732, 0.02568466, -0.024576498, 0.029307086, 0.044518925, 0.027255429, 0.03624957, -0.015190399, -0.07448444, 0.0137558, 0.0067908634, -0.007323628, 0.01873408, -0.01702008, -0.0850806, -0.009123066, -0.006258771, -0.05193561, 0.010598677, -0.0064088367, -0.014328122, 0.006773025, -0.0119628385, 0.047374368, 0.020689977, -0.055720344, 0.023673372, -0.0641523, 0.054680742, -0.027230194, 0.027312964, 0.013023871, -0.03981898, -0.011857786, 0.037776764, 0.06368515, -0.0051737637, -0.05447737, -0.00687589, 0.03935086, -0.02192721, -0.012034392, -0.0028948719, -0.060511, 0.056683213, -0.032176178, 0.005158482, -0.029718714, -0.03479155, -0.05361339, -0.0715363, -0.03621006, 0.03529616, 0.035200942, 0.01375808, -0.04744015, 0.10038178, 0.008946793, 0.01592115, -0.03962403, 0.0340171, -0.0017337782, -0.019347629, 0.0101233935, 0.023200184, -0.035763815, -0.02335065, -0.012741237, -0.008374168, -0.0060977926, 0.01953472, -0.052414805, -0.034268998, -0.010725849, 0.04696237, -0.078135915, 0.058830813, 0.07109229, -0.013675833, -0.006108451, 0.000342377, 0.021734484, -0.04370371, -0.039715827, -0.051978003, -0.010915216, -0.02668118, -0.054782704, -0.066114195, 0.02006358, 0.003821167, -0.021465652, -0.04032316, 0.0016267024, -0.050292976, 0.052445408, 0.02224695, 0.011855403, -0.028053513, -0.04148443, -0.030094977, -0.053324193, -0.020108616, -0.0133030685, -0.0010322582, -0.033118643, -0.0018395747, -0.014268382, 0.066276014, 0.06597537, -0.055983726, 0.032931115, 0.012249403, -0.0031939272, -0.05636815, -0.064828135, -0.019798564, -0.1301583, 0.08748883, -0.025234865, -0.08051803, 0.061375953, 0.11815971, -0.028284563, -0.0035211665, 0.034252435, 0.037858304, -0.00857352, 0.03241581, -0.06615322, 0.033013906, 0.05415866, -0.026934104, -0.06209658, 0.00014523638, -0.079125345, 0.033670846, -0.057087544, -0.024568502, -0.06065175, -0.057252575, 0.0478152, 0.016394092, 0.07258397, 0.020693209, -0.030127868, -0.01433923, -0.013703951, -0.00063377264, 0.05381895, 0.0285991, -0.038190573, -0.00051652215, -0.02498567, 0.01846326, -0.07753883, -0.021955173, -0.027471077, -0.028264195, -0.011986218, -0.009317049, -0.03861648, -0.009420558, -0.010572078, -0.0503383, -0.05670086, 0.035616796, 0.038771484, -0.013306542, 0.060789537, 0.04137987, 0.032664668, -0.08698447, -0.045726903, 0.06677683, -0.035915904, 0.07217242, 0.02429588, 0.09473635, 0.015775174, 0.00471731, 0.01587563, 0.0107513545, -0.0055612153, 0.07456859, 0.01728182, -0.06633342, 0.043172333, 0.07684501, -0.021288699, -0.03388142, -0.0363096, -0.018178802, 0.06915488, -0.046595808, -0.03048599, 0.038880516, -0.06682135, -0.04248739, -0.016294135, -0.008380124, 0.031960346, 0.07433266, -0.012057107, 0.025292972, -0.0075877258, -0.039851233, 0.016934963, -0.010877094, -0.031053985, -0.015207027, 0.012913745, 0.04875531, 0.074245855, 0.09996662, 0.024609432, 0.055258825, 0.07312466, 0.07333814, 0.00053226546, 0.008644332, -0.03561896, 0.02468508, -0.06155682, -0.015263578, 0.040890653, 0.023944056, 0.008496166, -0.020301143, -0.05193265, -5.3613447e-05, 0.026296973, -0.013484525, 0.010242184, -0.043433167, 0.00027213898, -0.040275805, 0.023350723, 0.006672257, -0.1449274, 0.013495528, -0.0033642866, 0.054794554]</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1970,30 +1918,33 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>정다은</t>
+          <t>양근혁</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>oleogel; protein; emulsion</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Wax based oleogel as a solid fat replacer
-in frozen sweet pan bread</t>
+          <t>Physicochmeical characterization of protein-stabilized emulsions and their utilization as a fat replacer</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Oleogelation that converts vegetable liquid oil into solid fat with oleogelators is currently recognized as one of innovative technologies to reduce saturated fat in food products However, there is limited information on the applications of oleogel as a solid fat replacer to yeast leavened products The objective of this study was thus to investigate the effect of oleogel as a butter replacer on the rheological and physical properties of frozen sweet pan bread The rice bran oil candelilla wax oleogels 10 w/w) were prepared and used to replace butter at different levels 25 50 75 100 w/w) in making bread The viscoelasticity of bread dough had a tendency to decrease with increasing levels of oleogel After baking,
-the specific volume of bread was not significantly decreased until 75 replacement levels The butter replacement with oleogel at up to 75 did affect the firmness of the bread Also, darker crust color was observed in the oleogel bread samples The levels of saturated fatty acids in the bread samles containing oleogels were significantly reduced to 19 compared to the control with butter 68</t>
+          <t>Protein-stabilized emulsions have been recently receiving much attention due to increasing interests of current consumers in natural and nutritional products. However, there is a lack of studies on the preparation and characterization of emulsions structured with different types of proteins for practical food applications. Thus, in this study, emulsions were prepared with 4 different proteins (pea protein isolate, whey protein isolate, soy protein concentrate, and soy protein isolate) and their physicochemical properties were characterized in terms of particle size, rheological property, and freeze-thaw stability. In addition, the feasibility of the protein-stabilized emulsions as a fat replacer was evaluated in baked goods. Confocal laser scanning microscopic analysis showed that O/W emulsions were successfully prepared with all the proteins, however, the smallest particle size and excellent syneresis were observed in the whey protein isolate emulsions. The use of whey protein isolate emulsions as an alternative to shortening up to 50% level, did not lead to distinct differences in the specific gravity and viscoelastic properties of muffin batters. After baking, the substitution of shortening with the whey protein isolate emulsions at up to 50% by weight did not significantly affect the specific volume and texture characteristics of the muffins.
+According to the results of this study, the emulsions stabilized with proteins may be used as a fat replacer in a wider variety of baked foods with reduced saturated fat contents while minimizing quality degradation.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.020700913, 0.03946529, 0.10336899, 0.0023389542, 0.06783135, -0.004064563, -0.01799476, -0.10744712, 0.032981806, 0.0284969, -0.034996234, -0.079491794, -0.0015618379, 0.026982686, -0.051889483, 0.004647689, -0.010752936, 0.10348289, 0.09250722, 0.047412015, -0.053832304, 0.00920938, -0.029486578, 0.037279293, 0.05534834, -0.030675124, -0.007816564, -0.04433229, -0.018231314, -0.009047006, 0.052963402, 0.013200932, -0.046541136, -0.022635743, -0.04374404, -0.044447478, 0.035219286, 0.02525014, -0.03055055, 0.054649983, -0.048950583, 0.0019900186, 0.06557558, 0.0152045665, -0.02047381, -0.07941371, 0.03303093, 0.08886591, -0.036183614, 0.030273365, -0.035416152, -0.07069086, 0.0015066464, 0.0510359, 0.04832365, -0.050969597, -0.075128086, -0.061504126, 0.011001553, 0.023909973, -0.04152072, 0.0116681615, -0.04901889, 0.046360627, 0.0063016643, -0.019101573, -0.0053044264, 0.04026963, 0.07372462, -0.04939697, -0.0390631, -0.034700286, 0.0145968655, 0.04692415, -0.090364486, -0.064416155, 0.02078796, -0.021130573, -0.022307482, 0.015129227, -0.06862679, -0.03791764, 0.085831895, -0.0037111975, -0.030028317, 0.03710955, -0.0338158, 0.03632905, -0.017018195, 0.03237911, 0.054618128, 0.033773948, 0.06743441, 0.056001216, 0.034896594, 0.03542812, 0.035173323, 0.061838683, 0.023824137, 0.03503612, -0.0151173, 0.06281792, -0.031198418, 0.025510762, 0.06346129, -0.03999988, 0.034786258, 0.0056306496, 0.05360215, 0.045369674, -0.0069881123, -0.052218728, -0.004899673, 0.06177593, -0.019966563, 0.048069056, 0.09129265, 0.051301733, 0.011987458, 0.0030244356, 0.060516782, -0.04562764, 0.03583369, -0.021210924, 0.011534164, 0.003279511, 0.010911467, 0.07460185, -0.008337149, -0.037305962, -0.02284305, -0.008767411, -0.07990631, -0.059464775, -0.025414526, -0.024331992, 0.02994962, 0.045864202, 0.06981946, 0.0043514487, 0.008146239, -0.020622501, 0.017009439, -0.05248909, 0.0059488914, 0.056852512, 0.0049152514, -0.025350356, -0.027422639, 0.029604515, 0.0061909296, -0.023704989, -0.070910685, -0.017911773, 0.0012913153, -0.08133773, 0.014253525, -0.012158935, 0.0069770957, -0.020344483, -0.0112594385, 0.005997155, -0.0322312, -0.0031258846, 0.025510663, 0.034383804, 0.105663985, -0.041561496, -0.019750645, 0.039202884, -0.010188291, -0.0018147713, 0.04276537, 0.05070652, -0.07613471, -0.03521743, -0.036256786, -0.0516025, 0.033179946, -0.051751193, -0.0142884385, -0.025189416, -0.0125454115, 0.044337016, 0.041812338, -0.009390311, 0.073343605, -0.027090276, -0.029179819, -0.02741141, -0.1241202, 0.026641358, 0.03538462, 0.0058597517, 0.007801178, -0.0010536612, 0.02153097, -0.027951032, -0.011565018, -0.0064772237, -0.011232336, 0.010909515, 0.04867931, -0.04278723, 0.0688292, -0.00747204, 0.004352972, -0.025808344, -0.03454801, 0.03228385, -0.055888765, 0.049670387, 0.055694465, -0.008142961, 0.04485569, -0.013973095, -0.0031519134, 0.03317098, -0.0038904054, -0.034749437, -0.06084989, 0.017714137, -0.05057213, 0.009262366, -0.064569294, 0.02143501, 0.013478461, 0.0417775, -0.039078765, -0.0039760624, 0.040020432, -0.054876514, 0.0067795827, -0.021154663, 0.05471551, 0.039218716, -0.010246736, 0.013042871, 0.027986042, 0.042766638, 0.006759998, 0.018104829, -0.0062975157, 0.031804007, 0.011717569, 0.0020124856, -0.017631793, 0.038806137, -0.023273226, -0.034635957, -0.05516364, 0.0572542, 0.041048966, -0.007869402, 0.026658386, -0.0051811985, 0.078020655, -0.012183332, -0.021193052, -0.06500472, 0.0087459255, 0.025246242, 0.033287942, 0.022304978, -0.046607163, -0.07532683, 0.019836523, 0.0155300815, 0.047093324, 0.034800038, 0.015229961, -0.0036168373, 0.013265625, 0.048827335, -0.028667826, 0.011936838, 0.040371295, -0.04131521, -0.021110475, -0.047446903, -0.03422565, -0.015568215, 0.029914321, 0.012358188, 0.066981494, -0.06517681, -0.14010523, 0.013067329, 0.02897643, -0.08952635, -0.0033569958, -0.038195383, 0.033682957, -0.028472023, -0.060564473, 0.03854438, -0.034850545, 0.0096269995, 0.030190596, -0.001095505, -0.049405433, 0.030649012, 0.028074587, -0.0034364176, -0.01347153, -0.041989073, -0.018190678, -0.006795417, -0.019609675, -0.034331437, -0.029732192, -0.0147486655, 0.048974674, 0.059152108, -0.005196864, -0.021747276, 0.034635037, -0.018091476, 9.361608e-05, -0.015489522, 0.027585646, -0.014200104, -0.016350454, -0.0458682, -0.08112633, 0.0062924307, -0.06379104, -0.031035312, -0.04450571, 0.041744962, 0.008789039, 0.033139016, 0.020129874, -0.038803346, -0.05008245, -0.0054392186, -0.012260052, 0.032021727, 0.0032132885, -0.031485725, -0.0780503, 0.050730813, 0.076519765, 0.0031224624, 0.016611038, 0.0038963181, 0.10453018, 0.05425847, -0.063557416, -0.08838748, -0.050468024, -0.017933808, -0.024123952, 0.058427375, -0.019052133, -0.038931232, 0.009422081, 0.02064945, 0.021307979, -0.04460887, -0.0015665585, 0.0006833656, -0.012001914, 0.0763928, -0.015450129, -0.0184942, -0.029819783, -0.004248111, -0.045286663, -0.0653152, 0.03927025, 0.0050631063, -0.0024191078, 0.049792316, -0.02939949, -0.061853968, -0.034364797, 0.038123257, 0.04543983, 0.01717257, 0.0069414624, 0.0059693092, 0.027469894, -0.13742936, -0.033393737, 0.016043698, -0.09640333, 0.062277682, 0.03752284, -0.06206935, 0.03151902, 0.06401004, 0.030947646, 0.013654381, 0.056660637, 0.04786874, -0.043365844, 0.018975051, -0.083656885, -0.030656243, 0.06953285, -0.019559015, -0.009153674, 0.055683646, -0.029080577, 0.027944954, 0.059373256, 0.007064802, 0.028047996, 0.030267093, 0.04254625, 0.029132338, 0.0019674955, 0.051631927, 0.035531834, -0.01883179, -0.05488646, -0.05372301, -0.016133888, -0.04601119, -0.07778258, -0.04557776, -0.00831864, 0.041672878, 0.04495546, -0.02351928, 0.014688546, -0.08972935, 0.04439743, -0.027393982, 0.03139666, -0.059306495, -0.051366527, -0.007371482, -0.06367106, 0.019694416, -0.014956858, 0.027165877, 0.04226081, 0.032042697, 0.044855494, -0.022174506, -0.013329042, -0.022738084, 0.04118144, -0.02216461, 0.0030695505, 0.07744014, 0.007954804, 0.008989772, -0.04050347, 0.0196422, 0.009729574, 0.0214985, -0.004375761, -0.07120502, -0.097428, 0.00015052129, 0.0055679604, -0.037963767, 0.025674103, -0.02623258, 0.008265853, 0.03379638, 0.0037007427, -0.101631045, -0.058927942, 0.045485515, -0.06083904, -0.0039428025, -0.08167136, -0.005305372, -0.03575173, -0.011630437, 0.0027863309, -0.028761387, -0.04656483, 0.004585765, -0.0039793546, -0.0374848, -0.002306373, -0.034227792, 0.077454016, 0.027005881, -0.089084744, 0.04216121, -0.015541021, 0.02961993, -0.068887495, -0.03646167, -0.019714324, 0.0062529533, -0.055046935, -0.0075065587, -0.004185137, 0.016154895, -0.020079399, -0.052012138, -0.021066427, -0.02869339, 0.037683155, 0.032389864, -0.01859424, -0.029235357, 0.011252394, -0.043864682, -0.026974736, -0.06606189, -0.08605003, 0.006915279, -0.019749897, 0.0023499953]</t>
+          <t>[0.0030004813, -0.0042247763, -0.008222816, 0.004840751, 0.0652188, 0.032264028, 0.012159262, 0.0007027021, 0.0036114121, 0.01988628, -0.029261118, -0.028052898, -0.028396893, 0.018407978, 0.015722204, 0.03745988, 0.03671546, 0.07843573, -0.009133182, 0.024247987, -0.019992935, -0.041096613, 0.013420763, 0.054531343, 0.028823055, 0.045152113, 0.04156314, 0.0014191996, 0.004772444, -0.028896974, 0.03465609, -0.09247912, -0.008043595, 0.01415955, 0.048984755, -0.065909795, 0.0245652, 0.0016905589, 0.02354787, -0.0033205193, -0.06041281, 0.0074298424, 0.024172403, 0.07341946, -0.05987362, -0.039312497, 0.05667114, -0.062467143, 0.019392438, 0.006256603, 0.027992487, -0.05380189, -0.006457083, -0.01570229, 0.019623032, 0.0022982385, -0.09083715, -0.078093834, -0.032344557, -0.008395994, -0.065351516, 0.010935923, -0.0653914, 0.0027459692, -0.02616802, 0.009421064, -0.047673758, 0.024010904, -0.014039515, 0.024930155, -0.035766825, 0.02657722, -0.03833994, 0.030028472, -0.119970925, -0.010207806, -0.039514046, -0.074601546, -0.052873123, -0.016181298, -0.063703924, -0.020670386, 0.028731665, -0.0023263216, -0.0122086555, 0.06272441, 0.00112653, -6.9716945e-05, -0.012645771, -0.023513498, 0.015308115, 0.008277281, 0.11182845, 0.07945076, 0.023607565, 0.031186279, 0.07357431, 0.123816796, -0.010741647, 0.08713709, -0.035251353, 0.12548085, -0.040539168, 0.01897514, 0.023905225, -0.015944274, -0.012092213, -0.009995793, 0.031407427, 0.032253124, -0.009353274, -0.05319833, -0.046837877, 0.012809961, -0.026052475, 0.075441435, 0.036567636, 0.061898213, -0.0023120395, 0.08960736, 0.07467539, -0.01718082, -0.02050958, 0.002377299, 0.024088297, 0.007756976, 0.06624259, 0.016562108, -0.021881787, -0.0057199947, 0.033385344, 0.10835226, 0.020241516, 0.07951331, -0.008524872, -0.026850067, -0.002540448, 0.0059410427, 0.06947118, -0.051458083, 0.006935663, -0.027697394, 0.027737109, -0.072101824, 0.030710578, 0.0390845, -0.046142384, 0.013425438, -0.0555007, 0.038691975, -0.020873496, 0.029693661, -0.04384383, 0.06263139, -0.05268258, -0.07838376, 0.013899189, -0.0025427355, 0.032155823, 0.047402546, -0.052896243, 0.024505535, 0.016205566, 0.03820231, -0.015228546, 0.030710474, 0.056981873, 0.0068065524, -0.016986055, 0.060770575, -0.018895691, -0.005206212, 0.0055727083, -0.0041297707, -0.029861094, -0.062568545, 0.023168065, -0.02713428, 0.09544302, 0.082041316, 0.050539326, -0.011558161, -0.035857935, 0.0122715635, -0.005771512, -0.057683583, 0.019227862, 0.0041219066, 0.021378877, 0.03785961, -0.072538614, 0.028287522, 0.0034110546, -0.024881791, -0.0077632796, 0.06992213, 0.043862894, -0.03942435, 0.026454568, -0.019863378, 0.059517425, 0.031210657, 0.0024890688, -0.007846388, 0.00028769672, -0.025241192, -0.03373277, 0.049595412, 0.0034431487, 0.12305961, -0.027211724, 0.044131547, 0.028494656, -0.005133389, 0.048750732, -0.01752246, -0.015796779, 0.019716816, -0.016349219, -0.0118462825, -0.009406423, -0.01925584, -0.0022991714, 0.018649628, 0.025017114, 0.033476304, -0.021248307, -0.04770493, -0.08728267, -0.07954982, 0.028049503, -0.018051263, -0.0030890966, -0.036622882, 0.011450729, 0.05866733, -0.010430226, -0.031947553, 0.0860485, 0.054176096, -0.025528336, 0.05157627, 0.04706422, 0.057339873, -0.0219383, 0.0056467727, -0.035882935, -0.008461902, -0.011480451, -0.008142805, -0.07854776, 0.00023354962, 0.0010142742, -0.018760059, -0.0065967278, 0.0028892762, -0.039596178, 0.034661207, -0.060909636, 0.0009671824, 0.06667088, 0.033607733, -0.044693325, -0.027340068, -0.03147265, 0.00972541, -0.040717024, 0.06072841, 0.0587972, 0.0030981572, -0.013976296, 0.0043657837, 0.118696965, 0.015460367, -0.07626338, -0.0747079, 0.038410638, 0.0018564148, -0.03024017, 0.03230485, -0.06496119, 0.047176026, 0.06876358, -0.013681542, -0.008111329, -0.041697085, -0.07889171, 0.009768754, 0.011225721, -0.011833513, -0.04947199, -0.013300166, 0.06959591, -0.027750224, -0.061621517, 0.00034598075, -0.013519011, 0.026550423, 0.034144748, 0.004716754, 0.020850176, -0.05332238, -0.016867654, 0.0143369865, -0.0018108251, 0.023475122, 0.023892505, -0.0040962636, -0.037852027, 0.027876208, -0.014016212, -0.05139787, 0.016270887, 0.10269355, -0.030942425, -0.043946926, 0.032000188, -0.028684651, -0.023160324, 0.025452703, -0.0074459007, -0.008686152, -0.009186038, -0.0228979, -0.050560545, 0.010426695, -0.09027519, 0.021736661, -0.012402183, 0.0019833252, -0.028267674, 0.015120059, 0.05024118, -0.017858537, -0.026246028, 0.00037930065, -0.056621835, 0.061082795, -0.026818395, 0.024021016, -0.023365172, -0.05873505, 0.06448024, 0.05409142, -0.04947977, 0.0738866, 0.085931, 0.040040504, -0.016436463, -0.020703861, -0.017089508, 0.009434433, 0.028482588, -0.08086937, 0.014513103, -0.0148628345, -0.016799243, -0.06855082, -0.027033884, 0.023307446, 0.081104055, -0.032899734, 0.081368335, -0.050588988, 0.056788284, -0.09651033, -0.03746651, 0.0022609804, 0.008600828, 0.026344577, 0.021109646, 0.0440056, -0.017936997, 0.055863105, -0.10244987, 0.010923186, 0.0067381985, 0.022512019, 0.048754405, 0.0072440156, 0.032302216, -0.03054779, 0.027988821, -0.07550348, 0.011588885, -0.014910663, -0.064811505, 0.11623168, 0.024186129, -0.04663638, 0.04892498, 0.065903984, 0.072329104, 0.040723335, -0.012572444, 0.060422033, -0.0006212878, 0.009335727, 0.051071435, 0.030624622, -0.013369692, -0.06762555, -0.05845638, 0.041080292, 0.010385198, -0.0049321977, -0.030592924, -0.026844658, -0.012671982, -0.0818774, -0.024799079, 0.034841184, 0.08740568, 0.04652116, 0.07197265, -0.005724957, 0.004132773, -0.010649385, 0.04811663, -0.06769121, 0.011572567, 0.08011813, -0.042291295, -0.008991626, 0.035263564, -0.08378398, 0.030975124, -0.045654092, -0.038650185, -0.05799508, 0.042217474, -0.0433052, 0.004321686, -0.05677316, 0.021341575, -0.03080151, -0.0009860276, -0.017136848, -0.045039568, -0.008642881, -0.01610735, 0.020129178, 0.033794004, 0.021192031, 0.044995878, 0.003094255, 0.027498791, 0.026491998, 0.0038345663, -0.010615587, -0.003517595, -0.012222461, -0.035604257, 0.054288186, -0.0026705451, -0.005740479, -0.027824117, 0.032620713, 0.07938851, 0.04455019, -0.11272593, -0.009625051, 0.0127693, -0.014570408, 0.08445315, -0.011447574, -0.010697103, 0.013877223, 0.00085579895, -0.026755348, -0.063231796, 0.05784184, 0.04102279, -0.07481562, 0.034805838, 0.04502959, 0.039174125, -0.02120133, -0.091616884, -0.04476352, 0.084051594, 0.010190055, 0.055235628, 0.033921428, 0.006483628, 0.017792618, 0.018259753, -0.053505342, 0.007496082, -0.054881867, -0.03165176, 0.01645943, -0.024419127, -0.05457618, 0.028323334, 0.008923155, 0.008975686, -0.074188955, -0.0041298666, -0.0021467158, 0.022382488, -0.028831355, 0.004468317, 0.022518301, 0.008837636, -0.017787673, 0.016517542, -0.020128835, -0.029100996, 0.015635991, 0.0030704185, 0.020899978]</t>
         </is>
       </c>
     </row>
@@ -2002,7 +1953,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2011,30 +1962,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>이가원</t>
+          <t>김혜린</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>rice; bread</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Effects of rare sugars as alternatives to sucrose
-on the quality attributes of cookies</t>
+          <t>Effect of different varieties of rice flour on the physical properties of frozen dough breads</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>The consumer demands for various alternative sweeteners are recently increasing because of undesirable health concerns derived from overconsumption of sucrose Especially, a lot of great attentions have been paid to rare sugars that occurs in very small quantities in nature, due to their beneficial health effects However, the processing performance of rare sugars in a food system has been hardly studied So, this study aimed to investigate the physical and rheological properties of cookies where sucrose was replaced with different rare sugars The substitution of sucrose with rare sugars influenced the pasting properties of wheat flour Also, the viscoelastic properties of the paste samples ( and G”) were dependent on the type of rare sugars When sucrose was replaced with each rare sugar in the formulation of cookies, the geometrical and textural properties of the cookies prepared with turanose were comparable to those of the sucrose cookies In case of allulose tagatose, and arabinose, they gave rise to the decreased hardness and spreadability of the cookies Thus, this research can provide fundamental insight for better understanding of the processing performance
-of rare sugars in a food system</t>
+          <t>Freezing is a widely adopted technique in the food industry in order to maintain the quality attributes of food products, and the baking industry is no exception. However, most preceding researches have dealt with the quality degradation of breads by the freezing process. Also, there is a lack of information on the physical changes of the frozen dough breads made from other cereal flours although there are increasing demands for non-wheat breads. Therefore, in this study, eight different varieties of rice flour (Milyang, Miho, Hanareum, Aromi, Geumgang, Saeilmi, Saemimyeon, and Dodam) were incorporated into the formulation of frozen dough breads, and their quality attributes were characterized before and after freezing storage. Pasting measurements showed that Saemimyeon had the highest final viscosity, while Dodam had the lowest peak viscosity. According to the  thermo-mechanical results by Mixolab, the use of rice flour seemed to reduce the water absorption of wheat flour but to increase the  dough development time. Overall, the frozen storage reduced the tensile parameters (Rmax and extnsibility) of doughs and specific volume of the corresponding breads. When frozen dough breads were prepared by replacing a portion of wheat flour with rice flour, the bread samples with rice flours exhibited lower baking performances. It was however interesting to note that the physical changes of the frozen dough breads varied depending on the cultivars of rice flour. In particular, the rice flour varieties with high amylose contents like Geumgang seemed to minimize the deterioration of frozen dough breads after frozen storage. Thus, the baking performance of frozen doughs appeared to be dependent on the cultivars of rice flour. This study may provide useful information for the food industry to develop frozen dough breads with rice flours by minimizing quality loss.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[0.0035785283, 0.012956675, 0.06261827, -0.011705672, 0.11832573, -0.0153097315, 0.034692485, -0.051629256, 0.048509233, 0.03685715, -0.061151188, -0.04595397, -0.031723294, 0.04327352, 0.01743248, 0.03600629, 0.023743952, 0.05517666, 0.06368183, 0.056127083, -0.023230242, -0.010276079, -0.07396433, 0.050737593, 0.014910844, -0.0005724467, -0.03877345, 0.015690887, -0.008655757, -0.0006705936, 0.048465725, -0.058155794, -0.035978176, -0.0071839048, 0.043144334, 0.017814182, 0.04539625, -0.022697022, 0.07594699, -0.031170303, -0.027454717, 0.02551427, -0.032538265, 0.011759338, -0.0019749866, -0.033386707, 0.11908169, -0.007843468, 0.005417967, 0.0005758269, 0.005874869, -0.044096656, 0.0029258495, -0.052653283, 0.043519042, -0.009579757, -0.027872374, -0.0114438785, -0.04183759, 0.035748485, 0.0068949596, -0.040000007, -0.07452118, -0.015200839, -0.039019387, 0.050172143, -0.008598181, 0.022763154, 0.100049675, -0.03374285, 0.036493037, -0.04727083, 0.02288992, -0.017615246, -0.1137783, -0.04268425, 0.01348365, -0.08134701, -0.04642782, -0.03718883, -0.058277275, -0.05132511, 0.050773878, -0.04025213, -0.0077111544, 0.053325128, -0.06610111, 0.04794301, 0.0042489236, 0.075676754, 0.060455438, 0.020471314, 0.07520133, -0.013005684, 0.05722136, 0.028544953, 0.07029246, 0.077345, 0.030735493, 0.068307646, -0.024003746, -0.0063590948, -0.054523315, 0.033768944, 0.04548321, 0.00378171, 0.01757733, 0.0063085333, 0.020531135, 0.05848761, -0.056165993, -0.08313469, -0.051134035, 0.0016481521, -0.026856586, 0.06897376, 0.067580745, 0.050452072, 0.012295677, 0.013484792, 0.013418109, -0.03741785, -0.024912674, 0.076594256, -0.032147244, -0.020730203, 0.04139221, -0.00321864, -0.021609602, -0.044631097, 0.039910413, 0.06338818, -0.0048419065, 0.042797368, -0.037191574, 0.049120117, -0.0003758387, 0.07736433, -0.018238965, 0.08387314, -0.009196636, -0.055553388, 0.026783157, -0.026481053, 0.05824175, 0.005042567, -0.10504263, -0.0257887, -0.044758074, 0.043585006, 0.022013215, -0.020601744, 0.0136597315, -0.054999273, -0.045214783, -0.08658341, -0.027505219, 0.035134092, -0.036624063, -0.0015910701, -0.004135858, -0.04650966, 0.040177558, 0.020630864, -0.018325714, 0.025268253, 0.08348902, 0.0057184575, -0.00012853299, 0.05846106, 0.0028744475, -0.027143145, -0.02746819, 0.046587884, 0.0016876908, -0.035632227, -0.011021159, -0.05584361, 0.057501715, 0.04020025, 0.0035001875, -0.026538763, 0.044215005, -0.030356754, 0.034257594, 0.013548739, 0.0234235, -0.075697884, -0.010491929, 0.042921763, -0.0412829, 0.10782678, 0.084674925, -0.021945782, -0.011862089, 0.01954066, 0.05064971, -0.009811053, 0.048287664, -0.00094489165, 0.013919147, 0.035197135, 0.047565766, -0.033860534, 0.10684411, 0.073068045, -0.04047868, 0.073202565, 0.021344358, 0.06811357, -0.088390715, -0.041867293, -0.03183908, 0.0262252, 0.020638885, -0.023513237, -0.03665109, -0.03908025, 0.058651276, 0.03874938, 0.028888168, 0.050916627, -0.026290463, 0.017630637, -0.053414777, -0.0249487, 0.04166105, 0.011435639, -0.007774727, -0.009787407, 0.032071058, -0.047492333, -0.02528217, -0.012766719, 0.01317913, 0.06456855, -0.024749987, 0.049015865, 0.01939046, 0.088123195, -0.028975984, -0.0011834236, -0.023723241, 0.044127293, 0.0032558218, -0.0666617, -0.028815031, -0.001385856, -0.014870793, 0.036312856, -0.0021614968, 0.0651158, 0.03868523, 0.010710903, 0.07630765, 0.004874854, 0.034046706, -0.02720412, -0.0073888185, -0.060030714, 0.018750822, -0.009455134, 0.007465765, 0.0035316625, 0.021611163, -0.03532745, -0.011087431, 0.027465502, 0.008492505, -0.04792406, -0.015626157, 0.040544, 0.13117298, 0.095447406, 0.056843802, 0.076724246, -0.003551945, -0.08944771, 0.0010851689, -0.016827911, -0.042984407, -0.050675966, 0.06768297, -0.02883671, -0.03255291, -0.040956944, -0.01615541, -0.011051656, -0.04843898, -0.11051248, 0.061335377, -0.077572405, 0.03078555, 0.031421695, -0.07983489, 0.047815364, -0.057048388, 0.09577884, 0.04863306, 0.012891076, -0.05787555, -0.015011633, 0.0019839678, 0.029047636, 0.06277997, 0.0053364416, -0.03895512, -0.034150716, 0.043489993, -0.011349805, -0.018268216, 0.043852232, 0.05000575, 0.08052345, -0.03478613, 0.039476674, -0.085155755, -0.056969207, -0.0127654355, 0.012076128, 0.06327491, 0.029004823, 0.018298287, -0.05490082, -0.060428813, 0.061960492, -0.115916185, -0.041815802, -0.023256583, 0.036997266, 0.03273266, -0.0030102432, 0.02146717, 0.046378158, 0.024744116, -0.043529756, -0.055459905, 0.021217866, -0.0016059773, -0.0060412926, 0.008882503, -0.012383393, 0.047199674, 0.0074877073, -0.023591494, 0.03496416, 0.03954508, 0.07959785, -0.048096973, -0.021798056, 0.017065806, -0.040022716, 0.015756808, 0.034884654, -0.010846269, -0.0031300467, -0.016961083, -0.04526732, 0.0029497582, -0.029574575, -0.010864473, -0.038111746, -0.031517837, 0.06550399, -0.010497822, -0.006984709, -0.038533505, -0.006023514, -0.013755879, 0.0071879225, -0.0048811785, 0.02108636, 0.014710368, -0.011398004, 0.04426367, 0.017525718, -0.01133653, 0.050196648, 0.056356158, 0.029645856, -0.029245226, 0.013882508, -0.0055412157, -0.06611033, -0.061699055, -0.018601097, -0.14541617, 0.01703533, -0.04655948, -0.08075987, 0.038525708, 0.07269284, 0.0394204, -0.021531845, -0.024143057, 0.09146541, -0.069532946, -0.00846851, 0.003616518, -0.010254029, 0.03938689, -0.09053352, 0.015319084, 0.022444515, -0.00020874385, -0.00042304487, -0.0070639537, 0.0049051233, 0.012777905, -0.0034043505, 0.034759153, -0.009168549, 0.033275608, 0.026014064, 0.03715696, -0.0070184697, 0.05785383, -0.067288905, 0.036764223, -0.020052917, -0.009677548, 0.047080923, 0.020555528, 0.008894518, -0.013937662, -0.042095363, 0.012958274, -0.09486916, 0.043824334, -0.027952084, 0.021489281, -0.04364232, -0.012228143, -0.08059648, -0.044830754, -0.04377955, 0.039300214, 0.013209161, 0.038389012, 0.015196109, -0.04161862, -0.033385053, -0.0067057176, 0.07736948, 0.0026148323, -0.014660317, 0.04278768, 0.074413754, -0.048606195, -0.024539463, -0.008826481, -0.011307839, 0.022837855, 0.06156709, -0.012698196, -0.030835545, -0.013702076, -0.10342608, 0.0691225, -0.027156906, -0.038970113, 0.04189756, 0.08910326, -0.0367804, 0.062289827, -0.07246047, -0.057618465, -0.014210731, 0.09217336, -0.00856837, -0.044263806, 0.063956834, 0.06301157, -0.00841487, -0.060889892, -0.049633738, -0.0151401665, -0.06102765, 0.0058100317, -0.032965638, 0.018642426, 0.0014971765, 0.062192485, 0.027995903, -0.05590673, 0.042162478, -0.06359933, 0.035092343, -0.024527404, -0.013760219, -0.030718636, 0.010055762, -0.096623324, -0.009904495, 0.06774497, 0.014828128, -0.014890398, -0.019563457, -0.014529426, -0.009561225, 0.04492527, 0.014352176, -0.023758005, -0.073571, -0.02553179, 0.014225069, 0.034761775, -0.038055614, -0.095774315, 0.01627748, -0.005841307, 0.0032100508]</t>
+          <t>[0.021001618, -0.023844266, 0.15732412, -0.009504119, 0.11196982, 0.023823822, 0.031684197, -0.027763758, 0.057240464, 0.040627997, -0.010804856, -0.015374898, -0.07707571, 0.058110263, -0.021598792, 0.0122374855, -0.0019724416, 0.020530913, 0.07990551, 0.009048392, -0.055883244, -0.030228468, -0.085628286, 0.021549083, 0.11065657, 0.01995015, 0.010180688, -0.032943133, -0.008115912, -0.012167181, 0.052442305, -0.04287153, -0.020729885, -0.029329496, 0.039849795, 0.004225689, 0.023339896, 0.016893815, 0.041089132, -0.009127421, -0.027877504, 0.035072956, -0.0054719215, 0.02048592, -0.06898028, -0.013622089, 0.036349785, 0.039983887, -0.02444137, 0.04446639, 0.03838352, 0.024185352, 0.006645164, 0.02215609, 0.05330218, -0.046103176, -0.067337, -0.029909013, -0.010333936, -0.0049073007, -0.014991016, 0.028710674, -0.06874237, 0.012748327, -0.03156544, 0.0025409916, 0.012711646, 0.025103556, -0.01159519, 0.023603743, -0.012397105, -0.011511036, -0.025355853, 0.035424862, -0.035807677, -0.070419446, 0.029971078, 0.005964498, -0.057810366, -0.026972845, -0.018918682, -0.06373106, 0.097941086, -0.034273416, 0.019395776, 0.021939728, -0.03489393, 0.04174305, -0.0057607316, 0.0032975886, 0.02325746, 0.013797509, 0.08625744, -0.018116603, 0.016362756, 0.042027216, 0.07518277, 0.12720759, 0.044885494, 0.0955438, -0.026560234, 0.051395174, -0.020812547, 0.039321996, 0.033304118, -0.007387774, 0.0424523, -0.011255221, 0.030321684, 0.02883804, 0.0138642965, -0.0670978, -0.05228783, 0.038790796, 0.02086026, 0.03519182, 0.0007896073, 0.057348154, -0.0040993704, 0.08245344, 0.07324612, -0.017292975, 0.035792787, 0.055783816, 0.0037980014, 0.019288365, 0.03826958, -0.015059422, -0.014255731, -0.08144405, 0.026195955, 0.06160612, -0.06393253, 0.015403824, 0.029505657, 0.028047787, 0.008883932, 0.010705198, 0.06285789, -0.017313052, -0.0012735715, -0.05299922, 0.00431201, -0.040150907, -0.029743645, 0.05132321, -0.072187394, -0.050533775, 0.036772564, -0.011494262, -0.055528596, -0.008998336, 0.033804394, -0.06286194, 0.0059348997, -0.062332857, 0.010070877, 0.017846478, -0.03394022, -0.008469273, 0.03437286, -0.06422092, -0.036408726, 0.08314368, 0.028351353, -0.05207726, 0.06410254, 0.007920586, 0.016914904, 0.050687943, -0.03167936, -0.0075061624, 0.0348148, -0.033725698, -0.037643336, -0.030511377, -0.0052934242, 0.0004516004, 0.07310592, -0.10162518, 0.027213618, -0.008495123, 0.05137349, -0.044924546, 0.04429321, -0.05046294, 0.019249197, -0.030397845, 0.0616864, -0.008469762, -0.12653284, 0.056693673, -0.0023097256, 0.0134185115, -0.009954891, 0.02996045, 0.0072902353, -0.0145006925, -0.010192032, 0.049441095, 0.07628917, 0.06722762, 0.06950444, -0.012628942, 0.10075021, -0.006173573, 0.010663437, 0.024790896, 0.04071456, 0.017074415, -0.019330561, 0.0003559603, -0.03724407, 0.011973584, 0.010710139, -0.03772016, -0.03135027, -0.050315153, 0.033268947, -0.0251894, 0.043612417, -0.041691463, 0.055249926, 0.03357918, -0.04971946, 0.026893891, 0.06693635, 0.020205092, 0.04908352, -0.06795906, 0.044421714, -0.0803909, -0.05219233, -0.022782262, 0.046411946, 0.05293201, -0.050594304, -0.015511287, 0.0032308185, 0.08650837, -0.019975994, -0.016570196, -0.00479244, 0.06652734, -0.05246449, -0.028788887, -0.030312687, 0.012849231, -0.059021644, 0.007326074, -0.033332486, 0.05529516, -0.016166909, -0.019830707, -0.05025332, 0.017317282, 0.029234067, 0.005581588, -0.054724403, -0.051923048, -0.015908295, -0.02491011, -0.0049632723, -0.029998712, 0.0042662043, -0.008936499, 0.007943961, 0.042149745, -0.044346504, 0.027673986, 0.013602137, -0.0600966, 0.049135454, 0.06940008, -0.042173292, 0.06275746, -0.0020161364, -0.03843563, -0.009171219, -0.040975627, 0.032625917, -0.01126335, -0.034431104, -0.016174445, 0.041446093, -0.065309264, -0.08406676, -0.02616106, -0.00071725214, -0.04995392, -0.019126046, 0.013669447, 0.024055341, -0.017106868, -0.050575063, 0.029579371, -0.028208524, 0.04946827, 0.0018002818, -0.014127286, -0.026753014, 0.019448852, 0.057394926, 0.01886164, -0.00021469337, -0.083925754, -0.041588932, 0.002929712, 0.021030383, 0.019643888, -0.041267406, 0.010809661, 0.046346903, 0.0475814, -0.06754423, -0.01092977, 0.017789472, -0.04892113, -0.035406586, -0.010714447, 0.02497874, 0.07970563, 0.00955854, 0.025472872, -0.070562184, -0.010718197, -0.0034226708, -0.07276459, -0.014851659, 0.041408535, -0.012266196, -0.016297903, 0.02137809, -0.007927562, -0.077088855, -0.02994385, -0.023978751, -0.04210201, -0.01171299, 0.015143738, -0.06408383, 0.003132591, 0.0113239, 0.010429457, -0.08218499, 0.03180232, 0.08509395, -0.040648896, -0.052758098, -0.019006027, 0.021827754, 0.0067727286, 0.009813526, -0.008360612, -0.022037948, -0.047854368, -0.053441513, -0.09399652, 0.044265732, 0.019968567, 0.042336833, -0.025397642, -0.06083775, -0.030330209, 0.034096368, -0.078427896, -0.017373703, -0.019111745, -0.06359921, -0.035172984, -0.0045511597, 0.0048207566, -0.02371022, -0.026404647, -0.023173528, -0.044351745, 0.012567535, 0.02851887, 0.03394931, 0.0022827205, 0.052321635, 0.037371524, 0.0378261, -0.12269111, -0.010942286, 0.014851172, -0.087147854, 0.038905147, -0.0030622391, -0.091196686, 0.012077031, 0.11236599, 0.025887538, 0.023730563, 0.013661959, 0.014342254, -0.036974814, 0.006212287, -0.045119748, 0.011021902, 0.06883415, -0.05736086, 0.014003583, -0.0008587184, 0.009269871, 0.022936236, -0.026276236, -0.009682083, -0.003221103, -0.065720305, -0.011132128, 0.0705224, 0.05107067, 0.07807734, 0.0019122274, 0.025045117, -0.031308156, 0.019483143, 0.03340195, -0.013598433, -0.022590183, -0.046455003, -0.09475802, 0.025045639, -0.050056882, -0.06384324, -0.012952354, -0.051137064, -0.032616958, -0.0554684, -0.028348265, 0.0078666955, -0.0148260705, -0.06776747, -0.014935761, 0.02636664, -0.030039713, 0.004348206, 0.003325111, 0.05114238, 0.03565985, -0.10068114, -0.033193097, 0.028121436, 0.02787096, 0.08772188, -0.012724732, 0.09726364, 0.028214818, -0.0015946408, 0.013846725, 0.05156741, 0.009309255, 0.054834113, -0.010951023, -0.044314936, -0.029552056, 0.016886124, -0.011076904, 0.017031208, 0.046304513, 0.018359585, 0.07841911, 0.012357144, -0.022183372, -0.040249668, -0.080432355, -0.0015566074, -0.04531789, -0.008683045, -0.03955931, 0.08194387, 0.024866136, -0.040180538, -0.012578567, -0.034929473, 0.00919933, 0.002186086, -0.0519891, 0.015005017, -0.009135221, -0.037133817, 0.021450143, 0.016581492, -0.005408356, 0.015017288, 0.0140021825, 0.11546723, 0.002226152, -0.056224536, -0.011800387, 0.023146693, -0.07282606, -0.00045236901, 0.04647709, -0.054856334, -0.023897255, 0.02413145, 0.0075082798, -0.030623918, -0.006339791, 0.013642347, -0.012951809, 0.018396562, 0.040399846, -0.045168243, 0.04060116, -0.03074594, -0.1525333, -0.01191111, -9.4050774e-05, 0.017538156]</t>
         </is>
       </c>
     </row>
@@ -2043,38 +1996,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>김희수</t>
+          <t>권혁진</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>vegetable oil; machine learning</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Establishment of a universal instrumental methodology to measure
-the rheological properties of the elderly foods</t>
+          <t>Machine learning-based classification of vegetable oils: A comparative study using GC-MS, TD-NMR, and FT-IR</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>As the elderly population has been increasing throughout the world, the demand of the elderly diets with a softened texture is on the rise. However, there are practical difficulties in applying existing UDF and KS-based methods to universally measure the rheological properties of the elderly diets. In this study, a new rheological method was developed and its various operating conditions were established. Compared to UDF, the developed method based on a puncture test showed universalness, great applicability, and operating convenience. It also showed a high coefficient of correlation depending on the hardness of the samples prepared. The operation conditions of the developed method were established by varying the diameter of probe, plate hole size, crosshead speed, and sample size. Specifically, it was recommended to lower the rod probe at a mild crosshead speed of 100 mm/min until the sample larger than 20 mm was punctured. In addition, the instrumental hardness was expressed in terms of stress instead of force for fundamental analysis. This study may thus encourage the food industry to develop various diets for the elderly by providing objective rheological guidelines.</t>
+          <t>Vegetable oils are essential parts of diets widely used in various food products. As the nature of the oils used may induce differences in the quality of the end products, the identification of oil types has been an important task in the field of food science. However,  the current food industries  mainly rely on chromatographic techniques for oil classification, which are laborious and environmentally unsustainable. There is an urgent need for more rapid, eco-friendly, and non-destructive alternatives. Thus, in this study, one traditional analytical method (GC-MS) and two alternatives (TD-NMR and FT-IR) were used to characterize eight vegetable oils (Canola, Grapeseed, Olive, Corn, Flaxseed, Sunflower,Palm, and Soybean oils). The physicochemical features of the oils obtained by each technique were then applied to four popular machine learning classifiers: Support vector machine, Random forest, K-nearest neighbor, and Decision tree. Finally, the classification abilities of the three analytical methods were evaluated based on the accuracy of the machine learning models. GC-MS results revealed the different fatty acid compositions depending on the type of vegetable oils. TD-NMR measurements demonstrated the existence of two components with different mobilities in the oils. Based on the 1st derivative of their FT-IR spectrum, the oils displayed clear spectral differences, especially at 3000-2800, 1800-1600, and 1400-1200 cm-1 regions. When the datasets of the oil features from three analytical methods were subjected to machine learning models,  the classification performances for GC-MS, TD-NMR, and FT-IR varied by the classifier algorithms applied. While the highest classification accuracy was observed with the GC-MS dataset, fairly high accuracies were achieved with the FT-IR and TD-NMR features. Although the classification via TD-NMR and FT-IR did not surpass the accuracy of the GC-MS, this result suggests that the two non-destructive methods can be used to classify vegetable oils with accuracy comparable to the traditional method.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.0549336, 0.048594072, 0.004656722, -0.011038581, 0.10122032, 0.054160208, -0.06443428, -0.080047205, 0.028797513, 0.029442122, 0.055465255, -0.04262253, 0.022023242, -0.00033453899, 0.01737136, 0.0070170085, -0.00691346, 0.015635625, 0.051023535, -0.019481778, -0.0019186782, -0.028969117, -0.067299485, 0.02286364, -0.0048881094, 0.0053064073, 0.05521783, -0.017446013, 0.061181683, 0.003643466, 0.029317528, -0.033577416, 0.008603314, -0.04548871, 0.003316088, -0.0008085175, 0.019860107, 0.011681577, -0.06582293, -0.06668396, 0.008294847, 0.022650288, 0.019367546, -0.028570857, 0.060318038, -0.0564965, 0.027525134, 0.010537245, -0.05317447, 0.018533515, 0.00030741654, -0.051723357, -0.049664997, 0.05672454, 0.034076285, -0.058067653, -0.044827312, -0.047806896, 0.08582875, 0.03309256, -0.0160452, -0.11277102, -0.052222192, 0.0005362512, 0.012326185, 0.019645402, -0.0047989, 0.023746101, 0.0051900614, 0.03297225, -0.054703094, -0.04795922, 0.007689676, 0.012011142, -0.0863239, 0.020496469, 0.017393807, 3.9861305e-05, -0.024175059, -0.0031693752, 0.0179891, -0.054426793, 0.031140162, 0.010094149, -0.0011580861, 0.064676225, -0.032699246, 0.06750638, -0.017852172, 0.042665537, -0.0077016265, -0.03463351, 0.108268484, 0.017304426, -0.004958999, 0.0028819724, 0.008876383, 0.108331494, 0.03457828, -0.022624856, -0.025050946, 0.058927488, -0.0016423069, -0.012046381, 0.03043027, -0.0060385955, 0.02783314, -0.00092751713, -0.014645323, 0.02406481, 0.0010197099, -0.06295356, -0.03504074, -0.054293536, -0.02027648, 0.06274087, -0.0027821928, 0.050583433, -0.0049200947, 0.027605813, 0.0064915814, -0.017460778, 0.037259005, 0.07118313, -0.0113427825, -0.011430743, 0.055628285, -0.04391307, 0.0228731, 0.14731076, 0.0314933, 0.0012345271, 0.018543934, 0.045740426, -0.0076767835, -0.03164472, 0.023984019, -0.016180156, -0.023744704, 0.024896739, 0.048597243, -0.049384076, -0.016618283, -0.14263277, -0.050855342, 0.0025104708, -0.04362597, 0.035996098, -0.005823087, 0.035834312, -0.004200935, 0.031937685, 0.052333742, -0.029680694, 0.006960355, -0.024316574, -0.012044672, -0.014177958, 0.02794032, -0.016158668, -0.052730843, -0.020090654, -0.09300568, 0.056256335, -0.038926993, -0.06175536, 0.02124206, 0.05331237, 0.0037620137, -0.003068038, 0.043847535, -0.00954978, 0.06681687, 0.033014357, 0.016244855, -0.0012874592, 0.0072058137, -0.06503085, 0.093011335, -0.0029988363, -0.044759355, -0.09395158, 0.008477153, 0.01579131, -0.008333777, -0.02800594, 0.032803718, -0.003467951, 0.037368204, 0.030923022, -0.017771848, -0.028329507, -5.2849064e-05, -0.01002047, -0.018087523, 0.06869987, 0.03381924, 0.025680415, 0.012764156, -0.030786188, -0.039116956, 0.032301445, -0.046721257, -0.006638696, 0.04734464, 0.0113984365, -0.03514541, -0.002011746, 0.025991075, -0.03277986, 0.012275136, 0.03466663, -0.041739084, -0.022313863, 0.02932701, -0.02301865, -0.02398434, -0.053851586, -0.05778483, -0.018439272, 0.021261238, 0.0382761, -0.06017471, -0.035457555, -0.009891233, 0.03126485, -0.015039915, -0.042981792, -0.01816346, 0.07144587, -0.005372955, -0.0052349786, 0.005784121, -0.07751533, 0.06253228, 0.018464068, -0.06236976, 0.033171102, -0.031938568, 0.04605598, -0.06478348, 0.045276076, 0.028951604, -0.0032625878, 0.056578718, -0.026738402, -0.023041729, 0.033363402, -0.009200654, -0.016639879, -0.036778964, -0.006444886, 1.5357509e-06, -0.03469633, 0.036712013, -0.020859215, -0.0041809655, -0.023794895, -0.006841688, 0.018051466, -0.0022580924, -0.10447974, 0.003369909, -0.047745746, -0.10016149, -0.04501566, -0.025479065, 0.03747917, 0.023119666, 0.0038555446, -0.04238143, 0.10413882, 0.04469551, 0.03818999, -0.035453144, 0.012539699, -0.06630693, -0.069250554, 0.025000157, -0.07109276, -0.088968195, -0.028223708, 0.033286802, -0.0042744507, -0.026096959, -0.031158315, -0.030700244, -0.04589308, -0.00703669, -0.08944659, -0.004772131, 0.025108973, 0.09299225, -0.031966478, -0.06026395, 0.04203806, 0.012623836, -0.0020361466, -0.024296287, -0.027526893, 0.031427093, 0.05297086, -0.014846525, 0.026126502, 0.026087388, -0.011408876, 0.00838009, -0.05533451, 0.019834721, 0.009249838, 0.004463407, -0.012737777, -0.030503312, 0.052604362, -0.031126456, 0.074068904, 0.03917858, -0.005841127, 0.0031364872, -0.09930966, 0.07668631, 0.01686935, 0.06314673, 0.012278742, -0.024747673, 0.0158444, -0.027337486, 0.1087739, 0.0018867905, 0.054087885, 0.031213868, -0.028092587, 0.006149182, 0.05017513, -0.09268157, -0.047723953, -0.053459357, 0.012995953, -0.026064103, -0.0049534333, -0.064300686, -0.041959375, 0.065763794, -0.011070275, -0.03647296, 0.066423714, 0.029567981, 0.07159728, -0.09397815, -0.02826704, -0.035977002, -0.010054616, -0.019597603, -0.024392176, -0.013092403, 0.03630273, -0.009634156, -0.015142459, -0.053896815, -0.05233023, -0.020308431, 0.01263031, -0.006695213, 0.030507782, 0.017369533, -0.04255245, 0.02710142, 0.021197068, -0.014355602, -0.029369382, -0.029751023, -0.013483231, -0.04823775, 0.014857577, -0.025007527, -0.0222713, 0.0057138447, 0.04254382, 0.02864825, 0.03823116, 0.016425781, -0.04702558, 0.0039860103, -0.040638223, -0.0227532, 0.026649086, -0.066518284, 0.008300633, -0.023979694, -0.002606564, 0.00065885985, 0.048929468, 0.03192344, -0.021968085, 0.08123199, 0.09227972, -0.04712063, 0.022221167, 0.05602245, -0.030552918, -0.04543785, 0.0382058, -0.018210385, -0.091381714, 0.047377117, 0.060747944, -0.032787923, 0.024206113, -0.05519507, -0.08366314, -0.029872695, -0.03089745, 0.018524865, -0.01026114, 0.036098335, -0.002473085, 0.022064049, 0.032374334, 0.034607597, 0.03535596, -0.06989396, -0.0046500643, -0.021265386, 0.078457266, -0.027003935, -0.027627852, 0.026696047, -0.03921884, -0.02399524, -0.05853886, 0.035262063, -0.043335214, 0.09612874, -0.079528056, -0.041232433, -0.033956215, -0.033332273, 0.021236222, 0.030036138, 0.04624042, -0.058388833, -0.06114222, -0.018963216, 0.032154065, 0.068989165, -0.009542037, 0.027523505, 0.0737387, -0.05232846, 0.010208753, 0.05610096, 0.0070678107, 0.029562011, 0.025837205, -0.033562522, 0.02872651, -0.018278157, 0.008879009, -5.722884e-05, -0.0027476866, -0.009896041, 0.019683342, 0.03937418, 0.048469175, 0.03457548, -0.0053607514, 0.04688139, 0.0038828566, 0.073566094, -0.041783802, 0.0034243416, -0.032269746, 0.06293459, 0.021619648, 0.0029238586, -0.07806914, -0.03981381, 0.010857795, 0.03740937, 0.018068142, -0.020663325, 0.007645727, 0.05303559, -0.019133631, -0.013440683, 0.04376534, 0.07770764, 0.024567155, -0.042911008, -0.05751852, -0.015461462, 0.021564987, -0.058146965, -0.038092475, 0.040257167, 0.038512275, 0.0026450516, -0.015454451, -0.008370234, -0.02073738, 0.06749034, -0.065807246, -0.022728197, 0.04501498, -0.06908325, 0.028007781, 0.04133009, 0.02371999, -0.09946653, -0.02679933, -0.021082977, 0.08447149]</t>
+          <t>[-0.0028687557, 0.035614446, 0.042107508, -0.0033676785, 0.103702456, 0.0031733182, 0.024888815, -0.09651736, 0.019818302, 0.035011854, -0.029095305, -0.028889826, 0.010068109, 0.04233487, -0.019730609, -0.0027986981, -0.007768864, 0.022701338, -0.03446386, -0.025477627, -0.042869087, -0.03185213, -0.020574411, 0.007370323, 0.045722097, -0.013706407, 0.033261422, -0.014113559, -0.055683233, -0.011098725, 0.010019359, -0.012065179, -0.024501445, -0.045834977, -0.067418255, -0.042692896, 0.06710231, 0.03336262, -0.022346517, 0.028269691, 0.03180547, 0.026724124, 0.0069227717, 0.060092572, 0.007577466, 0.021575652, -0.022267984, -0.021977218, -0.09236764, 0.01760953, 0.062097833, -0.037510518, 0.009376645, -0.006872483, 0.06778141, -0.041724633, -0.07507865, -0.006899254, -0.040435396, -0.003676228, -0.044046253, -0.046741266, -0.017450294, 0.04009734, -0.062473606, -0.036174864, 0.029808123, 0.074896894, 0.06891009, 0.0017908611, -0.025276631, 0.0075025223, 0.013371265, -0.031677492, -0.057501655, -0.03348411, 0.004783336, -0.012776009, -0.043382004, 0.005968817, -0.008075777, -0.058693852, 0.10390658, 0.046376016, -0.045406964, 0.032903973, -0.02229659, -0.007372103, 0.013772283, -0.013203916, -0.017674804, -0.024511173, 0.073527895, 0.0066825226, 0.039380893, 0.021220421, 0.062149756, 0.04969045, 0.030079346, 0.004351176, -0.015714012, -0.0052752686, 0.02675551, 0.040607285, -0.013196978, -0.027801802, -0.027454214, 0.03706632, 0.021260412, 0.04751755, 0.010747545, -0.085908435, -0.060505282, 0.03666663, -0.018448923, 0.019893138, 0.011115638, 0.004671599, -0.0011264342, -0.056379534, -0.012949553, -0.031665787, 0.008002005, 0.026062232, -0.010188894, -0.008266146, 0.0826701, 0.003004154, -0.032022767, -0.040153902, -0.03132186, 0.054968152, -0.015267565, 0.05584587, 0.007125653, -0.040006075, -0.021209694, -0.017798055, 0.05041309, 0.0067347386, -0.023707187, -0.0036838432, 0.017248603, -0.016387146, 0.0089096585, 0.01964641, 0.051572945, 0.015947985, 0.014789768, -0.022114461, -0.06729666, 0.0022125812, -0.12004683, -0.01463713, -0.072222136, -0.052389402, -0.014508776, 0.011774484, 0.005859671, 0.023400314, -0.030956093, -0.0018901877, 0.010217157, 0.039064113, -0.011160058, 0.023736121, 0.043490734, -0.011721851, -0.015454997, 0.040172335, -0.0112179555, -0.018975828, 0.04366477, 0.028296098, -0.046130836, -0.03236036, 0.015591172, -0.018396998, 0.038518354, -0.005624601, -0.07668972, 0.007843241, 0.05876291, 0.074798, -0.00033812562, -0.06255134, 0.035240345, -0.02400358, -0.032327954, -0.02379327, -0.079209246, -0.067390755, 0.044364173, 0.008189759, 0.0037715936, 0.00354317, 0.01677249, -0.053272724, -0.03392385, -0.004793685, -0.09050339, 0.019954361, 0.07585743, 0.017241716, 0.104576446, -0.05130821, 0.00054163294, -0.030855386, -0.024948703, 0.06681776, -0.0048617953, 0.049215972, 0.010027475, -0.017593373, 0.0353731, -0.004947739, 0.022935726, -0.0646941, 0.020893566, -0.003266775, -0.007266345, 0.027763737, -0.027526932, -0.003520752, 0.012448811, 0.039451085, 0.007636542, 0.02038761, -0.060761224, -0.014037743, 0.040552076, -0.05628413, 0.018700618, -0.015168418, 0.011867427, 0.031390846, -0.0037607262, 0.054699857, 0.06494867, 0.10963923, -0.004851382, 0.006832933, -0.04249694, -0.027054755, 0.0012177931, 0.001477825, -0.016618667, 0.00108065, -0.05145963, -0.056038234, -0.0480797, 0.021695873, 0.04735088, 0.022585964, 0.0071687493, -0.029805237, 0.009435338, -0.031580053, -0.046430856, 0.013695989, 0.070995644, 0.05316131, 0.014186666, -0.010466092, -0.032402482, -0.056688383, 0.0036650612, 0.022263171, 0.035003614, 0.08571799, 0.01848861, 0.0417749, 0.050704457, 0.010249253, 0.015622558, 0.0053028986, -0.040604044, -0.021942485, 0.010847688, -0.040070035, -0.043057024, -0.021500403, 0.029921472, 0.025214408, -0.00039963392, -0.029798571, -0.047221597, 0.034893148, -0.010461886, -0.024304353, -0.0156194335, -0.0209438, 0.07167696, -0.01884325, -0.064136, 0.04025419, -0.043379817, 0.026512526, -0.03106227, -0.0107357595, -0.029235695, -0.014830464, 0.015115494, 0.058707934, 0.026063498, -0.05305051, 0.042618617, -0.065075055, -0.024185194, -0.0024464934, -0.019250926, -0.029045878, 0.0700392, 0.08660774, -0.02969763, 0.044423662, 0.035565555, 0.006263274, -0.023187682, -0.040212125, -0.0073623145, -0.030033667, 0.004426225, -0.026152069, -0.07141397, -0.005183222, -0.07818389, -0.02705687, 0.02412502, 0.05727317, 0.00848664, 0.03051722, -0.0012867248, -0.0059403717, 0.024091875, -0.021768382, -0.06107243, 0.013013273, -0.036856096, 0.031352263, -0.07664938, 0.010654252, 0.07526074, -0.017382536, 0.021850165, 0.018158715, 0.0520747, 0.13874687, 0.021711063, -0.02022616, -0.034369327, -0.0224125, 0.030689336, 0.041326527, -0.022226717, -0.0711846, 0.004179023, -0.010199383, 0.02573187, -0.016680237, 0.055791505, 0.055990305, 0.024682036, 0.08203714, -0.012368676, -0.031440932, 0.023410868, -0.017508833, -0.028824188, -0.047333866, -0.026568651, 0.03223931, -0.008432605, 0.02480575, -0.03122435, 0.021576636, 0.021909384, 0.0039868127, 0.04114347, 0.035947178, 0.061147515, -0.025182508, 0.03247091, -0.015142704, 0.06116876, -0.022218257, -0.08924335, 0.07961821, 0.017997546, -0.07095227, 0.039310228, -0.028665178, 0.10374448, 0.033784207, 0.055363297, -0.02545223, -0.026413567, -0.008902854, -0.041412532, -0.054415405, 0.060648937, 0.040567644, 0.064348675, 0.022091828, -0.061772242, -0.057606522, 0.028828802, -0.06069565, 0.030151874, -0.020732615, 0.04959302, 0.0724775, -0.020980822, 0.07233989, -0.007861694, -0.0003417891, 0.016391411, -0.062027067, 0.0038354455, 0.008351761, -0.045576297, -0.018880099, -0.06538145, 0.029594578, 0.03631248, 0.013835638, -0.031974092, -0.046687845, 0.004923687, -0.02154175, 0.022245876, -0.0959052, 0.012301985, 0.0019629314, -0.03694268, 0.068294026, -0.009425754, -0.013769409, -0.021247106, 0.008608047, 0.039004467, -0.041656304, 0.0007684611, 0.09340768, -0.051245045, 0.009213814, -0.009025376, 0.07545952, -0.037082154, 0.023577321, -0.04999095, -0.034481265, 0.040549785, 0.0039831856, -0.029086594, -0.06565543, -0.11691347, 0.033803876, -0.003973556, -0.010729114, -0.034900904, 0.035897482, 0.030638006, 0.049165618, -0.02154913, 0.001728472, 0.0047281333, 0.03729622, -0.009146978, -0.10121381, -0.033513404, 0.05747132, -0.018422237, 0.02553621, -0.03693763, -0.025835851, -0.09490699, 0.003469182, -0.007232038, -0.03248003, -0.0029065793, 0.017554883, 0.034424886, 0.006784551, 0.00017217651, 0.0046377163, 0.042221, 0.035273585, -0.04139654, -0.030363401, -0.041861437, 0.07196866, -0.03215264, -0.054577027, 0.036787465, -0.03579146, 0.05955971, 0.007997021, 0.009836379, -0.018984087, 0.021521494, -0.025282359, -0.010461952, -0.00040778166, 0.001593492, -0.05325271, -0.005203852, 0.0074344603, -0.054944262, -0.059106704, 0.014502699, 0.07981564]</t>
         </is>
       </c>
     </row>
@@ -2083,38 +2039,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>오민수</t>
+          <t>이수용</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>rice; processing</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Correlations between enhanced rutin content of Tartary buckwheat flour with
-physicochemical changes induced by hydrothermal treatments</t>
+          <t>Elucidation of structural hurdles of rice noodles by protein-fortification and storage conditions</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tartary buckwheat (Fagopyrum tataricum) has been recognized as a healthy food due to its various functional compounds (specifically, rutin). However, the presence of rutin-degrading enzymes in the buckwheat grains can cause rutin to be degraded into quercetin, generating a bitter taste. Therefore, in this study, hydrothermal treatments (steaming, boiling and autoclaving) were employed to control the conversion of rutin to quercetin by inactivating enzymes in buckwheat and their effects on the levels of rutin in Tartary buckwheat flour were investigated. All the hydrothermal treatments enhanced the rutin contents in the flour fraction and quercetin was hardly detected when mixed with water. The buckwheat flours showed different degrees of starch gelatinization as well as different levels of rutin, which could be fairly correlated by their pasting, thermal, and microstructural changes induced by the hydrothermal treatments. This study can provide an opportunity for the food industry to apply Tartary buckwheat to a variety of processed foods.</t>
+          <t>Rice has been becoming a more important crop cultivated in Korea as the global food crisis escalates. However, the declining domestic rice consumption has resulted in excess stocks of rice that have been becoming critical issues for agriculture. An alternative way to boost the consumption of rice is to utilize rice as a primary ingredient in a variety of processed foods such as baked goods and noodles that take great global market shares. However, the application of rice flour to processed foods is still challenging due to its undesirable processability, compared to wheat flour. Furthermore, although the global interests in high protein or ready-to-cook food products have been on the rise, a great deal of effort has not been made yet to produce protein-fortified or HMR rice products on an industrial scale. This may be because there is a lack of understanding of the structural features of rice flour in a food system that play essential roles in the quality attributes of end products. Thus, this presentation presents the applications of rice flours to noodles which occupies the major segment of the food market. In particular, their structural changes by protein fortification and storage after precooking, are intensively elucidated, hopefully providing fundamental insights for the food industry to enhance the qualities of rice noodles.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[0.018771771, -0.041585054, 0.022022977, 0.026996534, 0.103755474, -0.043952037, -0.04802758, -0.025117131, 0.015093216, 0.056647982, -0.049365357, -0.026612269, -0.016572053, 0.058978397, 0.005019685, 0.037092414, 0.021829687, 0.025582692, 0.049767993, 0.009006886, -0.00043839766, -0.012168147, -0.027316427, 0.014827433, 0.0037146595, -0.027997637, 0.01277994, 0.012360938, -0.0030579895, 0.002555335, 0.013214069, -0.009431453, -0.033211917, -0.0001188172, 0.013921389, -0.025920445, 0.016577285, -0.020807842, 0.05153758, -0.011850983, -0.07790945, -0.024804063, -0.014494151, 0.0629955, -0.018762846, -0.03990201, -0.0056344704, -0.029236877, -0.056023374, -0.0027457578, 0.0021818997, 0.0097652385, 0.006173747, 0.035590485, 0.066652864, 0.03274158, -0.07457596, 0.006764016, 0.0142714325, -0.018254284, -0.008177744, -0.001029122, -0.019328704, -0.09272787, -0.02616038, -0.04940017, -0.007032966, 0.0047729164, 0.033155177, -0.04684694, -0.0109921135, -0.0011000808, 0.020276764, -0.01916934, -0.0828452, -0.09906006, 0.019090554, -0.020430194, -0.04061797, -0.013060015, -0.0072260927, -0.04007865, 0.052490745, -0.057113763, -0.07363461, 0.055283237, -0.05179542, 0.02689538, -0.019703394, 0.00062899524, 0.064878926, 0.026105868, 0.10730091, 0.005422388, 0.03082496, 0.033327777, 0.11268527, 0.060752694, 0.060037248, -0.044422932, -0.0119015975, 0.07601401, -0.078507245, 0.0026633397, 0.0036577336, 0.021978416, 0.008174641, 0.016979877, 0.01669685, -0.05625118, -0.07095075, -0.041374646, 0.023528667, 0.01571579, -0.013519795, 0.02778731, 0.074836016, 0.05834167, 0.012792342, 0.07494839, 0.01595202, 0.000782645, -0.019216241, 0.058775306, -0.0013828293, 0.008840975, 0.01578917, -0.0106136, -0.005886269, -0.079118595, 0.01769883, 0.033464015, -0.044313196, 0.049322218, 0.04113065, 0.060304992, -0.0112238405, 0.005883918, -0.008206209, -0.029122148, 0.0005033477, 0.00430477, 0.0016318359, -0.084647276, -0.0057054893, -0.009097509, -0.09692983, -0.011618777, -0.034870874, 0.024334505, -0.01036546, -0.023111133, 0.015171623, 0.049154084, 0.023421101, -0.07235858, -0.010707285, -0.04934162, -0.06153689, -0.06548771, -0.024815336, -0.009996217, -0.0033458297, 0.0033302472, -0.005352293, -0.070663325, 0.05609191, -0.0159937, 0.00082278234, -0.025537245, -0.024824737, 0.0033754113, 0.0135354325, -0.08257298, 0.041794516, -0.051918957, -0.025419924, -0.050485745, 0.034426056, -0.033566583, 0.007037728, -0.009071536, 0.043059874, -0.044544518, 0.01551637, 0.0124008255, 0.041904803, -0.029109105, 0.031664625, -0.027629167, -0.026960539, 0.016650315, 0.032625943, -0.006530098, 0.024954014, -0.0080967955, 0.010412298, -0.051953986, 0.068072475, -0.052640956, -0.004805125, 0.0516671, 0.07151589, -0.027114915, 0.076871306, 0.011014139, 0.026827872, 0.0042441837, 0.023599502, 0.035982426, -0.10291583, 0.03159027, -0.05011775, -0.024281658, 0.012468835, -0.0032215612, -0.023647046, -0.03067066, 0.006375927, 0.06466737, 0.023506742, 0.011486738, 0.0010469158, 0.0209655, -0.021087747, -0.023117445, 0.053088028, 0.044991404, -0.039572068, 0.022421177, 0.042433817, -0.062042225, -0.0320684, 0.027866544, 0.040321797, -0.02999266, -0.047345005, 0.05650962, 0.009725156, 0.11747778, -0.041500352, -0.018555792, 0.04260389, 0.0020552385, 0.024535466, 0.024516752, 0.032497995, 0.014123996, -0.0580872, 0.0018325665, -0.013212571, 0.008714874, -0.0031856527, -0.0045837485, 0.013455046, -0.021666309, 0.028304726, 0.008300968, -0.037283935, -0.07288143, 0.028124683, 0.046418976, -0.05926213, 0.012007967, 0.0062035513, 0.031499367, 0.014921174, 0.022483682, 0.03940837, 0.0013591972, -0.007349685, 0.033084076, 0.04818005, 0.026656317, -0.010245132, -0.036521617, 0.008918921, -0.096399605, 0.029714607, -0.018099273, -0.029497558, -0.011753438, 0.027950224, -0.054659896, -0.029059818, -0.02011003, -0.023633555, 0.008246726, -0.03677909, -0.124775425, -0.0009699715, -0.048071675, 0.03894203, 0.035127494, -0.057718534, 0.051094078, 0.010126343, 0.042525508, -0.012597974, -0.011400244, 0.016046016, 0.029727228, 0.0125120105, 0.019627532, 0.045050837, -0.014197598, 0.039450888, 0.028139206, -0.02870743, 0.038587995, -0.037083432, 0.026660906, -0.008134456, 0.0064309747, -0.025497144, 0.07387322, -0.015144429, 0.020371793, -0.04552188, -0.039771516, 0.0021260995, 0.04444721, -0.054081682, -0.0039029026, -0.024549693, 0.056910273, -0.029393194, -0.00015560264, -0.06727204, 0.033203095, 0.03839281, -0.0018738747, -0.003261101, -0.000541307, -0.02325067, -0.024941191, 0.019961156, -0.0007800756, 0.001989688, -0.026559373, -0.029432233, 0.04148805, -0.005492587, 0.0007158001, -0.0033681076, -0.026008084, 0.054883197, 0.039582834, -0.022673374, -0.0077873925, 0.016092831, -0.012180268, 0.005703334, 0.005763878, 0.004097396, 0.014490512, -0.03676909, -0.039818488, 0.05120778, -0.018699232, -0.0024283654, -0.053615056, 0.03206019, 0.03704798, 0.0317908, 0.019766578, -0.03631265, -0.058211405, 0.0014621501, -0.0722252, 0.016177908, 0.0057938267, -0.015918572, 0.017204123, -0.0068562916, 0.010452241, -0.050923597, 0.03448226, 0.05793428, 0.05627196, 0.026864164, 0.04028216, 0.020326456, -0.076195896, -0.030731084, 0.004519518, -0.101273775, 0.017461138, -0.050446726, -0.0155490395, 0.005845865, 0.11510192, 0.0320102, 0.034353808, 0.015065232, 0.0062197787, -0.031741645, -0.03289359, -0.05187884, -0.036191452, 0.020711154, 0.017964823, -0.006110105, -0.015528122, -0.0072184615, 0.016997168, 0.05987251, 0.012423281, 0.0054432927, -0.028773736, 0.006197055, 0.034415632, -0.027179947, 0.020911457, 0.026971163, 0.035672378, -0.006860205, 0.021554504, 0.03187126, -0.020319024, -0.015330468, 0.025643677, 0.0029754858, 0.0059337374, -0.026594192, 0.010409638, 0.07008055, -0.054972995, 0.006243651, 0.018684259, -0.03884371, -0.09012218, 0.024125595, -0.049134515, -0.028071422, 0.063919276, 0.03823561, 0.05531386, 0.043386158, 0.026296308, -0.007535836, -0.029348267, -0.005591643, 0.032608733, 0.016294422, -0.03128461, 0.008596146, 0.0019249977, -0.044642206, 0.009051015, -0.083962135, 0.056434155, 3.9100647e-05, -0.0045758863, 0.05111016, -0.038217407, -0.029654024, 0.014368606, 0.026825154, -0.030284375, -0.0013251299, -0.05415145, 0.094675384, 0.012560659, 0.035192143, -0.09478626, -0.07324796, -0.0056479876, 0.007484532, 0.010777112, 0.006887335, 0.046193935, 0.041357297, -0.015619635, -0.017499456, 0.009440886, 0.0511706, 0.0013613225, -2.951175e-05, -0.015947074, 0.022305837, -0.03590371, 0.04633407, 0.03514766, -0.06288487, 0.045714308, -0.02897373, -0.03858226, -0.048431884, 0.05370717, -0.063994035, 0.009467513, -0.0378487, -0.03522983, 0.025143342, 0.07020086, -0.0014759725, -0.046924945, 0.05839132, 0.02908218, -0.03986624, 0.009910716, -0.0238852, -0.09162077, -0.042500194, -0.061273716, 0.039601676, -0.016133726, -0.09230044, -0.00016073068, 0.028676702, -0.03351025]</t>
+          <t>[0.027331589, -0.0109375855, 0.037544608, 0.011375363, 0.09325979, 0.0016904969, -0.015223928, -0.026568249, 0.016137185, 0.058041885, -0.02492768, -0.040039666, -0.010387477, 0.0843124, -0.06682717, 0.022175761, -0.0188861, 0.005523521, 0.015660753, -0.0137190875, 0.02476619, -0.043247998, -0.04547443, 0.060683224, 0.10227323, 0.015087434, 0.067939095, -0.018206714, 0.021774681, -0.01337059, 0.026849337, -0.022234393, 0.031172564, -0.046927467, -0.002846879, -0.03255298, -0.011398414, 0.021484131, 0.09827474, -0.020734452, -0.020651134, -0.0023700006, -0.022343835, -0.0035063848, 0.029427562, 0.021750612, 0.0019683775, -0.030233786, -0.0630202, -0.012480916, 0.04111718, -0.024005827, 0.008610143, -0.022926746, 0.05300694, -0.04836105, -0.05906422, 0.04364711, -0.019388163, 0.004326152, 0.0022282277, -0.09836424, -0.036261946, 0.020613085, -0.00035720257, -0.010727751, 0.08484756, -0.06695648, -0.019333689, 0.04788299, 0.0054229023, 0.03517894, 0.021118043, -0.032373957, -0.09101859, -0.09226298, -7.057004e-05, 0.03077855, -0.06331567, -0.05541853, 0.0055774963, -0.07740255, 0.04119163, -0.028111383, -0.03211853, 0.049931116, -0.07074027, -0.035014816, -0.014992084, 0.013714221, -0.02990812, 0.0019160388, 0.06837531, 0.017113904, 0.029955653, 0.044444714, 0.04899268, 0.07383446, 0.05285302, -0.009277881, 0.018241322, -0.0033910184, -0.04563219, 0.0358105, -0.03816221, -0.021719858, -0.025630755, -0.010073661, 0.06914516, 0.040279344, 0.020269476, -0.0399278, -0.052362792, -0.01949979, 0.030366529, 0.019030062, 0.005384559, 0.01621925, 0.0082094725, 0.050378766, -0.0017813498, 0.013899093, 0.012462552, 0.11878257, 0.0071999542, 0.033954274, 0.031113572, -0.019277535, -0.009789708, -0.028164426, 0.042296685, 0.0036832918, -0.004164298, 0.033201516, 0.026970318, 0.0009976382, 0.0037911492, -0.017242275, 0.0162195, -0.038721416, 0.004573056, -0.047009982, 0.0027201946, -0.015171849, -0.05110621, 0.0042682094, -0.06428034, 0.015391159, 0.06415485, 0.037151597, 0.0037648238, -0.02429243, 0.012790558, -0.10992768, -0.0023190598, -0.02622601, -0.017536828, -0.04845483, -0.08565353, -0.04186628, -0.009099974, -0.063651204, -0.006570441, 0.016680269, 0.0013643107, -0.03875819, 0.057099633, 0.026498502, -0.00434008, 0.056691922, -0.0037005546, -0.028745264, 0.06472981, -0.07727759, -0.086456366, -0.02009062, -0.0010762502, -0.037736677, 0.08406428, -0.03429892, 0.0020689557, -0.07285765, 0.019881358, 0.016476158, -0.027661743, -0.07097709, 0.0030280235, -0.010602737, 0.055519436, 0.034078624, -0.10115055, 0.018172296, 0.026159314, 0.03325537, 0.008583351, -0.055874776, -0.033734422, -0.03176663, 0.062826045, 0.08773991, 0.13999082, 0.06515376, 0.06924317, -0.02548925, 0.0064975447, 0.034814052, -0.04349381, -0.0046876986, 0.009682863, -0.007061923, -0.042626955, -0.012282218, 0.0008516002, -0.05294518, 0.06839913, 0.0010713697, -0.052859377, -0.0016228263, 0.012274281, 0.015359324, 0.07461173, -0.020341435, -0.05700793, -0.03281184, -0.02488702, 0.012707796, 0.052616168, 0.08458716, -0.008087269, 0.019628223, 0.021871755, -0.02678352, -0.027677968, -0.07165875, 0.018983975, 0.043102376, -0.06932811, -0.014044661, 0.011148499, 0.061770555, -0.010904264, -0.010827472, -0.0052064387, 0.002044784, -0.06603635, -0.07910077, 0.043600284, -0.013878335, -0.030939735, -0.024169492, -0.0070855487, 0.059246007, 0.0014448873, -0.0518264, -0.069165535, 0.01906841, -0.03169117, -0.067092925, -0.022730775, -0.03642117, 0.077679604, -0.10105177, -0.04748949, 0.05129871, 0.006433169, 0.03936517, 0.06145631, 0.018240068, 0.015697021, 0.006520114, 0.019563168, 0.04648689, 0.015460134, 0.0182725, -0.008145846, 0.048399925, -0.0099474825, -0.17012203, -0.004016105, 0.023450896, -0.05523108, 0.011886331, 0.038468406, -0.07933134, 0.036911387, -0.008145905, -0.04999698, -0.012665447, -0.07839468, -0.049818248, -0.014021963, -0.00018424029, 0.0040275455, 0.032926843, -0.061648138, 0.058407113, -0.023520175, 0.07064705, -0.020680921, 0.029140301, 0.018882925, -0.0059264028, 0.0014628483, 0.04787887, -0.0098927505, -0.0498373, -0.0783014, -0.010946351, 0.039015032, 0.02872903, -0.008490035, -0.06661173, -0.004729201, 0.07109732, -0.026059046, 0.012309504, -0.050070748, -0.0088011995, -0.053579777, -0.070324466, -0.0018636902, 0.0790762, -0.017510833, 0.011951654, -0.06671152, 0.0887901, -0.019361785, -0.00793482, -0.0063500637, 0.07603696, 0.014289063, 0.028443703, -0.031639133, 0.031764388, -0.061216284, -0.07431993, -0.0041189995, 0.023949958, -0.008207615, -0.009106812, -0.0019258368, 0.028936647, 0.046209753, 0.013747854, -0.05646932, 0.028639413, 0.08145362, 0.020257767, -0.04626986, 0.017843513, -0.0069813496, -0.0013387954, 0.050777834, -0.062359232, -0.0006326099, -0.013769844, -0.066867955, -0.057121485, 0.03979821, 0.02413963, 0.019837456, -0.0027907991, -0.005146301, -0.056613103, -0.0002048456, -0.013206035, -0.026406037, -0.03521443, -0.024861034, -0.012654449, -0.052968904, 0.01221489, -0.05896659, 0.038058616, -0.012685085, 0.012609675, -0.06638414, 0.08348676, 0.09534794, -0.026285917, 0.0022406206, -0.0011975674, 0.022375243, -0.05350301, -0.032228276, -0.02676796, -0.059963096, 0.039126623, 0.006338301, -0.056340583, 0.09548972, 0.06953366, -0.056343075, -0.013853991, -0.039791875, 0.026681567, -0.0012805532, -0.021839386, -0.08848394, -0.012233107, 0.033174183, -0.066259466, -0.06639407, -0.011349294, -0.0682447, 0.003703897, -0.0072910776, -0.07280584, -0.04680261, -0.06383879, -0.038681317, 0.011294611, 0.043157104, 0.035251964, -0.005709942, -0.02046412, -0.012117423, 0.028949343, 0.03372661, 0.08039691, -0.09130802, -0.026050135, 0.011506776, 0.014674627, -0.0970135, -0.032816276, -0.03324977, -0.04484419, -0.038443763, 0.048850317, -0.046685077, -0.043680407, 0.005850722, -0.031211335, 0.0037229778, 0.03036072, 0.0024789195, -0.01699574, 0.111370206, -0.022995481, 0.044231888, -0.06900944, -0.13159582, 0.032044347, 0.024477713, 0.07383328, 0.03081951, 0.06706757, -0.014756126, -0.00789058, 0.012811641, -0.041101903, 0.03131908, 0.021214826, 0.009113669, -0.059944723, 0.015649803, 0.009985022, -0.016266396, -0.08659899, -0.022864131, 0.037324857, 0.08478244, -0.07338164, 0.024818243, -0.012035696, -0.07386559, 0.0015556717, 0.056683406, -0.053018946, -0.008319884, 0.07077509, 0.006538599, 0.0092734285, 0.0066592526, -0.018898534, 0.011021245, 0.020071665, 0.010779668, -0.0053194463, 0.00017507328, 0.0016809246, 0.030882288, 0.013240961, 0.015164851, 0.0571281, 0.0731106, 0.07793271, -0.026794212, -0.0010198682, -0.051274583, 0.011097728, -0.04898721, -0.006492605, 0.025012873, -0.030633407, -0.0009852619, -0.0034999058, -0.012467705, -0.0012464023, 0.04568052, -0.013417109, -0.02768977, 0.014856882, 0.02254968, -0.011213723, 0.016189734, 0.025885517, -0.16550604, -0.050845176, -0.014874933, 0.03810003]</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2082,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2132,29 +2091,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>정다은</t>
+          <t>김혜린</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>rice; pasting</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Evaluation of rice bran oil-candelilla wax oleogel as an alternative
-to butter for frozen sweet pan bread with reduced saturated fat</t>
+          <t>Artificial intelligence classification of rice flour varieties based on their physicochemical features</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>One of the innovative ways to reduce saturated fat is to use oleogelation that structures liquid oil into semi-solid gel with the assistance of oleogelators like natural waxes. Although many preceding studies have reported the use of oleogel as a solid fat replacer in various baked goods, few studies have been conducted on yeast-leavened products. In this study, rice bran oil-candelilla wax oleogels (10%, w/w) were utilized to replace butter in frozen sweet pan bread at different levels (25, 50, 75, 100%, w/w). The effects of butter substitution were examined mainly in terms of rheological and physicochemical properties. The oleogel-butter blends showed different patterns of solid fat content. The dynamic viscoelastic results showed that the replacement of butter with oleogel lowered the viscoelasticity of bread dough. Also, the viscoelasticity of the control sample was more dependent on the temperature change. Significant differences in the specific volume and texture of bread were not detected until 75% replacement levels. Furthermore, the oleogel bread exhibited significantly lower level of saturated fatty acids (18%) than that with butter (68%).</t>
+          <t>Rice flour has been widely used in a variety of food products but its suitability for a specific food is dependent on its variety. However, there are no efficient ways to distinguish the cultivars of rice flour based on their physicochemical properties. Thus, in this study, several physicochemical properties of eight different cultivars of rice flours were investigated and then subjected to four artificial intelligence (AI) algorithms for classifying rice flour varieties. Specifically, the pasting, thermal, and Mixolab thermo-mechanical properties of the rice flours were measured and then used as datasets to evaluate the classification performance of the AI models mainly in terms of coefficient of determination (R2). A single parameter of rice flour was not ufficiently correlated with its amylose content. When the suitable combinations of the physicochemical parameters were subjected to AI algorithms (random forest, decision tree, k-nearest neighbor (KNN), and support vector machine (SVM)), SVM and KNN had the highest R2 values, followed by random forest and decision tree. The suitable models showed great performance to predict the classification of rice flour varieties.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[0.0027712572, 0.04090537, 0.08670292, -0.02033986, 0.06292411, -0.042439442, -0.025675822, -0.09701373, 0.05674854, 0.02580431, -0.007057114, -0.06608685, 0.0015588083, -0.0058904225, -0.0078070923, 0.014153233, -0.04342061, 0.053711545, 0.11967991, 0.029019076, -0.045607343, 0.017843066, -0.009685464, 0.044612683, 0.04041359, -0.0015960131, 0.01637205, -0.013197282, -0.025748758, -2.983585e-05, 0.021731112, 0.00058732176, -0.0091173155, -0.052394174, -0.024988465, -0.015733536, 0.0473732, 0.027686022, -0.07238424, 0.016835058, -0.089068905, 0.04414222, 0.06873905, 0.0039447094, -0.00080873753, -0.05084359, 0.045773227, 0.072140254, -0.02401754, 0.011155725, -0.054597016, -0.010822198, 0.016908223, 0.02840047, 0.061899308, -0.049562596, -0.05353808, -0.045053676, 0.025157193, -0.0008428507, -0.007009088, -0.022081548, -0.02873697, 0.019530674, -0.0014694934, -0.023526577, -0.0057900106, 0.051921956, 0.094269425, -0.011270937, -0.07491749, -0.013614202, 0.032707196, 0.01685472, -0.067689165, -0.06458686, 0.0016263677, -0.048340175, -0.013319999, -0.0055690953, -0.05264047, -0.0579487, 0.05569894, -0.04161393, -0.047346335, 0.037942044, -0.016165148, 0.033777792, 0.014401981, 0.00626731, 0.044805415, -0.011772359, 0.10584738, 0.074939944, 0.04301854, 0.022256058, 0.083165824, 0.11081475, 0.05729939, 0.047988, -0.009762601, 0.04747516, 0.009306641, 0.042733878, 0.03312233, -0.01036811, 0.0115085915, 0.005520964, 0.07211819, 0.047626056, 0.01816597, -0.054265454, -0.017456345, 0.06581431, -0.0060335696, 0.0539202, 0.04511409, 0.040579043, 0.019230423, 0.0019428513, 0.05883252, -0.060067065, 0.011184086, 0.019498223, -0.0032643965, 0.018776609, -0.0074224463, 0.06003989, -0.0007927379, -0.057495452, 0.006215047, 0.026571201, -0.060456425, -0.04448654, 0.021552738, -0.033226196, 0.042195752, 0.03503112, 0.09875624, 0.020859646, 0.013357742, -0.043034077, 0.02000947, -0.048376687, -0.04931965, 0.039584953, -0.03089388, -0.045662116, -0.055836175, 0.012267604, 0.0020146195, -0.028894726, -0.054198153, -0.03151419, -0.025242066, -0.04443649, 0.011627558, -0.0005498584, -0.022425575, 0.014047205, 0.002957806, -0.017610287, -0.033136886, 0.0017047059, 0.024449013, 0.056939047, 0.07441914, -0.0021964305, -0.02760965, 0.03414293, -0.021228148, 0.001996088, 0.03727669, 0.043192856, -0.09921822, -0.035819698, -0.038235374, -0.031965226, 0.04869185, -0.03719068, -0.018390946, -0.029447488, -0.023957498, 0.003472743, 0.04162381, -0.0065845754, 0.04922451, 0.010553041, -0.026587367, -0.028512739, -0.0946285, 0.03405684, 0.0139381895, 0.003850705, 0.00789493, -0.013549267, 0.05682226, -0.028304692, -0.0250633, 0.027531872, 0.04913708, 0.03745365, 0.007444226, -0.018458081, 0.0832819, 0.0051838006, -0.0052209576, -0.035084087, -0.021471666, 0.03261794, -0.02298026, 0.0669193, 0.033012662, -0.020993479, 0.03921584, -0.022783397, -0.008783889, -0.018576823, -0.01133896, -0.017273048, -0.040012147, 0.047494117, -0.053280808, 0.018616673, -0.044327013, 0.014652037, 0.022127979, 0.04970819, -0.031897787, 0.0042050085, 0.007906043, -0.049602352, 0.0015444104, 0.0047309175, 0.027066482, 0.025625715, -0.05128436, 0.0016993061, 0.02864495, 0.085715786, 0.012375761, 0.0263535, -0.0022130501, 0.061186127, 0.004792865, -0.00035414737, -0.02752637, -0.037284564, -0.055430725, -0.04717201, -0.046465315, 0.060905606, 0.031198753, -0.012977741, 0.04666205, 0.013548368, 0.06970464, -0.014004665, -0.034878183, -0.025153013, -0.02005375, -0.019660251, 0.055963844, 0.030879416, -0.034904685, -0.065376766, 0.054260127, 0.020013316, -0.0009860994, 0.016334387, 0.015586512, -0.028577482, 0.010961629, 0.05355608, -0.06413256, 0.03924355, 0.052381884, -0.01921842, -0.011206161, -0.08298564, -0.039202496, -0.041187163, 0.04383408, 0.03744296, 0.06792135, -0.056705665, -0.0705945, -0.010025495, 0.03608049, -0.05818964, 0.012433105, -0.020856537, 0.0058802697, -0.023540879, -0.03244011, 0.044414174, -0.0097699445, 0.017917167, 0.029556094, -0.018482719, -0.038804606, 0.029167043, 0.02543181, 0.0038742116, 0.017071715, -0.023158463, 0.012047088, -0.040477894, -0.001962785, -0.03334764, -0.04696827, -0.0027714367, 0.04771427, 0.059860595, -0.014872064, 0.009245492, 0.05869497, -0.033489924, 0.009330777, -0.03683663, -0.0024055776, 0.03253181, -0.023391297, 0.0075057745, -0.0390822, -0.016454931, -0.064855896, 0.0036399155, -0.05015498, 0.099777825, -0.02279457, 0.013807061, 0.020930428, 0.011224461, -0.06563752, -0.044750042, 0.016661663, 0.057500333, -0.007982121, -0.047183722, -0.044996664, 0.061246507, 0.069104046, -0.017553631, -0.029518269, 0.010007149, 0.06101782, 0.028242273, -0.058199216, -0.06154916, -0.05611262, -0.023405217, -0.0077763707, 0.050072316, -0.0020157797, -0.050534446, 0.0346416, -0.01702682, 0.030944752, -0.024326455, 0.0039952947, 0.013054578, -0.032084312, 0.023316525, 0.0018759478, -0.025139282, -0.02626352, -0.022000283, -0.021263085, -0.036815412, 0.042134304, -0.009148769, -0.03684305, 0.024085484, -0.03501489, -0.06604652, -0.0335239, 0.045038912, 0.02059075, 0.030492503, 0.0269034, 0.024010181, -0.023473507, -0.12080783, -0.037505712, -0.001813373, -0.09186948, 0.06656193, 0.015997984, -0.033826306, 0.029399337, 0.057712164, 0.014979822, 0.025049118, 0.03523315, 0.04654311, -0.0555081, 0.043656897, -0.055133186, -0.017846748, 0.039033182, -0.01311755, -0.02015285, 0.008625793, -0.008355698, -0.008789142, 0.08259572, 0.03426611, 0.009971379, -0.0019044729, 0.05909373, 0.0324704, 0.0066874237, 0.061901655, 0.026140992, 0.014222699, -0.056923065, -0.046358258, 0.00088918325, -0.009003728, -0.0566755, -0.025130145, 0.01757555, 0.0025346903, 0.03189481, 0.03409695, 0.0045525315, -0.07159368, 0.034649994, -0.044032592, 0.028075146, -0.014278084, -0.032389455, -0.0020322516, -0.03625034, 0.0069411, -0.03741873, 0.027948063, 0.065837316, 0.0040812814, 0.049417075, -0.05275714, -0.031578485, 0.024604639, 0.039956994, 0.015677301, 0.007359834, 0.06253047, 0.024134733, 0.039353162, -0.014004161, 0.012927345, 0.0036815687, 0.05295731, -0.037434295, -0.060805563, -0.095776044, -0.01311845, -0.041009583, -0.04232664, 0.004312331, -0.009846132, 0.03722348, 0.042719513, -0.0018486338, -0.082198985, -0.06997778, 0.060942743, -0.0031651754, -0.025537448, -0.10844918, 0.014873913, 0.0039102607, 0.0025456015, 0.013714002, -0.019974267, -0.035856, -0.00083959213, -0.038352273, -0.02425091, 0.014326675, -0.018131515, 0.06385813, -0.007448164, -0.09451246, 0.0011588661, 0.03967906, 0.065680504, -0.040749263, -0.013871886, -0.015134037, 0.00857213, -0.023137355, -0.009275104, 0.030925985, -0.023950255, -0.032448523, -0.037877783, -0.00598844, -0.0045657502, 0.027418014, 0.048932195, -0.021985145, -0.03263802, 0.028550198, -0.05860485, -0.0041054315, -0.06684295, -0.05181194, -0.0131265, -0.027072573, -0.013434415]</t>
+          <t>[0.016330445, -0.04252036, 0.09064392, -0.02237385, 0.08783173, 0.015767723, 0.0035029685, -0.035714902, -0.001205759, 0.027861683, -0.05724763, -0.013339145, 0.0033988636, 0.028838512, -0.014144644, 0.009882596, 0.021010526, 0.03277565, 0.018821271, 0.0021389693, -0.041946642, -0.006183579, -0.058847886, 0.0020003228, 0.12790635, 0.00968429, 0.0490631, -0.060286194, -0.0066645867, -0.005809301, 0.039054137, -0.06817197, 0.0064991554, -0.020262225, 0.0042818394, -0.0004972405, 0.012232867, 0.024601482, 0.05929083, -0.089189835, -0.020127907, 0.018411977, -0.07561665, 0.030755976, 0.019393984, 0.011706215, 0.030414943, -0.025129076, -0.07947711, 0.036070723, -0.0019512334, -0.03121963, -0.0015317213, 0.006480795, 0.053693302, -0.03225598, -0.095457256, -0.028637432, -0.013859109, 0.008616841, -0.09340395, -0.019604586, -0.049443427, -0.01689384, -0.040133998, 0.021387467, 0.019661864, -0.057740055, -0.0134613365, 0.04392895, -0.045406558, -0.07801441, 0.002800451, 0.013594673, -0.07916664, -0.13338162, 0.009939993, 0.018632423, -0.023850726, -0.035378553, -0.017711682, -0.0631888, 0.04493246, 0.01165546, -0.09816108, 0.06075297, -0.07220015, 0.010704937, -0.021053556, 0.059236497, 0.0032160683, 0.02143865, 0.08153877, 0.048464432, 0.0050619016, 0.03681837, 0.09897228, 0.04535049, 0.009017001, -0.013532128, -0.05774461, 0.014423626, -0.05689105, 0.023055518, 0.017757352, -0.008873372, 0.052546717, 0.0056354636, 0.06127763, 0.021755109, 0.04404481, -0.049671218, -0.021971254, -0.004467984, 0.00292553, 0.0049345624, 0.03403404, 0.074153416, -0.009747653, 0.08963375, 0.04749748, 0.015144662, 0.004559842, 0.09178297, 0.022247786, 0.0076081543, 0.02653097, -0.013068611, -0.036215466, -0.060482018, 0.05405162, 0.033676703, -0.06037997, 0.05640931, 0.018121012, 0.027348898, -0.02762907, 0.018561853, 0.03353687, -0.026328178, 0.016643636, -0.016988654, 0.033755943, -0.07169849, 0.030537887, -0.00900062, -0.122426644, -0.023488298, 0.043305557, 0.0034051125, -0.021459732, -0.010184102, 0.032560345, -0.043609224, -0.02946335, -0.03254517, 0.030201346, -0.0018214708, -0.10663378, -0.049947478, 0.039759975, -0.06806659, -0.022458375, 0.0060335314, 0.018636363, -0.018512802, 0.07732311, 0.0068391724, 0.04689818, 0.08350888, -0.0049312226, 0.004805676, 0.048822768, -0.046337605, -0.018693717, -0.0079364935, 0.00046987797, -0.06704435, 0.07715646, -0.047750745, 0.034182005, -0.07001222, -0.02045361, 0.023009047, 0.011392239, -0.030093005, -0.005408459, -0.04023798, 0.031941455, 0.002470918, -0.15942065, 0.0069827475, 0.0041230144, 0.02896639, 0.0068911146, 0.0287264, 0.035933737, -0.048305806, 0.080205485, 0.08654186, 0.11556206, 0.07969731, 0.07080697, -0.017455306, 0.07597626, 0.059080184, 0.015241592, 0.0130893625, 0.004081222, 0.05233064, -0.024295583, 0.017070813, 0.017482411, 0.010430108, 0.051513158, 0.022358978, -0.011354778, -0.010827952, 0.008679106, -0.004140944, 0.038728997, -0.017026357, 0.04006327, 0.027848113, -0.002164525, 0.030983232, 0.0053934944, 0.04500771, -0.03412939, -0.068152174, 0.035852876, -0.042679857, -0.02183642, 0.021238731, -0.018735912, 0.055096246, -0.059739646, 0.031262603, 0.045734942, 0.07586374, -0.03704147, 0.01607013, 0.016438404, 0.032231834, 0.0067007267, -0.035796918, -0.0249443, 0.0021343515, -0.04137624, 0.017170051, -0.0077400603, 0.033836816, 0.03373556, -0.07315565, -0.024468597, 0.028201634, -0.0117806485, -0.06209082, -0.060721695, -0.054346967, 0.05066203, -0.010471347, -0.05635204, 0.021250237, 0.0021928344, 0.045399956, 0.020365559, -0.017183207, 0.010345102, 0.039864525, -0.020793201, -0.044925764, 0.02091068, 0.04318124, -0.028586445, 0.048959836, 0.017849483, -0.11205446, 0.018119233, -0.014567461, -0.013319114, -0.004740205, 0.06472697, -0.08941588, 0.013492458, -0.047584437, -0.076819785, 0.029339211, -0.025289707, -0.026852835, -0.046728138, 0.037515905, 0.009843099, 0.05096367, -0.050016697, 0.040279385, -0.044823423, 0.07442126, -0.0036308512, 0.0115458155, -8.185813e-05, 0.006759456, 0.036171447, 0.019765059, -0.03501929, -0.076165624, -0.047082476, -0.006828594, -0.0041727456, 0.026899869, -0.008840426, -0.041367877, 0.0033641509, 0.08188677, -0.07692252, 0.0057247104, -0.010033432, -0.033405676, -0.009830519, -0.038200404, -0.0063659656, 0.071540385, -0.057691358, -0.0023893623, -0.050331764, 0.07982475, -0.0062169116, -0.03290765, -0.017322259, 0.06362708, -0.031024175, -0.010630631, 0.011476404, -0.0256611, -0.0054547563, -0.08434137, -0.03955148, -0.018041888, 0.0012283692, -0.021522937, -0.074192464, 0.028147763, 0.018360253, 0.00963923, -0.051839028, 0.034333833, 0.07685557, -0.003066815, -0.074432105, 0.026551703, 0.006790167, -0.0062870183, 0.024535026, -0.031574804, -0.059523966, -0.0062300996, -0.029467514, -0.07631981, 0.036288716, -0.013778061, 0.0108408, -0.08145612, -0.0016630609, -0.006020921, 0.052044995, -0.014474757, -0.021866696, -0.019889437, -0.04418419, 0.0135753695, 0.038579416, 0.019898497, -0.077432185, 0.026796075, -0.026541201, -0.07320749, -0.008921722, 0.070213355, 0.051413868, -0.009344356, 0.03864308, -0.0065187416, 0.033831153, -0.06828865, -0.014830925, 0.029339582, -0.069914185, 0.045712557, -0.038420893, -0.07141653, 0.07519296, 0.11799629, -0.00084316015, 0.037290886, -0.022937598, 0.009283528, -0.08392752, 0.004313791, -0.07430862, 0.04424339, 0.06007316, -0.07082716, -0.030394927, -0.010057451, -0.045928426, -0.052868813, 0.020626502, -0.019791463, -0.05815353, -0.046985123, -0.05790202, 0.05268546, 0.015464001, 0.02081081, 0.0104778, 0.02889657, -0.057059065, 0.0366806, 0.069047466, -0.02651387, -0.07959743, -0.013578583, -0.03342129, 0.00031224522, -0.06218939, -0.04585317, 0.065859094, -0.058580566, -0.004379492, -0.03650256, -0.0178, -0.093631424, -0.024913132, -0.047491923, -0.0867126, -0.031038482, 0.062052302, -0.014409567, 0.094623104, 0.046892997, -0.012545793, -0.065282494, -0.09078349, -0.0337279, -0.00020140922, 0.0734282, -0.021148475, 0.053945713, -0.0044483882, -0.05047321, -0.025815671, -0.032048896, -0.011142284, 0.09713868, 0.010715936, -0.008885172, 0.002155791, -0.011378224, -0.012108415, -0.053254243, -0.017238826, -0.039773095, 0.06837741, -0.02735373, -0.06652279, -0.062022183, -0.01669593, 0.020896038, 0.012920932, -0.0087142065, 0.03966355, 0.11270004, 0.037041787, 0.004883793, 0.008394916, -0.03351539, 8.49138e-05, -0.0057389378, 0.068809025, -0.059432235, 0.02278836, -0.029154617, 0.022788271, 0.06849181, -0.022394652, 0.03386823, 0.013549577, 0.018997986, -0.0011859698, 0.023178576, -0.03686357, -0.011316097, -0.06064218, -0.012921143, -0.002849384, 0.04473322, -0.031118188, -0.04714318, -0.010382705, -0.0061415685, -0.004439186, -0.007728688, -0.021621453, -0.032502163, -0.0040720957, -0.02356629, -0.00052279833, -0.05186321, -0.12160797, 0.0067782938, 0.013791494, 0.0023090704]</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2172,29 +2134,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>이가원</t>
+          <t>황정인</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>vegetable oil; machine learning</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Utilization of rare sugars as a sucrose replacer in a baked model system
-: Rheological and textural characterization</t>
+          <t>Machine learning-based classification of vegetable oils using time-domain nuclear magnetic resonance</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>More recently, demands for alternative sweeteners which can reduce the levels of sugar in foods are increasing throughout the world because of undesirable health problems such as diabetes and obesity Therefore, rare sugars that come in very small quantities from natural sources are receiving much attentions due to their various health benefits However, there are few studies on the use of rare sugars in a food system, specifically, baked goods Thus, the research goal of this study was to investigate the processing performance of rare sugars (tagatose, arabinose, turanose) as a sugar replacer in cookies in terms of rheology and texture Changes in the pasting properties of wheat flour by rare sugars were investigated, followed by the viscoelastic measurements When the rare sugars were incorporated into the cookie formulation, the use of turanose out of the other rare sugars produced cookie samples with geometrical and textural properties similar to the sucrose cookies However, the cookies prepared with allulose, tagatose, and arabinose had low values of spreadability and hardness</t>
+          <t>Vegetable oils have been widely used in various food products such as frying medium and salad dressing. Since the features of foods are affected by the type of vegetable oils, it is important to identify the types of vegetable oils. However, their identification procedure is time-consuming and laborious since it is dependent on chemical methods including fatty acid analysis. Thus, the main purpose of this study was to establish machine learning models to conveniently classify vegetable oils based on time-domain nuclear magnetic resonance (TD - NMR). Eight vegetable oils were subjected to TD - NMR analysis, demonstrating there were two components with different mobilities in the vegetable oils. Principal component analysis showed that first component accounted for 50.9% and second component for 24.0% of the total variation. When the data sets consisting of TD - NMR parameters were subjected to four machine learning models, thek-nearest neighbors howed the highest accuracy and F1-score, followed by random forest, decision tree and support vector machine. As are sult, this study elicits the possibility of machine learning analysis algorithm for classifying oils from their TD - NMR parameters.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[0.012326103, -0.017348174, 0.018551895, -0.010676657, 0.10986038, -0.02397807, 0.041772954, -0.08356362, 0.06871441, 0.01561773, 0.0031531195, -0.05682456, -0.0008682895, 0.032512, 0.045225464, 0.04781909, 0.0062849307, 0.04952011, 0.077914, 0.031664193, -0.028025297, -0.0036973793, -0.04289141, 0.04099973, 0.014488596, 0.0035155504, -0.01869275, 0.045688435, -0.0095564015, 0.00608716, 0.030414507, -0.033252247, -0.02125256, -0.050154243, 0.010379034, 0.053194657, 0.09467685, -0.013840277, 0.035593044, -0.061386164, -0.07741124, 0.05471466, -0.0027649691, -0.0004520877, 0.027101656, -0.061864313, 0.09271879, 0.006353843, 0.0040977877, -0.017890757, -0.0101945205, -0.004678794, 0.011199932, -0.036092106, 0.025966287, -0.02983065, -0.02540817, -0.0077564353, -0.011867706, -0.022698851, 0.023945719, -0.037099812, -0.0461385, -0.02963289, -0.016910626, 0.0062652547, -0.006777569, 0.064184465, 0.11518899, -0.01383816, 0.01404404, -0.009513516, 0.068005934, 0.002218505, -0.119520076, -0.023743644, -0.0015233259, -0.06707017, -0.007240711, -0.003878106, -0.06058626, -0.031791307, 0.06820214, -0.041716006, -0.02597646, 0.055366177, -0.04068801, 0.05066109, -0.03173437, 0.0871489, 0.06178909, -0.015985804, 0.091841, 0.0040860153, 0.06663895, 0.022433411, 0.045177832, 0.09126316, 0.06454568, 0.05896622, -0.013071152, -0.0038190295, -0.017117104, 0.058898088, 0.03151924, 0.032875367, 0.015453494, 0.0015356338, 0.055654258, 0.062757455, -0.082885735, -0.081732, -0.046040483, 0.066222586, -0.037297063, 0.074887045, 0.06869293, 0.07365904, 0.015112881, 0.019896073, 0.012665345, -0.061058562, -0.010130726, 0.056652714, -0.03480164, -0.04337807, 0.012213846, 0.010192077, -0.02102847, -0.039972156, 0.04388948, 0.050750073, 0.0014115553, 0.04315826, -0.041884694, 0.03671037, 0.024248645, 0.073730126, -0.014097082, 0.11499856, -0.007429501, -0.038704272, 0.003256332, -0.023646476, 0.023798412, 0.027043885, -0.09694128, -0.046276513, -0.012727693, 0.034524914, 0.0017324056, -0.028791487, -0.013754897, -0.04455529, -0.05326281, -0.09613214, -0.005985109, 0.047778986, -0.038289543, 0.00022282521, 0.0073810043, -0.039760232, -0.018901521, -0.022446366, 0.0064837914, 0.073759474, 0.04911145, -0.0064776666, -0.02886035, 0.026814591, -0.010661987, -0.0091963, 0.011369994, 0.051458165, 0.0068527274, -0.04295449, -0.025749171, -0.031766307, 0.0515039, 0.017646821, 0.002192848, -0.0045169424, 0.03032184, -0.0071907407, 0.032799114, 0.0031743771, 0.0011586887, -0.079917684, 0.014800352, 0.03464119, -0.054058254, 0.1166586, 0.07328818, 0.0074242717, -0.03260155, 0.023509957, 0.05857713, 0.01957584, 0.056979746, -0.060996518, -0.028204279, 0.036811568, 0.023737295, -0.028254597, 0.09229431, 0.042492703, -0.055072658, 0.058679253, 0.004467311, 0.04325152, -0.07896034, -0.044433404, -0.042533293, 0.030013366, 0.006769294, -0.033723358, -0.069046676, -0.017226867, 0.042996198, 0.04299902, 0.052678093, 0.064561084, -0.11541019, 0.029326743, -0.006779905, -0.047667395, 0.038551465, 0.054615747, -0.051470917, 0.0023390618, 0.0051326943, -0.035052665, -0.025602037, -0.0247427, 0.039948303, -0.007418837, -0.051504582, 0.068974584, 0.034184672, 0.08894115, -0.0088857915, -0.03723472, -0.04116774, 0.056679264, -0.0326252, -0.0469112, -0.027503848, -0.050706517, -0.026550593, 0.01126527, -0.0029021606, 0.06878505, 0.014805057, 0.016756702, 0.10176591, -0.0115410015, 0.0063183974, -0.008606224, 0.011972259, -0.064890034, 0.028690508, -0.01796625, 0.015422659, 0.0075126253, -0.003889844, -0.0145772435, -0.007553876, 0.050792117, 0.0065150633, -0.053764906, 0.012539593, 0.05577951, 0.07935325, 0.07487179, 0.06461884, 0.05475168, 0.0017974636, -0.11627657, -0.0006291882, -0.055432804, -0.01743182, -0.09763392, 0.06557488, -0.0056750835, -0.026049139, -0.040642053, 0.03170359, -0.016627869, -0.03134639, -0.13383035, 0.07525356, -0.10197668, 0.023029648, 0.05529117, -0.054820444, 0.054645587, -0.041250173, 0.09186649, 0.035799786, 0.0086640995, -0.07657971, -0.009551016, 0.009742896, -0.009903524, 0.062355537, 0.031162519, -0.04924659, -0.020750344, 0.023056302, -0.0329785, -0.028288607, 0.058206256, 0.03540284, 0.092912726, 0.00524978, 0.045829434, -0.059786275, -0.05775226, -0.019771123, 0.008219519, 0.056100473, 0.042552788, 0.045437764, -0.02521885, -0.03836787, 0.041587774, -0.13143921, 0.022422332, -0.030246962, 0.04262696, 0.014437923, 0.0075715673, 0.01855878, 0.028859818, 0.04248658, -0.06644846, -0.077575974, 0.028472032, 0.019642044, 0.001958809, 0.015807245, 0.035345726, 0.06675432, -0.046092127, -0.034366224, -0.026349869, 0.029039567, 0.11744509, -0.010931002, -0.02685961, 0.005539506, -0.037238806, 0.0054265466, 0.054086946, -0.02892044, 0.0029636768, 0.03193782, -0.06839793, -0.029564736, -0.026164822, -0.0068012695, 0.01592668, -0.082642056, 0.073702425, -0.016556246, -0.014310935, -0.0650334, -0.034211952, 0.014780607, 0.008090205, -0.015548712, 0.0049564242, 0.014127846, 0.010935787, 0.06887841, 0.01487173, -0.03542549, 0.038220398, 0.03708729, 0.03543147, -0.024499122, 0.027737556, -0.01080369, -0.03533217, -0.05493707, -0.04266996, -0.15297122, 0.01652225, -0.040634844, -0.058030088, 0.03856426, 0.055986598, 0.04377994, -0.04102902, 0.0047988663, 0.11626772, -0.029047664, 0.010316673, -0.0064662173, -0.030318245, 0.022622168, -0.07962873, 0.01649603, 0.014950139, -0.021891242, 0.017331254, 0.026084552, -0.0022430508, 0.020852774, -0.005378174, 0.021427197, -0.007408882, -0.0058475505, 0.04157918, 0.012362663, -0.0034305414, 0.030008504, -0.08470489, 0.01282783, 0.040675156, 0.005625363, -0.003955656, 0.027361758, 0.0361313, -0.0026741324, -0.02636808, 0.050300956, -0.08800383, 0.03239975, -0.023145868, 0.03880215, 0.015035403, 0.018181864, -0.05039028, -0.024394048, -0.036717348, 0.012852568, -0.023510512, 0.031851057, 0.04624253, 0.010306532, -0.022894882, -0.007683661, 0.099001504, 0.007493182, 0.0074094282, 0.037060995, 0.07429051, -0.032101247, -0.0347326, -0.015962368, 0.0032676589, 0.010620912, 0.055529617, -0.049766224, -0.042024113, -0.0012896059, -0.07871914, 0.036790475, -0.006176683, -0.05574733, 0.020048909, 0.08028101, -0.017725172, 0.0546911, -0.04311026, -0.08502438, -0.030076783, 0.06901383, -0.015095544, -0.06395088, 0.07482313, 0.06062062, 0.010179329, -0.07406503, -0.064493015, -0.007483278, -0.061140686, -0.020754585, -0.006039153, -0.0035177604, 0.0009758751, 0.053647973, -0.010153004, -0.039634515, 0.035655454, -0.0492512, 0.042369515, -0.044231135, 0.00024511525, -0.04384447, 0.03798646, -0.08580684, -0.01596661, 0.04519681, 0.019698666, 0.011640697, -0.020810558, 0.0004225536, 0.017117657, 0.04959564, 0.02321719, -0.011952983, -0.07485633, 0.00025431486, 0.00414965, 0.05304987, -0.030268408, -0.09355144, -0.0076774973, -0.025556898, 0.002122182]</t>
+          <t>[0.0061637484, 0.09751264, 0.012187726, -0.0031745443, 0.08643828, -0.015979467, 0.015377595, -0.04130719, 0.04008195, 0.026355684, -0.054170895, 0.01332708, 0.055752177, 0.035290837, -0.040860236, 0.034759462, 0.029829148, 0.0479814, -0.0015987494, -0.0029649956, -0.012003087, 0.022665678, 0.006656134, 0.026824228, 0.026486117, 0.05311748, 0.052580066, -0.005886092, -0.04739543, -0.038218077, 0.00852695, 0.013079545, -0.011964675, 0.014960466, -0.03442361, 0.029852627, 0.051718824, 0.05135376, 0.023844037, -0.022978134, 0.06014334, 0.022530966, -0.050224982, 0.031241138, 0.018825851, -0.015789902, -0.009431949, 0.020665253, -0.034271892, 0.00462726, 0.04706573, -0.0020117478, 0.0063546062, 0.060382117, 0.038793582, 0.032968298, -0.093729004, -0.05142647, -0.019224025, -0.0043405546, -0.07831424, 0.0004905166, -0.014375571, 0.003742896, -0.026391484, -0.023703247, 0.05780212, 0.020487733, 0.042636883, 0.016887737, -0.017507551, -0.04380534, -0.0075026574, -0.07959101, -0.09141953, -0.03099029, 0.0026828446, 0.04677819, -0.040557027, -0.003870242, -0.059253026, -0.04853651, 0.085560486, -0.015268164, -0.053878203, -0.010608501, -0.041396122, 0.047360383, -0.009510537, -0.05847353, 0.0062576924, 0.014690849, 0.08730333, -0.008776884, 0.0030922336, 0.03448179, 0.07690705, 0.057996586, 0.03686792, -0.016539508, -0.02138158, 0.03201606, 0.00075765105, 0.019428719, -0.010644286, -0.023451315, -0.015229035, 0.046020843, 0.07609764, 0.01019504, 0.038441952, -0.07255039, -0.034529455, 0.07878707, 0.002030693, 0.031542562, 0.060122654, -0.013682527, -0.001565388, -0.052223925, 0.0091623, 0.0019976066, 0.0011709674, 0.031998243, -0.058395103, -0.04251731, 0.091840036, -0.036875833, -0.032914247, -0.050676655, -0.001150914, 0.066662885, -0.015172389, 0.06203761, -0.0069739837, 0.0037394143, -0.045640208, 0.055390965, -0.019243853, -0.0010089759, -0.0010682045, 0.01792778, 0.01993367, -0.054426536, 0.007819554, -0.04162846, 0.00838274, -0.046411447, -0.0023687023, 0.013502416, -0.019898409, 0.0021367767, -0.010500178, 0.00624901, -0.037445027, -0.037598, 0.0033735568, -0.018067608, -0.002770235, -0.019368326, -0.011784782, -0.0005844477, 0.005316578, 0.024321431, 0.0129528055, 0.016770732, 0.04518026, -0.011343575, 0.034931466, 0.10360227, 0.018536057, -0.028632302, 0.05130318, 0.04135966, -0.016603986, -0.07775431, -0.025497729, 0.023631541, 0.027290216, 0.02199061, -0.043227047, 0.0070251096, 0.032496877, 0.055921316, -0.009118386, 0.009461372, -0.01218966, -0.029702585, -0.05827344, -0.03758119, -0.051643346, -0.094761334, 0.07090638, 0.027427733, 0.009151376, 0.05059404, 0.053308584, 0.015485292, -0.0043937224, -0.0020138668, -0.017745318, 0.011585939, 0.03581624, 0.015829109, 0.04246056, -0.027549239, -0.031623334, 0.012493008, -0.016301408, 0.030225063, 0.015127437, 0.012083938, -0.0061877035, 0.051672194, 0.059106547, 0.085227326, 0.03444863, -0.027370146, -0.03325652, 0.0628343, -0.023599511, 0.065875456, 0.01286974, 0.021601183, 0.02658162, 0.00016035349, 0.027457403, 0.004302414, -0.028706852, -0.013769723, 0.039509017, -0.087926894, 0.017748158, -0.0036873673, 0.052331127, -0.03743074, 0.010369266, 0.00960322, 0.029429417, 0.09127179, -0.009974384, -0.023296708, 0.011996016, -0.018463695, -0.0073938104, -0.10367814, 0.022462744, 0.017090328, -0.040060777, -0.031149618, 0.00020321459, 0.0006551017, 0.021944303, -0.012144126, -0.017442062, -0.060038187, 0.06837548, 0.052113, -0.02134068, -0.012996631, 0.055728287, 0.058460534, -0.00678053, -0.026540985, -0.020650562, -0.06323669, 0.025808334, -0.048591893, 0.06627045, 0.024732249, 0.027899072, -0.0052919216, 0.07926513, 0.02976492, 0.0021012174, 0.013150046, -0.031404596, 0.03166338, 0.019180235, -0.05646659, -0.048649617, -0.0743773, 0.053583458, -0.041971784, -0.03013066, -0.05431439, -0.06345615, -0.010043895, 0.051365763, -0.043983366, -0.012293145, 0.018990355, 0.10550608, -0.045199446, -0.055690818, 0.043694783, 0.0133064715, 0.024161939, -0.010005766, -0.015347357, 0.022116682, 0.029780408, -0.03688288, 0.0682467, 0.026989844, -0.016801208, 0.011355108, -0.044929795, 0.02215003, 0.054790303, -0.018850556, -0.057456013, 0.0825918, 0.060631298, -0.03832691, 0.05077033, 0.05607251, -0.00040226462, 0.01529963, -0.028698135, -0.023665247, 0.030249126, -0.0006899234, 0.016491624, 0.0020807039, -0.030231766, -0.07505471, 0.018223302, -0.014205107, 0.0813767, 0.0012980963, 0.018094402, 0.03567135, -0.034039028, 0.0022343039, -0.013949595, 0.003119486, 0.059638336, -0.015196134, -0.000374441, -0.072434366, 0.042805076, 0.047293458, -0.057864547, 0.02026789, 0.0019317105, 0.053654496, 0.14572856, -0.026868569, -0.013386257, -0.024857065, -0.011713945, 0.023309277, 0.081776716, -0.059077438, -0.014738852, -0.0156211695, -0.061078098, 0.007444224, -0.004800268, 0.033287585, 0.033385348, 0.008723321, 0.048151866, -0.011596534, -0.0153623335, -0.020821363, -0.024921106, -0.0013466991, -0.028858898, 0.060240254, 0.017161287, -0.01129354, -0.0020670153, 0.022688374, -0.018804774, -0.033680156, 0.025736189, 0.04027748, 0.018642463, 0.014300234, -0.044892784, 0.06551462, -0.008299522, -0.011358769, -0.026306696, -0.095285945, 0.09750259, -0.010063817, -0.025369948, -0.030521173, 0.011442568, 0.1335306, 0.037363727, 0.06544558, -0.063136294, -0.03369392, -0.05612536, -0.01564479, -0.058921278, 0.016548123, 0.016685264, 0.052702826, -0.024593482, -0.05269892, -0.015392712, 0.0646699, -0.042810325, 0.013097742, -0.008287015, 0.025871765, 0.072532594, 0.0128748, 0.048337027, 0.045279745, -0.013929251, 0.025085054, -0.03644896, 0.011340449, 0.0026273043, -0.063353375, -0.05219766, -0.024204947, -0.008504955, 0.03030002, -0.047261953, -0.035263274, -0.06473319, 0.02879861, -0.008377523, 0.033323877, -0.09658513, 0.02393443, -0.008087465, -0.061677884, 0.028717175, 0.0028581687, -0.008478621, -0.019363668, -0.005970557, 0.038833566, -0.04262371, -0.019004814, 0.01606727, -0.025343213, 0.019400468, -0.0022652016, 0.0980571, -0.013943257, 0.010931073, -0.031616725, -0.024068078, 0.042893168, 0.024055898, -0.02405078, -0.05344066, -0.06508001, 0.020691374, 0.015141783, 0.039018232, -1.8803636e-05, 0.0059058336, -0.007949437, 0.040745817, -0.02521282, -0.03025824, 0.007869381, 0.041346967, -0.01028264, -0.040068645, 0.028675705, 0.03381944, -0.038462237, 0.032868393, 0.0010887095, -0.036818102, -0.046432886, 0.026341073, -0.018612858, 0.00954834, -0.028382912, -0.00093688857, 0.04725783, 0.011397181, 0.005439406, -0.049072504, 0.031296056, 0.040233374, -0.021566588, 0.0054228893, -0.07095933, 0.105714105, -0.0024779695, -0.03618623, 0.011195706, 0.04686234, 0.04214828, 0.0064782416, -0.013651022, -0.0042623677, 0.012144337, -0.054090098, -0.016402839, -0.022989009, 0.0062730894, -0.04853992, 0.013841611, -0.032636307, -0.039245673, -0.0023214903, 0.005259672, -0.0153392665]</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2168,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2212,30 +2177,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>양선경</t>
+          <t>박서우</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>인천</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>hydrocolloid; viscosity</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rheological and baking characterization of frozen
-bread dough depending on thawing methods</t>
+          <t>Constructing artificial intelligence (AI) models for viscosity prediction of hydrocolloid solutions</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Frozen dough technology across the globe is expected to show a substantial spotlight due to time saving and cost effective benefits However, although thawing deteriorates the baking performance of frozen bread dough, its effects have not been systematically elucidated In this study, frozen doughs stored at 18 were thawed under different conditions Their effects on the rheological properties of frozen dough were then evaluated and correlated with the final quality attributes of bread The temperature measurements during thawing demonstrated that the microwaved samples were thawed quickly however showed non uniformity The mixolab experiments showed that the elevated microwave power
-level appeared to increase the C 1 value of the doughs Moreover, the use of microwave led to higher values of storage ( and loss ( moduli When the thawed doughs were baked, the microwaved samples had the lower specific volume and harder texture than the other methods This study provides fundamental information for better understanding of the rheological properties and baking performance of frozen bread dough depending on different thawing methods</t>
+          <t>Hydrocolloids are extensively used to control the rheological properties of many food products including viscosity. Currently, the viscosity measurement is dependent on actual experiments in many cases since it is affected by various factors such as concentrations, temperatures, and shear rates. Thus, it is necessary to establish a platform to predict the viscosity of hydrocolloids. In this study, the viscosities of various hydrocolloids were obtained under four different temperatures in the shear rate range of 1–1,000s-1. The experimental viscosity data sets were subjected to two AIalgorithms (random forest and multi layer perceptron (MLP)) that were compared with rheological constitutive equations (power-law and cross models). MLP had the highest R2 and lowest RMSE values, followed by random forest, cross, and power-law. By tuning hyperparameters by Bayesian optimization, the MLP model showed superior performance to predict the viscosity of hydrocolloids(R2&gt;0.9 for training and testing datasets).</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.036370214, -0.0119626345, 0.034469277, 0.00015442446, 0.11916298, -0.018690791, -0.0034101754, -0.026615271, 0.03216753, 0.036158394, 0.023250494, 0.017744806, -0.017193846, 0.008943998, -0.0010827829, 0.049316917, -0.0035184869, 0.07563612, 0.07671844, -0.009381329, -0.03364783, -0.023138572, -0.05785823, 0.05635198, 0.06902805, 0.020564903, 0.057023786, -0.03622419, 0.010032795, -0.0012241263, 0.0653849, -0.055805545, -0.095540866, -0.0075839236, 0.06716931, 0.04306363, 0.04677496, -0.005144062, 0.0014043526, -0.058458257, -0.013974373, 0.04702879, -0.005765998, 0.013413674, -0.07357392, -0.03259761, 0.069892965, 0.08298188, 0.0012984702, 0.05539051, 0.0048312475, -0.05595727, -0.027846895, 0.058647428, 0.0009588438, -0.0787607, -0.07808557, -0.04853199, -0.01852033, 0.015544738, -0.022615595, 0.02062713, -0.07526644, 0.03724425, -0.02794025, -0.02482096, 0.0036081816, 0.004663998, -0.014822725, -0.015452034, 0.02752087, -0.019841218, -0.02208243, 0.015160565, -0.10729582, -0.03515785, -0.024156893, -0.014421023, 0.013665891, -0.030935299, -0.063285686, -0.049807575, 0.02122319, -0.028725116, 0.027661886, 0.019166697, -0.002728464, 0.054824486, -0.0367287, -0.007255302, -0.01208986, -0.031174842, 0.08367405, 0.030680792, -0.009520673, 0.05181359, 0.0372618, 0.08408141, 0.022521857, 0.039374262, -0.012073587, 0.09213735, 0.011298421, 0.07131982, 0.021929458, 0.0010914445, 0.027744448, -0.0088973595, 0.0045563783, -0.022310002, 0.033912383, -0.07154398, -0.0004578854, 0.038959518, 0.0021634041, 0.052461836, 0.08284729, 0.038785957, 0.018777559, 0.068184376, 0.026363522, -0.022277284, 0.036161557, 0.02143265, -0.029127866, -0.03133163, 0.058852766, -0.016122133, -0.010074763, -0.06138111, -0.037128244, -0.037113365, -0.013312108, 0.030308345, -0.010725892, 0.02328356, 0.012728778, 0.03883017, 0.055043865, 0.01428919, 0.013943804, -0.05556253, -0.01818827, -0.033009734, 0.05516875, 0.0017406846, -0.05808449, -0.05701844, 0.011624012, 0.024510453, -0.008916355, -0.013719973, 0.062968895, -0.06674144, 0.036050383, -0.10298522, 0.025539681, -0.015297769, 0.07618557, -0.017518494, 0.033866573, 0.0034594124, -0.01969383, 0.023926372, 0.02961362, -0.0062924107, 0.049325883, 0.024541307, 0.0141976, 0.021650815, -0.0093248235, -0.0020717073, 0.030633831, -0.008298525, -0.010231358, -0.021521354, -0.047866162, -0.044943087, -0.010658634, -0.09924066, -0.0005200237, -0.04743447, 0.032040957, -0.01612067, 0.034551393, 0.0119136525, -0.005009715, -0.067836426, 0.13406792, 0.054330874, -0.09090561, 0.0027269428, 0.010284739, -0.047695808, 0.009280766, 0.008293343, 0.0008832915, 0.005779745, 0.04874227, -0.07336611, 0.027745614, 0.036240164, 0.012567038, -0.02265637, 0.07073372, 0.00830801, -0.023556259, 0.0795058, 0.010107477, 0.034577724, -0.026892954, 0.03515296, -0.057855975, -0.024411904, 0.052908182, -0.04899532, -0.052248478, -0.059495587, 0.020826995, 0.011095378, 0.037134524, -0.078124486, 0.056449935, 0.0314194, -0.05745811, 0.047373492, 0.047261298, 0.034210395, 0.0055529634, -0.06958843, 0.050521523, -0.046729024, -0.035921775, -0.03235865, 0.036404856, 0.057205744, -0.04329937, -0.033583466, -0.045408834, 0.03927196, -0.045097873, 0.013018489, -0.013365117, 0.026272066, 0.055157766, -0.051735554, -0.017652048, 0.043365363, -0.007994998, 0.008648768, -0.042414937, 0.081476755, -0.06353398, -0.031915165, 0.031331614, 0.021800572, 0.06959665, 0.060641807, -0.045865, -0.012990157, -0.030453019, -0.009283654, 0.008540986, -0.092815384, -0.014887355, -0.06298091, 0.019016001, -0.0089844065, 0.00064026087, 0.036534324, 0.010661854, -0.09270501, 0.016009066, 0.058272265, 0.017038139, 0.058011886, 0.0074370345, -0.034896817, -0.0014987877, -0.019431906, 0.026261007, -0.015285816, -0.06751307, 0.033553045, 0.055721197, -0.06356427, -0.07030571, -0.05921123, 0.027439844, 0.01786505, -0.0456922, 0.012600335, 0.038327355, -0.04434257, -0.060982384, 0.045886476, -0.06374774, 0.031177774, 0.018858684, -0.0032983033, -0.0052544763, 0.039882157, 0.1273288, 0.040810242, -0.043879855, -0.10465309, -0.034136, 0.02732518, 0.025215816, 0.04383793, -0.001080505, -0.017128116, -0.008458385, 0.070663005, -0.066330425, -0.017866405, 0.03960781, -0.051651895, 0.020956142, -0.015320686, 0.058082025, 0.08357845, -0.024890313, -0.012010512, -0.102111906, 0.04654866, -0.05926701, -0.028680207, -0.031861678, 0.048470147, -0.011871072, 0.011187965, -0.00498966, 0.07848142, -0.0668773, -0.0602515, -0.06687096, -0.014056709, 0.007719777, -0.038534787, -0.072826736, 0.0008002456, -0.027105248, 0.075255, -0.0072179264, 0.03220531, 0.054208037, -0.021809453, -0.028976453, -0.028492285, -0.0038707408, 0.020967433, -0.018680263, 0.01029607, -0.09354283, -0.1115251, -0.026386546, -0.037879094, 0.03470389, 0.029947992, -0.029406639, -0.044777412, -0.010938207, 0.020072961, 0.06861652, -0.04429305, -0.03981086, -0.024128458, -0.09076241, -0.07169298, -0.014873413, 0.051694773, -0.025336571, -0.0006064275, 0.030073524, -0.0027238403, 0.027706191, 0.032401096, 0.067406796, -0.043802436, 0.031163285, 0.018599238, -0.02606717, -0.07404304, -0.01770548, 0.048527483, -0.05530193, 0.044678114, -0.07703874, -0.035575606, 0.021017507, 0.09779259, 0.05202662, 0.074314535, 0.04350764, 0.059655204, -0.026130956, 0.038080726, -0.064497545, 0.019564984, 0.05290666, -0.020323176, 0.024603926, -0.03489381, 0.044251077, 0.02066225, -0.025216104, 0.020782324, 0.007899153, -0.030626012, 0.041967366, -0.015513643, 0.026220167, 0.0703173, 0.007430044, 0.020038242, 0.016247513, 0.084328376, 0.008691761, -0.022680508, -0.04667561, -0.044792097, -0.07447129, 0.007472534, 0.010341888, -0.081932634, -0.015121033, -0.022875631, 0.0031613938, -0.03268232, 0.08475727, -0.004410527, -0.011964051, -0.04407562, -0.07561207, 0.019713419, -0.02703473, 0.007205183, 0.02839887, 0.093017645, 0.04615503, -0.04341695, 0.010958371, -0.015777955, -0.013362501, 0.023376836, 0.02514346, 0.05670682, -0.00298307, -0.05034006, 0.044253524, 0.055390343, 0.0116836885, 0.06327099, 0.004413991, -0.02149766, -0.07008448, 0.035529822, -0.0056159324, 0.017431794, -0.022540953, -0.012361575, 0.051979028, 0.048513986, -0.019174604, -0.083112285, -0.08009772, -0.0033628084, 0.017151926, 0.01747823, -0.06880131, 0.068999685, 0.05191524, -0.02767187, 0.0044742, -0.0025192874, 0.0823735, -0.0007601083, -0.076396026, -0.033518013, -0.05427405, 0.011998621, 0.05857068, 0.027399797, -0.019792251, 0.049685374, -0.020308683, 0.06973317, -0.012893441, -0.059598662, -0.0044019907, 0.012118426, -0.061017517, -0.0548893, 0.049689505, -0.0073823384, -0.07045238, -0.05480259, 0.03434023, -0.055156015, 0.005488429, -0.040120713, -0.042003654, -0.023618504, 0.06282144, 0.0019301394, 0.05193219, -0.0017063885, -0.12652938, -0.010302118, -0.014963211, -0.021359188]</t>
+          <t>[0.08004916, 0.04452971, -0.031723406, -0.0008937635, 0.059811346, 0.037312534, -0.0022239713, -0.06419269, -0.016895305, 0.025880018, -0.04659669, -0.016838036, 0.026946811, 0.016121637, -0.011409069, 0.021422751, -0.029688165, 0.056776572, -0.026435165, -0.033179432, 0.034038883, 0.010113399, -0.015341541, 0.01902579, 0.06724707, -0.01576314, 0.10008362, 0.048525553, -0.049831066, 0.0019192887, 0.011920764, 0.0014617167, -0.03768948, 0.004461893, -0.05680991, -0.02827989, 0.0033824027, 0.06317104, -0.03315068, -0.061373767, -0.03542657, 0.012917435, -0.030756801, 0.012640726, -0.016886868, -0.012865936, 0.02231582, 0.004052342, 0.02360757, -0.017239463, -0.017907284, -0.040953267, 0.0056557856, 0.026322354, -0.013333315, -0.005622393, -0.095378146, -0.09317091, -0.021955097, 0.011279212, -0.06585066, -0.036743198, -0.10534022, -0.02934139, -0.04037135, -0.043965552, 0.054403383, 0.021450268, 0.0040744445, -0.01988845, -0.0331172, -0.0037041223, 0.007006593, 0.07421833, -0.06005595, -0.030416207, -0.03374158, -0.08717854, 0.0011137815, 0.0784832, -0.06728619, -0.04002045, 0.07813953, -0.024669083, -0.03762494, 0.065748796, 0.009501105, -0.027733827, 0.017618535, 0.011842892, -0.007220048, -0.02758369, 0.07933484, 0.068836525, 0.024730496, 0.011614938, 0.022756428, 0.09169513, 0.025699904, 0.057601694, -0.05376717, 0.028606765, -0.030956687, -0.011730574, 0.0048743496, -0.036680058, 0.044628616, -0.017596608, 0.032035556, -0.004907587, -0.027181823, -0.0631196, -0.048816152, 0.023566194, 0.0066410955, 0.07529294, -0.021302424, 0.039733812, -0.0011826468, 0.063020065, 0.06421741, -0.04336939, -0.009100126, 0.013920269, -0.048852194, -0.017569447, -0.015342058, 0.015034978, 0.0061468035, -0.029940197, -0.038752757, -0.013827581, -0.0297636, 0.035331964, -0.0061397203, 0.0040709926, -0.015879726, -0.040912014, 0.0033106275, -0.040503744, 0.0029403898, -0.043829177, 0.018566312, -0.08253647, -0.029452648, 0.015549204, -0.027984539, 0.042806745, -0.054144945, -0.012710289, -0.0480858, -0.004754083, -0.019531775, 0.030349478, -0.074224286, -0.06191036, -0.039751936, 0.03929842, -0.012904704, 0.01121373, 0.002884458, -0.0023589854, -0.019173078, 0.045837205, 0.020528365, 0.005887969, 0.046402603, 0.028597476, 0.010636031, -0.019904226, 0.004434582, -0.021876058, -0.004874984, -0.03394524, 0.036239054, -0.070172906, -0.021344554, 0.0022482409, 0.017403938, 0.03611327, -0.0054859137, -0.006687156, -0.033846725, -0.06286734, -0.018411094, -0.022320721, 0.0095758615, -0.052212223, -0.049481653, -0.010213457, 0.003459415, 0.001976805, 0.02818168, -0.082750335, 0.018804263, 0.08510126, 0.04307581, -0.053009443, 0.004065945, -0.06888243, -0.023301339, 0.050907847, 0.04845761, -0.004485279, 0.011418941, 0.018339759, 0.008133623, 0.008560488, -0.037726883, 0.004902833, -0.079136156, 0.1367798, -0.05618415, -0.030623794, 0.07524637, -0.014789555, 0.008327651, -0.039754186, 0.051806282, -0.00044253047, -0.074180305, 0.09027674, -0.0030445862, 0.0339862, 0.0065505994, 0.025620917, 0.00029394054, -0.014294336, -0.02554, -0.002615796, -2.8410926e-05, -0.013365256, 0.0042513916, -0.0063373405, 0.01825992, 0.035316076, 0.029851874, -0.009139522, 0.01050743, 0.08357284, -0.034377616, 0.034927722, 0.009277698, -0.022162102, 0.048005223, -0.049557753, -0.054217536, -0.0025582053, 0.01248119, -0.03321806, -0.016816556, 0.006884489, 0.023185719, 0.02818585, -0.012278074, -0.03978674, -0.0009026944, 0.045877006, -0.009633057, 0.03427999, 0.03805439, 0.035462238, -0.00752144, -0.039072365, -0.032472525, -0.012710458, -0.026190514, -0.0006961344, 0.013306301, -0.020559387, -0.030020434, -0.054328162, 0.08274812, 0.022836901, -0.0073353834, -0.059515044, 0.032727182, -0.032939702, -0.021345848, 0.018330919, -0.04695931, -0.038960163, 0.050541192, 0.035323367, 0.045071, -0.020825269, -0.013673415, 0.019836133, 0.040794685, -0.01105917, -0.021996513, -0.051562134, 0.056354973, -0.025558, -0.029656675, 0.025302554, 0.017614359, 0.046250667, 0.039605927, -0.04573187, -0.062406816, 0.0059535773, 0.03246231, 0.082344905, 0.032923106, -0.0009528988, -0.004104233, 0.029388437, -0.015986135, 0.08265096, -0.07366735, -0.005611528, 0.027354043, 0.11092896, -0.0053859204, -0.021153877, 0.0284353, 0.025756152, -0.0051952424, -0.04665747, 0.035868272, 0.014100262, 0.02777934, -0.02868482, 0.024192091, 0.0041812854, -0.035378955, -0.004315227, -0.014260981, -0.0106909275, 0.0076129357, 0.003151446, -0.021202598, 0.011318182, -0.064959854, -0.015084685, -0.051792752, 0.03919464, 0.013929139, -0.031713, -0.057833117, -0.06422315, 0.071430534, 0.025382884, -0.004354616, 0.090990536, 0.075326495, 0.09888955, -0.064663, -0.010391625, -0.0077686533, -0.02887306, 0.019430656, -0.017815059, 0.008272903, -0.01974441, 0.024364473, 0.05414371, 0.059898805, 0.011491327, 0.00700537, 0.0017702401, 0.018775173, 0.07648707, -0.052842885, 0.011537719, -0.080282345, 0.056690156, -0.03899669, -0.005474097, 0.010702238, -0.008431678, 0.039059483, 0.007134792, -0.0254555, -0.037059553, 0.030735048, 0.027700227, 0.0013927529, 0.014590407, 0.050911415, 0.027187001, 0.0033790113, 0.01565069, -0.017457541, 0.07561857, -0.088310055, 0.051595863, -0.009989281, -0.050238047, -0.0141229555, 0.033068024, -0.001874393, 0.016046768, 0.014344046, 0.049225252, -0.052258458, 0.04120831, 0.012834604, 0.022358637, -0.0014307024, 0.019764034, 0.012334518, 0.00017530087, -0.028661443, 0.014101136, 0.008283405, 0.015137186, -0.05721236, 0.024422854, -0.010413469, 0.07637367, 0.0059690685, 0.07683003, 0.0024164524, -0.026088994, -0.013092295, -0.02945239, 0.024434252, -0.023543023, -0.06117302, 0.047859132, -0.055747867, 0.045171015, 0.022211356, 0.0077160704, -0.083901085, 0.0017001118, -0.023229547, -0.053336352, 0.016328912, -0.000937266, -0.01842287, -0.034059417, -0.03753662, -0.06598278, 0.032071605, -0.012677954, 0.025332566, 0.036639724, -0.015643993, -0.035407413, 0.04569539, -0.016365364, 0.0005003581, -0.005961514, -0.0022627793, 0.023328232, -0.0012570231, -0.007800818, -0.03558823, -0.027016418, -0.005467543, 0.011471145, 0.026608774, -0.012776738, -0.06176102, 0.09906898, 0.045119874, -0.0055034533, -0.0018036995, -0.012531918, 0.06200961, 0.040656757, 0.060379338, -0.020148579, 0.02095121, 0.07662811, -0.0042011268, -0.06695825, -0.06984701, -0.019166058, 0.021845117, -0.005615942, -0.00038849324, -0.048938964, 0.022281155, 0.018597228, -0.019709853, -0.023692053, 0.03828966, 0.042963233, 0.074387446, 0.025520878, -0.011727809, 0.029536722, 0.0051338524, -0.0043214927, -0.018536111, 0.0062037236, -0.056636937, -0.025071625, -0.051421758, -0.062065866, -0.06184242, 0.014684341, -0.028448151, 0.001243292, -0.011091504, -0.0018886734, 0.038428057, 0.02194064, -0.0030061493, 0.00014564279, -0.017463561, -0.006855783, 0.01186759, -0.00054359337, -0.0782545, 0.027305204, 0.0052787014, -0.06665877]</t>
         </is>
       </c>
     </row>
@@ -2244,41 +2211,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>오민수</t>
+          <t>이다연</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>hydrocolloid; machine learning</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Conversion control of
-rutin to quercetin for functional enhancement
-of buckwheat
-based food products</t>
+          <t>Applications of artificial intelligence models for predicting the rheological properties of hydrocolloid solutions</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Buckwheat Fagopyrum spp is nutritionally superior to other cereal grains due to a variety of functional ingredients, specifically, rutin However, the conversion of rutin into quercetin by rutin degrading enzymes leads to a decrease in the rutin content and an increase in the bitter taste derived from quercetin Therefore, although tartary buckwheat has higher amounts of rutin than common buckwheat, its uses in processed foods are very limited In this study, various thermal treatments were employed to control the conversion of rutin to quercetin by inactivating rutin degrading enzymes in tartary buckwheat and their processing parameters were identified to establish the experimental procedures to minimize the rutin loss during buckwheat processing Tartary buckwheat flour was treated with several thermal treatments including steaming, autoclaving, and microwaving under different processing conditions The levels of rutin and
-quercetin in the resulting buckwheat flours were quantified by HPLC and the correlation between the thermal processing parameters and rutin /quercetin contents were established When ground buckwheat grains were separated into three fractions ( bran, and flour) depending on particle size, the highest level of rutin was observed in the bran fraction The addition of water to the buckwheat fractions caused a distinct reduction of rutin content probably due to the attack of rutin degrading enzymes However, when hydrothermal treatments (steaming and autoclaving) were applied to buckwheat grains, the loss of rutin was dramatically minimized and quercetin was found in minimal amounts in both buckwheat flours and products It however appeared that drying heating or microwaving was not effective in preventing rutin loss Thus, these results showed that the health benefits of buckwheat based food products derived from their rutin content may be maintained by using appropriate processing treatments of buckwheat grains before milling This study can aid in giving the food industry more potential opportunities to produce new functional food products by preventing rutin loss during processing</t>
+          <t>Viscosity is an important property of hydrocolloids to characterize their rheological behaviors in various areas. Therefore, it is critical to control and accurately predict their viscosity for practical applications. Constitutive models have been traditionally used to describe the rheological behaviors of hydrocolloid solutions. However, there exist no universal constitutive models for a wider variety of hydrocolloids with different rheological features. Thus, as a novel alternative to constitutive models, there is a need to apply artificial intelligence (AI) models to describe and predict the rheological features of hydrocolloid solutions. In this study, the steady-shear viscosities of six food hydrocolloids (guar gum, konjac, locust bean gum, methylcellulose, sodium alginate, and xanthan gum) were experimentally measured at different concentrations (0.2, 0.4, and 0.6%, w/w) and temperatures (25, 35, 45, and 55℃) using a rheometer, and then fitted into constitutive (power law and cross models) and AI (random forest and multilayer perceptron (MLP)) models. Furthermore, the viscosity results predicted by the established AI models, were compared with the quality attributes of the corresponding meat analogue samples. All the hydrocolloid solutions showed shear-thinning behaviors by showing decreased viscosities as a function of shear rate. When the steady shear viscosities were subjected to rheological constitutive and AI models, the AI algorithms showed a better fitting performance (R2 = 0.94-1.00) than the constitutive equations (R2 = 0.75-0.99)). Also, when the MLP　model was applied to meat analogue samples after cooking, their textural properties seemed to be fairly correlated to the AI-predicted viscosities. Thus, this study may contribute to improving the quality attributes of meat analogues by providing possible ways to predict their rheological features.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[0.032494698, 0.013747781, 0.0913441, -0.004579364, 0.134226, -0.036777362, -0.03166678, -0.015275394, 0.032770414, 0.06265347, -0.0012396526, -0.043876026, -0.017539322, 0.071828716, -0.0491225, 0.035653025, 0.0063822344, 0.033969212, 0.05229177, 0.004678139, -0.035582345, -0.071336865, -0.05547339, 0.02206926, 0.051680166, -0.023066545, 0.01286259, 0.03912956, 0.014755022, 0.01241476, 0.042509254, -0.06039944, -0.0079038385, -0.012022884, 0.06649611, -0.029738799, -0.00021480839, -0.02648018, 0.090449184, -0.026723394, -0.072221525, -0.034285404, -0.009853622, 0.01669324, -0.015035865, -0.015580451, 0.010011775, -0.028290298, -0.070917405, -0.023272412, -0.029896451, 0.009830885, -0.016489418, 0.00030854394, 0.061054107, -0.012346081, -0.07874767, -0.021799427, 0.0011270145, 0.003871464, 0.0068070358, -0.04398026, -0.028521273, -0.06314178, -0.031822942, -0.040536612, 0.035173424, 0.035772096, 0.03404215, -0.012408843, -0.02668742, -0.021572275, 0.010817903, 0.001022685, -0.07209673, -0.04127172, 0.039719623, -0.018328741, -0.07216557, -0.04290859, -0.043691937, -0.06837009, 0.06045144, -0.09254207, -0.09005229, 0.075007975, -0.031269446, 0.044046704, -0.011584759, -0.001590004, -0.017152159, 0.0275481, 0.08404186, 0.007415696, 0.048986852, 0.02585665, 0.14042369, 0.074438, 0.053578835, 0.022784911, -0.04299504, 0.020776562, -0.03878874, 0.037697006, -0.03034178, 0.028491933, 0.0013433007, 0.019299634, 0.043187317, -0.025503509, -0.03162723, -0.06492118, 0.021742908, -0.03295602, 0.007446532, 0.08176452, 0.0029448222, 0.067981884, 0.019836115, 0.09337073, 0.062857494, 0.023205759, -0.013878708, 0.09852696, 0.0051238704, 0.008041217, 0.008349962, 0.0022122215, -0.0155230155, -0.061559025, -0.0017793621, 0.06469945, -0.022131892, 0.033461336, 0.007929956, 0.031051984, 0.048962384, 0.005120256, -0.010349868, -0.037799414, 0.0044173626, -0.01908692, -0.021357616, -0.09927842, -0.013675873, -0.026206607, -0.07707617, -0.052152835, 0.018277034, -0.02504276, -0.00455012, -0.039594136, 0.0014377515, -0.0058425195, 0.013699528, -0.08691857, 0.013478882, -0.05634337, -0.09358157, -0.049765166, -0.026392797, -0.043144964, 0.00022989791, 0.007992062, -0.029418945, -0.095136136, 0.064765014, 0.0097675435, 0.034959983, -0.037795547, -0.011052417, 0.018959016, 0.016299626, -0.084363006, 0.01454134, -0.032705877, 0.002499588, -0.079992734, 0.016192112, 0.001811091, -0.021477545, 0.03571874, 0.046846747, 0.018015204, 0.020019824, -0.05943888, 0.040276162, -0.0024463793, 0.07603458, -0.073321976, -0.060687903, 0.02742657, 0.037064783, -0.003022781, 0.019031443, 0.055210974, -0.024407119, -0.053009924, 0.06731977, -0.011702105, -0.01902706, 0.05854605, 0.06619559, -0.04014941, 0.060342878, 0.0046940004, -0.004452005, -0.0066088303, 0.02538492, 0.0025007308, -0.07375524, -0.015151597, -0.041526835, 0.007355303, 0.039269425, 0.0013539336, -0.031853728, 0.0038733033, 0.03028382, 0.016520267, 0.034657866, 0.031233726, -0.06426941, 0.050187737, -0.0751089, 0.023259066, 0.09063257, 0.0008996369, -0.017841358, 0.034043357, 0.029264288, -0.07419647, -0.04654819, 0.05268524, 0.0016829516, 0.020068524, 0.0036999981, 0.038267724, 0.014113765, 0.09156982, -0.026541777, -0.044552848, 0.0054968083, 0.021900488, 0.006422029, -0.0013481048, -0.015742319, -0.005585397, -0.05524997, -0.023904093, -0.040967252, 0.02738659, 0.047065787, -0.0675025, 0.029247856, 0.009237354, 0.040927183, 0.0008685596, -0.01653905, -0.057258964, 0.0045530368, 0.014187995, -0.0376639, -0.019597957, 0.026666066, 0.053651262, -0.0113993175, 0.012512578, 0.027749507, 0.026824156, -0.005926601, 0.046626385, 0.025470933, 0.06076429, -0.027168175, 0.029310903, 0.0038645442, -0.10506697, 0.015544756, -0.0144142555, -0.09294021, 0.009023408, 0.042862795, -0.06686703, -0.031341065, -0.027123863, -0.038070828, 0.010517888, -0.07850029, -0.1134767, 0.0027686923, -0.041429456, 0.009869767, -0.025160396, -0.08893335, 0.06544139, -0.035142675, 0.0955376, -0.036236603, -0.034119844, -0.024139669, 0.027440984, -0.039155204, 0.04826746, 0.015321096, -0.015019081, 0.0521348, 0.027696494, -0.018536504, 0.012077003, -0.044496473, 0.019156227, 0.011600714, 0.09104018, -0.007840469, 0.046804536, -0.022101037, 0.013740239, -0.05458792, -0.041619048, 0.028459009, 0.07684144, -0.05693935, 0.0039403182, -0.021317482, 0.039406344, -0.02871635, -0.037142742, -0.050517473, 0.034810424, 0.031876184, 0.037125092, -0.046036597, -0.02446209, -0.040411133, -0.0498505, 0.004413264, 0.011471466, -0.00989318, 0.0064859367, -0.037565242, 0.058350038, -0.025989644, 0.03268286, -0.031082079, 0.0022613206, 0.0219497, 0.018931003, -0.030351123, -0.019884622, 0.049271345, -0.0044373395, -0.024712572, -0.02277177, 0.047460653, 0.012994844, -0.052343164, -0.041412156, 0.046245452, -0.027185928, 0.0116685135, -0.037960056, 0.03311776, -0.007545561, 0.035552006, -0.005990804, -0.004244444, -0.03487658, -0.00060628337, -0.019399423, 0.02147118, 0.020044846, -0.009880949, 0.0148945255, 0.009451658, 0.005922999, -0.03677983, 0.0054119783, 0.05282474, 0.0024914953, -0.033306975, -0.01312328, 0.045225568, -0.10671107, -0.043569427, 0.0012487567, -0.06805353, 0.031164158, -0.013619562, -0.04477269, 0.0146715995, 0.1047459, -0.007842687, 0.03869693, -0.022284845, 0.06992878, -0.070363455, -0.016033031, -0.06104643, -0.05317793, 0.010149194, -0.005344356, -0.03855646, 0.011030134, 0.014328758, -0.0008133192, 0.026688907, 0.008275561, 0.019718276, -0.0352096, 0.019550204, 0.015020944, 0.04455111, 0.043185372, 0.023603857, -0.0059665404, 0.0045778253, 0.03690114, 0.04108199, 0.0063809315, 0.0003232162, 0.004206427, 0.00886942, 0.027982902, 0.0031438787, -0.020758947, 0.006825968, -0.07317175, 0.034190558, -0.028467491, -0.10006377, -0.117063366, -0.0030687961, -0.056781124, -0.0022611239, 0.018885562, 0.0037824342, 0.07512692, 0.028187316, -0.0066168667, 0.017744383, -0.05493632, -0.037268266, 0.03687425, -0.0076614167, -0.008519893, -0.005814169, 0.022522267, 0.014479761, -0.017723436, -0.061765566, 0.031238358, 0.031576555, 0.024361163, 0.050147608, -0.033610567, 0.0130076585, 0.02055857, 0.07046416, -0.050538436, -0.021966288, -0.014716833, 0.04519197, -0.0320221, -0.008162074, -0.06022149, -0.029292474, 0.032859914, 0.011438018, -0.02494121, -0.0119721815, 0.05813801, 0.05834266, 0.0069062444, 0.018873915, 0.035481155, 0.012792822, 0.00412823, 0.0010704777, -0.014200966, 0.033778206, -0.021594351, 0.06440463, 0.03143992, -0.02756467, 0.033732772, -0.009968594, -0.014817773, -0.015983634, 0.021834807, -0.048713107, -0.0025460818, -0.085999094, -0.052002363, 0.058108877, 0.0608855, -0.044221606, -0.021020634, 0.026336502, -0.007728276, 0.045793995, 0.027343154, -0.028425755, -0.04907333, -0.04376706, -0.054265548, 0.03084012, 0.0007780984, -0.08347561, 0.0061694626, 0.019868156, 0.015784916]</t>
+          <t>[0.03239492, 0.054200627, -0.06101495, -0.009333816, 0.09211449, -0.014015368, -0.022959875, -0.046756368, -0.015167884, 0.029897517, -0.052291866, 0.02681631, 0.075033665, -8.081412e-05, -0.019250933, 0.03539859, -0.0046814075, -0.00092746405, -0.044807415, -0.032166414, 0.04165317, -0.034167256, 0.018985858, 0.03292749, 0.029065402, 0.03015222, 0.10331812, 0.07719199, -0.13800815, -0.018172208, -0.016149724, -0.020692423, 0.0034909968, -0.028233983, -0.06789424, -0.02698291, -0.01001411, 0.039452024, -0.023310656, -0.03119925, -0.011953858, 0.012278487, -0.030570371, 0.09265771, 0.04024868, -0.02617393, 0.03198297, -0.023829045, -0.0061035044, 0.032411214, 0.015049029, -0.028404437, 0.01598291, 0.06402969, 0.02869982, -0.002887539, -0.09850174, -0.0647388, 0.0022898144, 0.024005612, -0.09728393, -0.08974211, -0.080093704, 0.013403906, -0.013637356, 0.031432617, 0.0032734948, 0.0040287715, 0.06624228, 0.00779095, -0.06465646, -0.02044859, -0.06255498, 0.038735177, -0.049069315, -0.003968895, -0.040346306, -0.052061267, 0.017645117, 0.020190246, -0.020302359, -0.034903117, 0.10170593, 0.03958534, -0.018108549, 0.041959763, -0.052147266, -0.046673004, -0.01696962, 0.041448932, -0.006353327, -0.023050208, 0.09455066, 0.02517366, 0.019218888, 0.0020550638, -0.037013274, 0.0055671255, 0.03379396, 0.059034683, -0.035976082, 0.0808633, -0.015807351, 0.04320421, 0.014903217, 0.0010776537, 0.0073820166, -0.0069756717, 0.048542913, -0.03335392, -0.0017848754, -0.07531983, -0.08081433, -0.022475973, 0.023589008, 0.046256687, 0.009993752, 0.013172073, -0.003219314, 0.03775832, 0.014876131, -0.010549684, -0.010328634, -0.003746629, -0.029528568, -0.030740941, -0.07680099, 0.05879244, -0.043952532, 0.019852873, -0.012695588, 0.038599093, 0.037558436, -0.021639148, -0.008291938, -0.0658916, -0.07051532, -0.0013738411, 0.03940386, 0.011896728, -0.01997017, -0.073022865, 0.061431985, -0.09636378, 0.10346413, 0.015593049, -0.025271859, -0.060757026, 0.034288075, 0.028348226, -0.018856468, 0.03349312, 0.017154416, -0.010952204, -0.0046205022, -0.043961924, -0.06446424, -0.013701011, 0.0116664395, 0.0070004445, 0.0017334452, -0.054207176, -0.014858408, 0.015147901, 0.014633552, -0.023022875, 0.051897936, 0.007673712, 0.012709214, -0.0025794317, 0.04571995, -0.018040087, 0.037795153, 0.0036651408, 0.0033639348, 0.035024606, -0.052051716, 0.01587167, 0.017582396, 0.0170401, -0.020875301, -0.034171302, 0.06024331, -0.05443662, 0.017941047, 0.0052228556, -0.00929226, 0.007873264, -0.06539691, -0.0070135198, -0.017731272, -0.06492213, 0.007965367, -0.010216699, 0.014097629, 0.032667853, 0.044835784, -0.021596728, 0.022678882, -0.0075785504, -0.030772204, 0.0222458, 0.08563002, 0.034052446, 0.014737666, 0.033287376, 0.015428846, 0.013055203, -0.007799207, 0.03152325, 0.0038737657, 0.11868389, -0.017011229, -0.023071429, 0.0462003, -0.026495896, 0.062290024, -0.0010157201, -0.019666666, 0.06228821, -0.05199676, 0.06887958, 0.05340674, 0.025448926, -0.006709221, 0.020095164, -0.04628831, -0.0114897415, -0.030618, -0.037395734, -0.002613952, -0.030417271, 0.014732224, 0.016934631, 0.04128612, 0.05058143, 0.0011040396, 0.051064055, 0.013875578, 0.09869922, -0.059408143, 0.01268554, -0.02590229, -0.059368994, 0.026628248, 0.02145142, -0.021311376, 0.0069735665, 0.0135551095, -0.045602135, 0.0061876085, -0.023576858, 0.05217296, -0.021949314, 0.021491637, -0.043501556, -0.006245785, 0.000956149, 0.034304205, -0.004596386, 0.0063902107, 0.018007249, 0.01589878, -0.07872808, -0.02621981, -0.018896718, 0.01408098, 0.03230453, -0.03555354, -0.039391752, 0.02124206, -0.00776584, 0.057020947, 0.0028339464, -0.024222855, -0.010650177, 0.008347788, 0.031760372, -0.0018902788, 0.044832487, -0.024363538, 0.0024298364, 0.06967103, 0.02126571, 0.03312161, -0.04905061, -0.008700414, -0.03150343, -0.045742493, -0.052114096, -0.012886498, -0.06560866, 0.0410938, -0.037189856, -0.015373252, 0.049999975, 0.01682783, -0.011317544, 0.035524976, -0.026067505, -0.017249951, -0.052424625, 0.024390716, 0.05218864, 0.004206721, -0.015108113, 0.006120127, -0.05866149, 0.022705913, 0.023488205, -0.044918574, -0.024399336, 0.05975052, 0.058728334, -0.012834988, 0.029226746, 0.03661409, 0.023324749, 0.0018287029, -0.031218454, 0.056983344, 0.03001829, -0.0068838326, -0.033817437, -0.033512227, -0.013196911, -0.026745735, 0.013283026, 0.00075959583, 0.055362806, 0.022239508, -0.024733666, -0.0046514627, -0.011469695, -0.0472628, 0.0002657259, -0.06612802, 0.020763723, 0.022286154, 0.014794822, -0.033069402, -0.10937927, 0.033586517, 0.01995367, 0.02652177, 0.0106350975, 0.01894577, 0.048135895, -0.029232314, -0.009308909, -0.040818624, 0.00220948, 0.007942263, -0.02587881, -0.06440321, 0.012140808, -0.0007212808, 0.074087664, 0.06888136, -0.04529044, 0.06248211, 0.02141709, -0.03719554, 0.10360647, -0.077219345, -0.06878351, -0.05144793, 0.01317426, -0.025295625, 0.008715408, 0.02320778, -0.00050818635, -0.009380591, -0.024358323, -0.07226505, -0.014690213, 0.043183148, 0.08298771, 0.029171236, 0.03130228, 0.0037691945, 0.00027757848, -0.044679925, 0.00782498, 0.009227672, 0.080306344, -0.06783754, 0.06292829, -0.052162405, -0.057970297, -0.021489596, 0.064385004, 0.04856023, 0.045045033, 0.06524138, -0.02854714, -0.07963502, -0.012230172, 0.06080641, 0.050107073, 0.017568788, 0.027016805, -0.01464852, -0.05418527, -0.04518835, 0.02398132, 0.019812016, -0.005545857, -0.08484616, 0.07495051, 0.049608648, 0.026096594, -0.0075158654, 0.039259527, 0.0016220198, 0.022516731, -0.000520777, -0.077305906, 0.028042888, -0.09189921, -0.028519506, 0.014663427, -0.059094112, -0.0028535638, -0.049215063, 0.029998047, -0.014676962, -0.047438078, 0.0144227985, -0.028233515, 0.029086573, -0.0012063709, 0.05314312, -0.034903996, -0.04153833, 0.044620197, 0.06787129, -0.01326315, 0.0034904026, 0.02390722, 0.015780523, -0.061983682, 0.03093065, 0.02796269, 0.04967969, -0.019556353, 0.02812902, -0.025302913, 0.0050613936, 0.023344377, -0.03814469, -0.031381365, 0.047086578, -0.018961947, -0.011718498, 0.024937376, -0.060752444, 0.021953389, 0.011214853, 0.030622026, -0.0014812049, 0.014669733, 0.0374235, 0.023577314, 0.0054309373, -0.021020344, 0.05593079, 0.065454155, -0.008589368, -0.055428077, -0.01492162, 0.02559328, -0.015331739, -0.010285883, -0.034896005, -0.07846158, -0.04904227, 0.004838051, 0.006092266, -0.045124587, 0.013020433, 0.015396035, 0.04736535, 0.016122058, 0.001769695, -0.01349187, 0.0018032889, -0.06036493, -0.006229797, -0.028197015, -0.047059305, 0.050876975, -0.04310297, 0.021569798, -0.02916608, -0.010001622, 0.033557076, 0.052686863, 0.03418201, -0.03640823, 0.047579605, -0.006899601, -0.020421099, 0.019574746, 0.0058900225, 0.037500553, -0.07794318, 0.013031755, -0.0036255359, 0.059470817, -0.026653567, -0.044679277]</t>
         </is>
       </c>
     </row>
@@ -2287,443 +2254,1602 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>권혁진</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>wheat flour; machine learning</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Machine-learning prediction models for rheological characteristics of fresh noodles from thermo-mechanical features of wheat flours</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Several scientific attempts have been made to correlate the physicochemical characteristics of wheat flours and the rheological properties of their corresponding end products However, most of the precedent studies focused on a single parameter or relied on simple statistical modeling for their correlations Furthermore applications of machine learning in the food processing field have been scarce compared to other industries Thus, in this study, a machine learning based approach incorporating multiple thermo mechanical properties of wheat flours was applied to forecast the rheological properties of noodles Fresh noodles were prepared with six different wheat cultivars and their blends Their extensional features (maximum resistance to extension and extensibility) were predicted based on the Mixolab thermo mechanical properties of the corresponding flour blends by constructing multilayer perceptron prediction models The performances of built models were evaluated and ameliorated under four different hyperparameter settings ( dropout rate, activation function, and the number of hidden layers) The thermo mechanical property of wheat flours did not solely manifest the extensional properties of the corresponding fresh noodles (R 2 0 6 The most influential sets of Mixolab features explaining noodle extensional behaviors turned out to be C 2 C 3 dough stability, and development time for R max and C 2 C 3 C 5 water absorption, dough stability, and development time for extensibility Machine learning models constructed with the optimized parameter sets displayed superb performances, compared to two statistical regression models (linear and quadratic polynomial regressions) after hyperparameter tuning Thus, it seemed that the machine learning incorporation coupled with appropriate hyperparameter settings could be used as a useful means to forecast the rheological properties of wheat flour based food products, possibly encouraging the food industry to efficiently control the quality attributes of products</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[0.037412334, -0.046578772, 0.029013576, -0.029435344, 0.062687166, 0.013447093, -0.02586098, 0.07400382, 0.010686801, 0.011860061, -0.05108566, -0.005859846, -0.015013546, -0.023589578, -0.019166524, 0.018199218, 0.031862207, 0.07926125, 0.0301163, -0.012077375, -0.068359524, -0.04883119, -0.03744636, 0.00870992, 0.13847725, 0.028285893, 0.010962951, -0.013376615, -0.0012810571, 0.00093060936, 0.04539523, -0.028186776, 0.040136937, -0.04845997, 0.014672018, -0.026008379, 0.012908768, 0.013944561, 0.078949414, -0.051713377, -0.06750464, -0.0041962718, -0.10742148, 0.007028475, -0.032069713, -0.062054373, 0.055474456, 0.013279375, -0.04914828, -0.03010321, 0.0048674806, -0.019723305, -0.020881396, 0.055004753, 0.024844145, 0.018511495, -0.10056391, 0.0315417, -0.025176736, 0.035512928, -0.09726353, -0.0039531616, -0.053148042, -0.05195835, -0.009221425, 0.029883908, 0.041757688, -0.014928202, -0.04543102, 0.001253511, 0.00954472, -0.044460874, -0.021573335, 0.011736873, -0.05035138, -0.039852306, -0.031290255, 0.033065427, -0.039161198, -0.014371713, -0.05583171, 0.01039833, 0.05452963, 0.0036907538, -0.057864368, 0.044446986, 0.034954302, 0.057194065, -0.0131619135, -0.055127855, 0.038593207, -0.029662043, 0.10787401, 0.027201334, 0.0033745042, 0.022713518, 0.07653165, 0.1000899, 0.0051508336, 0.00017607491, -0.049389344, 0.06897478, 0.029914726, -0.048105497, 0.06073995, -0.009355176, 0.021418445, 0.034127604, 0.063236445, 0.047523543, 0.011934748, -0.06592519, -0.040872965, -0.026720705, 0.021600712, 0.007078663, 0.039860386, 0.06321217, 0.016833477, 0.09106479, 0.041199755, -0.02563903, 0.0033108292, 0.11100872, 8.707552e-05, -0.06628261, 0.032097187, 0.046357006, -0.039724432, -0.06279384, 0.03946792, 0.035450406, 0.012070641, 0.006859399, -0.0021233703, -0.001842537, 0.010738032, -0.017589552, 0.0040360945, -0.02637642, 0.03112093, -0.0326052, 0.023473728, -0.08453896, 0.06379351, -0.024167035, -0.05980723, -0.037605688, -0.019705432, -0.022681005, 0.0108722625, -0.04614492, -0.004472799, -0.028457707, -0.04329673, -0.05872184, -0.061433226, 0.025188409, -0.058253143, 0.03620329, -0.0063614855, -0.047622275, -0.009271351, 0.06022123, 0.009291913, -0.033024352, 0.09438066, 0.03126228, 0.039060388, 0.097915314, 0.0012235682, -0.023621855, 0.043444984, 0.0077776746, 0.028659675, -0.036365446, 0.03921867, -0.08581175, 0.10732597, -0.027926147, 0.023148054, -0.098072164, 0.020681668, 0.008172964, -0.004346154, -0.06626009, -0.05138061, -0.031022165, -0.033082243, 0.060107384, -0.07928907, -0.007920777, 0.044932064, -0.012227942, 0.025799954, 0.029396186, 0.06388984, -0.010932586, 0.067232676, 0.071466416, 0.09216387, -0.0017064495, 0.03278823, -0.018899117, 0.045918707, 0.019958792, 0.010261047, 0.02410631, 0.05135593, 0.06433397, -0.01996665, -0.010240462, 0.010176275, -0.032931883, 0.060025174, -0.008501469, 0.06000767, -0.040009826, 0.043584716, 0.006250611, -0.0024135497, 0.030372215, 0.06534312, 0.056020238, -0.019904587, 0.003574491, 0.043004055, 0.02549965, -0.010863542, -0.010270765, -0.016418064, -0.093786344, -0.0042998404, -0.018070024, 0.006332547, -0.0072582625, -0.022586992, 0.013269812, 0.026279518, 0.08163841, -0.019588146, 0.07506152, 0.029583242, 0.07233112, 0.04225091, -0.062193964, -0.045365408, -0.05617037, -0.0413152, -0.011617917, -0.059704583, 0.030653626, -0.020367252, -0.07188323, 0.012178991, 0.07352764, 0.00912147, -0.038145285, -0.035159968, -0.0016878119, 0.005970018, -0.05170906, -0.0016406788, -0.0055633658, 0.011020737, -0.0138144465, -0.028329048, 0.010558542, 0.05978533, 0.035856597, 0.0067431657, -0.0009476218, 0.030996073, 0.04307945, -0.024862112, 0.05768535, -0.009496864, -0.0334953, -0.012075807, 0.04659745, -0.0847821, -0.04625899, 0.046801794, -0.104549825, 0.0070514153, -0.066698216, -0.081332035, -0.008874844, -0.0387347, -0.010106443, 0.015629029, -0.035516087, 0.07475159, 0.025853787, -0.028572235, 0.020871732, -0.10668917, 0.03277275, -0.01815611, -0.02847852, 0.058534916, 0.005830384, 0.008684995, 0.06081042, 0.011603958, -0.025908247, -0.028936606, 0.00018565799, 0.021427283, 0.028935889, -0.011065243, -0.017734276, -0.0020057277, 0.08445893, -0.04623645, 0.059015863, 0.012098402, -0.04705685, -0.0060455576, -0.09169598, -0.0014551083, 0.064412534, -0.017374873, -0.002964947, -0.036286745, 0.07991825, -0.05698468, 0.012284047, -0.016668051, 0.060101613, -0.02188979, 0.002447025, -0.013301458, 0.011524057, -0.025401568, 0.016563715, -0.022535777, -0.027975019, -0.020187415, 0.03621249, -0.05557803, 0.0267855, 0.02590846, 0.03216788, -0.004305816, 0.06303875, 0.05332733, -0.047241326, -0.026605682, -0.018815175, -0.061242066, -0.025752757, 0.00034171762, 0.031056182, -0.022284526, 0.0012895383, -0.030167077, -0.06065141, 0.020448018, -0.0019049898, -0.034458898, -0.05943955, 0.0034950946, -0.0515881, -0.030957194, -0.025528751, -0.035659708, 0.05690226, -0.036111165, 0.0058023874, 0.045576006, 0.016224513, 0.004563721, 0.041381154, -0.019984158, -0.015440529, 0.029253773, 0.06450773, 0.01655178, 0.025916232, -0.010412034, 0.01160578, -0.03224951, -0.08758009, 0.022799727, -0.02367024, -0.05417579, 0.049981482, -0.06291774, -0.06542261, -0.050968047, 0.11581347, -0.004558583, 0.03663779, -0.03328534, -0.0025688866, -0.077300705, 0.04544359, 0.0324169, 0.050992936, 0.0014549185, -0.04640205, -0.02997566, -0.0101284655, -0.012423137, -0.04084402, -0.03221221, 0.016448833, -0.090989366, -0.050393514, -0.017478146, 0.08070993, 0.047069643, 0.087947786, -0.012340063, 0.031877924, 0.020711461, 0.006266349, 0.049913, -0.05708053, -0.007576253, 0.054115914, -0.019616859, 0.004661303, -0.045203738, -0.08397266, 0.0021959448, -0.06420144, 0.01793231, -0.044893075, -0.03218529, -0.12903368, -0.0034504293, -0.09843952, -0.07397224, -0.0065974146, -0.017708525, 0.012652985, 0.041110773, 0.034893125, 0.018399846, -0.024350187, -0.06261356, -0.016798273, -0.024228953, -0.0044935537, -0.003674416, 0.06777608, -0.03823638, -0.008346321, -0.080883525, -0.02828212, -0.0032668612, 0.06926211, -0.0037577061, 0.004492396, 0.009520792, -0.01752581, -0.0011249913, 0.016202366, -0.01359822, -0.04306491, 0.07986006, -0.051341616, -0.0026281232, -0.07727854, 0.003510709, 0.040559173, -0.060721397, 0.03943722, 0.0863513, 0.020721437, 0.009316256, -0.05287381, -0.0058218725, -0.0752569, -0.030717209, -0.04790348, -0.010134029, -0.021627093, -0.033818487, -0.035605483, 0.08235059, 0.06332725, 0.03301018, 0.03659409, 0.032369856, -0.0077153686, 0.012797913, 0.018044049, -0.12986234, 0.012028416, -0.054437812, -0.0017578877, 0.0026398879, 0.049998607, -0.038886774, -0.014699087, -0.041251887, -0.05041013, 0.033065636, -0.008272116, 0.0021632644, 0.019940792, -0.0017354122, 0.006134763, 0.019670978, -0.058923066, -0.14977227, 0.07405548, -0.0405783, -0.009881855]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>양근혁</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>gluten-free; noodle; protein; 넻</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Studies on the processing performance of rice flour and soy protein concentrate composites for high protein extruded noodles</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A gluten-free diet can meet the needs of celiac patients as well as health-conscious consumers. With this trend, the demands of gluten-free food products have been rapidly increasing but there are limited efforts to enhance the nutritional functionalities of gluten-free products by protein fortification. Thus, in this study, rice flour and soy protein concentrate (RF-SPC) composites were prepared by blending rice flour with SPC at different blending ratios. The composites were incorporated into the formulation of glutenfree extruded noodles for protein fortification, and their processing performances were investigated from a rheological and structural point of view. The composites with high levels of SPC showed lower values of pasting and dynamic viscoelastic parameters. These results could be probably due to the reduced fraction of starch granules that were confirmed by the lower values of gelatinization enthalpy in the DSC measurement. When the RF-SPC composites were incorporated into the formulation of extruded noodles, a harder texture was observed with increasing levels of SPC and seemed to be related to the lowered cooking loss values. In the case of water dynamics, two components with different mobility were identified in the cooked noodles. While T2a and T2b relaxation times were increased by the use of SPC, the noodles with high levels of SPC had an elevated proportion of T2a. Furthermore, the FTIR spectra demonstrated that more starch components in the RFSPC noodles seemed to be leached into the cooking water than proteins. As the demands of high protein and gluten-free foods have been rapidly growing in the global food market, the results obtained from this study may provide fundamental insights into the processing performance of protein-rich ingredients in gluten-free extruded noodles, probably promoting the development of a wider variety of protein-fortified gluten-free products.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[-0.030000113, 0.021204276, 0.038737886, 0.039532986, 0.099483855, -0.028346917, -0.060553856, -0.011026875, 0.048226014, 0.056076765, -0.047832534, -0.1032721, -0.054633766, 0.07014656, 0.024647178, 0.032259464, -0.07356111, 0.04741732, 0.06171331, 0.020621892, 0.0046507833, 0.01002688, -0.05592641, 0.011604008, -0.010589407, 0.016061619, 0.004984912, -0.07807131, 0.07165669, -0.0114555145, 0.03547864, -0.05905155, -0.022756824, -0.013733861, 0.0069008875, -0.0007118598, 0.045551684, 0.06342252, 0.038546056, -0.013337602, -0.027388051, 0.030305263, -0.0030395675, -0.054460645, -0.013347923, -0.012241253, -0.07299846, -0.051457554, -0.046719592, 0.012940433, -0.019846937, -0.004499927, 0.0165584, 0.035726715, 0.020547898, 0.0015621649, -0.031411503, -0.01147054, -0.0072789667, -0.022064513, 0.020831404, -0.010064236, -0.020704227, 0.0021658964, 0.0031266958, 0.030181432, 0.038207483, 0.0035168196, -0.032110736, 0.010663969, -0.026876349, -0.010876067, 0.08755805, -0.022027427, -0.07194722, -0.10964444, 0.00783132, -0.012271655, -0.049012244, 0.036085, 0.00047203337, -0.008138561, 0.02480842, -0.019732382, -0.05803279, 0.069319494, -0.06334496, 0.066333905, 0.03756013, -0.009613288, 0.029610852, 0.006037512, 0.124839425, 0.0740442, 0.03629135, 0.041340336, 0.04938487, 0.07859569, 0.042909764, 0.022598203, -0.027835244, -0.024080815, -0.035061505, -0.012177035, 0.016095964, -0.0044277227, 0.06687311, -0.05245411, 0.015732648, 0.013595044, -0.059447937, -0.04086955, 0.03665897, -0.04376438, -0.0035940981, 0.09658957, -0.052278552, 0.042090926, 0.0011190879, 0.069223925, 0.01765679, 0.026699468, -0.012302265, 0.06417164, 0.026762798, 0.011029796, 0.06565776, 0.0072130375, -0.037105765, -0.06447006, 0.044061393, 0.047264535, 0.013587273, 0.06403395, -0.03751432, -0.027193503, -0.041052215, -0.012606855, 0.025324093, -0.0013553418, 0.027388712, -0.015162503, 0.054911952, -0.062244967, -0.020298006, 0.05636312, -0.0323856, 0.002760288, -0.06498973, 0.06193368, -0.0015405515, 0.0026636657, 0.02890469, -0.0037292847, -0.056836165, -0.029841239, -0.013156887, -0.019296486, 0.0035341794, -0.019200688, -0.057344425, 0.024276434, -0.0050184056, 0.03581494, -0.03652147, -0.003042555, 0.056098066, -0.038222723, -0.027958643, -0.061993778, -0.00983636, -0.0112183215, 0.026328437, -0.02244815, -0.039540146, -0.024521386, 0.020059153, -0.03578152, 0.06821969, -0.02977767, 0.05404319, -0.04329724, -0.04170559, -0.031318486, 0.008814474, -0.049579743, 0.06673682, -0.0075373068, 0.050213113, 0.06518804, -0.14102265, 0.083110735, 0.03861368, -0.035756726, 0.0060004103, 0.0016847476, 0.015394758, -0.052582238, 0.038046785, 0.033070862, 0.04439373, 0.023577854, 0.008400342, -0.059956044, 0.09668809, 0.03276503, 0.019705277, 0.036184613, 0.0024775525, 0.04764896, -0.084897265, -0.021932898, 0.0009707829, 0.047911458, 0.017791392, 0.019524138, -0.03286588, 0.023600036, -0.024178883, -0.03714072, 0.07044605, 0.057067387, -0.06630398, 0.040090755, -0.062359925, 0.03405628, 0.010233785, -0.0044955513, -0.027078811, -0.019545814, 0.0015306247, -0.021888815, -0.038359802, 0.006344492, 0.030764204, 0.03304211, -0.051127132, 0.024124317, 0.0512908, 0.067296565, -0.02700819, -0.027839648, 0.029063432, 0.060627148, -0.019661222, -0.052308574, -0.028693005, -0.06831062, -0.07663075, -0.025497625, -0.07256291, 0.03626795, 0.034991246, -0.01608009, 0.011409419, 0.03311318, -0.010988158, -0.08361941, -0.037114955, -0.005495818, 0.023646573, -0.008552123, -0.04161038, -0.021786796, -0.026746644, 0.065173075, 0.017841438, 0.03082146, -0.014387859, -0.046022724, 0.011454508, 0.03250759, 0.022537692, 0.020819658, -0.016289888, 0.011477681, 0.018606102, -0.0889676, -0.029145999, -0.045448903, -0.039812665, -0.0015287707, 0.03229328, -0.014688284, -0.0038453916, -0.029957335, -0.061704267, 0.018305141, -0.012890203, -0.095880374, -0.012912766, -0.011819474, 0.0068987943, 0.0044090785, -0.051866632, 0.05843156, -0.025746465, 0.061545197, -0.04294217, -0.010267658, -0.012048585, -0.039677702, -0.03340747, 0.038341016, -0.02093295, 0.008247456, -0.027983889, -0.06855671, 0.004376442, 0.001210566, 0.013064757, -0.030791305, -0.0055036168, 0.048672672, -0.051123153, 0.018886082, -0.028127499, -0.014275653, -0.038728137, -0.10634084, -0.031606305, 0.033453483, -0.022439886, 0.004620278, -0.04276387, 0.056940317, 0.0103966575, -0.01731506, -0.0455006, 0.0018074897, 0.043921247, -0.0028835777, -0.045309633, -0.029510614, -0.02553184, -0.051694315, 0.005923539, -0.012314703, 0.024015673, 0.054916352, -0.028837249, -0.075432196, 0.06494323, 0.013220308, -0.057425532, 0.02967185, 0.018274715, 0.03348818, -0.06853084, -0.037908137, 0.008281476, 0.005200404, -0.01647298, -0.063058876, 0.044413142, 0.022346757, -0.00756312, -0.07872292, -0.04236002, -0.017494122, 0.07897269, -0.03671794, 0.053787462, -0.041165255, 0.036732316, -0.07030742, -0.098247446, -0.04837777, 0.05940563, 0.05005098, 0.0783101, 0.057932287, -0.038357545, 0.0121209845, -0.052674443, 0.020499442, -0.020930907, 0.019909104, 0.018075341, -0.023601064, 0.014145666, -0.06520631, 0.024274627, -0.06842936, -0.06400685, 0.0002584823, -0.073365554, 0.07791347, -0.08369535, -0.037280366, 0.10126398, 0.054879542, -0.006148593, -0.01799178, -0.048748612, 0.022436513, -0.050703757, -0.017945379, -0.031176269, -0.0011454353, 0.008314897, -0.08244832, -0.014832551, 0.0090566175, -0.029170606, -0.0016427845, -0.08802908, -0.0144055765, 0.015901018, -0.09376685, 0.024494978, 0.009353045, -0.0022411374, 0.027864443, 0.06690736, 0.012154978, -0.048367217, 0.003594407, 0.01585673, -0.056218367, -0.045586694, 0.034817263, 0.0063678757, 0.03480146, -0.0340371, -0.049902517, -0.016406763, -0.060001206, -0.0023890408, -0.04395163, -0.035759393, -0.019907946, -0.043882564, -0.06210177, -0.0007954457, 0.012195151, 0.049713124, 0.0025485116, 0.034564104, -0.0068373242, -0.044547897, -0.041526593, -0.059828855, 0.033732176, -0.047843684, -0.03027083, 0.030164985, 0.060557783, -0.012925569, -0.055685185, -0.04072674, -0.032089815, 0.008183207, 0.07173501, -0.012891385, -0.0634226, 0.041159444, 0.032856558, 0.041492682, -0.09363812, -0.013125385, 0.015900481, 0.05773122, -0.017437283, 0.025568541, -0.015929343, -0.09434773, 0.06480409, 0.053279743, -0.04479239, 0.038721006, 0.049224712, 0.028569778, -0.008972848, 0.008763292, 0.0076325163, 0.028395081, -0.027822006, -0.016048681, -0.045407698, 0.013741653, -0.09640916, 0.061378438, 0.031928986, 0.0077703735, -0.032563537, -0.0011710235, 0.010753127, -0.033980146, -0.04179863, -0.040413607, 0.016121155, -3.5767443e-05, -0.040100448, 0.070893265, 0.06397382, 0.02901505, -0.03459512, 0.053074513, -0.0007968739, 0.033107974, -0.039429933, -0.013399574, -0.033460047, 0.03205927, -0.010297588, -0.018532788, -0.017092157, -0.08642019, -0.0008040013, -0.010782639, 0.0054277414]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Effect of rice blending on the processing and quality attributes of gluten-free noodles slit from sheeted dough</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Recently, the global market of HMR (Home Meal Replacement) foods is rapidly growing due to the increasing demands for convenient foods in the COVID-19 pandemic situation. In particular, as the demands for gluten-free food products increases, the processed foods made from rice have been receiving a lot of attention. However, the application of blending technique in rice processing is still in its infancy compared to wheat. In this study, 3 rice varieties (Mirchal, Geumgang1, and Saemimyeon) with different amylose contents were selected from 8 different rice varieties based on the physicochemical properties of the noodles slit from sheeted doughs. Then, their blending effects on noodle quality attributes were investigated in terms of texture, cooking, and sensory features. In the texture measurement, the blends with Mirchal provided an extensible and soft texture to the noodles, whereas the blends with Geumgang1 or Saemimyeon gave a harder texture. In the case of cooking properties, Saemimyeon in the rice blends contributed to reducing the cooking loss and turbidity of the noodles. In addition, the Mirchal and Saemimyeon showed higher and lower water absorption, respectively, which might be derived from the difference in amylose content. Finally, the noodle with Mirchal and Geumgang1 blend was the most acceptable in sensory evaluation. Hence, this study presented the noodle-making information of 8 different rice varieties from which the 3 rice varieties were selected as the candidates suitable for manufacturing the noodles slit from sheeted dough. These results can provide a promising opportunity for the food industry to apply rice blending technology for manufacturing gluten-free sheeted noodle.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-0.0006189754, 0.048239425, 0.020984787, -0.022102138, 0.08712189, -0.01668824, 0.0007982022, -0.056629833, 0.054258168, 0.028647728, -0.068780735, -0.03484324, -0.009533489, 0.05285941, 0.0035716952, 0.046705086, -0.056872953, 0.027887085, 0.056863137, 0.020814382, -0.032121897, -0.0064324853, -0.072221905, 0.05135794, 0.08158799, 0.007380714, 0.007293146, -0.04553736, 0.009798435, -0.03613761, 0.055803027, -0.025437979, 0.011312103, -0.057120696, 0.02913707, -0.024584748, -0.0069924095, 0.059492834, 0.07608034, -0.0046883095, 0.015655078, 0.06294799, -0.04171161, -0.04160286, 0.009343237, 0.016826484, -0.040552035, -0.018377088, -0.071156725, 0.0017301055, 0.011090394, -0.009900947, 0.016382536, -0.00976633, 0.07133364, -0.056044336, -0.03356669, -0.008219363, -0.005299125, -0.055941343, -0.0010296161, -0.088532805, -0.09044523, -0.033669196, -0.045594927, -0.023114422, 0.059195243, -0.042445865, 0.0015965761, 0.020481018, -0.0063281185, 0.0056710406, 0.06879294, -0.0046002166, -0.07051856, -0.080607094, -0.008367771, 0.00030289846, -0.09230069, -0.022047639, 0.00630435, -0.030676851, 0.023717232, -0.023194263, -0.037824243, 0.03204008, -0.03341583, 0.05160162, -0.0054887626, 0.041121263, -0.03485275, -0.010395989, 0.096244454, 0.04623217, 0.041429516, 0.021815931, 0.08869183, 0.03885232, 0.03863862, -0.007123772, 0.0034792563, -0.0023430814, -0.05191626, 0.008422856, 0.0031425296, 0.017702144, -0.012297206, -0.017514873, 0.043085393, 0.054683067, 0.032196715, -0.039713986, -0.022940261, -0.02590223, 0.032486126, 0.055409905, 0.009085905, 0.008065736, -0.0091256555, 0.06329244, 0.029812306, -0.029499501, -0.0230579, 0.041103184, 0.011371881, 0.04273226, 0.0424306, -0.03666704, -0.024554571, -0.056517035, 0.038853683, 0.023770358, 0.019091865, 0.08956856, -0.02174223, 0.009586418, 0.009457304, -0.00040447662, 0.040521886, 0.0062634787, 0.023075825, -0.028240576, -0.020500118, -0.04496864, -0.009257638, -0.0009034155, -0.08440895, -0.024557536, 0.057775553, 0.009996422, 0.017797526, -0.022094503, 0.00092294643, -0.04742229, -0.012660766, -0.052274268, -0.021387456, -0.018628445, -0.055709105, -0.00418827, -0.066234834, -0.024277702, 0.0063366806, 0.07151397, 0.016452715, -0.03418432, 0.05647731, 0.004091563, 0.0017329598, 0.06268747, 0.007941227, -0.0187033, 0.05429125, -0.030183852, -0.053384315, -0.03447047, 0.032210175, -0.027266247, 0.09360311, -0.051931553, 0.0003685888, -0.06419234, 0.029171351, -0.010281692, -0.010177213, -0.04367951, 0.03637044, -0.020326173, 0.059216607, 0.04699418, -0.12554051, -0.016835446, 0.019082189, 0.042968366, -0.00891972, -0.014551562, 0.0022295394, -0.031279422, 0.06927218, 0.016590063, 0.061228238, 0.0705664, 0.07309528, -0.04945463, 0.07189475, 0.04849339, 0.004944518, 0.016245041, 0.004318112, 0.01778075, -0.048515234, -0.023914723, -0.0005824761, 0.004397878, 0.06794471, -0.013614167, -0.02090124, 0.000878528, -0.0031145497, 0.00601525, 0.106785156, -0.013320092, -0.03620798, 0.019176718, -0.0063469154, 0.025890296, 0.060846623, 0.037263513, 0.06260757, -0.026621012, 0.015473317, -0.006821792, -0.03946241, -0.07589326, -0.020294234, 0.023394361, -0.017483326, 0.035660576, 0.062233858, 0.06492036, -0.042927887, -0.0014824996, -0.04045418, 0.047832105, -0.04063812, -0.09386154, -0.0035308185, 0.0009930397, -0.049579926, -0.0009508293, -0.008338764, 0.043852016, 0.05343608, -0.055695873, -0.029334908, 0.044883735, -0.014705386, -0.10469784, -0.023582947, 0.016441567, 0.039053056, -0.039327685, -0.0064207143, 0.03164784, 0.0229589, 0.037451588, 0.020829508, 0.08912531, -0.063563935, -0.0055155973, 0.06538751, 0.022937957, 0.022163937, 0.005060662, -0.022402484, 0.0037747335, -0.041308843, -0.122115985, 0.011335011, 0.008278862, 0.029749777, 0.031225206, 0.031648137, -0.0358133, 0.03825824, -0.013760541, -0.034016915, 0.01406109, -0.04176755, -0.05477356, -0.016069096, -0.032117225, 0.056575593, -0.047225453, -0.060888648, 0.04422989, -0.038676124, 0.075230286, -0.057183433, -0.014387167, -0.02335285, -0.0051478706, 0.019210942, 0.0404026, -0.037390053, -0.07557886, -0.07505067, -0.04706833, 0.0058633406, 0.02574607, -0.018271215, -0.025248121, 0.008953188, 0.061857138, -0.047289573, 0.019250281, -0.020851295, -0.021553563, -0.04329582, -0.062031742, -0.02387202, 0.042930845, -0.029838583, -0.016845759, -0.038357005, 0.084413104, 0.01792994, -0.03162744, -0.038058285, 0.0044892263, 0.012686497, 0.003006036, 0.017445074, 0.0029337555, -0.03588089, -0.05501516, 0.039180227, -0.029411728, 0.005559837, 0.000705595, -0.03555242, -0.06732872, 0.041832298, -0.0055475123, -0.07483177, 0.019347655, 0.061599243, 0.05927101, -0.07568322, -0.020321883, 0.073099606, -0.008886532, 0.044571005, -0.07182724, 0.041818105, -0.019738873, -0.06238978, -0.06553827, 0.04752638, -0.00934412, 0.07635436, 0.021151725, 0.009340117, -0.039826468, 0.0034561944, -0.020733163, -0.05826891, -0.038262308, 0.028273188, -0.034008183, 0.006297149, 0.028562106, -0.08233313, 0.028994462, 0.017904108, -0.011345333, -0.023688886, 0.067313865, 0.06348665, 0.007215872, 0.020775784, -0.044343565, 0.029036501, -0.09703011, -0.08608247, 0.0071519595, -0.09113307, 0.07971712, -0.025468335, -0.037049405, 0.09298749, 0.056576557, 0.0009017817, -0.02155364, -0.030980198, -0.0070759724, -0.00919064, -0.051109932, -0.04690838, -0.005293515, -0.0059103156, -0.033775028, -0.040771913, -0.027191486, -0.030494427, -0.016059475, 0.0037870342, -0.057099756, -0.012540938, -0.03535164, 0.0182059, 0.028243873, 0.05069565, 0.031260636, -0.00066894, -0.015774641, 0.0082617765, -0.016572274, 0.0073579773, 0.017741885, -0.070680074, 0.009442753, -0.05454437, 0.06287055, -0.01931732, -0.034907937, 0.0010900102, -0.016523045, 0.0013170677, 0.017749172, -0.036443133, -0.044754256, -0.017888496, -0.029251825, -0.017682154, 0.04541029, -0.017188696, -0.025151646, 0.07248195, 0.020149665, -0.024240345, -0.05119543, -0.08395352, 0.0010752869, -0.009492692, 0.04303813, 0.026105652, 0.08300368, 0.008357842, -0.040023975, 0.028738078, -0.063709095, -0.010599329, 0.064776786, 0.032189094, -0.008488707, 0.0057349284, 0.019900672, -0.014617418, -0.067306146, -0.02503361, 0.008994279, 0.11301928, -0.07332705, 0.045837708, 0.00400376, -0.12926659, 0.013942153, 0.06538379, 0.0024947384, -0.038186956, 0.039585836, 0.07773712, 0.015169482, -0.012625811, -0.020555519, 0.043232057, -0.016142532, -0.018550508, -0.0016600718, 0.0030514083, -0.011209365, 0.0718678, 0.049290683, 0.00067496777, -0.005950597, 0.022093326, 0.063574016, 0.034153756, 0.010017315, -0.07651296, 0.0077623078, -0.01730552, -0.053953156, 0.07146578, 0.005635565, 0.016526878, -0.06063981, 0.025568083, -0.0015233837, 0.051919855, -0.03357113, -0.0075924387, 0.001332451, -0.010413671, -0.03796769, 0.03672009, 0.014292876, -0.15451136, -0.023867445, -0.039231725, 0.06880677]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>이다연</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rheological investigation of methylcellulose in a soy protein based system</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Methylcellulose, one of the hydrocolloids popularly used in the food industry, has a unique property of forming a gel upon heating and returning to a solution state upon cooling So, it has been widely used as a primary binder in the segment of alternative meats However, there is a lack of fundamental information on the processing performance of methylcellulose in a soy protein based food system In this study, the rheological interactions between methylcellulose and soy protein concentrate were characterized in terms of shear rate viscosity and viscoelasticity During the heating and cooling cycle, the viscosity of methylcellulose showed an increasing viscosity during heating Also, when the methycellulose was blended with soy protein concentrate, the synergistic effects were observed by affecting their rheological patterns Their flow behaviors were well characterized by the power law model, showing n values between 0 and 1 (shear thinning behaviors) Also, both storage modulus ( and loss modulus ( showed a tendency to increase with increasing level of frequency Thus, this study may contribute to improving the quality attributes of alternative meats by providing their rheological characteristics</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[-0.0046675685, -0.00813304, -0.017418552, 0.024191573, 0.09391321, 0.030036671, -0.023172518, -0.0639765, 0.013115257, 0.02959828, -0.10505883, -0.0643976, -0.043192677, 0.007273869, -0.048173223, 0.046039853, 0.012981609, 0.08000267, 0.002402932, 0.016047357, -0.010479824, 0.008282118, -0.037839368, 0.027368063, 0.102024615, -0.006757324, 0.04020234, 0.00885466, -0.06376105, -0.04669491, 0.04286656, -0.03410272, -0.03443322, 0.04972066, -0.088678844, -0.033929933, 0.042859577, 0.056804724, 0.007858487, 0.013176094, -0.024313815, -0.013659552, 0.026217956, 0.049638167, -0.05879841, -0.019907443, 0.06457785, -0.004288258, -0.003380994, -0.010055881, 0.038147207, -0.040896874, 0.0143476995, 0.011866234, 0.019423898, -0.0034124341, -0.047145046, -0.055536833, -0.053305525, -0.025868667, -0.023946015, 0.043064695, -0.07905096, 0.0019695386, -0.046932485, -0.008654818, -0.054208837, -7.048482e-06, -0.02122617, -0.040988516, -0.0456398, 0.010220104, -0.029072998, 0.007503565, -0.08927995, -0.0007737361, -0.03356122, -0.04898081, -0.07086666, 0.008688438, 0.0035071722, -0.0073839817, 0.071606755, -0.039329574, -0.018608099, 0.032471113, 0.045316298, -0.011426567, 0.015297954, -0.047202755, 0.048161574, 0.017803336, 0.10137689, -0.009998548, -0.013116805, 0.01825556, 0.05182313, 0.12575907, 0.025880542, 0.02819344, -0.02168586, 0.06598701, -0.08383843, -0.017404094, 0.048520766, 0.016146732, 0.0407424, 0.018325534, 0.06019146, 0.032532714, -0.030279538, -0.0650373, 0.011719948, 0.010992631, -0.04143967, 0.02204665, -0.02606339, 0.026039878, 0.029798, 0.051743086, 0.020703215, -0.035972606, 0.017554095, -0.02155014, 0.026521323, 0.026280176, 0.049832836, 0.006124453, -0.03673392, -0.055184335, 0.010715118, 0.015719546, -0.053515196, 0.015404107, -0.037022408, -0.021481076, 0.008562424, 0.008388884, 0.09886825, -0.07534626, 0.0013522244, -0.023684306, -0.0026801024, -0.05361288, 0.015430179, 0.039991166, -0.029158529, -0.026235353, -0.016246893, 0.021643227, -0.0022936082, 0.023431057, -0.014255996, 0.042174798, -0.019766282, -0.10849153, -0.077994354, 0.026720895, 0.0538767, -0.017955564, -0.01463178, 0.026567321, -0.028954942, 0.037447874, 0.030964581, -0.041884188, 0.04057824, -0.022219632, -0.0123888375, 0.002676823, -0.03836101, -0.039985806, 0.04134163, -0.033790685, -0.059652697, 0.01704046, -0.010363282, 0.0072825546, -0.04342847, -0.022193165, 0.08314515, 0.02510608, 0.019963995, -0.019011745, 0.010104156, 0.052442856, -0.0037517508, -0.048430685, 0.008785231, -0.03945996, -0.05581026, -0.064941965, 0.00653255, -0.04685925, -0.015563046, 0.047208387, -0.042988732, -0.051726278, 0.020106839, -0.0072864415, -0.045756716, -0.017766032, 0.056879267, -0.016677322, 0.057286594, -0.07331874, 0.030367855, -0.010296507, 0.052722353, 0.028739516, -0.017652415, 0.013462425, -0.037754368, -0.03744831, 0.08152394, -0.0060461266, -0.012334771, -0.05091139, 0.024415864, -0.012651936, -0.08661971, 0.023763774, 0.011016425, 0.032745615, -0.01915579, 0.012592147, 0.008549828, -0.09919695, -0.07680297, -0.024310032, 0.024940288, -0.04553787, -0.017502185, 0.011486196, 0.019108493, 0.037679315, -0.040836986, 0.0026543865, 0.04980627, 0.07139273, 0.016587824, 0.009396463, 0.015332339, 0.018803366, 0.042027514, 0.042149182, -0.023207037, -0.039370734, -0.035477493, -0.028627595, -0.082202, -0.023435766, -0.03140908, -0.0136526935, 0.009396631, 0.016327782, 0.009886986, 0.06158952, -0.05017389, 0.013568316, -0.011890209, 0.05067363, -0.005000621, -0.049452525, 0.011187851, 0.0044120303, -0.030498937, 0.12166248, 0.022673808, -0.035904832, -0.038516175, 0.01551236, 0.10518595, 0.042349897, -0.08724685, -0.08734373, 0.025963156, -0.03324716, -0.018983845, 0.0023494547, -0.041122183, -0.06271017, -0.0012529229, -0.015754715, -0.07756899, -0.049560934, -0.015650067, -0.008532501, -0.07232589, -0.059905816, 0.009486267, -0.08887367, 0.034622528, 0.01638899, -0.049142823, 0.050504994, -0.021696215, -0.0027444016, -0.01523842, -0.05403845, -0.055875923, -0.040879462, 0.049646147, 0.03971238, -0.003509386, 0.033062004, -0.0064424966, -0.03490039, -0.07069652, 0.11288908, -0.06188026, 0.015278204, 0.03731507, 0.044784185, 0.016559578, 0.033232816, 0.046750996, -0.025745299, -0.04981856, 0.018230153, 0.012220903, 0.06424298, -0.075000666, -0.019406624, -0.05677468, -0.02367167, -0.025710678, 0.0045917537, -0.00056691695, 0.026493542, 0.0023602766, -0.026275566, 0.002626825, -0.042102575, -0.035839714, 0.038036857, 0.004445328, -0.033130694, -0.02608791, 0.02419436, -0.096893325, -0.017841212, -0.0009804395, 0.059437454, -0.082286984, 0.124178536, 0.08287257, 0.11036648, 0.00201031, 0.026258882, 0.0071113203, -0.023578899, -0.010711036, 0.005399719, -0.053013578, -0.036864165, 0.014464794, -0.074243434, 0.0094496785, 0.013368396, 0.052503824, -0.014249396, 0.08573755, -0.043005474, -0.017540753, -0.09322574, -0.07253103, 0.007639116, -0.009701196, -0.028787125, 0.03313839, 0.0012514738, -0.023108397, -0.003420151, -0.01990605, -0.0017852061, 0.03875281, 0.020337, 0.025063235, -0.043237858, -0.009152418, 0.022259826, -0.01863281, -0.052081257, 0.012824283, -0.0024219062, -0.097154975, 0.077890895, -0.030852057, -0.011549786, 0.027845409, 0.0507494, 0.06684512, 0.022084007, 0.008257205, -0.022994105, 0.00899507, -0.025137683, 0.046466842, -0.004318769, 0.015087311, -0.01836561, -0.008154057, -0.035118163, -0.031649638, 0.067787796, -0.018282522, -0.054253243, 0.014582514, 0.04845712, 0.014330824, -0.0076726316, 0.0012929987, 0.05482424, 0.009172622, -0.006890706, 0.011237858, -0.028588185, 0.026177844, -0.04316377, -0.046662424, 0.043466393, -0.071361825, 0.02301772, -0.028596146, 0.026249783, 0.008450877, -0.04451449, -0.020477591, -0.008741445, -0.070478365, 0.010714745, -0.017564174, -0.03103902, 0.042359207, 0.040043466, 0.0021209046, -0.08369979, 0.0042320853, 0.009560139, 0.038130853, -0.010186525, -0.02102204, 0.02463201, -0.028437864, 0.012359079, 0.005853842, -0.0018400585, 0.06245869, 0.011296822, -0.05359096, -0.021312902, 0.005500552, 0.009900878, 0.059904408, -0.0377904, -0.0016372924, 0.044905085, 0.048112, -0.021210872, 0.002110062, -0.015113957, 0.03670611, 0.008736845, 0.056541212, -0.06665426, -0.038304247, 0.017636886, -0.025769664, -0.022344785, -0.08761028, 0.008260258, -0.0058008675, -0.01798292, -0.0037742099, -0.022303317, 0.004410025, -0.036117572, -0.046753403, -0.080004536, 0.031904016, -0.0028505547, 0.107098304, -0.007862805, -0.013118679, -0.019703655, 0.036124084, -0.013312825, 0.08716574, -0.061258264, -0.06255981, 0.01996039, 0.044217736, -0.036277696, 0.029479427, 0.06740779, -0.0029580833, 0.035779323, -0.01940981, -0.050474692, 0.058316782, -0.03930813, -0.0333534, -0.018682659, 0.012910502, 0.00090287323, 0.054602336, -0.008502388, -0.06336203, -0.0119886575, 0.024208417, 0.0056193997]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>윤성</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Studies on the processing performance of soy protein concentrate for high protein long-life noodles</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>The global interest in protein-fortified foods has been on the rise with increasing demands of health-conscious consumers, and the noodle industry is no exception. However, there is not enough research to enhance the level of protein in noodles without losing their quality attributes. Furthermore, although long-life (LL) noodle has been receiving great attentions due to convenient cooking methods and affordable costs, any attempts have not yet been made to develop protein-fortified LL noodles. In this study, soy protein concentrate (SPC) was applied as a rich source of protein to develop high protein LL noodle samples, and its effects on the rheology, water dynamics, and cooking properties of the LL noodles were characterized. The use of SPC distinctly influenced the pasting properties of wheat flour that were correlated with the dynamic viscoelastic properties of the corresponding wheat flour pastes. The texture measurements with a Kieffer dough &amp; gluten extensibility rig showed that the LL noodle samples had higher values of maximum resistance to extension, while the values of extensibility became lower, compared to the control made from wheat flour. In the case of the cooking properties, it appeared that the use of SPC did not affect the cooking loss of the LL noodles. Furthermore, water dynamics in a noodle system were analyzed using time-domain NMR measurements, demonstrating that T2 relaxation times were varied depending on the level of SPC. This study may provide useful information on the physicochemical properties of SPC in LL noodle systems high in protein, probably encouraging the food industry to develop a variety of protein-fortified cereal products without significant quality loss.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[0.02091828, 0.01946283, -0.05472719, 0.014623159, 0.116055295, 0.023811772, -0.046728548, 0.012625909, 0.05850354, 0.035662644, -0.07820664, -0.0152670415, 0.006095592, 0.079711735, 0.0012729946, 0.016734602, -0.037485167, 0.012173273, 0.0050641936, 0.040550627, -0.038115658, -0.015384236, -0.06465214, 0.024329554, 0.046080768, 0.01620377, 0.040993605, -0.005770539, 0.09318285, -0.016103042, 0.086800806, -0.0985936, 0.008714848, -0.011196661, -0.018194105, -0.053790778, 0.050723847, 0.009122764, 0.024537073, -0.023237024, -0.05718246, 0.022320172, -0.020027898, 0.025297116, -0.0067998013, -0.009778752, 0.015794301, -0.038394228, -0.0694197, -0.007386568, 0.020802366, -0.010682386, 0.03361343, 0.027287828, 0.021490594, -0.05524899, -0.0682157, -0.023348056, -0.013581593, 0.04227974, -0.04399613, -0.027821625, -0.015194575, 0.037883233, -0.014739632, 0.041859012, 0.0022000587, 0.048871156, 0.011069098, 0.07033516, 0.02194556, 0.06156853, 0.051313233, 0.019348964, -0.07597603, -0.008975385, 0.0027621365, 0.01205795, -0.09181643, -0.02390672, 0.031444002, -0.050700895, 0.015947424, -0.026934149, -0.035540093, 0.038675107, 0.0042290883, 0.023207698, -0.020708494, -0.096158765, 0.007500473, -0.009999571, 0.07993958, -0.0053942157, 0.023329863, 0.038854036, 0.0727568, 0.08159748, 0.05355214, 0.057885267, 0.047588836, 0.090294376, -0.017163308, 0.0024941498, -0.004853155, -0.023039972, 0.06271134, -0.0038566631, 0.038332857, -0.012602934, -0.017943326, -0.053856716, -0.064488165, 0.022876354, -0.017083991, 0.036009237, -0.013282405, 0.045387663, -0.0022457168, 0.10673386, -0.037679862, 0.015912957, 0.020837592, -0.018734906, 0.006907882, 0.027902551, 0.058442477, -0.010658962, -0.007746765, -0.0006982306, -0.039543718, 0.058940377, -0.0012921628, 0.12567578, 0.0013743675, 0.007609572, 0.025801012, 0.026590329, 0.031720866, -0.026362143, -0.042126954, 0.022878623, 0.014918683, -0.022261092, -0.04600409, 0.053566765, -0.06605643, -0.01943268, -0.0711498, 0.0559888, 0.023671605, 0.016550137, 0.029910259, 0.010985297, -0.028875044, -0.07557475, -0.030923178, 0.020811504, 0.030834539, -0.013246949, -0.072801456, -0.03285575, -0.011077502, 0.019884037, -0.02069713, 0.027812354, 0.04159981, 0.029046964, -0.032465283, -0.013579157, -0.02832745, -0.023428759, 0.07543565, 0.016824404, -0.026503053, -0.01184341, 0.01377017, 0.016246544, 0.093878835, 0.010447727, 0.013464785, -0.039822463, -0.01651312, 0.021156743, -0.035762604, -0.015860783, 0.017957287, -0.029976329, 0.037117228, 0.043832254, -0.08242569, -0.04863546, 0.03434437, 0.020545932, -0.024821252, 0.016694393, -0.0057532764, 0.054786295, 0.08729589, 0.071551055, 0.0660516, 0.028180314, -0.0034519292, -0.022318294, 0.049898207, 0.017814312, -0.0044357087, -0.024662213, 0.0006326216, 0.09319191, -0.057836268, -0.0022392864, -0.013310633, 0.054477595, 0.02525494, -0.020235112, -0.048545916, -0.050551556, 0.009786651, 0.031146813, 0.028947843, -0.016625568, 0.0010566835, 0.028291533, -0.027427897, 0.0036792983, 0.013984294, -0.07769089, -0.085625805, -0.033332713, 0.007268931, -0.0143674025, 0.019409254, -0.060270526, 0.059776198, 0.040101517, -0.058816787, -0.008218515, 0.042143527, 0.051240012, -0.0114558665, -0.008227431, 0.023815503, 0.09738983, -0.06126046, -0.018853677, -0.004754228, -0.008572179, -0.08177059, -0.0025597864, -0.034753796, 0.060933005, -0.044467293, -0.012501404, -1.7341692e-05, -0.029520866, -0.04741704, -0.010555956, -0.08919084, 0.026911872, 0.010737079, -0.067758724, 0.0241137, 0.0406573, -0.021575777, 0.025247736, 0.031454656, -0.0009751275, 0.023622682, -0.028224895, 0.00024387205, 0.052702446, 0.06484574, 0.043805316, 0.009154599, -0.024879918, -0.062007736, -0.062071938, -0.00025807717, -0.014418364, -0.052985094, -0.024372194, 0.044495493, -0.07877631, -0.03828268, -0.027155867, -0.056612805, -0.00404577, -0.08587394, -0.077493325, -0.053354107, 0.018452318, 0.021961298, -0.010769558, -0.068664625, 0.064063266, -0.03189462, 0.034903675, 0.008438284, 0.011685407, -0.0032599024, -0.015116924, 0.0004969001, 0.020526059, -0.009959352, 0.020119729, -0.032333795, -0.010633874, -0.011479028, 0.00050813094, -0.01294731, 0.003287703, -0.03514782, 0.045811545, 0.00943645, 0.020099714, 0.020449523, -0.049195465, -0.057193846, -0.05121849, -0.025320778, 0.062426526, 0.0026597301, 0.025666554, -0.08377813, 0.095579594, -0.04306522, 0.06640818, -0.005524069, 0.014615115, 0.019672038, 0.014859146, 0.026625514, 0.016426459, 0.062233504, -0.020507095, -0.022672899, -0.022189489, -0.0031002911, 0.005068758, 0.019694075, -0.054778665, 0.027348375, 0.010879157, -0.11111331, 0.06852935, 0.038976993, 0.09887014, 0.024465851, -0.026135303, -0.00949847, -0.029232131, 0.00062447035, -0.067696184, 0.043889157, 0.007816498, -0.052472327, -0.05333707, -0.078210525, 0.0114042545, 0.07114762, -0.0662359, 0.049202222, -0.063092805, 0.05689385, -0.029352391, 0.01696248, -0.021214684, -0.0008308412, -0.015604105, -0.03695877, 0.018809285, 0.03796804, 0.024536962, -0.073849, -0.0009351975, 0.0342583, 0.030232469, 0.06509857, -0.014632479, -0.01993398, -0.034922466, 0.037279245, -0.024562467, -0.035348617, -0.04280632, -0.1054107, 0.01580987, -0.039631326, -0.022667883, 0.045119964, 0.062127553, 0.018309496, 0.029283648, -0.014061912, 0.0537958, -0.009740393, -0.028267357, 0.039181624, -0.015945394, 0.020908184, -0.0763489, -0.029185396, 0.013098652, 0.010451925, 0.02738593, -0.07557914, -0.037546065, -0.012253863, -0.03230165, 0.0640566, 0.03502221, 0.060369868, 0.008188924, 0.022125816, -0.009742166, -0.0010687693, -0.014358855, 0.013968317, -0.005283694, -0.0225047, 0.014378935, -0.02073748, 0.032332614, -0.06880435, -0.033167183, -0.014211923, -0.04510133, -0.07172788, -0.04998319, -0.008655188, -0.028566943, 0.015899703, -0.090332404, -0.007733493, 0.024707269, -0.0071728337, -0.030301278, -0.025883552, 0.009437188, -0.0286022, -0.07735764, -0.015242273, 0.043842934, 0.026844684, 0.0409187, 0.03770644, 0.11746989, -0.02840118, -0.022735557, 0.004115152, -0.011388189, 0.00024588173, 0.0552079, -0.026025366, -0.047894184, 0.030398395, 0.06290409, 0.01959325, -0.04307715, -0.08769851, 0.032098066, 0.088988945, -0.047087267, 0.02568337, -0.018107397, -0.032915406, -0.05898953, 0.04856038, -0.0121254055, 0.01676787, 0.082165994, 0.0016568241, -0.0005785896, -0.007129713, 0.017390024, 0.07112054, 0.0098649, -0.015037303, 0.005489772, 0.014872822, -0.011564387, 0.017769983, -0.008190416, 0.022161614, 0.016484989, 0.04075926, -0.009133761, -0.024808595, -0.08243767, -0.010263155, 0.006188373, -0.026488757, -0.06857269, 0.009924775, 0.027346939, 0.04070585, 0.012483257, 0.012767685, -0.006752018, -0.008078052, -0.033555567, -0.016363502, 0.05169598, -0.0031141664, 0.0083114505, 0.001816986, 0.00024234131, -0.13384572, -0.0033426248, 0.044748534, 0.060888268]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>이다연</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rheological investigations of hydrocolloids and their blends in a soy protein based system</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Hydrocolloids are widely used to control the rheological properties of a variety of food products and the segment of alternative meats is no exception However, there is a lack of fundamental information on the interactions between soy protein and hydrocolloids in terms of rheology and water dynamics In this study, the thermo rheological properties of several hydrocolloid solutions and blends with soy protein were characterized at the same concentration using a control stress rheometer During the heating and cooling cycle, the viscosity of most hydrocolloids decreased and then increased On the other hand, cellulose derivative hydrocolloids showed an increasing viscosity during heating Also, when soy protein interacted with hydrocolloids, the synergistic effects were observed by affecting their rheological properties Thus this study may contribute to improving the quality attributes of alternative meats by providing their rheological characteristics</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[0.0259618, 0.073114306, -0.0259251, 0.032158416, 0.10361903, -0.0051015336, -0.02595187, -0.00091558415, -0.025559805, 0.062558115, -0.031125233, -0.07872232, 0.02545124, 0.038172282, -0.040549137, 0.028977534, 0.0076631606, 0.08704782, -0.094718814, 0.014321276, 0.05746845, -0.025186101, 0.019459737, 0.016786313, 0.07082587, -0.044966176, 0.065453365, 0.0005799063, -0.054413006, -0.019401105, 0.03333504, -0.06996661, -0.05492585, -0.027331209, -0.055324413, -0.02743297, 0.027490381, 0.09414705, 0.0009327953, 0.008631112, -0.044305846, -0.029991128, -0.04958696, 0.014358298, -0.09251232, -0.034667727, 0.03901169, -0.057988532, 0.0061063445, -0.02059708, 0.016773453, -0.068858154, -0.002141002, 0.017234461, 0.016758833, -0.021262012, -0.05828312, -0.07243163, -0.015304607, -0.058942027, -0.051587302, -0.06682394, -0.07854904, -0.049441997, -0.012907142, -0.02395792, 0.022063917, -0.009355422, 0.030101845, -0.027495382, -0.06314893, 0.0049297726, -0.042815905, 0.05696509, -0.07492087, -0.0037879827, -0.031193757, -0.057516348, -0.07830968, -0.019598711, 0.023235347, -0.013169685, 0.08909343, -0.008365297, 0.0036185347, 0.077869214, -0.039761007, -0.037274472, 0.018170938, -0.0806609, 0.02835354, 0.004265363, 0.105539985, 0.001504895, -0.0022708045, 0.024095489, 0.0112796435, 0.09521738, 0.008416543, 0.08053784, -0.030683018, 0.07016017, -0.08423257, -0.014175201, 0.02067924, -0.015252825, -0.013647454, 0.016864035, 0.03496082, 0.0073200422, -0.03661187, -0.08926417, -0.05131662, 0.0077843135, -0.018066159, 0.08167255, -0.0150878355, -0.012919796, 0.0012978383, 0.14259611, 0.016535241, -0.016444381, 0.0059603583, -0.021528283, 0.014189919, -0.041149404, -0.015197226, 0.02432647, -0.006670719, -0.022364577, -0.017271232, 0.01752426, -0.07193985, 0.020100124, 0.020458365, -0.033061977, 0.0056624934, -0.019687321, -0.008130213, -0.06268262, -0.0012985414, -0.06015292, 0.031974163, -0.051924538, 0.015831018, 0.05035845, -0.07289853, 0.0120573165, -0.012210403, -0.032519724, -0.006707241, 0.046398938, -0.03960389, 0.08878332, -0.025746208, -0.10758413, -0.049978606, 0.013955852, -0.004892394, 0.00096662407, -0.008338677, 0.0023754637, -0.023149159, 0.042742837, 0.050849807, -0.040464256, 0.04546466, -0.0018106055, -0.029958326, 0.0056510074, -0.02528884, 0.0019594815, 0.024267485, -0.028720662, -0.00818965, -0.0040539196, -0.0007821099, -0.015257481, -0.026753955, -0.0096633565, 0.021348676, 0.019921107, 0.03299644, -0.06802225, -0.027676536, -0.02462994, -0.021800715, -0.025345614, 0.013816666, -0.031498726, 0.03381425, -0.0467723, -0.009084196, -0.075548194, -0.007993528, 0.06275163, 0.02979368, -0.073067345, 0.008465131, 0.01494578, 0.0061878148, 0.0380484, 0.06133464, -0.025980826, 0.015771866, -0.0704867, 0.020205997, -0.0042363172, 0.0212988, 0.052542757, -0.05922767, 0.06799535, -0.024103675, 0.01598784, 0.067256145, -0.009348765, 0.022388611, -0.017755436, 0.0025467495, 0.029846016, -0.10298887, 0.06098637, -0.021323865, 0.04515108, -0.041278917, 0.0438047, 0.01244246, -0.10682412, -0.113610744, -0.014606391, 0.011632572, -0.0643853, -0.037610218, 0.044422384, 0.03957527, 0.031153325, -0.01324917, -0.02460309, 0.006213829, 0.035020918, 0.015260392, -0.0038871337, 0.055776644, -0.042305753, 0.02412837, -0.009117831, -0.058046583, -0.036182087, -0.02176452, -0.04935494, -0.04164158, -0.010881604, -0.0027204368, -0.023827706, 0.031020086, 0.0042075766, 0.0041314214, 0.063021965, -0.00045254777, -0.008282631, 0.013739582, 0.027881425, -0.010950969, -0.040783618, -0.006850683, 0.043317065, -0.043396134, 0.03661591, 0.02720872, 0.0027324911, -0.015136106, 0.017179128, 0.08868051, 0.08125086, -0.041982386, -0.09513733, 0.011575218, -0.0641317, -0.015783207, 0.0019701133, -0.08309114, -0.04106355, 0.011491918, -0.014568103, -0.003346845, -0.015030122, -0.03365395, -0.011177494, -0.06516362, -0.094168514, 0.012037381, -0.05787742, 0.015708989, -0.087787464, -0.044343762, 0.029743297, -0.056957833, 0.08838246, -0.0006944941, -0.05189845, -0.08661987, -0.025938425, 0.03737695, 0.0450704, -0.0072110035, -0.025377512, -0.021441143, 0.011286469, -0.039126467, 0.027319347, -0.051210996, 0.004919413, 0.029220749, 0.06952911, 0.059803646, -0.0108168, 0.030796776, -0.046358585, -0.033900443, 0.0013746874, 0.030026497, 0.009321771, -0.06945882, -0.005439424, -0.06583868, 0.035646, -0.05535828, 0.025068229, 0.016073797, 0.028407594, 0.038707633, -0.007764132, 0.035673592, -0.037156772, -0.0054478925, 0.013839782, -0.036835108, 0.0498197, -0.04201358, 0.00051390374, -0.06894917, -0.076637514, 0.07149329, 0.08185305, -0.038818415, 0.03454158, 0.05726058, 0.08435724, -0.0056281947, -0.009842521, -0.006672164, -0.017901966, 0.028910914, -0.018746436, -0.009417362, -0.036868487, 0.015019854, -0.035878878, 0.036273587, -0.016572906, 0.06808907, -0.051206492, 0.025603153, -0.008078358, -0.042271722, -0.04388815, -0.053741474, 0.03222916, -0.03238908, -0.011069873, 0.05739014, -0.03694446, -0.025385508, 0.0064390283, -0.05715041, -0.043580282, -0.0006109634, 0.059234876, 0.020849518, 0.0075468067, -0.03592511, 0.011482691, 0.023838656, 0.0013501878, -0.0019605083, 0.043214887, -0.053206448, 0.0592705, -0.05413176, -0.03149778, -0.00067715044, 0.020525556, 0.009188669, -0.021401236, 0.01700324, 0.024848875, -0.034473587, 0.0038324904, 0.019897828, 0.026527364, 0.025683582, 0.030845948, -0.002838256, 0.025758, 0.01758122, 0.02542926, -0.05569766, -0.017825017, -0.026516052, 0.09578768, -0.0025868595, 0.043128878, -0.0033255976, 0.08589412, 0.0709987, -0.0025230655, -0.012611983, -0.052938193, 0.015878482, -0.048544858, -0.030713554, 0.013428333, -0.012721772, 0.01841271, -0.050877362, 0.021083433, -0.047056947, -0.043362603, -0.06607687, -0.05465301, -0.008378281, -0.025673771, -0.01526306, -0.009614057, -0.043796983, -0.014566973, 0.0009248212, -0.04251079, 0.04161278, 0.013828418, 0.005288113, 0.003998829, -0.019081015, 0.027422344, 0.045907497, 0.0073982286, 0.035450127, 0.038365155, -0.00044947534, -0.057095453, -0.03654573, 0.0009848537, 0.0142092435, 0.006459677, 0.0393822, -0.018347433, -0.03251012, 0.076805405, 0.07498065, -0.015196083, -0.047929008, 0.005109162, 0.041939914, -0.027905554, 0.042157818, -0.03945132, 0.02158329, -0.00077348883, 0.0027081296, -0.034005094, -0.04758332, 0.00835585, 0.013055759, -0.05911815, -0.026298158, -0.0061142584, 0.0353757, -0.008954901, -0.057639297, -0.065129906, 0.097862236, -0.059731603, 0.094528444, 0.028532945, 0.008012214, -0.012216306, 0.004069811, -0.097111896, 0.03339558, -0.02988151, -0.056516826, -0.0046622627, -0.02027165, -0.0377801, 0.021270001, 0.05150958, -0.014092497, 0.022628674, 0.013328716, -0.022508679, 0.06774745, -0.022915337, -0.014542987, 0.036896482, -0.011668109, -0.0126067465, 0.054665077, -0.002343433, -0.06724556, 0.06437622, 0.044808112, 0.03371606]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>윤성</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Effects of soy protein concentrate on the quality attributes of protein fortified long-life noodles</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>The global interest in high-protein foods has been increasing with increasing number of health-conscious consumers. However, no attempts have been made to fortify long-life (LL) noodles with protein, which are expected to occupy a large portion of the HMR market. In this study, soy protein concentrate (SPC) was utilized to produce protein-fortified LL noodles whose physicochemical properties were characterized in terms of rheology, cooking properties, and water dynamics. The presence of SPC influenced the pasting behaviors and dynamic viscoelastic properties of wheat flour. Also, the extensibility of LL noodles with SPC tended to decrease, while the maximum resistance to extension increased, compared to the LL noodle without SPC. However, the use of SPC did not significantly affect the cooking loss of the LL noodles. In the case of water mobility, T2 relaxation times were reduced with increasing levels of SPC. In this study, SPC was successfully incorporated into the formulation of LL noodles for protein fortification and its processing performance was elucidated.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[0.015995672, 0.04674268, -0.07590939, 0.0044320575, 0.07637832, 0.045781035, -0.058980267, -0.017521946, 0.014853035, 0.029077573, -0.07519342, -0.055089947, 0.031008491, 0.06964102, -0.006926489, 0.024401149, 0.0038315195, 0.032282237, -0.021329002, 0.057068735, -0.019957293, 0.017639829, -0.032996405, 0.019730993, 0.050969876, -0.010005523, 0.037383955, -0.007177399, 0.06389758, -0.04385269, 0.05378846, -0.049118422, 0.032819472, 0.0015382303, -0.020558976, -0.060110617, 0.04551516, 0.04983546, 0.020658553, -0.032166313, -0.020415766, -0.0057068407, -0.049477886, -0.018510846, -0.039153352, -0.014557751, 0.002009279, -0.04997736, -0.04645444, -0.007983819, 0.018621672, -0.046510465, 0.015675316, 0.0034752036, 0.023554085, -0.022878995, -0.06809554, -0.07793753, -0.026727434, 0.04831058, -0.07777782, -0.08856471, -0.010359143, 0.04240358, -0.04822402, 0.023321562, 0.007933544, 0.0045257946, 0.021073418, 0.058833893, 0.0041859355, 0.043507397, 0.013767724, 0.038585443, -0.12826633, 0.008733893, -0.020660343, -0.016527941, -0.061768923, 0.011122403, 0.0018285911, -0.032247253, 0.008290999, -0.0027084898, -0.02196838, 0.046982966, -0.03152646, 0.03734963, -0.008631246, -0.072783336, 0.003895361, 0.0010723518, 0.09469983, 0.019749364, 0.03733291, 0.020937923, 0.05155304, 0.0844764, 0.020270657, 0.08496007, -0.013262012, 0.093100674, -0.020063823, 0.007939449, -0.008633232, -0.02613003, 0.06240328, 0.015976848, 0.031012852, 0.0016710067, -0.030037124, -0.051861905, -0.043685727, -0.003927377, -0.032169692, 0.06337565, 0.0013873321, 0.03447433, -0.013293357, 0.10000136, -0.03067866, -0.010222524, 0.021786306, -0.03212633, -0.0058262926, -0.0024190592, 0.03673471, -0.0062797572, -0.00027006958, -0.0022362876, 0.0018775772, 0.035479505, -0.00013595354, 0.110840574, 0.02797324, -0.02519051, 0.003951514, 0.024388527, 0.019879121, -0.020951755, -0.02289066, -0.0075442106, 0.055080894, -0.015542008, -0.018706828, 0.036179274, -0.07702494, -0.058598604, -0.058289222, 0.059832547, 0.0015906268, 0.037676293, 0.02742138, 0.047203135, -0.005618494, -0.07126349, -0.044619735, 0.02565536, 0.016468108, -0.01976016, -0.08107987, 0.003121079, 0.02193379, 0.0057520266, -0.0237875, -0.00051152514, 0.07122443, 0.012492652, -0.04466426, 0.021643974, -0.004406273, -0.03601689, 0.052963894, 0.0073572397, -0.038833532, 0.003429526, 0.007750702, -0.0089189485, 0.04334258, 0.034854893, 0.013998765, -0.031891238, -0.025800146, -0.03892188, -0.034219675, -0.036818, -0.0021698198, -0.060107343, 0.02721698, 0.07016217, -0.044103496, -0.04895812, 0.01981617, -0.0013223939, -0.009824609, 0.057331745, 0.0116661815, -0.0057851053, 0.079541005, 0.05082943, 0.06364101, 0.006176024, -0.0029023706, -0.0098361755, 0.049824346, 0.043190826, 0.008075903, -0.01145924, 0.0065309806, 0.07780137, -0.04282998, 0.058035403, 0.017572565, 0.0500701, 0.061447307, -0.018849988, 0.013512605, -0.043879382, -0.0118733095, 0.050657447, -0.020966103, -0.0041429377, 0.00463045, 0.025352111, -0.032339346, 0.02143475, -0.008008527, -0.09016671, -0.07664659, -0.034603238, 0.0018584069, -0.01782291, 0.014488588, -0.043522332, 0.038932975, 0.057927765, -0.037487514, 0.0010830696, 0.04737647, 0.06267709, -0.05336545, 0.027138619, 0.058209248, 0.04299098, 0.01195329, -0.055314522, -0.004369179, 0.005744696, -0.06142009, -0.00035476612, -0.04478259, 0.06519912, -0.02421638, -0.0021495696, 0.019958626, -0.055954594, -0.060101293, -0.011313967, -0.105072655, 0.034875285, 0.02592364, -0.046024922, 0.019679395, 0.00070574076, -0.016318412, 0.024836866, 0.017633084, 0.0087664295, 0.01878188, -0.038863856, -0.024745023, 0.039827142, 0.10151307, 0.048937168, 0.035482798, -0.05097361, -0.025878726, -0.06709726, 0.010117765, -0.014879793, -0.067822, -0.0044954754, 0.02036776, -0.08298341, -0.021095503, -0.028509522, -0.07163114, 0.00017153553, -0.10773439, -0.10092276, -0.07765866, -0.014814845, 0.035584066, -0.03284155, -0.053711116, 0.052305344, -0.004576597, 0.058990378, 0.03708099, -0.0037065025, -0.02089781, -0.0081693325, -0.0013842708, 0.025417557, 0.0023909882, -0.0068985554, -0.028685408, -0.038023114, -0.04703297, 0.035253476, -0.0049894922, -0.02696381, -0.0053402246, 0.056400295, -0.028796619, 0.015919551, -0.00012983568, -0.041484196, -0.037073426, -0.057768907, 0.02225632, 0.055039823, -0.02209462, -0.025669936, -0.04810761, 0.08950007, -0.041747104, 0.06578178, -0.008977267, 0.018762972, 0.016378343, -0.032554705, 0.009354562, 0.013784058, 0.023573065, -0.03710445, -0.029483773, -0.014509679, 0.0085652005, -0.016269257, 0.016024856, -0.043882318, 0.043961212, 0.04518812, -0.06984841, 0.08783122, 0.060130794, 0.072302334, -0.019141467, 0.0037845974, 0.018226113, -0.027684236, 0.019026149, -0.06291217, 0.036588296, 0.0041276817, -0.0019871497, -0.021083295, -0.01028091, -0.002075018, 0.06259714, -0.05570732, 0.07780442, -0.051599976, 0.0031504205, -0.032859262, 0.006849214, 0.01640157, 1.8549967e-05, -0.0017763712, 0.02739576, 0.015483373, 0.020234618, 0.04585247, -0.08236826, 0.0055790497, 0.04076378, 0.055010222, 0.050006934, 0.011428257, -0.049231842, -0.022527337, 0.017540999, -0.019459907, -0.04298913, -0.010220342, -0.096720114, 0.009052405, -0.038253076, -0.060235728, 0.06414785, 0.088739924, 0.035115983, 0.012038226, -0.016355526, 0.042358622, -0.010795684, -0.066638134, 0.05821344, 0.03492537, -0.0065421537, -0.035025105, -0.04745129, -0.013049858, 0.028492052, 0.070510946, -0.08012101, -0.050861903, -0.008299911, -0.003664921, 0.06929592, 0.0031123983, 0.051280603, 0.0052980473, 0.04226172, -0.008632746, 0.04446883, -0.007022178, -0.0030757645, -0.04968751, -0.025660181, 0.045758527, -0.0074034277, 0.030227363, -0.040326558, -0.018174628, -0.029593948, -0.05595981, -0.055256642, -0.03637752, -0.01105116, -0.062002797, 0.0054159863, -0.10991783, -0.040235892, -0.0033766865, -0.0012433052, -0.04462708, 0.0005341571, -0.021638984, -0.022103928, -0.018053463, 0.006858918, 0.011816167, 0.00060247415, 0.0112514775, 0.031974312, 0.08514037, -0.06483528, 0.0036247736, -0.013888077, -0.032975044, -0.0143169435, 0.04736658, 0.015083411, -0.028489145, -0.029605635, 0.026645225, -0.0040324335, -0.021937506, -0.059098557, -0.004136165, 0.07028462, -0.05866626, 0.040846176, -0.0040791896, -0.02997868, -0.03178126, 0.070329286, -0.027020425, 0.017741678, 0.05674107, 0.010081889, -0.020531511, 0.008539167, 0.032250945, 0.058534782, 0.053460013, 0.007892126, -0.035727933, 0.039622277, -0.028661551, 0.055036627, -0.0018644508, -0.030094817, 0.0132963555, 0.011941594, -0.078595996, 0.018493477, -0.09038268, -0.034404445, 0.025869366, -0.01981643, -0.059951723, 0.033734087, 0.05869468, 0.034391753, 0.007256282, 0.057002477, -0.020403575, -0.010984882, -0.02948652, -0.021963576, 0.03830058, -0.009388514, 0.018775586, 0.010617686, 0.0047786757, -0.10855068, 0.021355031, 0.02422573, 0.03736837]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>양근혁</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Multilayer perceptron neural network for predicting the extensional properties of fresh wheat noodles</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Six different wheat cultivars were blended into 35 different combinations and their thermo dynamic/tensile properties were experimentally measured No individual thermo mechanical parameter exhibited a significant correlation with the tensile characteristics R max and extensibility) Subsets of statistically significant thermo mechanical parameters were selected and related with the tensile properties using multilayer perceptron neural network models While the GradientDescent algorithm resulted in poor accuracies, the Adam optimizer showed seemingly over fitted results In order to mitigate the overfitting and to enhance accuracy, different dropout rates and activation functions were tested This work showed the possibility of machine learning techniques for predicting the tensile properties of wheat noodles using the thermo mechanical variables of wheat flour</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[0.005736726, -0.008815562, -0.0281051, -0.017298985, 0.05457939, 0.032181583, -0.08198804, 0.04860703, -0.05812079, 0.04302604, 0.015775792, -0.028440373, -0.0068983636, -0.028407436, -0.075984105, 0.052681264, 0.02260867, 0.07934148, -0.04049565, -0.051616292, -0.04995118, 0.0190121, -0.02992503, 0.015557981, 0.10938923, 0.014330368, -0.0134672625, 0.0009661147, -0.06281832, 0.005780941, 0.049251806, -0.11949998, 0.025242979, -0.039761443, -0.042386185, 0.0020416777, 0.037395786, 0.019344803, 0.061031632, -0.101271234, -0.042697646, 0.040394403, -0.12993325, -0.06585538, -0.05005419, -0.008505369, 0.028605668, 0.04372285, -0.058218125, 0.028545814, -0.026161086, -0.05400022, -0.016464671, 0.08091119, 0.055818565, -0.054273948, -0.050851237, 0.034085672, -0.061794456, -0.031482168, -0.08910688, -0.019982658, -0.04073437, -0.0009981288, -0.06759236, -0.004014523, -0.0025008053, 0.0048321034, 0.042321533, -0.051585473, -0.019414911, 0.0035501816, -0.06513631, 0.004167459, -0.058467094, -0.020308694, -0.11412214, 0.069688246, -0.009984474, -0.080069125, -0.081279606, 0.02134381, 0.048377622, 0.016884822, -0.045617677, 0.070594415, -0.041316867, 0.053953685, 0.01141489, -0.055386886, -0.0012963067, -0.03401992, 0.11537447, 0.06974479, 0.015911013, 0.046721138, 0.039996836, 0.04176552, 0.005771948, 0.016299365, -0.032232903, 0.019258557, -0.017845057, -0.0064834254, 0.08144433, -0.07512797, 0.055965416, 0.023227189, 0.021449903, 0.01262748, -0.018417139, -0.03177514, 0.0015356545, -0.07090002, 0.030632658, -0.004565809, 0.024838207, 0.0386017, -0.01047883, 0.07816648, 0.0485685, -0.007161647, 0.039285015, 0.10812251, -0.055127665, -0.0050254487, -0.013717136, 0.025275165, -0.045683585, 0.017466623, 0.04641082, 0.014094143, 0.05557799, -0.04356505, -0.010263752, -0.020598833, -0.052665282, 0.057334643, -0.005910515, 0.018493421, 0.030572372, -0.017707096, 0.02218546, -0.056356158, 0.06099054, -0.089589715, -0.061791807, -0.031165484, -0.028261991, 0.028319312, 0.023310538, 0.021850273, -0.01799005, -0.027493373, 0.010426162, -0.077014804, -0.007945696, -0.049552098, -0.05305924, -0.040591177, -0.007551032, -0.042502042, -0.016655505, 0.02145478, 0.030816276, -0.054718945, 0.05837674, 0.041791316, 0.07050632, 0.04317525, 0.03574157, 0.000335332, 0.005252892, -0.035094332, 0.025072398, -0.018323267, 0.0032377641, -0.04760476, 0.051171325, -0.008378136, 0.027993053, -0.1014066, 0.02652418, 0.02366244, -0.0006988399, 0.036611166, -0.040454805, -0.039089553, -0.016536143, 0.06447762, -0.03659798, 0.0033440634, 0.055518635, -0.017765965, 0.049504198, -0.016569316, 0.04479255, -0.0020361473, 0.06857493, 0.12002473, 0.037788004, -0.024890093, 0.05453035, -0.028401539, 0.035042565, 0.0018911143, -0.0020600986, 0.049047004, -0.049338773, 0.033074815, -0.0005998157, -0.020001274, -0.035820182, -0.022456123, 0.03946153, 0.007418353, 0.032022644, -0.036304504, -0.01747933, 0.020922743, 0.018764246, 0.020945279, 0.099133156, 0.061062243, -0.03277739, 0.047413815, 0.012556134, -0.010229101, -0.02621298, -0.011050741, 0.0028947138, -0.048587948, -0.058554046, 0.020931948, -0.021573417, -0.008257014, -0.032379776, 0.0027243772, 0.051708847, 0.010235972, 0.0018960163, 0.0750374, -0.0061593405, 0.015259776, 0.010515243, -0.016303226, -0.029464485, -0.029747138, 0.026642844, -0.030868942, -0.043000996, 0.08694037, -0.002492324, 0.0060093966, 0.05394074, 0.0662047, 0.043419976, -0.05877905, -0.06278271, -0.0011341579, 0.067530334, -0.0304513, -0.04295116, 0.022988195, -0.0015653953, 0.01203306, -0.008848537, 0.014243095, 0.02616155, 0.037094228, -0.021310706, 0.003938356, 0.02420971, -0.01068206, -0.03011468, -0.0040907795, -0.053576916, -0.11003068, 0.012431088, 0.0006492359, -0.04194046, -0.0030210817, -0.021004006, -0.06887377, 0.017578261, -0.06826407, -0.03914421, 0.02404523, -0.038431562, -0.022496076, 0.00010331278, -0.011325908, 0.02319366, -0.004001677, -0.023939742, 0.03447288, -0.0066584335, 0.039119355, 0.009477047, -0.042653248, 0.075215355, 0.011265425, 0.03181772, 0.06717164, -0.023612363, -0.057236087, -0.013771518, 0.016693788, -0.02087039, 0.0048873136, -0.03366748, -0.031202354, 0.03815235, 0.0656751, -0.040587924, 0.044162728, 0.02560021, -0.030080253, 0.05162114, -0.06901798, 0.012567757, 0.055111364, -0.019541077, 0.041740213, -0.050799705, 0.037522662, -0.0028476792, -0.011177523, -0.044640373, 0.06681952, -0.054144606, -0.008862633, -0.01455016, 0.02577986, -0.029525103, -0.042678826, 0.03981598, 0.0042449147, -0.011170333, 0.003418132, -0.06669767, 0.032905567, 0.029659912, 0.037680518, 0.012740773, -0.021534394, 0.012594387, -0.05590649, -0.022783699, -0.008535157, -0.0016219676, 0.0048633497, -0.02826584, -0.016891992, 0.01358034, -0.054589834, -0.0063544554, -0.02988014, 0.013248414, -0.007106663, -0.01930769, -0.032985304, 0.0214082, 0.024111353, -0.039065488, -0.060534753, -0.049301095, 0.04374442, -0.037191927, -0.015189985, 0.04167538, 0.049779136, -0.016024739, 0.0212828, 0.041882202, -0.0027367834, 0.013447407, -0.008726065, 0.038848687, 0.009917918, -0.00319635, -0.027935736, -0.042590555, 0.0002887677, 0.023463815, 0.0094858315, 0.016287584, 0.027837258, 0.005453116, -0.016657708, -0.004430432, 0.08236643, -0.037926514, 0.0022849028, 0.035674598, 0.07399106, -0.08157086, 0.011313502, 0.043497927, 0.04209231, 0.02110336, -0.051424034, -0.029924145, -0.02972965, 0.000547158, -0.0050903056, -0.035131495, 0.03804164, -0.0656772, -0.044535514, -0.032060567, 0.08367189, 0.057547856, 0.026968576, -0.01971083, 0.070841216, -0.008340654, 0.048885044, 0.093197875, -0.07870175, -0.021659791, 0.057410866, -0.08167671, 0.035238903, -0.09542742, -0.02362775, -0.057044573, -0.0510694, 0.01392825, -0.014218013, 0.06501021, -0.04824829, -0.030347688, -0.07073891, -0.0039487975, -0.0076094163, -0.0066716606, -0.0032197195, 0.055037342, 0.019284837, -0.0067087873, -0.027395831, 0.011230863, -0.054059483, -0.02650247, -0.020009488, -0.007813202, -0.0022702336, -0.006110187, -0.033414155, -0.011539701, -0.03047631, 0.0126824835, 0.0380346, -0.0061995913, 0.008534139, 0.026457407, -0.032893464, 0.0054070135, 0.009913401, -0.009344494, -0.0039009855, 0.032206215, -0.03719706, -0.0006621562, -0.04683462, 0.040151045, 0.037735518, -0.050459314, 0.015500297, 0.086729355, -0.001203158, 0.0039859866, 0.0022889148, 0.024819806, -0.025950437, 0.05038499, -0.020637767, 0.004798765, -0.033751573, 0.011496509, -0.050555997, 0.111778915, 0.0924765, 0.01583048, 0.015913837, -0.0025830113, -0.05258708, 0.008191238, -0.026715262, -0.12034849, -0.01994047, -0.014327146, -0.04833125, 0.0023366492, 0.072843194, -0.06905329, -0.00090511783, -0.022640498, -0.052995566, 0.043204214, -0.042145338, -0.0010640441, 0.04097837, -0.01847711, 0.016307293, 0.005664397, -0.032799546, -0.12477297, 0.0024738105, 0.028495952, -0.033069916]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>김민효</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Solid fat replacement with binary gelator blended oleogels for filling creams low in saturated fat</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Canola oil oleogels structured with the binary blends of glycerol monostearate ( and candelilla wax ( at various mass ratio were utilized as a shortening replacer to prepare filling creams The canola oil oleogels at the blending ratio of 60 ( and 40 ( showed the lowest melting temperature and highest hardness, indicating a eutectic behavior The use of CDW 60 GMS 40 oleogels as a shortening replacer produced filling creams with comparable textural properties to the shortening filling creams These textural properties could contribute to lowering the oil separation of the corresponding filling creams Furthermore, the shortening replacement with oleogels distinctly reduced the level of saturated fatty acid from 36 2 to 10 3 The Micro CT tomographical analysis exhibited that the filling creams had a better air cell structure as the ratio of GMS in oleogel increased, and the morphological properties showed a linear correlation with fatty acid composition and specific gravity of the oleogels This study elucidated that the binary blended oleogelators could be used to produce nutritionally superior filling creams by replacing shortening rather than single gelator</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.012082988, 0.03626034, 0.0031890185, 0.00056631624, 0.04659873, 0.0025601722, -0.053145897, -0.07982532, -0.06494633, 0.06843269, -0.023026135, -0.009715861, -0.001053522, 0.005805231, -0.013991979, 0.058015496, -0.0076029333, 0.092943445, 0.059345465, 0.030386293, -0.03404509, 0.023384823, -0.07694118, 0.050166436, 0.024396475, -0.060432732, 0.030253053, -0.028136184, -0.021616017, -3.835745e-05, 0.03742403, -0.0009882582, -0.008997935, -0.010102411, 0.013346977, -0.037206367, 0.037189122, 0.00493133, -0.053734854, 0.012560031, -0.05629552, 0.053287983, 0.08838474, 0.0015432971, -0.12198212, -0.07459847, 0.042187627, 0.065788515, -0.025555285, 0.033897497, -0.029194737, -0.07309939, 0.018745258, 0.016403094, 0.043385375, -0.013021905, -0.051862385, -0.10921909, 0.028220575, -0.022072153, -0.045047212, 0.01993683, -0.024086315, 0.060756676, 0.04898728, 0.034249924, -0.014500252, 0.061738428, 0.0754063, -0.045303278, -0.064237505, 0.030873341, -0.009403368, 0.0029502234, -0.08072067, -0.047627553, 0.00073238777, 0.011718278, 0.08216238, -0.059014853, -0.038776062, -0.04086011, 0.026580596, -0.010240766, -0.013492912, 0.065469235, 0.06263992, 0.056935668, 0.0251758, 0.038309034, -0.010778537, 0.006647598, 0.11477319, 0.05787862, 0.021752495, 0.003650494, 0.03882562, 0.052731007, -0.004778625, 0.047489002, -0.0070312424, 0.022371622, -0.004922693, 0.003983361, 0.060984693, -0.10114666, 0.022199903, 0.04153923, 0.059170302, 0.038843427, 0.028186664, -0.0404033, 0.039323963, -0.011288625, 0.0012159314, 0.055477757, -0.044047207, -0.0043325997, 0.024753256, 0.0057785613, 0.06186281, -0.03405952, 0.05108417, -0.022320017, 0.0443394, -0.005275682, 0.02762808, 0.040979188, 0.01073662, -0.054793354, 0.0011080806, 0.04212868, -0.015618614, -0.09223136, -0.011303421, -0.07061216, 0.015080789, 0.03506383, 0.06530709, 0.067811735, 0.006747096, 0.033560585, -0.02259008, -0.020306958, 0.027151046, 0.017415116, -0.0007028205, 0.0020078022, -0.040566906, 0.010420951, -0.0802101, 0.013308867, -0.11269945, 0.018338667, 0.018567283, -0.04801495, 0.02434313, -0.046170328, -0.01795641, -0.047699694, 0.005187371, 0.06792059, 0.016882312, -0.026751572, 0.013137495, 0.010061598, 0.019938184, -0.0059415735, -0.038197648, 0.039517637, -0.036008935, -0.026438762, 0.015601744, -0.0010177145, -0.034035493, -0.013558602, -0.033656172, -0.06086265, 0.0034496034, -0.0004930298, 0.0047883866, -0.00068000203, 0.01383913, 0.018143903, -0.0005088228, 0.019259458, 0.06098905, -0.026449295, 0.009976874, -0.048210915, -0.002337235, -0.014825442, 0.041931674, -0.003584701, 0.035898607, 0.015613431, 0.048280474, -0.07876551, -0.038881276, -0.011513885, 0.005932946, 0.03214866, 0.0093210945, -0.026575122, 0.017466443, -0.023074688, -0.0042158337, -0.020109579, -0.005672379, 0.055063453, -0.039513472, 0.074285, -0.059385624, -0.041405786, 0.024772888, 0.041129664, 0.004686955, -0.046156403, -0.012316179, 0.01566552, -0.08714536, -0.023401216, -0.066674866, 0.005018434, -0.0011498632, -0.020612307, -0.015390326, 0.04309316, -0.095461436, 0.03205568, 0.023067141, -0.058615938, -0.045052603, 0.034801777, -0.0054190364, 0.02568849, -0.015978418, -0.006980502, 0.020487387, 0.08020213, -0.050217666, 0.072866544, -0.018686851, -0.0076567046, 0.0071846857, 0.008807912, 0.025133306, -0.0005288565, -0.026232496, -0.06527432, -0.065062456, 0.058608897, 0.00089362613, 0.051892493, 0.0129363965, 0.048485357, -0.035881843, 0.054311402, -0.042852215, -0.0042511476, -0.07835053, 0.0014351076, 0.02591878, -0.01639528, -0.024248075, -0.089464605, 0.005856906, 0.037207253, 0.031449214, 0.03968351, -0.035067793, 0.0081941085, 0.06652391, 0.0009442621, -0.0768156, -0.041923247, 0.002869965, -0.011993642, -0.008959804, 0.015382181, -0.067000285, 0.011971694, -0.01860041, 0.043375347, 0.046531014, -0.0011959992, -0.14133766, -0.006655622, 0.04779606, 0.024530755, -0.04908191, -0.020281482, 0.020832373, -0.06916349, -0.06564891, 0.020492371, 0.024832161, -0.01740061, 0.027548416, -0.017726341, -0.03541261, -0.023764675, 0.07050697, 0.0025801486, 0.008395592, -0.00566056, 0.019785568, -0.0021741595, -0.028718231, -0.0035048248, -0.027395686, -0.021728959, 0.07130274, 0.059627455, -0.0074009234, 0.036120277, 0.043406196, 0.0053399303, 0.03145472, -0.015335501, -0.021632297, -0.017304763, -0.03044682, -0.013456492, 0.012541931, -0.02386971, -0.054021876, -0.008367685, -0.05662573, 0.027975911, 0.007584707, -0.008862861, 0.046528224, 0.00040718526, -0.029897489, -0.021044264, 0.057252858, 0.047660604, 0.0047391187, -0.0404718, -0.058494415, 0.0031442016, 0.063438624, 0.0074391267, -0.040355403, 0.030495202, 0.007367613, 0.022181021, -0.014680035, -0.017890545, -0.0023402497, -0.004995499, -0.055463452, 0.052110437, 0.030195389, -0.076902285, 0.013498744, 0.0886643, 0.0012370207, -0.026877644, 0.039628226, 0.0830908, 0.00040284227, -0.037868712, 0.043133445, 0.036604088, -0.0065482277, -0.040472608, 0.026032463, -0.06591604, 0.029924002, 0.047906313, 0.034119662, -0.01425191, -0.009368038, -0.018310959, -0.07738675, 0.044217605, 0.025988322, -0.011873412, 0.0017131751, -0.0024013296, 0.023168411, -0.09577136, 0.014727385, -0.014231361, -0.03533036, 0.070317216, 0.070484966, -0.032648288, -0.0065807, 0.038211156, 0.09546545, 0.022532085, 0.03495503, 0.10076203, -0.033993676, 0.08622444, -0.053723577, -0.039048348, 0.003721232, -0.05409953, -0.0110068275, -0.036120415, 0.004042486, -0.05795588, 0.046399735, 0.037377313, 0.0024078703, -0.028980326, 0.057024013, -0.030494533, -0.0036381788, 0.05245903, 0.04174927, 0.016460396, -0.04003004, -0.019762706, 0.01632795, -0.035062894, -0.07444276, 0.0028172745, -0.020616202, 0.026349157, 0.053991266, 0.038682483, -0.06579916, -0.06191358, -0.003988106, -0.026137132, 0.025820212, -0.013269769, -0.018291617, 0.042373765, 0.015695302, -0.04733561, -0.030356096, 0.01881226, -0.015461619, -0.03701878, 0.010781343, -0.018539255, 0.010310043, -0.049600925, -0.0011462262, -0.022707134, -0.0264866, 0.024625055, -0.082746, 0.0051776334, 0.07368977, 0.04711023, 0.028481033, 0.013611902, 0.035679672, -0.02552757, -0.060422353, 0.0481478, -0.025891365, -0.03846199, 0.023103798, -0.030287286, 0.00566962, 0.037611097, 0.0028466424, -0.022933653, 0.017608546, 0.027865164, 0.027044732, -0.0046502943, -0.05143844, -0.02116537, 0.0044230074, -0.026187045, 0.005922402, -0.018067509, -0.06407183, -0.069891155, -0.094748214, -0.026680877, -0.02042462, -0.05038617, 0.086098075, -0.005261317, -0.06711559, 0.0055121826, 0.0082637165, 0.026117882, -0.045622334, -0.03305836, -0.0036040493, -0.046536144, 0.015985716, -0.01638445, 0.037591718, 0.040879216, -0.04613914, -0.014705907, -0.047722064, -0.01671382, 0.061519198, 0.020229984, -0.016757265, 0.038001373, -0.0025372773, -0.0145022385, -0.009691983, -0.003508063, -0.05998783, 0.033843268, -0.06527849, 0.005941662]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>문경원</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Structuring liquid oil into oleogelfor dairy-free imitation cheese low in saturated fat</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Imitation cheeses made from vegetable ingredient shave received increasing attention for vegetarian sand the people with lactose in tolerance. However, palmoil has been commonly used as alipid component to make imitation cheeses, probably generating health concerns derived from high saturated fat content. In this study, carnaubawax was applied to canola oil with various concentrations to prepare oleogels that were utilized as an alternative to palmoil in imitation cheeses. The processing performance of oleogels in imitation cheeses was characterized in terms of physico chemical properties. Compared to the control with palmoil, harder and more chewy textures were observed in the oleogel cheeses, and the viscoelasticity tended toin crease with increasing levels of oleogelator. Also,time-domain NMR analysis demonstrated that two groups with different proton mobility were clearly observed in cheeses. The saturated fatty acid content in the cheese was significantly reduced from 45.70% to 5.20%. The results of this study confirmed that the application of oleogels for palmoil could improve the health functional properties of imitation cheeses without significant quality loss.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-0.028385138, 0.081712775, 0.03371999, 0.0099772755, 0.10367216, -0.05400936, -0.03930875, -0.028093673, 0.021879653, 0.04834887, -0.057652876, -0.023440512, -0.010491499, 0.033742692, -0.020052638, 0.069113664, -0.035178106, 0.064666286, 0.022252733, 0.059214506, 0.013316918, -0.03059092, -0.06499823, 0.054762427, -0.024125008, 0.009967757, -0.033929218, 0.09309817, -0.055676386, 0.045404967, 0.054150786, 0.0027216251, -0.0216237, 0.051545665, 0.09228285, -0.025372555, -0.05059398, 0.014311353, 0.040223118, -0.0009022893, 0.00268211, 0.015912944, 0.05094689, 0.032291822, 0.06630266, -0.064186916, 0.02431678, -0.006521329, -0.009558727, -0.0054340158, -0.0202685, -0.008042622, -0.005953815, 0.051050905, 0.04052403, -0.0075896005, -0.018633118, -0.054799728, 0.010684711, -0.02930279, -0.08071346, -0.0936272, -0.048976842, 0.015754923, -0.030274568, -0.012743385, -0.012584109, 0.04897074, 0.013454037, -0.07317706, -0.017614132, 0.061704166, 0.03270695, 0.009682802, -0.10722323, -0.009814655, 0.0009652662, 0.01295837, -0.048658572, 0.0043121018, -0.022131097, -0.0518197, 0.066633865, -0.03257848, 0.046774488, 0.008657404, -0.033605985, -0.028949924, 0.041335776, 0.022927048, 0.035492197, 0.023685325, 0.0838425, 0.010522029, 0.021239081, 0.030875433, 0.08076038, 0.018884009, 0.048438936, -0.037523244, -0.026393803, 0.080207445, -0.03393647, 0.048693094, 0.017126216, -0.034381066, 0.012020534, -0.029657915, 0.037362877, 0.019614495, -0.009586764, -0.05624357, 0.030638037, 0.037157442, -0.009133771, 0.028081957, 0.037262965, 0.081995234, 0.021769619, -0.025742117, -0.014975283, -0.061209057, -0.012331582, 0.006673801, 0.032267496, -0.024389708, 0.019993505, 0.028280228, 0.011553215, -0.005624227, 0.0007908175, 0.08591947, -0.026734317, -0.0318041, -0.0001501008, -0.03708749, -0.019859932, 0.030510522, -0.0023814947, 0.012376394, -0.006235238, 0.014833336, 0.03300374, -0.024191443, 0.0013135294, 0.0369032, 0.035544496, -0.008185586, -0.020823823, 0.05703664, 0.03207495, -0.037747942, -0.050285492, -0.010073788, -0.00719304, -0.100846395, -0.07554248, -0.029233428, -0.024801318, -0.014290176, -0.021233812, -0.033490423, 0.02316323, -0.0016610494, 0.009766593, 0.004069734, 0.057107992, 0.010684074, 0.02425599, 0.0029342007, -0.010151157, 0.0015552907, 0.01704467, -0.0031432682, -0.0043673115, -0.045491714, -0.04229387, 0.00026465548, 0.012650464, -0.035648942, -0.033758085, -0.016994148, -0.005342928, 0.10432761, -0.014016507, 0.022854239, -0.009362682, -0.004091512, 0.024400957, -0.018583287, -0.056091398, -0.008191167, 0.024601448, 0.03172831, -0.004585183, -0.050091516, 0.008232645, 0.026059117, 0.0027784526, -0.059738886, -0.060796354, 0.036122456, 0.05841493, 0.006020304, 0.04406411, -0.024880942, -0.00435211, 0.0024302285, 0.029718755, 0.0334677, -0.026373511, -0.045270152, 0.04029145, 0.07148802, 0.08522052, -0.052283764, 0.009588534, -0.030276539, -0.036307976, -0.02944611, -0.0142616015, -0.020166188, -0.030815056, -0.042088434, -0.029899247, -0.002972185, 0.01990024, -0.08854365, -0.07068313, 0.02153597, 0.014292695, -0.06562241, 0.023394085, 0.023075368, -0.004642458, -0.048410114, 0.0102110915, 0.0574362, -0.008597623, 0.12490359, 0.026853317, 0.010214395, 0.00032582437, -0.017136896, -0.0068585887, -0.030195326, 0.004907441, 0.017258111, -0.01286392, -0.03899328, -0.05943411, -0.021929443, 0.08285454, -0.03320123, 0.010380206, -0.008142267, 0.029487012, 0.014486603, -0.033748664, 0.023400784, 0.00846055, 0.020075934, 0.035906445, -0.060801245, 0.015554522, -0.10222548, 0.020441659, -0.0005525788, 0.026440673, 0.056204468, -0.0633462, 0.015702846, 0.04875388, 0.015948545, -0.012555052, -0.037680343, -0.0035193358, 0.041621614, -0.0003248877, -0.031382613, -0.073592685, -0.042559642, 0.083016664, -0.0592534, 0.046405215, -0.02165356, -0.09645817, -0.019182904, 0.03291664, -0.026170561, -0.026773138, 0.02089137, 0.0028679701, -0.017045017, -0.044776138, 0.057834163, 0.033793613, 0.0341054, 0.00040007426, -0.003943679, 0.040102888, 0.043360434, -0.02771186, 0.07029189, -0.007674434, 0.0629486, 0.055838794, -0.06617708, -0.018040651, -0.023714967, -0.023811817, -0.040074162, 0.06533344, 0.049367595, -0.082432486, -0.022393359, 0.06266949, 0.044010766, -0.017585969, 0.054023404, -0.04390425, 0.03143307, -0.03652168, -0.03339628, -0.0047680894, 0.02792638, -0.057725336, -0.016371533, -0.031938806, 0.057912037, 0.014534314, -0.016082883, 0.0013278116, -0.004419417, -0.017068673, 0.008981963, -0.028461512, 0.020737175, -0.00011172844, -0.063671455, 0.018881647, 0.02459692, 0.03804555, -0.028973741, -0.028459873, -0.031070726, 0.046677507, 0.10017461, -0.007178718, -0.02290531, -0.008838573, -0.034817804, 0.020153275, 0.009192897, 0.0060089133, 0.0051918277, 0.0057093073, 0.07354532, -0.034357227, -0.046317663, -0.00017404626, 0.039964322, 0.0020130468, 0.0282325, 0.13226016, 0.008356496, -0.06659534, -0.010444625, 0.045212474, -0.038017634, 0.040485773, 0.018090483, 0.012224886, 0.0140324095, -0.021906378, -0.023632543, 0.007494805, -0.0029954915, 0.0645888, 0.027053168, 0.01263218, -0.02245292, 0.009147771, 0.008000123, -0.065904215, -0.058735628, -0.111627154, 0.030346315, 0.06389766, -0.08064019, -0.05453761, -0.0036274996, 0.047256812, 0.027073115, 0.026039142, 0.013383774, -0.05370959, -0.009188446, -0.03352864, -0.0060553495, -0.015380509, -0.045870654, 0.018420124, -0.021162393, 0.017123383, -0.045871504, 0.011999675, -0.065741375, -0.0013993712, -0.04284538, 0.048865546, 0.09885664, 0.019016935, 0.046767175, 0.00010656752, 0.0225564, 0.00029430853, 0.0010984561, -0.021204874, 0.010247383, 0.0025324044, 0.045909565, 0.057683166, 0.07139433, 0.12790465, -0.018054923, -0.020773724, -0.06602306, 0.017993992, -0.0002776615, 0.050895944, -0.07971976, 0.015545444, -0.01598266, 0.013178584, 0.080893815, -0.064976044, 0.008344438, -0.06750681, -0.0046839924, 0.027136663, -0.05776405, 0.10736277, 0.014740333, 0.016665883, -0.0068141124, -0.03565898, 0.03048967, 0.029534256, 0.016570242, 0.02010906, 0.012236033, 0.033335805, -0.050457787, 0.017139124, -0.104112945, -0.028392881, 0.004011443, 0.006226446, 0.007602056, 0.012133186, -0.017279012, 0.039965466, 0.07065041, 0.037378863, -0.049369708, -0.029899474, 0.015412631, -0.017564097, -0.0095732575, 0.008984809, 0.0034869963, 0.014138953, 0.032840785, -0.004703968, -0.03968153, -0.024593038, -0.124253996, -0.022139037, -0.064679265, 0.03512557, -0.03780815, 0.05030498, 0.0039801714, 0.0049589663, -0.017105289, 0.070282154, -0.015963491, -0.08377501, -0.026349206, -0.026387574, 0.033889193, -0.01926245, -0.0058949455, 0.075873785, -0.009365803, -0.026619812, -0.014303405, -0.06789623, -0.0017259569, -0.023757271, 0.09498581, -0.027477479, -0.014701554, -0.03475649, 0.005077953, -0.00037200373, -0.021017015, -0.104895696, -0.034474075, -0.03173572, 0.09029092]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A machine learning workflow for predicting the oil uptake of rice flour blends in a frying batter system</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Machine learning technique was utilized to predict the oil uptake of frying batter with blended rice flours based on several physicochemical features before frying The physicochemical features showed low correlations with oil uptake (Pearson correlation coefficienets 0 29 0 61 Through an exhaustive search method by regsubsets function, the amylose content, peak time, peak temperature, and final viscosity were selected as the major variable combination to affect the oil uptake of rice frying batter The four experimental features were applied to train two different machine learning models (multivariable linear regression and multilayer perceptron neural network) and their performances were compared in terms of coefficient of determination (R 2 and root mean squared error ( The model training was carried out by applying K fold cross validation, which generates different combinations of datasets consisting of each 20 testing and 80 training dataset In conclusion, the multilayer perceptron neural network model made a better performance than the multivariable linear regression one in predicting the oil uptake of rice frying batter, showing higher R 2 and lower RMSE</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[0.041704632, 0.0030784404, 0.04156336, -0.0277353, 0.018055446, -0.011307752, -0.017312078, 0.036921438, -0.0092486655, 0.02281754, -0.07570842, 0.0307644, 0.01654966, -0.07806952, -0.026225237, 0.017693287, 0.030373098, 0.062041022, 0.0022245077, -0.009056201, -0.050973386, 0.036511317, -0.03182814, 0.04365125, 0.10581027, 0.002022645, 0.010765875, -0.0682445, -0.051033214, 0.0014669708, 0.04405023, -0.0446647, 0.006683887, -0.012122669, -0.048733126, -0.017083278, 0.043805327, -0.0009557434, -0.034766134, -0.0030128376, -0.016048828, 0.012802619, -0.06753926, -0.031495403, -0.04535652, -0.024235278, 0.050554696, 0.048701886, -0.081168674, 0.024264833, -0.0034275218, -0.06561384, -0.0028237752, 0.046855856, 0.06016212, -0.047169287, -0.055492435, 0.027769761, -0.036612168, 0.030878602, -0.083987534, -0.0002573661, -0.013522267, -0.014039012, -0.02833581, -0.028497437, 0.019040445, -0.022711318, -0.0012921949, 0.012234204, -0.05053954, -0.019078529, -0.01333671, 0.00356338, -0.08877266, -0.08773744, -0.041535657, 0.030144893, 0.011362045, -0.030016761, -0.089203484, -0.02503722, 0.06032101, -0.006925325, -0.0743251, 0.0863147, 0.0016298917, 0.07594411, 0.0207632, 0.010383446, 0.04313684, 0.00796421, 0.11599801, 0.07170539, 0.014283045, 0.039960552, 0.0820545, 0.06428862, -0.0171855, 0.018336441, -0.0874762, 0.02812295, 0.0039717634, 0.002168453, 0.037117045, -0.03940731, 0.027402887, 0.005663681, 0.020846007, 0.04497121, 0.06907414, -0.045535345, -0.020109488, -0.026988458, 0.015734335, 0.04489277, 0.02774671, 0.010512294, -0.0036539868, 0.06554767, 0.06094263, -0.02759926, -0.03208068, 0.026795087, 0.020757826, -0.04841394, 0.0013242132, 0.0074413074, -0.02801495, -0.0930908, -0.0072920867, 0.024532946, -0.008105108, -0.029693052, 0.0094554415, -0.031793334, -0.018180713, 0.025908966, 0.045161027, -0.040829018, 0.0017104149, -0.029905338, 0.01204571, -0.05339121, 0.035581812, -0.04618212, -0.08836709, -0.04306459, -0.056427546, 0.0150122745, -0.03857279, -0.021147091, -0.017394507, -0.027140034, -0.016275283, -0.08902718, -0.04109892, -0.03178766, -0.05453338, -0.017259069, -0.03394857, 0.0031463099, 0.016974613, 0.074993074, 0.055649567, -0.015436799, 0.04765905, 0.012159187, 0.079282835, 0.06440459, 0.018075721, 0.007416034, -0.0013857929, 0.02446715, -0.017986802, -0.043853194, -0.004102288, -0.10955954, 0.017061202, 0.013777845, 0.026017474, -0.09094051, 0.009701981, 0.05791247, -0.003927707, 0.012381298, -0.023569318, -0.052278932, -0.0018766589, 0.024865977, -0.05477159, -0.031601496, 0.06719721, -0.059957303, 0.044443864, 0.049710024, 0.05250984, -0.019930067, 0.037044875, -0.009322081, 0.060509138, -0.011732353, 0.05538782, -0.024486866, 0.05776634, -0.010350499, -0.004343819, 0.032637227, -0.00095854665, -0.006805618, -0.06665105, 0.019562319, 0.022128256, -0.025926929, 0.031585522, -0.030580183, 0.03004771, -0.006596217, 0.06390365, 0.01119835, 0.016736954, 0.028995212, -0.03332621, 0.08332747, -0.0069447523, 0.026666373, 0.055852316, -0.010601083, -0.058406655, -0.056939866, 0.009182599, -0.0639475, -0.055717435, -0.030253861, 0.032665703, 0.017746098, -0.07842971, -0.020324329, 0.033827797, 0.06718033, -0.019556897, 0.032189116, -0.0047170212, 0.041544445, 0.03535448, -0.089447215, 0.005507252, 0.010240298, 0.0016500393, -0.0053516915, -0.052969698, 0.08517181, 0.020830452, -0.088614956, -0.0013667912, 0.09619973, 0.0009985735, -0.0034149715, -0.02782185, -0.0015536213, 0.06236791, -0.03464445, -0.02570786, -0.044419326, -0.025288781, -0.048512973, -0.024685966, 0.02278842, 0.015721716, 0.01630982, -0.04821664, -0.036018327, 0.031474505, 0.04183792, -0.0028213316, 0.031060245, 0.006820654, -0.006480836, 0.018757274, 0.016200006, -0.034293026, -0.0005363737, -0.0039413907, -0.0365353, 0.01772669, -0.02666633, -0.047497068, -0.011314025, 0.05981455, 0.02627818, 0.012678697, -0.017299585, 0.04664155, 0.012133935, -0.043865383, 0.017357608, -0.009830572, 0.031775527, -0.008571448, -0.038328096, -0.017451126, -0.040320944, 0.03933241, 0.019914882, 0.0028432382, -0.03163028, -0.00082118186, -7.119891e-05, 0.018213427, 0.025606718, -0.02665841, -0.023950335, 0.027692929, 0.09698099, -0.08651522, -0.003562807, 0.04439545, -0.027779143, 0.035544403, -0.06223884, -0.0039018432, 0.020908333, -0.01850918, -0.028101908, 0.018029356, 0.07216489, 0.003259269, -0.07256937, -0.041235447, 0.0227769, -0.07487777, -0.054094445, -0.022697205, 0.048022233, -0.04046358, -0.013847269, 0.02935045, 0.0057080174, -0.019707672, -0.049910795, -0.09713755, 0.1010979, 0.05756994, -0.011729955, 0.046893433, 0.063520536, 0.040608626, 0.008238084, -0.045642845, 0.006497585, 0.0146734705, 0.0032764263, -0.083935454, -0.009290503, 0.013990564, -0.031361416, -0.009542569, -0.028658262, 0.04465661, 0.008216654, -0.0030213485, -0.047624707, 0.029419042, -0.010710575, -0.013135744, 0.009262429, -0.010678889, -0.012142424, -0.020833755, 0.0062528364, 0.039344743, -0.021660244, -0.017894698, -0.0013781696, -0.02225757, -0.05746268, -0.007605959, 0.052725706, 0.055344097, -0.023724725, 0.0016664834, -0.0380493, 0.0066910833, -0.0390559, 0.010793061, 0.00029164506, -0.0006357638, 0.07922627, 0.0118150525, -0.066257685, 0.019828338, 0.08676672, 0.008873662, 0.033254664, 0.023907142, -0.016339699, -0.03003171, 0.04023723, -0.034099333, 0.029219666, 0.014875986, -0.06314339, 0.0090684835, 0.017601706, -0.04580361, -0.04246232, 0.048058435, 0.01293793, -0.043036826, -0.04388334, -0.0017645501, 0.07433023, 0.06613233, 0.055895086, 0.016958263, 0.03142511, -0.02524863, 0.031004986, 0.022111246, -0.026266137, -0.06863071, -0.0040294016, 0.0526913, 0.010664767, -0.035200845, -0.05325738, -0.013096737, -0.02351341, 0.005485789, -0.090968, -0.0040254425, -0.073642336, -0.029335503, -0.017461384, -0.07268564, 0.0020540946, 0.016386712, 0.050413392, 0.01952621, 0.032560844, 0.01175772, -0.04730668, 0.020719104, -0.04092142, -0.045285527, -0.022278924, -0.0014644618, 0.014912619, 0.006725212, -0.04192861, -0.07376362, 0.016655698, 0.019892676, 0.037938703, -0.0051043574, -0.02115039, -0.050267156, -0.0022620007, -0.020176742, 0.008159483, 0.014563721, -0.033458974, 0.03164822, 0.043723382, -0.035614084, -0.09018983, 0.019067936, 0.05188991, -0.0084919855, -0.040241577, 0.021641683, 0.07009311, -0.037268985, 0.0048025968, 0.027298652, -0.010854343, 0.009203679, -0.028595895, -0.0016711138, -0.0359651, 0.052125912, -0.0022320403, 0.08287366, 0.08301436, 0.0033175084, 0.042662624, 0.018816296, -7.168623e-05, -0.044783052, -0.05264093, -0.08567215, -0.027000481, 0.0014110985, -0.041570123, -0.021543534, 0.07066347, -0.043353252, -0.034976717, -0.033311725, -0.05312316, -0.00074896065, -0.033554815, -0.0027882552, -0.009059305, -0.010319625, -0.013417912, 0.009725266, -0.016336283, -0.043850545, 0.029325524, 0.017620273, -0.021844886]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>윤성</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A quantitative comparison of HMR food crispness under different oven conditions</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>The segment of HMR has been gaining rapid popularity in the current field of food industry with the increasing ratios of double-income families and single/old households. With this trend, it is necessary to enhance the quality attributes of HMR foods that are highly affected by different cooking methods. In this study, HMR foods (dumplings, hot dogs, and burritos) were cooked under three different oven conditions (inverter lightwave, inverter microwave, non-inverter microwave) and their textural properties (specifically, crispness) were quantitatively compared. When the HMR samples were subjected to a puncture test, the peak force value was not suitable as a representative textural parameter. however, the crispy texture seemed to be quantitatively measured in terms of force variation rate. Thereby, the HMR samples cooked in the lightwave oven had higher values of force variation rate than the microwaved-samples, showing increased crispness by 3.00/1.89 times in dumplings, 1.52/1.36 times in hot dogs, and 2.08/2.22 times in burritos. Thus, this study may provide valuable information for better understand of the textural properties of HMR foods depending on different oven conditions.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[-0.0006101243, 0.0029439898, 0.029529445, -0.017319197, 0.079633996, 0.04215429, -0.03120421, -0.05261626, 0.050631993, 0.039226234, -0.01080351, 0.042397495, 0.031074623, 0.0043904907, -0.04615434, 0.0121924365, 0.026692104, 0.010991254, 0.035948467, 0.016963802, -0.051907033, 0.036261957, -0.06973175, 0.030548934, 0.07691808, -0.04183353, -0.0075763515, -0.04855782, 0.015964638, -0.005400013, 0.06963742, -0.053259537, -0.039795604, -0.017901955, -0.030088164, 0.031215476, 0.06087934, 0.044220045, 0.06348786, -0.025152888, 0.04524749, 0.044658694, -0.02837386, -0.039020266, -0.014194183, 0.044444226, -0.02744107, 0.018027231, -0.08520523, 0.026053028, 0.019582912, -0.028242173, 0.012749139, -0.036209464, 0.033088088, -0.07894383, -0.028321298, -0.021463385, -0.006072867, -0.056876983, -0.046894487, -0.022752877, -0.026406558, 0.0030583206, -0.04649629, 0.0489942, 0.027971547, -0.04080131, -0.021516161, -0.04821997, -0.06687284, 0.022244401, -0.026813086, 0.02364684, -0.102911755, -0.09675523, 0.0052222786, -0.038413987, -0.03944386, -0.06644969, 0.030982042, -0.018290037, 0.020983465, -0.017566545, -0.065060504, 0.029605113, 0.0053996798, -0.046982754, 0.025054667, -0.07125931, 0.010622968, -0.0049092574, 0.11722663, -0.052549046, 0.030213146, 0.030702583, 0.047591705, 0.092932455, 0.04399624, 0.0099504385, 0.012664794, -0.0023474835, -0.06671883, -0.022923773, 0.0069549102, -0.01262584, 0.074628435, -0.0007392749, 0.015208147, -0.015642598, -0.01830288, -0.03710441, -0.037669208, 0.01455338, 0.03335411, 0.065121956, 0.042444702, -0.027689783, -0.007094004, 0.0030922215, -0.057719305, 0.04497237, 0.0064096977, -0.01392757, 0.006228545, -0.0036795794, 0.023883032, -0.05781202, -0.013528889, 0.06589654, 0.04485233, -0.01094706, -0.028070133, 0.06350921, -0.0047561047, 0.013871599, 0.006219656, -0.018859655, -0.02463835, 0.010426697, 0.008358541, -0.016482135, 0.016010964, -0.03501857, -0.0056332746, -0.030407453, -0.10397759, 0.027027758, -0.034411877, 0.04157794, -0.021993604, 0.055166725, 0.015827714, -0.0045676706, 0.04440673, -0.05102817, 0.026702652, 0.087053865, -0.062695846, -0.04004396, -0.013502393, 0.034313403, -0.016510002, 0.03042273, -0.019397127, -0.045932908, 0.073167615, 0.029721888, -0.020051807, 0.11716159, 0.021393651, -0.052243523, 0.005689226, -0.020898834, 0.0032042912, -0.021535052, 0.003828889, 0.042697348, 0.049659517, -0.011010958, -0.024250368, -0.009008201, 0.010346625, 0.032330517, -0.041727807, -0.027244011, 0.002922827, -0.07310286, 0.016048985, 0.06537392, -0.06695743, -0.06146918, 0.031455588, -0.016698347, 0.012137846, -0.016996555, 0.027493734, 0.024812916, 0.05328635, 0.05332961, 0.0038270524, 0.02392227, 0.0414146, 0.0015362476, 0.08339099, -0.047498547, -0.017940043, 0.02769941, 0.027293503, 0.006230044, -0.01753652, -0.027974198, -0.06352303, 0.04555965, 0.0036130506, 0.0053391554, -0.02087661, -0.043576077, 0.04945227, 0.0056502833, 0.05714558, -0.03381088, 0.024664512, 0.0031742144, 0.020126175, 0.064222954, 0.030174484, -0.030630961, -0.009105297, 0.018619215, 0.035601098, -0.062387787, -0.082324706, -0.03601466, 0.010014191, -0.007967583, 0.061186228, 0.026328543, 0.047232114, 0.09409716, -0.033956707, 0.045380943, 0.031758647, 0.040407285, -0.0016110572, -0.07722978, -0.051117193, 0.047283858, -0.032870505, -0.011327576, -0.023435125, 0.042469658, -0.02328674, -0.052895367, 0.02113106, 0.057951845, 0.036152303, -0.007536598, 0.035963383, 0.048186388, -0.010925874, 0.07191595, 0.041087896, -0.038573053, -0.037353747, -0.023147099, 0.025340049, -0.0026234647, -0.023706442, 0.026936281, 0.010136111, -0.02862818, 0.0546619, 0.05494671, -0.0050235232, -0.0038198116, -0.049074646, -0.068502754, 0.057278726, -0.04765651, -0.020313144, 0.070949584, -0.05387988, -0.062967144, 0.03075835, -0.009349411, -0.03672662, -0.022190373, 0.03897251, -0.02559326, -0.0362577, 0.018533032, 0.040801488, -0.045127172, -0.04660887, 0.03822043, 0.004198777, 0.032152865, -0.008807546, -0.007641356, -0.012942279, -0.005319235, 0.09733889, 0.02237229, 0.008856705, 0.0012320845, -0.014722733, -0.037155356, 0.012451548, 0.07865345, -0.017757053, 0.055859853, -0.015937086, 0.061403148, 0.012003974, 0.09090408, 0.021133155, -0.03373539, 0.0015020238, -0.0336264, -0.044777654, 0.03836195, -0.009227984, -0.02393503, 0.0057688127, -0.009180891, -0.055743992, 0.0213711, -0.026500953, -0.0007966039, -0.05357359, -0.028986773, 0.019650262, 0.0038242047, 0.023572292, 0.0099237235, 0.027257647, 0.0070435824, -0.03823777, -0.034383114, -0.048882578, -0.08115488, -0.01467795, -0.0076915026, -0.049892917, 0.06389952, 0.10650355, 0.10703205, -0.07927904, -0.009181162, 0.07122457, 0.010951364, -0.015361727, -0.030584762, -0.02275709, -0.006689657, -0.029663995, -0.00117597, 0.06462845, -0.05742871, 0.032804187, 0.019267153, -0.008973632, -0.009359359, 0.058700133, 0.020244302, 0.03683682, 0.018557984, 0.03878758, -0.017622804, 0.03407801, 0.026288591, -0.05320128, -0.016535362, 0.011735922, -0.0044983677, 0.048056114, 0.04075482, 0.09095753, 0.010849507, 0.030283606, 0.046844725, 0.011697371, -0.02581426, -0.037578568, 0.04743674, -0.06781889, 0.051576104, -0.056516558, -0.030333342, 0.05455959, 0.026273984, -0.01361061, 0.023001617, 0.011620838, 0.06602911, -0.011486002, -0.026150413, -0.034356646, -0.017174296, 0.018912124, 0.01583021, -0.02617919, 0.0010716865, -0.008899022, 0.039532997, -0.03427592, -0.014392522, 0.008457527, 0.02486535, 0.026032008, -0.001132595, 0.034895416, -0.0051280237, -0.036176138, 0.020079453, -0.025446527, 0.029918594, 0.009035464, -0.013421535, -0.069434546, 0.021697704, -0.0013774539, 0.08485857, -0.020420663, -0.032793898, -0.026855163, -0.006296717, -0.043331705, -0.033150934, -0.0013678885, -0.08294654, -0.015888367, -0.074179426, -0.050987497, 0.030619178, -0.02751741, -0.01617201, 0.07665916, 0.032557085, -0.042018846, -0.040549695, -0.052799113, 0.019409444, 0.03453426, 0.04572859, 0.039098155, 0.09769658, 0.023412725, -0.028785666, -0.023107309, -0.0133270295, 0.0033265047, 0.09113242, -0.02140552, 0.031015657, -0.029515043, -0.017374171, 0.005475443, -0.043233268, 0.00028991257, -0.027576542, 0.08470896, 0.019328406, -0.10690512, 0.0021780382, -0.09226462, -0.0024413832, 0.017277515, -0.036994003, 0.026741996, 0.037607163, 0.031471934, -0.0056542954, 0.01684837, 0.059373397, 0.030434754, 0.01972364, -0.010855366, 0.045256138, -0.009151343, 0.0021240788, 0.08201567, 0.05113661, -0.09168343, 0.054652743, 0.089669466, -0.000914396, 0.019256495, 0.037115004, -0.10834548, 0.0019926366, 0.0161171, -0.023477314, 0.070101514, 0.07943893, -0.038994383, -0.015694551, 0.006567541, -0.023117252, 0.017611645, -0.013837861, -0.0122561, 0.006802484, 0.02922639, -0.039468862, 0.12250776, -0.0071749864, -0.14643013, -0.053298064, -0.03949637, 0.038394842]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>김희수</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Correlation of normal stress-based measurements for investigating the rheological properties of the elderly diets</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>The aging populations have recently become the global focus of substantial research interest in a variety of industrial fields and the food industry is also no exception. Thus, a great deal of effort has been made to develop foods for older adults by controlling their texture. However, there exist practical difficulties in applying existing methods to measure the rheological properties of the elderly diets. Thus, in this study, three normal stress-based methods were compared in order to develop an instrumental methodology that can be universally applied to a wider variety of foods. When three rheological methods with 3, 5, 20 mm rod probes were carried out to generate normal stress, good linear correlations could be observed between the methods tested. Specifically, high coefficients of determination (R2 = 0.876 and 0.935) were detected between 3 and 5 mm probe tests, 5 and 20 mm probe tests, respectively. The rheological method with a 5 mm probe furthermore showed wider applicability and better convenience of use. This study therefore provides valuable fundamental information on objective rheological guidelines for the food industry to develop the elderly foods.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[0.103105284, 0.0035884234, -0.027809722, -0.02730561, 0.1185965, 0.08253153, -0.039223645, -0.046990067, 0.05324837, 0.029176455, -0.025299417, -0.03850908, -0.055573467, 0.007816792, -0.0007670243, 0.003729661, -0.017164214, 0.019478576, 0.021575514, 0.0104565015, 0.011558662, -0.061448984, -0.03607516, 0.031051092, 0.03236361, 0.007797004, 0.03362212, -0.013596096, 0.046762116, 0.008658747, 0.059198517, -0.074993275, -0.05044615, -0.04025109, -0.011549755, 0.00784156, 0.011024853, 0.06312705, -0.04068962, -0.10119821, -0.049407844, -0.012719571, -0.0116233565, -0.039863586, 0.08821993, -0.07732649, 0.044261396, 0.05206465, -0.08419924, 0.019110054, 0.02061342, -0.0662054, -0.022024283, 0.018678859, 0.034722213, -0.098980576, -0.034385942, -0.02701177, 0.031224584, -0.0016827921, -0.019698879, -0.06100984, -0.06736019, -0.024203097, 0.02416154, 0.012250249, -0.016277496, 0.038588367, -0.0008887686, 0.039040722, -0.08214243, -0.039321195, -0.014277602, 0.062379472, -0.06797684, 0.017356671, 0.015489407, -0.0047253575, -0.021636788, 0.02138329, 0.07371448, -0.056444123, 0.05081009, -0.0025434357, -0.05103217, 0.05195873, -0.038531326, 0.0076985653, -0.033193935, -0.027099432, 0.006520101, -0.0045631337, 0.08395755, 0.049506027, 0.024069477, -0.0017376357, 0.048768427, 0.07647985, 0.044052146, 0.04141482, -0.019358853, 0.08266393, -0.039276183, -0.008133345, 0.05322924, -0.0046506273, -0.031602766, -0.00967703, 0.015526495, 0.028455654, -0.020178575, -0.07770865, -0.06720433, 0.044331245, -0.040218167, 0.024482178, -0.013754444, -0.013303276, -0.0057450132, 0.0019244001, 0.027017293, 0.004344695, 0.0543948, 0.028967042, -0.04763669, -0.0001366334, 0.027662478, -0.035075977, -0.01487352, 0.10923658, 0.014334742, 0.08111654, 0.013531087, 0.05208303, 0.0049618823, -0.039484225, -0.0023014133, -0.0067671877, -0.043620445, -0.0012130401, -0.016828585, -0.06660754, 0.0291767, -0.07064283, -0.024143739, -0.01701718, -0.08075169, -0.014049101, -0.030710855, 0.009553779, -0.030027324, -0.009612526, 0.055310342, -0.023760078, -0.02692144, -0.053683665, -8.011586e-05, 0.073139876, -0.03948149, 0.03722147, -0.03231134, -0.031007601, -0.08805997, 0.06307309, 0.0035285205, -0.01909378, 0.033574108, 0.017003845, -0.022661531, 0.046178892, 0.033299413, -0.027144361, 0.05490437, -0.0334526, 0.039957844, -0.006488733, 0.01618255, -0.022841252, 0.11480713, -0.0738714, -0.0675751, -0.030612677, 0.025035795, 0.028509792, 0.026298674, -0.038744897, 0.043369878, -0.018886395, 0.0724443, -0.033609044, -0.038279563, -0.03287127, 0.022163633, 0.0405962, -0.026545944, 0.033098973, 0.07345145, 0.010254841, 0.030139364, 0.022954023, -0.08808845, 0.030480243, 0.023778107, 0.015950447, 0.05901795, -0.0018397368, -0.038681976, -0.019260881, 0.04127663, 0.022735128, 0.029490447, -0.0016749956, -0.004379876, -0.039300647, 0.041934576, -0.024735063, 0.010511689, -0.06586792, -0.03511726, -0.014127337, 0.063832864, -0.0014655459, -0.0048796893, 0.015344579, 0.004966057, 0.021811467, 0.0056313397, -0.03877677, 0.01940006, 0.046057865, 0.0406515, -0.019710211, 0.0007462901, -0.098106064, 0.011884647, 0.006529448, 0.010483902, 0.03924678, -0.032245416, 0.091987915, -0.04153364, 0.012546778, 0.016513688, -0.009143693, 0.011557793, -0.0075795827, -0.026047738, -0.014024295, -0.031052683, -0.0067152972, -0.0235459, 0.0066209463, 0.002723809, -0.039761145, -0.020890327, -0.047669087, 0.023367045, -0.08237183, 0.0047127693, 0.012510837, 0.053137153, -0.036315035, 0.017338771, -0.0024798461, -0.06915005, -0.068922296, -0.04085937, 0.010627118, 0.058941945, 0.014585173, -0.027203627, 0.14445902, 0.09140686, 0.06214298, -0.002048661, 0.0037953926, -0.07480893, -0.057958093, -0.029839067, -0.03247362, -0.11202741, 0.004495222, 0.06154257, -0.03434751, -0.046716794, -0.023722291, -0.012869706, -0.041412976, -0.04790361, -0.09437172, 0.0389805, 0.029183581, 0.12648298, -0.012707366, -0.08006543, 0.042172357, -0.004207173, 0.05444875, -0.020098766, -0.013527584, -0.05081672, 0.04120741, 0.0021770054, 0.057583973, 0.03711161, -0.0058020735, 0.01703408, -0.044089418, -0.019876976, 0.058475718, -0.012622237, 0.01963376, 0.0050955573, 0.0908599, 0.018481448, 0.03465584, 0.041440237, 0.01781312, -0.022147438, -0.056987733, 0.06489074, 0.001702628, 0.07147012, -0.012178259, -0.033850837, 0.038528122, 0.019365618, 0.077598125, 0.01596754, 0.033842, -0.010799463, -0.048060313, 0.00049195316, 0.017339597, -0.018623283, -0.016494773, -0.03290088, 0.01115089, -0.03914863, -0.0078369, -0.048003837, -0.026501164, 0.04486483, -0.038995724, -0.03552454, 0.11391452, 0.07663, 0.11043483, -0.08939288, -0.050204948, -0.00907386, -0.03292311, 0.026327712, 0.02031023, -0.0067862766, 0.0060548745, -0.032101367, -0.05264639, -0.027456118, -0.03645782, 0.011528258, 0.015039181, -0.025759282, 0.0040639546, 0.012653378, -0.024730267, 0.051346272, 0.018570274, 0.01913925, -0.068921946, 0.0024966842, -0.010372557, -0.08534817, 0.039497707, 0.017611353, -0.05680604, -0.0046944227, 0.045223057, 0.030201407, 0.07017143, 0.026848001, -0.056594223, 0.0017231266, -0.045136105, -0.014718211, -0.014986212, -0.050279155, 0.0029621013, 0.00050666375, -0.047258846, 0.016254582, 0.041247267, 0.056108397, 0.026700212, 0.08291449, -0.010186464, -0.048550885, 0.0057200124, 0.044025794, -0.025358072, 0.002535178, 0.048823882, 0.00930853, -0.038487956, 0.033531517, 0.013718984, -0.022558583, 0.0018393623, -0.083352976, -0.03861626, -0.0057219965, 0.011352056, 0.00999344, 0.0039670984, 0.03625535, -0.0074333297, -0.009963588, -0.016279744, 0.0070918426, 0.03158007, -0.029426571, 0.009131164, -0.008261474, 0.059720635, -0.032497916, -0.031592526, 0.013150934, -0.043949388, -0.06333631, 0.0028976705, 0.01749576, -0.0821748, 0.05691335, -0.07897493, -0.05107162, -0.0005853301, 0.010942558, -0.019455839, 0.015501673, 0.0063039516, -0.052803285, -0.053503744, 0.014757981, 0.03265862, 0.12656125, -0.0017015268, 0.009172915, 0.059019845, -0.005720082, -0.02967666, 0.004143966, 0.04121076, 0.011996251, 0.09554007, -0.003208697, 0.030923104, -0.009417864, -0.044822693, -0.008478396, -0.05304687, -0.027831217, -0.00017023727, 0.07727745, 0.01393108, 0.019155622, -0.029452916, -0.016069839, -0.0029166576, 0.0785022, -0.00081759744, -0.019563437, 0.045237307, 0.08248509, -0.0098793125, -0.026946113, -0.009573087, 0.0045565334, -0.016425826, 0.021439511, 0.02661347, -0.0057224487, 0.005937838, 0.064389616, 0.041909482, 0.03136866, 0.030076582, 0.08502377, 0.01068518, -0.010101602, -0.010768519, -0.06678556, 0.04251465, -0.077519074, -0.036533356, 0.029085342, -0.002187915, 0.039042607, 0.007866333, -0.031759027, -0.004586562, 0.056539584, -0.093339056, -0.015504975, 0.035002295, -0.10110434, 0.020612514, 0.08500476, 0.015515477, -0.14842807, -0.009789741, 0.019877125, 0.11319654]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>남선경</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Water dynamics in pre-cooked IQF pasta depending on frozen storage and thawing methods</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Freezing has been extensively used as a convenient and affordable method for long-term food preservation in the food industry. However, the information on the quality changes during frozen storage and by thawing methods is very limited. In this study, the quality changes of the pasta samples pre-cooked and then individually quick frozen (IQF), were elucidated depending frozen storage and thawing methods NMR measurements showed that two water populations were observed in the pre-cooked IQF pasta. Distinct changes in the T2 relaxation times and signal amplitudes were not observed for 10 days. Most of the textural parameters seemed to be constant during the frozen storage and this tendency was confirmed by the tomographic analysis. When the pre-cooked IQF pasts samples were subjected to three different thawing methods (boiling, microwaving, and steaming), the steamed sample had a firmer noodle structure. In addition, the highest values of hardness and chewiness were significantly observed in the steam-thawed samples. The results of this study demonstrated that the thawing with steaming appeared to positively affect the qualities of pre-cooked IQF pastas.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[-0.015332596, 0.019486053, 0.057837702, -0.009083703, 0.11101759, 0.029504413, 0.016036285, -0.05741112, 0.043337803, 0.007913022, -0.0116974255, 0.022707677, -0.00467162, -0.00023825816, -0.024851305, 0.0408984, -0.03820054, 0.028495984, 0.012708638, 0.023934504, -0.02875078, -0.007921421, -0.07536363, 0.024376672, 0.07746098, 0.08256272, 0.08181026, -0.07231131, 0.020507734, -0.038068604, 0.09887866, -0.036328234, -0.023697337, -0.032109264, 0.002791216, -0.018536072, 0.024213, 0.03308654, 0.009285448, -0.024051676, -0.01267047, 0.03734127, 0.031376157, -0.010777612, -0.067687064, -0.07524557, -0.008798071, 0.069442876, -0.04002564, 0.049225356, 0.023056826, 0.027724182, -0.012794822, 0.036350433, 0.037534017, -0.023573611, -0.066497, 0.033185232, 0.05759466, 0.044302348, -0.09080183, -0.00871967, -0.059354704, 0.022656392, -0.0061027426, -0.03687093, 0.009987744, 0.028385762, -0.044509348, -0.021001251, -0.038193207, -0.043482482, 0.042172607, 0.024969043, -0.08106537, -0.010063459, 0.00964503, -0.0016896572, -0.018313222, -0.055741616, -0.013853396, -0.04996098, 0.083260134, -0.011880352, 0.01801848, 0.0022606228, -0.049273785, 0.03334806, 0.010656251, -0.03364656, -0.022256944, -0.0006456444, 0.108065136, -0.050176315, 0.032242324, 0.032015324, 0.026258199, 0.11798156, 0.039344896, 0.088487215, -0.023550337, -0.0293883, -0.0020403427, -0.0104609225, 0.0058069876, -0.006433397, 0.10521167, -0.03230223, 0.012508525, -0.002409511, 0.009999397, -0.05264318, -0.055886403, 0.038368683, 0.01852007, 0.032172073, 0.002200805, -0.0137326885, -0.010160147, 0.053884473, 0.09241902, -0.02688437, -0.0025843335, -0.017848806, -0.045851268, -0.0077838693, 0.023735207, -0.049675904, -0.008739228, -0.004418574, -0.064522915, 0.049386546, -0.04962861, 0.05309599, 0.050643556, -0.039194807, -0.036226973, 0.039158706, 0.008111199, -0.03812104, 0.041265115, -0.0032434843, -0.006481388, -0.033335943, -0.04983006, 0.061835583, -0.039184354, -0.030151222, -0.009711487, -0.024189904, -0.09108924, 0.060729384, 0.07970522, -0.03409035, 0.0053256135, -0.051003855, -0.05016163, -0.011805109, 0.02360039, 0.0012455215, -0.008291361, -0.0024268748, -0.060918666, 0.020163145, 0.067367435, -0.06627037, 0.059398126, -0.001826113, -0.021780465, -0.009698758, 0.0035335517, -0.028297711, 0.045493115, -0.01654753, 0.020568544, -0.023821456, -0.020576859, 0.009577925, -0.0066606887, -0.032950416, -0.018250251, -0.039027143, -0.003362792, -0.045554206, -0.0005653984, 0.019652706, -0.042675372, -0.06405368, 0.04429869, -0.07080067, -0.07494838, -0.08390061, -0.007580178, 0.021577466, 0.006709299, 0.009133904, 0.027221596, 0.05350467, -0.0007347894, -0.034789257, 0.022998018, 0.034617096, 0.064772144, -0.026660142, 0.007928729, -0.060433716, 0.039655183, 0.0062236474, -0.00039660386, -0.00067497196, -0.024346221, 0.049058463, -0.024197243, -0.013957648, 0.03681537, -0.031718537, -0.024615334, -0.08787521, 0.009582148, 0.04386131, -0.031450666, -0.019179177, 0.056878734, 0.01087512, -0.049317926, -0.0053298664, 0.115363814, -0.038144264, 0.017435046, -0.030772729, 0.025680669, -0.09826445, -0.048202667, -0.05086478, 0.053414095, 0.01978518, -0.037834812, -0.054982547, -0.019916333, 0.062835194, -0.008461536, 0.0035216943, 0.00027767674, 0.037689, -0.032266792, -0.058906723, -0.04326017, 0.03738018, -0.049994774, -0.016908573, -0.029891636, 0.09138853, -0.05628551, -0.027447093, -0.02820859, 0.032000545, 0.0033352813, 0.044486213, -0.026011782, -0.015542267, 0.008183388, -0.044846386, -0.028232498, -0.053536903, -0.090969265, -0.046817586, 0.031669967, 0.03203271, 0.016131017, 0.0040000556, -0.02426716, -0.09931785, 0.0421444, 0.06340042, 0.006230378, 0.041388456, 0.029057419, -0.02910513, 0.0021131423, -0.031156205, 0.015898988, -0.010801023, -0.01618607, -0.0024931605, 0.017589437, -0.021519829, -0.036607485, -0.043007888, 0.016699772, -0.017553914, -0.051471442, -0.016793108, 0.068897486, -0.01527851, -0.060591027, 0.05273799, 0.01662122, 0.0057672053, 0.03335354, -0.038361248, -0.080741405, 0.06910813, 0.07105478, 0.04543606, -0.024346475, -0.002929572, -0.03610095, -0.00092784216, -0.03451266, 0.047280766, -0.05390794, -0.031042213, -0.0005627961, 0.050990596, -0.043510415, 0.0034396609, 0.06809868, -0.06681605, -0.028716464, -0.034346707, -0.04535014, 0.064878255, 0.0253241, 0.041535847, -0.04860048, 0.002253591, 0.0046011345, 0.009889907, -0.0064903493, 0.06498156, 0.026045674, -0.029471118, -0.02512595, 0.013493352, -0.048038933, -0.059109397, -0.027966293, -0.015509758, -0.04456974, 0.01074884, -0.068263985, -0.065281935, -0.002174034, 0.04333622, -0.011350979, 0.08077658, 0.091067664, 0.030184658, 0.031991124, 0.029277798, 0.0074338145, 0.005343925, -0.008982653, -0.06100153, 0.0020103129, -0.07629744, -0.045958836, -0.02195783, 0.011470414, -0.021459907, -0.008363122, 0.03830541, 0.0031480698, -0.06865147, 0.03193936, -0.080204345, -0.03934146, 0.0082096215, -0.016110964, -0.034776635, -0.012160514, 0.034018844, 0.0027723808, -0.0075808098, -0.033906635, -0.045666806, -0.0065135835, 0.002839193, 0.06654927, -0.002203203, 0.05369743, 0.017928788, 0.010430633, 0.007491185, -0.023508525, 0.033859048, -0.09805662, 0.047065563, -0.08261141, -0.0898121, -0.043779615, 0.06472005, 0.06287749, 0.014267401, 0.08718892, 0.0655034, 0.023977054, 0.021109395, -0.011588041, 0.010499438, 0.05368759, 0.008043969, 0.0006136251, -0.023833495, 0.004748424, 0.07020642, -0.083005264, -0.032239065, -0.049535498, -0.030450853, -0.014030527, 0.036025383, 0.038677458, 0.045668367, -0.07493876, 0.031708304, -0.04724304, 0.04249637, 0.07303252, 0.009508703, -0.012386185, -0.049665183, -0.102889314, 0.046142537, -0.012425722, -0.0769293, -0.037919044, -0.031503763, 0.006333257, -0.02665332, 0.00014947029, -0.001705372, 0.01115342, -0.07392481, -0.031950165, 0.01633484, -0.008550059, -0.060297523, -0.013130735, 0.04485934, -0.0017571128, -0.049868245, 0.07455829, -0.031819284, -0.035384905, 0.03477571, 0.013802496, 0.11158668, 0.030965677, 0.03181459, 0.0059159985, 0.048122603, -0.015264895, 0.053794716, 0.00349366, 0.0011470574, 0.011437477, 0.052123576, -0.05223822, 0.040612184, 0.00891551, -0.00851204, 0.013731066, 0.008400571, -0.06466077, -0.047761563, -0.02328135, 0.0020023116, -0.020744665, -0.019771338, -0.0029934372, 0.06967157, 0.01999638, -0.010343083, -0.07813476, -0.042585973, -0.00949617, 0.002162441, -0.08574817, 0.02995052, 0.01818388, 0.007927748, 0.05043294, 0.06841956, -0.06924998, -0.00016865134, 0.034310505, 0.031706326, 0.065616526, -0.08282172, -0.057601042, 0.027647642, -0.022189349, -0.042043593, 0.05141369, -0.059093196, -0.05874191, 0.012189186, -0.040173095, -0.026626583, -0.04149857, -0.022274984, -0.019750208, 0.007858152, 0.040002376, -0.0027050893, 0.031352345, -0.057582658, -0.1108887, 0.07573406, 0.047687817, 0.011881625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Blending effects of different varieties of rice flour in a frying batter system</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Blending is a technique commonly used in the wheat flour industry for overcoming many processing difficulties derived from cultivation conditions However, there is a lack of fundamental information on the use of this blending technique in rice flour based products Even, it has not yet been applied to frying batter premix which is one of the large segments in the food industry In this study, 7 different cultivars of rice flours were blended each other and the blends were utilized to prepare frying batters whose physicochemical properties were characterized mainly in terms of rheology and oil uptake Based on the principal component analysis, amylose content of rice flour, oil uptake, and
+viscosity were anticipated to be a primary component When rice flours were blended at a 5 5 ratio, no synergistic effect was not observed in the pasting results When the oil uptake of frying batters made from rice flour blends was correlated with their viscosity, the blending samples with high amylose content showed lower oil absorption In addition, the fried samples with lower oil uptake seemed to possess a more crispy texture</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[0.018011173, -0.028414875, 0.07639347, 0.0032128103, 0.10883486, 0.0085616745, 0.0018344074, 0.02558134, 0.028999992, 0.054994985, -0.077318415, -0.022123126, -0.007323279, 0.023073437, -0.066297196, 0.025168747, -0.0005158078, 0.059048124, 0.04145981, 0.050498832, -0.038490865, -0.0042602676, -0.0396636, 0.041687068, 0.13058825, -0.02006739, 0.014269854, -0.046212982, -0.025368102, -0.012631989, 0.065370284, -0.06299587, 0.0077743763, -0.024142625, -0.019825248, -0.019351067, 0.035947252, 0.0028221358, 0.030661447, -0.021927496, -0.05541741, 0.0011417391, -0.017417135, 0.0066465964, 0.0013997869, -0.027604721, 0.037386063, -0.0015953102, -0.05018697, 0.026804894, 0.044769507, -0.007106309, 0.00864111, 0.040162586, 0.060988136, -0.012222954, -0.08230644, -0.017926829, 0.0051599103, 0.0068110875, -0.018584032, -0.038509738, -0.0063383896, 0.03631601, -0.026241386, 0.025603224, 0.033990297, -0.039328992, -0.004467061, 0.01715216, -0.05602123, -0.040384233, -0.033190846, 0.0108024115, -0.053061407, -0.0825586, -0.008346433, -0.0050356654, -0.07425773, -0.06810063, -0.01607333, -0.026600607, 0.058450356, -0.013719114, -0.06357756, 0.022451218, -0.006354318, 0.04222577, 0.0046858178, -0.01754763, 0.012637829, 0.00447949, 0.119852014, 0.04884986, 0.0015471211, 0.05850385, 0.07488614, 0.07367839, 0.03878177, 0.020585073, -0.0085230395, 0.03728347, -0.05550063, -0.012886704, 0.044463363, -0.02753345, 0.009335485, 0.02344672, 0.03965334, 0.041394178, 0.0013739916, -0.06361179, -0.03807321, 0.012840131, 0.036720682, 0.04082915, 0.029609533, 0.053042885, 0.008547282, 0.015981855, 0.083142735, -0.054687385, 0.039365664, 0.049001466, 0.04606842, 0.02178206, 0.048299994, 0.005747746, -0.040764283, -0.093192905, 0.013314222, 0.07433287, 0.004038219, -0.014679165, -0.007888342, 0.008021513, -0.044128824, 0.026100075, 0.029628068, -0.06785751, 0.0013563047, -0.015697896, 0.053615376, -0.098112956, 0.0041840114, 0.0050832704, -0.0463846, -0.008714539, 0.020551555, 0.008453461, -0.025734227, -0.0144145, -0.018763442, 0.031879958, -0.021020828, -0.09495823, 0.013592882, -0.048273988, -0.09710347, 0.003097857, 0.0042370046, 0.006791307, -0.008545952, 0.036937803, 0.040608928, -0.007046928, 0.13006465, 0.008399988, 0.008141202, 0.045666516, -0.007712898, -0.0068033407, 0.040680267, -0.013614905, -0.051867634, -0.0035167695, 0.014058206, -0.086919695, 0.059166964, -0.043434933, 0.044256065, -0.06816097, 0.033488076, 0.020776112, 0.03632303, 0.029935796, 0.029548714, -0.015983393, 0.00803184, 0.0122795785, -0.07152293, 0.0062183365, 0.010938685, 0.049670927, 0.027020685, -0.009136583, 0.0021291252, -0.041972104, 0.03161671, 0.0713588, 0.03947025, 0.054396156, 0.100298114, -0.012240132, 0.07623025, 0.022236813, -0.008246957, 0.0003690505, 0.008957991, 0.047596112, 0.005286905, -0.004510436, -0.0036411877, 0.004212361, 0.071790814, 0.009490696, 0.019476917, -0.01728008, 0.024691261, -0.009877146, 0.024738649, 0.020779774, -0.034124665, 0.048632447, -0.060212832, 0.044055853, 0.054970793, 0.06746423, -0.026931332, -0.0677209, 0.047741547, -0.06508855, -0.06545708, 0.009830598, 0.018425852, 0.07160608, -0.06515774, 0.009657851, -0.0056902957, 0.08280675, -0.06913767, 0.005883976, 0.03679772, 0.036773596, 0.025667494, -0.004655825, -0.019974167, -0.023109654, -0.06183272, -0.0050762733, -0.03402032, 0.004366261, -0.021708839, -0.08131744, -0.04077051, 0.022316635, 0.05121236, -0.09818678, -0.0868936, -0.03515186, 0.044555977, 0.0012300041, -0.005323729, 0.0047160285, 0.02613927, 0.0055196797, -0.018167496, -0.06887117, 0.042878695, 0.053692587, 0.010843948, 0.04061876, 0.019754551, 0.020558638, -0.04746726, 0.011063441, -0.016517464, -0.06332758, -0.008623138, -0.02341117, -0.060223017, -0.07226932, 0.049734376, -0.05362042, 0.027836367, -0.044354297, -0.089991204, 0.013848296, -0.06590834, -0.009731458, -0.024853319, 0.0075431936, 0.029771052, 0.0034449815, -0.057498205, 0.04720028, -0.058831424, 0.028395116, -0.024242107, -0.016682507, -0.016185652, -0.0032902632, 0.024267502, 0.0035589817, -0.020618359, -0.03327877, -0.014204163, 0.010411148, 0.048112944, 0.02012167, -0.026378058, -0.023053983, 0.039240167, 0.032646753, -0.08257167, -0.0047885156, 0.0081839, 0.0011420196, 0.0065206215, -0.033328597, -0.009305475, 0.043277387, -0.0442998, -0.026554544, -0.07509008, 0.050616443, 0.009448115, -0.042293612, -0.01622474, 0.067286834, -0.046508744, -0.010549008, 0.03395888, -0.050729778, 0.020635236, -1.8951017e-05, 0.010778254, -0.0063214335, -0.052886456, 0.0071296454, -0.10006964, 0.045983605, 0.03872978, 0.037780892, -0.024983259, 0.07706555, 0.012127436, 0.0032520816, -0.011405319, -0.037811536, 0.0028711697, -0.014505572, -2.9157382e-05, -0.0036166687, -0.029713849, -0.035344057, -0.05108772, -0.05082626, 0.02445343, 0.0020486538, 0.011103071, -0.04162574, 0.014650017, -0.04211658, 0.062680975, -0.0038203602, -0.050889693, 0.015357536, -0.033661824, 0.01004622, 0.013112175, -0.0075075687, -0.0980244, -0.019527955, -0.062336348, -0.047921877, -0.012352312, 0.088859856, 0.04491466, -0.008805707, 0.006527281, -0.004852327, 0.02306476, -0.09408127, 0.035974856, 0.04037048, -0.105019, 0.07684647, -0.03803986, -0.11921213, 0.02865056, 0.06687837, -0.021971934, 0.06937168, 0.0031178785, -0.05935037, -0.07673173, 0.0555885, -0.07840773, -0.017323185, 0.07250923, -0.07931017, -0.04891037, 0.01866204, -0.044269904, -0.04636548, 0.021856925, -0.054862283, -0.026444128, -0.05109286, -0.020791547, 0.0024010357, 0.00631289, 0.04206638, 0.06235981, -0.004378425, 0.0075183604, 0.015590841, 0.0064454707, -0.012625946, -0.07180337, 0.019113755, 0.017490378, 0.04441511, -0.017539224, -0.020505305, 0.026876545, -0.061390005, 0.0122400075, -0.034000903, -0.066210955, -0.14674973, -0.0041548233, -0.013709512, -0.10585522, 0.049514536, -0.0019528548, 0.016936984, 0.04945774, 0.033817317, 0.030801594, -0.05219523, -0.071967185, -0.0362132, 0.0031296858, 0.03794766, -0.015287651, 0.02315205, -0.011006423, -0.020315712, -0.024886144, 7.8707235e-05, 0.03151301, 0.056598596, 0.01695494, -0.048443355, -0.025675341, -0.046111494, 0.03781063, -0.06692507, -0.004380813, 0.021877354, 0.10292403, -0.024461122, -0.048860136, -0.08875319, -0.016754484, 0.017849745, 0.0049661417, -0.031818602, 0.011417172, 0.06416315, 0.011074764, -0.0005969573, -0.0057160603, -0.01648342, -0.02430159, -0.013712984, 0.037880946, -0.049139705, 0.0062628062, -0.0052005234, 0.05435338, 0.06406022, -0.008235224, 0.025792025, 0.01358767, 0.025267411, -0.014913042, 0.03394347, -0.016530864, -0.009544623, -0.053519115, -0.0127535425, 0.009043678, 0.040775657, -0.015972145, 0.0122217005, -0.0015403584, -0.04910105, 0.035655074, 0.0074605606, -0.017613111, -0.01041627, 0.016464433, -0.029784985, 0.025126023, -0.0006981733, -0.08142999, -0.015458353, 0.00029906142, 0.057162125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>이가원</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Establishment of preparation conditions of rutin enriched materials from Tartary buckwheat by products and utilization as novel functional ingredients for noodle making</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Buckwheat has been considered as a highly nutritious ingredient due to a variety of functional phenolic compounds, especially rutin After milling process, only buckwheat flour is utilized for limited food applications such as noodles while by products like bran and hull are discarded as waste despite of their functional properties derived from a high level of rutin Therefore, there is a need to explore new applications of buckwheat by products, especially bran fractions, as a valuable functional ingredient source of rutin This study aimed at developing experimental procedures to prepare rutin enriched materials ( under diversified extracting conditions and also applying REMs as new functional ingredients to frozen dough breads Tartary buckwheat grains were first treated with steaming in order to deactivate rutin degrading enzymes They were then ground and divided into three different milling fractions with sieving 40 40 100 and 100 mesh) The bran fractions 40 100 mesh) was then subjected to ultrasonic assisted solvent extraction with ethanol which is regarded as GRAS for extracting rutin Specifically, various extraction conditions such as ethanol concentration and ultrasonication time/temperature were optimized Consequently, the use of 70 ethanol with 30 min ultrasonic agitation at 40 C led to a marked increase in rutin content Then, when the REMs were incorporated into the
+formulation of wheat noodles up to 1 its rutin contents had much higher value than existing buckwheat noodles In addition, their physical properties didn’t have significant differences compared to wheat noodles in terms of thermo mechanical, pasting, Thus, the effective preparation conditions for rutin enhanced materials ( from tatary buckwheat byproducts were optimally established and the resultant REMs were positively utilized as a good source of functional material in frozen noodles, consequently encouraging the food industry to extend the use of buckwheat</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[0.01965767, 0.03244582, 0.065855056, 0.025386684, 0.09421859, 0.036055535, 0.009722551, -0.00010205363, 0.08068335, 0.034329448, -0.054807127, 0.015408645, 0.003574671, 0.07748174, -0.003018057, 0.004658322, -0.04125342, 0.043523844, 0.05349204, 0.05440696, -0.032643624, -0.023076363, -0.031683087, 0.011845612, 0.09248563, 0.0046999645, 0.009237613, 0.0005403616, -0.021314694, 0.011590873, 0.048974715, -0.046768285, -0.018808221, -0.044024996, 0.012898201, -0.068575725, 0.04449316, -0.011134614, 0.04826833, -0.008398495, -0.081975035, 0.022017552, -0.004063019, 0.04235359, 0.03141996, -0.01511979, -0.0045782467, -0.041655093, -0.038815852, 0.035911787, -0.048104458, 0.031526256, -0.0006876447, 0.042804252, 0.04176166, -0.033079315, -0.06524417, 0.023223097, 0.014730865, 0.08436786, -0.01753028, -0.044672117, -0.057261743, -0.08523599, -0.08852287, -0.03563672, 0.06489554, 0.04361321, 0.0015112094, 0.040366564, -0.014283769, -0.020670267, 0.0035804599, 0.044378977, -0.049639553, -0.029461784, 0.053541407, 0.010352362, -0.057324804, -0.0054401658, -0.063127704, -0.05098591, 0.040632613, -0.07293851, -0.06117365, 0.023285694, -0.008192295, 0.042217415, -0.027378477, -0.02586644, 0.028690798, -0.044957183, 0.11329609, 0.021345535, 0.027478276, 0.045623094, 0.16615878, 0.06697355, 0.03343877, -0.031545717, -0.032513198, 0.07866581, -0.0033921658, -0.010449037, -0.0015168379, 0.03827371, 0.04426062, -0.023688976, 0.0112326285, -0.01556835, -0.025033742, -0.05004882, -0.050457917, -0.015839644, -0.015684484, 0.09974412, 0.019544275, 0.09064795, 0.024853988, 0.099480085, 0.046752036, -0.001011139, -0.0676525, 0.04916496, 0.009699279, 0.029118637, -0.036431767, 0.018707464, -0.066262804, -0.04602137, -0.038603246, 0.087603174, -0.020545065, 0.0024550369, 0.013132263, 0.025261438, -0.0100203175, 0.0057482943, -0.00029670662, -0.031717815, 0.003918632, -0.0033630452, 0.043490402, -0.09129542, 0.003283117, -0.0029884337, -0.01937281, -0.040983036, -0.021514883, 0.03518929, 0.041520607, -0.0452032, 0.014372545, 0.029690893, 0.024904637, -0.066914424, 0.0253187, -0.034247644, -0.01665267, -0.047859363, -0.00042658855, -0.021786567, -0.0187086, 0.02031908, -0.0010924521, -0.015601321, 0.04118902, 0.0131327575, 0.022610346, 0.00239346, -0.045011118, -0.018970663, 0.012487809, -0.011672868, -0.008986828, -0.043483183, -0.030044403, -0.08015113, 0.047964334, -0.05348558, 0.05419706, -0.017336505, -0.0028908073, 0.040999133, 0.036912397, -0.04428853, 0.00609511, -0.004758282, 0.055155672, 0.00029054517, -0.13170981, 0.0110956095, 0.05053329, 0.014545424, 0.04530386, 0.05969908, -0.010100582, -0.08361242, 0.060340356, 0.046624847, 0.012883757, 0.039270308, 0.043889068, -0.006038458, 0.047331624, -0.026390456, 0.03119041, -0.032121856, 0.008682879, 0.024171313, -0.06387305, 0.008312108, -0.004057995, 0.018428037, 0.06579598, -0.0075062313, -0.0058225417, 0.019681314, 0.0125338305, 0.023569368, 0.074865706, -0.06002413, -0.08048757, 0.052553862, -0.0726911, -0.0037052494, 0.0362535, 0.011463839, -0.055116702, -0.02354207, 0.018884977, -0.066564314, -0.092163, 0.00899245, -0.019456051, 0.06695065, -1.3937242e-05, 8.030329e-05, 0.013962386, 0.09474989, -0.05021244, -0.012920234, 0.053338464, 0.026591102, -0.027842252, 0.00892388, -0.06325992, -0.0042124907, -0.08591915, -0.01072844, -0.013609322, 0.023422241, 0.06564874, -0.10277534, -0.01126824, -0.028589718, 0.05482442, -0.04554516, -0.03836638, -0.051423572, 0.055294577, -0.05212701, -0.05375184, -0.054904457, 0.038988262, 0.022966124, 0.01018895, -0.002989342, 0.028730044, -0.031137729, 0.005864182, 0.055630177, 0.023551393, 0.03821839, -0.03152113, 0.020336421, 0.012564522, -0.09353443, 0.007028856, -0.007022402, -0.05971883, -0.051468316, 0.03423719, -0.075994745, -0.03627433, -0.019830113, -0.05205155, 0.005117735, 0.017817566, -0.067884676, 0.009759045, -0.03246077, 0.052897945, 0.046705298, -0.054972637, 0.08669727, -0.045767184, 0.09352123, -0.03465005, -0.0082844915, 0.026924532, -0.043690942, -0.01924331, 0.0331617, 0.024131682, 0.019149564, 0.03958403, 0.040300425, 0.0072607603, -0.0074042003, -0.028567173, 0.0026602333, 0.0054061557, 0.072736524, -0.01260134, 0.030247433, -0.0042211567, 0.017611822, -0.015813185, -0.0484194, 0.058697928, 0.12201555, -0.027335864, -0.020220198, -0.04977831, 0.081531815, 0.0076216822, 0.023314904, -0.04309578, 0.033640504, -0.019079598, 0.0012599044, 1.621549e-05, -0.022019882, -0.048939507, -0.036374137, 0.026103787, 0.059293576, -0.062917195, 0.009482811, -0.040111385, -0.011745458, 0.010985952, 0.01794293, -0.019677639, 0.08690002, 0.020643208, 0.03977929, -0.042097785, -0.055971503, 0.035136424, 0.002240641, -0.03990081, -0.0022878598, -0.0048194723, -0.018359225, -0.073422186, -0.029320572, 0.008540386, -0.011015442, -0.0039093005, -0.1117497, 0.0019691593, -0.037843864, 0.037516154, -0.016380716, -0.013894863, -0.021815697, 0.0056649228, 0.013203703, -0.0014323285, 0.0121520795, -0.025593292, -0.009524091, -0.039387442, -0.0012734688, -0.022828102, 0.029761733, 0.07585283, -0.039506998, 0.018045705, 0.015534248, 0.023316836, -0.10542233, -0.035926193, -0.01557714, -0.06812164, 0.112770244, -0.03310373, -0.06029807, -0.03594432, 0.0959066, -0.032016527, 0.05532652, 0.014570528, 0.035222128, -0.07651222, 0.049369168, -0.05329908, -0.025147686, 0.023446849, -0.022707395, -0.0018148959, 0.01444154, 0.013237033, -0.037325453, -0.005294698, 0.020960389, 0.0005729299, -0.021223515, 0.09482274, 0.014125854, 0.050765425, 0.029723506, 0.033393, -0.01367004, -0.0077729276, 0.06071922, 0.009370016, 0.024385048, -0.03313305, 0.004376366, 0.004679374, -0.01934378, 0.00664259, -0.08641935, 0.012431825, -0.0805882, 0.04497655, -0.02210154, -0.09389441, -0.06801334, -0.008626052, -0.0040741833, -0.05538209, 0.046660967, -0.0062339986, 0.06426428, 0.04911661, 0.032782413, 0.012759736, -0.051833067, -0.012595802, -0.001726, -0.010131763, 0.02397145, 0.012362882, 0.087352246, 0.016310005, -0.038127337, -0.032496244, 0.0147723, 0.04605483, 0.057054747, 0.03957803, -0.059425645, -0.011328023, -0.03330306, -0.016488884, -0.00035902948, 0.034568243, -0.013344803, 0.10833137, -0.037316173, -0.0026674154, -0.094912514, -0.025969742, 0.01909797, 0.042655915, 0.0021310626, 0.031074045, 0.027114075, 0.027673021, -0.054709204, -0.012023304, 0.009867886, 0.006073717, -0.023052787, 0.033499755, -0.021483207, 0.05995317, -0.034581244, 0.07558408, 0.07206911, -0.02404051, 0.07662637, -0.008732601, -0.0026866277, -0.021483015, 0.033256616, -0.08498375, -0.007267301, -0.08092359, -0.050246734, 0.05124691, 0.04093636, -0.014752692, -0.03960058, 0.02882813, -0.010148643, 0.0053151236, 0.0013902232, -0.022609329, 0.002142289, 0.007702513, -0.044319328, 0.0016754827, -0.019122493, -0.101696156, 0.010631482, 0.042145953, 0.037604466]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>문경원</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Effects of oleogels on the quality attributes of plant-based imitation cheese</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Imitation cheeses made from plant sources have received constant attention as an alternative to cheeses made from animal sources for people with lactose intolerance or vegetarians. In making imitation cheese, palm oil has been widely used, however, there exist several difficulties in providing health benefits by lowering saturated fat content as well as suitable texture. In this study, palm oil in plant-based imitation cheeses was replaced with oleogels high in unsaturated fat. Their physicochemical effects were then characterized in terms of texture, rheology, and proton mobility. Canola oil was successfully structured into solid-like oleogel (3, 6, and 9%, w/w) with carnauba wax. The replacement of palm oil with oleogels produced imitation cheese with a harder texture. Also, the dynamic viscoelastic properties of the cheese samples increased with increasing levels of oleogel and the similar tendency was confirmed by stress relaxation test. In addition, the TD-NMR showed that three populations of T2 relaxation times were clearly observed in the imitation cheeses. This study showed that oleogel can be utilized in making imitation cheese low in saturated fat without quality loss.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[-0.0066170217, 0.039945427, 0.028514238, 0.010912451, 0.08368253, -0.07616107, -0.033957012, -0.058155004, -0.0121683115, 0.05769208, -0.0693956, -0.04485825, -0.018385816, 0.057732847, -0.029897915, 0.05455102, 0.03003482, 0.043061044, 0.00046067123, 0.069846205, 0.014590446, -0.038189348, -0.079506084, 0.054262802, 0.02686766, 0.041694753, -0.04129742, 0.090172775, -0.08027557, -0.014838047, 0.020595854, -0.035771966, -0.040001243, 0.036703464, 0.08302849, -0.039532755, -0.0370574, -0.03246472, 0.08137023, 0.0046903607, -0.035863686, -6.161793e-05, 0.06364582, 0.050938975, 0.09847109, -0.029360037, 0.029251343, -0.015757296, -0.01713877, -0.0057093697, -0.008223246, 0.016490567, -0.005972097, -0.003908896, 0.030904392, -0.023011582, -0.051196024, -0.07382353, -0.004573576, -0.017471895, -0.07910995, -0.09887374, -0.07758212, 0.014078337, -0.04960101, 0.013930753, -0.023441056, 0.057706077, 0.017516987, -0.060502637, -0.044456635, 0.021530144, 0.037651576, -0.010060081, -0.08738994, 0.0006713801, 0.017039089, 0.017517759, -0.035297144, -0.00564246, 0.018387677, -0.056907445, 0.088257544, 0.05929098, 0.06839222, 0.02646847, 0.019587053, -0.0066778106, 0.014722443, 0.0032796208, 0.038137928, 0.033491436, 0.07105961, -0.014668186, 0.048173193, 0.021653932, 0.043660514, 0.0249781, 0.014035454, -0.034206245, -0.017744716, 0.09453543, -0.02840522, 0.046017036, -0.011308983, -0.031823162, 0.019434994, -0.031356875, 0.01931383, -0.024498293, 0.023153244, -0.07231431, -0.012759543, -0.022782056, -0.034492597, -0.0018518992, -0.0010886709, 0.04226276, 0.017642105, -0.034575738, -0.0071107936, -0.06456629, 0.007684694, 0.0057336, 0.039942265, 0.0108722765, 0.01336476, 0.051517755, 0.020182367, 0.03579765, -0.053681638, 0.048897725, -0.042255163, 0.023712046, 0.0111500565, 0.0317727, 0.0037334834, 0.04661449, 0.019717753, -0.017756518, 0.0054493947, 0.010173211, -0.003468777, -0.057834033, 0.00426469, 0.059753012, 0.043883134, 0.018342352, -0.036059845, 0.063174166, 0.020569207, -0.0006282654, -0.047430053, -0.0493801, 0.014173125, -0.08367927, -0.10470166, -0.009229786, 0.0248265, -0.026597625, -0.018788116, -0.0528162, 0.019857856, -0.0022670405, -0.015117789, -0.047274634, 0.0432931, 0.03373809, -0.008445695, 0.052238494, -0.0005819266, -0.013537852, 0.01933461, 0.039518453, 0.02976943, -0.03563502, -0.042377703, -0.02635715, 0.02743312, -0.032247655, -0.024590489, -0.0019535595, 0.014710326, 0.107963055, -0.025432441, -0.03014123, -0.0056156437, 0.023660796, 0.024706785, 0.02009637, -0.09595919, -0.014222895, 0.04018282, 0.07650994, -0.02334661, 0.0048395363, -0.0016447444, 0.028677031, 0.015236357, -0.019761575, -0.06047948, 0.03149569, 0.048907578, 0.0054573882, 0.04421048, -0.056618523, -0.042530444, 0.012686592, 0.061452605, 0.020227997, -0.015972782, -0.09129468, 0.032579795, 0.0051513007, 0.038627476, -0.019402428, -0.0025855636, 0.016239226, -0.03497953, -0.041771375, -0.050794143, -0.028956395, -0.035649676, -0.021701045, 0.00017890777, -0.026238224, 0.04842651, -0.0738763, -0.030085918, 0.0021318481, 0.025052682, -0.028966142, 0.06878329, 0.020083608, 0.057163313, 0.010407499, 0.048670813, 0.026120467, 0.019393673, 0.100631766, 0.021062147, 0.0051573273, 0.029271057, -0.03676577, -0.04244814, 0.06270316, 0.008071028, 0.027899783, 0.00327572, -0.056141153, -0.028929079, 0.011144227, 0.08360596, -0.013981924, 0.030586075, 0.00081265817, -0.042723596, 0.022935854, -0.03615959, 0.044523023, 0.032541018, 0.030421466, 0.033871315, -0.03010335, -0.036561247, -0.12921788, 0.027114114, 0.016127111, 0.01266324, 0.043807857, -0.0503434, 0.060030125, 0.033088256, -0.0024195202, -0.011784837, -0.026142249, -0.013705767, -0.0037028566, -0.010000455, 0.011568857, -0.066502504, -0.023116723, 0.075629696, -0.080244966, 0.06443518, -0.0015589796, -0.088761345, -0.036743063, 0.008575187, -0.047278035, -0.008437156, -0.014091543, 0.00040625312, 0.057906806, -0.044077534, 0.048089184, 0.03779822, 0.028694153, -0.012896743, 0.003439343, 0.058572344, 0.034706682, -0.04912753, 0.08748552, -0.0021677346, 0.065210894, 0.056991324, -0.066473745, -0.0028793993, -0.0146453325, -0.0012229704, -0.059678804, 0.074819185, 0.059664465, -0.07740271, -0.0407572, 0.03369314, 0.052845854, -0.042437032, 0.046850163, -0.035452005, 0.017202487, -0.011717761, -0.037690636, -0.02846969, 0.033733588, -0.10706475, -0.025727471, -0.025182541, 0.07678566, 0.0076273945, -0.01569912, -0.004061696, -0.0062680067, -0.008323967, 0.012307151, -0.015551697, -0.017186845, 0.022948748, -0.049996294, 0.012586277, -0.011954921, -0.018877504, -0.011109922, -0.033561304, -0.048679657, 0.08794574, 0.12436537, -0.062310614, -0.01230428, -0.02340341, -0.010893409, 0.050143946, -0.0039122957, 0.03231135, 0.023987522, 0.0005051274, 0.048761223, -0.07286524, -0.045863632, 0.013456966, 0.031933863, 0.031287942, 0.026290242, 0.08177191, 0.024397431, -0.0745628, 0.0091168145, 0.039076153, -0.009400514, 0.0041292002, 0.028569961, 0.0054156473, 0.03418813, -0.04349045, -0.029540475, -0.028372481, 0.04262456, 0.060617212, 0.047399048, -0.01343917, -0.011602394, 0.0146079855, -0.011004601, -0.03550861, -0.027276954, -0.11093813, 0.020533515, 0.07437745, -0.03151823, -0.03386505, 0.025400007, 0.03180853, 0.012799384, 0.051875517, 0.010837443, -0.07582537, -0.046457943, -0.040780824, 0.016817348, 0.0132466275, -0.013442833, 0.04244371, -0.05492921, 0.031424932, -0.015294455, 0.01940785, -0.0203978, 0.047216956, -0.022366012, 0.024649652, 0.04440602, -0.036745105, 0.042702906, -0.032096725, 0.028690405, 0.0054950817, 0.01603845, 0.025977219, -0.024466882, -0.004682611, 0.020170152, 0.0021240576, 0.044341803, 0.094944164, -0.08581337, -0.0173093, -0.082359195, 0.009370231, -0.018849852, 0.03792689, -0.07635172, 0.037019536, -0.007317587, 0.01567866, 0.053566795, -0.03301865, -0.019469643, -0.034469686, 0.017005166, 0.054831363, -0.06041966, 0.07385914, 0.015779655, 0.02924709, -0.010321499, -0.020822078, -0.00028565992, 0.055415355, 0.031051688, 0.023469023, 0.02649356, 0.02348984, -0.08773923, 0.00020248783, -0.115199156, -0.06000408, -0.009907532, -0.029173011, 0.004075629, -0.022084922, -0.016093194, 0.05643854, 0.06958984, 0.05007435, -0.0443953, -0.037523054, 0.02623003, -0.031796332, -0.000112694805, -0.029964613, 0.01907537, 0.015423462, 0.009828663, -0.016271662, -0.05794286, -0.04171282, -0.1232368, -0.043102015, -0.09148293, 0.06874295, -0.03476751, 0.0033014137, -0.029055402, -0.029334351, -0.030106869, 0.083746925, -0.029235557, -0.030738566, -0.015641253, -0.029652866, 0.0535288, -0.048072275, 0.002317062, 0.045087196, -0.021753168, -0.0035668907, 0.021456376, -0.05694961, -0.0046378453, -0.042305943, 0.07632977, -0.032065745, -0.019541753, -0.061322823, -0.026790518, -0.029339816, -0.020388225, -0.078605175, -0.030955805, -0.04989217, 0.064882316]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ISFRS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>오임경</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Development and characterization of foam structured hydroxypropyl methylcellulose oleogel as an animal fat replacer for saturated fat-reduced meat products</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Solid fats provide desirable structural, functional and sensory attributes to a variety of food products. However, the health-related concerns associated with the presence of saturated and trans-fat have led to the development of oil structuring technology. Oleogelation can be considered as an emerging technique to transform liquid vegetable oil into a solid-like gel with three dimensional network without changing its unsaturated fat-rich composition. More recently, hydrocolloid-based oleogels have received much attention because most of hydrocolloids are naturally abundant, approved for use in foods, and well-characterized. Thus, the purpose of this study was to investigate the physicochemical properties of foam-structured oleogel with HPMC, and to evaluate the feasibility of HPMC oleogels as a replacement for animal fat (beef tallow) to reduce the level of saturated fat in meat patties. The foam-structured HPMC was prepared by homogenization and freeze-drying of HPMC solution and successfully used to convert canola oil into solid form. The textural properties (firmness and work of shear) of HPMC oleogels were higher than those of beef tallow and the HPMC oleogels exhibited frequency-independent visoelastic properties as a weak elastic gels. The HPMC oleogels also exhibited temperature-independent solid fat contents and they had greater resistance against oxidation than the canola oil. When beef tallow was substituted with HPMC oleogels in meat patties, the cooking loss and firmness were lowered. In addition, the replacement of beef tallow with HPMC oleogels was significantly reduced from 42% to 15% in the levels of saturated fatty acids in the meat patties. Thus, this study can encourage the food industry to extend the application of HPMC oleogels to various food products.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-0.0038960984, 0.02740614, -0.019675689, 0.016971134, 0.07200241, -0.029107915, -0.0047073993, -0.07945867, -0.002994062, 0.048398457, -0.058195077, -0.059746396, 0.027255358, 0.04771654, -0.039617047, 0.045795683, -0.011866888, 0.05380873, 0.022047255, 0.021764584, 0.00825119, -0.015309742, 0.016630886, 0.043474536, -0.012033673, -0.014417692, 0.056399647, 0.040381894, -0.027644036, 0.014103485, -0.005955692, -0.07998895, -0.00811918, -0.018111719, -0.06948699, -0.07556007, 0.02496004, 0.04106351, -0.06325028, -0.006282594, -0.06379616, 0.03623648, 0.067695595, 0.017049996, 0.023146827, -0.0075305514, 0.03878313, 0.038096417, -0.04911923, -0.020961007, -0.037840962, -0.09545529, 0.01297897, 0.0122933155, 0.06670543, -0.054422237, -0.11334584, -0.07036878, -0.027695747, 0.011305013, -0.03160612, -0.086509556, -0.052701086, 0.04643399, 0.025028093, -0.048948508, 0.027344745, 0.027598703, 0.14154238, 0.006745407, -0.03937971, 0.098335244, 0.04446949, 0.0770202, -0.043805685, -0.06608416, 0.03294233, -0.074511476, 0.019310918, 0.011988229, -0.066623226, -0.018629665, 0.09344026, -0.020118173, -0.046337336, 0.07984977, -0.005749201, 0.024492271, -0.0175575, 0.01114513, 0.04468932, 0.028123109, 0.10258368, 0.041893598, 0.06530386, -0.0061289095, 0.037279814, 0.025610741, 0.012251724, 0.030803358, -0.030763974, 0.076884985, -0.05453618, -0.011447986, 0.025243381, -0.04217538, 0.034441493, 0.033709534, -0.0035165332, 0.07499312, 0.031937335, -0.061324127, -0.0090758605, 0.030361209, -0.033146325, 0.04562308, 0.024034828, 0.021178339, 0.0021650402, -0.04499133, 0.060676984, -0.016907584, -0.0034027442, -0.046845492, 0.004184485, 0.02946657, 0.028541045, 0.020917349, -0.012578517, -0.028256562, -0.0813628, 0.03231088, -0.048046667, 0.013711466, 0.018513095, 0.023574634, -0.022711163, 0.006509743, 0.07009699, 0.0073576947, -0.007164486, -0.037699573, 0.01887643, -0.0473024, 0.05703529, -0.013736672, 0.026694521, 0.021724185, -0.016856197, 0.046051554, 0.011911854, 0.027237395, -0.07641333, 0.05195279, 0.007097571, -0.06619848, 0.0003655697, -0.028505115, 0.03178513, -0.029391218, 0.003137042, -0.027425341, -0.079141825, 0.00519552, -0.042448714, 0.07115391, 0.08447622, -0.024985986, -0.065090366, 0.02342414, -0.0068208356, -0.009074246, 0.045829333, 0.037927605, -0.07356526, -0.036998585, 0.0064069903, -0.01823004, 0.008179066, 0.026332397, -0.08252675, 0.025108468, 0.028800616, 0.0149386795, 0.04883406, -0.052420866, 0.080079205, 0.011402237, -0.062938005, 0.0022873685, -0.1163951, 0.02226923, 0.006984737, -0.0019977668, 0.00024358463, 0.023909051, 0.07049456, -0.029464688, -0.0709032, 0.022193363, -0.058887362, -0.008112636, 0.06963623, -0.0062601436, 0.09022123, -0.008282868, 0.0034845325, 0.015105368, -0.042499363, 0.049107485, 0.037644897, 0.096626624, 0.045756314, 0.014880113, 0.0105103105, 0.02659347, 0.025320103, -0.0075563584, 0.0070849434, 0.012051917, -0.030602941, 0.05717376, -0.045249656, -0.0038461466, 0.00011058361, 0.031788137, 0.0056855585, 0.031671032, -0.08708147, -0.019558113, 0.0454924, -0.02801629, -0.0067342087, 0.020475008, 0.035947658, -0.021268088, 0.027444677, 0.042625956, 0.0443528, 0.07541176, -0.024046851, 0.0010110018, -0.04297796, -0.074507505, 0.024888657, 0.04651598, -0.015024662, -0.014005069, -0.007406345, -0.04620427, -0.067598104, -0.002143626, 0.043901846, -0.0020423497, 0.054705493, -0.037821695, 0.011079987, -0.0002924637, -0.005730011, 0.000696699, 0.003774486, 0.023879794, 0.011345662, -0.050647493, -0.018098827, -0.047606498, 0.0014832256, 0.05067679, -0.00540252, -0.03234355, -0.017500965, 0.039479487, 0.0772987, 0.023386927, -0.058882095, -0.05548115, 0.015807705, -0.050194435, 0.013732664, -0.049712364, -0.03928466, -0.049046338, 0.044451237, -0.020955278, 0.03435272, -0.03379438, -0.055208303, 0.047104347, 0.0051387805, -0.092950635, -0.0045023737, -0.050122924, 0.0064651496, 0.017692724, -0.07643388, 0.0265099, -0.0042641107, -0.017479645, 0.013149084, -0.0087283, 0.003909845, -0.016033828, 0.04433654, 0.019621758, -0.01777928, -0.028837271, 0.027489003, -0.04548411, -0.034028172, -0.042464938, -0.013859031, 0.01428181, 0.042794853, 0.08342497, 0.015583345, 0.018625237, 0.037605193, 0.034404818, -1.6684178e-05, -0.06552578, 0.04066321, -0.019996973, -0.011596205, -0.019749267, -0.024692072, 0.0073297713, -0.08015731, 0.005227914, 0.005256212, 0.043159492, 0.0033424238, 0.007397455, 0.021953434, 0.0030484062, -0.023086134, -0.010132119, 0.047604922, 0.023002792, -0.010935801, -0.010496153, -0.020937473, -0.026741177, 0.09432444, 0.00311974, 0.022604948, 0.0022263215, 0.014035711, 0.15286751, -0.072983086, -0.0266623, -0.024474021, -0.0034239704, -0.02260745, 0.035169873, -0.04422325, 0.021144291, 0.016488882, 0.01900596, -0.050483316, -0.027326548, 0.032117177, 0.052138414, -0.02298929, 0.09694072, -0.0078028655, -0.034202103, -0.076726414, 0.0095502185, 0.037619013, -0.024560371, 0.06071565, -0.05840426, 0.009069352, 0.037074383, -0.106282346, -0.020194327, -0.05311354, 0.05671574, 0.048647527, 0.029073417, -0.015272872, -0.008080546, -0.006038682, -0.09042848, -0.051550217, 0.013307812, -0.07966491, 0.078485325, 0.012447315, -0.009717206, -0.008702705, 0.036801483, 0.0647085, 0.025718123, 0.02282185, 0.020322688, 0.010250529, -0.0011372687, 0.016863631, -0.027934583, 0.03737717, 0.0016504152, 0.016282147, 0.01964574, -0.0062174825, 0.038186774, 0.0005132336, 0.0434712, -0.016396418, 0.01709302, 0.08785278, 0.0028115413, -0.026505254, 0.05878528, 0.021651069, -0.004259438, 0.00026491273, -0.02527717, 0.0027087969, -0.043510605, -0.0967815, -0.009433794, -0.08457303, 0.029293876, 0.05957265, -0.04506472, 0.040725786, -0.07619652, 0.02181103, 0.019335324, 0.05398826, -0.019189578, 0.050126065, -0.0473335, -0.055052727, -0.030469412, 0.03602889, -0.022919178, 0.021511951, 0.010405385, 0.077959076, 0.0042128395, 0.02019791, 0.060895987, 0.01673759, -0.09463161, 0.019379938, 0.05856615, -0.040647905, 0.026336992, -0.05745418, -0.008238299, 0.045293856, 0.022446338, -0.007857134, -0.034490194, -0.13165155, 0.05037702, -0.00271906, -0.038117636, 0.010160338, -0.010528061, 0.034379955, 0.04412373, 0.048121657, -0.037213724, -0.027280428, 0.045636117, 0.0039942106, -0.07103329, -0.06213652, -0.05511712, -0.008065388, -0.026793351, 0.04871439, -0.022426182, -0.093920045, 0.022196112, -0.00837963, -0.056957763, 0.03327827, -0.016246645, 0.06970791, 0.021146053, -0.010807052, -0.022233523, 0.0044423053, -0.025199698, -0.056252897, -0.074950695, -0.094622575, 0.056348957, -0.041620757, -0.03446032, 0.0142633, 0.014287358, 0.005261465, 0.0047106105, 0.03708936, -0.015802719, -0.0028937275, -0.027691787, -0.022016395, -0.0037680916, -0.01456903, -0.025616743, -0.038520973, -0.014059639, -0.032893628, 0.035550375, -0.016051605, 0.029277889]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ISFRS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Development and application of micro-computed tomography and proton NMR to determine the structural changes of cooked noodles</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Several conventional methods have been applied to investigate the physicochemical change of noodles during cooking. However, the conventional methods that are generally dependent on visual and sensory properties are not suitable for quantitatively estimating the structural properties of cooked noodles. Therefore, there is an urgent need to develop more reliable and objective methods for the noodle industry. In this study, the structural changes of cooked noodles were quantitatively characterized by using microcomputed tomography (micro-CT) and proton NMR depending on cooking times and then correlated with several conventional methods. The noodles gradually absorbed water with increasing cooking times, and their white core became thinner and finally disappeared when they were completely cooked. When the noodles with different cooking times were subjected to micro-CT analysis, the 3-dimensional images of the cooked noodles clearly showed density differences over cooking time in accordance with visual appearance, and their degree of cooking could be successfully calculated based on their volumes collected from the stacked cross-sectional images. Regarding water mobility in cooked noodles, the proton NMR analysis demonstrated that the cooked noodles exhibited three obvious water distributions. The proportions of weakly bound water increased along with cooking time, while tightly bound water decreased. Furthermore, the increasing tendency of T2 relaxation time was observed with increasing cooking times. The noodles cooked for longer times typically exhibited a softer texture and also higher cold initial/lower final viscosities. Pearson correlation and principal component analysis demonstrated that the parameters obtained by micro-CT and proton NMR were well-correlated with those by the conventional methods in a highly linear way.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[0.021293906, 0.03784078, 0.041718516, -0.036065567, 0.11554181, 0.04015245, -0.019110458, -0.014460479, 0.039423168, -0.00081051263, -0.054670744, 0.03240707, 0.06780058, 0.017701305, -0.028126258, 0.039379876, -0.012853433, 0.050777987, 0.012870753, -0.0051389067, -0.064437136, -0.0067503173, -0.04651091, 0.0020405725, 0.047689788, -0.0039688624, 0.052310307, -0.01189096, 0.011058479, 0.0060154945, 0.02793899, -0.06364711, -0.0056547266, -0.016969342, -0.0006931805, -0.017087555, 0.045316722, -0.020504026, -0.0079167215, -0.011571186, -0.073851705, 0.007293618, -0.060179103, -0.012731727, 0.07326398, -0.05420567, -0.060557235, 0.022558663, -0.10127286, 0.034340266, 0.016518407, -0.04477728, 0.052487493, 0.015052049, 0.044342723, -0.022994982, -0.07413468, 0.00077691354, -0.022504846, 0.06370794, -0.094481446, -0.0074539753, -0.016562922, 0.040270414, -0.008231881, 0.086703956, 0.055480834, -0.020973695, 0.033509415, 0.041133247, -0.045359354, 0.0054588052, 0.023761442, -0.006778411, -0.08544294, -0.056466773, 0.008670338, -0.007927528, -0.013762632, -0.06589378, -0.0011979652, -0.0323479, 0.03817054, -0.01831327, -0.08267446, 0.04721976, 0.0027730733, -0.017851997, 0.0070446227, -0.117303334, -0.0068273153, -0.0013350361, 0.10787421, 0.003494017, 0.019719912, 0.006975073, 0.066603534, 0.047733627, 0.009610333, 0.061796144, -0.06999589, -0.011203678, -0.014856612, 0.0020646527, 0.009591743, -0.04796369, 0.04896859, 0.013036595, 0.011745921, 0.024566267, 0.01054756, -0.06738778, -0.027054472, 0.008811152, 0.0067911698, -0.012229589, 0.06937168, -0.0030216894, -0.0031238692, 0.06708558, 0.02442345, 0.034130856, -0.02203237, 0.032837346, 0.01737278, 0.056467786, 0.093985915, -0.07099703, 0.034378756, -0.04176811, 0.0028996826, 0.06873355, -0.037022572, 0.06954701, 0.027185973, 0.00029174122, 0.014274735, 0.03954586, -0.03640475, -0.010504761, 0.031131292, 0.066656955, 0.0065007894, 0.018376654, 0.013493323, -0.0075859185, -0.12282359, -0.033768494, -0.002055612, -0.022737492, 0.02909097, 0.047370967, 0.058100533, -0.0031530948, 0.00075160235, -0.026518028, 0.0024783027, -0.01720172, -0.0072125527, 0.029998556, 0.01047762, -0.086702876, -0.002441344, 0.02968816, 0.007981506, 0.009011487, 0.062343635, 0.026216522, -0.020325981, 0.0998943, 0.014064782, -0.01294083, 0.028375737, 0.0030085186, 0.022620235, -0.041738063, 0.015580511, 0.019281603, 0.09737422, 0.017844638, -0.042951234, -0.09671362, 0.0363006, 0.0050030374, -0.005391852, -0.040661674, 0.000815838, -0.025181277, 0.004314225, -0.008905486, -0.12608334, -0.06790089, 0.043909583, -0.0016275968, -0.012076673, 0.040229887, 0.043407053, -0.00014590542, 0.053061005, 0.12533295, 0.06132055, 0.035029255, 0.058653027, -2.8325245e-05, 0.04291379, 0.054108445, 0.008290183, -0.017893737, 0.014321999, 0.042558078, 0.0064098663, -0.015259614, -0.05376555, 0.002481805, 0.067000374, -0.0093064625, -0.013502453, -0.06933753, 0.029681806, 0.07324829, -0.004151123, 0.019307949, 0.09904067, 0.011341359, 0.007683527, -0.0011379316, 0.00024616742, -0.015794216, -0.06151055, -0.028261404, 0.0030529455, -0.057209693, 0.026474044, -0.010507876, 0.047444113, 0.044126365, -0.0022983465, -0.022240436, 0.04620906, 0.079567194, -0.047526065, 0.015487707, 0.025534866, 0.03469456, 0.007423756, -0.08657358, -0.026802147, 0.021577707, -0.05838363, 0.013082784, -0.025692016, 0.03364174, -0.060827725, -0.07661367, -0.022621095, 0.014085074, 0.029861294, 0.0046801795, -0.059261695, 0.020840175, 0.053389274, -0.021760527, 0.019179387, -0.030165134, -0.036265533, 0.0005330141, -0.0033432401, -0.024398845, -0.0028679522, -0.011511922, -0.04549611, 0.019907149, 0.060953155, 0.11221213, 0.012375511, 0.0035535807, -0.05378565, -0.019511744, -0.013893724, 0.022183781, -0.04018175, -0.057040755, 0.014644127, -0.02875601, 0.008058176, -0.044146363, -0.021114053, 0.010880162, -0.008075188, 0.036176216, -0.043662623, 0.00572385, 0.08841573, 0.04120593, -0.06095596, 0.028008966, -0.04581025, 0.030120904, -0.02319325, -0.011350425, -0.0153505495, 0.029577443, 0.026339259, 0.040390514, -0.0024396817, -0.041754365, 0.016557151, -0.00024984987, -0.01352942, 0.014206511, -0.046788976, 0.061359696, -0.010739038, 0.06167361, -0.030630497, 0.11870726, 0.00059605617, 0.0005290397, 0.016938645, -0.049318574, -0.021921638, 0.06982178, -0.018992878, 0.016271181, -0.04339299, 0.081087686, 0.004001494, 0.044189673, 0.008244895, 0.008583829, 0.04767445, -0.007930409, 0.014494435, 0.040357932, 0.008169563, -0.06307066, -0.019910146, -0.03606751, -0.09098651, -0.02062121, -0.069638394, -0.04750052, -0.033790126, 0.013824322, 0.002458784, 0.084987044, 0.049617928, 0.040424064, -0.021467714, 0.030404752, 0.017684853, -0.014327065, 0.0031024918, -0.019763593, -0.0071708523, -0.016550444, -0.030325942, -0.024579441, -0.00987238, -0.014828614, -0.031493727, -0.11710761, 0.003953911, -0.0761111, -0.02049843, 0.04494627, -0.021351643, 0.032508608, -0.005608001, 0.0012440328, -0.027644342, 0.0016960378, -0.063651994, -0.011370372, -0.0060834577, 0.03230791, 0.05081814, 0.03763584, 0.021502746, 0.023198461, 0.035762463, 0.0033964347, 0.005435772, -0.037356667, -0.035871476, -0.050200913, -0.076764785, 0.0321789, -0.05834495, -0.051256046, -0.0013192893, 0.075177744, 0.037077185, 0.015615226, 0.0033290158, 0.023970023, -0.04053224, 0.024055216, -0.05749124, 0.04693005, 0.030279009, -0.035405513, 0.004704582, -0.03918858, -0.03441761, 0.042295758, -0.042799424, 0.005837822, -0.065092884, 0.029000433, 0.046685595, 0.031752028, 0.040212743, -0.0079250345, -0.021060243, 0.061894793, 0.04161598, 0.0152469, 0.0489963, -0.054120775, -0.021825189, -0.020854566, -0.058911007, 0.0516454, -0.03694602, -0.09692358, -0.039450213, -0.025928924, 0.0048806653, -0.04379155, 0.06140039, -0.055274773, 0.036288876, -0.05900456, -0.072106555, 0.02230668, 0.038600933, -0.0074464926, 0.0140305245, 0.038982958, 0.058829326, -0.058659375, 0.02269217, -0.02092227, 0.014312166, -0.020403562, -0.0023137783, 0.086080074, 0.004065961, 0.0027217104, -0.014041516, -0.009746238, -0.01796703, 0.081014395, -0.016479887, -0.022148086, -0.019585857, 0.016739672, 0.023284437, -0.0834656, -0.017974801, 0.0015251852, 0.085252084, -0.009071226, -0.06786604, -0.050745446, 0.041083783, -0.018256513, 0.006753069, -0.013958084, 0.058117706, 0.021315841, 0.015084382, -0.05181332, -0.0070468658, 0.019969657, 0.004350494, 0.042172626, -0.0007968053, -0.032538924, 0.031718288, 0.045478787, 0.049294364, 0.0017729981, -0.032651052, 0.04509575, 0.053074148, 0.00418179, -0.033761095, -0.024839705, -0.02171361, -0.010047944, -0.061066017, -0.0052153245, 0.014518693, 0.048798848, -0.010283252, 0.0021577654, -0.07276292, -0.04427384, -0.0007437946, -0.020905603, -0.023868421, -0.020428328, 0.034818355, -0.032073833, 0.04744206, -0.072107196, -0.14484453, 0.051257834, 0.06544288, 0.031593993]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ISFRS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>이가원</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rheological and physical evaluation of rare sugars as alternatives to sucrose in baked goods</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Various alternative sweeteners have been receiving much attention with increasing concerns about health More recently, scientific and industrial attention has been paid to so called rare sugars that occurs in very small quantities in nature, due to their health functional and low caloric properties However, there are few studies on the processing performance of rare sugars in processed food products Thus, this study aimed to investigate the effects of sucrose replacement with rare sugars ( tagatose, arabinose, and turanose) on the rheological and physical properties of baked goods, specifically, cookies The use of rare sugars for sucrose affected the pasting profiles of wheat flour In addition, the retrogradation patterns of the paste samples with sucrose and rare sugars were studied by oscillatory viscoelastic measurements, demonstrating that their viscoelastic properties were dependent on the types of rare sugars by showing different changes in storage and loss moduli over time When the rare sugars were incorporated into the formulation of cookies instead of sucrose, the cookies prepared with turanose exhibited the textural and geometrical properties comparable to the sucrose cookies However, the cookie samples with allulose, tagatose, and arabinose had distinctly low hardness value and spread factor Also, more bright and dark colors were observed at the arabinose and allulose cookies, respectively Thus, this study might provide fundamental information on the processing performance of various rare sugars in foods, probably contributing to the extension of rare sugars to a wider variety of food products</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[0.013624304, -0.017169766, 0.02342459, -0.011025541, 0.08070078, -0.0053429, 0.026152313, -0.060983688, 0.06077498, 0.030555753, -0.05209202, -0.060657367, -0.033777878, 0.026958762, 0.012573924, 0.032245062, 0.043682314, 0.05179296, 0.06516439, 0.038044114, -0.047762264, -0.009698506, -0.04340219, 0.06244717, 0.02650409, -0.044050377, -0.03723786, 0.02903572, -0.018574739, 0.02888148, 0.035786662, -0.043122403, -0.039533224, -0.01615492, 0.028045269, 0.033728126, 0.05893186, 0.013018806, 0.064085975, -0.033010032, -0.04298053, 0.028319677, -0.0039714947, 0.0018578807, -0.034088593, -0.07096093, 0.11603123, 0.010492804, 0.0017978674, -0.0013715007, 0.013393717, -0.010907032, 0.00899212, -0.06539454, 0.051244486, -0.03415484, -0.029732537, -0.013334391, -0.047698077, 0.022274364, 0.012188214, -0.03292513, -0.067611404, -0.016226526, -0.016476471, 0.036076073, -0.030853003, 0.029968947, 0.09713012, -0.064356364, 0.021269929, -0.011019595, -0.012359532, 0.008987913, -0.14123234, -0.03983688, -0.0027459145, -0.07289277, -0.018489674, -0.031063583, -0.073030405, -0.020936884, 0.0740983, -0.031508815, -0.050209835, 0.05965431, -0.08120974, 0.033314608, 0.005006249, 0.057439357, 0.065458775, 0.0043222634, 0.0786039, -0.006309079, 0.06497841, 0.038928043, 0.11142894, 0.078158885, 0.041328084, 0.042094763, -0.012599798, 0.01872397, -0.055862322, 0.026447272, 0.055945266, 0.009893035, 0.022461655, 0.01584893, 0.034247242, 0.048957877, -0.086607896, -0.058765396, -0.066080466, 0.05976915, -0.02580861, 0.06120838, 0.09287526, 0.051536635, 0.008409816, 0.034354176, 0.02432443, -0.041667547, 0.005272007, 0.0439842, -0.027481778, -0.019631702, 0.025558302, 0.0106458925, -0.027473431, -0.08128808, 0.021868113, 0.08043219, -0.014898582, 0.01585521, -0.036231104, 0.0511058, 0.012627118, 0.08734793, 0.009952176, 0.07568921, 0.0038236948, -0.050192878, 0.051258866, -0.0106257945, 0.058345973, 0.020183478, -0.15381278, -0.03767426, -0.028500617, 0.04339584, 0.02095584, -2.560264e-05, -0.013899333, -0.043486293, -0.03081762, -0.10928922, -0.007559989, 0.061059743, -0.06217797, -0.007792467, 0.014313402, -0.033578478, 0.03978276, -0.0036546527, 0.0008997135, 0.082612395, 0.04964265, -0.0073113656, 0.0021888756, 0.088562205, -0.006622037, -0.01957808, -0.0027577358, 0.057492115, 0.017083997, -0.020007173, -0.0033512518, -0.062181577, 0.06538626, 0.015501312, -0.0002470801, -0.0017612979, 0.052756194, -0.008802933, 0.04429363, -0.0030154244, 0.0051539973, -0.061602555, -0.025641868, 0.030597923, -0.04143808, 0.086136535, 0.056018166, -0.025021778, 0.0037035362, 0.035672124, 0.08571669, -0.0059450753, 0.04851454, -0.029869419, 0.00048576665, 0.033819865, 0.06363895, -0.0025535366, 0.11143354, 0.028324444, -0.031865623, 0.05402929, 0.027954545, 0.06186737, -0.079510644, -0.056762412, -0.036261614, 0.025141394, 0.012166488, -0.011328392, -0.027648468, -0.047542714, 0.036614694, 0.054058824, 0.019791683, 0.057618134, -0.042676836, 0.022310348, -0.020297484, -0.015546076, 0.017849997, 0.017284334, -0.025336798, 0.005390819, 0.026683364, -0.05947904, -0.07414678, -0.0019065319, 0.025323056, -0.0031952087, -0.035962153, 0.06831177, 0.04807047, 0.069444194, -0.02047592, -0.007754907, -0.0267855, 0.029009208, -0.014911091, -0.075015284, -0.023111982, -0.0010403481, -0.027059015, 0.027332682, -0.024608172, 0.08257537, 0.017713867, 0.014058868, 0.075029865, -0.017083582, 0.032622777, 0.032322127, 0.041530605, -0.066631, -0.004468972, 0.009378335, -0.012245534, -0.020024901, 0.0016691365, -0.032525, -0.009995244, 0.052656915, 0.04715361, -0.02014866, -0.02443609, 0.03440303, 0.107813485, 0.070565626, 0.06121459, 0.052905332, 0.02506144, -0.08305119, -0.0031992383, -0.03384332, -0.05831328, -0.07500565, 0.048172433, -0.025315924, -0.050034456, -0.045828093, -0.022489812, -0.02133431, -0.042602375, -0.09683573, 0.05549405, -0.088677995, 0.022284532, 0.025430286, -0.0636828, 0.04340554, -0.05413875, 0.08766533, 0.04030508, -0.0029359367, -0.051300723, 0.0064634616, 0.030791245, 0.010845053, 0.081518635, 0.0032613, -0.03705487, -0.021599317, 0.015732804, 0.038106058, -0.018864403, 0.081601076, 0.045189224, 0.075225905, -0.015596595, 0.036009368, -0.034821242, -0.04298583, -0.002374688, 0.03905973, 0.04608163, 0.042542454, 0.0137329195, -0.036456324, -0.021013396, 0.029413532, -0.13059396, 0.0002987585, -0.008727558, 0.045665916, 0.035248924, 0.010452196, -0.019051848, 0.051602077, 0.064108364, -0.039092537, -0.060844146, 0.0074447803, -0.005785499, -0.03260106, -0.013332586, 0.013116967, 0.05708277, -0.030311799, -0.0039406344, 0.038094476, 0.02671004, 0.06588178, 0.0045187036, -0.030391674, 0.022867922, -0.049511157, 0.011740287, 0.049005385, -0.022425966, -0.016043508, 0.01989921, -0.06572968, 0.022135224, -0.03714661, -0.0089729065, -0.028862266, -0.055113733, 0.070616774, -0.031655915, -0.033573758, -0.03777984, -0.00195885, -0.0075297793, 0.014528764, 0.010539508, 0.00939504, 0.007905734, 0.010752581, 0.06734162, 0.037862085, -0.002127028, 0.06299452, 0.04859137, 0.04552309, -0.027888311, 0.043791108, -0.00092256954, -0.069057345, -0.056287847, -0.027981402, -0.14645766, 0.030051244, -0.052588187, -0.095550515, -0.01054996, 0.060185708, 0.06504059, -0.0072533623, 0.005171727, 0.09574417, -0.06557619, -0.002800958, -0.014273771, -0.020834835, 0.04233344, -0.08379528, 0.028720364, 0.043994363, -0.010748329, 0.002530767, 0.0031405543, -0.0010523145, 0.008095555, 0.004632243, 0.043068185, 0.0020069857, 0.016595941, 0.05817837, 0.029897025, -0.010824182, 0.041445766, -0.058218412, 0.007290126, 0.0074879644, -0.0071766605, 0.02358537, 0.026209636, 0.007988105, 0.011529339, -0.055967722, 0.039354853, -0.08692831, 0.047304627, -0.031060284, 0.041102797, -0.070300885, 0.0032431118, -0.0725324, -0.04175833, -0.052566603, 0.02452232, 0.0025483398, 0.03721472, 0.028137138, 0.006517751, -0.010413567, 0.03013801, 0.06889079, 0.0074645476, 0.0013128686, 0.058670234, 0.043760125, -0.05899707, -0.012724451, -0.044254325, 0.011449725, 0.019941915, 0.06964775, -0.031560317, -0.016886484, -0.009458452, -0.10381358, 0.021973368, 0.010793874, -0.030456003, 0.020934759, 0.09784314, -0.01041865, 0.076990195, -0.079529256, -0.03648958, -0.01716729, 0.05583959, 0.0058339834, -0.026728945, 0.09295392, 0.057659596, 0.011154682, -0.09703352, -0.02071287, -0.035361953, -0.06027999, -0.006859219, -0.029282048, 0.019000087, 0.0028848222, 0.05512234, 0.03018653, -0.05385883, 0.046445597, -0.049778737, 0.010367948, -0.06594023, 0.00788077, -0.05288408, 0.011413192, -0.079538815, -0.017908782, 0.060102973, 0.05702138, -0.009567109, -0.024502879, -0.012699378, -0.010173398, 0.04342474, 0.03124996, -0.007993504, -0.074519694, -0.01928432, -0.017662628, 0.026375065, -0.052510593, -0.09109631, 0.020759096, -0.028729336, -0.0031066649]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>오민수</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Enrichment of rutin in Tartary buckwheat flour by hydrothermal treatments: rheological, thermal, and microstructural characterization</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Tartary buckwheat (Fagopyrum tataricum is a health functionally superior crop to other cereal grains due to a variety of functional ingredients, specifically, rutin However, during processing, rutin in Tartary buckwheat is converted to quercetin by rutin degrading enzymes, which generate a bitter taste Therefore, several hydrothermal treatments have been applied to buckwheat for deactivating the enzymes Nonetheless, the effects of the hydrothermal treatments on the rutin content of buckwheat flour have not been elucidated yet This study was thus carried out to investigate the effects of various hydrothermal treatments (boiling, autoclaving) on the rutin enrichment in the Tartary buckwheat flour in terms of optical, rheological, thermal, and microstructural properties The hydrothermal treatments increased the level of rutin in the flour fraction In particular, the highest rutin content was observed in the autoclaved buckwheat flour
+After the hydrothermal treatments, rutin was not converted into quercetin by mixing with water while the granules of buckwheat starch round in shape and grouped in lumps were disrupted Furthermore, greater coefficients of determination were obtained between the rutin content and the physicochemical changes induced by the hydrothermal treatments This study can aid in giving the food industry more potential opportunities to produce new functional food products by increasing the rutin content of buckwheat flour</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[0.036128785, -0.020494392, 0.01713159, 0.002677474, 0.11032322, -0.04844856, -0.04963867, -0.004727913, 0.008587113, 0.042733178, -0.039284077, 0.0044469023, 0.0035662295, 0.075286195, -0.0016971568, 0.052046977, -0.012164008, 0.03238571, 0.053184826, 0.026445711, -0.008652591, -0.043397404, -0.020467443, 0.028665438, -0.0087440675, -0.036293466, 0.039671663, 0.022923928, -0.007240394, 0.018584644, 0.045658022, -0.02278551, -0.0086024655, -0.021085866, -0.01010299, -0.032893833, 0.01374943, -0.026990265, 0.06506177, 0.00056950416, -0.051913396, -0.039257064, 0.018572185, 0.07966267, -0.025509106, -0.002952881, 0.041154236, -0.08312805, -0.040716957, -0.04464754, -0.008690336, -0.008321304, -0.015772166, 0.02980221, 0.08489677, 0.024582397, -0.076590575, -0.014605548, -0.028610794, -0.02330373, 0.0037496332, -0.03851077, -0.0063185818, -0.09918292, 0.0060789087, -0.07703621, 0.014233868, 0.053480625, 0.041118998, -0.03576833, -0.035225846, 0.0038830042, 0.015766686, -0.018210838, -0.103792176, -0.08725185, 0.044900272, -0.049469065, -0.06602955, -0.05301865, -0.0480083, -0.035963286, 0.06384678, -0.06812993, -0.06604588, 0.08004347, -0.05530017, 0.04000891, -0.029557873, 0.004474687, 0.025409834, 0.023235053, 0.07431535, 0.009897425, 0.053458106, 0.038991254, 0.10074594, 0.06795159, 0.044042878, -0.058425926, -0.023084264, 0.04864658, -0.04128041, 0.019966802, -0.0038611707, 0.0502372, 0.0012649114, 0.050420854, -0.02434816, -0.026471209, -0.0978881, -0.030878615, 0.00207172, -0.0031278818, -0.0028650374, 0.003488803, 0.047467887, 0.098901294, 0.01948648, 0.08925783, 0.029291775, 0.010065798, -0.034398004, 0.06282771, -0.03024132, 0.0020019722, -0.024593368, -0.0082917195, -0.023202619, -0.061942186, 0.013077238, 0.026696224, -0.036799867, 0.022768868, 0.03362692, 0.06512909, -0.011228156, 0.00054604275, 0.008887684, -0.029197505, -0.039721623, -0.027033394, -0.0021361182, -0.069740854, 0.010746613, 0.0027993766, -0.107602544, 0.005041584, 0.023149937, 0.021085246, -0.015306321, -0.056225892, 0.035708673, 0.046386093, 0.01989891, -0.07325603, -0.021699896, -0.05167427, -0.06721107, -0.09760113, -0.021571802, -0.02468719, 0.03062748, 0.012193914, -0.017163917, -0.061777946, 0.056405, -0.015804714, 0.06577984, -0.026506055, -0.011267046, 0.01588518, 0.011467374, -0.075122945, 0.020855868, -0.030629765, -0.017427735, -0.03621573, 0.008255127, -0.0376452, -0.008981236, 0.044020914, 0.058439925, -0.026921563, 0.05958967, -0.0040693996, 0.067961134, -0.021967642, 0.04200727, -0.029983921, -0.0059277797, 0.0178478, -0.0025414268, 0.013356494, 0.041258827, 0.014463378, -0.0014005082, -0.07989277, 0.06534952, -0.066643834, -0.035290156, 0.05274616, 0.06348224, -0.02294085, 0.03813372, 0.036029745, 0.03382393, 0.021595627, 0.012471521, -0.0112176305, -0.0863568, 0.022499528, -0.038684964, -0.012972569, 0.019795423, -0.0050782934, -0.02243539, -0.021910371, -0.023019824, 0.04893302, 0.004369451, 0.012732182, -0.0420722, 0.016118104, -0.052059043, -0.022568915, 0.0436477, -0.00946329, -0.030190619, 0.02135913, 0.038666334, -0.07379789, -0.037101828, 0.07909944, -0.0056941058, -0.03441647, -0.025747113, 0.074905485, -0.004755682, 0.11777191, -0.03735476, -0.04357832, 0.026950838, -0.06549548, 0.040716738, -0.016528243, -0.020622054, -0.005066302, -0.0088221785, -0.0075054197, -0.043605894, 0.02155332, 0.026201217, -0.038383964, 0.0035668986, -0.011166233, 0.033122346, -0.0016690858, 0.020564508, -0.069591336, 0.0071217115, 0.067402706, -0.038589355, -0.02823771, 0.029437795, 0.06681017, 0.012324182, 0.037678443, 0.03225556, 0.025778145, 0.008850549, 0.007145987, 0.010462045, 0.05605153, -0.025766963, -0.030947672, -0.00063936383, -0.090283066, 0.014289962, -0.02312375, -0.061383888, -0.01168468, 0.0346291, -0.07323391, -0.060384333, -0.03712766, -0.020647978, 0.011228884, -0.063068114, -0.118963525, 0.0050319894, -0.055870477, 0.022471007, 0.020173568, -0.06481746, 0.049374525, -0.01570221, 0.04156054, -0.013226746, -0.032768812, -0.007864611, 0.017814543, -0.0050934628, 0.036756735, 0.05752977, -0.025417546, 0.0528488, 0.04356522, -0.016023908, 0.0699165, -0.010297236, -0.010003383, 0.011160884, 0.05782616, -0.034104265, 0.05183979, -0.0025407325, 0.03377951, -0.02023708, -0.03592484, 0.0017460702, 0.04619918, -0.082319416, -0.015130724, -0.02144045, 0.06925052, -0.05045553, -0.011602888, -0.043327514, 0.036294937, 0.04907512, 0.0010701965, -0.012534744, -0.02652321, -0.03922105, -0.09331687, 0.039003175, 0.0071796454, 0.011456199, -0.02427256, 0.0067736125, 0.105428346, 0.0048896084, 0.036525693, -0.00048820788, -0.046986572, -0.0035328334, 0.026814379, -0.029001115, 0.03538358, 0.0658411, -0.011525789, 0.009404916, -0.0009946098, 0.012012472, 0.023714859, -0.055466723, -0.020039389, 0.02187617, -0.014301478, -0.01893282, -0.04287306, 0.033447966, 0.030212782, 0.04438784, 0.014971306, -0.05627441, -0.007170514, 0.014212702, -0.09057232, -0.011503854, -0.013082541, -0.015032133, 0.013026223, -0.046692822, 0.0034249374, -0.08093251, 0.04111988, 0.06157164, 0.033266645, -0.004364129, 0.04256743, 0.009523669, -0.09150968, -0.048351064, -0.00397973, -0.084413394, 0.059924938, -0.059367973, -0.054054253, -0.018952942, 0.10206597, 0.02924095, 0.06146465, -0.0020171974, 0.0027233672, -0.014576491, -0.04816099, -0.05442064, -0.055537596, 0.018383527, 0.0175545, 0.0022792995, -0.039949816, -0.023635322, 0.021979095, 0.051566694, 0.010587806, 0.040930387, -0.023978027, -0.0007918403, -0.01758658, 0.031208908, 0.010676323, 0.038114015, 0.024504466, 0.0014654977, 0.03879838, 0.053530015, 0.01626746, -0.0047209715, 0.009410985, -0.008560036, 0.0061789923, -0.010359318, -0.014618706, 0.07878441, -0.061057724, -0.0021462198, 0.049803544, -0.06856747, -0.10900037, 0.0063868216, -0.04203678, -0.005178742, 0.03822791, 0.013601164, 0.026722817, 0.08415149, 0.012795213, -0.0017954157, -0.040686805, 0.0059971046, 0.028173385, 0.0003447812, 0.0015243046, 0.013106774, -0.017085223, -0.037690014, 0.0068837865, -0.08352081, 0.078477964, 0.03679403, -0.014005519, 0.06414796, -0.05341431, -0.07108764, -0.001379563, 0.068654925, -0.018161409, 0.077533364, -0.009809095, 0.07158051, -0.03192601, 0.0047395346, -0.0710504, -0.060342804, 0.0030950317, 0.015146235, -0.00078077865, -0.010818123, 0.044112556, 0.048580207, -0.00022827397, -0.030204471, -0.056230333, 0.027780408, 0.0034519276, 0.017073605, -0.012520969, -0.010597363, -0.024224164, 0.049094584, 0.050966218, -0.04236998, 0.003770969, -0.059233405, -0.036093015, -0.0052843755, 0.03564965, -0.08183353, 0.016685002, -0.032692876, -0.04984365, 0.04142099, 0.09639951, -0.017434018, -0.04024966, 0.04943285, 0.0031529835, -0.018457685, 0.04121053, -0.02553584, -0.049819615, -0.010132713, -0.047578394, 0.031944614, 0.0017294335, -0.095288806, 0.028108088, 0.037942085, -0.023152966]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>양선경</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Effects of thawing methods on the rheological and baking properties of frozen bread dough</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Frozen dough technology is becoming very popular in the global baking industry because of its time and labor saving advantages Although thawing methods play a critical role in the qualities of the final products, their effects are not fully examined or understood In this study, bread doughs were prepared and stored at 18 The frozen bread doughs were then thawed at two different temperatures (refrigerator and room temp) and also subjected to two different thawing conditions (proofing and microwaving) The temperature profiles during the thawing process showed that the microwave thawing was much faster than the other methods, but it produced non uniform heating The elevated microwave power level raised both storage (G and loss (G moduli of the bread doughs Mixolab measurements demonstrated that the thermo mechanical properties of the doughs were dependent on the thawing methods When the frozen bread doughs were baked after thawing, the lower loaf volume and firmer texture were observed in the microwaved samples, as compared with the long thawed bread Thus, this study may aid in understanding the quality
+changes of frozen doughs by thawing, probably contributing to further improvement frozen bakery products</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[0.043060333, -0.034527153, 0.06123256, -0.01835548, 0.099378794, -0.013374422, 0.020286784, -0.0433902, 0.015949795, 0.012289198, -0.01195886, 0.051242024, -0.035620414, 0.00071298436, -0.023530858, 0.030060083, -0.0011001255, 0.030023705, 0.07696165, -0.012548986, -0.010220549, -0.04145814, -0.058408394, 0.08945741, 0.090044565, 0.0063021467, 0.06054309, -0.03938626, 0.014380699, -0.013870006, 0.08548076, -0.015737582, -0.11978395, -0.004609087, 0.018561829, 0.025851047, 0.0606616, 0.0038648746, 0.015368079, -0.023762044, -0.050154183, 0.025332402, 0.07311993, 0.024080198, -0.11527962, -0.014641345, 0.038702756, 0.109232694, -0.032240413, 0.031190205, 0.019008227, -0.030185578, 0.0019115475, 0.043953158, 0.02473448, -0.096440114, -0.09358847, 0.0021010812, 0.04637684, -0.0278707, -0.025334496, 0.030404735, -0.03603991, 0.026556278, -0.0029483233, -0.010796712, 0.0049406206, 0.016532617, -0.0110628065, -0.01302307, -0.008755733, 0.02306968, 0.009235308, 0.018096445, -0.09463476, -0.03163756, -0.006182095, -0.03210432, -0.052486382, -0.044983838, -0.040412754, -0.044409484, 0.05281889, -0.057953496, -7.2716735e-05, 0.023417795, 0.0034923528, 0.060899332, -0.022956721, 0.030842634, -0.011965416, -0.00981204, 0.07620475, -0.033290636, -0.0017056207, 0.040198207, 0.057048034, 0.08553886, 0.0482053, 0.056268156, -0.015283686, 0.054175902, -0.009774766, 0.056669626, 0.010368313, 0.021032445, 0.020667968, -0.013106043, -0.0031454852, -0.013428824, 0.05730814, -0.054167308, -0.049758375, 0.025650075, 0.050049536, 0.028034741, 0.014766922, 0.028427903, 0.0067773354, 0.0673285, 0.028324667, 0.0324101, 0.03375668, 0.02538297, -0.015686974, -0.024770739, 0.074170314, 0.020007323, 0.0047423188, -0.08738192, 0.0033304545, -0.0170433, -0.048641175, 0.020110287, 0.014568314, -0.014630329, 0.009634853, 0.014639013, 0.04929059, -0.016354574, -0.007935514, -0.06663234, 0.0070818122, 0.0029344568, 0.053832784, 0.017540932, -0.078251176, -0.03991975, -0.0064792456, 0.026494328, -0.035056822, 0.033017416, 0.05986854, -0.08440605, 0.010056466, -0.069744155, 0.015168821, 0.031889502, 0.0547234, -0.03159474, 0.019126538, 0.0070933374, 0.0034335426, 0.028390972, 0.025616765, -0.0048419223, 0.024811836, -0.011493109, 0.005615923, 0.008102938, -0.013872584, -0.007974703, 0.0192643, -0.0063669216, -0.006658795, -0.060483046, -0.026736395, -0.0067585856, 0.014324536, -0.06713492, 0.009288622, -0.010646531, 0.016087329, 0.052708253, 0.026166076, 0.014265104, -0.009947781, -0.045179583, 0.111534044, 0.028885564, -0.06286502, -0.0021366654, 0.027579011, 0.027529428, 0.014749624, -0.019227453, 0.024947047, 0.03187339, 0.046208844, -0.048175383, 0.054321006, 0.030780725, 0.03545834, 0.01348754, 0.046873026, -0.023307402, -0.045034274, 0.08407046, 0.036280252, 0.046438973, 0.0075059165, 0.0121213915, -0.040334556, 0.015641611, 0.026201513, -0.064968914, -0.04295756, -0.03500499, 0.017899558, 0.016342368, 0.056379467, -0.06520682, 0.04678332, 0.06629379, -0.05588125, 0.03505944, 0.07478175, 0.01758863, -0.034882348, -0.023421226, 0.07644973, -0.075336345, -0.04697031, -0.03735593, 0.055133473, 0.030424858, -0.028221406, -0.013246866, -0.020234408, 0.049414653, -0.05166903, -0.010177572, -0.006484991, 0.031268995, -0.005739735, -0.060921595, -0.0072970437, -0.0004133222, -0.0027082441, 0.0052813897, -0.06936682, 0.082022734, -0.039473794, -0.05324442, 0.02898777, 0.07565448, 0.07708195, 0.07177441, 0.018170288, -0.0032684351, -0.052227665, 0.008950829, 0.026576448, -0.06355991, -0.031449854, -0.022357369, 0.008402875, -0.00089191506, -0.0013082419, 0.05768497, 0.025658458, -0.076431096, 0.009268614, 0.03656609, 0.040345665, 0.04889008, -0.026110647, -0.010529789, 0.02127152, -0.048081774, 0.039134245, 0.0074845026, -0.05216393, 0.0009636168, 0.057182666, -0.03287693, -0.048338342, -0.068213776, 0.029787436, 0.002707931, -0.0522393, -0.025033055, 0.07502781, -0.05067841, -0.08872575, 0.06326269, -0.08592154, 0.00141351, 0.011037132, -0.023505488, -0.0020776496, 0.06551849, 0.11500163, 0.036728207, -0.019674147, -0.07593743, -0.03122783, 0.010809888, -0.0047069476, 0.065683834, -0.027277682, 0.002082581, -0.053284243, 0.077971175, -0.090918355, -0.018122546, 0.032483205, -0.029668434, -0.010742766, 0.0067139156, 0.007536588, 0.06995906, 0.005476916, -0.0272996, -0.046800137, 0.02015192, -0.04359827, -0.03934564, -0.035352916, 0.053550486, -0.003964358, 0.04901933, -0.023242092, 0.02219877, -0.054796424, -0.094855554, -0.07601264, -0.037822746, -0.027366623, -0.019009618, -0.074042335, -0.0041740285, -0.03050383, 0.0025510024, -0.043400582, 0.04267117, 0.09173954, -0.05567725, -0.0034562682, -0.01683925, 0.015090866, 0.00052588846, -0.023904452, -0.006055524, -0.09486388, -0.084598824, -0.053407524, -0.07039683, 0.025190338, 0.013992238, 0.00019877288, 0.0057814918, -0.043453828, 0.025443196, 0.08739744, -0.03319789, -0.0070580845, -0.052973796, -0.05903728, -0.0650228, -0.0129104685, 0.03427785, -0.020674098, -0.025473408, 0.05939518, -0.0191211, 0.048930977, 0.025974214, 0.087464325, -0.010807032, 0.03028183, 0.02366471, -0.019527277, -0.11004818, 0.005813771, 0.00013207272, -0.07271005, 0.0834876, -0.04862112, -0.06646411, 0.023569934, 0.052284017, 0.04408144, 0.116225064, 0.037895672, 0.0068092695, -0.0213071, 0.025169726, -0.082711734, 0.030518837, 0.031431623, -0.018833995, 0.019251637, -0.034617897, 0.041178912, -0.017137038, -0.019744396, 0.031539954, 0.0005738105, -0.027815867, 0.038117506, 0.0066123256, 0.045561556, 0.08330764, -0.013032328, 0.015697425, 0.040887382, 0.056996234, 0.010121257, -0.04084619, -0.04006247, -0.05725493, -0.06151045, 0.03160452, 0.0064258683, -0.07900562, -0.022975482, -0.006073196, -0.022082444, -0.066444516, 0.063004225, -0.013554136, -0.0068715503, -0.022151206, -0.015259603, 0.030889664, -0.0077777747, 0.0046268376, 0.04949966, 0.07781118, 0.07561103, -0.056894656, -0.0155933695, 0.00912215, 0.0061478466, 0.04337812, 0.011870705, 0.02849434, -0.009902459, -0.011675483, -0.012639359, 0.08104905, 0.032058153, 0.042150293, -0.031715315, -0.035479296, -0.05326544, 0.017383393, -0.055353783, -0.0096343905, -0.00671706, 0.037690334, 0.037755474, 0.07789872, -0.03919758, -0.07713048, -0.12086292, 0.007595333, -0.019955464, -0.019496808, -0.04494922, 0.07049775, 0.07683585, 0.008404784, -0.0006849286, 0.010303927, 0.06524847, 0.033615142, -0.105427384, 0.00097464403, -0.033220783, 0.036645148, 0.033568554, 0.05129063, -0.021165485, 0.03923839, 0.05694717, 0.06825084, -0.0092478795, -0.019733317, -0.011999223, 0.024519084, -0.028292255, -0.0630544, 0.065333776, -0.00892749, -0.0036923403, -0.02663756, 0.06594976, -0.043848783, 0.0036071178, -0.017749036, -0.028468413, -0.022807905, 0.063696, -0.030536879, 0.0410924, -0.00662217, -0.14042267, -0.024182668, -0.029648598, -0.033828378]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>정다은</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Wax based oleogel as a solid fat replacer in frozen sweet pan bread</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Oleogelation that converts vegetable liquid oil into solid fat with oleogelators is currently recognized as one of innovative technologies to reduce saturated fat in food products However, there is limited information on the applications of oleogel as a solid fat replacer to yeast leavened products The objective of this study was thus to investigate the effect of oleogel as a butter replacer on the rheological and physical properties of frozen sweet pan bread The rice bran oil candelilla wax oleogels 10 w/w) were prepared and used to replace butter at different levels 25 50 75 100 w/w) in making bread The viscoelasticity of bread dough had a tendency to decrease with increasing levels of oleogel After baking,
+the specific volume of bread was not significantly decreased until 75 replacement levels The butter replacement with oleogel at up to 75 did affect the firmness of the bread Also, darker crust color was observed in the oleogel bread samples The levels of saturated fatty acids in the bread samles containing oleogels were significantly reduced to 19 compared to the control with butter 68</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[-0.020700922, 0.0394653, 0.103369005, 0.0023389421, 0.06783136, -0.004064538, -0.017994732, -0.10744711, 0.03298182, 0.028496906, -0.03499623, -0.0794918, -0.0015618239, 0.02698267, -0.05188949, 0.004647686, -0.0107529145, 0.103482895, 0.09250723, 0.047411993, -0.053832304, 0.009209378, -0.029486597, 0.037279278, 0.05534836, -0.030675136, -0.007816563, -0.044332277, -0.018231308, -0.0090469895, 0.052963406, 0.013200917, -0.046541147, -0.02263575, -0.043744013, -0.044447467, 0.035219286, 0.025250126, -0.030550556, 0.05464997, -0.04895059, 0.0019900145, 0.06557556, 0.015204568, -0.020473804, -0.0794137, 0.03303093, 0.08886593, -0.036183584, 0.030273378, -0.035416145, -0.070690855, 0.0015066436, 0.051035907, 0.048323642, -0.05096959, -0.0751281, -0.061504137, 0.011001562, 0.023909993, -0.041520707, 0.01166815, -0.049018893, 0.046360623, 0.0063016466, -0.019101543, -0.005304416, 0.04026966, 0.073724605, -0.049396977, -0.039063077, -0.0347003, 0.014596808, 0.046924133, -0.09036448, -0.06441614, 0.020787954, -0.021130579, -0.022307474, 0.015129225, -0.06862681, -0.037917625, 0.0858319, -0.0037112162, -0.030028317, 0.037109535, -0.033815797, 0.036329072, -0.017018199, 0.032379106, 0.05461814, 0.033773936, 0.06743444, 0.056001224, 0.034896567, 0.03542813, 0.035173345, 0.06183871, 0.02382413, 0.03503612, -0.015117288, 0.06281793, -0.031198407, 0.025510767, 0.06346129, -0.03999988, 0.034786258, 0.005630655, 0.053602148, 0.045369692, -0.006988102, -0.052218743, -0.0048997207, 0.06177593, -0.019966574, 0.048069064, 0.09129267, 0.05130172, 0.01198746, 0.0030244314, 0.060516782, -0.04562762, 0.035833687, -0.02121094, 0.011534175, 0.0032795079, 0.010911478, 0.07460184, -0.0083371475, -0.037305977, -0.022843048, -0.0087674195, -0.07990631, -0.05946478, -0.025414526, -0.024331998, 0.029949617, 0.045864165, 0.06981944, 0.0043514767, 0.008146249, -0.020622462, 0.017009446, -0.052489072, 0.0059488746, 0.056852497, 0.004915246, -0.02535035, -0.027422646, 0.029604526, 0.0061909175, -0.023704983, -0.0709107, -0.017911756, 0.0012913181, -0.08133772, 0.014253531, -0.012158931, 0.0069770985, -0.020344457, -0.0112594105, 0.0059971446, -0.03223118, -0.0031258855, 0.025510646, 0.034383837, 0.105663985, -0.041561484, -0.01975066, 0.03920287, -0.01018829, -0.0018147769, 0.042765386, 0.0507065, -0.07613472, -0.03521744, -0.036256786, -0.0516025, 0.03317995, -0.051751178, -0.014288396, -0.025189416, -0.012545374, 0.04433698, 0.04181235, -0.009390304, 0.073343575, -0.027090287, -0.02917983, -0.02741142, -0.1241202, 0.026641361, 0.035384603, 0.0058597405, 0.007801193, -0.0010536507, 0.021530982, -0.027951036, -0.011565012, -0.006477204, -0.01123233, 0.010909523, 0.048679285, -0.04278723, 0.0688292, -0.0074720355, 0.004352954, -0.025808329, -0.03454798, 0.032283857, -0.055888787, 0.04967043, 0.055694453, -0.008142966, 0.044855688, -0.013973116, -0.003151919, 0.033170957, -0.0038904138, -0.03474944, -0.060849905, 0.017714169, -0.050572127, 0.009262356, -0.06456929, 0.021435013, 0.013478451, 0.041777506, -0.039078787, -0.003976066, 0.040020443, -0.054876544, 0.006779593, -0.021154659, 0.05471553, 0.03921874, -0.010246726, 0.013042873, 0.027986035, 0.04276665, 0.0067599774, 0.01810484, -0.006297534, 0.031804025, 0.011717593, 0.0020124707, -0.017631786, 0.03880615, -0.023273218, -0.034635935, -0.055163622, 0.057254203, 0.04104896, -0.007869414, 0.026658421, -0.005181193, 0.07802066, -0.012183319, -0.021193035, -0.06500471, 0.008745897, 0.025246229, 0.033287942, 0.022304952, -0.046607148, -0.075326815, 0.019836549, 0.015530087, 0.04709334, 0.034800027, 0.015229942, -0.0036168522, 0.013265663, 0.048827328, -0.028667822, 0.011936838, 0.040371295, -0.04131521, -0.021110449, -0.047446918, -0.034225654, -0.015568197, 0.029914308, 0.012358183, 0.06698147, -0.0651768, -0.14010525, 0.0130673265, 0.028976448, -0.089526355, -0.0033569962, -0.03819538, 0.033682995, -0.02847203, -0.06056446, 0.038544364, -0.03485056, 0.009627022, 0.030190615, -0.0010954994, -0.049405437, 0.030649023, 0.028074583, -0.0034364273, -0.013471512, -0.04198906, -0.018190663, -0.0067953975, -0.019609679, -0.034331422, -0.029732196, -0.014748661, 0.048974685, 0.059152115, -0.005196838, -0.021747295, 0.034635045, -0.01809148, 9.3631446e-05, -0.015489526, 0.027585655, -0.014200084, -0.016350424, -0.045868207, -0.08112633, 0.0062924214, -0.06379105, -0.031035297, -0.044505704, 0.041744962, 0.008789057, 0.033139016, 0.020129876, -0.03880335, -0.050082427, -0.0054392363, -0.012260075, 0.032021753, 0.0032132994, -0.031485718, -0.0780503, 0.05073081, 0.07651978, 0.003122455, 0.016611023, 0.0038963475, 0.104530185, 0.05425846, -0.06355743, -0.08838751, -0.050468024, -0.017933806, -0.024123937, 0.058427375, -0.019052155, -0.038931254, 0.009422083, 0.020649435, 0.021307964, -0.044608857, -0.001566558, 0.000683364, -0.012001919, 0.0763928, -0.015450124, -0.018494206, -0.02981979, -0.0042481064, -0.045286693, -0.065315224, 0.03927026, 0.0050630895, -0.002419104, 0.049792316, -0.029399475, -0.061853956, -0.034364812, 0.038123257, 0.045439824, 0.01717258, 0.0069414563, 0.005969306, 0.027469901, -0.13742934, -0.033393748, 0.01604371, -0.09640332, 0.062277682, 0.03752283, -0.06206934, 0.031519014, 0.06401005, 0.030947646, 0.013654391, 0.056660652, 0.04786876, -0.043365844, 0.018975087, -0.083656855, -0.030656252, 0.06953285, -0.019559018, -0.009153669, 0.055683658, -0.02908058, 0.027944947, 0.059373245, 0.0070648175, 0.028047977, 0.030267105, 0.04254627, 0.029132329, 0.0019674862, 0.051631935, 0.03553181, -0.018831793, -0.054886438, -0.05372299, -0.016133888, -0.046011183, -0.07778257, -0.045577727, -0.008318645, 0.04167288, 0.044955492, -0.023519283, 0.01468855, -0.08972936, 0.04439743, -0.027393997, 0.031396672, -0.059306487, -0.05136651, -0.0073714773, -0.06367108, 0.019694418, -0.01495686, 0.0271659, 0.04226079, 0.03204269, 0.044855494, -0.022174511, -0.01332901, -0.022738073, 0.041181445, -0.022164585, 0.0030695514, 0.07744014, 0.007954802, 0.008989783, -0.040503453, 0.019642204, 0.009729581, 0.021498503, -0.004375757, -0.071205, -0.097428024, 0.00015053712, 0.0055679632, -0.03796375, 0.025674082, -0.026232583, 0.008265874, 0.033796396, 0.0037007502, -0.10163104, -0.05892792, 0.0454855, -0.060839046, -0.0039427876, -0.081671365, -0.005305388, -0.03575172, -0.0116304625, 0.0027863248, -0.028761398, -0.04656479, 0.0045857714, -0.0039793714, -0.0374848, -0.002306391, -0.0342278, 0.07745403, 0.027005898, -0.089084715, 0.04216122, -0.015541028, 0.02961993, -0.06888751, -0.03646166, -0.019714307, 0.006252918, -0.055046964, -0.007506566, -0.0041851006, 0.016154913, -0.020079406, -0.052012153, -0.021066444, -0.028693397, 0.03768312, 0.032389853, -0.018594252, -0.029235363, 0.01125239, -0.04386467, -0.026974753, -0.066061884, -0.08605003, 0.006915296, -0.019749893, 0.0023499692]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>한국산업식품공학회</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>이가원</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Effects of rare sugars as alternatives to sucrose on the quality attributes of cookies</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>The consumer demands for various alternative sweeteners are recently increasing because of undesirable health concerns derived from overconsumption of sucrose Especially, a lot of great attentions have been paid to rare sugars that occurs in very small quantities in nature, due to their beneficial health effects However, the processing performance of rare sugars in a food system has been hardly studied So, this study aimed to investigate the physical and rheological properties of cookies where sucrose was replaced with different rare sugars The substitution of sucrose with rare sugars influenced the pasting properties of wheat flour Also, the viscoelastic properties of the paste samples ( and G”) were dependent on the type of rare sugars When sucrose was replaced with each rare sugar in the formulation of cookies, the geometrical and textural properties of the cookies prepared with turanose were comparable to those of the sucrose cookies In case of allulose tagatose, and arabinose, they gave rise to the decreased hardness and spreadability of the cookies Thus, this research can provide fundamental insight for better understanding of the processing performance
+of rare sugars in a food system</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[0.003578529, 0.012956651, 0.062618256, -0.011705656, 0.11832572, -0.015309735, 0.034692474, -0.051629268, 0.048509248, 0.036857158, -0.061151195, -0.045953956, -0.03172328, 0.043273535, 0.017432475, 0.036006313, 0.023743939, 0.05517664, 0.06368185, 0.056127083, -0.02323024, -0.010276071, -0.07396431, 0.050737564, 0.014910837, -0.0005724476, -0.038773436, 0.015690895, -0.008655752, -0.0006706071, 0.04846573, -0.0581558, -0.035978153, -0.0071839225, 0.043144327, 0.017814176, 0.045396246, -0.022697015, 0.07594702, -0.031170284, -0.027454738, 0.025514254, -0.032538276, 0.011759342, -0.0019749885, -0.033386707, 0.11908169, -0.007843446, 0.0054179584, 0.00057581573, 0.0058748606, -0.044096664, 0.002925837, -0.052653283, 0.043519035, -0.00957977, -0.027872374, -0.01144388, -0.0418376, 0.035748474, 0.006894966, -0.040000014, -0.074521184, -0.015200864, -0.039019365, 0.050172146, -0.00859819, 0.022763144, 0.10004969, -0.03374285, 0.03649306, -0.047270823, 0.022889925, -0.017615233, -0.113778286, -0.042684253, 0.013483642, -0.08134701, -0.046427842, -0.037188824, -0.05827726, -0.05132509, 0.050773878, -0.040252134, -0.00771113, 0.053325113, -0.06610111, 0.047943, 0.004248905, 0.075676754, 0.06045544, 0.02047132, 0.07520134, -0.013005686, 0.057221353, 0.028544959, 0.07029245, 0.07734499, 0.030735489, 0.068307646, -0.02400374, -0.0063590826, -0.05452331, 0.033768933, 0.04548322, 0.003781712, 0.017577333, 0.0063085277, 0.020531124, 0.058487613, -0.05616601, -0.0831347, -0.051134024, 0.0016481349, -0.026856598, 0.06897376, 0.06758076, 0.05045207, 0.01229569, 0.01348478, 0.013418109, -0.037417874, -0.024912689, 0.07659427, -0.032147247, -0.020730201, 0.041392207, -0.0032186336, -0.021609612, -0.044631094, 0.039910395, 0.06338818, -0.0048418897, 0.042797364, -0.03719159, 0.049120102, -0.00037581704, 0.07736432, -0.018238941, 0.08387316, -0.009196642, -0.055553388, 0.026783181, -0.026481045, 0.05824174, 0.00504255, -0.10504264, -0.025788696, -0.044758074, 0.043585014, 0.022013217, -0.020601735, 0.013659737, -0.054999277, -0.045214776, -0.0865834, -0.027505215, 0.035134085, -0.036624055, -0.0015910692, -0.004135884, -0.04650969, 0.04017753, 0.020630851, -0.01832573, 0.025268245, 0.08348904, 0.0057184417, -0.00012854347, 0.05846105, 0.0028744494, -0.02714313, -0.027468195, 0.046587892, 0.0016876953, -0.035632215, -0.01102115, -0.055843614, 0.057501722, 0.04020024, 0.0035001896, -0.026538756, 0.044214997, -0.030356752, 0.034257587, 0.013548721, 0.023423502, -0.0756979, -0.010491912, 0.042921767, -0.0412829, 0.10782679, 0.08467492, -0.021945793, -0.011862089, 0.019540668, 0.050649688, -0.009811034, 0.048287664, -0.0009449063, 0.01391912, 0.03519715, 0.04756578, -0.03386054, 0.10684411, 0.07306803, -0.04047867, 0.07320255, 0.02134435, 0.06811356, -0.08839071, -0.0418673, -0.031839073, 0.02622517, 0.02063885, -0.023513244, -0.03665109, -0.039080236, 0.05865127, 0.038749382, 0.028888168, 0.050916605, -0.02629047, 0.017630609, -0.053414777, -0.024948725, 0.041661043, 0.01143565, -0.0077747065, -0.0097874105, 0.032071065, -0.047492333, -0.025282178, -0.012766736, 0.013179137, 0.06456855, -0.024750002, 0.049015865, 0.019390486, 0.08812318, -0.028975995, -0.0011834347, -0.023723226, 0.044127274, 0.0032558274, -0.0666617, -0.028815018, -0.0013858653, -0.014870806, 0.036312856, -0.0021615196, 0.06511581, 0.03868523, 0.010710887, 0.07630766, 0.0048748297, 0.034046713, -0.02720413, -0.0073888204, -0.060030725, 0.018750817, -0.009455132, 0.0074657653, 0.0035316546, 0.021611176, -0.035327423, -0.011087416, 0.027465513, 0.008492499, -0.047924068, -0.015626138, 0.04054401, 0.131173, 0.09544739, 0.056843784, 0.076724246, -0.0035519493, -0.089447714, 0.0010851645, -0.016827926, -0.04298443, -0.050675962, 0.067682944, -0.02883671, -0.032552917, -0.040956944, -0.016155422, -0.011051644, -0.048439007, -0.11051248, 0.061335377, -0.0775724, 0.03078555, 0.031421702, -0.079834886, 0.047815364, -0.057048403, 0.09577882, 0.048633058, 0.012891084, -0.05787553, -0.015011648, 0.0019839655, 0.029047638, 0.06277997, 0.0053364397, -0.038955137, -0.034150723, 0.043489996, -0.0113498, -0.018268233, 0.043852232, 0.050005738, 0.08052345, -0.03478611, 0.03947667, -0.085155755, -0.056969218, -0.012765446, 0.012076145, 0.06327491, 0.029004848, 0.018298307, -0.054900836, -0.060428843, 0.061960492, -0.11591623, -0.041815795, -0.023256592, 0.036997266, 0.032732647, -0.0030102236, 0.021467168, 0.046378173, 0.024744127, -0.043529775, -0.0554599, 0.021217862, -0.0016059657, -0.0060413126, 0.00888252, -0.012383417, 0.04719967, 0.0074876877, -0.023591504, 0.03496416, 0.03954507, 0.07959786, -0.04809697, -0.021798074, 0.017065804, -0.040022727, 0.015756812, 0.034884643, -0.01084628, -0.0031300327, -0.016961083, -0.045267317, 0.0029497296, -0.029574582, -0.010864476, -0.038111743, -0.031517822, 0.06550401, -0.010497797, -0.00698469, -0.038533486, -0.0060235234, -0.013755885, 0.0071879197, -0.004881169, 0.02108636, 0.014710396, -0.011397987, 0.044263672, 0.017525744, -0.01133655, 0.05019664, 0.056356154, 0.029645871, -0.02924521, 0.013882495, -0.00554124, -0.06611031, -0.061699048, -0.018601097, -0.14541619, 0.017035346, -0.046559483, -0.080759875, 0.038525704, 0.07269285, 0.039420415, -0.021531845, -0.02414306, 0.09146541, -0.069532946, -0.008468511, 0.0036165174, -0.010254025, 0.03938689, -0.09053353, 0.015319048, 0.022444509, -0.00020872615, -0.00042305092, -0.007063941, 0.0049051195, 0.012777906, -0.0034043603, 0.034759153, -0.009168549, 0.033275593, 0.026014041, 0.03715696, -0.0070184623, 0.057853837, -0.067288905, 0.036764223, -0.020052902, -0.009677542, 0.047080915, 0.020555522, 0.008894525, -0.013937661, -0.042095345, 0.012958287, -0.09486916, 0.043824345, -0.027952079, 0.021489296, -0.043642327, -0.012228132, -0.08059646, -0.044830747, -0.04377955, 0.039300244, 0.013209158, 0.038389023, 0.0151961, -0.041618623, -0.033385046, -0.0067057335, 0.07736948, 0.0026148388, -0.0146603305, 0.04278769, 0.074413754, -0.048606187, -0.024539484, -0.008826491, -0.011307852, 0.022837855, 0.061567105, -0.0126982, -0.030835547, -0.013702089, -0.1034261, 0.06912253, -0.027156895, -0.038970105, 0.04189755, 0.089103274, -0.03678039, 0.062289834, -0.07246047, -0.057618458, -0.014210734, 0.092173375, -0.008568381, -0.04426382, 0.06395684, 0.0630116, -0.008414871, -0.0608899, -0.04963375, -0.015140173, -0.06102767, 0.0058100084, -0.032965638, 0.01864244, 0.0014971769, 0.062192492, 0.02799588, -0.055906713, 0.042162485, -0.063599326, 0.03509236, -0.024527399, -0.013760186, -0.03071864, 0.010055769, -0.09662333, -0.009904491, 0.06774497, 0.0148281185, -0.0148904035, -0.019563438, -0.014529433, -0.00956123, 0.044925295, 0.0143521875, -0.023758005, -0.073571, -0.02553179, 0.014225059, 0.034761783, -0.0380556, -0.095774315, 0.016277486, -0.005841319, 0.0032100512]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>김희수</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Establishment of a universal instrumental methodology to measure the rheological properties of the elderly foods</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>As the elderly population has been increasing throughout the world, the demand of the elderly diets with a softened texture is on the rise. However, there are practical difficulties in applying existing UDF and KS-based methods to universally measure the rheological properties of the elderly diets. In this study, a new rheological method was developed and its various operating conditions were established. Compared to UDF, the developed method based on a puncture test showed universalness, great applicability, and operating convenience. It also showed a high coefficient of correlation depending on the hardness of the samples prepared. The operation conditions of the developed method were established by varying the diameter of probe, plate hole size, crosshead speed, and sample size. Specifically, it was recommended to lower the rod probe at a mild crosshead speed of 100 mm/min until the sample larger than 20 mm was punctured. In addition, the instrumental hardness was expressed in terms of stress instead of force for fundamental analysis. This study may thus encourage the food industry to develop various diets for the elderly by providing objective rheological guidelines.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[0.054933626, 0.048594076, 0.0046567237, -0.011038575, 0.10122032, 0.054160196, -0.06443426, -0.080047205, 0.02879749, 0.02944213, 0.055465233, -0.042622514, 0.022023227, -0.000334542, 0.017371343, 0.007017018, -0.006913452, 0.015635632, 0.051023528, -0.019481797, -0.0019186947, -0.028969143, -0.06729946, 0.022863643, -0.004888118, 0.0053063985, 0.055217814, -0.017446049, 0.06118167, 0.0036434762, 0.02931754, -0.03357742, 0.008603337, -0.045488726, 0.0033160585, -0.00080850645, 0.019860106, 0.011681586, -0.06582295, -0.06668396, 0.008294828, 0.022650277, 0.019367546, -0.028570835, 0.060318045, -0.056496494, 0.027525138, 0.0105372695, -0.053174525, 0.01853351, 0.00030745985, -0.05172336, -0.049665004, 0.05672455, 0.034076292, -0.058067676, -0.04482731, -0.04780691, 0.08582877, 0.033092536, -0.016045198, -0.11277102, -0.05222221, 0.0005362074, 0.01232617, 0.019645391, -0.0047989204, 0.0237461, 0.0051900614, 0.032972265, -0.054703087, -0.047959235, 0.007689676, 0.012011144, -0.08632389, 0.02049647, 0.017393824, 3.9870152e-05, -0.024175059, -0.0031693676, 0.017989103, -0.054426804, 0.031140165, 0.010094164, -0.0011580684, 0.06467624, -0.03269925, 0.0675064, -0.017852176, 0.042665523, -0.007701635, -0.03463351, 0.10826847, 0.017304422, -0.0049590063, 0.0028819821, 0.0088764075, 0.10833148, 0.034578286, -0.022624834, -0.025050938, 0.058927476, -0.0016422948, -0.012046378, 0.030430289, -0.0060386066, 0.02783312, -0.0009275297, -0.014645306, 0.024064805, 0.0010197102, -0.06295356, -0.03504074, -0.054293558, -0.020276476, 0.06274087, -0.0027822023, 0.050583433, -0.004920076, 0.027605826, 0.0064915647, -0.017460767, 0.037258998, 0.07118313, -0.011342783, -0.011430727, 0.055628285, -0.043913085, 0.022873085, 0.14731076, 0.031493317, 0.0012345471, 0.018543947, 0.045740407, -0.00767679, -0.031644713, 0.023984022, -0.016180139, -0.0237447, 0.024896747, 0.048597235, -0.04938409, -0.0166183, -0.14263277, -0.050855324, 0.0025104876, -0.043625973, 0.035996094, -0.005823097, 0.035834316, -0.0042009135, 0.031937692, 0.052333754, -0.02968067, 0.0069603636, -0.024316562, -0.012044698, -0.014177959, 0.027940303, -0.016158653, -0.05273088, -0.020090666, -0.09300569, 0.05625634, -0.038926963, -0.06175533, 0.021242037, 0.053312384, 0.0037620338, -0.003068024, 0.043847546, -0.009549756, 0.066816896, 0.033014346, 0.016244877, -0.0012874473, 0.0072058076, -0.065030836, 0.093011335, -0.0029988443, -0.04475936, -0.09395158, 0.008477162, 0.015791297, -0.008333773, -0.028005915, 0.03280373, -0.0034679323, 0.037368197, 0.030923033, -0.017771801, -0.028329493, -5.285046e-05, -0.010020495, -0.018087534, 0.068699874, 0.033819236, 0.025680412, 0.012764165, -0.030786173, -0.03911697, 0.032301467, -0.046721287, -0.006638681, 0.047344632, 0.01139842, -0.03514543, -0.0020117841, 0.025991073, -0.03277986, 0.01227517, 0.034666635, -0.041739084, -0.022313861, 0.029326994, -0.023018638, -0.023984348, -0.053851593, -0.057784814, -0.018439291, 0.021261236, 0.0382761, -0.0601747, -0.03545757, -0.009891226, 0.03126484, -0.015039928, -0.042981844, -0.018163426, 0.071445875, -0.00537297, -0.0052349786, 0.005784106, -0.07751534, 0.06253227, 0.018464053, -0.062369775, 0.033171117, -0.031938586, 0.046055976, -0.06478348, 0.04527607, 0.028951611, -0.0032626074, 0.056578737, -0.026738415, -0.023041725, 0.03336341, -0.009200643, -0.016639864, -0.036778957, -0.0064448784, 1.5292317e-06, -0.034696303, 0.036712006, -0.020859186, -0.004180944, -0.023794895, -0.0068416833, 0.018051507, -0.002258116, -0.10447977, 0.0033699118, -0.047745775, -0.10016149, -0.045015678, -0.025479062, 0.037479192, 0.023119645, 0.003855554, -0.042381413, 0.104138866, 0.044695526, 0.03819001, -0.035453163, 0.012539674, -0.06630695, -0.06925053, 0.025000129, -0.07109275, -0.08896816, -0.02822371, 0.033286788, -0.004274455, -0.026096962, -0.031158326, -0.030700244, -0.04589308, -0.0070366957, -0.08944657, -0.0047721365, 0.025108984, 0.092992246, -0.031966496, -0.060263947, 0.042038046, 0.012623826, -0.0020361508, -0.02429628, -0.027526896, 0.031427052, 0.05297085, -0.014846516, 0.026126502, 0.026087392, -0.011408865, 0.00838009, -0.055334512, 0.019834729, 0.009249826, 0.004463402, -0.012737779, -0.030503316, 0.052604366, -0.031126423, 0.074068874, 0.039178606, -0.0058411104, 0.0031364933, -0.099309646, 0.07668632, 0.01686933, 0.06314674, 0.012278752, -0.024747673, 0.015844403, -0.02733749, 0.10877392, 0.0018867963, 0.054087874, 0.031213883, -0.02809257, 0.00614919, 0.050175127, -0.092681594, -0.04772395, -0.05345931, 0.012995952, -0.0260641, -0.004953465, -0.064300686, -0.041959386, 0.0657638, -0.0110703, -0.036472972, 0.066423714, 0.029567983, 0.07159727, -0.09397814, -0.02826704, -0.035976976, -0.010054627, -0.019597584, -0.024392197, -0.013092432, 0.03630272, -0.009634141, -0.015142456, -0.05389683, -0.052330215, -0.020308437, 0.012630287, -0.006695221, 0.030507794, 0.01736953, -0.04255247, 0.02710142, 0.021197068, -0.014355591, -0.02936942, -0.02975102, -0.0134832235, -0.048237726, 0.014857583, -0.025007516, -0.022271322, 0.005713829, 0.04254382, 0.028648237, 0.038231168, 0.016425781, -0.04702557, 0.0039859996, -0.04063823, -0.022753218, 0.026649097, -0.06651825, 0.008300636, -0.02397969, -0.0026065365, 0.00065890385, 0.04892945, 0.03192343, -0.021968082, 0.081232, 0.09227975, -0.047120597, 0.022221172, 0.056022465, -0.03055291, -0.04543785, 0.038205832, -0.018210404, -0.09138172, 0.047377124, 0.060747944, -0.032787926, 0.024206117, -0.05519508, -0.08366314, -0.029872688, -0.030897439, 0.018524857, -0.010261146, 0.036098327, -0.0024730929, 0.022064034, 0.032374337, 0.034607586, 0.035355963, -0.06989395, -0.0046500773, -0.02126536, 0.07845725, -0.027003925, -0.027627835, 0.026696062, -0.039218843, -0.023995247, -0.05853885, 0.03526206, -0.043335207, 0.09612875, -0.07952807, -0.0412324, -0.033956215, -0.03333228, 0.021236243, 0.030036123, 0.04624042, -0.058388833, -0.06114222, -0.018963203, 0.032154065, 0.068989195, -0.009542065, 0.027523508, 0.07373869, -0.05232846, 0.010208777, 0.056100972, 0.0070678135, 0.029562008, 0.02583721, -0.03356251, 0.028726514, -0.018278169, 0.008878988, -5.7214056e-05, -0.0027476852, -0.009896006, 0.019683335, 0.03937416, 0.0484692, 0.034575485, -0.0053607686, 0.04688139, 0.003882857, 0.0735661, -0.0417838, 0.0034243418, -0.03226973, 0.06293457, 0.02161962, 0.002923853, -0.07806914, -0.039813798, 0.010857809, 0.037409384, 0.018068166, -0.020663342, 0.007645745, 0.053035587, -0.019133655, -0.013440688, 0.04376533, 0.077707656, 0.024567155, -0.042911, -0.057518505, -0.015461462, 0.021564988, -0.058146965, -0.038092468, 0.040257163, 0.038512263, 0.0026450418, -0.015454451, -0.008370237, -0.02073737, 0.067490354, -0.06580726, -0.022728186, 0.04501498, -0.06908325, 0.028007772, 0.041330114, 0.023719972, -0.099466525, -0.026799344, -0.021082979, 0.08447148]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>오민수</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Correlations between enhanced rutin content of Tartary buckwheat flour with physicochemical changes induced by hydrothermal treatments</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tartary buckwheat (Fagopyrum tataricum) has been recognized as a healthy food due to its various functional compounds (specifically, rutin). However, the presence of rutin-degrading enzymes in the buckwheat grains can cause rutin to be degraded into quercetin, generating a bitter taste. Therefore, in this study, hydrothermal treatments (steaming, boiling and autoclaving) were employed to control the conversion of rutin to quercetin by inactivating enzymes in buckwheat and their effects on the levels of rutin in Tartary buckwheat flour were investigated. All the hydrothermal treatments enhanced the rutin contents in the flour fraction and quercetin was hardly detected when mixed with water. The buckwheat flours showed different degrees of starch gelatinization as well as different levels of rutin, which could be fairly correlated by their pasting, thermal, and microstructural changes induced by the hydrothermal treatments. This study can provide an opportunity for the food industry to apply Tartary buckwheat to a variety of processed foods.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[0.018771775, -0.041585065, 0.022022974, 0.026996527, 0.1037555, -0.04395201, -0.048027586, -0.025117131, 0.015093218, 0.056647968, -0.04936533, -0.026612248, -0.016572079, 0.05897841, 0.0050197053, 0.037092395, 0.021829681, 0.025582707, 0.049767986, 0.009006894, -0.00043840255, -0.012168145, -0.027316412, 0.014827455, 0.0037146746, -0.027997611, 0.0127799325, 0.012360939, -0.0030579779, 0.0025553335, 0.013214064, -0.009431457, -0.033211935, -0.00011881348, 0.013921396, -0.02592042, 0.01657731, -0.020807853, 0.051537596, -0.011850959, -0.07790943, -0.024804052, -0.014494151, 0.062995486, -0.018762864, -0.03990201, -0.005634457, -0.029236881, -0.05602338, -0.0027457597, 0.0021818946, 0.009765258, 0.00617376, 0.035590485, 0.06665287, 0.032741573, -0.07457597, 0.006764007, 0.014271445, -0.018254297, -0.008177745, -0.0010291002, -0.019328708, -0.09272787, -0.026160367, -0.04940017, -0.007032964, 0.0047729295, 0.033155177, -0.046846963, -0.010992121, -0.001100058, 0.020276751, -0.01916934, -0.08284523, -0.09906006, 0.019090554, -0.020430176, -0.040617973, -0.013060027, -0.0072260965, -0.040078655, 0.052490737, -0.057113774, -0.073634595, 0.055283245, -0.051795423, 0.026895383, -0.019703386, 0.0006289878, 0.064878896, 0.026105883, 0.1073009, 0.005422389, 0.030824963, 0.033327773, 0.11268529, 0.060752697, 0.06003722, -0.04442294, -0.011901599, 0.07601401, -0.07850723, 0.0026633374, 0.0036577294, 0.021978406, 0.008174628, 0.016979882, 0.016696848, -0.05625116, -0.07095073, -0.04137466, 0.023528665, 0.015715795, -0.013519796, 0.027787292, 0.074836, 0.05834169, 0.012792333, 0.07494833, 0.015952012, 0.00078263035, -0.019216249, 0.058775306, -0.0013828311, 0.008840983, 0.015789147, -0.010613619, -0.0058862576, -0.079118595, 0.017698828, 0.033464026, -0.044313204, 0.049322203, 0.04113064, 0.060304984, -0.011223868, 0.005883907, -0.008206229, -0.029122118, 0.00050336414, 0.0043047876, 0.0016318359, -0.084647276, -0.00570549, -0.00909752, -0.09692985, -0.011618757, -0.03487086, 0.024334464, -0.01036549, -0.023111124, 0.015171626, 0.049154114, 0.023421094, -0.07235856, -0.010707309, -0.04934162, -0.061536875, -0.06548772, -0.024815354, -0.009996206, -0.0033458283, 0.003330215, -0.0053522936, -0.07066331, 0.0560919, -0.01599368, 0.00082277117, -0.025537223, -0.02482473, 0.0033754038, 0.013535431, -0.08257298, 0.041794553, -0.051918954, -0.025419923, -0.05048575, 0.034426037, -0.033566594, 0.0070377346, -0.009071552, 0.04305989, -0.04454451, 0.015516401, 0.012400837, 0.041904774, -0.029109128, 0.031664602, -0.027629156, -0.026960546, 0.016650276, 0.032625947, -0.0065301103, 0.024954017, -0.008096786, 0.010412297, -0.05195397, 0.06807248, -0.05264096, -0.004805111, 0.0516671, 0.07151588, -0.027114915, 0.07687132, 0.011014148, 0.026827876, 0.0042441883, 0.023599504, 0.035982434, -0.102915846, 0.03159027, -0.050117746, -0.024281679, 0.012468815, -0.0032215645, -0.023647022, -0.030670663, 0.0063759214, 0.06466738, 0.023506727, 0.011486757, 0.0010469016, 0.02096548, -0.02108774, -0.023117423, 0.053088047, 0.04499138, -0.03957204, 0.022421168, 0.042433824, -0.062042203, -0.03206841, 0.027866524, 0.040321816, -0.029992675, -0.047344986, 0.056509618, 0.009725167, 0.117477804, -0.041500345, -0.018555751, 0.042603884, 0.002055244, 0.024535485, 0.02451679, 0.032497976, 0.014124, -0.058087215, 0.0018325562, -0.013212565, 0.008714865, -0.0031856657, -0.004583754, 0.013455032, -0.021666324, 0.028304748, 0.008300955, -0.03728394, -0.0728814, 0.028124705, 0.046419, -0.059262108, 0.012007969, 0.006203527, 0.03149937, 0.014921174, 0.02248366, 0.039408375, 0.0013591695, -0.007349694, 0.033084076, 0.048180036, 0.026656322, -0.010245117, -0.03652162, 0.008918895, -0.0963996, 0.029714584, -0.018099273, -0.029497527, -0.011753447, 0.027950237, -0.054659855, -0.029059805, -0.020110028, -0.023633536, 0.008246725, -0.036779083, -0.124775425, -0.0009699619, -0.04807167, 0.03894204, 0.035127506, -0.05771853, 0.05109407, 0.010126356, 0.0425255, -0.012597946, -0.011400237, 0.016045999, 0.029727228, 0.012512018, 0.019627515, 0.04505086, -0.014197578, 0.039450884, 0.028139187, -0.028707437, 0.038588017, -0.037083413, 0.026660927, -0.008134471, 0.006430981, -0.025497133, 0.07387319, -0.015144414, 0.020371787, -0.045521867, -0.03977151, 0.0021261126, 0.044447236, -0.054081693, -0.0039028851, -0.02454971, 0.05691026, -0.029393204, -0.00015560683, -0.06727204, 0.0332031, 0.038392797, -0.0018738492, -0.0032610935, -0.0005413052, -0.023250654, -0.024941213, 0.019961145, -0.00078004954, 0.0019897234, -0.026559386, -0.029432233, 0.0414881, -0.0054925554, 0.0007157894, -0.0033681276, -0.026008073, 0.054883216, 0.039582845, -0.022673365, -0.007787405, 0.016092839, -0.012180275, 0.0057033333, 0.005763863, 0.0040974054, 0.014490497, -0.036769085, -0.039818455, 0.051207755, -0.018699238, -0.0024283924, -0.05361507, 0.032060184, 0.03704798, 0.031790793, 0.019766582, -0.036312655, -0.058211412, 0.0014621443, -0.072225206, 0.016177885, 0.005793824, -0.015918583, 0.01720413, -0.006856259, 0.010452239, -0.05092361, 0.034482274, 0.0579343, 0.05627197, 0.026864184, 0.040282156, 0.020326452, -0.076195866, -0.030731047, 0.0045194966, -0.101273775, 0.01746113, -0.050446738, -0.015549038, 0.0058458573, 0.115101896, 0.03201023, 0.034353793, 0.015065247, 0.006219786, -0.031741634, -0.03289357, -0.05187885, -0.036191445, 0.020711161, 0.017964818, -0.006110123, -0.0155281555, -0.0072184782, 0.016997179, 0.059872527, 0.012423269, 0.0054432945, -0.02877374, 0.00619706, 0.03441562, -0.027179947, 0.020911468, 0.026971163, 0.03567238, -0.0068601845, 0.021554498, 0.031871274, -0.020319017, -0.015330492, 0.025643697, 0.002975484, 0.0059337188, -0.026594203, 0.010409655, 0.07008057, -0.054972976, 0.0062436564, 0.018684274, -0.038843714, -0.09012216, 0.024125583, -0.049134523, -0.028071422, 0.06391926, 0.038235594, 0.05531385, 0.043386165, 0.026296329, -0.007535849, -0.029348275, -0.005591654, 0.03260873, 0.016294388, -0.031284604, 0.008596136, 0.0019249874, -0.044642195, 0.009051009, -0.08396213, 0.056434173, 3.9087143e-05, -0.0045758956, 0.051110122, -0.038217407, -0.029654006, 0.0143685965, 0.026825128, -0.030284349, -0.0013251075, -0.054151442, 0.09467537, 0.0125606945, 0.035192147, -0.094786264, -0.07324797, -0.0056479843, 0.0074845543, 0.010777096, 0.006887341, 0.046193946, 0.0413573, -0.015619616, -0.017499486, 0.0094408775, 0.051170565, 0.0013613346, -2.9518385e-05, -0.015947063, 0.022305863, -0.03590371, 0.04633406, 0.03514767, -0.06288488, 0.045714308, -0.028973743, -0.038582247, -0.04843189, 0.053707145, -0.06399403, 0.009467499, -0.03784872, -0.035229832, 0.025143342, 0.07020088, -0.0014759613, -0.04692491, 0.05839134, 0.029082166, -0.03986625, 0.009910721, -0.023885218, -0.09162077, -0.042500176, -0.06127368, 0.039601713, -0.016133713, -0.092300415, -0.00016074185, 0.028676724, -0.03351024]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>정다은</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Evaluation of rice bran oil-candelilla wax oleogel as an alternative to butter for frozen sweet pan bread with reduced saturated fat</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>One of the innovative ways to reduce saturated fat is to use oleogelation that structures liquid oil into semi-solid gel with the assistance of oleogelators like natural waxes. Although many preceding studies have reported the use of oleogel as a solid fat replacer in various baked goods, few studies have been conducted on yeast-leavened products. In this study, rice bran oil-candelilla wax oleogels (10%, w/w) were utilized to replace butter in frozen sweet pan bread at different levels (25, 50, 75, 100%, w/w). The effects of butter substitution were examined mainly in terms of rheological and physicochemical properties. The oleogel-butter blends showed different patterns of solid fat content. The dynamic viscoelastic results showed that the replacement of butter with oleogel lowered the viscoelasticity of bread dough. Also, the viscoelasticity of the control sample was more dependent on the temperature change. Significant differences in the specific volume and texture of bread were not detected until 75% replacement levels. Furthermore, the oleogel bread exhibited significantly lower level of saturated fatty acids (18%) than that with butter (68%).</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[0.0027712227, 0.040905368, 0.08670291, -0.020339848, 0.06292407, -0.042439446, -0.025675803, -0.09701375, 0.05674853, 0.025804298, -0.0070571234, -0.06608687, 0.0015588148, -0.0058903983, -0.0078070904, 0.014153241, -0.043420587, 0.053711563, 0.11967993, 0.029019075, -0.04560733, 0.017843079, -0.009685483, 0.04461269, 0.040413577, -0.0015960182, 0.016372042, -0.013197239, -0.025748778, -2.986379e-05, 0.021731095, 0.00058731524, -0.009117337, -0.052394193, -0.02498845, -0.015733534, 0.0473732, 0.027686045, -0.07238427, 0.016835064, -0.08906891, 0.04414222, 0.068739094, 0.0039447383, -0.0008087091, -0.05084359, 0.045773245, 0.0721403, -0.024017572, 0.011155716, -0.05459703, -0.010822203, 0.01690824, 0.028400468, 0.061899323, -0.049562596, -0.05353808, -0.045053706, 0.025157182, -0.0008428621, -0.0070090545, -0.022081543, -0.028736962, 0.019530678, -0.0014694721, -0.023526613, -0.005789994, 0.051922005, 0.09426941, -0.011270946, -0.074917495, -0.01361418, 0.03270721, 0.01685474, -0.06768914, -0.06458685, 0.0016263747, -0.048340194, -0.013319965, -0.005569115, -0.052640487, -0.057948697, 0.055698935, -0.041613933, -0.047346313, 0.03794205, -0.016165135, 0.03377782, 0.014401981, 0.0062673404, 0.044805434, -0.011772364, 0.10584737, 0.074939944, 0.043018516, 0.02225606, 0.083165824, 0.110814735, 0.057299394, 0.047988005, -0.009762592, 0.047475167, 0.0093066525, 0.04273389, 0.033122327, -0.0103681125, 0.01150861, 0.005520981, 0.07211817, 0.04762606, 0.018165959, -0.054265454, -0.01745634, 0.065814346, -0.006033589, 0.053920206, 0.04511406, 0.040579047, 0.01923042, 0.0019428153, 0.05883253, -0.060067084, 0.01118407, 0.019498203, -0.0032643727, 0.018776616, -0.0074224137, 0.060039897, -0.00079275, -0.057495445, 0.0062150424, 0.026571186, -0.060456425, -0.044486564, 0.021552743, -0.033226207, 0.042195737, 0.03503113, 0.09875627, 0.02085969, 0.013357748, -0.04303407, 0.020009477, -0.04837669, -0.049319644, 0.039584972, -0.030893821, -0.04566209, -0.055836186, 0.012267626, 0.0020146233, -0.028894747, -0.054198183, -0.031514168, -0.025242094, -0.044436473, 0.011627575, -0.00054987095, -0.02242557, 0.014047193, 0.0029578311, -0.017610297, -0.03313691, 0.0017047137, 0.024449013, 0.056939084, 0.07441915, -0.0021964007, -0.027609676, 0.03414293, -0.021228144, 0.0019961067, 0.03727669, 0.043192845, -0.09921827, -0.0358197, -0.0382354, -0.031965233, 0.048691817, -0.03719068, -0.01839097, -0.029447488, -0.023957485, 0.0034727515, 0.041623812, -0.006584575, 0.04922453, 0.010553042, -0.0265874, -0.028512731, -0.094628505, 0.034056827, 0.013938195, 0.0038507204, 0.0078949155, -0.0135492785, 0.056822263, -0.028304715, -0.025063308, 0.027531859, 0.04913709, 0.03745365, 0.007444216, -0.01845809, 0.0832819, 0.0051837885, -0.005220951, -0.035084102, -0.021471666, 0.03261796, -0.02298026, 0.06691931, 0.0330127, -0.020993477, 0.039215855, -0.022783367, -0.008783901, -0.018576792, -0.011338947, -0.017273039, -0.040012173, 0.047494125, -0.05328082, 0.018616632, -0.044327017, 0.014652018, 0.022127954, 0.049708217, -0.031897787, 0.004205033, 0.00790605, -0.04960234, 0.0015444414, 0.0047309343, 0.0270665, 0.0256257, -0.051284358, 0.0016993284, 0.02864495, 0.08571578, 0.012375767, 0.026353506, -0.00221306, 0.0611861, 0.004792863, -0.0003541348, -0.027526364, -0.03728458, -0.05543071, -0.04717201, -0.046465356, 0.060905598, 0.031198787, -0.012977726, 0.04666207, 0.013548354, 0.06970463, -0.014004621, -0.03487818, -0.025153005, -0.020053746, -0.019660197, 0.05596382, 0.030879442, -0.03490466, -0.0653768, 0.05426012, 0.020013345, -0.000986073, 0.016334385, 0.015586492, -0.028577486, 0.010961676, 0.05355608, -0.064132564, 0.039243557, 0.0523819, -0.01921839, -0.011206123, -0.08298567, -0.039202522, -0.041187193, 0.04383405, 0.037442964, 0.06792134, -0.056705642, -0.07059451, -0.010025479, 0.03608053, -0.05818965, 0.01243309, -0.020856563, 0.005880273, -0.023540882, -0.032440107, 0.044414178, -0.009769935, 0.017917125, 0.029556112, -0.018482726, -0.038804643, 0.029167065, 0.025431802, 0.0038742016, 0.017071696, -0.02315843, 0.01204711, -0.040477928, -0.0019627947, -0.03334762, -0.04696829, -0.0027714712, 0.047714286, 0.059860576, -0.01487206, 0.0092454795, 0.058695007, -0.033489916, 0.009330798, -0.036836658, -0.0024055694, 0.032531794, -0.023391316, 0.0075057754, -0.039082214, -0.016454928, -0.0648559, 0.0036399583, -0.050154954, 0.09977784, -0.022794548, 0.013807057, 0.020930426, 0.011224453, -0.06563755, -0.044750024, 0.01666165, 0.057500314, -0.007982122, -0.047183696, -0.04499668, 0.061246537, 0.06910409, -0.017553633, -0.029518269, 0.010007141, 0.061017852, 0.028242316, -0.058199238, -0.06154917, -0.056112632, -0.0234052, -0.0077763596, 0.05007233, -0.0020157816, -0.050534427, 0.034641605, -0.017026795, 0.03094474, -0.024326459, 0.003995305, 0.013054593, -0.03208433, 0.023316545, 0.0018759464, -0.02513927, -0.02626353, -0.022000283, -0.021263069, -0.036815446, 0.042134307, -0.009148791, -0.036842987, 0.024085479, -0.035014912, -0.06604652, -0.03352391, 0.045038905, 0.020590745, 0.030492522, 0.026903398, 0.024010185, -0.02347351, -0.12080782, -0.037505772, -0.0018133573, -0.09186952, 0.06656192, 0.015998011, -0.033826295, 0.029399345, 0.05771218, 0.0149798365, 0.02504912, 0.035233174, 0.04654309, -0.05550809, 0.04365691, -0.055133168, -0.017846767, 0.03903319, -0.0131175425, -0.020152828, 0.008625819, -0.008355737, -0.00878913, 0.08259575, 0.034266118, 0.009971403, -0.0019044497, 0.05909373, 0.032470386, 0.006687418, 0.061901648, 0.026140977, 0.014222687, -0.056923088, -0.046358284, 0.000889173, -0.009003698, -0.056675512, -0.025130175, 0.017575566, 0.0025347006, 0.03189486, 0.034096964, 0.0045525483, -0.07159369, 0.034649994, -0.0440326, 0.028075153, -0.014278097, -0.032389417, -0.0020322502, -0.036250364, 0.0069411187, -0.03741872, 0.027948063, 0.0658373, 0.004081285, 0.04941713, -0.052757155, -0.03157847, 0.024604646, 0.039956976, 0.015677288, 0.0073598046, 0.06253049, 0.024134709, 0.039353177, -0.014004181, 0.012927345, 0.003681574, 0.052957293, -0.0374343, -0.06080556, -0.09577608, -0.013118446, -0.041009575, -0.04232666, 0.004312308, -0.009846138, 0.037223484, 0.042719517, -0.0018486216, -0.08219898, -0.069977775, 0.06094276, -0.0031651652, -0.025537465, -0.10844921, 0.014873876, 0.0039102524, 0.0025456098, 0.013714017, -0.019974265, -0.035856057, -0.000839555, -0.03835229, -0.02425093, 0.014326643, -0.018131528, 0.063858114, -0.0074481545, -0.09451246, 0.001158868, 0.039679084, 0.06568054, -0.040749267, -0.013871891, -0.01513402, 0.00857215, -0.023137348, -0.009275096, 0.030925985, -0.02395027, -0.032448515, -0.03787778, -0.0059884456, -0.0045657177, 0.02741801, 0.0489322, -0.021985129, -0.032638025, 0.028550202, -0.05860483, -0.004105461, -0.06684296, -0.051811926, -0.013126517, -0.027072553, -0.013434386]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>이가원</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Utilization of rare sugars as a sucrose replacer in a baked model system : Rheological and textural characterization</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>More recently, demands for alternative sweeteners which can reduce the levels of sugar in foods are increasing throughout the world because of undesirable health problems such as diabetes and obesity Therefore, rare sugars that come in very small quantities from natural sources are receiving much attentions due to their various health benefits However, there are few studies on the use of rare sugars in a food system, specifically, baked goods Thus, the research goal of this study was to investigate the processing performance of rare sugars (tagatose, arabinose, turanose) as a sugar replacer in cookies in terms of rheology and texture Changes in the pasting properties of wheat flour by rare sugars were investigated, followed by the viscoelastic measurements When the rare sugars were incorporated into the cookie formulation, the use of turanose out of the other rare sugars produced cookie samples with geometrical and textural properties similar to the sucrose cookies However, the cookies prepared with allulose, tagatose, and arabinose had low values of spreadability and hardness</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[0.0123261, -0.017348167, 0.018551903, -0.010676645, 0.10986039, -0.02397805, 0.041772958, -0.08356361, 0.0687144, 0.015617747, 0.003153126, -0.056824565, -0.0008682825, 0.03251199, 0.045225464, 0.04781908, 0.0062849503, 0.049520113, 0.07791399, 0.031664204, -0.028025271, -0.0036973676, -0.042891387, 0.04099972, 0.014488601, 0.0035155248, -0.018692773, 0.04568845, -0.009556405, 0.006087189, 0.030414522, -0.033252247, -0.021252548, -0.05015424, 0.010379061, 0.053194646, 0.09467686, -0.013840269, 0.03559307, -0.061386157, -0.07741124, 0.05471467, -0.0027649761, -0.00045209329, 0.027101658, -0.061864328, 0.09271881, 0.0063538356, 0.0040978007, -0.01789076, -0.010194513, -0.004678809, 0.0111999335, -0.036092095, 0.025966287, -0.02983065, -0.025408147, -0.0077564493, -0.011867686, -0.022698842, 0.023945736, -0.037099816, -0.0461385, -0.029632896, -0.01691063, 0.006265253, -0.006777599, 0.06418446, 0.11518899, -0.01383816, 0.014044053, -0.00951351, 0.06800595, 0.0022185082, -0.1195201, -0.023743648, -0.0015233243, -0.06707018, -0.007240712, -0.0038780947, -0.060586244, -0.031791307, 0.06820212, -0.041715994, -0.025976446, 0.05536616, -0.04068802, 0.05066112, -0.031734362, 0.087148875, 0.06178909, -0.015985794, 0.09184099, 0.004086007, 0.066638954, 0.022433387, 0.045177825, 0.09126316, 0.06454568, 0.058966227, -0.013071149, -0.0038189965, -0.017117098, 0.05889809, 0.03151926, 0.032875374, 0.015453489, 0.001535617, 0.055654258, 0.06275746, -0.08288575, -0.08173201, -0.04604045, 0.06622258, -0.03729707, 0.074887045, 0.068692945, 0.07365906, 0.015112877, 0.019896066, 0.01266534, -0.06105857, -0.010130752, 0.0566527, -0.03480164, -0.04337807, 0.0122138485, 0.010192071, -0.02102846, -0.03997216, 0.043889496, 0.050750073, 0.0014115507, 0.043158244, -0.041884694, 0.036710367, 0.024248626, 0.07373015, -0.014097091, 0.11499857, -0.007429491, -0.038704295, 0.003256337, -0.023646472, 0.023798445, 0.02704391, -0.096941255, -0.046276487, -0.012727715, 0.03452493, 0.0017324082, -0.028791502, -0.013754892, -0.044555277, -0.053262807, -0.09613213, -0.0059851017, 0.047779, -0.038289554, 0.00022282591, 0.0073809754, -0.039760202, -0.01890153, -0.022446355, 0.0064838007, 0.07375948, 0.04911145, -0.0064776833, -0.028860375, 0.02681461, -0.010661983, -0.009196296, 0.011369984, 0.051458176, 0.0068527404, -0.042954486, -0.025749162, -0.0317663, 0.051503908, 0.017646832, 0.002192839, -0.004516936, 0.030321848, -0.00719075, 0.032799102, 0.0031743636, 0.0011586738, -0.0799177, 0.014800332, 0.034641206, -0.05405825, 0.1166586, 0.07328819, 0.0074242675, -0.032601543, 0.023509957, 0.058577128, 0.019575829, 0.056979723, -0.060996532, -0.028204294, 0.036811545, 0.023737295, -0.028254604, 0.09229432, 0.042492695, -0.055072647, 0.058679264, 0.0044673285, 0.043251522, -0.078960344, -0.04443339, -0.042533286, 0.030013388, 0.0067692925, -0.033723358, -0.06904667, -0.017226849, 0.04299619, 0.04299902, 0.052678093, 0.064561084, -0.11541018, 0.029326731, -0.0067798872, -0.047667403, 0.038551454, 0.05461576, -0.05147093, 0.0023390497, 0.0051326943, -0.03505268, -0.025602037, -0.024742704, 0.039948296, -0.0074188337, -0.05150458, 0.068974584, 0.034184683, 0.08894114, -0.008885783, -0.03723472, -0.04116774, 0.056679245, -0.032625187, -0.046911202, -0.027503837, -0.050706502, -0.026550604, 0.011265263, -0.002902142, 0.06878504, 0.014805061, 0.016756687, 0.1017659, -0.011541007, 0.006318421, -0.008606223, 0.011972258, -0.06489005, 0.02869051, -0.017966239, 0.015422657, 0.0075126085, -0.003889845, -0.014577251, -0.007553876, 0.05079211, 0.0065150596, -0.05376492, 0.0125395665, 0.055779506, 0.079353265, 0.074871816, 0.06461882, 0.05475168, 0.001797459, -0.11627657, -0.0006292124, -0.055432804, -0.01743181, -0.09763393, 0.06557489, -0.0056750835, -0.026049145, -0.04064206, 0.03170356, -0.016627867, -0.03134638, -0.13383035, 0.07525356, -0.10197666, 0.023029657, 0.055291183, -0.054820437, 0.05464559, -0.041250158, 0.0918665, 0.035799775, 0.008664089, -0.07657971, -0.009551016, 0.009742894, -0.009903517, 0.06235555, 0.031162541, -0.049246576, -0.020750359, 0.023056313, -0.0329785, -0.028288603, 0.058206264, 0.03540284, 0.09291271, 0.0052497974, 0.045829426, -0.059786275, -0.057752226, -0.01977112, 0.008219514, 0.056100465, 0.042552784, 0.045437768, -0.025218872, -0.038367894, 0.041587777, -0.13143921, 0.022422317, -0.030246966, 0.04262695, 0.014437908, 0.007571587, 0.01855878, 0.028859818, 0.04248657, -0.06644844, -0.077575974, 0.028472021, 0.019642048, 0.0019588086, 0.015807228, 0.035345726, 0.0667543, -0.046092153, -0.03436623, -0.026349872, 0.029039571, 0.11744509, -0.010930989, -0.026859613, 0.0055395174, -0.037238806, 0.0054265307, 0.054086946, -0.02892044, 0.002963666, 0.03193784, -0.068397924, -0.029564736, -0.026164819, -0.006801287, 0.015926661, -0.082642056, 0.07370241, -0.01655625, -0.01431092, -0.06503339, -0.03421193, 0.014780611, 0.008090207, -0.015548704, 0.0049564317, 0.014127842, 0.01093579, 0.06887839, 0.014871752, -0.035425466, 0.038220406, 0.037087284, 0.035431463, -0.024499122, 0.027737563, -0.010803702, -0.035332154, -0.054937072, -0.04266997, -0.15297122, 0.016522253, -0.04063488, -0.058030084, 0.038564276, 0.055986606, 0.04377996, -0.04102903, 0.0047988663, 0.11626773, -0.029047653, 0.010316662, -0.0064662336, -0.030318234, 0.022622185, -0.07962873, 0.01649602, 0.014950148, -0.021891246, 0.017331256, 0.026084557, -0.0022430536, 0.02085278, -0.005378161, 0.021427223, -0.007408882, -0.0058475514, 0.04157919, 0.012362659, -0.0034305442, 0.030008523, -0.08470489, 0.01282784, 0.040675163, 0.005625377, -0.0039556674, 0.027361766, 0.03613135, -0.0026741482, -0.02636808, 0.05030098, -0.08800381, 0.03239976, -0.023145877, 0.038802184, 0.015035409, 0.018181872, -0.0503903, -0.024394063, -0.036717348, 0.012852571, -0.023510518, 0.031851042, 0.04624254, 0.010306561, -0.022894872, -0.007683672, 0.099001504, 0.0074931765, 0.0074094282, 0.037061002, 0.07429051, -0.032101255, -0.034732595, -0.015962364, 0.003267656, 0.0106209, 0.055529624, -0.049766254, -0.0420241, -0.00128961, -0.07871914, 0.036790498, -0.0061766664, -0.055747334, 0.020048909, 0.08028101, -0.01772515, 0.054691102, -0.043110248, -0.08502441, -0.030076759, 0.06901383, -0.015095535, -0.063950896, 0.07482313, 0.060620636, 0.010179322, -0.07406503, -0.064493015, -0.007483275, -0.061140683, -0.020754587, -0.006039152, -0.0035177283, 0.00097590865, 0.053647973, -0.01015299, -0.039634515, 0.035655435, -0.049251184, 0.04236949, -0.044231143, 0.0002451092, -0.043844473, 0.03798647, -0.08580683, -0.015966605, 0.04519681, 0.019698666, 0.011640693, -0.020810563, 0.0004225643, 0.017117653, 0.04959563, 0.023217207, -0.011952958, -0.07485633, 0.00025432045, 0.0041496484, 0.053049892, -0.030268397, -0.09355142, -0.0076774964, -0.025556905, 0.0021221759]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>한국식품과학회</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>양선경</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Rheological and baking characterization of frozen bread dough depending on thawing methods</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Frozen dough technology across the globe is expected to show a substantial spotlight due to time saving and cost effective benefits However, although thawing deteriorates the baking performance of frozen bread dough, its effects have not been systematically elucidated In this study, frozen doughs stored at 18 were thawed under different conditions Their effects on the rheological properties of frozen dough were then evaluated and correlated with the final quality attributes of bread The temperature measurements during thawing demonstrated that the microwaved samples were thawed quickly however showed non uniformity The mixolab experiments showed that the elevated microwave power
+level appeared to increase the C 1 value of the doughs Moreover, the use of microwave led to higher values of storage ( and loss ( moduli When the thawed doughs were baked, the microwaved samples had the lower specific volume and harder texture than the other methods This study provides fundamental information for better understanding of the rheological properties and baking performance of frozen bread dough depending on different thawing methods</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[0.036370214, -0.011962643, 0.03446929, 0.0001544226, 0.11916298, -0.018690774, -0.0034101834, -0.026615264, 0.032167517, 0.036158357, 0.023250492, 0.017744813, -0.017193854, 0.008943997, -0.0010827796, 0.049316917, -0.0035184822, 0.075636104, 0.07671846, -0.009381338, -0.033647854, -0.023138568, -0.057858244, 0.05635198, 0.06902805, 0.020564914, 0.057023793, -0.036224198, 0.010032779, -0.0012241354, 0.065384895, -0.055805527, -0.09554088, -0.007583912, 0.0671693, 0.043063663, 0.04677499, -0.0051440387, 0.0014043275, -0.058458257, -0.013974361, 0.04702878, -0.0057659894, 0.0134136835, -0.073573925, -0.032597613, 0.06989297, 0.08298188, 0.0012984814, 0.055390514, 0.00483123, -0.05595726, -0.027846891, 0.058647424, 0.0009588438, -0.07876069, -0.078085564, -0.048531998, -0.018520335, 0.01554473, -0.022615595, 0.020627122, -0.07526646, 0.037244257, -0.02794026, -0.024820967, 0.0036081807, 0.0046639754, -0.014822746, -0.015452041, 0.027520869, -0.019841202, -0.022082428, 0.015160554, -0.10729578, -0.03515786, -0.024156902, -0.014421036, 0.013665891, -0.030935293, -0.0632857, -0.049807552, 0.021223178, -0.02872514, 0.027661882, 0.019166702, -0.0027284604, 0.05482448, -0.03672868, -0.007255277, -0.0120898625, -0.03117485, 0.083674036, 0.030680778, -0.009520671, 0.05181357, 0.037261803, 0.0840814, 0.02252185, 0.03937424, -0.012073584, 0.09213737, 0.011298427, 0.07131982, 0.02192947, 0.0010914431, 0.027744452, -0.008897375, 0.004556367, -0.02231001, 0.033912387, -0.07154397, -0.0004579059, 0.038959514, 0.0021634023, 0.052461836, 0.082847275, 0.03878594, 0.018777559, 0.06818437, 0.026363507, -0.022277294, 0.036161564, 0.021432646, -0.02912787, -0.031331614, 0.058852743, -0.016122112, -0.01007477, -0.0613811, -0.037128247, -0.03711335, -0.013312104, 0.030308334, -0.010725892, 0.023283564, 0.012728793, 0.03883019, 0.055043854, 0.014289179, 0.013943792, -0.05556253, -0.018188277, -0.033009756, 0.055168737, 0.0017406837, -0.058084507, -0.057018448, 0.011624008, 0.024510447, -0.008916365, -0.013719975, 0.06296891, -0.06674144, 0.036050394, -0.10298522, 0.025539696, -0.015297772, 0.07618559, -0.017518505, 0.033866566, 0.0034593914, -0.019693818, 0.023926366, 0.029613627, -0.006292395, 0.049325854, 0.0245413, 0.0141976075, 0.021650806, -0.009324814, -0.0020716924, 0.03063381, -0.008298517, -0.010231359, -0.021521365, -0.04786617, -0.04494309, -0.010658613, -0.099240676, -0.00052003463, -0.047434483, 0.03204094, -0.016120661, 0.03455138, 0.0119136525, -0.00500971, -0.06783643, 0.13406794, 0.05433087, -0.09090561, 0.002726945, 0.010284751, -0.04769578, 0.009280766, 0.008293328, 0.0008832854, 0.005779751, 0.048742283, -0.0733661, 0.027745612, 0.03624015, 0.012567035, -0.02265637, 0.070733726, 0.008308025, -0.02355627, 0.079505794, 0.010107476, 0.034577724, -0.026892941, 0.03515295, -0.057855975, -0.024411883, 0.052908175, -0.048995327, -0.05224847, -0.059495587, 0.020826988, 0.011095396, 0.037134517, -0.07812448, 0.056449942, 0.031419404, -0.057458077, 0.04737352, 0.04726127, 0.034210395, 0.005552975, -0.06958843, 0.05052154, -0.04672901, -0.035921764, -0.032358658, 0.03640485, 0.05720574, -0.043299366, -0.03358347, -0.04540883, 0.03927195, -0.045097888, 0.013018479, -0.013365126, 0.026272064, 0.055157766, -0.05173556, -0.017652059, 0.04336535, -0.007994992, 0.008648785, -0.042414952, 0.08147673, -0.06353396, -0.031915143, 0.031331602, 0.021800563, 0.06959665, 0.0606418, -0.045865003, -0.012990165, -0.030453043, -0.0092836525, 0.008540973, -0.09281536, -0.014887355, -0.062980905, 0.019015996, -0.008984391, 0.00064025086, 0.036534347, 0.0106618665, -0.092705026, 0.016009044, 0.058272265, 0.017038148, 0.05801187, 0.007437039, -0.03489681, -0.0014988012, -0.019431919, 0.026261006, -0.015285807, -0.06751307, 0.03355304, 0.055721194, -0.06356426, -0.07030573, -0.059211247, 0.02743985, 0.017865045, -0.045692205, 0.012600335, 0.038327355, -0.044342563, -0.06098236, 0.04588648, -0.063747734, 0.031177785, 0.018858673, -0.0032983192, -0.005254453, 0.039882135, 0.12732881, 0.040810242, -0.043879863, -0.10465309, -0.034136016, 0.027325196, 0.025215805, 0.043837916, -0.0010805071, -0.017128099, -0.008458372, 0.07066299, -0.066330425, -0.017866401, 0.039607834, -0.051651884, 0.020956138, -0.015320695, 0.058082, 0.08357845, -0.024890328, -0.0120105175, -0.102111906, 0.046548635, -0.059267003, -0.028680222, -0.031861678, 0.048470132, -0.0118710995, 0.011187969, -0.004989661, 0.078481406, -0.066877276, -0.060251486, -0.06687095, -0.014056722, 0.0077197836, -0.038534787, -0.072826706, 0.00080025865, -0.027105263, 0.07525498, -0.007217921, 0.032205302, 0.054208014, -0.021809481, -0.028976455, -0.0284923, -0.003870738, 0.02096744, -0.018680267, 0.010296092, -0.093542844, -0.11152512, -0.026386542, -0.037879102, 0.03470389, 0.029947989, -0.029406618, -0.044777405, -0.010938207, 0.020072976, 0.06861653, -0.044293057, -0.03981086, -0.024128476, -0.090762414, -0.071692996, -0.014873419, 0.05169477, -0.025336588, -0.0006064495, 0.030073522, -0.00272383, 0.027706197, 0.032401104, 0.06740679, -0.043802425, 0.03116329, 0.018599266, -0.026067162, -0.07404306, -0.01770549, 0.048527487, -0.05530193, 0.044678114, -0.07703874, -0.0355756, 0.021017497, 0.09779261, 0.05202663, 0.07431454, 0.043507632, 0.059655182, -0.026130963, 0.03808071, -0.06449754, 0.019564992, 0.052906666, -0.020323187, 0.024603907, -0.034893822, 0.04425107, 0.020662243, -0.025216075, 0.020782322, 0.007899165, -0.030626006, 0.041967385, -0.015513654, 0.026220193, 0.0703173, 0.0074300254, 0.02003825, 0.016247516, 0.08432839, 0.00869175, -0.0226805, -0.04667561, -0.04479212, -0.07447129, 0.0074725305, 0.010341897, -0.08193266, -0.015121033, -0.022875624, 0.003161378, -0.03268233, 0.08475725, -0.004410531, -0.011964062, -0.044075623, -0.07561208, 0.019713411, -0.027034745, 0.0072052055, 0.028398862, 0.09301765, 0.04615504, -0.043416943, 0.010958375, -0.01577794, -0.013362488, 0.023376822, 0.025143456, 0.056706827, -0.0029830704, -0.050340045, 0.0442535, 0.055390354, 0.011683687, 0.06327099, 0.0044139526, -0.021497654, -0.07008452, 0.03552983, -0.0056159194, 0.017431797, -0.02254094, -0.012361563, 0.051979024, 0.048514016, -0.019174622, -0.08311228, -0.08009775, -0.0033628214, 0.01715191, 0.017478231, -0.06880133, 0.06899969, 0.05191524, -0.027671859, 0.0044742017, -0.0025192688, 0.082373515, -0.0007601083, -0.07639603, -0.03351801, -0.054274052, 0.01199861, 0.058570668, 0.027399793, -0.019792229, 0.04968538, -0.020308686, 0.069733165, -0.01289343, -0.059598677, -0.004401976, 0.012118443, -0.06101751, -0.054889314, 0.04968951, -0.007382345, -0.07045238, -0.05480258, 0.03434023, -0.055156007, 0.0054884315, -0.04012072, -0.042003654, -0.02361851, 0.06282145, 0.0019301221, 0.051932197, -0.001706389, -0.12652935, -0.010302116, -0.0149631975, -0.021359196]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>2018</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>IFT</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>오민수</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Conversion control of rutin to quercetin for functional enhancement of buckwheat based food products</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Buckwheat Fagopyrum spp is nutritionally superior to other cereal grains due to a variety of functional ingredients, specifically, rutin However, the conversion of rutin into quercetin by rutin degrading enzymes leads to a decrease in the rutin content and an increase in the bitter taste derived from quercetin Therefore, although tartary buckwheat has higher amounts of rutin than common buckwheat, its uses in processed foods are very limited In this study, various thermal treatments were employed to control the conversion of rutin to quercetin by inactivating rutin degrading enzymes in tartary buckwheat and their processing parameters were identified to establish the experimental procedures to minimize the rutin loss during buckwheat processing Tartary buckwheat flour was treated with several thermal treatments including steaming, autoclaving, and microwaving under different processing conditions The levels of rutin and
+quercetin in the resulting buckwheat flours were quantified by HPLC and the correlation between the thermal processing parameters and rutin /quercetin contents were established When ground buckwheat grains were separated into three fractions ( bran, and flour) depending on particle size, the highest level of rutin was observed in the bran fraction The addition of water to the buckwheat fractions caused a distinct reduction of rutin content probably due to the attack of rutin degrading enzymes However, when hydrothermal treatments (steaming and autoclaving) were applied to buckwheat grains, the loss of rutin was dramatically minimized and quercetin was found in minimal amounts in both buckwheat flours and products It however appeared that drying heating or microwaving was not effective in preventing rutin loss Thus, these results showed that the health benefits of buckwheat based food products derived from their rutin content may be maintained by using appropriate processing treatments of buckwheat grains before milling This study can aid in giving the food industry more potential opportunities to produce new functional food products by preventing rutin loss during processing</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[0.032494728, 0.013747777, 0.09134412, -0.0045793597, 0.13422598, -0.03677739, -0.031666785, -0.015275408, 0.032770414, 0.06265345, -0.0012396554, -0.04387604, -0.017539311, 0.07182873, -0.049122497, 0.035653032, 0.0063822186, 0.033969223, 0.052291784, 0.0046781427, -0.035582338, -0.07133687, -0.055473406, 0.022069253, 0.05168016, -0.02306657, 0.012862574, 0.039129537, 0.01475501, 0.012414764, 0.042509265, -0.06039943, -0.007903829, -0.012022889, 0.06649613, -0.029738804, -0.00021481211, -0.02648016, 0.09044919, -0.026723403, -0.07222153, -0.03428541, -0.009853614, 0.016693234, -0.015035852, -0.015580451, 0.01001176, -0.028290324, -0.070917405, -0.023272412, -0.029896455, 0.009830877, -0.016489407, 0.0003085397, 0.061054114, -0.012346078, -0.07874767, -0.021799436, 0.0011270068, 0.0038714611, 0.0068070292, -0.043980278, -0.02852128, -0.06314177, -0.03182296, -0.040536616, 0.03517342, 0.0357721, 0.034042157, -0.012408832, -0.026687413, -0.021572286, 0.010817915, 0.0010226894, -0.07209672, -0.041271716, 0.039719626, -0.018328747, -0.07216558, -0.042908605, -0.04369194, -0.0683701, 0.060451433, -0.09254206, -0.0900523, 0.07500794, -0.031269453, 0.0440467, -0.011584753, -0.0015899958, -0.017152136, 0.027548121, 0.08404185, 0.0074156933, 0.048986875, 0.025856653, 0.14042369, 0.074437976, 0.053578842, 0.022784948, -0.042995036, 0.020776529, -0.03878877, 0.037697013, -0.030341761, 0.028491942, 0.0013432998, 0.01929965, 0.043187313, -0.02550349, -0.03162726, -0.06492117, 0.021742912, -0.03295606, 0.007446536, 0.08176451, 0.0029448306, 0.0679819, 0.019836122, 0.09337073, 0.0628575, 0.023205781, -0.013878706, 0.098526955, 0.0051238853, 0.008041238, 0.008349969, 0.0022122262, -0.015523025, -0.06155904, -0.0017793705, 0.064699486, -0.022131903, 0.033461355, 0.007929947, 0.031051988, 0.048962373, 0.0051202597, -0.010349855, -0.037799407, 0.004417363, -0.019086922, -0.021357605, -0.09927841, -0.013675889, -0.026206607, -0.07707619, -0.052152853, 0.018277057, -0.02504275, -0.0045501, -0.039594136, 0.001437747, -0.00584251, 0.013699537, -0.08691856, 0.01347888, -0.056343377, -0.09358157, -0.049765147, -0.0263928, -0.04314497, 0.00022988068, 0.007992048, -0.029418945, -0.09513614, 0.064765014, 0.009767556, 0.034959983, -0.037795525, -0.011052407, 0.018959016, 0.016299631, -0.08436299, 0.01454134, -0.0327059, 0.0024995967, -0.079992756, 0.016192097, 0.0018110966, -0.02147754, 0.03571877, 0.04684676, 0.018015202, 0.020019827, -0.059438895, 0.040276162, -0.0024463765, 0.07603459, -0.07332198, -0.060687922, 0.027426561, 0.037064787, -0.0030227639, 0.019031439, 0.055210996, -0.024407113, -0.053009912, 0.06731979, -0.0117020905, -0.019027052, 0.05854608, 0.06619562, -0.040149406, 0.060342886, 0.0046939915, -0.004452011, -0.0066088266, 0.025384894, 0.0025007324, -0.07375525, -0.015151569, -0.04152683, 0.0073553077, 0.039269432, 0.0013539215, -0.031853743, 0.0038732968, 0.03028382, 0.016520286, 0.03465787, 0.03123372, -0.06426943, 0.05018775, -0.07510889, 0.023259062, 0.09063257, 0.0008996569, -0.017841378, 0.034043353, 0.02926429, -0.074196465, -0.046548203, 0.052685242, 0.0016829589, 0.02006852, 0.0036999846, 0.038267735, 0.014113771, 0.09156981, -0.026541784, -0.044552848, 0.0054968144, 0.021900458, 0.006422041, -0.001348108, -0.015742315, -0.0055853715, -0.055249974, -0.023904083, -0.04096724, 0.027386574, 0.04706578, -0.06750246, 0.02924785, 0.009237344, 0.040927187, 0.00086856587, -0.016539035, -0.05725898, 0.004553037, 0.014187988, -0.037663907, -0.01959798, 0.026666101, 0.053651243, -0.01139932, 0.012512602, 0.027749514, 0.026824133, -0.005926591, 0.046626393, 0.02547095, 0.06076427, -0.027168164, 0.029310903, 0.003864535, -0.10506695, 0.015544762, -0.014414254, -0.09294021, 0.009023417, 0.042862795, -0.06686703, -0.031341054, -0.027123855, -0.038070817, 0.010517888, -0.0785003, -0.11347671, 0.0027687012, -0.041429438, 0.009869775, -0.02516039, -0.08893333, 0.06544139, -0.035142682, 0.09553763, -0.036236603, -0.034119833, -0.024139674, 0.027441006, -0.039155222, 0.04826746, 0.015321102, -0.01501909, 0.05213483, 0.0276965, -0.018536517, 0.0120769795, -0.04449648, 0.019156236, 0.011600711, 0.091040164, -0.007840466, 0.046804544, -0.022101048, 0.013740249, -0.05458792, -0.041619025, 0.02845901, 0.076841414, -0.056939337, 0.003940323, -0.021317493, 0.039406355, -0.02871636, -0.037142754, -0.050517462, 0.034810424, 0.03187618, 0.037125085, -0.046036597, -0.024462096, -0.04041111, -0.049850505, 0.0044132266, 0.0114714615, -0.009893187, 0.0064859525, -0.037565235, 0.058350023, -0.025989655, 0.03268285, -0.03108206, 0.0022613234, 0.0219497, 0.018931014, -0.030351125, -0.019884633, 0.049271327, -0.0044373367, -0.02471255, -0.022771746, 0.047460657, 0.012994866, -0.05234317, -0.041412175, 0.04624546, -0.027185932, 0.011668534, -0.03796006, 0.03311774, -0.007545551, 0.035552017, -0.0059908004, -0.0042444463, -0.034876578, -0.0006062729, -0.019399434, 0.021471187, 0.020044854, -0.009880944, 0.014894518, 0.009451674, 0.0059229922, -0.036779843, 0.005411973, 0.052824743, 0.0024915151, -0.033306986, -0.013123263, 0.04522559, -0.106711075, -0.043569446, 0.0012487513, -0.068053536, 0.031164158, -0.013619563, -0.044772685, 0.0146715995, 0.10474587, -0.007842699, 0.03869693, -0.022284847, 0.06992878, -0.070363455, -0.016033042, -0.06104642, -0.053177956, 0.010149219, -0.0053443583, -0.038556457, 0.011030111, 0.01432876, -0.0008133187, 0.026688887, 0.008275574, 0.01971826, -0.035209607, 0.019550212, 0.015020924, 0.044551108, 0.04318537, 0.023603857, -0.005966535, 0.0045778374, 0.03690113, 0.041082, 0.0063809576, 0.00032323296, 0.00420643, 0.008869417, 0.027982913, 0.003143872, -0.02075896, 0.006825987, -0.07317175, 0.03419055, -0.028467491, -0.10006376, -0.11706336, -0.003068783, -0.05678112, -0.0022611117, 0.018885545, 0.003782429, 0.07512691, 0.028187336, -0.006616877, 0.017744396, -0.05493632, -0.03726828, 0.03687425, -0.007661415, -0.008519892, -0.005814173, 0.022522265, 0.014479763, -0.017723428, -0.061765544, 0.031238373, 0.03157656, 0.024361156, 0.0501476, -0.03361056, 0.0130076585, 0.02055858, 0.07046419, -0.050538417, -0.021966284, -0.014716829, 0.045191973, -0.03202212, -0.008162081, -0.060221486, -0.029292483, 0.032859903, 0.011438034, -0.024941206, -0.011972209, 0.058138013, 0.05834266, 0.0069062435, 0.018873915, 0.03548117, 0.0127928145, 0.004128227, 0.0010704555, -0.014200945, 0.033778228, -0.021594366, 0.064404614, 0.031439908, -0.027564675, 0.033732776, -0.0099685835, -0.0148177715, -0.015983636, 0.021834802, -0.048713077, -0.0025460725, -0.0859991, -0.052002348, 0.058108877, 0.06088551, -0.044221602, -0.021020634, 0.026336497, -0.0077282703, 0.045793995, 0.027343158, -0.028425751, -0.049073353, -0.043767083, -0.054265555, 0.03084012, 0.0007780863, -0.08347562, 0.006169483, 0.01986816, 0.01578491]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>IFT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>이임경</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Edible organogels based on foam structured hydroxypropyl
-methylcellulose: characterization and application as a solid fat replacer</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Edible organogels based on foam structured hydroxypropyl methylcellulose: characterization and application as a solid fat replacer</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>A great deal of effort has been made to reduce the levels of saturated and trans fat in processed foods, leading to the development of oil structuring alternatives As one of the novel oil structuring methods, oleogelation which provides not only unsaturated fat contents but also gel like elastic properties, has received much attention in food and pharmaceutical industry More recently, a foam templated approach with water soluble polymers started to be applied to structure oil into organogels However, the processing performance of foam structured organogels in a food system has not been investigated yet Thus, the purposes of this study were to prepare foam structured organogels with hydroxypropyl methylcellulose ( and to evaluate their processing performance as a shortening replacer in muffins The replacement of shortening with different levels of HPMC oleogels 0 25 50 100 in muffins was examined in terms of
 physicochemical, rheological, and tomo graphical properties HPMC solution was treated with homogenization and freeze drying to prepare foam structured HPMC that was successfully converted sunflower oil into a solid form The dynamic viscoelastic results showed that shortening and HPMC oleogels behaved in a frequency independent manner as elastic gels The replacement of shortening with HPMC oleogels lowered the viscosity of muffin batters and showed less shear thinning behaviors The specific gravity of the batters increased with increasing replacement levels of shortening and the specific volume of baked muffins was not significantly different at shortening replacement levels of up to 50 In the X ray micro computed tomographic results, larger pore sizes and less homogeneous distributions were clearly observed in both batters and muffins as the substitution of HPMC oleogels for shortening increased The shortening replacement with HPMC oleogels at up to 50 by weight did not change the soft and chewy texture of the muffins As the first application of HPMC oleogels to baked goods, this study presented the possibility of HPMC oleogels as a
 shortening replacer without significant deterioration in the quality of muffins Thus, the food industry can be encouraged toextend the application of foam structured organogels to various food products</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>[-0.015605405, 0.03225565, 0.04120729, 0.03181897, 0.10419261, 0.012891899, -0.023383996, -0.09156115, 0.009419431, 0.048318394, -0.080453284, -0.08890033, 0.036646906, 0.0095919585, -0.0332313, 0.029756706, -0.037064746, 0.06800083, 0.053187873, 0.040785693, -0.031109555, -0.024988228, 0.0095034065, 0.060482632, 0.03366067, 0.013810682, 0.03730637, 0.008865515, 0.007576615, -0.024359176, 0.030641947, -0.07899403, -0.047705345, -0.05556996, -0.04380666, -0.060304638, 0.030835578, 0.050692108, -0.0147058265, -0.011533794, -0.08476888, 0.062494364, 0.093750514, -0.00293402, -0.035180934, -0.011003925, 0.07332671, 0.037306737, -0.034489702, 0.006719841, 0.0051483214, 0.015125125, -0.021572491, 0.021926273, 0.08092535, -0.035538193, -0.071760885, -0.054984134, -0.018093403, 0.05224991, -0.017466756, -0.007193705, -0.073804036, 0.023857508, -0.028929317, 0.014122644, -0.002201551, 0.040099684, 0.09234764, 0.03207509, -0.07596401, -0.036614653, 0.04062387, 0.062785864, -0.04783514, -0.03835604, -0.0099307485, -0.014023867, -0.019016296, -0.05870325, -0.07510099, -0.016538648, 0.06941145, 0.053059913, -0.04103057, 0.060074493, 0.046700794, -0.006651183, -0.0041678324, 0.0030104949, 0.019479545, 0.0025078608, 0.12380574, 0.059224464, 0.009726841, -0.016056525, 0.05205431, 0.105579354, 0.013274076, 0.063544214, -0.034063846, 0.030597704, 0.004459809, -0.053676292, 0.040787496, 0.013252546, -0.0034179904, 0.0043765306, 0.03247478, 0.08345125, 0.020241627, -0.08295224, -0.00019079086, 0.045749765, -0.048056263, 0.10127058, 0.012406077, 0.055300232, 0.013869842, -0.047062412, 0.08514036, -0.015143947, -0.014891259, 0.008243549, 0.020111918, -0.006567783, 0.011112165, 0.0069749895, -0.03403414, -0.049122993, -0.05000336, 0.03235559, -0.04045298, 0.041463107, 0.023782665, -0.0355041, 0.040044136, 0.020844115, 0.039272077, 0.0024669382, -0.027799958, -0.020787895, 0.023827758, -0.04845395, 0.005514212, 0.0010126753, 0.0048703365, -0.017651172, -0.047015518, 0.059836723, 0.0147596765, -0.016568169, -0.0667197, -0.0047950023, -0.03142758, -0.05556309, -0.025479434, 0.008082212, 0.00825175, -0.02415458, -0.04614017, 0.021905199, -0.09034259, 0.045771558, -0.008244598, 0.048438106, 0.08148076, -0.032064807, -0.019403972, -0.021419464, -0.037582453, -0.006371574, 0.06880267, 0.021123545, -0.068996355, -0.033385005, 0.019473048, 0.0014401025, -0.017108181, 0.027490484, -0.030552406, -0.051615793, 0.055144504, 0.055135414, 0.04659647, -0.011412004, 0.013226346, -0.031616647, -0.03865393, -0.010440505, -0.08400698, -0.040015217, 0.046034712, -0.020260895, 0.0025057478, 0.006105698, 0.03532889, 0.003374439, -0.028646585, 0.04992834, -0.010967119, -0.013079627, 0.07688967, -0.048123013, 0.027140783, -0.030692661, 0.038781915, 0.009571465, 0.0002060349, 0.04768825, 0.03933119, 0.07716266, 0.003676348, -0.0153088095, 0.045237247, 0.014041082, 0.01474894, 0.014693346, 0.011257288, 0.065534234, -0.059016414, -0.016702278, -0.105325185, 0.06506614, -0.043444723, 0.008532282, -0.007908853, 0.031050893, -0.093050204, -0.080359735, 0.015906947, -0.04329127, -0.01744544, -0.04217264, 0.047795314, 0.0033657148, -0.007382921, -0.01294082, 0.015231746, 0.094268866, -0.010159052, 0.036504902, -0.049212933, -0.04112871, 0.08539406, 0.06392262, 0.015854403, -0.025281133, -0.0659363, -0.04552518, -0.07002644, 0.023362942, 0.046660095, -0.0023002024, 0.08713729, -0.022501748, 0.025042837, -0.05475643, 0.0016254901, 0.015963662, -0.010877244, -0.0060083745, 0.034366056, -0.012195133, 0.00019545108, -0.09033879, -0.008337288, 0.018064806, 0.025095604, -0.038291615, -0.062611654, 0.043045588, 0.09179318, 0.026992816, -0.085127614, -0.006514744, -0.0029982629, -0.0418149, 0.035819713, -0.0064118886, -0.09321799, -0.017430324, 0.015145319, -0.02265357, -0.025328867, -0.04082069, -0.04026275, 0.023725789, -0.0027476193, -0.10718779, 0.0064363875, -0.032749914, 0.07058528, 0.001200118, -0.08770974, 0.018999506, -0.06413116, -0.018975597, -0.019133646, -0.0030687887, -0.046068672, 0.03314875, 0.018435203, 0.0012437515, 0.0006576013, -0.00906619, 0.051061675, -0.030109692, -0.013874146, 0.019412475, -0.04245938, 0.033054926, 0.043464933, 0.05352403, 0.021853436, 0.029207418, 0.031361405, 0.027214956, 0.005845848, 0.02490597, 0.06400303, 0.010835224, -0.019331206, -0.01098122, -0.10143855, 0.003202013, -0.046550248, -0.008640437, -0.001109466, 0.008159837, -0.004520097, 0.002143611, 0.01881315, 0.044928145, 0.0068650227, 0.005617144, 0.009357924, 0.052137386, -0.07921719, -0.034774315, -0.046203, 0.062130123, 0.043231543, -0.010123286, -0.0043441406, 0.059157114, 0.06678638, 0.105663806, 0.0055743167, -0.04543381, -0.07347381, -0.018753683, -0.02528346, 0.06806726, -0.05270132, 0.04027217, 0.022238152, -0.04839486, 0.0004093635, -0.011857866, 0.04723134, 0.040721755, -0.044049285, 0.01594956, -0.01973599, 0.0034845702, -0.07142956, 0.030100068, 0.002549427, -0.015728131, 0.020499717, -0.019124422, 0.04180312, 0.064581126, -0.08249961, -0.03108069, 0.004633554, 0.06487032, 0.02233827, -0.0493406, -0.023230415, 0.019005414, 0.021515714, -0.0852878, -0.0073656095, 0.023260674, -0.043547392, 0.10114761, -0.04267687, 0.012491832, -0.0323707, 0.090420544, 0.08034779, 0.0059490157, 0.031366374, 0.0593535, -0.035417072, -0.03437087, 0.035997402, -0.058224164, 0.026343752, 0.034959853, -0.012577134, 0.030089935, -0.043798726, 0.0206631, -0.025149088, -0.030296154, -0.0045837737, -0.025438305, 0.07014672, -0.036272224, 0.013405753, 0.040251907, 0.011368865, -0.034379706, -0.007127085, -0.043821793, -0.03348571, -0.03000553, -0.054161146, -0.0017013026, -0.007375982, 0.011135779, 0.046306722, -0.065853424, 0.07642993, -0.061353996, -0.04764846, 0.029787486, 0.0048814006, -0.014135727, 0.015065983, 0.017141484, -0.034123477, -0.022442767, -0.029318895, -0.017792039, 0.030295186, -0.037070654, 0.062344808, 0.022159414, 0.016581595, 0.04672621, 0.053419642, -0.047682803, 0.045095097, 0.017278336, -0.031835984, 0.021392064, 0.0022475878, 0.0131089315, 0.043155078, 0.02573345, 0.017984988, -0.035432912, -0.0861301, -0.0014581959, 0.003413715, 0.011784503, 0.02271396, 0.003115338, 0.015021582, 0.009015652, 0.04564579, -0.097689465, -0.066367045, 0.049163558, 0.007873379, -0.03425903, -0.08116448, -0.008768532, -0.015163374, -0.06806791, 0.026995018, -0.035239268, -0.083238706, 0.010700465, -0.06664707, -0.028455814, -0.011470921, -0.026248785, 0.097605884, 0.016273992, -0.011513136, -0.007893469, 0.0865554, 0.006416997, -0.03241203, -0.06941182, -0.07878492, 0.009235625, -0.017105091, -0.051895577, 0.010573493, 0.0072995434, -0.021910839, 0.015463943, -0.01577995, -0.029527865, 0.030791815, -0.030330405, -0.01941409, -0.0057033803, -0.023829553, -0.003756368, -0.045754377, -0.07081137, -0.040357478, 0.016327651, -0.06208445, 0.005190394]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-0.01560545, 0.03225563, 0.041207295, 0.03181897, 0.10419263, 0.012891919, -0.02338399, -0.09156114, 0.009419433, 0.04831841, -0.08045332, -0.088900335, 0.03664693, 0.009591959, -0.033231325, 0.029756691, -0.037064716, 0.06800086, 0.05318788, 0.040785704, -0.03110954, -0.024988217, 0.009503413, 0.060482632, 0.03366069, 0.013810688, 0.037306383, 0.008865522, 0.007576592, -0.024359154, 0.030641966, -0.078994036, -0.047705352, -0.05556998, -0.04380666, -0.060304604, 0.030835582, 0.05069211, -0.014705819, -0.0115338, -0.08476888, 0.062494364, 0.09375055, -0.0029340219, -0.03518097, -0.011003948, 0.07332669, 0.03730674, -0.034489684, 0.0067198407, 0.0051483167, 0.015125119, -0.0215725, 0.021926269, 0.08092536, -0.0355382, -0.0717609, -0.054984126, -0.018093387, 0.052249916, -0.01746676, -0.0071936958, -0.073804036, 0.023857515, -0.028929314, 0.014122637, -0.0022015432, 0.04009966, 0.09234761, 0.03207508, -0.07596401, -0.03661465, 0.040623847, 0.06278585, -0.047835145, -0.038356047, -0.009930772, -0.014023857, -0.019016318, -0.058703236, -0.07510097, -0.016538635, 0.06941145, 0.053059928, -0.041030567, 0.0600745, 0.046700794, -0.006651172, -0.0041678133, 0.0030104883, 0.019479556, 0.0025078605, 0.12380574, 0.059224457, 0.009726842, -0.0160565, 0.05205432, 0.10557933, 0.0132740745, 0.063544214, -0.03406385, 0.030597707, 0.0044597904, -0.053676285, 0.040787503, 0.0132525135, -0.0034180281, 0.0043765316, 0.032474793, 0.083451234, 0.020241631, -0.08295226, -0.00019079121, 0.045749787, -0.048056267, 0.10127057, 0.012406089, 0.055300258, 0.013869851, -0.047062453, 0.08514037, -0.015143965, -0.014891259, 0.008243549, 0.02011192, -0.0065677757, 0.011112175, 0.006974997, -0.034034148, -0.049122967, -0.050003376, 0.0323556, -0.040452983, 0.041463103, 0.02378265, -0.035504106, 0.04004414, 0.020844117, 0.03927209, 0.002466927, -0.027799979, -0.020787928, 0.02382775, -0.048453934, 0.00551421, 0.0010126777, 0.004870304, -0.017651169, -0.0470155, 0.059836734, 0.014759662, -0.01656815, -0.0667197, -0.0047950284, -0.031427596, -0.055563096, -0.025479438, 0.008082211, 0.008251752, -0.024154617, -0.046140157, 0.02190521, -0.09034262, 0.04577155, -0.008244562, 0.048438113, 0.08148076, -0.032064807, -0.019404009, -0.021419456, -0.037582453, -0.006371585, 0.06880268, 0.021123556, -0.06899634, -0.033385023, 0.019473052, 0.0014400857, -0.017108168, 0.027490465, -0.030552417, -0.05161579, 0.055144515, 0.05513541, 0.046596482, -0.011411987, 0.0132263405, -0.031616647, -0.03865389, -0.010440531, -0.08400698, -0.0400152, 0.046034697, -0.020260917, 0.00250576, 0.006105685, 0.03532889, 0.003374439, -0.028646577, 0.04992833, -0.010967143, -0.013079631, 0.076889664, -0.048123017, 0.02714077, -0.030692672, 0.03878192, 0.009571485, 0.00020602932, 0.047688268, 0.039331216, 0.07716267, 0.0036763598, -0.0153087955, 0.04523725, 0.014041091, 0.014748942, 0.014693374, 0.011257279, 0.065534234, -0.05901641, -0.016702268, -0.10532518, 0.065066144, -0.04344473, 0.008532278, -0.007908847, 0.031050885, -0.0930502, -0.080359735, 0.015906947, -0.043291297, -0.017445488, -0.04217265, 0.047795314, 0.0033657092, -0.007382933, -0.012940848, 0.015231724, 0.09426886, -0.010159055, 0.036504887, -0.049212925, -0.041128714, 0.08539405, 0.0639226, 0.015854398, -0.025281154, -0.0659363, -0.045525186, -0.07002644, 0.02336294, 0.046660088, -0.0023001907, 0.087137274, -0.022501763, 0.025042841, -0.05475641, 0.0016254892, 0.015963651, -0.0108772535, -0.006008384, 0.034366038, -0.012195133, 0.00019548577, -0.090338804, -0.008337275, 0.01806481, 0.025095582, -0.03829161, -0.06261166, 0.04304561, 0.091793165, 0.026992828, -0.085127614, -0.0065147537, -0.0029982554, -0.041814897, 0.03581971, -0.006411875, -0.093218006, -0.017430298, 0.0151452925, -0.022653533, -0.025328843, -0.040820695, -0.04026274, 0.023725789, -0.002747631, -0.10718778, 0.006436383, -0.032749914, 0.07058529, 0.001200125, -0.08770973, 0.018999496, -0.06413117, -0.01897561, -0.019133672, -0.0030688054, -0.046068653, 0.033148754, 0.018435214, 0.001243752, 0.0006576079, -0.009066189, 0.051061686, -0.030109696, -0.013874151, 0.019412493, -0.042459384, 0.033054963, 0.043464944, 0.053524014, 0.021853426, 0.029207418, 0.031361394, 0.027214942, 0.005845833, 0.024905993, 0.064003006, 0.010835219, -0.01933123, -0.01098123, -0.10143858, 0.003202006, -0.04655022, -0.008640439, -0.0011094613, 0.008159817, -0.0045201057, 0.002143596, 0.018813133, 0.04492814, 0.006865033, 0.005617143, 0.009357941, 0.05213739, -0.07921718, -0.03477431, -0.04620303, 0.06213013, 0.043231554, -0.010123269, -0.004344148, 0.05915713, 0.06678636, 0.105663806, 0.005574334, -0.04543381, -0.07347382, -0.018753696, -0.025283426, 0.0680673, -0.05270133, 0.04027216, 0.022238148, -0.048394863, 0.0004093542, -0.011857872, 0.047231343, 0.04072172, -0.044049285, 0.015949568, -0.019735985, 0.003484574, -0.07142951, 0.030100076, 0.0025494131, -0.01572815, 0.0204997, -0.01912443, 0.041803136, 0.06458113, -0.08249961, -0.031080708, 0.004633539, 0.06487033, 0.022338266, -0.049340606, -0.023230433, 0.019005433, 0.02151574, -0.08528786, -0.0073656137, 0.023260696, -0.043547407, 0.1011476, -0.04267687, 0.012491827, -0.03237068, 0.09042056, 0.08034777, 0.0059490097, 0.03136636, 0.059353508, -0.03541707, -0.03437089, 0.035997376, -0.058224164, 0.02634377, 0.03495985, -0.01257713, 0.030089932, -0.04379872, 0.0206631, -0.025149101, -0.030296184, -0.00458378, -0.025438316, 0.07014671, -0.036272254, 0.013405752, 0.04025194, 0.011368858, -0.034379702, -0.007127085, -0.043821782, -0.03348574, -0.030005526, -0.054161143, -0.0017012826, -0.007375982, 0.011135784, 0.046306714, -0.065853424, 0.076429926, -0.06135403, -0.04764848, 0.029787486, 0.0048813894, -0.01413573, 0.015065986, 0.017141486, -0.034123473, -0.022442773, -0.029318891, -0.017792046, 0.030295169, -0.03707067, 0.06234481, 0.0221594, 0.016581563, 0.046726197, 0.053419627, -0.047682784, 0.045095105, 0.017278308, -0.03183598, 0.021392073, 0.0022476062, 0.013108939, 0.04315509, 0.02573344, 0.017984986, -0.035432924, -0.08613008, -0.0014581907, 0.0034137254, 0.011784511, 0.02271393, 0.003115324, 0.015021604, 0.009015667, 0.04564579, -0.09768944, -0.06636705, 0.049163546, 0.007873365, -0.03425904, -0.08116449, -0.008768533, -0.015163365, -0.06806793, 0.026995016, -0.035239264, -0.08323871, 0.010700454, -0.06664709, -0.028455814, -0.011470934, -0.026248801, 0.09760591, 0.016273964, -0.011513152, -0.007893449, 0.086555414, 0.0064169946, -0.032412037, -0.06941181, -0.07878491, 0.009235598, -0.017105065, -0.05189557, 0.010573508, 0.007299566, -0.021910856, 0.015463946, -0.01577996, -0.029527873, 0.030791834, -0.030330408, -0.01941409, -0.0057033584, -0.023829555, -0.0037563774, -0.045754377, -0.07081137, -0.040357474, 0.016327634, -0.06208443, 0.0051904013]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>2018</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>IFT</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>김희수</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t xml:space="preserve">Instrumental stimulation of oral breakdown for saliva-induced structural characterization of foods
 </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t xml:space="preserve">Mastication is a complicated process whereby foods taken in the mouth are disrupted together with saliva, generating a bolus. However, human studies are not readily performed because there are a number of limitations such expenses, inter-individual differences, and ethical problems. Therefore, there have been needs of developing objective systems to simulate a human oral environment. In this study, mastication was simulated by incorporating artificial saliva-food interaction into instrumental measurements. Specially, rice flour gels with different amylose contents were subjected to instrumentally simulated oral mastication with artificial saliva and their masticatory breakdowns were evaluated in terms of rheological and tomographic characteristics. The masticatory peak forces were distinctly reduced at the early chewing stage and then became constant or gradually decreased during the further chewing cycles. These features could be explained by both mechanical disruption of food structure by successive compressions and enzymatic degradation by artificial saliva. Highly linear lines (R2&gt;0.96) were well fitted to the logarithmic plots of chewing peak force and time. Degradation rate of the rice flour gels was more influenced by cohesiveness rather than their hardness and amylose contents. These results were confirmed by the micro-computed tomographic analysis, showing that the cohesive nature of foods influenced the degree of disruption into smaller fragments during chewing, possibly playing an import role in the masticatory performance with salvia and subsequent swallowing. As a result, this study contributed to understanding the structural changes of foods by considering the saliva-food interactions under the simulated chewing condition. This simulated masticatory system can be applied to a wider variety of food products for the perception and appreciation of their quality attributes.
 </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>[-0.019497147, 0.05259498, 0.055663317, -0.023817727, 0.11861199, 0.011305419, 0.0037180067, -0.053673074, -0.0048470423, 0.020196714, -0.10391145, -0.03317678, 0.059122443, -0.0120182615, -0.013841764, 0.046670437, -0.047722798, 0.01666952, 0.03612335, -0.011565503, -0.07002211, 0.004586493, -0.082068354, 0.04326481, 0.010293327, 0.009804721, 0.054863345, -0.023804884, -0.003907625, 0.003491529, 0.048218437, -0.038203463, 0.0027259632, -0.003916859, 0.023775097, 0.004250837, -0.0064176824, -0.004628604, 0.008049855, -0.05235651, -0.06496729, 0.020691508, -0.023914622, -0.011691416, 0.0894319, 0.016613705, 0.024497475, -0.0033515946, -0.025320744, -0.004039753, -0.07645409, -0.03497611, -0.035745498, 0.043490306, 0.049741123, 0.03331714, -0.028584372, 0.027979065, -0.010219016, 0.0093816575, -0.0431669, 0.007000694, -0.048733987, -0.020771166, 0.02740266, -0.011463516, -0.018695274, 0.014199638, 0.0025075965, 0.018942172, -0.013648216, -0.030866697, 0.08648835, 0.013928647, -0.025561415, -0.030169452, 0.0119709615, 0.0426086, -0.06714838, -0.018034467, 0.0020149853, -0.069001846, 0.048419762, -0.024274351, -0.04320108, 0.05982347, -0.0364267, 0.023100123, -0.013888491, 0.020873705, -0.048639514, 0.0055958587, 0.08705772, 0.015098498, 0.006329776, 0.033950858, 0.05994362, 0.0820149, 0.035097703, 0.05286505, -0.0037347695, 0.045458246, -0.033207793, -0.011360845, -0.0029444026, 0.004540993, 0.02088037, 0.0093525015, 0.039583918, 0.016814895, 0.008841915, -0.07914369, 0.032413542, 0.05756974, 0.022118824, 0.0017586207, 0.0014079446, -0.008252356, -0.018232567, 0.0021434096, -0.007042005, -0.0079226, -0.010831571, 0.034355003, 0.0061844266, 0.011524996, 0.018807665, 0.020345913, -0.021966344, -0.051956315, 0.039446317, 0.07098326, 0.026223833, 0.06092671, 0.020503566, -0.06076067, -0.09239556, 0.061599348, -0.024607655, -0.00033784937, 0.029374374, -0.04050603, 0.052122355, -0.029872326, -0.016132751, -0.007505299, -0.02524162, -0.039607476, -0.02630157, 0.049421184, 0.02972155, 0.03088019, -0.0064156367, -0.015286198, -0.01681755, -0.0484334, -0.05379481, -0.028191121, -0.035510235, 0.008689975, 0.059419744, -0.04412632, -0.049101472, 0.06265661, 0.0057138745, -0.04332729, 0.07537225, 0.034702796, 0.016064715, 0.04895696, -0.006066392, -0.003672412, 0.04189532, -0.009926887, -0.025303612, -0.032229993, -0.026067609, -0.028921483, 0.0870451, -0.06111258, 0.013872918, -0.0693908, -0.00023230165, 0.02416584, -0.032309797, -0.0013388306, -0.014077811, -0.028679833, 0.07315649, 0.026492314, -0.038698137, 0.027995707, 0.04163578, 0.026800673, -0.018426955, 0.02352889, 0.043898053, 0.009875373, 0.031761795, 0.041754324, 0.002636727, -0.0071679913, 0.025021657, -0.02654821, 0.040648423, -0.0016288658, -0.02899202, 0.029832024, 0.046256214, -0.060480814, 0.0015185319, 0.034219597, 0.022404488, -0.023760473, 0.036686353, -0.014895163, -0.022759983, -0.07981571, 0.04489265, -0.03268703, 0.023138767, 0.010429824, 0.04111618, 0.12198683, -0.062326744, -0.010567853, 0.08670062, 0.04407389, -0.065177165, -0.055203155, 0.010918567, -0.042168986, 0.052152142, 0.03057622, 0.03953795, 0.10507111, 0.018409325, -0.012283406, -0.0063622585, 0.06759959, -0.052714016, -0.015428984, -0.044030935, 0.02278305, 0.034569122, 0.0011295254, -0.009034332, -0.002763684, -0.038754094, -0.0014968393, -0.010530002, 0.030739602, 0.0015093603, -0.018458145, -0.031831946, 0.009513391, 0.09795037, -0.12174933, -0.011755526, -0.065039314, 0.053435054, -0.033854872, 0.03464655, 0.014225037, -0.042816326, -0.017132062, -0.014690907, 0.013607626, 0.017634327, 0.0038567786, -0.0590462, 0.049556833, 0.033161696, 0.051062074, -0.058061693, -0.02621655, 0.006856876, 0.0037611043, 0.004911469, 0.044211093, 0.02315289, -0.028945092, 0.02011631, -0.049703296, -0.023389194, -0.047040407, 0.0018065138, 0.009332845, -0.056246605, -0.007804243, 0.021486996, 0.010459715, 0.012681499, 0.027957398, -0.08610138, 0.07758862, 0.0013455461, 0.043893065, -0.016559286, -0.019175094, -0.03494242, 0.019712547, -0.0036536148, 0.06923557, -0.010829085, -0.011395095, 0.0037335127, -0.021432225, -0.008038845, 0.016046235, -0.0044078245, -0.012192209, -0.030931108, 0.07164009, -0.0652887, -0.008256336, 0.011722746, -0.009405166, -0.013093424, -0.040728945, 0.014493157, 0.05084497, 0.019179853, -0.027528528, -0.07466265, -0.014664029, -0.006815719, -0.09073454, -0.027361652, 0.038638536, 2.273207e-05, 0.010263944, 0.013060142, -0.06321917, -0.072591275, 0.06269848, -0.00044946076, 0.03546469, -0.010134275, 0.050276518, 0.0027309393, -0.032482952, 0.041173913, -0.04490189, -0.036836784, 0.05595059, 0.035529234, 0.010337425, -0.060635194, -0.010312802, 0.028577555, 0.00046614974, 0.027674643, -0.016498046, -0.054057445, 0.007399292, -0.043020226, -0.06393194, -0.01473989, 0.024086995, 0.053136565, -0.0014381703, 0.028756093, -0.017682582, -0.031053344, -0.053715, -0.080073856, -0.01615593, 0.012976752, 0.01954547, -0.02023389, -0.0041373926, -0.038115174, 0.05121716, -0.011545845, -0.06754844, -0.0018104237, -0.0039839935, 0.07465113, -0.01578368, -0.013904685, 0.023316491, 0.0012102023, -0.05323999, -0.03521856, -0.020848434, -0.08243462, 0.017361712, -0.05561446, -0.0713779, 0.012906552, 0.11004835, 0.011668666, 0.034829218, -0.019642506, -0.020464089, 0.017726267, 0.040705234, 0.027819915, -0.015435396, 0.010672998, 0.0037112392, -0.015038932, -0.027784811, -0.0037164025, 0.012005568, 0.038695075, -0.0013542554, -0.055011988, -0.009610488, 0.038209345, -0.014084499, 0.0021844588, 0.03297312, -0.027581723, 0.035354044, -0.05486307, 0.041911226, 0.024857743, -0.05334383, -0.024074174, 0.06177539, -0.057577323, 0.002287956, -0.014198713, -0.030975474, 0.017252408, -0.08021237, 0.03689237, -0.016105067, -0.00261345, -0.011983074, 0.033486478, 0.012207185, -0.06452724, 0.04509056, 0.02077671, -0.0057364656, -0.029310312, 0.058855496, -0.029723827, -0.07237923, 0.012257165, 0.019184938, 0.013101994, -0.023580855, -0.0005309628, -0.0036852318, 1.557637e-06, -0.0551318, -0.0013273199, 0.0013517941, 0.02095135, 0.009217783, -0.020541303, -0.07614723, -0.009250655, 0.045821965, -0.070897155, -0.068006635, 0.034706116, -0.012573922, 0.10331571, 0.0031299617, 0.01354113, -0.006876224, -0.016076554, -0.0033375642, -0.002707154, 0.04868704, -0.0049084243, 0.010217192, 0.0344825, 0.039568182, -0.04965763, -0.042168595, -0.008026315, -0.055155337, -0.04422654, -0.025988892, 0.013900429, -0.0174955, 0.013505319, 0.038001157, 0.00091690314, 0.00020862091, 0.047834057, 0.037736677, 0.0034685438, -0.015233117, -0.035167497, 0.031617135, -0.027346542, 0.01449443, -0.006115043, 0.00027004303, -0.011490143, -0.014357934, -0.035548404, -0.01648764, -0.010568292, -0.082570344, -0.05183101, -0.019301817, -0.0009924221, -0.01408909, 0.028083023, -0.016213553, -0.14113395, -0.024552837, 0.063611, -0.009366777]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-0.019497164, 0.052594982, 0.055663317, -0.02381772, 0.11861201, 0.011305432, 0.0037179997, -0.05367306, -0.004847042, 0.020196702, -0.10391147, -0.03317679, 0.059122473, -0.012018275, -0.013841768, 0.046670448, -0.047722805, 0.0166695, 0.036123328, -0.011565512, -0.070022084, 0.0045864875, -0.082068354, 0.043264795, 0.010293344, 0.009804734, 0.05486336, -0.023804879, -0.0039076456, 0.0034914955, 0.048218433, -0.03820347, 0.0027259502, -0.0039168517, 0.023775093, 0.0042508333, -0.0064176936, -0.004628601, 0.008049846, -0.052356526, -0.06496728, 0.020691495, -0.023914615, -0.011691397, 0.08943193, 0.016613675, 0.02449748, -0.0033516048, -0.02532073, -0.004039758, -0.07645409, -0.034976106, -0.035745498, 0.043490324, 0.049741123, 0.033317134, -0.02858438, 0.027979065, -0.010219026, 0.009381687, -0.043166913, 0.007000693, -0.048733987, -0.020771194, 0.027402664, -0.011463519, -0.01869526, 0.014199655, 0.0025075937, 0.018942187, -0.013648197, -0.03086672, 0.08648834, 0.013928636, -0.025561402, -0.030169444, 0.011970979, 0.04260859, -0.067148365, -0.018034456, 0.0020149872, -0.069001846, 0.048419762, -0.024274373, -0.04320107, 0.059823453, -0.03642669, 0.023100143, -0.013888486, 0.0208737, -0.04863952, 0.005595857, 0.08705772, 0.015098468, 0.0063297767, 0.033950865, 0.059943605, 0.08201492, 0.0350977, 0.052865054, -0.00373477, 0.045458257, -0.03320779, -0.0113608325, -0.002944415, 0.004540986, 0.020880392, 0.009352482, 0.039583888, 0.016814902, 0.008841935, -0.07914369, 0.03241354, 0.057569735, 0.022118816, 0.001758634, 0.0014079586, -0.008252371, -0.018232573, 0.002143418, -0.0070420387, -0.007922582, -0.010831571, 0.034355015, 0.0061844294, 0.011525007, 0.018807644, 0.020345908, -0.021966334, -0.05195632, 0.039446317, 0.07098326, 0.02622384, 0.060926694, 0.02050355, -0.060760647, -0.09239555, 0.061599348, -0.024607664, -0.00033787452, 0.029374368, -0.040506013, 0.05212235, -0.029872334, -0.016132737, -0.007505325, -0.025241617, -0.039607473, -0.026301587, 0.049421184, 0.029721549, 0.030880209, -0.0064156014, -0.015286208, -0.016817534, -0.0484334, -0.053794798, -0.028191118, -0.03551024, 0.008689982, 0.05941971, -0.044126336, -0.049101476, 0.06265662, 0.0057138596, -0.043327294, 0.07537225, 0.034702796, 0.016064713, 0.048956968, -0.006066396, -0.0036724044, 0.041895296, -0.009926895, -0.025303623, -0.032230016, -0.026067618, -0.028921483, 0.087045096, -0.06111259, 0.013872909, -0.06939081, -0.00023232447, 0.024165832, -0.032309815, -0.0013388516, -0.014077809, -0.028679822, 0.073156506, 0.026492322, -0.038698114, 0.027995702, 0.041635796, 0.026800655, -0.018426966, 0.023528902, 0.043898053, 0.009875366, 0.03176178, 0.04175429, 0.0026367195, -0.007167984, 0.025021663, -0.02654821, 0.040648423, -0.0016288616, -0.028992021, 0.029832026, 0.046256226, -0.06048082, 0.0015185352, 0.034219593, 0.022404484, -0.023760477, 0.036686342, -0.014895168, -0.02275997, -0.07981572, 0.044892672, -0.032686993, 0.023138773, 0.01042983, 0.041116185, 0.12198685, -0.06232673, -0.010567856, 0.08670065, 0.04407389, -0.06517718, -0.055203162, 0.0109185735, -0.042169, 0.05215214, 0.03057622, 0.03953794, 0.10507113, 0.018409343, -0.012283399, -0.0063622566, 0.06759957, -0.05271402, -0.015429002, -0.04403095, 0.02278304, 0.034569103, 0.0011295442, -0.009034341, -0.002763676, -0.038754076, -0.0014968296, -0.010530002, 0.030739602, 0.0015093482, -0.01845814, -0.031831935, 0.009513381, 0.09795036, -0.12174932, -0.011755507, -0.0650393, 0.05343505, -0.033854857, 0.03464655, 0.014225042, -0.042816315, -0.017132055, -0.014690881, 0.013607609, 0.017634334, 0.0038567646, -0.05904618, 0.049556825, 0.033161692, 0.051062055, -0.05806168, -0.02621655, 0.0068568555, 0.0037611176, 0.004911451, 0.044211082, 0.023152916, -0.028945105, 0.020116339, -0.04970332, -0.023389189, -0.047040418, 0.0018065268, 0.00933283, -0.05624659, -0.0078042364, 0.02148698, 0.0104597, 0.01268149, 0.027957385, -0.086101376, 0.07758861, 0.0013455377, 0.043893073, -0.016559275, -0.019175094, -0.03494241, 0.019712562, -0.0036536315, 0.06923558, -0.010829089, -0.011395081, 0.0037335053, -0.021432228, -0.008038854, 0.016046239, -0.0044078077, -0.012192217, -0.030931104, 0.07164009, -0.06528871, -0.008256332, 0.011722743, -0.009405162, -0.01309342, -0.040728938, 0.014493171, 0.050844964, 0.019179864, -0.027528549, -0.07466265, -0.014664055, -0.0068156873, -0.09073456, -0.027361648, 0.038638536, 2.2716704e-05, 0.010263947, 0.013060154, -0.06321916, -0.0725913, 0.06269846, -0.0004494661, 0.03546469, -0.010134265, 0.05027652, 0.002730944, -0.032482974, 0.041173868, -0.04490187, -0.036836788, 0.055950582, 0.03552923, 0.010337441, -0.060635194, -0.010312803, 0.028577555, 0.0004661311, 0.027674647, -0.016498031, -0.054057423, 0.007399294, -0.043020222, -0.06393193, -0.014739886, 0.024087003, 0.053136587, -0.0014381767, 0.028756106, -0.017682586, -0.031053366, -0.053714998, -0.08007387, -0.01615593, 0.01297675, 0.019545475, -0.020233857, -0.0041373833, -0.038115166, 0.051217165, -0.01154585, -0.06754844, -0.0018103967, -0.003984004, 0.07465113, -0.01578366, -0.0139047, 0.023316482, 0.0012101914, -0.05323997, -0.035218563, -0.020848418, -0.08243461, 0.017361708, -0.055614468, -0.07137792, 0.012906544, 0.11004834, 0.01166867, 0.034829218, -0.019642517, -0.020464094, 0.01772627, 0.040705226, 0.027819926, -0.015435375, 0.010672996, 0.003711262, -0.015038915, -0.027784813, -0.0037163931, 0.012005573, 0.038695086, -0.0013542582, -0.055011995, -0.009610479, 0.03820934, -0.014084488, 0.0021844693, 0.032973114, -0.02758175, 0.035354044, -0.054863084, 0.04191122, 0.024857739, -0.05334382, -0.024074161, 0.06177539, -0.057577327, 0.0022879695, -0.014198702, -0.03097547, 0.017252404, -0.08021237, 0.036892362, -0.016105063, -0.0026134318, -0.01198305, 0.03348649, 0.012207158, -0.06452726, 0.045090545, 0.020776697, -0.005736484, -0.029310318, 0.05885552, -0.029723834, -0.07237923, 0.012257176, 0.01918493, 0.013101983, -0.023580872, -0.00053094974, -0.0036852087, 1.525972e-06, -0.0551318, -0.0013273306, 0.0013517985, 0.02095135, 0.009217777, -0.020541303, -0.076147206, -0.009250677, 0.045821946, -0.07089715, -0.068006635, 0.03470614, -0.0125739155, 0.1033157, 0.003129963, 0.013541119, -0.0068762293, -0.016076533, -0.0033375674, -0.0027071289, 0.048687026, -0.004908427, 0.010217203, 0.034482483, 0.0395682, -0.049657643, -0.042168614, -0.008026301, -0.05515531, -0.044226542, -0.02598889, 0.013900442, -0.017495487, 0.013505328, 0.038001135, 0.00091690884, 0.00020860275, 0.04783406, 0.037736673, 0.003468564, -0.015233121, -0.0351675, 0.031617127, -0.027346553, 0.014494431, -0.006115073, 0.00027003, -0.011490147, -0.014357949, -0.035548385, -0.016487617, -0.01056829, -0.082570344, -0.051830996, -0.019301815, -0.0009924063, -0.014089079, 0.028083017, -0.016213559, -0.14113395, -0.024552815, 0.06361102, -0.009366795]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>2018</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>IFT</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>박유진</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Elucidation of the processing performance of turanose in cereal-based foods:
-thermo-rheology, NMR, and tomographic analysis</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Elucidation of the processing performance of turanose in cereal-based foods: thermo-rheology, NMR, and tomographic analysis</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Alternative sweetener industry has been experiencing consistent growth over the recent years due to increasing interests in low-calorie diets. Specially, out of various alternative sweeteners, turanose that naturally exists in honey, has received much attention. As a structural isomer of sucrose, turanose has a promising potential to be used as a new functional sweetener in the food industry. Nonetheless, there is a lack of information on the processing performance of turanose in a food system. In this study, turanose was utilized as a new ingredient in cereal-based foods and its processing performance was determined in extruded rice noodle systems.The water hydration properties of rice flour increased with increasing levels of turanose, consequently affecting the thermodynamic properties of the rice flour. The use of turanose also influenced the gelatinization and retrogradation of rice flour, significantly increasing the pasting parameters of the rice flour. Furthermore, greater elastic properties were observed in the rice samples containing higher levels of turanose. When turanose was incorporated into extruded rice noodles, it produced the noodles with a harder texture, consequently contributing to reduced cooking loss. These results were confirmed by magnetic resonance relaxation times and real-time microscopic images. Specifically, the use of turanose affected the spin-spin relaxation time of rice-turanose samples that were significantly dependent on concentration and gelatinization. The fact that the rice flour particles in the turanose solution were more extensively swollen and deformed, was optically monitored. In this study, turanose could positively contribute to enhancing the functional properties of cereal flour-based products as a new additive. These results obtained from this study can give useful information for elucidating the role of turanose in a food system, probably encouraging the food industry to extend the use of turanose in a wide variety of processed foods.</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>[0.006515044, -0.040827915, 0.06902358, -0.030096889, 0.07788919, 0.027360922, 0.06166247, -0.051713426, 0.0044998056, 0.043279655, -0.028350452, -0.012250212, -0.06518349, 0.0433264, -0.018620629, 0.0034232524, 0.049204964, 0.0046102228, 0.05115513, 0.01693881, -0.04267494, -0.013857642, -0.094592616, 0.06951663, 0.055698216, -0.018152196, 0.019274645, 0.013409221, -0.020851228, -0.015793458, 0.026815804, -0.04480774, -0.02924981, -0.057595, 0.03308454, 0.004473402, 0.023157978, -0.027407307, 0.05697453, 0.0075688004, -0.10991843, 0.025952261, 0.04456439, -0.02378203, 0.022177722, -0.020862138, 0.06753164, 0.03221948, -0.023601905, -0.021596897, 0.0047556898, 0.0030882927, 0.060393583, -0.05195554, 0.074854046, -0.018746927, 0.00025567785, -0.013902853, -0.009766372, 0.0063591492, 0.018518038, 0.030699316, -0.08323683, -0.011015609, -0.009125034, 0.0036983832, -0.027047306, 0.03167527, 0.08072145, -0.08168968, -0.008447673, -0.0014663065, -0.047193803, 0.03784406, -0.07937368, -0.008879416, 0.015293914, -0.09299655, -0.0033156143, -0.0668849, -0.025692657, -0.033675957, 0.042732757, -0.0140842935, -0.071955256, 0.044286605, -0.035684258, 0.047036394, -0.025867986, 0.091070026, 0.04896856, 0.007484309, 0.0838007, -0.02050019, 0.04745312, 0.043249886, 0.13455409, 0.11095144, 0.0522247, 0.040170297, 0.017757475, 0.052407563, -0.074718334, 0.0077217724, 0.0035338264, -0.006015297, 0.041094877, 0.02569153, 0.019883662, 0.046333343, -0.022499029, -0.06821178, -0.072053835, 0.046318192, -0.024395725, 0.02555294, 0.0003280086, 0.06353684, 0.02625874, 0.013015847, 0.085017115, -0.048682824, -0.052685108, 0.03623615, -0.029690715, 0.016282955, -0.0042121583, -0.02175128, 0.007688831, -0.06356081, 0.03459468, 0.10310706, -0.04050903, 0.018634912, 0.001156331, 0.024464061, -0.012842565, 0.015548514, 0.035812568, 0.093745254, -0.01728663, 0.027732693, 0.03455547, 0.012732578, -0.0058300686, 0.00037443705, -0.054460626, -0.033577, -0.027859895, 0.018517893, 0.034972843, 0.008419871, -0.013671587, -0.040552024, -0.06255903, -0.042086627, -0.028680395, 0.06073714, -0.0474403, 0.02947199, 0.0025767698, -0.06984362, 0.013005229, 0.03398002, -0.0055427584, 0.027451176, 0.01948493, 0.038122896, -0.0022681423, 0.045932595, -0.028154489, -0.030483315, 0.004430718, -0.0065578963, 0.019199884, -0.0018484879, 0.018412694, -0.019267077, 0.051332086, 0.034932625, 0.07538488, -0.04713687, 0.07171707, -0.0155855315, 0.0670332, -0.0021265994, 0.02602404, -0.03465254, -0.010359002, -0.013286708, -0.054003343, 0.03814279, 0.03867324, 0.0050459774, 0.01059236, 0.0003344973, 0.006235023, 0.03481297, 0.10251383, 0.013527686, -0.014315838, 0.05402851, 0.043065112, -0.008013276, 0.113484785, 0.037974197, -0.014683004, -0.00025151786, 0.022885382, -0.00012331622, -0.039144292, -0.060633447, -0.066375874, -0.033440966, 0.045481037, -0.032841884, -0.04005169, -0.013895592, 0.01799876, 0.066455334, 0.032220364, 0.04650905, -0.05821173, 0.047274724, -0.06846565, 0.0031574834, 0.0009891283, 0.036932465, 0.0013581825, -0.015828537, 0.002978134, -0.022412851, -0.054507412, -0.029562892, 0.052744012, -0.029240683, -0.025084011, 0.010044384, 0.05435092, 0.091685414, 0.001881536, -0.0027395615, -0.013498291, 0.04512197, -0.0052395216, 0.0073371404, 0.019670092, -0.0061210156, -0.027434697, -0.010300501, -0.096578136, 0.023587428, 0.0055287047, 0.031789765, 0.04697463, 0.018766494, 0.0497013, -0.014196031, -0.01566637, -0.001265819, 0.031168995, -0.014892314, 0.03048232, 0.057667788, -0.023017265, -0.046571977, 0.0049916985, 0.049666878, 0.025306914, -0.019393817, -0.019210083, 0.009748936, 0.06875454, 0.031530764, 7.162854e-05, 0.037569012, -0.032638155, -0.04049577, 0.019595033, -0.08222006, -0.032712184, -0.023789052, 0.041842915, 0.015881304, -0.055148862, -0.040097654, 0.007007001, -0.0375749, -0.041223943, -0.06570939, 0.030904159, -0.06994781, 0.02923392, 0.04975196, -0.077692874, 0.05551066, -0.024351586, 0.04148325, 0.051542774, 0.0041851383, -0.053952385, -0.0037217387, 0.037697677, 0.014827714, 0.004234748, 0.006939437, -0.040233407, -0.0152568, -0.0008429101, 0.06910288, -0.032973733, 0.059691068, 0.028673116, 0.045627493, 0.043469634, 0.05272964, 0.023015628, -0.047696758, -0.026408112, 0.032681286, 0.005128792, 0.045224216, -0.00512236, -0.009758564, -0.028607152, 0.031774838, -0.06477147, -0.0011169615, -0.02740156, 0.073295794, 0.015097924, 0.004668413, 0.037450444, 0.04070345, 0.032754168, -0.06338116, -0.039084386, 0.0038333721, 0.038871728, 0.0021837295, 0.007570364, 0.022708654, 0.050221007, -0.039295003, -0.03342148, 0.017974675, 0.055826012, 0.102435, -0.011177239, -0.014824306, 0.009348432, -0.02028682, 0.02195624, 0.012886576, -0.03611102, -0.032111697, 0.023425575, -0.06534736, 0.009574266, -0.030764133, -0.012710837, -0.031879842, -0.0044893464, 0.037785303, -0.031608973, -0.002571893, -0.07852881, -0.027617035, 0.032749105, -0.06766411, 0.026064416, -0.022593375, -0.001126005, 0.03468009, 0.042568527, 0.006393977, -0.06391657, 0.04945873, 0.04686049, 0.021604372, -0.006910222, 0.013235168, -0.011264491, -0.030346546, -0.056736592, -0.05120571, -0.15215918, 0.060465742, -0.03071009, -0.06091126, -0.012963933, 0.035518203, 0.09378448, 0.00026208034, -0.018986672, 0.043262154, -0.033623416, -0.02214149, 0.041810185, -0.048017833, 0.06447764, -0.03805696, -0.04885035, 0.004617757, -0.0572956, -0.030152345, 0.03303142, -0.047005154, -0.0008256537, -0.02308109, -0.023819381, 0.00679495, 0.0045113834, 0.010162116, -0.0018848643, 0.0051377146, 0.06591606, -0.06120958, -0.011597213, -0.00486412, -0.010094943, 0.028578442, 0.032942463, -0.02048313, -0.033222094, -0.032715574, 0.045456022, -0.051034622, 0.025297381, -0.022001, 0.031578895, -0.06141584, 0.020227762, -0.022028916, -0.021083359, 0.029148526, -0.011327937, 0.006782376, -0.006231168, -0.053044047, -0.03518388, -0.08588472, 0.033055075, 0.0874634, 0.036783483, 0.024859458, 0.029488916, 0.047824204, -0.004210953, 0.025061958, -0.027651075, 0.02845859, 0.007256586, 0.08989409, -0.018545182, -0.020821324, -0.029236387, -0.053268436, 0.004214894, -0.0028244802, -0.025370866, 0.057753764, 0.12197014, -0.011172544, 0.04521303, -0.06451728, -0.06498534, -0.0038936373, 0.051276945, -0.011694735, -0.0802623, 0.0416108, 0.10556668, 0.022834906, -0.057533044, -0.016450616, 0.031489737, -0.061185338, 0.01914746, -0.021316485, -0.0052907877, -0.0058140904, 0.023535678, 0.026235227, -0.01992317, 0.06236459, -0.0058133523, 0.017388422, -0.02956511, 0.014302208, -0.06069134, 0.014979686, -0.044648003, 0.011189569, 0.056001637, -0.025560519, -0.0032351457, -0.0057172715, -0.042963162, -0.004444646, 0.020327205, 0.04038833, -0.013930133, -0.03938872, -0.0411637, 0.0033325574, 0.0048846696, -0.04786274, -0.12911664, -0.017100604, -0.0018966018, -0.035252895]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[0.006515043, -0.040827915, 0.06902357, -0.030096889, 0.077889174, 0.027360924, 0.061662484, -0.051713437, 0.0044998084, 0.043279655, -0.028350482, -0.012250203, -0.0651835, 0.04332639, -0.01862063, 0.0034232556, 0.04920496, 0.00461023, 0.05115517, 0.01693883, -0.042674955, -0.013857635, -0.09459263, 0.06951661, 0.05569822, -0.018152216, 0.019274626, 0.013409222, -0.020851238, -0.01579344, 0.026815802, -0.044807732, -0.029249808, -0.05759498, 0.03308456, 0.0044733984, 0.023157978, -0.027407315, 0.05697454, 0.0075687873, -0.10991841, 0.02595226, 0.044564385, -0.023782007, 0.022177732, -0.020862138, 0.06753167, 0.032219455, -0.02360192, -0.021596912, 0.004755721, 0.003088283, 0.06039361, -0.051955525, 0.07485406, -0.018746909, 0.00025566574, -0.013902839, -0.009766364, 0.006359138, 0.018518046, 0.03069932, -0.08323683, -0.01101559, -0.009125063, 0.003698414, -0.027047325, 0.031675257, 0.080721445, -0.081689686, -0.008447681, -0.0014662786, -0.047193795, 0.037844043, -0.0793737, -0.008879442, 0.015293914, -0.09299658, -0.0033156136, -0.06688491, -0.025692664, -0.03367596, 0.042732768, -0.014084304, -0.07195525, 0.044286605, -0.035684273, 0.047036402, -0.025867974, 0.09107004, 0.04896854, 0.0074843117, 0.08380069, -0.020500183, 0.047453113, 0.043249886, 0.13455409, 0.11095142, 0.0522247, 0.040170323, 0.017757474, 0.052407566, -0.074718334, 0.007721771, 0.003533845, -0.006015305, 0.04109487, 0.025691545, 0.019883676, 0.046333347, -0.02249902, -0.06821176, -0.07205383, 0.046318192, -0.02439571, 0.02555294, 0.00032801606, 0.06353684, 0.026258744, 0.013015853, 0.08501713, -0.04868281, -0.05268511, 0.03623615, -0.029690722, 0.01628297, -0.004212147, -0.021751296, 0.0076888283, -0.06356081, 0.034594677, 0.10310704, -0.04050904, 0.018634899, 0.0011563398, 0.024464075, -0.0128425425, 0.015548516, 0.035812568, 0.09374525, -0.017286638, 0.0277327, 0.034555484, 0.012732586, -0.005830069, 0.00037440678, -0.054460626, -0.033576984, -0.02785988, 0.01851789, 0.03497285, 0.008419865, -0.013671571, -0.040552013, -0.062559046, -0.04208662, -0.02868038, 0.06073714, -0.047440287, 0.029471967, 0.0025767973, -0.069843635, 0.013005235, 0.033980016, -0.0055427616, 0.027451169, 0.019484952, 0.038122877, -0.0022681307, 0.045932584, -0.028154477, -0.030483311, 0.004430729, -0.0065578907, 0.019199878, -0.0018484883, 0.018412692, -0.019267062, 0.051332098, 0.03493266, 0.075384885, -0.047136854, 0.0717171, -0.015585528, 0.0670332, -0.0021266157, 0.026024047, -0.034652527, -0.010358984, -0.013286719, -0.054003373, 0.03814281, 0.038673226, 0.0050459728, 0.010592373, 0.0003345064, 0.006235025, 0.034812964, 0.10251382, 0.013527688, -0.01431584, 0.054028504, 0.04306512, -0.008013265, 0.11348476, 0.037974212, -0.014683007, -0.0002515267, 0.0228854, -0.0001233246, -0.03914428, -0.060633436, -0.06637588, -0.033440962, 0.04548105, -0.032841865, -0.0400517, -0.013895573, 0.017998757, 0.06645532, 0.03222035, 0.046509057, -0.058211718, 0.047274716, -0.068465665, 0.0031574946, 0.000989128, 0.036932472, 0.001358206, -0.01582852, 0.0029781505, -0.022412857, -0.05450741, -0.029562887, 0.05274402, -0.029240701, -0.025084004, 0.010044391, 0.05435091, 0.091685414, 0.001881546, -0.0027395596, -0.013498288, 0.045121964, -0.0052395076, 0.0073371367, 0.019670086, -0.006121005, -0.027434714, -0.010300503, -0.096578136, 0.023587428, 0.005528701, 0.03178976, 0.046974618, 0.018766504, 0.049701296, -0.0141960345, -0.015666364, -0.0012658108, 0.031168995, -0.014892306, 0.030482337, 0.057667788, -0.02301725, -0.04657197, 0.00499172, 0.049666867, 0.025306918, -0.019393811, -0.019210087, 0.009748943, 0.06875452, 0.03153077, 7.16268e-05, 0.03756902, -0.032638147, -0.04049576, 0.019595051, -0.08222004, -0.032712195, -0.023789033, 0.0418429, 0.01588131, -0.05514884, -0.040097665, 0.007007007, -0.0375749, -0.041223925, -0.06570938, 0.030904155, -0.069947794, 0.029233906, 0.04975194, -0.07769287, 0.055510655, -0.024351582, 0.041483246, 0.051542778, 0.0041851276, -0.053952396, -0.0037217406, 0.037697677, 0.014827724, 0.004234752, 0.0069394517, -0.040233392, -0.015256802, -0.00084291777, 0.069102876, -0.032973725, 0.059691075, 0.028673137, 0.045627493, 0.04346961, 0.052729636, 0.023015626, -0.047696736, -0.026408123, 0.0326813, 0.0051287883, 0.045224216, -0.005122371, -0.0097585805, -0.028607147, 0.031774823, -0.06477147, -0.0011169477, -0.02740155, 0.0732958, 0.015097923, 0.004668403, 0.03745043, 0.040703416, 0.032754168, -0.06338116, -0.0390844, 0.0038333728, 0.03887175, 0.0021837365, 0.007570375, 0.022708641, 0.05022101, -0.039295, -0.033421475, 0.017974645, 0.055826005, 0.102434985, -0.01117724, -0.014824304, 0.0093484465, -0.0202868, 0.021956226, 0.012886556, -0.036111016, -0.032111693, 0.023425566, -0.065347366, 0.009574278, -0.030764114, -0.012710837, -0.031879857, -0.0044893464, 0.037785288, -0.031608965, -0.002571884, -0.0785288, -0.027617054, 0.032749116, -0.067664094, 0.026064415, -0.022593366, -0.0011260058, 0.03468007, 0.042568527, 0.00639398, -0.063916594, 0.04945873, 0.046860483, 0.021604372, -0.006910223, 0.013235156, -0.011264461, -0.030346539, -0.05673659, -0.051205713, -0.15215918, 0.060465727, -0.030710086, -0.06091126, -0.012963929, 0.03551819, 0.09378447, 0.0002620821, -0.018986678, 0.043262143, -0.033623435, -0.022141483, 0.041810207, -0.048017815, 0.064477645, -0.038056966, -0.048850335, 0.0046177628, -0.057295594, -0.03015234, 0.033031408, -0.047005143, -0.0008256465, -0.023081092, -0.023819378, 0.006794968, 0.0045113857, 0.0101621365, -0.0018848578, 0.0051377, 0.065916024, -0.061209563, -0.011597209, -0.00486413, -0.0100949295, 0.028578436, 0.032942493, -0.02048313, -0.033222068, -0.03271559, 0.045456003, -0.051034622, 0.025297347, -0.02200101, 0.031578876, -0.06141584, 0.02022777, -0.022028942, -0.021083344, 0.02914853, -0.011327947, 0.006782384, -0.0062311864, -0.053044047, -0.035183888, -0.08588473, 0.03305507, 0.08746341, 0.036783464, 0.024859456, 0.029488904, 0.04782418, -0.004210929, 0.025061961, -0.027651079, 0.0284586, 0.007256608, 0.08989409, -0.018545171, -0.020821325, -0.029236387, -0.05326846, 0.004214892, -0.0028244965, -0.025370866, 0.057753764, 0.12197013, -0.01117255, 0.04521303, -0.064517274, -0.06498534, -0.0038936415, 0.051276963, -0.011694749, -0.080262296, 0.041610785, 0.10556667, 0.022834899, -0.05753303, -0.016450608, 0.03148973, -0.06118534, 0.019147474, -0.021316467, -0.005290801, -0.0058141025, 0.02353568, 0.026235217, -0.019923154, 0.06236461, -0.005813369, 0.017388424, -0.02956511, 0.014302227, -0.060691327, 0.014979701, -0.044648014, 0.011189568, 0.056001645, -0.025560528, -0.0032351443, -0.005717289, -0.042963177, -0.0044446536, 0.020327201, 0.040388327, -0.013930134, -0.039388735, -0.041163698, 0.0033325676, 0.0048846756, -0.04786274, -0.12911664, -0.017100606, -0.0018965836, -0.035252918]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>2018</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>IFT</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>김명선</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Particle size dependent characterization of rice flour
-zein composites
-for gluten
-free sheeted dough</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Particle size dependent characterization of rice flour zein composites for gluten free sheeted dough</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Gluten free foods have received much attention as alternative diets without causing allergies for celiac patients However, they still have major quality problems derived from the lack of gluten Specially, the food industry is facing the technological challenges of developing gluten free food products prepared from sheeted dough (e g instant ramen and dumpling) because network structures can not be readily generated during the sheeting process In this study, rice flour zein composites were prepared to impart a viscoelastic network to gluten free dough whose rheological and structural properties were characterized depending on particle size They were then utilized to generate gluten free sheeted dough for practical applications High amylose rice flours with different particle size 60 100 100 150 150 200 mesh) and zein 5 were applied to prepare rice flour zein composites The composites with smaller particle size exhibited a higher degree of starch gelatinization, giving rise to increased pasting parameters The ability of zein to generate a viscoelastic protein network at above its glass transition temperature, contributed to successfully producing gluten free rice sheeted doughs Consequently, the sheeted doughs made from rice flour zein composites could be slit into long and thin noodle strands without gluten The maximum resistance of the doughs to extension was observed in the 100 150 mesh samples In addition, it appeared that the hardness and cooking loss of rice zein noodles were dependent on the particle size This study showed the possibility of zein as a new substitute for gluten in gluten free products made from sheeted doughs depending on particle size Thus, the ability of zein to generate a viscoelastic structure can be utilized in a wider variety of gluten free cereal products by effectively compensating for the role of gluten</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>[-0.04743688, -0.0066935127, 0.031962566, 0.019559454, 0.12148951, -0.012633814, -0.009982458, -0.015462856, -0.013010887, 0.043118242, -0.09876423, -0.07571265, -0.019280905, 0.072014876, -0.032103207, 0.08478682, -0.07048215, 0.07548787, 0.04279413, 0.025714671, 0.0051687113, -0.03150451, -0.0552118, 0.047333002, 0.049602535, 0.022186147, 0.038119733, -0.026202336, 0.0016371501, -0.019187536, 0.05362694, -0.094455026, -0.014498965, 0.018506909, -0.014258198, -0.009254148, 0.015778188, 0.07351461, 0.02042463, 0.014848562, -0.048699677, 0.057285756, 0.04330909, -0.014493509, -0.019293742, -0.060273476, -0.053329654, -0.043039046, -0.04930565, 0.016540965, 0.04014692, -0.003309744, 0.021136563, 0.007468539, 0.03601722, -0.04266832, -0.04393188, -0.0033074669, -0.04964967, 0.026169822, 0.010801125, -0.032555446, -0.07829353, 0.044750646, 0.029844813, 0.049615003, 0.0043308223, -0.030103363, 0.009068112, -0.003548663, -0.016471647, -0.03416397, 0.058392555, 0.020954864, -0.07566753, -0.08679682, -0.05347874, -0.016555466, -0.0455191, 0.0069099064, -0.0022755198, -0.01262402, 0.056827456, 0.004382355, -0.0527667, 0.06218478, -0.050671715, -0.021031389, -0.009016465, -0.013734781, -0.012731651, -0.034193914, 0.14310904, 0.060133614, 0.057521947, 0.06881878, 0.070669994, 0.05448609, 0.053061888, 0.095712155, -0.013015544, -0.009422171, -0.08253292, -0.0018047101, 0.08137767, -0.012424624, 0.04903498, 0.009987076, -0.011883659, -0.008057003, -0.07570421, -0.063802175, -0.057914324, -0.036803704, 0.01325096, 0.068071805, 0.0013499699, 0.04541003, -0.0032275785, 0.030361699, 0.0065095583, 0.0019528924, 0.018162953, 0.093697816, 0.014971056, 0.05953274, 0.03495721, 0.021933777, 0.0140740555, -0.07953935, 0.019777063, 0.0752404, -0.054574706, 0.08033134, -0.041613113, -0.0025395514, -0.0454664, 0.023297602, 0.060518734, 0.024446938, 0.03882767, 0.0043582446, 0.024456644, -0.037627295, 0.013011976, -0.032182965, 0.0052443882, -0.032821804, 0.0021610882, 0.081971414, 0.026092388, -0.04668407, -0.03779279, -0.04234697, 0.019856991, -0.086834155, 0.010064302, -0.008280893, 0.0419558, 0.0003784308, 0.007408984, -0.034848534, -0.029259697, 0.04199159, -0.034104947, 0.084284805, 0.041412305, -0.0021841314, -0.01664734, -0.0033269653, -0.030213954, 0.003823636, 0.025998397, 0.0045052096, -0.00030144863, -0.0690973, 0.017887615, 0.014448411, 0.053012222, -0.07894683, 0.034094267, -0.055847447, 0.018421168, -0.029786184, 0.08163588, 0.0035190717, 0.019917293, -0.030495372, 0.019793991, 0.076532274, -0.08719855, 0.051623415, 0.050475046, -0.037375107, -0.010876295, -0.005879123, 0.07628728, -0.03723543, 0.008370756, 0.12074872, -0.0037623902, 0.026482755, -0.0065637645, -0.049060874, 0.079921626, 0.011979249, -0.031958584, 0.014844799, 0.011838234, 0.036322873, -0.024388626, -0.006973642, -0.025968272, -0.0030500786, 0.01672845, -0.02273331, 0.008444576, -0.042025972, 0.004506712, 0.00229851, 0.05705797, -0.059115686, -0.0097827185, 0.06746934, -0.040032662, -0.0027226857, 0.04203366, 0.062109288, 0.00062888017, -0.04338949, 0.012241517, -0.054038703, -0.01264538, -0.01555137, 0.07185823, -0.013322472, 0.009446286, 0.015064565, 0.00731403, 0.093067676, -0.025815435, -0.025331132, -0.038618196, -0.02186601, -0.0018271458, -0.018947866, 0.0019597947, -0.025870409, -0.051153056, -0.018436098, -0.0049282243, 0.06919278, 0.0024399993, 0.0057920762, -0.006922401, -0.011696529, 0.030603934, -0.057378035, -0.02617783, -0.017726302, -0.016395284, -0.00016733899, -0.039946333, -0.02680073, 0.030809855, 0.008292288, 0.021307396, 0.08228646, -0.03158157, -0.017250309, -0.020075504, 0.019465664, 0.05411338, 0.039809376, -0.05365518, 0.035536017, 0.011289737, -0.07525078, -0.0007652494, 0.008369268, -0.038455274, -0.023809908, 0.037232302, -0.018660126, -0.050721362, -0.03599164, -0.04222056, 0.037486315, -0.00505916, -0.04026194, -0.027269335, -0.036092255, 0.047901444, 0.021312442, -0.078902826, 0.020815793, -0.039136957, 0.034769725, -0.05658338, -0.0034388057, 0.023954079, 0.0077691535, 0.058941603, 0.044780724, -0.016176306, -0.04110214, -0.005841914, -0.018285522, 0.053670045, 0.006798431, -0.00964106, 0.037723504, 0.02240793, 0.057708945, -0.057350535, 0.05348158, 0.033855617, 0.0043905103, -0.009528276, 0.017124867, 0.05475178, 0.041388154, -0.042193744, -0.028663678, -0.091006294, 0.04286673, -0.008086137, 0.0005335293, -0.022726793, -0.012458704, 0.033794533, 0.03262343, -0.01921776, 0.009557997, -0.017962849, 0.041072007, -0.0023151506, 0.022127641, 0.018087262, 0.024930293, -0.04257843, -0.0048174127, 0.029505601, 0.022390267, -0.02815656, 0.023432268, 0.004266601, 0.04101676, -0.02227977, -0.07159895, 0.0023335768, 0.009625331, 0.029331174, -0.0067166486, -0.014377783, 0.0098393755, -0.013355135, -0.07437474, -0.05768782, 0.005466685, 0.062507756, -0.002688901, -0.062220927, -0.019987624, 0.033774972, -0.058964506, -0.09549614, -0.026124187, 0.05357699, 0.02098379, 0.015672646, 0.02929365, -0.041429482, 0.038143158, -0.0032892907, -0.0062503936, -0.017047256, 0.0688387, 0.04711, -0.007950133, 0.04682874, 0.028215371, -0.024068318, -0.120392494, -0.05250965, -0.006760577, -0.079811655, 0.086880274, -0.023721188, -0.048053138, 0.059470635, 0.07481352, -0.00026237965, 0.04397153, -0.019852027, 0.027214387, -0.04239148, 0.020697484, -0.06573053, -0.023926556, 0.027559696, -0.041115988, -0.024019489, -0.016642483, -0.029892422, -0.020890646, -0.045817174, -0.011380792, -0.010926847, -0.055230584, -0.03199487, -0.03327882, -0.0034821006, 0.046555437, -0.018430108, -0.033042263, -0.00020826433, 0.012017522, 0.011407827, -0.05993172, -0.055461835, 0.0008573306, -0.035212196, 0.04074927, -0.024314603, -0.078707315, 0.0011557471, -0.07171762, -0.040744234, 0.022457425, 0.017561981, 0.010139733, 0.016868094, -0.044124868, 0.03926588, 0.01539432, 0.004395336, 0.0044187834, 0.052722707, 0.049080785, -0.0010094243, -0.035105318, -0.06594966, 0.06188324, 0.017850481, -0.012905805, 0.0304135, -0.022359462, -0.016560573, -0.027673945, 0.031474084, 0.004939672, 0.032273505, 0.08735815, 0.016702747, -0.046794847, 0.014895497, 0.02172078, -0.027473656, -0.06363741, 0.019293431, -0.014341535, 0.060501486, 0.029253017, 0.008941574, -0.073959716, -0.098488964, 0.029157145, -0.012741771, -0.014966266, -0.013067997, 0.020070259, 0.055426713, 0.028072096, 0.019901078, -0.011136021, -0.03832057, -0.019144742, -0.039133772, -0.081408255, 0.032641802, -0.071908474, 0.0785646, 0.008099386, 0.030122072, -0.045502182, 0.03547043, 0.038230546, -0.052404184, -0.043928906, -0.025511898, 0.0026342436, -0.04664539, 0.013738106, 0.011067884, 0.03117206, 0.030462503, 0.017764488, 0.024652153, -0.031962648, -0.0054375376, -0.05586472, -0.021613238, -0.038777657, -0.0018673587, -0.036902253, -0.0014109004, -0.033820625, -0.09879026, -0.005829775, -0.03837303, 0.022711542]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[-0.04743688, -0.0066935145, 0.03196258, 0.019559454, 0.12148954, -0.012633832, -0.0099824695, -0.015462848, -0.01301089, 0.04311825, -0.09876424, -0.075712666, -0.019280905, 0.07201487, -0.03210324, 0.084786825, -0.070482135, 0.07548786, 0.04279412, 0.025714643, 0.0051687057, -0.031504516, -0.055211786, 0.04733301, 0.04960253, 0.022186156, 0.038119737, -0.026202321, 0.0016371254, -0.019187544, 0.05362694, -0.094455026, -0.014498976, 0.018506872, -0.014258195, -0.009254155, 0.015778175, 0.07351463, 0.020424655, 0.014848571, -0.04869968, 0.05728578, 0.04330909, -0.014493515, -0.01929375, -0.060273506, -0.053329673, -0.04303906, -0.049305636, 0.016540952, 0.040146936, -0.0033097619, 0.021136563, 0.0074685486, 0.03601721, -0.04266832, -0.043931887, -0.0033074585, -0.049649674, 0.02616982, 0.010801121, -0.032555435, -0.07829353, 0.044750635, 0.029844835, 0.049614973, 0.004330851, -0.030103378, 0.009068122, -0.0035486608, -0.016471649, -0.034163974, 0.058392555, 0.02095483, -0.07566754, -0.08679682, -0.053478763, -0.016555486, -0.045519117, 0.0069099055, -0.0022755254, -0.012624023, 0.056827452, 0.0043823766, -0.05276667, 0.062184785, -0.050671726, -0.021031396, -0.009016467, -0.013734786, -0.01273163, -0.034193907, 0.14310904, 0.060133636, 0.057521947, 0.0688188, 0.070669994, 0.05448608, 0.05306188, 0.09571215, -0.0130155375, -0.009422176, -0.08253291, -0.0018046959, 0.081377685, -0.012424642, 0.04903497, 0.009987095, -0.011883651, -0.0080570085, -0.075704224, -0.06380219, -0.05791434, -0.036803696, 0.013250969, 0.06807183, 0.0013499825, 0.045410015, -0.0032275869, 0.03036172, 0.006509537, 0.0019528985, 0.018162958, 0.09369782, 0.014971075, 0.059532747, 0.03495722, 0.021933766, 0.014074032, -0.07953936, 0.019777065, 0.07524037, -0.05457468, 0.080331355, -0.041613124, -0.0025395665, -0.04546642, 0.023297593, 0.06051872, 0.024446942, 0.038827673, 0.004358236, 0.024456644, -0.037627295, 0.013011984, -0.03218299, 0.0052443855, -0.032821797, 0.0021610702, 0.08197141, 0.026092367, -0.046684086, -0.03779282, -0.042346973, 0.019856995, -0.08683416, 0.010064309, -0.008280902, 0.041955814, 0.00037840984, 0.007408989, -0.034848526, -0.029259685, 0.041991577, -0.034104943, 0.08428483, 0.041412298, -0.0021841184, -0.016647322, -0.0033269485, -0.030213965, 0.003823625, 0.025998406, 0.004505181, -0.00030145305, -0.069097295, 0.017887613, 0.014448403, 0.053012215, -0.078946814, 0.034094237, -0.05584746, 0.018421164, -0.029786179, 0.08163588, 0.0035190731, 0.019917289, -0.030495364, 0.019794004, 0.07653227, -0.08719853, 0.051623393, 0.050475042, -0.037375115, -0.010876301, -0.0058791176, 0.07628728, -0.037235454, 0.008370753, 0.12074872, -0.0037623837, 0.026482755, -0.006563779, -0.04906088, 0.07992162, 0.011979256, -0.0319586, 0.014844811, 0.011838226, 0.03632287, -0.02438861, -0.0069736456, -0.025968261, -0.0030500393, 0.01672844, -0.022733329, 0.008444583, -0.042025976, 0.0045067267, 0.002298516, 0.05705796, -0.059115708, -0.00978273, 0.06746936, -0.04003265, -0.0027227004, 0.042033657, 0.062109284, 0.00062886294, -0.043389473, 0.012241508, -0.05403869, -0.012645357, -0.015551381, 0.071858235, -0.013322446, 0.009446304, 0.015064567, 0.007314021, 0.0930677, -0.02581543, -0.025331147, -0.03861822, -0.021866027, -0.0018271316, -0.018947883, 0.0019597947, -0.025870398, -0.05115307, -0.018436117, -0.004928215, 0.06919277, 0.0024399904, 0.005792086, -0.0069223824, -0.011696543, 0.030603921, -0.05737805, -0.026177833, -0.01772627, -0.016395278, -0.00016734167, -0.03994632, -0.026800722, 0.030809851, 0.008292293, 0.021307383, 0.0822865, -0.031581577, -0.017250285, -0.020075526, 0.019465659, 0.05411336, 0.03980939, -0.053655162, 0.03553599, 0.011289724, -0.0752508, -0.00076524547, 0.008369269, -0.03845527, -0.02380991, 0.037232287, -0.018660119, -0.05072133, -0.03599164, -0.042220555, 0.037486322, -0.005059165, -0.04026194, -0.027269317, -0.03609226, 0.04790146, 0.021312444, -0.078902856, 0.020815797, -0.039136957, 0.034769736, -0.05658338, -0.0034388206, 0.023954082, 0.007769165, 0.05894161, 0.044780735, -0.016176317, -0.041102167, -0.005841952, -0.018285515, 0.05367004, 0.006798394, -0.009641063, 0.037723497, 0.022407934, 0.05770896, -0.057350513, 0.05348158, 0.033855576, 0.0043905214, -0.009528263, 0.017124875, 0.054751758, 0.041388147, -0.042193737, -0.028663702, -0.0910063, 0.042866744, -0.008086148, 0.0005335335, -0.022726791, -0.012458691, 0.033794545, 0.03262344, -0.01921778, 0.009558001, -0.017962856, 0.041071992, -0.0023151976, 0.022127667, 0.018087273, 0.024930287, -0.042578414, -0.004817414, 0.029505612, 0.022390265, -0.028156552, 0.023432251, 0.004266578, 0.041016787, -0.022279773, -0.07159894, 0.0023335638, 0.009625343, 0.029331163, -0.006716629, -0.014377749, 0.009839368, -0.013355139, -0.07437476, -0.05768782, 0.005466689, 0.062507756, -0.0026888978, -0.062220935, -0.019987611, 0.033774957, -0.058964513, -0.09549614, -0.026124176, 0.05357699, 0.020983784, 0.01567262, 0.029293662, -0.041429464, 0.03814314, -0.0032893077, -0.0062503987, -0.017047258, 0.068838716, 0.04711, -0.007950129, 0.04682874, 0.028215384, -0.024068296, -0.12039251, -0.052509632, -0.0067605698, -0.079811655, 0.08688029, -0.023721179, -0.04805312, 0.05947065, 0.07481352, -0.00026236242, 0.04397153, -0.019852031, 0.027214414, -0.042391494, 0.020697504, -0.06573053, -0.023926562, 0.0275597, -0.04111599, -0.02401947, -0.016642492, -0.029892411, -0.02089065, -0.04581716, -0.011380788, -0.010926833, -0.055230577, -0.031994883, -0.033278793, -0.0034821057, 0.046555452, -0.018430106, -0.03304229, -0.00020824966, 0.012017497, 0.011407818, -0.059931714, -0.055461846, 0.00085734413, -0.035212178, 0.04074928, -0.024314592, -0.07870732, 0.0011557611, -0.07171764, -0.04074424, 0.022457412, 0.01756198, 0.010139765, 0.016868092, -0.044124853, 0.039265882, 0.015394335, 0.004395325, 0.004418771, 0.052722707, 0.049080808, -0.001009415, -0.035105325, -0.06594966, 0.061883226, 0.017850483, -0.012905816, 0.030413495, -0.022359466, -0.016560603, -0.027673945, 0.03147409, 0.0049396683, 0.03227351, 0.08735815, 0.016702747, -0.04679483, 0.014895519, 0.02172076, -0.027473677, -0.0636374, 0.019293439, -0.0143415155, 0.060501475, 0.029253006, 0.008941562, -0.073959716, -0.09848897, 0.02915715, -0.012741763, -0.01496625, -0.013068018, 0.020070236, 0.055426713, 0.028072124, 0.019901091, -0.011136036, -0.038320575, -0.019144725, -0.039133787, -0.081408255, 0.032641813, -0.07190848, 0.07856461, 0.008099377, 0.03012206, -0.045502197, 0.03547044, 0.038230546, -0.05240422, -0.043928917, -0.025511922, 0.0026342603, -0.046645395, 0.013738115, 0.0110678915, 0.03117205, 0.0304625, 0.01776448, 0.02465216, -0.031962663, -0.005437534, -0.055864714, -0.021613259, -0.038777646, -0.0018673838, -0.03690224, -0.0014109015, -0.033820614, -0.098790266, -0.005829769, -0.03837306, 0.022711545]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>2018</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>IUFoST</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>김희수</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>ARTIFICIAL
-SALIVA INDUCED STRUCTURAL CHARACTERIZATION OF RICE GELS BY
-INSTRUMENTAL STIMULATION OF ORAL BREAKDOWN</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL SALIVA INDUCED STRUCTURAL CHARACTERIZATION OF RICE GELS BY INSTRUMENTAL STIMULATION OF ORAL BREAKDOWN</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Chewing is a complex process whereby food in the mouth is processed with saliva into bolus for swallowing In this study, the chewing process was simulated by incorporating artificial saliva food interaction into instrumental measurements The instrumental system for a simulated chewing environment consisted of a texture analyzer and artificial saliva spraying box with two ultrasonic oscillators and its operational conditions such as crosshead speed, strain, and compression cycles were established The mechanical disruption of rice gels by successive compressions and enzymatic degradation by artificial saliva featured in the simulated chewing process Highly linear correlation was observed in the log plot of peak chewing force and time The degradation rates of rice gels were more affected by cohesiveness than their amylose level and hardness The effect of cohesiveness on rice gel disruption during chewing was visualized by micro computed tomographic analysis These results demonstrated that the cohesive nature of rice flour gels influenced their degree of disruption into smaller fragments during chewing, possibly playing an import role in the masticatory
 performance with salvia and subsequent swallowing The results of this study will contribute to understanding the changes in food structure by considering the saliva food interactions under simulated chewing conditions</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>[-0.059859082, 0.06772138, 0.02111189, -0.005152053, 0.064596385, -0.08457093, -0.008974078, -0.09278766, 0.025348507, 0.021513658, -0.06929271, -0.05693766, -0.01075098, 0.00355995, -0.049364347, 0.036644544, -0.0064625, -0.0018469819, 0.008748806, 0.01676848, 0.038411796, 0.02706516, -0.041057102, 0.046221986, 0.044738423, 0.06439646, 0.052461788, -0.02326435, 0.016677056, 0.0043199817, 0.04726046, 0.05809318, 0.014431292, -0.00073998084, -0.0076355725, 0.009157574, 0.009406235, 0.006837189, 0.043064162, 0.0076192925, -0.057863366, -0.013876626, -0.026541637, -0.05699053, -0.03445516, -0.0047949874, -0.011043128, 0.053553373, 0.0010735467, 0.015102345, -0.02760222, 0.013615487, -0.021785494, 0.025457023, 0.020170802, -0.015185665, -0.043761425, -0.03357463, 0.024870338, 0.026010338, 0.010518879, -0.02857296, -0.03181285, -0.037158724, 0.09693716, -0.021058101, -0.013249289, -0.038070153, 0.025072271, 0.012001188, -0.04557497, 0.0019787913, 0.094958484, 0.015448622, -0.07622899, 0.030291991, 0.0003817896, 0.017259696, -0.030080639, -0.016541792, -0.008613246, -0.018621014, 0.062622905, 0.01582813, -0.03988873, 0.091342255, 0.042182874, -0.0049513294, 0.009566964, -0.025983818, 0.028758202, 0.026093531, 0.15814483, 0.05781918, 0.012690518, 0.013798355, 0.043745257, 0.044885483, 0.033943802, 0.05232448, -0.014347392, 0.018036427, -0.03610462, -0.0318829, 0.0005314019, -0.01931868, 0.017760707, 0.0076377452, -0.029053306, 0.0024311, 0.04052727, -0.06446692, -0.0099365, -0.023153456, 0.03306328, 0.05631904, 0.016624443, 0.03222319, -0.008012459, 0.02938102, 0.038911812, 0.04679998, -0.031691413, 0.067401394, -0.027556473, -0.032378342, -0.018881598, 0.057537984, -0.041765906, -0.07353921, 0.01671243, 0.03267985, -0.0075219576, -0.011538899, -0.048407402, -0.037270226, -0.042725485, 0.0023950264, -0.03170295, -0.004947793, 0.00014412921, 0.020479562, 0.05805491, -0.05688445, 0.014970443, -0.024380459, 0.006899886, -0.027913745, -0.06618972, -0.0064047235, 0.062456314, 0.07382444, 0.029992891, -0.026178507, 0.0061621834, -0.05768285, -0.022273697, -0.033420134, -0.033436812, -0.041064404, 0.048002694, 0.054772936, -0.011187422, 0.04288839, 0.045432568, -0.021906346, 0.046888024, 0.028828248, 0.0056368345, 0.028049307, 0.010895979, -0.029193796, 0.04683792, 0.0011696386, 0.007450722, -0.009351547, -0.037834078, -0.060784396, -0.025676407, -0.009616057, 0.04182122, -0.03449452, -0.018233443, 0.019543791, 0.009553868, -0.030946808, 0.011962391, -0.011824745, 0.07422395, 0.037287418, -0.002951441, 0.008030226, 0.03800461, 0.0064354837, -0.049974862, 0.03503463, 0.015778393, -0.035887007, 0.002999398, 0.0020818405, -0.053326737, -0.026642252, 0.02522571, -0.050040234, 0.03362026, 0.05052367, -0.002741732, 0.086324714, 0.014356912, -0.043271944, -0.0042425445, 0.04952938, 0.04431072, -0.083644345, 0.04856247, 0.031189106, 0.008114622, -0.07682376, 0.037362237, 0.0010944629, 0.022413556, 0.02198996, -0.006303055, 0.10776499, -0.07182545, 0.012617939, 0.05634736, 0.08107011, -0.05751439, 0.0017963409, 0.0017990655, -0.054429553, 0.023333231, -0.004765768, 0.010814707, 0.07283414, -0.019488787, -0.066216305, 0.01610722, 0.082634956, -0.03251202, 0.014384316, -0.027012443, -0.04739048, 0.08676471, -0.033589516, 0.0827284, -0.03411174, 0.0069273394, -0.05690563, -0.05853171, 0.009598447, -0.019674452, -0.07049272, -0.02670883, -0.037247352, 0.08935831, -0.07865262, 0.031271487, -0.0152577525, 0.010696584, -0.037668344, 0.030104551, 0.035642363, 0.023078516, -0.08425647, -0.029121108, 0.026459176, -0.021038327, -0.03100095, -0.035180118, 0.060771868, 0.02150907, 0.0015777653, -0.070790716, -0.05209907, -0.10827161, -0.0075965114, 0.0051147407, 0.029263426, 0.050803702, -0.03948234, 0.013065751, -0.055815242, -0.061938647, -0.015162157, 0.031006847, -0.03476525, 0.0031399739, -0.004197781, -0.008385011, -0.014940339, 0.09412276, -0.04365865, -0.054829597, 0.061193943, 0.03874578, 0.0015471102, -0.0345125, -0.052944075, 0.015866902, 0.032479342, -0.06828622, 0.031010756, -0.004578443, -0.017863605, 0.023643093, -0.056653515, -0.042368807, 0.0030715803, -0.03165405, 0.014586546, 0.05340642, 0.053982627, -0.09039657, -0.0060200887, 0.0057312176, -0.027369931, 0.0022035681, -0.047587916, 0.030857315, -0.0024460221, 0.00833142, -0.07112211, 0.017080193, 0.009371216, 0.0026197983, -0.045717232, -0.03931865, 0.05182546, -0.012302803, -0.024544397, -0.049056966, -0.021186812, -0.0625509, 0.046387557, 0.02356868, -0.0009516726, -0.027095048, 0.059588805, -0.027325813, -0.0069896467, 0.0038584387, -0.048926048, -0.037571248, 0.07994569, 0.040771004, -0.02600434, -0.049298506, -0.024404567, 0.031202355, -0.016977094, -0.018020287, -0.023641724, -0.026133968, 0.02154028, -0.03475852, -0.0421488, -0.008054479, 0.03084696, 0.018860646, -0.034600638, 0.018315498, -0.012326729, 0.015315954, -0.029988933, -0.05755635, -0.055347145, -0.018862212, 0.009672515, -0.015432099, 0.034800094, -0.034164105, 0.024777563, 0.030193016, -0.060846314, -0.03963641, 0.015591542, 0.028447028, 0.0093044415, 0.008012459, -0.03696618, 0.037693664, -0.026294276, 0.038469307, -0.028163953, -0.06952795, 0.027636372, -0.100363016, -0.047546204, 0.026347024, 0.01254909, -0.012564291, 0.02081289, -0.009768896, -0.006280104, 0.018157255, 0.073607236, -0.023410223, 0.027705345, 0.032780908, 0.09070246, 0.02360449, -0.04297189, 0.020991316, 0.020033762, 0.043595005, -0.007946342, -0.029329708, 0.022733, -0.018914448, -0.006289375, 0.028425328, 0.057577454, -0.026536388, 0.06242165, -0.010619585, 0.0674641, -0.016437214, -0.05528298, -0.0031945468, 0.008916594, -0.017479986, 0.05201648, -0.05204717, -0.077322595, -0.0035775667, -0.013367781, 0.00050648855, -0.043250524, 0.047542896, 0.01831036, -0.011116845, 0.055165224, -0.0572272, 0.04138754, 0.054576844, -0.0007420712, -0.034463063, 0.016463619, -0.042916827, -0.007420832, -0.045047153, 0.0019345082, 0.0071513555, -0.037827697, -0.017384674, -0.013242965, 0.04483025, -0.032445606, -0.01238285, 0.041874822, 0.02929131, -0.003576311, 0.013976617, -0.074100755, -0.057042595, 0.015411227, -0.047066282, -0.05771345, -0.025943633, 0.014942938, 0.039316237, 0.046354946, 0.010104415, -0.015258573, -0.024217127, 0.026247835, -0.021546185, 0.06729332, -0.023001112, 0.017031984, 0.0026960187, -0.023128353, -0.08685138, 0.018608289, 0.003950762, -0.108596474, -0.01141497, 0.011131972, -0.017951192, 0.0021068105, 0.12665123, 0.06853071, 0.011168965, -0.02841709, 0.04244699, 0.0037502542, 0.058528006, 0.033864997, -0.066075444, 0.032493383, 0.012148922, -0.0114764385, -0.020057775, 0.018500382, -0.013406221, 0.0036151283, -0.0077529685, -0.048561357, 0.028987838, -0.078232266, -0.033332214, 0.040724415, -0.0561211, -0.00094957015, 0.0022375775, -0.011223341, -0.1533793, 0.024339132, -0.009435246, 0.028294573]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[-0.05985909, 0.06772137, 0.021111865, -0.005152073, 0.0645964, -0.08457097, -0.008974068, -0.09278766, 0.02534854, 0.02151367, -0.0692927, -0.05693765, -0.010750989, 0.0035599354, -0.04936435, 0.03664455, -0.006462462, -0.0018470128, 0.008748784, 0.016768476, 0.038411837, 0.027065165, -0.041057136, 0.04622201, 0.044738423, 0.06439649, 0.052461777, -0.02326435, 0.016677054, 0.004320004, 0.04726049, 0.058093164, 0.014431303, -0.0007399701, -0.007635576, 0.009157586, 0.009406211, 0.0068371925, 0.04306418, 0.007619297, -0.05786336, -0.013876637, -0.026541684, -0.05699053, -0.034455203, -0.004794998, -0.011043159, 0.053553365, 0.0010735402, 0.015102348, -0.027602203, 0.013615464, -0.021785518, 0.025457017, 0.020170784, -0.015185673, -0.043761436, -0.03357467, 0.024870347, 0.026010327, 0.010518865, -0.028572956, -0.031812865, -0.03715875, 0.09693718, -0.021058101, -0.01324928, -0.038070153, 0.02507228, 0.012001154, -0.045574974, 0.0019787769, 0.09495847, 0.015448609, -0.076229, 0.030292002, 0.00038178868, 0.017259708, -0.030080657, -0.016541779, -0.008613244, -0.01862103, 0.06262291, 0.015828095, -0.039888725, 0.09134227, 0.04218289, -0.004951333, 0.009566968, -0.025983794, 0.028758224, 0.026093543, 0.15814483, 0.0578192, 0.012690538, 0.013798358, 0.043745227, 0.044885486, 0.0339438, 0.052324478, -0.01434742, 0.018036416, -0.036104612, -0.0318829, 0.00053139724, -0.01931868, 0.017760685, 0.007637737, -0.029053295, 0.0024311102, 0.040527258, -0.06446693, -0.009936519, -0.023153484, 0.033063307, 0.05631905, 0.01662443, 0.032223184, -0.008012466, 0.029381061, 0.03891182, 0.046799984, -0.03169145, 0.067401394, -0.027556473, -0.032378342, -0.018881608, 0.05753799, -0.041765906, -0.07353923, 0.01671245, 0.032679845, -0.007521993, -0.011538916, -0.048407413, -0.037270203, -0.042725448, 0.0023950152, -0.031702958, -0.004947804, 0.00014412316, 0.020479577, 0.05805489, -0.05688449, 0.014970415, -0.02438044, 0.00689987, -0.027913727, -0.06618972, -0.006404733, 0.062456314, 0.07382444, 0.029992916, -0.026178481, 0.0061622, -0.057682864, -0.022273663, -0.03342011, -0.03343682, -0.041064404, 0.048002735, 0.05477293, -0.011187405, 0.042888414, 0.045432594, -0.021906335, 0.04688801, 0.028828245, 0.005636806, 0.02804933, 0.010895986, -0.029193789, 0.04683792, 0.0011696107, 0.0074507333, -0.009351554, -0.037834086, -0.060784377, -0.025676435, -0.009616103, 0.04182124, -0.034494553, -0.018233437, 0.019543776, 0.009553881, -0.030946786, 0.011962378, -0.0118247485, 0.07422395, 0.037287403, -0.0029514355, 0.008030223, 0.038004596, 0.006435463, -0.049974885, 0.035034634, 0.015778385, -0.035887007, 0.0029994098, 0.0020818287, -0.053326737, -0.026642248, 0.025225706, -0.050040226, 0.033620253, 0.050523672, -0.002741714, 0.08632474, 0.014356894, -0.04327195, -0.0042425734, 0.049529377, 0.044310704, -0.08364434, 0.04856248, 0.031189118, 0.008114631, -0.076823734, 0.03736225, 0.0010944679, 0.022413522, 0.02198997, -0.0063030724, 0.10776497, -0.07182545, 0.012617923, 0.056347363, 0.08107011, -0.057514377, 0.0017963046, 0.0017990571, -0.054429557, 0.023333246, -0.004765754, 0.010814689, 0.0728341, -0.019488825, -0.066216305, 0.016107233, 0.08263497, -0.03251199, 0.01438433, -0.027012443, -0.04739049, 0.08676472, -0.0335895, 0.0827284, -0.034111742, 0.006927315, -0.056905646, -0.05853169, 0.009598444, -0.019674426, -0.07049274, -0.02670884, -0.037247352, 0.08935832, -0.07865261, 0.031271465, -0.015257747, 0.010696554, -0.037668344, 0.030104559, 0.035642352, 0.023078475, -0.08425646, -0.029121121, 0.026459213, -0.021038335, -0.031000929, -0.035180137, 0.060771886, 0.021509072, 0.0015777719, -0.070790716, -0.05209909, -0.10827164, -0.007596476, 0.0051147714, 0.029263437, 0.050803702, -0.039482355, 0.013065745, -0.055815224, -0.06193861, -0.015162148, 0.031006837, -0.03476526, 0.0031399822, -0.0041977842, -0.008385015, -0.01494036, 0.09412278, -0.043658663, -0.054829594, 0.061193917, 0.038745776, 0.001547113, -0.034512494, -0.052944053, 0.015866881, 0.032479372, -0.06828622, 0.031010779, -0.004578433, -0.017863574, 0.023643095, -0.056653533, -0.042368814, 0.0030715817, -0.031654038, 0.014586563, 0.053406406, 0.053982627, -0.09039654, -0.006020069, 0.0057311975, -0.02736995, 0.0022035532, -0.04758794, 0.030857315, -0.002446003, 0.008331397, -0.07112207, 0.01708021, 0.00937121, 0.002619796, -0.045717206, -0.039318644, 0.05182549, -0.01230281, -0.024544384, -0.049056955, -0.021186799, -0.062550925, 0.04638754, 0.023568671, -0.0009516903, -0.027095022, 0.059588797, -0.027325805, -0.006989683, 0.003858403, -0.04892605, -0.037571274, 0.0799457, 0.04077101, -0.026004339, -0.04929849, -0.02440454, 0.03120233, -0.016977098, -0.018020293, -0.02364175, -0.02613398, 0.021540295, -0.034758482, -0.042148832, -0.008054485, 0.030846978, 0.018860627, -0.034600664, 0.01831548, -0.0123267155, 0.015315938, -0.029988952, -0.05755634, -0.055347126, -0.018862203, 0.009672515, -0.015432121, 0.034800105, -0.03416405, 0.02477756, 0.030192988, -0.060846314, -0.03963641, 0.015591527, 0.028447038, 0.009304434, 0.008012451, -0.03696621, 0.037693642, -0.02629425, 0.038469315, -0.02816398, -0.069527924, 0.027636372, -0.100363046, -0.047546174, 0.026347056, 0.01254906, -0.012564305, 0.020812875, -0.009768845, -0.006280122, 0.018157275, 0.07360722, -0.023410268, 0.027705396, 0.032780893, 0.09070249, 0.023604542, -0.042971887, 0.020991342, 0.02003373, 0.043594994, -0.007946331, -0.02932972, 0.022733046, -0.018914426, -0.00628936, 0.02842534, 0.057577454, -0.026536383, 0.062421672, -0.0106196115, 0.067464076, -0.016437199, -0.055283003, -0.0031945403, 0.008916555, -0.017480005, 0.052016497, -0.052047156, -0.07732257, -0.0035775965, -0.013367772, 0.00050650485, -0.043250535, 0.04754286, 0.01831037, -0.011116841, 0.055165224, -0.05722721, 0.041387502, 0.054576825, -0.0007420642, -0.03446308, 0.016463598, -0.042916834, -0.0074208607, -0.045047164, 0.0019344905, 0.007151335, -0.03782768, -0.017384674, -0.013242991, 0.044830218, -0.032445606, -0.012382796, 0.041874826, 0.029291317, -0.003576324, 0.013976608, -0.074100755, -0.05704261, 0.0154112205, -0.047066275, -0.05771344, -0.025943654, 0.0149429515, 0.039316233, 0.046354957, 0.0101044215, -0.01525858, -0.02421714, 0.026247827, -0.021546213, 0.067293346, -0.023001114, 0.01703201, 0.0026960075, -0.023128355, -0.08685136, 0.018608322, 0.0039507523, -0.1085965, -0.011414945, 0.011131965, -0.017951196, 0.002106776, 0.1266512, 0.06853071, 0.011168965, -0.028417101, 0.042447023, 0.0037502702, 0.058528006, 0.033864982, -0.06607544, 0.032493398, 0.012148941, -0.0114764385, -0.020057771, 0.018500362, -0.013406203, 0.0036151526, -0.0077529824, -0.048561364, 0.028987812, -0.07823222, -0.033332206, 0.040724453, -0.056121107, -0.0009495706, 0.0022375844, -0.011223364, -0.1533793, 0.024339132, -0.009435284, 0.02829455]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>2018</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>김명선</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>서울</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Influence of particle size on the quality characteristics
-of gluten-free sheeted noodles with zein</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Influence of particle size on the quality characteristics of gluten-free sheeted noodles with zein</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>The demands of rice products have been steadily increasing because of their non-allergenic-functionalities. However, the use of rice flour in the gluten-free food industry has been still limited due to undesirable quality characteristics derived from the weak structural network by the lack of gluten. Therefore, there is a need to search for new approaches to enhance the structural network of gluten-free foods. In this study, zein, protein derived from corn, was applied to
 rice noodles as a structural network provider for sheeting and the rheological and structural properties of the rice noodles were investigated depending on the particle size of rice flour. The starch damage of the rice flours increased with decreasing particle size. The zein-rice flours with smaller particle size exhibited greater water hydration properties and pasting parameters that contributed to the increased elastic characteristics. The use of zein positively contributed to the formation of sheeted rice dough that could be successfully slit into noodle strips. The zein-rice noodles with medium particle size (100–150 mesh) had the highest breaking stress and hardness values that were correlated to the lowest cooking loss. This study thus provides a new opportunity for food industry to improve the qualities of gluten-free rice noodles by controlling particle size.</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>[0.0049270997, 0.016100636, 0.07346262, 0.025690094, 0.07562838, 0.058302354, -0.038626343, 0.002105755, 0.026607867, 0.02245522, -0.055814836, -0.03792522, -0.014033826, 0.07230936, -0.03153139, 0.05751703, -0.0064259917, 0.028492348, -0.0020134975, 0.03513063, -0.012165955, -0.021884425, -0.024355527, 0.028473109, 0.09645051, 0.03775731, 0.04520157, -0.04527788, 0.030060863, -0.008110664, 0.0015051956, -0.08983812, 0.031837255, -0.027561132, -0.037794866, -0.040885393, 0.030236183, 0.035780977, 0.023710418, 0.038101457, -0.048131835, 0.060128447, -0.05407359, -0.00275057, -0.00972114, -0.0019644953, -0.037018437, -0.032675907, -0.062596284, 0.008370675, -0.0054947366, 0.016926967, 0.07357937, 0.036704764, 0.041900616, -0.043841954, -0.076190054, -0.020980949, -0.02814161, 0.017882617, -0.018847946, -0.041976266, -0.05089359, 0.042009268, -0.01515931, 0.0025327415, 0.012982065, -0.045497756, 0.024838854, 0.068282, -0.022985939, 0.009221369, 0.010506959, -0.006714224, -0.050945308, -0.12458764, 0.02827475, 0.006631928, -0.024571944, -0.010650852, 0.008358358, -0.024996616, 0.013975161, -0.0020052358, -0.054468438, 0.064923264, -0.082620524, 0.011877016, -0.029041938, -0.011537455, -0.02881917, -0.014882071, 0.11064837, 0.043671463, 0.032106493, 0.037134245, 0.082501955, 0.06479295, 0.034598973, 0.040370572, -0.0065406584, -0.018599732, -0.007584368, 0.010803165, 0.07613051, -0.05312869, 0.06309513, -0.016070848, 0.027642593, 0.050163724, -0.028255155, -0.056744542, -0.042989872, -0.06810666, -0.00064212957, 0.07796194, 0.023186589, 0.0659484, 0.00460386, 0.06764373, 0.03723231, 0.036250137, -0.03495284, 0.09759686, 0.025189681, 0.04711811, -0.003542579, -0.013316554, -0.002540754, -0.039720286, 0.025716947, 0.07545006, -0.0326834, 0.026578683, 0.0014356509, -0.012842135, -0.006060082, -0.0046659675, 0.05110974, 0.032756817, 0.050337497, -0.0132163055, 0.04235514, -0.04035499, -0.021803826, -0.062271155, -0.060560126, -0.021788094, -0.0075342734, 0.07901073, 0.035828628, -0.0050241067, 0.0105400495, -0.030252017, 0.015884468, -0.041461274, 0.011053767, -0.02328107, 0.0108651295, -0.011534194, 0.0093505, -0.035143737, -0.041697495, 0.028111726, -0.029826343, 0.007278361, 0.019351639, 0.03235005, -0.034362398, 0.040546715, -0.01646885, -0.013963118, 0.0065583317, 0.018508043, -0.004845644, -0.05530004, 0.01917101, -0.0029257962, 0.08546928, -0.022465207, 0.06332895, -0.08895449, 0.017084526, -0.028996196, 0.063132055, -0.04239854, 0.013469408, 0.020975634, 0.008541602, 0.024112841, -0.14038616, 0.017343564, 0.036023047, -0.013382952, 0.018391766, 0.028752932, 0.008373308, -0.07800255, 0.032540902, 0.12531841, 0.084721744, 0.03456695, -0.018175712, -0.04062642, 0.118913844, 0.045491766, 0.012915107, -0.00031721452, 0.028850468, 0.037371, -0.06051091, 0.010622497, -0.0299367, -0.024182238, -0.0013448113, 0.0022899339, 0.022504283, -0.01569149, -0.0014025122, -0.0040823948, 0.06715288, -0.0016031018, -0.030395774, 0.0065760543, -0.009865547, 0.013283139, 0.0014253522, 0.022324465, -0.016976224, -0.06561199, -0.01772645, -0.042104784, -0.041581437, -0.041249923, 0.027015876, 0.03464514, -0.045732796, -0.00407603, 0.05024984, 0.07115515, -0.055018052, -0.0152952215, -0.023374826, -0.009131909, -0.023449112, -0.01611212, -0.007266235, -0.014377078, -0.08365006, -0.018522352, -0.015325681, 0.0066907746, 0.006248083, -0.040513113, -0.0016102081, -0.005796096, -0.023713399, -0.080458134, -0.08377153, -0.049831644, 0.04581749, -0.018329317, -0.034562368, 0.017652819, -0.021673301, 0.03045145, 0.045852065, 0.025507493, -0.0014428869, -0.077509984, -0.008561337, 0.061004348, 0.02753014, 0.068812184, -0.061233312, 0.036350198, -0.04736111, -0.06424353, -0.015415978, 0.0042553185, -0.0655768, -0.003724385, 0.044083435, -0.06331974, -0.032844722, -0.021980023, -0.10452657, 0.033667892, -0.01119819, -0.113066085, -0.003319947, -0.004688848, 0.028612578, 0.01164016, -0.076907516, 0.04191073, -0.037680123, 0.043310277, -0.01571756, 0.035744373, 0.037811276, -0.06597391, 0.046698425, 0.024356846, -0.02567677, -0.03128333, -0.021264661, -0.018770633, -0.012689775, -0.031602494, -0.019760212, 0.033861954, 0.011295881, 0.056190383, -0.032245584, 0.014870331, -0.0068503288, 0.0010913229, -0.0333304, -0.04734768, 0.027429566, 0.06950271, -0.021284416, 0.015404425, -0.08528376, 0.12065714, 0.0080643445, -0.011421307, -0.0008481874, 0.014533564, 0.011462562, -0.013148852, 0.03415158, 0.015590591, -0.08211081, -0.070538506, -0.00017109475, -0.022987789, 0.031212073, -0.025853787, -0.02683842, -0.063803986, 0.05267432, 0.040211402, -0.09417282, 0.0029915047, 0.03961842, 0.004969313, -0.066873804, -0.043680973, -0.0039317394, 0.024259461, -0.0140500665, -0.026171183, -0.008347426, -0.004679185, -0.0017375915, -0.061426952, -0.028386109, -0.02516033, 0.05487118, -0.13134989, -0.016916784, -0.04882415, -0.011251321, -0.04550743, -0.055835664, -0.03680099, 0.014780066, 0.050761864, 0.018700927, 0.01398788, -0.049781397, 0.016300207, -0.031635866, -0.0074886973, 0.007619073, 0.07186028, 0.06526478, -0.028461903, 0.034902744, -0.0066703986, -0.0077431444, -0.093839645, -0.045544423, -0.014424924, -0.0662507, 0.07797234, -0.01807751, -0.029395046, 0.10879998, 0.1087412, -0.0114191, -0.0024500622, -0.02943463, 0.052719217, -0.10422762, -0.00041696333, -0.012428106, 0.005424371, 0.044114318, -0.019725291, -0.05468064, 0.0058130636, -0.018312914, -0.015154484, -0.034808602, -0.025905306, -0.021096336, -0.05923975, 0.0253004, 0.007859212, 0.046163015, 0.06442008, 0.0097266, -0.026243696, -0.028674563, 0.017899783, 0.02424726, -0.038149837, -0.050923776, 0.01755892, -0.013810542, -0.021947397, -0.07076821, -0.06663147, 0.036325485, -0.085381545, -0.03438182, 0.0021848013, -0.009827796, -0.0060502593, -0.007082412, -0.06320376, 0.013862664, 0.035490103, 0.022621201, 0.022114592, 0.051237706, 0.0070380457, -0.0020284173, -0.06395365, -0.07001821, 0.043569505, 0.054766238, 0.032576635, 0.030932572, 0.078090906, 0.018314114, -0.0477243, 0.043562945, 0.00033076806, 0.0027775264, 0.10990358, 0.0026263446, -0.031883813, 0.011362709, -0.010982998, -0.0396244, -0.04802762, -0.004948472, 0.016404856, 0.09183688, -0.04622169, 0.004552966, -0.033118267, -0.09308642, -0.011007118, 0.007815783, -0.011973833, 0.013764971, 0.08910506, 0.0015368124, -0.034036085, 0.036985956, -0.0018556004, 0.056467313, 0.0030511967, 0.0004023589, -0.07627779, 0.068220146, -0.048472486, 0.070317954, 0.057797126, -0.0037911185, 0.014143082, 0.03314861, 0.027546963, -0.046758473, 0.0126666175, -0.062792376, -0.009489565, -0.0752375, 0.0053427033, 0.045229785, 0.024162518, -0.015209477, 0.019504827, 0.00899131, -0.01778887, 0.034463022, -0.034604378, -0.010916581, -0.014870235, -0.007651557, -0.0254245, -0.031239554, -0.02088983, -0.13882597, 0.01042229, 0.01211828, 0.05575161]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[0.004927115, 0.016100662, 0.073462605, 0.025690071, 0.07562837, 0.058302354, -0.038626324, 0.0021057583, 0.026607882, 0.022455247, -0.055814836, -0.037925202, -0.014033829, 0.07230933, -0.031531397, 0.057517033, -0.006425953, 0.028492363, -0.0020134936, 0.035130642, -0.012165955, -0.021884412, -0.024355516, 0.02847311, 0.096450515, 0.037757333, 0.04520157, -0.04527788, 0.030060843, -0.00811067, 0.0015051956, -0.08983812, 0.031837255, -0.027561147, -0.037794884, -0.04088539, 0.030236175, 0.035780977, 0.023710428, 0.03810147, -0.048131846, 0.060128447, -0.054073602, -0.002750561, -0.0097211255, -0.0019644743, -0.037018415, -0.032675922, -0.06259625, 0.008370693, -0.0054947385, 0.016926955, 0.07357937, 0.036704756, 0.04190062, -0.043841954, -0.076190054, -0.020980932, -0.028141607, 0.01788263, -0.01884796, -0.041976254, -0.050893594, 0.042009268, -0.015159285, 0.0025327234, 0.012982061, -0.04549776, 0.024838876, 0.06828199, -0.022985922, 0.009221358, 0.0105069745, -0.006714211, -0.05094532, -0.12458761, 0.028274758, 0.006631943, -0.02457193, -0.010650872, 0.008358339, -0.024996614, 0.013975165, -0.0020052544, -0.054468445, 0.064923294, -0.08262052, 0.011877008, -0.02904196, -0.011537456, -0.028819181, -0.014882056, 0.11064837, 0.043671466, 0.0321065, 0.037134238, 0.082501955, 0.06479292, 0.034598965, 0.040370554, -0.006540669, -0.018599732, -0.007584383, 0.010803172, 0.0761305, -0.053128686, 0.06309514, -0.016070828, 0.027642583, 0.05016373, -0.028255146, -0.05674455, -0.04298988, -0.06810667, -0.0006421086, 0.07796191, 0.023186598, 0.065948404, 0.004603875, 0.06764371, 0.037232332, 0.03625016, -0.03495284, 0.097596854, 0.025189675, 0.04711811, -0.0035425941, -0.013316576, -0.0025407511, -0.039720275, 0.025716944, 0.07545007, -0.03268339, 0.026578657, 0.0014356367, -0.012842127, -0.006060094, -0.0046659918, 0.05110974, 0.032756835, 0.050337497, -0.01321631, 0.042355124, -0.040354963, -0.021803835, -0.0622712, -0.060560115, -0.021788089, -0.007534264, 0.079010725, 0.035828635, -0.005024102, 0.010540055, -0.030252017, 0.015884474, -0.041461274, 0.011053775, -0.023281058, 0.010865162, -0.01153421, 0.009350513, -0.035143707, -0.0416975, 0.028111711, -0.029826365, 0.007278373, 0.019351648, 0.03235004, -0.03436242, 0.04054671, -0.016468868, -0.013963129, 0.006558341, 0.01850805, -0.0048456113, -0.055300027, 0.019171026, -0.002925768, 0.08546928, -0.022465184, 0.06332897, -0.088954516, 0.017084517, -0.028996198, 0.06313207, -0.04239851, 0.013469394, 0.020975638, 0.008541568, 0.024112869, -0.14038616, 0.01734355, 0.03602306, -0.013382957, 0.01839177, 0.028752925, 0.008373307, -0.078002535, 0.03254088, 0.12531841, 0.084721744, 0.034566958, -0.018175734, -0.040626448, 0.1189138, 0.04549179, 0.012915094, -0.00031720614, 0.02885045, 0.037370984, -0.06051092, 0.010622476, -0.0299367, -0.024182241, -0.0013448132, 0.0022899478, 0.022504292, -0.015691496, -0.0014025262, -0.0040824125, 0.067152865, -0.0016031044, -0.030395765, 0.0065760524, -0.009865558, 0.013283143, 0.001425358, 0.022324465, -0.016976206, -0.06561199, -0.017726444, -0.042104777, -0.04158146, -0.04124996, 0.02701587, 0.034645136, -0.045732774, -0.0040760413, 0.050249856, 0.071155146, -0.055018064, -0.015295223, -0.023374837, -0.009131934, -0.023449099, -0.016112136, -0.007266249, -0.01437709, -0.08365006, -0.01852236, -0.015325678, 0.0066907904, 0.006248101, -0.040513124, -0.0016101922, -0.005796079, -0.023713386, -0.08045811, -0.083771504, -0.049831618, 0.045817506, -0.01832931, -0.03456234, 0.017652823, -0.021673307, 0.030451436, 0.045852046, 0.025507515, -0.0014428854, -0.07750997, -0.008561332, 0.06100434, 0.027530119, 0.06881217, -0.061233312, 0.036350194, -0.04736111, -0.064243525, -0.015415987, 0.0042553274, -0.06557682, -0.0037243702, 0.044083435, -0.06331974, -0.032844726, -0.021980038, -0.10452659, 0.03366791, -0.011198182, -0.1130661, -0.0033199207, -0.004688846, 0.0286126, 0.0116401585, -0.0769075, 0.041910723, -0.037680123, 0.043310255, -0.015717568, 0.03574434, 0.037811276, -0.065973885, 0.04669843, 0.02435684, -0.025676763, -0.03128334, -0.021264665, -0.018770635, -0.0126897795, -0.031602517, -0.019760214, 0.03386196, 0.011295864, 0.05619038, -0.032245595, 0.014870303, -0.00685034, 0.0010913237, -0.033330385, -0.047347695, 0.027429586, 0.069502726, -0.02128442, 0.015404411, -0.085283756, 0.12065716, 0.008064358, -0.0114212865, -0.00084818696, 0.014533599, 0.011462563, -0.013148836, 0.034151565, 0.015590629, -0.0821108, -0.070538506, -0.0001711022, -0.022987796, 0.031212065, -0.025853803, -0.02683841, -0.06380398, 0.052674334, 0.040211413, -0.09417281, 0.002991535, 0.03961844, 0.004969299, -0.06687379, -0.043680992, -0.0039317217, 0.024259472, -0.014050084, -0.026171176, -0.008347428, -0.004679182, -0.0017376101, -0.06142695, -0.028386129, -0.025160316, 0.054871157, -0.13134988, -0.016916774, -0.048824135, -0.0112513425, -0.045507405, -0.055835694, -0.036800988, 0.014780032, 0.050761864, 0.018700924, 0.013987899, -0.04978139, 0.016300209, -0.031635832, -0.007488722, 0.0076190685, 0.07186026, 0.06526477, -0.028461894, 0.03490277, -0.006670397, -0.0077431304, -0.09383965, -0.045544397, -0.014424926, -0.066250674, 0.077972345, -0.01807748, -0.02939504, 0.10879998, 0.108741194, -0.011419118, -0.0024500566, -0.029434608, 0.052719194, -0.10422762, -0.0004169666, -0.012428076, 0.0054243742, 0.044114303, -0.019725308, -0.05468066, 0.0058130682, -0.01831292, -0.015154504, -0.034808606, -0.025905283, -0.021096349, -0.05923972, 0.025300385, 0.007859221, 0.04616303, 0.0644201, 0.009726581, -0.026243715, -0.028674575, 0.017899778, 0.024247268, -0.03814983, -0.05092377, 0.01755891, -0.013810544, -0.021947417, -0.07076819, -0.066631466, 0.036325496, -0.085381545, -0.034381825, 0.0021847975, -0.009827769, -0.006050223, -0.0070824325, -0.063203745, 0.013862673, 0.03549009, 0.022621227, 0.0221146, 0.051237706, 0.007038066, -0.0020284262, -0.06395363, -0.070018195, 0.04356952, 0.054766238, 0.03257664, 0.030932583, 0.07809088, 0.018314093, -0.04772433, 0.043562956, 0.0003307783, 0.0027775092, 0.109903574, 0.0026263492, -0.031883813, 0.011362714, -0.0109830005, -0.039624415, -0.048027586, -0.004948445, 0.016404852, 0.09183688, -0.046221692, 0.004552966, -0.03311827, -0.09308641, -0.011007107, 0.007815784, -0.011973824, 0.013764948, 0.08910507, 0.0015368161, -0.034036074, 0.036985964, -0.0018556339, 0.056467306, 0.0030511986, 0.00040236846, -0.07627781, 0.0682202, -0.04847246, 0.07031796, 0.05779715, -0.0037911148, 0.014143058, 0.033148594, 0.027546955, -0.046758447, 0.012666632, -0.06279241, -0.009489555, -0.0752375, 0.0053426903, 0.04522976, 0.024162527, -0.015209472, 0.019504836, 0.008991305, -0.01778889, 0.034462996, -0.03460436, -0.010916595, -0.014870197, -0.007651572, -0.025424516, -0.031239565, -0.02088983, -0.13882594, 0.010422286, 0.012118285, 0.05575158]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>2018</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>오민수</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>서울</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Effect of thermal treatments on the levels
-of Flavonoid
-compounds in buckwheat flours</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Effect of thermal treatments on the levels of flavonoid compounds in buckwheat flours</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Buckwheat is well known as a healthy crop with excellent nutritional and functional superiority mainly because of a high content of flavonoid compounds, specifically, rutin However, buckwheat based food products are known to have the reduced levels of rutin by rutin degrading enzymes that generate quercetin during processing However, since quercetin has a bitter taste, it may have a negative impact on consumer preferences, consequently retarding the utilization of buckwheat flour to a variety of buckwheat processed foods Thus, this study was carried out to investigate the levels of rutin and quercetin in the milling fractions of buckwheat flours and also to monitor their changes by a variety of thermal treatments Native buckwheat was separated into three fractions by sieving with 40 and 100 mesh screens which were designated as 40 M, 40 100 M, and 100 M&lt;, respectively The levels of rutin were the highest in the 40 100 M milling fraction, followed by 100 M and 40 M Also, buckwheat flours were subjected to several thermal treatments including steaming and autoclaving The contents of rutin and quercetin in the resulting buckwheat samples were analyzed by HPLC and the correlations between the flavonoid compounds and thermal treatments were investigated The addition of water to buckwheat flour in making buckwheat products significantly decreased the levels of rutin while the quercetin content increased However, the thermal treatments of buckwheat flours distinctly reduced the rutin loss and quercetin was hardly detected Therefore, this study contributes to enhancing the health functionalities of buckwheat by reducing rutin loss, probably extending use of buckwheat flour to a variety of processed food products</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>[0.028035248, -0.040062413, 0.04209237, 0.030585308, 0.12574111, -0.026473913, -0.019990208, -0.028392471, 0.014965994, 0.040962726, -0.016401736, -0.027429303, -0.026760107, 0.098886326, -0.03781809, 0.023003882, 0.0074069924, 0.03371788, 0.012565975, 0.015775245, -0.0060420153, -0.031535387, -0.062242407, 0.010979166, 0.063272715, -0.0024289216, -0.004860894, 0.020972371, -0.0013839555, -0.03035579, 0.023742652, -0.053805623, 0.010254357, -0.0073184683, 0.0012384068, -0.020095997, 0.039840937, -0.05362905, 0.06496306, -0.025386045, -0.09004152, -0.024895897, 0.023536962, 0.06629738, 0.0006539974, -0.015268816, -0.020640139, -0.035860624, -0.03779627, 0.0068079727, 0.0012128056, 0.029794585, -0.03707298, 0.04234071, 0.050269067, -0.044008814, -0.06654425, -0.0012825836, -0.005440915, 0.00233314, 0.021864478, -0.03640347, -0.037841983, -0.056689426, -0.09067861, -0.044086803, -0.01040317, 0.050294384, 0.02551131, -0.0024844757, -0.002888466, -0.02289824, 0.023872154, -0.036229555, -0.07636486, -0.069535136, 0.06402042, -0.002339608, -0.061889492, -0.052426983, -0.065862894, -0.060141604, 0.041127954, -0.048680615, -0.020201974, 0.0041939593, -0.045782555, 0.05298234, -0.019729199, -0.021223433, 0.07252034, 0.026240984, 0.08314557, 0.014343348, 0.026102709, 0.048928186, 0.12622724, 0.029458353, 0.03768536, -0.015013756, -0.028302329, 0.071472205, -0.082180925, 0.0608731, -0.03828804, 0.050204143, -0.005861352, 0.027382273, 0.029995747, -0.03053854, -0.023162104, -0.052837864, 0.026915243, -0.014591316, -0.030309696, 0.037680198, 0.046840593, 0.032557126, 0.02286518, 0.041512024, 0.02098064, 0.004687886, -0.051328756, 0.0715569, -0.009461831, -0.012673165, 0.018726118, -0.0042262026, -0.026971169, -0.04216614, -0.0076750102, 0.071576476, -0.054391213, 0.0500105, 0.011183081, 0.09006548, -0.021434853, -0.00097573333, 0.010698107, -0.025831737, -0.049770497, -0.047931623, -0.014556855, -0.07166851, -0.0057302495, -0.050349638, -0.0693592, -0.030073505, -0.04766352, 0.040057465, -0.019924533, -0.053821053, 0.037863623, -0.045468185, 0.00044028458, -0.12604441, 0.014488063, -0.045599047, -0.030811327, -0.088547334, -0.03886497, -0.00853606, 0.028929453, 0.01655871, -0.0075761764, -0.03430845, 0.061818566, 0.010242597, 0.0114071965, -0.044109598, -0.025423355, -0.02178524, -0.016143687, -0.030382238, -0.007875572, -0.042919062, 0.0161482, -0.09194812, 0.011917823, -0.056277335, -0.011207886, 0.019166807, -0.0022355681, 0.021593776, -0.0039867028, -0.047251634, 0.03610157, 0.0043181144, 0.07401982, -0.014797643, -0.10394923, 0.050670847, 0.05007057, -0.015757412, 0.015078811, 0.0035736319, -0.039290093, -0.0476114, 0.07118514, -0.003670751, -0.048342742, 0.030130096, 0.042022463, -0.008856664, 0.05956808, 0.022149332, 0.009072763, 0.04192524, 0.024570284, 0.021800062, -0.07627189, -0.0052812607, -0.0054671247, 0.014611034, 0.0490278, -0.009304122, -0.005940171, 0.0013888981, 0.015909893, 0.0024419979, 0.100812085, -0.012246945, -0.058459807, 0.035811905, -0.02430217, -0.00094735384, 0.0644009, 0.03733783, 0.011753839, 0.042406987, 0.051879954, -0.07135122, -0.052103292, 0.055761393, 0.025938174, 0.042958394, -0.03520217, 0.044513527, 0.00079013436, 0.11196308, -0.012448748, -0.050604522, 0.047063, 0.0047981646, 0.028279293, 0.014179702, 0.026163492, -0.010183752, -0.07750911, -0.011102239, -0.041290417, 0.048092004, 0.017897476, -0.011296214, 0.00980334, -0.030253693, 0.02250353, -0.0060638427, -0.05454113, -0.08948004, 0.0085978415, -0.005472468, -0.041352037, -0.022338392, 0.06523766, 0.024988549, 0.047412794, -0.015516346, 0.04681251, 0.015233394, -0.014034786, 0.07998382, 0.053129088, 0.045447186, -0.045064438, 0.026803209, 0.028308582, -0.1028541, -0.006974204, -0.036155645, -0.03718118, -0.023619646, 0.00022167852, -0.09100229, -0.027728872, -0.013697498, -0.056419197, 0.02261032, 0.0038380176, -0.11200962, -0.033954367, -0.020592568, 0.025834128, -0.01611275, -0.07766179, 0.065148406, -0.027283756, 0.092699096, -0.051685583, -0.021264529, 0.051284198, 0.018296547, -0.032164402, 0.0480268, 0.018080667, -0.03298939, 0.07934316, 0.0341993, 0.014780316, 0.005773926, 0.0028533686, 0.023349505, 0.028289804, 0.061034594, -0.052910022, 0.042477127, -0.010803278, 0.018946843, -0.04752169, -0.0146104805, 0.008940081, 0.050622907, -0.0633646, -0.047176484, -0.017706329, 0.059226964, -0.04874294, -0.010675186, -0.040131494, 0.013669167, -0.0040261676, 0.028434774, -0.0016051908, -0.038272154, -0.012618806, -0.043240838, 0.030158373, -0.0066616544, -0.00873004, -0.0065115, -0.023764888, 0.028126212, -0.047797292, 0.030970696, -0.06564333, 0.0067734886, 0.006109522, 0.02267549, -0.0223227, -0.019005807, 0.031284105, -0.021475196, 0.0035592483, 0.009569613, -0.015561933, 0.0069186306, -0.083803184, -0.027478259, 0.039151497, -0.027899845, 0.018688139, -0.035827465, 0.018195884, 0.0284464, 0.09374622, -0.025811404, -0.004817588, -0.056276232, -0.005941405, -0.019493142, -0.00605985, -0.035783812, -0.009578985, -0.029399816, 0.0037255057, -0.00952513, -0.04642675, -0.01529002, 0.10199691, 0.013047359, -0.008036131, 0.022791015, 0.0013650359, -0.11630539, 0.0143000735, -0.004539395, -0.06463741, 0.0134217525, -0.01573604, -0.039311033, 0.019641174, 0.08090409, 0.02192343, 0.059392102, -0.012961768, 0.07070506, -0.020656792, 0.0017701038, -0.06217388, -0.064886644, 0.0202884, -0.02330764, -0.033242937, -0.026599588, 0.044162117, -0.045681268, 0.040931977, -0.028494103, 0.050901804, -0.03493705, 0.035044782, -0.00025009958, 0.0037355132, 0.043355286, 0.05199942, 0.005798962, 0.028369505, 0.062126454, 0.051268052, 0.03439934, -0.011967104, -0.021500595, 0.020289658, 0.012500917, -0.031655647, -0.053788643, 0.012486829, -0.05668955, -0.013793004, -0.012540771, -0.068310454, -0.08884569, 0.017114196, -0.012607662, 0.0072745453, 0.058562092, 0.025966004, 0.033933934, 0.071514316, 0.02848989, 0.019579366, -0.029137803, -0.06256205, -0.0012997205, -0.040614, -0.0057700328, -0.009564634, 0.045921843, -0.048206143, -0.02482774, -0.03423826, 0.038478997, 0.052061494, 0.008174058, 0.033437137, -0.03770428, -0.037077025, -0.02699727, 0.008767862, -0.045751538, 0.036331184, -0.032859664, 0.06341347, -0.0044157878, 0.0034586575, -0.07826326, -0.015064641, -0.016187236, 0.013600055, -8.848868e-05, 0.0021623354, 0.03507989, 0.0052525597, 0.007874137, 0.017886631, 0.006444636, -0.0037823943, -0.010089694, 0.04663434, -0.0159803, 0.020781709, -0.014094132, 0.048315123, 0.067203335, -0.013596877, 0.081366435, -0.015743302, -0.0040506036, -0.04257453, -0.036451656, -0.041559417, 0.027849406, -0.039741058, -0.07537358, 0.049107075, 0.062700436, 0.042568114, 0.0025560455, 0.045646604, -0.0024678311, 0.050343316, -0.001291617, -0.04036446, -0.070177734, -0.01163929, -0.06722883, 0.031908896, -0.0041251895, -0.0692192, -0.02233509, 0.008006942, -0.0014175712]</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[0.028035238, -0.04006244, 0.042092357, 0.030585319, 0.1257411, -0.02647389, -0.019990228, -0.028392468, 0.014965981, 0.040962704, -0.016401732, -0.027429296, -0.026760122, 0.098886326, -0.037818097, 0.023003874, 0.0074069914, 0.033717863, 0.012565958, 0.01577525, -0.006041999, -0.031535376, -0.062242392, 0.010979168, 0.06327273, -0.0024289477, -0.0048609134, 0.020972364, -0.0013839452, -0.030355776, 0.023742653, -0.05380563, 0.010254359, -0.0073184655, 0.0012384049, -0.020096, 0.039840937, -0.05362903, 0.06496306, -0.025386075, -0.09004148, -0.024895903, 0.023536948, 0.0662974, 0.00065397506, -0.015268832, -0.02064012, -0.035860617, -0.037796248, 0.006807969, 0.0012128105, 0.0297946, -0.037072986, 0.042340707, 0.05026909, -0.044008836, -0.06654423, -0.0012825738, -0.0054409266, 0.002333139, 0.021864465, -0.03640347, -0.037841983, -0.05668942, -0.09067862, -0.044086788, -0.010403201, 0.0502944, 0.025511349, -0.0024844839, -0.002888467, -0.022898251, 0.023872156, -0.03622956, -0.07636486, -0.06953513, 0.06402043, -0.002339607, -0.06188951, -0.05242697, -0.06586292, -0.06014159, 0.04112797, -0.048680633, -0.020201989, 0.004193965, -0.04578255, 0.05298234, -0.01972918, -0.021223452, 0.072520345, 0.026240991, 0.083145574, 0.014343326, 0.026102696, 0.048928194, 0.12622726, 0.029458353, 0.037685383, -0.015013756, -0.02830232, 0.07147221, -0.08218095, 0.060873095, -0.03828803, 0.050204135, -0.0058613443, 0.02738228, 0.02999572, -0.03053854, -0.023162108, -0.052837856, 0.026915269, -0.014591316, -0.030309707, 0.037680212, 0.046840556, 0.03255712, 0.022865202, 0.041512027, 0.020980598, 0.004687872, -0.051328734, 0.0715569, -0.009461842, -0.012673152, 0.018726107, -0.0042261877, -0.02697118, -0.042166155, -0.007674997, 0.071576476, -0.0543912, 0.05001051, 0.011183076, 0.09006547, -0.02143485, -0.0009757205, 0.010698087, -0.025831744, -0.049770527, -0.04793163, -0.014556875, -0.07166851, -0.0057302527, -0.050349638, -0.06935922, -0.030073527, -0.04766352, 0.040057465, -0.019924525, -0.053821065, 0.037863605, -0.045468163, 0.00044028086, -0.12604441, 0.014488054, -0.04559904, -0.030811304, -0.08854733, -0.03886498, -0.008536053, 0.028929448, 0.01655873, -0.0075761685, -0.034308434, 0.06181856, 0.010242591, 0.011407181, -0.044109616, -0.025423355, -0.021785218, -0.016143711, -0.030382235, -0.007875576, -0.042919062, 0.016148213, -0.09194815, 0.011917808, -0.05627732, -0.011207883, 0.019166805, -0.0022355719, 0.021593787, -0.0039866897, -0.047251627, 0.03610154, 0.004318109, 0.07401983, -0.014797645, -0.10394921, 0.050670844, 0.050070588, -0.015757453, 0.0150788035, 0.0035736244, -0.039290115, -0.047611374, 0.071185164, -0.0036707467, -0.048342727, 0.03013008, 0.042022467, -0.008856664, 0.05956809, 0.02214931, 0.009072763, 0.041925237, 0.024570294, 0.021800056, -0.076271884, -0.0052812537, -0.005467134, 0.014611049, 0.049027774, -0.009304133, -0.0059401873, 0.0013888841, 0.015909912, 0.0024420095, 0.10081207, -0.012246943, -0.058459792, 0.03581192, -0.024302168, -0.00094735384, 0.06440089, 0.03733782, 0.0117538115, 0.04240701, 0.051879972, -0.07135121, -0.05210331, 0.055761404, 0.025938189, 0.042958356, -0.03520216, 0.044513535, 0.0007901283, 0.11196306, -0.0124487635, -0.050604522, 0.047063, 0.0047981744, 0.02827928, 0.014179716, 0.026163492, -0.01018376, -0.07750911, -0.011102239, -0.041290414, 0.04809198, 0.017897459, -0.011296199, 0.009803347, -0.030253697, 0.022503536, -0.0060638315, -0.05454112, -0.08948006, 0.0085978545, -0.005472476, -0.041352045, -0.022338388, 0.06523767, 0.024988541, 0.047412787, -0.015516333, 0.046812505, 0.015233396, -0.014034786, 0.079983816, 0.053129073, 0.045447182, -0.045064446, 0.026803209, 0.028308582, -0.10285409, -0.006974214, -0.03615567, -0.03718117, -0.023619652, 0.00022166641, -0.09100228, -0.027728854, -0.013697487, -0.05641923, 0.02261032, 0.0038380213, -0.1120096, -0.03395437, -0.020592565, 0.025834117, -0.016112737, -0.07766179, 0.0651484, -0.027283745, 0.09269911, -0.05168557, -0.021264518, 0.051284187, 0.018296517, -0.032164402, 0.04802679, 0.018080648, -0.03298941, 0.079343155, 0.034199312, 0.014780319, 0.005773934, 0.002853382, 0.02334952, 0.028289812, 0.061034597, -0.052910004, 0.042477142, -0.010803289, 0.018946838, -0.04752167, -0.014610458, 0.008940066, 0.050622933, -0.06336461, -0.047176488, -0.017706316, 0.05922694, -0.04874295, -0.010675189, -0.04013149, 0.013669155, -0.0040261825, 0.028434763, -0.0016051871, -0.038272165, -0.012618792, -0.043240845, 0.030158339, -0.0066616815, -0.008730034, -0.0065115215, -0.023764892, 0.02812622, -0.0477973, 0.030970696, -0.06564335, 0.006773485, 0.006109526, 0.022675503, -0.022322712, -0.019005807, 0.031284127, -0.021475196, 0.0035592641, 0.00956961, -0.015561912, 0.0069186185, -0.08380316, -0.027478252, 0.03915148, -0.027899856, 0.018688124, -0.03582747, 0.018195895, 0.028446414, 0.09374621, -0.02581139, -0.004817588, -0.05627625, -0.0059414343, -0.019493151, -0.006059835, -0.035783824, -0.009578996, -0.029399833, 0.0037255122, -0.009525125, -0.04642674, -0.0152900275, 0.101996884, 0.013047355, -0.008036144, 0.02279102, 0.0013650163, -0.11630537, 0.0143000465, -0.00453937, -0.064637415, 0.013421741, -0.01573604, -0.03931104, 0.019641163, 0.08090409, 0.021923449, 0.059392102, -0.0129617825, 0.07070504, -0.020656807, 0.0017701145, -0.062173903, -0.064886674, 0.020288402, -0.023307664, -0.033242922, -0.026599564, 0.044162117, -0.045681242, 0.040931974, -0.028494088, 0.0509018, -0.034937013, 0.03504476, -0.0002500828, 0.0037355279, 0.04335528, 0.05199942, 0.005798964, 0.028369522, 0.062126424, 0.051268067, 0.034399364, -0.011967103, -0.02150058, 0.020289658, 0.012500917, -0.03165564, -0.05378862, 0.012486835, -0.05668951, -0.013792982, -0.012540761, -0.06831045, -0.0888457, 0.017114196, -0.01260767, 0.0072745304, 0.058562092, 0.025966011, 0.033933934, 0.0715143, 0.028489899, 0.019579357, -0.029137803, -0.06256203, -0.0012997179, -0.040614005, -0.0057700207, -0.009564631, 0.04592186, -0.048206147, -0.024827719, -0.034238264, 0.038478985, 0.0520615, 0.008174059, 0.03343714, -0.037704267, -0.037077017, -0.026997263, 0.008767851, -0.04575154, 0.03633118, -0.032859676, 0.06341346, -0.0044157933, 0.0034586533, -0.07826325, -0.015064639, -0.01618722, 0.013600096, -8.846761e-05, 0.0021623333, 0.03507987, 0.0052525606, 0.007874134, 0.017886626, 0.0064446535, -0.0037823801, -0.010089679, 0.046634346, -0.015980314, 0.020781713, -0.014094158, 0.048315138, 0.0672033, -0.013596882, 0.08136643, -0.01574331, -0.0040506185, -0.042574525, -0.03645164, -0.041559413, 0.027849417, -0.039741043, -0.0753736, 0.04910707, 0.06270045, 0.04256812, 0.0025560325, 0.0456466, -0.0024678432, 0.050343294, -0.0012916334, -0.040364455, -0.07017773, -0.011639297, -0.06722884, 0.03190892, -0.004125189, -0.06921919, -0.022335093, 0.008006938, -0.0014175666]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>2018</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>최경옥</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>수원</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Effects of particle size on the physical properties and stability
-of NLC suspensions</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Effects of particle size on the physical properties and stability of NLC suspensions</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Various nanostructured lipid carrier (NLC) suspensions with 30, 100 and 170 nm particle size were fabricated based on the optimized mixture design and their physical properties were determined. The effect of pseudo-ternary mixing proportion of lipid phase, surfactant phase and cosurfactant solution on the particle size of the NLC suspensions was well explained by a quadratic mixture model. It seemed that the ratio of xylitol solution was a key determinant of controlling the particle size. NLC suspensions with smaller particle size showed higher particle size growth rate at pH 2.0 for 80 days and in the model beverage condition for 40 days. In particular, the 30 nm samples exhibited exponential particle size growth rate different from the others who showed linear growth rate. Zeta-potential had a tendency to decrease with increasing pH of the NLC suspensions. The crystallization index of NLC suspensions was proportional to their particle size. Therefore, the particle size seemed to be a potential factor to affect the physical properties and stability of NLC suspensions.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>[-0.07334716, 0.016299335, -0.041240223, 0.014110042, 0.065919586, -0.018480418, -0.025014266, 0.038511213, -0.014257559, 0.04485383, -0.12468082, -0.012052046, 0.02043203, 0.020949308, -0.04219706, 0.033668056, -0.0067905826, 0.040321697, 0.04226545, 0.058714665, 0.049017236, 0.05495965, 0.04911204, 0.037507195, 0.07268072, 0.053033147, 0.043375667, 0.056407355, -0.017782632, -0.025145577, 0.03520027, -0.02114972, -0.03291517, 0.025819244, 0.009121765, -0.008414591, 0.03997343, -0.029684883, -0.025076775, 0.011414701, -0.044389233, 0.021240372, -0.085005425, 0.006000421, -0.050964896, -0.0053614704, 0.024991987, 0.02995213, 0.029957019, 0.08173017, -0.012792588, -0.077489644, -0.02614152, 0.048830293, 0.019767618, -0.023732914, -0.055237323, 0.0046417713, 0.038814027, 0.026892034, -0.06272281, -0.027440183, -0.06052419, 0.0327803, -0.013177513, 0.043025546, 0.035338886, 0.010534964, 0.015646763, -0.048402626, -0.024972811, -0.011994294, 0.010451083, 0.00057870446, -0.05304469, -0.016374767, -0.07985078, 0.007842527, 0.019395392, -0.0895279, -0.049508493, -0.036735788, 0.04725788, 0.015822036, -0.040869314, 0.0901583, 0.02660256, 0.06253017, 0.02482339, -0.027967371, 0.046637148, -0.02818839, 0.14817177, 0.08013057, 0.023504442, -0.0054749507, 0.057048146, 0.033127982, 0.009437044, 0.126068, -0.060334813, 0.04411005, -0.05163572, 0.010892849, 0.05750623, -0.05028653, -0.014555547, 0.021781517, 0.0074436436, 0.024856817, 0.0050773183, -0.038105365, 0.079424314, -0.013353972, -0.02510572, 0.009826837, -0.03686315, 0.016276462, -0.0045733945, -0.029246, 0.075827174, -0.03234271, 0.0043692794, 0.027153084, -0.020144925, 0.067296185, 0.05311188, 0.029342804, -0.032059275, 0.029257448, 0.005755394, 0.04884765, 0.027207214, -0.012075578, -0.03190287, 0.039018042, -0.02036341, 0.066776074, -0.027815605, 0.022445194, -0.07427623, -0.023216365, 0.04608461, 0.013047973, 0.02956484, -0.02505483, 0.028907483, -0.065569505, -0.007999622, 0.03071778, -0.0012202068, 0.031162698, -0.036431465, -0.002067926, 0.0071059237, -0.06300564, -0.018321356, -0.043932218, -0.017330293, -0.029799957, -0.01671908, 0.011718732, -0.019725941, -0.043623116, 0.019117426, 0.038654055, 0.08033668, 0.011886627, 0.00047005454, -0.020212166, 0.012101737, -0.045722723, 0.0029205251, -0.009263211, -0.05688284, -0.033820387, 0.0141808335, 0.021183878, 0.041739967, 0.058176372, 0.039047197, -0.0328339, 0.016152706, -0.020062644, 0.00812857, 0.04714574, 0.039091714, -0.018055324, 0.019129166, -0.0069343657, 0.012423314, -0.012339745, 0.077887885, -0.039766796, 0.04410179, 0.04813631, 0.02787495, -0.014193955, 0.0017876544, 0.066636354, 0.049844075, -0.025859352, 0.074912265, -0.0058536353, 0.0037494965, 0.001161293, -0.018299516, 0.06383769, -0.01818144, 0.033150733, 0.033679586, -0.012367207, 0.02686405, -0.0033751894, 0.04161522, 0.03094516, 0.02059228, -0.019420309, -0.013514996, 0.050463855, 0.031760924, 0.05119603, -0.016687458, 0.066183336, -0.06427803, -0.016371563, 0.0034539383, -0.0036197314, -0.031240104, -0.014593751, 0.018731168, -0.060338814, -0.0008995102, 0.041384175, 0.006307725, 0.005444578, -0.049941, -0.024235204, -0.011891905, 0.045291346, -0.043252498, 0.05602383, -0.01612828, -0.006624171, 0.0073524327, 0.016492093, 0.016705735, -0.027675787, -0.0659025, -0.0375118, -0.055854417, 0.031243572, -0.040250856, -0.07591778, 0.0064090416, -0.0010330172, 0.03026676, 0.019540535, -0.029747097, 0.057511296, 0.052862674, -0.018695671, 0.052301303, -0.034023385, 0.034856316, -0.00044380964, -0.016954806, -0.049170308, 0.03472746, 0.03143996, -0.043503083, 0.051410306, 0.06650786, -0.009470106, -0.003146257, -0.0120756915, -1.3346784e-05, -0.028247703, 0.02436356, 0.03618366, -0.052131966, -0.010682562, 0.048405204, -0.009649037, -0.0014693708, -0.046052713, -0.03449886, -0.027289277, -0.008413553, 0.03176461, 0.0014927955, 0.05633691, 0.057522003, 0.019382466, -0.037049916, 0.026299775, 0.030210914, -0.030798838, -0.010183881, -0.05846275, 0.048010968, 0.015626734, 0.0010917955, 0.027052147, 0.029568715, -0.010421584, 0.0031457723, 0.028910026, -0.02888792, 0.05715394, -0.052540354, -0.017740592, 0.06490856, 0.04581187, 0.014829286, 0.08343003, -0.031119475, 0.075575106, 0.044706892, 0.022505317, -0.03470894, 0.041876875, -0.010429691, -0.0013760409, 0.03257794, -0.009881939, -0.03632142, -0.013640347, -0.039566085, 0.017042182, -0.0010481129, -0.06989789, 0.06540869, 0.04686593, 0.04910505, -0.048094437, -0.01893922, 0.021653395, -0.05701155, -0.074418664, -0.06894331, 0.00028699765, 0.011727994, 0.07432333, -0.002350174, 0.032177567, 0.026558831, 0.034894817, 0.04033911, -0.050517503, -0.027190385, -0.013185591, -0.009017004, 0.015151083, -0.024466883, -0.050679825, -0.018285874, -0.029633973, -0.010394093, 0.042439386, -0.042623673, -0.05280672, 0.054784413, -0.02296948, 0.05331332, -0.0001966363, -0.04714409, 0.019219952, -0.009573402, -0.035813797, 0.02782144, 0.062242087, 0.050836444, -0.0117472, -0.04287656, 0.0119498, 0.006650179, 0.035491746, 0.01527041, 0.010703896, -0.02205632, -0.024006533, 0.064714275, -0.07130509, 0.041841064, 0.006739287, -0.06282313, 0.018151175, 0.0145281395, -0.017927172, -0.021427888, 0.04463588, -0.044253983, 0.052619033, 0.053001028, 0.14701793, -6.07525e-06, -0.024932316, 0.025998458, 0.013171837, 0.022073373, -0.05785014, -0.015861671, -0.018798241, -0.048008826, 0.046906937, 0.033618126, -0.013893919, -0.07037313, -0.045649733, 0.085971996, -0.00757336, 0.03310669, 0.033056334, 0.07514579, 0.0613797, -0.017453104, 0.0072490848, 0.02387679, -0.088836, 0.0056256237, 0.07136357, -0.043592826, 0.0025562302, 0.029227171, -0.016203333, -0.063383974, -0.041088644, 0.021668509, 0.010541655, 0.07949803, 0.00055948965, -0.043964125, 0.008200693, -0.05580449, -0.053809796, 0.0037572817, 0.011248724, 0.077795625, -0.02040015, 0.047242854, 0.016082522, 0.022683978, -0.0102274595, -0.027323548, 0.00738902, 0.0063719554, 0.008708691, 0.024703238, 0.025636429, 0.06931132, -0.037004776, 0.026376093, -0.016820706, 0.01565689, -0.03901925, -0.0013250719, -0.0054991315, 0.058510907, -0.00047836496, -0.05078559, -0.07118126, 0.023700519, 0.009455066, 0.048057467, -0.068716794, 0.03917542, 0.007956376, -0.0121816145, 0.028648632, -0.011450968, -0.09022592, -0.007961688, -0.0052233473, -0.015216382, 0.0418199, 0.05962376, -0.025552763, -0.0049592173, -0.069001, -0.0061187316, 0.005196821, 0.12230642, -0.0058645476, 0.016187614, 0.025198089, 0.0116793895, -0.02334497, -0.039140183, -0.04250539, -0.011637584, -0.010124414, -0.024929717, -0.02413107, -0.009968557, 0.036919847, -0.060505453, -0.04757869, -0.017398695, -0.046549827, -0.010410768, -0.0070035825, 0.0065209926, 0.050314028, 0.0011538058, 0.040392123, -0.032926954, -0.034493946, 0.020554848, 0.007356824, 0.036592375, -0.03825267]</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-0.073347166, 0.016299324, -0.041240204, 0.014110038, 0.065919586, -0.018480439, -0.025014235, 0.038511194, -0.014257564, 0.044853836, -0.12468083, -0.01205205, 0.020432023, 0.02094929, -0.042197064, 0.033668064, -0.0067906114, 0.040321697, 0.04226543, 0.058714658, 0.04901724, 0.054959666, 0.04911204, 0.037507202, 0.07268071, 0.053033136, 0.04337566, 0.056407385, -0.017782617, -0.025145594, 0.035200283, -0.021149736, -0.032915134, 0.02581924, 0.009121762, -0.008414612, 0.039973408, -0.029684909, -0.025076779, 0.011414722, -0.04438922, 0.021240361, -0.085005425, 0.0060003973, -0.050964877, -0.0053614457, 0.024991995, 0.029952118, 0.029957052, 0.08173015, -0.012792609, -0.0774896, -0.026141547, 0.048830282, 0.019767614, -0.023732917, -0.055237316, 0.0046417746, 0.03881403, 0.026892016, -0.06272281, -0.027440187, -0.060524177, 0.03278031, -0.013177529, 0.043025557, 0.0353389, 0.010534983, 0.015646754, -0.04840266, -0.024972802, -0.0119942995, 0.010451098, 0.0005786772, -0.053044677, -0.016374763, -0.07985078, 0.007842524, 0.019395394, -0.08952792, -0.049508482, -0.036735807, 0.047257856, 0.015822064, -0.040869325, 0.09015831, 0.026602523, 0.06253016, 0.024823397, -0.027967336, 0.04663716, -0.028188394, 0.14817178, 0.08013059, 0.023504449, -0.005474934, 0.05704814, 0.03312798, 0.009437048, 0.12606801, -0.06033481, 0.04411006, -0.051635735, 0.01089284, 0.057506237, -0.050286543, -0.014555582, 0.02178151, 0.0074436176, 0.02485682, 0.005077313, -0.038105343, 0.07942432, -0.013353966, -0.025105705, 0.009826821, -0.03686318, 0.016276442, -0.004573416, -0.029246012, 0.07582717, -0.032342717, 0.0043693036, 0.027153086, -0.020144926, 0.06729619, 0.053111922, 0.029342819, -0.032059282, 0.029257422, 0.005755389, 0.04884765, 0.027207196, -0.01207555, -0.031902883, 0.03901804, -0.02036342, 0.06677606, -0.027815625, 0.022445202, -0.07427625, -0.023216365, 0.046084616, 0.013047984, 0.029564826, -0.025054814, 0.028907511, -0.0655695, -0.007999619, 0.030717755, -0.0012202248, 0.03116268, -0.03643148, -0.0020679152, 0.0071059144, -0.06300564, -0.01832134, -0.04393222, -0.017330319, -0.029799953, -0.016719084, 0.011718728, -0.01972593, -0.043623123, 0.019117406, 0.03865407, 0.080336675, 0.011886625, 0.0004700634, -0.020212159, 0.01210172, -0.0457227, 0.0029205205, -0.009263213, -0.056882855, -0.033820402, 0.014180852, 0.021183873, 0.04173997, 0.058176376, 0.039047167, -0.03283388, 0.0161527, -0.020062627, 0.0081285685, 0.04714575, 0.03909175, -0.018055324, 0.019129181, -0.006934363, 0.012423313, -0.012339739, 0.0778879, -0.039766807, 0.044101797, 0.048136313, 0.027874988, -0.014193946, 0.0017876349, 0.06663635, 0.04984409, -0.025859367, 0.07491226, -0.00585364, 0.003749498, 0.0011613072, -0.018299494, 0.06383771, -0.018181443, 0.033150706, 0.033679586, -0.012367185, 0.026864065, -0.003375183, 0.04161521, 0.030945145, 0.020592269, -0.019420303, -0.013514984, 0.05046384, 0.031760916, 0.051196024, -0.016687509, 0.06618333, -0.06427802, -0.016371572, 0.0034539392, -0.0036197342, -0.031240122, -0.014593751, 0.018731162, -0.0603388, -0.00089951744, 0.04138419, 0.0063077016, 0.0054445844, -0.049941, -0.024235185, -0.01189191, 0.04529135, -0.0432525, 0.05602382, -0.01612829, -0.0066241915, 0.0073524215, 0.016492095, 0.016705735, -0.027675774, -0.06590252, -0.037511826, -0.05585446, 0.031243568, -0.040250834, -0.07591781, 0.006409011, -0.00103302, 0.030266767, 0.01954054, -0.029747112, 0.0575113, 0.052862685, -0.018695656, 0.05230131, -0.034023374, 0.03485633, -0.00044377727, -0.016954802, -0.04917033, 0.03472745, 0.03143997, -0.043503083, 0.05141034, 0.06650789, -0.009470089, -0.003146237, -0.012075713, -1.3361219e-05, -0.028247692, 0.024363559, 0.03618365, -0.05213198, -0.010682567, 0.048405234, -0.009649059, -0.0014693715, -0.046052698, -0.034498837, -0.027289243, -0.00841355, 0.0317646, 0.0014927788, 0.056336917, 0.057521984, 0.01938247, -0.037049923, 0.026299775, 0.030210938, -0.030798841, -0.010183897, -0.058462758, 0.04801095, 0.015626738, 0.0010917857, 0.02705215, 0.029568726, -0.010421599, 0.0031457895, 0.02891003, -0.028887898, 0.057153918, -0.052540373, -0.017740611, 0.06490855, 0.04581186, 0.0148292715, 0.083430044, -0.031119471, 0.075575106, 0.04470687, 0.022505302, -0.03470896, 0.04187688, -0.01042966, -0.0013760669, 0.03257796, -0.009881921, -0.036321394, -0.01364037, -0.039566085, 0.01704219, -0.001048118, -0.06989789, 0.06540868, 0.04686591, 0.049105063, -0.048094433, -0.018939234, 0.021653393, -0.05701155, -0.07441868, -0.068943314, 0.00028699206, 0.011727998, 0.074323304, -0.002350146, 0.032177564, 0.026558828, 0.0348948, 0.040339082, -0.050517503, -0.027190376, -0.013185593, -0.009017012, 0.015151096, -0.024466878, -0.05067982, -0.018285874, -0.029633997, -0.010394106, 0.042439368, -0.04262367, -0.05280672, 0.054784406, -0.022969473, 0.053313367, -0.00019661884, -0.04714409, 0.01921994, -0.009573393, -0.03581382, 0.027821453, 0.062242042, 0.050836448, -0.011747224, -0.04287658, 0.011949791, 0.0066501736, 0.03549174, 0.0152704185, 0.010703915, -0.022056287, -0.024006562, 0.06471429, -0.071305126, 0.04184103, 0.0067392723, -0.062823124, 0.018151173, 0.014528156, -0.017927187, -0.021427913, 0.044635862, -0.04425399, 0.05261907, 0.05300103, 0.14701794, -6.0799066e-06, -0.024932338, 0.025998443, 0.01317184, 0.02207336, -0.057850137, -0.01586166, -0.018798238, -0.048008826, 0.046906922, 0.033618152, -0.013893923, -0.07037314, -0.045649726, 0.085971996, -0.007573347, 0.033106696, 0.033056322, 0.07514582, 0.061379705, -0.017453099, 0.0072490913, 0.023876775, -0.088835984, 0.005625637, 0.07136358, -0.043592818, 0.002556225, 0.029227193, -0.016203327, -0.06338395, -0.04108864, 0.021668497, 0.0105416635, 0.07949803, 0.00055947475, -0.04396412, 0.008200684, -0.05580449, -0.05380982, 0.003757293, 0.011248722, 0.077795625, -0.020400178, 0.04724285, 0.016082535, 0.02268402, -0.01022745, -0.02732355, 0.0073890276, 0.006371913, 0.008708701, 0.02470323, 0.02563644, 0.06931133, -0.037004773, 0.026376104, -0.01682074, 0.015656913, -0.039019264, -0.0013250905, -0.0054991166, 0.05851093, -0.00047836333, -0.050785594, -0.07118123, 0.023700511, 0.009455051, 0.04805748, -0.0687168, 0.03917543, 0.007956378, -0.012181621, 0.028648626, -0.011450983, -0.09022593, -0.007961673, -0.005223314, -0.015216359, 0.041819908, 0.05962376, -0.025552783, -0.0049592317, -0.069000974, -0.0061187157, 0.005196831, 0.1223064, -0.005864555, 0.016187621, 0.025198093, 0.011679427, -0.023344977, -0.039140217, -0.042505402, -0.011637556, -0.010124433, -0.024929691, -0.024131106, -0.009968534, 0.036919855, -0.06050544, -0.04757869, -0.017398696, -0.04654982, -0.010410783, -0.0070035816, 0.0065209875, 0.050314035, 0.0011538188, 0.040392112, -0.032926954, -0.03449394, 0.020554855, 0.007356835, 0.03659237, -0.03825267]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>2018</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>정다은</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>수원</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>oleogel and hydrocolloid
-on the quality attributes of meat patties</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Combined effects of oleogel and hydrocolloid on the quality attributes of meat patties</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Recently, oleogelation that converts liquid vegetable oil to solid like gel without changing its chemical composition, is in the spotlight as an alternative way to replace saturated fat and the meat product industry is no exception Therefore, this study aimed to reduce the level of saturated fat in meat patties by applying oleogel as a solid fat (beef tallow) replacer, and additionally to improve their quality attributes with the assistance of hydrocolloids Various hydrocolloid solutions (guar gum, carboxymethyl cellulose, carrageenan, xanthan gum, gellan gum, and alginate, 0 3 and 0 5 w/w) were mixed with beeswax oleogel Beef tallow in the formulation of meat patties was replaced with each oleogel hydrocolloid blend at a level of 60 When the viscosities of the oleogel hydrocolloid beef tallow mixtures were measured, the highest viscosities were observed in xanthan gum and guar gum mixtures This tendency was in accordance with the cooking loss of the meat patties, showing that the patty sample with xanthan gum had the lowest cooking loss, followed by the guar gum sample Thus, these results may provide useful information for the meat industry to develop healthier and higher quality products</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>[-0.049468726, 0.075811364, 0.009008152, 0.0131015675, 0.10739718, -0.018824229, 0.017798008, -0.099285156, 0.015767632, 0.040185623, -0.09549811, -0.06843201, 0.013868161, 0.0047800173, -0.022029331, 0.041741014, -0.03927089, 0.0808259, 0.045076154, -0.016568264, -0.03663764, -0.006806461, -0.0042927996, 0.012327985, 0.0155250495, 0.0050923084, 0.0324189, 0.01963436, -0.046931636, -0.028499337, 0.025974877, -0.074205406, -0.032014985, -0.04647775, -0.033407453, -0.029374437, 0.086085476, 0.044281248, -0.03896877, 0.040049564, -0.011637608, 0.05006231, 0.077764496, 0.016069995, 0.02210899, -0.03818099, 0.041334048, -0.0013794347, -0.03718068, 0.0015919537, 0.020963686, -0.012218265, 0.016189853, 0.006038994, 0.09510656, -0.031115765, -0.077468075, -0.061938137, -0.02516305, 0.0072817025, 0.010215667, -0.059639778, -0.042391285, 0.0153326355, 0.029205874, -0.026804212, -0.009116304, 0.05981352, 0.0827219, -0.023434265, -0.07683497, 0.020917721, 0.034919407, 0.03909027, -0.03671467, -0.04388168, 0.00765336, -0.026200874, 0.0024779958, -0.008099259, -0.00018830411, -0.017027788, 0.103791796, -0.0053545376, -0.020642232, 0.09323897, 0.024563609, 0.008645237, 0.00918723, 0.0012896305, 0.034532268, -0.017449107, 0.12581356, 0.018788261, 0.031224133, 0.014693335, 0.0054030833, 0.09050907, 0.034648836, 0.078428924, 0.018236207, 0.017356325, 0.017296558, 0.037673872, 0.032029748, -0.011483421, 0.030486839, 0.01373871, 0.045686215, 0.026647927, -0.018870447, -0.07821473, -0.038566057, 0.053101666, -0.011065569, 0.07375186, -0.006104028, 0.0712578, 0.010843303, -0.042065807, 0.04469921, -0.09918565, 0.012800421, -0.034774523, 0.0021686403, 0.0752704, -0.01576932, 0.0406052, 0.0032191186, -0.038743366, -0.03305867, 0.028189855, -0.04902108, -0.01502436, 0.0077312263, -0.036403142, 0.04943892, 0.036816586, 0.063210785, -0.029461747, -0.041087322, 0.0015593463, 0.0062365653, -0.026481139, 0.005206087, 0.09663187, -0.027247254, -0.010820082, -0.012960712, -0.012471771, -0.068076424, -0.016149001, -0.09957988, 0.023679601, -0.0023614469, -0.04819016, -0.047810897, -0.0060938853, 0.033797484, -0.03832753, -0.04343727, 0.046543133, -0.092054546, 0.026362265, 0.026898233, 0.038377162, 0.0819562, -0.03244339, -0.059635412, 0.0028661448, -0.04502279, -0.00568346, 0.021505628, 0.03679703, -0.051215723, -0.07066504, -0.014121992, 0.016980812, -0.0028945585, -0.026865333, -0.015574671, 0.026046364, 0.041638944, 0.015468192, 0.02574849, 0.015171278, 0.055306833, -0.049737226, -0.105839334, -0.057310592, -0.02005985, -0.01719815, 0.011481285, -0.009055688, -0.015793223, 0.015901854, 0.01951737, -0.07728503, -0.042064182, -0.011794605, -0.106309354, -0.013149207, 0.11676881, -0.03987512, 0.096637666, -0.05968048, 0.040226977, -0.0051640156, 0.021176793, 0.037506286, 0.0024768973, 0.05094827, 0.036704708, 0.008053628, -0.02484452, -0.06472329, -0.014256506, -0.006473842, 0.0052404418, -0.0054139215, -0.088373035, 0.02053708, -0.02772623, 0.02007597, -0.037618283, 0.02419542, 0.00037999565, -0.02029267, -0.051392455, -0.018375518, 0.015057483, -0.075202696, -0.013279765, -0.019177571, 0.035313375, -0.041315313, -0.0053187143, 0.015290333, 0.045464203, 0.08653166, -0.0069574206, -0.02816365, -0.0493635, 0.0030341716, 0.040845368, 0.024660317, -1.6445527e-05, -0.06344601, -0.03425022, -0.04300177, -0.042669106, 0.040965505, 0.029908968, 0.03685817, 0.05431389, 0.03185711, 0.01666423, 0.025412014, -0.023674011, 0.050962083, -0.071417145, 0.04396106, 0.05620902, -0.002955653, 0.013085939, -0.06048985, 0.015572054, 0.07701336, -0.008684263, -0.015015439, -0.015675595, 0.012576766, 0.053829495, 0.05192243, -0.08468991, -0.01040041, -0.025084369, -0.0804738, -0.0072599286, -0.084517084, -0.01935642, 0.0022867909, 0.009627456, 0.060831714, 0.012750123, -0.04279575, -0.038131993, 0.015163696, 0.02051337, -0.06490687, 0.047406327, -0.064263664, 0.022999724, -0.04020593, -0.059309673, 0.03827332, -0.026853602, 0.009435553, 0.0010240461, -0.014777174, -0.050250474, -0.0057648947, 0.04983097, 0.024409367, -0.016550118, 0.026288332, 0.025426991, -0.038593695, 0.00051850075, -0.028929014, -0.03272773, 0.01288509, 0.10173344, 0.047343954, 0.034654718, 0.04120826, 0.014520252, 0.044960063, -0.021049973, 0.005145011, -0.018172607, -0.009207228, -0.03276032, -0.0018505156, -0.053112898, 0.01344138, -0.06902036, -0.015691826, -0.023958113, -0.00061059516, -0.00038487322, -0.0073105153, 0.049036488, 0.018080499, -0.013805818, 0.030096749, 0.029554497, -0.020261087, -0.018910702, -0.011955532, -0.058369968, -0.0029576914, 0.045976307, 0.018485779, -0.03068286, -0.034153543, 0.059990928, 0.1598001, -0.01059164, -0.041766286, 0.019382805, -0.01601079, 0.0008300867, 0.060452282, 0.013667325, -0.026155235, 0.030416384, 0.004301156, 0.021552136, -0.03915374, 0.076914206, 0.04610177, -0.015069127, -0.0027943875, 0.028823745, -0.018570386, -0.052703362, -0.005969419, -0.038362358, -0.057328597, -0.0064849076, -0.0018702598, -0.018482437, 0.0047688996, -0.07206849, -0.031389654, -0.0280378, 0.016029032, -0.0018329357, 0.018531138, -0.015674353, 0.029947592, 0.03663346, -0.10889458, -0.05307536, 0.0070726494, -0.08073361, 0.060692232, 0.055623125, -0.011137442, -0.056774087, 0.0245141, 0.05779743, -0.015196487, 0.00056689844, 0.07501315, -0.01823311, 0.022042587, -0.020349538, -0.017088652, 0.057800703, 0.001495424, 0.0590734, 0.046348475, -0.043485224, 0.07370507, 0.037784714, -0.016780706, 0.067040846, 0.080198534, 0.057852823, -0.011305948, -0.01157601, 0.05037779, -0.030938527, -0.005020534, -0.036287416, -0.07272157, 0.008327193, -0.022151323, -0.0328477, 0.01305325, -0.027622117, 0.047668356, 0.040091485, -0.014438817, 0.044626392, -0.06291815, 0.010571428, -0.036077898, 0.011156452, 0.00302926, -0.015240474, -0.021781856, -0.033648502, 0.019851133, 0.012015034, -0.016351905, 0.003303355, 0.020122455, 0.018378492, -0.019308241, -0.004989407, 0.06900855, 0.05445251, 0.0009401001, 0.019325437, 0.059510686, -0.0056350445, 0.011720242, -0.005595708, 0.01037807, 0.021198897, 0.032704063, 0.004278546, -0.0656261, -0.06242489, 0.09627169, 0.038684573, -0.0045474297, 0.0016452348, 0.007825269, -0.034121398, 0.046203747, 0.040299393, -0.054115985, -0.02030676, -0.00064213085, -0.0846831, -0.041797712, -0.07525233, -0.027723663, -0.016791394, -0.030018685, -0.017640749, -0.047475893, -0.034009777, -0.016552327, -0.045488115, -0.04097494, 0.02233555, -0.08917659, 0.08701954, -0.05044316, -0.071905516, -0.0033741954, 0.033601463, 0.044586524, 0.0076848646, -0.06351482, -0.04025001, 0.010381049, -0.01532532, -0.007995237, -0.013891292, -0.016661966, -0.054870434, 0.03877451, 0.0067156404, -0.015943386, -0.010695786, -0.007941085, -0.014717334, -0.032084107, -0.023130778, -0.059380364, -0.021483885, -0.010773732, -0.017136147, 0.031861823, -0.030552203, -0.014444371]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-0.049468722, 0.07581135, 0.009008137, 0.013101553, 0.107397206, -0.018824216, 0.017798016, -0.09928513, 0.015767654, 0.040185638, -0.095498115, -0.06843201, 0.013868133, 0.00478003, -0.022029322, 0.041741, -0.0392709, 0.0808259, 0.045076154, -0.016568232, -0.03663766, -0.0068064667, -0.0042928183, 0.012327979, 0.015525038, 0.005092329, 0.032418896, 0.019634388, -0.04693163, -0.028499328, 0.02597488, -0.07420539, -0.03201498, -0.046477735, -0.033407453, -0.029374437, 0.08608545, 0.044281237, -0.038968757, 0.04004957, -0.011637602, 0.050062314, 0.07776448, 0.016069977, 0.022108985, -0.038181, 0.04133402, -0.0013794361, -0.037180703, 0.0015919597, 0.02096371, -0.012218255, 0.01618987, 0.0060389778, 0.09510655, -0.031115757, -0.07746807, -0.061938122, -0.025163049, 0.00728172, 0.010215692, -0.059639763, -0.04239129, 0.015332634, 0.029205874, -0.026804205, -0.009116291, 0.0598135, 0.08272192, -0.023434253, -0.07683499, 0.020917697, 0.0349194, 0.039090283, -0.036714688, -0.04388164, 0.0076533533, -0.026200864, 0.0024779707, -0.008099245, -0.00018831063, -0.017027786, 0.1037918, -0.0053545297, -0.020642228, 0.09323898, 0.024563635, 0.00864525, 0.009187225, 0.001289638, 0.034532234, -0.017449137, 0.12581357, 0.018788284, 0.031224122, 0.014693327, 0.0054030977, 0.09050912, 0.034648832, 0.078428924, 0.018236209, 0.017356336, 0.017296555, 0.03767387, 0.032029763, -0.011483407, 0.030486831, 0.013738716, 0.045686215, 0.026647927, -0.01887046, -0.07821471, -0.038566057, 0.053101674, -0.011065568, 0.07375186, -0.0061040334, 0.0712578, 0.010843281, -0.042065788, 0.044699203, -0.099185646, 0.012800386, -0.03477454, 0.002168649, 0.07527041, -0.015769308, 0.040605184, 0.0032191218, -0.038743347, -0.033058662, 0.028189862, -0.049021088, -0.015024366, 0.0077312156, -0.03640314, 0.04943894, 0.036816575, 0.0632108, -0.02946175, -0.041087303, 0.0015593789, 0.006236583, -0.026481157, 0.005206087, 0.09663187, -0.027247261, -0.010820097, -0.012960712, -0.012471769, -0.06807639, -0.016148986, -0.09957988, 0.023679618, -0.0023614655, -0.048190154, -0.047810894, -0.006093876, 0.033797488, -0.03832753, -0.04343726, 0.04654314, -0.092054546, 0.026362281, 0.02689823, 0.03837715, 0.08195621, -0.032443415, -0.059635397, 0.0028661531, -0.045022793, -0.005683458, 0.021505635, 0.036797035, -0.05121569, -0.07066503, -0.014121978, 0.016980823, -0.0028945557, -0.026865326, -0.015574656, 0.026046334, 0.04163895, 0.015468189, 0.025748521, 0.015171291, 0.055306833, -0.04973725, -0.10583933, -0.057310574, -0.020059828, -0.01719815, 0.011481285, -0.0090557, -0.015793206, 0.01590188, 0.01951737, -0.077285066, -0.042064175, -0.01179457, -0.106309384, -0.013149226, 0.11676878, -0.03987514, 0.09663768, -0.059680473, 0.040227007, -0.005163998, 0.0211768, 0.03750626, 0.0024768705, 0.050948232, 0.036704697, 0.008053645, -0.024844497, -0.064723305, -0.0142565025, -0.006473832, 0.0052404166, -0.0054139285, -0.08837302, 0.020537091, -0.02772626, 0.02007596, -0.037618276, 0.02419542, 0.00037997865, -0.020292655, -0.05139246, -0.018375525, 0.0150574995, -0.075202666, -0.013279741, -0.019177549, 0.035313375, -0.041315336, -0.0053186985, 0.015290329, 0.04546422, 0.08653166, -0.0069574104, -0.028163657, -0.04936347, 0.0030341605, 0.040845387, 0.024660308, -1.6439473e-05, -0.06344603, -0.034250222, -0.043001756, -0.0426691, 0.040965486, 0.029908946, 0.036858167, 0.05431391, 0.0318571, 0.016664224, 0.025412017, -0.023674026, 0.050962083, -0.07141714, 0.043961067, 0.05620901, -0.0029556507, 0.013085946, -0.06048984, 0.015572039, 0.07701341, -0.008684255, -0.015015448, -0.015675606, 0.012576785, 0.053829473, 0.051922422, -0.0846899, -0.01040041, -0.025084354, -0.08047381, -0.007259913, -0.08451707, -0.01935642, 0.002286793, 0.009627447, 0.0608317, 0.0127501, -0.042795755, -0.03813199, 0.0151637085, 0.020513369, -0.06490687, 0.04740629, -0.06426368, 0.02299972, -0.04020593, -0.05930966, 0.038273335, -0.026853606, 0.009435563, 0.0010240326, -0.0147771705, -0.050250463, -0.005764903, 0.049830988, 0.024409346, -0.016550126, 0.026288372, 0.025426978, -0.0385937, 0.00051848724, -0.028929006, -0.032727722, 0.012885062, 0.10173344, 0.047343954, 0.034654703, 0.041208237, 0.014520241, 0.04496005, -0.021049976, 0.005145004, -0.018172605, -0.009207206, -0.032760333, -0.0018505158, -0.053112905, 0.013441384, -0.06902034, -0.01569182, -0.023958111, -0.00061061216, -0.00038486577, -0.0073105264, 0.049036507, 0.018080508, -0.013805798, 0.030096738, 0.029554505, -0.020261101, -0.018910702, -0.011955539, -0.058369976, -0.0029576903, 0.045976296, 0.018485755, -0.030682875, -0.034153555, 0.05999092, 0.1598001, -0.010591646, -0.04176631, 0.019382821, -0.0160108, 0.0008300802, 0.060452253, 0.013667325, -0.026155239, 0.030416386, 0.004301148, 0.021552145, -0.039153717, 0.07691423, 0.04610175, -0.015069091, -0.0027943968, 0.028823737, -0.018570384, -0.052703366, -0.0059694164, -0.038362365, -0.057328574, -0.0064848983, -0.0018702586, -0.018482454, 0.004768901, -0.072068505, -0.031389643, -0.028037785, 0.016029032, -0.0018329618, 0.01853112, -0.015674373, 0.029947594, 0.036633458, -0.108894564, -0.053075362, 0.0070726243, -0.0807336, 0.060692217, 0.05562312, -0.011137433, -0.05677409, 0.02451409, 0.057797443, -0.015196487, 0.0005668662, 0.075013146, -0.018233117, 0.022042591, -0.02034953, -0.017088652, 0.057800695, 0.0014954091, 0.059073385, 0.046348486, -0.04348526, 0.07370507, 0.037784733, -0.016780693, 0.06704085, 0.08019851, 0.057852823, -0.011305952, -0.011575999, 0.050377782, -0.030938534, -0.005020548, -0.036287412, -0.07272156, 0.008327189, -0.022151316, -0.032847717, 0.013053233, -0.027622102, 0.04766836, 0.040091455, -0.014438832, 0.044626392, -0.06291817, 0.010571445, -0.036077883, 0.011156448, 0.0030292668, -0.015240485, -0.021781825, -0.033648495, 0.019851113, 0.012015041, -0.016351897, 0.0033033676, 0.020122442, 0.018378478, -0.01930823, -0.0049894303, 0.06900855, 0.054452505, 0.00094011036, 0.019325426, 0.05951063, -0.005635041, 0.011720246, -0.00559568, 0.010378037, 0.021198882, 0.0327041, 0.004278556, -0.065626115, -0.06242487, 0.096271664, 0.0386846, -0.0045474577, 0.0016452227, 0.007825287, -0.034121394, 0.046203755, 0.040299416, -0.054115985, -0.020306787, -0.00064212433, -0.08468308, -0.041797712, -0.07525232, -0.027723651, -0.016791383, -0.030018682, -0.01764073, -0.04747588, -0.034009762, -0.016552329, -0.045488104, -0.040974975, 0.022335576, -0.08917659, 0.08701954, -0.050443154, -0.0719055, -0.003374189, 0.03360147, 0.04458653, 0.0076848906, -0.06351482, -0.040250003, 0.01038103, -0.015325303, -0.007995237, -0.013891322, -0.01666197, -0.054870423, 0.03877451, 0.006715653, -0.015943376, -0.010695788, -0.0079410905, -0.014717328, -0.03208412, -0.023130797, -0.059380364, -0.021483885, -0.010773718, -0.017136123, 0.031861816, -0.030552214, -0.014444351]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>2018</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>오민수</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>수원</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Enhancement of
-rutin content in buckwheat flour
-by various hydrothermal treatments</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Enhancement of rutin content in buckwheat flour by various hydrothermal treatments</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Buckwheat Fagopyrum esculentum is a functionally superior crop with a lot of flavonoid compounds, specially rutin During processing, the rutin in the buckwheat is converted to quercetin by rutin degrading enzyme, which results in an increase in bitter taste as well as a lower levels of rutin This phenomenon takes place severely in tartary buckwheat Fagopyrum tataricum that contains more rutin than common buckwheat, probably limiting its uses in processed foods
 Therefore, the technology to minimize rutin loss in buckwheat flour is needed to accelerate the utilization of buckwheat flour in a variety of food products Thus, this study was carried out to investigate the effects of various hydrothermal treatments ( boiling, autoclaving) on the levels of rutin and quercetin in different milling fractions of tartary buckwheat Overall, the hydrothermal treatment inactivated the rutin degrading enzyme, consequently minimizing the rutin loss
 Thus, quercetin was hardly detected in the hydrothermal treated samples when mixed with water The highest content of rutin was observed in the autoclaved samples, followed by the boiled and steamed samples In particular, the autoclaving were the most effective at increasing the rutin content Thus, this study can aid to maximize the health effect of buckwheat flour by maintaining its, probably encouraging the food industry to develop various buckwheat processed foods</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>[0.00807443, -0.010747295, 0.0988607, 0.0039243205, 0.077099144, -0.028001927, -0.019299801, 0.03191968, 0.047159586, 0.0388861, -0.033231802, 0.00509518, 0.026262311, 0.083399005, -0.030870778, 0.026797852, 0.018570952, -0.008515294, -0.011268407, 0.058399387, -0.04114934, -0.0021397679, -0.07665561, 0.04743139, 0.045310114, 0.017973887, 0.0511138, 0.022238884, -0.035796538, 0.016087996, 0.019958204, -0.01693449, -0.006424028, -0.025999457, 0.019694889, -0.011285785, 0.0069180643, -0.035471175, 0.07268786, 0.0024084342, -0.053678278, -0.0852305, 0.05468117, 0.04361646, 0.009210579, -0.028623916, 0.016173663, -0.009412488, -0.055971894, -0.032576337, -0.01183868, 0.07440676, 0.0128414165, 0.030219393, 0.05219136, -0.04653498, -0.063688695, -0.018405342, 0.007558101, 0.03137975, 0.036093343, -0.010612415, -0.009908174, -0.032907657, -0.014950018, -0.0730295, -0.018433873, 0.028557489, 0.0690381, 0.013864014, -0.015602156, 0.0059844577, 0.044240195, -0.021871125, -0.07608969, -0.058143314, 0.043172132, 0.022081008, -0.026253905, -0.031031111, -0.060407862, -0.07403529, 0.06064673, -0.084154695, -0.071711056, 0.055468023, 0.016913429, 0.040126, 0.015019016, 0.015711421, 0.036600575, 0.032096863, 0.09106097, -0.026785495, 0.038911045, 0.034070417, 0.16440594, 0.038270768, 0.05717773, -0.04419932, -0.0063178693, 0.05679696, -0.0629767, 0.030215036, -0.021462547, 0.025986137, 0.019498646, 0.019406186, -0.027102586, -0.02243273, -0.005794108, -0.053840388, 0.0660369, -0.02559551, 0.019976424, 0.06263716, 0.023114365, 0.09497539, 0.03657798, 0.0872566, 0.019684946, -0.0065731867, -0.023243926, 0.07220023, -0.009397376, 0.059428822, 0.016736122, 0.0021649825, 0.02327243, -0.055736236, -0.032611314, 0.05102183, 0.003183382, 0.011881734, 0.032954507, 0.06859419, -0.0029812134, 0.008974259, -0.0074706743, -0.028991958, 0.0051908256, -0.0063023814, -0.0033940542, -0.063583456, 0.030216392, -0.031147547, -0.037136767, -0.01426616, 0.02845189, -0.00829342, -0.0121910535, -0.019369554, 0.0035849926, -0.0028018313, 0.000791516, -0.07837719, 0.027123822, -0.06670955, -0.085210696, -0.060845975, -0.027861044, -0.028098436, -0.018042868, 0.028851787, 0.036087222, -0.047542427, 0.07073495, 0.030702181, 0.02636043, -0.052494984, -0.024099186, 0.01725469, -0.019855233, -0.054266933, 0.06635138, -0.024280922, -0.011701345, -0.060912237, 0.011259767, -0.048937008, -0.0060736258, 0.012043721, 0.021181107, -0.0075075687, 0.0028050146, -0.051309846, 0.0884387, -0.0015946063, 0.08282448, -0.05121046, -0.06478712, 0.045280807, 0.049567025, 0.0135063445, -0.006216106, 0.051166974, -0.060496178, -0.07472382, 0.073765405, 0.0027840182, -0.06833134, 0.06404684, 0.059857037, -0.011737148, 0.041610535, -0.0036702582, -0.021300947, 0.007511486, -0.024453042, -0.0033163975, -0.056512967, -0.010156007, -0.011553852, -0.019383386, 0.011591811, 0.0053195176, -0.006288361, -0.023880329, 0.0065243784, 0.025235891, 0.07727376, 0.0035001659, -0.08948058, 0.06468369, -0.045693222, 0.008709523, 0.04702395, 0.02149968, -0.020980017, 0.030849691, 0.052896846, -0.069699936, -0.047186982, 0.037688863, 0.01651821, 0.029799104, 0.024554335, 0.035102174, 0.005353054, 0.11402201, -0.034045525, -0.043576032, 0.048317894, 0.0018098074, 0.0056367563, 0.015061819, 0.046798613, -0.051394053, -0.02244408, -0.023558402, -0.049869545, 0.0059479238, 0.037955802, -0.060034696, -0.025157377, -0.020658176, 0.059326097, -0.017135527, -0.019937947, -0.07222512, -9.494845e-05, 0.012033902, -0.058214996, -0.031811707, 0.036132623, 0.019634375, 0.008346904, 0.009813761, 0.03256717, -0.0061367447, -0.011240307, 0.084303536, -0.03100685, 0.016262345, -0.052207764, 0.021127185, 0.0043033343, -0.09944116, 0.008464139, -0.06406594, -0.0156484, -0.012436926, -0.0072210142, -0.030534446, -0.031192042, 0.0030235024, -0.027407734, -0.0027738188, -0.011467467, -0.08263283, -0.008729021, -0.06408063, 0.029196087, 0.0022901644, -0.098233454, 0.07218583, 0.02639733, 0.047824766, -0.05235776, -0.04814435, -0.01928221, 0.017135466, -0.020158388, 0.041181833, 0.00018358277, 0.011927402, 0.052097574, 0.018353468, -0.053467985, 0.026994394, -0.036087107, 0.010841653, 0.034120258, 0.0725849, -0.01993782, 0.03986109, 0.019790305, -0.002365605, -0.025124522, -0.0042276606, 0.017122488, 0.07128273, -0.07774544, -0.024541026, 0.02198663, 0.054713815, 0.017302608, -0.04345172, -0.052374274, 0.025826223, 0.021308325, 0.011277876, -0.0023103347, -0.016538778, -0.028874693, -0.02468148, 0.029813088, 0.008346774, -0.012541421, -0.0044245496, -0.021236274, 0.057451185, -0.02556856, 0.026834887, -0.049522474, -0.0354584, -0.013007821, 0.025441388, -0.035456054, -0.037976008, 0.024405245, -0.0040423376, 0.0022466732, -0.0013500919, 0.018108768, 0.040119186, -0.03899274, 0.01664797, 0.05350139, -0.037994552, 0.05377877, -0.038171146, 0.008603405, 0.030901035, 0.058315158, 0.0060054944, -0.021686167, -0.0411138, -0.02694566, -0.031287998, 0.020667126, -0.001498646, -0.020855136, 0.028728623, 0.0040727123, 0.021210242, -0.06054139, 0.03236972, 0.06299016, -0.009775462, -0.051040705, -0.00031377294, -0.026250333, -0.08931762, 0.009192787, 0.019591387, -0.075180806, 0.052113146, -0.028971007, -0.042406198, -0.013203314, 0.07169815, 0.018760359, 0.057215694, -0.029809225, 0.051956747, -0.04135766, 0.0057225083, -0.0569109, -0.058032423, 0.02490966, 0.040662225, -0.025005063, 0.011653441, 0.02989923, -0.021497715, 0.06092461, -0.014645918, 0.028148612, -0.02844792, 0.023575164, -0.016655814, -0.0031652262, 0.04301089, 0.010700025, -0.009053413, 0.020024741, 0.053204026, 0.062130217, 0.033326887, -0.01940429, -0.006414068, 0.03636156, 0.014156686, -0.038480002, -0.022492338, 0.028477013, -0.051148027, 0.020842904, 0.0076256343, -0.06274764, -0.09961649, 0.005914424, -0.0046660234, -0.014313968, 0.057673674, 0.0063427016, 0.0562625, 0.014103289, 0.008372709, 0.01749538, -0.06969169, -0.018377736, 0.028369471, -0.015133188, -0.045474995, -0.027318679, 0.031946417, -0.03251228, -0.0016112113, -0.045187887, 0.06470714, 0.06184961, -0.0036745921, 0.024229616, -0.056829467, 0.016485449, 0.007350412, 0.018347355, -0.012313491, 0.034557357, 0.019863512, 0.06526733, -0.009043574, -0.022420017, -0.034753058, -0.011127834, -0.026855784, -0.00077557255, -0.012558466, -0.010373823, 0.03597477, 0.045807313, 0.0031474228, -0.03885438, -0.0024440566, -0.04734446, 0.013160786, 0.03179195, -0.03597837, 0.0020863807, -0.003003649, 0.06372266, 0.015712611, -0.02196564, 0.070386566, -0.03422252, 0.021564888, 0.006621342, -0.0010525483, -0.01532397, -0.0035166338, -0.017103137, -0.030129567, 0.011123998, 0.06588652, -0.023352763, -0.03038803, 0.014803293, -0.017271275, 0.035167646, 0.015015641, -0.043935873, -0.023418358, -0.055325072, -0.04075084, 0.033943407, 0.009771472, -0.10729881, 0.005372495, 0.038285043, 0.024802284]</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[0.008074424, -0.010747311, 0.09886069, 0.0039243093, 0.07709916, -0.028001921, -0.019299801, 0.03191967, 0.047159586, 0.038886115, -0.033231802, 0.0050951857, 0.026262326, 0.08339899, -0.03087079, 0.026797859, 0.018570956, -0.008515305, -0.011268411, 0.058399387, -0.04114934, -0.0021397446, -0.07665561, 0.04743139, 0.045310114, 0.017973894, 0.051113784, 0.022238879, -0.035796534, 0.016088014, 0.01995821, -0.01693449, -0.006424033, -0.025999445, 0.019694867, -0.011285792, 0.006918107, -0.03547121, 0.07268784, 0.0024084472, -0.053678278, -0.08523049, 0.0546812, 0.043616466, 0.009210587, -0.028623931, 0.016173663, -0.009412471, -0.0559719, -0.03257634, -0.011838663, 0.07440674, 0.012841418, 0.030219384, 0.052191354, -0.046534996, -0.0636887, -0.018405367, 0.0075581027, 0.031379737, 0.03609335, -0.010612427, -0.009908164, -0.032907654, -0.014950018, -0.0730295, -0.018433884, 0.028557485, 0.0690381, 0.013863983, -0.015602173, 0.0059844595, 0.044240195, -0.021871127, -0.0760897, -0.05814329, 0.04317212, 0.022081012, -0.026253916, -0.031031124, -0.06040787, -0.074035294, 0.06064674, -0.0841547, -0.071711056, 0.055468015, 0.016913438, 0.040126007, 0.01501902, 0.01571142, 0.036600567, 0.03209687, 0.091060966, -0.026785502, 0.038911067, 0.03407043, 0.16440594, 0.03827076, 0.057177726, -0.044199318, -0.0063178744, 0.056796975, -0.062976725, 0.030215036, -0.02146257, 0.025986128, 0.019498646, 0.0194062, -0.027102582, -0.022432733, -0.005794122, -0.053840388, 0.066036895, -0.025595522, 0.019976405, 0.062637135, 0.023114389, 0.094975375, 0.036577985, 0.087256595, 0.019684948, -0.006573174, -0.023243912, 0.07220019, -0.00939737, 0.059428837, 0.016736105, 0.0021649709, 0.023272427, -0.055736236, -0.03261134, 0.051021848, 0.0031833798, 0.011881733, 0.03295452, 0.06859421, -0.0029812069, 0.008974279, -0.0074706525, -0.028991958, 0.005190805, -0.006302388, -0.0033940757, -0.06358347, 0.030216403, -0.031147543, -0.037136775, -0.014266157, 0.028451918, -0.008293407, -0.0121910535, -0.019369556, 0.003584977, -0.0028018143, 0.0007914983, -0.07837721, 0.027123848, -0.06670954, -0.08521067, -0.060845945, -0.027861033, -0.028098455, -0.018042888, 0.028851787, 0.036087204, -0.047542404, 0.07073496, 0.030702177, 0.02636042, -0.05249498, -0.024099182, 0.017254693, -0.019855237, -0.054266937, 0.06635139, -0.024280915, -0.011701352, -0.060912244, 0.011259751, -0.048937, -0.006073625, 0.0120437415, 0.021181084, -0.0075075445, 0.0028050193, -0.05130986, 0.088438705, -0.0015946045, 0.08282447, -0.05121048, -0.06478712, 0.0452808, 0.04956702, 0.013506337, -0.0062161144, 0.051166974, -0.06049616, -0.07472382, 0.07376539, 0.002784012, -0.06833135, 0.06404684, 0.05985704, -0.011737171, 0.041610554, -0.0036702652, -0.021300934, 0.007511511, -0.02445303, -0.0033164143, -0.056512993, -0.010156008, -0.011553845, -0.019383373, 0.011591803, 0.0053195176, -0.0062883585, -0.023880336, 0.00652438, 0.025235903, 0.07727373, 0.003500181, -0.089480594, 0.06468369, -0.04569324, 0.008709536, 0.047023933, 0.021499677, -0.020980036, 0.030849693, 0.05289686, -0.06969991, -0.047187008, 0.037688874, 0.016518205, 0.029799122, 0.024554357, 0.03510218, 0.0053530466, 0.11402202, -0.034045532, -0.043576047, 0.048317883, 0.0018098209, 0.005636771, 0.015061834, 0.046798635, -0.05139407, -0.02244409, -0.023558417, -0.049869526, 0.0059479424, 0.037955817, -0.060034644, -0.025157396, -0.020658165, 0.059326094, -0.017135516, -0.019937932, -0.072225094, -9.4952586e-05, 0.01203391, -0.058214962, -0.031811733, 0.036132604, 0.01963438, 0.008346936, 0.009813779, 0.032567192, -0.006136757, -0.01124031, 0.08430355, -0.03100685, 0.01626234, -0.052207775, 0.021127172, 0.004303338, -0.09944117, 0.008464127, -0.06406595, -0.01564839, -0.012436898, -0.0072210217, -0.030534443, -0.031192057, 0.0030235006, -0.027407734, -0.0027738262, -0.011467465, -0.08263285, -0.0087290285, -0.06408065, 0.029196078, 0.002290143, -0.09823346, 0.07218583, 0.02639734, 0.047824785, -0.052357744, -0.048144344, -0.0192822, 0.01713546, -0.020158403, 0.041181844, 0.0001835844, 0.011927416, 0.052097574, 0.018353444, -0.053467985, 0.026994376, -0.036087096, 0.010841653, 0.034120243, 0.072584905, -0.019937832, 0.039861068, 0.019790318, -0.0023655875, -0.025124518, -0.0042276694, 0.017122481, 0.071282715, -0.07774542, -0.024541056, 0.021986637, 0.054713797, 0.01730262, -0.043451708, -0.05237428, 0.02582621, 0.021308314, 0.011277888, -0.002310343, -0.016538776, -0.028874684, -0.024681475, 0.029813083, 0.008346796, -0.012541443, -0.0044245482, -0.021236299, 0.057451196, -0.025568571, 0.026834881, -0.04952248, -0.03545839, -0.013007827, 0.025441382, -0.035456043, -0.037976015, 0.024405224, -0.0040423255, 0.002246662, -0.0013500947, 0.018108746, 0.04011918, -0.038992748, 0.016647968, 0.05350142, -0.037994545, 0.053778775, -0.038171116, 0.008603385, 0.03090104, 0.058315147, 0.0060055037, -0.02168617, -0.04111381, -0.026945662, -0.03128799, 0.020667117, -0.0014986465, -0.020855142, 0.028728612, 0.0040727057, 0.021210227, -0.060541388, 0.03236972, 0.06299016, -0.0097754635, -0.051040735, -0.00031376584, -0.026250333, -0.08931763, 0.009192774, 0.019591378, -0.075180806, 0.05211313, -0.028970985, -0.0424062, -0.013203321, 0.07169814, 0.018760372, 0.057215672, -0.029809218, 0.051956747, -0.04135767, 0.005722539, -0.056910887, -0.05803243, 0.024909647, 0.040662225, -0.02500506, 0.011653453, 0.029899241, -0.021497723, 0.060924597, -0.014645909, 0.028148614, -0.02844794, 0.02357515, -0.01665581, -0.0031652132, 0.0430109, 0.010700051, -0.009053388, 0.02002475, 0.053204067, 0.06213023, 0.0333269, -0.019404303, -0.0064140735, 0.036361553, 0.01415669, -0.038480002, -0.02249233, 0.02847701, -0.051148023, 0.020842899, 0.0076256334, -0.06274761, -0.09961648, 0.005914447, -0.004666023, -0.014313977, 0.057673644, 0.006342736, 0.056262493, 0.014103283, 0.008372729, 0.017495375, -0.069691695, -0.018377732, 0.028369453, -0.015133175, -0.045475, -0.027318671, 0.031946387, -0.032512307, -0.0016112207, -0.045187887, 0.06470712, 0.061849613, -0.0036745828, 0.024229605, -0.056829438, 0.016485432, 0.007350401, 0.018347358, -0.012313496, 0.034557357, 0.019863524, 0.065267354, -0.009043567, -0.022420002, -0.03475305, -0.011127832, -0.026855772, -0.0007755744, -0.012558478, -0.010373853, 0.03597477, 0.045807272, 0.0031474202, -0.03885437, -0.0024440575, -0.047344483, 0.013160788, 0.031791944, -0.035978388, 0.0020864068, -0.0030036557, 0.06372265, 0.015712598, -0.02196565, 0.070386566, -0.03422253, 0.021564903, 0.006621332, -0.001052586, -0.015323973, -0.0035166224, -0.017103137, -0.030129585, 0.011123976, 0.06588655, -0.023352772, -0.030388048, 0.014803299, -0.017271288, 0.035167646, 0.01501563, -0.043935873, -0.023418361, -0.055325072, -0.040750854, 0.033943422, 0.009771459, -0.1072988, 0.005372497, 0.038285032, 0.024802297]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>2018</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>한국산업식품공학회</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>김희수</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>수원</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Effect of simulated chewing conditions with artificial saliva
-on the oral breakdown of corn starch gels</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Effect of simulated chewing conditions with artificial saliva on the oral breakdown of corn starch gels</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>Chewing is a physiological process whereby foods in the mouth are degraded with saliva into a bolus, and the chewing behaviors are significantly related to the breakdown of foods, consequently influencing their digestions In this study,
 the chewing process was simulated by incorporating artificial saliva food interaction into instrumental measurements and measured by the changes of texture under the different chewing conditions (the number of chewing, chewing speed, and the amount of artificial saliva) The simulated chewing system was composed of a texture analyzer and artificial saliva spraying box with two ultrasonic oscillators The disruptive patterns of corn starch gels by successive compressions and enzymatic degradation by artificial saliva were monitored during the simulated chewing process The correlations were established in the log plot of peak chewing force and time The degradation rates of corn starch
@@ -2731,1452 +3857,358 @@
 different chewing environmental conditions, probably contributing to understanding various chewing environments for developing the elderly diets</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>[-0.02772384, 0.05003932, 0.018498456, -0.03670306, 0.100271784, -0.06038078, -0.014655176, -0.14057079, -0.005550985, 0.033523608, -0.05607518, -0.060758196, 0.012521414, -0.000423094, 0.01403042, 0.031697594, 0.038702324, -0.0026400897, 0.01954053, -0.04895726, -0.0023502328, 0.01797136, -0.028202955, 0.035664245, -0.007424391, 0.042274818, 0.041675713, -0.0077375304, -0.054785512, 0.011848512, 0.022398781, 0.035737928, 0.04585709, 0.026994098, 0.046090234, -0.021566985, 0.007786497, -0.045545373, -0.0013187416, 0.00030569313, -0.054983027, 0.00540145, -0.038078263, 0.016238453, 0.08506152, -0.014785393, 0.040815827, 0.023687553, -0.027239807, 0.04210129, -0.0127525125, -0.024491563, -0.064068936, -0.0062276684, 0.046378765, 0.009278326, -0.07188034, -0.074390955, -0.024582464, 0.04087457, -0.04752292, -0.065183066, -0.03768507, 0.01699229, 0.010604859, 0.0020771613, -0.028408619, 0.014175193, 0.017289534, -0.01312878, 0.014734349, -0.025025282, 0.095413566, -0.020173876, -0.08205018, 0.048158977, 0.020480864, 0.0049356464, -0.06762889, -0.024162725, 0.007055356, -0.05767469, 0.08933542, 0.011554452, -0.03592144, 0.075879306, 0.017374957, 0.004264198, 0.0033173286, -0.02289213, 0.027119642, 0.05148086, 0.13241214, 0.018218227, 0.017442953, 0.0005117058, 0.03944853, 0.05020068, 0.016401077, 0.066901825, -0.049142376, 0.037628222, -0.033308182, -0.0019266707, -0.0053694462, 0.026109735, 0.06568601, 0.014124255, -0.030725006, -0.0037406997, 0.01824496, -0.07941391, -0.007773406, -0.01529962, 0.010193203, 0.06893413, 0.0353919, 0.019522585, -0.025975315, -0.009493838, 0.0061047105, 0.07291526, -0.041042626, 0.060432315, -0.020038823, -0.006383921, 0.011068677, 0.03075893, -0.022713065, -0.0975621, 0.025777688, 0.021799196, 0.02869236, 0.0283078, -0.038289856, 0.009481432, -0.05357543, 0.047916345, -0.014895417, 0.01005575, 0.019920224, 0.02874379, 0.05337344, -0.03835114, 0.01879165, -0.041256797, 0.019716997, 0.0005535036, -0.052932404, -0.050138216, 0.050793182, 0.06148807, -0.009455659, -0.017571975, -0.040410627, -0.060709625, -0.05227249, -0.020190194, -0.03125259, 0.010888054, 0.053138897, -0.014575476, -0.04248323, 0.05386083, 0.02213436, -0.021203298, 0.07076931, 0.03597515, 0.08244462, 0.019077027, 0.009815879, -0.01445567, 0.026270004, -0.012348307, 0.054974984, -0.0117179025, -0.050306246, -0.04934106, 0.02408796, 0.012322192, 0.01383545, -0.020257572, 0.02791351, -0.017144576, 0.009002092, -0.047713872, 0.043224942, -0.03544045, 0.054205265, 0.01882671, 0.019600008, -0.02446919, 0.048290003, -0.055671904, -0.07037622, 0.058165237, 0.01471095, -0.010942725, -0.016373692, -0.031573627, -0.050931215, 0.011464869, 0.027446993, -0.033104476, 0.06287312, -0.01147633, -0.010736306, 0.062793404, 0.032533467, -0.058788247, -0.03816357, 0.030758582, 0.05331318, -0.079544835, 0.019555476, -0.016910676, -0.010035485, -0.063241884, 0.08294628, -0.012056268, 0.01674954, 0.030179188, 0.02912002, 0.09991072, -0.08121428, -0.000118193915, 0.039117623, 0.061032955, -0.06954424, -0.030334981, 0.024162935, -0.030208891, 0.027595557, 0.017256923, 0.039053675, 0.081787005, -0.027368382, -0.06316336, 0.008420507, 0.068030745, -0.05994986, 0.037385512, -0.054019168, -0.024098765, 0.060674824, 0.012559891, 0.021843038, -0.010643974, -0.02564254, -0.045939196, -0.049121477, 0.054366745, -0.02801415, -0.05251091, -0.0006613141, -0.015252798, 0.08305525, -0.047675572, -0.0025617282, 0.0030874899, 0.024910603, -0.017207235, 0.017192535, 0.0016652358, -0.00024054316, -0.11383268, -0.027119905, 0.011227867, -0.02173023, -0.0065846425, -0.044112302, 0.053190723, 0.042031284, 0.037343044, -0.042793307, -0.045328572, -0.083391964, -0.014074511, -0.0040885643, 0.03995917, 0.09989077, -0.005741501, 0.013448128, -0.016880749, -0.08222799, -0.010786623, 0.027273867, -0.01885096, -0.019558102, -0.03285215, 0.00351545, -0.02875003, 0.08599074, -0.0085903825, -0.06950727, 0.047118943, 0.029814165, 0.0054834997, -0.014079649, -0.047775406, -0.0050334563, 0.05157149, -0.04828783, 0.049505524, 0.022262232, -0.029690806, 0.06687368, -0.021181526, -0.028488599, 0.027892899, -0.047996294, 0.066895865, 0.0055005243, 0.06291002, -0.09398212, -0.012483882, -0.050677016, 0.0239714, 0.013226938, -0.008629605, 0.0993752, -0.011312164, 0.06904866, -0.05008494, -0.0046259253, -0.020471925, -0.017726544, -0.056525692, -0.05426132, 0.036919452, 0.03335624, 0.015309773, -0.036380738, 0.014214794, -0.03805627, 0.036746178, 0.0027449727, 0.011767029, -0.051374964, 0.018288128, -0.028300265, -0.042105433, -0.0010623579, -0.004536863, -0.0028063704, 0.03892522, 0.081763186, 0.071927294, -0.023136446, -0.023798222, 0.03198534, -0.0154916765, 0.012961165, -0.010602032, -0.013715018, 0.03344183, -0.049077712, -0.020249607, 0.04330205, 0.0129598, -0.01116461, -0.028942624, 0.057082284, -0.009671027, -0.042005725, -0.014030998, -0.078372896, -0.0049936813, -0.0228143, -0.031384915, -0.06524621, 0.07198688, -0.019802645, 0.029440591, 0.016155828, -0.041232962, 0.022413524, 0.014072129, 0.03833241, 0.041718118, 0.024904145, 0.010103116, 0.01547894, -0.036801588, 0.04548484, -0.017142368, -0.09121775, 0.040870525, -0.06402786, -0.000223952, 0.0099323485, 0.06032631, 0.032672513, 0.032501027, -0.0035237726, 0.045622617, 0.0023147566, 0.029024567, -0.016163325, -0.0021302365, 0.03543933, 0.075196676, -0.012199864, -0.09491156, 0.03815858, 0.018537391, 0.013239582, 0.00864165, -0.020988176, 0.031511415, 0.025361214, 0.012707192, 0.07217375, 0.030051742, -0.00431052, 0.03626498, 0.004525197, 0.07926029, 0.010105747, -0.107743286, -0.036142018, 0.041370682, -0.08821348, 0.03412292, 0.02224572, -0.08198599, 0.013468602, -0.020315424, 0.037469845, -0.017368753, 0.07798698, 0.007018725, 0.013897936, -0.025231443, -0.033003386, -0.0020762421, 0.07522994, -0.0063032266, -0.043786272, 0.027031949, -0.0031406106, -0.013269002, 0.010265701, -0.017934356, 0.002998206, -0.052997675, -0.022246925, 0.0141955055, -0.012472229, 0.011162294, 0.037257556, 0.008691977, 0.013510877, -0.008376613, -0.0064197974, -0.06835146, -0.06413124, 0.022483857, -0.0048011276, -0.038879737, -0.0049126563, 0.0020192936, 0.08120069, 0.096029684, 0.0109365955, -0.042015854, 0.026736166, 0.018488513, 0.008098226, 0.01902578, -0.051902447, 0.026788758, 0.03127578, -0.057903543, -0.09730018, 0.041020762, -0.014492319, -0.01907404, -0.0050720703, -0.012038781, 0.011849427, 0.08632246, 0.09481488, 0.04048081, -0.0040940954, 0.03691806, 0.013962876, -0.017358212, 0.008213277, -0.014787125, -0.03210978, 0.018387858, -0.027440017, 0.008412717, 0.008767112, -0.003971029, -0.029861888, -0.00035666823, 0.041567665, -0.021738676, 0.03439251, -0.07282996, -0.04678332, 0.02273606, -0.063158564, -0.035911947, 0.024145812, 0.024475193, -0.09969371, 0.016094234, 0.017511854, -0.03243009]</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-0.027723849, 0.050039332, 0.018498449, -0.03670306, 0.10027179, -0.06038077, -0.014655193, -0.14057082, -0.0055510122, 0.0335236, -0.056075238, -0.060758214, 0.012521403, -0.00042308957, 0.014030418, 0.031697605, 0.038702343, -0.0026400976, 0.019540519, -0.048957266, -0.0023502288, 0.01797135, -0.028202951, 0.03566423, -0.0074244095, 0.04227482, 0.041675717, -0.007737537, -0.054785516, 0.011848492, 0.022398772, 0.035737943, 0.04585708, 0.026994132, 0.04609025, -0.021566967, 0.0077865203, -0.045545366, -0.0013187472, 0.00030568196, -0.054983027, 0.0054014744, -0.038078256, 0.016238498, 0.08506152, -0.014785389, 0.040815867, 0.023687547, -0.027239826, 0.042101298, -0.012752509, -0.024491537, -0.06406893, -0.0062277056, 0.04637875, 0.009278314, -0.071880355, -0.074390955, -0.024582481, 0.040874597, -0.047522932, -0.06518304, -0.03768509, 0.016992293, 0.010604882, 0.0020771548, -0.028408604, 0.014175195, 0.017289542, -0.013128784, 0.014734345, -0.025025284, 0.09541357, -0.020173874, -0.082050174, 0.048158992, 0.020480867, 0.004935663, -0.067628905, -0.024162699, 0.0070553655, -0.057674687, 0.089335404, 0.011554444, -0.035921447, 0.075879306, 0.017374983, 0.0042641764, 0.0033173207, -0.022892106, 0.02711966, 0.051480852, 0.13241212, 0.018218216, 0.017442947, 0.0005116965, 0.039448522, 0.05020067, 0.016401088, 0.06690182, -0.04914238, 0.03762823, -0.033308182, -0.0019266555, -0.0053694504, 0.026109744, 0.06568602, 0.014124271, -0.030725017, -0.0037407076, 0.018244961, -0.079413906, -0.007773416, -0.015299605, 0.010193193, 0.06893411, 0.03539191, 0.01952258, -0.025975298, -0.009493853, 0.0061047263, 0.07291527, -0.041042633, 0.060432304, -0.020038826, -0.0063839126, 0.011068663, 0.030758934, -0.02271306, -0.09756209, 0.025777688, 0.021799203, 0.028692355, 0.02830781, -0.038289852, 0.009481403, -0.053575445, 0.047916334, -0.014895401, 0.010055744, 0.01992023, 0.02874381, 0.05337345, -0.038351145, 0.018791657, -0.041256797, 0.019717032, 0.00055346865, -0.052932397, -0.050138187, 0.050793204, 0.061488055, -0.009455674, -0.017571988, -0.040410597, -0.06070961, -0.052272502, -0.020190202, -0.03125254, 0.010888056, 0.053138915, -0.014575496, -0.042483225, 0.05386084, 0.022134349, -0.0212033, 0.07076931, 0.035975162, 0.08244464, 0.019077053, 0.009815883, -0.014455688, 0.026269997, -0.0123483, 0.054974977, -0.011717899, -0.05030624, -0.049341068, 0.024087947, 0.012322202, 0.013835449, -0.020257557, 0.027913503, -0.01714459, 0.0090021, -0.047713876, 0.043224946, -0.035440456, 0.054205257, 0.018826718, 0.01960003, -0.024469193, 0.04829, -0.055671897, -0.07037623, 0.05816525, 0.01471094, -0.010942736, -0.016373698, -0.031573605, -0.050931204, 0.011464865, 0.027447013, -0.03310446, 0.062873125, -0.011476331, -0.010736319, 0.062793404, 0.03253346, -0.05878825, -0.0381636, 0.03075857, 0.053313196, -0.07954481, 0.019555468, -0.016910683, -0.010035479, -0.0632419, 0.08294625, -0.0120562585, 0.016749533, 0.03017918, 0.029120019, 0.09991073, -0.08121424, -0.00011819857, 0.03911761, 0.061032955, -0.06954424, -0.030334985, 0.024162915, -0.030208899, 0.02759557, 0.017256929, 0.03905366, 0.08178704, -0.027368367, -0.06316335, 0.008420508, 0.068030745, -0.059949867, 0.037385512, -0.054019187, -0.024098799, 0.06067484, 0.01255991, 0.021843052, -0.01064398, -0.02564256, -0.045939196, -0.049121484, 0.05436675, -0.028014123, -0.052510917, -0.0006612943, -0.015252796, 0.083055265, -0.047675606, -0.002561754, 0.0030874955, 0.024910595, -0.017207233, 0.017192546, 0.0016652433, -0.00024055131, -0.1138327, -0.027119905, 0.011227859, -0.021730244, -0.0065846317, -0.044112317, 0.05319072, 0.04203129, 0.037343044, -0.04279331, -0.045328554, -0.08339197, -0.0140744755, -0.0040885652, 0.03995913, 0.09989077, -0.0057415017, 0.013448134, -0.016880775, -0.08222799, -0.0107866125, 0.027273867, -0.018850949, -0.019558093, -0.032852158, 0.0035154426, -0.028750043, 0.08599073, -0.008590358, -0.069507256, 0.047118943, 0.029814178, 0.0054835314, -0.014079651, -0.04777538, -0.0050334386, 0.05157151, -0.04828786, 0.049505513, 0.02226224, -0.0296908, 0.06687372, -0.021181554, -0.028488614, 0.027892912, -0.047996305, 0.06689584, 0.0055005164, 0.06291001, -0.09398213, -0.012483867, -0.050677028, 0.023971463, 0.013226942, -0.008629605, 0.09937523, -0.01131217, 0.069048665, -0.05008495, -0.00462593, -0.020471914, -0.017726582, -0.056525715, -0.05426132, 0.036919467, 0.033356227, 0.015309768, -0.036380745, 0.014214805, -0.03805627, 0.036746208, 0.0027449627, 0.011767027, -0.051374972, 0.018288117, -0.028300261, -0.04210543, -0.0010623628, -0.0045368555, -0.0028063885, 0.038925193, 0.08176319, 0.07192731, -0.023136463, -0.023798196, 0.031985335, -0.015491647, 0.012961154, -0.010602037, -0.0137150055, 0.03344186, -0.04907771, -0.020249585, 0.04330204, 0.01295981, -0.011164628, -0.02894264, 0.057082277, -0.009671044, -0.042005714, -0.014030988, -0.07837292, -0.004993688, -0.02281429, -0.031384923, -0.06524621, 0.07198686, -0.01980264, 0.029440565, 0.016155822, -0.041232962, 0.022413524, 0.014072113, 0.038332433, 0.041718125, 0.024904149, 0.010103111, 0.015478938, -0.036801606, 0.04548483, -0.017142367, -0.09121778, 0.040870503, -0.064027846, -0.00022393384, 0.009932328, 0.06032634, 0.03267253, 0.032501042, -0.0035237633, 0.045622606, 0.002314772, 0.029024579, -0.01616331, -0.002130224, 0.035439327, 0.07519667, -0.012199866, -0.094911575, 0.038158603, 0.018537395, 0.013239604, 0.008641639, -0.02098814, 0.031511407, 0.02536121, 0.012707178, 0.072173744, 0.030051742, -0.0043105134, 0.036264986, 0.0045252, 0.0792603, 0.010105726, -0.10774329, -0.036142003, 0.04137067, -0.088213496, 0.034122925, 0.022245727, -0.08198598, 0.013468617, -0.02031542, 0.03746985, -0.01736877, 0.077986956, 0.00701872, 0.013897936, -0.025231406, -0.033003353, -0.0020762156, 0.07522996, -0.006303243, -0.043786284, 0.027031964, -0.0031406255, -0.013269022, 0.010265712, -0.017934358, 0.002998185, -0.052997682, -0.022246914, 0.0141955, -0.012472214, 0.0111623015, 0.03725756, 0.008691973, 0.013510868, -0.008376637, -0.0064198053, -0.06835147, -0.06413127, 0.022483854, -0.0048011406, -0.03887973, -0.004912635, 0.002019289, 0.081200704, 0.0960297, 0.010936611, -0.042015843, 0.02673617, 0.018488523, 0.008098215, 0.019025778, -0.051902447, 0.026788773, 0.031275798, -0.057903506, -0.09730018, 0.041020762, -0.014492332, -0.019074036, -0.0050720875, -0.012038798, 0.01184944, 0.08632243, 0.09481487, 0.040480807, -0.004094068, 0.03691806, 0.013962882, -0.0173582, 0.008213269, -0.014787101, -0.032109767, 0.01838786, -0.027439995, 0.008412752, 0.008767094, -0.003971031, -0.029861873, -0.00035665798, 0.041567676, -0.021738673, 0.034392513, -0.072829984, -0.046783336, 0.02273607, -0.06315857, -0.035911944, 0.02414579, 0.024475185, -0.09969374, 0.016094211, 0.017511861, -0.0324301]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>2018</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>오민수</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Reduction of rutin loss in buckwheat flour
-by thermal treatments</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Reduction of rutin loss in buckwheat flour by thermal treatments</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>Buckwheat is known to be high in flavonoid compounds, specifically rutin that is not found in other cereals. Therefore, buckwheat is considered to be the only crop for rutin intake. However, rutin in buckwheat is easily lost during processing by conversion into quercetin with a bitter taste by rutindegrading enzyme. Thus, this study was carried out to reduce the rutin loss in buckwheat flour by inactivating the rutin-degrading enzyme with a variety of thermal treatments. When buckwheat seeds were separated into three different fractions (hull, bran, and flour) based on particle size, the bran fraction showed the highest contents of rutin. However, the addition of water dramatically increased the levels of quercetin and rutin was hardly detected. However, after buckwheat flour was thermally treated, the rutin loss was distinctly minimized. Thus, it appeared that the thermal treatments were effective in preventing the rutin loss in buckwheat flour. Therefore, this study can aid in applying buckwheat to various food products with beneficial health effects derived from rutin</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>[-0.010495527, -0.051687982, 0.10610471, -0.0019290744, 0.1244831, -0.0061021573, 0.016846774, -0.057480976, 0.052508704, 0.04434638, -0.03173612, -0.039767597, -0.021900177, 0.065716945, -0.02413292, 0.0136865275, 0.0037604403, -0.0046215835, 0.06796822, 0.009346213, -0.014297441, -0.01676445, -0.060181063, 0.031141784, 0.0699395, 0.005344533, -0.029554203, 0.018981561, -0.01316183, -0.0337071, 0.023234338, -0.060814425, 0.010195632, 0.0046239602, 0.008780075, -0.023606908, -0.007928636, -0.07831594, 0.0907539, -0.0027548503, -0.097731315, -0.043589935, 0.0058393124, 0.04129742, 0.016283331, -0.018409992, -0.017687922, -0.017270964, -0.068684556, -0.021499436, -0.0037878854, 0.05648371, 0.050592553, 0.08317424, 0.024979573, -0.026489256, -0.057430036, -0.0043248697, 0.025709609, -0.008753447, 0.03506149, -0.0126504665, -0.043464165, -0.047543135, -0.022878654, -0.044215053, 0.023047902, 0.027248973, 0.00500584, -0.010988693, -0.0058245054, -0.012150821, -0.01578517, -0.04742152, -0.047066238, -0.056328766, 0.0076312833, -0.00395172, -0.046910517, -0.054492753, -0.05120013, -0.09120097, -0.000450141, -0.053904764, -0.049527932, 0.046871763, 0.02979667, 0.038791228, 0.006993271, -0.013345612, 0.037982307, 0.013395095, 0.076821506, 0.0039962586, 0.029871773, 0.045349732, 0.12330185, 0.04409156, 0.06983831, 0.004399847, -0.012603355, 0.10838328, -0.041374568, -0.0018042596, -0.03297489, 0.03957341, -0.0040055877, 0.0005229371, 0.014820601, -0.02834605, -0.010283224, -0.049792547, 0.01994325, -0.029663784, 0.030927407, 0.07287259, 0.0334412, 0.064651854, 0.034363724, 0.08225404, 0.053705852, 0.026472086, -0.0038664406, 0.08757421, -0.017161408, 0.009280488, 0.014466883, 0.015873902, -0.015326324, -0.040294554, 0.00237054, 0.046688803, -0.02970209, 0.011215158, 0.018387381, 0.10143221, 0.03465165, 0.035509642, 0.017905222, -0.055832967, -0.0066594635, -0.041701216, 0.02978787, -0.10557677, -0.050241053, -0.006969356, -0.07007292, -0.056530934, -0.027278958, -0.032391943, -0.017495515, -0.014176552, 0.015414796, -0.061254665, -0.01424037, -0.07563174, 0.011364311, -0.030747676, -0.0697179, -0.045248654, -0.005887827, -0.03546026, -0.011426921, 0.0118188625, -0.017612295, -0.055791736, 0.061981242, 0.02623062, 0.020812009, 0.024907984, -0.046576772, -0.004897874, 0.025596961, -0.051985666, 0.027148422, -0.024480345, -0.013999927, -0.0728731, 0.04700411, -0.071463846, 0.017851243, -0.021588579, 0.030744568, -0.010642144, -0.0059196674, -0.031978037, 0.064542554, 0.023246897, 0.04833669, -0.011009591, -0.061616313, 0.05286362, 0.033467766, -0.001899011, -0.0036236434, 0.036281053, -0.03634567, -0.06019185, 0.050612032, 0.047453925, -0.015691837, 0.068676144, 0.072922915, -0.03793254, 0.052494034, 0.0075879954, -0.0043455395, 0.0071775713, 0.033766992, -0.009178128, -0.05780732, -0.015660103, -0.0010649449, -0.014447339, 0.020061312, 0.0051393323, -0.021969145, -0.024508143, -0.012509075, -0.020092743, 0.06643562, 0.010782586, -0.041104753, 0.0329692, -0.023715826, -0.008994897, 0.061769947, 0.03818202, -0.0016572018, -0.009914949, 0.046153985, -0.0064833728, -0.017177183, 0.0018149927, -0.0066118306, 0.0389202, -0.0059932843, 0.01923359, 0.0038655458, 0.09268177, -0.039052404, -0.035835143, 0.035528757, 0.044190772, 0.021596571, 0.026005046, 0.031525094, -0.0015912441, -0.035427973, -0.026156139, -0.04890431, 0.051218633, 0.009621958, -0.029662278, 0.028610907, 0.015098517, 0.042169835, -0.029072054, -0.072003916, -0.0759498, -0.0008449686, 0.010776153, -0.016959066, 0.024097068, 0.07059324, 0.025356093, 0.019826824, -0.0035393818, 0.02611783, 0.008763955, 0.0012565722, 0.06249766, -0.026934572, 0.04248503, -0.024540236, 0.05695416, -0.0073177554, -0.10215049, 0.03739374, -0.02785395, -0.026960915, -0.009361631, 0.029137919, -0.093145214, -0.028018791, -0.017814612, -0.04428015, 0.01860192, -0.051512275, -0.09153747, -0.019398611, -0.009765168, 0.02775041, -0.0017053604, -0.060885035, 0.05629126, 0.034641303, 0.09547104, -0.020619797, 0.007423542, 0.04367953, 0.019124001, -0.014254532, 0.050162014, 0.0033377951, -0.03925774, 0.04004586, 0.03345242, 0.019186843, 0.0228323, -0.020811196, -0.015648581, 0.022197077, 0.027337162, -0.04824055, 0.043878898, -0.027074384, 0.001217655, -0.05243623, -0.007042636, 0.01625472, 0.04509507, -0.055986498, -0.00083984353, -0.07873297, 0.05471948, -0.040309355, -0.016279452, -0.061477996, 0.03232243, 0.035749868, 0.021430619, 0.00016988139, 0.00035966779, -0.042345747, -0.009545962, 0.008393507, -0.0052756104, -0.017933397, 0.010781316, -0.033929233, 0.0005375024, -0.039557833, 0.039266508, -0.03844566, -0.0012409348, 0.026966624, 0.0014693477, -0.03055866, -0.03933707, -0.001382316, -0.008977459, 0.030725416, -0.02524323, -0.011981151, 0.015651768, -0.054959923, -0.02837298, 0.05467603, -0.03824174, 0.016918123, -0.040675815, 0.035248157, 0.010520014, 0.05822617, 0.0048125423, 0.004455799, -0.05601008, -0.022648986, -0.021978222, -0.021793557, 0.0372849, -0.017650872, 0.039203927, 0.014223443, -0.025277793, -0.080560446, -0.0161333, 0.05865026, -0.032096636, -0.01615666, 0.009400378, 0.020554697, -0.070331775, 0.015532724, -0.024173694, -0.09455383, 0.020032218, -0.040220644, -0.04459389, 0.012760522, 0.048553627, -0.008400631, 0.035475813, -0.015128816, 0.03924642, -0.0816614, 0.006669478, -0.09847499, -0.035909038, 0.02753628, -0.005093989, -0.022951677, 0.01363387, 0.016070979, -0.03198269, 0.040864855, 0.002427822, 0.03297163, -0.07455221, -0.009744864, 0.0037688485, 0.028743785, 0.023384864, 0.039831452, -0.0108570205, 0.012596269, 0.0713248, 0.033847723, 0.019685559, -0.0010890067, 0.00079024705, 0.00910241, 0.047873583, -0.017771905, -0.034489162, 0.008979003, -0.053805552, 0.011869972, -0.03339587, -0.08341501, -0.07548099, -0.000469516, -0.016315255, 0.0047154287, 0.06323352, 0.012650815, 0.08575762, 0.061508264, 0.007794242, -0.004821358, -0.09439667, -0.058105063, 0.025870746, -0.009086658, 0.054292455, -0.058218837, 0.025260821, 0.023537356, -0.017237568, -0.0049322816, 0.030598873, 0.03160826, 0.0007206396, 0.06477999, -0.06947309, 0.008282805, 0.0023611833, 0.019780591, -0.050029647, 0.02956209, -0.017154517, 0.07746989, -0.014104928, 7.378887e-05, -0.06944548, -0.05948633, -0.012774027, -0.006918258, -0.01086752, -0.02960824, 0.034017317, 0.021812033, 0.0042101475, 0.025585951, -0.017430134, 0.010639161, -0.04673861, 0.057719246, -0.0061199493, 0.034100726, -0.0347671, 0.013047313, 0.0013902311, -0.030800018, 0.042364195, -0.010093108, 0.04366239, -0.005943451, 0.027111514, -0.032580588, -0.011672436, -0.046991494, -0.030333182, -0.008084374, 0.035548728, -0.020252584, -0.0074872896, 0.015092433, 0.016219253, 0.012902401, 0.022908412, -0.020648833, -0.043727443, -0.02448616, -0.044943664, 0.051562577, -0.022961017, -0.089791335, -0.021829965, 0.007817031, 0.0024994933]</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-0.010495519, -0.051688, 0.1061047, -0.0019290586, 0.1244831, -0.0061021466, 0.016846757, -0.05748099, 0.052508697, 0.04434639, -0.031736106, -0.039767623, -0.0219002, 0.065716974, -0.02413293, 0.013686526, 0.0037604189, -0.004621595, 0.0679682, 0.009346186, -0.014297444, -0.016764447, -0.060181063, 0.031141782, 0.06993955, 0.0053445124, -0.02955418, 0.018981572, -0.013161831, -0.033707086, 0.02323433, -0.060814425, 0.0101956455, 0.0046239584, 0.0087800585, -0.023606906, -0.007928664, -0.078315966, 0.09075392, -0.0027548568, -0.097731315, -0.043589953, 0.005839303, 0.041297413, 0.016283331, -0.018410008, -0.017687945, -0.017270949, -0.06868457, -0.021499444, -0.003787876, 0.056483693, 0.050592545, 0.083174266, 0.024979554, -0.026489278, -0.057430033, -0.0043248683, 0.025709612, -0.008753442, 0.035061494, -0.012650465, -0.04346417, -0.047543142, -0.022878654, -0.044215053, 0.023047917, 0.027248954, 0.0050058495, -0.010988704, -0.005824487, -0.012150801, -0.015785191, -0.04742152, -0.047066234, -0.056328777, 0.0076312935, -0.003951717, -0.046910502, -0.05449275, -0.05120013, -0.09120097, -0.00045013332, -0.05390475, -0.04952794, 0.04687177, 0.02979667, 0.038791243, 0.006993267, -0.013345608, 0.03798231, 0.01339509, 0.076821506, 0.0039962484, 0.029871767, 0.04534974, 0.12330188, 0.044091538, 0.06983829, 0.004399845, -0.012603358, 0.108383305, -0.04137456, -0.0018042673, -0.032974903, 0.039573397, -0.0040055783, 0.0005229434, 0.01482062, -0.028346062, -0.010283209, -0.049792517, 0.019943267, -0.029663822, 0.0309274, 0.07287256, 0.03344117, 0.06465185, 0.03436374, 0.08225405, 0.053705834, 0.026472097, -0.0038664374, 0.0875742, -0.017161418, 0.009280499, 0.014466905, 0.015873903, -0.015326348, -0.040294543, 0.0023705398, 0.0466888, -0.029702097, 0.011215159, 0.018387366, 0.1014322, 0.03465166, 0.035509624, 0.017905239, -0.055832945, -0.006659459, -0.041701213, 0.029787857, -0.105576746, -0.05024105, -0.0069693476, -0.07007291, -0.056530938, -0.027278943, -0.032391928, -0.01749552, -0.014176561, 0.015414796, -0.06125467, -0.01424038, -0.07563173, 0.011364298, -0.030747669, -0.06971791, -0.045248657, -0.005887827, -0.035460237, -0.011426936, 0.011818859, -0.017612295, -0.055791743, 0.061981227, 0.026230631, 0.020812, 0.024907999, -0.046576764, -0.004897887, 0.025596963, -0.051985674, 0.027148424, -0.024480341, -0.013999921, -0.07287308, 0.047004092, -0.07146385, 0.01785124, -0.021588584, 0.030744534, -0.010642122, -0.005919687, -0.03197805, 0.06454256, 0.023246905, 0.04833667, -0.011009581, -0.061616328, 0.052863628, 0.033467773, -0.0018990501, -0.003623628, 0.03628104, -0.03634568, -0.06019188, 0.050612032, 0.047453936, -0.015691837, 0.068676144, 0.07292291, -0.037932534, 0.052494034, 0.0075879893, -0.0043455265, 0.007177562, 0.033766996, -0.009178134, -0.057807337, -0.015660124, -0.0010649472, -0.014447356, 0.020061294, 0.0051393453, -0.021969141, -0.024508167, -0.012509056, -0.020092743, 0.066435635, 0.0107825855, -0.041104734, 0.032969214, -0.023715828, -0.008994916, 0.061769933, 0.03818204, -0.001657192, -0.0099149505, 0.046153996, -0.0064833662, -0.017177207, 0.001814983, -0.0066118324, 0.03892017, -0.0059932964, 0.01923358, 0.0038655486, 0.092681795, -0.03905239, -0.03583517, 0.03552877, 0.044190772, 0.021596575, 0.026005045, 0.031525128, -0.0015912376, -0.03542797, -0.026156137, -0.04890431, 0.0512186, 0.009621959, -0.029662278, 0.028610894, 0.015098505, 0.042169817, -0.029072024, -0.07200393, -0.075949796, -0.0008449707, 0.010776175, -0.016959094, 0.024097098, 0.070593245, 0.025356097, 0.019826831, -0.0035394046, 0.02611781, 0.008763937, 0.0012565885, 0.06249766, -0.026934566, 0.042485017, -0.02454024, 0.05695417, -0.0073177554, -0.10215049, 0.03739373, -0.027853932, -0.026960934, -0.009361605, 0.02913792, -0.093145244, -0.028018778, -0.017814608, -0.04428017, 0.018601937, -0.05151228, -0.09153747, -0.019398613, -0.009765198, 0.027750405, -0.001705338, -0.06088505, 0.056291252, 0.03464132, 0.09547104, -0.020619808, 0.007423551, 0.043679543, 0.019123986, -0.01425455, 0.050162014, 0.0033377898, -0.039257724, 0.04004584, 0.033452418, 0.019186825, 0.022832323, -0.02081119, -0.015648581, 0.022197071, 0.027337153, -0.04824054, 0.043878883, -0.027074376, 0.0012176681, -0.05243623, -0.007042622, 0.01625471, 0.045095075, -0.05598651, -0.00083982793, -0.07873296, 0.0547195, -0.040309366, -0.016279466, -0.061478004, 0.032322414, 0.03574988, 0.021430617, 0.00016989815, 0.0003596664, -0.042345747, -0.00954597, 0.008393504, -0.005275618, -0.017933417, 0.010781311, -0.03392925, 0.00053748285, -0.039557833, 0.039266527, -0.038445666, -0.0012409404, 0.02696665, 0.0014693473, -0.030558681, -0.039337058, -0.0013823123, -0.008977477, 0.030725423, -0.02524324, -0.011981149, 0.015651746, -0.054959927, -0.028372966, 0.054676037, -0.038241733, 0.01691814, -0.04067581, 0.035248164, 0.01052002, 0.05822618, 0.0048125503, 0.004455789, -0.056010067, -0.022648968, -0.021978205, -0.02179355, 0.037284877, -0.01765087, 0.03920391, 0.014223446, -0.025277786, -0.080560446, -0.016133292, 0.058650266, -0.032096617, -0.01615665, 0.00940039, 0.020554693, -0.07033179, 0.015532731, -0.024173671, -0.09455383, 0.020032214, -0.040220626, -0.044593886, 0.012760513, 0.04855364, -0.008400634, 0.035475805, -0.015128842, 0.039246447, -0.08166141, 0.0066694734, -0.098474994, -0.035909057, 0.027536279, -0.005094009, -0.022951681, 0.013633868, 0.016070975, -0.031982698, 0.040864855, 0.0024278052, 0.03297163, -0.07455224, -0.009744867, 0.0037688646, 0.028743785, 0.023384864, 0.03983145, -0.010857008, 0.012596287, 0.0713248, 0.03384773, 0.019685552, -0.0010890091, 0.00079025776, 0.009102408, 0.047873586, -0.01777191, -0.034489177, 0.008979007, -0.053805567, 0.011869985, -0.03339587, -0.083415, -0.07548099, -0.00046952718, -0.016315257, 0.004715427, 0.063233525, 0.012650806, 0.0857576, 0.06150827, 0.007794228, -0.0048213615, -0.09439669, -0.05810507, 0.025870742, -0.0090866545, 0.05429243, -0.058218844, 0.025260832, 0.023537358, -0.017237546, -0.004932291, 0.030598892, 0.03160823, 0.0007206424, 0.064780004, -0.069473095, 0.008282796, 0.0023612047, 0.019780595, -0.05002964, 0.029562099, -0.017154552, 0.077469885, -0.014104917, 7.379725e-05, -0.06944548, -0.059486315, -0.012774042, -0.0069182576, -0.0108675165, -0.029608248, 0.03401733, 0.021812059, 0.0042101434, 0.025585953, -0.017430153, 0.01063917, -0.046738643, 0.057719238, -0.0061199353, 0.03410075, -0.034767106, 0.01304731, 0.0013902199, -0.030800022, 0.04236422, -0.010093069, 0.043662395, -0.00594344, 0.027111512, -0.032580588, -0.011672435, -0.046991494, -0.030333195, -0.008084374, 0.035548728, -0.020252584, -0.007487291, 0.015092437, 0.016219264, 0.012902418, 0.022908423, -0.020648815, -0.04372746, -0.024486156, -0.04494369, 0.051562592, -0.02296103, -0.08979136, -0.02182996, 0.007817036, 0.0024994905]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>2018</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>정성민</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Dielectric frequency response of wheat noodles
-with different moisture contents</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dielectric frequency response of wheat noodles with different moisture contents</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>A drying process is necessary for long-term storage of instant noodles. However, conventional drying methods like deep-frying and air-drying have several disadvantages such as lipid oxidation and long drying time. Therefore, there is an urgent need to develop alternative drying methods like one using dielectric heating. Dielectric properties of a material play important roles in the utilization of dielectric heating since they are related to how the material interacts with electromagnetic energy. In this study, wheat noodles with different moisture contents were prepared using dielectric heating and the contacting electrode method was applied to characterize their dielectric properties in different radio frequency range (5-30 Hz). Wheat noodles with higher moisture contents exhibited higher dielectric properties (ε’, ε”), and penetration depth (Pd). All the properties showed a decreasing tendency with increasing frequency and eventually became similar. The dielectric properties at 12% moisture were estimated through an exponential regression analysis. The results of this study provided fundamental information for better understanding of dielectric properties of instant noodles.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>[0.025897974, 0.053593397, 0.0033328298, -0.019314531, 0.10785227, 0.04367772, -0.028781848, -0.016331397, 0.006234163, 0.026200064, -0.114488155, 0.025690166, 0.0013297807, 0.011307839, -0.030449465, 0.038958292, -0.003888675, 0.004323763, 0.061557453, 0.013965326, -0.020916246, -0.03550253, -0.018115759, 0.0077294973, 0.10128518, -0.0040791486, 0.062066093, 0.010943436, 0.022037094, 0.041831166, 0.020445148, -0.02155824, 0.01957233, -0.015442574, -0.0069723404, -0.0020001717, 0.005307736, -0.05651465, 0.03948177, -0.020701913, -0.08465048, 0.03399882, -0.036572516, 0.042938996, -0.013954428, 0.016994959, -0.0025608335, -0.017568674, -0.075381994, 0.0046783746, 0.07699563, 0.012768234, 0.04229151, 0.064353295, 0.08038491, 0.012122694, -0.060672067, 0.003464351, -0.04849603, 0.0057076765, -0.06356233, -0.019826338, -0.001394487, -0.026246231, -0.011010814, 0.06459617, 0.07164035, 0.007239246, 0.0010392639, 0.029060936, -0.021795137, 0.032118242, -0.011541493, 0.01473139, -0.046103485, -0.003367442, 0.037655868, -0.009395278, -0.036610853, -0.0319877, -0.008831304, -0.075179, 0.056233324, -0.07393758, -0.027374065, 0.05645718, -0.0038059808, 0.039000884, -0.020054318, -0.0067947796, 0.023927208, -0.030717982, 0.08799406, -0.014671537, 0.047776677, 0.013791861, 0.04792058, 0.081074394, 0.059435662, 0.012872301, 0.014820064, -0.007952896, -0.021074573, 0.04232007, 0.010548836, -0.0060496824, -0.017517202, 0.016631275, 0.030978521, 0.025308508, 0.046697658, -0.0693816, -0.038142763, -0.08903096, -0.015449202, 0.025778843, 0.0128526045, 0.023993047, -0.0091757625, 0.0430595, 0.00016704737, 0.033193994, 0.00034026802, 0.051109392, 0.026029814, 0.038744938, 0.043794576, -0.039510984, -0.02614944, 0.009905066, 0.011079104, 0.029480785, -0.024107236, -0.00017145538, 0.0182988, 0.034670595, -0.016088793, 0.019346446, 0.021139747, 0.036987722, -0.01565416, -0.0010128063, 0.0027584662, -0.04001161, -0.023693625, -0.010534284, -0.06490564, -0.0044899993, 0.032940526, 0.021510964, 0.06064864, 0.064814754, 0.030136723, -0.043506723, -0.015158933, -0.042806506, -0.03163813, 0.01595012, 0.046578087, 0.038683545, -0.010314476, -0.055877127, -0.04602935, 0.035785154, -0.017867161, -0.04854363, 0.10016976, 0.00840372, -0.0185531, 0.057113044, -0.001602679, -0.00029587373, 0.0019333198, 0.009524235, -0.043561105, 0.017155841, -0.025248881, -0.039516613, 0.0286648, 0.03136054, -0.028397748, -0.06310899, 0.034484494, -0.015830422, 0.012247732, 0.008996305, 0.012387891, -0.019402334, 0.031105267, -0.011882253, -0.07116705, -0.05287524, 0.013445752, 0.01490959, -0.01048855, 0.02337364, 0.034802083, -0.011273606, 0.053097025, 0.08132954, 0.07225966, 0.076657005, 0.054261334, -0.01687047, 0.0077463384, -0.0070414576, -0.0045929574, 0.017950233, -0.04872499, 0.031674195, 0.0029993695, 0.042189125, -0.014385513, -0.05957776, 0.038325664, -0.01913063, -0.035125658, -0.05415283, 0.051000897, 0.009628607, 0.020375466, -0.013034332, 0.08761713, 0.057178825, -0.039772052, -0.0025971762, 0.059479084, -0.07271848, -0.034238297, 0.008718133, 0.015398966, -0.0057050264, 0.05419721, -0.0038915453, -0.010198791, 0.04198681, -0.030662876, 0.015073292, 0.07635847, 0.065005876, -0.045637473, -0.049545616, 0.023388252, 0.04320928, -0.07740612, -0.11291827, -0.04145994, -0.029364092, -0.0005470856, 0.018691031, -0.029015772, 0.034525827, -0.045500927, -0.081201494, 0.00954654, -0.0053880303, 0.0040657553, -0.032568492, -0.02322084, 0.034450665, -0.0498777, -0.101468034, 0.012983193, 0.019490028, -0.0049220035, 0.016620383, 0.025751565, -0.0142992195, -0.03413278, 0.017474025, -0.0053304452, -0.05312904, 0.027360912, 0.0720814, 0.035135183, 0.06767619, 0.004012701, -0.028869338, 0.048362926, 0.02442617, 0.008443853, -0.05744202, 0.041985877, -0.061651323, -0.023236513, -0.054402366, -0.027097574, 0.016001903, -0.0059186723, -0.0028598337, 0.0011563662, -0.008519251, 0.08099999, 0.055189535, -0.052668285, 0.034892745, -0.03733912, 0.023520937, 0.016941845, 1.1954457e-05, 0.005178816, -0.032703407, 0.0330102, 0.04745926, 0.021159314, -0.0015945844, 0.0018840771, 0.012336441, 0.016156575, 0.034363993, -0.040960003, -0.011495284, 0.0069619454, 0.029413356, -0.071835905, 0.031344533, -0.04617648, -0.06461006, -0.014954163, 0.015372033, 0.02333889, 0.06787509, -0.006076219, 0.0097244885, -0.033371538, 0.06289395, -0.011323264, 0.028033558, -0.036603674, 0.06425104, 0.02083691, -0.00515725, 0.026055615, -0.03296908, -0.05902443, -0.0987756, -0.018274365, -0.011657431, -0.00909837, -0.012289884, -0.025523549, -0.0013693784, -0.028850408, 0.028781205, -0.035939857, 0.06483163, 0.039154645, 0.050157543, -0.02193131, 0.0031087, 0.010978585, -0.030789323, 0.022969719, -0.011358975, -0.022666011, -0.012652681, -0.044821046, -0.071658835, -0.009543227, 0.024579778, 0.020188576, -0.036978107, -0.015839819, -0.07598251, 0.018854165, -0.006239633, -0.01092404, -0.00039568168, -0.045094285, -0.036442935, 0.030732868, 0.024182972, -0.016145462, 0.03966805, -0.021668976, -0.0089001125, -0.009472621, 0.09629937, 0.025275994, -0.035491854, 0.002754582, 0.021359688, 0.034473486, -0.07655248, -0.052362856, 0.021230122, -0.052440125, 0.09312751, -0.044797383, -0.016888523, 0.03558447, 0.049127366, 0.019116169, 0.0325943, -0.036548425, 0.0011563431, 0.026429122, 0.044877768, -0.0077902004, 0.030542253, 0.020253653, -0.014334811, -0.052436225, -0.017283186, -0.017207246, -0.013461864, -0.010652714, 0.038218625, -0.04403067, -0.026077595, 0.04955944, 0.0034421529, -0.0027842454, 0.01791754, 0.023202997, 0.018307064, 0.036843527, 0.017098969, -0.010681851, -0.033702493, -0.02339919, 0.0363125, -0.060453795, -0.054356147, 0.014361801, 0.00061994995, -0.061293855, -0.020691201, -0.0033885755, 0.01213935, -0.057523016, -0.016310707, 0.0156231895, -0.06274796, -0.029200861, 0.022027228, 0.017350474, 0.037706617, -0.00034908496, -0.009196439, -0.018759398, -0.07434714, -0.070951864, -0.012525418, -0.020662773, 0.044550408, -0.034589995, 0.06744077, 0.0052268705, 0.024562385, -0.06115835, 0.014191798, 0.02021484, 0.06292659, -0.0058291396, -0.115370944, -0.08337046, 0.01549446, 0.033127077, -0.053022414, 0.021150373, 0.059019748, 0.03198206, -0.02069889, -0.047392182, -0.0069691334, -0.04106191, -0.023078693, 0.02413832, 0.016944973, 0.023766777, 0.046979863, -0.023500511, -0.062241416, 0.03211076, -0.07467424, -0.020839613, -0.038805284, -0.022648271, -0.011668113, -0.0061517763, -0.060379326, 0.037790757, 0.029534698, -0.034173958, 0.031800512, 0.034046743, 0.06108721, -0.008157514, 0.0061599505, -0.028557558, 0.025363993, -0.11366125, -0.03888082, 0.030045506, 0.07020629, 0.04213594, -0.0019936229, -0.04169006, -0.0323774, 0.0064184847, -0.04233074, -0.03840244, 0.03969072, -0.0031447767, -0.0587203, 0.013343707, -0.0052878354, -0.0858307, 0.040485695, 0.048890837, 0.07498681]</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[0.025897967, 0.05359341, 0.0033328354, -0.019314528, 0.10785228, 0.043677725, -0.028781837, -0.016331423, 0.006234165, 0.02620006, -0.11448816, 0.02569017, 0.0013297518, 0.011307825, -0.030449443, 0.03895828, -0.0038886855, 0.0043237554, 0.06155746, 0.013965328, -0.020916222, -0.035502527, -0.018115759, 0.00772949, 0.10128517, -0.004079187, 0.062066086, 0.010943446, 0.0220371, 0.041831158, 0.02044511, -0.021558229, 0.0195723, -0.015442557, -0.006972347, -0.0020001656, 0.0053077415, -0.05651468, 0.039481767, -0.020701919, -0.08465047, 0.033998847, -0.03657253, 0.04293898, -0.013954463, 0.016994959, -0.0025608253, -0.017568657, -0.07538202, 0.004678388, 0.076995656, 0.012768223, 0.042291533, 0.06435329, 0.08038492, 0.012122678, -0.060672075, 0.0034643393, -0.048496023, 0.005707654, -0.06356234, -0.019826347, -0.0013944972, -0.026246227, -0.011010832, 0.06459617, 0.071640335, 0.007239244, 0.0010392658, 0.02906092, -0.021795144, 0.03211824, -0.011541491, 0.014731424, -0.04610349, -0.0033674652, 0.037655864, -0.009395298, -0.036610845, -0.031987708, -0.008831313, -0.07517897, 0.056233324, -0.07393756, -0.027374063, 0.056457195, -0.0038060008, 0.03900089, -0.02005433, -0.006794746, 0.023927212, -0.030717986, 0.08799406, -0.014671546, 0.04777667, 0.013791867, 0.047920555, 0.08107439, 0.05943567, 0.0128722675, 0.014820038, -0.007952874, -0.0210746, 0.042320102, 0.010548815, -0.006049671, -0.017517205, 0.016631277, 0.030978536, 0.02530851, 0.046697665, -0.0693816, -0.03814275, -0.08903096, -0.015449201, 0.025778871, 0.012852578, 0.023993066, -0.009175756, 0.043059498, 0.00016707648, 0.033194005, 0.00034029433, 0.051109403, 0.026029814, 0.038744945, 0.043794554, -0.039510984, -0.02614945, 0.0099050645, 0.011079115, 0.029480789, -0.024107262, -0.00017147075, 0.018298803, 0.034670588, -0.016088782, 0.01934645, 0.02113975, 0.036987748, -0.015654158, -0.0010128093, 0.0027584606, -0.040011622, -0.023693623, -0.010534295, -0.06490564, -0.0044900114, 0.03294053, 0.021510964, 0.060648657, 0.064814776, 0.03013671, -0.04350672, -0.015158944, -0.042806536, -0.031638138, 0.015950138, 0.046578106, 0.038683537, -0.010314466, -0.05587712, -0.046029385, 0.035785183, -0.017867155, -0.048543636, 0.100169756, 0.0084037185, -0.018553108, 0.05711304, -0.0016026809, -0.00029587187, 0.001933318, 0.0095242085, -0.04356111, 0.017155847, -0.025248881, -0.039516587, 0.028664792, 0.031360537, -0.028397735, -0.06310898, 0.03448451, -0.015830433, 0.01224776, 0.008996301, 0.012387904, -0.01940235, 0.03110525, -0.011882273, -0.071167044, -0.05287522, 0.013445757, 0.014909574, -0.010488537, 0.023373643, 0.034802094, -0.011273594, 0.053096984, 0.0813295, 0.07225964, 0.07665699, 0.054261338, -0.01687049, 0.0077463505, -0.0070414874, -0.004592956, 0.01795025, -0.04872497, 0.031674225, 0.0029993674, 0.04218913, -0.014385498, -0.05957777, 0.03832566, -0.019130629, -0.03512566, -0.05415282, 0.05100089, 0.009628592, 0.02037546, -0.013034321, 0.08761711, 0.057178818, -0.03977207, -0.002597183, 0.059479095, -0.07271849, -0.03423833, 0.008718125, 0.015398969, -0.0057050255, 0.054197222, -0.0038915195, -0.010198776, 0.041986797, -0.030662883, 0.01507329, 0.076358475, 0.06500588, -0.045637477, -0.049545616, 0.02338825, 0.043209266, -0.07740611, -0.11291827, -0.04145992, -0.029364081, -0.0005470649, 0.01869104, -0.029015787, 0.034525845, -0.04550091, -0.08120148, 0.009546565, -0.0053880517, 0.004065759, -0.032568473, -0.023220826, 0.03445069, -0.04987773, -0.10146803, 0.012983212, 0.019489996, -0.0049220137, 0.016620386, 0.02575157, -0.014299202, -0.034132805, 0.017473983, -0.005330473, -0.05312904, 0.027360912, 0.0720814, 0.035135183, 0.06767616, 0.004012692, -0.02886933, 0.048362907, 0.02442615, 0.0084438315, -0.05744202, 0.04198589, -0.061651308, -0.023236543, -0.054402374, -0.027097553, 0.016001876, -0.0059186593, -0.002859816, 0.0011563858, -0.008519268, 0.081, 0.05518952, -0.05266829, 0.034892753, -0.03733913, 0.02352092, 0.016941864, 1.1954457e-05, 0.0051787947, -0.032703396, 0.03301019, 0.047459263, 0.021159302, -0.0015945849, 0.0018840962, 0.01233643, 0.016156552, 0.034363985, -0.040959995, -0.011495273, 0.0069619482, 0.029413361, -0.0718359, 0.03134453, -0.04617646, -0.06461008, -0.014954187, 0.015372042, 0.0233389, 0.0678751, -0.006076221, 0.009724484, -0.03337154, 0.06289394, -0.011323247, 0.028033534, -0.036603678, 0.06425105, 0.020836907, -0.0051572453, 0.026055612, -0.03296909, -0.059024416, -0.09877559, -0.018274367, -0.011657444, -0.009098381, -0.0122899, -0.025523532, -0.0013693965, -0.028850421, 0.028781176, -0.035939842, 0.06483163, 0.03915464, 0.050157547, -0.02193131, 0.003108695, 0.010978598, -0.030789334, 0.022969708, -0.011358964, -0.022666028, -0.012652672, -0.044821035, -0.07165883, -0.009543222, 0.024579782, 0.02018856, -0.03697807, -0.015839828, -0.07598249, 0.018854145, -0.006239634, -0.010924025, -0.0003956733, -0.045094293, -0.036442928, 0.030732859, 0.024182966, -0.016145468, 0.039668035, -0.021668974, -0.008900091, -0.009472616, 0.09629937, 0.025275985, -0.03549188, 0.002754585, 0.021359706, 0.034473494, -0.07655249, -0.052362833, 0.021230107, -0.052440133, 0.09312751, -0.04479738, -0.016888494, 0.03558446, 0.049127366, 0.019116165, 0.03259431, -0.03654842, 0.0011563483, 0.02642911, 0.04487778, -0.0077901585, 0.030542275, 0.020253647, -0.0143348165, -0.052436225, -0.0172832, -0.017207284, -0.013461834, -0.010652738, 0.038218625, -0.044030696, -0.026077608, 0.04955946, 0.0034421477, -0.0027842305, 0.017917551, 0.02320299, 0.018307043, 0.03684352, 0.01709896, -0.010681867, -0.0337025, -0.02339918, 0.036312494, -0.060453806, -0.054356147, 0.014361809, 0.0006199672, -0.06129386, -0.020691196, -0.0033885709, 0.012139369, -0.057523012, -0.016310714, 0.015623182, -0.06274796, -0.029200856, 0.022027224, 0.017350463, 0.037706643, -0.00034909148, -0.009196446, -0.01875942, -0.07434713, -0.07095185, -0.01252542, -0.020662794, 0.044550415, -0.03458999, 0.06744074, 0.0052268677, 0.024562394, -0.061158374, 0.014191792, 0.020214824, 0.06292659, -0.005829113, -0.11537095, -0.08337048, 0.015494469, 0.033127088, -0.053022422, 0.02115038, 0.05901975, 0.03198202, -0.020698862, -0.04739217, -0.0069691353, -0.041061938, -0.02307867, 0.024138307, 0.016944975, 0.023766777, 0.046979863, -0.023500504, -0.062241435, 0.032110747, -0.07467424, -0.02083961, -0.038805287, -0.02264828, -0.011668091, -0.0061517707, -0.06037932, 0.037790757, 0.02953472, -0.03417395, 0.031800482, 0.03404673, 0.06108721, -0.00815754, 0.006159949, -0.028557539, 0.025363997, -0.11366124, -0.038880836, 0.03004552, 0.0702063, 0.04213595, -0.0019936243, -0.04169007, -0.032377403, 0.0064185155, -0.04233073, -0.03840244, 0.039690703, -0.003144798, -0.058720294, 0.013343703, -0.005287835, -0.085830696, 0.040485695, 0.04889083, 0.07498679]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>2018</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>김희수</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Texture classification of cooked rice and noodle for the elderly
-based on instrumental and sensory evaluation</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Texture classification of cooked rice and noodle for the elderly based on instrumental and sensory evaluation</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>As the elderly population is increasing throughout the world, more extensive studies are needed to establish the criteria for controlling food texture for the elderly. This study was thus conducted to classify the texture of cooked rice and noodle depending on their mechanical and sensory hardness. The instrumental hardness of the cooked rice and noodle were measured by compression test with a spreadability cone probe and cutting-shear test with a blade probe, respectively. The cooked rice and noodle samples with a highly linear difference of hardness (R2=0.97 and R2=0.95, respectively) were subjected to the sensory evaluation that was carried out by 30 elderly participants aged 60-75 years. Highly good correlations (R2&gt;0.9) were also observed between the instrumental and sensory hardness. Based on principal component analysis, the texture of the cooked rice and noodle could be successfully classified and provided with corresponding hardness range. The results obtained in this study may provide valuable information on the texture guidelines customized for the elderly.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>[0.05367075, 0.03846373, 0.0123070665, -0.0021955322, 0.059049617, 0.061484106, -0.0856413, -0.03774757, 0.070571855, 0.007997085, -0.07131684, -0.027976992, 0.014883985, -0.043642867, -0.009528409, 0.0130340755, -0.075349264, 0.018931264, 0.008739631, -0.0005257705, 0.014277814, -0.02644199, -0.11873145, -0.0028597002, 0.070168, 0.030347904, 0.04591154, -0.06196599, 0.07773597, 0.054319087, 0.04746763, -0.008758974, 0.040799577, -0.024130305, -0.04611909, -0.028693914, 0.014027704, 0.031327948, -0.05315157, -0.090327024, -0.02277506, 0.017237546, -0.09200973, -0.027816134, 0.06376938, -0.0063566025, -0.0048611877, 0.045917008, -0.104638815, 0.026271911, 0.025910072, -0.032488465, -0.018854473, 0.014798105, 0.017871216, -0.054008853, -0.045003396, -0.014745444, 0.07380309, 0.03595585, -0.05522946, -0.046076167, -0.020221509, -0.04752679, 0.021354014, 0.041923188, 0.06713837, -0.018846733, -0.077418335, 0.0939086, 0.012530244, 0.034129, 0.001979031, -0.002145169, -0.05207837, -0.017991874, 0.020623723, 0.01692582, -0.005260144, 0.057965893, 0.038677543, -0.07446068, 0.024133911, -0.03184719, -0.053979676, 0.06869705, -0.022219753, 0.03060483, -0.028054772, 0.011409265, -0.013813099, -0.0017269232, 0.1291017, 0.05444721, 0.03673878, 0.017470796, 0.070873484, 0.08351511, 0.045590963, -0.0147875585, -0.044295143, 0.0066933692, 0.009293592, -0.015519358, 0.03354179, -0.055509273, 0.040160123, -0.030343382, 0.026466731, 0.044017076, 0.01742519, -0.05832918, -0.03153548, -0.04573352, -5.101692e-05, 0.0135831805, -0.025843963, -5.78037e-05, -0.021532789, 0.12901385, 0.014412265, 0.06951826, 0.03164029, 0.10344379, -0.050381213, 0.03820787, 0.029209277, -0.022451531, 0.025409868, 0.076730825, 0.026149726, 0.036347993, -0.005142378, 0.041914564, 0.016051197, 0.00071573595, 0.049585704, 0.06539133, -0.07110779, -0.052903123, 0.057601746, 0.003751322, -0.011607572, -0.058577515, -0.053832382, -0.011397195, -0.11390242, -0.054405868, -0.04535218, -0.04328477, -0.008098349, 0.082592726, 0.08053202, -0.07065217, -0.023829244, -0.013338892, 0.0021558662, -0.0037266947, -0.04289808, -0.052298926, 0.012747043, -0.02676952, -0.08372495, 0.0094594145, 0.025211629, -0.060939662, 0.026685864, 0.024223167, 0.0028758645, 0.11364988, 0.02565465, -0.014675676, 0.04380777, 0.007243027, 0.015484239, -0.030826483, -0.019936308, -0.03463202, 0.12313795, -0.017035924, -0.018039249, -0.09561785, -0.023213726, -0.03520442, 0.004024078, -0.01191866, 0.012684015, -0.039844487, 0.085437626, 0.039337907, -0.052830394, -0.04396932, 0.036421485, 0.03896785, -0.019389747, 0.04815843, 0.057737757, -0.0006360225, 0.08096145, 0.070148535, 0.016210742, 0.025055598, -0.029390834, -0.012740888, 0.041749056, 0.09555085, -0.027016176, -0.0447386, 0.014486423, -0.006774036, -0.058341175, 0.043168906, -0.0023495373, -0.066251434, 0.00027411664, -0.054142185, -0.0020256792, -0.10534036, -0.0290175, -0.013102845, 0.04563824, 0.0021543954, -0.053327087, -0.0032956616, 0.0070515447, -0.004124743, -0.017641786, -0.05954389, 0.007408839, 0.05848842, 0.010325683, -0.041546665, 0.017467258, -0.037919674, 0.016783651, -0.025569735, -0.053249583, 0.0010043719, -0.03192669, 0.036030725, -0.06655802, -0.0047329497, 0.031623147, 0.04319947, 0.002266712, -0.0802873, -0.015616902, -0.0018925758, -0.055662468, -0.0155075835, -0.0078018527, 0.02758467, -0.05670877, -0.07044112, -0.015039604, 0.037385844, 0.0062839184, -0.04615665, -0.0419402, -0.0004981709, 0.05094281, -0.118146956, -0.048798837, -0.0075709266, -0.04809496, -0.035688177, -0.024540696, 0.04178076, -0.0054607117, 0.0010551322, -0.040130258, 0.055809945, 0.046171322, 0.05870494, -0.011190331, 0.0059400704, -0.0765389, -0.04432303, 0.01216939, -0.064428985, -0.051275816, 0.0034307619, 0.010651476, -0.047285296, -0.04520764, -0.011702716, -0.04527367, -0.05610747, 0.020017501, -0.037268393, 0.0049392907, 0.04055101, 0.11285447, -0.018810043, -0.043642253, 0.06402703, 0.017096668, 0.045757946, -0.026532926, -0.020356048, 0.008709043, 0.0335951, -0.026275821, 0.02165682, 0.025086844, -0.013465151, 0.019380057, 0.0034514088, 0.060914632, 0.01822956, -0.016023237, -0.043859318, -0.04531698, 0.043141104, -0.028733911, 0.072519995, 0.016471893, -0.039739303, 0.0014748982, -0.10129011, 0.060246542, 0.024535296, 0.053710252, -0.017734597, 0.010210694, 0.10459211, -0.000765855, 0.08043254, -0.040390145, 0.05427794, -0.0098049585, -0.04958862, 0.012040521, -0.0072008497, -0.06679411, -0.054169852, -0.00833685, -0.013629179, 0.010722079, -0.045587264, -0.06747693, -0.015943356, 0.060511477, -0.0091246655, -0.027662253, 0.08437811, 0.05543862, 0.009467637, -0.09365782, -0.043120198, -0.026614275, -0.011617511, 0.023317771, -0.037753277, -0.020820688, -0.013319302, -0.03964528, -0.048631154, -0.028891217, -0.016204795, 0.030831851, -0.061937943, 0.014956437, -0.029682336, 0.04173825, 0.042908583, 0.025080184, -0.037263986, 0.0028378477, -0.08506982, 0.01963868, -0.004551162, -0.028400917, 0.029008353, -0.008169757, -0.055648156, 0.012332033, 0.048286386, 0.046294276, 0.052583866, -0.0027995508, -0.03814153, 0.01438958, -0.03904234, -0.09005773, -0.039281055, -0.02629028, -0.011326335, 0.025001474, -0.037589185, 0.04623235, 0.072057866, -0.010215206, -0.011715001, 0.102059364, 0.03125917, -0.0633286, 0.0484374, -0.0027621659, 0.02901639, 0.021793919, 0.009421759, -0.057228874, -0.0882552, -0.0062946365, 0.038371395, -0.019046303, 0.03894228, -0.10988102, -0.07410547, -0.00346213, 0.07936861, 0.04306435, -0.022715136, -0.038375527, 0.009589598, -0.0929907, 0.07584915, 0.062347103, 0.026537886, -0.050024796, -0.012409657, 0.006201171, 0.027470466, -0.07974794, -0.026975902, 0.019223206, -0.015252447, -0.02590428, -0.05447561, 0.055385042, -0.009922434, 0.030556068, -0.0662913, -0.06391772, 0.007990488, 0.040133793, -0.021908244, 0.04186388, 0.01409423, -0.08158694, -0.075230874, -0.04298083, 0.009810416, 0.09963922, 0.060318805, -0.008658412, 0.09578748, 0.02177758, -0.023347424, 0.046120584, 0.0029170369, -0.008506557, 0.055889767, -0.0057294914, 0.0059188195, 0.020946706, 0.021105463, 0.0349388, -0.09861292, -0.04934442, -0.022410732, 0.050929748, -0.021132743, -0.055817436, 0.00052489055, -0.04973009, -0.001349486, 0.03328066, 0.0203678, 0.05162943, 0.027437823, 0.036072038, 0.031248916, -0.014100245, -0.026574053, 0.06309259, -0.012042363, 0.056199104, -0.011036717, 0.0077374587, -0.011550358, 0.05524785, 0.0039424906, 0.0029070678, 0.07997016, 0.1070024, 0.04726261, -0.0048219357, -0.02452911, -0.037316136, 0.018927235, -0.04818544, 0.0045465697, 0.026612394, 0.01451241, 0.026405362, -0.0072225784, -0.02638012, 0.00081225095, 0.062255822, -0.119114205, 0.0102048535, 0.025377467, -0.066280164, 0.0075328965, 0.047931213, 0.009512557, -0.17839101, -0.008848351, 0.047827024, 0.0914461]</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[0.05367075, 0.03846372, 0.012307072, -0.0021955401, 0.059049625, 0.06148412, -0.08564128, -0.03774756, 0.07057182, 0.007997063, -0.07131684, -0.027977008, 0.014883977, -0.04364285, -0.009528402, 0.013034077, -0.07534925, 0.018931264, 0.0087396465, -0.0005257876, 0.014277839, -0.026441995, -0.11873146, -0.002859702, 0.070167996, 0.030347914, 0.045911524, -0.061965983, 0.07773597, 0.054319095, 0.047467608, -0.008758993, 0.040799562, -0.024130305, -0.046119064, -0.028693907, 0.014027713, 0.031327963, -0.05315158, -0.09032703, -0.022775076, 0.017237538, -0.09200975, -0.02781613, 0.06376939, -0.006356584, -0.0048611825, 0.045917023, -0.10463883, 0.02627191, 0.025910037, -0.032488447, -0.018854486, 0.014798098, 0.01787123, -0.054008838, -0.045003388, -0.014745459, 0.073803075, 0.03595585, -0.05522946, -0.04607619, -0.020221513, -0.04752679, 0.021353992, 0.041923195, 0.067138344, -0.018846722, -0.077418335, 0.09390859, 0.012530262, 0.03412902, 0.0019790293, -0.0021451667, -0.05207835, -0.017991848, 0.020623725, 0.016925815, -0.005260133, 0.057965893, 0.03867754, -0.07446067, 0.024133915, -0.031847175, -0.053979713, 0.06869708, -0.022219745, 0.03060483, -0.028054753, 0.011409279, -0.013813086, -0.001726932, 0.1291017, 0.054447193, 0.036738787, 0.0174708, 0.070873484, 0.08351512, 0.04559097, -0.014787534, -0.04429514, 0.006693398, 0.009293599, -0.015519351, 0.033541802, -0.05550928, 0.040160116, -0.030343387, 0.026466738, 0.0440171, 0.017425211, -0.058329195, -0.031535484, -0.045733523, -5.1042996e-05, 0.013583215, -0.025843985, -5.7801022e-05, -0.021532796, 0.12901385, 0.014412273, 0.06951827, 0.031640306, 0.10344378, -0.050381213, 0.038207863, 0.029209256, -0.022451524, 0.02540986, 0.07673082, 0.026149737, 0.03634798, -0.0051424014, 0.041914567, 0.016051224, 0.00071572734, 0.049585693, 0.06539135, -0.07110778, -0.052903127, 0.057601735, 0.0037513038, -0.011607572, -0.05857751, -0.053832415, -0.011397193, -0.113902405, -0.05440589, -0.045352165, -0.043284748, -0.008098343, 0.082592726, 0.080532014, -0.07065217, -0.023829225, -0.013338873, 0.0021558625, -0.003726678, -0.042898074, -0.052298937, 0.012747056, -0.02676951, -0.08372495, 0.00945939, 0.025211625, -0.060939662, 0.026685858, 0.024223153, 0.0028758673, 0.11364985, 0.02565466, -0.014675654, 0.043807764, 0.0072430456, 0.015484241, -0.030826483, -0.019936305, -0.034632012, 0.123137936, -0.017035915, -0.018039264, -0.09561783, -0.023213735, -0.03520442, 0.004024055, -0.011918651, 0.012684021, -0.039844487, 0.08543765, 0.039337914, -0.0528304, -0.04396932, 0.036421467, 0.038967863, -0.019389752, 0.04815844, 0.05773777, -0.00063600735, 0.08096144, 0.07014852, 0.016210739, 0.025055628, -0.029390851, -0.012740891, 0.04174909, 0.09555084, -0.027016195, -0.0447386, 0.014486432, -0.006774024, -0.058341175, 0.04316889, -0.0023495387, -0.06625143, 0.0002741036, -0.054142185, -0.0020256722, -0.10534036, -0.02901749, -0.01310283, 0.045638267, 0.0021544388, -0.053327084, -0.0032956386, 0.007051543, -0.004124744, -0.017641768, -0.059543874, 0.0074088555, 0.05848842, 0.010325685, -0.041546658, 0.017467251, -0.037919678, 0.01678367, -0.025569743, -0.053249583, 0.0010043789, -0.03192669, 0.036030713, -0.066558, -0.0047329543, 0.031623147, 0.043199472, 0.0022667209, -0.08028729, -0.015616938, -0.0018925858, -0.05566245, -0.015507591, -0.007801861, 0.027584666, -0.05670881, -0.07044112, -0.015039593, 0.037385862, 0.006283918, -0.04615665, -0.0419402, -0.00049819, 0.050942793, -0.11814695, -0.04879883, -0.007570918, -0.048094966, -0.03568819, -0.024540734, 0.041780762, -0.0054607145, 0.0010551164, -0.040130254, 0.05580996, 0.046171326, 0.058704942, -0.011190338, 0.005940079, -0.07653892, -0.044323016, 0.012169385, -0.06442899, -0.051275793, 0.0034307856, 0.010651496, -0.047285296, -0.04520763, -0.0117027145, -0.045273673, -0.05610747, 0.020017503, -0.03726842, 0.0049393, 0.040551003, 0.112854466, -0.018810054, -0.043642256, 0.06402702, 0.017096678, 0.045757942, -0.026532922, -0.020356044, 0.008709045, 0.033595093, -0.026275825, 0.021656856, 0.025086856, -0.013465164, 0.019380039, 0.0034514102, 0.060914617, 0.01822958, -0.016023224, -0.043859348, -0.045316983, 0.043141108, -0.02873389, 0.07251999, 0.016471878, -0.039739296, 0.0014748931, -0.10129011, 0.060246557, 0.02453529, 0.05371025, -0.017734585, 0.010210694, 0.10459211, -0.0007658308, 0.080432534, -0.040390145, 0.054277945, -0.009804953, -0.04958862, 0.012040522, -0.0072008646, -0.06679411, -0.05416989, -0.008336856, -0.013629172, 0.010722094, -0.045587238, -0.06747692, -0.015943345, 0.060511492, -0.009124665, -0.02766226, 0.0843781, 0.055438604, 0.009467643, -0.09365782, -0.043120205, -0.02661428, -0.011617516, 0.023317754, -0.037753284, -0.020820664, -0.0133193135, -0.03964529, -0.048631165, -0.028891219, -0.016204791, 0.030831832, -0.061937943, 0.014956422, -0.02968231, 0.04173823, 0.042908564, 0.025080178, -0.037264, 0.002837835, -0.08506983, 0.019638713, -0.0045511853, -0.028400913, 0.029008355, -0.008169751, -0.055648148, 0.012332038, 0.04828637, 0.046294272, 0.052583892, -0.002799533, -0.038141537, 0.014389588, -0.039042335, -0.09005775, -0.039281055, -0.026290296, -0.011326333, 0.025001468, -0.03758919, 0.04623233, 0.07205784, -0.010215167, -0.011714979, 0.10205936, 0.031259168, -0.06332861, 0.048437394, -0.0027621891, 0.029016403, 0.021793906, 0.009421769, -0.057228852, -0.08825522, -0.0062946375, 0.038371414, -0.01904628, 0.038942285, -0.109881, -0.07410547, -0.0034621288, 0.07936861, 0.043064356, -0.022715133, -0.038375508, 0.009589595, -0.09299067, 0.07584916, 0.062347103, 0.026537873, -0.0500248, -0.012409665, 0.006201172, 0.027470462, -0.07974795, -0.026975926, 0.0192232, -0.01525243, -0.02590429, -0.054475624, 0.05538502, -0.009922417, 0.030556075, -0.0662913, -0.06391772, 0.007990475, 0.04013379, -0.021908227, 0.041863874, 0.0140942205, -0.08158695, -0.07523088, -0.042980827, 0.0098104365, 0.099639215, 0.06031879, -0.008658408, 0.095787466, 0.021777563, -0.023347443, 0.0461206, 0.0029170336, -0.008506558, 0.05588977, -0.0057295114, 0.005918809, 0.020946728, 0.021105463, 0.034938797, -0.098612934, -0.049344424, -0.022410735, 0.050929748, -0.02113272, -0.05581741, 0.00052489334, -0.049730092, -0.0013494955, 0.03328068, 0.020367803, 0.05162943, 0.027437823, 0.036072053, 0.031248927, -0.014100243, -0.026574045, 0.063092574, -0.012042352, 0.056199115, -0.011036717, 0.007737479, -0.011550344, 0.055247843, 0.0039424878, 0.0029070883, 0.07997015, 0.10700241, 0.04726261, -0.004821934, -0.024529101, -0.037316132, 0.01892724, -0.048185434, 0.004546559, 0.026612408, 0.014512399, 0.026405364, -0.007222559, -0.026380122, 0.00081226305, 0.062255822, -0.11911419, 0.010204842, 0.025377447, -0.06628016, 0.0075328844, 0.047931176, 0.009512547, -0.17839101, -0.008848339, 0.047827017, 0.09144609]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>2018</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>오임경</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Structuring edible oils with foam structured hydroxypropyl methylcellulose
--
-application as an animal fat replacer to meat products</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Structuring edible oils with foam structured hydroxypropyl methylcellulose - application as an animal fat replacer to meat products</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>Oleogelation one of oil structuring technologies that converts edible liquid oil to solid like gel with the assistance of oleogelators has been recently researched for reducing saturated fat in foods However, there is still insufficient understanding of the processing performance of hydrocolloid based oleogels specifically, in meat products Thus, the purposes of this study were to evaluate the physicochemical properties of foam structured oleogels with hydroxypropyl methylcellulose ( and to investigate their processing performance as an animal fat replacer (beef tallow) in meat products Higher textural parameters were observed in HPMC oloegels compared to beef tallow and the dynamic viscoelastic results showed that HPMC oleogels behaved in a frequency independent manner as a weak elastic gel The HPMC oloegels also exhibited greater resistance against oxidation than the canola oil In addition, the beef tallow replacement of HPMC oleogels positively contributed to enhancing the quality attributes of meat patties by lower cooking loss, softer texture, and lower saturated fat contents compared to the beef tallow sample</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>[-0.03795434, 0.060900874, -0.010423538, -0.0022539403, 0.09609976, -0.010834596, -0.029955475, -0.10762545, 0.022236338, 0.034727305, -0.07600942, -0.04811854, 0.056478437, -0.019438155, -0.03618246, 0.024976483, 0.013292058, 0.10130547, 0.015035942, 0.059103884, 0.0014829003, -0.0069283396, -0.03441605, 0.0023433047, 0.070451126, -0.038336594, 0.07051102, 0.007041999, -0.0628935, -0.001264934, 0.035526752, -0.053233515, -0.039945573, 0.0077737616, -0.056738954, -0.05309566, 0.0909956, 0.0020606897, -0.062416937, 0.016336193, -0.06999799, 0.05110335, 0.063723505, 0.00145554, 0.021819083, -0.071556546, 0.057415813, 0.029013881, -0.057631265, -0.005175013, -0.014017897, -0.01922148, -0.015908133, 0.023179127, 0.054747764, -0.012712676, -0.1089807, -0.10595051, -0.004634133, 0.041721415, -0.036798164, -0.0014644228, -0.074241765, -0.022168448, -0.03347592, -0.041197747, 0.0019594799, 0.017051263, 0.10435296, -0.01160777, -0.048982184, 0.0064702304, 0.028181322, 0.054317575, -0.06634749, -0.05222069, 0.014733332, -0.05689071, -0.0095155, 0.005669895, -0.0766167, -0.016086796, 0.060118623, -0.001564762, -0.029223824, 0.058801726, 0.043902792, 0.024465157, -0.01658199, -0.0055630067, 0.04669421, 0.013691376, 0.091065325, 0.041109312, 0.036687367, 0.015081139, 0.05410506, 0.07569879, 0.014585662, 0.030204143, -0.029597566, 0.06932948, -0.01163391, -0.00462776, 0.031633407, -0.021328308, 0.049140017, 0.012229827, 0.060275577, 0.079239, 0.003971395, -0.079264104, -0.010407679, 0.039005194, -0.029549241, 0.058950085, 0.03551774, 0.04874234, 0.015516366, -0.038600802, 0.07508713, -0.04022127, -0.00036815015, -0.035923064, 0.011432594, 0.038834248, 0.0020558243, 0.048975937, 0.007893055, -0.078423984, -0.039838802, 0.02583244, -0.097186014, -0.030630268, 0.0033822518, 0.0032800413, 0.037546806, 0.028237572, 0.068616584, -0.024697999, -0.004675554, -0.021407373, -0.0029128392, -0.041048452, 0.026934545, 0.04744544, 0.0059469827, 0.009462291, -0.04340544, 0.069962375, 0.0048285876, -0.04645659, -0.05870247, 0.022907568, 0.013867331, -0.05979507, -0.018347306, -0.011322502, 0.014842457, -0.041340843, -0.034114726, 0.054318912, -0.090504415, -0.0042798244, -0.009559218, 0.033725444, 0.0805441, -0.05192151, -0.068086326, 0.029065263, -0.023806542, -0.0105358, 0.06399918, 0.036568515, -0.07867249, -0.04950719, -0.018384168, -0.011249456, -0.020308508, 0.040525667, -0.00971034, -0.010415625, 0.03203952, 0.01694244, 0.019248487, -0.028854052, 0.052306045, -0.033492897, -0.03234499, -0.029326145, -0.073197156, -0.005930035, 0.02726091, -0.042341765, 0.010215734, 0.044862203, 0.059591837, -0.048913196, -0.063332014, -0.023850216, -0.044807084, -0.02354491, 0.06649584, -0.024879301, 0.05822686, -0.024767574, 0.02852729, 0.006386649, -0.014426016, 0.090414315, 0.00046008264, 0.10258273, 0.010208632, -0.019331817, 0.03388351, 0.0006556214, 0.009908386, -0.010692861, 0.037026994, 0.016651582, -0.07479814, -0.0033755756, -0.05452597, 0.015772438, -0.035176765, 0.012877769, -0.018298212, 0.037612725, -0.080936804, -0.041024387, 0.016699888, -0.021739805, 0.004156182, 0.002241146, 0.048749685, -0.0028362186, -0.008488472, 0.004641533, 0.032288905, 0.08505852, -0.045965005, 0.015345226, -0.060153183, -0.014865836, 0.06173487, 0.027908325, 0.028950509, 0.0147819165, 0.00032949995, -0.023179764, -0.073552914, 0.022167977, 0.033597536, 0.0021949147, 0.110270396, -0.060696736, 0.016413614, 0.03692789, -0.010430153, -0.0070043635, -0.027199019, 0.033301737, 0.042888846, -0.027023679, -0.018220294, -0.06141012, -0.034143284, 0.05000938, 0.039692227, -0.04657474, -0.018923657, 0.025435196, 0.05869747, 0.001458071, -0.07500013, -0.038449302, -0.013542217, -0.011314109, -0.037060432, -0.048442263, -0.02884683, -0.052066453, 0.013299978, 0.015737653, -0.01881759, -0.036212347, -0.06659615, 0.022371976, 0.035721842, -0.072063304, 0.025907815, -0.05362832, 0.055361606, -0.026343815, -0.06053831, 0.024009889, -0.04883443, 0.016039928, 0.01176375, -0.00651522, -0.037222944, 0.01881959, 0.080927454, 0.0034084893, -0.0066079455, 0.019725434, 0.045288313, -0.018320777, -0.04899489, 0.0204801, -0.03462359, 0.0118473405, 0.057678975, 0.02077983, 0.019933065, 0.029089237, 0.012128257, 0.036161855, -0.026327727, 0.0048773135, 0.06287251, -0.004841019, -0.012179765, -0.0472184, -0.090664156, 0.03226682, -0.09791824, -0.0034260836, -0.03225913, 0.0078434665, -0.025776334, 0.05396574, 0.02195648, -0.0018836907, -0.0029565657, 0.06723913, 0.014999696, -0.007920313, -0.011405231, -0.012832351, -0.08141052, 0.03770678, 0.08359312, -0.00012172095, -0.027545039, 0.049006622, 0.07142735, 0.14383246, -0.03788634, -0.046848327, 0.0007422924, -0.015216214, -0.019128373, 0.07155004, -0.048050378, 0.007557925, 0.041873943, 0.010547838, 0.00399918, 0.00074215035, 0.04746305, 0.06087612, -0.0522136, 0.06756926, 0.021030188, 0.011368064, -0.077168256, -0.006217545, -0.036793385, -0.025921876, 0.03859102, -0.024157587, -0.019513167, 0.014565149, -0.0654132, -0.046125706, -0.0013658529, 0.026974631, 0.024972282, -0.012586378, 0.0031295987, 0.011964871, 0.023449153, -0.11740834, -0.0124879135, 0.008184846, -0.088803, 0.060790394, 0.024594964, -0.024964875, 0.01051245, 0.07556852, 0.10527512, 0.036124166, 0.054368027, 0.03442967, -0.025784671, 0.009154995, 0.0026847513, -0.004225337, 0.031375375, 0.034719426, 0.023940124, 0.035532687, -0.044220794, 0.05880227, -0.003546244, -0.014390199, -0.0011907697, 0.028010722, 0.06858113, 0.020025171, -0.011695378, 0.07541287, -0.0022783305, -0.01267896, -0.029143577, -0.052418027, -0.016411046, -0.025313796, -0.06358617, 0.018067835, 0.0043423087, 0.02503249, 0.016108098, -0.042652678, 0.029163748, -0.09023557, 0.0054533873, -0.041157313, 0.018929899, 0.016008982, -0.011225223, 0.002952542, -0.10530947, -0.020991841, 0.021317942, -0.011524634, 0.014763415, 0.020504061, 0.040788185, -0.010727517, 0.0012820901, 0.022157095, 0.019144036, -0.0552768, 0.038846724, 0.06128833, -0.0067326766, 0.004701335, -0.038656794, -0.006224851, 0.020056155, -0.018525872, 0.002401371, -0.07140221, -0.09755309, 0.076866835, -0.016828334, -0.006777145, 0.0007328532, -0.04448301, 0.023377622, 0.059143025, 0.024577972, -0.06909071, -0.008123899, -0.0091201905, -0.036607128, -0.02405001, -0.07813163, 0.010994981, -0.03007276, -0.09399661, -0.007750968, -0.03386863, -0.08735808, 0.017493673, -0.037819322, -0.05996917, 0.02595188, -0.06516643, 0.056527782, -0.016743727, -0.06563139, 0.005302924, 0.072744824, 0.042791903, -0.023944264, -0.042195022, -0.033344, 0.016783103, -0.04121047, -0.035696365, -0.010890392, 0.040230464, -0.007247506, -0.010149956, 0.021521827, -0.017642256, 0.013674175, -0.024630615, -0.020466609, -0.010549224, -0.046686735, -0.04080774, -0.01728551, -0.04888656, -0.022381028, 0.019861287, -0.0017552953, 0.0153954495]</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-0.037954338, 0.060900874, -0.010423544, -0.0022539431, 0.09609974, -0.010834609, -0.02995549, -0.10762546, 0.022236347, 0.034727298, -0.076009415, -0.04811855, 0.056478456, -0.019438177, -0.036182456, 0.024976483, 0.013292068, 0.1013055, 0.015035935, 0.05910389, 0.001482898, -0.0069283275, -0.034416042, 0.002343293, 0.070451126, -0.03833662, 0.070511036, 0.007041994, -0.062893495, -0.0012649095, 0.03552675, -0.05323351, -0.039945584, 0.007773759, -0.05673897, -0.053095683, 0.090995595, 0.0020606776, -0.062416945, 0.016336182, -0.06999797, 0.051103342, 0.06372351, 0.0014555407, 0.021819063, -0.07155653, 0.05741582, 0.029013887, -0.05763128, -0.005175011, -0.014017908, -0.019221487, -0.015908144, 0.023179129, 0.054747764, -0.012712665, -0.1089807, -0.10595053, -0.0046341335, 0.04172143, -0.036798175, -0.0014644221, -0.074241765, -0.022168431, -0.033475935, -0.041197743, 0.0019594617, 0.017051281, 0.104352966, -0.01160777, -0.048982162, 0.006470236, 0.028181303, 0.054317567, -0.06634749, -0.052220684, 0.014733353, -0.056890704, -0.009515509, 0.005669881, -0.076616675, -0.016086778, 0.060118616, -0.001564741, -0.029223839, 0.05880174, 0.043902785, 0.02446518, -0.016581986, -0.005563014, 0.0466942, 0.013691382, 0.09106532, 0.041109312, 0.03668739, 0.015081129, 0.05410504, 0.07569879, 0.014585665, 0.030204114, -0.029597558, 0.06932949, -0.01163388, -0.004627767, 0.031633396, -0.021328304, 0.04914001, 0.012229807, 0.06027559, 0.07923901, 0.0039713928, -0.07926412, -0.010407652, 0.039005186, -0.029549234, 0.058950078, 0.03551776, 0.04874233, 0.01551637, -0.038600806, 0.075087145, -0.040221263, -0.00036816925, -0.03592308, 0.0114326095, 0.03883427, 0.002055825, 0.048975956, 0.007893043, -0.078423984, -0.03983882, 0.025832437, -0.09718601, -0.030630296, 0.0033822677, 0.0032800375, 0.037546806, 0.028237583, 0.06861659, -0.024698002, -0.0046755676, -0.021407362, -0.002912841, -0.04104846, 0.026934545, 0.047445443, 0.0059469687, 0.009462287, -0.043405455, 0.069962375, 0.004828582, -0.046456594, -0.058702484, 0.02290756, 0.01386731, -0.059795078, -0.018347314, -0.011322508, 0.014842457, -0.041340854, -0.034114737, 0.05431889, -0.090504386, -0.0042798193, -0.009559228, 0.03372545, 0.0805441, -0.051921487, -0.068086326, 0.029065263, -0.02380654, -0.010535813, 0.06399917, 0.036568537, -0.07867249, -0.0495072, -0.018384168, -0.011249501, -0.020308511, 0.04052566, -0.009710344, -0.010415638, 0.03203952, 0.016942425, 0.019248476, -0.028854068, 0.052306037, -0.033492886, -0.032345, -0.02932614, -0.07319716, -0.0059300647, 0.027260922, -0.042341754, 0.010215736, 0.044862196, 0.059591845, -0.04891318, -0.063332014, -0.023850217, -0.04480708, -0.02354492, 0.06649584, -0.024879282, 0.058226857, -0.024767585, 0.028527293, 0.006386645, -0.014426024, 0.090414315, 0.00046010964, 0.102582745, 0.0102086365, -0.019331831, 0.033883512, 0.0006556165, 0.009908399, -0.010692874, 0.037026994, 0.016651575, -0.07479814, -0.0033755552, -0.054526005, 0.015772441, -0.03517677, 0.012877778, -0.018298212, 0.03761272, -0.080936775, -0.0410244, 0.016699865, -0.02173981, 0.004156194, 0.0022411572, 0.04874967, -0.002836205, -0.008488485, 0.004641553, 0.032288887, 0.085058525, -0.04596501, 0.015345232, -0.060153197, -0.014865855, 0.061734855, 0.02790836, 0.028950524, 0.014781941, 0.00032949622, -0.023179768, -0.07355294, 0.02216799, 0.033597548, 0.0021949378, 0.11027042, -0.06069673, 0.0164136, 0.036927897, -0.010430178, -0.007004381, -0.027199004, 0.03330174, 0.04288884, -0.027023675, -0.018220311, -0.061410144, -0.03414326, 0.05000937, 0.03969225, -0.046574745, -0.018923672, 0.025435219, 0.058697477, 0.0014580804, -0.07500013, -0.038449306, -0.01354222, -0.01131413, -0.037060414, -0.04844227, -0.028846834, -0.052066464, 0.01329997, 0.015737657, -0.018817587, -0.036212362, -0.06659617, 0.022371985, 0.035721835, -0.072063304, 0.025907818, -0.05362834, 0.055361606, -0.026343813, -0.060538296, 0.024009882, -0.048834413, 0.016039923, 0.011763746, -0.006515233, -0.03722292, 0.01881959, 0.080927454, 0.0034084907, -0.0066079455, 0.019725416, 0.045288306, -0.018320797, -0.04899488, 0.020480117, -0.034623574, 0.011847369, 0.05767898, 0.02077984, 0.01993305, 0.029089237, 0.01212824, 0.03616184, -0.026327746, 0.0048773116, 0.06287249, -0.004841013, -0.012179741, -0.0472184, -0.09066413, 0.032266803, -0.09791826, -0.00342608, -0.032259125, 0.0078434525, -0.025776334, 0.05396573, 0.021956502, -0.0018836798, -0.0029565378, 0.067239136, 0.014999695, -0.007920308, -0.011405223, -0.012832366, -0.08141052, 0.037706785, 0.083593115, -0.0001217284, -0.027545026, 0.04900661, 0.07142736, 0.14383246, -0.03788633, -0.046848312, 0.00074226724, -0.01521621, -0.019128373, 0.07155007, -0.048050366, 0.0075579397, 0.04187396, 0.010547861, 0.0039991946, 0.0007421492, 0.047463037, 0.060876112, -0.052213613, 0.06756929, 0.02103018, 0.011368096, -0.077168256, -0.0062175393, -0.036793385, -0.025921866, 0.03859103, -0.024157574, -0.019513166, 0.014565153, -0.065413214, -0.04612571, -0.0013658501, 0.02697464, 0.024972279, -0.012586387, 0.0031295938, 0.011964883, 0.02344916, -0.11740836, -0.012487904, 0.008184858, -0.08880299, 0.060790423, 0.02459499, -0.024964856, 0.0105124395, 0.07556852, 0.10527512, 0.036124144, 0.05436804, 0.034429688, -0.025784701, 0.009154989, 0.002684734, -0.0042253532, 0.031375382, 0.034719426, 0.023940131, 0.035532687, -0.04422077, 0.05880226, -0.0035462426, -0.014390205, -0.0011907618, 0.028010724, 0.06858115, 0.02002518, -0.0116953915, 0.075412855, -0.0022783305, -0.012678958, -0.029143566, -0.052418068, -0.016411051, -0.025313796, -0.06358614, 0.018067852, 0.0043422864, 0.025032507, 0.016108122, -0.042652663, 0.029163733, -0.09023557, 0.0054533975, -0.04115732, 0.018929884, 0.01600897, -0.0112252, 0.0029525326, -0.10530948, -0.020991847, 0.021317935, -0.011524638, 0.014763411, 0.02050405, 0.040788207, -0.0107275015, 0.0012820961, 0.022157071, 0.019144036, -0.055276804, 0.038846705, 0.061288323, -0.0067326645, 0.0047013517, -0.038656797, -0.0062248567, 0.020056166, -0.018525884, 0.0024013587, -0.07140221, -0.09755311, 0.07686682, -0.016828328, -0.006777157, 0.0007328355, -0.044483, 0.023377614, 0.059143014, 0.024577951, -0.06909073, -0.008123897, -0.009120183, -0.036607157, -0.024049986, -0.078131646, 0.010994969, -0.030072782, -0.0939966, -0.0077509796, -0.03386866, -0.08735809, 0.017493669, -0.03781931, -0.059969153, 0.025951857, -0.06516643, 0.05652779, -0.016743744, -0.065631405, 0.0053029335, 0.07274482, 0.042791903, -0.023944303, -0.042195022, -0.03334401, 0.016783098, -0.041210465, -0.03569635, -0.010890382, 0.040230475, -0.0072475006, -0.0101499725, 0.021521827, -0.017642273, 0.013674162, -0.024630617, -0.020466605, -0.010549233, -0.046686757, -0.040807743, -0.017285502, -0.048886582, -0.022381002, 0.019861294, -0.0017553198, 0.015395451]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>2018</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>최경옥</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>Formulation optimization and physical characterization of size-controlled candelilla wax-based nanostructured lipid carriers</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Size-controlled nanostructured lipid carrier (NLC) suspensions with 30, 60, 120 and 180 nm particle size were prepared based on the optimized mixture design and their physical properties were investigated. The effect of ternary mixing proportion (lipid phase, surfactant phase and cosurfactant) on the particle size of the NLC suspensions was well described by a special quartic mixture model. The ratio of surfactant-to-lipid played an import role in determining the particle size of the NLC suspensions rather than the absolute concentration of the surfactants. NLC suspensions with smaller particle size exhibited lower turbidity and higher particle size growth rate. Zeta-potential had a tendency to decrease with increasing pH of the NLC suspensions, while their zeta-potential values were not affected by particle size. In addition, the crystallization index of NLC suspensions was proportional to their particle size. Thus, the particle size seemed to be a potential factor to influence the physical properties and stability of NLC suspensions.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>[-0.11570304, 0.0112650385, -0.040997297, 0.023978757, 0.052065082, -0.002062948, -0.0048033916, 0.061751045, 0.0026671675, 0.036207195, -0.06904105, 0.015541563, 0.0013160018, 0.01394886, -0.030696869, 0.033155754, -0.033031866, 0.054501344, 0.050949495, 0.10991887, 0.09331774, 0.043922342, 0.026963145, -0.0026686725, 0.0668321, 0.023779985, 0.021752741, 0.039482996, -0.012414474, -0.021107547, 0.030095262, -0.045459002, -0.04359314, 0.014360069, 0.005684994, 0.013470088, 0.05644333, -0.032330796, -0.037594467, 0.01510884, -0.0559157, 0.014925279, -0.06764658, 0.007928834, -0.017971475, -0.012415369, 0.07504703, -0.006550037, 0.015002987, 0.10936532, -0.039153546, -0.07826689, -0.050096724, 0.03359365, 0.04296641, 0.027696865, -0.048597675, 0.0026632065, 0.05683817, 0.051762998, -0.056925867, -0.030376613, -0.049821634, 0.045765977, -0.0091082025, 0.03616733, 0.036353275, -0.018630348, 0.06989293, -0.064429276, -0.036713675, 0.021061841, 0.007806982, -0.020577993, -0.046850916, -0.021095302, -0.05058677, 0.015738374, 0.010762852, -0.08656112, -0.05698335, -0.014724806, 0.040848374, -0.019227242, -0.0062764348, 0.07921288, 0.006084922, 0.07283271, 0.0061735236, -0.07795345, 0.029883396, -0.03664218, 0.15233392, 0.07421807, -0.017387323, 0.008861716, 0.051909406, -0.0024343205, -0.010048297, 0.08751331, -0.05758994, 0.0112484135, -0.016616896, 0.0022197382, 0.04186543, -0.08004609, 0.008026333, -0.0029532616, 0.0020931452, 0.023404533, 0.0112394225, -0.04548309, 0.08304715, -0.0021524616, -0.01146696, 0.0013130143, -0.08268944, -0.0019778076, -0.008869961, -0.016394721, 0.11298669, -0.051883757, -0.034797613, 0.036658872, -0.05417887, 0.064487875, 0.05033024, 0.02743998, -0.050062813, 0.043295853, -0.012764793, 0.06312664, 0.010251104, 0.024746507, -0.030529797, 0.048423223, -0.011380833, 0.069635265, -0.031242328, 0.05140406, -0.059594348, -0.019584863, 0.013985125, 0.022716554, 0.05020296, -0.042140882, 0.01732337, -0.05667567, -0.027897067, 0.0024510624, 0.0016693227, 0.037889693, -0.03802523, 0.033376917, 0.0035458505, -0.0719138, -0.0044124904, -0.07174211, 0.021470029, 0.0069808206, -0.026385551, 0.016073868, -0.010744825, -0.06627638, 0.030768873, 0.02059581, 0.048585225, -0.00057825627, -0.06925128, -0.026217557, 0.002045446, -0.032276932, 0.015381818, -0.0110749025, -0.07131862, -0.041479416, 0.042460535, -0.037244517, 0.023426957, 0.04929432, 0.031380866, -0.0107282335, -0.016381657, 0.008141949, 0.008411714, 0.0001841078, 0.07366635, -0.012076258, 0.046929613, -0.020261787, 0.03964603, 0.0037849664, 0.089289, -0.027437378, 0.03887857, 0.02314849, 0.023748655, 0.0078905625, -0.0006425263, 0.027631616, 0.052591242, -0.040900014, 0.08791959, -0.029066728, -0.019839523, -0.0019723505, -0.024446525, 0.040810272, -0.019112714, 0.067507364, 0.005376194, -0.021889623, 0.0010086593, -0.019176923, 0.048609648, 0.029291844, 0.0024138563, -0.025357995, 0.014339657, 0.06817106, 0.036141824, 0.0016397414, 0.0056748497, 0.08412173, -0.060790893, -0.022333266, -0.007883464, 0.018355088, 0.024140304, -0.05895617, 0.025086427, -0.058880202, 0.010783007, 0.049588658, -0.023269508, 0.004325156, -0.060875032, -0.061220355, -0.021038482, 0.058500167, -0.042688727, 0.06226849, 0.004721962, 0.01809291, -0.024850253, -0.004641836, -0.0015488908, -0.0350123, -0.02610897, -0.039755788, -0.06471112, 0.074830376, -0.0791044, -0.055660408, -0.00025833095, -0.008955216, 0.042310372, 0.05358012, -0.04220209, 0.029214289, 0.033623807, 0.006762081, 0.050700102, -0.0147375325, 0.037962064, 0.016361035, -0.025440767, -0.008396871, 0.029894369, 0.008548609, -0.045947257, 0.052128945, 0.03204247, -0.033501536, 0.035207752, -0.01039077, 0.031789415, 0.009500731, -0.007331335, 0.035132583, -0.04304182, -0.002923688, 0.04637544, -0.0029305723, -0.005451766, -0.034949023, -0.05745606, -0.028660867, 0.0148548875, 0.03517557, -0.015548953, 0.045995265, 0.050784405, -0.0077548926, -0.020944517, 0.022731021, 0.01725053, -0.035120152, -0.00059084775, -0.06737744, 0.019297222, -0.03409746, -0.020720318, 0.0058807693, 0.027286133, -0.044715047, -0.0422793, 0.028593991, 0.01744924, 0.07038693, -0.017578103, -0.023953177, 0.067210026, 0.07407939, 0.06475936, 0.05533993, 0.0042114193, 0.06583002, 0.06262175, 0.0022553168, -0.015736077, 0.058077503, 0.019455295, -0.025338426, 0.018161332, -0.014027828, -0.061159253, 0.0012621393, -0.040779456, 0.0063465936, -0.03932912, -0.06516075, 0.039688613, 0.039667442, 0.0193428, -0.034776166, 0.0039363555, -0.0004520807, -0.016389508, -0.056823466, -0.062835686, 0.011407608, 0.014086212, 0.07337359, -0.004890941, 0.01975749, 0.033481497, 0.065744795, -0.0019677668, -0.060484327, -0.029427774, -0.0074123596, -0.025605679, 0.035070956, -0.0085252095, -0.066108495, -0.024728479, -0.06769437, -0.05483998, -0.0073936847, -0.029739004, -0.055589918, 0.028656486, -0.046216987, 0.06056476, -0.0061358004, -0.09763869, 0.012966882, -0.034217227, -0.016469318, 0.03685624, 0.055130858, 0.021208998, -0.0068945116, -0.038597178, 0.010614348, -0.0017257188, 0.02415952, 0.0035474775, 0.017525373, -0.021288674, 0.012016956, 0.06540125, -0.059647013, 0.026894059, 0.016612325, -0.055512875, 0.026969159, -0.04455903, -0.023908788, 0.0030143945, 0.042331748, 0.009752078, 0.09159465, 0.04394739, 0.12423836, 0.00015283795, 0.021157544, 0.016128032, 0.019518219, -0.011976716, -0.049451362, 0.02942832, -0.016323011, -0.05251716, 0.047179762, 0.009477995, -0.0067757703, -0.04888799, -0.04764066, 0.08594399, 0.009754023, 0.05511288, 0.00056523335, 0.046912875, 0.073195465, -0.051846325, 0.019554572, 0.037468255, -0.070466705, -0.00017974549, 0.089668155, -0.033651683, -0.036399934, 0.038970593, -0.03587283, -0.042657137, -0.053785257, 0.05128221, -0.015602839, 0.08345043, 0.016391529, -0.03486599, 0.017125545, -0.070906915, -0.02677737, 0.02459494, -0.016635528, 0.06742393, -0.03477501, 0.027417202, 0.029838301, 0.045771252, -0.043389574, -0.055829443, -0.0035929456, 0.025292614, 0.056471445, 0.018705245, 0.003956386, 0.106625706, 0.0010769983, 0.01084326, -0.034406286, 0.06250033, -0.06894712, -0.003897784, -0.030677497, 0.016710248, 0.019676147, -0.06428935, -0.077787794, 0.013071686, 0.042007506, 0.032477487, -0.058892585, 0.06911452, -0.022777447, -0.00863396, 0.064344645, 0.014358871, -0.08273995, -0.012011129, -0.028519835, -0.028676227, 0.029916339, 0.068248935, 0.028824996, -0.047306485, -0.06455223, 0.009593262, -0.022916982, 0.10959687, -0.009697972, -3.1923875e-05, 0.02070066, 0.007373767, 0.019219296, 0.013308834, -0.044673916, -0.034374677, -0.020083036, -0.033241287, -0.06401307, -0.031210579, 0.015046956, -0.07518745, -0.029305456, 0.008214679, -0.03474757, -0.016785586, 0.014916921, 0.01964465, 0.090516165, -0.036673643, 0.03281431, -0.0072351177, 0.004476103, 0.04182705, 0.013422891, 0.009354241, -0.0539427]</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-0.11570302, 0.011265055, -0.040997274, 0.02397876, 0.052065082, -0.002062947, -0.004803388, 0.06175106, 0.0026671544, 0.036207203, -0.069041066, 0.015541568, 0.0013160269, 0.013948863, -0.030696847, 0.033155743, -0.033031832, 0.054501344, 0.050949503, 0.10991888, 0.0933177, 0.04392234, 0.026963133, -0.0026686743, 0.06683213, 0.023779985, 0.02175274, 0.039482977, -0.012414432, -0.02110755, 0.030095259, -0.045458987, -0.04359313, 0.014360023, 0.005684969, 0.013470121, 0.056443352, -0.032330777, -0.037594497, 0.015108873, -0.055915684, 0.014925262, -0.06764659, 0.007928835, -0.017971499, -0.01241536, 0.07504702, -0.006550033, 0.015002989, 0.10936535, -0.03915357, -0.07826688, -0.05009672, 0.03359361, 0.042966403, 0.027696852, -0.0485977, 0.0026632089, 0.05683818, 0.05176301, -0.056925863, -0.030376606, -0.049821626, 0.045765985, -0.009108221, 0.03616733, 0.036353283, -0.018630354, 0.06989293, -0.06442927, -0.036713686, 0.021061847, 0.007806968, -0.020578008, -0.04685091, -0.021095317, -0.05058677, 0.015738385, 0.010762829, -0.086561106, -0.05698338, -0.014724804, 0.04084839, -0.019227242, -0.0062764385, 0.07921289, 0.006084918, 0.07283272, 0.00617353, -0.07795347, 0.0298834, -0.03664219, 0.15233392, 0.07421806, -0.0173873, 0.008861703, 0.051909372, -0.0024343014, -0.010048303, 0.08751333, -0.05758993, 0.011248417, -0.016616905, 0.0022197461, 0.041865446, -0.080046065, 0.00802632, -0.0029532383, 0.0020931673, 0.023404531, 0.011239393, -0.04548308, 0.08304717, -0.0021524616, -0.011466959, 0.0013130034, -0.08268944, -0.001977816, -0.008869952, -0.016394718, 0.112986684, -0.051883776, -0.03479759, 0.036658864, -0.05417884, 0.06448786, 0.05033026, 0.027439987, -0.050062805, 0.043295853, -0.0127647985, 0.06312664, 0.0102511095, 0.024746498, -0.030529808, 0.04842319, -0.011380829, 0.069635265, -0.03124232, 0.051404085, -0.059594348, -0.019584887, 0.013985141, 0.02271658, 0.050202943, -0.04214091, 0.017323375, -0.056675676, -0.02789706, 0.0024510738, 0.0016693083, 0.037889697, -0.038025256, 0.03337694, 0.0035458216, -0.07191382, -0.004412512, -0.071742125, 0.021470033, 0.0069808043, -0.026385518, 0.016073834, -0.010744816, -0.06627639, 0.03076886, 0.020595785, 0.048585225, -0.0005782516, -0.06925126, -0.026217569, 0.0020454573, -0.032276925, 0.015381808, -0.011074899, -0.071318604, -0.0414794, 0.042460527, -0.037244495, 0.02342698, 0.049294315, 0.031380843, -0.010728223, -0.016381657, 0.008141938, 0.00841169, 0.00018410478, 0.07366636, -0.012076265, 0.046929624, -0.020261766, 0.039645996, 0.003784978, 0.089289, -0.027437352, 0.03887858, 0.023148492, 0.02374864, 0.007890573, -0.0006425221, 0.027631644, 0.052591212, -0.04090001, 0.08791962, -0.029066728, -0.019839559, -0.0019723724, -0.02444652, 0.040810287, -0.019112704, 0.06750735, 0.005376182, -0.02188963, 0.0010086593, -0.019176926, 0.048609633, 0.029291864, 0.0024138414, -0.025357975, 0.014339638, 0.06817108, 0.036141835, 0.0016397457, 0.005674853, 0.08412173, -0.0607909, -0.022333274, -0.00788347, 0.018355086, 0.02414027, -0.05895613, 0.025086442, -0.058880206, 0.010783009, 0.049588654, -0.023269514, 0.004325182, -0.060875032, -0.061220363, -0.021038476, 0.058500152, -0.042688746, 0.062268477, 0.0047219424, 0.018092921, -0.02485027, -0.0046418156, -0.0015489064, -0.035012305, -0.02610899, -0.039755784, -0.064711094, 0.07483037, -0.0791044, -0.055660404, -0.00025833654, -0.008955216, 0.04231038, 0.05358013, -0.0422021, 0.02921426, 0.03362379, 0.0067620995, 0.05070008, -0.014737562, 0.03796206, 0.016361054, -0.025440775, -0.008396895, 0.02989438, 0.008548642, -0.045947257, 0.05212899, 0.0320425, -0.033501524, 0.03520779, -0.01039078, 0.031789437, 0.009500696, -0.0073313117, 0.03513256, -0.043041807, -0.0029236828, 0.046375416, -0.0029305653, -0.0054517677, -0.03494902, -0.057456076, -0.028660886, 0.014854901, 0.035175573, -0.015548967, 0.04599526, 0.050784413, -0.00775489, -0.020944519, 0.022731027, 0.01725053, -0.03512012, -0.00059085427, -0.06737745, 0.019297242, -0.034097474, -0.020720303, 0.0058807335, 0.027286133, -0.044715043, -0.04227927, 0.028594024, 0.017449232, 0.07038694, -0.017578121, -0.023953201, 0.06721003, 0.07407937, 0.064759366, 0.055339925, 0.0042114463, 0.065830044, 0.06262173, 0.002255325, -0.01573606, 0.058077484, 0.019455304, -0.025338424, 0.01816135, -0.014027821, -0.06115926, 0.0012620974, -0.04077944, 0.006346629, -0.03932912, -0.065160766, 0.03968862, 0.039667435, 0.019342799, -0.034776174, 0.003936369, -0.0004520714, -0.016389519, -0.0568235, -0.062835686, 0.011407645, 0.014086205, 0.07337357, -0.0048909327, 0.01975748, 0.03348149, 0.06574477, -0.00196776, -0.060484327, -0.029427757, -0.007412353, -0.02560567, 0.035070945, -0.008525208, -0.066108525, -0.024728494, -0.067694366, -0.05484001, -0.0073936856, -0.029739019, -0.055589933, 0.028656505, -0.04621698, 0.060564745, -0.0061357846, -0.097638704, 0.012966879, -0.034217235, -0.016469322, 0.036856268, 0.05513089, 0.02120899, -0.0068945354, -0.038597144, 0.010614348, -0.0017257276, 0.024159513, 0.0035474943, 0.017525403, -0.021288665, 0.012016958, 0.06540124, -0.059647035, 0.026894066, 0.016612358, -0.055512883, 0.026969146, -0.044559076, -0.023908772, 0.0030143629, 0.042331725, 0.009752078, 0.09159466, 0.04394741, 0.12423837, 0.00015284633, 0.021157552, 0.016128018, 0.019518206, -0.011976725, -0.049451396, 0.029428327, -0.016323, -0.052517198, 0.047179773, 0.0094779935, -0.0067757675, -0.04888799, -0.04764068, 0.08594399, 0.009754033, 0.055112872, 0.00056525384, 0.046912882, 0.07319549, -0.051846333, 0.019554604, 0.03746828, -0.07046674, -0.00017975201, 0.089668155, -0.033651672, -0.036399927, 0.038970597, -0.035872832, -0.042657167, -0.05378525, 0.051282197, -0.015602847, 0.08345044, 0.016391534, -0.034866005, 0.017125556, -0.07090693, -0.02677732, 0.02459494, -0.016635507, 0.067423955, -0.034775034, 0.027417215, 0.029838305, 0.04577126, -0.04338958, -0.05582943, -0.0035929605, 0.025292618, 0.056471422, 0.01870526, 0.003956384, 0.10662571, 0.0010770179, 0.010843244, -0.034406293, 0.06250031, -0.068947114, -0.0038977845, -0.030677501, 0.016710272, 0.019676168, -0.06428936, -0.07778777, 0.013071714, 0.04200748, 0.03247746, -0.058892578, 0.06911454, -0.02277744, -0.008633984, 0.064344615, 0.01435887, -0.08273997, -0.012011126, -0.02851984, -0.028676234, 0.029916337, 0.06824893, 0.028825006, -0.04730649, -0.064552255, 0.0095932875, -0.022916978, 0.10959686, -0.009697975, -3.1917938e-05, 0.020700661, 0.0073737316, 0.019219276, 0.01330881, -0.0446739, -0.034374658, -0.020083047, -0.033241287, -0.06401308, -0.031210572, 0.015046949, -0.07518744, -0.02930547, 0.0082146805, -0.034747552, -0.016785616, 0.014916908, 0.019644644, 0.090516195, -0.036673628, 0.032814294, -0.0072351377, 0.004476127, 0.04182705, 0.013422906, 0.009354235, -0.053942736]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>2018</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>박유진</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Elucidation of the processing performance of turanose in rice flour systems:
-rheology, microstructure, and water mobility</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Elucidation of the processing performance of turanose in rice flour systems: rheology, microstructure, and water mobility</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Turanose, a new alternative sweetener, has received much attention since it is non-cariogenic and low-calorigenic. However, there are few studies about the application of turanose to foods, consequently discouraging the food industry from applying turanose to a variety of foods. In this study, the processing performances of turanose in different rice flour systems were determined in terms of rheology, microstructure, and water mobility. The rice flour containing high levels of turanose exhibited higher water hydration properties and pasting viscosities that contributed to their greater elastic properties. The rice doughs with higher levels of turanose exhibited greater dough stability and shorter dough development time. These results were highly linked to the highly swollen structure of rice flour particles in a turanose solution that was clearly observed by the real-time microscopic measurement. In addition, the water mobility of the rice-turanose suspensions before and after gelatinization was investigated by NMR. Furthermore, the extruded rice noodles containing turanose exhibited higher expansion ratio and firmer textural properties that led to the reduced cooking loss.</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[-0.0037994992, -0.020717625, 0.053722117, -0.012384957, 0.058512736, 0.02720966, -0.025877029, -0.0736997, 0.013338825, 0.040545776, -0.06832528, 0.0015016242, 0.056000147, 0.035727248, -0.0067459876, 0.033562027, 0.014587319, 0.037575368, 0.011071727, 0.048086572, -0.0069733006, 0.0077695986, -0.0376719, 0.06305466, 0.06736416, -0.0017198125, 0.04952525, 0.004121403, -0.027325798, -0.02164545, 0.021192236, -0.012297805, -0.04824998, -0.06496213, -0.01385464, -0.013727567, 0.048626855, -0.016049795, 0.048441343, -0.014648139, -0.062543824, 0.013013882, -0.0077061257, 0.03125028, 0.009126939, 0.017342383, 0.043086883, 0.020965848, -0.04189864, -0.008654244, -0.025796626, -0.020270145, 0.03538847, 0.017669039, 0.04193794, -0.04967106, -0.045578357, -0.04136054, -0.013656633, -0.043121867, -0.055738848, -0.014601944, -0.08045552, -0.045769073, -0.0074212737, 0.002745276, 0.044973906, 0.021168496, 0.04168591, -0.059636254, -0.0602357, 0.004684427, -0.0134266615, -0.0059169345, -0.102475956, -0.058250032, 0.015631726, -0.048529875, -0.03263204, -0.053564496, -0.004438666, -0.023117784, 0.08085359, 0.04960942, -0.05780486, 0.06483987, -0.05304527, -0.013174082, -0.022216694, 0.041125398, 0.048784435, -0.0064295423, 0.10171521, 0.008708704, 0.0383121, 0.012482698, 0.084093444, 0.12377622, 0.025455456, 0.01027006, -0.03108781, 0.0317485, -0.039175212, -0.0059094536, 0.032417536, -0.0026255609, 0.023403712, 0.001965306, 0.041218206, 0.017447896, -0.025816496, -0.058364764, -0.05512566, 0.020597937, -0.022863166, 0.057744343, 0.046533667, 0.07283757, 0.0039345715, 0.045746453, 0.03501258, -0.0026853345, -0.020165531, 0.061464474, -0.0374614, 0.002912657, -0.03891415, -0.038039498, 0.00012641493, -0.08145997, 0.057742625, 0.030895548, -0.0575568, -0.012324515, 0.04137382, 0.03616469, -0.016020112, -0.019560212, 0.005430371, 0.027791834, -0.011338589, -0.015644073, 0.040470086, -0.036488328, 0.03898484, 0.013353241, -0.07259027, -0.022926405, 0.00094374636, -0.0047379904, -0.042339616, 0.03717048, 0.010654504, -0.038031485, -0.0152001185, -0.04104465, -0.07366995, -0.0029828632, -0.024896413, -0.017367028, -0.041513927, -0.051040113, 0.022367604, -0.020850006, 0.0001968364, -0.04671008, 0.044762794, 0.006317377, -0.0023204382, 0.026331896, -0.010573436, -0.024862148, -0.020780534, -0.03814982, 0.031785544, -0.010848153, -0.0063550808, -0.009999338, 0.047893886, 0.0019796276, 0.032807354, -0.05180197, 0.055306755, -0.03871811, 0.07857069, -0.009079989, 0.01777861, -0.037649997, -0.021587346, 0.017624345, -0.08550717, -0.011109354, 0.05143553, 0.04091811, 0.006011688, 0.0048102504, 0.009709512, -0.037888885, 0.09982835, 0.012642792, -0.00414139, 0.050275315, 0.011364693, -0.011699461, 0.09630662, 0.0470017, 0.011557902, 0.013814945, 0.01578787, -0.011267114, -0.06874418, 0.028914446, -0.047602, -0.0516786, 0.02802581, -0.011621779, -0.0063093076, -0.029085597, 0.01838771, 0.10454717, -0.041943185, 0.026157172, -0.034878876, 0.0063365605, -0.022519024, 0.0080553, -0.0048191007, -0.018889718, -0.008205883, -0.002294922, -0.011530203, -0.052882228, -0.0674725, 0.005494622, 0.038166396, -0.043176144, 0.003273468, 0.025066031, 0.04998789, 0.08852218, -0.013149443, 0.013745632, 0.024113359, -0.0070322547, -0.0058820685, -0.028460195, 0.015725825, -0.04293355, -0.032123372, -0.02358188, -0.051781453, 0.039234683, 0.019184979, -0.0033623662, 0.0489508, 0.0007627459, -0.017033435, -0.056402456, -0.026412554, -0.036630247, 0.048337333, 0.019161968, -0.0019964413, 0.0016304713, -0.01957307, -0.006906421, 0.013958557, -0.024959676, 0.025692739, -0.027257781, -0.004345387, 0.022926215, 0.017650614, 0.033126667, -0.0247747, 0.043779634, -0.045426305, -0.08411188, 0.007617034, -0.012131742, -0.05024639, -0.013824952, 0.0659518, -0.036320947, -0.019152706, -0.06566697, -0.02430192, 0.0015190188, -0.02906536, -0.082528256, 0.019282173, -0.06607163, 0.03982209, 0.031575527, -0.05211867, 0.04902301, -0.030835459, 0.019280832, 0.017297074, -0.010696092, -0.039509516, -0.00063864695, 0.0322942, -0.007982684, 0.048524376, -0.015599891, -0.011001476, 0.012718505, -0.013043589, 0.07762933, -0.06268094, 0.030692201, -0.002398432, 0.027071558, 0.018580614, 0.043032624, 0.026296154, 0.005747637, -0.015614372, -0.022540066, 0.02186951, 0.07387536, -0.0813372, 0.002895748, -0.03854925, 0.092606224, -0.034538068, 0.0085758725, -0.044604406, 0.08614074, 0.015268082, -0.0054906793, 0.05985833, 0.018098542, 0.015465032, -0.06158886, -0.034576915, -0.0015190074, 0.0140298335, -0.025808755, -0.030921418, 0.0443648, 0.044343054, 0.0039067245, -0.011374257, 0.0070121572, 0.04187315, 0.07428811, -0.03347494, -0.002505312, 0.0034743124, -0.023876324, 0.028612114, 0.02573395, -0.047040116, -0.0062067923, 0.002897008, -0.056307413, 0.0015019411, -0.041855972, 0.00653507, -0.031398617, 0.011034759, 0.0028934416, -0.013231161, 0.007941204, -0.08868798, -0.02807687, 0.01954021, -0.019704318, 0.03457434, -0.040214732, -0.03821586, 0.026600597, -0.011232258, -0.00052250543, -0.05266109, 0.12192037, 0.062269133, 0.030427111, -0.027548363, 0.044229604, -0.0047833943, -0.030791976, -0.08064044, -0.006812062, -0.12151752, 0.08175246, -0.030980613, -0.0371405, -0.03800069, 0.09311658, 0.05312927, -0.043423284, 0.01517669, 0.039695516, -0.054266065, -0.06292705, -0.007850227, -0.0023498314, 0.030281786, -0.01021593, -0.027080767, -0.013042967, -0.088739075, 0.026772443, 0.027663024, -0.04844451, -0.026512306, -0.0106484955, 0.004201532, 0.02488294, 0.04174142, 0.026262635, -0.008457362, -0.051342987, 0.024066867, -0.012474249, 0.010289608, -0.009042191, -0.034914438, 0.011343714, 0.009382371, -0.009996811, -0.043240692, -0.02841698, 0.08627626, -0.013316331, -9.770971e-06, 0.047426518, 0.030451877, -0.050869685, 0.0025090624, -0.0045824586, -0.049286596, 0.03151938, 0.015199666, -0.028591799, 0.08258573, -0.024166182, -0.017722894, -0.04452525, 0.0025599916, 0.07555526, 0.00785592, 0.0176569, 0.04743911, 0.028652266, -0.022589462, -0.022440262, -0.02623286, 0.0041013225, -0.00079011434, 0.0519591, 0.030006513, 0.00466245, -0.051987708, 0.008994626, -0.012171276, -0.0031350688, 0.015796615, 0.015570522, 0.10644919, -0.010958495, 0.06006418, -0.04867537, -0.088844076, 0.044765256, 0.014070653, 0.006362969, -0.06385798, 0.042802613, 0.05192059, -0.007460848, -0.083081335, -0.022664864, 0.05008214, -0.040767964, 0.01749447, -0.038419705, 0.021021785, -0.033356592, 0.07525946, 0.052926026, -0.039274894, 0.041687515, -0.012357354, -0.026574623, -0.012153973, 0.03372284, -0.09682186, 0.012808442, -0.034029324, 0.006080091, 0.05680371, 0.019430002, -0.019117093, -0.007051887, -0.028409064, -0.023484604, 0.0014792419, 0.041230164, -0.003442152, -0.052784905, -0.06915999, -0.010346126, 0.015663857, -0.039280515, -0.13783103, -0.0018146007, 0.016365342, -0.0014670332]</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[-0.0037994876, -0.020717625, 0.053722125, -0.0123849735, 0.05851276, 0.027209671, -0.025877051, -0.07369968, 0.013338821, 0.04054576, -0.068325266, 0.0015016608, 0.056000143, 0.035727262, -0.0067459913, 0.03356202, 0.014587295, 0.037575353, 0.011071702, 0.04808659, -0.0069733164, 0.0077695996, -0.037671912, 0.063054666, 0.067364156, -0.0017197957, 0.049525253, 0.0041213934, -0.027325796, -0.02164543, 0.021192236, -0.012297809, -0.04824997, -0.06496213, -0.013854634, -0.013727559, 0.04862685, -0.016049795, 0.048441328, -0.014648124, -0.06254383, 0.013013867, -0.007706117, 0.03125029, 0.009126946, 0.017342377, 0.043086868, 0.02096584, -0.041898623, -0.008654239, -0.025796626, -0.02027014, 0.035388492, 0.01766904, 0.041937932, -0.04967106, -0.04557838, -0.04136053, -0.0136566125, -0.04312185, -0.055738848, -0.014601949, -0.08045552, -0.04576906, -0.007421279, 0.0027452575, 0.044973914, 0.021168495, 0.04168591, -0.059636272, -0.060235705, 0.0046844264, -0.013426673, -0.0059169303, -0.10247595, -0.058250025, 0.015631717, -0.04852986, -0.03263204, -0.053564493, -0.0044386513, -0.023117794, 0.080853574, 0.049609408, -0.05780486, 0.06483987, -0.05304526, -0.01317408, -0.022216687, 0.04112538, 0.04878439, -0.006429549, 0.101715185, 0.008708724, 0.038312092, 0.012482687, 0.084093474, 0.123776235, 0.025455458, 0.010270054, -0.031087799, 0.031748526, -0.039175197, -0.0059094555, 0.032417536, -0.0026255674, 0.023403723, 0.0019652986, 0.041218225, 0.017447885, -0.025816485, -0.05836477, -0.055125676, 0.02059793, -0.022863165, 0.05774432, 0.04653367, 0.07283759, 0.0039345752, 0.045746464, 0.035012588, -0.0026853378, -0.020165533, 0.061464474, -0.0374614, 0.0029126948, -0.038914144, -0.038039483, 0.00012642471, -0.081459984, 0.057742633, 0.030895552, -0.057556797, -0.012324508, 0.041373838, 0.036164712, -0.016020123, -0.019560205, 0.0054303743, 0.027791837, -0.011338578, -0.01564408, 0.04047011, -0.036488347, 0.03898482, 0.013353239, -0.07259028, -0.022926403, 0.00094374147, -0.004737981, -0.04233962, 0.037170473, 0.010654529, -0.038031492, -0.015200132, -0.041044634, -0.07366993, -0.0029828744, -0.024896413, -0.017367024, -0.041513927, -0.051040128, 0.022367626, -0.020849979, 0.00019686189, -0.04671008, 0.044762794, 0.0063173748, -0.0023204512, 0.026331892, -0.0105734365, -0.024862155, -0.020780534, -0.038149834, 0.031785578, -0.010848151, -0.0063550943, -0.009999328, 0.047893886, 0.0019796188, 0.032807335, -0.051801983, 0.05530672, -0.03871811, 0.07857068, -0.009080003, 0.017778626, -0.03764998, -0.021587312, 0.017624322, -0.08550719, -0.0111093335, 0.051435515, 0.04091813, 0.006011718, 0.004810252, 0.009709509, -0.037888885, 0.09982836, 0.0126427775, -0.004141387, 0.050275315, 0.011364678, -0.011699445, 0.096306644, 0.047001693, 0.011557885, 0.013814934, 0.015787862, -0.0112671275, -0.06874419, 0.028914439, -0.04760201, -0.05167861, 0.02802582, -0.011621779, -0.0063093132, -0.029085603, 0.0183877, 0.104547165, -0.041943174, 0.026157184, -0.034878884, 0.006336547, -0.022519035, 0.0080552995, -0.0048190933, -0.01888971, -0.008205883, -0.002294909, -0.011530186, -0.052882228, -0.06747251, 0.005494611, 0.038166378, -0.04317615, 0.0032734638, 0.025066035, 0.04998789, 0.088522166, -0.01314945, 0.013745619, 0.024113376, -0.007032252, -0.005882105, -0.028460184, 0.01572582, -0.042933535, -0.032123357, -0.023581889, -0.051781453, 0.03923469, 0.019184988, -0.003362382, 0.0489508, 0.0007627594, -0.017033443, -0.05640247, -0.026412556, -0.036630247, 0.048337344, 0.019161949, -0.001996457, 0.0016304804, -0.019573085, -0.0069064246, 0.013958551, -0.02495968, 0.025692753, -0.027257768, -0.004345358, 0.022926224, 0.017650606, 0.033126663, -0.024774682, 0.04377965, -0.04542631, -0.08411188, 0.0076170117, -0.012131748, -0.050246414, -0.01382492, 0.065951824, -0.036320943, -0.019152712, -0.06566697, -0.024301916, 0.0015190175, -0.029065361, -0.082528286, 0.019282173, -0.066071615, 0.03982209, 0.03157552, -0.052118666, 0.049023014, -0.030835452, 0.019280825, 0.017297063, -0.010696097, -0.039509527, -0.0006386493, 0.0322942, -0.0079826815, 0.048524357, -0.0155999055, -0.011001461, 0.012718534, -0.013043595, 0.07762932, -0.06268094, 0.030692205, -0.0023984362, 0.02707156, 0.018580623, 0.043032605, 0.026296152, 0.0057476507, -0.015614374, -0.022540059, 0.021869494, 0.07387537, -0.08133723, 0.0028957531, -0.03854923, 0.09260622, -0.03453803, 0.008575885, -0.04460441, 0.08614075, 0.015268077, -0.0054906495, 0.059858326, 0.018098552, 0.015465038, -0.06158886, -0.0345769, -0.0015190009, 0.014029835, -0.02580875, -0.030921416, 0.044364814, 0.044343065, 0.0039067254, -0.011374262, 0.007012154, 0.041873176, 0.074288085, -0.03347494, -0.0025053236, 0.0034743077, -0.023876319, 0.028612107, 0.025733957, -0.04704011, -0.006206803, 0.0028970053, -0.05630742, 0.0015019375, -0.041855976, 0.006535073, -0.03139861, 0.011034764, 0.0028934695, -0.01323116, 0.007941183, -0.08868798, -0.02807687, 0.0195402, -0.019704318, 0.03457435, -0.04021472, -0.038215857, 0.026600616, -0.011232247, -0.0005225157, -0.052661113, 0.12192037, 0.06226915, 0.030427106, -0.027548349, 0.044229604, -0.0047834273, -0.030791983, -0.08064044, -0.0068120593, -0.12151752, 0.08175248, -0.03098061, -0.03714049, -0.038000688, 0.09311655, 0.053129293, -0.04342327, 0.015176682, 0.039695505, -0.054266073, -0.06292706, -0.007850257, -0.0023498416, 0.030281788, -0.010215936, -0.027080778, -0.013042988, -0.0887391, 0.026772413, 0.027663017, -0.048444528, -0.02651233, -0.010648504, 0.0042015514, 0.024882922, 0.04174142, 0.026262624, -0.008457349, -0.051342975, 0.024066862, -0.012474242, 0.010289574, -0.009042195, -0.034914415, 0.011343712, 0.009382377, -0.0099968165, -0.043240685, -0.028416999, 0.086276285, -0.013316337, -9.781681e-06, 0.047426518, 0.030451862, -0.050869692, 0.0025090633, -0.00458244, -0.049286593, 0.03151938, 0.015199653, -0.028591795, 0.08258575, -0.024166184, -0.017722879, -0.044525266, 0.0025599813, 0.07555528, 0.007855916, 0.017656883, 0.047439106, 0.02865227, -0.022589458, -0.022440262, -0.026232833, 0.0041013146, -0.00079013297, 0.051959094, 0.030006487, 0.004662438, -0.0519877, 0.00899464, -0.012171255, -0.0031350614, 0.015796619, 0.015570522, 0.10644922, -0.010958458, 0.060064167, -0.048675373, -0.08884407, 0.044765234, 0.014070663, 0.006362976, -0.06385798, 0.042802602, 0.0519206, -0.007460841, -0.08308131, -0.022664841, 0.050082162, -0.04076794, 0.017494474, -0.038419712, 0.02102177, -0.033356577, 0.07525944, 0.052926034, -0.039274883, 0.041687522, -0.012357356, -0.026574604, -0.012153967, 0.033722855, -0.096821845, 0.012808446, -0.034029305, 0.0060801026, 0.056803707, 0.019429995, -0.019117095, -0.0070518926, -0.028409045, -0.023484586, 0.0014792247, 0.041230172, -0.003442177, -0.05278489, -0.06915999, -0.010346141, 0.015663847, -0.0392805, -0.13783105, -0.0018146063, 0.016365355, -0.0014670246]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>2018</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>김명선</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Effects of particle size of rice flour on the physicochemical and noodle
-making characteristics of gluten free zein rice flour composites</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Effects of particle size of rice flour on the physicochemical and noodle making characteristics of gluten free zein rice flour composites</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>The demand of gluten free products with rice flour has been increasing due to non allergenic functionalities However, the food industry has still faced a challenge of the use of rice flour in a variety of food products ( instant noodles) because of the lack of gluten In this study, zein a protein derived from corn, was utilized to form a network structure of rice noodles slit from gluten free sheeted dough and the particle size effect of the rice flour was investigated in terms of physicochemical properties While rice flours with smaller particle size showed higher starch damage, they had greater water hydration properties, pasting parameters, and elastic properties In case of noodles, the intermediate particle size samples showed the highest breaking stress, hardness, and maximum resistance In addition, the intermediate particle size was positively effective in reducing the cooking loss of rice noodles This study can thus provide a positive opportunity for the food industry to develop a wider variety of gluten free rice products by controlling particle size</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>[0.004947097, -0.015911745, 0.03520789, 0.012674556, 0.08695212, 0.040527035, -0.01986587, -0.0076433895, 0.033680957, 0.049836755, -0.108133234, -0.05514211, 0.0009781827, 0.05259122, -0.017087104, 0.070599064, -0.04214025, 0.08577588, 0.027407553, 0.057123847, -0.010936207, 0.009860996, -0.02210323, 0.044124447, 0.098154716, 0.04190118, 0.014446862, -0.050588824, 0.035497624, -0.011414598, 0.039194036, -0.0749668, -0.01658336, 0.0047075874, 0.00808732, -0.035203874, 0.032587156, 0.0018861609, 0.06870497, 0.042641163, -0.058593813, 0.045173455, -0.045457687, -0.033946887, 0.008705245, -0.016534274, -0.021720074, -0.03280617, -0.02738184, 0.03147331, 0.0061896876, -0.029197624, 0.03251129, 0.030384269, 0.042440902, -0.023540948, -0.05472135, -0.02739561, -0.024532193, 0.031475917, -0.0528404, -0.05557375, -0.032264218, 0.019797035, 0.021065354, 0.020047024, 0.015950086, -0.04139121, -0.03272552, 0.05164996, -0.0076802433, -0.019774586, 0.05822165, -0.007973642, -0.066430606, -0.13461433, -0.017268496, 0.003412766, -0.025466852, -0.025699448, -0.015251058, -0.029806701, 0.012847096, -0.020859828, -0.07523253, 0.050298877, -0.05778362, 0.036732726, -0.027135001, 0.010473758, -0.011653305, -0.02269807, 0.11390438, 0.061891314, 0.036475025, 0.054479837, 0.05255469, 0.10325876, 0.01807125, 0.062073264, -0.016896358, 0.01804974, -0.022231366, -0.0018126268, 0.05977786, -0.04402464, 0.040609583, 0.005639798, 0.056277864, 0.05018222, 0.006072991, -0.045678224, -0.03788333, -0.012947035, 0.01549913, 0.06756115, 0.0089735, 0.056483153, 0.024356516, 0.04689778, 0.039769888, 0.028098818, -0.043011267, 0.0969362, 0.02644485, 0.07481167, 0.016087014, -0.010452292, 0.005662701, -0.061822165, 0.025338078, 0.055905048, -0.056096196, 0.04785392, -0.0043419986, 0.0038255143, -0.020537572, 0.014512807, 0.041977428, -0.009577112, 0.06462885, 0.03129995, 0.052435286, -0.048909754, -0.036545116, -0.018279325, -0.03424557, -0.014343729, 0.007984198, 0.046867233, 0.012964898, -0.06078749, 0.03984475, -0.010757534, 0.00520274, -0.07972022, 0.020119961, -0.040434346, -0.014530451, -0.03235057, 0.019144014, -0.019906111, -0.03746821, 0.016144684, -0.001997076, 0.04333141, 0.046402954, 0.007653343, 0.021551343, 0.011740978, -0.016978499, -0.005316941, 0.019630184, 0.011938664, -0.0041611968, -0.06264175, 0.013842447, -0.023546513, 0.077133, -0.014844913, 0.06237849, -0.10408893, -0.0014654713, -0.021102818, 0.04163139, -0.033215404, -0.0056995847, -0.019524064, 0.042962395, 0.019240174, -0.1043069, 0.034861766, 0.04461147, -0.006475567, 0.008743744, 0.04840933, 0.014473145, -0.054569777, 0.050792888, 0.0779791, 0.106151715, 0.027451012, 0.004287155, -0.06353601, 0.10173199, 0.043872982, -0.0005394825, 0.02698533, 0.043075792, 0.045443986, -0.052815612, -0.0053010783, 0.0044577797, 0.018177453, 0.023952601, 0.014358568, -0.00813102, -0.0020493693, 0.0013752166, -0.010200191, 0.070281394, -0.021285178, -0.039188433, 0.048501946, -0.065308444, 0.021944067, 0.0612799, 0.02626628, -0.012545261, -0.06153103, -0.008595998, -0.06427385, -0.037507027, 0.01994529, 0.010613861, -0.0003547852, -0.06762554, 0.0094978595, 0.031599477, 0.07099474, -0.045463603, 0.0014168671, 0.016522197, 0.028550446, -0.022635741, -0.056740995, 0.010555496, -0.017404182, -0.10483052, -0.034744028, -0.040088326, 0.04502669, -0.04320915, -0.10115652, -0.018576015, 0.0022659434, -0.011497961, -0.08808067, -0.0709981, -0.031697083, 0.056829315, -0.024049422, -0.025603998, 0.0043283175, -0.030965187, 0.031435836, 0.019349389, -0.01080088, 0.028503204, -0.06106976, -0.010123914, 0.037211988, 0.02791357, 0.06602124, -0.017865555, 0.015513644, -0.012850766, -0.069340885, 0.0014848475, 0.017287236, -0.060470156, -0.0343485, 0.052101344, -0.072679326, -0.023270834, -0.012629428, -0.08616675, 0.023492627, -0.006018224, -0.066955596, 0.015927646, 0.0077113323, 0.035804745, 0.030573333, -0.06812389, 0.048057705, -0.0544241, 0.02779398, -0.022835813, 0.013165687, 0.026689287, -0.01835466, 0.064420305, 0.010061319, -0.017763363, -0.030119102, -0.031206323, 0.012183534, 0.0024045133, -0.011470483, -0.0023752416, 0.006478463, -0.014513121, 0.051808435, -0.04774291, -0.007112683, -0.04480041, -0.025877608, -0.024467472, -0.006831458, 0.031180061, 0.09131641, -0.021418987, -0.012846293, -0.081902206, 0.13157018, 0.021932933, -0.0139234355, -0.015335272, 0.029929861, 0.036558613, 0.0053044544, 0.04076697, 0.02907206, -0.06592633, -0.05062179, -0.019438254, -0.006730045, 0.012085695, -0.008891628, -0.020947745, -0.026829857, 0.03594381, 0.05368955, -0.0785624, 0.023447882, 0.027355963, -0.008367982, -0.07449232, -0.038439345, 0.008991905, 0.011439709, 0.0055978373, -0.017333983, -0.008603115, -0.00888657, -0.009771407, -0.09434354, -0.018559746, 0.0154265305, 0.05473263, -0.103973165, 0.025168188, -0.038684506, 0.051005516, -0.039031625, -0.059276465, -0.016946008, 0.018909093, 0.04424295, 0.015435401, 0.02429014, -0.02531253, 0.018732449, -0.05356548, -0.01603902, 0.024560388, 0.060229737, 0.06714183, -0.010510832, -0.006759978, -0.007832022, 0.021450127, -0.15017088, -0.027800748, -0.03794332, -0.08525721, 0.065965824, -0.036871996, -0.061639905, 0.081683666, 0.12023538, -0.016876588, 0.028198572, -0.03091203, 0.06875688, -0.09261817, 0.026357, -0.03706079, 0.013189097, 0.04646008, -0.052389417, -0.019056031, 0.027545523, -0.007843022, -0.019567294, -0.006042682, -0.010963239, -0.03900142, -0.07181343, 0.009226161, -0.003073446, 0.04943013, 0.052151177, 0.08782534, -0.027998574, -0.042832006, 0.011425682, 0.00028713187, -0.044601336, -0.047820877, 0.0063458835, 0.0013414855, -0.0034155797, -0.056292992, -0.0614116, 0.02407106, -0.072618924, -0.02995293, -0.006980312, -0.016446741, -0.015127036, -0.023169216, -0.077613674, -0.010311168, -0.02580202, 0.011072874, -0.008116755, 0.07977146, 0.030170254, 0.0055474835, -0.049276732, -0.087473065, 0.05440797, 0.014220706, 0.04542567, 0.0053108814, 0.028616857, 0.030912416, -0.07580372, 0.025758939, 0.031928137, -0.023970753, 0.07547009, 0.018356916, -0.06759514, 0.019245762, -0.020040462, 0.015875418, -0.06069658, -0.011435449, -0.020379854, 0.10803073, -0.049235083, 0.04188411, -0.047261503, -0.096230924, -0.015246759, 0.011086235, -0.05388461, 0.019284239, 0.08603089, 0.039351087, -0.0007185359, 0.0027799327, 0.009122343, 0.048688147, -0.009864987, -0.014849557, -0.07772166, 0.082384855, -0.03869561, 0.07090256, 0.042322267, -0.0155159095, 0.027970998, 0.021003239, 0.015270683, 0.00051707606, -0.0014096047, -0.04772297, -0.020851916, -0.07193439, 0.0061423993, 0.026222294, 0.0708898, -0.0053631165, -0.023393717, 0.019680409, -0.020544771, 0.01134369, -0.038919974, 0.0065484657, -0.020071141, -0.010136806, -0.031840235, -0.0071118153, -0.00787147, -0.07418438, -0.008227211, 0.017750857, 0.03164584]</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[0.0049470784, -0.01591174, 0.035207875, 0.01267456, 0.08695211, 0.040527046, -0.019865861, -0.0076433923, 0.033680927, 0.04983674, -0.10813327, -0.055142127, 0.0009781743, 0.052591227, -0.01708712, 0.07059906, -0.04214024, 0.085775875, 0.027407527, 0.057123855, -0.010936194, 0.009861002, -0.02210323, 0.04412444, 0.098154716, 0.04190118, 0.014446868, -0.050588816, 0.035497636, -0.011414593, 0.039194036, -0.07496682, -0.016583342, 0.0047075967, 0.008087323, -0.035203837, 0.03258713, 0.0018861747, 0.06870497, 0.042641155, -0.05859382, 0.045173455, -0.045457702, -0.033946883, 0.008705236, -0.016534286, -0.021720048, -0.032806166, -0.027381836, 0.03147333, 0.0061897016, -0.029197628, 0.032511283, 0.030384267, 0.042440902, -0.023540957, -0.054721344, -0.02739562, -0.024532206, 0.03147595, -0.052840397, -0.05557376, -0.03226423, 0.019797064, 0.021065358, 0.020047013, 0.015950069, -0.04139124, -0.03272552, 0.051649943, -0.0076802536, -0.019774593, 0.058221612, -0.007973627, -0.066430606, -0.13461433, -0.017268479, 0.0034127585, -0.025466843, -0.02569944, -0.015251058, -0.029806675, 0.012847072, -0.020859817, -0.075232506, 0.05029887, -0.057783604, 0.03673272, -0.027134987, 0.010473765, -0.011653331, -0.022698078, 0.113904364, 0.06189132, 0.036475018, 0.054479852, 0.05255467, 0.103258744, 0.018071255, 0.062073246, -0.016896335, 0.018049745, -0.022231365, -0.0018126098, 0.059777882, -0.044024643, 0.0406096, 0.005639814, 0.05627784, 0.050182227, 0.0060729953, -0.045678224, -0.037883345, -0.0129470425, 0.015499137, 0.06756117, 0.008973494, 0.05648317, 0.024356501, 0.04689776, 0.039769884, 0.02809883, -0.04301125, 0.0969362, 0.026444856, 0.074811675, 0.016086988, -0.010452273, 0.005662685, -0.061822157, 0.025338069, 0.05590506, -0.056096204, 0.04785392, -0.004342016, 0.003825507, -0.020537583, 0.014512798, 0.04197742, -0.009577098, 0.06462882, 0.03129994, 0.05243531, -0.048909754, -0.036545116, -0.018279351, -0.034245577, -0.014343714, 0.007984187, 0.04686722, 0.012964907, -0.060787488, 0.039844736, -0.010757533, 0.0052027437, -0.079720244, 0.02011995, -0.040434346, -0.014530466, -0.032350574, 0.01914403, -0.019906104, -0.037468202, 0.016144693, -0.0019970797, 0.043331407, 0.04640296, 0.0076533486, 0.021551348, 0.011740977, -0.016978502, -0.005316939, 0.01963018, 0.011938658, -0.0041612014, -0.062641725, 0.013842433, -0.02354652, 0.077132985, -0.014844906, 0.06237849, -0.10408892, -0.0014654844, -0.021102842, 0.04163138, -0.03321542, -0.005699583, -0.019524056, 0.0429624, 0.01924018, -0.10430691, 0.034861755, 0.044611465, -0.0064755753, 0.008743733, 0.048409358, 0.014473165, -0.054569796, 0.05079287, 0.07797908, 0.106151715, 0.027450997, 0.0042871623, -0.063535996, 0.10173199, 0.043872975, -0.00053949136, 0.026985338, 0.043075778, 0.045443997, -0.05281559, -0.0053010886, 0.004457805, 0.01817744, 0.0239526, 0.0143585615, -0.008131007, -0.0020493497, 0.0013752125, -0.010200171, 0.070281394, -0.021285193, -0.039188422, 0.048501946, -0.06530846, 0.021944068, 0.06127989, 0.026266277, -0.012545262, -0.061531045, -0.008595989, -0.06427386, -0.037507053, 0.019945309, 0.010613843, -0.00035478218, -0.06762555, 0.009497839, 0.031599484, 0.07099475, -0.045463625, 0.001416855, 0.016522199, 0.028550414, -0.022635734, -0.056740973, 0.0105555095, -0.017404173, -0.10483051, -0.034744043, -0.04008832, 0.045026705, -0.043209154, -0.101156525, -0.018575996, 0.002265916, -0.011497956, -0.08808068, -0.07099812, -0.03169709, 0.056829322, -0.02404942, -0.025604019, 0.0043283305, -0.030965172, 0.031435832, 0.019349393, -0.010800877, 0.028503215, -0.061069757, -0.010123922, 0.037211973, 0.027913593, 0.06602123, -0.017865583, 0.015513633, -0.01285073, -0.0693409, 0.0014848675, 0.01728724, -0.06047018, -0.03434849, 0.052101344, -0.07267931, -0.023270825, -0.012629407, -0.086166725, 0.023492632, -0.0060182437, -0.06695561, 0.015927624, 0.007711337, 0.03580473, 0.030573325, -0.068123884, 0.04805771, -0.054424092, 0.027793966, -0.02283584, 0.01316569, 0.026689295, -0.018354679, 0.06442031, 0.01006133, -0.017763374, -0.030119136, -0.031206306, 0.0121835545, 0.0024045208, -0.011470489, -0.002375231, 0.0064784246, -0.014513106, 0.051808428, -0.047742918, -0.0071126968, -0.044800386, -0.025877625, -0.024467457, -0.006831439, 0.031180076, 0.09131641, -0.021418996, -0.0128462855, -0.081902206, 0.13157018, 0.02193293, -0.013923441, -0.015335276, 0.029929874, 0.036558613, 0.0053044152, 0.04076696, 0.029072067, -0.065926306, -0.05062179, -0.019438248, -0.006730035, 0.012085697, -0.008891643, -0.020947734, -0.026829865, 0.03594383, 0.053689558, -0.07856241, 0.023447879, 0.027355941, -0.0083679985, -0.0744923, -0.038439345, 0.008991914, 0.011439724, 0.0055978205, -0.017333979, -0.008603103, -0.008886569, -0.0097714085, -0.09434354, -0.018559739, 0.015426506, 0.054732613, -0.10397319, 0.025168207, -0.038684495, 0.051005535, -0.039031636, -0.05927645, -0.016945997, 0.018909082, 0.04424295, 0.015435394, 0.024290165, -0.025312537, 0.018732456, -0.0535655, -0.016039005, 0.024560368, 0.06022973, 0.067141816, -0.010510838, -0.0067599863, -0.007832036, 0.021450127, -0.15017086, -0.027800748, -0.037943337, -0.08525719, 0.065965824, -0.036871992, -0.061639957, 0.081683695, 0.12023536, -0.016876591, 0.028198585, -0.030912053, 0.06875689, -0.092618145, 0.02635699, -0.0370608, 0.0131890895, 0.04646008, -0.052389417, -0.019056024, 0.027545553, -0.0078430185, -0.01956729, -0.0060426663, -0.010963256, -0.039001413, -0.07181344, 0.009226147, -0.0030734777, 0.049430124, 0.05215117, 0.08782533, -0.027998583, -0.042832024, 0.011425682, 0.00028712722, -0.044601344, -0.04782089, 0.0063458947, 0.0013414972, -0.0034155974, -0.056292977, -0.0614116, 0.024071053, -0.0726189, -0.029952936, -0.0069803, -0.016446734, -0.0151270395, -0.023169212, -0.077613674, -0.010311173, -0.025802035, 0.011072884, -0.008116779, 0.07977147, 0.030170243, 0.0055474723, -0.049276717, -0.087473065, 0.054407943, 0.014220702, 0.04542567, 0.005310874, 0.028616797, 0.030912431, -0.07580371, 0.025758965, 0.03192814, -0.023970764, 0.075470075, 0.018356925, -0.067595124, 0.019245755, -0.020040473, 0.015875416, -0.060696557, -0.011435454, -0.020379873, 0.108030714, -0.049235098, 0.041884102, -0.047261503, -0.09623093, -0.015246762, 0.011086266, -0.05388461, 0.019284224, 0.08603092, 0.03935111, -0.0007185357, 0.002779954, 0.009122348, 0.04868816, -0.009864988, -0.014849551, -0.07772167, 0.08238486, -0.038695596, 0.07090256, 0.042322267, -0.015515894, 0.02797099, 0.021003239, 0.015270679, 0.0005170928, -0.0014096037, -0.047722977, -0.020851912, -0.07193436, 0.0061424016, 0.026222292, 0.0708898, -0.005363145, -0.023393711, 0.01968039, -0.020544773, 0.011343675, -0.038919963, 0.006548473, -0.020071145, -0.010136818, -0.031840254, -0.0071118223, -0.00787147, -0.07418436, -0.008227211, 0.017750872, 0.03164581]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>2018</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>한국식품과학회</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>김희수</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>부산</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>An instrumental approach with artificial saliva
-for simulating oral breakdown of rice flour</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>An instrumental approach with artificial saliva for simulating oral breakdown of rice flour</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Mastication is a complex process in which the size of food is reduced and saliva is incorporated into bolus in the mouth Since in vitro studies on the masticatory properties of foods are limited, the development of a mechanical simulator with saliva is needed to evaluate the structural breakdown of foods in mouth In this study, the instrumental device with artificial saliva was developed to simulate food mastication and the masticatory properties of rice flour gels with different amylose contents were investigated in terms of tomographic and rheological characteristics The masticatory peak forces were observed to gradually decrease during the chewing cycles The rice flour gels with high amylose content showed the highest values of degradation rate that was more affected by cohesiveness than amylose contents and their hardness Furthermore, the oral breakdown during mastication was confirmed by the tomographic analysis As a result, this study can help to understand structural changes of foods during mastication by simulating the oral chewing process</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>[-0.022408394, 0.06649729, 0.051676523, -0.0045365295, 0.071994804, 0.016870234, -0.035391413, -0.08283124, 0.004814788, 0.0355231, -0.060839158, -0.045493424, 0.07779016, -0.011407652, -0.0675424, 0.03765433, 0.02046315, 0.053923476, 0.026480023, 0.048754342, -0.04402301, 0.023902688, -0.046467293, 0.038857102, 0.01490929, 0.014994074, 0.064341925, -0.03371809, -0.010105335, 0.057527028, 0.05646379, -0.02076675, 0.010211774, 0.024008153, 0.038003016, -0.00466299, 0.018385548, 0.026413543, 0.060311724, -0.0018076742, -0.07489299, 0.00084861025, -0.063564375, -0.014476164, 0.05181259, -0.017509596, 0.019592527, 0.017960353, -0.015514039, 0.0013631285, -0.03081829, -0.029166374, -0.02358529, 0.05080294, 0.007849051, -0.012859249, -0.052310206, -0.046674095, -0.007883073, 0.05361019, -0.047449104, 0.017604722, -0.031975225, -0.019695157, 0.033933558, 0.019090213, 0.027280176, -0.037764516, 0.016732743, 0.0086909, -0.025777182, 0.0044402736, 0.042448606, 0.024482813, -0.075533986, -0.025288222, -0.013602716, 0.0053835437, -0.054791875, 0.014951417, -0.01528047, -0.012946547, 0.05172899, 0.02740924, -0.08837326, 0.07861002, 0.013237234, 0.022089928, 0.0042975326, 0.014965884, -0.007723366, 0.0022535056, 0.12203823, 0.070345506, 0.021189848, 0.026416596, 0.06324088, 0.041659698, 0.011044161, 0.07083147, -0.031339087, 0.030406369, -0.012576222, -0.035521362, 0.018793315, -0.024689319, 0.035549756, 0.003593579, 0.024725514, 0.02526734, 0.061365534, -0.07863652, 0.024469007, 0.0362659, 0.0089285, 0.06609528, 0.038418014, 0.051873714, -0.004741026, 0.039992694, 0.044005577, 0.011225187, -0.016785648, 0.072024144, -0.015930146, 0.02134411, 0.0027663393, 0.030493448, -0.025044646, -0.04909779, 0.027949924, 0.085882045, 0.029814897, 0.05133538, -0.008192995, -0.061087087, -0.03703797, 0.041501, -0.039100494, -0.02370188, 0.068704285, -0.015831197, 0.06765299, -0.011307621, 0.04845269, -0.047880307, -0.05247555, -0.05919381, -0.04353137, 0.031970255, 0.04305197, 0.034638595, -0.009760058, -0.015405905, 0.0033425137, -0.060700882, -0.046576075, -0.026610242, -0.012150572, 0.024269065, 0.041308258, -0.032495297, -0.032869756, 0.051707353, 0.01573255, -0.031439655, 0.07112883, 0.004199331, -0.024946485, 0.06511841, 0.008089675, -0.007137414, 0.033513583, -0.00046779538, 0.047167115, -0.01927263, -0.035500187, -0.067282215, 0.061371673, -0.04986795, 0.04673368, -0.08818751, 0.008168447, -0.03917006, -0.022084072, -0.0071394844, -0.0043532476, -0.085916646, 0.04685823, 0.011450962, -0.077891596, 0.055527084, 0.06882617, 0.00044789535, -0.0007498254, 0.030181196, 0.04184957, -0.036173034, 0.0030960918, 0.041774888, -0.013420361, -0.0034932464, 0.02664055, -0.043814585, 0.05954262, 0.0008200567, -0.019786827, 0.05672451, 0.049059723, 0.010212578, 0.012595905, 0.027072933, -0.0052877367, -0.04894686, 0.046015166, -0.008260029, 0.021902207, -0.06374065, 0.05936599, -0.011138794, 0.029226633, 0.04635031, 0.021975948, 0.09263148, -0.063741095, -0.008218957, 0.052781455, 0.053714808, -0.05519294, -0.007906706, -0.015065221, -0.03236111, 0.007659509, 0.022944137, 0.03727697, 0.05705792, 0.005101969, -0.03459985, 0.0032796778, 0.09545971, -0.046728164, 0.008706652, -0.051266287, -0.008911503, 0.06905638, 0.0048013176, 0.037121437, 0.013966561, -0.007542201, -0.019806294, -0.025692001, 0.02770683, -0.02193928, -0.030390391, 0.009129997, -0.04199911, 0.02919593, -0.09133666, 0.039754704, -0.09309754, 0.051750835, -0.06681745, -0.007248794, 0.0123300785, -0.02171189, -0.02868815, -0.002204201, 0.008478783, 0.037310265, -0.05900534, -0.0052336548, 0.02768287, 0.0435746, 0.02443467, -0.093491256, -0.047129627, -0.014058969, -0.01345718, 0.020810103, 0.062744744, 0.03738955, 0.0017971207, 0.039963067, -0.009262304, -0.061995193, -0.044231497, -0.02609444, 0.015368018, -0.002975589, -0.01982637, 0.007910259, -0.024163019, 0.058362365, -0.03582535, -0.06380362, 0.028773053, -0.020668609, 0.05895874, -0.05469866, -0.034229692, 0.011110912, -0.022482324, 0.020489935, 0.03271333, -0.015187996, -0.03133071, 0.043351527, -0.03703013, -0.0435672, 0.026132839, -0.039889358, 0.010775222, 0.010502889, 0.090170704, -0.037571598, 0.0009579965, 0.018368674, -0.026173979, -0.013865043, -0.033996247, 0.039192982, 0.05588067, -0.018160371, -0.046616577, -0.015336614, 0.021671448, -0.0068259058, -0.066139944, -0.06940999, 0.005903882, 0.004483514, -0.030098433, 0.02167526, -0.022049649, -0.01816686, 0.059407085, 0.01886447, 0.026276723, -0.019814106, 0.02377481, -0.049181066, 0.006550764, 0.07709803, 0.029502911, -0.007986227, 0.092365675, 0.05967825, -0.035201717, -0.058755964, -0.060286544, 0.027774783, -0.014248499, 2.3261178e-05, 0.019648828, -0.05932634, 0.002995477, -0.040892426, -0.064664364, 0.013043986, 0.021892542, 0.04288514, -0.060926765, 0.008191456, -0.0037779633, 0.000120532786, -0.04183234, -0.044752087, -0.024805542, -0.01388718, 0.06761271, 0.004926334, 0.010873802, -0.046195745, 0.046752058, -0.015282784, -0.012725031, 0.0071267406, 0.05678252, 0.03767776, -0.012596768, 0.0012633444, 0.021781944, 0.01121265, -0.087921634, -0.0084713, -0.022406667, -0.04145423, 0.052038148, -0.072662264, -0.033674754, 0.016087247, 0.11575324, 0.007839421, 0.005323275, -0.019699572, 0.045202017, -0.01530499, -0.019482112, 0.02889679, 0.014198865, 0.04504973, 0.005564928, -0.017940592, -0.010882638, 0.04235601, 0.033062592, -0.0066044037, 0.017890617, -0.05415604, -0.02238614, 0.03437641, 0.044176955, 0.051680274, 0.0863378, -0.0043357485, 0.0112151615, -0.06303488, 0.042866934, 0.024626473, -0.08470947, -0.033056084, 0.10574184, -0.06722546, 0.048765097, -0.04422279, -0.09815283, 0.026006509, -0.06852756, 0.029350115, -0.0151807945, 0.006890721, -0.027190868, -0.008604155, 0.032912806, -0.06496862, 0.011175554, 0.011511855, 0.00086619577, -0.084385365, 0.05208708, -0.028793678, -0.02360939, -0.0024801781, -0.02362799, -0.0031959165, -0.08048521, 0.026356686, -0.0033632293, 0.024470383, -0.035268124, 0.0011437142, -0.039937288, 0.044240173, 0.036561213, 0.04753332, -0.07633853, 0.005275668, 0.0132750105, -0.0706337, -0.018163465, -0.015312982, -0.030916605, 0.055382192, 0.0015960794, 0.023289988, -0.015861463, -0.027221687, 0.012771299, -0.019854154, 0.06301926, -0.0045596436, -0.018555315, 0.0061104647, -0.032062102, -0.06296167, -0.04441112, 0.015294297, -0.029217483, -0.021093054, -0.043796357, -0.010826217, -0.044669595, 0.12159359, 0.029317068, -0.007876853, 0.008143696, 0.055424593, 0.0048312717, 0.009846717, 0.006333949, -0.07993561, 0.007428597, -0.017325358, 0.02171854, 0.0009828911, 0.034242388, 0.014041848, -0.0064554834, -0.023368305, -0.051610738, -0.00064227625, -0.08555642, -0.0056359554, -0.013419762, -0.0126141105, -0.01568813, 0.013931353, 0.020065341, -0.1560566, 0.016620178, 0.0025474052, -0.024355067]</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[-0.022408389, 0.066497244, 0.051676527, -0.0045365407, 0.071994804, 0.016870197, -0.035391413, -0.082831234, 0.0048148166, 0.03552311, -0.060839158, -0.04549343, 0.07779018, -0.011407671, -0.06754238, 0.03765433, 0.020463167, 0.053923503, 0.02648002, 0.048754342, -0.044023033, 0.02390268, -0.046467293, 0.038857095, 0.01490929, 0.014994095, 0.06434193, -0.03371811, -0.010105369, 0.057527043, 0.05646381, -0.02076676, 0.010211769, 0.024008157, 0.03800304, -0.004662963, 0.018385533, 0.026413536, 0.060311716, -0.0018076653, -0.07489298, 0.0008486368, -0.06356438, -0.014476157, 0.051812578, -0.017509598, 0.019592527, 0.01796033, -0.015514051, 0.0013631271, -0.030818319, -0.029166404, -0.023585288, 0.050802954, 0.007849073, -0.012859249, -0.052310202, -0.046674103, -0.007883075, 0.05361019, -0.047449093, 0.017604712, -0.03197521, -0.019695144, 0.033933584, 0.019090224, 0.02728015, -0.037764493, 0.016732734, 0.008690895, -0.025777187, 0.0044402764, 0.04244863, 0.02448281, -0.075533986, -0.025288219, -0.013602728, 0.005383538, -0.0547919, 0.014951393, -0.015280485, -0.012946551, 0.051729012, 0.027409248, -0.08837325, 0.07861003, 0.0132372435, 0.022089943, 0.0042975303, 0.014965905, -0.00772338, 0.002253517, 0.122038215, 0.0703455, 0.021189854, 0.026416587, 0.063240886, 0.041659687, 0.011044161, 0.07083146, -0.03133908, 0.030406376, -0.012576247, -0.035521355, 0.018793313, -0.024689289, 0.035549726, 0.0035935636, 0.02472552, 0.02526735, 0.061365522, -0.07863654, 0.024469009, 0.03626593, 0.008928506, 0.06609525, 0.038418006, 0.051873744, -0.004741027, 0.03999269, 0.04400556, 0.0112251565, -0.016785659, 0.07202414, -0.015930146, 0.021344125, 0.0027663598, 0.03049344, -0.025044663, -0.0490978, 0.027949922, 0.08588205, 0.029814871, 0.051335346, -0.008192989, -0.061087057, -0.03703796, 0.041500982, -0.039100472, -0.023701888, 0.06870427, -0.015831191, 0.06765299, -0.011307623, 0.048452716, -0.047880284, -0.05247556, -0.0591938, -0.04353136, 0.03197024, 0.043051973, 0.034638584, -0.009760068, -0.015405878, 0.003342511, -0.060700882, -0.046576057, -0.02661025, -0.012150561, 0.024269046, 0.041308273, -0.03249529, -0.032869738, 0.051707335, 0.015732536, -0.03143964, 0.07112883, 0.004199334, -0.024946472, 0.06511843, 0.008089678, -0.0071373973, 0.033513576, -0.00046780842, 0.047167137, -0.019272655, -0.035500202, -0.06728223, 0.061371658, -0.049867965, 0.04673367, -0.0881875, 0.00816846, -0.039170068, -0.022084046, -0.007139471, -0.004353257, -0.085916676, 0.046858173, 0.011450964, -0.077891566, 0.055527084, 0.06882617, 0.0004478879, -0.00074981607, 0.030181188, 0.041849583, -0.036173023, 0.0030960909, 0.04177486, -0.013420365, -0.0034932427, 0.026640544, -0.04381459, 0.059542615, 0.0008200506, -0.019786831, 0.056724507, 0.049059734, 0.010212593, 0.012595919, 0.027072918, -0.005287729, -0.04894687, 0.046015184, -0.0082600145, 0.021902207, -0.06374065, 0.059366006, -0.011138798, 0.02922661, 0.04635031, 0.021975968, 0.09263146, -0.06374114, -0.008218952, 0.052781437, 0.053714845, -0.055192925, -0.007906712, -0.015065212, -0.032361105, 0.007659535, 0.022944141, 0.037276957, 0.057057917, 0.0051019453, -0.03459985, 0.0032796573, 0.09545969, -0.046728183, 0.008706676, -0.051266287, -0.0089114895, 0.06905636, 0.004801338, 0.03712142, 0.013966569, -0.007542218, -0.01980628, -0.025692008, 0.027706854, -0.021939298, -0.030390406, 0.009129979, -0.04199909, 0.029195942, -0.091336645, 0.03975471, -0.09309751, 0.05175085, -0.06681745, -0.0072487877, 0.012330048, -0.021711892, -0.028688157, -0.002204205, 0.008478802, 0.03731027, -0.05900532, -0.0052336566, 0.02768288, 0.043574594, 0.024434656, -0.093491256, -0.0471296, -0.0140589485, -0.0134572005, 0.020810101, 0.06274475, 0.037389547, 0.0017970913, 0.039963074, -0.009262275, -0.06199518, -0.04423151, -0.026094439, 0.015368019, -0.0029755814, -0.019826358, 0.007910247, -0.02416301, 0.058362387, -0.035825342, -0.0638036, 0.028773054, -0.020668617, 0.058958743, -0.054698665, -0.034229692, 0.011110896, -0.02248228, 0.020489957, 0.03271331, -0.015188002, -0.031330712, 0.043351542, -0.037030134, -0.043567218, 0.026132843, -0.03988935, 0.010775246, 0.0105028935, 0.09017071, -0.037571598, 0.0009580049, 0.018368669, -0.026173988, -0.013865025, -0.033996236, 0.039192975, 0.05588067, -0.018160377, -0.046616588, -0.01533658, 0.021671431, -0.0068259193, -0.06613992, -0.069409996, 0.005903894, 0.0044835154, -0.030098442, 0.021675255, -0.02204965, -0.01816686, 0.059407055, 0.018864455, 0.026276706, -0.019814115, 0.023774806, -0.049181044, 0.006550779, 0.07709806, 0.029502906, -0.0079862205, 0.092365675, 0.059678245, -0.035201702, -0.05875594, -0.06028654, 0.02777478, -0.014248506, 2.327282e-05, 0.019648843, -0.059326343, 0.0029954761, -0.04089242, -0.06466435, 0.013043991, 0.021892544, 0.042885143, -0.06092672, 0.008191461, -0.0037779391, 0.0001205687, -0.04183234, -0.044752095, -0.02480553, -0.013887202, 0.06761269, 0.004926293, 0.010873832, -0.046195745, 0.04675204, -0.015282794, -0.012725047, 0.0071267416, 0.05678253, 0.03767777, -0.012596763, 0.0012633267, 0.021781942, 0.011212639, -0.08792167, -0.008471296, -0.022406654, -0.041454207, 0.052038163, -0.072662264, -0.033674777, 0.016087247, 0.11575324, 0.007839417, 0.0053232866, -0.01969956, 0.045202035, -0.015305003, -0.019482097, 0.028896797, 0.014198859, 0.045049746, 0.005564912, -0.017940557, -0.010882628, 0.042356003, 0.03306259, -0.0066044256, 0.017890632, -0.05415603, -0.022386158, 0.0343764, 0.044176944, 0.05168028, 0.08633782, -0.004335761, 0.011215179, -0.06303488, 0.042866923, 0.024626473, -0.08470947, -0.033056084, 0.10574181, -0.06722546, 0.048765108, -0.044222794, -0.098152846, 0.026006501, -0.068527564, 0.029350111, -0.015180787, 0.0068907454, -0.027190868, -0.00860414, 0.03291278, -0.06496861, 0.0111755375, 0.011511834, 0.0008661902, -0.08438533, 0.052087095, -0.028793674, -0.023609385, -0.002480194, -0.02362801, -0.003195929, -0.080485195, 0.026356678, -0.0033632223, 0.024470376, -0.035268124, 0.001143732, -0.039937273, 0.044240177, 0.036561217, 0.04753329, -0.07633852, 0.0052756644, 0.013275023, -0.07063372, -0.018163463, -0.015312978, -0.030916609, 0.055382177, 0.0015960953, 0.02328998, -0.015861483, -0.027221689, 0.01277129, -0.019854154, 0.063019246, -0.0045596557, -0.01855532, 0.006110418, -0.032062102, -0.06296165, -0.044411138, 0.015294276, -0.029217465, -0.021093052, -0.04379638, -0.010826242, -0.044669587, 0.1215936, 0.029317083, -0.007876874, 0.008143704, 0.055424564, 0.0048312875, 0.00984673, 0.0063339453, -0.079935595, 0.0074285814, -0.01732534, 0.021718562, 0.000982905, 0.034242384, 0.014041818, -0.006455494, -0.02336828, -0.051610753, -0.00064230233, -0.08555639, -0.005635961, -0.013419772, -0.012614116, -0.015688118, 0.013931321, 0.020065332, -0.15605654, 0.016620206, 0.0025474124, -0.02435507]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>2017</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>AOCS</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>오임경</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Rheological and tomographic effects of shortening
-replacement with natural wax based oleogels
-in aerated baked goods</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Rheological and tomographic effects of shortening replacement with natural wax based oleogels in aerated baked goods</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>Sunflower oil high in unsaturated fats was structured with natural waxes (rice bran wax, beeswax, and candelilla wax) to form solid like oleogels that were utilized as a shortening replacer in aerated baked goods Specifically, their impacts
 on the rheological and tomographic characteristics of the cakes were investigated and compared Cake batters with greater amounts of oleogels exhibited lower viscosity, greater shear thinning behavior, and less elastic nature X ray micro
 computed tomographic analysis showed that the cakes prepared with shortening and beeswax oleogels exhibited a crumb structure with fine air cells homogeneously distributed while the pore size of rice bran and candelilla wax oleogels shifted to larger size fractions Significant differences in the cake volume were not observed between the control and beeswax samples while the cakes with candelilla and rice bran wax oleogels became harder and chewy in texture The levels of saturated fatty acids in the oleogel cakes were distinctly lowered to 14 17 compared to the shortening cake 58 The application of oleogels to a wider variety of food products may help the food manufacturers make a transition toward the development of healthier food items without significantly compromising their quality attributes</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>[-0.027606558, 0.048685364, 0.028835004, -0.016795304, 0.047175486, 0.012500224, -0.031415585, -0.081003964, 0.042933647, 0.0511324, -0.022484966, -0.069994055, 0.12251702, 0.04481668, -0.036503535, 0.048665676, -0.018778725, 0.06907466, -0.0006151804, 0.048891086, -0.05826971, 0.0061842804, -0.075575255, 0.033880852, 0.060505833, -0.054781303, -0.014718322, 0.07474271, -0.007233856, -0.007750237, -0.009940184, -0.037115775, -0.037054174, -0.022402653, 0.0026443175, 0.004053604, 0.06871119, -0.048451774, -0.038506806, -0.0042807045, -0.07886562, 0.0017785253, 0.0064454954, -0.031270545, 0.05075009, -0.04851871, 0.000245112, 0.06422236, 0.040510748, 0.03653676, -0.0013388443, -0.048350964, -0.00012791855, -0.026748732, -0.004081109, -0.07121119, -0.055337064, -0.115403, 0.029583683, 0.02513995, -0.067166425, -0.050178375, -0.025215305, 0.044164844, 0.011528865, -0.018734718, 0.011042985, 0.012889636, 0.09220313, 0.019117014, -0.029584581, -0.011270423, 0.0003018775, -0.0021597317, -0.06884615, -0.026940947, -0.028024497, -0.0404577, 0.008198942, -0.031694107, -0.01845553, -0.027148768, 0.058301046, 0.009842808, -0.04128125, 0.012022313, 0.03451581, 0.031991918, -0.0077974643, 0.03646687, -0.011535215, 0.020415481, 0.12487249, 0.05911825, 0.024591591, 0.018555077, 0.054281525, 0.05506932, -0.008152634, 0.030754264, 0.022443395, 0.04869751, 0.013582995, 0.0091708135, 0.06709317, -0.037040994, -0.012485226, 0.0339219, -0.0077204634, 0.047501236, -0.00024387415, -0.05604646, 0.010078805, 0.01985778, 0.019505303, 0.06498306, 0.0305855, 0.09698409, 0.026410565, -0.042230174, 0.10699089, -0.059404917, 0.0071874317, 0.0663838, 0.014475798, -0.02555725, 0.051397905, 0.04927007, 0.012726804, -0.0067687384, -0.016679743, -0.025789829, -0.013346309, 0.0012392186, 0.024467802, 0.002247817, 0.046501677, 0.073909976, 0.07113268, 0.025008943, 0.017728541, -0.022330057, 0.014739296, -0.022963326, 0.06423252, -0.024234254, -0.056720767, -0.035000015, -0.021460881, 0.024258368, -0.0069948067, 0.055971816, -0.0757687, -0.04778252, 0.045363903, -0.0704898, 0.068452604, -0.06937488, -0.0118745575, -0.008415233, 0.002851255, -0.006343868, 0.025621127, 0.007301364, 0.015619599, 0.08647057, 0.086742945, 0.027325982, -0.04731911, 0.07615018, -0.03177065, -0.016985804, 0.03536642, 0.058731034, -0.034459736, -0.058341395, -0.022002738, -0.04345393, 0.0324935, 0.019329373, 0.008295716, -0.037605524, 0.00643606, 0.00092807243, 0.019676851, -0.006933268, -0.030481562, -0.05254706, 0.03377145, 0.058826853, -0.07451786, 0.025258504, 0.07126275, 0.008488069, 0.022405082, 0.009977457, 0.06578678, -0.02969286, 0.019548127, 0.06113992, 0.012334051, 0.033210743, -0.0068970174, -0.0017825076, 0.09001268, -0.00085489394, -0.012399733, -0.005516081, 0.03102252, 0.00038615178, -0.024786199, 0.06592685, 0.033643793, -0.0052795405, 0.0033181543, 0.018289959, 0.033929948, -0.032382507, -0.0023936694, 0.03947875, -0.023550099, -0.0034941232, -0.03848569, 0.034771513, -0.053307157, 0.023264633, 0.003074724, 0.047016833, -0.05389004, 0.0016619539, 0.000606087, -0.01700009, -0.04146697, 0.04982948, 0.03597376, 0.05000679, -0.01180586, 0.038308054, -0.0057754414, 0.059792593, -0.0149704255, 0.057024542, 0.017545065, -0.007863807, 0.040003706, -0.04272274, 0.06270482, 0.027711462, 0.017913682, -0.03256664, -0.02074059, 0.08406718, 0.024309428, -0.016656213, 0.08790978, -0.007041096, 0.021472612, -0.049954385, 0.033218883, -0.009572982, -0.0025579236, 0.007931185, 0.03219813, -0.05989943, -0.018076438, -0.087739244, 0.030883653, -0.01656058, 0.04476683, 0.014873325, -0.029933363, -0.02899955, 0.02273796, 0.012488425, -0.04016892, -0.01671501, -0.003292851, 0.011178044, 0.036832236, -0.037066586, -0.006187173, 0.0020215688, -0.018766597, 0.077632226, 0.0061986563, -0.0067424322, -0.08388748, 0.002812176, 0.01065637, 0.004268404, -0.04416893, -0.0153655615, 0.04176374, -0.04745635, -0.05174098, 0.029906077, -0.0020978476, 0.006487146, 0.024885366, -0.007284785, -0.06463754, 0.048980083, 0.054053955, -0.010854259, -0.020773342, -0.0027329538, 0.03059714, -0.061932962, -0.016075369, 0.030731354, -0.047555897, -0.0032768948, 0.022932379, 0.042681497, -0.004235946, -0.0041626496, 0.026697278, -0.06281014, 0.03988831, -0.045652337, 0.0066862362, 0.053804934, -0.015017525, -0.06520406, -0.032108456, 0.051776584, -0.030925574, 0.044117432, -0.03458105, 0.07334149, -0.028976578, -0.015536854, 0.08706693, 0.061139073, 0.045962255, -0.027833208, -0.010979231, 0.024244938, -0.036252655, -0.055906005, -0.07565454, 0.06854162, 0.039205294, -0.026958337, -0.019501487, 0.06600668, 0.056138135, 0.031255655, -0.06786216, -0.05191431, -0.015270035, -0.024788933, -0.035167504, 0.021071855, 0.023414887, -0.034133665, 0.04185571, 0.039940927, -0.00302613, -0.005016722, 0.013327659, -0.008438502, 0.04544528, 0.062724926, 0.044218015, 0.012030973, -0.014962838, -0.0050194166, -0.0038336196, -0.023404822, 0.046223443, -0.061378516, 0.013187499, 0.015066456, -0.013087983, -0.005984194, 0.0057871607, 0.028565357, 0.06552966, 0.027382499, -0.04619004, -0.001813968, 0.036601376, -0.044280205, -0.004257301, -0.03626091, -0.08665376, 0.0043095793, 0.035039876, -0.016830843, -0.0099415425, 0.042380482, 0.024701407, 0.044991832, 0.021721285, 0.12415272, -0.05018467, -0.0059831315, -0.06693845, -0.011536721, 0.042468768, -0.02082844, -0.0012798789, 0.014661937, 0.008245994, -0.0056432807, 0.069391005, 0.030654956, 0.025535377, -0.022908088, 0.09466667, -0.003628035, 0.023689352, 0.07433025, -0.011896192, 0.011065193, 0.0039632437, -0.040689163, -0.027315738, -0.022322856, -0.07612165, -0.014175495, 0.0032940132, 0.054030742, 0.05703269, -0.0074989824, 0.027113914, -0.059032742, 0.01377508, 0.050749436, 0.11454151, -0.044695925, 0.009613312, 0.06730383, -0.07454256, -0.0006611204, -0.01314713, 0.004753661, 0.03572627, 0.0049331766, 0.0809177, -0.034517746, -0.0025815286, 0.057111543, 0.021622026, -0.012244844, -0.0049576624, 0.041230813, -0.020051526, -0.005597439, -0.008790664, -0.00044334537, 0.03076825, -0.013285, 0.032147124, -0.069291, -0.06881355, -0.03856032, -0.023113307, -0.039440192, -0.041608904, -0.036136635, 0.044045787, 0.06966313, 0.01602603, -0.049402557, 0.022642853, -0.014196318, 0.038062964, -0.033193216, -0.08453748, -0.054013774, -0.008538085, 0.03601144, -0.0122428415, 0.021694593, -0.027578333, -0.04539656, -0.021854179, -0.07661478, -0.0032788238, 0.018384533, 0.08114617, -0.042885803, -0.14037122, 0.010550294, 0.004713267, 0.015629161, -0.08391304, -0.035742424, -0.0073320614, 0.033717677, -0.013762698, -0.011898799, 0.0026472907, 0.030128589, -0.06141005, -0.017724773, 0.028340744, -0.037177205, 0.018852726, 0.032815423, -0.0077397698, -0.02064202, 0.014994486, -0.034881685, 0.051038716, 0.019178195, -0.07297846, -0.009535738, -0.03240469, 0.04841757]</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>김명선</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Ingredient mapping for the quality enhancement of gluten-free
-extruded brown rice cakes</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>The demand for brown rice has been increasing as a gluten-free whole grain ingredient due to its health-functional properties. However, the variety of processed foods with brown rice has still been limited compared to other whole-grain flours. In addition, brown-rice products are recognized to have undesirable quality attributes derived from their weak structural network from the lack of gluten. Brown rice flour was used as a gluten-free functional ingredient for extruded rice cakes that are traditionally cooked in boiling water for serving. The quality changes of the cakes by three different types of food ingredients were characterized in terms of cooking loss and firmness to provide food ingredient maps. White and brown-rice grains were soaked in distilled water and milled to produce rice flours that were steamed. The steamed rice powders were then subjected to single-screw extrusion to produce rice cakes. The structural matrix of the rice cakes seemed to be weakened by brown rice flour, thereby reducing the firmness of the cakes and increasing their cooking loss. When three different types of food ingredients (starches, hydrocolloids, emulsifiers) were incorporated into the formulations, the overall tendency was that the use of emulsifiers produced rice cakes with a soft texture as well as high cooking loss. Similar trends were observed in most of the starches except gelatinized and high-amylose rice flours. Xanthan gum, gelatin, and HPMC positively contributed to the qualities of brown rice cakes by reducing the cooking loss of the brown rice cakes. As a result, the food ingredients tested were mapped in the plot of firmness and cooking loss of brown rice cakes and the ingredient maps were utilized to search for the optimal combinations of brown rice cakes. In this study, brown rice flour was utilized as a gluten-free ingredient to produce rice cakes and the quality RESULTS &amp; DISCUSSION ► A great deal of efforts is needed to develop extruded brown rice cakes without quality loss. ► Specifically, the scientific information on the processing performance of brown rice flour with a variety of other ingredients (starches, hydrocolloids, emulsifiers) is very limited. Before cooking After cooking attributes of the brown rice cakes were inter-correlated depending on ingredients in order to provide ingredient mapping. Thus, this ingredient maps can encourage the food industry to extend the application of brown rice to various food products, possibly helping consumers make a transition towards healthful diets.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>[-0.03911391, 0.030482253, 0.07830409, 0.0008506498, 0.104655474, 0.038226783, -0.018481176, -0.04992684, 0.042352486, 0.0471648, -0.07051628, 0.0011410062, -0.019244771, 0.08540025, -0.026545076, 0.05464182, -0.0674902, 0.006489274, 0.023480056, 0.048595846, 0.018745184, -0.042188834, -0.07107191, 0.049834568, 0.06505198, 0.008025584, 0.0033285273, -0.08542494, 0.061020598, 0.0061904034, 0.021076169, -0.061331555, 0.07556215, -0.04377918, -0.061479446, -0.0039213127, 0.12029028, 0.017070044, 0.041616563, 0.0028474026, -0.057655513, 0.035467554, -0.011794999, 0.021846343, 0.0036361797, 0.02574992, -0.030564701, -0.027161863, -0.032212913, 0.00059952535, -0.022580776, -0.005374051, 0.04392134, 0.019191768, 0.032709196, -0.04784083, -0.06986417, -0.0100594545, 0.017923955, 0.028151253, -0.0052472227, -0.074440815, -0.032884102, 0.027560886, -0.028517075, -0.0034782102, 0.054864213, -0.03584767, 0.022849264, 0.066650115, 0.018537577, 0.049079612, 0.0059744655, -0.0029838176, -0.03454434, -0.15600926, 0.031564035, 0.015576305, -0.052556194, -0.030092057, 0.015060884, -0.06046119, 0.01892208, -0.013107389, -0.030343989, 0.026007606, -0.082546815, 0.018979253, -0.0020202878, 0.07275157, 0.01807324, 0.041980956, 0.08673373, 0.041356634, 0.050035458, 0.043603584, 0.08318757, 0.057625376, 0.044391192, 0.017036894, -0.007813497, -0.073058434, -0.04200709, 0.022998042, 0.038549382, -0.07681335, 0.03167398, -0.019286579, 0.02695078, 0.011807742, -0.005821628, -0.04345415, -0.039049216, -0.07218051, 0.031391077, 0.02007839, 0.08274118, 0.05917865, 0.013913138, 0.047906928, 0.022129036, 0.04010095, -0.00045686561, 0.060636286, 0.01965921, 0.016180795, -0.011440662, -0.026488824, -0.011693116, -0.041004773, 0.002385169, 0.08093974, 0.008575192, 0.07364985, 0.011832407, 0.042162817, 0.018941212, 0.03204913, 0.008504779, 0.02964827, 0.01723633, -0.026189053, 0.036582395, -0.06385856, 0.014304023, 0.0065504774, -0.066345446, -0.018326988, 0.036502756, 0.04321412, -0.008830913, 0.0013365766, 0.027094994, -0.08671421, 0.0149813555, -0.038798567, 0.014405021, -0.030243052, -0.058887493, -0.021274708, -0.015701933, -0.055110827, -0.044667747, 0.014950127, -0.04996295, -0.08012813, 0.061057415, 0.041747548, -0.009239057, 0.07906991, -0.0037966724, 0.019738892, 0.048330612, 0.011603071, -0.048637602, -0.050210472, -0.0018719037, -0.04458144, 0.06653388, -0.027703777, -0.004340882, -0.038582776, 0.015177154, 0.010626151, 0.027173862, -0.07684461, 0.028285412, -0.005337008, 0.018767728, 0.061417416, -0.13350244, 0.04482472, 0.036126707, 0.02896177, -0.008835044, -0.03242091, -0.016291158, -0.054813683, 0.048072062, 0.039978325, 0.05485733, 0.07372793, 0.061441347, -0.048419278, 0.095436305, 0.06340515, 0.041095983, -0.009397639, 0.020600848, 0.029311566, -0.021547006, 0.02310236, -0.060226634, -0.008321136, 0.036556657, 0.0090417685, -0.007720555, -0.038060106, 0.02905425, -0.011643403, 0.0375695, 0.03304668, -0.07636792, -0.0017805666, 0.0088426955, -0.0022444695, -0.0049384283, 0.0065635815, -0.026946094, -0.0245659, 0.02233764, -0.04075374, -0.09774729, -0.0041689365, -0.0046673887, 0.0114744045, -0.024084287, 0.024118094, 0.014926139, 0.06649788, -0.05685557, -0.009903838, -0.013272035, 0.0015106665, -0.0112806205, 0.009364221, -0.028687956, -0.012887815, -0.02612973, 0.03438651, 0.0055230996, -0.0035848632, -0.015739022, -0.008528365, -0.051005464, 0.010289125, 0.0020169835, -0.09087981, -0.075632565, -0.041784685, 0.0033184208, -0.059837084, -0.005216579, 0.013456849, -0.045584507, 0.025677225, 0.06983866, -0.015520732, -0.00811046, -0.0099778045, 0.014667687, -0.033967778, 0.033314787, 0.046079624, -0.026525918, 0.012666196, 0.009157724, -0.116768695, 0.0018350866, -0.0160973, -0.009093292, 0.017308196, -0.019983383, -0.0439524, 0.030686969, -0.004744268, -0.070401765, 0.03256674, -0.054245308, -0.08021833, -0.00022574351, 0.024206087, -0.024917122, -0.0022992485, -0.06938278, 0.055389892, 0.0016634561, 0.05480052, -0.034920327, 0.022803238, 0.02795107, -0.020753182, 0.05254362, 0.044113196, -0.061403573, -0.016127434, -0.018601784, -0.033765793, 0.047481198, -0.07204445, -0.0057526357, -0.004547032, -0.007537237, 0.043700557, -0.033244498, -0.012536608, -0.04644606, 0.057675242, -0.05872529, -0.05606064, -0.018089857, 0.020069774, -0.028302195, 0.010140468, -0.06185461, 0.077835195, -0.0063566747, -0.053148214, -0.0069448096, 0.026468694, 0.028535463, -0.02596138, 0.05972625, -0.0013226226, -0.007067231, -0.03436663, 0.043356344, 0.008583407, 0.02548681, -0.017154235, -0.010147421, -0.055615596, 0.10552886, 0.041302074, -0.04025593, -0.025202159, 0.028341243, -0.0023090497, -0.038798463, 0.015227695, 0.04305251, 0.011580905, 0.03654505, -0.03692312, 0.04235312, -0.065350294, -0.027939478, -0.051123396, 0.05591286, -0.017925771, 0.011474981, -0.06039346, -0.029804343, -0.059156425, -0.041101478, 0.047464218, -0.064299606, -0.030196648, -0.0034070455, 0.014349919, 0.045365874, 0.013523913, -0.04616054, 0.026406914, -0.016000753, 0.019613443, -0.02369634, 0.06660104, 0.09026189, -0.041298907, 0.009836477, -0.029424919, -0.0014203717, -0.016409053, -0.07502012, 0.0083567, -0.09206243, 0.04571045, -0.03799607, -0.08530056, 0.05881215, 0.11194092, -0.03917698, -0.026277635, -0.03148947, 0.03679853, -0.032852437, 0.030617466, -0.10552736, 0.02697429, 0.040445447, -0.032720584, -0.028836923, 0.021797387, -0.035069212, -0.043974265, -0.07358894, -0.0060670325, 0.007613394, -0.107166074, -0.0053094425, -0.011632169, 0.0014276253, 0.023575757, -0.0022454355, -0.030288003, -0.060664646, 0.0055891997, 0.022770448, 0.008716736, -0.06804131, 0.011557269, -0.029942362, 0.046367466, -0.039005343, 0.03039226, 0.006114096, -0.06781996, -0.0177652, 0.070428, -0.010077713, -0.0032449167, -0.021559868, -0.05754401, -0.01619701, 0.014315141, 0.03157762, 0.03917457, 0.14232144, 0.024258245, -0.033422206, -0.088405, -0.066079654, 0.01404541, 0.024836885, 0.026234275, 0.023301633, 0.038557462, 0.010959947, -0.049693167, 0.006831592, -0.01907572, 0.02269851, 0.056651328, 0.052422374, -0.052362777, -0.03333432, -0.07621705, -0.0063443477, -0.09934618, 0.05057055, 0.012696499, 0.0957887, -0.047394406, -0.047700766, -0.047060966, -0.05489006, 0.02243397, 0.0110127535, -0.04271532, 0.03166491, 0.110224314, -0.018562565, 0.02580072, -0.005876803, -0.030419268, -0.020775227, -0.019272732, 0.045787018, -0.107047856, 0.028857978, -0.068787165, 0.013883663, 0.01107402, -0.07601151, 0.014311227, 0.011820695, 0.037804864, -0.04780826, 0.011688188, -0.046029802, 0.0071697077, -0.030933838, 0.031447493, 0.03950068, -0.0061891614, -0.040271003, 0.012914591, 0.016192053, 0.0007492694, 0.014066034, -0.012201687, -0.017503541, -0.022852642, 0.01696631, -0.008146194, 0.027642587, 0.011551203, -0.11421149, -0.02946419, -0.004649291, 0.049475223]</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>임정택</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilization and characterization of carnauba wax oleogel as a deep fat-frying 
-medium to reduce saturated fat content in instant fried noodles
-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>The consumption of instant noodles has been worldwide increasing due to various advantages such as cooking convenience and diverse flavors. Palm oil is mostly used as a frying medium in the instant fried noodle industry. However, a high level of saturated fat in the palm oil may cause health-related concerns such as cardiovascular diseases. There is therefore an urgent need to develop an alternative frying medium for reducing the content of saturated fatty acid. In this study, oleogelation technology was introduced to develop solid-like oleogels that were evaluated as a deep fat frying medium. The fundamental rheological and thermal characteristics of soybean oil-carnauba wax oleogels were investigated. In addition, the quality attributes of instant noodles fried in the oleogels were characterized and also compared with those in palm and soybean oils. The oleogels with carnauba wax exhibited solid-like properties at ambient temperature, compared to palm oil. However, upon heating, the viscoelastic parameters of the oleogels and palm oil decreased, showing the crossover of G’ and G” at 75 and 35°C, respectively. The noodles fried in the carnauba wax oleogel absorbed a lower amount of oil compared to the palm and soybean oil-fried samples. However, there was no significant difference in the texture among the noodle samples. Lower peroxide values under the accelerated storage condition were observed in the following order: palm oil, oleogel, and soybean oil-fried noodles. The levels of saturated fatty acids in the instant fried noodles fried in oleogels were significantly reduced, compared to the palm oil noodles. Hence, this study showed the possibility of oleogels as a new deep fat frying medium in the food industries. The use of oleogels instead of high saturated fat presents possible opportunities to formulate healthier fried goods by improving their fatty acid profiles.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>[-0.0026089938, 0.04453889, -0.028611166, 0.007117242, 0.09045119, -0.0031773825, -0.03726214, -0.015232911, 0.04385519, 0.037450545, -0.032371964, -0.009761986, 0.071079604, 0.028557569, -0.026208851, 0.016316893, -0.020914288, 0.020645212, 0.038873803, 0.03916505, -0.041738063, -0.0015510315, -0.09816407, 0.04617868, 0.006125499, 0.0021268409, 0.043846417, -0.019819738, 0.022995919, 0.03139974, 0.046490677, 0.02882163, 0.0053865835, -0.05284079, -0.012559527, -0.03653571, 0.022296786, -0.016088234, 0.0028754743, 0.018618278, -0.021113787, 0.046687756, 0.039925657, 0.00049835903, 0.04016358, -0.0030191725, 0.02219479, 0.018672423, -0.08222509, 3.0357856e-05, -0.02181123, -0.027900035, 0.042441994, 0.0045770383, 0.04560494, -0.06390402, -0.061758157, -0.004883301, -0.025412422, 0.0035222934, -0.02190101, -0.041139506, -0.019598177, 0.043959957, -0.02428549, 0.03518124, 0.025114473, 0.067578316, 0.06559457, 0.016918415, 0.008906975, 0.05675743, 0.06452282, -0.009923751, -0.07757731, -0.022299415, 0.012867202, -0.0101352865, -0.04279264, -0.026258241, -0.0056564286, -0.067460336, 0.038848426, -0.08663818, -0.020815937, 0.02344186, -0.053786095, 0.0602437, -0.015833102, -0.06598852, 0.022611864, -0.0038913959, 0.09491714, 0.005297537, 0.038793806, 0.01667276, 0.067325465, 0.04561099, 0.048334487, 0.018768596, 0.022434147, -0.011699466, -0.015585675, 0.009948805, 0.0046073333, -0.097054444, 0.061331563, 0.024200357, 0.04681324, 0.005877881, 0.03604159, -0.053920448, 0.00085350627, 0.087835774, 0.0005544358, 0.042971246, 0.01734443, 0.018697653, 0.00569888, 0.028354356, -0.02767364, -0.025774375, -0.030954845, 0.018597195, 0.010902725, 0.017632747, 0.088165715, -0.014684047, 0.017010937, -0.026451712, -0.041050922, 0.03266722, -0.004749702, 0.04626695, -0.008465184, -0.0028416917, 0.049324524, 0.025525857, 0.023767725, 0.02806634, -0.012748648, -0.0013086977, -0.016328402, -0.013110834, -0.034427904, 0.0090645645, -0.013241104, 0.019137958, 0.012113074, 0.025211763, -0.032845356, -0.010241989, -0.022652538, 0.004803714, -0.0738188, -0.08896055, -0.0036099835, -0.013508817, -0.025438275, -0.027796244, -0.019715082, -0.04348388, -0.039011557, -0.0075193183, 0.002178229, 0.034308843, 0.07432025, 0.0239563, 0.011287581, 0.028467396, -0.007867863, 0.0040155696, 0.03232697, 0.0062826197, -0.06584729, -0.038688395, -0.026739743, -0.031962164, 0.042734817, -0.022572791, -0.07944151, -0.04332994, -0.02422832, 0.045898654, -0.049490765, 0.00803157, -0.021644076, -0.036662623, 0.046898194, -0.019672306, -0.10428243, -0.042979285, 0.040643964, 0.046828967, -0.007381494, -0.07969956, 0.019946938, 0.054807045, 0.091798514, 0.071384236, 0.030304557, 0.037167888, 0.07473986, -0.0074902433, 0.040182177, 0.008980346, -0.0015384185, -0.035993595, 0.012840121, 0.0577748, -0.007403948, 0.0326144, 0.034151178, 0.021769946, 0.035512, -0.0011646579, -0.027267477, -0.028361019, 0.038296707, 0.051950976, 0.03864453, 0.05025503, -0.02381568, -0.028374022, -0.06761016, -0.007399399, 0.041267734, -0.044081707, -0.088284016, 0.014557457, 0.016066704, -0.041522447, 0.031747874, -0.0045226333, 0.034323275, -0.036035616, -0.07765975, 0.062379465, 0.033967756, 0.065213725, -0.04888649, -0.014222702, -0.020321418, 0.09672646, -0.006267827, -0.051968433, -0.012458514, -0.035390597, -0.012561711, -0.03343949, 0.0038051482, 0.03745716, -0.0008294804, -0.04989592, -0.010000772, -0.008605223, -0.007894833, 0.01715409, -0.019958343, 0.043236144, 0.053328138, -0.029585205, 0.06356371, 0.017701754, -0.05806496, -0.02499742, 0.047502197, 0.02069977, 0.032169968, 0.017089454, -0.010279389, -0.035847478, 0.067769244, 0.05767808, 0.008686278, 0.0049047424, 0.0014016232, -0.038323194, 0.0354884, -0.061876085, -0.025170375, -0.056871112, 0.019276826, 0.022805871, 0.043173548, -0.042135384, -0.029718688, -0.000439979, 0.037067488, -0.04221064, -0.03276551, -0.033694323, 0.03201313, 0.027273363, -0.066169284, 0.06582232, -0.015971346, 0.016174104, 0.01841036, 0.01219874, -0.056704886, -0.0052178036, 0.044569727, 0.024968484, -0.037558835, 0.04112502, -0.029243499, -0.0044939197, 0.07960611, -0.0039088456, -0.06849374, -0.024928158, -0.009936751, 0.07947014, 0.013252821, 0.03897674, 0.0767404, -0.02464807, 0.004482776, -0.066104345, -0.014342011, 0.050963834, -0.015204008, -0.012649146, -0.0052274996, 0.047148205, -0.039110642, 0.026417574, -0.01914182, 0.06336991, 0.019045701, 0.0132712945, 0.009021363, 0.022906324, -0.021741984, -0.07302974, -0.015902719, 0.02191824, -0.029239524, 0.009948941, -0.0110674715, 0.0155122625, 0.07909639, -0.009085938, -0.018172676, -0.000383944, 0.08656315, 0.11083271, 0.032354932, -0.011055992, -0.01565197, -0.01003409, 0.034519333, -0.045323078, 0.017309401, -0.034804538, -0.02302246, -0.031357415, -0.04813363, -0.041543126, 0.009919572, 0.02416662, -0.04297701, -0.0019214228, 0.021187605, 0.080114454, 0.022660188, 0.01207149, -0.0016989916, -0.045386687, 0.0056910785, -0.0030268296, 0.030229501, 0.026049906, -0.02261696, -0.033055626, -0.00625999, 0.06737495, 0.08365081, 0.013524127, -0.017120188, -0.011738514, 0.017541263, -0.007387953, -0.07398518, -0.034839675, -0.10565933, 0.038822368, 0.0045599127, -0.03860351, 0.047413275, 0.025954517, -0.0066034244, 0.019058663, -0.027836254, 0.015548087, 0.019066526, 0.04757774, -0.0070273974, 0.014055807, 0.028185023, -0.026028734, 0.0032794117, 0.05807658, -0.03341981, -0.017756239, -0.037417796, 0.0018360403, -0.052533492, -0.038397714, 0.06150246, 0.057625733, -0.02274868, 0.026401637, 0.02873832, 0.01718489, -0.0030444306, -0.041674584, 0.023153605, 0.012598805, -0.06794834, -0.035244256, 0.016217204, 0.00044097446, 0.021748975, -0.021715187, -0.011607329, -0.03478504, -0.024406461, -0.0045424066, 0.014153278, -0.0901353, 0.041642092, -0.025902934, -0.047376852, 0.036189392, -0.046261385, -0.06245293, 0.0012771592, 0.044522166, 0.034085646, -0.07945706, -0.00073473516, 0.046762608, -0.0066174297, -0.007209056, 0.03185809, 0.087318845, -0.025717594, 0.011064918, -0.041285757, -0.033335757, 0.009814986, 0.027509065, -0.037716355, -0.06365256, -0.046372216, 0.03438557, 0.037208255, -0.045687176, -0.015995173, 0.02325916, 0.07538884, 0.0013398746, -0.01799211, -0.013675067, -0.040191524, -0.018366229, 0.06468877, -0.06256777, 0.013697756, -0.013230856, -0.03316364, 0.0017364518, 0.00253034, -0.020394087, -0.07277183, 0.0035708495, -0.017535215, -0.04480405, -0.009757217, -0.004197492, 0.041969813, -0.020731725, 0.0023863234, -0.0017108207, 0.09391338, -0.0035471036, -0.08812347, -0.015848156, -0.01569104, 0.041747104, -0.06731608, -0.033439096, 0.035492174, 0.03634154, 0.038428545, -0.01846011, -0.0026323646, -0.02707085, -0.009783957, 0.0060595283, -0.035354014, 0.038768202, -0.017134806, -0.012129293, 0.04981452, -0.0085255485, -0.09837291, 0.0047182473, 0.014462614, 0.07864769]</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Cynthia Amoah</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Development of oleogel-incorporated cakes low in saturated fat:
-textural, tomographical, and rheological characterization</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>In recent times, oleogels have gained much popularity as a solid fat replacer to reduce the amount of saturated fatty acids in the food industry. There is however, still insufficient understanding of the processing performance of oleogels in a wider variety of foods, specifically baked goods in which the aeration derived from solid fats is important. This study therefore sought to address this problem by investigating the effect of oleogels as a shortening replacer in baked cakes. Specifically, the oleogels prepared with three different natural waxes (rice bran, candelilla and beeswax), were incorporated into the formulation of cakes and their physicochemical characteristics were evaluated in terms of textural,
-tomographical, and rheological properties. Sunflower oil was structured with rice bran, candelilla and beeswax to produce solid-like oleogels. The use of oleogels for shortening affected the rheological properties of the cake batters, revealing the lowest viscoelastic parameters for the rice bran wax. Thus, the batters of the oleogel cakes showed higher specific gravity as compared to the control batters. Beeswax oleogel cakes showed better cross-sectional appearance and higher specific volume than the candelilla and rice bran oleogel cakes. Also, the control and beeswax cakes exhibited similar firmness with candelilla cakes being the highest followed by rice bran cake. The oleogel cakes were lighter in both crumb and crust colour and showed lower total porosity percentage as compared to the control cakes. The results obtained in this study could give more insight into the processing attributes of oleogels in aerated baked products. Thus, they may encourage the food industry especially the bakery sector to develop new food products with natural wax-incorporated oleogels by providing their fundamental information.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>[-0.02663813, 0.014774037, 0.012451706, -0.0044314144, 0.10318251, -0.019808838, 0.0053286515, -0.13324393, 0.072668046, 0.035410345, -0.040961567, -0.06713093, 0.066430874, 0.029626511, -0.043570317, 0.01702421, -0.029370768, 0.046958443, 0.0798918, 0.03451855, -0.050537836, -0.008800463, -0.07621141, 0.053550005, 0.06297699, -0.06009196, -0.009638754, 0.0028825316, -0.0036738336, -0.025625436, 0.011472373, -0.055412605, -0.021669324, -0.033336293, 0.025835054, -0.025627518, 0.0741417, -0.0038774384, -0.044323295, -0.0033894852, -0.06006823, 0.0188083, 0.10404951, -0.010645417, 0.042794876, -0.037143834, 0.035331685, 0.05062054, -0.029993419, -0.013530008, -0.00064221246, 0.002544077, 0.03318075, 0.00041219674, 0.02936277, -0.047303766, -0.101792604, -0.05290268, 0.018048417, -0.001826048, 0.013803548, -0.027546497, -0.028269978, 0.0133422045, -0.012427597, -0.07704378, -0.02155785, 0.033550348, 0.08572354, 0.018211018, -0.021814913, -0.0023141007, 0.026089214, 0.016302235, -0.078433245, -0.02123668, -0.014692822, -0.029674008, -0.017403139, -0.03665706, -0.057165567, -0.06323852, 0.06665055, -0.02398575, -0.051496215, 0.023278814, -0.039753444, -0.010791373, -0.03791587, 0.05252737, 0.039327484, 0.018087314, 0.07138407, 0.017539613, 0.05644394, 0.03207487, 0.05641671, 0.06810245, 0.040675752, 0.011936311, -0.01473396, 0.064333394, -0.032220766, 0.03477868, -0.011085559, -0.04607973, 0.028657923, 0.009500268, 0.035857562, 0.03067369, -0.003042797, -0.06841109, -0.03622539, 0.11461748, 0.040262893, 0.059677348, 0.06280529, 0.004519373, 0.030783532, -0.049462926, 0.06893391, -0.038352046, 0.0487189, 0.019828992, -0.003901717, 0.018331874, 0.06503708, 0.020777903, 0.0051509226, -0.01982916, -0.044092134, -0.018309047, -0.03533202, 0.008796072, 0.023750616, 0.03763794, 0.049265154, 0.06944299, 0.05988465, 0.025633853, 0.00085683755, -0.017045442, 0.0030545748, -0.044686984, 0.017625611, 0.02984595, -0.055757944, -0.0011107209, -0.03439367, 0.06377892, 0.0017938573, -0.03591025, -0.054770365, -0.029702062, -0.019032355, -0.074492194, 0.033056397, -0.008055705, -0.053474706, 0.0014049631, -0.026650423, -0.025283426, -0.01022563, 0.023233961, 0.018265132, 0.084480025, 0.060950458, 0.006474562, 0.0038324092, 0.04108366, -0.015271757, -0.012653627, 0.021887122, 0.034683727, -0.07817083, -0.062331542, -0.02031501, -0.025009217, 0.05941553, -0.034373626, -0.0066706473, 0.0030079512, 0.008253765, 0.014914505, 0.013703034, -0.014104797, -0.007635465, -0.015566687, -0.029274603, 0.003371013, -0.061007895, 0.02490099, 0.05382121, 0.017057624, -0.027949734, 0.026132658, 0.062993005, 0.014923504, 0.010869033, 0.018105846, 0.036340807, 0.043410625, 0.05667824, 0.010755458, 0.06729493, -0.009718161, -0.0567282, 0.009749892, 0.023880502, 0.0338697, -0.021893991, 0.011193862, 0.015535192, 0.0161804, 0.022732498, 0.0067517366, 0.0038249898, 0.0011226977, 0.029868297, 0.00053920556, 0.02792631, 0.061870802, -0.047770057, 0.0015472694, -0.04516478, 0.008135156, 0.03420172, 0.0395527, -0.03400534, 0.010955614, 0.044111747, -0.015743928, -0.008165428, -0.0059639793, 0.05517451, 0.0024134303, -0.0072706877, 0.020469, 0.0011061667, 0.074079566, 0.009233176, -0.016694987, 0.0066220895, -0.003066716, -0.024260864, 0.005024344, 0.018512595, -0.0022906282, -0.00182506, -0.0086618215, -0.03467888, 0.07930525, 0.055754524, 0.0071386453, 0.07628, -0.022195756, 0.056580413, 0.015059917, 0.011711705, -0.020050561, 0.01913928, 0.014734914, 0.031112423, -0.0017280012, -0.02025873, -0.092183836, -0.007218067, -0.0011847148, 0.061077442, 0.012157272, -0.006178456, 0.025973065, 0.08550008, 0.037365716, -0.040163957, 0.014869604, 0.02891314, -0.025935194, 0.0029482052, -0.095484346, -0.040672258, 0.0064043775, 0.010418787, -0.0020959624, 0.05570303, -0.03739618, -0.074994795, -0.0031465676, 0.0052610617, -0.070237346, 0.024865242, -0.0047675446, 0.023510322, -0.0032399704, -0.06092511, 0.061969217, -0.002600055, 0.03143492, 0.0028234283, 0.027737102, -0.05592716, 0.021785224, 0.077058285, 0.019361945, -0.00963022, 0.0038024052, 0.027719997, -0.0023306261, 0.04395695, 0.00094483205, -0.009998645, -0.021889856, -0.0030473, 0.06386166, 0.008430267, 0.020567942, 0.016907213, 0.016088462, -0.022115592, -0.01544961, 0.016078588, -0.026877731, -0.002692792, -0.04685596, -0.034755792, 0.03520878, -0.05930898, 0.048305176, -0.013110231, 0.034819636, -0.02740577, 0.020477142, 0.037665755, -0.0077961986, 0.030489862, -0.009654703, 0.018379416, 0.04817368, -0.025571816, -0.003313355, -0.057035327, 0.011195691, 0.034192976, -0.009104008, -0.017818902, -0.015154258, 0.08692137, 0.11955316, -0.0009908072, -0.06399591, -0.03723874, -0.024387468, 0.00068539835, 0.036956888, -0.025031531, 0.0042499797, 0.031423885, 0.007977996, 0.032520972, -0.022080617, -0.009241862, 0.09287583, -0.059180144, 0.095179476, 0.026385562, 0.03483985, -0.018490294, -0.028198993, -0.013602648, 0.012522246, 0.006815178, 0.010711713, -0.00020069187, 0.00028977788, 0.017214136, -0.06836708, -0.03749348, 0.015049042, 0.061577234, 0.020200986, -0.016989276, 0.019325837, 0.01624067, -0.052212812, -0.040908057, -0.019548265, -0.12195469, 0.049599018, 0.027627068, -0.07879713, 0.009775869, 0.037421085, 0.047684725, 0.013511619, 0.005030248, 0.04505197, 0.0015789404, -0.0018719257, -0.020778755, -0.051490657, 0.027972616, -0.014184754, 0.01855438, 0.025323078, -0.044384655, 0.002371052, 0.031864155, -0.021451348, 0.022835936, -0.034667697, 0.057868827, 0.0009326859, -0.0034756828, 0.04143973, 0.03476787, -0.03466477, -0.043883443, -0.09701124, -0.017367886, 0.025019707, -0.05386705, -0.012246477, 0.019237332, 0.086185716, 0.06665882, 0.028691733, 0.002692684, -0.060918283, 0.03784211, -0.0069909818, 0.047485992, -0.034165595, 0.019832645, 0.026591757, -0.04237466, -0.032609105, -0.0037796136, 0.006017785, 0.05968913, 0.0218846, 0.053231735, -0.052522108, -0.031175315, 0.005584684, 0.016006509, 0.0077440157, 0.003130244, 0.019167647, 0.026419759, -0.028317135, -0.02273572, 0.031044206, 0.026961656, -0.014671539, -0.025481764, -0.054934196, -0.11442053, -0.013096089, -0.0032368973, -0.10169154, 0.023121474, -0.015699029, 0.05642505, 0.039446946, 0.02727203, -0.035875596, -0.0180298, -0.0051153274, -0.00040722507, -0.06579121, -0.053164847, 0.035381723, 0.01589348, 0.023418073, 0.013042375, -0.045500554, -0.084736004, -0.037098706, -0.007890018, -0.02387849, -0.013084418, -0.011489665, 0.01960156, -0.005780045, -0.076013036, 0.0026086478, 0.058026705, 0.036554795, -0.10220291, -0.05947143, -0.03038874, 0.0549587, -0.018740673, -0.041763227, 0.0075800233, 0.059691202, 0.0063351104, -0.035167813, 0.04374957, -0.006129348, -0.001537381, 0.0017887992, -0.011674352, -0.06817999, 0.030443253, -0.06296087, 0.031058814, -0.0015474936, -0.07993273, -0.040448118, -0.011246812, 0.055256985]</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>KOSFOST</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Cynthia Amoah</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Physicochemical assessment of wax-based oleogels
-as shortening replacer in cake</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Oleogels have gained much attention as solid fat replacers and are also known for their role in the reduction of saturated fatty acid contents in the food industry. There is still insufficient understanding of the processing performance of
-oleogels in aerated baked goods. The purpose of this study was to investigate the effects of oleogels with different wax type (rice bran, candelilla, and beeswax) as a shortening replacer in cakes. Oleogels structured with sunflower oil and different waxes were incorporated into the cakes formulation and their physicochemical properties were evaluated. The viscoelastic parameter and steady shear viscosity of oleogel cake batter were lower than those of the control. The specific volumes of control and beeswax cakes were similar, followed by candelilla and rice bran. Also beeswax cakes exhibited no significant difference in firmness with control, while the candelilla and rice bran became gummy and chewy in texture. In tomographical results, the homogenous distribution of air cell and the highest porosity were observed in beeswax and control. Therefore, beeswax oleogels have potential as a shortening replacer without altering their quality.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>[-0.022900874, 0.05182446, 0.03009683, -0.0022848912, 0.076633066, -0.0028629703, -0.014744416, -0.14805481, 0.032009955, 0.06999492, -0.06265205, -0.0972407, 0.0451427, 0.025658557, -0.040296648, 0.020918516, -0.05484411, 0.041246515, 0.06501728, 0.03568357, -0.05641877, -0.021045685, -0.0981723, 0.06408618, 0.051327698, -0.04502353, -0.015723325, 0.043519113, -0.029059013, -0.020376937, 0.011520514, -0.02236139, -0.026395598, -0.01547054, -0.0028685012, -0.019955968, 0.044012237, -0.028342366, -0.03580819, 0.024805292, -0.08560166, 0.005767829, 0.07448708, -0.03850401, 0.052159965, -0.04245968, 0.023810178, 0.0886063, -0.017754097, -0.012594744, -0.01479125, -0.020674374, 0.055120017, -0.0024979291, 0.0097221155, -0.03147957, -0.087794185, -0.073202975, 0.0055233752, 0.02953022, -0.017972233, -0.025565531, -0.039454516, 0.011512266, -0.031149864, -0.049623843, -0.009056875, 0.054137047, 0.09215947, -0.008085706, -0.029459426, -0.021497948, 0.0004168418, 0.017804567, -0.074219935, -0.029090006, -0.014046043, -0.050363276, -0.01602265, -0.03658058, -0.054148376, -0.052631397, 0.05733244, 0.0044860523, -0.05111942, 0.05683028, -0.022594215, 0.0019823245, -0.013472877, 0.06667285, 0.019647561, 0.039866187, 0.10121784, -0.00021405448, 0.05062239, 0.03748259, 0.06788891, 0.030257488, 0.042116098, 0.034285653, 0.002948866, 0.09234231, -0.03499082, -0.007428732, 0.024047824, -0.02112028, 0.008638808, -0.0012349541, 0.05935352, 0.043717053, 0.005791198, -0.040899947, -0.033911224, 0.082251705, 0.023603294, 0.055274967, 0.032577623, 0.037406605, 0.018195119, -0.03741457, 0.079212286, -0.032717597, 0.052044008, 0.025451746, 0.011318779, 0.011571041, 0.06078171, 0.058767255, -0.0007114619, -0.061829187, -0.048549656, 0.019146327, -0.066247284, -0.00817731, 0.02455943, 0.047932025, 0.022065489, 0.06534973, 0.0716709, 0.0383258, -0.015849132, -0.008447067, 0.024000151, -0.039454713, 0.015860349, 0.021853326, -0.03872271, -0.005077178, -0.06442377, 0.055259697, 0.041836414, 0.038634, -0.06179486, -0.04721274, -0.0013837903, -0.06376838, 0.014923371, -0.043662995, -0.05397469, 0.0029029443, -0.015814204, -0.006715488, 0.019508537, 0.01236119, -0.0024161872, 0.09085749, 0.051866073, 0.005148798, 0.013523928, 0.058829293, -0.024091119, -0.01161168, 0.014062575, 0.038978875, -0.09661391, -0.057543304, -0.028875964, -0.032112032, 0.046936493, -0.0034579742, 0.0055831787, -0.018288376, 0.041098233, 0.019687938, 0.009078266, -0.008868244, 0.004956001, -0.012364922, -0.015927736, 0.0024098153, -0.09465411, 0.042382903, 0.055906594, 0.016578622, -0.009974776, 0.0047832783, 0.09906016, -0.004627911, 0.022210956, 0.018285468, 0.03327275, 0.034484405, 0.04676039, -0.0006149839, 0.09894182, -0.02161085, -0.040140733, -0.0125355385, 0.0021598646, 0.011700776, -0.0280999, 0.028638614, 0.007853276, 0.012334047, 0.016927637, 0.012481113, 0.0127708055, -0.0238134, 0.04854429, 0.004189612, -0.006761491, 0.028768435, -0.053263355, 0.01142128, -0.072873, 0.022578327, 0.008612925, 0.010103839, -0.06236827, -0.0014714653, 0.018980302, -0.019054135, -0.026163928, 0.028483652, 0.053255003, -0.02212916, -0.020241534, 0.030584326, 0.024992827, 0.056802012, -0.008262169, 0.022656389, -0.010207099, 0.005260332, 0.0076506543, -0.021291088, 0.015180783, 0.03242742, 0.0062770117, 0.0046895393, -0.04809435, 0.096112564, 0.025107216, 0.013192815, 0.112772346, -0.014941377, 0.025664877, 0.0043612868, 0.011748037, -0.026984144, -0.010661122, 0.022653367, 0.029657256, -0.0026181801, -0.015127885, -0.08180668, 0.002090385, -0.015328725, 0.06496499, 0.017035207, -0.014009577, 0.0015572231, 0.06577196, 0.011620119, -0.014435369, -0.029215949, 0.016290896, -0.019907484, 0.020687893, -0.053236548, -0.018467333, 0.020947114, 0.017830255, 0.019927382, 0.025077675, -0.025926203, -0.09807614, -0.0016082026, 0.0038996455, -0.06070717, 0.0040782844, -0.012105783, 0.016343275, -0.02366896, -0.044478603, 0.05892901, 0.013067811, 0.016925527, 0.03897262, 0.020667125, -0.038510118, 0.012091124, 0.05853317, 0.021164767, -0.010253664, 0.022853233, 0.01704104, -0.029037705, 0.015485723, -0.0074399435, -0.024611274, -0.037426103, 0.004934566, 0.031019678, -0.0086006, -0.02252918, 0.0178208, 0.010710765, -0.00974938, -0.020510575, 0.02188424, -0.032477517, 0.017753722, -0.043985303, -0.023801379, 0.0067779496, -0.052165832, 0.033952843, -0.0315415, 0.067768194, 0.018762399, 0.0051020007, 0.08409047, 0.019582883, 0.043978058, 0.01583205, -0.009800672, 0.05085695, -0.0149898445, -0.044946916, -0.06838752, 0.010311207, 0.06345669, -0.013252413, -0.025706718, 0.023625774, 0.10245959, 0.10793694, -0.019698594, -0.037383895, -0.023001749, -0.030361021, -0.002792275, 0.031214412, 0.006988867, 0.0046903207, 0.033794474, 0.022540128, 0.038052477, -0.02263272, 0.009065922, 0.06319207, -0.039893888, 0.09933761, 0.015557944, 0.020487823, -0.02546488, -0.021264354, -0.018371506, -0.00060528977, 0.04707339, -0.047052387, 0.009619526, -0.0070859403, 0.014144759, -0.064590305, -0.018252954, 0.019424498, 0.05795842, 0.011529605, 0.0024836902, -0.0030912845, 0.03319978, -0.052718256, -0.054718234, -0.024678906, -0.085740164, 0.042634916, 0.03520576, -0.06327516, -0.038346726, 0.027192447, 0.06332402, 0.014833299, 0.021601789, 0.017423201, -0.0363555, -0.033706322, -0.039891884, -0.04900306, 0.038439024, -0.011777398, -0.0019836104, 0.08469914, -0.033998933, -0.022926262, 0.04600587, -0.0020309607, 0.006464274, -0.055548802, 0.038060393, 0.00978088, 0.010431239, 0.067931145, -0.0076332684, 0.0028924702, -0.051500786, -0.06349512, -0.029900165, -0.017036734, -0.061919603, -0.028918615, 0.034756906, 0.038654484, 0.072748624, 0.012860981, 0.0078107594, -0.05117263, 0.048357334, -0.0045806323, 0.07152967, -0.03916774, 0.01083072, 0.021949505, -0.058581583, -0.0026742849, 0.00699895, 0.007822965, 0.021921672, -0.0053879987, 0.062888235, -0.061819673, -0.0057960553, 0.0027371233, 0.02575126, 0.000794552, 0.006833107, 0.030170461, 0.022968123, -0.018096626, -0.045900654, 0.053152967, 0.047521263, -0.03329208, -0.0035821316, -0.08337594, -0.118512526, -0.004391612, 0.011073888, -0.08260005, 0.020353295, -0.01564914, 0.020178264, 0.05380379, 0.043336365, -0.0563118, -0.02819344, 0.0011345568, -0.041902915, -0.04933866, -0.072428316, -0.022793751, 0.011757988, 0.0018097867, -0.024349371, -0.014500094, -0.068041615, -0.037566144, 0.028572947, -0.034889437, 0.01604032, -0.014065375, 0.03548769, -0.0047045914, -0.120068185, 0.009269225, 0.051788725, 0.027119715, -0.113517076, -0.02604867, -0.033032395, 0.041021693, -0.02239793, -0.032752972, 0.0009978063, 0.042819872, -0.024128001, -0.03126484, 0.01709561, -0.009585849, -0.00606821, 0.0015696009, -0.016198007, -0.06964621, 0.02338126, -0.044456564, 0.008583536, -0.017774552, -0.056135602, -0.008207537, -0.009778975, 0.0078580305]</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>김용기</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Instrumental and sensory assessment for the classification of solid
-food texture for the elderly diets</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Chewing and swallowing disorders such as dysphagia are common in the elderly people whose number is reported to continuously increase throughout the world. With this trend, the aging populations have recently become the global focus of substantial research interest in a variety of industrial fields and the food industry is also no exception. Further studies are also necessary to establish the guidelines or criteria for controlling the food texture for the elderly with different living and cultural backgrounds. An experimental attempt was made to bridge the gap between instrumental and sensory texture in a model solid food system, providing a reference texture range for the elderly diets. For doing so, uniaxial compression was applied to measure the instrumental hardness of corn starch gels that was correlated with their sensory properties perceived by the elderly aged 60 and older. A polynomial trend line was satisfactorily obtained with the formula (y=0.2188x25.7917x38.14) describing the relationship between instrumental hardness and starch concentration. When the instrumental hardness (stress) was correlated with the sensory hardness, a linear correlation was observed with a coefficient of determination (R2=0.879). However, the use of logarithmic transformation exhibited the improved correlation of coefficients. A fairly linear correlation (R2&gt;0.96) was thus observed between the instrumental and sensory hardness by a semi-logarithmic relationship known as Weber-Fechner’s law scale. In principal component analysis, two principal components that accounted for 86.71% of the total variance, separated the gel samples in terms of hardness/springiness and moistness, respectively. The categories of the starch gel samples were subdivided into five groups with different stress ranges. As a result, five categories of food texture could be successfully provided with corresponding stress range and consumer languages that can be used as a reference tool to establish the guideline or criteria for developing the elderly foods.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>[0.06733358, -0.0105294995, -0.017608704, -0.033439003, 0.09691578, 0.08614562, -0.019560248, -0.054112777, 0.05931086, 0.050539684, -0.031109914, -0.06398846, -0.046125147, 0.026919987, -0.005555853, 0.027519567, -0.016498879, 0.03145498, 0.04823363, -0.036631376, 0.012083095, -0.029656934, -0.060137507, 0.01646656, -0.054270983, 0.034170166, 0.044727076, -0.00843132, 0.044844918, 0.015729636, 0.045491315, -0.03865186, 0.012349881, -0.005554971, 0.015092761, 0.018791107, 0.043681223, 0.051850982, -0.059995845, -0.056566127, -0.037972946, 0.041450176, 0.008242338, -0.03029977, 0.13631216, -0.006899581, 0.060186177, 0.05032616, -0.069859184, 0.002014774, 0.009982344, -0.026721083, -0.01959927, 0.02274932, 0.039681375, -0.043041226, -0.03698395, -0.06050143, 0.03915388, 0.013143432, -0.022990497, -0.05558525, -0.054912847, 0.0091733225, 0.02579002, 0.0021572153, -0.010534459, 0.064556845, -0.016900497, 0.05780206, -0.014603312, -0.034738474, 0.021060884, 0.039877523, -0.056673195, 0.08026304, -0.012009227, 0.039678868, -0.034226533, 0.04065731, 0.06590514, -0.04221788, 0.07485103, -0.016146336, -0.025105355, 0.082472846, -0.021006262, 0.013650671, -0.02829038, -0.02428195, 0.014057967, -0.011901389, 0.10907057, 0.011710765, 0.019483147, 0.02030767, 0.0058578355, 0.09953377, 0.03561713, 0.07688034, -0.00121161, 0.057804972, -0.056365345, -0.03436412, 0.024826717, 0.0027537309, 0.030068144, -0.0046444703, -0.016249577, 0.0038013838, -0.01128142, -0.08206781, -0.07330636, 0.030382141, -0.019274648, 0.028663224, -0.012304919, -0.0060166945, -0.026969774, -0.0011418676, -0.03492186, 0.04072197, -0.0017951379, 0.07508531, -0.014487673, -0.008582212, -0.0075237737, -0.00574478, 0.011677203, 0.059528418, 0.052711718, 0.035233073, 0.058993623, 0.033321436, -0.008522031, -0.020351823, 0.012308067, 0.043329153, -0.048529398, 0.015619003, -0.017035233, -0.02031442, 0.019238146, -0.076604, -0.055285737, 0.01491811, -0.045512836, -0.031880382, -0.07122751, 0.01287827, -0.03301395, 0.050012384, 0.026030002, -0.04394539, -0.05190961, -0.027207939, -0.03121924, 0.043199416, -0.0016609287, 0.007277953, 0.010896459, -0.03232218, -0.0669037, 0.035310347, -0.021834854, -0.020847179, 0.01745354, 0.029635906, 0.015052788, -0.02808196, 0.02817817, -0.00812147, 0.033072922, -0.026486503, 0.047343925, 0.0053149234, -0.021071132, -0.017075447, 0.047072653, -2.8437236e-05, -0.06356476, -0.040914096, -0.0010758056, 0.030283954, 0.01590106, -0.03134723, 0.042179283, -0.0312906, 0.06862823, 0.031663302, 0.04013708, -0.014699934, 0.038678072, 0.009010069, -0.04995052, 0.056435388, 0.024996663, 0.08881423, 0.047114074, 0.013030989, -0.067054465, 0.0146195525, -0.039630786, -0.015733093, 0.059419382, -0.0029861368, -0.043683402, -0.019055553, 0.03549001, -0.022537136, -0.0062348177, -0.006723553, -0.053213518, -0.0016159662, -0.048117444, -0.034060158, -0.016953595, -0.06462781, -0.011821491, 0.01416427, 0.033920523, 0.0044318456, -0.015982253, 0.022195328, -0.030858256, -0.03573699, 0.02115855, -0.024752544, -0.0153874215, -0.0035471944, 0.030244032, -0.037209637, 0.010207536, -0.071007915, 0.055519763, 0.020259533, 0.006279156, -0.008227027, -0.023049142, 0.06251378, -0.07485226, 0.015086728, -0.012509697, 0.0071644736, 0.010514726, 0.008649207, -0.03710666, -0.034294777, -0.04954037, -0.024332955, 0.018404558, 0.029503454, -0.018699031, -0.008152543, -0.0076529146, -0.023091132, 0.018060884, -0.020732947, -0.040414207, 0.0035141972, 0.049288027, -0.045394648, -0.016151408, -0.049452282, -0.08334876, -0.09359274, -0.025984528, 0.05574841, -0.008464993, 0.0068684225, 0.0014986753, 0.11163326, 0.05476811, 0.0067141657, 0.007379021, -0.001006395, -0.107806094, -0.025203967, -0.013742808, -0.05938191, -0.072484866, 0.016173137, 0.007477108, -0.05776878, -0.013770889, -0.016221095, -0.0027070006, -0.055244394, 0.024938112, -0.06636457, 0.026872782, -0.017594859, 0.09355271, -0.013034922, -0.07055927, 0.046524152, 0.017929642, 0.02967853, 0.0026336792, -0.022492273, 0.03587801, 0.016251191, -0.032074574, 0.040876925, 0.032863192, 0.012698795, 0.0687523, -0.01140735, 0.05306813, 0.04213839, -0.015484774, 0.014218179, -0.009023918, 0.09807769, -0.026411865, 0.07108616, 0.008568318, 0.03847622, 0.018087337, -0.070045486, 0.05913199, -0.009931662, 0.10479752, -0.043482393, -0.01034469, 0.028551742, -0.026509324, 0.0726758, -0.0137806805, 0.032121077, 0.03117791, -0.020921227, 0.0010358599, 0.021917088, -0.07055589, 0.0042707175, 0.0039784205, 0.002350515, -0.005081575, -0.018007735, -0.03126123, -0.014826913, 0.095113665, 0.012021958, -0.05324719, 0.08035083, 0.06879487, 0.09921575, -0.08032762, -0.058520984, -0.0044641197, -0.0072898977, 0.010543842, 0.044137534, -0.037055988, 0.045638073, -0.03603356, 0.046703048, -0.011812004, -0.006190543, 0.037456863, 0.008591412, -0.028228246, 0.047188185, -0.023944644, -0.0039480403, -0.01767504, -0.013510574, 0.010550081, -0.046975125, -0.055618394, 0.024966896, -0.01642525, 0.01735697, 0.023620233, -0.018853653, -0.0071802023, 0.021182915, 0.026618129, 0.06956024, 0.031153537, -0.00178895, -0.013586876, -0.05219985, -0.025781587, -0.0055257897, -0.05390489, 0.00012165448, -0.0017302643, -0.006746941, -0.0103999935, 0.07154577, 0.003225151, -0.000475042, 0.03327819, -0.0052946922, -0.04648956, 0.027655492, 0.047496397, -0.03300514, -0.009819436, 0.007318792, -0.009580211, -0.07703721, 0.018396119, 0.061735347, 0.039013125, -0.015790723, -0.02936001, -0.041874636, -0.01766223, -0.0046893475, 0.05606201, -0.0019508818, -0.021993242, 0.025823098, 0.015465281, 0.044679258, 0.021966616, 0.006658511, -0.042705562, 0.018323239, -0.008554306, 0.036557343, -0.023037609, -0.010170455, -0.0017129297, -0.053560022, 0.013164769, -0.05455412, 0.052553117, 0.015796361, 0.06319646, -0.054505415, -0.021915734, 0.03383877, 0.08124606, 0.006580006, -0.0131494375, 0.023298373, -0.04536138, -0.050972436, -0.0078014066, 0.03549879, 0.11226949, 0.003973168, 0.011751089, 0.05274037, -0.013666326, 0.0137873795, 0.045030262, 0.017788023, 0.013325237, 0.03049232, -0.03876512, 0.025608929, -0.0196314, 0.009475608, -0.035790645, -0.07800847, -0.020012036, 0.029861035, 0.07720364, 0.06152913, 0.014670715, -0.0032446685, -0.025720993, -0.0072582415, 0.07204961, -0.02022524, 0.025849495, -0.013433191, 0.06513036, -0.016111933, -0.08563824, 0.012043611, -0.018965935, 0.010221278, 0.019991899, 0.029338384, -0.029571332, 0.027438635, 0.04576038, -0.005724146, 0.026152678, 0.012387602, 0.04961589, -0.017274052, -0.017028155, -0.04430038, -0.027795946, 0.04351563, -0.053819034, 0.0027913088, 0.035550315, -0.01351862, 0.017012816, 0.034357384, -0.008007087, 0.0028168955, 0.0842595, -0.09488595, -0.029385474, 0.017842652, -0.08206203, 0.021807376, 0.04457556, 0.02501112, -0.11479447, -0.010154077, 0.017920516, 0.022726852]</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>김명선</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Combined effect of starches, hydrocolloids, and emulsifiers on the quality attributes of germinated brown rice extruded cakes</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Germinated brown rice flour has received much attention due to its health-functional ingredients such as dietary fibers. However, the food industry has faced challenges of using germinated brown rice flour in processed foods because it causes undesirable quality attributes such as high cooking loss and sticky texture. In this study, three different types of food additives (starches, hydrocolloids, emulsifiers) were incorporated into the formulation of extruded rice cakes and their combined effects on the cooking loss and textural properties of the germinated brown rice cakes were investigated. The addition of emulsifiers had a tendency to increase cooking loss and soften the noodle texture. Most of the starches except gelatinized and high-amylose rice flours showed similar effects to the emulsifiers. Xanthan gum, gelatin, and HPMC were positively effective in reducing the cooking loss of the rice cakes and increasing their hardness. When the ingredients were combined, the mixture of saemimyeon rice flour, HPMC, and xanthan/agar reduced the cooking loss by 66.7%. Most of all, this study provided an ingredient map that was plotted on the axis of hardness and cooking loss, depending on single and combined treatments of various ingredients.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>[-0.027454522, -0.002631321, 0.05379709, 0.022290474, 0.11185257, 0.009088525, -0.008483144, -0.09810674, 0.018845057, 0.04493013, -0.1015257, -0.02932409, -0.0112398965, 0.07315672, -0.05130667, 0.05293391, -0.06365971, 0.045350946, 0.04979703, 0.035238225, -0.018841816, -0.024863403, -0.039436236, 0.038611006, 0.07907637, 0.0230799, 0.012188093, -0.074113786, 0.041159112, 0.016761612, 0.035262886, -0.0286509, 0.06549148, -0.011682391, -0.05769352, 0.006980021, 0.06642026, 0.0013024018, 0.051102206, -0.041051824, -0.03766426, 0.024590231, -0.024135413, 0.005307508, 0.006815947, 0.023002492, 0.013503194, 0.004462155, -0.05909504, 0.026268015, -0.013869473, -0.01440063, 0.02910968, -0.0038103487, 0.040278792, -0.05222775, -0.06826928, -0.0025029392, 0.02302013, 0.023034945, -0.019950354, -0.060062606, -0.008575014, -0.012384557, -0.028099824, -0.012221893, 0.051125314, 0.0016904093, 0.027073612, 0.03338284, -0.00042057945, -0.0115501555, -0.02254857, 0.01643833, -0.07206712, -0.13790588, -0.036330692, -0.0038963153, -0.05598773, -0.058278274, 0.005951028, -0.046070766, 0.058565535, -0.0002664218, -0.041271586, 0.035691872, -0.07178147, 0.007974024, -0.03136859, 0.038063917, 0.0376503, 0.0038106728, 0.12218477, 0.05502568, 0.04479456, 0.044513267, 0.14006218, 0.067371175, 0.029759316, 0.024551878, -0.026198957, -0.0006389238, -0.047597595, 0.012232971, 0.066424325, -0.050267123, -0.0023283884, 0.01820705, 0.054360736, 0.020108148, 0.03767209, -0.03920213, -0.043777402, -0.028086726, 0.0137714185, 0.05224047, 0.0793182, 0.032775905, -0.00091004535, 0.03134703, 0.0109072495, 0.025773656, -0.0057195807, 0.060826033, 0.0014798921, 0.025184598, 0.016526176, -0.0073037925, -0.04078438, -0.06323128, 0.01772216, 0.093000636, -0.009128376, 0.03273376, 0.0059094275, 0.058760777, 0.020828702, 0.016834375, 0.02214538, -0.021059088, -0.010244038, -0.06353222, 0.035866395, -0.07941901, 0.0035886366, 0.010671853, -0.06592698, -0.018534843, 0.007984033, 0.05123645, 0.011772178, 0.019614343, 0.022535343, -0.05228236, 0.0068027726, -0.088068046, 0.019050658, -0.029206233, -0.060938038, -0.056998905, 0.008372711, -0.041235328, -0.044182487, 0.010241531, -0.016455729, -0.06736561, 0.06848458, 0.013324924, 0.013851752, 0.055531748, -0.023652589, -0.0040822304, 0.020297252, -0.03133907, -0.024401145, -0.034490235, -0.02213909, -0.04357238, 0.07013347, -0.07273956, -0.015013972, -0.004445449, 0.010254092, 0.028514821, 0.06664754, -0.024139494, 0.017954657, -0.01228705, 0.017575927, 0.09136283, -0.11669701, 0.04166126, 0.03358487, 0.02853084, 0.007923544, -0.012563962, 0.02745951, -0.037068326, 0.0825744, 0.06833605, 0.041387543, 0.0634658, 0.05100518, -0.031448882, 0.07339649, 0.06048557, 0.016375402, -0.014684997, 0.02811477, 0.013711217, -0.0022386073, 0.019215235, -0.033749916, -0.017299661, 0.03071954, -0.006073728, 0.0072332835, -0.05922206, 0.043733034, -0.003803517, 0.026853675, 0.00081480184, -0.065487914, 0.009110754, 0.015289187, -0.017367754, 0.009562179, 0.022706777, -0.012687379, 0.0035333878, 0.03607572, -0.052468207, -0.100489676, 0.008165281, -0.016359672, -0.015361828, -0.04579745, 0.017442452, -0.0008664045, 0.088165306, -0.058792643, -0.0026856712, 0.03454046, 0.009863924, -0.012513775, 0.025878796, 0.0069475174, -0.033372182, -0.05251924, 0.010749203, 0.036753796, 0.02143129, -0.04599515, 0.020876525, -0.030895367, -0.025341548, 0.010190533, -0.08436329, -0.052447353, -0.06412384, -0.012326108, -0.018260734, -0.045860846, -0.006300596, -0.011279201, 0.006657517, 0.04613962, -0.04225308, 0.034704037, 0.0147867445, 0.015439306, 0.0046872995, 0.041916773, 0.042512726, -0.025387725, 0.018892275, 0.033330936, -0.11801991, 0.023912473, -0.012667047, -0.045651603, -0.004463562, 0.032536794, -0.08260046, -0.0040913844, -0.012416804, -0.07742516, 0.036611736, -0.048854586, -0.052661464, 0.011103876, 0.018183712, -0.0060989396, 0.01502137, -0.06163092, 0.061572965, -0.005383197, 0.037106086, -0.027238324, 0.019651271, 0.062151626, -0.028649528, 0.081070885, 0.020154519, -0.02807648, 0.00021193572, 0.04279701, 0.00061221485, 0.051600516, -0.023131745, -0.027433865, 0.00496953, -0.013839534, 0.027979553, -0.025237696, -0.0048564323, -0.016106674, 0.03631709, -0.023114173, -0.024779348, -0.0068537253, 0.034693044, -0.015362722, -0.010945527, -0.03333734, 0.09177062, -0.021583501, -0.0099537615, -0.03783444, 0.030475857, -0.009010467, -0.011408738, 0.051794805, -0.018134246, 0.011595752, 0.018095369, 0.060222846, 0.030998424, -0.0056961677, 0.0027216484, -0.043174554, -0.019333452, 0.07950398, -0.0011353804, -0.04849202, 0.031262647, 0.052708793, 0.054466773, -0.013570975, -0.031016542, 0.044689734, -0.016018732, 0.042873733, -0.033216596, -0.0008394535, -0.077376306, -0.06093728, -0.04820443, 0.0815115, 0.0050587547, 0.009547052, -0.023211906, -0.022262838, -0.056606937, 0.012800627, -0.0025312945, -0.064963795, -0.045782156, -0.0053795404, 0.009686153, 0.030470168, 0.00421942, -0.040510684, 0.02312067, -0.046244614, 0.0078002, 0.00093422265, 0.05194695, 0.11305421, -0.019758498, 0.013672304, 0.014958847, 0.020709842, -0.03647183, -0.036156677, 0.021362897, -0.084348895, 0.052704763, -0.065921515, -0.09091189, 0.047743216, 0.098327994, -0.030710587, -0.005364443, -0.023348099, 0.014535996, -0.023152169, 0.015388077, -0.0996442, -0.008060639, 0.034690086, -0.026567739, -0.010446723, 0.023537314, -0.0056415233, -0.03552439, -0.049747653, -0.02706544, 0.008624448, -0.062431373, 0.00768707, -0.0063209846, 0.016217718, 0.03844138, 0.0419662, -0.029871346, -0.05370257, 0.042184003, 0.00808061, -0.017583758, -0.09487531, 0.030904887, -0.009251841, 0.101322554, -0.00536295, 0.012104697, 0.01499101, -0.054117206, -0.018430805, 0.052845046, -0.006418797, -0.040609855, -0.011001132, -0.03965123, -0.050672103, 0.04116181, 0.032155663, 0.03646862, 0.12821075, 0.014227248, -0.04391182, -0.044957094, -0.061121356, 0.0045449566, 0.010821793, 0.047848836, -0.0014822016, 0.0097862985, -0.012561586, -0.03907564, 0.013790656, 0.011878468, 0.026959568, 0.02869084, 0.06396971, -0.0535887, -0.008339983, -0.10023146, -0.015989237, -0.06832485, 0.029710174, -0.03594424, 0.113513865, 0.018272355, -0.009688362, -0.065844774, -0.043219775, 0.017532565, 0.04139567, -0.042226993, 0.023634005, 0.084456064, 0.014683958, -0.0059588337, 0.025115546, -0.044903517, 0.015773483, -0.018514998, 0.06528889, -0.05791073, 0.026486153, -0.06520219, 0.06675274, 0.046735983, -0.047068074, 0.01789201, 0.05575775, 0.006947223, -0.025807265, 0.00066681614, -0.05274535, 0.00904744, -0.04436021, 0.0144356955, 0.03628907, 0.0074903597, -0.002055278, 0.018939884, 0.023912102, 0.0024020476, -0.021945957, -0.07084585, -0.008226792, -0.03181123, 0.0072135297, -0.035491947, 0.007893538, 0.018447272, -0.10151138, -0.03622491, -0.01041682, 0.06791269]</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>김용기</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>In-vitro instrumental stimulation of oral breakdown of rice gels
-with different amylose contents</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>In-vitro food mastication has been simulated by incorporating size reduction process, followed by incubation with human saliva. However, they do not suffice to simulate the actual oral breakdown process where disruption by mastication (chewing) and wetting/lubrication by salivation take place simultaneously. In this study, in-vitro oral digestion of rice gels with different amylose contents was simulated by instrumentally performing mastication and salivation. The hardness of artificial saliva-treated rice gels was distinctly lowered with increasing chewing cycles and the rice gels with high amylose contents showed the highest degradation rate. When the rice gels were subjected to non-destructive tomographic analysis, the high amylose rice gels were clearly shown to be favorably fragmented into smaller pieces by chewing, followed by the low and intermediate amylose samples. These results could be explained by their cohesive
-texture rather than hardness. Therefore, this study may help understanding the changes in the physical properties of cereal-based foods during oral digestion.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>[-0.065849125, 0.08924686, 0.03230711, -0.022533277, 0.117023125, -0.044664305, -0.010968934, -0.06456932, -0.027077926, 0.04791405, -0.0673385, -0.037414405, 0.08167825, -0.02380468, -0.041750915, 0.0570964, -0.03151114, 0.033482097, 0.012026867, 0.038316373, -0.009112627, 0.01782001, -0.047186453, 0.045334075, -0.03659716, 0.038223013, 0.08654744, -0.027442604, 0.0056699486, -0.008976519, 0.059185077, -0.04483469, 0.0097105205, -0.004369468, 0.011484826, 0.012635031, -0.019249717, -0.0057883165, 0.05090406, 0.0022364543, -0.05284449, 0.045512125, -0.016026087, -0.021069821, 0.011737506, 0.010542587, 0.013433008, 0.007894194, -0.025924738, 0.018646292, -0.01243387, -0.022129487, -0.0077973315, 0.045672357, 0.014913306, -0.0013524332, -0.06286599, 0.0010367094, 0.03035351, -0.021354143, -0.043180928, -0.022900475, -0.049658515, -0.006313204, 0.0550528, -0.006088538, 0.00048554965, -0.0284118, 0.027620789, -0.0018178829, -0.0569446, -0.008887892, 0.066851005, 0.005168983, -0.0635706, -0.022205941, 0.046582446, 0.032768577, -0.052113608, -0.0103936475, -0.020523129, -0.068024054, 0.025096528, -0.043711856, -0.036204267, 0.08105368, -0.03342137, 0.028329613, -0.01995238, 0.0150023475, -0.024979305, 0.008718058, 0.13886875, 0.05577526, 0.032310914, 0.031249598, 0.03099534, 0.024574941, 0.047210637, 0.021844953, -0.031122638, 0.03507765, -0.05898259, -0.01908833, 0.0158727, -0.027847398, -0.018710107, -0.03245899, 0.061519373, 0.024800371, 0.034243368, -0.06878023, 0.03608868, 0.013428391, 0.03967627, 0.039721437, 0.024920875, 0.015282831, -0.0063656415, 0.020297447, 0.04408358, 0.0055318964, -0.013215274, 0.048726324, -0.02426243, 0.03558025, -0.006960272, 0.002346089, -0.009984171, -0.031444177, 0.019409046, 0.08271482, -0.014522196, 0.03030647, 0.013286577, -0.05065479, -0.047719814, 0.036431037, 0.005394521, -0.04527349, 0.037702896, -0.026473995, 0.033092905, -0.033109937, -0.014985178, -0.025421632, -0.05315687, -0.014650056, -0.006750814, 0.023064269, 0.06372399, 0.024093544, 0.04877119, -0.031194758, -0.015703702, -0.06912858, -0.06338214, -0.03696366, -0.019731, -0.03445333, 0.051693175, -0.012006536, -0.045074187, 0.03597995, 0.07332015, -0.07708719, 0.05695613, 0.016075438, 0.018687539, 0.019373715, -0.0007656997, -0.013806585, 0.048742797, -0.021713762, -0.002420958, -0.009016399, -0.026718782, -0.025590573, 0.032721914, -0.040093377, 0.004725122, -0.083318375, -0.02063593, -0.0098840445, -0.04653116, 0.0062172753, 0.04677827, -0.026763987, 0.06187403, 0.03366038, -0.024351427, 0.009739353, 0.037317522, 0.024077954, -0.029985612, 0.005756239, 0.043046977, -0.045459975, 0.03336372, -0.005254243, 0.013195084, 0.033090528, 0.027067635, -0.053734377, 0.041767437, 0.025841888, 0.01585361, 0.036971483, 0.0063032038, -0.042620964, -0.023173511, 0.07345328, 0.024643254, -0.05762048, 0.049924195, -0.017808735, -0.018636456, -0.03271867, 0.049436055, -0.0029021043, -0.02468687, 0.037493765, 0.0040764976, 0.0780288, -0.04679666, -0.010023296, 0.06951798, 0.025594767, -0.06434203, -0.040624093, 0.023615655, -0.019403525, 0.0034548403, 0.008259244, 0.0506892, 0.06148701, -0.0338229, -0.041860845, 0.0062396573, 0.07112306, 0.005048142, 0.004763181, -0.0304114, -0.003957789, 0.012815255, -0.00051161164, 0.043306097, -0.025670964, -0.043809384, -0.051241286, -0.027356679, 0.045904938, -0.016820848, -0.0035999245, -0.008924147, -0.033381484, 0.03807054, -0.11666391, -0.0041130832, -0.042236492, 0.012372685, -0.0549973, 0.011153164, 0.033858716, -0.05844734, -0.03007358, 0.0038308809, 0.06339232, 0.0019345108, 0.00029702208, -0.04851771, 0.02397473, -0.0074959593, 0.03679547, -0.113904156, -0.065919735, -0.035619266, 0.022610182, 0.05442637, 0.06638471, 0.011236529, 0.0051939646, 0.013701538, -0.021977589, -0.0015139792, -0.023396371, 0.019021064, -0.008028518, 0.0070627546, -0.036082733, 0.018215625, 0.015466002, 0.030516488, -0.037489377, -0.06688442, 0.06653125, 0.005947782, 0.03876566, 0.0042023663, -0.029965628, -0.027479505, 0.05498103, 0.0140714245, 0.057889894, -0.021510605, 0.01256135, 0.021068344, -0.04935799, -0.025125178, 0.012471182, -0.06379209, -0.00023918645, 0.0106877815, 0.058735274, -0.052470908, -0.059521634, 0.0036435295, 0.0063065924, -0.009789284, -0.047060072, 0.009987092, 0.047301896, 0.0047909305, 0.0062961695, -0.07676718, 0.023715833, 0.022467252, -0.05890923, -0.046081424, 0.042030897, 0.027703213, 0.006375922, -0.0013593977, -0.02014788, -0.024386669, -0.005354738, 0.013037383, 0.053314257, -0.02631142, 0.0040215557, 0.0034795664, -0.046009276, -0.007581561, -0.034932368, -0.04114637, 0.04582172, 0.04896824, 0.025755446, -0.0509901, 0.0012809096, 0.0019110902, 0.0059029902, 0.021583473, -0.01662861, -0.031579882, 0.033778463, -0.05192373, -0.029448168, 0.0025473721, -0.00052087446, 0.052250005, 0.0062238825, -0.0008959101, -0.030187456, 0.0056801382, -0.056147385, -0.058364872, -0.051677972, -0.026683768, 0.0074696047, -0.0072117667, 0.021401538, -0.024794815, 0.014811981, -0.02680384, -0.061710127, 0.009068316, 0.014837314, 0.056089886, 0.011689089, 0.00026118103, 0.025277248, 0.035233352, -0.07461508, -0.045619726, -0.035348877, -0.053625472, 0.04549902, -0.014650606, -0.029020883, 0.07265027, 0.08147364, 0.007832635, -0.025581315, -0.009137249, -0.0143439155, 0.012764051, -0.013750211, 0.041685715, 0.010184525, 0.011087332, 0.05754186, -0.004812785, -0.046954304, 0.004487447, 0.0066239336, 0.044973373, 0.012610074, -0.05354279, 0.026279386, 0.03586781, 0.0028953922, 0.044795386, 0.05798467, 0.005547072, 0.038917374, -0.070081905, 0.029117648, -0.008217604, -0.060157105, -0.035454977, 0.045891516, -0.015588538, 0.010090532, -0.04004362, -0.0066657113, -0.0049651945, -0.033675667, 0.042082377, -0.03083112, -0.018652037, 0.017747322, 0.003147452, 0.043604508, -0.022301547, 0.024239652, 0.0607457, 0.005379131, -0.02411068, 0.022835309, -0.008958741, -0.048902024, -0.016306328, -0.00061094336, -0.0024368234, -0.033641204, 0.019474093, -0.0763295, 0.038916644, -0.037690245, 0.023773242, 0.013301155, 0.0010175133, -0.020731552, 0.0083050635, -0.06038886, -0.035610106, 0.005095103, -0.0668802, -0.04539304, 0.0056726146, -0.036542665, 0.07565467, -0.0069705416, 0.050740432, -0.010704787, -0.03089148, 0.05667341, -0.00037759528, 0.053617794, -0.04398454, 0.07278007, 0.017554332, -0.013678028, -0.08242155, -0.01662242, 0.01707693, -0.025821203, -0.035823356, 0.0024677084, -0.0015590709, -0.028331919, 0.06674988, 0.016433803, -0.08420258, 0.017847061, 0.04128532, 0.031734418, 0.030067626, 0.022508668, -0.06022356, 0.027230129, -0.006190181, -0.008358068, -0.027536228, 0.02512194, -0.014601388, 0.0043793744, -0.011411868, -0.016390212, 0.025607038, -0.028755443, -0.053419355, -0.023386268, -0.031492103, -0.018773613, 0.027243225, 0.011312434, -0.13049993, -0.006194313, 0.015375118, -0.036708735]</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>박유진</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Utilization of turanose as a quality improver in gluten-free extruded rice noodles</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Gluten-free industry has experienced consistent growth with increasing the number of individuals with celiac disease. Among gluten-free products, the popularity of rice noodles has been worldwide increasing over the recent years. However, rice noodles have several processing limitations such as high cooking turbidity and long cooking time. Therefore, various ingredients have been incorporated into the formulation of rice noodles in order to improve their quality attributes. In this study, turanose which is known to be a new sugar alternative with low sweetness was applied to rice noodles and their effects were characterized in terms of thermal, rheological, and textural properties. Gluten-free rice noodles were prepared with different levels of turanose (0.5, 1.0, 1.5%, w/w) by using a twin-screw extruder. Rice flour with turanose had higher gelatinization temperature and also showed higher enthalpy values after storage at 4°C. The use of turanose also increased the pasting and mixing parameters of rice flour. In addition, the application of turanose to rice noodles affected their qualities such as texture and cooking loss. Thus, this study demonstrated that turanose could positively contribute to enhancing the qualities of gluten-free rice noodles as a new additive.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>[-0.009562974, 0.008609801, 0.032356795, -0.0046217297, 0.09297187, -0.025591463, 0.0008046155, -0.010702003, 0.041465685, 0.02474756, -0.09536156, -0.03382854, 0.004131116, 0.0644602, 0.0065098447, 0.03231186, -0.038535915, 0.022637773, 0.029860659, 0.018156057, -0.035163935, 0.02549164, -0.0647905, 0.06279916, 0.02447513, 0.005327302, 0.05256178, -0.061273776, 0.078847244, -0.036227554, 0.06443888, -0.04559792, -0.023120837, -0.04544312, -0.08009392, 0.004303984, 0.08292254, 0.035852727, 0.07861705, -0.0063961903, -0.032560036, 0.034460682, 0.011459343, -0.020990487, 0.029140264, 0.0121643655, -0.010511091, -0.031656597, -0.053760983, 0.015025606, 0.02519653, -0.012176454, 0.010214848, -0.015385281, 0.06270022, -0.06651044, -0.04263568, 0.015114667, 0.0036862497, 0.030454066, -0.008205025, -0.022160241, -0.066684894, 0.004107481, 0.008153878, 0.04460107, 0.052067522, -0.0025310297, 0.019362614, 0.041141577, 0.011721593, -0.014511519, 0.033298407, 0.031180063, -0.09781062, -0.055837024, 0.033926446, 0.00081848033, -0.049330816, -0.03470925, 0.01769188, -0.047873933, 0.028090453, -0.029365845, -0.05026387, 0.060914088, -0.08950924, 0.002415129, -0.00646422, 0.03323275, 0.03144036, 0.005682921, 0.11879161, 0.007844626, 0.057301477, 0.04859344, 0.06891013, 0.08143119, 0.024642626, 0.06642908, 0.0007257814, -0.01451179, -0.028712505, 0.017084356, 0.018383294, -0.026473548, 0.05513597, -0.0009527497, 0.044350427, -0.012962086, -0.051653124, -0.055663187, -0.028003305, 0.020044237, -0.0009328231, 0.017992534, 0.03967676, 0.06413298, 0.0055661113, 0.015431068, 0.013093176, -0.0004413499, -0.00936193, 0.045911293, 0.01467071, 0.06012605, 0.05526057, -0.022416413, 0.010866469, -0.024953814, -1.0480639e-05, 0.052449927, -0.025232285, 0.065794684, -0.009133118, -0.01514029, 0.021626094, 0.056458715, 0.0018067589, 0.034886155, 0.020872528, 0.06658454, 0.051468775, -0.007473305, -0.023250073, 0.038046755, -0.081799924, -0.055783466, -0.0041799243, 0.030957522, 0.013020089, 0.016998425, -0.010168154, -0.08943042, -0.07599897, -0.053296443, -0.042879872, 0.014639677, -0.018680042, -0.013431853, 0.026595615, -0.0625052, 0.004624263, 0.017971534, -0.009493384, 0.03306991, 0.059760243, 0.023793824, -0.036865227, 0.059332397, 0.004365149, -0.014958106, 0.013154703, 1.5018042e-05, -0.028645728, -0.013116861, -0.0025483218, -0.01543958, 0.069916815, -0.03535721, 0.03194686, -0.047105685, -0.019518932, -0.058683652, 0.006401601, -0.019689983, -0.014588442, -0.061508734, 0.006397802, 0.025067296, -0.10442156, 0.012845319, 0.067580625, 0.024431715, 0.0032161009, 0.006079975, 0.027075605, -0.024044015, 0.11428671, 0.082848296, 0.02578597, 0.03583117, 0.024098963, -0.034826953, 0.051428664, 0.004567774, -0.00024219509, 0.018916612, 0.010578546, 0.045269333, -0.06005387, -0.049120124, -0.01942288, -0.0063974033, 0.038883716, -0.027670091, -0.033175852, -0.012911502, -0.003017953, 0.044880778, 0.061510272, 0.04728954, -0.05740109, 0.027872656, -0.099186055, 0.008260504, 0.010903978, -0.0016013668, 0.047051538, 0.022427127, 0.004885004, -0.073164724, 0.0022014051, -0.019643439, 0.085876, -0.017344724, -0.018529585, 0.00419739, 0.04397273, 0.06732707, -0.022798745, -0.018144775, -0.010331922, 0.07917643, -0.024774034, -0.061758235, -0.058784094, -0.07916431, -0.07173271, 0.0019003479, -0.0020189541, 0.034156326, -0.0003752019, -0.005204165, -0.011163483, -0.013627077, 0.012409194, -0.075577915, -0.061973218, -0.01388004, -0.013579154, -0.05239915, -0.020161666, 0.0089198155, -0.015547647, 0.016600626, 0.0300201, 0.070673145, -0.008811667, -0.036708746, -0.029282492, 0.023160402, 0.044080053, 0.04704991, 0.027018279, 0.073169485, -0.05630432, -0.07687256, 0.018816518, -0.035018943, -0.03906667, 0.0033995747, 0.020630324, -0.017922595, -0.03232714, -0.04106447, -0.032831084, 0.0034070306, -0.057345204, -0.05765483, -0.028597783, -0.048513364, 0.06526084, 0.0021655194, -0.0683901, 0.07390392, -0.01373132, 0.042927127, 0.0024307843, -0.019602943, -0.025295444, 0.05569335, 0.04819111, 0.032494392, 0.002374952, -0.013268867, -0.08157975, -0.0027552848, 0.08421249, 0.030463498, -0.015104168, 0.013501349, -0.013254004, 0.0648862, 0.004866897, 0.05639077, -0.017345443, -0.0341342, -0.03914342, -0.06425504, -0.021734778, 0.06921302, -0.026946312, 0.0030647127, -0.0065966127, 0.098735996, -0.026693212, -0.021690609, -0.034653187, 0.045456644, 0.017908562, -0.019938435, 0.03920317, 0.04565549, 0.0014488728, -0.07607818, -0.05254412, -0.028537681, 0.031503197, -1.0797288e-05, 0.010771667, -0.018670592, 0.06270838, 0.009354764, -0.06522532, 0.009976366, 0.07320267, 0.048177514, -0.02686769, -0.040646505, -0.02825198, -0.0057317466, 0.016016753, -0.010055119, 0.047623914, -0.0067133964, -0.054389626, -0.04424191, -0.0012420771, -0.0040150452, 0.056881122, -0.071065225, -0.010534395, -0.038863424, 0.012027427, 0.016122567, -0.04281121, -0.05365985, 0.035728324, -0.029379822, -0.008634588, 0.029897021, -0.0022588668, 0.021697057, -0.014007291, -0.014990155, -0.021165343, 0.08953036, 0.06232828, 0.009502391, 0.0030673256, 0.004385795, 0.01953031, -0.07675031, -0.06787783, -0.004435402, -0.11494192, 0.03943505, -0.03511774, -0.018543838, 0.037286658, 0.08123248, 0.0028576043, -0.012745662, -0.02132935, 0.06702668, -0.019328298, -0.004903459, -0.0144505985, 0.023760043, 0.038242742, -0.05768212, -0.012919715, -0.005059715, -0.08767421, 0.009626931, -0.008406147, -0.024752378, -0.042794514, -0.0432273, -0.04569332, 0.0021584919, 0.009601765, 0.04713848, -0.01955674, -0.0030108336, 0.0065453826, -0.037170786, 0.032615084, 0.010684908, -0.05416552, -0.0015257739, 0.018754998, -0.020602923, -0.043918036, -0.049324352, -0.029986829, -0.039756864, -0.0030104718, 0.014897109, -0.009069967, -0.008793493, 0.009020524, -0.054558955, 0.020775743, 0.020182809, 0.04360924, -0.014416416, 0.072712615, 0.038471166, -0.037046354, -0.048839133, -0.07044895, 0.047990035, 0.011173901, 0.057770148, 0.03203093, 0.07836332, -0.004388859, -0.021715965, 0.0362419, -0.042989157, 0.002942784, 0.105550595, 0.0058216564, -0.013979599, 0.028317155, 0.010525152, -0.0102254115, -0.028089387, 0.019917887, 0.025143145, 0.057736926, -0.066944756, -0.014044373, -0.06121039, -0.11115051, -0.011128301, 0.03334292, 0.009678586, 0.024358438, 0.11191117, 0.047487453, 0.006187787, -0.0050076493, -0.013068666, 0.03928848, -0.051188562, -0.027603395, -0.044697788, -0.015744789, -0.059555076, 0.04405839, 0.018067254, -0.0005042068, 0.04631487, 0.039517764, 0.033298314, -0.053809684, -0.03152942, -0.03242662, -0.023015613, -0.05768109, 0.0011328345, 0.041412238, 0.027968403, 0.009174762, -0.015778448, -0.012703201, -0.009493247, 0.05187942, -0.014025642, -0.028503615, -0.036256716, -0.03512627, -0.008822998, 0.034510262, -0.06505857, -0.13665959, -0.033212908, 0.010135012, 0.014924783]</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>정성민</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Rheological approaches for physicochemical characterization and in-vitro digestibility
-of gluten-free rice noodles with different amylose contents</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Gluten-free noodles were made by extrusion from rice flours with different amylose contents and their physicochemical properties and invitro digestibility were evaluated from a rheological point of views. Three rice varieties were used for measuring the chemical composition and amylose contents (25.7, 18.6, and 11.9%). Rice flour with higher amylose content exhibited greater resistance to dual-mixing and higher degrees of starch gelatinization and retrogradation. Highly
-elastic characteristics were observed in the rice with higher amylose and the high amylose rice noodles showed a harder texture that was related to their reduced cooking loss. The rice digesta with higher amylose contents exhibited greater viscosities throughout the simulated oral-gastric-intestinal digestion steps. The flow behaviors of rice noodle digesta collected from each digestion steps also had the same flow patterns that were satisfactorily evaluated by the Sisko model. This study provided a promising opportunity for the food industry to study the quality attributes and in-vitro starch digestibility of rice-based goods by means of rheology with the advantages of being more rapid in real time.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>[-0.016840741, -0.00554209, 0.03540342, -0.023818584, 0.03915036, 0.024984116, -0.014604799, -0.04381602, -0.01621524, 0.02122553, -0.108124614, -0.06286916, -0.008401413, 0.055652823, -0.05383868, 0.04126162, -0.042323995, 0.08129214, 0.033758532, 0.034595784, -0.053841826, -0.0014115484, -0.024795817, 0.045327384, 0.045109175, -0.0019856167, -0.035955857, -0.051014233, -0.002719052, -0.002667994, 0.031934407, -0.036863618, 0.064868234, 0.0141864335, -0.010932861, -0.0010140255, -0.025363052, 0.045446295, 0.033479884, 0.021357294, -0.025898896, 0.0393272, -0.060964495, -0.07004894, -0.045872305, -0.009818987, -0.01876973, -0.025301706, -0.04091611, 0.04957872, -0.00037360724, -0.04158938, 0.038816243, 0.00956182, 0.01953722, -0.089303985, -0.041098136, -0.031040957, 0.010427604, 0.020341346, -0.050213, 0.013552343, -0.052061193, -0.0041735554, -0.0041389097, 0.00714382, 0.018228354, -0.059368324, 0.010437285, 0.023418957, -0.023971146, -0.03276704, 0.013435465, 0.03996909, -0.075434536, -0.0956677, 0.021778984, -0.00829126, -0.04023618, -0.0644006, -0.0005519045, -0.04061015, 0.016537854, 0.010815008, -0.06503965, 0.05265444, -0.058502432, -0.005951707, -0.0033965053, 0.0056655835, 0.018328004, 0.014948018, 0.11544875, 0.10756958, 0.02412632, 0.03801968, 0.09610988, 0.06872207, 0.021033796, 0.044150595, -0.044110112, 0.019911706, -0.006469706, 0.00835789, 0.061465155, -0.057578392, 0.04344784, -0.008347561, 0.00017966307, 0.04162874, 0.04506566, -0.036118425, 0.021123888, -0.056725353, -0.008514352, 0.08266836, 0.014710418, 0.05587325, 0.0032718848, 0.07884756, 0.059829608, -0.04169732, 0.008060483, 0.06517132, -0.028194789, 0.06569334, 0.04417434, -0.026241332, -0.051732823, -0.08892088, 0.016562408, 0.016849555, -0.018935686, 0.02590015, 0.0008283478, -0.026861902, 0.005731894, 0.00074847776, -0.031281315, -0.013370671, 0.041386046, 0.050152063, 0.035009064, -0.046031695, 0.014276475, 0.023351697, -0.0841359, -0.032112945, 0.019642826, -0.03562662, 0.012219249, 0.07515519, 0.031223768, -0.021949576, 0.007970515, -0.052935664, 0.011593726, -0.023730928, -0.013078538, -0.029344823, 0.044279452, -0.048145093, 0.0058427206, 0.005400622, 0.023071706, 0.06661356, 0.046546794, 0.004089656, -0.006572271, 0.11834428, 0.012822485, -0.012930106, -0.015771238, -0.03184924, -0.052243426, 0.01802067, -0.01153434, -0.04401593, 0.05139078, -0.028505318, 0.06982174, -0.11188597, -0.02144949, -0.026643865, 0.04437069, -0.034660157, -0.0017393293, -0.03804654, 0.021754319, 0.07046137, -0.1341168, -0.017727656, 0.028738873, 0.018841757, -0.005519625, 0.026182584, 0.02436724, -0.041393377, 0.096366756, 0.06554122, 0.09186009, 0.04311708, 0.056479458, -0.009856948, 0.06178388, 0.04298136, 0.028496433, 0.039997224, 0.049197026, 0.02874134, -0.010034718, -0.015747672, 0.03705489, -0.026085177, 0.07179867, -0.025757248, 0.016655874, -0.043258637, 0.0073899296, 0.013232601, -0.0008482424, 0.007876045, -0.039547734, 0.031101916, -0.02177874, 0.035369832, 0.009259489, 0.010891884, 0.04947959, -0.015438388, 0.02227869, -0.03968028, 0.014682667, 0.029009888, 0.010094384, 0.0071796575, -0.042121407, -0.006736164, 0.01623706, 0.022279466, -0.04994236, 0.020763818, 0.019247165, -0.005196579, 0.0385494, -0.06389069, -0.0059420103, 0.008316309, -0.06629028, -0.022179749, -0.012153712, 0.0030504053, -0.054699127, -0.063735195, -0.02727224, 0.08473413, -0.039073013, -0.1244906, -0.077504456, 0.0041856645, 0.02124518, -0.04459271, -0.06544622, -0.004283753, 0.013680893, 0.013413766, -0.008391184, 0.047031127, -0.03387896, 0.039593566, -0.035707157, -0.011778089, 0.0060255104, 0.028740127, -0.017191375, -0.009382805, 0.0030953097, -0.096785, 0.014273409, -0.0071961796, -0.035052363, 0.015940784, 0.06265216, -0.076566, 0.008889451, -0.014582479, -0.046343546, 0.035977256, -0.045749124, 0.003277743, -0.045249183, 0.030120745, 0.004508931, -0.013660058, -0.044729445, 0.035805088, 0.028944809, 0.07027225, -0.011801532, -0.00997691, -0.00526061, 0.036458135, 0.037992783, 0.020422291, -0.02937324, -0.03963132, -0.008852202, 0.0049786596, 0.026086316, 0.018515842, 0.009368394, -0.030254008, 0.017765936, 0.045228, 0.02247193, 0.019938387, 0.019861186, 0.01246191, 0.002640523, -0.0507511, -0.04330237, 0.033108283, 0.019449893, -0.023013147, -0.006698973, 0.08740662, 0.029844554, 0.00401986, -0.045869205, 0.022847872, -0.025150895, -0.07219254, 0.025296902, 0.029964318, -0.045989178, -0.028654087, 0.011863643, 0.00013416726, -0.012198952, -0.03186496, 0.009873144, -0.024835264, 0.026043633, 0.023927964, -0.039853808, 0.055422597, 0.029322257, 0.013530223, -0.10305234, 0.0034810412, 0.0074669966, 0.021252988, 0.011033717, -0.0010378096, 0.033444338, -0.03491254, -0.034896344, -0.055053443, -0.02071948, 0.0035391354, 0.04098631, -0.06940802, 0.01477725, -0.10322128, 0.037842445, -0.031119471, -0.035744973, -0.014882143, -0.0024344695, 0.005399628, -0.0002797211, 0.033442847, -0.01408071, 0.011613338, -0.046193358, 0.020505833, 0.022690618, 0.07428613, 0.054065503, 0.029177675, -0.02264151, -0.00027071766, -0.005913024, -0.10681755, -0.054257777, -0.024907034, -0.06318896, 0.047218125, -0.02474648, -0.05837094, 0.049674056, 0.07580995, -0.003328499, -0.006794096, -0.02108511, 0.0920031, -0.052719906, 0.037149534, -0.020092148, 0.07473927, 0.044051886, -0.029040288, -0.011107519, 0.02417223, -0.05592262, -0.0009850647, 0.01584608, 0.015048653, -0.043708593, -0.08856616, 0.015737336, 0.056343593, 0.016639179, 0.029627653, 0.004234249, -0.023226723, -0.007825746, 0.001403909, 0.047451228, -0.054175567, -0.050254606, 0.016646089, 0.004541212, 0.03037863, -0.07249634, -0.057571128, -0.008283331, -0.032933764, -0.037003055, 0.03992307, 0.002712099, -0.0034535446, -0.03489413, -0.08187144, -0.047424026, -0.023403099, 0.021507269, -0.006541139, 0.02885942, 0.028767986, 0.030134045, -0.023330636, -0.020079426, -0.047195572, -0.0037401568, 0.03170665, -0.018261917, -0.023842843, 0.01761844, -0.04206808, 0.062380675, -0.03065891, -0.028541813, 0.08813342, 0.07763153, -0.009194119, 0.017713832, -0.03037497, -0.017310113, -0.023446247, -0.0047326153, -0.04694006, 0.07553302, -0.043752972, 0.03033351, -0.039269302, -0.12442282, 0.043031372, 0.027661722, 0.005938076, 0.028555032, 0.082335696, 0.056012783, -0.019481242, 0.045997553, -0.020314036, 0.03776445, -0.009245656, -0.01159139, -0.114225544, -0.04282696, -0.03756976, 0.08453518, 0.061528508, -0.018780127, 0.07033358, 0.04681355, 0.0020976358, -0.025683701, -0.022413649, -0.0772392, -0.0013820087, -0.025752192, 0.013633849, 0.03979435, 0.006322969, -0.022617688, -0.042275958, 0.023832565, -0.024329063, 0.0041231886, 0.013781155, -0.00484226, -0.032149762, 0.015481023, -0.042540792, 0.004696582, 0.007867271, -0.05815022, 0.04359843, 0.041648638, -0.026532149]</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>임정택</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Comparative assessment of oleogels as deep-fat
-frying media in an instant fried noodle system</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Edible oils from various plant sources have been widely utilized as frying media for food applications due to their desirable health effects derived from high levels of unsaturated fatty acids, compared to solid fats low in unsaturated fatty acids. However, the use of highly unsaturated oils may produce greasy fried products with a less crispy texture and furthermore reduce their shelf life primarily due to their susceptibility to oxidation. In this study, oleogelation technology was introduced to a frying process by evaluating soybean oil-carnauba wax oleogels as a deepfat frying medium for instant fried noodles. The fundamental thermo-rheological characteristics of the oleogels were investigated and the quality attributes of instant noodles fried in the oleogels were compared with those in palm and soybean oils. The flow behaviors of oleogels were more sensitive to temperature change with increasing levels of carnauba wax. In addition, the microstructural surface characteristics of the oleogel-fried noodles could be related to the reduced oil uptake of the oleogel-fried noodles. There were however no negative effects on the noodle texture. The use of solid-like oleogels was more effective in retarding the oxidative oil deterioration than the soybean oil in a liquid state. Furthermore, the level of saturated fatty acids in the oleogel-fried noodles was distinctly reduced to around 19%, compared to the palm-oil samples (54%). Hence, the use of oleogels may present possible opportunities to formulate healthier fried goods by showing their compositional superiority.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>[0.021853318, 0.076594315, 0.044665452, -0.0033823072, 0.10003659, -0.06471103, -0.08922693, -0.039987613, 0.023465583, 0.036505304, -0.0468896, -0.087351575, 0.019036995, 0.0047652987, -0.0027286634, 0.034281388, -0.01341426, 0.020544246, -0.0024532056, 0.030259633, -0.043909185, 0.0062118936, -0.050239038, 0.040677782, 0.03398974, 0.02065964, 0.011561137, -0.013040181, -0.09028279, -0.019280167, 0.0008718851, -0.05143514, -0.010388377, 0.015512918, 0.0076019717, -0.026259357, 0.011031614, -0.0075630285, -0.04790998, -0.008769661, 0.043888096, 0.060700856, 0.0047672777, -0.0029180874, -0.027445944, -0.0012618836, 0.039983302, 0.008925637, -0.014684955, -0.017061526, 0.030356036, -0.04218347, 0.00540389, 0.007871237, 0.055771045, -0.06959897, -0.07438006, -0.07947909, -0.007996914, -0.007509614, 0.021962067, -0.048963923, -0.021303544, 0.01045549, -0.024145301, -0.033723783, -0.023384228, 0.04560768, 0.05706989, 0.022225915, -0.007531942, 0.018613854, -0.011130417, 0.03577217, -0.063930355, -0.033584252, 0.07659682, -0.011405095, -0.007469313, -0.033084948, -0.029985826, -0.057122454, 0.061025817, -0.027804164, -0.02809314, 0.032194026, -0.04053679, 0.044087347, -0.0069614626, 0.009464277, 0.008491804, 0.03421347, 0.09350435, 0.04774712, 0.04267395, 0.015093035, 0.06896214, 0.04365404, 0.039481353, -0.006997855, -0.0032552585, 0.03253476, -0.03156326, 0.014412206, 0.032466527, -0.053152643, 0.015080543, -0.0022476749, 0.043720607, -0.014261212, -0.0052445936, -0.07306261, 0.008383428, 0.04621124, -0.031694584, 0.056738645, 0.056998186, 0.071444385, 0.010095693, 0.0015454195, 0.049629644, -0.06510056, -0.0049101296, 0.04967784, -0.018695183, -0.017395291, 0.059296228, 0.036130715, 0.0020528783, -0.043189764, -0.065233074, 0.03897338, -0.040473305, 0.014010099, 0.005574722, -0.0048873303, -0.0061138277, 0.08836695, 0.016908078, 0.011634319, -0.017064203, -0.025532926, -0.025275124, -0.07791522, 0.020551266, 0.038148366, -0.0040824166, 0.028617539, 0.024983237, 0.030240932, 0.028922351, -0.029710464, -0.012807514, 0.0062249624, -0.024409506, -0.06731661, 0.015616508, -0.018703224, -0.018249517, -0.055314787, -0.024348713, -0.0065490347, -0.06217872, -0.0005419957, -0.028730633, -0.00592254, 0.025885306, 0.018053437, 0.003424719, 0.043695543, -0.0110690845, 0.0030799932, 0.01835354, 0.015384935, -0.03552017, -0.081710435, -0.034219462, -0.040138997, 0.03953617, -0.03533885, -0.050360955, -0.039090607, -0.008058, 0.062305916, -0.050454836, 0.0072157495, 0.008763998, -0.010886316, -0.004648619, 0.051043734, -0.117109716, 0.010988511, 0.066463605, 0.03424338, -0.03265718, 0.010837973, 0.049404375, 0.037531845, 0.0030323856, -0.021807924, -0.008170732, 0.028247852, 0.05040901, -0.014950156, 0.04270873, -0.005012608, -0.020523293, 0.013480005, -0.009981942, 0.03875729, -0.062230717, 0.027244242, 0.013452286, 0.018483136, 0.04175824, -0.0021797467, 0.03982169, 0.02854034, 0.006340689, 0.011045771, -0.07648753, 0.07327131, -0.102281995, 0.012813838, -0.011711191, 0.0058749816, 0.02928284, -0.05463506, -0.04782281, -0.05964696, 0.046267044, -0.03903486, 0.011549135, 0.0161736, 0.018855808, 0.041942913, -0.03598992, 0.044527236, 0.021714434, 0.10680759, -0.009740225, -0.007488498, 0.0095516965, -0.020763941, 0.004356057, -0.004796928, 0.0038084683, -0.011951451, -0.00039769508, -0.024072314, 0.020521889, 0.034351125, 0.0034896254, 0.024115924, -8.45117e-05, -0.059670106, 0.07780834, 0.025332274, -0.038184173, -0.02626374, 0.024483826, 0.052525125, 0.007941266, 0.034958433, -0.048642404, -0.03790034, -0.0043049897, -0.024206834, 0.050199524, 0.038914908, -0.004938941, 0.020091884, 0.083346605, 0.021058785, -0.03902325, 0.023291651, 0.0024273358, 0.014898823, 0.012497455, -0.075354375, -0.016397191, -0.082281575, 0.011243008, -0.014073682, -0.021206455, -0.01848917, -0.0067613423, 0.006167126, 0.04762634, -0.049421545, -0.037535965, -0.01951368, -0.0013579145, 0.03734009, -0.05886535, 0.06228942, -0.009520962, -0.024441494, -0.007459616, -0.014387698, 0.001135286, 0.027262341, 0.0155110955, 0.013697616, -0.015819864, 0.037526526, 0.069921896, -0.044816464, 0.022835892, -0.015083886, -0.042688396, -0.012608563, 0.051140044, 0.067123316, 0.012086438, 0.0022377882, 0.048150867, -0.005677124, -0.014568215, -0.020926572, -0.018764058, 0.0072595715, -0.009540181, -0.0039654216, -0.06641996, 0.010824955, -0.027689721, -0.007059967, -0.023692183, 0.07337196, 0.0060496936, 0.0058681634, 0.009139382, 0.025262676, -0.045273453, -0.0004876358, 0.017958576, 0.07446319, -0.030023612, -0.019318411, -0.022614067, 0.023481453, 0.02837191, -0.030628087, -0.0422375, -0.019851044, 0.048512932, 0.13081856, -0.040233724, -0.027248021, -0.01353004, -0.005801193, 0.024983598, -0.05118596, 0.047479007, -0.012201818, -0.003195674, -0.016133295, -0.013110028, 0.00317751, 0.02122511, 0.081718534, -0.011903987, 0.038202725, 0.0015202754, 0.033701926, -0.019648442, 3.6129728e-05, -0.058203153, -0.0098132435, 0.028123936, -0.005828988, 0.006168563, 0.026228542, -0.03935854, -0.031080201, -0.009962205, 0.068549715, 0.05896887, 0.043314934, 0.03447374, 0.030993551, 0.033704136, -0.028168112, -0.03191333, 0.015421818, -0.087772064, 0.02871186, 0.009748545, -0.01076493, 0.020059835, 0.04200977, 0.049743764, 0.009738049, -0.008207252, -0.025239032, -0.007873671, 0.023885326, -0.014910811, -0.055183645, 0.051116854, 0.01703251, -0.027800089, 0.015559672, 0.03823782, -0.034862358, 0.008723111, -0.036428344, 0.0014724577, -0.06387454, 0.06194126, -0.0011375136, -0.01640798, 0.04811555, 0.05203099, -0.053764887, -0.012755785, -0.028787902, 0.050254274, 0.022789007, -0.056646384, -0.049536627, 0.034264743, 0.026719002, 0.037444614, 0.035208326, -0.008895437, -0.043062057, 0.03617369, -0.04537913, -0.02544545, -0.07988261, 0.0049373712, 0.0027672811, -0.044651534, -0.048693087, -0.04500897, 0.008316889, -0.0033231394, 0.030296635, 0.07541897, -0.04114338, 0.008591197, 0.051381346, -0.006242912, -0.04003514, 0.011608914, 0.031815648, -0.0060242, 0.040781233, -0.024415461, -0.0008390148, 0.051463395, 0.01359718, -0.03863005, -0.12562323, -0.08708673, -0.00657507, 0.026636858, -0.028044, -0.0020658476, 0.008773768, 0.04326612, 0.02698353, -0.022870403, 0.01199433, -0.02362297, 0.0037001402, 0.045206368, -0.028451532, 0.0014456083, 0.063301116, -0.017642993, 0.034682557, 0.011625509, 0.0022551669, -0.0983269, -0.03955263, -0.016197622, -0.04895772, -0.0082841385, -0.0036083902, 0.052964523, 0.0019942764, -0.06090707, -0.045838658, 0.050779745, -0.026647493, -0.04868262, 0.017997526, -0.006369686, 0.096301995, -0.03549597, -0.039129566, 0.022289447, 0.042656805, 0.004646834, 0.03894434, 0.010518274, -0.02857743, 0.01322838, 0.0044148066, -0.04771403, -0.036181007, 0.012429364, -0.011006081, -0.00010541547, -0.022779394, -0.05608147, -0.030200602, 0.018221544, 0.06743227]</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>임정택</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Structuring of vegetable oil into oleogel: an alternative to high saturated solid fat in baked goods
-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Grape seed oil-candelilla wax oleogels were prepared as a lipid-based solid fat replacer and their effects on the rheological and tomographic properties of the muffins were evaluated. The steady-shear viscosity and viscoelastic parameters of the muffins batters had a tendency to decrease with increasing levels of oleogel. The shortening replacement with oleogels significantly increased the specific gravity of the batters, consequently decreasing the volume of muffins. X-ray tomography indicated a lower fragmentation index and porosity of the oleogel-incorporated muffins. Although the replacement of shortening with increasing levels of oleogel produced muffins with a harder texture, the muffins with oleogels had lower saturated fat (29.2%) than those with shortening (73.8%). This study showed that the grape seed oil-candelila wax oleogels for solid fats replacer up to 25% produced muffins low in saturated fats without sacrificing quality attributes. It would be worthwhile to extend the application of oleogels into a wider variety of baked foods.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>[-0.027741976, 0.031387094, 0.031849515, 0.0032016074, 0.059384193, -0.00909005, -0.03423322, -0.036992807, 0.045927722, 0.04844713, -0.0006293873, -0.054148827, 0.114891164, 0.043770052, -0.050867457, 0.049503606, -0.0015260943, 0.06584418, 0.032227814, 0.031991575, -0.01727632, -0.0041061547, -0.08127676, 0.03677245, 0.028492346, -0.017609475, -0.010719309, -0.00020800164, 0.02137159, 0.036419008, 0.022456964, 0.0015757635, -0.004656426, 0.019106343, 0.012757438, 0.026045684, 0.03391888, -0.043096166, -0.00269468, 0.034446016, -0.035237603, -0.033327, 0.05060407, -0.011118171, 0.031733803, -0.04764695, 0.019321105, 0.051681545, -0.007048209, -4.2086e-05, -0.028378597, 0.019352531, 0.05994387, -0.013179344, 0.010398201, -0.03186624, -0.08493661, -0.039116114, -0.013362188, 0.03613547, -0.0069582495, -0.02425085, -0.040627245, 0.032404207, -0.0054906905, -0.042386983, -0.004666515, 0.046387788, 0.12027882, 0.0008195381, -0.030680295, -0.028684728, 0.010648947, -0.050626174, -0.056761347, -0.007747263, -0.020860787, -0.0011800791, -0.019411989, -0.062470876, -0.02886932, -0.039225962, 0.02589326, -0.0017669688, -0.039321113, 0.031201826, 0.014368781, 0.02158183, 0.014388822, 0.075408086, 0.026317516, 0.026083771, 0.10581968, 0.08489396, 0.027763192, 0.042682577, 0.06665381, 0.012148893, 0.029260525, 0.045276318, 0.014574472, 0.027845442, -0.05747412, 0.016643437, 0.033859845, -0.047809035, 0.035514552, 0.020602943, -0.012768717, 0.10128285, -0.024007862, -0.03870278, 0.026123958, 0.035524312, 0.0280997, 0.05316491, 0.06073272, 0.07687661, 0.008519729, -0.029500308, 0.092086524, -0.09030318, 0.04607354, 0.03439004, 0.024904344, 0.005899298, 0.051555213, 0.050288316, 0.04330416, -0.0034533578, -0.045622446, 0.0064765587, -0.00971291, -0.030005295, 0.026870005, -0.007270237, 0.04555303, 0.015085601, 0.06547125, -0.007863555, 0.015241034, -0.0073593142, 0.033269327, -0.08428919, 0.0224903, 0.027493255, -0.027896196, -0.019985737, -0.062794775, 0.032887813, 0.0054423655, 0.04737691, -0.031457156, -0.031558245, -0.0065516275, -0.026152933, 0.049175005, -0.07239171, -0.03864323, -0.013742214, 0.00966628, -0.029300986, 0.015536997, -0.008480172, 0.016369838, 0.012173381, 0.06821593, 0.02888441, -0.028324436, 0.052943, 0.0011403305, 0.012045434, 0.009426685, 0.036788132, -0.036827262, -0.044975817, -0.044970956, -0.03913737, 0.00014113192, -0.015489974, 0.035426337, -0.061899252, 0.012917092, -0.01557858, 0.023715295, 0.019920575, -0.038322516, -0.014367019, -0.0001562112, 0.01008422, -0.06853557, 0.034497317, 0.047900777, 0.037826166, 0.0189254, 0.019139947, 0.051476676, -0.018874187, 0.030774534, 0.054657873, -0.011586106, 0.06458059, 0.0848685, -0.025710009, 0.05518433, -0.0068309517, 0.004740977, 0.013650721, 0.018791506, -0.013919667, -0.0069517726, 0.006478388, 0.004880589, 0.013327362, 0.018453175, 0.018983195, 0.024963427, -0.058983143, 0.005193008, -0.001122728, -0.014225019, 0.021436492, -0.031566277, 0.0372395, -0.097870864, 0.0141288, -0.002129832, 0.021366235, -0.047020033, 0.02688557, 0.009482492, -0.015278667, -0.033312123, 0.0033183377, 0.043077994, 0.030512726, -0.0496536, -0.0029860786, 0.02142571, 0.055472955, -0.0047459747, 0.043911442, 0.028770618, 0.0010896763, 0.023305934, -0.008145273, 0.054741208, 0.010272282, -0.017518668, 0.011134019, -0.049116038, 0.06772882, -0.0075316997, -0.031019941, 0.073360234, -0.016999047, 0.056935083, -0.0060467506, 0.006878041, -0.018683802, 0.0138688125, 0.034139737, 0.0066638207, -0.03461679, 0.003667233, -0.06478981, 0.016773125, 0.008672165, 0.037380867, -0.0041334373, 0.004491741, -0.055889145, 0.017622454, 0.018272853, -0.053226203, 0.041842934, 0.018690532, -0.053496722, 0.023144439, -0.07174281, 0.03343093, 0.06488426, -0.042872477, 0.03980923, 0.034222715, -0.010942604, -0.07691239, -0.010687668, 0.050218355, -0.02165558, -0.056073237, -0.02831699, 0.02216373, -0.020178739, -0.05385315, 0.040815115, 0.021163424, 0.06375165, 0.017663337, -0.022564294, -0.07951618, 0.03516136, 0.04770841, 0.027481528, -0.030551981, 0.034942217, 0.04778513, 0.006751079, -0.017577272, -0.01872951, -0.03665978, 0.011425623, 0.09419995, 0.039607767, -0.0053426228, 0.009606239, 0.085512675, -0.033323456, -0.00401338, -0.019117998, -0.0112013705, -0.0014889718, -0.036357656, -0.02090192, 0.0050550895, 0.062466927, -0.007679448, -0.008280819, -0.029256089, 0.030246949, -0.0015280608, -0.0064265644, 0.061649006, 0.062137842, 0.018375777, -0.014832227, -0.0023669756, 0.00868745, -0.01972908, -0.05758443, -0.046578057, 0.0078505725, 0.051768523, 0.031011308, -0.033985805, 0.06467594, 0.07860298, 0.07297562, -0.040035173, -0.05128628, -0.013405079, -0.0267683, 0.023301002, 0.0059827, 0.022527207, -0.0643648, 0.04195924, 0.03927023, 0.05688995, -0.02790663, -0.003530975, 0.063898526, 0.0003592757, 0.090507045, 0.018561631, 0.0027716719, -0.023624487, -0.03618947, -0.007799424, -0.012545134, -0.010577474, 0.020110495, 0.048130017, 0.019001462, 0.007498412, 0.033668876, -0.009545931, 0.015375241, 0.07305331, 0.041997448, -0.009404108, -0.023153294, 0.01831903, -0.06855609, -0.04531502, -0.0011390746, -0.078024246, 0.023427555, 0.05545799, -0.039346095, 0.043616164, 0.057455692, 0.060689606, -0.0065542376, -0.010514883, 0.1266639, -0.057072207, -0.06942516, -0.016799653, -0.011841785, 0.04991062, 0.017822195, 0.006893418, -0.004104098, -0.049532443, 0.010191647, 0.039190788, 0.04921846, 0.03754134, -0.037322886, 0.061426274, -0.03273229, 0.006672803, 0.08143961, -0.023946, 0.0330225, 0.00080121425, -0.044774495, -0.02001891, -0.008001366, -0.05112837, 0.017433958, 0.03384443, 0.046054315, 0.017947631, -0.037113715, -0.015997853, -0.060989056, 0.032784972, -0.018366167, 0.05151811, -0.06309894, -0.0033288018, 0.037076432, -0.013216661, -0.0019490026, -0.013478748, 0.01714297, 0.022771012, 0.014552961, 0.082134455, -0.039245382, 0.019147282, 0.035473127, 0.013180548, -0.012030985, -0.004748684, -0.004451363, 0.022193274, 0.0005041225, 0.011504046, 0.008412232, 0.060891252, -0.03870401, 0.02542525, -0.061122663, -0.06694397, -0.04180095, -0.018813932, -0.054007217, -0.04619225, -0.036220085, 0.036812272, 0.027615674, 0.033651344, -0.051148623, 0.015260561, -0.017531151, -0.020654706, -0.0066838334, -0.07032041, -0.056036845, 0.0064783026, 0.010147789, 0.001236922, -0.020728042, -0.107706286, 7.090054e-05, 0.016506238, -0.06877251, -0.042341206, -0.0008744083, 0.09087891, -0.019745914, -0.113501795, 0.030059103, 0.02547689, 0.0784033, -0.050066113, -0.0016973962, 0.004787059, 0.015081946, -0.036934584, -0.00032710336, 0.0025221405, 0.03644019, -0.11008641, -0.05861927, 0.018473849, -0.041848674, 0.0063913283, 0.03733191, -0.014879309, -0.069751024, 0.002536712, -0.00654839, 0.04061916, -0.0028831228, -0.053156845, 0.027525462, -0.049539506, -0.020437071]</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>김명선</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>강릉</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Combined effect of starches, hydrocolloids, and emulsifiers on the quality attributes of germinated brown rice extruded cakes</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Germinated brown rice flour has received much attention due to its health-functional ingredients such as dietary fibers. However, the food industry has faced challenges of using germinated brown rice flour in processed foods because it causes undesirable quality attributes such as high cooking loss and sticky texture. In this study, three different types of food additives (starches, hydrocolloids, emulsifiers) were incorporated into the formulation of extruded rice cakes and their combined effects on the cooking loss and textural properties of the germinated brown rice cakes were investigated. The addition of emulsifiers had a tendency to increase cooking loss and soften the noodle texture. Most of the starches except gelatinized and high-amylose rice flours showed similar effects to the emulsifiers. Xanthan gum, gelatin, and HPMC were positively effective in reducing the cooking loss of the rice cakes and increasing their hardness. When the ingredients were combined, the mixture of saemimyeon rice flour, HPMC, and xanthan/agar reduced the cooking loss by 66.7%. Most of all, this study provided an ingredient map that was plotted on the axis of hardness and cooking loss, depending on single and combined treatments of various ingredients.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>[-0.027454522, -0.002631321, 0.05379709, 0.022290474, 0.11185257, 0.009088525, -0.008483144, -0.09810674, 0.018845057, 0.04493013, -0.1015257, -0.02932409, -0.0112398965, 0.07315672, -0.05130667, 0.05293391, -0.06365971, 0.045350946, 0.04979703, 0.035238225, -0.018841816, -0.024863403, -0.039436236, 0.038611006, 0.07907637, 0.0230799, 0.012188093, -0.074113786, 0.041159112, 0.016761612, 0.035262886, -0.0286509, 0.06549148, -0.011682391, -0.05769352, 0.006980021, 0.06642026, 0.0013024018, 0.051102206, -0.041051824, -0.03766426, 0.024590231, -0.024135413, 0.005307508, 0.006815947, 0.023002492, 0.013503194, 0.004462155, -0.05909504, 0.026268015, -0.013869473, -0.01440063, 0.02910968, -0.0038103487, 0.040278792, -0.05222775, -0.06826928, -0.0025029392, 0.02302013, 0.023034945, -0.019950354, -0.060062606, -0.008575014, -0.012384557, -0.028099824, -0.012221893, 0.051125314, 0.0016904093, 0.027073612, 0.03338284, -0.00042057945, -0.0115501555, -0.02254857, 0.01643833, -0.07206712, -0.13790588, -0.036330692, -0.0038963153, -0.05598773, -0.058278274, 0.005951028, -0.046070766, 0.058565535, -0.0002664218, -0.041271586, 0.035691872, -0.07178147, 0.007974024, -0.03136859, 0.038063917, 0.0376503, 0.0038106728, 0.12218477, 0.05502568, 0.04479456, 0.044513267, 0.14006218, 0.067371175, 0.029759316, 0.024551878, -0.026198957, -0.0006389238, -0.047597595, 0.012232971, 0.066424325, -0.050267123, -0.0023283884, 0.01820705, 0.054360736, 0.020108148, 0.03767209, -0.03920213, -0.043777402, -0.028086726, 0.0137714185, 0.05224047, 0.0793182, 0.032775905, -0.00091004535, 0.03134703, 0.0109072495, 0.025773656, -0.0057195807, 0.060826033, 0.0014798921, 0.025184598, 0.016526176, -0.0073037925, -0.04078438, -0.06323128, 0.01772216, 0.093000636, -0.009128376, 0.03273376, 0.0059094275, 0.058760777, 0.020828702, 0.016834375, 0.02214538, -0.021059088, -0.010244038, -0.06353222, 0.035866395, -0.07941901, 0.0035886366, 0.010671853, -0.06592698, -0.018534843, 0.007984033, 0.05123645, 0.011772178, 0.019614343, 0.022535343, -0.05228236, 0.0068027726, -0.088068046, 0.019050658, -0.029206233, -0.060938038, -0.056998905, 0.008372711, -0.041235328, -0.044182487, 0.010241531, -0.016455729, -0.06736561, 0.06848458, 0.013324924, 0.013851752, 0.055531748, -0.023652589, -0.0040822304, 0.020297252, -0.03133907, -0.024401145, -0.034490235, -0.02213909, -0.04357238, 0.07013347, -0.07273956, -0.015013972, -0.004445449, 0.010254092, 0.028514821, 0.06664754, -0.024139494, 0.017954657, -0.01228705, 0.017575927, 0.09136283, -0.11669701, 0.04166126, 0.03358487, 0.02853084, 0.007923544, -0.012563962, 0.02745951, -0.037068326, 0.0825744, 0.06833605, 0.041387543, 0.0634658, 0.05100518, -0.031448882, 0.07339649, 0.06048557, 0.016375402, -0.014684997, 0.02811477, 0.013711217, -0.0022386073, 0.019215235, -0.033749916, -0.017299661, 0.03071954, -0.006073728, 0.0072332835, -0.05922206, 0.043733034, -0.003803517, 0.026853675, 0.00081480184, -0.065487914, 0.009110754, 0.015289187, -0.017367754, 0.009562179, 0.022706777, -0.012687379, 0.0035333878, 0.03607572, -0.052468207, -0.100489676, 0.008165281, -0.016359672, -0.015361828, -0.04579745, 0.017442452, -0.0008664045, 0.088165306, -0.058792643, -0.0026856712, 0.03454046, 0.009863924, -0.012513775, 0.025878796, 0.0069475174, -0.033372182, -0.05251924, 0.010749203, 0.036753796, 0.02143129, -0.04599515, 0.020876525, -0.030895367, -0.025341548, 0.010190533, -0.08436329, -0.052447353, -0.06412384, -0.012326108, -0.018260734, -0.045860846, -0.006300596, -0.011279201, 0.006657517, 0.04613962, -0.04225308, 0.034704037, 0.0147867445, 0.015439306, 0.0046872995, 0.041916773, 0.042512726, -0.025387725, 0.018892275, 0.033330936, -0.11801991, 0.023912473, -0.012667047, -0.045651603, -0.004463562, 0.032536794, -0.08260046, -0.0040913844, -0.012416804, -0.07742516, 0.036611736, -0.048854586, -0.052661464, 0.011103876, 0.018183712, -0.0060989396, 0.01502137, -0.06163092, 0.061572965, -0.005383197, 0.037106086, -0.027238324, 0.019651271, 0.062151626, -0.028649528, 0.081070885, 0.020154519, -0.02807648, 0.00021193572, 0.04279701, 0.00061221485, 0.051600516, -0.023131745, -0.027433865, 0.00496953, -0.013839534, 0.027979553, -0.025237696, -0.0048564323, -0.016106674, 0.03631709, -0.023114173, -0.024779348, -0.0068537253, 0.034693044, -0.015362722, -0.010945527, -0.03333734, 0.09177062, -0.021583501, -0.0099537615, -0.03783444, 0.030475857, -0.009010467, -0.011408738, 0.051794805, -0.018134246, 0.011595752, 0.018095369, 0.060222846, 0.030998424, -0.0056961677, 0.0027216484, -0.043174554, -0.019333452, 0.07950398, -0.0011353804, -0.04849202, 0.031262647, 0.052708793, 0.054466773, -0.013570975, -0.031016542, 0.044689734, -0.016018732, 0.042873733, -0.033216596, -0.0008394535, -0.077376306, -0.06093728, -0.04820443, 0.0815115, 0.0050587547, 0.009547052, -0.023211906, -0.022262838, -0.056606937, 0.012800627, -0.0025312945, -0.064963795, -0.045782156, -0.0053795404, 0.009686153, 0.030470168, 0.00421942, -0.040510684, 0.02312067, -0.046244614, 0.0078002, 0.00093422265, 0.05194695, 0.11305421, -0.019758498, 0.013672304, 0.014958847, 0.020709842, -0.03647183, -0.036156677, 0.021362897, -0.084348895, 0.052704763, -0.065921515, -0.09091189, 0.047743216, 0.098327994, -0.030710587, -0.005364443, -0.023348099, 0.014535996, -0.023152169, 0.015388077, -0.0996442, -0.008060639, 0.034690086, -0.026567739, -0.010446723, 0.023537314, -0.0056415233, -0.03552439, -0.049747653, -0.02706544, 0.008624448, -0.062431373, 0.00768707, -0.0063209846, 0.016217718, 0.03844138, 0.0419662, -0.029871346, -0.05370257, 0.042184003, 0.00808061, -0.017583758, -0.09487531, 0.030904887, -0.009251841, 0.101322554, -0.00536295, 0.012104697, 0.01499101, -0.054117206, -0.018430805, 0.052845046, -0.006418797, -0.040609855, -0.011001132, -0.03965123, -0.050672103, 0.04116181, 0.032155663, 0.03646862, 0.12821075, 0.014227248, -0.04391182, -0.044957094, -0.061121356, 0.0045449566, 0.010821793, 0.047848836, -0.0014822016, 0.0097862985, -0.012561586, -0.03907564, 0.013790656, 0.011878468, 0.026959568, 0.02869084, 0.06396971, -0.0535887, -0.008339983, -0.10023146, -0.015989237, -0.06832485, 0.029710174, -0.03594424, 0.113513865, 0.018272355, -0.009688362, -0.065844774, -0.043219775, 0.017532565, 0.04139567, -0.042226993, 0.023634005, 0.084456064, 0.014683958, -0.0059588337, 0.025115546, -0.044903517, 0.015773483, -0.018514998, 0.06528889, -0.05791073, 0.026486153, -0.06520219, 0.06675274, 0.046735983, -0.047068074, 0.01789201, 0.05575775, 0.006947223, -0.025807265, 0.00066681614, -0.05274535, 0.00904744, -0.04436021, 0.0144356955, 0.03628907, 0.0074903597, -0.002055278, 0.018939884, 0.023912102, 0.0024020476, -0.021945957, -0.07084585, -0.008226792, -0.03181123, 0.0072135297, -0.035491947, 0.007893538, 0.018447272, -0.10151138, -0.03622491, -0.01041682, 0.06791269]</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>김용기</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>강릉</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>In-vitro instrumental stimulation of oral breakdown of rice gels with different amylose contents</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>In-vitro food mastication has been simulated by incorporating size reduction process, followed by incubation with human saliva. However, they do not suffice to simulate the actual oral breakdown process where disruption by mastication (chewing) and wetting/lubrication by salivation take place simultaneously. In this study, in-vitro oral digestion of rice gels with different amylose contents was simulated by instrumentally performing mastication and salivation. The hardness of artificial saliva-treated rice gels was distinctly lowered with increasing chewing cycles and the rice gels with high amylose contents showed the highest degradation rate. When the rice gels were subjected to non-destructive tomographic analysis, the high amylose rice gels were clearly shown to be favorably fragmented into smaller pieces by chewing, followed by the low and intermediate amylose samples. These results could be explained by their cohesive texture rather than hardness. Therefore, this study may help understanding the changes in the physical properties of cereal-based foods during oral digestion.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>[-0.065849125, 0.08924686, 0.03230711, -0.022533277, 0.117023125, -0.044664305, -0.010968934, -0.06456932, -0.027077926, 0.04791405, -0.0673385, -0.037414405, 0.08167825, -0.02380468, -0.041750915, 0.0570964, -0.03151114, 0.033482097, 0.012026867, 0.038316373, -0.009112627, 0.01782001, -0.047186453, 0.045334075, -0.03659716, 0.038223013, 0.08654744, -0.027442604, 0.0056699486, -0.008976519, 0.059185077, -0.04483469, 0.0097105205, -0.004369468, 0.011484826, 0.012635031, -0.019249717, -0.0057883165, 0.05090406, 0.0022364543, -0.05284449, 0.045512125, -0.016026087, -0.021069821, 0.011737506, 0.010542587, 0.013433008, 0.007894194, -0.025924738, 0.018646292, -0.01243387, -0.022129487, -0.0077973315, 0.045672357, 0.014913306, -0.0013524332, -0.06286599, 0.0010367094, 0.03035351, -0.021354143, -0.043180928, -0.022900475, -0.049658515, -0.006313204, 0.0550528, -0.006088538, 0.00048554965, -0.0284118, 0.027620789, -0.0018178829, -0.0569446, -0.008887892, 0.066851005, 0.005168983, -0.0635706, -0.022205941, 0.046582446, 0.032768577, -0.052113608, -0.0103936475, -0.020523129, -0.068024054, 0.025096528, -0.043711856, -0.036204267, 0.08105368, -0.03342137, 0.028329613, -0.01995238, 0.0150023475, -0.024979305, 0.008718058, 0.13886875, 0.05577526, 0.032310914, 0.031249598, 0.03099534, 0.024574941, 0.047210637, 0.021844953, -0.031122638, 0.03507765, -0.05898259, -0.01908833, 0.0158727, -0.027847398, -0.018710107, -0.03245899, 0.061519373, 0.024800371, 0.034243368, -0.06878023, 0.03608868, 0.013428391, 0.03967627, 0.039721437, 0.024920875, 0.015282831, -0.0063656415, 0.020297447, 0.04408358, 0.0055318964, -0.013215274, 0.048726324, -0.02426243, 0.03558025, -0.006960272, 0.002346089, -0.009984171, -0.031444177, 0.019409046, 0.08271482, -0.014522196, 0.03030647, 0.013286577, -0.05065479, -0.047719814, 0.036431037, 0.005394521, -0.04527349, 0.037702896, -0.026473995, 0.033092905, -0.033109937, -0.014985178, -0.025421632, -0.05315687, -0.014650056, -0.006750814, 0.023064269, 0.06372399, 0.024093544, 0.04877119, -0.031194758, -0.015703702, -0.06912858, -0.06338214, -0.03696366, -0.019731, -0.03445333, 0.051693175, -0.012006536, -0.045074187, 0.03597995, 0.07332015, -0.07708719, 0.05695613, 0.016075438, 0.018687539, 0.019373715, -0.0007656997, -0.013806585, 0.048742797, -0.021713762, -0.002420958, -0.009016399, -0.026718782, -0.025590573, 0.032721914, -0.040093377, 0.004725122, -0.083318375, -0.02063593, -0.0098840445, -0.04653116, 0.0062172753, 0.04677827, -0.026763987, 0.06187403, 0.03366038, -0.024351427, 0.009739353, 0.037317522, 0.024077954, -0.029985612, 0.005756239, 0.043046977, -0.045459975, 0.03336372, -0.005254243, 0.013195084, 0.033090528, 0.027067635, -0.053734377, 0.041767437, 0.025841888, 0.01585361, 0.036971483, 0.0063032038, -0.042620964, -0.023173511, 0.07345328, 0.024643254, -0.05762048, 0.049924195, -0.017808735, -0.018636456, -0.03271867, 0.049436055, -0.0029021043, -0.02468687, 0.037493765, 0.0040764976, 0.0780288, -0.04679666, -0.010023296, 0.06951798, 0.025594767, -0.06434203, -0.040624093, 0.023615655, -0.019403525, 0.0034548403, 0.008259244, 0.0506892, 0.06148701, -0.0338229, -0.041860845, 0.0062396573, 0.07112306, 0.005048142, 0.004763181, -0.0304114, -0.003957789, 0.012815255, -0.00051161164, 0.043306097, -0.025670964, -0.043809384, -0.051241286, -0.027356679, 0.045904938, -0.016820848, -0.0035999245, -0.008924147, -0.033381484, 0.03807054, -0.11666391, -0.0041130832, -0.042236492, 0.012372685, -0.0549973, 0.011153164, 0.033858716, -0.05844734, -0.03007358, 0.0038308809, 0.06339232, 0.0019345108, 0.00029702208, -0.04851771, 0.02397473, -0.0074959593, 0.03679547, -0.113904156, -0.065919735, -0.035619266, 0.022610182, 0.05442637, 0.06638471, 0.011236529, 0.0051939646, 0.013701538, -0.021977589, -0.0015139792, -0.023396371, 0.019021064, -0.008028518, 0.0070627546, -0.036082733, 0.018215625, 0.015466002, 0.030516488, -0.037489377, -0.06688442, 0.06653125, 0.005947782, 0.03876566, 0.0042023663, -0.029965628, -0.027479505, 0.05498103, 0.0140714245, 0.057889894, -0.021510605, 0.01256135, 0.021068344, -0.04935799, -0.025125178, 0.012471182, -0.06379209, -0.00023918645, 0.0106877815, 0.058735274, -0.052470908, -0.059521634, 0.0036435295, 0.0063065924, -0.009789284, -0.047060072, 0.009987092, 0.047301896, 0.0047909305, 0.0062961695, -0.07676718, 0.023715833, 0.022467252, -0.05890923, -0.046081424, 0.042030897, 0.027703213, 0.006375922, -0.0013593977, -0.02014788, -0.024386669, -0.005354738, 0.013037383, 0.053314257, -0.02631142, 0.0040215557, 0.0034795664, -0.046009276, -0.007581561, -0.034932368, -0.04114637, 0.04582172, 0.04896824, 0.025755446, -0.0509901, 0.0012809096, 0.0019110902, 0.0059029902, 0.021583473, -0.01662861, -0.031579882, 0.033778463, -0.05192373, -0.029448168, 0.0025473721, -0.00052087446, 0.052250005, 0.0062238825, -0.0008959101, -0.030187456, 0.0056801382, -0.056147385, -0.058364872, -0.051677972, -0.026683768, 0.0074696047, -0.0072117667, 0.021401538, -0.024794815, 0.014811981, -0.02680384, -0.061710127, 0.009068316, 0.014837314, 0.056089886, 0.011689089, 0.00026118103, 0.025277248, 0.035233352, -0.07461508, -0.045619726, -0.035348877, -0.053625472, 0.04549902, -0.014650606, -0.029020883, 0.07265027, 0.08147364, 0.007832635, -0.025581315, -0.009137249, -0.0143439155, 0.012764051, -0.013750211, 0.041685715, 0.010184525, 0.011087332, 0.05754186, -0.004812785, -0.046954304, 0.004487447, 0.0066239336, 0.044973373, 0.012610074, -0.05354279, 0.026279386, 0.03586781, 0.0028953922, 0.044795386, 0.05798467, 0.005547072, 0.038917374, -0.070081905, 0.029117648, -0.008217604, -0.060157105, -0.035454977, 0.045891516, -0.015588538, 0.010090532, -0.04004362, -0.0066657113, -0.0049651945, -0.033675667, 0.042082377, -0.03083112, -0.018652037, 0.017747322, 0.003147452, 0.043604508, -0.022301547, 0.024239652, 0.0607457, 0.005379131, -0.02411068, 0.022835309, -0.008958741, -0.048902024, -0.016306328, -0.00061094336, -0.0024368234, -0.033641204, 0.019474093, -0.0763295, 0.038916644, -0.037690245, 0.023773242, 0.013301155, 0.0010175133, -0.020731552, 0.0083050635, -0.06038886, -0.035610106, 0.005095103, -0.0668802, -0.04539304, 0.0056726146, -0.036542665, 0.07565467, -0.0069705416, 0.050740432, -0.010704787, -0.03089148, 0.05667341, -0.00037759528, 0.053617794, -0.04398454, 0.07278007, 0.017554332, -0.013678028, -0.08242155, -0.01662242, 0.01707693, -0.025821203, -0.035823356, 0.0024677084, -0.0015590709, -0.028331919, 0.06674988, 0.016433803, -0.08420258, 0.017847061, 0.04128532, 0.031734418, 0.030067626, 0.022508668, -0.06022356, 0.027230129, -0.006190181, -0.008358068, -0.027536228, 0.02512194, -0.014601388, 0.0043793744, -0.011411868, -0.016390212, 0.025607038, -0.028755443, -0.053419355, -0.023386268, -0.031492103, -0.018773613, 0.027243225, 0.011312434, -0.13049993, -0.006194313, 0.015375118, -0.036708735]</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>박유진</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>강릉</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Utilization of turanose as a quality improver in gluten-free extruded rice noodles</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Gluten-free industry has experienced consistent growth with increasing the number of individuals with celiac disease. Among gluten-free products, the popularity of rice noodles has been worldwide increasing over the recent years. However, rice noodles have several processing limitations such as high cooking turbidity and long cooking time. Therefore, various ingredients have been incorporated into the formulation of rice noodles in order to improve their quality attributes. In this study, turanose which is known to be a new sugar alternative with low sweetness was applied to rice noodles and their effects were characterized in terms of thermal, rheological, and textural properties. Gluten-free rice noodles were prepared with different levels of turanose (0.5, 1.0, 1.5%, w/w) by using a twin-screw extruder. Rice flour with turanose had higher gelatinization temperature and also showed higher enthalpy values after storage at 4°C. The use of turanose also increased the pasting and mixing parameters of rice flour. In addition, the application of turanose to rice noodles affected their qualities such as texture and cooking loss. Thus, this study demonstrated that turanose could positively contribute to enhancing the qualities of gluten-free rice noodles as a new additive.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>[-0.009562974, 0.008609801, 0.032356795, -0.0046217297, 0.09297187, -0.025591463, 0.0008046155, -0.010702003, 0.041465685, 0.02474756, -0.09536156, -0.03382854, 0.004131116, 0.0644602, 0.0065098447, 0.03231186, -0.038535915, 0.022637773, 0.029860659, 0.018156057, -0.035163935, 0.02549164, -0.0647905, 0.06279916, 0.02447513, 0.005327302, 0.05256178, -0.061273776, 0.078847244, -0.036227554, 0.06443888, -0.04559792, -0.023120837, -0.04544312, -0.08009392, 0.004303984, 0.08292254, 0.035852727, 0.07861705, -0.0063961903, -0.032560036, 0.034460682, 0.011459343, -0.020990487, 0.029140264, 0.0121643655, -0.010511091, -0.031656597, -0.053760983, 0.015025606, 0.02519653, -0.012176454, 0.010214848, -0.015385281, 0.06270022, -0.06651044, -0.04263568, 0.015114667, 0.0036862497, 0.030454066, -0.008205025, -0.022160241, -0.066684894, 0.004107481, 0.008153878, 0.04460107, 0.052067522, -0.0025310297, 0.019362614, 0.041141577, 0.011721593, -0.014511519, 0.033298407, 0.031180063, -0.09781062, -0.055837024, 0.033926446, 0.00081848033, -0.049330816, -0.03470925, 0.01769188, -0.047873933, 0.028090453, -0.029365845, -0.05026387, 0.060914088, -0.08950924, 0.002415129, -0.00646422, 0.03323275, 0.03144036, 0.005682921, 0.11879161, 0.007844626, 0.057301477, 0.04859344, 0.06891013, 0.08143119, 0.024642626, 0.06642908, 0.0007257814, -0.01451179, -0.028712505, 0.017084356, 0.018383294, -0.026473548, 0.05513597, -0.0009527497, 0.044350427, -0.012962086, -0.051653124, -0.055663187, -0.028003305, 0.020044237, -0.0009328231, 0.017992534, 0.03967676, 0.06413298, 0.0055661113, 0.015431068, 0.013093176, -0.0004413499, -0.00936193, 0.045911293, 0.01467071, 0.06012605, 0.05526057, -0.022416413, 0.010866469, -0.024953814, -1.0480639e-05, 0.052449927, -0.025232285, 0.065794684, -0.009133118, -0.01514029, 0.021626094, 0.056458715, 0.0018067589, 0.034886155, 0.020872528, 0.06658454, 0.051468775, -0.007473305, -0.023250073, 0.038046755, -0.081799924, -0.055783466, -0.0041799243, 0.030957522, 0.013020089, 0.016998425, -0.010168154, -0.08943042, -0.07599897, -0.053296443, -0.042879872, 0.014639677, -0.018680042, -0.013431853, 0.026595615, -0.0625052, 0.004624263, 0.017971534, -0.009493384, 0.03306991, 0.059760243, 0.023793824, -0.036865227, 0.059332397, 0.004365149, -0.014958106, 0.013154703, 1.5018042e-05, -0.028645728, -0.013116861, -0.0025483218, -0.01543958, 0.069916815, -0.03535721, 0.03194686, -0.047105685, -0.019518932, -0.058683652, 0.006401601, -0.019689983, -0.014588442, -0.061508734, 0.006397802, 0.025067296, -0.10442156, 0.012845319, 0.067580625, 0.024431715, 0.0032161009, 0.006079975, 0.027075605, -0.024044015, 0.11428671, 0.082848296, 0.02578597, 0.03583117, 0.024098963, -0.034826953, 0.051428664, 0.004567774, -0.00024219509, 0.018916612, 0.010578546, 0.045269333, -0.06005387, -0.049120124, -0.01942288, -0.0063974033, 0.038883716, -0.027670091, -0.033175852, -0.012911502, -0.003017953, 0.044880778, 0.061510272, 0.04728954, -0.05740109, 0.027872656, -0.099186055, 0.008260504, 0.010903978, -0.0016013668, 0.047051538, 0.022427127, 0.004885004, -0.073164724, 0.0022014051, -0.019643439, 0.085876, -0.017344724, -0.018529585, 0.00419739, 0.04397273, 0.06732707, -0.022798745, -0.018144775, -0.010331922, 0.07917643, -0.024774034, -0.061758235, -0.058784094, -0.07916431, -0.07173271, 0.0019003479, -0.0020189541, 0.034156326, -0.0003752019, -0.005204165, -0.011163483, -0.013627077, 0.012409194, -0.075577915, -0.061973218, -0.01388004, -0.013579154, -0.05239915, -0.020161666, 0.0089198155, -0.015547647, 0.016600626, 0.0300201, 0.070673145, -0.008811667, -0.036708746, -0.029282492, 0.023160402, 0.044080053, 0.04704991, 0.027018279, 0.073169485, -0.05630432, -0.07687256, 0.018816518, -0.035018943, -0.03906667, 0.0033995747, 0.020630324, -0.017922595, -0.03232714, -0.04106447, -0.032831084, 0.0034070306, -0.057345204, -0.05765483, -0.028597783, -0.048513364, 0.06526084, 0.0021655194, -0.0683901, 0.07390392, -0.01373132, 0.042927127, 0.0024307843, -0.019602943, -0.025295444, 0.05569335, 0.04819111, 0.032494392, 0.002374952, -0.013268867, -0.08157975, -0.0027552848, 0.08421249, 0.030463498, -0.015104168, 0.013501349, -0.013254004, 0.0648862, 0.004866897, 0.05639077, -0.017345443, -0.0341342, -0.03914342, -0.06425504, -0.021734778, 0.06921302, -0.026946312, 0.0030647127, -0.0065966127, 0.098735996, -0.026693212, -0.021690609, -0.034653187, 0.045456644, 0.017908562, -0.019938435, 0.03920317, 0.04565549, 0.0014488728, -0.07607818, -0.05254412, -0.028537681, 0.031503197, -1.0797288e-05, 0.010771667, -0.018670592, 0.06270838, 0.009354764, -0.06522532, 0.009976366, 0.07320267, 0.048177514, -0.02686769, -0.040646505, -0.02825198, -0.0057317466, 0.016016753, -0.010055119, 0.047623914, -0.0067133964, -0.054389626, -0.04424191, -0.0012420771, -0.0040150452, 0.056881122, -0.071065225, -0.010534395, -0.038863424, 0.012027427, 0.016122567, -0.04281121, -0.05365985, 0.035728324, -0.029379822, -0.008634588, 0.029897021, -0.0022588668, 0.021697057, -0.014007291, -0.014990155, -0.021165343, 0.08953036, 0.06232828, 0.009502391, 0.0030673256, 0.004385795, 0.01953031, -0.07675031, -0.06787783, -0.004435402, -0.11494192, 0.03943505, -0.03511774, -0.018543838, 0.037286658, 0.08123248, 0.0028576043, -0.012745662, -0.02132935, 0.06702668, -0.019328298, -0.004903459, -0.0144505985, 0.023760043, 0.038242742, -0.05768212, -0.012919715, -0.005059715, -0.08767421, 0.009626931, -0.008406147, -0.024752378, -0.042794514, -0.0432273, -0.04569332, 0.0021584919, 0.009601765, 0.04713848, -0.01955674, -0.0030108336, 0.0065453826, -0.037170786, 0.032615084, 0.010684908, -0.05416552, -0.0015257739, 0.018754998, -0.020602923, -0.043918036, -0.049324352, -0.029986829, -0.039756864, -0.0030104718, 0.014897109, -0.009069967, -0.008793493, 0.009020524, -0.054558955, 0.020775743, 0.020182809, 0.04360924, -0.014416416, 0.072712615, 0.038471166, -0.037046354, -0.048839133, -0.07044895, 0.047990035, 0.011173901, 0.057770148, 0.03203093, 0.07836332, -0.004388859, -0.021715965, 0.0362419, -0.042989157, 0.002942784, 0.105550595, 0.0058216564, -0.013979599, 0.028317155, 0.010525152, -0.0102254115, -0.028089387, 0.019917887, 0.025143145, 0.057736926, -0.066944756, -0.014044373, -0.06121039, -0.11115051, -0.011128301, 0.03334292, 0.009678586, 0.024358438, 0.11191117, 0.047487453, 0.006187787, -0.0050076493, -0.013068666, 0.03928848, -0.051188562, -0.027603395, -0.044697788, -0.015744789, -0.059555076, 0.04405839, 0.018067254, -0.0005042068, 0.04631487, 0.039517764, 0.033298314, -0.053809684, -0.03152942, -0.03242662, -0.023015613, -0.05768109, 0.0011328345, 0.041412238, 0.027968403, 0.009174762, -0.015778448, -0.012703201, -0.009493247, 0.05187942, -0.014025642, -0.028503615, -0.036256716, -0.03512627, -0.008822998, 0.034510262, -0.06505857, -0.13665959, -0.033212908, 0.010135012, 0.014924783]</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>IUFost</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>임정택</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rheological characterization of candelilla wax oleogels in baked goods for saturated fat reduction
-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Structuring liquid oils with organogelators has been receiving much attention in order to replace solid fats high in saturated fats. In terms of food applications, natural waxes are considered as promising organogelators since they are approved as food ingredients. In this study, candelilla wax and canola oil were combined to produce oleogels that were incorporated into baked goods, specifically cookies. The physicochemical properties of the cookies prepared with the oleogels were then characterized and compared with those of the shortening cookies. The use of candelilla wax produced oleogels with solid-like properties whose firmness had a tendency to increase with increasing levels of candelilla wax. When the flow behaviors of the oleogels were monitored over temperature, they became more sensitive to temperature at a higher concentration of candelilla wax. Furthermore, the peroxide values of oleogels during storage were assessed under accelerated conditions. Cookie samples high in unsaturated fatty acids (90%) and low in saturated fatty acids (10%) were prepared by replacing solid fats with the oleogels. In addition, the low viscosity of the oleogels at the baking temperature gave rise to desirable spreadable characteristics. This study demonstrated that the candelilla wax oleogels for solid fats successfully produced cookies high in unsaturated fats without sacrificing quality attributes. It would be worthwhile to extend the application of natural wax-incorporated oleogels into a wider variety of baked foods containing solid fats.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>[-0.039035015, 0.05855683, 0.033821147, -0.0059078257, 0.05929127, -0.011073913, -0.016176999, -0.09878108, -0.010322457, 0.038111355, -0.074723214, -0.028480008, 0.0012018181, 0.031116093, -0.012866304, 0.041236255, -0.013678697, 0.028357973, 0.03050979, 0.042919368, -0.038854554, -0.013630499, -0.05901146, 0.05467805, 0.04275448, -0.05938878, -0.0068941736, 0.027174596, -0.005538342, -0.0013016043, 0.01338033, -0.014590396, -0.02216256, 0.0034708185, 0.017743282, -0.0367782, 0.020802889, -0.011215816, -0.046170708, -0.027783291, -0.09565225, 0.025984256, 0.08774767, 0.009461428, -0.006024587, -0.04046647, 0.054410998, 0.05990747, -0.016753512, -0.003884464, -0.018571045, 0.0191613, 0.04799887, -0.013295821, 0.014558902, 0.008561346, -0.07591955, -0.060625445, 0.029313128, 0.03755535, -0.03273814, -0.020397723, -0.04150588, 0.0160313, -0.012424355, 0.013236694, -0.004860091, 0.029389622, 0.09160445, 0.01966493, 0.019054053, 0.039434474, -0.020976838, 0.005488874, -0.08096427, -0.059016496, 0.01649635, -0.061998203, 0.00048434475, -0.023167174, -0.07573184, -0.07038603, 0.06322912, -0.017322095, -0.026340257, 0.048422188, 0.04070674, 0.0387223, 0.0063689933, 0.0636911, 0.056117613, 0.034280337, 0.087375626, 0.028766125, 0.060997915, 0.028830498, 0.095556796, 0.06493444, 0.052488733, 0.030536944, 0.0046770866, 0.075394295, -0.021920947, 0.020106435, 0.012913288, -0.056337267, 0.02027379, 0.021854388, 0.017523443, 0.07865278, 0.017412871, -0.04656325, -0.026868153, 0.05383061, -0.0043571745, 0.075100556, 0.02858824, 0.059782468, 0.028674489, -0.0553233, 0.05089149, -0.05393759, 0.029852984, 0.0077080764, 0.014521945, -0.0048945434, 0.042346086, 0.041751742, 0.028103208, -0.060344853, 0.008628183, 0.056938704, -0.036990758, 0.014711794, 0.019800564, 0.041007925, -0.012318416, 0.041677777, 0.0495636, 0.031036431, 0.0124295205, -0.005039285, 0.050355177, -0.0083417725, 0.04843376, 0.011463635, -0.016108882, -0.051495887, -0.071671836, 0.035393354, 0.008009082, 0.018523267, -0.076700956, -0.009791432, -0.012388273, -0.028912555, 0.012865693, -0.028633995, -0.060605314, -0.007896198, 0.035227563, -0.038887452, -0.011911381, 0.004834554, -0.018445373, 0.086454965, 0.026125468, 0.020983402, -0.057702057, 0.035036758, -0.013840073, -0.011673947, 0.01901165, 0.048131987, -0.06116064, -0.05465244, -0.03492822, -0.0307381, 0.04143274, 0.041445546, 0.027338326, 0.003044819, 0.009050937, 0.007609398, 0.0343986, -0.045116216, -0.011909412, -0.00014942512, -0.017825041, -0.0043943655, -0.09378275, 0.05579809, 0.05314023, 0.013746058, -0.021502566, 0.031061677, 0.099495284, 0.001848801, 0.02213147, 0.03188322, 0.04130161, 0.033254668, 0.03736824, -0.014684619, 0.102313325, 0.025698543, -0.015551642, -0.00051323575, 0.017236598, 0.015291927, -0.01735897, 0.029870847, -0.01945968, -0.018329967, 0.028062107, 0.020511938, 0.01212653, -0.027754884, 0.040376797, 0.02178301, -0.022936642, 0.047189, -0.042306107, -0.0058648004, -0.027718896, 0.0025696347, -0.008850001, 0.05867794, -0.07430349, 0.019433595, 0.028704932, -0.010638427, -0.0010885401, 0.023122923, 0.02962509, -0.028740235, 0.007697465, 0.073711544, -0.008752599, 0.08194463, -0.014183504, 0.024084767, -0.010010903, -0.00042996948, 0.003577741, 0.018042834, 0.024415696, -0.011587774, -0.010316595, -0.0044666864, -0.07832655, 0.07514369, 0.026899086, 0.010654892, 0.12170507, -0.014131992, 0.049571987, -0.004161309, -0.009600153, -0.014979945, -0.028529806, 0.017767511, 0.022715827, 0.02371802, -0.0154168485, -0.10373981, 0.0031775604, -0.018034264, 0.05219053, 0.018662905, -0.02770231, -0.018001316, 0.076868586, -0.012985527, -0.035659373, 0.042773485, -0.009984779, -0.038011525, -0.0036903478, -0.067195736, 0.011735503, -0.04224249, 0.035717897, -0.0110087525, 0.010321599, -0.0067810263, -0.0590297, -0.0072657294, -0.005270951, -0.05177482, -0.022920197, -0.04216273, 0.016930485, -0.0011422241, -0.073509425, 0.051717885, 0.024632681, 0.02237384, 0.06878038, 0.031282533, -0.05352345, 0.0024674195, 0.009568075, 0.02439282, 0.01377746, 0.024899257, 0.04742107, 0.0043843025, 0.0020530773, -0.021216592, -0.0188768, -0.02730564, 0.0032076917, 0.06238095, -0.014670412, 0.054717198, 0.03921805, -0.035369232, -0.020416105, 0.0045192405, -0.014868986, 0.014663649, -0.029136509, -0.048694998, 0.006893211, -0.013274274, -0.067507155, 0.012893507, -0.044580366, 0.058265716, -0.006148015, -0.0065056733, 0.034570523, 0.021361703, -0.0076478613, -0.043948874, -0.014508503, 0.0654746, -0.012941105, -0.015696166, -0.023408547, 0.022135697, 0.058747582, -0.037570402, -0.0048461896, 0.00564221, 0.05692391, 0.07794665, -0.048625518, -0.03373488, -0.07388047, -0.0072893333, -0.003089386, -0.021218644, -0.01366363, -0.02455997, 0.04056824, 0.030978043, -0.00889096, -0.0044383523, 0.00074205163, 0.014501103, -0.060336072, 0.05949549, 0.011327253, 0.019736951, -0.031155968, -0.023667073, 0.037535075, -0.0014765168, 0.054900263, 0.019020425, 0.06415711, 0.018962368, 0.04926734, -0.028772367, -0.015744109, 0.012171414, 0.04476838, 0.02609766, 0.014327056, 0.031600613, -0.0063711586, -0.07623571, -0.048787847, -0.042259578, -0.13229801, 0.030885497, 0.004947815, -0.12102629, -0.038378585, 0.05717268, 0.11207783, 0.006819301, 0.020039648, 0.06371714, -0.004573575, 0.017170489, -0.033524126, -0.005611593, 0.023609597, 0.013632049, 0.019995384, 0.018199213, -0.0060229576, 0.0027807264, 0.015679624, 0.014951477, 0.03321585, -0.007205301, 0.069424376, -0.009738592, 0.015563065, 0.040469885, 0.04015816, 0.0034959766, -0.021838909, -0.030025965, 0.016544292, -0.019175902, -0.07125162, -0.0027714958, 0.028931364, 0.057959594, 0.07839712, -0.015831316, -0.014251921, -0.07772807, 0.09801335, -0.056871478, 0.06707682, -0.049171947, 0.018942436, -0.012108913, -0.100712, 0.008774751, -0.00616369, 0.02242217, 0.050393946, 0.003294851, 0.07746584, -0.055362333, 0.002615097, 0.07007127, 0.005554688, 0.011513676, 0.0027908238, -0.007665774, -0.012008216, 0.007890148, -0.016343197, 0.028883267, 0.030066842, 0.018885251, -0.0029939567, -0.038407557, -0.077833, -0.052599117, -0.030254481, -0.09135566, -0.012032252, -0.025478072, 0.037704773, 0.0054689446, 0.034094002, -0.051776674, -0.00095643714, 0.012530107, 0.042451918, -0.03353871, -0.06721336, 0.015043264, 0.008196961, 0.024222335, 0.0062384238, -0.00011706911, -0.08290478, -0.041921724, 0.01774899, -0.08210345, -0.0018953738, -0.0038076725, 0.030742042, -0.040960867, -0.053989165, 0.00047790862, 0.046347056, 0.027067326, -0.08068483, -0.05776868, -0.017010747, 0.04408003, -0.011665882, -0.0018057529, 0.03301674, 0.031056726, -0.06303115, -0.0014155236, -0.002088845, -0.011014339, 0.0065647904, 0.022375494, -0.02112633, -0.050743144, 0.023803165, -0.006418107, -0.0044868723, -0.019417528, -0.09675026, 0.018143049, -0.08240042, -0.0014515138]</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>IUFost</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>정성민</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Monitoring rheological behaviors of rice-based products during in-vitro simulation of starch digestion</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Rice has been consumed as one of the staple crops mostly in Asian countries. Rice is also regarded as a natural gluten-free and hypoallergenic ingredient. However, there is a lack of detailed information on the rheological properties of rice products during digestion in the human that can contribute to elucidating their physiological effects. In this study, the rheological behaviors of rice products (flour and noodle) were continuously characterized under the oral-gastric-intestinal simulated conditions. The rheological properties of rice flour and noodle during in-vitro starch digestion were monitored by using a rotational rheometer with the custom-made starch paste cell. The in-vitro viscosities of all the rice digesta samples were distinctly reduced under the simulated oral-gastric-intestinal conditions. However, in the case of the in-vitro oral and gastric digestion, the reduced viscosity patterns varied depending on rice flour and noodle. The brown rice digesta containing fiber-rich bran fractions exhibited higher viscosity than the white rice digesta at the end of the in-vitro intestinal digestion. These rheological results were correlated with the released glucose amount and starch digestion fractions. This study provided thus fundamental information on the in-vitro rheological properties of rice-based products in the human body</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>[-0.02092867, 0.023891263, 0.06773202, -0.030676082, 0.06468904, 0.012439347, -0.05557199, -0.045976404, -0.020885035, 0.039271586, -0.06299002, -0.033735532, -0.01232657, 0.062498987, -0.03900418, 0.02739285, -0.03529178, 0.01023001, -0.019516999, 0.042644124, -0.0106978975, -0.005767532, -0.06603419, 0.024767531, 0.043782976, 0.006496752, 0.04618353, -0.01685665, -7.505424e-05, -0.010147568, 0.01857579, -0.03380939, 0.005540832, -0.0060123494, 0.007342543, -0.029580995, 0.018564727, 0.028257787, 0.09273887, 0.012048552, -0.0061719827, 0.029399745, -0.07024925, -0.014177994, 0.024084106, -0.0009163169, -0.018335545, -0.02047028, -0.10578787, 0.025578616, 0.020198427, -0.0020925063, 0.02134216, -0.0003805966, 0.014856973, 0.0034754176, -0.049863685, -0.025601171, 0.013276972, 0.019179244, -0.05571735, -0.032451462, -0.07313593, 0.03326366, 0.0041515366, 0.0011441137, 0.0053000436, -0.09729377, 0.00042424534, 0.052317083, 0.0005260525, -0.0047350507, 0.024286598, -0.026949884, -0.095149264, -0.0621134, 0.037465245, 0.018799655, -0.032664277, -0.04257495, 0.051138606, -0.07364283, 0.03925629, 0.005524229, -0.0791988, 0.052269913, -0.100348644, -0.0032242704, -0.023294257, 0.0033790295, 0.0025150364, 0.05762799, 0.07191981, 0.033897854, 0.023399817, 0.05378649, 0.07937048, 0.054345246, 0.009401888, -0.018505264, -0.027675254, 0.0014089628, -0.03047343, 0.032411806, 0.004199172, -0.042720746, -0.013954685, -0.0019103461, 0.052366804, 0.021701751, 0.013723905, -0.05954284, -0.013074045, -0.028439285, 0.009338489, 0.038034845, 0.033379752, 0.043148186, -0.0017764838, 0.034435898, -0.0010167708, 0.014440797, 0.024629794, 0.12254701, -0.0005059725, 0.03454168, 0.037708424, -0.004445527, -0.016947543, -0.04957696, 0.028854838, 0.024670184, -0.035803854, 0.049067874, 0.006465916, 0.007529065, -0.0033163992, 0.028609665, 0.004385531, 0.019233506, 0.026955338, -0.04032709, 0.04874533, -0.050639674, -0.020212134, 0.0043213693, -0.10296391, -0.033782307, 0.030764623, 0.030821892, -0.011302529, 0.024767537, 0.019907191, -0.03640131, -0.029393328, -0.050531115, 0.012137475, 0.007041868, -0.06422828, -0.01579175, 0.025732558, -0.051638644, -0.007013125, 0.005906395, 0.0041593313, -0.0071602813, 0.06629631, 0.037571657, -0.0013635309, 0.0847034, -0.014035918, -0.015019965, 0.058809735, -0.016755015, -0.040283702, 0.0175387, -0.020569831, -0.03915589, 0.06702218, -0.03700839, 0.03228502, -0.046845175, -0.022220332, -0.047846686, 0.01264282, -0.09120504, -0.025803575, -0.0093475105, 0.05031898, 0.04192494, -0.12110326, -0.016727133, 0.033209223, 0.030605467, -0.018285558, 0.015675426, -0.01882819, -0.05796277, 0.060922034, 0.11451424, 0.106578454, 0.065738074, 0.08620292, -0.018367732, 0.03891353, 0.059720293, 0.037436068, 0.0032502594, 0.002045137, 0.018104292, -0.051364962, 0.056441225, 0.050028507, -0.068003446, 0.07414088, -0.0026487329, -0.029328784, -0.033243366, 0.014496306, 0.00061578996, 0.047441866, 0.054058127, -0.009393309, -0.025621617, -0.016317556, -0.011498734, 0.017255932, 0.04580238, 0.010421629, -0.055879623, 0.018762864, -0.046778075, -0.007964621, 0.012208808, 0.043138802, 0.05196264, -0.05865387, 0.01333421, 0.036938358, 0.05688181, -0.06776489, -0.012889236, 0.00606771, 0.03088134, -0.01063255, -0.038733665, 0.009733492, -0.036097772, -0.037270926, -0.010460544, 0.018219607, 0.014813103, -0.00521762, -0.04020034, -0.055216055, -0.027270673, -0.044122785, -0.10475109, -0.073239535, -0.06643013, 0.04278662, -0.035042692, -0.06621945, 0.008352277, 0.03380991, 0.03633475, 0.041863, 0.05833357, -0.0075953593, 0.019672766, -0.0039975527, 0.031235088, -0.009113223, 0.015968675, -0.029382052, 0.02521717, -0.022861438, -0.10725933, -0.017806983, -0.002413561, -0.038887423, 0.0009801426, 0.038674492, -0.086564496, -0.030791117, -0.02078255, -0.04944447, 0.019798996, -0.071769945, -0.07288976, -0.04226903, 0.014956763, -0.0017827773, -0.027964206, -0.053782623, 0.047109056, 0.04461144, 0.08257349, -0.007982999, 0.005485451, 0.022857785, 0.038448982, -0.018657608, 0.035150804, -0.017899955, -0.042875152, -0.04511189, 0.007999156, 0.019293472, 0.042258307, -0.034988653, -0.0480308, 0.017746743, 0.02455956, -0.03713512, -0.0007340183, -0.018308498, -0.021185273, -0.022525832, -0.077236764, 0.017447121, 0.040905446, -0.02392995, -0.010161837, -0.059676636, 0.07307666, 0.032598455, -0.010868335, 0.0015476312, 0.053240586, 0.00883961, -0.0044908845, 0.0014122734, 0.0033174576, -0.016910722, -0.026306538, 0.01413868, -0.052498456, 0.016961372, -0.00082427036, -0.06015715, 0.023960542, 0.04211983, 0.031502116, -0.06066466, 0.02846502, 0.10271523, 0.019766496, -0.09962697, 0.024303418, -0.015376165, -0.011292211, 0.038799696, -0.037452497, -0.00025265384, -0.00020355568, -0.033738486, -0.031730656, 0.0037811887, 0.010590105, 0.0444709, -0.11161121, -0.03001056, -0.0545423, -0.023718886, -0.0053787096, -0.040132817, -0.038350437, -0.009416039, 0.024323901, 0.045686886, 0.041746125, -0.042582516, 0.053211566, -0.0077443537, -0.030124588, -0.03354102, 0.08761033, 0.054785196, -0.00017797854, 0.026843665, 0.009690175, 0.013609591, -0.036252286, -0.04395447, -0.022285502, -0.10737061, 0.015633779, -0.023961637, -0.057894666, 0.11772117, 0.08942038, -0.015758088, -0.00014389015, -0.027253315, -0.037626892, -0.073562995, 0.025621997, -0.05975533, 0.05417527, 0.023725636, -0.026203008, -0.0703106, 0.00803783, -0.08211944, -0.013495472, 0.0010940488, -0.02940654, -0.051112708, -0.053319044, -0.0291858, -4.789757e-05, 9.110849e-05, 0.023197712, 0.01749848, -0.0053174794, 0.002257885, 0.02624935, -0.009263889, 0.017251888, -0.07912604, -0.015893059, 0.0124644665, -0.03223146, -0.066395156, -0.016428092, 0.019528652, -0.049044006, -0.03468563, 0.040216144, -0.0075880266, -0.03823559, 0.014914135, -0.029733403, -0.014504889, 0.050208267, 0.045649942, 0.013294221, 0.058190078, 0.023970058, -0.005940112, -0.07000477, -0.09113321, -0.008703174, 0.015816562, 0.050579354, -0.027218632, 0.05592831, -0.004392156, -0.02694826, 0.014694924, -0.046277855, -0.010152336, 0.08145015, 0.038447957, -0.044300508, -0.0013854988, -0.027878929, -0.040174328, -0.026931372, 0.048753273, -0.02983588, 0.10154919, -0.040356126, 0.008592369, -0.0415763, -0.0664103, -0.0031402614, 0.049867082, 0.019067956, 0.036197215, 0.11847945, 0.051718127, 0.0047344486, 0.004924464, -0.019119019, 0.0057311556, -0.0069310507, 0.028678896, -0.032971963, 0.04421299, -0.046952773, 0.006650897, 0.04271652, -0.035523783, 0.059779983, 0.053206265, 0.03872457, -0.044674166, 0.032354165, -0.03402087, 0.0090660285, -0.090075344, -0.00430647, 0.029504893, -0.0074977153, 0.008906951, 0.002191439, 0.014735407, -0.010658548, 0.046685, -0.022594668, -0.031614143, -0.017445471, -0.024673302, -0.026176032, 0.025250312, 0.018282467, -0.12823519, -0.028759513, 0.025558475, 0.043183975]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>김용기</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Sensory and mechanical texture correlation of softened food ingredients for the elderly</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>The elderly people with difficulty in chewing may be at risk of anorexia and malnutrition caused by dysphagia. There is however a lack of standard texture guidelines customized for the elderly that should be based on sensory and mechanical texture correlation. This study was carried out to establish appropriate sensory and instrumental procedures in order to identify the softened levels of pre-treated food ingredients for the elderly. The hardness measurement by the shear test with the Kramer shear cell exhibited positive correlations with the intensity of sensory firmness and toughness perceived by elderly people. The sensory responses were classified based on a relative hardness (RH) from the mechanical measurement. A RH of 0.7 could be used as a reference point to screen softened levels of pretreated samples for the elderly people. As a result, this study showed a relationship between the perceived sensory and mechanical texture, providing RH-based texture guidelines for verifying the softened levels of pretreated ingredients for elderly people.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>[0.002477469, 0.0076764235, 0.0370606, -0.019671943, 0.10935459, 0.092574745, -0.08080665, -0.051366754, 0.026749555, 0.047386512, 0.016976025, -0.06934969, -0.027948936, -0.0065212254, -0.006094396, 0.020763136, -0.03469911, 0.03223346, 0.031967036, -0.019704849, 0.042876784, -0.016359746, -0.07440933, -0.039995104, -0.053634077, 0.03505583, 0.050505936, -0.0150691075, 0.053640753, -0.0045037405, 0.044589445, -0.041862972, 0.013416982, 0.039618146, -0.0031110705, 0.0017360259, -0.027384635, 0.0322064, -0.11523642, -0.07121316, -0.037945483, 0.010697074, -0.00011881121, -0.041807182, 0.120816335, -0.04602266, -0.0062774196, 0.04433067, -0.039201863, 0.0071597737, 0.008541045, -0.018872693, -0.06895508, 0.039621305, 0.040615093, -0.031112084, -0.03529759, -0.06382432, 0.05477238, -0.004981016, 0.025228318, -0.067900755, -0.03493268, -0.025399424, 0.018923974, 0.017657178, 0.017555647, 0.007826673, -0.07702346, 0.020696934, 0.013081656, -0.06977906, -0.026725419, 0.022984626, -0.046947498, 0.05421415, 0.007861386, 0.03758925, 0.022909366, 0.070324436, 0.0023761133, -0.050005328, 0.056207787, -0.026125353, -0.011788714, 0.08527001, -0.02365413, 0.013220414, 0.0033740087, 0.007045042, 0.017186118, -0.021326112, 0.11959424, -0.008737191, 0.0039996216, 0.0069970405, 0.015864702, 0.03014021, 0.011657932, 0.019364819, -0.028750435, 0.019277455, -0.033504423, 0.0017604149, 0.0272999, -7.7276374e-05, 0.10427823, -0.00500024, -0.0031220827, -0.00095921004, -0.0136853885, -0.06825038, -0.009665548, -0.023298739, -0.017791212, -0.0013716128, -0.022712046, -0.013531286, -0.028751694, 0.009318865, 0.029597204, 0.04144119, -0.0066993576, 0.10637215, -0.07398677, -0.0045563923, 0.03982568, -0.066126995, 0.019511122, 0.07611926, 0.022911014, 0.04288415, 0.02172303, 0.04962146, -0.0012651713, -0.016513152, -0.011317412, 0.059868436, -0.09882001, -0.025046436, 0.049271986, 0.0017209364, -0.040303234, -0.07745761, -0.03929172, 0.0034749543, -0.03644489, -0.019050416, -0.08190528, 0.023078104, -0.0149058, 0.05896153, 0.04836871, -0.027438266, -0.023734113, -0.0046517253, -0.070855744, -0.03180262, -0.006430043, -0.017991848, 0.04365939, -0.023887841, -0.06476019, 0.031903815, -0.035387676, -0.053659838, 0.031209556, 0.016760893, -0.04127167, 0.06221918, 0.031891946, -0.006767328, 0.027718078, 0.010755732, 0.05652925, 0.0037112522, -0.0016816881, -0.05233923, 0.052024197, -0.025477692, -0.037560303, -0.05139049, -0.032367352, 0.0027393794, 0.0026358669, -0.024045583, 0.00456246, -0.012253461, 0.03698214, 0.04473125, 0.0070709996, 0.0064990646, 0.047128536, -0.03180385, -0.058157306, 0.075849265, 0.046066698, 0.027495887, 0.021090604, 0.020159738, -0.06510185, -0.0007332823, -0.030073341, -0.043513887, 0.093084045, 0.006054167, -0.040957376, 0.009883151, 0.06644266, -0.052420486, -0.054110825, 0.025781589, -0.034009732, -0.04032638, 0.020998018, -0.05615171, 0.009169657, -0.1139339, -0.04085778, -0.004258289, 0.03235696, 0.021106081, 0.0010749983, -0.05316357, 0.011655873, 0.001497922, -0.017532695, -0.06575696, -0.009612104, 0.04361485, 0.031072635, -0.05291156, 0.037940796, -0.01767541, 0.042168077, -0.029087335, -0.018902255, -0.0035059052, 0.00021485006, 0.06262633, -0.049632803, 0.0027767473, -0.0019425902, -0.0051806043, 0.027334346, 0.026239136, 0.026495969, -0.017264282, -0.024757788, -0.021447659, 0.0023295432, 0.0036451917, -0.026039684, 0.0049263844, 0.0018326885, -0.010986388, -0.017528614, -0.011784961, 0.010577522, -0.011692889, 0.057852615, -0.04044608, -0.01669218, -0.057725955, -0.06324437, -0.0616853, -0.036580365, 0.04410915, 0.012626214, 0.0013238505, -0.050507676, 0.07561904, 0.059506424, 0.047286905, -0.016564274, -0.038063046, -0.073112704, -0.017795956, -0.021333564, -0.04748143, -0.025653321, -0.02799573, -0.0070078624, -0.04232934, -0.072365746, -0.012691494, 0.0005129817, -0.013504449, 0.070691414, -0.05010097, 0.0525459, 0.045172665, 0.062030546, 0.055255592, -0.06158523, 0.04481549, 0.04295893, 0.049732506, -0.014051431, -0.012525473, 0.08224956, 0.015479853, -0.09950975, 0.06351275, 0.0016148372, 0.030031392, 0.050689954, -0.0035527486, 0.07371159, 0.029912878, 0.00030223504, -0.0048010885, -0.0043513994, 0.04668196, -0.052551042, 0.067660846, 0.00088908407, 0.050554488, 0.03445525, -0.045581445, 0.041417208, 0.0021530192, 0.082541876, -0.028675392, -0.028792262, 0.004266346, -0.023331786, 0.043878283, -0.037762675, 0.01806664, 0.02976335, -0.00980572, -0.04224088, -0.0038690649, -0.06486305, 0.018196002, -0.019744681, -0.01093122, 0.011506985, -0.06891346, -0.0833857, -0.011760005, 0.056065124, 0.0045528, -0.024564985, 0.10181993, 0.048983213, 0.09221417, -0.10511915, -0.02950257, 0.011598358, 0.004065587, 0.02186096, 0.0052086385, 0.029795755, 0.010103949, -0.072431624, -0.005081708, -0.030044824, 0.029925745, 0.01841614, -0.04172293, 0.009391955, 0.006639263, -0.0015443946, 0.011697785, 0.0033338312, -0.02989413, -0.00488572, -0.063493416, -0.0070997737, -0.0067157107, -0.02547791, 0.033662103, 0.030320186, -0.04364809, -0.018776096, -0.0054519195, 0.043324918, 0.060831208, 0.055348292, -0.0023381747, -0.04189426, -0.016871741, 0.0029823296, -0.0019034892, -0.06270482, -0.03473493, 0.032753266, -0.027033333, -0.01595418, 0.07370937, 0.06799656, -0.033212624, 0.07977337, 0.058644958, -0.05570376, 0.01710164, 0.042692605, -0.029948747, -0.022808516, -0.02982893, -0.013811203, -0.11916478, 0.0033025732, 0.094326295, 0.03522113, 0.011635393, -0.05574785, -0.020752227, -0.021836363, -0.013746436, -0.029269084, -0.02428547, -0.021328146, 0.009900409, -0.029799245, 0.106783345, 0.05329983, 0.006657475, -0.028237248, 0.053772684, -0.04714059, 0.059792932, -0.026330905, -0.023309221, 0.033212643, -0.030996393, 0.031795155, -0.015628356, 0.049462333, 0.021029755, 0.055575266, -0.027709527, -0.06620197, 0.03379959, 0.081940345, -0.002287998, -0.016376728, 0.051092852, -0.013991, -0.04961541, -0.008403229, 0.03337032, 0.039112806, 0.0063463836, -0.0132227475, 0.0120390775, -0.020450875, 0.023831984, 0.028843349, 0.009233346, 0.022201275, -0.01610478, -0.019342499, -0.024762515, -0.012753883, 0.0015223168, -0.0073826397, -0.0107253585, -0.007096652, -0.0085670315, 0.038834076, 0.094991416, 0.004416034, -0.020511568, 0.009185965, 0.0066218595, 0.017940698, 0.04289285, 0.024110327, -0.032880597, 0.04893232, 0.023738265, -0.066526204, -0.04810884, -0.009077047, 0.0039977254, 0.040527266, -0.012569265, -0.019311415, -0.004159444, 0.04286328, 0.008655659, 0.03219487, 0.05961883, 0.08309248, 0.0056553804, -0.041084718, -0.063824475, -0.022141363, 0.063971564, -0.03613434, -0.0028839004, 0.008871208, 0.039752554, 0.012867768, 0.044914942, -0.03941538, -0.0016172756, 0.05590175, -0.11058605, -0.038237657, 0.0032134808, -0.051824287, -0.00948659, 0.054286618, 0.046119202, -0.10249609, -0.030234486, 0.044544436, 0.029613337]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>김주영</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rheological and morphological characterization of oleogels 
-as a solid fat replacer in aerated baked goods
-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Oleogelation has been recently receiving much attention as a new technology to structure edible oils with oleogelators. It can be applied to aerated food products specifically, baked products by substituting solid fats with oleogels for lowering the levels of saturated and trans fats. In this study, canola oil-carnauba wax oleogels were prepared and used as a shortening replacer in making cakes. The rheological and structural properties of the cakes were then investigated. The viscosity of the cake batters had a tendency to decrease with increasing shear rate. The use of more oleogels for shortening caused two viscoelastic parameters of the batters to decrease. The texture, volume, and porosity of the cakes were characterized using oleogel as a shortening replacer. However, the use of oleogels for shortening up to 25% produced cakes with lower levels of saturated fatty acids without quality loss. The results may contribute the food industry to develop bakery products with reduced amounts of saturated and trans fatty acids.</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>[-0.0020267237, 0.03384032, 0.03724924, -0.0026420243, 0.049101632, 0.01594495, 0.012298405, -0.13552248, 0.035926927, 0.04847777, -0.0389432, -0.05870645, 0.05204414, 0.019808743, -0.028836243, 0.024443042, -0.013361492, 0.0067454986, 0.039710425, 0.0456896, -0.054399326, -0.012207928, -0.07537039, 0.04983865, 0.042238884, -0.05354563, -0.0004862542, 0.040087193, -0.009178633, -0.018481072, 0.007995902, 0.008565746, -0.046106957, -0.048175436, 0.007386982, -0.037969436, 0.039517935, -0.022046424, -0.0667942, 0.039610546, -0.10868003, -0.020054772, 0.12803997, 0.0118256705, -0.008315239, -0.08760478, 0.01852814, 0.075281575, -0.0012854778, -0.013194812, -0.01930959, 5.7484955e-05, 0.031666007, 0.0094505735, 0.024931565, -0.028433947, -0.08870314, -0.06147938, 0.018175872, 0.02320054, -0.013315408, -0.027960563, -0.052795492, 0.034409404, 0.014764201, -0.0068522785, 0.044680018, 0.06638665, 0.088625796, 0.011401602, -0.047498208, 0.0026890736, 0.026422579, 0.049579587, -0.056911074, -0.043096464, -0.01608174, -0.03924473, 0.015440584, -0.024071777, -0.055191413, -0.07884017, 0.040044103, -0.01898228, -0.026242614, 0.039260622, 0.035643946, -0.023992661, -0.0028692423, 0.05092133, 0.03726947, 0.038150813, 0.09047184, 0.018161692, 0.04564357, 0.016143588, 0.08672067, 0.029027026, 0.02291797, 0.052569114, 0.0059943134, 0.07213719, -0.05027007, -0.01141207, 0.017901083, -0.036550745, 0.027549084, -0.0030464316, 0.034038655, 0.041653343, 0.007295822, -0.05912892, -0.02132692, 0.07955513, -0.017797831, 0.09160516, 0.047134332, 0.050578654, 0.025880551, -0.027933776, 0.04509116, -0.042517245, 0.044635475, 0.011947906, 0.01626322, 0.015287152, 0.0110494215, 0.051507834, 0.04236879, -0.045610126, -0.018338524, 0.007883709, -0.056898624, 0.0046285125, 0.041969445, 0.015105638, 0.04884245, 0.030697282, 0.055244315, 0.017225755, -0.0020689515, -0.027771318, 0.02333136, -0.040651124, 0.021012397, 0.0051682345, -0.008112366, -0.015925959, -0.03863022, 0.061741877, 0.016378159, 0.044057425, -0.049536992, -0.014672433, 0.0023519045, -0.033213552, 0.021390166, -0.019983025, -0.02459752, -0.008456992, 0.012296042, -0.004954262, 0.015057368, 0.029059913, 0.0014367498, 0.08944627, 0.0745131, 0.015448213, -0.034890663, 0.0036202446, -0.016760545, -0.007691263, 0.025328424, 0.08120841, -0.050499592, -0.047638174, -0.034136213, -0.010868144, 0.020347325, -0.0123657985, 0.011568019, -0.046667174, -0.00077746884, 0.016550828, 0.03449094, -0.052494854, -0.0050622183, 0.022018028, -0.034360718, 0.014370216, -0.08573739, 0.069792934, 0.022272773, 0.02708398, -0.01649434, -0.003920508, 0.06723635, 0.0010209704, -0.0010408283, 0.016463578, 0.024649996, 0.03829754, 0.0267688, -0.019167088, 0.07844334, -0.019558277, -0.043897513, -0.029870933, -0.0007114213, 0.020073127, -0.036652435, 0.062387154, -0.019999962, -0.007904671, 0.021989478, 0.03362485, 0.02726858, -0.025036752, 0.06590568, 0.016540118, -0.021160092, 0.02644557, -0.03820454, 0.012479081, -0.04951491, 0.051625762, 0.01280976, 0.040055543, -0.06812193, 0.01269128, 0.012136679, 0.010036628, -0.022359196, -0.025629688, 0.05205204, 0.0043911864, 0.024053374, 0.0042701345, 0.0049668346, 0.0637855, 0.005555318, 0.028045822, -0.0037723912, -0.029455105, 0.018606639, 0.025250055, 0.036119796, 0.023845397, 0.005055433, -0.0071280166, -0.02376869, 0.06484622, 0.045445614, 0.03301679, 0.089752644, -0.036311224, 0.036470618, 0.0144829815, 0.024166737, -0.01543217, -0.029848792, 0.022488402, 0.041262146, -0.016872674, -0.054925494, -0.10300784, -0.0009989563, -0.0045212065, 0.047276426, 0.0037972978, -0.034645434, 0.017520383, 0.064396136, -0.0075975433, -0.05971818, -0.020108031, -0.0011333004, 0.008035225, 0.022245293, -0.07800997, -0.033459924, 0.0019789187, 0.010221373, 0.011383607, 0.04045959, -0.019151164, -0.097568296, -0.008317999, -0.021034837, -0.04916313, 0.009942559, -0.037448943, 0.022536265, 0.021688696, -0.054865826, 0.048085257, 0.005348404, 0.0104972655, 0.06106073, 0.023358012, -0.08075618, 0.02234703, 0.011097235, 0.015006825, -0.002003679, 0.03362438, 0.027576288, -0.011176288, 0.005460121, -0.0091678575, -0.038049694, -0.015746195, 0.01263243, 0.0517365, 0.0074581434, -0.020573962, 0.03887697, 0.03136791, -0.008764985, 0.013703399, 0.041820478, -0.016350266, 0.0150144985, -0.0056988504, -0.014149714, 0.008474072, -0.043671988, 0.03177628, -0.03419627, 0.059339818, 0.022329492, 0.0028546033, 0.054169826, 0.0030648608, -0.020350158, -0.011490029, -0.0040935655, 0.05291807, -0.0071818293, -0.042013038, -0.042474486, 0.0022636128, 0.04806784, -0.022209484, -0.020599999, 0.0047592786, 0.097640365, 0.08885611, -0.051287282, -0.067618564, -0.06216232, -0.012105214, 0.007767365, 0.0024538927, -0.015440713, -0.0041479436, 0.06574148, 0.03550907, 0.026917582, -0.0377509, -0.008811946, 0.06737195, -0.05418706, 0.072777234, 0.013872872, 0.020968072, -0.044220977, -0.02433553, 0.011802445, -0.011173031, 0.051667564, -0.008700149, 0.046556532, 0.017632782, 0.08836971, -0.05297759, -0.032898396, 0.023058001, 0.05314606, 0.031053022, 0.019777238, 0.011045681, 0.00018168055, -0.052813534, -0.019175746, -0.027467664, -0.08773882, 0.049983803, 0.032874405, -0.047163166, -0.03740339, 0.029938545, 0.10406008, 0.016014015, 0.026758304, 0.029299464, 0.011768748, 0.036276937, -0.032605894, -0.028636692, 0.03973071, 0.013775473, 0.03989081, 0.05534232, -0.059177797, -0.030421289, 0.06303842, 0.027086746, 0.0011724527, -0.05312531, 0.057235327, -0.026983397, -0.010570185, 0.06713774, -0.019208996, -0.0065880795, -0.048132963, -0.05145196, -0.02104178, 0.015361081, -0.066447094, -0.025286663, 0.038237054, 0.037977822, 0.06411421, -0.009158453, -0.0164681, -0.055977885, 0.03061741, -0.0028146233, 0.087522276, -0.031735547, 0.0008830202, 0.060278542, -0.058847424, 0.03255748, -0.018217493, 0.008604802, 0.002927153, 0.030310718, 0.07930363, -0.064357735, -0.009607785, 0.02841084, 0.044420924, -0.018053198, 0.010935269, 0.040896174, -0.025749797, -0.02550121, -0.020461231, 0.034413267, 0.041978594, -0.033812106, 0.00018421016, -0.050104145, -0.09448234, 0.008501676, -0.013885331, -0.07374273, 0.029514816, 0.004740765, 0.0483486, 0.038145207, 0.00930091, -0.045578808, -0.005832181, 0.031511318, -0.0039017072, -0.032442797, -0.09158908, -0.022249812, -0.015140849, -0.0025657949, -0.012015921, -0.01074906, -0.077021115, -0.0367247, 0.02079118, -0.024048137, -0.0012696928, -0.021900175, 0.027454656, -0.034503184, -0.08648239, 0.028055144, 0.043159872, 0.037467632, -0.12374644, -0.01191296, -0.028546525, 0.031436764, -0.019257199, -0.03093858, -0.020882357, 0.013185146, -0.052608024, -0.048909836, 0.023233168, -0.021499896, -0.031013776, -0.00264339, -0.02898521, -0.0681819, 0.010076834, -0.031056343, 0.010368277, -0.031374983, -0.09769558, -0.018020546, 0.017420325, 0.028635027]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>정성민</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The physicochemical properties and in-vitro digestibility of extruded rice noodles with different amylose contents
-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Different varieties of rice have been extensively used for value-added products, suggesting new avenues of application in the food industry. Specifically, great attention has been paid to the rice cultivars with different amylose contents that play critical roles in the quality attributes of rice-based products. In this study, extruded rice noodles were prepared with three rice varieties containing different amylose contents. Their physicochemical properties and in-vitro starch digestibility were then characterized from a rheological point of views. Rice flour with higher amylose content exhibited greater resistance to dual-mixing and higher degrees of starch gelatinization/retrogradation. The high amylose rice noodles showed harder texture that was related to their reduced cooking loss. Besides, the rice digesta with higher amylose contents exhibited greater viscosities throughout the simulated oral-gastric-intestinal digestion steps. he results of this study provided a promising opportunity for the food industry to study the quality attributes and in-vitro starch digestibility of rice-based goods by means of rheology with the advantages of being more rapid in real time.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>[0.006461564, 0.011082673, 0.07464248, -0.03468615, 0.073150694, 0.018032242, -0.025224969, -0.03233941, -0.013024921, 0.03220424, -0.077050045, -0.055012718, 0.013640894, 0.047961354, -0.054515116, 0.020679032, -0.037356503, 0.046339534, 0.025518859, 0.0015473726, -0.061545752, 0.0075065535, -0.03747518, 0.062014204, 0.08190771, 0.010756304, -0.013282601, -0.049458407, 0.00085850235, -0.021104252, 0.033123475, -0.023415076, 0.06449989, -0.008255957, 0.01991597, -0.034511887, -0.018290713, 0.051292222, 0.085605405, -0.016198575, -0.011567777, 0.043018483, -0.08684222, 0.027263135, 0.02309441, 0.025693089, 0.03580335, -0.024620343, -0.05752763, 0.02260869, -0.036168166, -0.026276872, 0.044485077, 0.006752184, 0.04157887, -0.07822798, -0.05214236, -0.01202659, -0.039890338, 0.017772892, -0.091775574, -0.04499713, -0.053776655, -0.01487273, -0.0225154, 0.03130637, -0.009339905, -0.011529964, 0.00083883415, 0.022702625, -0.023453636, -0.04109904, -0.022243146, 0.03130242, -0.08065244, -0.0946476, 0.025018796, 0.016408749, -0.057366714, -0.06979542, 0.009120364, -0.038642466, 0.04673644, -0.0025942754, -0.072037, 0.029429846, -0.117694564, -0.021737384, -0.0052047814, 0.027290082, -0.012427141, -0.014860236, 0.09748616, 0.059936758, 0.038829427, 0.054764356, 0.111028776, 0.03647178, 0.031176828, 0.010565312, -0.031934105, 0.04012285, -0.06379404, 0.04434226, 0.040739466, -0.021466715, 0.025574584, -0.021654619, 0.046992492, 0.058090605, 0.06640106, -0.048767656, -0.04597939, -0.02530369, 0.020844666, 0.06855848, 0.027696105, 0.05743296, -0.008791159, 0.084155545, 0.040530857, -0.032680888, 0.0031516815, 0.08007627, -0.015384243, 0.06912066, 0.018068118, -0.015648652, -0.050218772, -0.05675316, 0.01850402, 0.05957883, -0.016051162, -0.011228639, 0.037715077, 0.014456021, -0.007834014, -0.03782209, 0.0033785808, -0.01564847, -0.011853589, -0.0138671035, 0.037473325, -0.069361, 0.035639275, -0.0020284953, -0.11812129, -0.035693772, -0.010610294, 0.012777827, 0.016179087, -0.019431764, 0.009726618, -0.03733378, -0.011913161, -0.058172174, -0.0041686487, -0.013016603, -0.053592023, -0.0072021293, 0.0023998953, -0.06505875, 0.0140851205, 0.03432759, -0.0026006438, -0.0019578685, 0.027397377, 0.031181524, 0.011718982, 0.081002794, 0.0066620475, -0.004352514, -0.017261736, -0.02578944, -0.05640009, 0.012051661, -0.025844341, -0.065847434, 0.09167047, -0.06014575, 0.03696711, -0.07150921, -0.008438011, 0.017179385, 0.041634254, -0.05099928, -0.006386041, -0.01989635, -0.003595744, 0.04544013, -0.15859094, -0.012270544, 0.037259333, 0.047322754, 0.012959132, -0.0008156021, 0.016564347, -0.03631022, 0.1277642, 0.09299817, 0.070516355, 0.06979383, 0.08124759, 0.0064615826, 0.026552686, 0.05335915, 0.009036517, -0.007774408, 0.059467904, 0.009306737, -0.042180326, -0.012699175, 0.010310393, -0.03982749, 0.0808456, -0.030881563, 0.0032068554, -0.013607955, -0.001988134, 0.04310366, 0.031543124, 0.015956897, -0.019117173, -0.0069050584, -0.020222973, 0.03742911, 0.010831394, 0.012291621, 0.026641808, 0.020522447, 0.036263425, -0.062039766, -0.043648593, -0.010651616, -0.016672986, 0.020856615, -0.024992453, -0.004066673, 0.037601843, 0.08072843, -0.04767948, 0.021213755, 0.0029890235, 0.027899744, -0.047148004, -0.05637986, -0.038416505, -0.014050655, -0.07429223, 0.00044701292, 0.00826362, 0.004996172, -0.002525856, -0.04242974, -0.029237635, 0.04315906, -0.045408443, -0.15432511, -0.04706363, -0.036475755, 0.06222337, -0.04926073, -0.036857005, 0.03155047, -0.013859678, 0.014909935, 0.029458923, 0.005382738, -0.023865093, 0.020166377, -0.017897893, 0.00930604, 0.020995392, 0.03480219, -0.013659094, 0.01883964, -0.01238856, -0.09581999, 0.00066657097, 0.03167059, -0.063018344, 0.022968959, 0.08217132, -0.09353751, -0.0058838045, -0.04962436, -0.032837797, 0.0217491, -0.0672028, -0.033126347, -0.0012656059, -0.01721841, 0.02799736, -0.022570178, -0.045266192, 0.06479775, 4.8752874e-05, 0.09874414, -4.866533e-05, 0.009340995, 0.009254474, 0.0149354935, 0.017429423, 0.044765163, -0.01603286, -0.041922837, -0.01566279, -0.0014465995, 0.037334017, 0.0089980075, -0.0046854457, -0.0054346025, 0.029515099, 0.057732068, 0.000455716, -0.005439971, 0.023377853, -0.0010622878, -0.009438478, -0.044644322, -0.037531197, 0.055505257, -0.0009047992, -0.020321047, 0.037210815, 0.07275342, -0.0021967732, -0.0030335793, -0.0208766, 0.0650626, -0.047512162, -0.054338973, 0.019395022, 0.016041517, -0.0021854204, -0.02193743, -0.0022273716, -0.005010125, -0.02456412, -0.03999831, -0.018290846, -0.023524528, 0.028615296, 0.02136494, -0.0575421, 0.08328566, 0.08817307, 0.045282517, -0.07951237, -0.013295157, 0.011123023, -0.0049284496, 0.011220533, -0.0040241205, -0.027474398, -0.014177524, -0.0667455, -0.07166953, 0.011004838, -0.020061359, 0.030831743, -0.056176174, -0.032005973, -0.07578134, 0.04072209, -0.02419855, -0.016967315, -0.048686855, -0.041945457, 0.019323163, 0.02580385, -0.0094007375, -0.047265694, 0.012368257, -0.015603896, -0.005621133, 0.030912193, 0.087815, 0.06305254, 0.01773764, 0.0104243355, -0.011926594, 0.008153296, -0.06512611, -0.06717943, -0.015883876, -0.055323098, 0.09157274, 0.017029062, -0.0809383, 0.06642215, 0.08434896, -0.00021421537, -0.00392657, -0.025907435, 0.041251738, -0.084701344, -0.011959169, -0.025788628, 0.0363258, 0.050622918, -0.043221027, -0.046815973, 0.030834902, -0.036660578, -0.014080241, -0.007255987, -0.044412144, -0.060496483, -0.047889214, -0.011234524, 0.06182273, 0.05135005, 0.023799388, -0.024923462, -0.023508834, -0.045944594, 0.014952507, 0.019494258, -0.023023617, -0.06365729, 0.0040280414, -0.030820323, 0.0036269377, -0.04405789, -0.045855872, 0.034387525, -0.016938249, -0.017455306, 0.043292515, 0.0045251087, -0.03242331, -0.020132521, -0.06320149, -0.009100646, 0.026225105, 0.02728455, -0.03911954, 0.0836525, 0.007615244, 0.0067070927, -0.058023285, -0.031521007, -0.025645787, 0.018576114, 0.06404265, -0.012331437, 0.041164596, 0.033964448, -0.056371786, 0.007455909, -0.02659255, 0.0073767896, 0.07315208, 0.042607583, -0.018466111, -0.0031186978, -0.03290556, -0.019371742, 0.004079301, -0.02541501, -0.021121899, 0.096584916, -0.031451967, 0.017261876, -0.023183735, -0.074398324, 0.017433012, 0.020252518, -0.015810732, 0.015219418, 0.08502739, 0.036199756, -0.005248767, 0.029389363, -0.060836263, 0.060184427, -0.004831076, 0.051049527, -0.07846326, 0.003440564, -0.024198253, 0.071326524, 0.08609728, -0.039988108, 0.05128065, 0.021318978, 0.013107375, -0.013269929, 0.016627736, -0.09487521, 0.00411879, -0.0559226, 0.009153256, 0.06516007, -0.0065267608, -0.021050923, -0.031648763, -0.004015395, -0.018401721, 0.0075111603, 0.0096824495, -0.0049607293, -0.01967502, -0.012066151, -0.041525915, -0.021582251, 0.009209618, -0.1015328, -0.0052225487, 0.017189473, 0.05595241]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>임정택</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evaluation of natural waxes as oil-structuring agents in oleogels
-: rheological, thermal, and oxidative properties
-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Recently, a new technique named organogelation has been receiving much attention in order to structure edible oils by using a variety of organogelators. Especially, an interest in nature waxes is recently on the rise since they are approved as food additives. In this study, natural waxes were used as canola oil structurants to produce oleogels and their rheological, thermal, and oxidative properties were characterized. The highest value of hardness was measured in the oleogels with candelilla wax. The viscosities of oleogels were measured as a function of temperature, showing the highest sensitivity of carnauba wax oleogels to the temperature change. The viscoelastic patterns over temperature were different depending on the samples. When the oleogel samples were subjected to the accelerated storage conditions, the lowest peroxide values were measured in the candelilla wax oleogel. In the study, the physicochemical properties of oleogels were observed depending on the types of natural wax. The results obtained in this study can encourage the food industry to develop new food products with natural wax-incorporated oleogels by providing their fundamental information.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>[0.010793572, 0.08838298, 0.050309945, -0.0074288826, 0.05143841, 0.028969005, -0.07480873, -0.09205228, -0.012533021, 0.01842812, -0.05077503, -0.01506822, 0.017851148, -0.0028378442, -0.008661033, 0.016076874, -0.04941141, 0.033405557, -0.032159068, 0.04227568, -0.064445384, 0.0067399875, -0.008096204, 0.06743123, 0.05575447, -0.0693076, 0.03532019, 0.02724921, -0.01740016, -0.000208023, 0.013604339, -0.0072884765, -0.02887943, 0.011027996, 0.0023182253, -0.053220794, -0.028190328, 0.03187382, -0.043729845, -0.025803778, -0.038484663, 0.019761471, 0.015531091, 0.02609805, -0.0036856863, -0.046072546, 0.046661735, 0.06230091, -0.04062071, -0.012595166, 0.003982591, -0.040933337, 0.016538054, 0.039323855, 0.029527077, -0.028068678, -0.08573669, -0.08108549, 0.034095716, 0.03615393, -0.040562775, -0.04029423, -0.053594667, 0.03085618, 0.008663986, -0.047389973, -0.024291586, -0.001988321, 0.06860875, 0.046185136, -0.026460888, -0.00047433164, -0.059415817, 0.06690483, -0.082928695, -0.0142608145, 0.0026507287, -0.024724143, -0.023388451, 0.008269116, -0.052907947, -0.06429868, 0.037279807, -0.00024970478, -0.042934824, 0.05593764, 0.015174923, 0.008707527, -0.031351067, -0.0034251716, 0.0076151397, 0.0025143544, 0.09723809, 0.04775886, 0.021879269, 0.009792553, 0.10590778, 0.057459887, 0.03229768, -0.015005716, 0.0058561396, 0.0962245, -0.02917772, -0.023628933, 0.050968334, -0.061355267, 0.043641225, 0.025724843, 0.0074991984, 0.06936283, 0.028510015, -0.05348277, 7.900689e-05, 0.019975217, -0.0038198093, 0.051355466, 0.0047812853, 0.04160359, 0.022667082, -0.0355686, 0.05867392, -0.052627597, 0.035919677, 0.021391178, -0.0070710224, -0.0064606755, -0.006057167, 0.05542063, -0.0014387461, -0.07559577, -0.044352166, 0.009957471, 0.023919888, -0.013582754, 0.016389975, -0.0011649256, 0.01691919, -0.00429084, 0.035916463, 0.007667688, -0.028414968, 9.62012e-05, 0.051604014, -0.06498293, 0.00928068, -0.017162668, 0.06633374, -0.043443765, -0.054245453, 0.033401087, -0.011596731, -0.008032864, -0.076623686, 0.03293619, 0.0087121995, -0.06383225, 0.001411987, 0.011530799, -0.03392724, -0.00913846, -0.0029058468, 0.014836999, -0.013831317, 0.05014281, -0.013891026, 0.07208522, 0.024653956, 0.018663995, -0.014856078, 0.008207107, -0.0055155084, -0.0046825665, 0.035884432, -0.01652247, -0.027308905, -0.02677791, -0.009670416, -0.010458998, 0.039895676, 0.044019405, 0.016867302, -0.038419425, -0.016201697, 0.043896817, -0.012132115, -0.01780877, -0.02629092, 0.008336153, -0.026482306, -0.0033099863, -0.074595354, -0.02105022, 0.036482867, -0.0014611528, -0.013814465, 0.08569355, 0.0803938, -0.0023808347, 0.015284933, 0.0082913395, 0.034104854, 0.021887528, 0.03584519, -0.01281301, 0.09853947, 0.004845597, -0.04065346, 0.030064428, -0.008781681, 0.052392732, -0.030592708, 0.049772914, -0.016689748, -0.084841095, 0.02834269, 0.033065163, 0.056982063, -0.043017868, -0.0053534117, 0.0062676067, -0.021485277, 0.018759832, -0.033618566, -0.014189263, -0.030121228, 0.041973572, -0.022462843, 0.02373707, -0.071779445, 0.013011454, 0.027210787, -0.024350125, -0.022408176, -0.0132947145, 0.028308233, 0.016501296, 0.025033908, 0.032008365, 0.0060733426, 0.07206157, -0.012307988, 0.049048904, -0.034434743, -0.017515974, 0.02525702, 0.024806134, 0.030190187, -0.011313124, -0.009901636, -0.029547295, -0.0039812974, 0.034690693, 0.02011007, 0.017490776, 0.06085297, -0.0600436, 0.0461007, -0.035685033, -0.040829886, 0.045674767, -0.006285701, -0.0049699256, -0.04237615, 0.045757428, 0.018146377, -0.08229269, 0.029477485, 0.014465707, 0.035802703, 0.026992824, -0.01709806, 0.0009088295, 0.092170075, 0.01691995, -0.09299665, 0.030919071, -0.038137145, -0.01306962, 0.02254762, -0.054628525, 0.0024649112, -0.032738518, 0.030191714, -0.054327335, -0.045522735, -0.04090339, -0.045994118, 0.0052807927, -0.038018998, -0.024027398, -0.025634855, 0.018369772, 0.061738428, -0.029788973, -0.06653532, 0.04741746, 0.030423874, 0.004996782, 0.03439302, 0.006972033, -0.026929036, 0.0099603, 0.042423673, 0.020200884, 0.017584255, 0.029216439, 0.04297701, -0.005662252, -0.013868233, -0.0101696635, -0.03872251, -0.019163093, 0.041143052, 0.07670139, 0.022010034, 0.012481698, 0.05835757, 0.011358021, 0.03910098, -0.022181286, 0.028701447, 0.026275985, -0.0031491355, 0.012284891, 0.016006282, -0.0042441012, -0.042478338, -0.0009147998, -0.0407557, 0.007535888, -0.018477933, 0.018130038, 0.006366992, 0.030172579, -0.013903303, 0.024486892, -0.017149515, 0.05402154, -0.016440457, -0.054475844, -0.031751297, 0.01258565, 0.05713984, 0.004771066, -0.038106747, 0.04123341, 0.07332714, 0.094110064, -0.074732766, -0.07890066, -0.061538722, 0.010795094, -0.012007413, -0.016930832, -0.014967254, -0.04451655, 0.020412786, 0.043696307, -0.020015506, 0.018173534, 0.027967524, 0.0064148465, -0.02139127, 0.03931982, 0.0014838658, 0.011545966, -0.014068027, 0.0053650886, -0.011118087, -0.011177901, 0.00390759, 0.036233436, 0.048097096, 0.03665889, 0.037096284, -0.04047248, 0.037474204, 0.027006961, 0.030629344, 0.022387238, 0.013999783, 0.004591731, -0.020872321, -0.06965015, -0.022439962, 0.011134996, -0.08581018, 0.0388664, 0.0348652, -0.07117725, -0.0026890025, 0.07204028, 0.11994936, 0.030376313, 0.03225118, 0.011209004, -0.0039358847, 0.021419646, 0.0017052719, -0.040099196, -0.015419805, 0.029470112, -0.011928239, 0.010113551, 0.020280363, -0.018021174, 0.010931904, 0.024617186, -0.035754643, -0.01726048, 0.03184805, 0.03931809, 0.033689123, 0.03710783, -0.007115814, -0.018746307, -0.0037487315, -0.025241202, 0.010260531, -0.010371494, -0.11323213, 0.031142738, 0.018623512, 0.01977733, 0.022843912, -0.0041813944, -0.03498454, -0.04573591, 0.06618189, -0.013506664, 0.071360424, -0.014030707, 0.05731492, 0.017879043, -0.08055547, -0.014546249, -0.0073239207, 0.021040488, -0.0042526065, 0.0069362796, 0.03852108, -0.04058616, 0.044012204, 0.018281812, 0.04344234, -0.03318944, 0.021341007, 0.013897375, -0.031287163, 0.027358962, -0.033997715, 0.00879084, 0.023331404, 0.049099922, 0.016925298, -0.011052858, -0.10908466, -0.05621703, -0.045570984, 0.0020092833, 0.012268803, -0.0035972984, 0.04306139, -0.02238482, 0.0340216, -0.053205762, -0.0017070681, 0.0010830268, 0.03570552, -0.081572816, -0.046413645, 0.02738193, 0.0039115627, -0.027426252, 0.03929102, -0.03542643, -0.032891627, 0.024370821, 0.028768172, -0.074464194, 0.023610312, 0.023565754, 0.0592261, -0.012116137, -0.016493322, -0.0045227422, 0.05156431, 0.020325612, -0.09564435, -0.046562906, -0.07871645, 0.016699439, -0.05133994, -0.024433037, -0.032365724, -0.036390383, -0.040224683, -0.008666458, 0.04851578, -0.020308986, 0.026248615, 0.014742249, -0.025991702, -0.034747012, 0.012139282, 0.0020720495, 0.001963733, -0.03652485, -0.07313179, -0.016646719, 0.025425194, 0.010463973]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>장아름</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Enhancement of oil-resisting property of instant fried noodles by mushroom beta-glucan</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>It has been forecast that the global consumption of instant fried noodles will continue to increase due to their characteristics such as cooking convenience, mass-roduction, and widely acceptable taste. However, high amounts of oil and calorie derived from frying can cause health-related concerns among health-conscious consumers. The overall objectives of this study were to extract beta-glucan from low-grade mushrooms (Lentinus edodes) and to evaluate it as an oil barrier for the reduced oil uptake of instant fried noodles. Low-grade mushrooms with reduced market value were utilized as a source of beta-glucan. Beta-glucan was extracted by applying hydrothermal treatments to the mushrooms, followed by fractionations. When the extracted beta-glucan was incorporated to the formulation of instant fried noodles (2, 4 and 6% by weight), it was significantly effective in reducing the oil uptake of the instant fried noodles by about 22%. The reduce oil absorption could be
-correlated to the structure of the noodles which was confirmed by the SEM images. It was probably due to the inclusion of mushroom beta-glucan with a great number of hydroxyl groups that can interact with more water through hydrogen bonding. Moreover, the use of beta-glucan produced instant fried noodles with enhanced breaking force which may play a positive role in preventing the physical damage of the noodles during their handling transport, and storage. In this study, the betaglucan extracted from low-grade mushrooms was successfully applied to improve the oil-resisting property of instant fried noodles. The results may provide valuable processing information for the food industry to produce healthier fried products with reduced content of oil and calories.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>[0.016592115, -0.02941906, -0.0105731245, 0.024489973, 0.0988153, -0.035450786, -0.039953094, 0.0014723855, 0.062321063, 0.042142116, -0.07078896, -0.020690717, 0.035751376, 0.08240277, -0.042277835, 0.023117166, 0.04216132, 0.018247858, 0.009764192, -0.0056967535, -0.053973537, 0.0067969454, -0.101112545, 0.0006820996, 0.025320793, -0.0082938615, 0.050536767, 0.013821516, 0.054488257, 0.014713848, 0.039171442, 0.011179866, 0.0005358966, -0.02232903, 0.027643176, -0.056730952, 0.046345994, 0.0024156063, 0.0010856431, -0.013725991, -0.08065252, -0.019359779, 0.018142397, 0.0037473969, -0.030649085, -0.018601255, -0.03247993, 0.045483828, -0.0360699, -0.025400907, 0.0015688738, -0.081272654, 0.015471108, -0.021972748, 0.01436658, -0.05809523, -0.06061791, -0.015176909, -0.03927464, 0.075647205, -0.039325196, -0.026352275, -0.0071002813, 0.048835266, 0.01931245, -0.030034207, 0.07743511, 0.037793215, 0.005792176, 0.080609426, 0.04783552, -0.0052568773, 0.019102193, 0.020443063, -0.078313895, -0.036349285, 0.024687901, -0.015454788, 0.028496861, 0.026978599, 0.024025502, -0.06693231, 0.0119010005, -0.073667735, -0.015625654, -0.026011746, -0.011500561, 0.05150586, -0.00055726926, -0.10243694, 0.0009157306, 0.012195225, 0.12377659, -0.014313531, 0.06557273, 0.014276128, 0.107376814, 0.0941439, 0.06659602, 0.048778806, -0.020815432, 0.048123244, 0.007309663, 0.014923772, -0.015564052, -0.045551907, 0.06862883, -0.006844253, 0.042920165, 0.00068250427, -0.022162242, -0.07126183, 0.0054531563, 0.06285494, -0.025765095, 0.024860324, 0.09023345, 0.020717293, -0.003562671, 0.064191796, -0.015503153, -0.018542804, -0.024846768, -0.009968011, 0.035974, -0.025538951, 0.042918865, -0.04693131, 0.002827726, -0.04791906, -0.049804896, 0.0022170213, -0.023212237, 0.063018866, 0.0022858751, -0.027411008, 0.04419274, 0.039283108, -0.006091275, -0.014488114, 0.009783814, 0.026712365, 0.010728733, -0.014769652, 0.018484654, -0.00082340423, 0.0012251142, -0.02945303, -0.042537645, 0.06536402, -0.014606108, 0.021650763, -0.010403825, -0.031180268, -0.047042117, -0.09127113, 0.013287884, -0.024164516, 0.007051528, -0.0015211052, -0.0238536, 0.016289804, -0.025161754, -0.00088958105, 6.832124e-07, -0.0021583731, 0.09232075, 0.008496959, -0.036353897, -0.01748138, -0.03705591, -0.0065716845, 0.037996616, 0.0010693448, -0.031288404, -0.02835185, 0.0074014575, -0.05934148, 0.037738144, -0.005762137, -0.048693143, -0.0651711, -0.02394083, 0.052718367, -0.03273144, -0.040948343, -0.064116165, -0.04267191, 0.019884719, 0.024100645, -0.0899402, -0.08031356, 0.05923802, -0.021613887, -0.0010115659, -0.002268008, 0.03490977, 0.015865872, 0.067544475, 0.020167576, 0.07261801, 0.0151476115, -0.014639521, -0.01956347, 0.052850932, 0.03147138, -0.008487205, -0.009851207, -0.006062812, 0.048888236, -0.03050637, 0.017320663, -0.0037330857, 0.016284555, 0.05112079, -0.0057185395, -0.027775945, -0.05152813, 0.03084928, 0.03914556, 0.034274403, -0.06905046, -0.069540806, -0.024158232, -0.055070914, 0.006134221, 0.035586894, -0.017953936, -0.06295632, 0.0019650592, 0.015352053, -0.06397147, 0.023384115, -0.06733648, 0.07995704, -0.0127109755, -0.013708158, 0.00331696, 0.02101955, 0.057301406, -0.039393257, -0.024675969, 0.027658084, 0.048676495, -0.036798675, -0.03383236, 0.018829312, -0.0050085466, -0.053544853, -0.018781383, -0.00863831, 0.056983292, -0.02907722, 0.0385575, 0.031333834, -0.054368243, 0.046494633, 0.033476703, -0.071302705, -0.027151719, 0.012706929, -0.046320457, 0.015782293, 0.020876093, -0.026137589, 0.021103121, 0.05583361, -0.026825946, 0.033067882, 0.0064832624, -0.010987749, 0.004067658, 0.076900594, 0.054601457, -0.021817202, 0.0019529191, 0.0014389962, -0.018200288, -0.017226212, -0.021526089, -0.009227569, -0.025081439, -0.052463107, -0.028504698, 9.671139e-05, -0.0388056, -0.018757368, -0.014314202, 0.04584712, -0.07007058, -0.03861974, -0.02821688, 0.026670119, -0.012823076, -0.07680128, 0.0690641, -0.0115393475, 0.021969818, -0.010255944, 0.022883115, 0.027442057, -0.01739721, -0.021619357, 0.06295861, 0.002201078, 0.010929642, -0.0024991273, -0.025572117, 0.025721395, -0.032776732, -0.0095526725, 0.004642307, -0.0308767, 0.07484135, 0.031727754, 0.054701433, 0.019081928, -0.04576946, -0.008870494, -0.1055592, -0.026034093, 0.04862924, -0.035461187, -0.009148086, -0.006438095, 0.069910236, -0.035327494, 0.019500412, -0.045983687, 0.035221882, -0.02008205, 0.03384527, 0.009873968, 0.07408584, 0.017016623, -0.041607134, 0.01492556, -0.025397556, 0.04270035, -0.004729023, -0.012656669, 0.0056088055, -0.01223989, 0.024012355, -0.011848423, 0.041173797, 0.060363222, 0.09378117, -0.04130938, -0.027042327, -0.035511956, -0.030971806, 0.028865103, 0.009173444, 0.021497548, -0.033105653, -0.057734095, -0.01128339, -0.022706194, -0.015042234, 0.045459785, 0.0028281948, 0.025528073, -0.015959458, 0.028931161, 0.03501613, 0.02702006, -0.03196235, 0.010160957, -0.0076052337, -0.003344862, -0.0071571497, 0.011646275, -0.04183541, -0.049044944, 0.021772582, 0.027629219, 0.035385076, 0.07979047, 0.053294107, -0.026529385, 0.035568543, 0.0072703515, -0.05716518, -0.060221385, -0.008140818, -0.106946066, -0.0042453376, -0.01896411, -0.02381204, 0.038792662, 0.07601696, 0.006518951, -0.036039643, -0.047410943, 0.051825803, -0.0150259035, 0.0074583543, 0.03317896, -0.008179552, 0.01828658, -0.06734694, 0.013367516, -0.07139994, -0.03790385, -0.0041704914, -0.0026387507, 0.011324371, -0.01528842, -0.067860804, 0.08404845, 0.064552456, -0.013241811, 0.058280833, 0.009874801, 0.0013794659, 0.020390969, -0.04204924, 0.008019899, -0.0016234317, -0.03398302, 0.021757493, -0.019331759, 0.07630777, 0.009010212, -0.008148396, -0.06082941, -0.0663537, 0.0013829637, -0.026324518, 0.023703406, -0.06517922, 0.0066233026, -0.061314672, -0.067714654, 0.0027517942, -0.028281309, -0.020595262, 0.015980953, 0.075031556, 0.0050543817, -0.059130326, -0.060810022, 0.018862577, -0.002638123, -0.033248685, 0.060639076, 0.122842714, -0.08182576, -0.042372756, -0.016331708, -0.034708757, 0.0155967735, 0.02736534, -0.013737208, -0.021636244, -0.0063117836, 0.041921806, 0.011528652, -0.051500738, -0.033055276, -0.015032366, 0.11431225, -0.013679166, -0.002276203, -0.002713727, 0.0036866772, -0.013335479, 0.012074313, -0.04830962, -0.010347415, 0.022542274, -0.04115674, -0.015988497, 0.0073573, -0.022135058, -0.041543666, 0.040865924, -0.016555872, -0.031226434, -0.03483451, 0.001533513, 0.042535275, 0.0066203913, 0.039341982, 0.02387126, 0.07118624, 0.015061726, -0.080940165, -0.033379152, -0.030775396, 0.03765659, -0.059385043, -0.006122272, 0.042972118, 0.012612593, 0.016778482, -0.014523903, 0.023090472, -0.0122525, -0.0081497, -0.00097147695, -0.03782199, -0.02050665, -0.007333824, -0.029984076, 0.03498461, 0.031434797, -0.12909889, -0.013849414, 0.020919044, 0.06706998]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>장아름</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Improvement of rehydration property of instant noodles by dextrin-oil mixture</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>As the consumption of noodles has been rapidly growing through out the world, a great deal of effort has been made to improve the quality attributes of instant noodles. Specifically, the improvement of rehydration rate of instant noodles has been a challenge faced by the food industry. However, the study on the noodle rehydration is generally dependent on empirical and subjective measurements. In this study, the modified transient plane source method was applied to characterize the rehydration property of instant noodles and the effect of dextrin-oilmixture on the rehydration property of the instant noodles was evaluated. The thermal conductivity of the noodles ranged from 0.343 to 0.389W/m∙K and had atendency to increase with the increasing moisture content. When the noodles were subjected to cooking, their thermal conductivity distinctly increased at the initial stage of the cooking and then reached aplateau. The change in the extensional property of the noodles during cooking favorably was correlated to the pattern of their thermal conductivity, showing a linear correlation with a high coefficient of determination(R2=0.98). When the mixture of dextrin and vegetable oil was incorporated into the noodle formulation, the thermal conductivity of the noodles exhibited higher thermal conductivity. These results were correlated to the reduced cooking time of the noodles with the dextrin-oilmixture(about 3min 50sec), compared to the control(about 6min). Hence,the thermal conductivity of instant noodles was successfully characterized as a function of moisture content and cooking time. The use of the dextrin-oilmixture reduced the rehydration time of instant noodles during cooking. These results can thus encourage the food industry to enhance the quality attributes of instant noodles by improving their rehydration rate.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>[-0.015339099, 0.016281618, -0.03197965, 0.00406295, 0.0975216, -0.00038781247, -0.025069874, -0.05776329, 0.021609971, 0.0087054465, -0.08668069, 0.010016513, 0.030978521, 0.039124608, -0.035873536, 0.03544467, -0.031110361, 0.033513386, 0.0005460893, -0.011676673, -0.02934859, 0.011327295, -0.0017372539, 0.022982422, 0.10454515, 0.010395563, 0.09671489, -0.0147862965, 0.035170402, 0.017281141, 0.07754424, 0.016707301, 0.019400438, -0.04383996, 0.022009624, -0.04353467, 0.047145624, -0.051181857, 0.04395746, -0.015895432, -0.034989778, -0.009247101, -0.015076293, 0.031669237, 0.054300807, -0.0031569141, 0.008145577, 0.0011991888, -0.091545336, 0.03901586, 0.03143233, -0.014685363, 0.011056712, -0.020136803, 0.061897986, -0.03479043, -0.07018597, 0.0035423972, 0.00976124, 0.06864014, -0.07327982, -0.03687006, -0.04869376, 0.0242039, 0.0058567403, 0.0012794062, 0.048896067, 0.018777603, 0.03792962, 0.0529495, -0.017017707, -0.049665723, 0.0491328, 0.046393737, -0.08151992, -0.029614285, -0.016848192, -0.023951026, -0.056024726, -0.042161185, 0.031516746, -0.028823916, 0.044211686, -0.08233929, -0.04524308, 0.021933144, -0.009107596, 0.021635247, -0.01807399, -0.09947567, 0.0024432375, -0.010899254, 0.121384464, 0.0018544465, 0.049300093, 0.009746978, 0.05403855, 0.099798664, 0.014978101, 0.010028038, -0.007997285, -0.013915244, 0.014634609, 0.0002041288, 0.028300652, -0.04191021, 0.04841278, 0.024875233, 0.02480491, -0.020756042, 0.012618313, -0.068137586, -0.048029367, -0.029879427, 0.012990871, 0.005254339, 0.038194284, 0.025713809, -0.00021020137, 0.09503795, 0.0047103157, 0.042061646, -0.007156388, 0.02657183, 0.03525229, 0.021249682, 0.027092064, -0.0025733565, -0.006227828, -0.044577632, -0.032614823, -0.011798324, -0.04420579, 0.08559622, 0.013618119, -0.016041266, 0.015185161, 0.01816583, 0.014940945, -0.0049912813, 0.00392502, 0.035518456, 0.022078095, -0.021053195, -0.056487963, 0.053812414, -0.014565339, -0.037945338, -0.00339797, 0.03827374, -0.013609154, 0.01833831, 0.023928164, -0.008279486, -0.01160507, -0.080205485, -0.05406219, -0.014862788, 0.020836882, -0.03473243, -0.028088339, -0.03166646, -0.04405803, 0.016785378, 0.023355838, 0.019886687, 0.10035046, 0.022996256, -0.037618753, 0.028333146, 0.024353705, -0.033196177, 0.05254029, -0.01616684, 0.031800266, 0.012969562, -0.01450915, 0.021750739, 0.04317334, -0.013655404, -0.03379202, -0.1052379, -0.0043674456, 0.00540662, 0.048594225, -0.0160936, -0.038035996, -0.053566292, 0.00019818405, 0.03756046, -0.049143095, -0.08274644, 0.021737026, 0.011492912, -0.019208986, 0.0190351, -0.019520376, -0.040362705, 0.06970727, 0.040892303, 0.0805751, 0.020875888, 0.01833542, -0.02036045, 0.029871715, 0.020142354, 0.016653534, 0.022301404, -0.051790986, 0.08088991, 0.016205935, 0.04267284, 0.008951628, -0.010231115, 0.050731204, -0.03591259, -0.021446962, -0.065265164, 0.063395664, 0.0033017213, 0.014764273, 0.031489827, 0.012767849, 0.0037918363, -0.08859326, 0.0005217953, 0.037382774, -0.029841948, -0.06484349, 0.05352537, -0.018876053, -0.04835245, 0.032641444, -0.04431453, 0.054980524, -0.0015471127, -0.024445327, -0.007853896, 0.008444803, 0.047125317, -0.027237516, 0.017389005, 0.017330615, 0.10427558, -0.0108311605, -0.0981965, -0.005985446, 0.026688317, -0.012543121, 0.0005444255, 0.0146070905, 0.024770629, -0.0700023, -0.07289975, -0.0146618765, -0.040799763, -0.0074820654, -0.02975169, -0.06525185, 0.0715568, 0.021714343, -0.09784971, 0.02015047, 0.032070927, 0.002397042, 0.020278407, 0.044613127, 0.03143724, -0.007927955, -0.02435304, 0.002047991, 0.03824681, 0.068345316, 0.076119944, 0.035949793, -0.04648315, -0.06521496, -0.12306284, 4.5971246e-05, 0.003042886, 0.002080405, -0.0066961893, 0.033075474, 0.016587822, -0.03421143, -0.053538337, 0.0024698786, -0.015484404, -0.07158104, -0.056351267, -0.014019895, -0.01170731, 0.078639045, -0.0024235426, -0.04470427, 0.061904214, -0.0056325663, 0.018905705, 0.022227086, -0.019579515, -0.030329533, 0.043981537, 0.035844106, 0.026591385, -0.0045020194, -0.00053977064, -0.04935966, 0.029508838, 0.051002458, 0.01621967, -0.020790296, 0.038610075, 0.03590375, 0.05611019, -0.04047625, 0.038865563, -0.007988149, -0.06201108, -0.011341007, -0.07821742, 0.03754592, 0.05859335, 0.009978463, 0.028615974, 0.0024461688, 0.14458501, -0.008457807, 0.046322007, -0.0015352315, -0.00078389695, 0.008307623, -0.030692538, 0.056461357, 0.049271643, -0.015577716, -0.050668947, -0.022476641, -0.03506319, -0.01558615, 0.013957496, 0.011725039, -0.04394806, 0.03044902, 0.029593915, -0.08195365, 0.043798927, 0.10219116, 0.09851787, 0.024667459, -0.024190668, -0.034597423, 0.0026019737, -0.0060604694, -0.009780438, 0.011938953, -0.011685423, -0.04070778, -0.014379682, -0.041448187, 0.002798616, -0.0113083515, -0.033697315, -0.0062505575, -0.060016073, 0.024328038, 0.0065488964, 0.011905372, -0.027692676, -0.010234752, -0.04146999, -0.09502694, 0.041830283, 0.0034434288, 0.02011278, -0.022287618, -0.01428533, 0.026863042, 0.016573222, 0.058409233, -0.0074296403, -0.022027126, 0.008517783, 0.024113819, -0.039798275, -0.027748264, -0.0062703756, -0.10034319, 0.045943137, -0.037843637, -0.009189198, -0.001518146, 0.0868327, -0.060468156, 0.036917336, -0.02753965, 0.11353475, 0.0033124587, 0.04403766, 0.0362747, 0.037107334, 0.016208997, -0.04284692, 0.026473278, 0.019659506, -0.07576285, 0.06622699, -0.040963773, 0.019899212, -0.102422684, 0.07360076, 0.0518736, 0.054416236, 0.034435194, 0.03091013, -0.020871416, 0.016570365, -0.001379144, -0.03646647, 0.0448417, -0.013103374, -0.04197768, -0.013796497, -0.06720983, 0.018446412, -0.019422004, -0.08450204, -0.061926037, -0.035430968, -0.04098666, 0.032349877, 0.055807374, -0.0134193925, 0.031556666, -0.05763301, -0.0779737, 0.08011232, 0.0027378474, -0.031172147, 0.0172372, 0.13785887, 0.020090418, -0.053703275, -0.06369069, -0.0163762, -0.026345154, 0.018810922, 0.015536976, 0.113315545, 0.050038517, -0.016610881, 0.02843009, 0.012260379, -0.028167343, 0.0619188, -0.02488061, -0.011301522, -0.048744943, 0.07567061, 0.038206734, -0.04318486, -0.012328183, -0.0017014345, 0.094963856, -0.034781784, 0.008619468, -0.019416435, -0.018671595, -0.032812387, 0.0005679173, -0.00041579266, 0.037001953, 0.019867187, -0.0039632474, -0.07460938, -0.0023053808, -0.025399614, 0.04358074, 0.011632653, 0.030882958, 0.008987288, -0.021901758, -0.008612804, 0.08767147, 0.023827806, -0.05497744, 0.067490324, 0.071297385, 0.016551461, -0.0031954455, -0.02305605, -0.057196252, -0.06288706, -0.052455362, 0.004060444, -0.0069768205, 0.024051003, 0.03598594, -0.03282175, -0.029871468, -0.039027654, -0.017222974, -0.050730642, -0.03465097, 0.043111496, -0.04927282, 0.00035962785, 0.02726039, -0.007980637, -0.09049946, 0.051217664, 0.073226705, 0.036313936]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>IFT</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>김희원</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Utilization of zeinas an alternative to gluten for instant sheeted rice noodles</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>A gluten-free diet has been an alternative way for the celiacpatients to have their daily nutrients without negative health effects. However, as gluten is an essential structure-forming protein, the gluten removal results in the major quality problems of cereal-based products. Therefore, there is an urgent need to look for a new alternative to gluten for developing a variety of gluten-free foods without quality loss. In this study, zein was utilized as a film-forming ingredient in instant sheeted rice noodles and its effects on the physical characteristics of the gluten-free rice noodles were evaluated. Specially, the thermo-mechanical properties of rice dough with zein were investigated and the rheological properties of the zein-incorporated noodles were characterized. When zein was hydrated at the temperature higher than its glass transition temperature, its howed similar film-forming properties to wheat gluten. The Mixolab results showed that the stability of rice dough had a tendency to increase with increasing levels of zein. Moreover, the use of zein lowered the pasting parameters of rice flour. When the noodles were subjected to the tensile test with a Kieffer dough and extensibility rig, the increased Rmax value(the maximum resistance to extension) was observed in the noodles with zein while they exhibited lower Evalues(the distance at the maximum force), compared to the noodle prepared with rice flour. Thus, the film-forming property of zein contributed to the formation of viscoelastic dough with rice flour, successfully producing instant sheeted rice noodles. This study showed the new application of zein as a new alternative to gluten for sheeted rice noodles, giving an impetus to develop various gluten-free noodle products without significant quality loss.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>[-0.04670887, 0.029012341, 0.050256267, 0.018159756, 0.12080297, -0.0168999, -0.0327753, -0.04126548, 0.020595524, 0.039501674, -0.03832378, -0.09061715, -0.03446421, 0.070041314, 0.0015764668, 0.042050127, -0.04256778, -0.01904346, 0.0730555, 0.029108848, 0.010962038, -0.011931778, -0.015773706, 0.05401478, -0.017337767, 0.0434244, 0.034164526, 0.011890631, 0.010084591, -0.04430876, 0.018211957, -0.06258985, -0.029430153, -0.024665616, -0.02988955, -0.031012146, 0.021594299, 0.020331573, 0.023472006, 0.0275335, -0.022244442, 0.07750179, 0.009486145, -0.027092118, 0.0077859997, -0.024326293, -0.04307824, -0.018522948, -0.022916207, 0.013993864, -0.004415468, 0.0032850422, 0.04246622, 0.015492348, 0.052895244, -0.04189938, -0.03965831, 0.0002157808, -0.04719651, 0.016883004, 0.015327356, -0.021922002, -0.03694059, 0.032357886, -0.011598276, 0.03998692, 0.035033423, 0.014303871, -0.015574502, -0.002689172, -0.058723956, -0.03673121, 0.0336414, -0.0537669, -0.07920783, -0.04202512, -0.01969101, 0.0032250385, -0.042044476, -0.0038946683, 0.044365082, -0.06812487, 0.041039154, -0.019157918, -0.04360774, 0.053285386, -0.06640588, 0.009750505, -0.010905658, 0.028318685, 0.038823333, -0.005852381, 0.11517148, 0.037078362, 0.056583192, 0.04233311, 0.05036397, 0.037940763, 0.057504695, 0.09113925, -0.045285456, 0.017145608, -0.037472337, 0.048837695, 0.039805338, 0.025701685, 0.04200087, 0.010748762, 0.050620403, 0.033552527, -0.053480666, -0.04650025, -0.036351185, -0.038125593, -0.008505225, 0.102385275, -0.0006881364, 0.061477542, 0.0037661465, 0.0427418, -0.0065928027, 0.008010754, -0.002035592, 0.05897919, -2.1766755e-05, 0.009915468, 0.050286967, -0.014127008, -0.002251687, -0.06612852, 0.05919843, 0.072800666, -0.032492414, 0.09820719, 0.015406775, 0.02029328, 0.032931898, 0.04930352, 0.04499578, 0.026725952, -0.01583049, 0.02504083, 0.029715724, -0.037702028, -0.06336573, 0.057697266, -0.04101318, -0.00013177888, -9.2732254e-05, 0.029953383, 0.028073873, -0.010008135, -0.0013485501, -0.056475114, -0.06569567, -0.042983472, -0.0002455291, -0.002919082, -0.0020001691, 0.01144163, 0.015719717, -0.045818087, -0.011504664, 0.0362275, -0.03612068, 0.038574554, 0.024427561, 0.02270932, -0.00446283, -0.0015920098, -0.009151765, -0.0006638075, 0.03039724, -0.0043574916, -0.043915458, -0.0048823883, -0.0134263355, -0.025047353, 0.040241167, -0.03661246, -0.006082821, -0.05987943, 0.030952875, -0.033083905, 0.02330156, -0.027948389, 0.06709433, -0.016485244, 0.041446153, 0.01963254, -0.084060036, 0.031262256, 0.0052735847, -0.02051962, -0.007565465, -0.0064927414, 0.0057663103, -0.06823707, 0.025590735, 0.08797019, 0.03324076, 0.03590031, 0.026618697, -0.038637895, 0.08522908, -0.032378614, 0.06729381, 0.035772756, -0.0056938576, 0.025443228, -0.06509943, -0.03264717, 0.011441859, -0.012811804, 0.026616944, -0.024464, -0.02671797, -0.024847215, 0.007453386, 0.018214919, 0.05551158, 0.007793642, -0.01994857, 0.03915358, -0.015532401, -0.038609754, 0.0126420865, 0.017308174, -0.061099876, -0.014699711, 0.008421006, -0.028748402, 0.038724676, -0.005413805, 0.06448189, -0.005888524, -0.01329422, -0.00039877344, 0.07921052, 0.077432744, -0.006201194, -0.025777712, -0.03264686, 0.034712322, 0.028177442, 0.011583224, -0.03785547, -0.06678307, -0.09255389, -0.019858805, -0.03563612, 0.03444568, 0.007890333, 0.018526105, 0.005343403, -0.0036618384, -0.016795492, -0.062420707, -0.070116006, -0.0010921212, -0.0024374959, 0.0019285522, -0.045451187, 0.024902038, 0.025468893, 0.0385752, 0.02823252, 0.08731055, -0.04337983, -0.0462168, 0.0030663798, 0.0144610545, 0.00035746247, 0.068129025, -0.0031414065, 0.049687956, -0.042165942, -0.08952565, 0.008978076, 0.03163118, -0.030427735, -0.019362789, 0.0536835, -0.028350294, -0.079586565, -0.024388524, -0.037892584, 0.06008427, -0.04047307, -0.16502243, 0.018991543, 0.011872187, 0.051849257, 0.07115594, -0.05375452, 0.043895606, -0.0064470414, 0.048058122, -0.032062653, 0.0014731063, 0.022983212, -0.05180229, 0.040676553, 0.066259906, 0.012308188, -0.006505986, -0.016776247, 0.009295658, 0.031763677, -0.0063456264, -0.026026567, 0.010708582, 0.06670082, 0.032184318, -0.0031362968, 0.045880128, -0.024163757, -0.026085557, -0.033279374, -0.0011147079, 0.018837111, 0.029948348, -0.03690474, 0.034986857, -0.07665474, 0.051820576, -0.023544908, -0.006190381, -0.02902106, 0.0335554, 0.07353254, -0.016129589, -0.0027333542, -0.00923994, -0.02482741, -0.0578404, -0.004061428, -0.016806807, 0.021143114, 0.030002922, 0.017159978, -0.007104498, 0.06019545, 0.045415647, 0.004564469, 0.010245891, 0.0619161, 0.110129215, -0.059480906, -0.04052384, -0.0029390412, -0.0022393796, 0.022595713, 0.03366922, 0.05872214, 0.011381822, -0.019853894, -0.09392739, -0.04003984, 0.019124825, 0.058508422, -0.046642676, 0.023624597, -0.011972601, 0.013994672, -0.051227365, -0.037766762, -0.024979308, 0.039660044, 0.017117126, 0.01816536, -0.0238089, -0.0060453843, 0.03382658, -0.04952758, 0.007842639, 0.0054154545, 0.038033556, 0.013150803, 0.011458826, 0.048246227, -0.0038474584, -0.023496833, -0.07537499, -0.043302555, -0.025440307, -0.10938042, 0.064438365, -0.060398895, -0.04274759, 0.044317994, 0.034017503, 0.005856767, 0.030022115, 0.022393597, 0.06487324, -0.040268805, 0.029490236, -0.09381944, 0.014577742, 0.009708558, 0.007570196, -0.00041053814, -0.021217754, -0.009617934, 0.0075125936, -0.020586474, -0.020407218, -0.0075651715, -0.054423105, -0.0067666667, -0.038485497, 0.030013526, 0.017568083, 0.03588213, -0.012529933, -0.027488211, -0.017331384, 0.048734173, -0.030478762, -0.029523684, 0.019778693, -0.028578347, -0.015335414, -0.031986993, -0.0577023, 0.013693743, -0.0582784, -0.041180957, 0.028389826, -0.026912224, 0.041269526, -0.003275393, -0.033551544, 0.050156347, 0.028595207, 0.014617064, 0.009306351, 0.042000834, 0.019163687, -0.017282553, -0.0690204, -0.039754286, 0.10230945, 0.03664212, 0.061915886, -0.009089267, 0.025657803, -0.023901483, -0.023485119, 0.025593568, -0.030096458, 0.0172141, 0.05929527, -0.00032702615, -0.07257956, -0.013774328, 0.029647222, 0.017870268, -0.06566845, 0.008023286, 0.02702225, 0.04358293, -0.0077163507, 0.031247249, -0.053946957, -0.09974262, 0.03192967, -0.0210443, -0.019883784, -0.07504067, 0.028915284, 0.017299877, -0.017158493, -0.01586106, -0.020414425, -0.010407746, -0.043312658, -0.033372134, -0.09347059, 0.024971101, -0.06525747, 0.03751714, 0.02282395, 0.0065864627, -0.037270587, 0.027062042, 0.048376206, -0.021241972, -0.05213582, -0.012045063, -0.013441811, -0.062016904, -0.01849024, 0.018267153, 0.0049662758, 0.026387636, -0.00892639, 0.020760616, 0.016167134, 0.00019193953, -0.043565333, -0.025780652, -0.056939848, 0.02149602, -0.019697614, -0.015048202, -0.019331886, -0.08397526, 0.0058404277, 0.023755454, 0.029156262]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>장아름</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Utilization of Canola Oil Oleogels with Candelilla Wax as an Alternative to Shortening in Baked Products</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Shortening is any fat that is solid at room temperature and used to make baked products such as pastries, cakes, and cookies. In addition, shortening imparts other functional characteristics such as aeration and stability, positively contributing to the structure and geometry of the products. However, there is a lack of studies to reduce the use of shortening due to a high level of saturated fatty acids as well as the possible presence of trans fatty acids. In this study, the olegoels of canola oil with candelilla wax were prepared and their rheological properties were characterized and canola oil oleogels were incorporated into the formulation of cookies and evaluated as an alternative to shortening. The shortening exhibited a higher firmness than the oleogel samples and the firmness of oleogels had a tendency to increase with increasing levels of candelilla wax. The viscosity of all the samples had a tendency to decrease with increasing temperature. The cookie samples with the oleogels had an increased diameter and decreased height. The predominant component of the shortening-incorporated cookies was palmitic acid (16:0, 41.9%) while the oleogel cookie samples were rich in oleic (18:1, ≈62%), linoleic (18:2, ≈20%), and linolenic (18:3, ≈7%) acids. These result showed that the baking process did not change the fatty acid composition. Thus, the use of the olegoels of canola oil was used alternative to shortening. Thereby, the results obtained from this study can provide reduction of saturated fatty acids and elimination of trans-fatty acids from the diet, subsequently providing helpful health effects.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>[-0.018007552, -0.010262494, 0.022980396, 0.005922216, 0.07451047, 0.0028828061, -0.021057913, -0.073585, 0.020313498, 0.061266653, -0.0252782, -0.045331165, 0.037688542, 0.02930127, -0.07141241, 0.053740907, 0.036585726, 0.031063942, 0.050384797, 0.016150845, -0.051255222, -0.03574671, -0.04117376, 0.06008158, 0.034672916, -0.040320527, 0.05025557, 0.008130978, 0.0035317868, 0.0647109, -0.0007163534, -0.074984685, -0.00891208, -0.008531451, 0.05334635, 0.017478561, 0.060062073, 0.00024575274, -0.08466861, -0.005127362, -0.020868387, 0.06896465, 0.07397303, -0.01991472, -0.07006377, -0.04385733, 0.022816759, 0.05409601, 0.024619132, -0.037120897, 0.02041953, 0.031078996, 0.03769634, 0.0065881745, 0.02852737, -0.02078576, -0.1017786, -0.08798749, 0.042833053, -0.015356174, 0.019328585, -0.028218789, -0.059647158, 0.0054404964, 0.01566627, 0.036165297, 0.030647054, 0.053921107, 0.054586306, 0.024939433, -0.013835903, 0.04105543, -0.011687903, 0.010532403, -0.0789447, -0.017960297, 0.02436572, -0.028731793, 0.021473592, -0.059280276, -0.07209774, -0.03298328, 0.058549736, -0.039615188, -0.027961172, 0.06162279, 0.014923695, 0.043513883, -0.012568736, 0.0340833, 0.041399535, 0.036192678, 0.12503178, 0.03022917, 0.027255839, 0.024049621, 0.0906724, 0.061367452, 0.037789315, -0.0024979396, -0.0061151697, 0.042518593, 0.014277632, 0.049978826, 0.017977579, -0.06391542, 0.022871299, 0.025046332, 0.015122535, 0.049584456, 0.021722816, -0.07389176, -0.023130605, 0.12497347, 0.008045006, 0.06484699, 0.06393171, 0.088143796, 0.010074519, -0.0050255964, 0.081996486, -0.0679522, 0.037894867, 0.0339924, 0.006928834, -0.017617214, 0.05116198, 0.044172503, -0.019789193, -0.008203458, -0.02756711, 0.022031393, -0.056065124, -0.024520857, 0.019108258, 0.030004306, 0.019600958, 0.077589504, 0.037397955, 0.018003738, 0.013951382, -0.017142687, 0.0044063698, -0.02255465, 0.05147463, -0.0095069, -0.0400806, -0.017755993, -0.07264859, 0.06300831, 0.035952598, 0.05096167, -0.04145067, -0.01944472, 0.0033268386, -0.07112989, 0.0995336, -0.013557456, -0.02931032, 0.0005498798, 0.015414274, -0.013925496, -0.038317896, 0.017186336, -0.010518778, 0.06703839, 0.07528292, 0.02832566, -0.024078833, 0.047502827, -0.031235913, 0.0016299435, 0.039550845, 0.0772933, -0.018636733, -0.03835009, -0.023022046, -0.03862506, 0.02259424, -0.002681488, 0.03564888, -0.002264223, 0.026510568, -0.03583782, 0.033338808, -0.034972306, -0.012142953, -0.013099143, -0.045478303, 0.020719308, -0.06374756, -0.026195345, 0.018236931, -0.019878298, -0.011052665, 0.015516542, 0.037855435, -0.013992015, -0.013678879, -0.0018220049, 0.011947899, 0.06505901, 0.024050236, 0.004828258, 0.08297348, 0.007301472, -0.022431457, 0.030716833, 0.0120392125, 0.0225911, -0.05675838, 0.023598826, -0.030539745, 0.0063205888, 0.019073991, 0.018932484, -0.00758836, -0.011485325, 0.010224645, -0.011694012, -0.016385265, 0.08454617, -0.035173487, 0.0029422652, -0.033125725, 0.03959004, -0.03785455, 0.06540406, -0.05150871, -0.022868304, 0.035986733, -0.020169377, -0.011378806, 0.024404338, 0.05573755, 0.011840337, -0.043848973, 0.017221358, 0.007248567, 0.062073827, -0.020624379, -0.007192582, -0.039367188, -0.028512072, 0.008439775, -0.024790326, 0.030426277, 0.015298175, 0.00045738075, -0.004374266, -0.049940046, 0.053509302, -0.00015200675, 0.050099406, 0.05898862, -0.046158712, 0.039197586, 0.06338907, 0.03694237, -0.044529185, 0.0002972844, 0.045609806, 0.004160644, -0.035866342, -0.04942415, -0.06974461, 0.016032495, -0.015314345, 0.06380107, 0.02058439, -0.022485321, -0.03778282, 0.056507424, -0.0074381526, -0.07402588, -0.008461778, 0.034549545, -0.015552054, 0.021042794, -0.09752001, -0.05808807, 0.015784075, -0.017640045, 0.0109774675, 0.011294267, -0.049979888, -0.07454895, 0.014025093, 0.035758987, -0.069880314, -0.016106747, -0.014697396, -0.0078685675, 0.008434077, -0.059281986, 0.012751639, -0.022429498, 0.011041188, 0.021389052, -0.003166354, -0.022431072, 0.0275512, 0.060891706, -0.009328748, 0.006765387, 0.027746446, 0.08112293, 0.028607406, 0.011485098, 0.027317079, -0.028796507, -0.007772075, 0.021406958, 0.022764662, -0.017434673, -0.0037216207, 0.048573464, -0.014809503, -0.0037164132, 0.02606344, 0.011512018, 0.006856933, -0.022652803, -0.023678077, -0.027988704, -0.004349095, -0.03248533, 0.0488628, 0.008572104, 0.037530486, -0.026371725, 0.012080811, 0.03978598, -0.011414501, -0.022182582, -0.043350443, -0.008767686, 0.056652516, -0.031730294, -0.002945081, -0.064269714, 0.017465277, 0.032264072, -0.024831856, -0.0085054245, -0.049240146, 0.04910324, 0.06631584, -0.04408361, -0.020196022, -0.042543072, 0.0013259064, -0.039997734, -0.042798758, -0.020568762, 0.0068380143, 0.045919277, -0.03193556, 0.026778806, -0.034837097, -0.01188617, 0.05329531, -0.022302441, -0.0027770519, 0.01368764, 0.021335999, -0.014593874, 0.0079795215, 0.005024257, 0.01563103, 0.035888962, 0.02752673, 0.0546904, 0.01980374, 0.042554915, -0.02107388, -0.03076833, 0.024985349, 0.056235135, -0.008031244, -0.028880076, 0.02818015, 0.045891322, -0.052668855, 0.0016091202, -0.028555427, -0.07633688, 0.046937834, 0.017040605, -0.06975417, 0.020450622, 0.05592989, 0.043012764, -0.019658605, 0.013576335, 0.13474071, 0.030721521, 0.0156220095, -0.0017292133, -0.02787432, 0.05397644, -0.026288465, 0.047713716, 0.004133256, -0.06319226, 0.01564062, 0.032760154, 0.019910138, 0.018137744, -0.05464774, 0.06033229, -0.049598116, -0.054879475, 0.10535769, 0.050629035, -0.00076738914, -0.04546612, -0.053286586, -0.025015352, 0.003535329, -0.040603496, 0.0263048, 0.0073241177, 0.05575145, 0.07998773, 0.0149387745, 0.004197074, -0.06911384, 0.032250535, -0.0066369246, 0.072778404, -0.07584015, 0.017628172, 0.037995506, -0.073551066, -0.04518211, -0.01150991, -0.03592323, 0.035441067, 0.042936355, 0.063633315, -0.051066745, -0.027744096, 0.054935124, -0.0063196793, 0.0025874714, -0.028796194, 0.026957205, 0.015164327, -0.005914617, 0.02920976, 0.050944068, 0.05311131, 0.015094072, -0.033569288, -0.10515983, -0.0975725, 0.009525403, -0.030713845, -0.05503819, 0.0042370707, -0.0014687368, 0.054111723, 0.000101696, 0.051646587, -0.002420878, -0.005200107, -0.011452302, -0.027970316, 0.012202339, -0.04217815, -5.3308497e-05, -0.016815515, -0.0066528697, 0.006049099, -0.016451584, -0.05848835, -0.03809557, -0.047358945, -0.035989676, -0.04072909, -0.03883213, 0.03819112, -0.009558495, -0.07880421, -0.013514785, 0.045067873, 0.020463763, -0.088637725, 0.007967776, -0.0012948038, 0.05361792, 0.0057353503, -0.04264829, -0.0011930251, 0.07752961, -0.011606434, -0.033630766, 0.02002476, -0.018452274, 0.0138918795, 0.01787833, -0.023782393, -0.057854716, 0.03640996, -0.046092138, 0.027962524, 0.0032477488, -0.059077747, -0.028857104, -0.031351626, 0.050868668]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>김희원</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Application of a Transient Plane Source Method to Instant Rice Noodles for Their Rehydration Study</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>A gluten-free diet has become more prevalent due to an increased awareness and diagnosis of celiac disease. With this trend, rice has been widely used as a major ingredient in gluten-free foods, especially in the noodle market. However, the noodles prepared with rice are known to have several quality problems such as long cooking time and high cooking loss. Although there has been a great deal of effort to improve these problems, the systemic and scientific methods are still limited. In this study, a transient plane source method was applied as a new method to measure the thermal conductivity of instant rice noodles. The thermal conductivity of the noodles was also analyzed as a function of the moisture content and cooking time. As a result, the thermal conductivity of the noodles had a tendency to increase with increasing levels of moisture in the dough. In addition, when the noodles were subjected to cooking in hot water, their thermal conductivity distinctly increased at the initial stage of the cooking and then reached aplateau. Thus, this experimental method can be utilized as a feasible tool to investigate there hydration property of instant rice noodles.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>[-0.029015737, -0.013523752, 0.04477406, 0.009490237, 0.11635316, 0.010175855, -0.017087445, -0.056572814, 0.04021414, 0.03936809, -0.054843668, -0.05435389, 0.0033301858, 0.08122478, 0.002458582, 0.030732075, -0.050569266, 0.010372885, 0.014268226, -0.010923061, -0.016694954, -0.013511215, -0.07206269, 0.06282918, 0.017858516, 0.023559941, 0.050558895, -0.026301464, 0.061961405, -0.0048612496, 0.024996879, -0.016068736, -0.033578526, -0.02732131, -0.05610465, -0.026595132, 0.04357565, 0.034423396, 0.05057317, -0.02107035, -0.0023051552, 0.020949874, -0.021720609, -0.044601224, 0.0023383354, -0.03359913, -0.06751259, -0.031172115, -0.059224978, -0.0076313713, 0.034496468, -0.006881494, 0.04019846, -0.009885598, 0.044195317, -0.0514777, -0.063314505, 0.023898136, -0.0021157525, 0.01618744, -0.015945623, -0.050996736, -0.045747142, 0.033117544, 0.010564446, 0.017266499, 0.048950847, -0.004256819, 0.004629824, 0.062493376, -0.029599387, -0.024599187, 0.06184242, 0.022382747, -0.055552002, -0.048837423, -0.007189842, 0.03528228, -0.031202586, -0.021665137, 0.034709897, -0.06072724, 0.037502304, -0.028213723, -0.065007366, 0.06183537, -0.084482014, -0.0038616885, -0.015526227, -0.013741545, 0.018249858, 0.008594154, 0.109053925, 0.04898373, 0.056705598, 0.029968696, 0.07023213, 0.06886496, 0.04720396, 0.055019934, -0.020159947, -0.035026558, -0.0013934851, -0.0035888082, 0.012337722, -0.009239265, 0.07042218, -0.0050205505, 0.062107716, -0.011285906, -0.008738868, -0.061342217, -0.021506932, 0.012265961, 0.022995418, 0.046268947, 0.013956079, 0.01554456, -0.003767696, 0.052163444, 0.013297668, 0.007871778, 0.026993481, 0.091580085, 0.015790936, 0.016285304, 0.029244782, 0.0011900411, -0.007934363, -0.041016497, 0.019394962, 0.016617978, -0.02223174, 0.15199448, -0.0024126112, -0.01207735, -0.0010291805, 0.0023595567, 0.017935865, 0.025874699, 0.039630048, 0.026696239, 0.04849233, -0.057648215, -0.08516058, 0.035816647, -0.07408754, -0.0013657055, 0.018281609, 0.032512415, -0.0016691752, 0.021664485, 0.032838866, -0.07764612, -0.05428216, -0.03979264, -0.028320411, -0.0019237772, -0.016486336, -0.016350072, 0.01171075, -0.04327714, -0.049356785, 0.023899661, -0.019536378, 0.027104942, 0.047678933, 0.0138310585, -0.009528739, 0.025097635, -0.0058547948, -0.020036561, 0.034054153, -0.007932306, -0.055081237, -0.015481029, 0.013798012, -0.000784835, 0.06817136, -0.040937178, 0.0117706, -0.050716948, -0.027463758, 0.00079120445, 0.020750636, -0.04175506, -0.018928302, -0.028733648, 0.043081883, 0.029620538, -0.10741837, -0.016802065, 0.052854847, 0.014241952, -0.011522796, 0.007216591, -0.0009889269, -0.015694655, 0.06867106, 0.09414918, 0.07598089, 0.03527378, 0.042629395, -0.04078594, 0.073000446, -0.00014810287, 0.016490526, 0.03888978, 0.016809424, 0.05276805, -0.029298278, 0.014022126, -0.02078903, -0.008372751, 0.0549213, 0.01718554, -0.008608536, -0.03216579, 0.014905915, 0.029168148, 0.07337225, 0.0138069745, -0.022045337, 0.02728663, -0.032116465, 0.0059729056, 0.043713827, 0.020775357, -0.012330848, -0.004545799, 0.0068135792, -0.058110107, 0.057753514, -0.03223033, 0.066129036, 0.03713449, 0.008653847, -0.009833261, 0.060873143, 0.058672942, 0.0028376146, -0.013532472, -0.0019197217, 0.06025372, -0.0139606, -0.08193326, 0.0053498056, -0.071989045, -0.117118225, -0.0094527025, 0.010423842, 0.031642485, -0.006047235, -0.01341687, -0.06166326, -0.04765252, 0.022799047, -0.09538817, -0.051608212, 0.001875627, 0.016480485, -0.0376554, -0.030139131, 0.002035264, 0.01946082, 0.026832907, 0.03157654, 0.065442644, -0.024748832, -0.020996388, -0.022065165, -0.016173514, 0.008799498, 0.050193686, 0.027324315, 0.022347348, -0.03275239, -0.088847056, 0.021074113, 0.014481473, -0.060947053, -0.043359257, 0.0582662, -0.07683825, -0.018903987, -0.013765601, -0.018660193, 0.041656945, -0.071521126, -0.090244375, 0.007678909, -0.017211419, 0.05945937, 0.05015451, -0.06039948, 0.06829759, -0.009482124, 0.04471858, 0.0024531295, -0.002642712, 0.010867344, 0.018567387, 0.021721898, 0.056188505, -0.004999639, -0.024156585, -0.07076525, 0.025364622, 0.09300503, 0.048595343, -0.025361015, 0.01334433, -0.03605397, 0.02511902, -0.00775439, 0.061120953, -0.058777615, -0.06094721, -0.034974013, -0.04119899, -0.014725881, 0.06818208, -0.04703709, 0.026511282, -0.049304366, 0.10259615, -0.0049045878, -0.01340459, -0.034325324, 0.005582771, 0.0436107, 0.017734045, -0.022777753, -0.010199972, -0.032452717, -0.025348604, -0.022675665, -0.017370487, -0.001391287, 0.014145826, -0.019402545, -0.052684087, 0.068047896, 0.026857322, -0.054821692, 0.0071120444, 0.09728793, 0.07338717, -0.03961427, 1.1334661e-05, -0.034517635, 0.0053199036, 0.010699271, -0.009660472, 0.02988859, -0.008679995, -0.012136053, -0.0765095, 0.009707117, -0.027968664, 0.051360805, -0.046818852, 0.023453819, -0.06253709, -0.02821575, -0.01635259, -0.03979591, -0.050093915, 0.038216952, -0.0029570868, 0.0051211147, 0.041525308, -0.021673368, 0.024224734, -0.017366473, -0.012936905, -0.00133795, 0.05620105, 0.05973967, 0.0057751494, -0.011896583, 0.021247154, 0.0013165564, -0.07500498, -0.021960465, -0.01521785, -0.12012815, 0.055806246, -0.06329115, 0.010751069, 0.026402349, 0.0748192, -0.056903895, 0.019677112, -0.003521073, 0.0471867, -0.02644073, 0.014867833, -0.040510297, -0.01123277, 0.0023105857, -0.050105106, -0.009898798, 0.006743655, -0.11658516, 0.012604833, -0.04101519, -0.029584518, -0.038321257, -0.06151271, -0.058805317, 0.017744692, -0.0015851046, 0.0443229, -0.01863049, -0.018360844, -0.013689551, -0.01003001, 0.020959893, 0.023038954, -0.06169618, -0.030281665, -0.010337844, 0.021915855, -0.03291546, -0.0470172, -0.04674277, -0.049580175, -0.03611164, 0.019958336, -0.031294107, 0.011598511, 0.035608467, -0.033772036, 0.04668356, -0.008603069, 0.021705898, -0.008034276, 0.07212135, 0.054640044, 0.029037436, -0.08545931, -0.07593882, 0.057780124, 0.006217158, 0.036603224, 0.014223779, 0.044674266, -0.008691326, -0.052388992, -0.033176947, -0.04393198, 0.007818499, 0.10290871, 0.011421574, -0.054304793, 0.01619082, 0.039369356, -0.03098749, -0.088749096, 0.014643283, -0.0134268375, 0.070966765, 0.0029693788, -0.008282298, -0.03248569, -0.061078683, 0.016158164, 0.009298651, -0.022772925, 0.0302634, 0.0955628, 0.023341926, 0.000270736, -0.01955729, 0.009215568, -0.0052901283, -0.026703415, -0.018295938, -0.039240398, 0.0017169535, -0.06604008, 0.043067757, -0.028685747, 0.01821426, 0.01686046, 0.07171705, 0.03432029, -0.01464983, -0.007248288, -0.05173404, 0.015349858, -0.05880664, -0.0017342226, -0.01700642, 0.018773729, 0.0700198, -0.017276976, -0.004216462, -0.0013871398, 0.022128332, -0.03884766, -0.057773978, -0.03927018, 0.0076223942, -0.024524111, 0.04636102, -0.038531445, -0.14685175, -0.042920295, 0.068940096, 0.0749236]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>조용진</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Physicochemical characterization of a rutin-enriched material from tartarybuckwheat in an instant fried noodle system</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Buck wheat is considered to be a good dietary source of various functional ingredients such as rutin. Specially, a higher content of rutin is included in buck wheat bran than inothermilling fractions. In this study, a rutin-enriched material(REM) extracted from buck wheat branfractions, were incorporated into the formulation of instant fried noodles and its effect on the quality attributes of the noodles were evaluated from the physico chemical point of view. REM was produced by an ultrasonic-assisted ethanol extraction process and contained a high level of rutin(31.8g/100g). The use of REM did not influence dough stability and development times. Also, there was no significant difference in the oil uptake and texture of the instant fried noodles depend in gon the levels of REM. In addition, the oxidation of instant fried noodles during storage was significantly retarded by the use of REM.
-Therefore, this study shows that wheat-based foods could be fortified with rutin by the use of REM without significant quality loss. It will be worth while to extend the utilization of REM as a good source of rutin to a variety of wheat-based food products.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>[-0.020422183, -0.011705495, 0.07132575, -0.006615032, 0.075633, 0.022704605, -0.01290947, -0.021858774, 0.032858007, 0.046210174, -0.058635022, -0.029601503, -0.011456877, 0.0837384, -0.02587255, 0.029827377, 0.0016319044, -5.3189695e-05, 0.04066351, -0.0025095933, -0.01370437, 0.015398629, -0.066667736, 0.010747194, 0.067253456, -0.0066641513, -0.017484613, 0.013556094, 0.0104463, 0.0064647985, 0.040625807, -0.0014395578, 0.029581416, 0.004011303, 0.023289833, -0.037294645, -0.0025654435, -0.023583584, 0.0517142, 0.009952274, -0.071781605, -0.024036124, -0.06426555, 0.013643648, 0.026997196, 0.028395697, -0.04773938, -0.006055631, -0.03521163, 0.027967323, -0.029909143, 0.013349085, 0.01410483, 0.007881706, 0.03705281, -0.024767622, -0.0351759, -0.007999748, -0.029232983, 0.042174, -0.031151261, -0.002133654, -0.028937561, -0.038307905, -0.013685306, -0.00021950132, 0.004048764, -0.002754349, 0.0085898815, 0.028545221, -0.018383345, -0.015419983, -0.026692752, -0.06501457, -0.06835625, -0.059508912, 0.020920845, -0.015753219, -0.041365087, -0.066696785, -0.01746836, -0.06898856, 0.058492236, -0.033043537, -0.036699787, 0.036833975, 0.008555336, 0.050531052, 0.019017795, -0.06548421, 0.030635828, -0.004067007, 0.09571567, 0.010888319, 0.033595387, 0.033984333, 0.16012712, 0.06667367, 0.040956717, -0.015971797, 0.0065607037, 0.052185487, 0.029930733, 0.0217446, -0.00729395, -0.01717192, 0.010261438, 0.04557974, -0.0077022123, -0.006615175, 0.031064682, -0.04382655, -0.0036869182, -0.06334602, 0.02932274, 0.05706505, 0.012696981, 0.059760246, 0.014149984, 0.11208743, 0.031338822, 0.008182236, -0.011604484, 0.051469505, -0.00030949595, 0.009482262, 0.033984717, 0.007429249, -0.021116594, -0.0356321, -0.012672484, 0.046488404, -0.033331096, 0.055601038, 0.0066138306, 0.07456336, -0.010639079, 0.002458196, -0.0002496391, -0.0026485308, -0.013569135, -0.023015542, 0.027154626, -0.058512308, -0.02701866, 0.010410225, -0.04431963, -0.07205227, -0.03347393, 0.012328737, -0.047130257, 0.009639088, 0.007359524, -0.021461427, 0.04192128, -0.025980571, 0.044683635, -0.04366341, -0.0709479, -0.044287026, 2.4495646e-05, -0.039265282, -0.012390486, 0.029975612, -0.0010392126, -6.246986e-05, 0.06536889, 0.047000185, -0.028032387, 0.058380637, -0.020712456, -0.0037670888, 0.005719167, -0.022018228, -0.030323079, 0.00851466, -0.039064366, -0.012916588, 0.03995112, -0.07546, 0.007772225, -0.009124633, -0.018679803, 0.022296894, -0.0025312842, -0.020205665, 0.033998635, 0.0020517595, 0.036668416, 0.009074022, -0.100335754, -0.0085447235, 0.026399497, 0.023235813, 0.016988583, 0.035258625, -0.03083397, -0.06429135, 0.109879665, 0.08581716, 0.052785635, 0.04881092, 0.09238427, -0.011964303, 0.020111088, 0.051989976, 0.028934658, 0.03818643, 0.02210349, 0.010579138, -0.020871673, -0.034713816, 0.018731203, 0.025082933, 0.052029703, 0.018891873, -0.030678064, -0.045247644, 0.019647406, 0.014402935, 0.054559518, -0.013928992, -0.01517102, 0.036343724, -0.04999171, 0.033770896, 0.063087426, 0.010238066, -0.008171289, 0.0071227993, 0.030920584, -0.06452206, -0.021463074, 0.029467698, -0.031301893, 0.060955454, -0.019849092, 0.044373747, 0.021849414, 0.08475264, -0.056883708, -0.0023199786, 0.02008416, 0.034525763, 0.014853316, -0.059162237, 0.029369496, -0.0028528671, -0.06013068, 0.008527564, -0.011032728, 0.0030723684, -0.014830712, -0.06677886, -0.024670346, 0.008028334, -0.0018577625, -0.05922414, -0.09230007, -0.03996198, 0.00031769805, -0.010772977, -0.018479543, 0.012471638, 0.0502089, 0.042629287, 0.028431421, -0.012342275, -0.012493879, 0.035764676, -0.013051707, 0.0023666734, 0.020780627, 0.034568015, -0.009648291, 0.06143638, -0.03202706, -0.08069983, 0.034252524, 0.00081424403, 0.0013436861, -0.008181789, 0.016765075, -0.13093725, -0.03838421, -0.022897951, -0.06334625, 0.015779248, -0.02040303, -0.07560099, -0.040562373, 0.008790822, 0.0060748155, 0.0027319326, -0.0646508, 0.079057485, 0.0418203, 0.10957764, -0.051936433, 0.0016842254, 0.05817745, 0.011744598, -0.07143382, 0.08408973, -0.0056423517, -0.047091715, -0.011643748, -0.0034942636, 0.030322392, 0.022860717, -0.0028200238, -0.022772683, 0.05921142, 0.030887343, -0.025966143, 0.02946273, -0.002752502, -0.018691473, -0.034168478, -0.031858403, -0.03448925, 0.08754747, -0.017491752, 0.0020050043, 0.03687643, 0.063819565, -0.016066829, 0.009757152, -0.04631499, 0.031636305, 0.009150728, -0.0104922345, 0.016429152, -0.00903005, -0.032039165, -0.030458767, 0.053127833, -0.017135136, -0.011193063, 0.019198658, -0.052682627, -0.024340278, -0.010246311, 0.056361575, -0.036020085, 0.028304717, 0.05266875, 0.026661731, -0.06659773, 0.003678345, 0.030180799, 0.017261993, -0.006144117, -0.03646112, -0.016444266, -0.03248715, -0.04296366, -0.050543357, -0.008036393, -0.020395463, 0.007739529, -0.10741376, 0.011415254, -0.036597032, 0.059903618, -0.01848585, 0.01835025, -0.022122879, 0.009665072, -0.02028299, 0.0065761358, -0.008564024, -0.032392558, 0.022303011, -0.026047038, -0.019215543, -0.006114877, 0.026617689, 0.054179188, 0.0050299466, 0.0037095167, -0.0076490645, 0.024964714, -0.071148455, -0.04592033, -0.03352328, -0.09116667, 0.030136885, -0.00716628, -0.044624645, 0.021230076, 0.07771991, -0.035895362, 0.06710472, -0.013340258, 0.036134403, -0.04368252, 0.0297696, -0.07403591, 0.02243844, 0.021525988, -0.050271142, -0.05674629, 0.025845043, 0.008392271, 0.018236615, 0.046529237, 0.0054652435, -0.0065445, -0.031629495, 0.028817495, 0.03828829, 0.021815578, 0.0105077755, 0.0032189386, 0.048214946, -0.0042416593, 0.060033772, 0.053680796, -0.014284653, -0.023802191, -0.030353924, 0.009323581, 0.015049059, -0.022166593, -0.06711306, -0.013818958, -0.06858543, -0.011659815, -0.03574051, -0.0020888129, -0.06902564, -0.015559147, -0.050569978, -0.014103748, 0.07168601, 0.03665921, 0.051659826, 0.061379295, 0.016641255, 0.015818499, -0.110210255, -0.08076497, -0.016801693, -0.026324978, 0.058079556, -0.019750273, 0.06754677, 0.015657004, -0.030376002, -0.014624149, 0.022283584, 0.026931284, 0.01779926, 0.058888946, -0.066104695, -0.004492841, 0.02151069, 0.012692758, -0.0027404905, 0.008138498, -0.035171364, 0.10164877, -0.047137648, -0.028794304, -0.04232742, 0.024374994, 0.0035985892, 0.0054046228, 0.05605596, 0.035875, 0.053982787, 0.05345259, -0.011291063, 0.027877696, -0.053748075, 0.035595044, -0.022132508, 0.02032428, -0.044051062, 0.030762373, -0.032481935, 0.027928304, 0.013303081, -0.0450621, 0.034239326, 0.034921087, 0.01923753, -0.0143504925, 0.025658369, -0.043428466, -0.02075296, -0.06297548, -0.024663912, 0.027196698, 0.0062938407, -0.05933263, -0.048859254, 0.02122386, -0.014866892, 0.012322385, 0.00055097503, -0.019007972, 0.0029606489, 0.023244433, -0.059742525, 0.053525496, 0.02098266, -0.09433753, -0.03338035, 0.056185465, 0.01223479]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>김현지</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Retardation of Oil Uptake and In-Vitro Starch Digestibility of Instant Fried Noodles by Whole-Grain Wheat Flour</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>The popularity of instant fried noodles has been globally increasing in recent years due to several advantages such as their palatable flavor and cooking convenience. With this trend, the noodle industry is facing a challenge to improve the functional quality attributes of the products for satisfying the potential needs of health-conscious consumers. In this study, whole-grain wheat flour was utilized as a functional ingredient for instant fried noodles and its effects on oil uptake and in-vitro starch digestibility were evaluated. A higher content of dietary fiber was included in whole-grain wheat flour (10.8%) than in polished white wheat flour (2.5%). The whole-grain wheat flour exhibited higher water absorption, less extensive kneading, and lower dough stability than the white wheat flour. During the heating and cooling cycle, the whole-grain wheat dough exhibited a different thermo-rheological pattern from the white wheat dough. In addition, the use of wheat flour led to the reduced oil uptake of instant fried noodles which could be explained by the less porous noodles structure. Also, the content of released glucose after in-vitro starch digestion decreased with the whole-grain wheat flour, consequently providing a low value of predicted glycemic index. Therefore, this study showed that the use of whole-grain wheat flour improved the health-functionalities of instant fried noodles. Moreover, additional fundamental information on the processing performance of whole-grain wheat flour may probably encourage the food industry to respond to the increasing demand of whole-grain foods.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>[0.03336314, -0.01898574, -0.009658584, 0.030018719, 0.08076876, 0.009346757, -0.013036859, -0.015257086, 0.063466825, 0.029640712, -0.07258442, -0.013111554, 0.03896594, 0.08032649, -0.03317355, -0.0053256312, -0.037266538, 0.021424934, 0.028684452, -0.0007861734, -0.0377716, 0.020469874, -0.098026484, 0.058922548, 0.04891401, 0.007896697, 0.054846477, -0.04306336, 0.06596327, 0.0094364295, 0.060978055, 0.006054604, -0.037031412, -0.06046179, -0.0001098325, -0.054903198, 0.06506601, -0.011125659, 0.016215028, -0.0105278315, -0.0600873, 0.0006065943, 0.02988231, 0.0128763495, 0.05269437, 0.035569113, 0.004405021, -0.00090599176, -0.057010986, 0.0076213893, 0.023979492, -0.0359554, 0.016055638, -0.0072952323, 0.038253773, -0.06287407, -0.058674585, 0.035533413, -0.0047476925, 0.05658163, -0.035335507, -0.007004819, -0.0020147483, 0.03932945, -0.0025809945, 0.017761353, 0.031277753, 0.034485362, -0.0010701695, 0.038931277, 0.008278919, -0.020068685, 0.038016036, 0.032945354, -0.06359571, -0.09511395, 0.023293383, -0.016071519, -0.05859397, -0.04576008, 0.028385209, -0.05304156, 0.03411161, -0.061971918, -0.050707344, 0.0072787916, -0.044340212, 0.044578042, -0.009073908, -0.0558983, 0.030343791, 0.020545926, 0.09524477, -0.015724126, 0.05528884, 0.022393197, 0.09352613, 0.06724569, 0.032132424, 0.0068438663, -0.0051850933, 0.01614594, -0.02446763, -0.0066513633, 0.0060181073, -0.07398907, 0.07350433, 0.013578992, 0.017093202, -0.010811534, 0.026156677, -0.06095739, -0.007948945, 0.032247864, -0.00084961695, 0.025529891, 0.045223765, 0.036800377, 0.014991419, 0.03206109, 0.0037729621, 0.022082573, -0.06149806, 0.065792434, 0.009463705, 0.030985894, 0.061759543, 0.0052239397, 0.00851163, -0.017850196, -0.043124843, 0.030930266, -0.018370386, 0.08291313, 0.0020510992, 0.011441178, 0.028449753, 0.03696946, 0.027403742, 0.01620454, -0.036363058, 0.017140903, -0.0024541959, -0.007751845, -0.043904252, 0.003837364, -0.037622754, -0.029034967, -0.029611066, 0.077166, -0.04488628, 0.0280492, -0.002972572, -0.046502657, -0.047388848, -0.06814848, -0.006777246, 0.008243457, 0.0156169925, -0.07285302, -0.009357233, -0.026559798, -0.011960856, 0.021670714, -0.0019216163, 0.018940927, 0.061971623, 0.014212517, -0.023927737, -0.0025626924, 0.0011847917, -0.024324393, 0.010354116, -0.009418632, -0.057704225, -0.04264057, -0.012485517, -0.012817368, 0.062143147, -0.04960381, -0.034012172, -0.05382446, -0.039532524, 0.035073448, -0.029433, -0.012791513, 0.0120131215, -0.055776224, 0.03143896, 0.031295307, -0.09759189, -0.051483497, 0.06130595, 0.00522125, 0.011556966, -0.013034658, -0.002359235, 0.019555101, 0.13205858, 0.060541704, 0.060414165, 0.02960958, 0.061791826, -0.01020534, 0.07313068, 0.023267318, -0.00485125, 0.042169843, 0.01996622, 0.05327372, -0.03196239, 0.004016057, 0.012970578, 0.0115822265, 0.036922973, -0.019026147, -0.035063062, -0.02345112, 0.016091295, 0.016527565, 0.090506054, 0.02858933, -0.03098722, -0.021804964, -0.06529646, 0.004939721, 0.072217286, -0.00042738157, -0.044034015, 0.016979707, 0.024002407, -0.06576838, 0.02439685, -0.0468429, 0.02100066, 0.024090474, -0.025613945, 0.042954948, 0.014487648, 0.0740742, -0.04170913, 0.006898073, 0.008928263, 0.0705474, -0.02478044, -0.03809274, -0.0091557745, -0.03324306, -0.075630344, -0.025680734, 0.00074660627, 0.038139854, -0.019745413, -0.034382187, -0.021141645, -0.014301278, 0.020506108, -0.022764146, -0.060559712, 0.015113983, 0.028494688, -0.07321917, 0.011703142, 0.02683848, -0.00819109, 0.014021989, 0.062947646, -0.028116632, 0.020374559, -7.6163065e-05, -0.01066983, 0.013247866, 0.10198923, 0.05319381, 0.0072219097, 0.0033374073, -0.045387276, -0.04444908, 0.013025478, -0.07562638, -0.027785305, -0.0014046319, 0.001621685, -0.0394029, 0.0065476345, -0.02459018, -0.065778285, -0.0076757325, -0.0035508436, -0.054778557, -0.053861603, 0.0065047764, 0.07499607, 0.006706662, -0.067639254, 0.08192998, 0.0044251196, 0.03815997, 0.025595859, -6.815698e-05, 0.028608697, -0.0005614962, 0.031557772, 0.045338042, -0.030269727, -0.013505047, -0.00013860676, -0.010771053, 0.05670855, -0.019042777, 0.015535604, 0.0050466377, 0.00066030875, 0.0909981, -0.0044517363, 0.063870825, 0.0111505985, -0.033961978, -0.0059281304, -0.07678317, -0.04346469, 0.06903845, -0.029884415, -0.0143710505, 0.037553165, 0.07837753, -0.040226918, 0.0102339275, -0.03629409, 0.024609793, 0.0028282262, 0.02096123, 0.016941044, 0.022147251, -0.001427169, -0.036053453, -0.008242685, -0.069236316, 0.018813517, 0.009645696, -0.0029775458, -0.031918123, 0.031957928, 0.049135238, -0.06869897, 0.0024158068, 0.09235437, 0.08796322, -0.02394762, -0.032561332, -0.006013983, -0.0031991133, -0.016733425, -0.042894773, -0.03563149, -0.020241087, -0.056913335, -0.03360868, -0.048496533, 0.0061196405, 0.012507822, -0.025626536, -0.0059284926, 0.018517535, 0.084560364, 0.027053524, 0.010263177, -0.015778689, 0.0028647305, -0.05350743, -0.039151028, 0.02137665, 0.0089059025, -0.02199969, -0.0063597453, -0.007837294, 0.05784478, 0.0142078055, 0.09134693, 0.023605997, -0.023477359, -0.004519364, -0.011609964, -0.08518235, -0.0054400177, -0.010394063, -0.10995243, 0.029856106, -4.4966582e-05, -0.030051611, 0.0033764462, 0.07291428, -0.023486657, 0.019603392, -0.03381139, 0.033931665, 0.017626144, 0.011930607, 0.0279222, 0.002550053, 0.039753903, -0.033698756, -0.020424627, -0.031749588, -0.0028588981, -0.01999353, -0.0328845, -0.009912652, -0.006538528, -0.03956286, 0.06262304, 0.05263439, 0.01420025, 0.031095564, 0.02205231, 0.02800384, 0.0030819431, -0.016119925, 0.04306727, -0.01688644, -0.041754123, -0.032210022, -0.027849037, 0.022988033, -0.08219916, -0.045413777, -0.043316554, -0.04960342, -0.033980798, -0.030993223, -0.008005669, -0.10208379, 0.044939384, -0.058396574, -0.033446524, 0.06287571, -0.012253941, -0.018060619, 0.04007572, 0.07097884, 0.0002641785, -0.08261737, -0.07391385, 0.031081032, -0.012319027, 0.0018234709, 0.0147714, 0.11298383, -0.039635096, -0.02067191, -0.014967864, -0.0016142069, 0.0037149822, 0.037309475, -0.014793245, -0.030783243, -0.053805288, 0.016455166, 0.0008661282, -0.048461303, -0.031210601, 0.011841554, 0.11290366, -0.0061587743, -0.02133897, -0.019354252, -0.02824672, -0.049338702, 0.021194793, -0.06212677, 0.06480589, 0.0370322, 0.0077652927, 0.0007350813, 0.027287398, -0.023785608, -0.027255585, 0.018260358, -0.006168597, -0.008668018, -0.025790298, -0.023972455, 0.045505896, 0.010967753, -0.0063582878, 0.019888408, 0.071000665, 0.029587872, -0.057406012, -0.056879845, -0.053087473, 0.008699837, -0.07847296, -0.0016630656, 0.018306077, 0.03621327, 0.034352526, -0.0071955225, 0.0010415515, -0.026478767, -0.01816865, -0.020849118, -0.03355563, -0.006522793, 0.006412913, -0.011510279, 0.03129649, 0.02485084, -0.13652425, -0.028654937, 0.06567067, 0.022980472]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>한국식품과학회</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>장아름</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Effect of Dextrin-Oil Mixture on the Rehydration Property of Instant Noodles</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>The global consumption of instant noodles has been rapidly growing due to their cooking convenience, affordable price, and various flavor. With this trend, a great deal of effort has been made to improve the quality attributes of the noodles. Specifically, the improvement of rehydration rate of instant noodles has been a challenge faced by the noodle manufacturers. In this study, dextrin-oil mixture was incorporated into the formulation of instant noodles and evaluated as a rehydration improver for the noodles. The thermal conductivity of the noodles prepared with dextrin-oil mixture exhibited higher thermal conductivity. These results were highly linked to the porous structure of the noodles confirmed by the SEM images. Thus, the noodles with the dextrin-oil mixture showed reduced cooking time by 36%, compared to the control. This study can thus encourage the food industry to enhance the quality attributes of instant noodles by improving their rehydration property.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>[-0.003986038, -0.0038341018, -0.05830563, 0.02421929, 0.082673505, -0.02876376, -0.023355642, -0.014710073, 0.026891196, 0.01663322, -0.08493012, 0.024216972, 0.025829526, 0.055623166, -0.047759145, 0.011040561, -0.038959913, 0.004203117, 0.0140585825, -0.03452219, -0.05480724, 0.026488325, -0.034336593, 0.07194362, 0.07015211, -0.0058784815, 0.10136067, -0.04831956, 0.04341631, 0.028858913, 0.07620182, -0.002054879, -0.010717967, -0.051012833, -0.01619203, -0.055305928, 0.04631005, -0.004073877, 0.037866987, -0.019769663, -0.07024464, 0.010654976, 0.019751448, 0.029137554, 0.01216295, 0.0038232654, 0.024934964, -0.030180018, -0.07973315, 0.015176072, 0.027659552, -0.059889436, 0.032141306, -0.014411429, 0.04340244, -0.06898175, -0.058466733, 0.05153567, -0.015403448, 0.035670627, -0.052236862, -0.0041013886, 0.019568605, 0.01791101, 0.03674029, 0.028515056, 0.07640008, 0.021444833, 0.023298033, 0.05020096, 0.0068434332, 0.013231926, 0.04877644, 0.03769511, -0.068919234, -0.08344406, -0.02988723, -0.030165795, -0.07891878, -0.055063426, 0.0024185237, -0.051547136, 0.03590956, -0.098017626, -0.035564728, 0.039337844, 0.0066012894, 0.024174636, -0.024638727, -0.13431096, 0.0074791764, 0.009486429, 0.101520166, -0.012679305, 0.05050411, 0.008426957, 0.10765538, 0.03712821, 0.03953335, 0.006982633, 0.03781956, 0.008067866, -0.0058063213, -0.015113631, 0.010767034, -0.07203666, 0.052025072, 0.0031524885, -0.01849777, -0.0030693498, 0.018403778, -0.038960233, -0.0047955574, -0.020975424, 0.027153844, 0.023099428, 0.012268014, 0.02222677, 0.01023019, 0.09139321, -0.0073369863, 0.03833831, -0.022612637, 0.032056626, 0.034999315, 0.057869412, 0.034784187, -0.0035136747, -0.014813803, -0.056179777, -0.023737947, 0.010895192, 0.00021967106, 0.07409164, -0.003269353, -0.011002155, 0.03677356, 0.021229995, 0.00045269556, -0.014628669, -0.01343454, 0.051276084, -0.007998985, -0.0057310183, -0.050990757, 0.039234485, -0.0024702242, -0.04546915, -0.023576785, 0.059187025, -0.018596632, 0.029451644, -0.023676941, -0.022695877, -0.023782954, -0.058050983, -0.02867351, -0.02313925, -0.01168994, -0.049238082, -0.00085427123, -0.01232638, -0.028415423, 0.018090958, -0.006974549, 0.018265618, 0.07898778, 0.037663817, -0.030614551, 0.01960041, -0.00028241798, -0.01898766, 0.016829714, -0.044476278, -0.017914094, -0.02698883, -0.024809776, 0.007835999, 0.042802695, -0.030056817, -0.0075095627, -0.06672855, -0.052964747, 0.022727547, -0.003935881, 0.019236779, -0.05055289, -0.053281594, 0.015466815, 0.050809182, -0.076690175, -0.08548423, 0.026795419, 0.036744, 0.010287692, -0.017074559, 0.002856173, 0.010665069, 0.1275143, 0.065130144, 0.12345983, 0.03999493, 0.028351882, -0.03929968, -0.025668116, 0.055478606, -0.012233383, -0.012184076, -0.028751459, 0.050849244, -0.020739758, 0.026673127, -0.025600119, 0.01782156, 0.041977365, 0.0077806837, -0.051223606, -0.07874434, 0.022696069, 0.014690344, 0.020733772, -0.0019478387, -0.019024927, -0.004812654, -0.07621579, 0.010701371, 0.04248448, -0.04213513, -0.06726731, 0.0510196, 0.020892233, -0.04170998, 0.056293692, -0.042819533, 0.04703675, -0.015947131, -0.02957653, 0.02830096, -0.0002637594, 0.049555935, -0.04139802, 0.007927597, 0.018567132, 0.08948523, -0.013685676, -0.08507114, 0.004618808, -0.019860415, -0.025738599, -0.0002148184, 0.03158559, 0.042800725, -0.04054589, -0.055730764, -0.0049587, -0.004326532, -0.022080436, -0.0040705865, -0.04502887, 0.06878052, 0.015855988, -0.07643025, 0.030203981, 0.017720131, 0.009272931, 0.038537513, 0.04601167, 0.005256894, -0.01942499, 0.008574484, 0.007945435, -0.038269553, 0.045426417, 0.04222206, 0.018608915, -0.025410997, -0.047526766, -0.09918454, -0.01597577, 0.004182873, 0.0055308254, 0.0031087825, -0.0022214875, -0.0186197, 0.017295888, -0.027664734, -0.013408819, -0.0020820277, -0.0784055, -0.026089495, -0.023233045, -0.015043331, 0.06468994, -0.009169836, -0.06383579, 0.06938266, 0.012188813, 0.03542441, 0.036469143, -0.00051613705, -0.0007556622, 0.032930482, 0.013899014, 0.042909604, -0.020539122, 0.015067944, -0.017894503, -0.011059337, 0.0774813, -0.0031344611, -0.0031365077, 0.038834263, -0.01630364, 0.06360414, -0.00016024162, 0.04937312, 0.02439053, -0.06480233, -8.631847e-05, -0.095992446, -0.052096717, 0.079438515, -0.023383321, 0.010818512, 0.034971297, 0.10866012, -0.031510815, 0.0098826075, -0.03743833, 0.0421906, 0.0035214482, 0.010212265, 0.038430896, 0.028112024, -0.0070030596, -0.03590513, -0.057123832, -0.02066529, -0.027242426, 0.0126231145, 0.03007174, -0.037982192, 0.021404216, 0.036723275, -0.07720734, 0.036023468, 0.089546636, 0.09187124, 0.0048239287, -0.015200073, -0.02950848, 0.013026529, -0.009434571, -0.061508335, -0.037010025, -0.015675865, -0.05465085, -0.005314277, -0.05178994, 0.013791933, 0.0070798723, -0.010338126, -0.0011266965, -0.033729892, 0.07754171, 0.04360151, 0.023265183, -0.0028780731, -0.0010905975, -0.081396155, -0.045534458, 0.03792736, 0.033851806, -0.011802618, -0.028487392, -0.008108543, 0.019444717, 0.014381902, 0.08106179, -0.01950558, -0.017569473, -0.0031573677, 0.006590798, -0.04925058, -0.025729746, -0.007454826, -0.10945959, 0.060028538, -0.027639367, -0.016623368, 0.008275299, 0.08375941, -0.07044869, -0.0066563752, -0.012162883, 0.11404648, 0.0104380995, 0.043027658, 0.04364919, 0.036096074, 0.03277189, -0.04348102, -0.012172395, -0.015168917, -0.060367014, 0.017268796, -0.052192293, 0.016130244, -0.051871207, 0.050650652, 0.033486888, 0.030416345, 0.03515526, 0.0065589827, -0.017611943, 0.06372614, -0.011202417, -0.006691198, 0.08376004, 0.0118792225, -0.038403895, -0.00026290724, -0.028726686, -0.024067216, -0.05856081, -0.056624744, -0.0968377, -0.04925875, -0.058187947, 0.00969452, 0.034941413, -0.040777113, 0.018725155, -0.0433255, -0.07310004, 0.10786451, 0.0059993, -0.024137791, 0.06284267, 0.10735461, -0.012882541, -0.072883785, -0.041718405, 0.02633617, -0.028893994, 0.0128124, 0.033329383, 0.08810918, 0.0044900933, -0.024529569, 0.018420633, -0.017655479, -0.009332747, 0.06106066, -0.0010598637, 0.008376617, -0.031070763, 0.07263779, 0.047060765, -0.037816606, -0.03945173, 0.010657587, 0.09585252, -0.03851869, -0.036664467, -0.008341385, -0.02944441, -0.025843786, 0.0061749434, -0.03983322, 0.07434992, 0.004627783, -0.022455355, -0.026293084, 0.021181526, -0.0710651, 0.042154133, -0.015813868, -0.044329822, 0.0057555777, -0.029091388, -0.0078858035, 0.076649025, -0.0038948061, -0.03360205, 0.009064723, 0.061764427, 0.016964098, -0.014092892, -0.028553812, -0.07407171, -0.039610676, -0.052865457, -0.020349355, 0.018724047, 0.034714103, 0.029878944, -0.047539413, -0.0066587664, -0.020338006, -0.022491122, -0.024925437, -0.044434484, 0.05511858, -0.010650562, -0.016515516, 0.017215958, -0.020587852, -0.12133989, 0.015811924, 0.08249974, 0.013267716]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>IUFost</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>조용진</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Functional enhancement of instant fried noodles with whole-grain wheat flour</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>The popularity of instant fried noodles has been worldwide increasing in recent years because of their palatable taste, cooking convenience, and affordable prices. However, the noodle industry is facing an urgent challenge to improve the functional quality attributes of existing products and also to introduce new products into the market that satisfy the potential needs of current health-conscious consumers. Thus, in this study, whole-grain wheat flour was evaluated as a new functional ingredient to enhance the health-functional properties of instant fried noodles beyond its traditional uses such as baked goods. Whole-grain wheat flour was incorporated into the formulation of instant fried noodles instead of white wheat flour at three different levels (0, 50, and 100%) and its effects on the rheological/oil-resisting properties and in vitro starch digestibility the noodles were characterized. Overall, whole-grain wheat flour contained higher levels of ash, protein, and fat than white wheat flour. Also, the whole-grain wheat flour was high in dietary fibers in which the amounts of insoluble and soluble fibers were 10.7% and 0.1%, respectively and showed higher antioxidant activities. Whole flour exhibited greater water hydration properties than white wheat flour. However, the pasting parameters of whole flour in an aqueous slurry were reduced during heating and cooling which could be correlated to its Mixolab properties in a dough  system. Decreased dough development and stability times were observed in whole-grain wheat dough. However, when instant fried noodles were prepared with whole-grain wheat flour, it had a positive impact on the oil uptake of the fried noodles which was reduced by 17%. Moreover, it seemed that the use of whole-grain wheat flour restricted the hydration and gelatinization of starch, resulting in the retardation of starch hydrolysis by enzymes. Thus, this study showed that the use of whole-grain flour improved the health-functionalities of instant-fried noodles derived from its abundance of dietary fibers and antioxidants. This study provides additional fundamental information on the processing performance of whole-grain wheat flour, probably encouraging the food industry to respond to the increasing demand of a wider variety of healthful whole-grain foods.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>[0.07088586, -0.022198144, 0.00819288, 0.024814969, 0.0939942, -0.0016137278, 0.0026445359, 0.010628581, 0.056638684, 0.041942332, -0.0579171, 0.011284752, -0.007861731, 0.07827921, -0.009383273, 0.003061917, -0.0017018276, -0.004355756, 0.043528613, 0.00661026, -0.036470965, -0.0013095452, -0.08645635, 0.07195208, 0.06051117, 0.002854909, 0.033604514, -0.043592505, 0.08455744, 0.017865093, 0.06521795, 0.008298367, -0.034938984, -0.09485586, 0.022597123, -0.05268407, 0.060607497, 0.017581599, 0.023500292, 0.0048576607, -0.08506351, -0.020028725, 0.01544105, 0.03809591, 0.03808696, 0.023441805, -0.0016301752, -0.023122648, -0.019911107, 0.01372006, -0.0127205765, -0.037315782, 0.010800353, -0.009660606, 0.072509855, -0.036589827, -0.054185703, 0.0459358, -0.028453121, 0.052259345, -0.021910133, -0.024344578, -0.007310328, 0.017735565, 0.020910548, -0.003957167, 0.035666786, 0.0034018857, -0.009897218, 0.039710812, -0.0057609794, -0.019823391, 0.036127567, 0.06171401, -0.07277724, -0.08393796, 0.032503795, -0.0024317822, -0.06359924, -0.029451884, 0.04031101, -0.029000077, 0.027602745, -0.07523505, -0.043570668, -0.004542733, -0.05248636, 0.075929604, -0.03871244, -0.066185415, 0.02040328, 0.010767593, 0.108322196, -0.016382916, 0.029188251, 0.010312896, 0.08116638, 0.075954534, 0.042883944, -0.005232868, 0.011473819, -0.0047064996, -0.008488233, 0.0022155186, -0.008872319, -0.03924191, 0.09008191, -0.01601734, 0.017338663, -0.0074295048, -0.0056016613, -0.068494245, -0.010683161, 0.039934587, -0.006897467, 0.014231057, 0.04297493, 0.043844704, 0.006723034, 0.059867926, 0.011119092, 0.035981603, -0.0637516, 0.059789363, 0.052329626, 0.031997193, 0.061537188, 0.0037235226, -0.014334494, -0.010762293, -0.02248974, 0.05746515, -0.02144022, 0.052856836, -0.004429669, 0.009981842, 0.04902271, 0.028714756, 0.015911268, 0.016019877, -0.0029980396, -0.012876238, 0.009345936, -0.020281592, -0.013881949, 0.00017827773, -0.03852401, -0.0063319276, -0.017617086, 0.109641984, -0.0069922763, -0.01739608, 0.01207585, -0.03182939, -0.034865517, -0.039100356, 0.022267543, 0.038961515, 0.032577872, -0.08686323, -0.03670812, -0.024133798, -0.02280691, 0.012592787, -0.02899739, 0.03823212, 0.08607628, -0.005627726, -0.047271404, -0.0064000636, -0.0057256604, -0.023728708, 0.030814886, 0.024060454, -0.061218545, -0.0034769685, 0.0019162974, -0.010496357, 0.05186415, -0.087616466, -0.03472706, -0.031171491, -0.035440896, 0.06479078, -0.027423665, -0.0051497524, -0.008184492, -0.05316088, 0.030525375, 0.045990676, -0.09765755, -0.025512341, 0.011290191, -0.009333767, 0.029641049, -0.022424811, 0.00018590945, 0.012306662, 0.103534706, 0.040980004, 0.030420717, 0.019307707, 0.051186062, -0.019161938, 0.093724795, 0.07002012, 0.015928354, 0.058109008, 0.042904366, 0.069422565, -0.026768785, -0.010060614, -0.01345163, 0.048312273, 0.029279847, -0.010206672, -0.038484417, -0.0077387504, 0.0031692835, 0.014898941, 0.07572826, 0.008043519, -0.0406697, -0.06893014, -0.055124845, -0.011425575, 0.048635233, 0.017907444, -0.04000802, 0.016752653, 0.027918553, -0.07187319, 0.008884647, -0.082647055, 0.00452852, 0.038474597, -0.021364864, 0.056344412, 0.048024565, 0.06257041, -0.07254982, 0.008431111, 0.008736339, 0.07905895, -0.0055305953, -0.041367933, -0.03146223, -0.04090313, -0.09986946, 0.008566159, 0.031248078, 0.036040764, -0.013731272, -0.034946065, -0.016405432, -0.012972437, 0.048839796, 0.016956165, -0.028087176, 0.0015828154, 0.029305521, -0.07546997, -0.00299203, 0.02084476, -0.0089176325, 0.028753173, 0.045536835, -0.0031485686, 0.017301235, -0.057095412, -0.03313049, 0.004622225, 0.11877132, 0.049898665, 0.003941181, -0.011159167, -0.023410527, -0.055502005, -0.0072993357, -0.07079323, -0.042296935, -0.003896597, 0.0161838, -0.06635771, -0.008910858, -0.05150916, -0.083152145, 0.00014876493, 0.010008923, -0.06470821, -0.008598132, -0.009636806, 0.09458468, 0.00699082, -0.061144084, 0.066085204, -0.042707015, 0.03866185, 0.030432116, 0.010525015, 0.060524985, -0.02808015, 0.024312038, 0.01093421, -0.010381845, -0.0021555934, -0.02814332, -0.025181063, 0.060984142, -0.035716645, 0.033237573, 0.041525975, -0.035630632, 0.089423016, 0.020800402, 0.08242415, -0.0018895065, -0.012724973, -0.01696214, -0.07930794, -0.014667129, 0.08098924, -0.020304622, -0.020190373, 0.01799955, 0.09918736, -0.044760972, 0.02343071, -0.022565542, 0.02153959, 0.013655273, 0.034626648, 0.00629263, 0.029585894, -0.043016195, -0.0030362739, -0.0062236595, -0.07627582, 0.008939727, -0.007093445, -0.0039334847, -0.055380106, 0.015639085, 0.036900204, -0.057815067, 0.03868171, 0.092410535, 0.039658874, -0.00075179175, -0.053712156, -0.0038564513, 0.00078310474, -0.032031193, -0.04571455, -0.02172081, -0.02705852, -0.05663114, -0.023908203, -0.047435, -0.021048296, -0.018920938, -0.060100194, 0.013240237, -0.015624226, 0.05744221, -0.0031394428, 0.029735085, -0.016017597, -0.0038429026, -0.058769997, -0.029820073, 0.0059905215, -0.0049884384, -0.02213673, -0.00289637, 0.025014859, 0.054903835, 0.0015458061, 0.08935118, 0.018863302, 0.0011684684, -0.012642115, -0.024591457, -0.09080943, -0.005380587, -0.004782614, -0.06765878, 0.065413475, -0.056501985, -0.06094681, 0.030994436, 0.08295883, -0.01873573, 0.01321486, 0.007575043, 0.049115345, -0.020966986, 0.027186163, -0.0029872754, 0.024765888, 0.057980016, -0.058516152, -0.032868695, -0.027274095, 0.0060764416, -0.015425547, -0.045390762, -0.026429638, 0.0016865217, -0.024540802, 0.080423154, 0.0033490492, 0.009536484, 0.03217248, 0.013518885, 0.010540325, 0.028234635, 0.022655832, 0.036118437, -0.004383794, -0.023287706, -0.019334499, -0.039288487, 0.010492227, -0.09257973, -0.05131497, -0.024941897, -0.05743603, -0.010889928, -0.018924156, -0.01213613, -0.08102502, 0.016022133, -0.06484532, -0.01676487, 0.08583663, 0.004807339, 0.0030962178, 0.04128164, 0.07713284, -0.032391455, -0.06527153, -0.04944293, 0.028939594, 0.02367037, 0.011880782, 0.061251607, 0.16061202, -0.056948744, -0.048963863, -0.022273675, -0.014970436, -0.0024113767, 0.086047456, -0.02591616, -0.013011609, -0.013909327, -0.00018295227, 0.008180076, -0.02957995, -0.03238525, 0.027522964, 0.13054916, -0.036853388, 0.0020752854, -0.057234075, -0.028743822, -0.030362241, 0.028724797, -0.030330405, 0.060005397, 0.02391438, -0.0058529917, -0.023454992, 0.045375835, -0.056255676, 0.010828573, 0.013713258, 0.008509911, 0.012293619, -0.009643703, -0.012327279, 0.059414607, 0.041730046, 0.0012363665, 0.009528352, 0.0067614336, 0.00987889, -0.0139967315, -0.025697378, -0.063635916, -0.0069114617, -0.093442306, 0.007407938, 0.057288118, 0.030020257, 0.057474088, 0.0050530634, 0.0023229986, -0.017155271, -0.01353435, -0.013035635, -0.019254452, -0.003307765, 0.012354865, 0.010760881, -0.00733249, 0.006379566, -0.11472482, -0.018460386, 0.049605835, 0.07109466]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>한국산업식품공학회</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>백정수</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Effect of extrusion variables and hydrocolloids on the cooking quality of extruded rice noodles</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rice flour has been utilized in many countries as a major gluten-free ingredient. However, compared to wheat flour, undesirable processing properties of the rice flour discourage the food manufacturers from developing a variety of rice products. Therefore, there is a need to search for the ways to improve the quality attributes of the rice products. In this study, rice noodles were prepared under three different extrusion conditions (moisture content of dough, barrel temperature, and drying temperature). Then, their effects on the cooking quality and tensile properties of the noodle samples were characterized. Also, extruded rice noodles were formulated or coated with hydrocolloids and their cooking loss was evaluated. The cooking loss of extruded rice noodles had a tendency to decrease with increasing barrel temperature (70, 80, and 90 oC). However, it seemed that the other variables were not effective in reducing their cooking loss. Also, the noodle samples extruded at high temperature had higher resistance to extension and extensibility than the other samples. When ten different hydrocolloid solutions were subjected to steady shear measurements, gellan gum, methyl cellulose, hydroxypropyl methylcellulose, carboxymethyl cellulose, and κ-carrageenan showed high viscosities at low shear rates after heating. The extruded rice noodles formulated with the hydrocolloids exhibited higher values of cooking loss than the control. On the other hand, the coating with κ-carrageenan and gellan gum reduced the cooking loss of the noodle samples. Thus, the barrel temperature significantly influenced the cooking quality of extruded rice noodles. Also, the surface coating of the rice noodles with hydrocolloid solutions had a positive effect on the reduction of their cooking loss. This study can therefore provide a valuable idea for improving the cooking quality of extruded rice noodles. </t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[0.03573771, -0.028194191, 0.06136113, 0.0032380682, 0.10028857, 0.012185641, 0.01559254, -0.008129359, 0.030967714, 0.022085622, -0.060349725, -0.01750171, -0.010110035, 0.060850758, -0.008041589, 0.034588277, -0.026813032, 0.013922129, 0.07635481, 0.023092337, -0.017440494, 0.0076444764, -0.042845413, 0.042467427, 0.09725251, -0.0031935147, 0.024355743, -0.06291883, 0.06487382, 0.023146177, 0.044357445, -0.07810637, -0.0072849314, -0.01857794, -0.027144354, -0.006580147, 0.038558412, -0.00695321, 0.048620865, -0.044122398, -0.029486086, 0.043051876, -0.014938697, 0.008320267, -0.045963097, 0.0034271823, 0.01188582, -0.034590106, -0.06409669, 0.030699339, 0.04684072, -0.0011753079, 0.021923672, 0.016895467, 0.036461674, -0.058524884, -0.05748255, 0.015251577, -0.010771078, -0.0073875403, -0.051739447, -0.020951813, -0.0315085, 0.000903666, -0.015077538, -0.008714096, 0.020942226, -0.0141982725, -0.050399154, 0.017836098, -0.022212917, -0.013722865, 0.025874093, 0.017089171, -0.07267947, -0.13198696, 0.011793718, 0.040024355, -0.036814727, -0.055044424, 0.0073334007, -0.07944098, 0.057214472, -0.058516327, -0.03744621, 0.054789662, -0.0658343, 0.004982727, -0.023439234, 0.023557471, 0.0072975336, 0.006259233, 0.092833385, 0.047985435, 0.018717892, 0.0378466, 0.0860614, 0.064331606, 0.05441618, -0.005862525, -0.021554474, -0.007735658, -0.008272871, 0.039630488, 0.034731295, -0.042140942, 0.032603715, -0.024554128, 0.0565598, 0.030500375, 0.021178633, -0.04597036, -0.02724997, -0.023046833, 0.017597957, 0.03525296, 0.036804903, 0.062303238, -0.00398205, 0.08828537, 0.039276868, 0.029968759, 0.020757446, 0.058918186, 0.015924592, 0.02784572, 0.032148734, -0.01831449, -0.005779757, -0.045468073, 0.024718013, 0.04330157, -0.057880156, 0.00653355, -0.032076225, 0.03796355, 0.028573731, -0.019145917, 0.025945902, 0.001989622, -0.021089002, -0.021697996, 0.0020311186, -0.09534408, -0.03665727, 0.037172746, -0.10579733, -0.006299068, 0.047084283, 0.0075601786, 0.014786124, 0.017652148, 0.013370166, -0.06877334, -0.012567572, -0.050861206, 0.02471866, -0.0078006783, -0.06485427, -0.03619265, 0.051034458, -0.06993745, -0.027525056, 0.024354761, -0.0045346655, -0.013917181, 0.06739075, 0.029353134, -0.013911186, 0.06430042, -0.018339958, 0.014418822, -0.004210388, -0.0352083, -0.047125526, -0.025233982, -0.0467403, -0.03227895, 0.08140033, -0.058337152, 0.05364199, -0.07435396, -0.01008831, -0.046269022, 0.0541671, -0.042778883, 0.002613668, -0.04586801, 0.03506151, 0.021741876, -0.14237918, 0.046355385, 0.009677759, 0.03522364, 0.015303075, -0.018764744, 0.014155219, -0.019685708, 0.045623105, 0.1042318, 0.09884677, 0.08594359, 0.07116703, -0.032678425, 0.030171476, 0.045540426, -0.009738444, 0.018725, 0.019597068, 0.015194935, -0.05979678, 0.042792886, -0.0049363226, -0.0073059904, 0.049724013, 0.0002587447, -0.047463056, -0.020253174, -0.0018354214, -0.01978642, 0.04174848, 0.008291965, -0.0019116857, 0.005077887, -0.02148365, 0.01834752, 0.03980049, 0.020434057, 0.0541049, -0.035592772, 0.05244943, -0.054595232, 0.0028712298, 0.0030569087, -0.019365055, 0.03087583, -0.048836894, 0.0020663317, 0.015664332, 0.08128287, -0.038864966, -0.0030933553, -0.0018077831, 0.013364946, -0.048368257, -0.02186401, -0.011472267, -0.024643142, -0.036785115, 0.029588424, -0.015486384, 0.033256743, 0.015720893, -0.044064846, -0.04199036, 0.032008737, -0.02537548, -0.03757069, -0.04311526, -0.04291324, 0.0261425, -0.014832858, -0.03485831, -0.029502746, 0.018947536, 0.054841567, 0.061985165, -0.023961758, -0.002090605, 0.009204024, 0.0049996865, -0.047702152, 0.013553437, 0.035919446, -0.041807313, 0.05802012, 0.022268029, -0.12522052, 0.0030085966, 0.00092003297, -0.028231818, 0.0063707763, 0.035625365, -0.06959243, 0.01785478, -0.03130461, -0.083118215, 0.022802057, -0.06619618, -0.038040336, -0.016308848, 0.010511448, -0.01967313, 0.022326842, -0.05131719, 0.04411598, -0.011653081, 0.081047416, -0.000904178, 0.024624342, 0.004727004, -0.005859944, 0.035768077, 0.041538227, -0.016845278, -0.054165103, -0.016366545, 0.0035170957, 0.036395587, 0.027944539, -0.027278136, -0.014028558, -0.0058657695, 0.06280165, -0.030557986, -0.011782017, -0.0041302345, -0.028092846, -0.046137508, -0.048016462, -0.005883344, 0.08055013, -0.021268448, 0.017977433, -0.05565637, 0.07970871, 0.02826421, -0.023742933, -0.016171414, 0.06374292, -0.013738537, -0.022930559, 0.026758302, -0.0143093765, -0.047319595, -0.09065612, 0.00048192136, 0.0017840378, 0.008091763, -0.023937486, -0.035402186, 0.020511, 0.0026343677, 0.011531655, -0.08412332, 0.018557854, 0.09288497, 0.012595694, -0.09273419, -0.0015338678, 0.020930577, 0.0066722534, 0.025201159, -0.03148019, -0.027048077, -0.052153617, -0.048554964, -0.060977902, 0.013215069, 0.03261299, 0.048922796, -0.073081255, -0.035503898, -0.035776097, 0.06187994, 0.007202273, -0.04051155, -0.003893232, -0.034583364, -0.0072011473, 0.027164131, 0.033611685, -0.041594878, 0.036801685, -0.021010349, -0.018385787, -0.005115711, 0.099479906, 0.058488693, -0.0067773056, 0.047126245, 0.00048393718, 0.030358218, -0.063147224, -0.05464085, 0.0012821949, -0.05219754, 0.04163519, -0.010441615, -0.07606461, 0.07921817, 0.083624125, -0.015167351, 0.014964599, -0.045234106, 0.043203045, -0.06704492, 0.03096263, -0.050115842, 0.043477755, 0.07411322, -0.006660848, -0.023498608, 0.014915559, -0.04152271, -0.03218963, -0.010255279, -0.019061727, -0.020469435, -0.050934, -0.014638385, 0.043633375, 0.029497553, 0.037379123, 0.002337432, 0.041051395, -0.061127704, 0.023356698, 0.033375274, 0.053749856, -0.039969973, -0.0011156532, -0.032837898, 0.04230756, -0.05961835, -0.05196729, 0.0078848535, -0.044755068, -0.0247581, 0.019795034, -0.023484305, -0.046068937, -0.029777141, -0.08855307, -0.01039275, 0.020207923, 0.0032406521, 0.017517827, 0.10482996, 0.020007145, 0.0030530656, -0.0707827, -0.12324998, 0.019696783, 0.0039654537, 0.08617693, -0.013188124, 0.044725463, 0.039490204, -0.03892051, 0.0001550084, 0.00090466277, 0.014689427, 0.08562349, 0.0132267615, -0.043968383, -0.0132971825, 0.008574978, -0.005019548, -0.056504272, 0.005690541, 0.0070264386, 0.05963964, -0.0074120974, -0.044105668, -0.04658412, -0.08080575, 0.011405854, 0.021627719, 0.004981019, 0.04100152, 0.108024, 0.043558888, -0.033189002, 0.008385192, -0.024468128, 0.06674616, -0.019315843, -0.033834286, -0.015433688, 0.002571717, -0.036685787, 0.036565796, 0.067364804, -0.015777176, 0.06487421, 0.023395319, 0.06267296, -0.044253163, 0.011728741, -0.02879052, -0.01228863, -0.055863854, -0.011602265, 0.054431383, 0.015828049, -0.021290509, -0.02868997, -0.0015576888, -0.0061325706, 0.010869023, -0.022420501, -0.036384683, -0.023484426, 0.017063605, -0.03972873, 0.024240108, 0.0033067437, -0.12607192, -0.029387502, -0.018272646, 0.050779935]</t>
+          <t>[-0.027606566, 0.048685364, 0.028835, -0.016795311, 0.047175463, 0.012500226, -0.031415574, -0.081003964, 0.04293364, 0.051132407, -0.022484941, -0.06999408, 0.122517034, 0.044816684, -0.036503542, 0.048665658, -0.01877874, 0.069074675, -0.0006151972, 0.0488911, -0.05826969, 0.0061842888, -0.07557528, 0.033880845, 0.06050583, -0.05478131, -0.014718326, 0.074742705, -0.007233851, -0.007750224, -0.009940196, -0.037115768, -0.03705419, -0.02240266, 0.0026442818, 0.0040535983, 0.068711184, -0.048451766, -0.03850681, -0.0042807003, -0.0788656, 0.0017785449, 0.00644549, -0.031270534, 0.0507501, -0.04851869, 0.00024514273, 0.064222366, 0.04051074, 0.036536753, -0.0013388282, -0.048350953, -0.00012792158, -0.026748726, -0.0040811026, -0.07121119, -0.055337064, -0.115403004, 0.029583672, 0.025139956, -0.06716644, -0.05017837, -0.025215317, 0.04416485, 0.011528871, -0.018734733, 0.011042993, 0.012889648, 0.09220313, 0.019117014, -0.029584575, -0.011270412, 0.00030186633, -0.002159723, -0.06884612, -0.026940947, -0.028024485, -0.04045769, 0.008198958, -0.031694125, -0.018455533, -0.027148766, 0.05830105, 0.009842845, -0.041281264, 0.012022326, 0.034515817, 0.03199194, -0.007797452, 0.036466844, -0.011535221, 0.02041551, 0.12487249, 0.059118263, 0.024591569, 0.018555084, 0.054281533, 0.055069327, -0.0081526525, 0.030754235, 0.022443429, 0.048697516, 0.013583, 0.009170799, 0.06709319, -0.037040967, -0.01248525, 0.033921894, -0.0077204886, 0.047501244, -0.00024386926, -0.05604646, 0.010078842, 0.01985779, 0.019505315, 0.06498305, 0.03058549, 0.096984096, 0.026410557, -0.04223017, 0.10699091, -0.059404906, 0.0071874307, 0.0663838, 0.014475805, -0.025557252, 0.051397905, 0.049270093, 0.012726793, -0.006768718, -0.016679762, -0.025789844, -0.013346318, 0.0012392042, 0.024467787, 0.0022478162, 0.046501677, 0.07390999, 0.071132705, 0.02500895, 0.017728522, -0.022330059, 0.014739292, -0.022963349, 0.06423251, -0.024234254, -0.05672076, -0.034999996, -0.021460881, 0.024258375, -0.0069948235, 0.05597181, -0.07576875, -0.047782514, 0.045363892, -0.0704898, 0.068452604, -0.069374904, -0.0118745435, -0.008415243, 0.0028512443, -0.0063438476, 0.025621101, 0.0073013506, 0.015619594, 0.08647056, 0.08674296, 0.027325997, -0.04731912, 0.076150194, -0.03177067, -0.016985793, 0.035366427, 0.05873104, -0.034459755, -0.058341395, -0.02200273, -0.043453947, 0.032493487, 0.019329373, 0.008295698, -0.037605528, 0.0064360606, 0.0009280962, 0.019676875, -0.006933274, -0.030481549, -0.052547067, 0.033771437, 0.058826823, -0.07451787, 0.025258519, 0.07126276, 0.008488066, 0.022405097, 0.009977477, 0.06578679, -0.029692868, 0.019548131, 0.061139908, 0.012334051, 0.033210736, -0.00689701, -0.0017825319, 0.09001269, -0.00085490674, -0.012399712, -0.0055160793, 0.031022536, 0.00038616435, -0.024786199, 0.06592689, 0.033643845, -0.005279561, 0.0033181554, 0.018289967, 0.03392996, -0.032382492, -0.0023936676, 0.039478775, -0.023550095, -0.0034941311, -0.03848571, 0.034771502, -0.053307153, 0.023264628, 0.0030747314, 0.047016833, -0.053890057, 0.0016619394, 0.000606066, -0.017000096, -0.041466963, 0.04982949, 0.035973743, 0.0500068, -0.011805883, 0.03830807, -0.005775429, 0.059792586, -0.01497043, 0.057024553, 0.017545065, -0.007863801, 0.04000372, -0.042722743, 0.06270482, 0.027711466, 0.017913697, -0.032566667, -0.020740585, 0.08406718, 0.024309443, -0.016656231, 0.08790978, -0.0070411083, 0.021472596, -0.049954362, 0.033218887, -0.009572994, -0.002557904, 0.007931196, 0.03219813, -0.059899416, -0.018076465, -0.08773924, 0.030883672, -0.016560586, 0.04476682, 0.014873331, -0.029933367, -0.02899955, 0.022737961, 0.012488419, -0.040168907, -0.016714986, -0.0032928602, 0.01117807, 0.036832254, -0.03706658, -0.0061871773, 0.0020215549, -0.018766603, 0.07763224, 0.0061986553, -0.006742435, -0.083887465, 0.0028122177, 0.0106564, 0.0042684153, -0.044168927, -0.015365563, 0.041763753, -0.047456373, -0.05174098, 0.029906074, -0.0020978495, 0.0064871316, 0.024885373, -0.0072847907, -0.06463753, 0.04898008, 0.054053936, -0.010854268, -0.02077335, -0.0027329405, 0.03059715, -0.061932996, -0.016075365, 0.030731348, -0.04755589, -0.0032768846, 0.022932403, 0.04268147, -0.0042359345, -0.004162642, 0.026697267, -0.06281016, 0.03988832, -0.045652363, 0.0066862185, 0.05380492, -0.01501753, -0.06520404, -0.03210847, 0.051776595, -0.030925596, 0.044117432, -0.034581054, 0.07334148, -0.028976563, -0.015536854, 0.08706692, 0.061139073, 0.04596224, -0.027833197, -0.010979215, 0.02424493, -0.036252644, -0.055906013, -0.07565454, 0.06854165, 0.03920531, -0.026958337, -0.019501485, 0.06600669, 0.056138154, 0.031255674, -0.067862175, -0.05191431, -0.015270055, -0.024788925, -0.035167504, 0.021071851, 0.023414887, -0.034133643, 0.041855723, 0.039940935, -0.0030261476, -0.005016733, 0.01332768, -0.0084384885, 0.04544529, 0.062724926, 0.044218015, 0.012031001, -0.014962838, -0.0050194166, -0.0038336336, -0.023404825, 0.046223473, -0.061378516, 0.013187517, 0.0150664635, -0.013087994, -0.005984216, 0.0057871393, 0.028565355, 0.06552966, 0.027382512, -0.04619004, -0.001813995, 0.03660139, -0.04428023, -0.004257321, -0.036260895, -0.086653754, 0.004309558, 0.03503991, -0.016830808, -0.009941511, 0.042380497, 0.024701407, 0.04499181, 0.021721276, 0.124152705, -0.050184675, -0.005983164, -0.066938445, -0.011536747, 0.042468797, -0.020828431, -0.0012798675, 0.014661934, 0.008245946, -0.0056432965, 0.06939101, 0.030654982, 0.025535362, -0.02290809, 0.09466667, -0.0036280183, 0.023689318, 0.07433025, -0.011896189, 0.011065204, 0.0039632428, -0.04068918, -0.027315732, -0.02232285, -0.076121636, -0.014175499, 0.0032940155, 0.05403072, 0.05703269, -0.007498975, 0.027113914, -0.059032757, 0.01377506, 0.050749455, 0.11454151, -0.044695932, 0.009613341, 0.06730386, -0.07454258, -0.000661133, -0.013147139, 0.004753689, 0.03572626, 0.004933168, 0.0809177, -0.034517724, -0.0025815314, 0.057111565, 0.02162201, -0.01224486, -0.004957683, 0.041230816, -0.020051522, -0.0055974224, -0.008790661, -0.00044333606, 0.030768242, -0.013285005, 0.032147136, -0.06929102, -0.06881359, -0.03856029, -0.0231133, -0.039440166, -0.041608937, -0.036136642, 0.044045765, 0.06966315, 0.01602604, -0.049402554, 0.022642855, -0.014196308, 0.038062964, -0.03319322, -0.08453748, -0.054013796, -0.008538103, 0.03601146, -0.0122428285, 0.02169458, -0.027578337, -0.04539657, -0.021854192, -0.0766148, -0.003278829, 0.018384516, 0.08114619, -0.04288582, -0.14037122, 0.010550286, 0.0047132624, 0.01562919, -0.08391303, -0.03574242, -0.0073320344, 0.033717692, -0.01376266, -0.011898788, 0.0026472884, 0.030128593, -0.061410036, -0.017724773, 0.028340746, -0.0371772, 0.018852739, 0.0328154, -0.007739755, -0.020641983, 0.014994473, -0.034881685, 0.05103871, 0.019178212, -0.07297842, -0.009535761, -0.0324047, 0.04841757]</t>
         </is>
       </c>
     </row>
@@ -4185,33 +4217,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>배우성</t>
+          <t>김명선</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Correlation of Mixolab parameters of frozen bread dough with its quality attributes</t>
+          <t>Ingredient mapping for the quality enhancement of gluten-free extruded brown rice cakes</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>The market of frozen baked products has been growing rapidly at the industrial level. However, there still exist processing obstacles which include the performance variations and low quality attributes derived from freezing and frozen storage. In this study, frozen doughs were prepared under different processing conditions (formulation, mixing, and freezing). After thawing, they were then directly loaded into Mixolab to investigate their thermo-mechanical properties which were correlated to the corresponding bread quality attributes. The bread dough with a high level of water had the decreased torque value upon heating and cooling. Also, it appeared that an increase in the mixing time raised the final torque value (C5), indicating a high degree of retrogradation. In addition, the dough stored at -40℃ showed a lower torque value of C5 than the sample at -18℃. Moreover, the CO2 production measured by a risograph was affected by the different processing conditions. This study demonstrated that various processing conditions affected the thermo-mechanical characteristics of frozen dough. Thus, Mixolab seemed to be a useful tool to predict the quality attributes of frozen dough bread.</t>
+          <t>The demand for brown rice has been increasing as a gluten-free whole grain ingredient due to its health-functional properties. However, the variety of processed foods with brown rice has still been limited compared to other whole-grain flours. In addition, brown-rice products are recognized to have undesirable quality attributes derived from their weak structural network from the lack of gluten. Brown rice flour was used as a gluten-free functional ingredient for extruded rice cakes that are traditionally cooked in boiling water for serving. The quality changes of the cakes by three different types of food ingredients were characterized in terms of cooking loss and firmness to provide food ingredient maps. White and brown-rice grains were soaked in distilled water and milled to produce rice flours that were steamed. The steamed rice powders were then subjected to single-screw extrusion to produce rice cakes. The structural matrix of the rice cakes seemed to be weakened by brown rice flour, thereby reducing the firmness of the cakes and increasing their cooking loss. When three different types of food ingredients (starches, hydrocolloids, emulsifiers) were incorporated into the formulations, the overall tendency was that the use of emulsifiers produced rice cakes with a soft texture as well as high cooking loss. Similar trends were observed in most of the starches except gelatinized and high-amylose rice flours. Xanthan gum, gelatin, and HPMC positively contributed to the qualities of brown rice cakes by reducing the cooking loss of the brown rice cakes. As a result, the food ingredients tested were mapped in the plot of firmness and cooking loss of brown rice cakes and the ingredient maps were utilized to search for the optimal combinations of brown rice cakes. In this study, brown rice flour was utilized as a gluten-free ingredient to produce rice cakes and the quality RESULTS &amp; DISCUSSION ► A great deal of efforts is needed to develop extruded brown rice cakes without quality loss. ► Specifically, the scientific information on the processing performance of brown rice flour with a variety of other ingredients (starches, hydrocolloids, emulsifiers) is very limited. Before cooking After cooking attributes of the brown rice cakes were inter-correlated depending on ingredients in order to provide ingredient mapping. Thus, this ingredient maps can encourage the food industry to extend the application of brown rice to various food products, possibly helping consumers make a transition towards healthful diets.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[0.051316075, -0.048978537, 0.058112033, 0.004444006, 0.106521726, -0.010104514, 0.015483333, -0.009242813, 0.04394533, 0.04415754, -0.037949633, 0.018366868, -0.014919428, 0.0092151705, -0.010554885, 0.030157892, 0.0066783293, 0.05622925, 0.07266496, -0.01677058, -0.016793348, -0.02468513, -0.054070882, 0.06678731, 0.139499, -0.026077358, 0.015750958, -0.07521659, -0.009098284, -0.0038613826, 0.06188741, -0.009899638, -0.033495, -0.0019069074, 0.0235454, -0.007146685, 0.05492361, 0.037464254, -0.018778866, -0.020125322, -0.03164663, -0.004442186, 0.024638802, 0.040490463, -0.12763947, -0.009566302, 0.056059707, 0.03036873, -0.010430731, 0.032794036, 0.032438092, -0.024924802, 0.004758848, 0.041879833, 0.042986777, -0.035902403, -0.06871596, -0.01969094, -0.0016476332, -0.008706262, 0.00055116386, 0.01926466, -0.041091293, -0.0006594318, -0.041035555, -0.009952849, 0.022167996, 0.05165732, -0.032681864, -0.007638704, 0.013745795, 0.0042677848, -0.03314859, 0.05409955, -0.055587787, -0.06456068, -0.019097418, 0.005661902, -0.07535507, -0.036912512, -0.04206418, -0.06350088, 0.05329335, -0.07107982, 0.024862837, 0.022274466, 0.0011849736, 0.05614203, -0.028131172, -0.023174822, 0.028615633, 0.019721922, 0.08297112, 0.031363778, 0.0031932874, 0.025882615, 0.094967425, 0.13855357, 0.058368046, 0.06117005, 0.02055556, 0.061769404, -0.037602313, 0.0033333672, 0.0014781038, -0.020464275, 0.049958944, -0.0042231223, 0.005848357, -0.0045030885, 0.028152438, -0.0601895, -0.024516048, 0.03276057, 0.027342416, 0.042848032, 0.044595648, 0.05163716, 0.004209354, 0.10415146, 0.040263023, -0.023790615, 0.011822543, 0.017291244, 0.026935052, 0.0072647403, 0.023064403, 0.007835064, -0.0110313, -0.10746167, 0.031037804, 0.04279802, -0.06387371, 0.038544476, 0.040655423, 0.0036458625, -0.013714201, 0.02889443, 0.054062627, -0.018582385, 0.02021288, -0.052097883, 0.031728704, -0.058343817, -0.002187311, 0.027958356, -0.091733396, -0.061276797, -0.043530356, 0.079842746, -0.023075985, 0.028153026, 0.010033548, -0.041668985, 0.016488463, -0.04050645, -0.020607106, 0.027980417, -0.039274283, -0.060235884, 0.020732125, -0.008508103, -0.007659533, 0.049804162, 0.034711912, -0.054110292, 0.044166476, 0.0035992807, -0.01229159, 0.02668627, -0.0050222925, -0.00013666041, 0.022248989, 0.02809234, -0.035583578, -0.057736114, -0.043103524, -0.03356776, 0.043598257, -0.10349114, 0.05814136, -0.052196193, 0.01301828, -0.075085916, 0.026005402, 0.003267819, -0.02643976, -0.05160315, 0.04384848, -0.007536814, -0.054770622, 0.07897339, -0.0045146467, 0.016097318, 0.011766503, -0.0008190738, 0.04191698, 0.027101073, 0.009172542, 0.00020431518, 0.07596404, 0.04847259, 0.074990064, -0.035176557, 0.018426096, -0.017170653, -0.018571625, 0.042106807, 0.054098457, 0.029743463, -0.020180989, 0.040095717, -0.08035237, 0.01890533, 0.006358311, -0.012475786, -0.0110901985, -0.054498322, -0.019716615, -0.0118356915, 0.01902293, -0.06223702, 0.041797064, 0.07429258, -0.03099279, 0.015254434, 0.05013526, 0.035404917, -0.0060335933, -0.0154898055, 0.050613124, -0.061161693, -0.04346264, -0.042568773, 0.024758913, 0.051951334, -0.038353212, 0.0010487201, -0.04514398, 0.038668986, -0.02396489, 0.026431533, 0.020975083, 0.03667766, 0.009458964, -0.042648748, -0.006075783, 0.055370603, -0.04653679, 0.03235629, -0.029915482, 0.057653178, -0.023448877, -0.002649407, -0.025632456, 0.04809772, 0.055553105, 0.034964018, -0.026478559, -0.047148097, -0.042612445, -0.01937727, 0.050175305, -0.05590628, -0.02268899, -0.031121798, 0.025106093, -0.019332396, 0.02952609, -0.004362782, 0.019297913, -0.0887629, 0.063297965, 0.017644303, 0.0023632504, 0.02323412, 0.0457753, -0.061959304, -0.018352706, -0.070996314, 0.047893144, 0.020408696, -0.06889736, -0.023957968, 0.042302366, -0.03453459, -0.07402063, -0.053593528, 0.00704017, -0.031919695, -0.030656055, -0.01037275, 0.03830717, -0.020760037, -0.06271549, 0.032483328, -0.013547439, 0.07239042, 0.050358966, -0.014144424, 0.022798454, 0.072520226, 0.05029387, 0.03957283, -0.01734929, -0.06624837, 0.015685994, 0.017019657, 0.013944242, 0.041457213, 0.019842524, 0.02392744, 0.030399472, 0.060572274, -0.05461175, -0.008440694, 0.044969797, -0.029788768, -0.03096555, 0.015403413, 0.04475862, 0.056840997, -0.028979056, -0.012525074, -0.030196654, 0.006887324, -0.017280059, -0.07816474, -0.035677187, 0.05416215, -0.041628566, -0.001286779, 0.01703238, 0.026371418, -0.09652036, -0.0514579, -0.053594515, 0.007869357, -0.011892414, -0.014856724, -0.055692654, -0.0035056379, 0.0048735472, -0.0057248236, -0.056094274, 0.02934835, 0.071293905, -0.056773707, -0.012216655, -0.037682302, 0.008048222, 0.033584774, 0.017433666, -0.025277382, -0.097807914, -0.09800108, -0.022852182, -0.08035635, 0.08556485, -0.0046129636, 0.012872079, -0.017271807, -0.021621937, 0.004799929, 0.079296544, -0.03818129, -0.04366506, 0.002101841, -0.036977764, -0.0695996, 0.0119799385, 0.016964888, -0.006025227, -0.016302712, -0.01566054, -0.012893602, 0.011139864, 0.014654219, 0.05404388, -0.015104417, 0.037264414, 0.053606123, -0.015820058, -0.051319685, 0.012049334, 0.032701347, -0.051664364, 0.06956687, -0.047199458, -0.07210355, -0.041234754, 0.08569845, -0.008368763, 0.015806386, 0.05274811, 0.050923996, -0.01584865, -0.024495112, -0.010057015, 0.017992767, 0.068107024, -0.021972679, 5.498808e-05, -0.01969605, 0.02188436, 0.0017393465, -0.06172527, 0.008223505, 0.010484077, -0.003738663, 0.036779325, 0.0028988014, 0.017038623, 0.057954285, 0.005481609, 0.037830133, -0.042900953, 0.06214233, 0.01981722, -0.02586301, -0.020103943, -0.0065002944, -0.07111934, 0.024444988, -0.0049557425, -0.07951425, -0.024567802, -0.049365435, -0.03627122, -0.02022352, 0.023572352, -0.05706876, -0.03243032, -0.023819434, -0.04636703, 0.059926532, -0.027189055, 0.030570148, 0.04184934, 0.070994325, 0.03968524, -0.057560556, -0.015812716, 0.03088627, -0.0035865237, 0.051649664, 0.0430252, 0.025000518, 0.024631452, -0.004886028, 0.01559995, 0.05854122, 0.03873146, 0.053113524, 0.010005308, -0.071507804, -0.029257614, 0.007945551, -0.023873005, -0.01855554, 0.014178052, 0.0066851033, 0.08707231, 0.029415086, -0.04628035, -0.051675223, -0.056657374, 0.016329791, -0.057645652, 0.006224642, 0.011512273, 0.026820796, 0.020450989, -0.042189375, 0.011730131, -0.06273547, 0.03926326, 0.046940576, -0.040776435, 0.015101759, -0.030016292, -0.048332743, 0.054419577, 0.0013441601, -0.076150045, -0.00788849, 0.0029832376, 0.049849935, 0.0014067816, -0.0651041, -0.026741747, -0.02149319, -0.04172565, 0.006418264, 0.04272396, 0.016573215, -0.07728762, -0.041829303, 0.02664286, -0.02874683, -0.03661565, 0.017545331, -0.012419306, 0.013512629, 0.08357906, -0.021050947, 0.021702135, -0.02540247, -0.11378108, -0.015130417, -0.01728357, -0.042525772]</t>
+          <t>[-0.039113913, 0.030482242, 0.07830408, 0.0008506321, 0.10465548, 0.038226806, -0.018481197, -0.049926836, 0.042352486, 0.047164794, -0.070516296, 0.0011409906, -0.019244751, 0.085400246, -0.026545066, 0.054641813, -0.0674902, 0.006489278, 0.023480045, 0.04859585, 0.018745184, -0.04218884, -0.07107192, 0.049834576, 0.06505198, 0.008025595, 0.0033285283, -0.08542495, 0.061020583, 0.0061904034, 0.021076173, -0.061331555, 0.07556216, -0.043779183, -0.06147946, -0.003921306, 0.120290294, 0.01707006, 0.04161656, 0.0028473812, -0.057655532, 0.035467543, -0.011794981, 0.02184635, 0.0036361967, 0.025749933, -0.030564694, -0.027161874, -0.032212898, 0.00059953326, -0.02258078, -0.00537407, 0.04392131, 0.019191775, 0.0327092, -0.047840815, -0.06986416, -0.010059446, 0.017923955, 0.028151268, -0.005247233, -0.07444084, -0.0328841, 0.027560892, -0.028517079, -0.0034782223, 0.054864217, -0.035847675, 0.022849282, 0.066650115, 0.018537555, 0.049079616, 0.0059744515, -0.0029838097, -0.03454435, -0.15600924, 0.031564057, 0.015576279, -0.052556198, -0.030092027, 0.015060882, -0.06046118, 0.018922066, -0.013107381, -0.030343996, 0.026007624, -0.08254681, 0.018979236, -0.002020272, 0.07275156, 0.018073238, 0.041980967, 0.08673374, 0.04135664, 0.05003545, 0.04360356, 0.08318757, 0.057625387, 0.04439119, 0.017036902, -0.007813501, -0.073058434, -0.042007115, 0.022998037, 0.03854938, -0.07681336, 0.03167398, -0.019286588, 0.026950805, 0.011807741, -0.005821638, -0.043454163, -0.039049212, -0.072180524, 0.03139106, 0.020078383, 0.082741186, 0.059178628, 0.01391314, 0.04790694, 0.022129023, 0.040100954, -0.00045687726, 0.060636275, 0.01965922, 0.016180806, -0.011440674, -0.026488824, -0.011693118, -0.04100477, 0.0023851732, 0.08093975, 0.00857521, 0.07364986, 0.011832403, 0.04216283, 0.018941212, 0.032049134, 0.008504775, 0.029648252, 0.017236348, -0.026189055, 0.036582403, -0.06385857, 0.014304014, 0.006550479, -0.06634544, -0.018326977, 0.036502752, 0.04321413, -0.008830917, 0.0013365692, 0.027095003, -0.0867142, 0.014981337, -0.038798552, 0.014405007, -0.030243048, -0.05888747, -0.021274716, -0.015701951, -0.05511082, -0.04466776, 0.014950127, -0.049962956, -0.08012815, 0.061057415, 0.04174755, -0.009239064, 0.07906993, -0.0037966776, 0.0197389, 0.04833062, 0.011603077, -0.0486376, -0.05021048, -0.0018718985, -0.04458144, 0.06653389, -0.027703768, -0.0043408875, -0.038582776, 0.0151771465, 0.010626183, 0.027173862, -0.07684462, 0.028285433, -0.0053370236, 0.018767742, 0.061417423, -0.13350242, 0.044824712, 0.036126696, 0.028961793, -0.008835054, -0.032420892, -0.016291158, -0.05481369, 0.048072074, 0.0399783, 0.05485733, 0.07372794, 0.061441343, -0.048419274, 0.09543632, 0.06340517, 0.041095987, -0.009397651, 0.020600867, 0.029311575, -0.021546997, 0.023102382, -0.060226656, -0.008321118, 0.036556654, 0.009041754, -0.0077205542, -0.038060103, 0.029054264, -0.011643386, 0.0375695, 0.033046667, -0.07636793, -0.0017805693, 0.0088426955, -0.0022444746, -0.0049384395, 0.0065635717, -0.026946114, -0.024565892, 0.022337642, -0.04075373, -0.097747274, -0.004168952, -0.0046674227, 0.01147439, -0.024084287, 0.024118103, 0.014926147, 0.066497885, -0.05685558, -0.009903846, -0.013272022, 0.0015106623, -0.011280627, 0.009364209, -0.028687954, -0.012887806, -0.026129708, 0.034386527, 0.0055230903, -0.0035848664, -0.01573903, -0.008528378, -0.05100546, 0.010289116, 0.0020169932, -0.090879805, -0.075632565, -0.0417847, 0.0033184292, -0.059837084, -0.0052165785, 0.013456867, -0.0455845, 0.025677232, 0.06983866, -0.015520743, -0.008110466, -0.009977805, 0.014667687, -0.03396779, 0.033314794, 0.046079636, -0.026525894, 0.012666172, 0.009157726, -0.11676871, 0.0018350771, -0.01609728, -0.009093304, 0.017308202, -0.019983374, -0.04395241, 0.030686967, -0.0047442643, -0.07040177, 0.03256674, -0.05424532, -0.08021834, -0.00022575143, 0.02420608, -0.024917131, -0.002299242, -0.06938279, 0.05538988, 0.0016634375, 0.05480053, -0.034920312, 0.02280323, 0.027951056, -0.020753179, 0.052543633, 0.044113178, -0.06140358, -0.016127447, -0.018601771, -0.033765804, 0.04748121, -0.07204443, -0.0057526333, -0.0045470237, -0.0075372313, 0.043700557, -0.03324449, -0.012536623, -0.046446063, 0.057675254, -0.05872529, -0.056060635, -0.018089853, 0.020069784, -0.02830221, 0.010140461, -0.06185461, 0.07783519, -0.006356674, -0.0531482, -0.006944793, 0.026468722, 0.02853546, -0.02596138, 0.059726242, -0.0013226147, -0.007067251, -0.03436666, 0.043356333, 0.008583415, 0.025486832, -0.017154235, -0.010147417, -0.05561562, 0.105528876, 0.04130208, -0.040255923, -0.025202168, 0.028341228, -0.0023090506, -0.038798455, 0.015227706, 0.0430525, 0.011580899, 0.036545053, -0.036923125, 0.042353123, -0.06535029, -0.027939485, -0.051123396, 0.055912875, -0.017925786, 0.01147497, -0.060393468, -0.029804353, -0.059156433, -0.04110149, 0.047464218, -0.0642996, -0.030196644, -0.0034070627, 0.014349893, 0.045365892, 0.013523904, -0.046160523, 0.026406903, -0.016000753, 0.019613447, -0.023696352, 0.06660104, 0.09026188, -0.041298915, 0.009836475, -0.029424932, -0.0014204029, -0.016409058, -0.07502012, 0.0083567, -0.09206242, 0.045710444, -0.037996076, -0.085300565, 0.05881215, 0.11194092, -0.039177004, -0.026277637, -0.031489473, 0.036798522, -0.032852434, 0.030617459, -0.10552737, 0.026974294, 0.040445432, -0.0327206, -0.028836915, 0.021797368, -0.035069197, -0.04397425, -0.07358892, -0.0060670297, 0.0076134186, -0.10716605, -0.005309434, -0.011632179, 0.0014276281, 0.02357575, -0.0022454374, -0.030288015, -0.060664665, 0.005589209, 0.022770427, 0.008716726, -0.068041325, 0.011557269, -0.02994236, 0.046367463, -0.039005343, 0.03039228, 0.0061140903, -0.067819975, -0.017765198, 0.07042799, -0.01007773, -0.0032449185, -0.02155989, -0.05754403, -0.016197009, 0.014315136, 0.03157763, 0.039174575, 0.14232147, 0.024258241, -0.03342221, -0.08840499, -0.066079654, 0.014045406, 0.02483688, 0.026234277, 0.02330165, 0.038557455, 0.01095995, -0.049693186, 0.0068315836, -0.01907572, 0.0226985, 0.056651335, 0.052422367, -0.052362777, -0.03333433, -0.076217026, -0.0063443235, -0.0993462, 0.050570555, 0.012696526, 0.0957887, -0.04739442, -0.04770076, -0.047060974, -0.054890044, 0.022433968, 0.011012759, -0.042715322, 0.031664908, 0.11022429, -0.01856257, 0.025800709, -0.0058768075, -0.03041929, -0.020775216, -0.019272739, 0.045787014, -0.107047856, 0.028857993, -0.068787165, 0.013883676, 0.011074016, -0.0760115, 0.01431121, 0.011820706, 0.037804827, -0.047808256, 0.011688173, -0.046029806, 0.0071697095, -0.03093385, 0.031447493, 0.039500676, -0.00618914, -0.040271, 0.012914596, 0.01619205, 0.0007492824, 0.014066027, -0.012201678, -0.017503561, -0.022852648, 0.016966322, -0.00814619, 0.027642582, 0.011551214, -0.11421147, -0.029464176, -0.004649299, 0.049475238]</t>
         </is>
       </c>
     </row>
@@ -4220,33 +4252,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>백정수</t>
+          <t>임정택</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Effect of emulsifiers on the quality attributes of extruded brown rice noodles</t>
+          <t xml:space="preserve">Utilization and characterization of carnauba wax oleogel as a deep fat-frying medium to reduce saturated fat content in instant fried noodles
+</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>The applications of brown rice products have been still limited in the food industry mainly due to the undesirable processing properties of brown rice flour. In this study, brown rice flour was utilized to prepare twin-extruded noodles and the effects of four different emulsifiers (glycol monostearate, propylene glycol, sucrose palmitate, and sodium stearoyl lactylate) on their quality attributes were investigated. The pasting property measurements showed that brown rice flour with the emulsifiers showed the lower value of peak and break down viscosities while the setback viscosity increased except propylene glycol. When the emulsifiers were incorporated into the formulation of extruded brown rice noodles, their expansion ratio was lower than that of the control. When the rice noodles were cooked, brown rice noodles showed great cooking loss, compared to white rice noodles. However, the cooking loss of the brown rice noodles had a tendency to decrease with the emulsifiers. Also, the use of the emulsifiers produced noodles with higher Rmax and lower E values. Thus, this study suggested that the emulsifiers can be used as a quality improver in a brown rice noodle system.</t>
+          <t>The consumption of instant noodles has been worldwide increasing due to various advantages such as cooking convenience and diverse flavors. Palm oil is mostly used as a frying medium in the instant fried noodle industry. However, a high level of saturated fat in the palm oil may cause health-related concerns such as cardiovascular diseases. There is therefore an urgent need to develop an alternative frying medium for reducing the content of saturated fatty acid. In this study, oleogelation technology was introduced to develop solid-like oleogels that were evaluated as a deep fat frying medium. The fundamental rheological and thermal characteristics of soybean oil-carnauba wax oleogels were investigated. In addition, the quality attributes of instant noodles fried in the oleogels were characterized and also compared with those in palm and soybean oils. The oleogels with carnauba wax exhibited solid-like properties at ambient temperature, compared to palm oil. However, upon heating, the viscoelastic parameters of the oleogels and palm oil decreased, showing the crossover of G’ and G” at 75 and 35°C, respectively. The noodles fried in the carnauba wax oleogel absorbed a lower amount of oil compared to the palm and soybean oil-fried samples. However, there was no significant difference in the texture among the noodle samples. Lower peroxide values under the accelerated storage condition were observed in the following order: palm oil, oleogel, and soybean oil-fried noodles. The levels of saturated fatty acids in the instant fried noodles fried in oleogels were significantly reduced, compared to the palm oil noodles. Hence, this study showed the possibility of oleogels as a new deep fat frying medium in the food industries. The use of oleogels instead of high saturated fat presents possible opportunities to formulate healthier fried goods by improving their fatty acid profiles.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[-0.032674886, 0.024086319, 0.0765556, -0.0046034423, 0.07905245, 0.02349051, -0.03159217, -0.022854129, 0.028106544, 0.025862355, -0.08497967, -0.00047919466, 0.0066016074, 0.06396966, -0.044274956, 0.034590505, -0.043965798, 0.07063175, 0.037888207, 0.090948194, 0.010964361, 0.005257926, -0.053177923, 0.036752574, 0.1120518, 0.033355873, 0.05172878, -0.062938035, 0.04359006, 0.0087499, 0.04573188, -0.03973431, 0.07791453, -0.0034965973, -0.028326519, 0.018723413, 0.057630446, -0.011558313, 0.024407262, 0.005915781, -0.050061874, 0.01890273, -0.03754438, 0.046393216, -0.015890423, -0.023112535, 0.010584279, 0.0062535945, -0.039364528, 0.011519059, -0.04665045, -0.04191934, 0.015444013, 0.020750707, 0.015293958, -0.070651434, -0.0734451, -0.01748787, 0.0705988, 0.03422151, 0.013113757, -0.02106246, -0.059453297, 0.016103756, -0.05912019, 0.016079782, 0.057118353, -0.002499574, 0.035356775, 0.0184746, -0.03222493, -0.021288754, -0.022873389, 0.021083754, -0.06741183, -0.11622488, -0.013046685, 0.020025177, -0.03262828, -0.04545765, -0.013341441, -0.03641658, 0.02930941, -0.018398046, -0.06004127, 0.017569851, -0.050876476, -0.011055072, 0.011754408, 0.039860148, 0.017024325, -0.0065996856, 0.11409642, 0.080466025, 0.03837298, 0.06072117, 0.0834595, 0.061962724, 0.031229038, 0.0030671877, -0.0048670345, -0.05135813, -0.013574791, -0.014177926, 0.048690025, -0.060895335, 0.01980381, -0.0347845, 0.04896139, -0.019538937, 0.020848336, -0.040976122, -0.025884476, -0.035966452, 0.039138265, 0.004794048, 0.10431805, 0.08631209, 0.020775354, 0.055963777, 0.05810967, -0.024060458, -0.010721167, 0.059277356, 0.003637327, 0.012082957, -0.015539482, -0.021988735, -0.028695587, -0.054078765, 0.0013783254, 0.06498365, -0.010612511, -0.0039816704, -0.008174289, 0.023579197, 0.016652832, 0.03693594, -0.008750664, -0.008955245, 0.019563274, 0.0077638603, 0.072257385, -0.004811703, 0.008154199, 0.056438327, -0.055367205, 0.00973575, -0.0036140396, 0.01676826, -0.0073001254, 0.03454159, 0.004125905, -0.04519856, -0.012336325, -0.099301875, 0.021986434, -0.032225605, -0.033561405, -0.032272812, -0.018598549, 0.007930271, -0.00694781, -0.025511047, 0.022315636, -0.06871778, 0.061832935, 0.020711642, -0.0021811428, 0.10762969, -0.028835153, 0.015477662, 0.030403191, -0.010571222, -0.010621974, -0.05011524, -0.029736433, -0.07955148, 0.06127219, 0.006141999, -0.001596929, -0.02166147, -0.033765607, 0.048505254, 0.008121751, -0.036706604, 0.005713465, -0.055061694, 0.06956404, 0.044985253, -0.09491312, 0.020397894, 0.03906774, -0.018423604, 0.0048989886, -0.012918736, 0.055202458, -0.028844463, 0.090398684, 0.0058297818, 0.05752489, 0.08289717, 0.041380465, -0.023929143, 0.03087354, 0.013001934, 0.044070654, -0.034588013, -0.0053840065, 0.058001608, -0.027715227, -0.0014429166, -0.018966002, -0.02045593, 0.073055506, -0.011135985, -0.02070528, -0.060007226, 0.059731543, -0.020697905, 0.0019853315, 0.012506215, -0.09189848, 0.026742233, 0.051998712, -0.029416574, 0.011973005, 0.007976321, -0.038015384, -0.035847303, 0.018993126, -0.07782139, -0.047204882, -0.012772847, 0.01502438, 0.0012440358, -0.049647868, -0.014632678, 0.031973887, 0.06756424, -0.05228855, 0.015724793, -0.02024347, 0.04931634, -0.047098394, -0.014168497, -0.00771419, -0.012237435, -0.03712904, 0.005334533, 0.007428918, -0.0065198005, -0.034530453, -0.038470216, -0.08925395, 0.036905777, 0.02332961, -0.07298322, -0.11177248, -0.0078074015, 0.014116107, -0.07547401, -0.02027862, 0.020883244, -0.05417485, 0.024316382, 0.037495613, -0.044611115, 0.008462535, 0.040921453, 0.010070316, -0.02013103, 0.029403742, 0.032195695, -0.022531137, -0.008844224, 0.031206043, -0.07258648, 0.0073945154, -0.02285316, -0.042834014, 0.0025608055, 0.013784928, -0.050665848, 0.015529521, -0.020037444, -0.046119902, 0.010319926, 0.026352677, 0.005349309, -0.013177012, 0.01602615, 0.030748544, 0.0037597758, -0.056805763, 0.056327328, 0.010102709, 0.06803124, -0.013463998, 0.011546828, 0.006204676, -0.0061054337, 0.04202059, 0.035073314, -0.07062701, 0.030519852, -0.0051164385, 0.027810218, 0.061723374, -0.010921416, -0.038570616, 0.026685482, 0.0013894044, 0.06792889, -0.02433569, -0.021419263, 0.02103496, 0.038719956, -0.035717517, -0.010119369, -0.03567431, 0.011222896, -0.0014214858, 0.002373624, -0.020820841, 0.068060115, -0.0055254265, -0.024671031, -0.036183424, 0.016989734, -0.02105999, -0.020316267, 0.04695476, -0.019619873, 0.012873149, -0.015821107, 0.021194676, 0.03496297, 0.01048948, -0.00444995, -0.032322668, 0.031799216, 0.093520716, 0.011612419, -0.050487928, 0.06690772, 0.060410522, 0.030496636, 0.017042518, -0.035416856, 0.030690921, -0.0004239883, 0.027707685, -0.06114702, 0.008522116, -0.052146655, -0.04758344, -0.05496821, 0.06538691, 0.025068924, 0.021804059, -0.10023423, -0.03181648, -0.06868976, -0.001503295, 0.025831845, -0.047724552, -0.023315223, -0.054348584, -0.023199067, 0.011636615, -0.0037992585, -0.057869144, 0.036645304, -0.0023527818, -0.00041515657, -0.021171814, 0.058707282, 0.09449741, -0.039887715, -0.006778244, -0.013378337, 0.041574873, -0.017555736, -0.027918708, 0.015509346, -0.06909712, 0.06735862, -0.03785298, -0.056785714, 0.048891895, 0.11465016, -0.065501735, 0.037700523, -0.020041153, 0.06292202, -0.058786266, 0.05962877, -0.12783417, 0.013588261, 0.004269868, -0.049031407, -0.011817222, 0.052898083, -0.0013703156, -0.029615136, -0.033262715, -0.01878581, -0.009565501, -0.071624264, -0.012113253, 0.078132465, 0.014132551, 0.018351562, -0.0011568828, -0.0489026, -0.050341886, 0.011625602, 0.003795606, 0.0065048668, -0.04698564, 0.026668513, 0.008073824, 0.047440346, 0.007247903, 0.001367445, -0.0060931267, -0.043548044, 0.00078207935, 0.052732963, 0.016416261, -0.03992539, -0.034749504, -0.04304626, -0.041547947, 0.004816455, -0.015333012, 0.012618049, 0.08047821, 0.013524944, -0.041552957, -0.058190092, -0.015735514, -0.04021517, 0.023835609, 0.050027464, 0.008286877, 0.07812992, 0.007870535, -0.032175783, 0.014891415, -0.005488226, 0.0032626, 0.047952108, 0.043046866, -0.05860756, 0.012178887, -0.025451552, -0.035585884, -0.009316993, -0.0216309, -0.030798476, 0.08691373, -0.01152691, -0.023083067, -0.054973826, 0.012166795, -0.0097141005, -0.0067659514, -0.023824552, 0.054078404, 0.10828678, 0.0030332087, -0.027758898, -0.06922084, -0.022958647, 0.045155007, -0.028086258, 0.06039716, -0.09039282, -0.011828552, -0.02652203, 0.05068085, 0.073115475, -0.07157879, 0.038559802, 0.034807768, 0.052979328, -0.017444346, 0.054561898, -0.06421836, -0.026638811, -0.05420601, 0.016160132, 0.016482385, -0.0032175719, -0.04639289, -0.028456636, -0.033750415, 0.0070314333, 0.0029231543, 0.015336269, -0.0071800887, -0.016035145, 0.016093746, -0.009213118, 0.04052889, -0.029306658, -0.09167037, -0.04624231, 0.013982192, 0.03957979]</t>
+          <t>[-0.0026089891, 0.0445389, -0.02861117, 0.0071172644, 0.09045119, -0.0031773662, -0.03726213, -0.015232926, 0.043855175, 0.037450537, -0.032371964, -0.009761998, 0.07107962, 0.028557591, -0.026208857, 0.016316894, -0.020914305, 0.020645251, 0.03887381, 0.039165065, -0.041738074, -0.0015510203, -0.09816405, 0.046178665, 0.006125478, 0.0021268514, 0.043846417, -0.01981973, 0.022995887, 0.031399723, 0.046490658, 0.02882164, 0.0053865802, -0.052840788, -0.012559525, -0.03653569, 0.022296786, -0.016088204, 0.0028754752, 0.018618261, -0.021113772, 0.04668779, 0.039925646, 0.00049835624, 0.040163573, -0.0030191487, 0.022194812, 0.01867242, -0.0822251, 3.0345283e-05, -0.021811234, -0.027900063, 0.042441994, 0.0045770444, 0.045604944, -0.063904, -0.061758146, -0.004883345, -0.025412425, 0.0035222985, -0.021900984, -0.041139524, -0.01959817, 0.043959975, -0.024285484, 0.035181254, 0.025114438, 0.067578316, 0.065594584, 0.016918415, 0.00890697, 0.056757446, 0.06452284, -0.009923757, -0.0775773, -0.022299407, 0.012867202, -0.01013529, -0.042792633, -0.02625825, -0.005656449, -0.06746033, 0.03884842, -0.08663817, -0.020815944, 0.02344188, -0.05378611, 0.060243703, -0.015833117, -0.06598851, 0.022611856, -0.0038913977, 0.09491714, 0.005297525, 0.0387938, 0.016672764, 0.067325436, 0.04561097, 0.048334483, 0.01876858, 0.02243417, -0.011699444, -0.015585671, 0.009948811, 0.0046073524, -0.09705444, 0.06133157, 0.024200348, 0.046813227, 0.005877867, 0.036041595, -0.053920448, 0.0008535336, 0.0878358, 0.0005544293, 0.042971242, 0.017344438, 0.018697657, 0.0056988914, 0.028354323, -0.02767362, -0.025774403, -0.030954849, 0.018597199, 0.010902725, 0.017632762, 0.08816572, -0.014684034, 0.01701094, -0.026451701, -0.04105093, 0.032667212, -0.004749699, 0.046266932, -0.008465196, -0.0028416764, 0.049324524, 0.025525875, 0.023767734, 0.02806639, -0.012748648, -0.0013087117, -0.016328419, -0.013110831, -0.034427892, 0.009064555, -0.013241091, 0.01913798, 0.012113068, 0.025211757, -0.032845367, -0.010242007, -0.022652542, 0.0048037195, -0.0738188, -0.088960566, -0.0036099965, -0.013508821, -0.025438258, -0.027796252, -0.019715112, -0.043483872, -0.03901156, -0.0075193155, 0.0021782562, 0.034308862, 0.074320234, 0.0239563, 0.011287571, 0.028467452, -0.007867869, 0.0040155845, 0.032326978, 0.0062826276, -0.0658473, -0.038688395, -0.026739743, -0.031962164, 0.042734813, -0.022572784, -0.07944152, -0.043329943, -0.02422832, 0.04589864, -0.049490757, 0.008031554, -0.02164404, -0.036662623, 0.04689815, -0.019672316, -0.10428244, -0.042979263, 0.04064396, 0.04682897, -0.0073815016, -0.07969956, 0.019946953, 0.054807037, 0.09179849, 0.07138422, 0.030304562, 0.037167896, 0.07473989, -0.007490247, 0.040182196, 0.008980315, -0.0015384292, -0.035993584, 0.012840124, 0.057774838, -0.0074039376, 0.032614402, 0.034151178, 0.021769917, 0.035512015, -0.0011646453, -0.027267478, -0.02836102, 0.038296692, 0.051950973, 0.038644515, 0.050255023, -0.023815688, -0.028374027, -0.06761016, -0.007399409, 0.041267715, -0.044081718, -0.088284, 0.014557498, 0.016066698, -0.04152244, 0.031747863, -0.0045226207, 0.034323286, -0.036035612, -0.07765978, 0.062379476, 0.033967752, 0.06521372, -0.0488865, -0.0142227, -0.020321429, 0.09672646, -0.0062678168, -0.05196844, -0.012458488, -0.03539062, -0.012561737, -0.033439506, 0.0038051712, 0.037457146, -0.0008294888, -0.049895912, -0.010000753, -0.008605239, -0.007894821, 0.01715411, -0.019958343, 0.043236163, 0.053328138, -0.02958517, 0.063563734, 0.017701758, -0.058064982, -0.024997443, 0.047502186, 0.020699754, 0.032169946, 0.017089441, -0.010279398, -0.035847485, 0.06776926, 0.05767811, 0.00868627, 0.0049047316, 0.0014016144, -0.038323157, 0.035488416, -0.061876092, -0.025170384, -0.056871142, 0.019276863, 0.022805875, 0.043173525, -0.042135406, -0.029718705, -0.00043996502, 0.037067536, -0.04221063, -0.03276551, -0.03369434, 0.032013092, 0.027273364, -0.06616927, 0.0658223, -0.015971364, 0.016174095, 0.018410379, 0.012198744, -0.056704894, -0.0052178074, 0.04456972, 0.024968497, -0.037558842, 0.04112503, -0.029243499, -0.004493932, 0.07960614, -0.003908836, -0.068493746, -0.024928132, -0.009936714, 0.07947014, 0.013252829, 0.03897673, 0.076740414, -0.024648031, 0.0044827824, -0.06610434, -0.014342003, 0.05096383, -0.015203966, -0.012649142, -0.0052274973, 0.0471482, -0.03911063, 0.026417576, -0.019141827, 0.063369885, 0.019045686, 0.0132713, 0.009021363, 0.022906315, -0.021742005, -0.07302971, -0.015902705, 0.021918228, -0.029239535, 0.009948928, -0.011067473, 0.0155123, 0.07909641, -0.009085925, -0.01817269, -0.00038394096, 0.08656316, 0.110832736, 0.032354955, -0.011056013, -0.015651975, -0.010034066, 0.03451933, -0.045323066, 0.017309388, -0.03480453, -0.023022458, -0.031357422, -0.048133645, -0.04154313, 0.009919587, 0.024166647, -0.042977024, -0.0019214246, 0.02118759, 0.08011447, 0.02266015, 0.012071509, -0.001698993, -0.045386687, 0.00569106, -0.0030268186, 0.030229509, 0.026049888, -0.022617009, -0.033055637, -0.0062600086, 0.067374974, 0.08365081, 0.013524148, -0.0171202, -0.011738512, 0.01754129, -0.0073879524, -0.0739852, -0.034839675, -0.10565935, 0.03882238, 0.0045599416, -0.038603485, 0.04741328, 0.025954522, -0.006603402, 0.019058652, -0.027836265, 0.015548087, 0.01906652, 0.047577742, -0.007027371, 0.014055796, 0.028185036, -0.026028737, 0.0032793921, 0.05807658, -0.033419818, -0.01775622, -0.037417784, 0.0018360487, -0.052533466, -0.038397707, 0.061502475, 0.05762575, -0.02274868, 0.026401667, 0.028738316, 0.017184885, -0.0030444353, -0.041674577, 0.02315361, 0.012598796, -0.06794835, -0.035244267, 0.016217226, 0.00044097027, 0.021748984, -0.02171517, -0.011607317, -0.034785032, -0.024406472, -0.004542425, 0.014153252, -0.09013531, 0.04164211, -0.025902923, -0.04737682, 0.036189362, -0.046261404, -0.062452953, 0.00127714, 0.044522174, 0.034085657, -0.079457045, -0.00073471235, 0.046762627, -0.006617424, -0.0072090672, 0.03185809, 0.08731886, -0.02571759, 0.011064912, -0.041285757, -0.03333576, 0.009814986, 0.027509073, -0.037716348, -0.06365256, -0.046372216, 0.03438555, 0.03720827, -0.045687158, -0.015995156, 0.023259148, 0.07538882, 0.0013399052, -0.017992103, -0.013675074, -0.04019152, -0.018366251, 0.064688765, -0.062567785, 0.013697766, -0.013230866, -0.033163633, 0.0017364632, 0.002530348, -0.020394098, -0.07277184, 0.0035708551, -0.017535245, -0.044804055, -0.009757217, -0.004197502, 0.04196981, -0.020731715, 0.0023863243, -0.0017108272, 0.09391333, -0.003547126, -0.0881235, -0.015848154, -0.01569104, 0.04174712, -0.067316055, -0.03343909, 0.03549217, 0.03634155, 0.038428556, -0.018460099, -0.0026323977, -0.027070846, -0.009783952, 0.006059541, -0.035354014, 0.0387682, -0.017134815, -0.012129306, 0.04981449, -0.008525561, -0.09837286, 0.0047182483, 0.014462608, 0.07864769]</t>
         </is>
       </c>
     </row>
@@ -4255,33 +4288,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>IFT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>김현지</t>
+          <t>Cynthia Amoah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Effect of Whole-Grain Wheat Flour on the Physicochemical Properties and In-vitro Starch Digestibility of Instant Fried Noodles</t>
+          <t>Development of oleogel-incorporated cakes low in saturated fat: textural, tomographical, and rheological characterization</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>As current consumers are aware of the relationship between diet and health, the demand of whole-grain products with beneficial health effects has been rapidly growing. However, the poor processing performance of whole-grain flour discourages the food industry to develop a variety of food products. In this study, whole-grain flour was applied to instant fried noodles of which physiochemical properties and in-vitro starch digestibility were investigated. When white wheat flour was replaced with whole-grain wheat flour, the dough stability was reduced while the water absorption was increased. The use of whole-grain flour reduced the oil uptake of instant fried noodles. The content of released glucose after in-vitro digestion decreased with whole-grain flour which could be correlated to the rheological pattern of the digesta. Also, the instant fried noodles with whole-grain flour had a low value of predicted glycemic index. These results suggest that it will be worthwhile to extend the use of whole-grain flour to a wider variety of food products.</t>
+          <t>In recent times, oleogels have gained much popularity as a solid fat replacer to reduce the amount of saturated fatty acids in the food industry. There is however, still insufficient understanding of the processing performance of oleogels in a wider variety of foods, specifically baked goods in which the aeration derived from solid fats is important. This study therefore sought to address this problem by investigating the effect of oleogels as a shortening replacer in baked cakes. Specifically, the oleogels prepared with three different natural waxes (rice bran, candelilla and beeswax), were incorporated into the formulation of cakes and their physicochemical characteristics were evaluated in terms of textural,
+tomographical, and rheological properties. Sunflower oil was structured with rice bran, candelilla and beeswax to produce solid-like oleogels. The use of oleogels for shortening affected the rheological properties of the cake batters, revealing the lowest viscoelastic parameters for the rice bran wax. Thus, the batters of the oleogel cakes showed higher specific gravity as compared to the control batters. Beeswax oleogel cakes showed better cross-sectional appearance and higher specific volume than the candelilla and rice bran oleogel cakes. Also, the control and beeswax cakes exhibited similar firmness with candelilla cakes being the highest followed by rice bran cake. The oleogel cakes were lighter in both crumb and crust colour and showed lower total porosity percentage as compared to the control cakes. The results obtained in this study could give more insight into the processing attributes of oleogels in aerated baked products. Thus, they may encourage the food industry especially the bakery sector to develop new food products with natural wax-incorporated oleogels by providing their fundamental information.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[0.0009774741, -0.019724594, 0.04047379, 0.012933617, 0.09049027, 0.019573588, 0.0054423497, -0.027600627, 0.026679805, 0.029324602, -0.10084367, -0.050691318, -0.008446369, 0.07475245, -0.0068181143, 0.02646318, 0.030611567, 0.042501442, 0.041018117, 0.025648607, 0.019249184, 0.013125495, -0.096919455, 0.054127105, 0.09054584, -0.020079007, 0.005689732, -0.038319074, 0.05143859, 0.00019063987, 0.05113767, -0.009147534, 0.019481573, -0.026117222, 0.041755922, -0.039118417, 0.068654545, -0.014813921, 0.06475619, -0.0023662953, -0.09323341, 0.0020641724, -0.0123608755, -0.0050374614, 0.0020516384, -0.0062449398, -0.0077397726, 0.0009197283, -0.038978316, 0.004760155, -0.0029769093, 0.011085057, 0.027420025, 0.03364916, 0.06778119, -0.040629167, -0.035157584, -0.013506088, 0.017676886, -0.0012237598, -0.041960236, -0.04369422, -0.057270378, -0.027795762, -0.093397096, 0.028011207, -0.020789474, 0.012611996, -0.050530877, 0.005927178, -0.001375306, -0.08109926, 0.04485771, -0.028994894, -0.08204424, -0.09412948, -0.001236406, 0.015219173, -0.1047392, -0.06046671, 0.027047297, -0.038197383, 0.028353525, -0.019785292, -0.021716384, 0.049293213, -0.05856871, 0.097800806, 0.0075725825, 0.011584158, 0.06685761, 0.017209563, 0.109766915, 0.015642585, 0.037287574, 0.02006491, 0.009516058, 0.1053191, 0.040023305, 0.07310004, -0.015682932, 0.06668969, -0.087664306, 0.00039847285, -0.00021572644, -0.014903106, 0.016072325, -0.028542522, 0.02829658, 0.0033900132, -0.0047285925, -0.0489924, -0.017317522, 0.014145265, 0.0144137265, 0.06568405, 0.07536021, 0.07409314, 0.007570368, 0.058917843, 0.007893657, 0.031212958, -0.055100687, 0.05073704, 0.046367597, -0.020156104, 0.040584974, 0.019212095, -0.01106965, -0.02657716, 0.016740564, 0.05586181, -0.021472272, 0.069772616, 0.010887289, 0.056891326, 0.000110323075, 0.044184413, 0.0296636, -0.0050867083, -0.008197101, -0.06540591, 0.046629082, -0.028463164, -0.046634533, 0.024331499, -0.052255083, -0.021217117, -0.038018752, 0.029764585, 0.027863093, 0.019150581, 0.07925662, -0.06319786, -0.047022194, -0.06360304, -0.018375652, -0.010562718, -0.03773018, -0.029355828, -0.038325995, -0.02354438, -0.0067648003, 0.026673926, -0.000688629, -0.011986985, 0.060035218, 0.009016173, -0.028909437, -0.006240977, -0.0045974334, -0.0026012284, 0.064472005, 0.010446044, -0.023727115, -0.029674923, 0.011633704, -0.07028426, 0.048629563, -0.06394748, 0.002506672, -0.08878086, -0.016586967, -0.0285814, -0.016993964, -0.052818507, 0.04067167, -0.024855496, 0.03285628, 0.03506833, -0.0755788, 0.050866567, 0.041848492, 0.01635902, 0.021241728, -0.015418009, 0.00935174, -0.037233237, 0.07919744, 0.013946285, 0.06404762, 0.031308513, 0.039770834, -0.043276455, 0.07222815, 0.028567594, -0.0062514613, 0.056047305, 0.087307364, 0.041119304, -0.073414385, 0.031317305, -0.036285385, 0.028929437, 0.017188014, 0.0049199644, -0.011697358, -0.022403592, 0.0010088306, 0.0050509884, 0.049260937, 0.046491507, 0.010714441, 0.0061939773, -0.039259277, -0.034409378, 0.038176723, 0.0035797933, -0.054255065, -0.01718935, 0.040370896, -0.032882337, 0.015423418, -0.070260495, 0.0063070483, 0.042023107, -0.077048294, 0.05078867, 0.017452173, 0.05049019, -0.018836405, 0.0019031672, 0.025936808, 0.053624585, 0.025442882, -0.056365333, -0.056917828, 0.0074041663, -0.052621234, 0.015800644, -0.03715338, 0.038214497, -0.011388809, 0.0020229165, 0.016010135, 0.0026358753, 0.027897052, -0.046331704, -0.09740878, -0.043032933, 0.03027622, -0.06492532, 0.011908713, 0.010346685, 0.007880934, 0.018096032, 0.0019126325, -0.06466154, 0.001550587, -0.022900885, 0.015751865, 0.031466257, 0.081784934, 0.026762743, 0.017812587, 0.019820398, 0.0064073214, -0.11211583, -0.01756018, -0.05211735, -0.027967306, -0.028239451, 0.01834603, -0.07367781, 0.007534655, -0.030327568, -0.049101695, 0.0013874925, -0.036672097, -0.102159925, -0.020046327, -0.015681278, 0.074192606, 0.010655812, -0.059636988, 0.06285572, -0.040278975, 0.08319664, 0.0050540725, 0.0036821815, 0.028333396, 0.018063104, 0.02856811, 0.052891914, 0.0032250406, -0.048136234, -0.023499977, 0.017427547, 0.01815199, -0.0069363634, 0.0040886127, 0.025363006, 0.027605947, 0.048874866, -0.03556763, 0.034709442, -0.012196845, -0.04628446, -0.086595245, -0.0143864835, 0.012018954, 0.020180115, -0.038580373, -0.04086995, -0.029753724, 0.13093883, 0.019161088, -0.047557216, -0.037665658, 0.06682083, 0.0035803884, -0.0019702148, 0.003829808, 0.016259013, -0.002482024, -0.0915386, -0.0037191783, -0.05659269, 0.016108012, 0.0061268727, 0.012694476, -0.049761135, 0.017870635, 0.04741868, -0.047330495, -0.030499566, 0.08889019, 0.0383093, -0.033894233, -0.031570297, 0.03341692, -0.0018935978, 0.035265014, -0.04660482, -0.047556583, -0.037022494, -0.033194352, -0.079081394, 0.02391553, -0.013762104, 0.034375414, -0.027054666, 0.024001913, 0.019965837, 0.069006465, -0.01598879, -0.018484307, 0.017884236, -0.029677758, -0.004068162, 0.01913331, 0.021401482, -0.00081773737, 0.010405467, -0.0075887297, 0.023447629, 0.035143644, 0.033766724, 0.0743939, -0.0065818676, 0.02324636, -0.027631152, 0.017390138, -0.08742633, 0.00015894498, -0.0053969496, -0.07682577, 0.030639354, -0.047024086, -0.09529999, 0.04787966, 0.05681036, 0.007950993, -0.016263412, -0.053039733, 0.056548253, -0.011792637, -0.026970964, -0.03262902, 0.029422967, 0.06620992, -0.0086275, -0.026681121, -0.039842624, -0.016485497, 0.004411612, -0.002292652, -0.012853844, 0.02346531, -0.056347813, 0.047196567, 0.003666716, 0.06336053, 0.043740768, 0.09220584, 0.044065632, 0.014136879, -0.0018240768, -0.026536636, -0.031325206, -0.038176503, -0.0058732415, -0.050136566, 0.03629226, -0.020924387, -0.0006595558, 0.030743334, -0.07210256, -0.018444126, -0.012951791, -0.0065126563, -0.09882766, -0.023454268, -0.09863258, -0.032521285, 0.0032216494, 0.0067173787, -0.0003207256, 0.08019674, 0.016332567, -0.015868226, -0.054856576, -0.054471638, 0.04342791, -0.008554829, 0.030420614, 0.037276655, 0.048674077, -0.013259087, -0.06142613, -0.021508943, -0.012098756, -0.0048694373, 0.03456584, -0.0015686583, -0.063896805, -0.034140576, 0.018411351, 0.049690448, -0.056945954, -0.0064841504, -0.0011265337, 0.10585992, -0.012071926, 0.038465858, -0.034024604, -0.06278359, -0.05509785, 0.009805727, -0.048219543, 0.028229158, 0.008163037, 0.0074751345, -0.060376156, 0.032250788, -0.0016507603, -0.02411048, 0.012195916, 0.04792474, -0.022045905, 0.0054768436, -0.046487533, 0.04013843, 0.05730872, -0.045350153, 0.014349545, 0.012145593, 0.0074948897, -0.009449208, -0.02661439, -0.0104078995, -0.011893056, -0.06694005, -0.005646547, 0.035533328, 0.05818453, 0.02966732, -0.038578413, 0.02401677, -0.011653205, -0.01888553, 0.014595368, -0.0053778845, -0.051826194, 0.026323989, -0.002911966, 0.02230732, 0.0042811297, -0.053527363, 0.0036505747, 0.022763241, -0.032548]</t>
+          <t>[-0.02663811, 0.014774024, 0.012451708, -0.0044314116, 0.103182524, -0.019808833, 0.0053286897, -0.13324393, 0.07266809, 0.035410337, -0.040961523, -0.067130946, 0.066430874, 0.029626517, -0.04357032, 0.017024206, -0.029370781, 0.04695845, 0.079891786, 0.03451856, -0.050537825, -0.008800462, -0.076211415, 0.053550005, 0.06297699, -0.060091954, -0.00963876, 0.0028825284, -0.0036738303, -0.025625417, 0.011472373, -0.055412605, -0.021669328, -0.03333629, 0.025835069, -0.025627479, 0.074141726, -0.003877429, -0.044323303, -0.0033894838, -0.06006821, 0.01880831, 0.10404952, -0.010645416, 0.04279486, -0.037143864, 0.035331655, 0.05062051, -0.029993393, -0.013530015, -0.000642185, 0.002544079, 0.033180736, 0.00041219452, 0.029362781, -0.04730376, -0.10179263, -0.05290268, 0.01804841, -0.0018260527, 0.0138035705, -0.027546488, -0.02827, 0.013342183, -0.012427581, -0.07704379, -0.021557834, 0.03355037, 0.0857235, 0.018211028, -0.021814905, -0.0023141138, 0.026089221, 0.016302245, -0.07843325, -0.02123668, -0.014692807, -0.029673995, -0.017403137, -0.03665707, -0.057165593, -0.06323852, 0.06665054, -0.02398577, -0.051496252, 0.023278777, -0.03975342, -0.010791362, -0.037915893, 0.052527368, 0.03932748, 0.018087322, 0.07138407, 0.01753962, 0.05644394, 0.032074872, 0.056416728, 0.06810247, 0.040675752, 0.011936337, -0.014733951, 0.06433337, -0.03222077, 0.034778666, -0.011085549, -0.04607971, 0.028657945, 0.009500263, 0.035857536, 0.030673686, -0.003042786, -0.06841111, -0.036225393, 0.11461751, 0.040262915, 0.059677333, 0.062805325, 0.004519373, 0.030783528, -0.049462926, 0.06893393, -0.03835205, 0.04871892, 0.019829027, -0.0039017366, 0.018331854, 0.065037094, 0.020777911, 0.0051509524, -0.019829158, -0.044092167, -0.018309053, -0.03533204, 0.008796081, 0.023750609, 0.037637956, 0.04926515, 0.06944299, 0.05988465, 0.025633872, 0.000856847, -0.017045472, 0.003054566, -0.04468699, 0.017625637, 0.029845947, -0.05575798, -0.0011107298, -0.034393676, 0.06377892, 0.0017938727, -0.035910226, -0.05477033, -0.029702071, -0.019032404, -0.07449218, 0.033056382, -0.0080557065, -0.05347473, 0.001404967, -0.026650423, -0.025283435, -0.0102256015, 0.02323396, 0.01826515, 0.08448004, 0.060950473, 0.0064745527, 0.003832441, 0.04108362, -0.015271749, -0.012653624, 0.021887137, 0.03468375, -0.078170806, -0.062331557, -0.020315023, -0.025009206, 0.05941553, -0.03437365, -0.006670641, 0.003007926, 0.008253767, 0.0149144605, 0.013703023, -0.014104806, -0.007635461, -0.015566698, -0.02927461, 0.0033710625, -0.061007887, 0.024901, 0.053821217, 0.017057624, -0.027949726, 0.026132673, 0.06299303, 0.014923479, 0.010869042, 0.018105853, 0.0363408, 0.04341064, 0.056678224, 0.010755459, 0.06729494, -0.00971815, -0.0567282, 0.009749918, 0.02388054, 0.03386971, -0.021894002, 0.01119387, 0.015535176, 0.01618044, 0.022732498, 0.0067517245, 0.0038249963, 0.001122715, 0.029868323, 0.0005392179, 0.027926316, 0.06187084, -0.04777008, 0.0015472731, -0.045164775, 0.008135157, 0.034201752, 0.03955271, -0.034005307, 0.010955595, 0.044111736, -0.015743917, -0.008165428, -0.005963989, 0.055174533, 0.0024134535, -0.007270681, 0.020469004, 0.0011061565, 0.07407955, 0.009233171, -0.016694965, 0.006622096, -0.0030667314, -0.024260854, 0.0050243386, 0.018512584, -0.002290597, -0.0018250314, -0.008661803, -0.034678873, 0.07930524, 0.055754516, 0.0071386723, 0.076280005, -0.022195756, 0.0565804, 0.015059915, 0.011711731, -0.02005056, 0.019139271, 0.014734925, 0.03111241, -0.0017280082, -0.020258743, -0.09218382, -0.0072180484, -0.0011847295, 0.061077487, 0.012157265, -0.006178482, 0.025973093, 0.08550009, 0.037365705, -0.04016396, 0.014869577, 0.028913155, -0.025935179, 0.0029482131, -0.09548432, -0.04067226, 0.006404377, 0.010418799, -0.0020959566, 0.055703044, -0.037396196, -0.074994765, -0.003146596, 0.005261033, -0.07023734, 0.024865238, -0.0047675455, 0.023510294, -0.0032399616, -0.06092509, 0.061969217, -0.0026000736, 0.03143494, 0.002823433, 0.027737105, -0.055927176, 0.021785216, 0.077058285, 0.019361936, -0.009630214, 0.0038024262, 0.027719999, -0.0023306136, 0.043956976, 0.00094483787, -0.009998621, -0.021889852, -0.0030473196, 0.06386166, 0.008430272, 0.02056796, 0.016907206, 0.016088456, -0.02211561, -0.015449608, 0.016078597, -0.026877744, -0.002692763, -0.04685595, -0.03475582, 0.035208743, -0.059309006, 0.048305172, -0.013110218, 0.034819618, -0.02740574, 0.020477135, 0.037665743, -0.0077962275, 0.030489832, -0.009654727, 0.018379422, 0.048173703, -0.025571818, -0.0033133787, -0.05703532, 0.011195694, 0.03419296, -0.009104032, -0.0178189, -0.015154273, 0.08692136, 0.11955315, -0.0009907911, -0.063995905, -0.037238743, -0.024387479, 0.00068538345, 0.036956877, -0.025031548, 0.0042500133, 0.031423897, 0.007977947, 0.03252101, -0.022080585, -0.009241878, 0.092875816, -0.059180144, 0.09517948, 0.026385548, 0.034839816, -0.018490322, -0.02819899, -0.013602635, 0.012522259, 0.006815178, 0.010711692, -0.0002006786, 0.00028978067, 0.01721414, -0.06836709, -0.03749348, 0.015049007, 0.061577234, 0.020200986, -0.016989259, 0.01932584, 0.016240666, -0.052212816, -0.040908027, -0.019548291, -0.1219547, 0.04959901, 0.027627049, -0.07879714, 0.009775884, 0.037421048, 0.047684744, 0.013511635, 0.0050302283, 0.04505198, 0.0015789656, -0.0018719258, -0.020778706, -0.051490664, 0.027972646, -0.014184756, 0.018554373, 0.025323095, -0.044384662, 0.0023710623, 0.031864148, -0.021451358, 0.022835942, -0.034667727, 0.057868797, 0.0009326818, -0.0034756814, 0.041439757, 0.03476785, -0.034664765, -0.04388342, -0.09701127, -0.017367877, 0.025019737, -0.053867042, -0.012246494, 0.01923735, 0.086185694, 0.066658795, 0.028691702, 0.0026926869, -0.060918268, 0.037842095, -0.006990967, 0.04748599, -0.034165595, 0.019832632, 0.026591774, -0.04237465, -0.032609105, -0.0037796071, 0.006017794, 0.059689112, 0.02188463, 0.053231765, -0.052522123, -0.031175312, 0.005584685, 0.016006503, 0.0077440017, 0.0031302562, 0.019167656, 0.026419751, -0.028317144, -0.022735678, 0.031044211, 0.02696166, -0.014671552, -0.025481781, -0.054934204, -0.1144205, -0.013096083, -0.003236907, -0.101691544, 0.023121472, -0.015699008, 0.056425076, 0.039446935, 0.027272036, -0.0358756, -0.018029792, -0.0051153195, -0.00040720552, -0.06579117, -0.053164814, 0.035381697, 0.015893472, 0.02341806, 0.01304237, -0.045500558, -0.08473603, -0.037098702, -0.0078899935, -0.023878472, -0.013084406, -0.01148964, 0.019601552, -0.005780069, -0.07601307, 0.002608638, 0.05802672, 0.0365548, -0.1022029, -0.059471436, -0.03038876, 0.054958716, -0.018740658, -0.041763227, 0.007580023, 0.059691217, 0.006335119, -0.03516782, 0.04374956, -0.0061293705, -0.0015374103, 0.001788795, -0.011674367, -0.06818003, 0.030443268, -0.062960856, 0.031058833, -0.0015475127, -0.07993276, -0.040448107, -0.011246782, 0.055256948]</t>
         </is>
       </c>
     </row>
@@ -4290,33 +4324,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>KOSFOST</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>장아름</t>
+          <t>Cynthia Amoah</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Correlation of thermal conductivity of instant noodles with their cooking time</t>
+          <t>Physicochemical assessment of wax-based oleogels as shortening replacer in cake</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>The noodle-related market has become the world’s second largest, next only to bread. With this trend, a great deal of effort has been made to develop various types of instant noodles due to their cooking and handling convenience. However, there is a lack of systematic research to improve the quality attributes of the instant noodles. In this study, the thermal conductivity of instant noodles was analyzed and then correlated to their cooking time. Wheat-based noodles were used as a model system and a transient plane source method was applied to measure their thermal conductivity as a function of cooking times. As a result, the thermal conductivity of the noodles had a tendency to increase with increasing cooking time but reached a plateau after 6 minutes. Specially, this relationship was well-fitted into a quadratic equation (y=-0.0021x2+0.0299x+0.3545). In this study, a transient plane source method was applied to a noodle system for measuring their thermal conductivity which showed a quadratic relationship to cooking time. Thus, this experimental technique can be utilized as a feasible tool to study the water rehydration property of noodles during cooking.</t>
+          <t>Oleogels have gained much attention as solid fat replacers and are also known for their role in the reduction of saturated fatty acid contents in the food industry. There is still insufficient understanding of the processing performance of
+oleogels in aerated baked goods. The purpose of this study was to investigate the effects of oleogels with different wax type (rice bran, candelilla, and beeswax) as a shortening replacer in cakes. Oleogels structured with sunflower oil and different waxes were incorporated into the cakes formulation and their physicochemical properties were evaluated. The viscoelastic parameter and steady shear viscosity of oleogel cake batter were lower than those of the control. The specific volumes of control and beeswax cakes were similar, followed by candelilla and rice bran. Also beeswax cakes exhibited no significant difference in firmness with control, while the candelilla and rice bran became gummy and chewy in texture. In tomographical results, the homogenous distribution of air cell and the highest porosity were observed in beeswax and control. Therefore, beeswax oleogels have potential as a shortening replacer without altering their quality.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[0.0077861063, -0.041609123, -0.009098104, -0.010206973, 0.08171113, -0.019789716, -0.0031150347, -0.0075846324, 0.055107683, 0.017097278, -0.060223784, -0.0046063205, 0.01949724, 0.033779047, -0.025405666, 0.024141427, 0.0074474746, 0.0039385725, 0.028938496, -0.06858597, -0.06632256, 0.0017681197, -0.03632927, 0.042781368, 0.08993274, -0.0042538275, 0.06891408, 0.019184135, 0.027074274, -0.0018319932, 0.059270043, -0.005152622, -0.013319396, -0.032451596, -0.0038340301, -0.03858508, 0.053733867, -0.020122308, -0.0043637976, -0.026958734, -0.05374174, -0.013057667, -0.029528676, 0.029106604, -0.022202265, -0.019143615, -0.0477582, -0.009309722, -0.06985089, 0.0120744575, 0.034916915, -0.0321088, 0.037897006, 0.0028452661, 0.024188802, -0.021535913, -0.06833567, 0.017381817, 0.013465456, 0.046455663, -0.033936843, -0.0014271068, -0.018234404, 0.029724482, 0.00210229, 0.051794447, 0.0580624, 0.029541219, -0.0036501198, 0.06893391, 0.013372331, -0.012129905, 0.028826665, 0.006758728, -0.013110864, -0.025148017, -0.013153044, 0.017558591, -0.061157092, -0.045070264, 0.015391682, -0.062945515, 0.01940395, -0.09730043, -0.038115427, 0.026838863, -0.0016370704, 0.0095947785, -0.04327413, -0.091202304, 0.008215429, 0.004468847, 0.070119224, -0.014417279, 0.048096042, -0.008844592, 0.08647044, 0.07296367, 0.04285086, 0.016301865, 0.021943195, 0.028491568, 0.012619966, -0.019558933, 0.0087117, -0.041796334, 0.05214117, -0.006965449, 0.012094765, -0.013616735, 0.03042071, -0.03310576, -0.022371788, -0.022744078, 0.029112048, -0.016503088, 0.02405805, 0.016363861, 0.022353787, 0.07460881, -0.017291544, 0.03576554, -0.021359054, 0.04650176, 0.0082567865, 0.029356433, 0.039798662, 0.02316627, -0.0029399823, -0.0152274165, 0.023250602, -0.01571952, -0.058299016, 0.10659337, 7.8703626e-05, 0.010836918, 0.04151922, 0.01495133, 0.03489781, -0.011814536, 0.014615564, 0.037925534, 0.034324072, 0.027727019, -0.036288437, 0.003045276, -0.060849305, -0.030260928, -0.0047307895, 0.04148171, 0.005927352, 0.060187247, 0.04684187, -0.03060468, -0.025832124, -0.023648242, -0.023542304, 0.019907745, -0.00952659, -0.048184812, 0.0137110455, -0.019828796, -0.0317292, 0.02702916, 0.01523333, 0.022248348, 0.05483722, 0.043340527, -0.053591438, 0.025048064, 0.0074734087, -0.034698647, 0.044468626, 0.039150238, -0.034658846, -0.027358154, -0.01729037, 0.0196005, 0.06320835, -0.021282552, -0.013581565, -0.061064962, 0.0013995906, 0.003629699, 0.02075381, 0.004302763, -0.04746507, -0.03326316, 0.07945486, 0.058223404, -0.034176074, -0.041348293, 0.02027826, 0.043697074, -0.012560465, -0.033353616, 0.014012643, 0.07379938, 0.12716034, 0.06958405, 0.117497854, 0.03810295, 0.038864814, -0.018233573, 0.05537576, 0.027025921, -0.009574872, -0.017916696, -0.0041338047, 0.04721245, -0.00015829201, 0.015637461, -0.048927765, 0.038753077, 0.053418238, 0.01604576, -0.043096244, -0.06401551, 0.04244095, 0.002409136, 0.034711905, -0.013904763, 0.025554186, 0.022643259, -0.036631368, 0.011688187, 0.06727082, 0.006244244, -0.09017412, -0.0106297545, 0.020051172, -0.029918391, 0.05908634, -0.05095643, 0.019562885, 0.044253234, -0.025110958, -0.02104368, 0.013549958, 0.033808686, -0.016626777, 0.018628873, -0.0014357858, 0.10521774, -0.017538888, -0.1262515, 0.020670282, 0.015192275, -0.05956774, 0.0059543643, -0.009051953, 0.012580522, -0.059468035, -0.07441492, -0.030143091, 0.055670336, 0.04826918, -0.05111238, -0.0665238, 0.061206, 0.022665236, -0.10723577, 0.043862287, -0.01499891, 0.0021514434, -0.01508727, 0.070644684, 0.0136654, 0.0018377679, -0.0010136586, 0.005300906, -0.042997047, 0.0068276743, 0.057303842, 0.042925343, -0.0029127118, -0.03317559, -0.07109262, 0.01941068, -0.024850773, -0.029194508, -0.004914703, 0.029577104, -0.06380817, -0.006992115, -0.03939748, -0.033848234, -0.023270862, -0.07775049, -0.027094057, -0.028262252, 0.0020487674, 0.081846006, 0.034676705, -0.050919596, 0.071791574, -0.0068488074, 0.061400652, 0.046480857, 0.020255562, -0.009948134, 0.035247263, -0.004325642, 0.040637102, -0.03191816, -0.031493105, -0.020777594, -0.0062242006, 0.061502054, 0.045289665, -0.014954411, 0.012324259, -0.05167309, 0.048071437, -0.017090112, 0.055226494, 0.008222376, -0.05508049, 0.0022488656, -0.06322937, 0.037422795, 0.07606835, -0.011401963, 0.040909182, -0.011243808, 0.080933586, -0.011389468, 0.04328442, -0.034060698, 0.05830627, 0.00959516, -0.009558708, 0.00042110585, 0.0115023535, -0.052462388, -0.08348291, -0.043822654, -0.014325656, 0.00029719342, 0.002166961, -0.0050004264, -0.03160387, -0.026127787, 0.009199576, -0.079962656, 0.013174497, 0.09221126, 0.019233976, -0.0053594536, 0.017501809, -0.0359516, 0.007561077, -0.0010014576, -0.049149144, -0.0701503, -0.04962956, -0.01371088, -0.055621278, 0.01604604, -0.018492186, -0.006541527, -0.07536233, 0.0074837017, -0.039210394, 0.01835274, 0.02310992, 0.03335385, -0.020685565, 0.025844835, -0.04422238, -0.015122531, 0.031764053, 0.022443192, 0.036928404, 0.004369158, -0.0007591283, 0.011737032, 0.06456521, 0.06768319, -0.046685603, -0.060747437, 0.04286557, -0.013087834, -0.028342644, 0.0009265764, -0.04661484, -0.06329715, 0.091429785, -0.056373663, 0.014692355, 0.011121608, 0.08474283, -0.060501546, 0.060224, 0.0059768376, 0.013454307, 0.032389414, 0.06791454, 0.0014769774, 0.012172133, 0.018380914, -0.05680517, 0.002599755, -0.0071216417, -0.029703058, 0.026119709, -0.053707175, -0.0047652107, -0.07430933, -0.000793597, 0.06547022, 0.013171253, 0.005135399, 0.006238968, -0.025341835, 0.02731769, 7.941981e-05, 0.011916474, 0.050972804, 0.0044364636, -0.022949908, -0.04392228, -0.04313477, 0.008081358, -0.038209487, -0.0504932, -0.03931333, -0.044035897, -0.046513487, 0.008591019, -0.0019717694, -0.055471186, 0.011588734, -0.06523563, -0.02295315, 0.04533225, 0.0102608595, -0.014194731, 0.073106304, 0.07946357, 0.06765348, -0.09869247, -0.049245145, 0.049131293, -0.003320919, 0.047063213, 0.042280585, 0.11496244, 0.034574594, -0.039251428, 0.0010924258, 0.0045708506, -0.0070663975, 0.07676983, -0.017326783, -0.05359302, -0.0143831, 0.07354761, 0.0031596045, -0.058806427, 0.014500084, 0.0053271335, 0.10360651, -0.02120742, -0.037985913, -0.024647512, -0.02805247, -0.013909915, -0.0013030852, -0.026741244, 0.060939033, 0.02120179, -0.020881688, -0.04610911, 0.0061769597, 0.015088262, 0.050790794, 0.012808135, 0.032800514, -0.007641032, -0.034715742, -0.025334915, 0.048650794, 0.0010034292, -0.024197593, 0.017704088, 0.10448446, 0.02831766, -0.023065329, -0.027596932, -0.042236768, 0.0014092168, -0.05397134, 0.026751278, -0.013615739, 0.04079643, 0.0072163497, -0.030973174, -0.0057007344, -0.029140437, -0.032588385, -0.007647754, -0.055652946, 0.021472607, 0.031960428, 0.0114276875, 0.034261104, -0.019403875, -0.16815048, 0.0046015186, 0.037755385, 0.04369203]</t>
+          <t>[-0.0229009, 0.05182446, 0.030096838, -0.002284893, 0.07663304, -0.0028629368, -0.0147444, -0.14805484, 0.03200997, 0.06999491, -0.062652044, -0.09724071, 0.04514271, 0.02565854, -0.04029665, 0.020918515, -0.05484409, 0.04124653, 0.06501728, 0.035683576, -0.056418754, -0.021045676, -0.09817228, 0.06408617, 0.051327694, -0.045023534, -0.015723322, 0.043519147, -0.029059008, -0.020376911, 0.011520516, -0.022361388, -0.02639561, -0.015470541, -0.0028685404, -0.019955955, 0.04401223, -0.028342348, -0.03580822, 0.02480527, -0.08560164, 0.005767829, 0.0744871, -0.038504, 0.052159943, -0.042459708, 0.023810185, 0.08860631, -0.017754098, -0.012594757, -0.014791276, -0.02067437, 0.055120006, -0.0024979098, 0.009722125, -0.03147958, -0.087794185, -0.073202975, 0.005523367, 0.029530209, -0.017972238, -0.025565505, -0.03945452, 0.011512268, -0.031149842, -0.04962384, -0.009056841, 0.054137077, 0.0921595, -0.008085704, -0.029459417, -0.02149793, 0.00041685437, 0.017804591, -0.074219905, -0.029089998, -0.014046042, -0.05036328, -0.016022652, -0.036580566, -0.0541484, -0.052631423, 0.057332434, 0.004486057, -0.051119406, 0.05683028, -0.022594182, 0.0019823264, -0.013472877, 0.06667283, 0.019647583, 0.03986619, 0.101217836, -0.00021405541, 0.050622396, 0.037482582, 0.06788892, 0.030257497, 0.04211609, 0.03428566, 0.0029488744, 0.09234233, -0.034990795, -0.0074287253, 0.024047835, -0.021120286, 0.008638796, -0.0012349583, 0.059353534, 0.04371705, 0.005791204, -0.04089995, -0.03391122, 0.08225173, 0.02360329, 0.05527497, 0.032577615, 0.037406605, 0.0181951, -0.037414577, 0.07921229, -0.032717593, 0.052043978, 0.025451716, 0.011318777, 0.011570999, 0.060781695, 0.058767263, -0.0007114712, -0.061829157, -0.048549674, 0.019146308, -0.066247284, -0.008177319, 0.02455942, 0.04793201, 0.022065485, 0.06534974, 0.071670935, 0.03832581, -0.015849156, -0.008447097, 0.024000157, -0.039454743, 0.015860349, 0.021853363, -0.038722683, -0.0050771893, -0.06442379, 0.055259697, 0.041836422, 0.038634002, -0.06179485, -0.04721271, -0.001383828, -0.06376837, 0.014923385, -0.043662988, -0.053974677, 0.0029029588, -0.015814196, -0.0067154705, 0.019508509, 0.012361189, -0.0024162084, 0.09085751, 0.051866066, 0.005148772, 0.013523931, 0.058829278, -0.024091117, -0.011611672, 0.014062575, 0.038978893, -0.09661393, -0.05754332, -0.028875966, -0.032112032, 0.046936493, -0.0034579588, 0.0055831713, -0.018288387, 0.041098226, 0.019687979, 0.009078262, -0.0088682715, 0.0049559665, -0.012364907, -0.01592775, 0.0024098246, -0.09465411, 0.042382896, 0.05590661, 0.016578596, -0.009974776, 0.0047833137, 0.09906016, -0.004627894, 0.022210952, 0.01828545, 0.03327278, 0.034484383, 0.04676038, -0.0006149867, 0.098941796, -0.021610878, -0.040140755, -0.012535542, 0.0021598574, 0.011700795, -0.028099896, 0.02863861, 0.007853272, 0.012334049, 0.01692762, 0.01248113, 0.012770828, -0.023813404, 0.048544277, 0.004189612, -0.006761491, 0.02876842, -0.053263366, 0.011421284, -0.07287298, 0.022578312, 0.008612934, 0.010103849, -0.062368292, -0.0014714802, 0.018980298, -0.019054139, -0.026163902, 0.028483683, 0.053255003, -0.022129148, -0.020241557, 0.030584322, 0.024992831, 0.056801986, -0.008262154, 0.022656372, -0.010207118, 0.005260343, 0.0076506115, -0.021291055, 0.0151807945, 0.032427408, 0.0062770005, 0.00468953, -0.048094366, 0.09611254, 0.025107216, 0.013192809, 0.11277236, -0.014941418, 0.02566488, 0.004361287, 0.011748047, -0.026984148, -0.010661093, 0.022653356, 0.02965726, -0.0026181587, -0.0151278945, -0.08180666, 0.0020903822, -0.015328726, 0.064965, 0.017035209, -0.014009544, 0.0015572532, 0.06577195, 0.011620121, -0.014435377, -0.029215928, 0.0162909, -0.01990746, 0.020687902, -0.053236578, -0.018467337, 0.02094711, 0.01783024, 0.019927379, 0.025077688, -0.025926206, -0.098076135, -0.0016082093, 0.0038996716, -0.060707167, 0.0040782844, -0.012105793, 0.016343279, -0.023668945, -0.044478584, 0.05892902, 0.01306782, 0.016925516, 0.038972624, 0.020667136, -0.038510136, 0.012091111, 0.058533162, 0.02116479, -0.010253646, 0.022853237, 0.017041052, -0.029037697, 0.015485728, -0.007439966, -0.024611276, -0.037426103, 0.0049345735, 0.031019656, -0.008600605, -0.0225292, 0.017820794, 0.010710796, -0.009749377, -0.020510588, 0.021884264, -0.03247751, 0.017753717, -0.04398528, -0.023801394, 0.0067779575, -0.05216585, 0.033952877, -0.031541508, 0.0677682, 0.01876238, 0.0051020184, 0.08409044, 0.019582864, 0.043978043, 0.015832061, -0.009800649, 0.05085695, -0.01498984, -0.044946916, -0.06838753, 0.010311242, 0.06345672, -0.013252405, -0.02570673, 0.023625795, 0.1024596, 0.10793695, -0.019698607, -0.03738389, -0.023001768, -0.030361028, -0.0027922879, 0.031214416, 0.0069888663, 0.00469033, 0.033794492, 0.02254011, 0.038052455, -0.022632709, 0.009065942, 0.06319207, -0.039893914, 0.09933762, 0.015557958, 0.02048783, -0.025464885, -0.021264343, -0.018371519, -0.00060530467, 0.047073413, -0.047052387, 0.009619568, -0.0070859212, 0.01414478, -0.06459034, -0.01825294, 0.019424476, 0.05795842, 0.011529597, 0.0024836785, -0.0030912897, 0.03319979, -0.052718263, -0.05471822, -0.024678895, -0.08574017, 0.042634945, 0.035205755, -0.06327517, -0.03834675, 0.027192447, 0.06332406, 0.014833305, 0.021601798, 0.017423192, -0.03635552, -0.03370631, -0.039891884, -0.04900306, 0.038439024, -0.0117774075, -0.0019835879, 0.08469913, -0.03399894, -0.02292624, 0.04600589, -0.0020309663, 0.006464275, -0.055548802, 0.03806039, 0.009780899, 0.010431215, 0.06793116, -0.0076332693, 0.0028924507, -0.051500812, -0.06349515, -0.029900173, -0.017036721, -0.061919592, -0.028918615, 0.0347569, 0.0386545, 0.07274863, 0.012861001, 0.007810748, -0.05117263, 0.048357297, -0.0045806435, 0.07152968, -0.039167713, 0.010830739, 0.021949535, -0.058581594, -0.0026743053, 0.0069989315, 0.007822963, 0.02192166, -0.005387996, 0.06288825, -0.06181968, -0.005796072, 0.0027371456, 0.02575123, 0.0007945806, 0.0068331007, 0.030170454, 0.02296814, -0.018096631, -0.045900654, 0.053152945, 0.047521263, -0.033292085, -0.0035821453, -0.08337594, -0.11851254, -0.0043916064, 0.011073903, -0.08260005, 0.020353314, -0.015649151, 0.020178253, 0.053803798, 0.04333636, -0.056311797, -0.028193451, 0.0011345601, -0.04190292, -0.04933868, -0.072428346, -0.022793712, 0.011757973, 0.0018098006, -0.024349362, -0.014500105, -0.06804159, -0.037566155, 0.028572911, -0.034889407, 0.016040316, -0.014065397, 0.035487667, -0.004704594, -0.12006817, 0.009269212, 0.051788747, 0.027119735, -0.11351711, -0.026048658, -0.033032395, 0.041021693, -0.02239793, -0.03275299, 0.0009978141, 0.042819854, -0.024127988, -0.031264823, 0.017095618, -0.009585834, -0.006068201, 0.0015696028, -0.016197998, -0.0696462, 0.023381243, -0.04445656, 0.008583555, -0.017774543, -0.056135587, -0.008207572, -0.009779, 0.007858036]</t>
         </is>
       </c>
     </row>
@@ -4325,33 +4360,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>조용진</t>
+          <t>김용기</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Functional enhancement of instant fried noodles by a rutin-enriched material from tartary buckwheat byproducts</t>
+          <t>Instrumental and sensory assessment for the classification of solid food texture for the elderly diets</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Buckwheat has high value in nutrients and functional components such as rutin. Specially, buckwheat bran has a high content of rutin. On the other hand, the noodle industry needs to improve the functional quality attributes of existing products. Thus, in this study, a rutin-enriched material (REM) prepared from tartary buckwheat byproducts was applied to instant fried noodles of which functional properties were evaluated. The REM was produced with ultrasonic-assisted ethanol extraction process. REM contained 29.6 g/100 g of rutin. The use of REM did not affect dough stability and development times. In addition, there was no significant difference in the oil uptake and texture of the instant fried noodles depending on the levels of a REM. Also, the results of peroxide values indicate that the oxidation of instant fried noodles was significantly retarded by the use of a REM. Therefore, REM can give the food industry more promise opportunities to produce new functional food products by rutin fortification without significant quality loss. It will be worthwhile to extend the utilization of REM as an excellent source of rutin to a wider variety of wheat-based food products.</t>
+          <t>Chewing and swallowing disorders such as dysphagia are common in the elderly people whose number is reported to continuously increase throughout the world. With this trend, the aging populations have recently become the global focus of substantial research interest in a variety of industrial fields and the food industry is also no exception. Further studies are also necessary to establish the guidelines or criteria for controlling the food texture for the elderly with different living and cultural backgrounds. An experimental attempt was made to bridge the gap between instrumental and sensory texture in a model solid food system, providing a reference texture range for the elderly diets. For doing so, uniaxial compression was applied to measure the instrumental hardness of corn starch gels that was correlated with their sensory properties perceived by the elderly aged 60 and older. A polynomial trend line was satisfactorily obtained with the formula (y=0.2188x25.7917x38.14) describing the relationship between instrumental hardness and starch concentration. When the instrumental hardness (stress) was correlated with the sensory hardness, a linear correlation was observed with a coefficient of determination (R2=0.879). However, the use of logarithmic transformation exhibited the improved correlation of coefficients. A fairly linear correlation (R2&gt;0.96) was thus observed between the instrumental and sensory hardness by a semi-logarithmic relationship known as Weber-Fechner’s law scale. In principal component analysis, two principal components that accounted for 86.71% of the total variance, separated the gel samples in terms of hardness/springiness and moistness, respectively. The categories of the starch gel samples were subdivided into five groups with different stress ranges. As a result, five categories of food texture could be successfully provided with corresponding stress range and consumer languages that can be used as a reference tool to establish the guideline or criteria for developing the elderly foods.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[-0.002150324, 0.02957641, 0.012093354, -0.004930879, 0.07030087, 0.025511878, -0.042773534, -0.051247906, 0.03682794, 0.03147122, -0.051139627, 0.030076018, 0.010158956, 0.053156413, -0.034215562, 0.03273418, -0.022960236, 0.024601966, 0.019360805, 0.027666101, -0.008500142, -0.006779022, -0.06963126, 0.006509271, 0.07734634, 0.008765978, -0.008257011, 0.020276314, 0.0126486765, 0.010724348, 0.050255015, -0.0025840693, 0.028923621, -0.011646311, -0.018347947, -0.01453129, -0.0076416284, -0.008852535, 0.0629609, 0.0145397, -0.03939486, -0.011134675, -0.04843038, 0.026268503, 0.011495576, 0.049215373, -0.0378816, -0.0153944865, -0.05951778, 0.02858193, 0.0049297763, 0.014290526, 0.02814348, 0.016180374, 0.036333576, -0.025829908, -0.054684762, -0.008741877, -0.03321523, 0.043753244, 0.005211405, 0.009191521, -0.031393174, -0.029889047, -0.0041407268, -0.028877452, 0.0014308731, 0.014350072, 0.037945237, 0.03097389, -0.040903166, 0.021192566, -0.043314822, -0.011547972, -0.08076264, -0.07222624, 0.01652023, -0.03251899, -0.054893486, -0.05048827, -0.012550733, -0.04073723, 0.056050275, -0.06425426, -0.06930464, 0.029049778, 0.012409848, 0.03395046, 0.0055329283, -0.07011933, 0.045141086, -0.029801268, 0.07036041, 0.01430116, 0.0394053, 0.03499505, 0.13069321, 0.08214755, 0.044855967, -0.057103913, 0.006542545, 0.05129349, -0.004259043, 0.011871776, -0.010125073, -0.03442615, 0.05964903, 0.028136943, -0.013884818, 0.019907374, 0.001710452, -0.03479604, -0.027334837, -0.085986644, 0.032880746, 0.021008914, 0.016914647, 0.09096719, 0.012034772, 0.09742201, 0.03446593, -0.010807749, -0.015919665, 0.03791207, 0.0033228134, 0.009827161, 0.013205304, -0.004771366, -0.024646312, -0.04276002, -0.03719598, 0.062230237, -0.032954227, 0.05416885, 0.007926465, 0.047114864, 0.009118131, -0.01564068, 0.009075104, -0.014887858, -0.014954593, 0.009543071, 0.04441243, -0.06289958, 0.009816357, 0.0133059565, -0.024547167, -0.023185348, -0.051069032, 0.082967445, -0.02805592, 0.017175663, 0.02037275, 0.0024061038, 0.055939734, -0.016660444, 0.0429299, -0.02135634, -0.028615668, -0.040247407, -0.018714333, 0.00306479, -0.014627251, 0.02770924, -0.0045182453, -0.010481858, 0.057321258, 0.04537397, -0.033331167, 0.046748422, -0.003617039, -0.010387932, 0.017837951, -0.0013469286, -0.024527077, -0.017250158, -0.031906832, -0.008868839, 0.009789802, -0.06541474, 0.042515345, -0.015045845, -0.016714852, 0.02827148, 0.032840155, -0.010631844, 0.012353721, -0.009973075, 0.000117034186, 0.029123751, -0.09867857, -0.010785084, 0.021772595, 0.009506271, 0.025498092, 0.046492517, -0.019312952, -0.04007798, 0.08468332, 0.04112672, 0.031066123, 0.0380586, 0.07495915, -0.007475628, -0.001402623, 0.015923295, 0.033370763, 0.023902684, -0.021262713, 0.028455023, -0.030049238, -0.014917076, -0.017137218, -0.0029120236, 0.047496013, 0.045560975, -0.028448928, -0.035179634, -0.018218523, 0.01720619, 0.05660153, 0.010650794, -0.013161041, 0.016099088, -0.033597387, 0.033803485, 0.017294597, -0.002617321, -0.015281806, 0.0173541, 0.006962003, -0.06375338, -0.034345552, -0.007966709, 0.008776828, 0.05978619, -0.028965564, 0.020355523, 0.03748124, 0.0657628, -0.04555084, 0.013966035, 0.015097292, 0.0028909973, -0.015567565, -0.05369126, 0.03047964, 0.029405499, -0.041066952, -0.0004037786, -0.016425682, 0.021058174, -0.0044864747, -0.06464315, -0.06435055, -0.008021696, 0.014536149, -0.08330278, -0.08899847, -0.015066657, 0.023318987, -0.0030592019, -0.033057608, 0.004399266, 0.013020709, 0.038022485, 0.04025791, 0.0017317036, 0.01997891, 0.0077669728, -0.027425548, 0.015655216, 0.03509274, 0.02912095, -0.059565164, 0.031668864, -0.04375709, -0.05774033, 0.0330168, -0.025662597, -0.0007918252, -0.0063829627, 0.007581234, -0.12060653, -0.023718901, -0.041060038, -0.058510702, 0.006132377, 0.0040648514, -0.050462194, -0.049571715, -0.01590345, 0.028170625, 0.0037604445, -0.045348827, 0.05935817, 0.015264961, 0.08264243, -0.050906833, -0.018524293, 0.007980346, -0.013037637, -0.062455885, 0.049585193, 0.015009864, -0.007991477, 0.0014537169, 0.01553257, 0.038567703, 0.064694, 0.0033935679, -0.004198373, 0.06935978, 0.034409504, -0.045217387, 0.027013486, 0.04410692, 0.002503415, -0.033905916, -0.05068042, -0.030150604, 0.07090752, -0.02249617, 0.0057135713, 0.03252417, 0.07772575, -0.049730323, 0.052191008, -0.01770232, 0.017564429, -0.020816313, -0.025459543, -0.002243393, -0.009058856, -0.006938408, -0.032378826, 0.03667825, -0.024103055, -0.016709574, 0.016568262, -0.045312006, -0.047757994, 0.007079417, 0.015932167, -0.04843229, 0.054108895, 0.04954401, 0.0273125, -0.04963469, -0.019482523, 0.023094768, 0.019557318, -0.026597375, -0.04565622, 0.010943632, -0.019392837, -0.0487632, -0.019811224, -0.007867052, -0.010913032, -0.003202505, -0.104758866, -0.007219214, -0.04529327, 0.067605786, -0.016427698, 0.016681248, -0.015262613, 0.038503084, -0.023988448, -0.026893616, -0.011351926, -0.02477986, 0.017786352, 0.013001305, -0.01978605, -0.04281528, 0.013191291, 0.05535022, -0.0055402415, -0.0018440869, 0.025114859, 0.030421147, -0.07857096, -0.042051055, -0.04810519, -0.08606585, 0.06940649, 0.03254977, -0.065930456, 0.035328936, 0.07331464, -0.019388732, 0.06673347, 0.009045034, 0.054768648, -0.037542664, 0.025427304, -0.047353048, 0.0072262357, 0.027493851, 0.03282567, -0.03968488, 0.019441096, 0.03300487, -0.002738876, 0.04272747, 0.00017778529, 0.0095735, -0.030181166, 0.028564634, 0.043709073, 0.026322005, -0.0008607396, -0.00709711, 0.017734932, -0.038642056, 0.03506959, 0.027531499, 0.015771117, -0.023252726, -0.0052798055, 0.00493485, 0.05633997, -0.028864857, -0.052231953, -0.043042626, -0.041039865, -0.031706873, -0.01725867, 0.005122435, -0.06543799, -0.019564854, -0.035146154, -0.025600921, 0.10627768, 0.007994901, 0.033697903, 0.018568046, 0.047799204, -0.02047844, -0.09296512, -0.063332304, -0.0044824015, -0.03695196, 0.047836974, 0.02279845, 0.102264255, 0.040263966, -0.017866986, -0.04152603, 0.05931531, 0.025872765, 0.035958048, 0.03917816, -0.070623554, -0.01723488, 0.02655631, 0.014032229, -0.0020197523, -0.0026394788, -0.014658121, 0.08464946, -0.024888169, -0.028641103, -0.039478336, -0.0021545263, 0.0019059941, 0.014039561, 0.056664057, 0.022235086, 0.041808773, 0.003086085, -0.0075427946, -0.00082792604, -0.039185274, 0.048019968, -0.025940944, 0.02948999, -0.011586085, 0.023668878, -0.038984183, 0.042289738, 0.022364678, -0.06398652, 0.024885716, 0.004551489, 0.015902342, -0.06627051, 0.044785265, -0.07308541, 0.003900742, -0.047299705, -0.026206447, 0.056479484, 0.007184244, -0.036739137, -0.032773554, 0.03128979, -0.032012023, 0.023931805, 0.015911432, -0.012378286, 0.010770505, 0.03211755, -0.07069403, 0.032145202, 0.0052615926, -0.12366216, -0.030044647, 0.057559565, 0.035587125]</t>
+          <t>[0.06733358, -0.01052951, -0.017608708, -0.033439003, 0.09691577, 0.08614561, -0.019560244, -0.05411278, 0.05931083, 0.050539654, -0.03110991, -0.063988455, -0.046125174, 0.026919968, -0.0055558425, 0.027519578, -0.016498871, 0.03145499, 0.04823363, -0.03663137, 0.012083119, -0.029656934, -0.060137514, 0.016466564, -0.054271005, 0.034170173, 0.044727076, -0.008431314, 0.04484491, 0.015729634, 0.045491308, -0.038651843, 0.012349885, -0.005554965, 0.015092768, 0.018791126, 0.043681223, 0.051850997, -0.059995834, -0.056566108, -0.03797297, 0.041450176, 0.008242344, -0.030299755, 0.13631213, -0.006899581, 0.060186185, 0.050326154, -0.06985919, 0.002014783, 0.009982344, -0.026721088, -0.019599278, 0.02274933, 0.03968139, -0.043041226, -0.036983967, -0.060501415, 0.0391539, 0.013143438, -0.022990499, -0.055585254, -0.05491284, 0.009173336, 0.025790013, 0.0021572264, -0.010534455, 0.06455684, -0.01690048, 0.057802055, -0.014603344, -0.034738477, 0.021060871, 0.039877538, -0.056673203, 0.08026304, -0.012009235, 0.039678875, -0.034226533, 0.04065731, 0.065905124, -0.042217895, 0.07485104, -0.016146326, -0.025105344, 0.082472846, -0.021006249, 0.013650653, -0.028290384, -0.024281936, 0.014058002, -0.011901396, 0.10907056, 0.0117107835, 0.019483143, 0.020307673, 0.0058578174, 0.09953377, 0.03561713, 0.076880336, -0.00121161, 0.05780496, -0.056365352, -0.03436412, 0.024826724, 0.002753722, 0.030068152, -0.004644472, -0.016249575, 0.0038013894, -0.011281399, -0.0820678, -0.07330635, 0.030382132, -0.019274658, 0.028663192, -0.012304901, -0.006016692, -0.02696978, -0.0011418659, -0.03492188, 0.040721983, -0.0017951193, 0.07508531, -0.014487657, -0.008582241, -0.0075237597, -0.0057447883, 0.011677198, 0.059528414, 0.05271172, 0.035233054, 0.058993634, 0.033321444, -0.0085220495, -0.020351812, 0.012308078, 0.043329153, -0.048529405, 0.015619029, -0.017035231, -0.020314429, 0.019238165, -0.07660402, -0.055285756, 0.014918111, -0.04551284, -0.03188038, -0.07122749, 0.012878259, -0.033013985, 0.05001237, 0.026030006, -0.043945394, -0.051909618, -0.02720791, -0.031219251, 0.04319943, -0.0016609245, 0.0072779707, 0.010896468, -0.032322187, -0.0669037, 0.03531035, -0.021834858, -0.020847166, 0.017453525, 0.029635914, 0.015052793, -0.028081955, 0.028178174, -0.008121474, 0.033072945, -0.02648648, 0.047343913, 0.005314915, -0.021071143, -0.017075451, 0.04707266, -2.8455397e-05, -0.06356476, -0.040914085, -0.0010758066, 0.030283973, 0.01590106, -0.031347234, 0.042179283, -0.03129058, 0.068628244, 0.03166331, 0.040137067, -0.014699924, 0.038678072, 0.009010045, -0.04995051, 0.056435365, 0.024996659, 0.0888142, 0.047114067, 0.013030976, -0.06705446, 0.014619546, -0.039630778, -0.015733087, 0.05941938, -0.0029861317, -0.0436834, -0.019055547, 0.03549001, -0.022537123, -0.00623481, -0.0067235613, -0.053213507, -0.0016159478, -0.048117418, -0.034060128, -0.016953595, -0.06462782, -0.0118215205, 0.014164274, 0.03392051, 0.004431862, -0.015982227, 0.02219533, -0.030858252, -0.03573702, 0.021158537, -0.024752537, -0.015387457, -0.0035471972, 0.030244041, -0.037209634, 0.010207544, -0.0710079, 0.05551975, 0.020259526, 0.0062791514, -0.008227016, -0.02304916, 0.0625138, -0.07485228, 0.015086713, -0.012509684, 0.0071644783, 0.010514734, 0.008649198, -0.037106663, -0.034294795, -0.04954036, -0.024332946, 0.018404575, 0.029503431, -0.018699046, -0.008152551, -0.007652921, -0.023091145, 0.018060846, -0.020732956, -0.040414196, 0.0035141977, 0.049287993, -0.045394633, -0.016151404, -0.049452282, -0.08334873, -0.09359275, -0.025984537, 0.055748396, -0.008464998, 0.0068684313, 0.0014986758, 0.111633286, 0.0547681, 0.006714173, 0.0073790234, -0.0010063676, -0.10780612, -0.025203966, -0.013742803, -0.05938191, -0.07248488, 0.016173124, 0.007477134, -0.05776878, -0.013770881, -0.016221095, -0.0027069733, -0.055244397, 0.024938118, -0.06636458, 0.026872767, -0.017594898, 0.09355269, -0.013034918, -0.070559286, 0.04652416, 0.017929649, 0.029678527, 0.0026336522, -0.022492265, 0.035878006, 0.016251188, -0.032074593, 0.040876936, 0.032863207, 0.012698807, 0.06875229, -0.011407355, 0.053068116, 0.042138398, -0.015484756, 0.014218201, -0.009023935, 0.09807771, -0.026411882, 0.07108616, 0.008568312, 0.03847623, 0.018087333, -0.070045464, 0.059132006, -0.009931671, 0.10479749, -0.04348237, -0.01034467, 0.028551735, -0.026509348, 0.07267581, -0.013780679, 0.032121073, 0.03117791, -0.020921227, 0.0010358297, 0.021917064, -0.070555896, 0.004270694, 0.003978421, 0.0023504898, -0.005081566, -0.018007742, -0.03126124, -0.01482691, 0.09511366, 0.012021977, -0.053247206, 0.080350816, 0.06879485, 0.09921575, -0.08032762, -0.05852098, -0.0044641253, -0.0072898995, 0.010543838, 0.04413754, -0.037055995, 0.045638055, -0.036033563, 0.046703037, -0.011812002, -0.006190545, 0.03745686, 0.008591416, -0.028228233, 0.04718817, -0.023944637, -0.0039480412, -0.017675042, -0.013510564, 0.01055008, -0.046975117, -0.055618387, 0.024966894, -0.016425254, 0.017356977, 0.023620227, -0.018853653, -0.007180208, 0.021182906, 0.026618123, 0.06956022, 0.031153549, -0.0017889583, -0.0135868825, -0.052199863, -0.025781572, -0.0055257734, -0.05390486, 0.00012164074, -0.0017302778, -0.0067469156, -0.010399973, 0.071545765, 0.003225151, -0.00047505667, 0.03327818, -0.005294692, -0.046489544, 0.027655497, 0.047496404, -0.03300513, -0.009819464, 0.0073188134, -0.009580203, -0.07703719, 0.018396104, 0.061735354, 0.039013114, -0.015790725, -0.02936001, -0.041874636, -0.017662216, -0.004689353, 0.056061998, -0.0019508874, -0.021993224, 0.025823096, 0.015465297, 0.04467925, 0.021966642, 0.006658511, -0.042705577, 0.01832322, -0.008554299, 0.036557343, -0.023037594, -0.010170452, -0.0017129488, -0.05356003, 0.013164769, -0.05455411, 0.05255312, 0.015796361, 0.06319644, -0.054505415, -0.021915734, 0.033838753, 0.08124605, 0.006580011, -0.013149413, 0.023298366, -0.04536135, -0.050972443, -0.0078014093, 0.0354988, 0.11226949, 0.0039731795, 0.0117511125, 0.052740343, -0.013666319, 0.013787378, 0.045030303, 0.017788017, 0.013325261, 0.030492317, -0.03876512, 0.025608929, -0.019631397, 0.009475618, -0.035790667, -0.07800846, -0.020012034, 0.029861027, 0.07720362, 0.061529122, 0.014670726, -0.0032446627, -0.025721002, -0.0072582373, 0.07204961, -0.020225223, 0.025849482, -0.013433188, 0.065130375, -0.016111925, -0.085638225, 0.012043586, -0.01896595, 0.010221289, 0.019991916, 0.029338371, -0.029571336, 0.027438652, 0.045760375, -0.005724146, 0.026152685, 0.012387615, 0.049615882, -0.017274028, -0.01702815, -0.044300377, -0.027795943, 0.0435156, -0.05381905, 0.0027913204, 0.0355503, -0.013518622, 0.017012808, 0.034357376, -0.008007072, 0.0028168727, 0.08425952, -0.09488593, -0.029385477, 0.017842637, -0.08206203, 0.021807378, 0.04457556, 0.025011105, -0.114794455, -0.010154079, 0.017920502, 0.022726854]</t>
         </is>
       </c>
     </row>
@@ -4360,37 +4395,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>전소영</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
+          <t>김명선</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Effects of enzymatic surface modification on the oil absorption in deep-fried foods</t>
+          <t>Combined effect of starches, hydrocolloids, and emulsifiers on the quality attributes of germinated brown rice extruded cakes</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Due to increasing consumer awareness of the health risks associated with high intake of fat, there is great interest in reducing oil absorption of deep-fried foods without changing product sensory quality. Therefore, extensive research has been conducted to understand how oil absorption takes place during the frying process, and there is some evidence that oil absorption is primarily a surface-related phenomenon. Thus the crust microstructure plays a critical role in oil absorption of fried foods. In this study, we selectively modified the crust microstructure by spraying transglutaminase (protein crosslinking enzyme) or Viscozyme® L (a mixture of carbohydrases) evenly over the dough surface before frying, and evaluated the impacts of the microstructural changes in the crust on the oil absorption of fried products. The crust microstructure was examined using scanning electron microscopy (SEM) and confocal laser scanning microscopy (CLSM). The results show that the stronger surface protein network produced by transglutaminase made the crust less porous and it helped to lower the oil absorption by 21% without changing the crumb texture, compared with the no-enzyme-treated sample. Modification of the carbohydrate phase by Viscozyme® L also made the crust less porous but produced large holes on the crust that the oil could easily penetrate, and resulted in only slight reduction. These results suggest that the gluten network in the crust plays an important role in oil absorption during deep-frying and surface protein crosslinking can be used as an alternative approach to reduce the oil absorption in deep-fried dough products without changing product sensory quality.</t>
+          <t>Germinated brown rice flour has received much attention due to its health-functional ingredients such as dietary fibers. However, the food industry has faced challenges of using germinated brown rice flour in processed foods because it causes undesirable quality attributes such as high cooking loss and sticky texture. In this study, three different types of food additives (starches, hydrocolloids, emulsifiers) were incorporated into the formulation of extruded rice cakes and their combined effects on the cooking loss and textural properties of the germinated brown rice cakes were investigated. The addition of emulsifiers had a tendency to increase cooking loss and soften the noodle texture. Most of the starches except gelatinized and high-amylose rice flours showed similar effects to the emulsifiers. Xanthan gum, gelatin, and HPMC were positively effective in reducing the cooking loss of the rice cakes and increasing their hardness. When the ingredients were combined, the mixture of saemimyeon rice flour, HPMC, and xanthan/agar reduced the cooking loss by 66.7%. Most of all, this study provided an ingredient map that was plotted on the axis of hardness and cooking loss, depending on single and combined treatments of various ingredients.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[-0.014229198, 0.0057956628, 0.0036917366, 0.0018764437, 0.08024069, -0.02395306, -0.016132839, -0.042645272, 0.03976628, 0.021667112, -0.05364418, -0.08152359, 0.0538351, 0.011251926, -0.012075066, 0.007934484, 0.057876635, 0.021029605, 0.036184505, 0.02455416, 0.004644984, 0.014741186, -0.11434029, 0.044039406, 0.014976841, -0.018532002, 0.0051586535, -0.0048121475, -0.042960413, -0.01943964, 0.0035662544, -0.0067257253, -0.06702668, 0.041995347, -0.024842601, -0.052661125, 0.074323714, -0.03370512, -0.053642493, 0.042780038, -0.057980016, 0.025554324, 0.0021498976, -0.0020150305, 0.034967437, 0.014172435, 0.050026715, 0.0662106, -0.07150514, -0.0144893555, 0.017085234, -0.009534151, 0.047870405, 0.032129113, 0.057650894, -0.040120468, -0.057820197, -0.032491717, -0.019448075, -0.009512443, -0.054221258, -0.04377231, -0.045647938, 0.048075546, -0.02762356, -0.024350181, -0.012814505, 0.0099255815, 0.032841653, -0.04448265, -0.0062617944, 0.016599404, 0.05665726, -0.004899643, -0.05565808, -0.0048404806, 0.0077860523, -0.0054907966, -0.020911131, -0.013549076, -0.02163326, -0.058882646, 0.094637804, 0.006852262, -0.01526657, 0.07988059, 0.015446311, -0.012196256, 0.016060038, -0.03203619, 0.028668666, 0.009984534, 0.10563379, 0.013388557, 0.05663882, 0.030234516, 0.07009929, 0.10781747, 0.048534986, 0.04221223, -0.018545222, 0.03264089, -0.029880244, -0.011409315, 0.002176176, -0.020142965, 0.048021663, -0.006917014, 0.008291023, 0.01980934, -0.019094147, -0.08340378, -0.042186424, 0.031788353, -0.059606615, 0.08605461, 0.030132886, -0.009241528, -0.01237677, -0.0065594693, 0.0054936903, -0.011613189, -0.024844738, 0.0059176115, 0.023108667, -0.019713145, 0.01348779, 0.018603258, 0.027238255, -0.05330193, -0.039731443, 0.023602962, -0.0563942, -0.025454292, 0.031044023, 0.033175852, -0.032427434, 0.0838353, 0.025087884, -0.010770919, -0.0016729011, -0.023527227, 0.0008165355, -0.086025074, -0.033096176, -0.01844288, -0.042033013, -0.024315339, -0.042421848, 0.020414036, -0.01325858, -0.006492982, -0.025845004, 0.018144056, -0.01907926, -0.08687005, 0.016319647, 0.018160177, 0.06102046, -0.032108266, -0.01997566, -0.007046941, 0.0018307543, 0.00799806, 0.013005774, 0.047515154, 0.077046916, 0.0102058025, 0.0032169567, -0.024650723, -0.004801953, -0.0019919549, -0.00034057908, 0.015664093, -0.030189656, -0.07620961, -0.028992139, -0.05277345, 0.029711511, 0.022334464, -0.050791565, -0.043165077, 0.04768189, 0.012294591, 0.014849385, -0.04104293, 0.0722479, -0.0403681, 0.007085674, 0.0033956817, -0.075971924, 0.028409744, 0.077295735, -0.04579207, -0.017354492, -0.0057307337, 0.020125313, 0.06638608, -0.011299301, 0.026433116, 0.00847467, -0.011745974, 0.022214137, -0.00915239, 0.0878764, -0.047495026, -0.057896316, 0.03267324, 0.00079167925, 0.03817375, -0.040207904, 0.09593535, 0.026960801, 0.024731763, 0.0072355396, -0.009149859, 0.023476973, -0.0114149945, -0.004460088, 0.04326115, 0.021642657, 0.019981928, 0.0062640654, 0.008573375, -0.046778932, -0.026072038, 0.024380812, -0.018257858, -0.045653537, -0.0075419103, 0.0034572287, -0.035543565, -0.015368756, 0.023533098, 0.012959926, -0.008736129, 0.032045722, 0.032781888, 0.038527798, 0.10066907, -0.03880413, 0.014625116, -0.016394991, 0.018809782, -0.013268358, -0.01135415, 0.03747556, -0.020808656, -0.028113637, -0.02140647, -0.07592933, 0.07319178, 0.05198219, -0.03234466, 0.018289167, -0.043176107, 0.05519456, 0.005569778, 0.010556346, -0.016771331, 0.036848236, -0.021611646, 0.035372637, -0.020711042, -0.033568393, -0.042673077, 0.007518597, 0.020805053, 0.040582564, -0.023997985, -0.032210376, 0.06625782, 0.06995028, 0.057961423, -0.06761543, 0.028829621, 0.0090642655, -0.0118576735, -0.0027076926, -0.056387722, -0.011213107, -0.016973201, 0.0037336668, -0.019087082, -0.011430518, -0.037217673, -0.022836912, -0.0051316344, 0.06510102, -0.079333335, -0.011715752, -0.033028044, 0.02431866, -0.026112335, -0.06189514, 0.0633414, 0.016987082, -0.03527555, -0.0007665961, -0.04281972, 0.016539287, 0.0010899212, 0.004272231, 0.052560505, 0.011849321, -0.03378135, 0.03276006, -0.023917068, -0.0016105555, -0.02760654, -0.020316979, 0.0044393954, 0.011954407, 0.07636983, -0.034436587, 0.044271987, -0.006500289, -0.004278451, -0.0114025185, 0.007815907, 0.012095546, -0.0006400582, -0.014740361, 0.004612602, 0.013712472, 0.004594, -0.066875085, 0.010766504, -0.052991882, 0.01328093, -0.018054934, 0.0058360146, -0.030807815, -0.0031137404, -0.026707493, 0.026106484, 0.021782797, -0.042184748, -0.021655718, -0.008755555, -0.035297096, -0.021342773, 0.014656818, 0.024641186, -0.04597558, 0.067216665, 0.043630213, 0.11230383, 0.004979739, -0.061452426, -0.01021366, -0.014581246, -0.0045529883, -0.0010003807, -0.009769632, -0.016551416, -0.0016041305, -0.033157993, 0.0516912, -0.052543957, 0.04146812, 0.0641757, -0.006412177, 0.04225657, 0.027162267, 0.028170493, -0.045549043, -0.042050112, 0.040856246, 0.02999347, 0.0039581736, 0.009068822, 0.012673584, -0.008182634, -0.006677801, -0.05340455, 0.052398145, 0.037491117, 0.07012524, 0.018020188, -0.029095422, 0.035030764, -0.019431839, -0.029930303, -0.01676482, -0.05660437, -0.06252244, 0.0009772471, 0.024749778, -0.0008464959, -0.027730105, 0.031610586, 0.13545674, 0.008236578, 0.025482466, 0.0069797924, 0.004096067, -0.018665902, -0.010332153, -0.016911365, 0.05027563, -0.04968236, -0.019411057, -0.019877633, -0.018827071, 0.029554393, -0.007997738, 0.007816042, 0.0075856014, -0.013290546, 0.091723725, 0.055053998, 0.038264893, 0.07129919, 0.016958069, -0.075270794, 0.021278683, -0.015016996, -0.0073613534, -0.023350349, -0.061790366, -0.01606424, -0.029433686, 0.038042706, 0.07681019, -0.003864091, 0.01627112, -0.035988446, -0.006043978, -0.03849922, 0.024058267, -0.043481976, 0.023416532, 0.00689417, -0.018569652, 0.05061772, 0.020930137, -0.028855616, 0.012240877, 0.08293717, 0.11911102, -0.036163446, -0.0029067823, 0.0599101, 0.024084242, -0.051094495, 0.0003589233, 0.061957214, -0.033774965, -0.025337633, -0.03747164, 0.012416187, 0.044527087, -0.023001134, -0.03039338, -0.024346191, -0.07270591, 0.058310557, -0.034412157, -0.062120575, -0.002241295, -0.014149789, 0.045738485, 0.09212533, 0.021171296, -0.033854295, -0.032103535, 0.014264117, -0.0050862744, -0.07366743, -0.062405005, 0.0034110898, -0.0032663476, 0.011361575, -0.02084247, 0.04954449, -0.0049391855, 0.03483749, 0.014193522, -0.0334106, 0.07660046, -0.016971352, 0.06733296, 0.029157503, 0.012030264, 0.022337332, 0.05185731, -0.01909707, -0.08345958, -0.06556426, -0.05877497, 0.019035459, 0.0013616896, -0.03502696, 0.011628983, 0.01533168, 0.0037106934, 0.019062947, 0.016778972, -0.03500381, 0.010608038, -0.025950084, -0.024525594, -0.03136969, -0.03891736, -0.041756846, 0.006896421, -0.018318757, -0.079596564, -0.041706912, -0.0018322106, 0.02900448]</t>
+          <t>[-0.027454505, -0.0026313239, 0.053797062, 0.022290463, 0.11185256, 0.009088534, -0.008483134, -0.09810673, 0.018845068, 0.044930138, -0.10152568, -0.029324086, -0.011239871, 0.07315674, -0.051306676, 0.0529339, -0.06365968, 0.045350943, 0.04979702, 0.035238225, -0.018841814, -0.024863405, -0.039436255, 0.038611013, 0.079076365, 0.02307989, 0.012188077, -0.0741138, 0.0411591, 0.016761601, 0.035262875, -0.028650908, 0.06549149, -0.011682404, -0.057693534, 0.0069799884, 0.06642026, 0.0013023925, 0.051102202, -0.041051827, -0.03766426, 0.024590237, -0.024135416, 0.00530751, 0.006815949, 0.023002526, 0.013503198, 0.0044621485, -0.059095033, 0.026267998, -0.013869447, -0.014400635, 0.029109687, -0.0038103585, 0.040278804, -0.05222775, -0.06826927, -0.0025029108, 0.023020139, 0.023034913, -0.019950349, -0.060062602, -0.008575019, -0.012384558, -0.028099818, -0.012221905, 0.051125307, 0.0016904108, 0.027073601, 0.033382848, -0.0004205827, -0.011550171, -0.02254857, 0.016438326, -0.07206715, -0.13790588, -0.036330692, -0.0038963007, -0.05598773, -0.058278296, 0.0059510437, -0.046070777, 0.058565535, -0.00026642086, -0.041271575, 0.03569187, -0.071781464, 0.007974027, -0.031368602, 0.038063902, 0.037650295, 0.0038106402, 0.12218475, 0.055025667, 0.04479456, 0.044513267, 0.1400622, 0.06737117, 0.029759312, 0.024551889, -0.026198978, -0.00063892995, -0.0475976, 0.012232953, 0.066424325, -0.050267123, -0.0023283889, 0.018207066, 0.054360725, 0.020108152, 0.037672095, -0.03920211, -0.043777395, -0.028086748, 0.0137714185, 0.05224046, 0.079318196, 0.032775898, -0.00091005093, 0.03134701, 0.010907268, 0.025773656, -0.005719616, 0.060826007, 0.0014798903, 0.025184587, 0.016526176, -0.0073037934, -0.04078439, -0.06323129, 0.017722152, 0.09300062, -0.009128379, 0.03273376, 0.005909446, 0.05876078, 0.020828716, 0.01683436, 0.022145392, -0.02105907, -0.010244023, -0.0635322, 0.035866383, -0.07941902, 0.003588645, 0.010671852, -0.06592696, -0.018534811, 0.007984037, 0.051236432, 0.011772163, 0.019614346, 0.022535343, -0.052282345, 0.0068027475, -0.08806805, 0.019050658, -0.029206248, -0.060938053, -0.056998886, 0.0083727185, -0.041235335, -0.044182487, 0.010241531, -0.016455745, -0.06736561, 0.06848459, 0.013324929, 0.013851761, 0.05553176, -0.0236526, -0.0040822285, 0.020297248, -0.031339087, -0.024401125, -0.034490217, -0.022139082, -0.043572385, 0.070133455, -0.07273954, -0.015013982, -0.0044454667, 0.010254091, 0.028514836, 0.06664753, -0.024139488, 0.01795467, -0.012287057, 0.017575923, 0.091362834, -0.116697006, 0.04166126, 0.033584874, 0.028530855, 0.007923559, -0.01256395, 0.027459502, -0.037068333, 0.08257438, 0.06833605, 0.041387517, 0.0634658, 0.05100518, -0.031448875, 0.07339648, 0.060485587, 0.016375398, -0.014684997, 0.028114785, 0.013711215, -0.002238597, 0.019215219, -0.033749897, -0.017299656, 0.030719526, -0.006073746, 0.007233278, -0.059222035, 0.043733034, -0.0038035025, 0.026853662, 0.00081479765, -0.06548792, 0.009110762, 0.015289189, -0.01736775, 0.009562203, 0.02270675, -0.012687382, 0.0035333887, 0.03607571, -0.052468203, -0.10048967, 0.008165285, -0.01635969, -0.01536182, -0.04579744, 0.017442457, -0.0008663994, 0.08816531, -0.058792643, -0.0026856665, 0.034540463, 0.009863909, -0.012513802, 0.02587879, 0.0069475016, -0.033372167, -0.052519225, 0.010749203, 0.036753777, 0.021431299, -0.04599512, 0.020876508, -0.030895371, -0.02534154, 0.010190536, -0.084363274, -0.052447353, -0.064123824, -0.012326109, -0.018260729, -0.04586085, -0.006300611, -0.01127918, 0.0066575003, 0.046139635, -0.04225308, 0.034704022, 0.014786739, 0.015439301, 0.004687315, 0.041916784, 0.042512733, -0.025387717, 0.018892247, 0.033330906, -0.1180199, 0.023912475, -0.012667034, -0.045651603, -0.0044635828, 0.032536797, -0.082600474, -0.004091403, -0.012416798, -0.07742514, 0.036611725, -0.048854597, -0.052661464, 0.0111038815, 0.0181837, -0.0060989396, 0.0150213735, -0.06163094, 0.06157296, -0.0053832084, 0.03710608, -0.027238298, 0.019651268, 0.06215162, -0.028649516, 0.08107089, 0.020154536, -0.028076472, 0.00021191826, 0.04279699, 0.00061222323, 0.051600523, -0.023131728, -0.027433876, 0.004969522, -0.013839534, 0.027979568, -0.025237693, -0.0048564253, -0.016106695, 0.036317077, -0.023114173, -0.02477935, -0.0068537192, 0.034693044, -0.015362712, -0.010945547, -0.033337336, 0.09177063, -0.021583533, -0.009953752, -0.037834432, 0.030475862, -0.009010475, -0.011408737, 0.05179482, -0.018134262, 0.011595741, 0.018095372, 0.060222864, 0.030998427, -0.00569617, 0.002721649, -0.04317454, -0.019333452, 0.07950399, -0.0011353766, -0.048492007, 0.03126265, 0.05270881, 0.054466777, -0.013570998, -0.031016538, 0.04468975, -0.016018754, 0.042873725, -0.0332166, -0.00083945907, -0.0773763, -0.060937274, -0.048204433, 0.08151147, 0.0050587547, 0.009547066, -0.023211863, -0.022262823, -0.056606945, 0.012800648, -0.0025312866, -0.064963795, -0.04578215, -0.005379543, 0.009686157, 0.03047016, 0.0042194226, -0.040510662, 0.023120645, -0.04624462, 0.0078002056, 0.00093421614, 0.05194695, 0.11305419, -0.019758485, 0.013672306, 0.0149588445, 0.02070985, -0.03647183, -0.03615668, 0.021362884, -0.084348895, 0.05270477, -0.06592153, -0.09091187, 0.0477432, 0.098327994, -0.030710587, -0.005364437, -0.023348102, 0.014536005, -0.023152184, 0.015388066, -0.09964419, -0.008060644, 0.034690082, -0.026567731, -0.010446743, 0.023537308, -0.0056415233, -0.035524383, -0.049747624, -0.02706545, 0.008624455, -0.062431335, 0.0076870765, -0.0063209734, 0.016217725, 0.03844138, 0.041966196, -0.02987136, -0.053702567, 0.042184014, 0.0080806175, -0.017583754, -0.094875306, 0.03090488, -0.009251845, 0.10132256, -0.005362948, 0.012104689, 0.014991023, -0.054117203, -0.01843078, 0.052845046, -0.006418808, -0.040609863, -0.01100114, -0.039651256, -0.05067209, 0.041161794, 0.03215568, 0.036468614, 0.12821075, 0.014227231, -0.043911837, -0.044957094, -0.06112134, 0.0045449566, 0.010821801, 0.04784882, -0.0014821988, 0.009786296, -0.012561593, -0.03907563, 0.013790632, 0.011878472, 0.026959565, 0.028690828, 0.063969724, -0.053588696, -0.0083399685, -0.10023145, -0.01598922, -0.06832486, 0.02971018, -0.03594423, 0.11351384, 0.018272359, -0.009688345, -0.06584477, -0.043219768, 0.017532563, 0.04139566, -0.042226985, 0.023634002, 0.084456064, 0.014683977, -0.005958847, 0.025115551, -0.0449035, 0.015773483, -0.018515019, 0.06528887, -0.057910707, 0.02648616, -0.06520219, 0.06675273, 0.046735995, -0.047068104, 0.017892, 0.055757746, 0.0069472333, -0.025807273, 0.00066681614, -0.052745353, 0.00904745, -0.044360217, 0.014435697, 0.03628907, 0.007490356, -0.0020552615, 0.018939868, 0.023912108, 0.0024020472, -0.021945953, -0.07084588, -0.008226797, -0.031811234, 0.0072135017, -0.035491947, 0.0078935195, 0.018447258, -0.10151139, -0.036224905, -0.010416822, 0.06791272]</t>
         </is>
       </c>
     </row>
@@ -4399,38 +4430,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>배우성</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
+          <t>김용기</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Studies on frozen dough baking - processing factors involved in dough rheology
-and bread volume</t>
+          <t>In-vitro instrumental stimulation of oral breakdown of rice gels with different amylose contents</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>As the world’s largest industry, the baking industry is facing a challenge of technological innovations. Specifically, the segment of frozen baked products is currently one of the fastest growing areas at the industrial level due to their time- and cost-saving advantages. However, there still exist a number of processing variables to diminish the quality attributes of frozen dough bread, discouraging the food industry to develop a variety of frozen bakery products. In this study, frozen dough bread samples were prepared under various processing conditions (dough shape, pre-fermentation, freezing rate, thawing methods). Then, their effects on the extensional property of frozen dough were evaluated and correlated with the final volume of bread. Yeast bread doughs were prepared by using an AACC bread model system and their rheology and bread volume after frozen storage were characterized by using the Brabender Extensograph and laser volumeter, respectively. When the dough samples were frozen in the shape of balls and plates, they exhibited different values of volume. However, there seemed to be no distinct differences in dough extensiblity and bread volume among the samples when they were frozen at different freezing rates (23 – 108 oC/h). Pre-fermentation caused a significant reduction of the final volume of bread, demonstrating that unfermented freezing produced a good bread volume. Also, the final volume of frozen dough bread was affected by different thawing methods. Thus, the rheological properties of frozen dough and the final volume of bread after frozen storage were distinctly influenced by various processing parameters. This study provides valuable fundamental information for better control of frozen dough yeastleavened bakery products.</t>
+          <t>In-vitro food mastication has been simulated by incorporating size reduction process, followed by incubation with human saliva. However, they do not suffice to simulate the actual oral breakdown process where disruption by mastication (chewing) and wetting/lubrication by salivation take place simultaneously. In this study, in-vitro oral digestion of rice gels with different amylose contents was simulated by instrumentally performing mastication and salivation. The hardness of artificial saliva-treated rice gels was distinctly lowered with increasing chewing cycles and the rice gels with high amylose contents showed the highest degradation rate. When the rice gels were subjected to non-destructive tomographic analysis, the high amylose rice gels were clearly shown to be favorably fragmented into smaller pieces by chewing, followed by the low and intermediate amylose samples. These results could be explained by their cohesive
+texture rather than hardness. Therefore, this study may help understanding the changes in the physical properties of cereal-based foods during oral digestion.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[0.076226994, -0.038246192, 0.06780874, 0.006238594, 0.093601696, -0.00392752, 0.0069872644, -0.026106058, 0.08718626, 0.026986891, 0.024516901, 0.002545703, -0.05010398, 0.03979617, -0.024810748, 0.010149, -0.018469132, 0.019182002, 0.08567592, -0.0151096685, -0.050354842, -0.0100654075, -0.05271199, 0.080218375, 0.11666507, 0.020569507, 0.042475235, -0.06004222, 0.030829024, -0.008007904, 0.05684418, 0.0035740915, -0.04879129, -0.060798507, 0.016033161, -0.0030393805, 0.053896748, 0.040499907, 0.031451046, -0.0011832974, -0.08223887, 0.014595323, 0.0931613, 0.031395905, -0.058712475, -0.02700533, 0.03778907, 0.0070145694, -0.026683066, 0.042789333, 0.00036472265, 0.028852915, 0.014149031, 0.0056668487, 0.040618356, -0.069743134, -0.070222884, -0.018771093, -0.007152969, 0.019781154, 0.02485403, -0.024517002, -0.0344711, 0.03994652, -0.008547528, 0.002826845, -0.006267626, 0.0386839, -0.02512166, 0.005289514, 0.0043237796, 0.026115006, 0.010459979, 0.030772893, -0.076696984, -0.041372247, 0.0011001276, 0.022709582, -0.058211684, -0.024463631, -0.00610578, -0.06740888, 0.08498208, -0.067086406, 0.021155758, 0.00058320764, 0.011263352, 0.06911995, -0.024642011, -0.016160332, 0.054553993, -0.008468169, 0.061368216, 0.019237995, 0.025070975, 0.031312495, 0.069818795, 0.11342265, 0.06526542, 0.05609077, 0.048706543, 0.050593782, -0.051978007, 0.0483261, -0.015956137, -0.0266879, 0.036252815, 0.013490249, 0.0054191016, -0.009670943, 0.01847093, -0.06866787, -0.057381727, 0.06420019, 0.053815126, 0.010322536, 0.020810364, 0.059242733, 0.020994164, 0.050373774, 0.032834496, -0.05121524, 0.047135863, 0.008248567, -0.008861782, 0.011437869, 0.034085333, 0.0068359403, 0.03153124, -0.07077761, -0.009809177, 0.029783724, -0.046799354, 0.040115405, 0.022198537, 0.0050946265, 0.0026140828, 0.004457408, 0.07683329, -0.01447971, -0.036685564, -0.030263724, 0.0035644227, -0.021899931, -0.005456184, 0.025159664, -0.056211077, -0.09619556, 0.017026661, 0.028976204, -0.062476628, -0.037237186, 0.010914392, -0.09543575, 0.01732079, -0.06040807, 0.00067998935, 0.07944966, 0.009382008, -0.035953462, 0.0054948623, -0.044343963, -0.036408555, 0.07235907, 0.0074890046, -0.008813708, 0.04410217, 0.0023175557, 0.017989561, -0.028303085, 0.00999662, -0.010335042, 0.012259093, 0.008526699, 0.0023858817, -0.033236455, -0.022386225, -0.0027115794, 0.07318506, -0.13759434, 0.022090888, -0.004726367, 0.011399778, 0.017133718, 0.018233694, 0.006870354, 0.01532163, -0.051912136, 0.02490924, -0.015024178, -0.07904941, 0.068406925, -0.0045643584, 0.038442206, -0.004031194, 0.006064317, 0.011257671, 0.011319426, 0.039021242, 0.025918955, 0.015617214, 0.010379009, 0.053315323, 0.004368137, 0.014488972, -0.011113769, -0.033978917, 0.011264035, 0.029806301, 0.008447466, -0.012158113, -0.03348997, -0.05035817, 0.036607012, 0.0020437813, -0.015554112, -0.020782419, -0.015073402, 0.0010899534, -0.007688795, 0.06611825, -0.06243235, 0.0026466066, 0.0552259, -0.04819673, 0.015458993, 0.07251182, 0.07662641, 0.017139325, -0.013213471, 0.046867132, -0.066786386, -0.039670374, -0.07815638, 0.0573168, 0.047703717, -0.01951901, -0.022208342, -0.043309193, 0.056041136, -0.031231383, -0.01772502, -0.00093059166, 0.07569208, -0.044349607, -0.03163322, -0.03174956, 0.010091296, -0.029418454, -0.016896049, -0.038217254, 0.09898175, -0.045934133, 0.0074599595, -0.0013919405, 0.037307873, 0.071460694, 0.013414057, 0.04734679, 0.00248985, -0.045280535, -0.016056241, 0.052228868, -0.031228853, -0.022658313, -0.055852994, 0.01710455, -0.032825693, 0.008420981, 0.0070839296, 0.005805647, -0.0323016, 0.072456285, 0.018718258, -0.01580301, 0.028626882, 0.03514552, -0.048630774, -0.021706069, -0.07067654, -0.003588973, 0.03378594, -0.032878965, 7.2803115e-05, 0.017911898, -0.05125584, -0.066496134, -0.06438395, 0.022810573, -0.007294923, -0.009548356, -0.033238772, 0.052078992, -0.042382836, -0.07155954, 0.0416708, -0.03719358, 0.038939748, -0.0083515225, -0.01845102, -0.05489435, 0.051530905, 0.09311472, 0.025382657, 0.005408412, -0.037662994, -0.0074607707, 0.024441639, 0.038622607, 0.0008361999, 0.011564258, 0.021592697, -0.01650635, 0.0783678, -0.07228086, -0.012378338, 0.018288713, -0.06102398, -0.04177633, -0.0032599033, 0.04423339, 0.052871846, 0.028395595, -0.0053555747, -0.05007345, -0.0069756447, -0.02233598, -0.039609592, -0.023642063, 0.04452287, -0.029108204, 0.0018653636, -0.0051141717, 0.027457431, -0.06808544, -0.018397266, -0.0539156, 0.011160223, -0.021148413, 0.026270512, -0.04038611, 0.012051551, -0.023657773, 0.00017884141, -0.040723186, -0.011779446, 0.065331586, -0.031635046, 0.0158062, -0.072267696, -0.013309905, 0.022400342, 0.013945847, -0.0361525, -0.08618004, -0.06623294, -0.015247694, -0.0471992, 0.11236998, -0.006621219, -0.0116443215, 0.037050344, -0.08430336, 0.036480576, 0.08744954, -0.049674574, -0.027585857, 0.035561576, 0.0068180803, -0.05357195, -0.058112543, 0.006337034, -0.006392397, -0.0076585207, 0.014865194, -0.028339377, -0.004451455, 0.0005573886, 0.07339124, 0.0019758972, 0.009898429, 0.0341562, -0.045166142, -0.06948711, 0.019351894, -0.0015262043, -0.059402622, 0.086588524, -0.015812919, -0.06396617, -0.01778931, 0.055608604, -0.0113236625, 0.09609016, 0.018073872, 0.029251186, -0.0060088527, 0.016190797, -0.03567257, -0.00206009, 0.0431356, -0.0060459147, 0.019256733, -0.039141607, 0.04868656, -0.043329217, -0.029576637, -0.015714733, -0.0040611345, -0.010156206, 0.011649151, 0.0016349587, 0.014543984, 0.035052378, 0.049798984, 0.02455938, -0.01167818, 0.015908778, 0.0048598372, -0.009879298, -0.041411158, -0.059492383, -0.06141757, 0.04570999, -0.02225043, -0.066254646, 0.0074347206, -0.056551084, -0.042146176, 0.0026902233, 0.060630143, -0.05886578, -0.011594486, -0.026058543, -0.02527131, 0.032002114, -0.04253886, -0.0043755467, 0.04750812, 0.08727828, 0.034382276, -0.07746535, -0.03510029, 0.060752038, 0.028004302, 0.07842176, 0.03748993, 0.026227143, 0.022473585, -0.017964844, 0.059115127, 0.072182275, 0.0351891, 0.10362999, -0.087380804, -0.028148623, 0.0047748107, 0.020556184, -0.03072602, -0.03218932, 0.031585284, 0.04583586, 0.08473759, 0.0044748727, -0.020587528, -0.026647452, -0.09582008, -0.0016332063, -0.041144278, -0.023435969, -0.05615482, 0.038195405, 0.025509436, 0.014891422, 0.006068715, -0.011416475, -0.023610573, -0.00030442863, -0.06356282, 0.027951704, -0.02893825, 0.027378462, 0.028733034, -0.015537864, -0.027086034, 0.029003887, 0.03164925, 0.06117182, 0.0017810697, -0.06692324, -0.015692815, 0.019911481, -0.03432993, -0.026623596, 0.044480998, -0.020500107, -0.030090934, 0.0028675487, 0.024221681, -0.026574865, -0.031025069, -0.022936359, -0.015196516, 0.025280112, 0.06245742, -0.0130558135, 0.041728836, -0.017778944, -0.14666818, -0.0042351643, -0.02823741, 0.0356804]</t>
+          <t>[-0.06584913, 0.089246854, 0.032307122, -0.022533271, 0.117023155, -0.044664312, -0.010968947, -0.06456932, -0.027077928, 0.047914043, -0.0673385, -0.0374144, 0.08167827, -0.023804694, -0.041750938, 0.057096392, -0.031511176, 0.033482086, 0.012026867, 0.038316373, -0.009112624, 0.01782001, -0.04718645, 0.045334082, -0.036597144, 0.03822302, 0.08654748, -0.027442621, 0.005669947, -0.008976519, 0.05918507, -0.044834673, 0.009710527, -0.004369457, 0.011484835, 0.012635026, -0.019249741, -0.0057883025, 0.050904077, 0.0022364412, -0.052844483, 0.04551213, -0.016026083, -0.021069828, 0.011737517, 0.010542585, 0.013433003, 0.007894194, -0.025924731, 0.01864629, -0.012433868, -0.022129511, -0.007797328, 0.045672346, 0.014913294, -0.0013524705, -0.06286601, 0.0010366838, 0.030353524, -0.021354148, -0.043180935, -0.022900486, -0.04965852, -0.0063131936, 0.055052806, -0.0060885367, 0.0004855592, -0.028411815, 0.027620815, -0.001817875, -0.056944605, -0.008887872, 0.066851, 0.0051689832, -0.0635706, -0.02220596, 0.046582457, 0.032768596, -0.052113604, -0.010393635, -0.020523148, -0.068024054, 0.025096515, -0.043711882, -0.03620426, 0.0810537, -0.033421386, 0.028329605, -0.019952387, 0.015002359, -0.0249793, 0.008718048, 0.13886876, 0.055775285, 0.03231093, 0.031249598, 0.030995324, 0.02457495, 0.047210645, 0.021844935, -0.03112264, 0.035077628, -0.05898259, -0.019088332, 0.015872708, -0.027847417, -0.018710112, -0.032459002, 0.061519377, 0.024800364, 0.034243394, -0.06878023, 0.036088675, 0.013428387, 0.03967628, 0.039721422, 0.024920896, 0.015282848, -0.0063656247, 0.020297451, 0.044083588, 0.005531896, -0.013215287, 0.048726328, -0.02426245, 0.03558022, -0.006960269, 0.0023460742, -0.009984167, -0.031444147, 0.01940903, 0.0827148, -0.014522177, 0.03030648, 0.013286567, -0.050654784, -0.047719836, 0.03643103, 0.005394509, -0.045273494, 0.037702914, -0.026473999, 0.033092912, -0.033109948, -0.014985167, -0.025421618, -0.053156883, -0.0146500375, -0.0067508197, 0.023064276, 0.063723974, 0.024093531, 0.04877122, -0.031194743, -0.015703693, -0.06912859, -0.06338217, -0.036963694, -0.019731017, -0.034453332, 0.051693175, -0.012006542, -0.04507418, 0.035979945, 0.07332015, -0.07708718, 0.056956124, 0.016075425, 0.018687539, 0.019373726, -0.00076569134, -0.013806596, 0.04874282, -0.021713773, -0.0024209886, -0.009016398, -0.026718782, -0.025590584, 0.03272192, -0.040093392, 0.004725147, -0.08331837, -0.020635912, -0.009884074, -0.046531152, 0.006217304, 0.046778295, -0.02676398, 0.061874006, 0.03366039, -0.02435142, 0.009739351, 0.037317522, 0.024077954, -0.029985597, 0.005756223, 0.043046962, -0.045459975, 0.033363722, -0.005254257, 0.013195061, 0.033090528, 0.027067645, -0.05373438, 0.04176745, 0.025841909, 0.015853606, 0.036971487, 0.006303177, -0.042620946, -0.023173528, 0.07345332, 0.024643276, -0.05762049, 0.0499242, -0.017808722, -0.018636452, -0.032718685, 0.049436048, -0.0029021085, -0.024686849, 0.037493788, 0.004076485, 0.07802879, -0.04679666, -0.010023285, 0.069517955, 0.025594749, -0.06434202, -0.040624086, 0.02361565, -0.019403521, 0.0034548356, 0.008259258, 0.05068919, 0.06148701, -0.033822928, -0.041860823, 0.0062396443, 0.07112307, 0.0050481437, 0.004763181, -0.030411357, -0.0039578304, 0.012815256, -0.0005116354, 0.043306123, -0.025670962, -0.043809377, -0.051241282, -0.027356666, 0.045904912, -0.016820846, -0.0035999278, -0.008924148, -0.03338149, 0.03807055, -0.11666391, -0.004113094, -0.04223649, 0.012372679, -0.0549973, 0.011153181, 0.033858735, -0.058447335, -0.030073583, 0.0038308809, 0.06339231, 0.0019345052, 0.00029701812, -0.048517685, 0.023974724, -0.0074959826, 0.036795475, -0.11390415, -0.06591975, -0.035619255, 0.022610197, 0.054426383, 0.066384695, 0.01123652, 0.005193965, 0.013701529, -0.021977581, -0.0015139438, -0.023396371, 0.019021083, -0.008028521, 0.007062762, -0.036082737, 0.018215634, 0.015465994, 0.030516487, -0.037489384, -0.06688443, 0.06653125, 0.005947741, 0.038765643, 0.0042023477, -0.029965632, -0.027479514, 0.054981038, 0.014071428, 0.057889886, -0.021510623, 0.012561365, 0.021068346, -0.049358003, -0.025125166, 0.012471201, -0.06379211, -0.0002391939, 0.010687776, 0.058735274, -0.052470926, -0.05952165, 0.0036435258, 0.0063066, -0.009789269, -0.047060072, 0.009987093, 0.04730189, 0.004790927, 0.0062961876, -0.076767184, 0.023715846, 0.022467278, -0.05890922, -0.04608142, 0.042030882, 0.027703216, 0.0063759172, -0.0013593949, -0.02014788, -0.024386682, -0.005354761, 0.0130373705, 0.053314246, -0.026311403, 0.004021539, 0.0034795394, -0.046009272, -0.007581546, -0.034932353, -0.04114638, 0.045821734, 0.04896821, 0.025755452, -0.05099012, 0.0012809106, 0.0019110818, 0.0059029707, 0.021583501, -0.01662861, -0.03157989, 0.033778492, -0.05192373, -0.02944817, 0.0025473926, -0.0005208735, 0.052250005, 0.006223871, -0.0008959096, -0.030187419, 0.0056801303, -0.056147367, -0.058364864, -0.051677972, -0.02668378, 0.0074696215, -0.007211759, 0.021401549, -0.024794811, 0.014811995, -0.026803853, -0.061710127, 0.009068333, 0.014837344, 0.056089893, 0.011689084, 0.00026115542, 0.025277222, 0.035233352, -0.07461509, -0.045619722, -0.035348874, -0.05362548, 0.045499027, -0.014650615, -0.02902089, 0.07265028, 0.08147364, 0.007832646, -0.025581313, -0.00913722, -0.01434391, 0.012764045, -0.013750234, 0.041685715, 0.010184512, 0.011087334, 0.05754186, -0.004812767, -0.04695429, 0.00448743, 0.0066239294, 0.044973373, 0.012610078, -0.0535428, 0.026279386, 0.035867788, 0.0028954076, 0.044795405, 0.05798466, 0.0055470495, 0.038917348, -0.07008191, 0.029117648, -0.008217598, -0.06015712, -0.035454974, 0.045891516, -0.015588543, 0.010090535, -0.04004362, -0.006665701, -0.0049651903, -0.03367566, 0.042082407, -0.030831125, -0.018652035, 0.017747333, 0.0031474435, 0.04360452, -0.022301555, 0.024239635, 0.060745668, 0.0053791255, -0.024110671, 0.022835309, -0.008958719, -0.048902024, -0.016306316, -0.0006109404, -0.0024368304, -0.0336412, 0.019474097, -0.076329514, 0.03891667, -0.03769025, 0.02377323, 0.013301155, 0.0010175282, -0.020731548, 0.00830507, -0.060388863, -0.03561013, 0.0050950986, -0.066880174, -0.045393057, 0.0056726052, -0.036542673, 0.075654685, -0.0069705714, 0.05074043, -0.010704791, -0.030891476, 0.05667341, -0.00037760296, 0.053617783, -0.043984544, 0.07278006, 0.017554317, -0.013678015, -0.08242154, -0.016622432, 0.017076937, -0.025821188, -0.03582334, 0.0024676973, -0.0015590895, -0.028331904, 0.06674987, 0.016433781, -0.084202595, 0.017847057, 0.04128534, 0.031734426, 0.030067658, 0.02250866, -0.06022357, 0.027230121, -0.006190188, -0.0083580855, -0.027536236, 0.025121938, -0.01460138, 0.0043793633, -0.011411864, -0.01639022, 0.02560706, -0.028755432, -0.053419348, -0.02338624, -0.031492118, -0.01877361, 0.027243208, 0.011312421, -0.13049988, -0.006194315, 0.015375111, -0.03670872]</t>
         </is>
       </c>
     </row>
@@ -4439,38 +4466,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>김유정</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
+          <t>박유진</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Effect of preharvest-dropped apple powder on the thermal, rheological, and
-oil-resisting properties of instant fried noodles</t>
+          <t>Utilization of turanose as a quality improver in gluten-free extruded rice noodles</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>The exposure to an unexpected weather condition can cause heavy preharvest fruit loss, consequently giving rise to severe economic damage to the agricultural industry. Therefore, a great deal of effort needs to be exerted for delivering higher values to the preharvest-dropped fruits. Specifically, the utilization of preharvest-dropped fruits as a functional food ingredient, can be of great economic benefit to the food industry as well as fruit growers. In this study, preharvest-dropped apple powder (PDAP) was prepared and incorporated into the formulation of instant fried noodles. Then, the effect of PDAP on the quality attributes of the noodles was investigated in terms of thermal, rheological, and oil-resisting characteristics. PDAP contained a high amount of dietary fiber (15.0% insoluble and 6.8% soluble fibers) and sugar (39.7% fructose, 20.7% glucose, and 6.1% sucrose). In a wheat dough system, the water absorption decreased with increasing levels of PDAP while the dough stability was enhanced. The use of PDAP for wheat flour produced noodle dough samples with less viscoelastic and tensile properties, which could be correlated to the reduced breaking stress of fried noodles. The fried noodles prepared with PDAP had a more compact and continuous surface structure with fewer and smaller pores, showing the distinct reduction of oil uptake by 42%. A good correlation was favorably observed between the oil content and PDAP level (R2=0.96).</t>
+          <t>Gluten-free industry has experienced consistent growth with increasing the number of individuals with celiac disease. Among gluten-free products, the popularity of rice noodles has been worldwide increasing over the recent years. However, rice noodles have several processing limitations such as high cooking turbidity and long cooking time. Therefore, various ingredients have been incorporated into the formulation of rice noodles in order to improve their quality attributes. In this study, turanose which is known to be a new sugar alternative with low sweetness was applied to rice noodles and their effects were characterized in terms of thermal, rheological, and textural properties. Gluten-free rice noodles were prepared with different levels of turanose (0.5, 1.0, 1.5%, w/w) by using a twin-screw extruder. Rice flour with turanose had higher gelatinization temperature and also showed higher enthalpy values after storage at 4°C. The use of turanose also increased the pasting and mixing parameters of rice flour. In addition, the application of turanose to rice noodles affected their qualities such as texture and cooking loss. Thus, this study demonstrated that turanose could positively contribute to enhancing the qualities of gluten-free rice noodles as a new additive.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[0.048209768, -0.035996962, -0.019793838, 0.022408605, 0.12973556, 0.02663107, -0.01776823, 0.03937039, 0.018133907, 0.032194413, 0.029715564, -0.015892358, -0.041533865, 0.069582336, -0.0093826745, 0.012240875, 0.036687866, 0.017055225, 0.050371133, 0.022473399, -0.07821244, 0.023951307, -0.02901006, -0.0081977425, 0.07660229, 0.03075384, 0.004578439, -0.043415543, 0.029244963, 0.036197316, 0.02660099, 0.013779505, -0.014611511, 0.0066225603, 0.078689404, -0.0018583573, -0.038824596, -0.020186506, 0.12091286, -0.013932062, 0.0008758493, 0.041602924, -0.017383272, -0.050078247, -0.089292295, -0.023936525, 0.0016002352, 0.002774711, -0.053326663, 0.026242454, -0.0069050784, 0.003358644, 0.03171916, -0.0023974471, 0.043127913, -0.04485852, -0.019300705, -0.04322805, -0.031206345, 0.019303938, 0.040650442, -0.088026285, -0.010837312, 0.02796815, -0.019849563, -0.01668145, 0.016779857, 0.034570146, -0.0153036015, 0.022238033, 0.011719812, -0.019741183, -0.015434068, -0.016079491, -0.044234004, 0.04673492, 0.011716302, 0.08262838, 0.020241547, 0.008295929, 0.012133889, -0.049828637, 0.04446172, -0.107094586, 0.002421963, 0.020412918, -0.051379513, 0.06767592, 0.026418017, 0.03804639, -0.060426634, -0.056439057, 0.09681158, 0.022461215, 0.066935696, 0.05339384, 0.10695134, 0.022582022, 0.063524075, 0.06332342, 0.017307382, -0.0194188, 0.025478473, 0.07004865, -0.06848978, -0.03606157, 0.040927965, -0.023642557, 0.008906604, 0.07753306, 0.005570669, -0.08772779, -0.0079854885, -0.044493057, 0.025721282, 0.06059316, 0.014655352, 0.016764231, -0.010367137, -0.0029749656, 0.031043874, -0.06328168, 0.003394278, 0.08171738, 0.01702723, -0.055186775, -0.054351196, -0.083870955, -0.003607047, -0.059599448, -0.03765509, 0.036449723, 0.0038154423, -0.0031561935, 0.02501662, -0.00059667503, -0.05840864, -0.055632163, 0.035994504, -0.0014990328, 0.026713783, -0.022620862, 0.015270627, 0.00070949725, -0.036040235, 0.0102031855, -0.0058758184, -0.0026028764, 0.04768768, -0.015591447, -0.009174426, 0.01015823, -0.0057041133, -0.0021952423, -0.106377326, -0.06612349, -0.06810244, 0.0012644066, -0.032096855, 0.014448419, 0.008249766, -0.023587469, -0.053199857, 0.030717785, -0.033397876, -0.028306944, 0.04410767, 0.019047234, -0.0035002793, -0.048794616, -0.017337339, 0.00011201389, -0.038758077, -0.044582255, 0.09914604, -0.061359696, 0.021496689, -0.07623367, 0.030595977, -0.020306155, -0.0089567425, -0.059541777, 0.048754692, 0.02968254, 0.020055687, -0.06319942, -0.062257685, -0.04358297, 0.039957482, 0.023546802, -0.01794219, 0.018846076, 0.035805248, 0.037246723, 0.040829062, 0.02284912, -0.00048684652, 0.03315478, 0.05295033, -0.02107847, -0.005093061, 0.022076577, 0.042237163, 0.0002911389, 0.021471575, 0.00046392405, -0.03519855, -0.007891551, -0.0022437552, -0.014569943, -0.058032166, 0.035626456, -0.009080493, -0.01658738, 0.047725, 0.016833542, 0.013973766, 0.009570815, 0.022673497, -0.0044299043, 0.059291024, -0.027284358, -0.09553993, 0.072647765, -0.021855326, 0.059954166, 0.04721485, -0.03860348, -0.01622435, -0.041961163, 0.04219363, -0.08510971, -0.04407314, -0.07132726, 0.04313436, -0.023616448, -0.02368864, -0.017470863, 0.03892075, 0.09631226, -0.057131432, -0.0584757, 0.025619641, 0.004862676, -0.050083183, -0.048432183, 0.031599246, -0.02601598, -0.044780124, -0.034072727, -0.01936791, 0.05608239, 0.011584868, 0.020415228, -0.03661063, -0.059035577, 0.041236803, 0.023694089, 0.036880404, 0.029921358, 0.018320434, 0.03198048, -0.005758484, -0.01636172, -0.05254623, -0.029698797, 0.035306487, -0.020450896, 0.060242165, 0.010129855, 0.07491761, -0.00921241, 0.057373594, 0.013426265, 0.006784814, 0.047942884, 0.012995255, -0.041257374, -0.019606957, -0.03893633, -0.014776769, 0.0015279073, -0.010999737, -0.053393673, -0.06141717, -0.03138399, -0.016204236, -0.02255336, 0.011842788, -0.012832154, 0.0034534787, 0.0022864488, 0.016568137, 0.03927173, -0.07234923, 0.06461381, -0.031613674, 0.007323448, -0.01632434, -0.0036615427, -0.015898338, -0.027127545, -0.009112342, 0.08709404, -0.0022168355, 0.057057273, 0.030631933, 0.048298348, 0.023579525, 0.030690802, -0.0019703966, -0.0009887378, 0.005340969, 0.05916283, 0.0014730201, -0.047401924, 0.016547313, -0.014402914, -0.05052905, -0.036930133, -0.01970107, 0.031267215, 0.006311184, 0.01815718, -0.030406473, 0.02996324, -0.0146737145, 0.025150843, -0.028068885, 0.023030143, -0.027743338, -0.0047885706, -0.021772483, 0.024001068, 0.03728884, 0.033504225, -0.018672943, 0.008663804, 0.0028570907, 0.042591415, -0.053576563, 0.018266287, -0.014936876, 0.004212311, -0.025311647, 0.07080629, 0.007062882, 0.035311423, 0.029897695, -0.004978573, 0.029392846, -0.013803235, -0.00867731, -0.027762659, -0.020606993, -0.012619474, -0.026903085, -0.04043758, 0.0803122, -0.034353714, 0.005819958, 0.079999685, -0.030502373, 0.059005287, 0.01833802, -0.091005, 0.0004222649, -0.0071773347, 0.0041930815, 0.023564486, -0.003764239, 0.015565675, 0.033702783, 0.030129733, 0.04392622, 0.02762879, -0.027808491, 0.0059545883, 0.064916685, 0.002286501, 0.019766262, -0.031757653, -0.0053498903, 0.011778468, -0.04073853, -0.0073562437, -0.0851085, 0.017853793, -0.03189129, -0.083554864, 0.012495197, -0.023911078, 0.059705306, 0.0068542645, 0.00718048, 0.044769052, -0.0018515778, -0.0062389965, 0.02101411, -0.031160168, 0.046075843, 0.0016908587, -0.07269184, 0.046894655, -0.019296495, -0.023911474, -0.018226739, -0.033924527, -0.013807585, -0.09886947, 0.038700297, -0.03098519, -0.018000916, 0.02030151, 0.047059935, 0.019766957, 0.05778119, 0.01806942, 0.021741105, 0.05695414, -0.008040806, 0.041060437, -0.023950791, 0.005812679, 0.040427662, -0.025939781, -0.006753542, -0.009711406, -0.037376918, 0.0111024305, 0.0027555842, -0.034070183, -0.0017349637, -0.028008886, -0.066062436, 0.042467237, -0.02689812, 0.024625218, -0.049350843, 0.04202615, -0.0037925951, -0.066154934, 0.0428268, 0.07158267, -0.04304949, 0.04825587, 0.009490568, 0.023406656, 0.023729255, -0.01796064, 0.016394768, -0.0067287465, 0.033738203, 0.030793209, 0.00774085, -0.1353424, -0.061341252, -0.027114982, -0.04649967, 0.023214515, 0.007231722, 0.012202349, 0.031305112, 0.03740058, 0.019134255, 0.012071725, 0.06796975, 0.009749375, -0.020635258, -0.08113485, 0.008211623, 0.04572657, -0.01341973, -0.03984862, -0.016352026, -0.039916452, -0.011547348, -0.027001, -0.010565171, 0.09943507, -0.043371927, 0.017666547, 0.044818413, 0.0424334, 0.008459056, 0.05428978, 0.028760662, 0.03772066, -0.030117385, -0.015201007, -0.073221795, 0.018190058, -0.082762435, -0.08948513, 0.09661958, 0.01629722, -0.045662675, 0.0117311925, 0.015341963, -0.003621162, -0.025358452, -0.064512305, -0.015411238, -0.03849519, -0.038579132, -0.07134754, -0.0022732199, 0.03423605, -0.10881186, -0.042922914, -0.040103357, 0.08165124]</t>
+          <t>[-0.009563004, 0.008609795, 0.03235681, -0.004621729, 0.09297187, -0.025591446, 0.0008045992, -0.010701999, 0.041465722, 0.024747567, -0.09536157, -0.033828538, 0.0041311355, 0.06446022, 0.0065098354, 0.032311846, -0.038535923, 0.022637736, 0.029860666, 0.018156078, -0.03516393, 0.025491625, -0.06479052, 0.06279916, 0.02447513, 0.0053272825, 0.052561775, -0.06127379, 0.07884727, -0.036227517, 0.06443889, -0.045597907, -0.02312085, -0.045443118, -0.080093905, 0.0043039736, 0.082922556, 0.035852727, 0.07861703, -0.00639618, -0.032560036, 0.03446066, 0.0114593385, -0.02099049, 0.029140228, 0.012164337, -0.010511093, -0.031656608, -0.05376097, 0.0150256045, 0.025196536, -0.012176453, 0.010214851, -0.015385302, 0.06270021, -0.06651041, -0.04263569, 0.015114654, 0.0036862511, 0.030454095, -0.008204983, -0.022160236, -0.066684924, 0.0041074986, 0.008153896, 0.04460107, 0.05206754, -0.0025310498, 0.019362602, 0.04114157, 0.01172159, -0.014511487, 0.0332984, 0.031180048, -0.09781063, -0.055837046, 0.033926446, 0.00081845775, -0.049330812, -0.034709238, 0.017691895, -0.047873925, 0.028090455, -0.029365856, -0.05026387, 0.060914066, -0.08950924, 0.00241513, -0.0064642127, 0.033232726, 0.03144035, 0.0056829215, 0.118791565, 0.007844619, 0.057301484, 0.04859344, 0.06891017, 0.08143119, 0.024642639, 0.066429086, 0.000725774, -0.014511801, -0.028712502, 0.017084341, 0.018383283, -0.026473535, 0.055135984, -0.00095275993, 0.04435043, -0.012962084, -0.051653143, -0.055663165, -0.028003288, 0.020044267, -0.00093282823, 0.01799253, 0.039676756, 0.06413299, 0.0055660927, 0.015431081, 0.013093186, -0.00044133802, -0.009361931, 0.045911293, 0.014670699, 0.060126066, 0.0552606, -0.022416413, 0.0108664585, -0.024953851, -1.0487158e-05, 0.05244995, -0.025232304, 0.065794714, -0.009133112, -0.015140307, 0.021626094, 0.056458738, 0.0018067487, 0.03488617, 0.020872524, 0.06658454, 0.051468775, -0.007473285, -0.023250038, 0.03804676, -0.081799954, -0.055783458, -0.004179925, 0.03095753, 0.013020098, 0.016998444, -0.010168166, -0.089430414, -0.075998984, -0.053296443, -0.04287985, 0.014639673, -0.018680071, -0.013431869, 0.026595615, -0.062505215, 0.004624248, 0.017971545, -0.0094933845, 0.033069924, 0.059760243, 0.02379382, -0.036865238, 0.059332408, 0.004365149, -0.01495811, 0.013154707, 1.5034806e-05, -0.028645724, -0.013116839, -0.0025483218, -0.0154395765, 0.06991684, -0.03535721, 0.031946886, -0.04710567, -0.019518932, -0.05868366, 0.006401595, -0.019690001, -0.014588439, -0.061508726, 0.0063978187, 0.02506731, -0.10442158, 0.012845323, 0.06758063, 0.024431719, 0.0032161074, 0.006079987, 0.027075615, -0.024044055, 0.11428672, 0.08284829, 0.025785983, 0.035831183, 0.024098963, -0.03482694, 0.05142871, 0.004567788, -0.00024219276, 0.018916612, 0.010578543, 0.045269337, -0.060053863, -0.049120154, -0.019422889, -0.006397391, 0.038883723, -0.02767008, -0.03317585, -0.012911523, -0.003017938, 0.044880763, 0.06151029, 0.047289547, -0.05740109, 0.027872644, -0.09918603, 0.008260504, 0.010903973, -0.001601391, 0.047051527, 0.022427136, 0.004885014, -0.07316473, 0.0022013977, -0.019643426, 0.08587599, -0.017344728, -0.018529588, 0.004197373, 0.04397273, 0.06732705, -0.02279875, -0.018144788, -0.010331911, 0.07917643, -0.024774041, -0.061758243, -0.058784097, -0.07916432, -0.07173268, 0.0019003712, -0.0020189644, 0.034156337, -0.00037521214, -0.005204165, -0.011163475, -0.013627089, 0.012409188, -0.075577915, -0.06197321, -0.013880053, -0.013579158, -0.052399136, -0.020161685, 0.008919811, -0.015547673, 0.016600626, 0.030020118, 0.070673145, -0.008811648, -0.036708757, -0.029282488, 0.023160398, 0.044080053, 0.047049917, 0.027018292, 0.073169485, -0.056304324, -0.07687255, 0.018816514, -0.035018943, -0.039066646, 0.0033995593, 0.02063033, -0.017922584, -0.03232713, -0.041064456, -0.032831077, 0.0034070534, -0.05734519, -0.057654843, -0.028597772, -0.04851337, 0.065260805, 0.0021655099, -0.06839012, 0.07390392, -0.0137313185, 0.04292715, 0.0024307927, -0.01960294, -0.02529546, 0.055693347, 0.04819108, 0.0324944, 0.0023749496, -0.013268844, -0.08157977, -0.0027552657, 0.084212475, 0.030463506, -0.015104182, 0.013501353, -0.013254026, 0.064886205, 0.0048669185, 0.05639076, -0.017345447, -0.03413419, -0.03914343, -0.06425503, -0.021734787, 0.069213025, -0.0269463, 0.00306473, -0.0065965946, 0.09873598, -0.026693223, -0.021690622, -0.034653164, 0.045456626, 0.017908555, -0.019938443, 0.039203167, 0.04565546, 0.0014489152, -0.07607816, -0.052544113, -0.028537689, 0.03150319, -1.075631e-05, 0.010771639, -0.018670587, 0.06270838, 0.009354731, -0.0652253, 0.009976364, 0.07320266, 0.048177518, -0.026867695, -0.04064649, -0.028251978, -0.005731757, 0.016016752, -0.0100551415, 0.04762391, -0.00671342, -0.054389603, -0.044241924, -0.0012420664, -0.004015022, 0.05688111, -0.07106524, -0.010534413, -0.038863417, 0.012027405, 0.016122574, -0.042811252, -0.053659838, 0.035728343, -0.029379794, -0.008634552, 0.02989701, -0.002258858, 0.02169705, -0.014007267, -0.014990147, -0.021165384, 0.089530356, 0.06232829, 0.009502388, 0.0030673242, 0.004385824, 0.01953031, -0.076750316, -0.06787786, -0.0044354247, -0.114941955, 0.039435066, -0.035117727, -0.018543845, 0.037286658, 0.08123246, 0.0028575894, -0.012745666, -0.021329384, 0.06702669, -0.019328305, -0.004903442, -0.0144506, 0.023760052, 0.03824274, -0.05768213, -0.012919719, -0.005059708, -0.0876742, 0.009626917, -0.008406169, -0.024752382, -0.042794496, -0.043227307, -0.045693286, 0.0021584807, 0.009601764, 0.047138486, -0.01955674, -0.0030108122, 0.006545382, -0.03717078, 0.032615088, 0.010684919, -0.054165505, -0.0015257958, 0.018755024, -0.020602921, -0.04391805, -0.049324356, -0.029986812, -0.03975688, -0.0030104648, 0.014897083, -0.009069952, -0.0087934835, 0.0090205185, -0.054558963, 0.020775741, 0.020182816, 0.04360923, -0.014416405, 0.07271262, 0.03847115, -0.037046354, -0.04883912, -0.07044894, 0.047990054, 0.011173886, 0.057770144, 0.03203093, 0.07836331, -0.004388847, -0.021715969, 0.036241893, -0.04298915, 0.0029427747, 0.10555061, 0.0058216644, -0.0139796, 0.02831714, 0.010525162, -0.01022541, -0.028089393, 0.019917876, 0.025143163, 0.057736944, -0.066944726, -0.0140443565, -0.061210375, -0.1111505, -0.011128297, 0.03334292, 0.009678571, 0.024358442, 0.111911185, 0.04748746, 0.0061878064, -0.0050076665, -0.013068621, 0.03928848, -0.051188532, -0.027603403, -0.044697795, -0.015744781, -0.059555057, 0.044058386, 0.018067246, -0.00050421216, 0.046314873, 0.039517786, 0.03329832, -0.053809695, -0.031529393, -0.032426614, -0.023015605, -0.05768109, 0.0011328416, 0.04141224, 0.027968412, 0.009174768, -0.015778458, -0.0127032045, -0.009493241, 0.05187941, -0.0140256435, -0.028503597, -0.03625675, -0.035126265, -0.008823, 0.034510262, -0.06505855, -0.13665962, -0.03321289, 0.010134986, 0.014924776]</t>
         </is>
       </c>
     </row>
@@ -4479,38 +4501,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>백정주</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
+          <t>정성민</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Effect of brown rice flour on the quality attributes of gluten-free
-extruded noodles</t>
+          <t>Rheological approaches for physicochemical characterization and in-vitro digestibility of gluten-free rice noodles with different amylose contents</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>A gluten-free diet has been an alternative way for the celiac patients to have their daily nutrients without negative effects. Especially, polished white rice has been widely used as a primary gluten-free flour base. However, there are insufficient investigation and development of brown rice-based products although they have more beneficial health effects. Therefore, there is a need to utilize brown rice flour for functional gluten-free foods. In this study, polished white and brown rice flours were prepared under the same wet-milling conditions and their functional properties were evaluated in terms of thermal, rheological, and antioxidant characteristics. Then, a twin screw extruder was employed to produce gluten-free extruded noodles and their textural and cooking qualities were investigated. Brown rice flour included a high amount of total dietary fiber (3.39%) which consisted of 2.42% insoluble dietary fiber and 0.94% soluble dietary fiber. The corresponding values were 1.11%, 0.84%, and 0.21% for polished rice flour, respectively. Brown rice flour in a slurry exhibited reduced pasting parameters, compared to polished rice sample. The Mixolab results represented that brown rice flour dough seemed to have more resistance to mixing than polished rice dough, and also exhibited a lower degree of starch gelatinization and retrogradation. Moreover, greater antioxidant activity was observed in the brown rice flour. When two rice flour samples were used to produce gluten-free extruded noodles, dry brown rice noodles exhibited lower breaking stress. Also, the use of brown rice flour increased the swelling index and cooking loss of rice noodles after cooking. This study shows that brown rice flour with enhanced functionalities could be used to produce extruded noodles with enhanced physicochemical and functional characteristics. Thus, it can encourage the food industry to develop a variety of new gluten-free products with beneficial health effects.</t>
+          <t>Gluten-free noodles were made by extrusion from rice flours with different amylose contents and their physicochemical properties and invitro digestibility were evaluated from a rheological point of views. Three rice varieties were used for measuring the chemical composition and amylose contents (25.7, 18.6, and 11.9%). Rice flour with higher amylose content exhibited greater resistance to dual-mixing and higher degrees of starch gelatinization and retrogradation. Highly
+elastic characteristics were observed in the rice with higher amylose and the high amylose rice noodles showed a harder texture that was related to their reduced cooking loss. The rice digesta with higher amylose contents exhibited greater viscosities throughout the simulated oral-gastric-intestinal digestion steps. The flow behaviors of rice noodle digesta collected from each digestion steps also had the same flow patterns that were satisfactorily evaluated by the Sisko model. This study provided a promising opportunity for the food industry to study the quality attributes and in-vitro starch digestibility of rice-based goods by means of rheology with the advantages of being more rapid in real time.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[-0.0368602, 0.032534834, 0.059135973, 0.0030757785, 0.099074826, -0.0068790875, -0.037325304, -0.04726028, 0.045595072, 0.046602465, -0.088775694, -0.056600302, -0.034755774, 0.0766181, 0.0072254557, 0.039590053, -0.06413408, -0.0010158791, 0.035549033, 0.054518446, 0.023292322, -0.036039602, -0.05606102, 0.042317122, -0.022660099, 0.037678618, 0.019360691, -0.039646666, 0.03540424, -0.04159968, 0.01022859, -0.07497335, -0.015027832, -0.025214013, -0.06400093, -0.0024516797, 0.06829901, 0.04173573, 0.054861292, -0.0147889815, -0.034375794, 0.05790986, -0.0037186677, -0.006728012, 0.027213072, -0.042249, -0.060780134, -0.025781816, 0.0076139616, 0.026989335, -0.013442208, 0.015075345, 0.04303205, 0.017966932, 0.04860379, -0.060000807, -0.058633763, -0.0057166377, 0.005609635, 0.029162208, -0.0037262514, -0.037636768, -0.08007465, 0.022823391, -0.03171718, 0.047227647, 0.027943717, 0.0041001267, -0.025800565, 0.040529497, -0.048152264, -0.03787199, 0.030970091, -0.051628586, -0.058040295, -0.09496676, 0.016279541, 0.015677186, -0.051522184, -0.014326238, 0.01975902, -0.06458471, 0.024055077, -0.028639449, -0.03515999, 0.06586775, -0.06611186, 0.04585656, -0.0048648138, 0.072662294, 0.04720162, 0.009631983, 0.11175938, 0.0674405, 0.037535846, 0.033883426, 0.03238599, 0.07555596, 0.04717368, 0.072079375, -0.020989029, -0.014686097, -0.034156416, 0.035521246, 0.024282843, -0.0005359288, 0.035175722, -0.021489048, 0.022024557, 0.0119613875, -0.044682454, -0.051641863, -0.0062901033, -0.026854057, 0.01178203, 0.048176114, 0.0128120035, 0.04898636, 0.00734449, 0.030123167, 0.017146688, 0.026366023, -0.0007033838, 0.07288298, 0.013348432, -0.028211126, 0.039218977, 0.004527925, -0.009826299, -0.051789433, 0.038181562, 0.062281698, -0.0110044405, 0.08984547, 0.025010174, -0.007997406, -0.011502897, 0.049480572, 0.034518763, -0.005853013, -0.013162719, -0.004132314, 0.04807701, -0.052979868, -0.064414695, 0.055947702, -0.033389986, 0.020617139, 0.013339261, 0.017223747, 0.022328664, 0.02620102, 0.006567314, -0.057484306, -0.029125696, -0.04200468, 0.007939405, -0.003778971, -0.010189827, -0.049637843, 0.020292837, -0.037196506, -0.002914533, 0.02602785, -0.042465664, -0.0048615495, 0.035975803, 0.034785442, -0.018063687, 0.026449488, -0.023391025, 0.012111641, 0.03683058, 0.001894513, -0.06228436, -0.015227251, -0.006061575, -0.033126663, 0.048750494, -0.031288, -0.027508091, -0.0624321, 0.004758721, -0.006155689, 0.014190954, -0.04199539, 0.040111005, -0.01616742, 0.06995914, 0.04438774, -0.104630664, 0.013178916, 0.013738649, 0.025374593, -0.014637657, 0.0007828209, 0.014939774, -0.08000599, 0.065089814, 0.04418617, 0.042907298, 0.061614253, 0.06889264, -0.038479693, 0.06348269, -0.013568476, 0.06299338, 0.026646638, 0.025062228, 0.05469388, -0.047706053, 0.048867404, -0.015950479, -0.020136632, 0.068490595, -0.0046542417, -0.0038087263, -0.03915806, -0.014723782, 0.011650333, 0.06743094, 0.043465823, -0.043010786, 0.058423933, 0.008282116, 0.002684274, -0.027759107, 0.0067456528, -0.025499452, -0.04801594, 0.03513053, -0.035613015, 0.008242838, 0.014633434, 0.046226416, 0.04523619, -0.058844056, -0.0028901591, 0.06261834, 0.05631224, -0.01959252, -0.0061367876, -0.0065957513, 0.029249104, -0.011204805, -0.02200513, -0.03772004, -0.059278566, -0.060323935, -0.007871208, -0.00035772283, -0.018631076, -0.022951987, 0.019177722, -0.04323868, -0.026555814, 0.0024676705, -0.08082203, -0.10554735, -0.03203219, 0.007148069, -0.0089181885, -0.06868484, 0.012828273, -0.015437209, 0.05102013, 0.064466015, 0.057877995, -0.0070897588, -0.015869988, 0.0077045113, -0.012712902, -0.0056962394, 0.051803187, 0.03523286, 0.05438855, -0.0027756165, -0.10002027, 0.0114604775, -0.005788389, -0.03125508, -0.0018490141, 0.058926772, -0.02047303, -0.021874934, 0.0010414977, -0.021862695, 0.036096115, -0.02143905, -0.1189457, -0.013730233, 0.002848819, 0.0007480978, 0.084341876, -0.05407908, 0.055280443, 0.012395622, 0.07024171, -0.0067863185, 0.01017576, -0.00028727902, -0.016301865, 0.05184367, 0.06882585, -0.039877404, -0.013595645, -0.022545772, -0.005804483, 0.01682659, -0.01255548, -0.035124637, 0.004002508, 0.0073272865, 0.024769982, -0.032222547, 0.0006633784, -0.025803685, -0.0018498013, -0.03911317, -0.039005183, 0.024029635, 0.04006638, -0.04555444, 0.012315958, -0.06698668, 0.06527391, -0.020910608, -0.024114238, -0.026609268, 0.054499958, 0.06387996, -0.039407518, -0.00556099, -0.018288251, 0.01458038, -0.046895806, 0.009885, -0.01828563, 0.041773465, -0.022915661, 0.008115021, -0.0013261547, 0.07237636, 0.031071758, -0.034181878, -0.020308862, 0.06683846, 0.08524146, -0.092151254, 0.017249824, -0.020211361, -0.0045195357, 0.028434824, 0.009376918, 0.086807124, -0.021863837, -0.012620334, -0.08299782, -0.00050244894, 0.019961227, 0.06391217, -0.031943098, 0.015408929, -0.047843665, -0.026108341, -0.037400723, -0.05791292, -0.018532256, 0.011858743, 0.054355364, 0.05642088, -0.021305842, -0.035268452, 0.047328483, -0.015121854, -0.023603944, -0.022916239, 0.052294437, 0.04396448, -0.027652266, 0.015408356, -0.03142139, 0.0040861224, -0.07412963, -0.07601546, -0.014698871, -0.10965129, 0.021851612, -0.06373083, -0.04239196, 0.06369856, 0.071159035, -0.032063164, 0.019766562, -0.019529132, 0.0125798555, -0.034261454, 0.04058454, -0.0960644, 0.0458436, 0.009112806, -0.009011728, -0.006837993, 0.011932854, -0.034604926, -0.01370449, -0.034676075, 0.0072785765, 0.008914072, -0.11259938, -0.021929685, -0.048037335, -0.00920442, 0.029951746, 0.027644444, -0.010875237, -0.059682585, -0.03856769, 0.008297464, 0.00801062, -0.06924151, 0.0010654923, -0.0028350053, 0.0010148318, 0.014590692, 0.047766924, 0.007672809, -0.07582436, -0.029595897, 0.028361032, -0.045132093, 0.016260406, 0.004835624, -0.051032905, 0.016530799, 0.019270334, 0.015924312, 0.014413612, 0.078129716, 0.004877944, -0.041405205, -0.08851873, -0.05487948, 0.070532195, 0.0076326025, 0.053904697, 0.010768091, 0.023273837, -0.0014038102, -0.034001756, -0.030462777, 0.00678666, 0.026872281, 0.06900839, 0.0003453902, -0.09113574, -0.019753505, -0.0062989616, -0.015800383, -0.071559966, 0.025213985, 0.028427463, 0.081146084, -0.039066035, 0.009227779, -0.076713264, -0.081104785, 0.028873622, 0.027720002, 0.004711984, -0.012018562, 0.075926065, 0.04456626, 0.007890719, -0.040645536, -0.00844899, -0.006786854, -0.02389909, 0.0058105416, -0.079980455, -0.018309081, -0.06518898, 0.016133025, 0.03311996, -0.033332508, 0.00752476, 0.013518978, 0.04366929, -0.034353822, -0.028337678, -0.014861539, 0.0012530454, -0.026798517, -0.010840276, 0.014032523, 0.01018283, 0.0064244093, -0.02924094, 0.021569874, 0.008649625, 0.0060711275, -0.014026305, -0.034175448, -0.054790538, 0.0064612855, 0.00053597376, 0.0030316003, -0.0025743428, -0.0641292, 0.0018138088, 0.052529823, 0.035862148]</t>
+          <t>[-0.016840715, -0.0055420883, 0.035403427, -0.02381859, 0.039150346, 0.024984121, -0.014604757, -0.04381601, -0.016215216, 0.021225536, -0.108124636, -0.06286914, -0.008401403, 0.055652797, -0.05383868, 0.041261625, -0.04232399, 0.08129212, 0.033758517, 0.034595776, -0.053841826, -0.0014115474, -0.024795832, 0.04532739, 0.04510918, -0.0019856144, -0.035955872, -0.051014222, -0.0027190603, -0.0026679982, 0.03193441, -0.036863618, 0.06486825, 0.014186435, -0.010932852, -0.0010140248, -0.025363058, 0.045446258, 0.033479888, 0.021357292, -0.025898881, 0.03932723, -0.060964502, -0.07004896, -0.045872316, -0.009818996, -0.01876971, -0.025301702, -0.04091611, 0.049578704, -0.00037361143, -0.04158938, 0.03881627, 0.009561804, 0.019537209, -0.08930401, -0.04109811, -0.03104095, 0.010427603, 0.020341363, -0.050213028, 0.013552314, -0.05206118, -0.0041735666, -0.0041389335, 0.0071438286, 0.018228346, -0.059368335, 0.0104372995, 0.023418952, -0.023971139, -0.032767054, 0.013435476, 0.03996909, -0.07543454, -0.095667705, 0.021778973, -0.008291257, -0.040236183, -0.06440059, -0.0005518933, -0.04061016, 0.016537836, 0.010815015, -0.06503965, 0.052654453, -0.058502432, -0.0059516854, -0.0033964878, 0.005665583, 0.018328015, 0.014948009, 0.11544871, 0.107569575, 0.024126323, 0.038019665, 0.09610987, 0.06872206, 0.02103379, 0.044150587, -0.044110104, 0.019911688, -0.006469692, 0.008357894, 0.06146514, -0.0575784, 0.043447863, -0.008347534, 0.00017968914, 0.041628756, 0.045065667, -0.036118414, 0.02112387, -0.056725346, -0.0085143475, 0.08266836, 0.014710412, 0.055873252, 0.0032718848, 0.078847595, 0.05982959, -0.0416973, 0.008060482, 0.06517133, -0.028194785, 0.06569332, 0.044174362, -0.026241336, -0.05173281, -0.08892091, 0.01656242, 0.016849548, -0.018935697, 0.025900155, 0.000828311, -0.026861902, 0.00573187, 0.00074847497, -0.03128132, -0.013370668, 0.041386057, 0.05015204, 0.03500907, -0.046031713, 0.014276473, 0.023351697, -0.08413592, -0.032112967, 0.019642847, -0.035626635, 0.012219252, 0.07515521, 0.031223768, -0.021949597, 0.007970535, -0.05293568, 0.011593751, -0.023730915, -0.01307853, -0.02934482, 0.044279456, -0.048145093, 0.0058427067, 0.0054006353, 0.023071699, 0.06661356, 0.04654678, 0.004089638, -0.0065722833, 0.118344285, 0.012822488, -0.012930099, -0.01577123, -0.03184923, -0.05224342, 0.018020682, -0.01153433, -0.044015896, 0.051390756, -0.028505307, 0.06982175, -0.11188598, -0.021449484, -0.026643852, 0.044370707, -0.03466015, -0.0017393084, -0.038046528, 0.021754306, 0.07046137, -0.13411683, -0.017727638, 0.02873887, 0.018841753, -0.005519607, 0.026182573, 0.024367245, -0.04139335, 0.09636675, 0.065541215, 0.091860116, 0.043117087, 0.056479458, -0.009856951, 0.061783865, 0.042981353, 0.028496437, 0.03999722, 0.049197037, 0.028741334, -0.010034704, -0.015747692, 0.037054893, -0.026085183, 0.07179866, -0.025757246, 0.016655874, -0.04325864, 0.0073899347, 0.013232616, -0.0008482552, 0.007876028, -0.039547786, 0.031101927, -0.021778708, 0.03536983, 0.009259496, 0.010891883, 0.049479615, -0.015438396, 0.02227869, -0.039680287, 0.01468266, 0.029009879, 0.010094388, 0.007179649, -0.0421214, -0.006736164, 0.016237052, 0.022279443, -0.049942363, 0.020763822, 0.019247182, -0.0051965793, 0.0385494, -0.06389069, -0.0059419926, 0.008316326, -0.06629027, -0.02217974, -0.012153716, 0.0030504132, -0.054699104, -0.06373521, -0.027272226, 0.08473412, -0.039073013, -0.12449057, -0.077504456, 0.004185665, 0.0212452, -0.04459272, -0.065446235, -0.004283742, 0.013680906, 0.013413792, -0.008391192, 0.047031138, -0.033878982, 0.03959359, -0.035707146, -0.011778104, 0.0060255076, 0.028740115, -0.01719138, -0.009382812, 0.0030953102, -0.096785024, 0.014273398, -0.0071961833, -0.03505235, 0.015940791, 0.062652186, -0.07656601, 0.008889435, -0.014582461, -0.046343528, 0.03597726, -0.045749135, 0.003277758, -0.045249186, 0.03012074, 0.004508933, -0.013660066, -0.044729456, 0.035805088, 0.028944815, 0.07027225, -0.011801516, -0.009976918, -0.0052606086, 0.03645813, 0.03799277, 0.020422304, -0.029373243, -0.039631322, -0.008852203, 0.004978656, 0.026086312, 0.018515822, 0.009368409, -0.030254027, 0.017765915, 0.04522801, 0.022471938, 0.019938415, 0.019861177, 0.012461903, 0.0026405263, -0.050751086, -0.043302365, 0.033108287, 0.019449912, -0.023013148, -0.006698987, 0.087406635, 0.029844569, 0.00401985, -0.045869198, 0.022847861, -0.02515091, -0.07219252, 0.02529689, 0.029964322, -0.045989193, -0.02865408, 0.0118636545, 0.00013417657, -0.012198957, -0.031864997, 0.009873146, -0.02483526, 0.026043626, 0.023927974, -0.03985379, 0.055422604, 0.029322246, 0.013530221, -0.103052355, 0.0034810398, 0.007466993, 0.021252979, 0.0110337, -0.0010378329, 0.03344433, -0.03491255, -0.034896348, -0.05505342, -0.020719495, 0.0035391757, 0.04098632, -0.069408014, 0.014777229, -0.10322128, 0.03784245, -0.031119445, -0.035744976, -0.014882135, -0.0024344723, 0.005399643, -0.0002797374, 0.03344281, -0.014080722, 0.011613343, -0.046193343, 0.020505825, 0.02269062, 0.07428613, 0.054065496, 0.029177658, -0.022641506, -0.0002707207, -0.0059130047, -0.106817566, -0.05425777, -0.02490705, -0.06318894, 0.047218118, -0.024746493, -0.058370944, 0.049674027, 0.07580995, -0.00332852, -0.0067941076, -0.021085102, 0.09200311, -0.052719902, 0.03714954, -0.020092143, 0.074739285, 0.044051886, -0.029040288, -0.011107527, 0.02417223, -0.055922642, -0.0009850642, 0.015846074, 0.015048642, -0.043708578, -0.08856615, 0.01573734, 0.056343578, 0.01663919, 0.029627664, 0.0042342516, -0.023226727, -0.0078257285, 0.0014039108, 0.04745122, -0.054175567, -0.05025462, 0.016646087, 0.0045412094, 0.030378642, -0.072496325, -0.057571154, -0.008283337, -0.032933768, -0.037003037, 0.039923068, 0.0027120945, -0.0034535464, -0.03489413, -0.08187143, -0.04742401, -0.02340309, 0.021507252, -0.006541139, 0.028859427, 0.028767992, 0.030134056, -0.023330646, -0.020079426, -0.04719557, -0.003740134, 0.031706654, -0.018261924, -0.02384282, 0.017618438, -0.042068064, 0.062380657, -0.030658916, -0.02854182, 0.0881334, 0.07763153, -0.009194111, 0.017713843, -0.03037497, -0.017310102, -0.023446249, -0.004732609, -0.04694007, 0.07553302, -0.043752983, 0.0303335, -0.03926931, -0.12442282, 0.043031372, 0.027661728, 0.0059380652, 0.028555045, 0.08233571, 0.056012806, -0.019481251, 0.04599755, -0.020314006, 0.037764456, -0.00924565, -0.011591407, -0.11422554, -0.04282698, -0.037569776, 0.08453516, 0.061528493, -0.018780123, 0.07033359, 0.04681357, 0.0020976302, -0.025683716, -0.022413624, -0.07723921, -0.0013820278, -0.025752177, 0.013633864, 0.03979433, 0.0063229683, -0.022617683, -0.04227598, 0.023832556, -0.024329089, 0.0041231937, 0.01378115, -0.0048422692, -0.032149777, 0.015481021, -0.042540785, 0.0046965675, 0.007867268, -0.058150206, 0.043598417, 0.04164863, -0.026532127]</t>
         </is>
       </c>
     </row>
@@ -4519,38 +4537,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>배우성</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
+          <t>임정택</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Development of rutin-enriched materials from buckwheat byproducts and
-their utilization as a functional enhancer in a noodle system</t>
+          <t>Comparative assessment of oleogels as deep-fat frying media in an instant fried noodle system</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Buckwheat has been recognized as a good source of health-functional food ingredients due to a variety of its phenolic compounds, specifically, rutin. However, after buckwheat milling, buckwheat hulls that contain a high amount of rutin are generally discarded as waste. Therefore, there is an urgent need to utilize buckwheat hulls as an excellent source of rutin for functional food applications. Thus, the purposes of this study were to prepare rutin-enriched materials(REMs) from buckwheat byproducts and then to incorporate them into the formulation of noodles of which physicochemical and functional properties were then characterized. After hydrothermal treatments, buckwheat hulls were subjected to ultrasonic-assisted ethanol extraction, producing REMs with 30.2g/100g rutin and 8.9% yield. When the REMs were incorporated into the noodle formulation for wheat flour (2, 4, and 6% by weight), the contents of rutin in the noodles were determined to be 477.10, 958.09, and 1354.98 mg/100 g for uncooked noodles and 279.77, 578.14, and 743.07 mg/100 g after cooking, respectively. Especially, 4 and 6% REM noodles contained the comparable amount of rutin to a recommended dose of rutin per day. These results were favorably be correlated to the antioxidant activities of the REM noodles. Also, the thermo-mechanical Mixolab properties of noodle doughs were distinctly affected by REMs, showing a lower degree of starch gelatinization and retrogradation. In addition, the incorporation of REMs led to increases in the maximum resistance and extensibility of the noodles and influenced their cooking qualities. Thus, new functional rutin-enriched ingredients were isolated from buckwheat byproducts and utilized for noodles with enhanced functionality. Therefore, this study aids in maximizing the rutin-derived health benefits of foods, potentially allowing the production of a variety of healthier processed food items.</t>
+          <t>Edible oils from various plant sources have been widely utilized as frying media for food applications due to their desirable health effects derived from high levels of unsaturated fatty acids, compared to solid fats low in unsaturated fatty acids. However, the use of highly unsaturated oils may produce greasy fried products with a less crispy texture and furthermore reduce their shelf life primarily due to their susceptibility to oxidation. In this study, oleogelation technology was introduced to a frying process by evaluating soybean oil-carnauba wax oleogels as a deepfat frying medium for instant fried noodles. The fundamental thermo-rheological characteristics of the oleogels were investigated and the quality attributes of instant noodles fried in the oleogels were compared with those in palm and soybean oils. The flow behaviors of oleogels were more sensitive to temperature change with increasing levels of carnauba wax. In addition, the microstructural surface characteristics of the oleogel-fried noodles could be related to the reduced oil uptake of the oleogel-fried noodles. There were however no negative effects on the noodle texture. The use of solid-like oleogels was more effective in retarding the oxidative oil deterioration than the soybean oil in a liquid state. Furthermore, the level of saturated fatty acids in the oleogel-fried noodles was distinctly reduced to around 19%, compared to the palm-oil samples (54%). Hence, the use of oleogels may present possible opportunities to formulate healthier fried goods by showing their compositional superiority.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[-0.009723043, 0.028372364, 0.06475177, -0.0032810837, 0.114652775, 0.015823431, 0.033668697, -0.06896465, 0.04603415, 0.015869714, -0.047521383, 0.012397828, -0.017262148, 0.04400901, 0.015380381, 0.014757281, -0.02929715, 0.024417462, -0.0017241961, -0.0013994002, 0.059093695, -0.0060076634, -0.06334338, 0.034074046, 0.08325571, -0.03812805, -0.044626895, 0.036314167, -0.023630071, -0.038499217, 0.0461312, -0.001808436, -0.034321826, -0.012155417, 0.0005662378, -0.05850562, 0.0014368414, -0.029827295, 0.06741353, -0.00013190322, -0.085210264, -0.009260718, -0.014427909, 0.008986903, 0.05730908, -0.013524168, -0.040640593, -0.009220117, -0.063549496, 0.021976648, -0.022553297, -0.00558614, 0.031453446, 0.036941543, 0.042079017, -0.024009302, -0.07066604, -0.0131895915, 0.019334013, 0.020854818, 0.0011902071, -0.041882917, -0.018874021, -0.06885447, -0.036679618, -0.047146495, 0.017897172, 0.043793786, -0.054793973, 0.0008608367, -0.032991666, -0.0094332965, -0.021179805, -0.004816415, -0.06731288, -0.054092687, 0.03120911, -0.003783566, -0.028932437, -0.026140708, 0.0030176204, -0.091686256, 0.023313243, -0.028098641, -0.035290636, 0.05315708, 0.004340674, 0.04187856, -0.011783555, -0.06156841, 0.022494655, -0.0019832628, 0.084343046, 0.0050701653, 0.041769117, 0.035746448, 0.09824188, 0.05076524, 0.057683546, -0.023988077, -0.027154401, 0.113510974, -0.011954246, 0.015300425, -0.018248884, 0.034523826, 0.02949466, -0.0006096854, 0.036353808, -0.03605367, -0.041593906, -0.037204497, -0.016430361, -0.01615251, 0.012153922, 0.03763786, -0.00969233, 0.10343788, 0.026141994, 0.047826122, 0.054236885, 0.016596911, -0.034700043, 0.030525958, -0.006291563, -0.01823313, -0.036758635, 0.00049098994, -0.041528355, -0.062885106, -0.060759846, 0.089006424, -0.023132075, 0.076187834, -0.001109128, 0.074233785, -0.03797522, -0.013792535, 0.0015473258, -0.0035510228, -0.0023829534, -0.03884706, 0.023810018, -0.12641537, -0.029190056, 0.00050403894, -0.020954527, -0.035294857, -0.0439425, 0.027819168, -0.0124826105, -0.021179238, 0.03996598, -0.005307457, -0.0038441697, -0.027212227, 0.0031240867, -0.0055382303, -0.09718975, -0.03380672, -0.020796187, -0.0060656955, -0.023234665, 0.026380524, -0.013595229, -0.012277374, 0.046718508, 0.035025727, 0.0062361644, 0.0436845, -0.027110657, -0.0040953285, 0.021861583, -0.012085952, -0.021406153, -0.04792243, -0.03166635, -0.043745503, 0.051561378, -0.06561563, 0.024895215, -0.026273444, 0.007285058, 0.051809434, 0.0327248, -0.03402817, 0.015902868, 0.012240073, 0.04878434, 0.0031036453, -0.11382849, -0.008616701, 0.047900453, 0.017629841, 0.014480077, 0.047375746, -0.0049430393, -0.07481298, 0.07406682, 0.010748051, -0.0012499304, 0.056378603, 0.0729644, -0.023934739, 0.031431664, -0.01996216, 0.03355664, 0.0053393734, 0.024212483, 0.02546786, -0.08000856, 0.06226275, 0.005364163, 0.005270556, 0.044178773, -0.0032614889, -0.011834263, -0.010079755, 0.013258082, 0.021397391, 0.025968863, -0.0015607398, -0.060256727, 0.028931884, -0.055522073, 0.033742145, 0.0730596, 0.029938383, -0.029135799, 0.03241545, 0.045955613, -0.05212057, -0.052568685, 0.011542966, -0.011556585, 0.06152469, -0.0044208057, 0.039297953, 0.0027991228, 0.12162931, -0.04851131, -0.014146895, 0.05067656, 0.01319287, 0.018584244, 0.023354238, -0.0262315, 0.0036889124, -0.08212058, -0.017426483, -0.020484947, 0.04192179, -0.0032318728, -0.046947416, -0.010204768, -0.06536064, 0.016118439, -0.06780263, -0.07167299, -0.045770805, 0.027812613, 0.018825376, -0.06622453, -0.03646448, 0.036179293, 0.018798357, 0.03451566, -0.03248034, 0.0058357567, -0.03512018, -0.029999323, 0.06808506, 0.003359356, 0.035821356, -0.036333513, 0.04115948, -0.009283736, -0.08582678, 0.028063167, -0.0047168876, -0.009886825, -0.08149743, 0.045149665, -0.09520031, -0.0020911237, -0.017052807, -0.002518487, 0.001799051, -0.027295677, -0.10701207, -0.013000397, 0.006463812, 0.019811822, 0.04245743, -0.04836718, 0.07007035, 0.041488986, 0.08216355, -0.055008203, -0.0041517825, 0.06449967, -0.049906515, -0.026228175, 0.04897659, 0.045203067, -0.007078249, 0.03841052, 0.010981913, 0.011587515, -0.0095000705, -0.015046952, 0.011492277, 0.012564688, 0.01634536, -0.07247472, 0.021979393, -0.013138583, 0.0042992043, -0.040997133, -0.02138932, 0.022615092, 0.06983992, -0.061868057, -0.012525989, 0.0035918015, 0.061744787, 0.007575852, 0.00051531463, -0.052275248, 0.0461274, 0.006672459, -0.00055619207, 0.015710989, -0.022752352, -0.037157066, -0.018630074, 0.014232015, 0.027603349, -0.03299859, 0.009109318, -0.031054705, -0.037990503, 0.010282369, 0.014521421, -0.05519405, 0.06657733, 0.031387363, 0.029898869, -0.015111278, 0.0020393934, 0.055309083, -0.0058808946, -0.019385215, -0.039772775, 0.012019772, -0.021838095, -0.04233331, 0.0039031643, 0.0044397223, -0.030901758, -0.0064959098, -0.049559474, -0.0066689574, -0.006634025, 0.030662054, -0.01079018, 0.032143027, -0.045830857, 0.005078199, 0.002915345, -0.004897424, 0.022980776, -0.02792546, -0.02828139, 0.018828701, -0.028288106, -0.044197034, 0.014704019, 0.05489279, -0.0012827255, 0.03088712, -0.009042307, 0.0070394054, -0.085422166, -0.043051273, -0.019871032, -0.08868285, 0.036130644, -0.014453183, -0.05977844, 0.01841076, 0.036969345, -0.038954895, 0.03290234, 0.0029424368, -0.017879935, -0.05408373, 0.047510836, -0.07120934, -0.021337224, 0.048413403, 0.014453436, -0.04381283, 0.002100095, 0.022699002, -0.042533744, 0.034893963, -0.02549391, -0.015371724, -0.051867403, 0.032347247, 0.018247252, 0.05363325, 0.044634234, 0.0129959155, 0.0017926812, 0.018757647, 0.027981076, 0.043453738, 0.027254188, -0.0525616, 0.0018545713, -0.0059497138, 0.038328063, 0.026707124, -0.024640346, -0.013592367, -0.07964873, 0.02282011, -0.037930816, -0.07494231, -0.082819134, 0.01568816, -0.025346344, -0.020922923, 0.05102805, 0.013425073, 0.0732561, 0.06615376, 0.009607808, 0.02122095, -0.10802941, -0.02380455, 0.026886635, -0.05762308, 0.008716132, -0.0059298356, 0.034208942, 0.04100754, -0.031411234, -0.026832733, 0.03158164, 0.029447734, 0.018466005, 0.040385943, -0.07016552, -0.031540114, 0.0028271014, -0.00084364327, -0.030220924, 0.02822921, -0.03570109, 0.088409066, -0.008113377, -0.010241834, -0.06397463, -0.036337, 0.04277901, 0.04810142, -0.0074166856, 0.00628467, 0.07105069, 0.029151136, -0.017634388, 0.008951074, -0.012227945, -0.028190108, -0.053757973, 0.037050527, 0.003989618, 0.06749202, -0.020720731, 0.035968754, 0.03370317, -0.042328287, 0.036367428, 0.0018470247, 0.017382007, -0.040319, 0.07330835, -0.042796712, -0.0044355616, -0.06481911, -0.06149711, 0.040535383, 0.02253531, -0.008528802, -0.023590697, 0.024926003, -0.0034201674, 0.032347724, 6.9412985e-05, -0.027589824, -0.042057138, 0.011505603, -0.035272215, 0.068700954, -0.01055956, -0.06618593, -0.02325286, 0.039849125, 0.003997367]</t>
+          <t>[0.021853311, 0.07659434, 0.044665467, -0.003382296, 0.100036584, -0.064711034, -0.089226946, -0.039987642, 0.023465578, 0.036505304, -0.04688958, -0.087351575, 0.019037003, 0.0047652866, -0.002728675, 0.03428139, -0.013414274, 0.020544242, -0.0024532059, 0.030259626, -0.04390918, 0.0062119095, -0.050239056, 0.040677804, 0.033989716, 0.02065964, 0.011561133, -0.013040209, -0.09028278, -0.019280152, 0.0008718935, -0.05143512, -0.010388356, 0.015512918, 0.0076019745, -0.026259376, 0.011031647, -0.007563051, -0.047909994, -0.008769654, 0.043888092, 0.06070087, 0.004767263, -0.0029180925, -0.027445948, -0.0012618911, 0.039983284, 0.008925633, -0.014684953, -0.017061528, 0.03035602, -0.042183496, 0.005403875, 0.007871226, 0.055771053, -0.06959899, -0.07438004, -0.0794791, -0.0079969205, -0.0075095864, 0.021962058, -0.04896391, -0.02130354, 0.010455479, -0.024145301, -0.033723764, -0.023384202, 0.045607667, 0.057069898, 0.022225894, -0.0075319535, 0.018613843, -0.011130417, 0.035772137, -0.06393036, -0.033584256, 0.07659683, -0.011405099, -0.007469318, -0.03308495, -0.029985823, -0.057122435, 0.061025817, -0.02780415, -0.028093144, 0.032194033, -0.040536806, 0.044087365, -0.006961451, 0.009464307, 0.008491801, 0.03421346, 0.09350435, 0.04774713, 0.04267395, 0.015093037, 0.06896212, 0.043654006, 0.039481353, -0.0069978517, -0.0032552744, 0.03253476, -0.03156326, 0.014412211, 0.032466512, -0.053152665, 0.015080536, -0.0022476665, 0.043720603, -0.014261214, -0.00524457, -0.0730626, 0.008383435, 0.04621126, -0.031694584, 0.05673864, 0.0569982, 0.071444385, 0.010095701, 0.0015454255, 0.049629647, -0.06510056, -0.004910137, 0.04967783, -0.018695183, -0.01739532, 0.059296254, 0.03613071, 0.0020528699, -0.043189768, -0.0652331, 0.038973402, -0.04047332, 0.014010092, 0.005574724, -0.004887309, -0.00611383, 0.08836696, 0.016908074, 0.011634315, -0.017064193, -0.025532935, -0.025275147, -0.07791522, 0.020551259, 0.03814838, -0.0040824316, 0.028617552, 0.024983218, 0.030240966, 0.02892234, -0.029710464, -0.012807517, 0.00622497, -0.024409514, -0.067316614, 0.015616506, -0.018703228, -0.01824953, -0.05531478, -0.024348699, -0.0065490264, -0.062178705, -0.0005419845, -0.028730646, -0.005922544, 0.025885299, 0.018053425, 0.0034247413, 0.043695554, -0.011069091, 0.0030799895, 0.018353533, 0.015384963, -0.03552017, -0.08171044, -0.03421949, -0.040138982, 0.039536163, -0.035338853, -0.050360955, -0.0390906, -0.008058012, 0.06230588, -0.050454836, 0.0072157867, 0.008764007, -0.010886331, -0.0046485993, 0.051043727, -0.11710971, 0.0109885065, 0.0664636, 0.034243368, -0.03265718, 0.010837981, 0.049404364, 0.037531856, 0.0030323933, -0.02180794, -0.00817076, 0.028247844, 0.050409023, -0.014950151, 0.042708725, -0.0050125862, -0.020523323, 0.01348, -0.009981927, 0.03875726, -0.062230717, 0.027244242, 0.013452306, 0.018483153, 0.04175825, -0.0021797388, 0.039821673, 0.02854034, 0.006340664, 0.011045765, -0.07648751, 0.07327133, -0.10228198, 0.012813823, -0.011711179, 0.0058749705, 0.029282842, -0.054635074, -0.04782283, -0.05964696, 0.046267025, -0.039034873, 0.01154914, 0.016173579, 0.018855808, 0.041942906, -0.03598993, 0.04452723, 0.02171443, 0.106807604, -0.009740221, -0.007488497, 0.009551702, -0.020763954, 0.004356071, -0.0047969213, 0.0038084986, -0.011951431, -0.00039769764, -0.024072303, 0.020521898, 0.034351114, 0.0034896082, 0.02411593, -8.451915e-05, -0.05967009, 0.07780833, 0.025332281, -0.038184196, -0.026263744, 0.02448384, 0.052525148, 0.007941263, 0.03495845, -0.048642416, -0.037900355, -0.004304996, -0.024206838, 0.050199505, 0.038914904, -0.004938933, 0.020091882, 0.083346605, 0.021058805, -0.03902326, 0.023291668, 0.0024273498, 0.0148988245, 0.012497462, -0.075354375, -0.016397208, -0.08228156, 0.011243005, -0.014073672, -0.02120644, -0.018489169, -0.006761317, 0.0061671343, 0.047626343, -0.049421556, -0.037535973, -0.019513678, -0.0013579248, 0.03734011, -0.058865353, 0.062289417, -0.009520951, -0.024441473, -0.0074596023, -0.014387677, 0.0011352897, 0.027262364, 0.015511094, 0.013697617, -0.015819857, 0.037526514, 0.06992191, -0.04481646, 0.022835907, -0.015083901, -0.042688392, -0.012608572, 0.05114002, 0.0671233, 0.012086434, 0.0022377765, 0.04815085, -0.005677124, -0.014568215, -0.020926554, -0.018764049, 0.0072595365, -0.00954019, -0.0039654183, -0.06641995, 0.0108249625, -0.027689753, -0.007059968, -0.023692193, 0.07337196, 0.0060496842, 0.005868158, 0.009139373, 0.025262637, -0.04527346, -0.00048765072, 0.01795859, 0.074463174, -0.030023612, -0.019318447, -0.022614054, 0.023481455, 0.028371911, -0.030628089, -0.042237513, -0.019851044, 0.048512947, 0.13081858, -0.040233724, -0.027248014, -0.013530059, -0.0058011967, 0.024983596, -0.051185973, 0.047479004, -0.012201812, -0.0031956935, -0.016133303, -0.013110015, 0.0031775073, 0.021225104, 0.0817185, -0.011903964, 0.03820274, 0.0015202749, 0.033701926, -0.019648435, 3.6133453e-05, -0.058203142, -0.009813236, 0.02812394, -0.005829011, 0.0061685685, 0.02622855, -0.03935854, -0.031080231, -0.009962229, 0.068549715, 0.05896885, 0.04331492, 0.034473743, 0.030993551, 0.033704102, -0.028168125, -0.031913325, 0.015421831, -0.087772086, 0.02871187, 0.009748537, -0.010764945, 0.02005984, 0.04200977, 0.04974376, 0.009738056, -0.008207264, -0.02523901, -0.007873686, 0.023885302, -0.014910822, -0.05518363, 0.05111687, 0.017032508, -0.027800078, 0.015559658, 0.038237814, -0.03486235, 0.0087231, -0.036428336, 0.0014724785, -0.06387451, 0.061941236, -0.001137518, -0.016407998, 0.04811553, 0.052031, -0.05376487, -0.012755776, -0.028787915, 0.05025425, 0.022789007, -0.05664638, -0.049536645, 0.034264755, 0.026718989, 0.037444595, 0.03520833, -0.008895435, -0.043062065, 0.0361737, -0.045379125, -0.025445443, -0.07988259, 0.0049373796, 0.0027672842, -0.044651527, -0.048693083, -0.04500896, 0.00831688, -0.0033231329, 0.030296635, 0.07541897, -0.041143358, 0.008591201, 0.051381335, -0.0062429016, -0.040035166, 0.011608904, 0.031815656, -0.0060242037, 0.04078123, -0.024415469, -0.00083899667, 0.051463407, 0.013597186, -0.038630053, -0.12562323, -0.08708675, -0.00657508, 0.026636837, -0.028044008, -0.0020658574, 0.00877376, 0.043266114, 0.026983539, -0.022870393, 0.01199433, -0.023622965, 0.0037001197, 0.045206368, -0.028451538, 0.0014456409, 0.063301116, -0.017642995, 0.034682557, 0.011625537, 0.002255153, -0.098326914, -0.039552633, -0.016197616, -0.04895771, -0.008284153, -0.0036083828, 0.05296453, 0.0019942648, -0.06090709, -0.04583865, 0.050779752, -0.026647508, -0.048682604, 0.017997509, -0.006369691, 0.096301995, -0.035495963, -0.03912957, 0.022289451, 0.042656817, 0.004646836, 0.038944356, 0.010518271, -0.028577426, 0.013228371, 0.004414817, -0.047714036, -0.036181033, 0.012429356, -0.011006077, -0.00010541454, -0.022779392, -0.056081496, -0.030200595, 0.01822155, 0.067432284]</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4572,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4568,28 +4581,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>배우성</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>천안</t>
-        </is>
-      </c>
+          <t>임정택</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Effect of whole-grain wheat flour on the quality attributes of frozen dough bread</t>
+          <t xml:space="preserve">Structuring of vegetable oil into oleogel: an alternative to high saturated solid fat in baked goods
+</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Whole-grain wheat flour has been utilized as a good source of dietary fibers and antioxidants in the baking industry. However, the practical application of whole-grain wheat flour in a frozen dough bread system is very limited. Thus, whole-grain wheat flour was incorporated into the formulation of frozen dough bread of which physicochemical properties were characterized. Whole-grain wheat flour had a higher amount of dietary fibers than white flour and also exhibited considerably higher ABTS and DPPH scavenging activities. Reduced dough development and stability times were observed in whole-grain wheat flour and its dough extensibility and resistance to extension were also reduced. The significant volume loss was observed for all bread samples after 4 week frozen storage. It is however interesting to note that a more rapid loss of loaf volume during 4 week storage was observed for white wheat bread, compared to whole-grain wheat bread. In addition, the degree of increased bread firmness by the frozen storage was different among the samples. Thus, this study provided the fundamental information of the frozen dough bread prepared with whole-grain wheat flour.</t>
+          <t>Grape seed oil-candelilla wax oleogels were prepared as a lipid-based solid fat replacer and their effects on the rheological and tomographic properties of the muffins were evaluated. The steady-shear viscosity and viscoelastic parameters of the muffins batters had a tendency to decrease with increasing levels of oleogel. The shortening replacement with oleogels significantly increased the specific gravity of the batters, consequently decreasing the volume of muffins. X-ray tomography indicated a lower fragmentation index and porosity of the oleogel-incorporated muffins. Although the replacement of shortening with increasing levels of oleogel produced muffins with a harder texture, the muffins with oleogels had lower saturated fat (29.2%) than those with shortening (73.8%). This study showed that the grape seed oil-candelila wax oleogels for solid fats replacer up to 25% produced muffins low in saturated fats without sacrificing quality attributes. It would be worthwhile to extend the application of oleogels into a wider variety of baked foods.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[0.005864988, -0.016276801, 0.11878578, -0.0059550046, 0.1054166, 0.002867921, -0.019287657, -0.020957418, 0.008957547, 0.03402586, -0.045491546, -0.061447173, -0.07520614, 0.08234446, -0.029795859, 0.023915641, 0.0017462113, 0.030403424, 0.090431735, 0.049159456, -0.018729351, -0.024599686, -0.049700428, 0.05902023, 0.08817565, 0.020216968, -0.009909541, -0.011628174, 0.01315406, 0.0011524935, 0.051571615, -0.010205912, 0.024066383, 0.013997863, 0.060113467, -0.006168683, 0.00046221932, 0.016452389, 0.072104, 0.007983159, -0.026581138, -0.03046296, -0.009641083, 0.0026397454, -0.061037958, -0.034541797, 0.028750708, 0.0064672716, -0.004501367, 0.029534888, -0.032655463, 0.009139585, 0.018579325, 0.04131297, 0.0652991, -0.015318344, -0.043469287, -0.0177919, 0.017628806, 0.056726675, -0.017366799, -0.0513589, -0.029523727, -0.016980799, -0.037983477, 0.01636723, -0.062143836, 0.0025255578, -0.024370082, 0.012814953, -0.01829202, -0.048423413, -0.01574567, -0.007892762, -0.09552158, -0.078828625, 0.0074060545, 0.014293235, -0.08292932, -0.06878292, -0.053962864, -0.060385678, 0.024881298, -0.026265252, 0.016881032, 0.045507867, -0.04054684, 0.05455947, -0.024881702, 0.032052945, 0.050679177, 0.029596753, 0.07407323, 0.053343568, 0.018970868, 0.020265799, 0.05385964, 0.12869906, 0.07457952, 0.12606826, -0.021135028, 0.07292332, -0.024469774, 0.06339622, 0.023888934, -0.010442714, 0.030671522, -0.0026601474, 0.031237517, 0.022991445, 0.0067952015, -0.049912866, -0.005999521, 0.0058894944, 0.024816718, 0.08293417, 0.0067714155, 0.13719426, 0.03336903, 0.015882524, 0.04851279, -0.011047467, 0.009703925, 0.071463, 0.0072050802, 0.036412176, 0.007135265, 0.024490366, -0.011509217, -0.0730359, 0.041378397, 0.041431036, -0.031719945, 0.032727662, -0.0020321207, 0.0032080142, -0.023183586, 0.03712266, 0.029859908, -0.01740693, 0.006631671, -0.06255307, 0.026891837, -0.025130795, 0.007871181, 0.017642591, -0.03449471, -0.062201966, 0.014988822, 0.008117308, -0.0069852406, 0.02723046, 0.020417284, -0.012592612, 0.022275958, -0.03756993, 0.006598399, -0.038179893, -0.06283496, -0.024128577, 0.013183244, -0.05909523, -0.034910247, 0.02929309, 0.0008107393, -0.04735178, 0.03059601, 0.027316561, -0.036524255, -0.010991843, -0.0018974324, 0.025002914, 0.08434031, -0.0042463485, -0.0070191585, -0.033855602, -0.00071299094, -0.09348417, 0.023812903, -0.07509301, 0.03894078, -0.027178269, -0.011352312, -0.010021022, 0.02994722, -0.05773477, 0.031338584, -0.008566247, 0.09347486, -0.023648428, -0.12283336, 0.03078245, 0.02902288, 0.033020318, -0.007456063, 0.043207843, -0.03178106, -0.014623221, 0.055472262, 0.028936565, 0.06665532, 0.06915765, 0.049660206, -0.031910956, 0.0438255, -0.000549506, -0.012707133, 0.020354887, 0.06361728, 0.046387173, -0.011646247, -0.006932476, -0.053684592, 0.022658804, 0.043997493, 0.0040883697, -0.011597596, -0.008388049, 0.038440716, -0.010254644, 0.04363478, -0.004695726, -0.033794742, 0.03921739, 0.010851054, 0.010186423, 0.050734475, 0.024421526, 0.015367526, -0.0126287965, 0.050694138, -0.061972145, -0.0734837, 0.011154584, -0.004682565, 0.056990944, -0.072766975, 0.0075205457, -0.020057619, 0.064746715, -0.041198272, 0.019762753, 0.03617255, 0.03730752, 0.026489072, -0.03617258, -0.042414553, -0.007037872, -0.0731587, -0.0017724724, -0.033584513, -0.011422048, -0.02976488, -0.028126316, 0.014313916, -0.03246415, 0.041113276, -0.0789921, -0.1160593, -0.06301495, -0.025292479, -0.06879376, -0.015274282, -0.034672696, 0.01694671, 0.022649176, 0.008355542, -0.045276012, 0.012123327, 0.0012366654, 0.001981754, 0.004122247, 0.062009178, 0.05323694, -0.046384696, 0.05679202, 0.053381983, -0.076466486, 0.02055018, -0.05570327, -0.04912807, -0.026049104, -0.004903937, -0.066573896, 0.00047070047, -0.04426262, -0.057313062, -0.03529522, -0.060098935, -0.07467365, -0.05675792, -0.008411039, -0.017554983, -0.0017510947, -0.059986684, 0.067948066, -0.00015154667, 0.043700073, -0.011435221, -0.00220014, -0.040057525, 0.025433173, 0.011520022, 0.012417904, -0.02179864, -0.02336352, 0.029782707, 0.033251196, 0.0029760497, -0.0075987233, -0.0042365673, -0.04394447, 0.01050673, 0.03910236, -0.014404234, 0.016735662, 0.0061632637, -0.004170954, -0.035502642, 0.0120885065, 0.021900386, 0.06490181, -0.034516096, -0.018624978, -0.04266698, 0.010811843, 0.021816002, -0.04397961, -0.006020879, 0.09068591, -0.018497685, -0.03600088, -0.008483767, -0.015401916, -0.08226689, -0.07275361, -0.023911554, 0.021795996, 0.016707208, -0.019075582, -0.015645308, 0.03013172, 0.026250219, 0.02541955, -0.06382909, -0.03548074, 0.02384939, -0.026409563, -0.016000716, -0.00065899163, 0.00021201884, 0.0015756182, 0.02178832, 0.00462225, -0.057751432, -0.06544079, -0.031635974, -0.049425215, 0.02014539, 0.025952758, 0.029495675, -0.07936316, -0.028313488, 0.01712645, 0.063977875, -0.061797377, -0.020658929, 0.0010710689, -0.0241148, 0.009827892, 0.035992354, -0.0074413614, -0.025405455, 0.009529949, -0.023391994, 0.023580993, 0.0071466477, 0.02514195, 0.04824295, -0.029374437, -0.022962147, -0.0019956774, 0.011922328, -0.08915854, 0.0033965842, 0.02580786, -0.06922965, 0.05374334, -0.045966182, -0.056353275, 0.053217933, 0.081744805, 0.003124936, 0.0463708, -0.034944214, 0.024991414, -0.009156085, 0.032245573, -0.036069576, -0.0061804065, 0.024779407, 0.010079052, -0.050980985, 0.024078388, 0.04966007, -0.036419827, 0.018520778, -0.011904702, 0.03522529, -0.06641226, -0.006011511, 0.0028419031, 0.026954804, 0.0272554, 0.083108656, 0.004202773, 0.013466815, 0.06299007, 0.019982776, -0.01244303, -0.06779919, 0.016692027, 0.007567336, -0.0025586386, -0.00462605, 0.0043446715, 0.008364036, -0.07240633, 0.016178977, -0.039653525, -0.021863708, -0.068223275, -0.05827841, -0.07344502, -0.020579476, -0.010003362, -0.05129227, 0.024245001, 0.04758907, -0.00037494602, 0.032309774, -0.050524123, -0.044669975, 0.0012115483, 0.022937223, 0.025772357, -0.01911969, -0.052695554, -0.0046447385, -0.0043562627, -0.04143833, 0.05894935, 0.024548046, 0.04082265, 0.02428883, -0.02458544, 0.00170268, 0.0016771678, -0.014619234, -0.03795736, 0.029673297, -0.007423343, 0.061361305, -0.035976615, 0.010773739, -0.06640064, -0.034027845, -0.0060483185, 0.025428226, -0.024172157, 0.032800805, 0.048139118, 0.027779419, -0.031920373, 0.03400845, -0.0042095943, 0.024488991, 0.032564916, 0.015260814, -0.031804528, 0.010342454, -0.029940162, 0.03031477, 0.012343757, -0.071920976, -0.0134274075, 0.00428007, 0.034635663, 0.013163907, 0.0016226196, 0.031172996, 0.0132605685, -0.08184767, -0.03916302, 0.059562325, 0.039213233, -0.043002155, -0.04190281, 0.0039124205, -0.015325302, -0.067452796, 0.046204597, -0.009639885, -0.049077753, 0.044377238, -0.0019347704, 0.02045588, 0.012418464, -0.064812966, -0.0109838005, 0.02745945, 0.017496213]</t>
+          <t>[-0.027741974, 0.0313871, 0.031849507, 0.003201613, 0.059384163, -0.009090048, -0.03423323, -0.036992807, 0.045927715, 0.048447136, -0.00062938075, -0.054148823, 0.11489118, 0.04377006, -0.050867468, 0.049503583, -0.0015261259, 0.065844186, 0.032227803, 0.031991556, -0.017276319, -0.004106151, -0.081276745, 0.036772434, 0.028492332, -0.01760945, -0.010719294, -0.0002079808, 0.021371583, 0.036419015, 0.022456953, 0.0015757746, -0.004656454, 0.01910634, 0.012757435, 0.026045667, 0.033918854, -0.043096155, -0.0026947, 0.034446016, -0.035237607, -0.033326957, 0.050604027, -0.011118169, 0.031733792, -0.047646962, 0.019321075, 0.051681556, -0.0070482073, -4.2095315e-05, -0.028378598, 0.019352524, 0.05994388, -0.013179325, 0.010398175, -0.03186628, -0.08493661, -0.039116118, -0.013362201, 0.036135472, -0.0069582486, -0.024250843, -0.040627234, 0.032404218, -0.0054907044, -0.042387012, -0.004666507, 0.04638781, 0.12027881, 0.00081956066, -0.030680303, -0.028684724, 0.010648934, -0.050626162, -0.05676132, -0.0077472623, -0.02086079, -0.0011800708, -0.019411968, -0.062470883, -0.02886933, -0.039225966, 0.025893256, -0.0017669622, -0.039321125, 0.031201826, 0.0143687995, 0.02158182, 0.014388822, 0.07540805, 0.026317531, 0.026083775, 0.1058197, 0.08489398, 0.027763186, 0.042682577, 0.06665381, 0.012148893, 0.029260516, 0.045276284, 0.014574474, 0.027845463, -0.05747412, 0.016643435, 0.03385984, -0.047809027, 0.03551453, 0.020602928, -0.012768721, 0.101282835, -0.024007864, -0.0387028, 0.026123969, 0.03552432, 0.028099738, 0.05316493, 0.060732722, 0.0768766, 0.0085197175, -0.02950031, 0.0920865, -0.0903032, 0.046073515, 0.03439004, 0.024904316, 0.0058992878, 0.05155521, 0.050288334, 0.043304153, -0.0034533709, -0.045622457, 0.0064765383, -0.009712899, -0.030005295, 0.02687002, -0.007270263, 0.04555303, 0.015085581, 0.065471254, -0.007863584, 0.015241047, -0.007359315, 0.033269297, -0.08428923, 0.022490295, 0.02749324, -0.027896171, -0.019985728, -0.06279476, 0.032887805, 0.0054423646, 0.04737691, -0.031457182, -0.03155822, -0.0065516448, -0.026152948, 0.04917501, -0.07239171, -0.038643204, -0.013742207, 0.009666285, -0.029300982, 0.015537, -0.008480189, 0.01636983, 0.012173409, 0.06821591, 0.02888439, -0.028324442, 0.052943, 0.0011403211, 0.0120454375, 0.009426695, 0.036788117, -0.03682729, -0.04497583, -0.04497095, -0.039137397, 0.00014115102, -0.015489985, 0.035426322, -0.061899275, 0.012917085, -0.015578556, 0.023715308, 0.019920556, -0.038322475, -0.014367023, -0.00015622517, 0.01008422, -0.06853556, 0.034497317, 0.047900777, 0.03782616, 0.018925408, 0.019139938, 0.051476687, -0.018874181, 0.030774543, 0.05465788, -0.011586112, 0.064580575, 0.08486852, -0.02570999, 0.055184312, -0.006830923, 0.004740982, 0.013650721, 0.018791502, -0.013919664, -0.00695178, 0.006478425, 0.004880613, 0.01332733, 0.018453173, 0.018983206, 0.024963439, -0.058983143, 0.0051929997, -0.0011227257, -0.014225032, 0.021436477, -0.031566285, 0.0372395, -0.09787087, 0.014128801, -0.0021297878, 0.021366261, -0.04702004, 0.026885565, 0.009482505, -0.015278671, -0.033312127, 0.0033183526, 0.043078, 0.03051273, -0.04965363, -0.0029860754, 0.021425705, 0.055472966, -0.00474597, 0.043911446, 0.02877063, 0.0010896709, 0.023305953, -0.008145264, 0.05474123, 0.0102722775, -0.017518671, 0.011133993, -0.049116008, 0.0677288, -0.007531696, -0.031019937, 0.07336022, -0.016999047, 0.056935076, -0.0060467552, 0.006878028, -0.018683808, 0.013868827, 0.03413976, 0.0066638226, -0.03461679, 0.0036672116, -0.064789794, 0.016773108, 0.008672172, 0.037380863, -0.004133433, 0.004491746, -0.055889137, 0.017622422, 0.018272825, -0.053226195, 0.04184294, 0.01869052, -0.053496685, 0.023144437, -0.071742825, 0.033430915, 0.064884245, -0.042872477, 0.039809234, 0.034222744, -0.010942594, -0.07691239, -0.0106876595, 0.050218374, -0.021655552, -0.05607324, -0.028316991, 0.02216373, -0.020178739, -0.053853128, 0.040815122, 0.021163436, 0.063751645, 0.017663326, -0.022564279, -0.07951618, 0.03516135, 0.047708403, 0.02748154, -0.03055197, 0.0349422, 0.04778511, 0.0067510903, -0.017577289, -0.018729502, -0.03665979, 0.011425598, 0.09419996, 0.03960777, -0.0053426395, 0.009606229, 0.08551269, -0.033323467, -0.0040133796, -0.019118033, -0.011201376, -0.0014889736, -0.036357667, -0.02090192, 0.0050550792, 0.06246692, -0.0076794447, -0.008280832, -0.0292561, 0.03024696, -0.0015280808, -0.006426558, 0.061648987, 0.062137842, 0.018375754, -0.014832206, -0.0023669873, 0.008687442, -0.019729098, -0.05758441, -0.04657808, 0.007850595, 0.051768515, 0.031011311, -0.03398578, 0.06467594, 0.078602985, 0.072975636, -0.0400352, -0.05128628, -0.013405077, -0.026768334, 0.023300985, 0.0059827, 0.022527201, -0.0643648, 0.04195923, 0.039270207, 0.056889955, -0.027906634, -0.0035309563, 0.06389854, 0.0003592792, 0.090507075, 0.01856164, 0.00277169, -0.02362451, -0.036189444, -0.0077994512, -0.012545144, -0.010577485, 0.020110484, 0.048129994, 0.019001447, 0.007498439, 0.033668883, -0.009545899, 0.015375243, 0.07305331, 0.04199747, -0.009404082, -0.023153313, 0.01831904, -0.068556085, -0.045315042, -0.0011390606, -0.07802421, 0.023427559, 0.05545799, -0.039346088, 0.04361617, 0.057455663, 0.06068962, -0.006554242, -0.010514855, 0.12666388, -0.057072222, -0.06942515, -0.01679966, -0.011841778, 0.049910635, 0.017822212, 0.0068934215, -0.0041041053, -0.049532443, 0.010191635, 0.039190795, 0.049218487, 0.037541352, -0.037322894, 0.06142629, -0.032732263, 0.00667281, 0.08143959, -0.023946028, 0.033022486, 0.0008012069, -0.044774503, -0.020018918, -0.008001354, -0.051128384, 0.017433956, 0.03384443, 0.046054296, 0.017947631, -0.037113722, -0.015997851, -0.060989067, 0.032784957, -0.01836617, 0.051518127, -0.06309893, -0.0033288111, 0.037076443, -0.013216658, -0.0019489942, -0.01347877, 0.017142966, 0.02277099, 0.014552965, 0.08213448, -0.039245367, 0.019147273, 0.035473123, 0.013180545, -0.012030997, -0.00474868, -0.004451363, 0.022193264, 0.00050413696, 0.01150402, 0.008412234, 0.060891263, -0.038704034, 0.025425246, -0.061122656, -0.06694399, -0.0418009, -0.01881394, -0.05400723, -0.046192247, -0.036220104, 0.03681224, 0.027615689, 0.033651326, -0.05114862, 0.015260559, -0.017531138, -0.020654708, -0.0066838427, -0.07032039, -0.05603682, 0.0064782877, 0.010147766, 0.0012369273, -0.020728074, -0.1077063, 7.0870854e-05, 0.016506221, -0.06877253, -0.04234121, -0.00087441155, 0.09087893, -0.019745925, -0.11350179, 0.030059073, 0.025476914, 0.078403324, -0.050066136, -0.001697399, 0.004787031, 0.015081961, -0.0369346, -0.00032712944, 0.0025221254, 0.03644019, -0.11008641, -0.058619272, 0.018473871, -0.04184868, 0.0063913274, 0.037331924, -0.014879314, -0.06975102, 0.0025367325, -0.0065484084, 0.04061917, -0.002883134, -0.053156808, 0.027525444, -0.049539506, -0.020437058]</t>
         </is>
       </c>
     </row>
@@ -4598,38 +4608,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>김용욱</t>
+          <t>김명선</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>천안</t>
+          <t>강릉</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Enzymatic preparation of lutein from corn byproducts
-and their thermal characterization in a food system</t>
+          <t>Combined effect of starches, hydrocolloids, and emulsifiers on the quality attributes of germinated brown rice extruded cakes</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Lutein is a non-provitamin A carotenoid pigment that is well-known to prevent age-related macular degeneration and cataracts. However, there has been limited research on the processing performance of lutein in foods. The overall objectives of this study were therefore to prepare lutein from corn byproducts and investigate their thermal stability in a food model system. Corn byproducts produced after wet corn milling were subjected to physical and enzymatic treatments with viscozyme, followed by subsequent fractionations. The HPLC analytical results showed that the lutein content in raw corn byproducts was 0.27 mg/100 g while it was increased up to about 22% by the combined physical and enzymatic treatments. When lutein was subjected to high temperatures, a significant reduction of lutein content took place. Also, the level of lutein decreased over heating times. In addition, the stability of lutein in a dough system was influenced by thermal treatments. Thus, the thermal treatment of corn byproducts seemed to have a negative impact on their lutein content. This study provides the fundamental understanding of the temperature response of lutein for more practical food applications.</t>
+          <t>Germinated brown rice flour has received much attention due to its health-functional ingredients such as dietary fibers. However, the food industry has faced challenges of using germinated brown rice flour in processed foods because it causes undesirable quality attributes such as high cooking loss and sticky texture. In this study, three different types of food additives (starches, hydrocolloids, emulsifiers) were incorporated into the formulation of extruded rice cakes and their combined effects on the cooking loss and textural properties of the germinated brown rice cakes were investigated. The addition of emulsifiers had a tendency to increase cooking loss and soften the noodle texture. Most of the starches except gelatinized and high-amylose rice flours showed similar effects to the emulsifiers. Xanthan gum, gelatin, and HPMC were positively effective in reducing the cooking loss of the rice cakes and increasing their hardness. When the ingredients were combined, the mixture of saemimyeon rice flour, HPMC, and xanthan/agar reduced the cooking loss by 66.7%. Most of all, this study provided an ingredient map that was plotted on the axis of hardness and cooking loss, depending on single and combined treatments of various ingredients.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[-0.00022026157, 0.028200328, -0.0030429459, 0.0024769893, 0.08687742, 0.013400617, -0.068193235, -0.044767126, 0.01106437, 0.020473618, -0.0884204, -0.021056289, -0.065574646, 0.060189508, -0.049558353, 0.03635063, -0.031242462, -0.011252958, -0.011812921, 0.02175517, 0.016814785, -0.004323976, -0.053113602, 0.02036526, 0.027526157, -0.005832985, 0.058119718, 0.012442817, -0.0024973494, -0.019840296, 0.031182053, -0.040802054, 0.019995604, -0.0057605226, -0.007581085, -0.062436715, 0.043681495, -2.625375e-05, 0.056555793, -0.004026772, -0.0062822574, 0.0041707903, -0.05820893, -0.02605338, -0.020698978, -0.102681614, -0.021753924, 0.048520472, 0.002286394, -0.0014930654, 0.053782962, -0.03931467, 0.019371832, 0.028795898, 0.018127471, 0.0047544474, -0.06357223, -0.030833445, 0.04543966, -0.02801234, 0.0037690173, -0.055070333, -0.048096612, -0.02421239, -0.07730096, 0.014395744, -0.019693835, 0.04970442, 0.0070284144, 0.018069588, -0.008514575, 0.0011587874, -0.024869803, -0.0068804706, -0.061563607, -0.012029795, 0.025618192, 0.0019736486, -0.01765932, -0.015714511, -0.020789113, -0.03196283, 0.040668115, -0.011777314, -0.06658743, 0.065893635, -0.0020392474, 0.037313815, -0.0045201858, -0.035850156, 0.06454471, 0.013376302, 0.113386944, 0.08354163, 0.016706156, 0.018961515, 0.055949453, 0.056077, 0.03533855, 0.048131585, -0.030758558, 0.049329553, 0.009844884, -0.01925728, 0.0043170904, 0.03616547, -5.388446e-05, -0.019650744, 0.051472463, 0.030866185, -0.06951846, -0.06439955, -0.0076954057, 0.018662121, -0.010573363, 0.0633449, 0.0001980185, 0.046845544, 0.0046962565, 0.011074562, 0.05065185, -0.05895787, 0.050137628, 0.01257352, -0.05775996, -0.049156405, 0.020540765, 0.01712381, -0.01739476, -0.0033663993, 0.048716173, 0.055890765, -0.026410133, -0.009249804, 0.0031577542, 0.010467148, 0.009609581, 0.026845094, 0.036846306, -0.026382688, 0.0038056455, -0.012886037, 0.05150978, 0.0075954236, -0.0029104163, -0.0023589632, -0.016783908, -0.011346293, 0.00041922854, 0.0058398084, 0.038317356, 0.058556587, 0.004636781, 0.013812923, -0.037731502, -0.055869322, 0.010748759, -0.024019359, -0.01770248, 0.0035861447, -0.049774926, 0.012862945, -0.052469764, -0.0036988598, -0.03419355, -0.006152117, 0.04852143, 0.029201696, -0.029152077, -0.0043798583, -0.007464368, -0.032547724, 0.07492289, -0.022991644, -0.007946812, -0.043801814, -0.027185572, -0.013257706, 0.045343097, -0.031213671, 0.024283964, -0.01022425, -0.03081396, -0.03131049, -0.028738929, -0.07462128, 0.068235226, 0.0070407433, 0.03526124, -0.010006368, -0.018827282, 0.037275188, 0.032404948, -0.021040829, 0.015083864, 0.06982566, -0.01130774, -0.04459405, 0.023603365, -0.03102001, -0.028982807, 0.03651753, 0.013522207, -0.05146633, 0.05809837, 0.0033910307, 0.022980502, 0.0064611747, 0.048931763, 0.022038225, -0.08966942, 0.014008265, 0.004765555, 0.04987026, 0.04757939, 0.00019734493, -0.012596911, -0.060365204, 0.016635716, -0.035418116, 0.040946625, -0.01613756, 0.018508993, 0.013236292, -0.0033121433, -0.036046896, 0.0023354308, -0.025141804, 0.005456713, -0.0048892675, 0.01978242, -0.00740945, 0.041741226, -0.012787993, 0.03925672, 0.045464154, -0.00513205, 0.040519353, 0.04381932, 0.06820916, -0.015284242, -0.00842689, 0.017902723, -0.026746986, 0.038435932, -0.037916314, 0.058072604, -0.016435293, -0.050505366, -0.008857611, -0.040941477, 0.01520242, 0.013918062, 0.008855174, 0.02218884, -0.054301042, -0.042513654, 0.012164714, -0.031841286, -0.018710842, -0.043716326, 0.008092793, 0.02012627, -0.009171716, -0.0015839053, 0.008758153, -0.033739556, 0.01102426, 0.021048732, -0.016870681, -0.061458904, 0.02460478, 0.025618622, -0.033177707, -0.009597219, -0.0016062879, -0.013887461, -0.085296236, 0.01891634, -0.050199218, -0.087644614, -0.042362005, 0.04772544, -0.042740528, 0.029366188, -0.037653096, -0.05832618, 0.019531664, -0.0726579, -0.11486066, -0.020767985, -0.011863921, 0.08382168, 0.01507372, -0.04378791, 0.05162502, 0.035882402, 0.053123806, -0.027767042, -0.012154996, 0.02816001, 0.020360705, -0.0051429085, 0.05911773, 0.024916517, -0.00678593, -0.014235838, -0.032942355, -0.0068452284, 0.044107694, -0.049800165, -0.0070314803, 0.005529591, 0.007430961, -0.0112771, 0.02229627, 0.01817931, 0.030813053, -0.045584556, 0.012382144, -8.14767e-05, 0.003847092, -0.00804245, -0.018250072, -0.05390368, 0.02483883, -0.08168745, -0.028656784, -0.04602799, 0.02665068, 0.013771918, -0.021255376, -0.022794375, -0.02235748, 0.043939035, 0.006463723, -0.044577293, -0.0027800372, 0.0037567997, -0.062479604, -0.06511059, 0.044378985, 0.026200045, -0.035764735, -0.020904204, 0.0013626682, 0.038682308, 0.07588281, -0.035030406, -0.014469625, -0.048373576, -0.020233126, 0.012579822, -0.08060423, 0.008490786, -0.058584064, 0.0062500443, -0.06851424, 0.017355788, 0.033900548, -0.020025365, 0.006262033, -0.045293044, -0.025219873, 0.00080743135, -0.020172495, -0.025039678, 0.0034397636, 0.016587496, -0.039122496, 0.08844504, -0.00859299, -0.0033421821, 0.027611606, 0.04042543, 0.019924365, 0.018354036, 0.0482193, 0.05325855, 0.014362276, 0.040515896, -0.011961508, -0.008985715, -0.043173183, -0.024424713, 0.03057312, -0.07222522, 0.046490915, 0.0036116384, -0.041711602, 0.032327216, 0.06984965, 0.011654585, 0.009684545, 0.015951058, 0.009734418, -0.018600892, 0.0058735944, -0.049563803, -0.011349403, -0.0007353759, -0.02748011, 0.014439007, 0.020894805, -0.011067112, 0.0143011855, 0.0016027165, -0.031904455, 0.010926469, -0.084641986, 0.012986618, 0.040233247, 0.046596553, 0.015299861, 0.018366715, -0.04986314, 0.026150942, -0.046604387, -0.01620315, -0.017973311, 0.0049236543, 0.054470062, 0.0007929637, 0.016592765, 0.021721656, 0.0718814, -0.0013342999, -0.080359325, 0.02324398, -0.036493182, 0.044536058, -0.03191599, -0.02396279, -0.021237003, -0.033040993, 0.0391894, -0.0054633124, 0.017445501, 0.014681646, -0.005387338, -0.045348883, -0.022190899, 0.018065484, 0.04066991, 0.02776532, 0.04176104, 0.016531328, 0.019746313, -0.05865745, 0.005572573, -0.007861321, -0.0028141476, -0.013784691, 0.051236704, 0.067472376, -0.07313231, -0.016988892, 0.036262784, -0.04719682, 0.016895156, 0.019175354, -0.027896322, 0.04568648, -0.0048602624, 0.02246291, -0.043779932, -0.0042083366, -0.0097199315, -0.029181892, -0.016653175, 0.016075145, 0.005029124, 0.016727094, 0.004470947, -0.05059229, -0.115920275, 0.009345861, -0.010385404, 0.049345933, -0.008057161, -0.032149557, -0.003886057, 0.06784528, -0.019766048, 0.017068215, -0.033563625, 0.03929303, 0.033641737, -0.05835143, -0.016798003, -0.06928573, 0.050113834, -0.07089136, -0.047041234, -0.01940738, -0.011993755, -0.016096061, 0.013094267, 0.01498082, -0.01928749, 0.017066551, -0.00407073, 0.00063311117, -0.020973356, 0.0027163902, -0.027265567, 0.035991427, -0.0074903923, -0.14514211, -0.019724146, -0.0058876835, -0.008488369]</t>
+          <t>[-0.027454505, -0.0026313239, 0.053797062, 0.022290463, 0.11185256, 0.009088534, -0.008483134, -0.09810673, 0.018845068, 0.044930138, -0.10152568, -0.029324086, -0.011239871, 0.07315674, -0.051306676, 0.0529339, -0.06365968, 0.045350943, 0.04979702, 0.035238225, -0.018841814, -0.024863405, -0.039436255, 0.038611013, 0.079076365, 0.02307989, 0.012188077, -0.0741138, 0.0411591, 0.016761601, 0.035262875, -0.028650908, 0.06549149, -0.011682404, -0.057693534, 0.0069799884, 0.06642026, 0.0013023925, 0.051102202, -0.041051827, -0.03766426, 0.024590237, -0.024135416, 0.00530751, 0.006815949, 0.023002526, 0.013503198, 0.0044621485, -0.059095033, 0.026267998, -0.013869447, -0.014400635, 0.029109687, -0.0038103585, 0.040278804, -0.05222775, -0.06826927, -0.0025029108, 0.023020139, 0.023034913, -0.019950349, -0.060062602, -0.008575019, -0.012384558, -0.028099818, -0.012221905, 0.051125307, 0.0016904108, 0.027073601, 0.033382848, -0.0004205827, -0.011550171, -0.02254857, 0.016438326, -0.07206715, -0.13790588, -0.036330692, -0.0038963007, -0.05598773, -0.058278296, 0.0059510437, -0.046070777, 0.058565535, -0.00026642086, -0.041271575, 0.03569187, -0.071781464, 0.007974027, -0.031368602, 0.038063902, 0.037650295, 0.0038106402, 0.12218475, 0.055025667, 0.04479456, 0.044513267, 0.1400622, 0.06737117, 0.029759312, 0.024551889, -0.026198978, -0.00063892995, -0.0475976, 0.012232953, 0.066424325, -0.050267123, -0.0023283889, 0.018207066, 0.054360725, 0.020108152, 0.037672095, -0.03920211, -0.043777395, -0.028086748, 0.0137714185, 0.05224046, 0.079318196, 0.032775898, -0.00091005093, 0.03134701, 0.010907268, 0.025773656, -0.005719616, 0.060826007, 0.0014798903, 0.025184587, 0.016526176, -0.0073037934, -0.04078439, -0.06323129, 0.017722152, 0.09300062, -0.009128379, 0.03273376, 0.005909446, 0.05876078, 0.020828716, 0.01683436, 0.022145392, -0.02105907, -0.010244023, -0.0635322, 0.035866383, -0.07941902, 0.003588645, 0.010671852, -0.06592696, -0.018534811, 0.007984037, 0.051236432, 0.011772163, 0.019614346, 0.022535343, -0.052282345, 0.0068027475, -0.08806805, 0.019050658, -0.029206248, -0.060938053, -0.056998886, 0.0083727185, -0.041235335, -0.044182487, 0.010241531, -0.016455745, -0.06736561, 0.06848459, 0.013324929, 0.013851761, 0.05553176, -0.0236526, -0.0040822285, 0.020297248, -0.031339087, -0.024401125, -0.034490217, -0.022139082, -0.043572385, 0.070133455, -0.07273954, -0.015013982, -0.0044454667, 0.010254091, 0.028514836, 0.06664753, -0.024139488, 0.01795467, -0.012287057, 0.017575923, 0.091362834, -0.116697006, 0.04166126, 0.033584874, 0.028530855, 0.007923559, -0.01256395, 0.027459502, -0.037068333, 0.08257438, 0.06833605, 0.041387517, 0.0634658, 0.05100518, -0.031448875, 0.07339648, 0.060485587, 0.016375398, -0.014684997, 0.028114785, 0.013711215, -0.002238597, 0.019215219, -0.033749897, -0.017299656, 0.030719526, -0.006073746, 0.007233278, -0.059222035, 0.043733034, -0.0038035025, 0.026853662, 0.00081479765, -0.06548792, 0.009110762, 0.015289189, -0.01736775, 0.009562203, 0.02270675, -0.012687382, 0.0035333887, 0.03607571, -0.052468203, -0.10048967, 0.008165285, -0.01635969, -0.01536182, -0.04579744, 0.017442457, -0.0008663994, 0.08816531, -0.058792643, -0.0026856665, 0.034540463, 0.009863909, -0.012513802, 0.02587879, 0.0069475016, -0.033372167, -0.052519225, 0.010749203, 0.036753777, 0.021431299, -0.04599512, 0.020876508, -0.030895371, -0.02534154, 0.010190536, -0.084363274, -0.052447353, -0.064123824, -0.012326109, -0.018260729, -0.04586085, -0.006300611, -0.01127918, 0.0066575003, 0.046139635, -0.04225308, 0.034704022, 0.014786739, 0.015439301, 0.004687315, 0.041916784, 0.042512733, -0.025387717, 0.018892247, 0.033330906, -0.1180199, 0.023912475, -0.012667034, -0.045651603, -0.0044635828, 0.032536797, -0.082600474, -0.004091403, -0.012416798, -0.07742514, 0.036611725, -0.048854597, -0.052661464, 0.0111038815, 0.0181837, -0.0060989396, 0.0150213735, -0.06163094, 0.06157296, -0.0053832084, 0.03710608, -0.027238298, 0.019651268, 0.06215162, -0.028649516, 0.08107089, 0.020154536, -0.028076472, 0.00021191826, 0.04279699, 0.00061222323, 0.051600523, -0.023131728, -0.027433876, 0.004969522, -0.013839534, 0.027979568, -0.025237693, -0.0048564253, -0.016106695, 0.036317077, -0.023114173, -0.02477935, -0.0068537192, 0.034693044, -0.015362712, -0.010945547, -0.033337336, 0.09177063, -0.021583533, -0.009953752, -0.037834432, 0.030475862, -0.009010475, -0.011408737, 0.05179482, -0.018134262, 0.011595741, 0.018095372, 0.060222864, 0.030998427, -0.00569617, 0.002721649, -0.04317454, -0.019333452, 0.07950399, -0.0011353766, -0.048492007, 0.03126265, 0.05270881, 0.054466777, -0.013570998, -0.031016538, 0.04468975, -0.016018754, 0.042873725, -0.0332166, -0.00083945907, -0.0773763, -0.060937274, -0.048204433, 0.08151147, 0.0050587547, 0.009547066, -0.023211863, -0.022262823, -0.056606945, 0.012800648, -0.0025312866, -0.064963795, -0.04578215, -0.005379543, 0.009686157, 0.03047016, 0.0042194226, -0.040510662, 0.023120645, -0.04624462, 0.0078002056, 0.00093421614, 0.05194695, 0.11305419, -0.019758485, 0.013672306, 0.0149588445, 0.02070985, -0.03647183, -0.03615668, 0.021362884, -0.084348895, 0.05270477, -0.06592153, -0.09091187, 0.0477432, 0.098327994, -0.030710587, -0.005364437, -0.023348102, 0.014536005, -0.023152184, 0.015388066, -0.09964419, -0.008060644, 0.034690082, -0.026567731, -0.010446743, 0.023537308, -0.0056415233, -0.035524383, -0.049747624, -0.02706545, 0.008624455, -0.062431335, 0.0076870765, -0.0063209734, 0.016217725, 0.03844138, 0.041966196, -0.02987136, -0.053702567, 0.042184014, 0.0080806175, -0.017583754, -0.094875306, 0.03090488, -0.009251845, 0.10132256, -0.005362948, 0.012104689, 0.014991023, -0.054117203, -0.01843078, 0.052845046, -0.006418808, -0.040609863, -0.01100114, -0.039651256, -0.05067209, 0.041161794, 0.03215568, 0.036468614, 0.12821075, 0.014227231, -0.043911837, -0.044957094, -0.06112134, 0.0045449566, 0.010821801, 0.04784882, -0.0014821988, 0.009786296, -0.012561593, -0.03907563, 0.013790632, 0.011878472, 0.026959565, 0.028690828, 0.063969724, -0.053588696, -0.0083399685, -0.10023145, -0.01598922, -0.06832486, 0.02971018, -0.03594423, 0.11351384, 0.018272359, -0.009688345, -0.06584477, -0.043219768, 0.017532563, 0.04139566, -0.042226985, 0.023634002, 0.084456064, 0.014683977, -0.005958847, 0.025115551, -0.0449035, 0.015773483, -0.018515019, 0.06528887, -0.057910707, 0.02648616, -0.06520219, 0.06675273, 0.046735995, -0.047068104, 0.017892, 0.055757746, 0.0069472333, -0.025807273, 0.00066681614, -0.052745353, 0.00904745, -0.044360217, 0.014435697, 0.03628907, 0.007490356, -0.0020552615, 0.018939868, 0.023912108, 0.0024020472, -0.021945953, -0.07084588, -0.008226797, -0.031811234, 0.0072135017, -0.035491947, 0.0078935195, 0.018447258, -0.10151139, -0.036224905, -0.010416822, 0.06791272]</t>
         </is>
       </c>
     </row>
@@ -4638,37 +4647,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>한국식품과학회</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>백정주</t>
+          <t>김용기</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>천안</t>
+          <t>강릉</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Utilization of brown rice flour as a gluten-free ingredient in extruded noodles</t>
+          <t>In-vitro instrumental stimulation of oral breakdown of rice gels with different amylose contents</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Brown rice flour was utilized to produce health-functional gluten-free extruded noodles of which physicochemical attributes were compared with those of white rice noodles. Brown rice flour contained a high amount of total dietary fiber (3.39%), compared to white rice flour (1.11%). Brown rice flour showed lower pasting parameters than white rice flour mainly due to its high contents of non-starch components. Mixolab results demonstrated that brown rice dough had more mixing resistance while lower degrees of starch gelatinization and retrogradation were observed. When rice flours were twin-extruded to produce noodles, a lower expansion ratio was observed in brown rice noodles which could be correlated to its pasting and Mixolab results. Brown rice noodles exhibited higher DPPH radical scavenging activity, ferric reducing ability power, and ABTS radical-scavenging activity by 21-, 28-, and 21-fold, respectively, than white rice noodles. Also, the use of brown rice flour produced noodles with low tensile properties and high cooking loss derived from a weakened structural matrix.</t>
+          <t>In-vitro food mastication has been simulated by incorporating size reduction process, followed by incubation with human saliva. However, they do not suffice to simulate the actual oral breakdown process where disruption by mastication (chewing) and wetting/lubrication by salivation take place simultaneously. In this study, in-vitro oral digestion of rice gels with different amylose contents was simulated by instrumentally performing mastication and salivation. The hardness of artificial saliva-treated rice gels was distinctly lowered with increasing chewing cycles and the rice gels with high amylose contents showed the highest degradation rate. When the rice gels were subjected to non-destructive tomographic analysis, the high amylose rice gels were clearly shown to be favorably fragmented into smaller pieces by chewing, followed by the low and intermediate amylose samples. These results could be explained by their cohesive texture rather than hardness. Therefore, this study may help understanding the changes in the physical properties of cereal-based foods during oral digestion.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[-0.020412112, 0.028891565, 0.039589655, -0.011013636, 0.059707142, -0.021329265, -0.029835766, -0.0067715133, 0.049483232, 0.029958595, -0.1033168, -0.010322978, -0.047306005, 0.07135008, -0.008636246, 0.040225476, -0.05580573, 0.024102857, 0.043324467, 0.04698869, -0.022806954, -0.026349558, -0.06358474, 0.04310293, 0.040354602, 0.032019053, -0.0040257, -0.059624292, 0.038045965, 0.010799513, 0.021236483, -0.04007259, 0.06696562, 0.020108787, -0.046268456, 0.01596846, 0.09427833, 0.018540079, 0.06019217, -0.0014995516, -0.07382774, -0.011258907, -0.067660436, -0.00235208, -0.04292771, -0.010134646, -0.0066169235, 0.010621407, -0.044496782, 0.039476357, -0.042765472, 0.005332016, 0.028119156, 0.009364203, 0.042620786, -0.08901121, -0.060226027, -0.01282441, 0.0070334557, 0.03654647, -0.053191654, -0.010496087, -0.0036567817, 0.029217718, -0.045157935, 0.035498958, 0.030913256, -0.0036417898, -0.032030612, 0.06263873, 0.0150643615, -0.009344886, 0.008985967, -0.019805275, -0.060047947, -0.102154784, 0.012931353, 0.016115775, -0.07663073, -0.0514863, -0.0019413972, -0.055396512, 0.02546148, -0.01394108, -0.046853203, 0.0143021075, -0.04737502, 0.0601901, -0.002063314, 0.007434217, 0.087183565, 0.03776805, 0.10523179, 0.07776415, 0.033014864, 0.052223843, 0.102214724, 0.07125957, 0.047740277, 0.025155537, -0.04066016, 0.025016163, -0.03151491, 0.033033177, 0.035463806, -0.067376405, 0.031952966, -0.014839323, 0.021043949, 0.03778903, 0.004937994, -0.039315175, 0.020177087, -0.053246435, 0.027731065, 0.015403534, 0.041194774, 0.04769052, 0.031606823, 0.049707998, 0.00020874571, 0.001743607, 0.024484796, 0.030031545, -0.007497743, 0.042745516, 0.03814719, 0.0056268093, -0.030976133, -0.047050834, 0.04413699, 0.06285171, 0.018793307, 0.0526029, 0.028736088, 0.016526045, 0.0028423134, 0.03474724, 0.007819834, -0.020336403, 0.02333164, -0.0038551285, 0.041134838, -0.039529037, -0.0020637384, 0.030132985, -0.0715013, -0.007247719, 0.020199452, -0.006900764, 0.011725847, 0.0040747733, 0.049162213, -0.056692325, 0.020786148, -0.062357653, 0.015609381, -0.03388885, -0.056059793, -0.056804743, -0.017890247, -0.031874917, -0.0006080025, -0.0047985315, -0.00907019, -0.042870708, 0.05023995, 0.053676814, 0.012281698, 0.10849972, -0.012649937, -0.00018367171, 0.023109738, 0.0046736654, -0.0554969, -0.020431962, -0.019062582, -0.059184417, 0.06650496, -0.0339992, -0.0075012324, -0.06160918, -0.032264926, 0.011193873, 0.037123688, -0.0722248, 0.037551425, -0.036943033, 0.03923252, 0.08594134, -0.12361705, 0.022357682, 0.046239257, 0.012364591, -0.011066185, -0.010718218, -0.012071612, -0.04331485, 0.11017081, 0.05909459, 0.106753744, 0.07525874, 0.057064664, -0.017820906, 0.033731375, 0.01771677, 0.04407582, 0.024488587, 0.04809017, 0.033287525, -0.017627494, -0.0009195998, -0.012255874, -0.034556437, 0.045586187, 0.008535246, -0.006580187, -0.07672891, 0.0016926785, -0.005165691, 0.048443288, 0.01585388, -0.07812761, 0.02406986, 0.018782428, -0.008401921, -0.011571373, -0.006540959, -0.01249705, -0.033420153, 0.034850866, -0.031108076, -0.0685331, 0.04990591, -0.001306631, 0.043995116, -0.09540245, 0.0062555885, -0.0036172636, 0.063686185, -0.060668968, 0.026711104, 0.051211905, 0.01493307, -0.007113832, -0.0026395023, 0.02664988, -0.037113316, -0.07895126, -0.0038322129, -0.013192087, -0.02671042, -0.06274575, -0.023030262, -0.030865826, 0.028492067, -0.009144884, -0.09805342, -0.12415438, -0.0020260713, 0.007858765, -0.07425273, -0.016448999, 0.01271039, -0.030175688, 0.04159344, 0.04167534, -0.040810555, 0.031247946, 0.03219995, 0.03303348, -0.026846314, 0.0027038648, 0.031789392, -0.011560747, 0.024012484, 0.016892498, -0.11693341, 0.0038595097, -0.032800395, -0.03821762, 0.005459792, 0.016793452, -0.059831932, 0.050347857, 0.01298716, -0.049819566, 0.034701843, -0.04953809, -0.029366683, -0.033595964, 0.02647091, -0.032642353, 0.003644413, -0.049198467, 0.06163452, 0.046862956, 0.060509007, -0.02817673, 0.014759651, 0.007259113, 0.0052152644, 0.028922174, 0.039437406, -0.038403805, -0.0029684063, 0.018498491, 0.014974832, 0.03131728, -0.026046274, -0.012982886, -0.007436227, 0.0012950769, -0.004741529, -0.0039320327, -0.016150318, 0.0073450287, 0.009029587, -0.015553862, -0.04931266, -0.03052913, 0.011885099, 0.005502069, -0.0068502952, -0.03510983, 0.075457126, -0.005267391, -0.051443905, -0.038070664, 0.06538028, 0.010487606, -0.020366563, 0.03777623, -0.012513336, 0.027970625, -0.03492223, 0.04422996, -0.0101382965, 0.010395167, -0.04029326, -0.0040371395, -0.010313569, 0.07546845, 0.018196324, -0.061618816, -0.0005828372, 0.032070808, -0.0148690315, -0.05137485, 0.02702513, 0.030850325, -0.00044855426, 0.0646389, -0.03106981, 0.045397818, -0.07821296, -0.023340052, -0.054748565, 0.041615054, 0.0052557616, 0.03900958, -0.058565702, 0.00793461, -0.07554925, 0.023773726, 0.0029124466, -0.06803847, -0.02248061, -0.022204947, 0.03513715, 0.07170517, 0.035760753, -0.01906132, 0.0293387, -0.036602058, 0.026035124, 0.00857467, 0.033327747, 0.075322434, -0.0063042385, -0.008715372, -0.005910844, -0.020536333, -0.046299413, -0.043614183, -0.0138212, -0.07074442, 0.06383734, -0.014151247, -0.0939441, 0.055278987, 0.08788521, -0.010698473, 0.03632767, -0.034295563, 0.055528376, -0.0028950055, 0.08831983, -0.089691706, 0.03617909, 0.009889685, -0.029287443, -0.037911627, 0.022851523, -0.012250917, -0.053831384, -0.03847084, 0.027810793, 0.0033854344, -0.11734098, 0.011465283, 0.009515761, 0.009994476, 0.005737093, 0.057538964, -0.0036019394, -0.04545896, 0.022762103, 0.013719952, -0.0082635265, -0.06504581, 0.034147903, -0.0102387015, 0.044615854, -0.033877134, 0.05011256, 0.0029667013, -0.05230647, -0.017821379, 0.018406197, 0.020013474, -0.05528619, -0.031629153, -0.044487722, -0.03618857, -0.010271193, 0.015410557, 0.023258734, 0.13254839, 0.02426913, -0.023035549, -0.07626667, -0.05251435, -0.0073598307, 0.007245528, 0.034339868, 0.0032609557, 0.002998314, 0.00091838767, -0.01471458, 0.003802982, 0.006921176, -0.009464018, 0.054057296, 0.032743406, -0.029032012, 0.0016225816, -0.06678565, 0.00105771, -0.07147414, 0.00086041354, -0.020643665, 0.12590757, -0.022895766, -0.00970541, -0.07031819, -0.05434205, 0.042560037, 0.04319027, 0.008698953, 0.043232102, 0.08438273, 0.024339797, -0.007374144, 0.0007255111, -0.0019308546, -0.038814355, 0.0076873354, 0.044830773, -0.112175435, 0.0191613, -0.05173885, 0.037536222, 0.023740456, -0.06364282, 0.024960008, 0.024156818, 0.036899615, -0.0052727177, -0.0029201494, -0.04923095, -0.002448201, -0.0056580817, 0.0083940625, 0.021981362, 0.028870529, -0.015784245, -0.016438285, 0.015922654, -0.011542549, -0.027673185, -0.023591498, -0.010487166, -0.00620764, 0.044398874, 0.0038039505, 0.018617403, 0.0058367187, -0.065755986, -0.01794031, 0.04268009, 0.021332711]</t>
+          <t>[-0.06584913, 0.089246854, 0.032307122, -0.022533271, 0.117023155, -0.044664312, -0.010968947, -0.06456932, -0.027077928, 0.047914043, -0.0673385, -0.0374144, 0.08167827, -0.023804694, -0.041750938, 0.057096392, -0.031511176, 0.033482086, 0.012026867, 0.038316373, -0.009112624, 0.01782001, -0.04718645, 0.045334082, -0.036597144, 0.03822302, 0.08654748, -0.027442621, 0.005669947, -0.008976519, 0.05918507, -0.044834673, 0.009710527, -0.004369457, 0.011484835, 0.012635026, -0.019249741, -0.0057883025, 0.050904077, 0.0022364412, -0.052844483, 0.04551213, -0.016026083, -0.021069828, 0.011737517, 0.010542585, 0.013433003, 0.007894194, -0.025924731, 0.01864629, -0.012433868, -0.022129511, -0.007797328, 0.045672346, 0.014913294, -0.0013524705, -0.06286601, 0.0010366838, 0.030353524, -0.021354148, -0.043180935, -0.022900486, -0.04965852, -0.0063131936, 0.055052806, -0.0060885367, 0.0004855592, -0.028411815, 0.027620815, -0.001817875, -0.056944605, -0.008887872, 0.066851, 0.0051689832, -0.0635706, -0.02220596, 0.046582457, 0.032768596, -0.052113604, -0.010393635, -0.020523148, -0.068024054, 0.025096515, -0.043711882, -0.03620426, 0.0810537, -0.033421386, 0.028329605, -0.019952387, 0.015002359, -0.0249793, 0.008718048, 0.13886876, 0.055775285, 0.03231093, 0.031249598, 0.030995324, 0.02457495, 0.047210645, 0.021844935, -0.03112264, 0.035077628, -0.05898259, -0.019088332, 0.015872708, -0.027847417, -0.018710112, -0.032459002, 0.061519377, 0.024800364, 0.034243394, -0.06878023, 0.036088675, 0.013428387, 0.03967628, 0.039721422, 0.024920896, 0.015282848, -0.0063656247, 0.020297451, 0.044083588, 0.005531896, -0.013215287, 0.048726328, -0.02426245, 0.03558022, -0.006960269, 0.0023460742, -0.009984167, -0.031444147, 0.01940903, 0.0827148, -0.014522177, 0.03030648, 0.013286567, -0.050654784, -0.047719836, 0.03643103, 0.005394509, -0.045273494, 0.037702914, -0.026473999, 0.033092912, -0.033109948, -0.014985167, -0.025421618, -0.053156883, -0.0146500375, -0.0067508197, 0.023064276, 0.063723974, 0.024093531, 0.04877122, -0.031194743, -0.015703693, -0.06912859, -0.06338217, -0.036963694, -0.019731017, -0.034453332, 0.051693175, -0.012006542, -0.04507418, 0.035979945, 0.07332015, -0.07708718, 0.056956124, 0.016075425, 0.018687539, 0.019373726, -0.00076569134, -0.013806596, 0.04874282, -0.021713773, -0.0024209886, -0.009016398, -0.026718782, -0.025590584, 0.03272192, -0.040093392, 0.004725147, -0.08331837, -0.020635912, -0.009884074, -0.046531152, 0.006217304, 0.046778295, -0.02676398, 0.061874006, 0.03366039, -0.02435142, 0.009739351, 0.037317522, 0.024077954, -0.029985597, 0.005756223, 0.043046962, -0.045459975, 0.033363722, -0.005254257, 0.013195061, 0.033090528, 0.027067645, -0.05373438, 0.04176745, 0.025841909, 0.015853606, 0.036971487, 0.006303177, -0.042620946, -0.023173528, 0.07345332, 0.024643276, -0.05762049, 0.0499242, -0.017808722, -0.018636452, -0.032718685, 0.049436048, -0.0029021085, -0.024686849, 0.037493788, 0.004076485, 0.07802879, -0.04679666, -0.010023285, 0.069517955, 0.025594749, -0.06434202, -0.040624086, 0.02361565, -0.019403521, 0.0034548356, 0.008259258, 0.05068919, 0.06148701, -0.033822928, -0.041860823, 0.0062396443, 0.07112307, 0.0050481437, 0.004763181, -0.030411357, -0.0039578304, 0.012815256, -0.0005116354, 0.043306123, -0.025670962, -0.043809377, -0.051241282, -0.027356666, 0.045904912, -0.016820846, -0.0035999278, -0.008924148, -0.03338149, 0.03807055, -0.11666391, -0.004113094, -0.04223649, 0.012372679, -0.0549973, 0.011153181, 0.033858735, -0.058447335, -0.030073583, 0.0038308809, 0.06339231, 0.0019345052, 0.00029701812, -0.048517685, 0.023974724, -0.0074959826, 0.036795475, -0.11390415, -0.06591975, -0.035619255, 0.022610197, 0.054426383, 0.066384695, 0.01123652, 0.005193965, 0.013701529, -0.021977581, -0.0015139438, -0.023396371, 0.019021083, -0.008028521, 0.007062762, -0.036082737, 0.018215634, 0.015465994, 0.030516487, -0.037489384, -0.06688443, 0.06653125, 0.005947741, 0.038765643, 0.0042023477, -0.029965632, -0.027479514, 0.054981038, 0.014071428, 0.057889886, -0.021510623, 0.012561365, 0.021068346, -0.049358003, -0.025125166, 0.012471201, -0.06379211, -0.0002391939, 0.010687776, 0.058735274, -0.052470926, -0.05952165, 0.0036435258, 0.0063066, -0.009789269, -0.047060072, 0.009987093, 0.04730189, 0.004790927, 0.0062961876, -0.076767184, 0.023715846, 0.022467278, -0.05890922, -0.04608142, 0.042030882, 0.027703216, 0.0063759172, -0.0013593949, -0.02014788, -0.024386682, -0.005354761, 0.0130373705, 0.053314246, -0.026311403, 0.004021539, 0.0034795394, -0.046009272, -0.007581546, -0.034932353, -0.04114638, 0.045821734, 0.04896821, 0.025755452, -0.05099012, 0.0012809106, 0.0019110818, 0.0059029707, 0.021583501, -0.01662861, -0.03157989, 0.033778492, -0.05192373, -0.02944817, 0.0025473926, -0.0005208735, 0.052250005, 0.006223871, -0.0008959096, -0.030187419, 0.0056801303, -0.056147367, -0.058364864, -0.051677972, -0.02668378, 0.0074696215, -0.007211759, 0.021401549, -0.024794811, 0.014811995, -0.026803853, -0.061710127, 0.009068333, 0.014837344, 0.056089893, 0.011689084, 0.00026115542, 0.025277222, 0.035233352, -0.07461509, -0.045619722, -0.035348874, -0.05362548, 0.045499027, -0.014650615, -0.02902089, 0.07265028, 0.08147364, 0.007832646, -0.025581313, -0.00913722, -0.01434391, 0.012764045, -0.013750234, 0.041685715, 0.010184512, 0.011087334, 0.05754186, -0.004812767, -0.04695429, 0.00448743, 0.0066239294, 0.044973373, 0.012610078, -0.0535428, 0.026279386, 0.035867788, 0.0028954076, 0.044795405, 0.05798466, 0.0055470495, 0.038917348, -0.07008191, 0.029117648, -0.008217598, -0.06015712, -0.035454974, 0.045891516, -0.015588543, 0.010090535, -0.04004362, -0.006665701, -0.0049651903, -0.03367566, 0.042082407, -0.030831125, -0.018652035, 0.017747333, 0.0031474435, 0.04360452, -0.022301555, 0.024239635, 0.060745668, 0.0053791255, -0.024110671, 0.022835309, -0.008958719, -0.048902024, -0.016306316, -0.0006109404, -0.0024368304, -0.0336412, 0.019474097, -0.076329514, 0.03891667, -0.03769025, 0.02377323, 0.013301155, 0.0010175282, -0.020731548, 0.00830507, -0.060388863, -0.03561013, 0.0050950986, -0.066880174, -0.045393057, 0.0056726052, -0.036542673, 0.075654685, -0.0069705714, 0.05074043, -0.010704791, -0.030891476, 0.05667341, -0.00037760296, 0.053617783, -0.043984544, 0.07278006, 0.017554317, -0.013678015, -0.08242154, -0.016622432, 0.017076937, -0.025821188, -0.03582334, 0.0024676973, -0.0015590895, -0.028331904, 0.06674987, 0.016433781, -0.084202595, 0.017847057, 0.04128534, 0.031734426, 0.030067658, 0.02250866, -0.06022357, 0.027230121, -0.006190188, -0.0083580855, -0.027536236, 0.025121938, -0.01460138, 0.0043793633, -0.011411864, -0.01639022, 0.02560706, -0.028755432, -0.053419348, -0.02338624, -0.031492118, -0.01877361, 0.027243208, 0.011312421, -0.13049988, -0.006194315, 0.015375111, -0.03670872]</t>
         </is>
       </c>
     </row>
@@ -4677,39 +4686,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>한국산업식품공학회</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>김유정</t>
+          <t>박유진</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>강릉</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Physicochemical and functional characterization of refrigerated
-cookies prepared with dietary fiber-enriched apple powder 
-</t>
+          <t>Utilization of turanose as a quality improver in gluten-free extruded rice noodles</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The refrigerated and frozen baked products become the primary sector of the ready-to-use food industry. Since the product qualities are significantly affected during low temperature storage, considerable effort has been made to maintain the quality attributes like fresh products. However, there have been limited trials to enhance the health-functional properties of refrigerated and frozen baked goods and also to establish their quality parameters. In this study, dietary fiber-enriched materials (DFEMs) obtained from apples were incorporated in the formulation of refrigerated cookies and their physicochemical/functional properties were characterized during storage at 6℃. Apple powder suspension in distilled water was subjected to autoclaving and subsequent fractionation, producing DFEMs with high amounts of total dietary fiber(85.62%). The use of DFEMs increased the pasting parameters of wheat flour and also enhanced Mixolab dough stability and water absorption. When DFEMs were incorporated into the formulation of refrigerated cookies, the cookie samples with 2, 4, 6 g dietary fiber per a serving were produced, allowing for higher-fiber claims on a label. In a refrigerated dough system, the use of DFEMs significantly reduced dough syruping by more than 52% while the spreading and textural characteristics were affected. Thus, this study showed the physicochemical and functional roles of dietary fiber-enriched apple powder in refrigerated cookies as a health-functional ingredient. It can provide an opportunity for the food industry to develop a new refrigerated product with a health claim of ‘a good source of fiber’ or ‘high fiber’ on a label without significant quality loss.</t>
+          <t>Gluten-free industry has experienced consistent growth with increasing the number of individuals with celiac disease. Among gluten-free products, the popularity of rice noodles has been worldwide increasing over the recent years. However, rice noodles have several processing limitations such as high cooking turbidity and long cooking time. Therefore, various ingredients have been incorporated into the formulation of rice noodles in order to improve their quality attributes. In this study, turanose which is known to be a new sugar alternative with low sweetness was applied to rice noodles and their effects were characterized in terms of thermal, rheological, and textural properties. Gluten-free rice noodles were prepared with different levels of turanose (0.5, 1.0, 1.5%, w/w) by using a twin-screw extruder. Rice flour with turanose had higher gelatinization temperature and also showed higher enthalpy values after storage at 4°C. The use of turanose also increased the pasting and mixing parameters of rice flour. In addition, the application of turanose to rice noodles affected their qualities such as texture and cooking loss. Thus, this study demonstrated that turanose could positively contribute to enhancing the qualities of gluten-free rice noodles as a new additive.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[0.060741466, 0.022267424, 0.06616253, 0.014269719, 0.074730426, 0.031730153, 0.005093805, -0.0068862787, 0.028501563, 0.016464457, -0.0011874841, -0.041720554, -0.06057273, 0.042246416, 0.0037307073, 0.023210164, 0.015834877, 0.029037084, 0.05232253, 0.028491486, -0.054433964, -0.016827665, -0.07052945, 0.040433194, 0.09331854, 0.028375015, 0.036916196, -0.12406216, 0.040597573, -0.008854294, 0.07214472, -0.01508154, -0.025167918, 0.0077872295, 0.018719418, -0.018664695, 0.04519036, 0.030198628, 0.03389412, -0.021760482, -0.017114801, 0.016326737, 0.061881743, -0.051572468, -0.1253404, -0.013570104, 0.09363288, 0.022817163, -0.017466592, 0.026070997, 0.014091985, 0.008278222, -0.00014519249, -0.01030174, 0.05145679, -0.051177826, -0.055432223, -0.0057346653, -0.0403872, 0.056999546, -0.015149157, -0.022589186, -0.031770483, 0.055871166, -0.028932262, -0.0081145335, -0.039082225, 0.015274877, -0.0030212568, -0.014340373, -0.007753772, -0.04068557, -0.049112644, 0.057322863, -0.090012565, -0.034854166, -0.006633581, 0.09637743, -0.030868532, -0.03143853, -0.06957128, -0.023035796, 0.067175694, -0.024026487, 0.02769454, 0.014948478, -0.043464117, 0.052513868, 0.0050209113, 0.0098671075, 0.012393475, -0.013810431, 0.123984694, -0.03364704, 0.0066065565, 0.045470383, 0.093771175, 0.11186497, 0.039202098, 0.03068032, -0.022911338, 0.009020054, -0.005928471, 0.011731466, 0.024217805, -0.043697104, 0.06682372, 0.0029494164, -0.004164269, 0.06302147, 0.035174083, -0.046283763, -0.038106296, 0.047889937, -0.037652455, 0.034226872, 0.04372645, 0.077167116, -0.0051542306, 0.039276198, 0.07830103, -0.054130375, 0.025405971, 0.01338769, -0.0061187013, 0.0059809494, 0.03765202, -0.018687373, -0.012146729, -0.069284774, -0.04443492, 0.06727814, -0.030126486, 0.040381588, 0.009305623, -0.011447571, -0.031480238, 0.01427819, 0.0030570575, -0.018572235, 0.021100037, -0.06209647, 0.022637272, -0.019921666, 0.017260393, 0.0025420466, -0.02157732, -0.040871102, -0.000737877, 0.032873224, -0.015775226, 0.03620985, 0.016691145, -0.028734725, 0.017372908, -0.028328283, 0.020783393, 0.023392897, 0.03626765, -0.05216842, 0.035843052, -0.02211872, -0.06181244, 0.012786255, -0.03972934, -0.024439588, 0.052500658, -0.012833564, -0.0011227508, -0.00844474, 0.012713903, 0.009815611, 0.0090901265, -0.035695445, -0.0057107913, -0.059198912, -0.06266094, 0.026038583, 0.06418551, -0.09975324, 0.013840689, 0.030587247, -0.034189925, 0.014768976, 0.06226742, -0.033280067, -0.025840921, -0.059016168, 0.018673915, -0.016435921, -0.08351738, 0.043109458, -0.019530144, -0.009089378, 0.03804418, 0.013000048, 0.037380647, 0.017752955, 0.0048075723, -0.0547987, 0.029882913, 0.010654471, 0.06749284, -0.015405471, 0.029497234, -0.047537103, 0.003917927, 0.05254103, 0.06680873, 0.018070783, -0.035101194, -0.0101821795, -0.021099892, -0.012849519, 0.029481193, 0.00032692426, 0.0053610853, 0.004811142, 0.022876058, 0.03496107, -0.045853294, -0.066502, -0.04128718, 0.0068082376, -0.02583966, 0.014748779, 0.035713017, 0.0068876543, 0.010142374, -0.030108329, 0.062322192, -0.11378648, -0.087059885, -0.04721578, 0.03893554, 0.03829602, -0.015301822, 0.017104674, 0.024045315, 0.0675799, -0.045153044, 0.022042574, 0.0065096878, 0.030735282, -0.047875635, 0.003813586, -0.004945046, 0.023177223, -0.08142944, 0.0053232773, -0.045907672, 0.07614712, -0.01309384, 0.036861498, 0.02177905, -0.037276883, 0.04334145, 0.022077007, -0.0025624647, -0.020471647, -0.041784704, -0.0048609707, -0.0061930576, -0.08756472, -0.026357083, -0.0396057, -0.026294807, 0.00069349806, 0.017534621, -0.043727934, -0.07320581, -0.060689263, 0.0892153, -5.5054203e-05, -0.021443414, 0.06887254, 0.038183153, -0.028654266, -0.01114143, -0.044174664, -0.018770264, 0.033896353, -0.046087347, -0.020864941, -0.027855087, -0.039036177, -0.06914677, -0.032604247, 0.010858483, -0.043774556, -0.025492655, -0.029022964, 0.05369974, -0.00011773151, -0.043441206, 0.0712501, -0.029375717, 0.02155491, 0.023990538, -0.022174943, 0.036594737, 0.017061193, 0.05353445, 0.027206, 0.018212719, 0.048355006, 0.069122985, 0.0049898433, -0.0017712079, 0.0014816622, 0.007983489, -0.012846386, -0.002448658, 0.067401, 0.029165216, -0.006275333, 0.034040302, -0.041600548, -0.016157327, 0.027270528, 0.05077306, 0.08819259, 0.048449747, 0.0013959315, -0.011064985, -0.03158332, -0.020374477, -0.062303726, -0.021651069, 0.0359448, 0.0039526317, -0.0087960195, -0.007666363, -0.00014464813, -0.0013410983, -0.013797766, -0.03655717, 0.01770028, -0.02064681, -0.02046743, -0.022601949, -0.023027238, 0.032182924, -0.015263455, -0.050044548, 0.066535115, 0.0845374, -0.00049865426, 0.00031550997, -0.059205644, 0.0008535611, 0.034050684, -0.018151859, -0.01731609, -0.036302984, -0.12439914, -0.034338806, -0.043541297, 0.02746114, 0.019334182, -0.033700503, 0.027725957, -0.05855026, 0.051095884, 0.022508137, -0.022789929, -0.05552133, 0.009427559, -0.023771726, 0.024558801, 0.023550797, -0.017101705, 0.032660116, -0.026564093, 0.044943642, 0.025648298, 0.07213125, -0.042657647, 0.080637775, 0.018822622, 0.04397563, 0.050047245, -0.012159905, -0.05562599, -0.028700305, 0.026326995, -0.06549172, 0.101658784, -0.024997476, -0.07079478, -0.046003975, 0.052404247, 0.058255114, 0.062267717, 0.037573207, 0.05092431, -0.016124975, 0.018563211, 0.018912258, -0.012941854, 0.048359342, -0.034842413, -0.0155843105, 0.01288571, 0.026481058, -0.0021157148, -0.06824288, -0.039252587, 0.004736943, -0.05726588, 0.04758153, -0.0019857876, 0.009966022, 0.09136971, 0.051614832, 0.017763637, -0.018259464, 0.06682799, 0.012513907, -0.032353327, -0.023794286, -0.013680402, -0.061359696, 0.01335707, -0.020912569, -0.10671074, -0.03404965, -0.048493057, 0.038402673, -0.06317894, 0.017101, -0.021181941, -0.027522027, -0.0657618, 0.00029522087, 0.035262544, 0.001742628, -0.008382444, -0.04693948, 0.07848393, 0.018852198, -0.016533487, 0.043863215, 0.06847781, 0.01864667, 0.06879753, 0.036897577, 0.049932677, -0.06475282, 0.0020410717, 0.04940955, 0.03188881, 0.038824618, 0.05685099, -0.008923554, -0.02705514, 0.019107683, -0.034544412, -0.040172074, 0.06511812, 0.01591241, -0.009383159, 0.072326615, 0.027094986, 0.021278657, -0.06914319, -0.0005715676, -0.015937723, 0.029234476, -0.006275944, -0.004964377, 0.017249469, 0.046426583, -0.026600128, -0.030423673, -0.0002158992, -0.027499547, -0.014692801, -0.08481382, 0.00829985, 0.0076460307, 0.030076558, 0.072138, 0.063557155, -0.039776266, 0.043135077, -0.014929096, 0.004175482, -0.01467234, -0.042708326, -0.029073179, 0.024557121, -0.01764787, -0.053202745, 0.07747457, 0.007116981, -0.08989067, 0.026935194, 0.013040746, -0.035362013, 0.00021328498, 0.0035633123, -0.0210617, -0.0028863223, 0.029416913, -0.027477646, -0.0117700435, -0.016062757, -0.13618273, 0.017159, -2.6525813e-05, 0.007933152]</t>
+          <t>[-0.009563004, 0.008609795, 0.03235681, -0.004621729, 0.09297187, -0.025591446, 0.0008045992, -0.010701999, 0.041465722, 0.024747567, -0.09536157, -0.033828538, 0.0041311355, 0.06446022, 0.0065098354, 0.032311846, -0.038535923, 0.022637736, 0.029860666, 0.018156078, -0.03516393, 0.025491625, -0.06479052, 0.06279916, 0.02447513, 0.0053272825, 0.052561775, -0.06127379, 0.07884727, -0.036227517, 0.06443889, -0.045597907, -0.02312085, -0.045443118, -0.080093905, 0.0043039736, 0.082922556, 0.035852727, 0.07861703, -0.00639618, -0.032560036, 0.03446066, 0.0114593385, -0.02099049, 0.029140228, 0.012164337, -0.010511093, -0.031656608, -0.05376097, 0.0150256045, 0.025196536, -0.012176453, 0.010214851, -0.015385302, 0.06270021, -0.06651041, -0.04263569, 0.015114654, 0.0036862511, 0.030454095, -0.008204983, -0.022160236, -0.066684924, 0.0041074986, 0.008153896, 0.04460107, 0.05206754, -0.0025310498, 0.019362602, 0.04114157, 0.01172159, -0.014511487, 0.0332984, 0.031180048, -0.09781063, -0.055837046, 0.033926446, 0.00081845775, -0.049330812, -0.034709238, 0.017691895, -0.047873925, 0.028090455, -0.029365856, -0.05026387, 0.060914066, -0.08950924, 0.00241513, -0.0064642127, 0.033232726, 0.03144035, 0.0056829215, 0.118791565, 0.007844619, 0.057301484, 0.04859344, 0.06891017, 0.08143119, 0.024642639, 0.066429086, 0.000725774, -0.014511801, -0.028712502, 0.017084341, 0.018383283, -0.026473535, 0.055135984, -0.00095275993, 0.04435043, -0.012962084, -0.051653143, -0.055663165, -0.028003288, 0.020044267, -0.00093282823, 0.01799253, 0.039676756, 0.06413299, 0.0055660927, 0.015431081, 0.013093186, -0.00044133802, -0.009361931, 0.045911293, 0.014670699, 0.060126066, 0.0552606, -0.022416413, 0.0108664585, -0.024953851, -1.0487158e-05, 0.05244995, -0.025232304, 0.065794714, -0.009133112, -0.015140307, 0.021626094, 0.056458738, 0.0018067487, 0.03488617, 0.020872524, 0.06658454, 0.051468775, -0.007473285, -0.023250038, 0.03804676, -0.081799954, -0.055783458, -0.004179925, 0.03095753, 0.013020098, 0.016998444, -0.010168166, -0.089430414, -0.075998984, -0.053296443, -0.04287985, 0.014639673, -0.018680071, -0.013431869, 0.026595615, -0.062505215, 0.004624248, 0.017971545, -0.0094933845, 0.033069924, 0.059760243, 0.02379382, -0.036865238, 0.059332408, 0.004365149, -0.01495811, 0.013154707, 1.5034806e-05, -0.028645724, -0.013116839, -0.0025483218, -0.0154395765, 0.06991684, -0.03535721, 0.031946886, -0.04710567, -0.019518932, -0.05868366, 0.006401595, -0.019690001, -0.014588439, -0.061508726, 0.0063978187, 0.02506731, -0.10442158, 0.012845323, 0.06758063, 0.024431719, 0.0032161074, 0.006079987, 0.027075615, -0.024044055, 0.11428672, 0.08284829, 0.025785983, 0.035831183, 0.024098963, -0.03482694, 0.05142871, 0.004567788, -0.00024219276, 0.018916612, 0.010578543, 0.045269337, -0.060053863, -0.049120154, -0.019422889, -0.006397391, 0.038883723, -0.02767008, -0.03317585, -0.012911523, -0.003017938, 0.044880763, 0.06151029, 0.047289547, -0.05740109, 0.027872644, -0.09918603, 0.008260504, 0.010903973, -0.001601391, 0.047051527, 0.022427136, 0.004885014, -0.07316473, 0.0022013977, -0.019643426, 0.08587599, -0.017344728, -0.018529588, 0.004197373, 0.04397273, 0.06732705, -0.02279875, -0.018144788, -0.010331911, 0.07917643, -0.024774041, -0.061758243, -0.058784097, -0.07916432, -0.07173268, 0.0019003712, -0.0020189644, 0.034156337, -0.00037521214, -0.005204165, -0.011163475, -0.013627089, 0.012409188, -0.075577915, -0.06197321, -0.013880053, -0.013579158, -0.052399136, -0.020161685, 0.008919811, -0.015547673, 0.016600626, 0.030020118, 0.070673145, -0.008811648, -0.036708757, -0.029282488, 0.023160398, 0.044080053, 0.047049917, 0.027018292, 0.073169485, -0.056304324, -0.07687255, 0.018816514, -0.035018943, -0.039066646, 0.0033995593, 0.02063033, -0.017922584, -0.03232713, -0.041064456, -0.032831077, 0.0034070534, -0.05734519, -0.057654843, -0.028597772, -0.04851337, 0.065260805, 0.0021655099, -0.06839012, 0.07390392, -0.0137313185, 0.04292715, 0.0024307927, -0.01960294, -0.02529546, 0.055693347, 0.04819108, 0.0324944, 0.0023749496, -0.013268844, -0.08157977, -0.0027552657, 0.084212475, 0.030463506, -0.015104182, 0.013501353, -0.013254026, 0.064886205, 0.0048669185, 0.05639076, -0.017345447, -0.03413419, -0.03914343, -0.06425503, -0.021734787, 0.069213025, -0.0269463, 0.00306473, -0.0065965946, 0.09873598, -0.026693223, -0.021690622, -0.034653164, 0.045456626, 0.017908555, -0.019938443, 0.039203167, 0.04565546, 0.0014489152, -0.07607816, -0.052544113, -0.028537689, 0.03150319, -1.075631e-05, 0.010771639, -0.018670587, 0.06270838, 0.009354731, -0.0652253, 0.009976364, 0.07320266, 0.048177518, -0.026867695, -0.04064649, -0.028251978, -0.005731757, 0.016016752, -0.0100551415, 0.04762391, -0.00671342, -0.054389603, -0.044241924, -0.0012420664, -0.004015022, 0.05688111, -0.07106524, -0.010534413, -0.038863417, 0.012027405, 0.016122574, -0.042811252, -0.053659838, 0.035728343, -0.029379794, -0.008634552, 0.02989701, -0.002258858, 0.02169705, -0.014007267, -0.014990147, -0.021165384, 0.089530356, 0.06232829, 0.009502388, 0.0030673242, 0.004385824, 0.01953031, -0.076750316, -0.06787786, -0.0044354247, -0.114941955, 0.039435066, -0.035117727, -0.018543845, 0.037286658, 0.08123246, 0.0028575894, -0.012745666, -0.021329384, 0.06702669, -0.019328305, -0.004903442, -0.0144506, 0.023760052, 0.03824274, -0.05768213, -0.012919719, -0.005059708, -0.0876742, 0.009626917, -0.008406169, -0.024752382, -0.042794496, -0.043227307, -0.045693286, 0.0021584807, 0.009601764, 0.047138486, -0.01955674, -0.0030108122, 0.006545382, -0.03717078, 0.032615088, 0.010684919, -0.054165505, -0.0015257958, 0.018755024, -0.020602921, -0.04391805, -0.049324356, -0.029986812, -0.03975688, -0.0030104648, 0.014897083, -0.009069952, -0.0087934835, 0.0090205185, -0.054558963, 0.020775741, 0.020182816, 0.04360923, -0.014416405, 0.07271262, 0.03847115, -0.037046354, -0.04883912, -0.07044894, 0.047990054, 0.011173886, 0.057770144, 0.03203093, 0.07836331, -0.004388847, -0.021715969, 0.036241893, -0.04298915, 0.0029427747, 0.10555061, 0.0058216644, -0.0139796, 0.02831714, 0.010525162, -0.01022541, -0.028089393, 0.019917876, 0.025143163, 0.057736944, -0.066944726, -0.0140443565, -0.061210375, -0.1111505, -0.011128297, 0.03334292, 0.009678571, 0.024358442, 0.111911185, 0.04748746, 0.0061878064, -0.0050076665, -0.013068621, 0.03928848, -0.051188532, -0.027603403, -0.044697795, -0.015744781, -0.059555057, 0.044058386, 0.018067246, -0.00050421216, 0.046314873, 0.039517786, 0.03329832, -0.053809695, -0.031529393, -0.032426614, -0.023015605, -0.05768109, 0.0011328416, 0.04141224, 0.027968412, 0.009174768, -0.015778458, -0.0127032045, -0.009493241, 0.05187941, -0.0140256435, -0.028503597, -0.03625675, -0.035126265, -0.008823, 0.034510262, -0.06505855, -0.13665962, -0.03321289, 0.010134986, 0.014924776]</t>
         </is>
       </c>
     </row>
@@ -4718,38 +4725,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>IFT</t>
+          <t>IUFost</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>전소영</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>LA</t>
-        </is>
-      </c>
+          <t>임정택</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Effect of enzymatic treatments on the rheological and oil-resisting properties
-of frying batters</t>
+          <t xml:space="preserve">Rheological characterization of candelilla wax oleogels in baked goods for saturated fat reduction
+</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Frying has been extensively used as one of the most popular cooking methods for industrial and household purposes. However, fried foods have recently fallen into disfavor among health conscious consumers due to considerable amounts of oil and calorie. Therefore, a great deal of effort has been made to reduce the oil uptake of fried foods in the food industry. In this study, frying batters were enzymatically treated with transglutaminase and viscozyme of which rheological properties were characterized and correlated with its oil-resisting properties. The use of transglutaminase raised the pasting properties of wheat flour which were in good agreement with increased batter viscosity. Also, the dynamic viscoelastic measurements showed that transglutaminase-treated batter exhibited more elastic property which became dominant over time. Thus, these rheological properties could be correlated with increased batter pickup of the batter samples prepared with transglutaminase When batter-coated foods were fried at 170oC, less moisture loss was observed and the oil uptake was significantly reduced by 20%. Therefore, the enzymatic treatment with transglutaminase showed a possibility to reduce the oil uptake of fried foods. So, this study may encourage the food industry to develop functional fried foods with reduced content of oil and calorie.</t>
+          <t>Structuring liquid oils with organogelators has been receiving much attention in order to replace solid fats high in saturated fats. In terms of food applications, natural waxes are considered as promising organogelators since they are approved as food ingredients. In this study, candelilla wax and canola oil were combined to produce oleogels that were incorporated into baked goods, specifically cookies. The physicochemical properties of the cookies prepared with the oleogels were then characterized and compared with those of the shortening cookies. The use of candelilla wax produced oleogels with solid-like properties whose firmness had a tendency to increase with increasing levels of candelilla wax. When the flow behaviors of the oleogels were monitored over temperature, they became more sensitive to temperature at a higher concentration of candelilla wax. Furthermore, the peroxide values of oleogels during storage were assessed under accelerated conditions. Cookie samples high in unsaturated fatty acids (90%) and low in saturated fatty acids (10%) were prepared by replacing solid fats with the oleogels. In addition, the low viscosity of the oleogels at the baking temperature gave rise to desirable spreadable characteristics. This study demonstrated that the candelilla wax oleogels for solid fats successfully produced cookies high in unsaturated fats without sacrificing quality attributes. It would be worthwhile to extend the application of natural wax-incorporated oleogels into a wider variety of baked foods containing solid fats.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[0.034659155, -0.01842326, 0.018925177, 0.015699238, 0.07141703, 0.0094719045, 0.0064034853, -0.027243279, 0.04281949, 0.04206296, -0.00872073, -0.02694544, 0.050335508, 0.024656717, -0.021130415, -0.0033443677, 0.041545413, 0.019277832, 0.036163494, 0.026764369, -0.048984792, -0.013883448, -0.090130575, 0.07473212, 0.04352041, -0.028016308, 0.033836275, -0.007904307, -0.024036637, 0.0036632675, 0.021138042, -0.019494837, -0.06283289, -0.016103508, 0.002967312, -0.042383544, 0.029017577, 0.007384717, -0.023595318, -0.018043898, -0.031609062, 0.013412122, 0.07891481, -0.03759831, -0.057589322, -0.04117457, 0.059006475, 0.027145013, -0.04823839, -0.005830541, 0.0044863615, -0.009269682, -0.0016754278, 0.025459023, 0.04282771, -0.026657939, -0.07373849, -0.013162339, -0.0073215193, 0.011831869, -0.0015301736, -0.017854804, -0.023568142, 0.06404104, -0.011232825, -0.022572855, -0.02255928, 0.0033039695, -0.006191398, -0.012470525, -0.021563996, -0.053657584, -0.023839613, 0.052746426, -0.10530575, -0.047280047, 0.056819253, -0.021141144, -0.06628846, -0.050357394, -0.0017562294, -0.07779159, 0.042636383, -0.034762748, -0.025389947, 0.035715256, -0.03296639, 0.0039656893, -0.0051045613, -0.06955968, 0.045334715, 0.06428386, 0.09640934, 0.007176721, 0.04806842, 0.004795288, 0.07066981, 0.06051534, 0.04448743, -0.009353907, -0.0006585325, 0.035853174, -0.03304966, -0.023516156, -0.007398815, -0.05765152, 0.03774602, 0.015710505, 0.052102607, 0.024277134, -0.03360034, -0.06384069, -0.02121924, 0.06513441, -0.011097851, 0.043437358, 0.05382483, 0.059965752, 0.011005786, -0.03057466, 0.028892182, -0.024448432, -0.019287905, 0.0038399806, -0.008261271, 0.016751027, 0.036767524, 0.016802508, -0.01889017, 0.0033510325, -0.04011545, 0.057353593, -0.018770617, 0.08174836, 0.016634244, 0.0008466703, 0.0015084788, 0.03789062, 0.045137234, -0.051713426, -0.01757123, -0.07906194, 0.024197254, -0.07560058, 0.011424879, -0.023073679, -0.048690494, 0.006842094, 0.0013449524, 0.03806292, -0.0246808, 0.018242959, -0.009331489, -0.010693629, -0.032935422, -0.07796944, 0.022467166, 0.0029019106, -0.0044358084, -0.043977965, 0.013806041, -0.009890381, -0.06146133, 0.018507948, -0.001448517, -0.028330581, 0.062541686, 0.005919066, 0.0009973248, 0.029739957, -0.018913124, -0.0065832604, 0.010765432, -0.021648144, -0.05519565, -0.05777588, -0.01922369, -0.040668942, 0.025977734, -0.034074944, -0.060292702, -0.012301108, 0.01660861, 0.016340002, -0.041028075, -0.05844194, 0.026098914, -0.038410734, -0.009436003, -0.020535938, -0.07675126, -0.07961986, 0.048735384, 0.0188801, 0.012867788, 0.018593598, 0.04647675, -0.0032739919, 0.038899064, 0.005802796, 0.022610513, 0.033281527, 0.08369899, -0.0031891144, 0.07157188, -0.08212704, -0.0063694315, 0.04068736, 0.051698793, 0.04678482, -0.006819857, 0.040255595, -0.025568044, 0.019794114, 0.052681416, 0.0008567113, 0.025494691, 0.012858548, 0.025801353, 0.008465087, 0.0021867245, 0.016858483, -0.03906062, -0.0091483975, -0.013186096, 0.021296497, 0.028924482, 0.02011037, -0.049637564, -0.02620176, 0.06452041, -0.05753216, -0.016373627, -0.01990839, 0.0028490112, 0.0525302, 0.023951951, 0.07845564, 0.0050465157, 0.09159624, -0.0057559162, 0.04755512, 0.029241307, -0.017638983, -0.0066601536, -0.006834354, 0.004166848, -0.0009441856, -0.116196975, -0.014781084, -0.026875572, 0.049104728, 0.019499538, 0.038024597, 0.0018669945, -0.05116143, 0.09477574, 0.026476605, -0.02837165, -0.04532453, 0.01112143, 0.010739262, -0.03673541, -0.036854867, -0.03882378, -0.04827925, 0.012241022, -0.03185257, 0.07328219, 0.0005242996, -0.03434705, 0.031111274, 0.092101835, 0.018103024, -0.056793485, 0.0057299216, -0.017796207, -0.034180876, 0.015905043, -0.07594948, -0.041576013, -0.018320672, -0.021137187, -0.015956508, 0.020121507, -0.010113062, -0.062344573, -0.016091304, 0.041634355, -0.072345264, -0.026689626, -0.0036455803, 0.035971973, 0.008569001, -0.07387273, 0.054010954, -0.020964038, 0.0078572715, 0.039337777, -0.0022583418, -0.0077748336, 0.012932323, 0.045505926, 0.037256088, 0.029093234, -0.006256712, 0.043267332, -0.03533098, 0.012485761, -0.03016631, -0.013809214, 0.022081874, 0.01890058, 0.07714526, -0.006687524, 0.090052046, 0.05652012, -0.024830155, -0.02860617, -0.03308392, 0.0073347413, 0.03870957, -0.07841563, -0.026427314, -0.022907645, 0.009232881, -0.0110697895, 0.006079896, -0.023418251, 0.059730876, -0.016337538, 0.015349515, -0.025227528, 0.0168462, 0.0004862258, 0.034996778, 0.0070494097, -0.004394986, -0.02968971, -0.015697833, -0.059825685, 0.006675402, 0.019735914, 0.0009840287, -0.048054293, 0.023655882, 0.07049834, 0.1038563, 0.000793028, -0.03687108, -0.04932205, -0.012270252, 0.0023873795, -0.030501468, -0.029453129, -0.0446396, -2.302602e-05, -0.014319967, 0.04482029, -0.037211172, -0.008404074, 0.052854348, 0.0110437, 0.020823382, 0.044366267, 0.028663866, -0.0023309086, 0.028351627, -0.011865177, -0.008050554, 0.018473994, 0.005504694, -0.029551556, -0.029490761, 0.012593317, -0.010742815, 0.0384983, 0.0010768587, 0.081147425, 0.026693024, 0.038250323, 0.050773483, -0.0093904445, -0.04609091, -0.0045569628, 0.04858935, -0.094921805, 0.0290368, 0.033824056, -0.042831346, -0.025138889, 0.0462348, 0.03474648, 0.030881535, -0.0052681095, -0.012011036, -0.041336562, 0.013856651, 0.009926446, -0.038041886, 0.04293082, 0.026431259, -0.01286798, 0.010840755, 0.0062739695, -0.04309814, -0.007895936, -0.02484266, 0.0033277925, -0.05505185, 0.05349232, 0.02907449, 0.027191414, 0.07828829, 0.010415355, -0.028443655, 0.030111352, -0.024739698, -0.00026010582, -0.0013114412, -0.09344195, -0.031126583, -0.025754252, 0.042391565, 0.0035567423, 0.0023040534, 0.007725801, -0.07601434, -0.03391416, -0.040006354, -0.026002603, -0.14376885, 0.009236198, -0.04162338, -0.028769242, 0.027386023, -0.025816228, -0.015080515, 0.022368196, 0.047456436, 0.040722594, -0.07107269, -0.037010234, 0.034373306, -0.017930588, 0.027420318, 0.019836476, 0.07080213, -0.070341386, -0.021382049, -0.055824824, 0.010387898, 0.038459327, 0.005635572, -0.003943755, -0.054236755, -0.04155086, 0.012687067, -0.03874486, -0.022684071, -0.0009177523, 0.012424016, 0.06281016, 0.041759774, -0.026205787, -0.062586136, 0.016179057, -0.008071133, 0.026567545, -0.0709842, 0.008539392, 0.057656415, -0.014749101, 0.012020537, 0.0061729006, 0.07191169, -0.1090124, 0.038340952, -0.018042667, -0.002069306, 0.030722208, -0.02198927, 0.050235324, -0.004387458, -0.06833884, 0.014695521, 0.07937068, -0.020335915, -0.0498425, -0.008253739, -0.06679415, 0.042797394, -0.031546757, -0.049114212, 0.038140323, 0.079146706, 0.011375119, 0.0074015553, 0.016275318, -0.016819343, -0.0066758352, 0.00060661737, -0.04732371, -0.05636381, -0.0019276905, -0.043410935, 0.07164956, -0.0017942645, -0.102247745, -0.056399144, 0.020466473, 0.047862113]</t>
+          <t>[-0.039035015, 0.05855683, 0.033821158, -0.0059078066, 0.059291277, -0.0110739, -0.016176999, -0.09878105, -0.010322453, 0.038111348, -0.07472323, -0.028480012, 0.0012018186, 0.031116085, -0.012866314, 0.04123625, -0.013678705, 0.028357966, 0.030509809, 0.042919394, -0.03885457, -0.013630494, -0.059011474, 0.05467805, 0.042754486, -0.059388794, -0.0068941773, 0.027174577, -0.0055383407, -0.0013016041, 0.013380323, -0.014590401, -0.022162544, 0.0034708092, 0.017743295, -0.0367782, 0.020802895, -0.01121579, -0.046170726, -0.027783293, -0.09565224, 0.025984256, 0.08774769, 0.0094614215, -0.0060245907, -0.040466476, 0.054411, 0.059907466, -0.016753519, -0.003884463, -0.018571042, 0.0191613, 0.047998887, -0.013295793, 0.014558898, 0.008561331, -0.07591955, -0.060625445, 0.029313143, 0.037555322, -0.03273813, -0.020397712, -0.041505884, 0.016031316, -0.012424374, 0.013236696, -0.0048600947, 0.02938963, 0.091604434, 0.019664926, 0.019054038, 0.039434467, -0.020976828, 0.0054888637, -0.08096428, -0.05901651, 0.01649634, -0.061998203, 0.0004843429, -0.023167169, -0.07573182, -0.070386015, 0.063229114, -0.017322091, -0.02634025, 0.04842219, 0.04070673, 0.0387223, 0.006369, 0.06369112, 0.056117605, 0.034280345, 0.08737562, 0.028766125, 0.0609979, 0.028830487, 0.09555679, 0.06493445, 0.052488733, 0.03053694, 0.0046770773, 0.0753943, -0.02192095, 0.020106453, 0.012913278, -0.056337275, 0.020273775, 0.021854375, 0.017523453, 0.07865276, 0.017412854, -0.046563227, -0.026868165, 0.053830624, -0.0043571764, 0.075100556, 0.028588234, 0.059782475, 0.028674496, -0.055323295, 0.050891507, -0.05393759, 0.029852988, 0.0077080885, 0.014521957, -0.00489455, 0.042346083, 0.04175172, 0.028103221, -0.060344838, 0.008628188, 0.05693871, -0.03699078, 0.014711815, 0.019800583, 0.041007943, -0.012318411, 0.04167778, 0.049563594, 0.031036412, 0.0124295335, -0.0050392617, 0.050355185, -0.008341759, 0.04843376, 0.011463638, -0.016108895, -0.051495895, -0.07167186, 0.03539336, 0.00800909, 0.018523263, -0.07670095, -0.009791456, -0.012388268, -0.02891254, 0.012865682, -0.028634017, -0.060605317, -0.00789618, 0.035227552, -0.03888746, -0.011911378, 0.0048345737, -0.018445347, 0.08645497, 0.026125452, 0.020983392, -0.057702042, 0.03503675, -0.01384008, -0.011673951, 0.019011637, 0.048131973, -0.06116063, -0.05465245, -0.034928218, -0.030738104, 0.041432723, 0.04144554, 0.027338328, 0.003044812, 0.009050937, 0.0076093944, 0.034398604, -0.0451162, -0.011909404, -0.00014942419, -0.017825035, -0.0043943697, -0.09378275, 0.055798113, 0.053140227, 0.013746061, -0.021502573, 0.031061666, 0.0994953, 0.0018488157, 0.022131465, 0.031883217, 0.041301604, 0.033254653, 0.037368234, -0.0146845905, 0.10231332, 0.02569855, -0.015551608, -0.0005132227, 0.017236605, 0.01529195, -0.01735897, 0.029870858, -0.019459704, -0.018329967, 0.02806212, 0.020511942, 0.012126524, -0.027754897, 0.04037679, 0.021783013, -0.022936631, 0.047189, -0.042306084, -0.005864794, -0.027718913, 0.002569618, -0.008849984, 0.058677945, -0.07430346, 0.019433608, 0.028704936, -0.010638427, -0.0010885361, 0.023122936, 0.02962508, -0.028740242, 0.007697466, 0.07371154, -0.008752609, 0.08194461, -0.014183509, 0.024084786, -0.010010905, -0.00042995877, 0.0035777085, 0.018042829, 0.0244157, -0.011587766, -0.010316569, -0.004466674, -0.07832654, 0.07514369, 0.026899073, 0.010654896, 0.12170506, -0.014131988, 0.049572006, -0.004161312, -0.009600171, -0.014979945, -0.02852981, 0.017767522, 0.022715831, 0.023718035, -0.015416872, -0.103739835, 0.0031775641, -0.018034266, 0.052190535, 0.018662887, -0.027702287, -0.018001338, 0.076868564, -0.012985538, -0.035659373, 0.04277348, -0.009984782, -0.038011525, -0.0036903315, -0.067195736, 0.011735527, -0.042242467, 0.035717905, -0.011008754, 0.010321613, -0.006781024, -0.059029683, -0.0072657126, -0.0052709314, -0.051774804, -0.022920199, -0.042162716, 0.016930483, -0.0011422159, -0.07350944, 0.05171791, 0.024632666, 0.022373853, 0.06878038, 0.03128253, -0.05352345, 0.0024674307, 0.009568094, 0.024392825, 0.01377746, 0.024899248, 0.047421068, 0.004384307, 0.0020530848, -0.02121658, -0.018876808, -0.027305631, 0.00320769, 0.062380943, -0.01467043, 0.054717213, 0.039218057, -0.035369232, -0.020416109, 0.0045192507, -0.014868969, 0.014663648, -0.029136509, -0.048695005, 0.006893215, -0.013274287, -0.067507155, 0.01289352, -0.044580363, 0.05826573, -0.0061480277, -0.006505677, 0.03457053, 0.021361725, -0.0076478645, -0.043948878, -0.014508512, 0.06547459, -0.012941106, -0.015696153, -0.023408556, 0.022135697, 0.05874759, -0.037570417, -0.004846174, 0.005642235, 0.056923892, 0.07794663, -0.04862552, -0.03373487, -0.07388047, -0.0072893156, -0.0030893823, -0.021218644, -0.013663638, -0.024560004, 0.040568244, 0.030978026, -0.008890948, -0.0044383644, 0.0007420549, 0.014501101, -0.06033607, 0.059495483, 0.0113272695, 0.01973697, -0.031155938, -0.023667054, 0.037535086, -0.001476522, 0.05490024, 0.019020446, 0.06415713, 0.018962353, 0.049267344, -0.0287724, -0.015744114, 0.012171426, 0.04476838, 0.026097653, 0.014327041, 0.031600576, -0.0063711493, -0.076235704, -0.048787855, -0.042259593, -0.132298, 0.030885478, 0.004947826, -0.12102629, -0.038378585, 0.057172682, 0.1120778, 0.0068192943, 0.020039659, 0.06371713, -0.0045735566, 0.017170476, -0.033524126, -0.0056115687, 0.023609603, 0.01363204, 0.019995404, 0.018199185, -0.006022956, 0.0027807353, 0.015679613, 0.014951483, 0.03321585, -0.0072052935, 0.06942436, -0.00973857, 0.015563084, 0.040469903, 0.040158156, 0.0034959635, -0.02183892, -0.030025965, 0.01654429, -0.019175893, -0.071251616, -0.002771479, 0.02893138, 0.05795957, 0.0783971, -0.015831323, -0.014251923, -0.077728085, 0.09801336, -0.056871496, 0.0670768, -0.04917197, 0.018942453, -0.012108902, -0.100711994, 0.008774737, -0.0061636907, 0.022422161, 0.050393954, 0.0032948654, 0.07746582, -0.055362333, 0.0026151035, 0.07007127, 0.0055546756, 0.011513685, 0.0027908052, -0.007665771, -0.0120082, 0.00789012, -0.016343199, 0.028883275, 0.03006685, 0.018885244, -0.0029939658, -0.03840756, -0.077833004, -0.052599113, -0.030254485, -0.09135567, -0.012032282, -0.025478087, 0.037704766, 0.005468937, 0.034094, -0.051776666, -0.0009564311, 0.012530107, 0.042451914, -0.03353871, -0.067213364, 0.015043265, 0.008196961, 0.024222333, 0.0062384238, -0.00011706166, -0.08290478, -0.04192173, 0.017748987, -0.082103446, -0.0018954013, -0.003807662, 0.030742042, -0.040960863, -0.053989165, 0.00047791933, 0.04634704, 0.027067324, -0.08068482, -0.05776868, -0.017010754, 0.044080038, -0.01166587, -0.0018057547, 0.03301673, 0.03105674, -0.06303117, -0.0014155359, -0.0020888534, -0.011014344, 0.0065647853, 0.0223755, -0.021126345, -0.05074314, 0.023803161, -0.0064181117, -0.004486854, -0.019417536, -0.096750244, 0.018143043, -0.08240042, -0.0014515169]</t>
         </is>
       </c>
     </row>
@@ -4758,33 +4761,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>IUFost</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>김용욱</t>
+          <t>정성민</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Thermo-rheological characterization of wheat flour in different concentration regimes</t>
+          <t>Monitoring rheological behaviors of rice-based products during in-vitro simulation of starch digestion</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Wheat flour has been extensively consumed as a primary food ingredient in a number of food products which come in various forms such as a slurry, batter, and dough. Also, the physicochemical properties of wheat flour during thermal processing may vary at different concentration regimes, dramatically affecting the quality attributes of the final products. However, there has not been any systematic and comprehensive analysis to elucidate the difference in the physicochemical properties of wheat flour from a thermal and rheological point of view. In this study, three different types of wheat flours (hard, all-purpose, and soft wheat flours) were prepared in a form of an aqueous slurry, batter, and dough. Their rheological properties were then evaluated as a function of temperature by using a rapid visco-analyzer, rotational rheometer, and mixolab. In a wheat flour slurry, hard wheat flour exhibited the highest pasting properties while the lowest values were observed in soft wheat flour. However, when wheat flour samples were subjected to dynamic oscillatory testing over temperature, hard wheat flour had the lowest viscoelastic properties derived from starch gelatinization regardless of concentrations. Also, the mixolab experiments showed that the highest mixing resistance was observed in hard wheat flour, followed by all purpose and soft wheat flours. Furthermore, the hard wheat flour exhibited the highest thermo-mechanical properties during the heating and cooling stage. Thus, the thermo-rheological characteristics of wheat flours appeared to vary depending on their concentrations as well as the type of the instrumental method used. Therefore, the results obtained in this study can provide an opportunity for the food industry to understand the fundamentals of the physicochemical properties of wheat flour over temperature in various food systems.</t>
+          <t>Rice has been consumed as one of the staple crops mostly in Asian countries. Rice is also regarded as a natural gluten-free and hypoallergenic ingredient. However, there is a lack of detailed information on the rheological properties of rice products during digestion in the human that can contribute to elucidating their physiological effects. In this study, the rheological behaviors of rice products (flour and noodle) were continuously characterized under the oral-gastric-intestinal simulated conditions. The rheological properties of rice flour and noodle during in-vitro starch digestion were monitored by using a rotational rheometer with the custom-made starch paste cell. The in-vitro viscosities of all the rice digesta samples were distinctly reduced under the simulated oral-gastric-intestinal conditions. However, in the case of the in-vitro oral and gastric digestion, the reduced viscosity patterns varied depending on rice flour and noodle. The brown rice digesta containing fiber-rich bran fractions exhibited higher viscosity than the white rice digesta at the end of the in-vitro intestinal digestion. These rheological results were correlated with the released glucose amount and starch digestion fractions. This study provided thus fundamental information on the in-vitro rheological properties of rice-based products in the human body</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[-0.009799835, -0.050646286, 0.0668476, -0.015650518, 0.0919518, 0.022139419, 0.02324349, -0.015806569, -0.009129496, 0.0538192, -0.057068896, -0.072222315, -0.026341941, 0.035219736, -0.01819472, 0.025722804, 0.04580587, 0.046184476, 0.0924745, -0.027264066, -0.061086703, -0.014045983, -0.0962439, 0.012230084, 0.11233938, -0.039355557, 0.014591928, -0.026093602, 0.0014612417, 0.039273143, 0.019957364, -0.052423, -0.02446239, 0.006245399, 0.053197872, -0.033085957, 0.025637493, -0.046611458, 0.053497408, -0.033625253, -0.0409897, -0.028632175, -0.05084397, 0.037295986, -0.040105075, 0.012309683, 0.011162608, -0.02182724, -0.05565278, 0.023277681, 0.0025202704, -0.035088226, 0.020601008, 0.034795895, 0.041632224, 0.012396177, -0.048709117, 0.0033905003, -0.03332156, 0.044150196, -0.086418405, 0.002984022, -0.02096565, -0.032088373, -0.0557478, 0.028891675, -0.015952447, -0.027415693, -0.016476417, -0.008206181, 0.019303415, -0.091291375, -0.025917577, -0.019586306, -0.0696131, -0.07896142, -0.002298306, 0.009923597, -0.072633654, -0.06810202, -0.056199647, -0.052719187, 0.075312756, 0.012237722, -0.05621648, 0.04366497, -0.047480978, 0.006580273, -0.014141902, 0.019055916, 0.026009366, 0.026917921, 0.08287995, 0.03993326, -0.0011051795, 0.010509257, 0.105782196, 0.07220205, 0.036553886, 0.0405275, -0.061283026, 0.08053975, -0.009057917, 0.0059474898, 0.028630247, -0.012499644, 0.024150029, 0.02295313, 0.0697898, 0.017278928, 0.044465616, -0.059493884, -0.018949717, 0.0060720267, -0.026857503, 0.06633852, 0.016865786, 0.053146616, 0.017852835, 0.054409217, 0.016550854, 0.00033571664, 0.016472805, 0.078822516, 0.016484665, 0.0028651273, 0.054559853, 0.015579103, -0.022826338, -0.07570874, 0.06656278, 0.05053809, -0.078155704, 0.025740003, 0.0079159215, 0.060392436, 0.014247438, 0.008538676, 0.021099273, -0.0068975138, -0.0027435832, -0.03589187, 0.034455854, -0.06749617, 0.021302957, 0.011765043, -0.100015156, -0.009430235, -0.025644388, -0.029587798, -0.042387035, 0.017744632, 0.003833924, -0.014648385, -0.022325791, -0.027882814, 0.01945543, 0.0134379, -0.06812992, 0.017347563, 0.024695817, -0.058052745, -0.014536646, 0.037295923, -0.02040896, -0.014159737, 0.08031177, 0.011538595, 0.010786929, 0.016215356, -0.010258368, -0.02350861, 0.01533846, -0.036606066, -0.059432495, -0.014550724, -0.03846036, -0.0842995, 0.05648651, -0.07045453, 0.03991005, -0.023395887, 0.030876834, -0.007355943, 0.0297088, -0.040232755, 0.010676307, -0.04725508, 0.05058885, 0.036547564, -0.09662457, 0.04935402, 0.02717824, 0.046836324, 0.017415738, -0.0054593813, 0.00951858, -0.0042795828, 0.051074628, 0.057450313, 0.06403678, 0.06991472, 0.0744963, -0.0052234456, 0.07235519, 0.043844916, -0.022023749, 0.035399053, 0.08450577, 0.0536799, -0.0019353438, 0.0044917976, -0.0067638624, 0.040628865, 0.024279967, -0.013180207, -0.01376423, -0.04494111, 0.056476217, 0.002069831, 0.0124882655, -0.027010052, 0.04913912, 0.032883495, -0.01820398, -0.004610626, 0.06507569, 0.031637874, -0.0031128747, -0.046385467, 0.0450043, -0.040511787, -0.040680673, 0.0032325843, -0.029111926, 0.025020268, 0.004376528, 0.05395077, 0.012147155, 0.07965473, -0.058333248, 0.032737162, -0.0015391365, 0.029264232, 0.029069629, -0.0013673673, -0.0083689615, 0.0077027576, -0.049785465, 0.014028277, -0.03554979, 0.029996198, 0.02921189, -0.072098374, 0.02321075, 0.039892282, 0.0339273, -0.02181528, -0.07850899, -0.044309642, 0.0034034697, -0.020304231, -0.0044421107, -0.04322705, 0.06374447, 0.028634403, 0.013984016, -0.03702489, -0.013316796, 0.049808845, -0.015701337, -0.057702243, 0.057891857, 0.038087506, 0.00528455, 0.032417547, 0.023731342, -0.11458488, 0.0017466926, -0.037372522, -0.04594, -0.012275138, 0.04531408, -0.087824084, 0.0070310826, -0.03647529, -0.10888517, 0.020039566, -0.07155394, -0.047224738, -0.018017868, 0.010552069, 0.04633443, 0.0053158742, -0.051344972, 0.0428169, -0.050420415, 0.10932462, -0.03381123, -0.0049414653, -0.01005186, 0.040990323, 0.026602216, 0.026778467, 0.006618379, -0.041689683, 0.01627162, 0.008251745, 0.028532485, 0.047340356, 0.0030733086, -0.023328539, 0.0035583277, 0.06385128, -0.014308798, 0.036411263, -0.026860535, -0.049591172, -0.023601778, -0.044558547, 0.024505481, 0.05262336, -0.0005541583, -0.013679426, -0.032695234, 0.064071916, -0.043199517, -0.046948127, -0.030436538, 0.061724316, -0.009914127, -0.00067320757, 0.0056592496, 0.004747612, -0.01765779, -0.05365596, -0.022035627, 0.04421703, -0.040415008, -0.010015866, -0.057796784, 0.040915772, -0.01774303, 0.045777965, -0.007680012, 0.041438553, 0.0638191, 0.0075757434, -0.07471753, 0.015796617, 0.01965516, -0.012572427, 0.0023364895, 0.0123416325, -0.122569226, -0.09605828, -0.030760445, -0.09179492, 0.017466392, 0.0017203217, -0.0061458535, -0.060940336, 0.029802402, 0.009782436, 0.08704935, -0.0015339287, -0.008106851, 0.0290288, -0.055577952, -0.0043174317, 0.0073447935, 0.004275859, -0.035234444, 0.036415648, -0.01466713, -0.0074919723, 0.024105258, 0.094122216, 0.037302807, 0.007041559, 0.008601094, 0.02790645, 0.024101324, -0.098392025, -0.0018287499, 0.015072649, -0.04961972, 0.05406467, -0.04525445, -0.0727856, 0.025393862, 0.07834984, 0.010148829, 0.031819277, -0.04923251, 0.02137422, -0.045866434, 0.0056194225, -0.04793292, 0.009622392, 0.056712862, -0.048909396, 0.017837957, -0.00050458993, -0.02264105, -0.029052097, 0.007243834, -0.010057738, -0.0075133797, -0.042368237, 0.010342008, 0.029245218, 0.017295692, 0.04715082, 0.03603888, 0.02945088, 0.006070226, 0.065668195, 0.057663437, -0.068858825, -0.035529394, 0.021652848, -0.03643111, 0.03181809, -0.01462579, -0.05327674, -0.002305172, -0.065952346, 0.0491288, -0.030477148, -0.016007857, -0.12965146, -0.034826297, -0.07009054, -0.0332304, -0.023433745, 0.016206851, 0.02269679, 0.10835201, -0.026358433, 0.022873135, -0.054201085, -0.037333366, 0.027380807, -0.013275432, 0.06433123, -0.02957243, 0.022610115, -0.00968702, -0.03305478, -0.0452896, -0.0057410416, 0.017914334, 0.060673248, 0.035618063, -0.01836176, -0.05838719, 0.018408574, 0.008813605, -0.043427225, -0.00606276, -0.03865337, 0.10857361, -0.043737568, -0.02310834, -0.061021995, -0.032630324, 0.019511782, -0.01168796, -0.019961111, 0.035730805, 0.051389247, 0.06325554, -0.010794868, 0.0049585407, -0.025047472, 0.039776366, -0.019331686, 0.02777808, -0.06930841, 0.01851632, 0.003807854, 0.04630034, 0.05052353, -0.021785984, 0.05192564, 0.012459871, 0.031417456, -0.016675463, 0.02983141, -0.03322936, -0.010016786, -0.103155725, -0.011976257, 0.030465255, 0.046232034, -0.039015736, -0.050178606, 0.0142162945, -0.01646165, -0.013919268, 0.020933406, -0.009992828, -0.033810344, 0.0478859, -0.02964507, 0.028752154, 0.021963218, -0.1042932, 0.02566041, -0.018587219, 0.0050775595]</t>
+          <t>[-0.02092867, 0.023891272, 0.067732, -0.030676072, 0.06468904, 0.01243933, -0.05557199, -0.045976363, -0.020885024, 0.0392716, -0.06299002, -0.033735536, -0.012326596, 0.062498987, -0.03900418, 0.027392846, -0.035291776, 0.010229996, -0.01951698, 0.042644117, -0.010697882, -0.0057675433, -0.06603419, 0.024767531, 0.04378296, 0.0064967293, 0.046183527, -0.016856648, -7.502211e-05, -0.010147553, 0.018575797, -0.03380939, 0.005540838, -0.006012336, 0.0073425598, -0.029581005, 0.01856473, 0.028257772, 0.09273885, 0.012048548, -0.0061719716, 0.029399756, -0.07024923, -0.014177994, 0.024084099, -0.0009163001, -0.01833553, -0.020470303, -0.105787866, 0.025578616, 0.02019844, -0.0020924949, 0.021342177, -0.0003806104, 0.014856971, 0.0034754039, -0.049863685, -0.025601173, 0.013276985, 0.019179236, -0.05571735, -0.032451447, -0.07313591, 0.033263683, 0.0041515594, 0.0011441258, 0.0053000436, -0.09729378, 0.00042422136, 0.0523171, 0.0005260476, -0.0047350256, 0.024286598, -0.026949871, -0.09514925, -0.062113393, 0.037465245, 0.018799687, -0.032664273, -0.042574957, 0.05113861, -0.07364283, 0.039256297, 0.005524252, -0.07919883, 0.052269924, -0.10034865, -0.0032242779, -0.023294276, 0.0033790285, 0.0025150622, 0.057628006, 0.071919814, 0.033897873, 0.023399815, 0.053786498, 0.0793705, 0.05434526, 0.009401883, -0.018505294, -0.027675254, 0.0014089411, -0.030473419, 0.032411817, 0.004199177, -0.042720728, -0.013954692, -0.0019103491, 0.052366786, 0.021701757, 0.013723903, -0.059542824, -0.01307404, -0.028439252, 0.009338507, 0.03803487, 0.033379752, 0.043148216, -0.0017764773, 0.0344359, -0.0010167463, 0.014440808, 0.024629803, 0.12254702, -0.0005059685, 0.03454168, 0.037708417, -0.004445535, -0.016947528, -0.04957695, 0.028854828, 0.024670172, -0.03580385, 0.049067874, 0.006465907, 0.007529091, -0.0033163815, 0.02860965, 0.0043855556, 0.019233517, 0.02695535, -0.040327106, 0.048745338, -0.050639674, -0.020212144, 0.0043213936, -0.1029639, -0.033782307, 0.030764615, 0.030821878, -0.011302516, 0.02476754, 0.019907188, -0.03640132, -0.029393347, -0.050531123, 0.012137508, 0.00704187, -0.0642283, -0.015791742, 0.025732566, -0.05163862, -0.0070131295, 0.0059063854, 0.0041593513, -0.0071602976, 0.0662963, 0.037571646, -0.0013635448, 0.08470344, -0.014035912, -0.015019958, 0.05880972, -0.016755018, -0.04028373, 0.017538704, -0.02056983, -0.03915587, 0.06702219, -0.037008382, 0.03228502, -0.046845157, -0.02222032, -0.04784669, 0.012642837, -0.09120502, -0.025803559, -0.009347509, 0.050319005, 0.04192495, -0.12110324, -0.016727118, 0.03320922, 0.030605467, -0.01828554, 0.01567543, -0.01882819, -0.05796277, 0.06092201, 0.114514224, 0.10657847, 0.065738074, 0.08620293, -0.018367738, 0.03891353, 0.05972033, 0.03743609, 0.0032502608, 0.0020451418, 0.018104292, -0.051364988, 0.05644124, 0.0500285, -0.068003446, 0.07414088, -0.002648737, -0.02932879, -0.033243384, 0.014496286, 0.00061579695, 0.047441855, 0.054058105, -0.009393329, -0.025621638, -0.016317563, -0.011498748, 0.01725593, 0.045802385, 0.01042164, -0.05587963, 0.018762877, -0.046778068, -0.007964626, 0.01220882, 0.043138795, 0.051962644, -0.05865389, 0.013334225, 0.03693837, 0.05688181, -0.06776489, -0.012889251, 0.0060677216, 0.030881355, -0.0106325485, -0.038733665, 0.0097335, -0.036097784, -0.03727092, -0.010460535, 0.0182196, 0.014813138, -0.005217624, -0.04020032, -0.055216044, -0.027270647, -0.0441228, -0.10475111, -0.07323954, -0.06643013, 0.042786613, -0.035042696, -0.06621944, 0.008352261, 0.03380992, 0.03633475, 0.041862987, 0.058333598, -0.0075953742, 0.01967277, -0.0039975485, 0.031235065, -0.009113251, 0.015968665, -0.029382044, 0.025217177, -0.022861442, -0.10725933, -0.017806986, -0.0024135816, -0.038887408, 0.0009801466, 0.038674492, -0.08656448, -0.030791124, -0.02078255, -0.049444463, 0.019799, -0.07176998, -0.07288976, -0.042269047, 0.014956762, -0.0017827856, -0.027964208, -0.053782616, 0.047109056, 0.04461145, 0.082573496, -0.007982994, 0.0054854294, 0.022857796, 0.03844899, -0.018657623, 0.0351508, -0.017899947, -0.042875167, -0.045111895, 0.007999157, 0.019293487, 0.042258292, -0.03498865, -0.04803083, 0.017746719, 0.024559557, -0.037135124, -0.0007340183, -0.018308511, -0.021185283, -0.022525836, -0.077236734, 0.017447127, 0.040905435, -0.023929942, -0.010161845, -0.0596766, 0.07307664, 0.032598455, -0.010868362, 0.001547645, 0.053240575, 0.008839596, -0.004490876, 0.0014122948, 0.0033174576, -0.016910715, -0.026306545, 0.014138703, -0.05249845, 0.016961373, -0.0008242566, -0.06015715, 0.023960548, 0.042119853, 0.03150212, -0.06066466, 0.028465008, 0.10271524, 0.019766508, -0.09962697, 0.024303414, -0.015376148, -0.011292198, 0.0387997, -0.037452504, -0.00025263755, -0.00020356453, -0.03373849, -0.031730674, 0.0037811806, 0.010590148, 0.044470903, -0.111611195, -0.03001056, -0.054542333, -0.023718877, -0.00537868, -0.0401328, -0.03835045, -0.009416056, 0.024323897, 0.045686897, 0.041746132, -0.042582516, 0.053211555, -0.0077443514, -0.030124573, -0.033541013, 0.08761033, 0.05478518, -0.0001779804, 0.026843658, 0.009690166, 0.0136095965, -0.036252297, -0.043954473, -0.02228549, -0.10737059, 0.015633784, -0.023961624, -0.05789466, 0.11772118, 0.08942039, -0.015758067, -0.00014388212, -0.027253296, -0.037626892, -0.073562995, 0.02562199, -0.059755366, 0.05417528, 0.023725647, -0.026203016, -0.070310585, 0.00803785, -0.08211945, -0.013495465, 0.001094027, -0.029406529, -0.051112693, -0.053319085, -0.029185811, -4.7875103e-05, 9.111315e-05, 0.023197697, 0.017498462, -0.0053174878, 0.002257884, 0.026249355, -0.009263908, 0.017251892, -0.079126015, -0.01589306, 0.012464487, -0.032231465, -0.06639518, -0.016428128, 0.01952868, -0.04904399, -0.03468563, 0.04021616, -0.0075880555, -0.03823559, 0.014914124, -0.029733403, -0.014504863, 0.050208256, 0.045649964, 0.013294208, 0.05819009, 0.023970047, -0.005940125, -0.07000477, -0.09113321, -0.008703178, 0.015816567, 0.05057937, -0.027218606, 0.055928294, -0.004392132, -0.026948256, 0.0146949105, -0.046277862, -0.010152344, 0.08145016, 0.038447957, -0.044300523, -0.0013854853, -0.027878955, -0.040174324, -0.026931372, 0.04875326, -0.029835885, 0.10154918, -0.040356133, 0.008592363, -0.0415763, -0.066410325, -0.0031402698, 0.04986709, 0.019067967, 0.036197215, 0.11847946, 0.05171815, 0.0047344547, 0.0049244864, -0.019119045, 0.0057311547, -0.0069310702, 0.028678905, -0.03297195, 0.044213016, -0.04695278, 0.0066508823, 0.042716503, -0.035523772, 0.059779968, 0.05320626, 0.038724598, -0.044674136, 0.032354176, -0.03402087, 0.009066005, -0.090075344, -0.0043064835, 0.029504897, -0.0074976995, 0.008906941, 0.0021914195, 0.01473542, -0.0106585445, 0.046685, -0.022594674, -0.03161414, -0.017445495, -0.024673317, -0.026176035, 0.025250308, 0.01828248, -0.12823519, -0.028759502, 0.02555845, 0.043183975]</t>
         </is>
       </c>
     </row>
@@ -4793,35 +4796,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>김유정</t>
+          <t>김용기</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preparation and characterization of fiber-enhanced baked goods
-with preharvest dropped fruits
-</t>
+          <t>Sensory and mechanical texture correlation of softened food ingredients for the elderly</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Preharvest dropped fruits from a weather disaster are generally discarded or limitedly used in animal feed due to reduced commercial value derived from their undesirable appearance. Thus, there is a need to extent the use of preharvest dropped fruits in the food industry. In this study, preharvest dropped apples were utilized to prepare dietary fiber-enriched materials(DFEMs) which were evaluated as a high fiber and low calorie flour substitute. The hydrothermal treatment and fractionation of preharvest dropped apple powder produced fiber-rich fractions (85.62%). The use of DFEMs increased the pasting parameters of wheat flour and also improved the mixing stability of dough. When DFEMs were incorporated in the cookie formulation (2, 4, and 6 g dietary fiber per serving), they increased the elongational viscosity and solid-like behavior of cookie dough which became more distinct with increasing levels of DEFMs. These rheological characteristics were favorably correlated to the reduced spreadability of cookies after baking. Also, the cookie samples prepared with DFEMs contained higher moisture content, giving rise to softer texture than the control.</t>
+          <t>The elderly people with difficulty in chewing may be at risk of anorexia and malnutrition caused by dysphagia. There is however a lack of standard texture guidelines customized for the elderly that should be based on sensory and mechanical texture correlation. This study was carried out to establish appropriate sensory and instrumental procedures in order to identify the softened levels of pre-treated food ingredients for the elderly. The hardness measurement by the shear test with the Kramer shear cell exhibited positive correlations with the intensity of sensory firmness and toughness perceived by elderly people. The sensory responses were classified based on a relative hardness (RH) from the mechanical measurement. A RH of 0.7 could be used as a reference point to screen softened levels of pretreated samples for the elderly people. As a result, this study showed a relationship between the perceived sensory and mechanical texture, providing RH-based texture guidelines for verifying the softened levels of pretreated ingredients for elderly people.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[0.042484358, 0.00055818417, -0.023099389, 0.00064436754, 0.101929314, -0.00078102486, 0.025546772, 0.008333721, 0.0051498665, 0.020291056, 0.0015401614, -0.050310075, 0.00024738908, 0.06166033, 0.018589044, 0.03460759, 0.04663064, 0.027130699, 0.04629008, 0.03880064, -0.035259582, 0.009915248, -0.041703884, 0.011994976, 0.0833297, 0.0460075, -0.019748224, -0.06245351, -0.04589446, 0.02981542, 0.025213376, 0.0023167264, -0.0015959631, -0.003492267, 0.015240644, -0.014232676, -0.013935934, -0.04914932, 0.074086905, 0.028326958, -0.030386627, -0.0113490475, 0.06876608, -0.060240228, -0.05548766, -0.04530681, 0.003364675, 0.053254243, -0.036095776, 0.018384283, 0.012629434, -0.025963811, 0.04713406, -0.003948198, 0.016320083, -0.026644971, -0.017979613, -0.04387083, -0.03245637, 0.03499662, -0.033122323, -0.09737405, 0.020704968, -0.03256171, -0.01999659, -0.023278434, -0.049464777, 0.0013196304, -0.006650192, -0.011130666, -0.0005314763, -0.054864276, 0.03405934, -0.04322724, -0.039355617, 0.0019811988, 0.0039473297, 0.11787229, -0.02403464, -0.026556732, -0.016596839, -0.056299347, 0.048387527, -0.09646634, 0.02123477, 0.036966205, -0.037338153, 0.040151093, 0.028745966, 0.04766682, -0.037888747, -0.03194039, 0.11102178, 0.022059608, 0.057889048, 0.031343985, 0.08531631, 0.05841764, 0.07726868, 0.015635978, 0.010666933, 0.020662371, -0.009281546, 0.0073070964, -0.02647756, -0.002696338, 0.02185861, -0.007984799, 0.012833794, 0.080216646, -0.012228222, -0.07515775, -0.029428247, -0.045968987, 0.032550756, 0.069601044, 0.049938947, 0.04485078, 0.012869612, -0.0031063196, 0.027358973, -0.0538674, -0.009418179, 0.08945057, 0.0049817828, 0.0047550607, -0.0745728, -0.05398277, 0.015802633, -0.050820462, 0.00678098, 0.09949314, -0.00022073742, 0.009276803, 0.029292166, 0.020619439, -0.03649124, -0.024638066, 0.020172963, 0.0039027703, 0.038674146, -0.05363946, 0.010644243, -0.005533677, -0.06655221, -0.008624002, -0.03874219, 0.023155468, 0.07158772, -0.024453023, 0.032038044, 0.033770792, 0.0029737311, 0.007884025, -0.05751877, -0.03869383, -0.08181543, -0.005015164, -0.064158626, -0.0015617494, 0.008198415, -0.045996886, -0.086186215, 0.0035489914, -0.014980176, -0.037867717, 0.04807053, 0.016997816, -0.03210632, -0.009787622, -0.0067807515, 0.0019633856, -0.0081770485, -0.0392896, 0.06879259, -0.060748346, -0.01670141, -0.06423333, 0.053834897, -0.02010632, -0.0454403, -0.052890018, -0.029377647, 0.039927185, 0.00722707, -0.03409027, -0.041037776, -0.035461426, 0.06462398, -0.02357554, 0.002823872, 0.0133148655, 0.028288383, 0.036509648, 0.005869065, 0.0115305, 0.03995179, 0.012743132, 0.046973806, -0.047967594, 0.046628974, 0.046602074, 0.032387886, -0.016400022, 0.027000776, -0.036166158, -0.0029015343, -0.030444723, 0.01720253, -0.034430154, -0.016892845, 0.02429025, 0.0396996, -0.041362822, 0.07371997, 0.011245847, 0.026827298, 0.03702972, 0.0461755, -0.034097496, -0.030672785, -0.014874859, -0.11889152, 0.06961857, -0.0031388362, 0.027536988, 0.05580494, -0.038902156, -0.023627562, -0.033897106, 0.03586019, -0.06763874, -0.048375376, -0.046178862, 0.03818599, -0.016233854, -0.0143092945, 0.006139017, 0.05856234, 0.08124647, -0.049001526, -0.036052827, -0.0043405234, 0.02004732, -0.038906775, -0.0016405635, 0.015487315, -0.0365473, -0.09813988, -0.021286195, -0.013139084, 0.0146217635, 0.035465334, 0.018516526, -0.003208559, -0.029873913, 0.06858889, -0.025131179, 0.04450907, 0.016147695, -0.06287053, -0.017836513, 0.02847604, -0.07180418, -0.014626183, 0.013483755, 0.0338895, 0.015177625, 0.057060093, 0.0028127516, 0.05667156, -0.014213778, 0.042975493, 0.0035745723, -0.016752183, 0.035302423, 0.040880654, -0.015117584, -0.03737498, -0.06440911, 0.02851886, -0.00019619375, -0.018577611, -0.053201158, -0.0664197, -0.0008047431, -0.0052686376, -0.034838308, 0.014774956, -0.016793871, 0.020561686, 0.004195393, 0.00011053914, 0.0925494, -0.06886097, 0.06258112, -0.0117871035, 0.0010492861, -0.026791358, 0.00012317486, -0.016434992, -0.009118814, 0.012783505, 0.087677136, -0.004275867, 0.08393777, 0.061734825, 0.013234205, 0.0045688907, -0.0024755686, -0.034966726, -0.012441949, -0.0021845405, 0.044897217, 0.029691007, -0.022208683, 0.031537946, -0.021949269, -0.0546977, -0.016330559, -0.028040284, 0.023016334, -0.025618713, 0.011742916, -0.0684093, 0.017221976, 0.035651483, -0.0029584232, -0.04744035, 0.043590445, -0.019616606, 0.003424448, -0.027599651, 0.02470529, 0.025686095, 0.0057312497, -0.0432616, 0.042028554, 0.015599991, 0.011513216, -0.051708836, 0.0051935455, -0.008063274, 0.014285653, -0.041253302, 0.06296309, 0.028055763, 0.08632612, 0.014084691, 0.020636493, 0.019320084, 0.012686401, -0.0061275912, 0.031836797, -0.019189265, -0.0626077, 0.0018651566, -0.026453126, 0.07037146, -0.012180905, -0.01787072, 0.091582425, -0.062708005, 0.07511564, -0.010102101, -0.070935, -0.023339648, -0.046464764, -0.027813237, 0.053060036, 0.006761923, 0.0123884035, 0.020398913, 0.020636195, 0.028234702, 0.027388562, 0.012016115, 0.06266333, 0.0462362, -0.002578108, -3.9362814e-05, -0.0017457982, -0.04192874, 0.009093826, -0.051036894, 0.025856102, -0.094720036, 0.00064926373, -0.08283207, -0.06153231, -0.004282886, -0.02292567, 0.035464637, -0.014548919, 0.010449113, 0.06520127, -0.004295291, -0.0018682155, -0.040250666, -0.039282355, 0.010249719, -0.00407045, -0.07395509, -0.00064010266, -0.0209678, -0.012197365, -0.01996872, 0.0047937245, -0.042657472, -0.1041299, 0.08034803, -0.03205916, 0.061062057, 0.039539386, 0.050993275, 0.026145505, 0.00938421, 0.05306595, 0.010565165, 0.010731384, 0.003849907, 0.045942437, -0.039696295, 0.028592944, 0.0027039968, 0.032430027, -0.006148697, -0.04270104, -0.005609819, -0.032933485, 0.0010125047, -0.0024351475, 0.008187028, 0.0011807721, -0.085704334, 0.011975084, -0.021296982, 0.008871684, -0.039192818, 0.072315164, 0.005823787, -0.0774145, 0.018849704, 0.014152576, -0.025970701, 0.040091094, 0.025782187, -0.031369634, -0.0205236, 0.00622712, 0.06347626, -0.028642071, 0.050324693, -0.0047260663, 0.033748407, -0.11219611, -0.010741937, 0.0055055586, -0.08210203, -0.026793595, 0.018538924, -0.009479365, 0.053175632, 0.059541333, -0.029767033, -0.027597977, 0.03434558, 0.045976385, -0.006385723, -0.01906787, -0.04098851, 0.0051533845, -0.026414217, -0.08382003, -0.023159148, -0.008358839, -0.054660648, -0.0035840825, 0.015518226, 0.029021706, -0.028930219, 0.012689386, 0.04009319, 0.0101611195, -0.019998714, 0.023942316, 0.048683956, -0.020413851, -0.02378445, 0.032523166, -0.062853955, 0.03225783, -0.08525879, -0.034289856, 0.0695533, 0.05928709, -0.07318742, 0.025314756, -0.026088642, 0.010300463, 0.0024907286, -0.016235298, -0.032044046, -0.06219691, -0.019340293, -0.040371723, 0.0019188426, 0.043113638, -0.124769926, 0.015894204, 0.0010886732, 0.035182998]</t>
+          <t>[0.002477469, 0.0076764394, 0.037060585, -0.019671934, 0.10935456, 0.092574745, -0.08080661, -0.05136673, 0.026749536, 0.047386497, 0.016976025, -0.06934968, -0.02794891, -0.006521221, -0.0060943775, 0.020763133, -0.03469913, 0.032233443, 0.031967044, -0.019704845, 0.042876787, -0.01635974, -0.07440936, -0.039995097, -0.053634074, 0.035055835, 0.050505944, -0.015069113, 0.053640783, -0.004503738, 0.04458944, -0.04186296, 0.013416971, 0.03961816, -0.003111084, 0.0017360117, -0.027384615, 0.032206394, -0.11523642, -0.07121318, -0.037945505, 0.010697065, -0.000118784665, -0.041807167, 0.120816335, -0.046022654, -0.0062774243, 0.04433066, -0.03920185, 0.0071597723, 0.00854103, -0.018872686, -0.068955064, 0.039621294, 0.040615097, -0.031112095, -0.03529759, -0.06382434, 0.05477236, -0.004981015, 0.025228322, -0.067900755, -0.034932677, -0.025399424, 0.018923976, 0.017657174, 0.017555654, 0.007826666, -0.07702343, 0.02069694, 0.013081652, -0.06977905, -0.026725415, 0.022984631, -0.046947487, 0.054214153, 0.007861374, 0.037589256, 0.02290936, 0.070324436, 0.0023761003, -0.050005328, 0.05620781, -0.026125332, -0.011788719, 0.085270025, -0.02365413, 0.01322043, 0.003374006, 0.007045034, 0.017186126, -0.02132612, 0.119594224, -0.008737202, 0.003999617, 0.006997044, 0.015864732, 0.03014022, 0.011657932, 0.019364826, -0.028750435, 0.019277442, -0.033504423, 0.0017604189, 0.027299915, -7.7259494e-05, 0.10427824, -0.0050002243, -0.0031220724, -0.000959204, -0.013685397, -0.06825037, -0.009665528, -0.023298759, -0.017791212, -0.0013716146, -0.022712057, -0.013531288, -0.028751682, 0.0093188705, 0.029597182, 0.041441195, -0.0066993483, 0.10637215, -0.07398679, -0.0045563793, 0.03982569, -0.066126995, 0.019511119, 0.076119244, 0.02291102, 0.042884156, 0.02172303, 0.04962147, -0.0012651513, -0.016513156, -0.011317387, 0.059868414, -0.09882001, -0.025046425, 0.04927198, 0.0017209247, -0.04030322, -0.0774576, -0.039291725, 0.003474914, -0.036444884, -0.019050432, -0.0819053, 0.023078125, -0.014905798, 0.05896151, 0.048368733, -0.027438268, -0.023734083, -0.0046517253, -0.07085577, -0.031802595, -0.006430056, -0.017991833, 0.04365938, -0.023887841, -0.064760216, 0.031903792, -0.035387665, -0.05365985, 0.031209556, 0.016760899, -0.041271675, 0.062219188, 0.031891946, -0.006767326, 0.027718075, 0.010755745, 0.056529257, 0.0037112439, -0.0016816811, -0.052339226, 0.05202419, -0.025477707, -0.037560284, -0.051390473, -0.03236735, 0.0027393738, 0.0026358883, -0.024045592, 0.00456247, -0.01225345, 0.036982156, 0.04473125, 0.0070709917, 0.0064990544, 0.04712854, -0.031803846, -0.05815732, 0.075849265, 0.04606671, 0.027495869, 0.021090612, 0.02015976, -0.06510185, -0.0007332823, -0.03007334, -0.043513875, 0.093084045, 0.006054181, -0.040957373, 0.0098831365, 0.06644266, -0.052420493, -0.054110788, 0.0257816, -0.034009732, -0.04032638, 0.020998035, -0.056151725, 0.0091696475, -0.1139339, -0.04085776, -0.004258287, 0.032356966, 0.021106081, 0.0010749932, -0.05316357, 0.011655882, 0.0014979513, -0.01753268, -0.06575697, -0.009612124, 0.043614835, 0.031072626, -0.052911565, 0.037940774, -0.017675396, 0.042168062, -0.029087361, -0.018902255, -0.0035058893, 0.00021483377, 0.06262633, -0.049632806, 0.0027767515, -0.0019425959, -0.005180584, 0.027334353, 0.026239151, 0.026495978, -0.017264305, -0.024757773, -0.021447673, 0.002329538, 0.003645182, -0.02603968, 0.0049263886, 0.0018326846, -0.010986385, -0.01752862, -0.01178496, 0.010577527, -0.0116929, 0.057852592, -0.04044608, -0.016692195, -0.057725977, -0.063244365, -0.061685294, -0.036580373, 0.044109166, 0.012626225, 0.0013238402, -0.050507646, 0.07561904, 0.05950643, 0.047286917, -0.01656427, -0.038063034, -0.0731127, -0.017795982, -0.021333566, -0.04748144, -0.02565332, -0.027995745, -0.0070078783, -0.042329356, -0.07236574, -0.012691488, 0.0005129924, -0.013504451, 0.0706914, -0.050100964, 0.05254592, 0.045172658, 0.062030546, 0.05525559, -0.06158523, 0.044815503, 0.042958923, 0.04973251, -0.014051447, -0.01252548, 0.08224956, 0.015479851, -0.099509746, 0.06351276, 0.0016148475, 0.030031415, 0.050689947, -0.0035527465, 0.0737116, 0.029912885, 0.00030224785, -0.0048010848, -0.004351404, 0.04668196, -0.052551042, 0.067660846, 0.0008891106, 0.05055449, 0.034455255, -0.04558143, 0.04141722, 0.0021530348, 0.08254188, -0.028675396, -0.028792255, 0.004266342, -0.023331793, 0.043878287, -0.037762683, 0.018066637, 0.029763347, -0.009805721, -0.042240858, -0.0038690695, -0.06486306, 0.018196011, -0.019744664, -0.010931227, 0.011506989, -0.068913445, -0.08338571, -0.011760001, 0.056065097, 0.0045528114, -0.02456497, 0.10181994, 0.048983216, 0.09221419, -0.10511915, -0.029502582, 0.011598354, 0.0040655853, 0.02186096, 0.005208656, 0.029795744, 0.0101039475, -0.07243163, -0.0050817057, -0.030044828, 0.029925752, 0.018416144, -0.041722946, 0.009391946, 0.0066392734, -0.001544396, 0.011697808, 0.003333811, -0.029894134, -0.0048857233, -0.063493416, -0.0070997523, -0.0067157247, -0.025477929, 0.033662114, 0.030320192, -0.043648083, -0.018776108, -0.005451913, 0.043324925, 0.060831208, 0.0553483, -0.002338177, -0.041894272, -0.016871758, 0.0029823296, -0.0019034939, -0.06270482, -0.034734935, 0.03275325, -0.027033316, -0.015954185, 0.073709354, 0.06799658, -0.03321261, 0.07977335, 0.058644973, -0.05570373, 0.017101606, 0.04269262, -0.029948771, -0.02280852, -0.029828912, -0.013811236, -0.11916479, 0.0033025658, 0.0943263, 0.035221122, 0.011635396, -0.055747867, -0.020752229, -0.021836355, -0.013746453, -0.0292691, -0.024285473, -0.021328144, 0.00990042, -0.029799256, 0.10678334, 0.053299826, 0.0066574635, -0.028237263, 0.053772677, -0.047140572, 0.05979294, -0.026330901, -0.023309205, 0.033212617, -0.030996408, 0.03179516, -0.015628347, 0.04946231, 0.021029746, 0.05557526, -0.027709523, -0.066201985, 0.033799585, 0.08194034, -0.002288025, -0.016376741, 0.05109283, -0.013991008, -0.049615394, -0.008403245, 0.033370323, 0.03911281, 0.0063463785, -0.013222749, 0.012039038, -0.020450871, 0.02383199, 0.028843328, 0.009233341, 0.022201264, -0.016104754, -0.019342497, -0.024762502, -0.012753896, 0.0015223098, -0.0073826257, -0.010725357, -0.0070966473, -0.008567032, 0.03883408, 0.09499142, 0.0044160336, -0.020511549, 0.009185977, 0.006621852, 0.017940685, 0.04289285, 0.024110345, -0.03288062, 0.04893234, 0.02373827, -0.06652619, -0.048108827, -0.009077063, 0.003997729, 0.040527258, -0.012569286, -0.01931141, -0.0041594375, 0.04286328, 0.008655672, 0.03219487, 0.05961883, 0.08309249, 0.005655374, -0.041084707, -0.06382449, -0.022141375, 0.06397155, -0.03613435, -0.0028839184, 0.008871216, 0.039752573, 0.012867785, 0.04491495, -0.039415363, -0.0016172887, 0.055901736, -0.11058605, -0.03823765, 0.0032134566, -0.051824283, -0.009486603, 0.054286625, 0.046119187, -0.10249607, -0.030234486, 0.04454445, 0.029613322]</t>
         </is>
       </c>
     </row>
@@ -4830,37 +4831,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ICEF</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>유지영</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>광주</t>
-        </is>
-      </c>
+          <t>김주영</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Correlation of hydro-thermal processing with rutin content in tartary buckwheat flour</t>
+          <t xml:space="preserve">Rheological and morphological characterization of oleogels as a solid fat replacer in aerated baked goods
+</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tartary buckwheat flour was subjected to several hydro-thermal processing including steaming, autoclaving, and boiling. The contents of rutin in the resulting buckwheat samples were analyzed by HPLC and the correlations between rutin content and hydro-thermal treatments were investigated. When raw buckwheat flour was mixed with distilled water, there was a dramatic reduction of rutin content while a high amount of quercetin was detected. Even, mixing with water for 1 h gave rise to a decrease in rutin content up to 88.6% while the content of quercetin increased up to 98.3%. It would be probably because water addition made rutin susceptible to the attack of rutin-degrading enzymes in buckwheat flour. However, after buckwheat flour was hydro-thermally treated with steaming, autoclaving, and boiling, the loss of rutin in buckwheat flour by water addition was dramatically reduced and quercetin was hardly detected. Specially, it appeared that steaming and boiling were effective in preventing rutin loss in buckwheat flour. Even though the beneficial health effects of rutin in buckwheat have been widely recognized, the effects of food processing parameters on rutin loss have been disregarded. Thus, this study can aid in maximizing the beneficial health effects derived from rutin even when incorporated into food formulations, providing more potentials for developing various buckwheat-based functional foods.</t>
+          <t>Oleogelation has been recently receiving much attention as a new technology to structure edible oils with oleogelators. It can be applied to aerated food products specifically, baked products by substituting solid fats with oleogels for lowering the levels of saturated and trans fats. In this study, canola oil-carnauba wax oleogels were prepared and used as a shortening replacer in making cakes. The rheological and structural properties of the cakes were then investigated. The viscosity of the cake batters had a tendency to decrease with increasing shear rate. The use of more oleogels for shortening caused two viscoelastic parameters of the batters to decrease. The texture, volume, and porosity of the cakes were characterized using oleogel as a shortening replacer. However, the use of oleogels for shortening up to 25% produced cakes with lower levels of saturated fatty acids without quality loss. The results may contribute the food industry to develop bakery products with reduced amounts of saturated and trans fatty acids.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[0.00093049195, 0.0077389926, 0.031704135, 0.009367192, 0.069848515, 0.021952305, -0.03416105, -0.036593005, 0.041152686, 0.051929064, -0.06453222, -0.0054250145, 0.04688, 0.031838775, 0.0054444624, 0.038215164, -0.0321399, 0.053153474, 0.056670565, 0.02282882, 0.004666969, 0.045404967, -0.07565082, 0.06839703, 0.07313469, -0.075715154, 0.027392551, -0.0034247353, 0.0036117428, 0.031988498, 0.03899479, 0.025497526, -0.013892701, -0.03983429, -0.018427229, -0.029124105, 0.021150898, -0.032864504, 0.026646255, -0.014762476, -0.02616059, -0.016936578, -0.028795741, -0.016603114, -0.040902212, -0.018880779, -0.031586036, 0.017621625, -0.05249078, 0.008002517, -0.031127192, 0.0073386156, 0.035448574, 0.049767822, 0.014374038, -0.017677698, -0.017042287, -0.0030994678, 0.018534288, -0.048483007, -0.040554035, -0.0452489, -0.0120047, -0.08030957, -0.020010322, -0.021187069, 0.034125235, 0.042498514, -0.02258527, -0.013287373, 0.0045586913, -0.023137065, 0.014180274, 0.019141767, -0.036603604, -0.10735446, -0.06482694, -0.00059646106, -0.09769261, -0.02106597, -0.05732153, -0.06260801, 0.043855306, -0.0357505, -0.051387917, 0.06875843, 0.031011239, 0.06692185, 0.019622404, -0.030508969, 0.037903346, 0.011764449, 0.10622443, 0.051608395, 0.02474332, 0.019921923, 0.103557035, 0.09147124, 0.050156724, 0.025131067, -0.029349212, 0.07030928, -0.057928044, -0.0425738, 0.0043532187, 0.011012485, 0.012003879, -0.01850493, 0.041408636, -0.049476948, -0.055994503, -0.041241504, 0.03936233, 0.00866907, 0.053508393, 0.037945632, -0.025038643, 0.06420398, 0.036677673, 0.08545009, 0.03835587, -0.013794519, 0.021963604, 0.009056295, 0.009709239, -0.00882566, -0.008563229, -0.014109491, 0.020364476, -0.07908626, 0.032852605, 0.036752585, -0.029393246, 0.027437337, 0.05183038, 0.057971906, 0.01383719, 0.07283233, -0.0060868817, -0.040322382, 0.019188918, 0.0067391363, 0.03817747, -0.10209908, -0.023621937, -0.028058123, -0.08624299, -0.0045121857, -0.015456226, -0.010752476, -0.01010211, 0.0631222, 0.031081472, 0.027160648, 0.0008876284, -0.037650444, 0.001250891, -0.04849095, -0.08626569, -0.045015823, -0.02970933, -0.019749334, -0.050330408, 0.032673843, 0.020842297, -0.029946838, 0.044011626, 0.03361846, -0.03974951, 0.050634477, -0.002267148, -0.004083445, 0.009787286, -0.04002417, 0.0432174, -0.041021466, -0.053416505, -0.025285332, 0.06465263, -0.058966313, 0.03691338, -0.07716039, 0.010723757, -0.055997875, 0.023872538, -0.006784923, 0.018681645, -0.050234158, 0.018621981, 0.022411238, 0.014675593, 0.030650144, 0.027883522, 0.012777787, 0.03961526, -2.9325485e-05, 0.007989845, -0.024140157, 0.092040494, -0.02061961, 0.03057806, 0.08196917, 0.043744367, -0.050052725, 0.027748302, 0.025771275, 0.018176015, 0.03026264, 0.058434404, 0.01601704, -0.07811098, 0.0843438, -0.05426576, -0.028423693, 0.026868602, -0.0068560163, -0.0012337043, -0.058532715, 0.03856506, 0.06517868, 0.005330529, -0.032827105, 0.016083647, 0.07850162, -0.004636939, -0.012989887, 0.06381286, 0.027264485, 0.0063436106, 0.026513817, 0.03427316, -0.014822991, -0.04078762, 0.025532087, 0.007663952, -0.0058386447, -0.041628096, 0.064879514, -0.045241334, 0.05134647, -0.023689233, 0.023263661, 0.046667594, 0.009322653, 0.01958724, -0.009271068, 0.018665718, 0.021402663, -0.07212176, 0.0041483426, -0.042477295, 0.048070658, -0.0009011093, 6.8608904e-05, 0.059530325, 0.0415122, 0.054929674, -0.018004922, -0.04101186, -0.0541262, 0.0012598298, -0.042458765, 0.014191377, -0.023891514, -0.011455993, 0.014823626, 0.0047094584, -0.040742073, 0.0030294026, 0.0028432983, 0.00011857413, -0.018430023, -0.00751393, 0.015510171, 0.0054417104, -0.0066969097, 0.045406915, -0.068355106, 0.04273262, -0.031489223, -0.015976977, -0.04227486, 0.050214194, -0.07368345, 0.050025057, 0.000684874, -0.031029094, -0.050071802, -0.050887283, -0.05331798, 0.009691761, -0.015602394, 0.04672549, 0.020215234, -0.047562543, 0.038964115, 0.04021295, 0.07325819, 0.015579629, 0.008406916, -0.013122175, 0.06962276, -0.0016953635, 0.053029083, 0.0040785507, -0.021749401, 0.026166826, 0.051488873, 0.036978904, 0.07210237, -0.0151951965, -0.03234114, -0.004616948, 0.039445166, -0.026712641, 0.054017466, 0.011561853, -0.05439476, -0.04509178, -0.032734636, 0.003712985, 0.052363202, -0.03865612, -0.015056976, -0.014407566, 0.036799513, -0.0046871034, -0.0050739422, -0.06328378, 0.073308855, -0.008299322, -0.019257218, 0.003548887, 0.005356917, -0.025217528, -0.06976075, -0.037292935, 0.0055745575, -0.028068224, -0.03315167, -0.038615428, 0.08932663, -0.035362076, -0.0014085168, -0.0106736375, -0.027894495, 0.039926544, -0.040950432, -0.010343157, -0.0054884227, 0.02790184, -0.0012351595, 0.035095688, 0.0012760374, -0.028165564, -0.054935195, -0.03451479, -0.076078705, 0.07737768, -0.004158797, 0.0008216366, -0.077721246, -0.004566342, 0.018700056, 0.03742154, 0.05573849, -0.064791195, -0.016054751, -0.011231089, -0.047858484, 0.012666992, 0.012956118, 0.0035995438, 0.022934716, -0.022790136, -0.01372697, -0.04136126, 0.061643787, 0.05070278, -0.021880576, 0.033554252, 0.047061488, 0.006755498, -0.01187941, -0.023090644, 0.023089603, -0.03110163, 0.01748203, -0.08803369, -0.004864127, 0.004084714, 0.022402456, -0.007975668, -0.02641908, -0.012217982, 0.017939178, -0.025678812, -0.00086825923, -0.11991262, 0.012694951, 0.03522478, -0.006710257, -0.008399347, -0.06202965, -0.037824146, 0.024347577, 0.038060352, 0.009666511, -0.0023266594, -0.031777907, 0.02240755, 0.052839495, 0.047237806, -0.005673565, 0.04012107, 0.080586895, -0.0027857677, 0.06979078, -0.027065342, -0.029160379, -0.0090985345, 0.0314003, 0.037034813, 0.01641004, -0.040201645, 0.014096226, -0.0041990494, 0.024908127, -0.012169112, 1.8467428e-05, -0.017534254, -0.09183202, -0.02668217, 0.014835469, -0.056436673, -0.0026956254, -0.0021629073, 0.03543357, 0.15104291, 0.025955064, -0.04745203, -0.057977024, -0.0062304353, 0.03422057, -0.026728973, 0.036050186, 0.022246586, -0.03608269, -0.030366294, 0.009541479, -0.042993348, 0.029427445, 0.01869832, -0.038463216, 0.036000334, -0.05199272, -0.0015997337, 0.030426495, 0.0074289464, -0.022481395, -0.0044937334, -0.0023134246, 0.093447864, 0.041134723, -0.02065891, -0.07442765, -0.07633007, 0.014623824, 0.015709857, -0.032708928, 0.025522217, 0.045294415, 0.03548181, -0.00069542526, -0.021121956, -0.013009276, 0.048082512, 0.0028901994, 0.00652052, 0.008745977, -0.030235996, -0.013575824, 0.03831045, 0.017923253, -0.122320674, 0.019557007, -0.003044549, 0.034937304, -0.020436628, 0.047058348, -0.056366976, -0.02085244, -0.016761305, -0.011002546, 0.028559562, 0.08666693, -0.060730055, -0.050054617, 0.0032078782, -0.02505288, -0.026576793, 0.033211496, 0.016439775, -0.041645862, 0.025594674, 0.0015130572, 0.072947375, -0.01308911, -0.11521245, -0.015134447, 0.01654952, -0.041484784]</t>
+          <t>[-0.0020267265, 0.03384034, 0.03724923, -0.0026420383, 0.049101632, 0.01594495, 0.012298399, -0.13552244, 0.035926905, 0.04847774, -0.038943212, -0.05870646, 0.052044164, 0.019808736, -0.02883625, 0.024443034, -0.013361502, 0.0067455024, 0.039710414, 0.045689587, -0.054399338, -0.0122079365, -0.075370386, 0.049838644, 0.042238887, -0.05354563, -0.00048623755, 0.040087186, -0.009178631, -0.018481083, 0.00799589, 0.008565753, -0.046106964, -0.048175443, 0.0073869624, -0.037969418, 0.039517943, -0.022046413, -0.06679421, 0.039610524, -0.108680025, -0.020054765, 0.12803997, 0.011825667, -0.008315248, -0.08760478, 0.01852815, 0.07528157, -0.001285474, -0.01319482, -0.019309603, 5.748961e-05, 0.031665992, 0.009450561, 0.024931576, -0.028433947, -0.08870314, -0.06147939, 0.01817589, 0.023200536, -0.013315409, -0.027960556, -0.052795492, 0.034409404, 0.014764193, -0.0068523027, 0.044680025, 0.066386655, 0.0886258, 0.011401619, -0.0474982, 0.0026890712, 0.02642257, 0.04957958, -0.05691109, -0.043096453, -0.01608174, -0.03924472, 0.015440579, -0.024071762, -0.055191405, -0.07884016, 0.04004411, -0.01898227, -0.026242606, 0.039260592, 0.035643928, -0.02399268, -0.002869239, 0.05092132, 0.03726947, 0.038150806, 0.09047181, 0.018161707, 0.04564355, 0.016143583, 0.086720705, 0.02902701, 0.022917975, 0.052569114, 0.0059942985, 0.07213716, -0.050270062, -0.011412081, 0.017901082, -0.036550753, 0.02754908, -0.003046418, 0.034038626, 0.04165335, 0.0072958264, -0.059128914, -0.02132692, 0.07955512, -0.017797835, 0.09160516, 0.047134336, 0.050578654, 0.02588054, -0.027933802, 0.045091167, -0.042517245, 0.044635464, 0.011947903, 0.016263211, 0.015287122, 0.011049397, 0.051507827, 0.042368773, -0.045610126, -0.018338507, 0.007883727, -0.056898624, 0.004628531, 0.04196943, 0.015105612, 0.048842452, 0.030697264, 0.05524432, 0.017225752, -0.002068946, -0.02777131, 0.023331366, -0.04065112, 0.021012384, 0.0051682345, -0.008112378, -0.015925968, -0.038630225, 0.061741877, 0.016378151, 0.0440574, -0.049537018, -0.014672425, 0.0023518738, -0.033213545, 0.021390148, -0.019983023, -0.024597514, -0.008456988, 0.012296032, -0.0049542575, 0.015057359, 0.029059894, 0.0014367407, 0.08944629, 0.074513085, 0.0154482005, -0.034890655, 0.0036202408, -0.016760526, -0.007691267, 0.025328428, 0.08120839, -0.050499607, -0.047638156, -0.03413621, -0.0108681405, 0.02034732, -0.012365822, 0.0115680285, -0.046667162, -0.0007774614, 0.016550837, 0.03449094, -0.05249485, -0.005062234, 0.022018014, -0.034360692, 0.014370192, -0.085737385, 0.06979292, 0.022272771, 0.027083976, -0.01649436, -0.003920484, 0.06723635, 0.0010209806, -0.0010408344, 0.0164636, 0.02465, 0.038297556, 0.026768781, -0.019167101, 0.07844336, -0.01955828, -0.043897513, -0.029870937, -0.00071143504, 0.020073146, -0.036652435, 0.062387154, -0.019999959, -0.007904658, 0.021989463, 0.033624843, 0.027268594, -0.025036748, 0.06590569, 0.016540142, -0.021160075, 0.026445556, -0.03820456, 0.012479066, -0.049514897, 0.051625747, 0.012809748, 0.04005554, -0.06812196, 0.012691266, 0.0121366605, 0.010036632, -0.022359198, -0.025629696, 0.052052017, 0.004391192, 0.024053385, 0.00427014, 0.004966841, 0.0637855, 0.0055553187, 0.02804581, -0.0037723896, -0.029455112, 0.018606631, 0.025250044, 0.036119796, 0.023845388, 0.005055421, -0.0071280072, -0.023768695, 0.06484622, 0.0454456, 0.0330168, 0.08975261, -0.036311246, 0.036470596, 0.014482974, 0.024166727, -0.015432173, -0.029848784, 0.022488384, 0.041262135, -0.01687266, -0.054925494, -0.103007846, -0.0009989633, -0.004521232, 0.047276426, 0.00379729, -0.03464543, 0.01752037, 0.06439613, -0.0075975526, -0.05971817, -0.020108026, -0.0011333167, 0.008035213, 0.022245284, -0.07800996, -0.033459928, 0.0019788977, 0.010221361, 0.0113836005, 0.04045957, -0.019151183, -0.09756827, -0.008317986, -0.02103483, -0.049163125, 0.009942543, -0.037448935, 0.022536263, 0.021688705, -0.05486583, 0.04808526, 0.0053484, 0.0104972655, 0.061060753, 0.023358004, -0.080756165, 0.022347014, 0.011097246, 0.015006821, -0.0020036749, 0.033624396, 0.027576284, -0.011176288, 0.0054601193, -0.009167854, -0.03804969, -0.015746178, 0.012632449, 0.051736493, 0.007458163, -0.020573946, 0.03887698, 0.03136791, -0.008764966, 0.013703353, 0.041820467, -0.016350253, 0.015014506, -0.005698847, -0.014149697, 0.008474078, -0.04367199, 0.031776294, -0.034196284, 0.05933981, 0.022329478, 0.002854593, 0.054169822, 0.0030648487, -0.020350149, -0.011490013, -0.0040935287, 0.052918077, -0.007181831, -0.04201302, -0.042474486, 0.0022635881, 0.048067845, -0.022209482, -0.020600017, 0.0047592935, 0.097640365, 0.08885613, -0.051287286, -0.06761856, -0.062162317, -0.012105226, 0.007767387, 0.0024539002, -0.0154407285, -0.0041479548, 0.065741494, 0.035509072, 0.026917571, -0.037750896, -0.008811936, 0.06737196, -0.054187033, 0.07277726, 0.013872876, 0.020968065, -0.04422099, -0.024335526, 0.011802452, -0.011173046, 0.051667575, -0.008700151, 0.046556532, 0.017632779, 0.088369705, -0.05297758, -0.032898393, 0.023057988, 0.053146064, 0.03105304, 0.019777253, 0.011045695, 0.00018168706, -0.052813534, -0.019175727, -0.027467653, -0.08773884, 0.049983814, 0.032874413, -0.04716318, -0.037403394, 0.02993855, 0.1040601, 0.016014023, 0.026758293, 0.029299468, 0.011768748, 0.036276963, -0.032605868, -0.028636703, 0.0397307, 0.013775462, 0.039890822, 0.05534231, -0.05917779, -0.030421296, 0.06303843, 0.027086752, 0.0011724508, -0.05312529, 0.057235308, -0.026983391, -0.010570219, 0.06713774, -0.019208992, -0.006588071, -0.048132963, -0.051451955, -0.021041788, 0.015361073, -0.06644712, -0.025286654, 0.038237035, 0.03797783, 0.06411421, -0.009158468, -0.016468108, -0.055977903, 0.030617414, -0.0028146326, 0.08752225, -0.031735517, 0.000883023, 0.060278513, -0.058847435, 0.032557484, -0.018217485, 0.008604808, 0.002927158, 0.03031071, 0.07930363, -0.06435772, -0.009607769, 0.028410852, 0.044420917, -0.018053187, 0.010935256, 0.040896196, -0.025749808, -0.0255012, -0.02046122, 0.03441326, 0.04197861, -0.033812102, 0.0001842296, -0.050104138, -0.09448233, 0.00850168, -0.013885356, -0.07374275, 0.0295148, 0.004740767, 0.04834861, 0.03814518, 0.009300913, -0.0455788, -0.005832162, 0.03151131, -0.003901683, -0.0324428, -0.091589056, -0.022249807, -0.015140857, -0.0025657972, -0.012015912, -0.010749078, -0.07702112, -0.03672469, 0.020791184, -0.024048153, -0.001269697, -0.021900188, 0.02745466, -0.034503166, -0.08648238, 0.028055158, 0.043159883, 0.03746762, -0.12374644, -0.01191296, -0.028546518, 0.031436786, -0.019257195, -0.030938584, -0.020882351, 0.013185159, -0.052608013, -0.048909802, 0.023233172, -0.021499904, -0.031013787, -0.002643386, -0.028985217, -0.0681819, 0.01007681, -0.031056317, 0.010368297, -0.03137497, -0.097695604, -0.01802055, 0.017420325, 0.028635023]</t>
         </is>
       </c>
     </row>
@@ -4869,33 +4867,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>유지영</t>
+          <t>정성민</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Processing performance of hydrothermally-treated buckwheat flour in noodle-making without rutin loss</t>
+          <t xml:space="preserve">The physicochemical properties and in-vitro digestibility of extruded rice noodles with different amylose contents
+</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Recently, buckwheat has been recognized as a healthy food due to its flavonoid compounds, specifically rutin. However, rutin in buckwheat flour is easily degraded into quercetin with bitter taste by rutin-degrading enzymes when mixed with water, thus leading to a negative impact on consumer preferences. In this study, buckwheat flour was subjected to hydrothermal treatments in order to inactivate the rutin-degrading enzymes and applied to produce buckwheat noodles. Then, the changes in the rutin content and physicochemical properties of buckwheat noodles were investigated. HPLC analysis showed a significant reduction of rutin content in the noodles prepared with native buckwheat flour (0.707%). However, the noodle samples prepared with steamed and autoclaved buckwheat flours contained 2.439% and 2.171% of rutin, respectively. Moreover, the quercetin content in the control was significantly higher than that in the noodles with hydrothermally-treated buckwheat flour. In the pasting property measurements, the peak and final viscosities were reduced by the use of hydrothermally-treated buckwheat flours, resulting in the lower degree of starch gelatinization and retrogradation. Also, when the paste samples were subjected to oscillatory dynamic testing, the native buckwheat sample exhibited more elastic properties than the others. In addition, when the buckwheat noodles were cooked, the noodles with hydrothermally-treated buckwheat flours had higher water absorption and swelling index than the control, affecting cooking loss. Also, the noodles prepared with autoclaved buckwheat flour exhibited significantly higher values of total color difference.</t>
+          <t xml:space="preserve"> Different varieties of rice have been extensively used for value-added products, suggesting new avenues of application in the food industry. Specifically, great attention has been paid to the rice cultivars with different amylose contents that play critical roles in the quality attributes of rice-based products. In this study, extruded rice noodles were prepared with three rice varieties containing different amylose contents. Their physicochemical properties and in-vitro starch digestibility were then characterized from a rheological point of views. Rice flour with higher amylose content exhibited greater resistance to dual-mixing and higher degrees of starch gelatinization/retrogradation. The high amylose rice noodles showed harder texture that was related to their reduced cooking loss. Besides, the rice digesta with higher amylose contents exhibited greater viscosities throughout the simulated oral-gastric-intestinal digestion steps. he results of this study provided a promising opportunity for the food industry to study the quality attributes and in-vitro starch digestibility of rice-based goods by means of rheology with the advantages of being more rapid in real time.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[-0.0074070212, -0.044799455, 0.04488724, 0.036829893, 0.1098073, -0.0007519502, -0.0060715927, -0.0070039583, 0.025272656, 0.02828384, -0.081332244, -0.027386624, 0.0074163703, 0.042967588, -0.012644084, 0.01587607, -0.009530342, 0.0055509247, 0.041898273, 0.024964407, 0.037799224, -0.010131096, -0.062714316, 0.038525123, 0.0635519, -0.0004629758, 0.017995924, -0.0023331502, -0.015858121, -0.06620229, 0.03690043, -0.015239251, 0.0034429976, -0.0464813, -0.0034094942, -0.03102208, 0.015237294, -0.037837837, 0.03961484, -0.006260937, -0.10209746, -0.024606388, 0.023058927, 0.059262786, 0.016598383, -0.027763052, -0.011029905, -0.022385761, -0.02179955, 0.011387295, -0.00842805, 0.0038005833, -0.0058611683, 0.06418143, 0.039555226, -0.024702197, -0.03683154, 0.014760767, 0.02092702, -0.0010980461, -0.010175261, -0.042791184, -0.046369668, -0.03811002, -0.047749087, -0.018846437, 0.00750869, 0.023686714, -0.029718839, 0.0086428365, 0.010543015, -0.07017381, 0.045173857, 0.005106777, -0.061654747, -0.11549087, 0.022751048, -0.01746558, -0.07537323, -0.046640724, -0.029891916, -0.055941544, 0.017804163, -0.07292119, -0.012889538, 0.008715204, -0.02930445, 0.039992943, -0.019770058, -0.0288911, 0.038151607, -0.0016348603, 0.09665272, 0.00070418266, 0.03749605, 0.04129555, 0.086851895, 0.058223743, 0.05927168, 0.030481605, -0.021053918, 0.056263138, -0.056903165, 0.0043844585, -0.025478411, 0.0102353655, 0.008689002, -0.002611837, 0.029282944, -0.03450935, -0.024330026, -0.055395793, 0.047530714, -0.0038718532, 0.006341102, 0.050072286, 0.051921163, 0.046108853, 0.038111676, 0.06883199, 0.009188656, 0.00481408, -0.046421945, 0.07722853, -0.0021471037, -0.0036666, -0.0027772565, 0.00600514, -0.0011827423, -0.028648077, 0.018582318, 0.063291706, -0.05333058, 0.06484129, 0.03350472, 0.06859715, 0.005350547, 0.050103962, -0.0013313339, -0.04458164, -0.048499923, -0.07187694, 0.0077062016, -0.07315968, -0.045107014, 0.014357243, -0.055198338, -0.039220504, -0.07999297, 0.028167607, -0.007802435, -0.0136757, 0.04160551, -0.03428162, -0.0007758274, -0.096472636, -0.028323684, -0.05871931, -0.06803935, -0.07883337, -0.036153175, -0.007367933, 0.009751873, 0.019303704, -0.004866742, -0.0427857, 0.056005403, 0.007095311, -0.030213226, -0.005162967, -0.021435594, -0.011386214, 0.004037005, -0.014297171, -0.0034444584, -0.04693807, -0.0075938264, -0.072156824, 0.026288005, -0.050861835, -0.025598707, -0.04779853, -0.035554606, -0.043099303, 0.010167204, -0.016820071, 0.008505154, -0.019089358, 0.038370013, -0.011278186, -0.053739123, 0.061174463, 0.048104834, 0.011770333, 0.019248173, -0.0032987664, -0.027435616, -0.062456783, 0.103201635, 0.021345623, 0.0065616188, 0.050161157, 0.05121138, -0.05174299, 0.026183197, 0.04423147, 0.027430281, 0.028841428, 0.06465195, 0.011420157, -0.07789863, 0.07954658, -0.01387277, 0.007036216, 0.026961168, -0.012475415, -0.0059738564, -0.04631518, 0.025630029, 0.01994242, 0.049714882, 0.021331996, -0.005219644, 0.04269966, -0.027819274, -0.013524995, 0.08207221, 0.037420742, -0.007659959, 0.026389824, 0.050222, -0.029884942, -0.013530614, -0.009161673, 0.027820177, 0.02453968, -0.03002678, 0.028368104, -0.020759463, 0.09626525, -0.008619381, -0.042664323, 0.051435195, 0.04365383, 0.048997436, -0.013952498, 0.02721328, -0.029884301, -0.05720108, 0.0033892454, -0.012799143, 0.025009349, -0.009778974, -0.0099738045, 0.043413408, -0.011812338, 0.018281568, -0.024883883, -0.078812554, -0.06366603, 0.0038980474, -0.018002292, -0.012165721, 0.005976698, 0.050142426, 0.05166459, 0.040618975, -0.0036947494, 0.023599425, -0.001075344, 0.035103843, 0.023070676, 0.02344018, 0.04980915, 0.025445258, 0.041425887, 0.0147619005, -0.09942718, -0.0050018784, -0.039936364, -0.039799355, -0.033755608, 0.0524428, -0.10820159, -0.0031698397, -0.016053032, -0.024122644, 0.01849742, -0.01852642, -0.10399193, -0.03010994, -0.031528216, 0.051770836, 0.00019469997, -0.06455013, 0.0752278, 0.012001858, 0.06836564, 0.0014150222, 0.0095295645, 0.04309307, 0.028944876, 0.028109133, 0.047829647, -0.0003368603, -0.04891889, 0.04062575, 0.042456347, 0.0143230455, 0.013884972, -0.0040795268, 0.0055497093, 0.012874196, 0.018022245, -0.02326447, 0.05398577, 0.009437961, -0.00071846065, -0.06165404, -0.023380548, 0.005196785, 0.050275266, -0.07557076, -0.04826474, -0.045601837, 0.061860114, -0.061241273, -0.0039513903, -0.049728613, 0.039555512, 0.025216797, 0.0255081, 0.02189193, -0.01824782, -0.024048496, -0.031732414, 0.011040344, -0.024123112, 0.009426718, -0.007598844, 0.004678208, -0.017212877, -0.016127648, 0.028078137, -0.05600771, -0.0060776058, 0.05660542, 0.052431297, -0.020717183, -0.024291921, -0.017588431, -0.008204475, 0.05309522, -0.016155055, -0.043262165, -0.01040423, -0.05607758, -0.049349383, 0.045471087, -0.0056076497, 0.01742791, -0.025538009, 0.023483163, 0.031943064, 0.07937817, 0.014154076, -0.038046215, -0.035678815, -0.043223877, 0.0014212693, 0.013776405, 0.0073322826, -0.007877158, -0.014488932, -0.038656604, -0.011747785, -0.049134403, 0.0029151107, 0.07692162, 0.0034447082, -0.0055475193, 0.011710266, -0.02373795, -0.071251705, -0.008381295, 0.02571918, -0.110083625, 0.024418818, -0.083517045, -0.0877246, 0.021597113, 0.062332895, 0.009946143, -0.0042698225, -0.013452397, 0.0017194512, -0.029034331, -0.024706852, -0.07129344, -0.01619374, 0.030211626, -0.026410813, -0.026686432, -0.017047489, -0.008622195, 0.014683623, 0.021116799, -0.017711781, 0.015682109, -0.029154398, 0.027758785, 0.009773398, 0.031176288, 0.04540597, 0.0643837, 0.04457642, -0.008695492, 0.027484939, 0.021994192, 0.020236129, -0.008832991, -0.00036206047, 0.021854443, 0.019514125, -0.039707046, -0.003098595, -0.0020348239, -0.06260246, -0.0094123995, -0.007974664, -0.038148634, -0.0949188, 0.016381335, -0.006545041, -0.05342353, 0.087603845, 0.007680258, 0.029402653, 0.1093406, 0.05639707, -0.017392792, -0.06291632, -0.058724824, 0.021802323, -0.00081047375, 0.01477523, -0.00014713779, 0.031620104, -0.033750083, -0.016056383, -0.033931218, 0.017955922, 0.011076433, -0.024513418, 0.03820651, -0.040671278, -0.055967957, -0.011472643, -0.005516568, -0.051438335, 0.0020498382, -0.021732774, 0.104265764, -0.010337695, 0.007348356, -0.0646051, -0.06071236, -0.034307975, 0.024489975, -0.006635177, 0.031944327, 0.025339864, 0.03431731, -0.027818503, 0.027653705, -0.046535276, 0.020323442, 0.008467582, 0.028117608, -0.026734049, 0.036274657, -0.0732395, 0.036520947, 0.021513252, -0.039522402, 0.033799615, 0.022601271, 0.0026875683, 0.026510421, 0.01504391, -0.037686642, 0.0025908255, -0.05672838, -0.049430046, 0.0025370915, 0.0682108, 0.0021552285, -0.023291957, -0.0029465884, 0.02183212, -0.02854154, -0.02016376, -0.022361085, -0.056754913, -0.023624765, -0.017506918, 0.059583716, -0.025170801, -0.08975994, -0.010345102, 0.023763686, -0.028201343]</t>
+          <t>[0.0064615374, 0.011082685, 0.074642435, -0.03468615, 0.0731507, 0.018032236, -0.025224958, -0.03233941, -0.0130248945, 0.032204233, -0.07705003, -0.05501271, 0.0136409085, 0.047961365, -0.054515116, 0.020679051, -0.037356503, 0.04633953, 0.025518836, 0.0015473614, -0.06154575, 0.0075065405, -0.03747519, 0.06201421, 0.08190771, 0.010756305, -0.0132826, -0.049458407, 0.00085850374, -0.021104267, 0.03312347, -0.023415111, 0.06449991, -0.008255937, 0.019915983, -0.034511894, -0.018290726, 0.051292215, 0.08560541, -0.016198583, -0.011567774, 0.04301848, -0.0868422, 0.027263153, 0.023094375, 0.025693078, 0.035803348, -0.024620349, -0.05752761, 0.022608697, -0.03616816, -0.026276894, 0.044485085, 0.006752188, 0.04157887, -0.07822798, -0.052142374, -0.012026588, -0.03989036, 0.017772894, -0.09177557, -0.044997133, -0.053776633, -0.01487272, -0.02251538, 0.031306356, -0.009339914, -0.011529964, 0.00083882903, 0.022702606, -0.023453603, -0.04109905, -0.022243153, 0.03130243, -0.08065243, -0.09464759, 0.0250188, 0.016408753, -0.057366706, -0.069795415, 0.009120348, -0.038642466, 0.04673644, -0.0025943064, -0.072036974, 0.029429842, -0.117694564, -0.021737376, -0.0052047805, 0.027290076, -0.012427153, -0.014860242, 0.09748617, 0.05993675, 0.038829435, 0.05476434, 0.11102877, 0.036471773, 0.031176854, 0.010565334, -0.031934105, 0.040122863, -0.06379407, 0.044342246, 0.04073946, -0.021466719, 0.025574587, -0.021654632, 0.046992477, 0.058090597, 0.06640105, -0.04876766, -0.04597938, -0.025303705, 0.020844655, 0.06855848, 0.027696105, 0.057432964, -0.008791145, 0.08415555, 0.040530857, -0.03268089, 0.0031516696, 0.08007628, -0.015384263, 0.069120646, 0.018068124, -0.01564867, -0.050218772, -0.056753144, 0.018504007, 0.059578866, -0.016051166, -0.011228646, 0.0377151, 0.014456028, -0.00783401, -0.037822075, 0.003378604, -0.015648492, -0.011853591, -0.013867112, 0.037473306, -0.06936102, 0.035639275, -0.0020284976, -0.11812128, -0.035693757, -0.010610292, 0.012777836, 0.016179092, -0.019431759, 0.009726626, -0.037333768, -0.011913148, -0.058172204, -0.004168612, -0.0130165955, -0.053592023, -0.007202123, 0.0023998902, -0.06505873, 0.014085107, 0.034327555, -0.0026006338, -0.001957887, 0.027397383, 0.031181527, 0.01171899, 0.0810028, 0.006662055, -0.0043524955, -0.017261745, -0.025789456, -0.05640009, 0.012051642, -0.025844337, -0.06584741, 0.09167047, -0.060145743, 0.036967084, -0.0715092, -0.008438009, 0.017179394, 0.041634243, -0.050999273, -0.0063860286, -0.01989634, -0.0035957487, 0.045440156, -0.15859093, -0.012270549, 0.037259344, 0.047322743, 0.012959136, -0.00081559183, 0.016564367, -0.03631021, 0.1277642, 0.09299814, 0.07051632, 0.06979384, 0.08124761, 0.0064615957, 0.026552668, 0.053359132, 0.009036509, -0.0077744024, 0.059467915, 0.009306732, -0.042180315, -0.01269919, 0.0103103975, -0.039827492, 0.080845594, -0.030881567, 0.0032068535, -0.013607966, -0.0019881234, 0.04310366, 0.031543136, 0.01595691, -0.019117178, -0.0069050747, -0.020222973, 0.037429113, 0.010831404, 0.012291619, 0.026641794, 0.020522444, 0.03626344, -0.06203976, -0.043648582, -0.010651625, -0.01667297, 0.020856608, -0.024992434, -0.0040666675, 0.03760182, 0.08072843, -0.04767948, 0.021213738, 0.0029890127, 0.027899735, -0.047147986, -0.056379825, -0.03841652, -0.01405063, -0.07429223, 0.000447012, 0.0082636215, 0.0049961745, -0.002525855, -0.042429738, -0.02923765, 0.04315906, -0.045408443, -0.15432511, -0.047063615, -0.03647574, 0.062223356, -0.049260724, -0.036857013, 0.031550456, -0.013859679, 0.014909932, 0.02945892, 0.0053827567, -0.023865089, 0.020166384, -0.0178979, 0.0093060415, 0.020995399, 0.03480219, -0.013659102, 0.018839631, -0.012388562, -0.095819965, 0.00066655234, 0.0316706, -0.063018344, 0.022968937, 0.082171306, -0.093537524, -0.005883809, -0.049624354, -0.032837793, 0.021749081, -0.067202814, -0.03312635, -0.0012656022, -0.017218405, 0.027997356, -0.022570187, -0.045266196, 0.06479776, 4.876498e-05, 0.09874414, -4.8656948e-05, 0.0093409885, 0.0092544705, 0.014935514, 0.01742943, 0.04476517, -0.016032863, -0.04192283, -0.015662765, -0.0014466102, 0.03733401, 0.008998011, -0.0046854494, -0.0054345853, 0.029515125, 0.05773206, 0.00045571834, -0.0054399692, 0.023377879, -0.0010622932, -0.009438486, -0.044644322, -0.037531212, 0.055505235, -0.0009047813, -0.020321058, 0.037210822, 0.0727534, -0.0021967755, -0.0030335768, -0.020876596, 0.0650626, -0.04751217, -0.05433897, 0.01939502, 0.016041512, -0.0021854101, -0.021937415, -0.002227372, -0.005010102, -0.024564143, -0.039998315, -0.018290853, -0.023524543, 0.028615309, 0.021364948, -0.05754211, 0.08328563, 0.08817306, 0.04528251, -0.07951237, -0.013295148, 0.011123017, -0.0049284487, 0.011220532, -0.004024122, -0.0274744, -0.014177527, -0.0667455, -0.071669504, 0.01100482, -0.020061355, 0.030831717, -0.05617613, -0.032005977, -0.07578131, 0.0407221, -0.02419854, -0.016967323, -0.048686862, -0.041945454, 0.019323159, 0.025803853, -0.009400713, -0.047265675, 0.01236825, -0.015603885, -0.005621118, 0.03091223, 0.087815, 0.06305255, 0.017737648, 0.010424343, -0.011926601, 0.008153294, -0.0651261, -0.06717943, -0.01588388, -0.055323068, 0.09157274, 0.017029077, -0.080938295, 0.06642213, 0.08434894, -0.00021419674, -0.003926559, -0.02590744, 0.04125173, -0.08470133, -0.0119591765, -0.025788622, 0.036325794, 0.050622918, -0.043221008, -0.046815977, 0.030834902, -0.036660552, -0.014080238, -0.007255988, -0.044412132, -0.06049647, -0.04788922, -0.011234508, 0.061822735, 0.05135005, 0.023799388, -0.024923462, -0.023508834, -0.0459446, 0.014952503, 0.019494263, -0.02302361, -0.063657284, 0.0040280395, -0.030820332, 0.0036269429, -0.044057906, -0.04585587, 0.03438751, -0.016938258, -0.017455328, 0.043292515, 0.004525107, -0.03242331, -0.020132529, -0.06320147, -0.0091006365, 0.02622509, 0.027284542, -0.039119557, 0.083652474, 0.0076152356, 0.0067070946, -0.058023285, -0.031520974, -0.025645787, 0.018576106, 0.06404264, -0.012331421, 0.04116459, 0.033964433, -0.056371782, 0.0074559166, -0.026592562, 0.0073767914, 0.07315206, 0.0426076, -0.018466111, -0.0031186903, -0.032905545, -0.01937174, 0.0040793177, -0.025414996, -0.021121904, 0.09658488, -0.031451944, 0.017261863, -0.023183724, -0.0743983, 0.017432991, 0.020252518, -0.01581073, 0.01521943, 0.08502739, 0.036199756, -0.005248764, 0.029389367, -0.060836256, 0.06018441, -0.0048310575, 0.05104954, -0.07846324, 0.0034405445, -0.024198221, 0.07132651, 0.08609727, -0.039988093, 0.05128065, 0.021318976, 0.013107404, -0.01326995, 0.016627729, -0.09487523, 0.004118803, -0.0559226, 0.009153246, 0.06516008, -0.006526757, -0.02105092, -0.031648763, -0.004015414, -0.018401707, 0.007511144, 0.009682435, -0.0049607474, -0.019675028, -0.012066144, -0.041525926, -0.021582246, 0.009209614, -0.10153276, -0.0052225525, 0.017189473, 0.055952426]</t>
         </is>
       </c>
     </row>
@@ -4904,33 +4903,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>한국산업식품공학회</t>
+          <t>한국식품과학회</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>김유정</t>
+          <t>임정택</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Thermo-rheological characterization of native starch: comparison of tapioca, rice, and corn starches</t>
+          <t xml:space="preserve">Evaluation of natural waxes as oil-structuring agents in oleogels: rheological, thermal, and oxidative properties
+</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>As a primary energy source for human, starch that exists in a number of botanical sources, provides 70 – 80% of the calories consumed by the human. However, since the structure and property of starch depend on its sources, the use of different starch in food products can cause dramatic effects on their quality attributes. Thus, in this study three different native starches from various sources (tapioca, rice, and corn) were analyzed in terms of thermo-rheological properties. When starch suspensions were subjected to steady-shear conditions, they showed shear-thinning properties. Also, the pasting results showed that tapioca starch exhibited higher gelatinization peak, followed by rice and corn starches while the lowest onset temperature of gelatinization was observed in the rice starch. The same trend was readily found in the DSC results. In addition, in the dynamic viscoelastic measurements, the elastic property of starch was enhanced by starch gelatinization, which was confirmed by tan.</t>
+          <t>Recently, a new technique named organogelation has been receiving much attention in order to structure edible oils by using a variety of organogelators. Especially, an interest in nature waxes is recently on the rise since they are approved as food additives. In this study, natural waxes were used as canola oil structurants to produce oleogels and their rheological, thermal, and oxidative properties were characterized. The highest value of hardness was measured in the oleogels with candelilla wax. The viscosities of oleogels were measured as a function of temperature, showing the highest sensitivity of carnauba wax oleogels to the temperature change. The viscoelastic patterns over temperature were different depending on the samples. When the oleogel samples were subjected to the accelerated storage conditions, the lowest peroxide values were measured in the candelilla wax oleogel. In the study, the physicochemical properties of oleogels were observed depending on the types of natural wax. The results obtained in this study can encourage the food industry to develop new food products with natural wax-incorporated oleogels by providing their fundamental information.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[-0.024561748, 0.034226518, 0.024925314, -0.025790475, 0.08064593, -0.004350692, -0.036131956, -0.055089183, 0.009036552, -0.0038158381, 0.004451186, -0.11300999, -0.032135747, 0.039015032, -0.018539775, 0.053043142, 0.039118264, 0.020027038, -0.05150264, 0.0018967905, -0.020978142, 0.0054161744, -0.039003137, -0.008451752, 0.09882203, -0.04007201, 0.0037984818, -0.055233996, -0.025480365, -0.011621451, -0.0027832615, -0.026964221, 0.013107815, -0.021475041, -0.02693536, -0.06916747, 0.026145095, -0.051477227, 0.04143646, -0.06611816, -0.043214634, 0.011598707, -0.005295518, 0.045578927, -0.03192152, 0.0016751442, -0.015112753, -0.0011611788, -0.09392136, -0.0045844335, -0.020530613, -0.02799238, -0.020127248, -0.03076834, 0.04842675, -0.01735811, -0.050888814, -0.045760076, -0.010462443, -0.041512694, -0.051238846, 0.012810655, -0.044804484, 0.009565883, -0.05197447, -0.003764739, 0.013079245, 0.0073733465, 0.008319947, -0.032564484, -0.0036463349, 0.006441452, -0.056258008, 0.0015745525, -0.074468255, 0.01706655, 0.027476761, -0.05232102, -0.014959314, -0.020373499, 0.025198894, -0.086031206, 0.050170664, 0.0075566783, -0.047202017, 0.059805024, -0.05914516, 0.00019410672, -0.027854979, -0.0070256297, 0.027538871, 0.009404173, 0.089794196, 0.015884222, 0.014450377, -0.0021744038, 0.09393818, 0.09059233, 0.04779764, 0.007825328, -0.031235596, 0.06864324, -0.046830386, -0.003561929, -0.00020288909, -0.027085867, 0.017770322, -0.0045647873, -0.0026768902, -0.0132167395, 0.0069240467, -0.07602383, 0.026960915, -0.058678303, -0.056886356, 0.016196396, 0.021708017, -0.030857677, 0.0037412674, 0.0364795, -0.015037362, -0.020920722, 0.03381811, 0.08877341, -0.013877222, -0.0117995385, 0.026221823, -0.043845676, -0.006901868, 0.0038400742, 0.06978167, 0.046907306, -0.024365954, 0.097329676, 0.020396646, 0.06246836, 0.032246485, 0.0019934385, -0.012492462, 0.012095081, 0.011900932, -0.019023687, 0.029403033, -0.07331319, -0.020103056, -0.013700422, -0.016063105, 0.027875483, -0.0025109684, 0.009141701, -0.033733707, 0.017573241, 0.008696127, -0.02845949, -0.024180569, -0.05412434, 0.03602135, 0.048507854, -0.03475374, 0.0070688925, 0.002814048, -0.017932897, -0.06285937, 0.0052410914, -0.008906604, -0.038981423, 0.09871792, 0.027686808, -0.021151943, 0.036974367, -0.026574524, -0.023464654, 0.029177342, -0.025962127, 0.02516016, -0.038755696, -0.028480327, -0.013032778, 0.07561945, -0.045772333, -0.0050370093, -0.018867072, 0.026010554, -0.024942728, -0.0052057095, -0.080027275, -0.0009199847, -0.019594384, 0.04830275, -0.03129165, -0.09438702, -0.004090823, 0.0019005372, 0.016181167, -0.002221765, 0.046692945, 0.04413703, -0.042676467, 0.014324175, 0.03806784, 0.031692766, 0.02203351, 0.027749771, 0.012475097, 0.0791218, -0.015876, 0.0122398455, 0.007383285, 0.031309307, 0.007200856, -0.002790526, 0.004729697, 0.05666463, -0.045990888, 0.011787703, -0.020737555, 0.018296096, -0.03402093, 0.02221991, 0.029394079, -0.040470496, 0.015846087, 0.003028749, 0.0007486978, -0.044681117, 0.0022462273, 0.043293465, -0.075065106, -0.08611159, 0.019727567, 0.020835562, -0.036226816, -0.004176261, 0.004130426, 0.039080698, 0.002225296, -5.7067256e-05, 0.08275055, 0.039180987, 0.051533442, -0.029479304, -0.0014367802, 0.0030548496, -0.017606057, -0.0016226879, 0.014637542, -0.063073196, -0.035141945, -0.013004123, -0.015660698, -0.020292355, 0.028572634, -0.00898581, -0.0020078367, 0.0034697314, -0.032981858, 0.025476906, -0.019505527, -0.09344382, -0.0062516723, 0.0049212608, 0.028598107, -0.07926983, 0.011543092, -0.016557677, -0.0051940745, 0.026374416, -0.0064904476, -0.02983744, 0.027056195, -0.06604296, 0.015664712, 0.036379654, 0.011025949, -0.01625775, -0.004009516, -0.0433027, -0.10630426, 0.015415482, 0.022394044, -0.06852881, 0.00024030573, 0.019053241, -0.051420145, -0.047348678, -0.028041594, -0.025861032, 0.021140194, -0.08193068, -0.14714058, -0.006890649, 0.026420923, 0.05390919, 0.053201243, -0.057839658, 0.031648368, 0.018228512, 0.05994254, 0.016293395, -0.022070304, 0.06502678, 0.039928243, -0.030397808, 0.050789062, 0.039093524, 0.0185486, -0.035414238, 0.006334074, -0.0024319307, 0.039665945, -0.03581196, -0.00654552, 0.03887927, 0.07210664, 0.012112072, 0.060934685, -0.018672766, 0.043728124, -0.04166601, -0.03975331, 0.005507508, 0.034086224, -0.007922832, -0.019574745, 0.004505688, 0.07184376, -0.02440899, 0.0055775386, -0.023958612, 0.057815526, 0.014773209, -0.024986237, -0.027615862, -0.004594409, 0.0056657745, -0.00877854, -0.029856352, 0.04802278, 0.010784564, -0.016635586, -0.045266584, 0.013432823, 0.021829996, 0.039890062, -0.048126463, 0.070262335, 0.094409004, 0.087630875, -0.09969359, 0.0151484, 0.021962686, -0.032200415, 0.03980525, -0.007193223, -0.044487745, -0.03959071, -0.03559268, -0.017626844, 0.0056928517, -0.04663043, 0.008604962, -0.0043484843, -0.008824686, -0.009577939, 0.0033417859, -0.04971833, -0.04037723, 0.01606303, -0.02976201, -0.011893911, 0.009771093, -0.03156527, -0.04540315, 0.037146892, 0.006193743, -0.02046704, 0.0034211846, 0.09812954, 0.033316154, 0.05359291, 0.06251852, 0.030587232, 0.018712675, -0.018917365, -0.059503525, -0.042069633, -0.07048901, 0.0045926548, 0.041960042, 0.01584572, 0.032641616, 0.06928626, -0.03838477, 0.012870617, 0.025375344, 0.036729857, -0.09215919, 0.026958607, 0.018221607, 0.009616224, 0.03642433, -0.008316711, -0.040117525, -0.077585645, 0.019292515, 0.01741044, -0.0051202304, 0.010697136, -0.08544301, -0.044500526, 0.010598843, -0.006149644, -0.02853528, 0.015806643, 0.031073855, 0.026659356, -0.0006556369, 0.0013934018, 0.047014598, -0.028241199, -0.037836943, 0.05576306, -0.03569903, -0.0073059923, 0.0127108935, -0.043273315, 0.011207672, -0.0944235, 0.016017022, 0.016975943, -0.042747844, -0.07609791, 0.029255873, -0.058396954, -0.017952358, -0.051711556, 0.02979338, 0.027392155, 0.028337196, 0.0098319985, 0.023543306, -0.04359619, 0.044565607, 0.022100609, 0.015784116, 0.009939472, 0.011325852, 0.07006268, 0.020792125, 0.0076919054, -0.010540499, -0.042011075, 0.007761452, 0.03287819, 0.052819923, -0.016040705, -0.0702123, 0.027876128, 0.027376529, -0.051996, -0.00559841, -0.032977313, 0.06119074, 0.036139913, 0.0014068788, -0.0011161631, -0.010083344, 0.039143335, 0.030778538, 0.022697939, 0.0020074449, 0.050451677, 0.0073675374, 0.0033821869, -0.03619098, -0.027278487, 0.017452996, -0.05011528, -0.006279648, -0.038758405, 0.057701573, -0.016956318, 0.03393113, 0.052858107, -0.013660807, 0.047845412, 0.037676748, -0.009047885, -0.09253054, 0.024595072, -0.029114114, 0.06856981, -0.09383165, -0.0015228058, 0.06693333, -0.01969878, -0.057116024, -0.040379915, 0.021649735, 0.012443503, 0.07262119, -0.0068786796, -0.037033357, 0.022273952, -0.054631162, -0.055206172, 0.07876068, 0.018774781, -0